--- a/Assets/06.Table/SuhopetTable.xlsx
+++ b/Assets/06.Table/SuhopetTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E8064E-1E9E-480A-A739-2277969CFFF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E584F8-1868-4200-B873-FA0F860AC3EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="605" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="605" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SuhopetTable" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="376">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -274,10 +274,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>무과금</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>과금</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -853,12 +849,6 @@
   </si>
   <si>
     <t>750,1500,3000,4500,5250,10500</t>
-  </si>
-  <si>
-    <t>1E+117,2E+117,5E+117,2E+118,1E+119</t>
-  </si>
-  <si>
-    <t>10섬,20섬,50섬,200섬,1000섬</t>
   </si>
   <si>
     <t>특별펫 복붙용(해당 칼럼에 맞게 복붙, 복사 후 ctr+alt+v -&gt; alt+v)</t>
@@ -981,12 +971,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10찰,20찰,50찰,200찰,1000찰</t>
-  </si>
-  <si>
-    <t>1E+121,2E+121,5E+121,2E+122,1E+123</t>
-  </si>
-  <si>
     <t>390,390,390,390,390</t>
   </si>
   <si>
@@ -1202,78 +1186,6 @@
     <t>888,1776,3552,5328,6216</t>
   </si>
   <si>
-    <t>1E+61,2E+61,5E+61,2E+62,1E+63</t>
-  </si>
-  <si>
-    <t>10나,20나,50나,200나,1000나</t>
-  </si>
-  <si>
-    <t>1E+65,2E+65,5E+65,2E+66,1E+67</t>
-  </si>
-  <si>
-    <t>10불,20불,50불,200불,1000불</t>
-  </si>
-  <si>
-    <t>1E+69,2E+69,5E+69,2E+70,1E+71</t>
-  </si>
-  <si>
-    <t>10무,20무,50무,200무,1000무</t>
-  </si>
-  <si>
-    <t>1E+73,2E+73,5E+73,2E+74,1E+75</t>
-  </si>
-  <si>
-    <t>10대,20대,50대,200대,1000대</t>
-  </si>
-  <si>
-    <t>1E+77,2E+77,5E+77,2E+78,1E+79</t>
-  </si>
-  <si>
-    <t>10겁,20겁,50겁,200겁,1000겁</t>
-  </si>
-  <si>
-    <t>1E+81,2E+81,5E+81,2E+82,1E+83</t>
-  </si>
-  <si>
-    <t>10업,20업,50업,200업,1000업</t>
-  </si>
-  <si>
-    <t>1E+85,2E+85,5E+85,2E+86,1E+87</t>
-  </si>
-  <si>
-    <t>10긍,20긍,50긍,200긍,1000긍</t>
-  </si>
-  <si>
-    <t>1E+89,2E+89,5E+89,2E+90,1E+91</t>
-  </si>
-  <si>
-    <t>10갈,20갈,50갈,200갈,1000갈</t>
-  </si>
-  <si>
-    <t>1E+93,2E+93,5E+93,2E+94,1E+95</t>
-  </si>
-  <si>
-    <t>10라,20라,50라,200라,1000라</t>
-  </si>
-  <si>
-    <t>1E+97,2E+97,5E+97,2E+98,1E+99</t>
-  </si>
-  <si>
-    <t>10가,20가,50가,200가,1000가</t>
-  </si>
-  <si>
-    <t>1E+101,2E+101,5E+101,2E+102,1E+103</t>
-  </si>
-  <si>
-    <t>10언,20언,50언,200언,1000언</t>
-  </si>
-  <si>
-    <t>1E+105,2E+105,5E+105,2E+106,1E+107</t>
-  </si>
-  <si>
-    <t>10승,20승,50승,200승,1000승</t>
-  </si>
-  <si>
     <t>1E+109,2E+109,5E+109,2E+110,1E+111</t>
   </si>
   <si>
@@ -1299,6 +1211,152 @@
   </si>
   <si>
     <t>0.08,0.48,1.27,2.85,5.22,7.98</t>
+  </si>
+  <si>
+    <t>1E+61,2E+61,5E+61,1E+62,2E+62</t>
+  </si>
+  <si>
+    <t>1E+65,2E+65,5E+65,1E+66,2E+66</t>
+  </si>
+  <si>
+    <t>1E+69,2E+69,5E+69,1E+70,2E+70</t>
+  </si>
+  <si>
+    <t>1E+73,2E+73,5E+73,1E+74,2E+74</t>
+  </si>
+  <si>
+    <t>1E+77,2E+77,5E+77,1E+78,2E+78</t>
+  </si>
+  <si>
+    <t>1E+81,2E+81,5E+81,1E+82,2E+82</t>
+  </si>
+  <si>
+    <t>1E+85,2E+85,5E+85,1E+86,2E+86</t>
+  </si>
+  <si>
+    <t>1E+89,2E+89,5E+89,1E+90,2E+90</t>
+  </si>
+  <si>
+    <t>1E+93,2E+93,5E+93,1E+94,2E+94</t>
+  </si>
+  <si>
+    <t>1E+97,2E+97,5E+97,1E+98,2E+98</t>
+  </si>
+  <si>
+    <t>1E+101,2E+101,5E+101,1E+102,2E+102</t>
+  </si>
+  <si>
+    <t>1E+105,2E+105,5E+105,1E+106,2E+106</t>
+  </si>
+  <si>
+    <t>1E+109,2E+109,5E+109,1E+110,2E+110</t>
+  </si>
+  <si>
+    <t>10나,20나,50나,100나,200나</t>
+  </si>
+  <si>
+    <t>10불,20불,50불,100불,200불</t>
+  </si>
+  <si>
+    <t>10무,20무,50무,100무,200무</t>
+  </si>
+  <si>
+    <t>10대,20대,50대,100대,200대</t>
+  </si>
+  <si>
+    <t>10겁,20겁,50겁,100겁,200겁</t>
+  </si>
+  <si>
+    <t>10업,20업,50업,100업,200업</t>
+  </si>
+  <si>
+    <t>10긍,20긍,50긍,100긍,200긍</t>
+  </si>
+  <si>
+    <t>10갈,20갈,50갈,100갈,200갈</t>
+  </si>
+  <si>
+    <t>10라,20라,50라,100라,200라</t>
+  </si>
+  <si>
+    <t>10가,20가,50가,100가,200가</t>
+  </si>
+  <si>
+    <t>10언,20언,50언,100언,200언</t>
+  </si>
+  <si>
+    <t>10승,20승,50승,100승,200승</t>
+  </si>
+  <si>
+    <t>10마,20마,50마,100마,200마</t>
+  </si>
+  <si>
+    <t>10살,20살,50살,100살,200살</t>
+  </si>
+  <si>
+    <t>1E+113,2E+113,5E+113,1E+114,2E+114</t>
+  </si>
+  <si>
+    <t>위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1E+117,2E+117,5E+117,1E+118,2E+118</t>
+  </si>
+  <si>
+    <t>1E+121,2E+121,5E+121,1E+122,2E+122</t>
+  </si>
+  <si>
+    <t>10섬,20섬,50섬,100섬,200섬</t>
+  </si>
+  <si>
+    <t>10찰,20찰,50찰,100찰,200찰</t>
+  </si>
+  <si>
+    <t>p25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1E+129,2E+129,5E+129,1E+130,2E+130</t>
+  </si>
+  <si>
+    <t>10위,20위,50위,100위,200위</t>
+  </si>
+  <si>
+    <t>18단계</t>
+  </si>
+  <si>
+    <t>450,450,450,450,450</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펫18</t>
+  </si>
+  <si>
+    <t>1042,2084,4167,6250,7292,14584</t>
+  </si>
+  <si>
+    <t>18단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.09,0.47,1.23,2.74,4.99,7.62,12.88</t>
+  </si>
+  <si>
+    <t>천신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2112,10 +2170,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:U26"/>
+  <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2186,16 +2244,16 @@
         <v>36</v>
       </c>
       <c r="R1" s="37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="S1" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="U1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="33">
@@ -2206,25 +2264,25 @@
         <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D2" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E2" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F2" s="40" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>37</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>17</v>
@@ -2239,7 +2297,7 @@
         <v>49</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="O2" s="4">
         <v>6</v>
@@ -2248,19 +2306,19 @@
         <v>9016</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="R2" s="4">
         <v>56</v>
       </c>
       <c r="S2" s="50" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T2" s="51" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="U2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="33">
@@ -2271,25 +2329,25 @@
         <v>27</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D3" s="43" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E3" s="43" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F3" s="40" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="I3" s="35" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>17</v>
@@ -2304,7 +2362,7 @@
         <v>49</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="O3" s="4">
         <v>6</v>
@@ -2313,19 +2371,19 @@
         <v>9016</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="R3" s="4">
         <v>57</v>
       </c>
       <c r="S3" s="50" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T3" s="51" t="s">
+        <v>230</v>
+      </c>
+      <c r="U3" t="s">
         <v>233</v>
-      </c>
-      <c r="U3" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="33">
@@ -2336,25 +2394,25 @@
         <v>28</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F4" s="40" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="I4" s="35" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>17</v>
@@ -2369,7 +2427,7 @@
         <v>49</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="O4" s="4">
         <v>6</v>
@@ -2378,19 +2436,19 @@
         <v>9016</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="R4" s="4">
         <v>58</v>
       </c>
       <c r="S4" s="50" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T4" s="51" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="U4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="33">
@@ -2401,25 +2459,25 @@
         <v>29</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="I5" s="35" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>17</v>
@@ -2434,7 +2492,7 @@
         <v>49</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="O5" s="4">
         <v>6</v>
@@ -2443,19 +2501,19 @@
         <v>9016</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="R5" s="4">
         <v>59</v>
       </c>
       <c r="S5" s="50" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T5" s="51" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="U5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="33">
@@ -2466,25 +2524,25 @@
         <v>30</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D6" s="43" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E6" s="43" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F6" s="40" t="s">
         <v>334</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="I6" s="35" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>17</v>
@@ -2499,7 +2557,7 @@
         <v>49</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="O6" s="4">
         <v>6</v>
@@ -2508,16 +2566,16 @@
         <v>9016</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="R6" s="4">
         <v>60</v>
       </c>
       <c r="S6" s="50" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T6" s="51" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="U6" t="s">
         <v>53</v>
@@ -2531,25 +2589,25 @@
         <v>31</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E7" s="43" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F7" s="40" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="I7" s="35" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>17</v>
@@ -2564,7 +2622,7 @@
         <v>49</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="O7" s="4">
         <v>6</v>
@@ -2573,16 +2631,16 @@
         <v>9016</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="R7" s="4">
         <v>61</v>
       </c>
       <c r="S7" s="50" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T7" s="51" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="U7" t="s">
         <v>54</v>
@@ -2596,25 +2654,25 @@
         <v>32</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E8" s="43" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F8" s="40" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="I8" s="35" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>17</v>
@@ -2629,7 +2687,7 @@
         <v>49</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="O8" s="4">
         <v>6</v>
@@ -2638,16 +2696,16 @@
         <v>9016</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="R8" s="4">
         <v>62</v>
       </c>
       <c r="S8" s="50" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T8" s="51" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="U8" t="s">
         <v>55</v>
@@ -2661,25 +2719,25 @@
         <v>33</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E9" s="43" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F9" s="40" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="I9" s="35" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>17</v>
@@ -2694,7 +2752,7 @@
         <v>49</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="O9" s="4">
         <v>6</v>
@@ -2703,16 +2761,16 @@
         <v>9016</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="R9" s="4">
         <v>63</v>
       </c>
       <c r="S9" s="50" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T9" s="51" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="U9" t="s">
         <v>56</v>
@@ -2726,25 +2784,25 @@
         <v>34</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D10" s="43" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="I10" s="35" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>17</v>
@@ -2759,7 +2817,7 @@
         <v>49</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="O10" s="4">
         <v>6</v>
@@ -2768,16 +2826,16 @@
         <v>9016</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="R10" s="4">
         <v>64</v>
       </c>
       <c r="S10" s="50" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T10" s="51" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>58</v>
@@ -2791,25 +2849,25 @@
         <v>35</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F11" s="40" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="I11" s="35" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>17</v>
@@ -2824,7 +2882,7 @@
         <v>49</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="O11" s="4">
         <v>6</v>
@@ -2833,16 +2891,16 @@
         <v>9016</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="R11" s="4">
         <v>65</v>
       </c>
       <c r="S11" s="50" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T11" s="51" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="U11" t="s">
         <v>60</v>
@@ -2853,28 +2911,28 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>158</v>
-      </c>
       <c r="D12" s="43" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F12" s="40" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="I12" s="35" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>17</v>
@@ -2889,7 +2947,7 @@
         <v>49</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="O12" s="4">
         <v>6</v>
@@ -2898,19 +2956,19 @@
         <v>9016</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="R12" s="4">
         <v>66</v>
       </c>
       <c r="S12" s="50" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T12" s="51" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="U12" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="33">
@@ -2918,31 +2976,31 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="E13" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>341</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="I13" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="D13" s="43" t="s">
-        <v>169</v>
-      </c>
-      <c r="E13" s="43" t="s">
-        <v>169</v>
-      </c>
-      <c r="F13" s="40" t="s">
-        <v>348</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="I13" s="35" t="s">
-        <v>310</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="K13" s="43">
         <v>9016</v>
@@ -2954,7 +3012,7 @@
         <v>49</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="O13" s="4">
         <v>6</v>
@@ -2963,19 +3021,19 @@
         <v>9016</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="R13" s="4">
         <v>67</v>
       </c>
       <c r="S13" s="50" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T13" s="51" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="U13" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="33">
@@ -2983,31 +3041,31 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D14" s="43" t="s">
         <v>171</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D14" s="43" t="s">
-        <v>172</v>
-      </c>
       <c r="E14" s="43" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F14" s="40" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="I14" s="35" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K14" s="43">
         <v>9016</v>
@@ -3019,7 +3077,7 @@
         <v>49</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="O14" s="4">
         <v>6</v>
@@ -3028,19 +3086,19 @@
         <v>9016</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="R14" s="4">
         <v>68</v>
       </c>
       <c r="S14" s="50" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T14" s="51" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="U14" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="33">
@@ -3048,31 +3106,31 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E15" s="43" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F15" s="40" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="I15" s="35" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K15" s="43">
         <v>9016</v>
@@ -3084,7 +3142,7 @@
         <v>49</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="O15" s="4">
         <v>6</v>
@@ -3093,19 +3151,19 @@
         <v>9016</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="R15" s="4">
         <v>69</v>
       </c>
       <c r="S15" s="50" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T15" s="51" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="U15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="33">
@@ -3113,31 +3171,31 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D16" s="43" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E16" s="43" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F16" s="53" t="s">
-        <v>350</v>
+        <v>321</v>
       </c>
       <c r="G16" s="52" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
       <c r="H16" s="54" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="I16" s="55" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J16" s="52" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K16" s="43">
         <v>9016</v>
@@ -3149,7 +3207,7 @@
         <v>49</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="O16" s="4">
         <v>5</v>
@@ -3158,19 +3216,19 @@
         <v>9016</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="R16" s="4">
         <v>-1</v>
       </c>
       <c r="S16" s="50" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T16" s="51" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="U16" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="33">
@@ -3178,31 +3236,31 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D17" s="43" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E17" s="43" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F17" s="53" t="s">
-        <v>352</v>
+        <v>323</v>
       </c>
       <c r="G17" s="52" t="s">
-        <v>353</v>
+        <v>324</v>
       </c>
       <c r="H17" s="54" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="I17" s="55" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J17" s="52" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K17" s="43">
         <v>9016</v>
@@ -3214,7 +3272,7 @@
         <v>49</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="O17" s="4">
         <v>5</v>
@@ -3223,19 +3281,19 @@
         <v>9016</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="R17" s="4">
         <v>-1</v>
       </c>
       <c r="S17" s="50" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T17" s="51" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="U17" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="33">
@@ -3243,31 +3301,31 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D18" s="43" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E18" s="43" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F18" s="53" t="s">
-        <v>350</v>
+        <v>321</v>
       </c>
       <c r="G18" s="52" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
       <c r="H18" s="54" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="I18" s="55" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J18" s="52" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K18" s="43">
         <v>9016</v>
@@ -3279,7 +3337,7 @@
         <v>49</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="O18" s="4">
         <v>5</v>
@@ -3288,19 +3346,19 @@
         <v>9016</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="R18" s="4">
         <v>-1</v>
       </c>
       <c r="S18" s="50" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T18" s="51" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="U18" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="33">
@@ -3308,31 +3366,31 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D19" s="43" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E19" s="43" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F19" s="53" t="s">
-        <v>352</v>
+        <v>323</v>
       </c>
       <c r="G19" s="52" t="s">
-        <v>353</v>
+        <v>324</v>
       </c>
       <c r="H19" s="54" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="I19" s="55" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J19" s="52" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K19" s="43">
         <v>9016</v>
@@ -3344,7 +3402,7 @@
         <v>49</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="O19" s="4">
         <v>5</v>
@@ -3353,19 +3411,19 @@
         <v>9016</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="R19" s="4">
         <v>-1</v>
       </c>
       <c r="S19" s="50" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T19" s="51" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="U19" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="33">
@@ -3373,31 +3431,31 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>195</v>
-      </c>
       <c r="D20" s="43" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E20" s="43" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F20" s="40" t="s">
-        <v>219</v>
+        <v>362</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>220</v>
+        <v>364</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="I20" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K20" s="43">
         <v>9016</v>
@@ -3409,7 +3467,7 @@
         <v>49</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O20" s="4">
         <v>6</v>
@@ -3418,19 +3476,19 @@
         <v>9016</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="R20" s="4">
         <v>70</v>
       </c>
       <c r="S20" s="50" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T20" s="51" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="U20" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="33">
@@ -3438,31 +3496,31 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>249</v>
+      </c>
+      <c r="E21" s="43" t="s">
+        <v>249</v>
+      </c>
+      <c r="F21" s="40" t="s">
+        <v>363</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="I21" s="35" t="s">
         <v>252</v>
       </c>
-      <c r="D21" s="43" t="s">
-        <v>252</v>
-      </c>
-      <c r="E21" s="43" t="s">
-        <v>252</v>
-      </c>
-      <c r="F21" s="40" t="s">
-        <v>256</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="I21" s="35" t="s">
-        <v>257</v>
-      </c>
       <c r="J21" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K21" s="43">
         <v>9016</v>
@@ -3474,7 +3532,7 @@
         <v>49</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="O21" s="4">
         <v>6</v>
@@ -3483,19 +3541,19 @@
         <v>9016</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="R21" s="4">
         <v>101</v>
       </c>
       <c r="S21" s="50" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T21" s="51" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="U21" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="33">
@@ -3503,31 +3561,31 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>265</v>
+      </c>
+      <c r="E22" s="43" t="s">
+        <v>265</v>
+      </c>
+      <c r="F22" s="53" t="s">
+        <v>259</v>
+      </c>
+      <c r="G22" s="52" t="s">
         <v>260</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="D22" s="43" t="s">
-        <v>270</v>
-      </c>
-      <c r="E22" s="43" t="s">
-        <v>270</v>
-      </c>
-      <c r="F22" s="53" t="s">
-        <v>264</v>
-      </c>
-      <c r="G22" s="52" t="s">
-        <v>265</v>
-      </c>
       <c r="H22" s="54" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="I22" s="55" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J22" s="52" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K22" s="43">
         <v>9016</v>
@@ -3539,7 +3597,7 @@
         <v>49</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>355</v>
+        <v>326</v>
       </c>
       <c r="O22" s="4">
         <v>5</v>
@@ -3548,19 +3606,19 @@
         <v>9016</v>
       </c>
       <c r="Q22" s="4" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="R22" s="4">
         <v>-1</v>
       </c>
       <c r="S22" s="50" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T22" s="51" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="U22" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="33">
@@ -3568,31 +3626,31 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D23" s="43" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E23" s="43" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F23" s="53" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G23" s="52" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="H23" s="54" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="I23" s="55" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J23" s="52" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K23" s="43">
         <v>9016</v>
@@ -3604,7 +3662,7 @@
         <v>49</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>356</v>
+        <v>327</v>
       </c>
       <c r="O23" s="4">
         <v>5</v>
@@ -3613,19 +3671,19 @@
         <v>9016</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="R23" s="4">
         <v>-1</v>
       </c>
       <c r="S23" s="50" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T23" s="51" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="U23" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="33">
@@ -3633,31 +3691,31 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D24" s="43" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E24" s="43" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F24" s="53" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G24" s="52" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="H24" s="54" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="I24" s="55" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J24" s="52" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K24" s="43">
         <v>9016</v>
@@ -3669,7 +3727,7 @@
         <v>49</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>357</v>
+        <v>328</v>
       </c>
       <c r="O24" s="4">
         <v>5</v>
@@ -3678,19 +3736,19 @@
         <v>9016</v>
       </c>
       <c r="Q24" s="4" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="R24" s="4">
         <v>-1</v>
       </c>
       <c r="S24" s="50" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T24" s="51" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="U24" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="33">
@@ -3698,31 +3756,31 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D25" s="43" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E25" s="43" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F25" s="53" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G25" s="52" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="H25" s="54" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="I25" s="55" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J25" s="52" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K25" s="43">
         <v>9016</v>
@@ -3734,7 +3792,7 @@
         <v>49</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>358</v>
+        <v>329</v>
       </c>
       <c r="O25" s="4">
         <v>5</v>
@@ -3743,19 +3801,19 @@
         <v>9016</v>
       </c>
       <c r="Q25" s="4" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="R25" s="4">
         <v>-1</v>
       </c>
       <c r="S25" s="50" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T25" s="51" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="U25" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="33">
@@ -3763,31 +3821,31 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D26" s="43" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E26" s="43" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F26" s="40" t="s">
+        <v>269</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="H26" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>279</v>
-      </c>
       <c r="I26" s="35" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K26" s="43">
         <v>9016</v>
@@ -3799,7 +3857,7 @@
         <v>49</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>354</v>
+        <v>325</v>
       </c>
       <c r="O26" s="4">
         <v>6</v>
@@ -3808,19 +3866,84 @@
         <v>9016</v>
       </c>
       <c r="Q26" s="4" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="R26" s="4">
         <v>102</v>
       </c>
       <c r="S26" s="50" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T26" s="51" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="U26" t="s">
-        <v>268</v>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="33">
+      <c r="A27" s="2">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="D27" s="43" t="s">
+        <v>375</v>
+      </c>
+      <c r="E27" s="43" t="s">
+        <v>375</v>
+      </c>
+      <c r="F27" s="40" t="s">
+        <v>367</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="I27" s="35" t="s">
+        <v>370</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="K27" s="43">
+        <v>9016</v>
+      </c>
+      <c r="L27" s="3">
+        <v>310</v>
+      </c>
+      <c r="M27" s="4">
+        <v>49</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="O27" s="4">
+        <v>6</v>
+      </c>
+      <c r="P27" s="36">
+        <v>9016</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="R27" s="4">
+        <v>103</v>
+      </c>
+      <c r="S27" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="T27" s="51" t="s">
+        <v>230</v>
+      </c>
+      <c r="U27" t="s">
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -3844,10 +3967,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB815A5-0A26-4B2F-8716-20DE31E1881F}">
-  <dimension ref="A1:AF97"/>
+  <dimension ref="A1:AF98"/>
   <sheetViews>
-    <sheetView topLeftCell="K3" workbookViewId="0">
-      <selection activeCell="Z12" sqref="Z12:Z15"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -3927,14 +4050,14 @@
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
       <c r="G6" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="N6" s="12" t="s">
         <v>97</v>
-      </c>
-      <c r="N6" s="12" t="s">
-        <v>98</v>
       </c>
       <c r="V6" s="12"/>
       <c r="Y6" s="12" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="Z6" s="12"/>
       <c r="AA6" s="12"/>
@@ -3960,7 +4083,7 @@
         <v>44</v>
       </c>
       <c r="N7" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O7" s="27" t="s">
         <v>9</v>
@@ -3972,7 +4095,7 @@
         <v>36</v>
       </c>
       <c r="Y7" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z7" s="27" t="s">
         <v>14</v>
@@ -4019,7 +4142,7 @@
         <v>106,212,423,634,740,1480</v>
       </c>
       <c r="Y8" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Z8" s="2" t="str">
         <f t="shared" ref="Z8:Z22" si="2">Z72&amp;","&amp;AA72&amp;","&amp;AB72&amp;","&amp;AC72&amp;","&amp;AD72&amp;","&amp;AE72</f>
@@ -4070,7 +4193,7 @@
         <v>130,260,519,778,908,1816</v>
       </c>
       <c r="Y9" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Z9" s="2" t="str">
         <f t="shared" si="2"/>
@@ -4115,7 +4238,7 @@
         <v>156,312,624,936,1092,2184</v>
       </c>
       <c r="Y10" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Z10" s="2" t="str">
         <f t="shared" si="2"/>
@@ -4151,7 +4274,7 @@
         <v>210</v>
       </c>
       <c r="N11" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O11" s="2" t="str">
         <f t="shared" si="6"/>
@@ -4166,7 +4289,7 @@
         <v>185,370,740,1109,1294,2588</v>
       </c>
       <c r="Y11" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Z11" s="2" t="str">
         <f t="shared" si="2"/>
@@ -4218,7 +4341,7 @@
         <v>216,432,864,1296,1512,3024</v>
       </c>
       <c r="Y12" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Z12" s="2" t="str">
         <f t="shared" si="2"/>
@@ -4269,7 +4392,7 @@
         <v>250,500,999,1498,1748,3496</v>
       </c>
       <c r="Y13" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Z13" s="2" t="str">
         <f t="shared" si="2"/>
@@ -4314,7 +4437,7 @@
         <v>286,572,1143,1714,2000,4000</v>
       </c>
       <c r="Y14" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Z14" s="2" t="str">
         <f t="shared" si="2"/>
@@ -4358,7 +4481,7 @@
         <v>324,648,1296,1944,2268,4536</v>
       </c>
       <c r="Y15" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Z15" s="2" t="str">
         <f t="shared" si="2"/>
@@ -4407,7 +4530,7 @@
         <v>365,730,1460,2189,2554,5108</v>
       </c>
       <c r="Y16" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Z16" s="2" t="str">
         <f t="shared" si="2"/>
@@ -4454,7 +4577,7 @@
         <v>408,816,1632,2448,2856,5712</v>
       </c>
       <c r="Y17" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Z17" s="2" t="str">
         <f t="shared" si="2"/>
@@ -4475,13 +4598,13 @@
       <c r="C18" s="15"/>
       <c r="E18" s="16"/>
       <c r="G18" s="46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H18" s="46"/>
       <c r="I18" s="46"/>
       <c r="J18" s="46"/>
       <c r="N18" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O18" s="2" t="str">
         <f t="shared" ref="O18:O23" si="7">J19&amp;","&amp;J19&amp;","&amp;J19&amp;","&amp;J19&amp;","&amp;J19</f>
@@ -4496,7 +4619,7 @@
         <v>580,1160,2319,3478,4058,8116</v>
       </c>
       <c r="Y18" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Z18" s="2" t="str">
         <f t="shared" si="2"/>
@@ -4519,7 +4642,7 @@
       </c>
       <c r="E19" s="16"/>
       <c r="G19" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H19" s="12">
         <v>210</v>
@@ -4532,7 +4655,7 @@
         <v>300</v>
       </c>
       <c r="N19" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O19" s="2" t="str">
         <f t="shared" si="7"/>
@@ -4547,7 +4670,7 @@
         <v>608,1215,2429,3644,4251,8502</v>
       </c>
       <c r="Y19" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Z19" s="2" t="str">
         <f t="shared" si="2"/>
@@ -4560,17 +4683,17 @@
     </row>
     <row r="20" spans="1:30">
       <c r="A20" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B20" s="19">
         <v>50</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E20" s="16"/>
       <c r="G20" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H20" s="12">
         <v>220</v>
@@ -4584,7 +4707,7 @@
         <v>320</v>
       </c>
       <c r="N20" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O20" s="2" t="str">
         <f t="shared" si="7"/>
@@ -4599,7 +4722,7 @@
         <v>635,1270,2540,3809,4444,8888</v>
       </c>
       <c r="Y20" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Z20" s="2" t="str">
         <f t="shared" si="2"/>
@@ -4612,17 +4735,17 @@
     </row>
     <row r="21" spans="1:30">
       <c r="A21" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B21" s="19">
         <v>7</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E21" s="16"/>
       <c r="G21" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H21" s="12">
         <v>230</v>
@@ -4636,7 +4759,7 @@
         <v>340</v>
       </c>
       <c r="N21" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O21" s="2" t="str">
         <f t="shared" si="7"/>
@@ -4651,7 +4774,7 @@
         <v>692,1383,2765,4148,4839,9678</v>
       </c>
       <c r="Y21" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Z21" s="2" t="str">
         <f t="shared" si="2"/>
@@ -4664,7 +4787,7 @@
     </row>
     <row r="22" spans="1:30">
       <c r="A22" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B22" s="19">
         <v>5</v>
@@ -4672,7 +4795,7 @@
       <c r="C22" s="24"/>
       <c r="E22" s="16"/>
       <c r="G22" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H22" s="12">
         <v>240</v>
@@ -4686,7 +4809,7 @@
         <v>350</v>
       </c>
       <c r="N22" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O22" s="2" t="str">
         <f t="shared" si="7"/>
@@ -4701,7 +4824,7 @@
         <v>750,1500,3000,4500,5250,10500</v>
       </c>
       <c r="Y22" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Z22" s="2" t="str">
         <f t="shared" si="2"/>
@@ -4714,7 +4837,7 @@
     </row>
     <row r="23" spans="1:30">
       <c r="G23" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H23" s="12">
         <v>250</v>
@@ -4728,7 +4851,7 @@
         <v>360</v>
       </c>
       <c r="N23" s="12" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="O23" s="2" t="str">
         <f t="shared" si="7"/>
@@ -4745,7 +4868,7 @@
     </row>
     <row r="24" spans="1:30">
       <c r="G24" s="12" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H24" s="12">
         <v>270</v>
@@ -4759,10 +4882,10 @@
         <v>390</v>
       </c>
       <c r="N24" s="12" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="O24" s="2" t="str">
-        <f t="shared" ref="O24" si="13">J25&amp;","&amp;J25&amp;","&amp;J25&amp;","&amp;J25&amp;","&amp;J25</f>
+        <f t="shared" ref="O24:O25" si="13">J25&amp;","&amp;J25&amp;","&amp;J25&amp;","&amp;J25&amp;","&amp;J25</f>
         <v>420,420,420,420,420</v>
       </c>
       <c r="P24" s="2" t="str">
@@ -4776,69 +4899,95 @@
     </row>
     <row r="25" spans="1:30">
       <c r="A25" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="15"/>
       <c r="G25" s="12" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="H25" s="12">
         <v>290</v>
       </c>
       <c r="I25" s="12">
-        <f t="shared" ref="I25" si="14">H25*$B$9*$B$18*($B$13/100)</f>
+        <f t="shared" ref="I25:I26" si="14">H25*$B$9*$B$18*($B$13/100)</f>
         <v>2088</v>
       </c>
       <c r="J25" s="12">
-        <f t="shared" ref="J25" si="15">ROUNDUP((I25/5),-1)</f>
+        <f t="shared" ref="J25:J26" si="15">ROUNDUP((I25/5),-1)</f>
         <v>420</v>
       </c>
-      <c r="R25" s="44" t="s">
-        <v>64</v>
+      <c r="N25" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="O25" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>450,450,450,450,450</v>
+      </c>
+      <c r="P25" s="2" t="str">
+        <f t="shared" ref="P25" si="16">H98&amp;","&amp;I98&amp;","&amp;J98&amp;","&amp;K98&amp;","&amp;L98&amp;","&amp;M98&amp;","&amp;N98</f>
+        <v>0.09,0.47,1.23,2.74,4.99,7.62,12.88</v>
+      </c>
+      <c r="Q25" s="12" t="str">
+        <f t="shared" ref="Q25" si="17">H53&amp;","&amp;I53&amp;","&amp;J53&amp;","&amp;K53&amp;","&amp;L53&amp;","&amp;M53</f>
+        <v>1042,2084,4167,6250,7292,14584</v>
       </c>
       <c r="S25" s="45"/>
       <c r="T25" s="44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U25" s="45"/>
       <c r="V25" s="44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W25" s="45"/>
     </row>
     <row r="26" spans="1:30">
       <c r="A26" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
+      <c r="G26" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="H26" s="12">
+        <v>310</v>
+      </c>
+      <c r="I26" s="12">
+        <f t="shared" si="14"/>
+        <v>2232</v>
+      </c>
+      <c r="J26" s="12">
+        <f t="shared" si="15"/>
+        <v>450</v>
+      </c>
     </row>
     <row r="27" spans="1:30">
       <c r="A27" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
     </row>
     <row r="28" spans="1:30">
       <c r="A28" s="29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
     </row>
     <row r="29" spans="1:30">
       <c r="A29" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" s="30" t="s">
         <v>88</v>
-      </c>
-      <c r="B29" s="30" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:30">
       <c r="A30" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B30" s="31">
         <v>5</v>
@@ -4854,44 +5003,44 @@
     </row>
     <row r="32" spans="1:30">
       <c r="A32" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B32" s="31">
         <v>20</v>
       </c>
       <c r="G32" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q32" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="Q32" s="25" t="s">
-        <v>69</v>
-      </c>
       <c r="R32" s="26">
-        <f t="shared" ref="R32:W32" si="16">SUM(R34:R43)</f>
+        <f t="shared" ref="R32:W32" si="18">SUM(R34:R43)</f>
         <v>16.285714285714285</v>
       </c>
       <c r="S32" s="26">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>13.328571428571429</v>
       </c>
       <c r="T32" s="26">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>10.213240418118467</v>
       </c>
       <c r="U32" s="26">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>8.8857142857142843</v>
       </c>
       <c r="V32" s="26">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>6.4878048780487809</v>
       </c>
       <c r="W32" s="26">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>5.3097560975609763</v>
       </c>
       <c r="X32"/>
       <c r="Y32" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Z32" s="12"/>
       <c r="AA32" s="12"/>
@@ -4901,90 +5050,90 @@
     </row>
     <row r="33" spans="1:32" ht="17.25" thickBot="1">
       <c r="A33" s="32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B33" s="33">
         <v>30</v>
       </c>
       <c r="G33" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="H33" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="H33" s="27" t="s">
+      <c r="I33" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="I33" s="27" t="s">
+      <c r="J33" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="J33" s="27" t="s">
+      <c r="K33" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="K33" s="27" t="s">
+      <c r="L33" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="L33" s="27" t="s">
+      <c r="M33" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="N33" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="M33" s="27" t="s">
-        <v>161</v>
-      </c>
-      <c r="N33" s="27" t="s">
+      <c r="O33" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="O33" s="27" t="s">
+      <c r="P33" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="P33" s="27" t="s">
+      <c r="Q33" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="Q33" s="27" t="s">
+      <c r="R33" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="R33" s="28" t="s">
+      <c r="S33" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="S33" s="28" t="s">
+      <c r="T33" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="U33" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="T33" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="U33" s="28" t="s">
-        <v>82</v>
-      </c>
       <c r="V33" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W33" s="28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Y33" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z33" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="Z33" s="27" t="s">
+      <c r="AA33" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="AA33" s="27" t="s">
+      <c r="AB33" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="AB33" s="27" t="s">
+      <c r="AC33" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="AC33" s="27" t="s">
+      <c r="AD33" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="AD33" s="27" t="s">
-        <v>75</v>
-      </c>
       <c r="AE33" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AF33" s="27" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="34" spans="1:32" ht="17.25" thickTop="1">
       <c r="A34" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B34" s="31">
         <v>35</v>
@@ -5024,23 +5173,23 @@
         <v>50</v>
       </c>
       <c r="P34" s="12">
-        <f t="shared" ref="P34:P43" si="17">(H8*$B$9*$B$18)*(O34/100)+I8</f>
+        <f t="shared" ref="P34:P43" si="19">(H8*$B$9*$B$18)*(O34/100)+I8</f>
         <v>2112</v>
       </c>
       <c r="Q34" s="12">
-        <f t="shared" ref="Q34:Q43" si="18">P34-I8</f>
+        <f t="shared" ref="Q34:Q43" si="20">P34-I8</f>
         <v>1320</v>
       </c>
       <c r="R34" s="2">
-        <f t="shared" ref="R34:R43" si="19">(Q34/H8)/($B$18*7)</f>
+        <f t="shared" ref="R34:R43" si="21">(Q34/H8)/($B$18*7)</f>
         <v>0.8571428571428571</v>
       </c>
       <c r="S34" s="2">
-        <f t="shared" ref="S34:S43" si="20">(Q34/$H$17)/(7*$B$18)</f>
+        <f t="shared" ref="S34:S43" si="22">(Q34/$H$17)/(7*$B$18)</f>
         <v>0.47142857142857142</v>
       </c>
       <c r="T34" s="2">
-        <f t="shared" ref="T34:T42" si="21">(Q34/H8)/($B$18*7+$B$21)</f>
+        <f t="shared" ref="T34:T42" si="23">(Q34/H8)/($B$18*7+$B$21)</f>
         <v>0.5714285714285714</v>
       </c>
       <c r="U34" s="2">
@@ -5048,7 +5197,7 @@
         <v>0.31428571428571428</v>
       </c>
       <c r="V34" s="2">
-        <f t="shared" ref="V34:V43" si="22">(Q34/H8)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
+        <f t="shared" ref="V34:V43" si="24">(Q34/H8)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
         <v>0.34146341463414637</v>
       </c>
       <c r="W34" s="2">
@@ -5056,7 +5205,7 @@
         <v>0.18780487804878049</v>
       </c>
       <c r="Y34" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Z34" s="12">
         <f>ROUNDUP((AE34*$B$30/100),0)</f>
@@ -5088,7 +5237,7 @@
     </row>
     <row r="35" spans="1:32">
       <c r="A35" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B35" s="31">
         <f>SUM(B30:B34)</f>
@@ -5098,93 +5247,93 @@
         <v>18</v>
       </c>
       <c r="H35" s="12">
-        <f t="shared" ref="H35:H43" si="23">ROUNDUP((P35*$B$30/100),0)</f>
+        <f t="shared" ref="H35:H43" si="25">ROUNDUP((P35*$B$30/100),0)</f>
         <v>130</v>
       </c>
       <c r="I35" s="12">
-        <f t="shared" ref="I35:I43" si="24">ROUNDUP((P35*$B$31/100),0)</f>
+        <f t="shared" ref="I35:I43" si="26">ROUNDUP((P35*$B$31/100),0)</f>
         <v>260</v>
       </c>
       <c r="J35" s="12">
-        <f t="shared" ref="J35:J43" si="25">ROUNDUP((P35*$B$32/100),0)</f>
+        <f t="shared" ref="J35:J43" si="27">ROUNDUP((P35*$B$32/100),0)</f>
         <v>519</v>
       </c>
       <c r="K35" s="12">
-        <f t="shared" ref="K35:K43" si="26">ROUNDUP((P35*$B$33/100),0)</f>
+        <f t="shared" ref="K35:K43" si="28">ROUNDUP((P35*$B$33/100),0)</f>
         <v>778</v>
       </c>
       <c r="L35" s="12">
-        <f t="shared" ref="L35:L43" si="27">ROUNDUP((P35*$B$34/100),0)</f>
+        <f t="shared" ref="L35:L43" si="29">ROUNDUP((P35*$B$34/100),0)</f>
         <v>908</v>
       </c>
       <c r="M35" s="12">
-        <f t="shared" ref="M35:M43" si="28">L35*$B$43</f>
+        <f t="shared" ref="M35:M43" si="30">L35*$B$43</f>
         <v>1816</v>
       </c>
       <c r="N35" s="12">
-        <f t="shared" ref="N35:N43" si="29">SUM(H35:L35)</f>
+        <f t="shared" ref="N35:N43" si="31">SUM(H35:L35)</f>
         <v>2595</v>
       </c>
       <c r="O35" s="12">
         <v>60</v>
       </c>
       <c r="P35" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2592</v>
       </c>
       <c r="Q35" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1728</v>
       </c>
       <c r="R35" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.0285714285714287</v>
       </c>
       <c r="S35" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.61714285714285722</v>
       </c>
       <c r="T35" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.68571428571428572</v>
       </c>
       <c r="U35" s="2">
-        <f t="shared" ref="U35:U43" si="30">(Q35/$H$17)/($B$18*7+$B$21)</f>
+        <f t="shared" ref="U35:U43" si="32">(Q35/$H$17)/($B$18*7+$B$21)</f>
         <v>0.41142857142857148</v>
       </c>
       <c r="V35" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.40975609756097564</v>
       </c>
       <c r="W35" s="2">
-        <f t="shared" ref="W35:W43" si="31">(Q35/$H$17)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
+        <f t="shared" ref="W35:W43" si="33">(Q35/$H$17)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
         <v>0.24585365853658542</v>
       </c>
       <c r="Y35" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Z35" s="12">
-        <f t="shared" ref="Z35:Z37" si="32">ROUNDUP((AE35*$B$30/100),0)</f>
+        <f t="shared" ref="Z35:Z37" si="34">ROUNDUP((AE35*$B$30/100),0)</f>
         <v>744</v>
       </c>
       <c r="AA35" s="12">
-        <f t="shared" ref="AA35:AA37" si="33">ROUNDUP((AE35*$B$31/100),0)</f>
+        <f t="shared" ref="AA35:AA37" si="35">ROUNDUP((AE35*$B$31/100),0)</f>
         <v>1488</v>
       </c>
       <c r="AB35" s="12">
-        <f t="shared" ref="AB35:AB37" si="34">ROUNDUP((AE35*$B$32/100),0)</f>
+        <f t="shared" ref="AB35:AB37" si="36">ROUNDUP((AE35*$B$32/100),0)</f>
         <v>2976</v>
       </c>
       <c r="AC35" s="12">
-        <f t="shared" ref="AC35:AC37" si="35">ROUNDUP((AE35*$B$33/100),0)</f>
+        <f t="shared" ref="AC35:AC37" si="37">ROUNDUP((AE35*$B$33/100),0)</f>
         <v>4464</v>
       </c>
       <c r="AD35" s="12">
-        <f t="shared" ref="AD35:AD48" si="36">ROUNDUP((AE35*$B$34/100),0)</f>
+        <f t="shared" ref="AD35:AD48" si="38">ROUNDUP((AE35*$B$34/100),0)</f>
         <v>5208</v>
       </c>
       <c r="AE35" s="2">
-        <f t="shared" ref="AE35:AE48" si="37">($H$17*$B$9*$B$18)*(AF35/100)</f>
+        <f t="shared" ref="AE35:AE48" si="39">($H$17*$B$9*$B$18)*(AF35/100)</f>
         <v>14880</v>
       </c>
       <c r="AF35" s="2">
@@ -5197,93 +5346,93 @@
         <v>19</v>
       </c>
       <c r="H36" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>156</v>
       </c>
       <c r="I36" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>312</v>
       </c>
       <c r="J36" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>624</v>
       </c>
       <c r="K36" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>936</v>
       </c>
       <c r="L36" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1092</v>
       </c>
       <c r="M36" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>2184</v>
       </c>
       <c r="N36" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>3120</v>
       </c>
       <c r="O36" s="12">
         <v>70</v>
       </c>
       <c r="P36" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>3120</v>
       </c>
       <c r="Q36" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2184</v>
       </c>
       <c r="R36" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.2</v>
       </c>
       <c r="S36" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.78</v>
       </c>
       <c r="T36" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.8</v>
       </c>
       <c r="U36" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.52</v>
       </c>
       <c r="V36" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.47804878048780497</v>
       </c>
       <c r="W36" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.31073170731707322</v>
       </c>
       <c r="Y36" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Z36" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>768</v>
       </c>
       <c r="AA36" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1536</v>
       </c>
       <c r="AB36" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>3072</v>
       </c>
       <c r="AC36" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>4608</v>
       </c>
       <c r="AD36" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>5376</v>
       </c>
       <c r="AE36" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>15360</v>
       </c>
       <c r="AF36" s="2">
@@ -5292,100 +5441,100 @@
     </row>
     <row r="37" spans="1:32">
       <c r="A37" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D37" s="12"/>
       <c r="G37" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H37" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>185</v>
       </c>
       <c r="I37" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>370</v>
       </c>
       <c r="J37" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>740</v>
       </c>
       <c r="K37" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1109</v>
       </c>
       <c r="L37" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1294</v>
       </c>
       <c r="M37" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>2588</v>
       </c>
       <c r="N37" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>3698</v>
       </c>
       <c r="O37" s="12">
         <v>80</v>
       </c>
       <c r="P37" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>3696</v>
       </c>
       <c r="Q37" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2688</v>
       </c>
       <c r="R37" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.3714285714285714</v>
       </c>
       <c r="S37" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.96</v>
       </c>
       <c r="T37" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.91428571428571426</v>
       </c>
       <c r="U37" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.64</v>
       </c>
       <c r="V37" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.54634146341463419</v>
       </c>
       <c r="W37" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.38243902439024391</v>
       </c>
       <c r="Y37" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Z37" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>792</v>
       </c>
       <c r="AA37" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1584</v>
       </c>
       <c r="AB37" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>3168</v>
       </c>
       <c r="AC37" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>4752</v>
       </c>
       <c r="AD37" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>5544</v>
       </c>
       <c r="AE37" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>15840</v>
       </c>
       <c r="AF37" s="2">
@@ -5398,93 +5547,93 @@
         <v>20</v>
       </c>
       <c r="H38" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>216</v>
       </c>
       <c r="I38" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>432</v>
       </c>
       <c r="J38" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>864</v>
       </c>
       <c r="K38" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1296</v>
       </c>
       <c r="L38" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1512</v>
       </c>
       <c r="M38" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>3024</v>
       </c>
       <c r="N38" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>4320</v>
       </c>
       <c r="O38" s="12">
         <v>90</v>
       </c>
       <c r="P38" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4320</v>
       </c>
       <c r="Q38" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>3240</v>
       </c>
       <c r="R38" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.5428571428571429</v>
       </c>
       <c r="S38" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.157142857142857</v>
       </c>
       <c r="T38" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1.0285714285714287</v>
       </c>
       <c r="U38" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.77142857142857135</v>
       </c>
       <c r="V38" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.61463414634146352</v>
       </c>
       <c r="W38" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.46097560975609758</v>
       </c>
       <c r="Y38" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Z38" s="12">
-        <f t="shared" ref="Z38:Z48" si="38">ROUNDUP((AE38*$B$30/100),0)</f>
+        <f t="shared" ref="Z38:Z48" si="40">ROUNDUP((AE38*$B$30/100),0)</f>
         <v>816</v>
       </c>
       <c r="AA38" s="12">
-        <f t="shared" ref="AA38:AA48" si="39">ROUNDUP((AE38*$B$31/100),0)</f>
+        <f t="shared" ref="AA38:AA48" si="41">ROUNDUP((AE38*$B$31/100),0)</f>
         <v>1632</v>
       </c>
       <c r="AB38" s="12">
-        <f t="shared" ref="AB38:AB48" si="40">ROUNDUP((AE38*$B$32/100),0)</f>
+        <f t="shared" ref="AB38:AB48" si="42">ROUNDUP((AE38*$B$32/100),0)</f>
         <v>3264</v>
       </c>
       <c r="AC38" s="12">
-        <f t="shared" ref="AC38:AC48" si="41">ROUNDUP((AE38*$B$33/100),0)</f>
+        <f t="shared" ref="AC38:AC48" si="43">ROUNDUP((AE38*$B$33/100),0)</f>
         <v>4896</v>
       </c>
       <c r="AD38" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>5712</v>
       </c>
       <c r="AE38" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>16320</v>
       </c>
       <c r="AF38" s="2">
@@ -5493,7 +5642,7 @@
     </row>
     <row r="39" spans="1:32">
       <c r="A39" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B39" s="19">
         <v>100</v>
@@ -5503,93 +5652,93 @@
         <v>21</v>
       </c>
       <c r="H39" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>250</v>
       </c>
       <c r="I39" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>500</v>
       </c>
       <c r="J39" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>999</v>
       </c>
       <c r="K39" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1498</v>
       </c>
       <c r="L39" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1748</v>
       </c>
       <c r="M39" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>3496</v>
       </c>
       <c r="N39" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>4995</v>
       </c>
       <c r="O39" s="12">
         <v>100</v>
       </c>
       <c r="P39" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4992</v>
       </c>
       <c r="Q39" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>3840</v>
       </c>
       <c r="R39" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.7142857142857142</v>
       </c>
       <c r="S39" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.3714285714285714</v>
       </c>
       <c r="T39" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1.1428571428571428</v>
       </c>
       <c r="U39" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.91428571428571426</v>
       </c>
       <c r="V39" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.68292682926829273</v>
       </c>
       <c r="W39" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.54634146341463419</v>
       </c>
       <c r="Y39" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Z39" s="12">
+        <f t="shared" si="40"/>
+        <v>840</v>
+      </c>
+      <c r="AA39" s="12">
+        <f t="shared" si="41"/>
+        <v>1680</v>
+      </c>
+      <c r="AB39" s="12">
+        <f t="shared" si="42"/>
+        <v>3360</v>
+      </c>
+      <c r="AC39" s="12">
+        <f t="shared" si="43"/>
+        <v>5040</v>
+      </c>
+      <c r="AD39" s="12">
         <f t="shared" si="38"/>
-        <v>840</v>
-      </c>
-      <c r="AA39" s="12">
+        <v>5880</v>
+      </c>
+      <c r="AE39" s="2">
         <f t="shared" si="39"/>
-        <v>1680</v>
-      </c>
-      <c r="AB39" s="12">
-        <f t="shared" si="40"/>
-        <v>3360</v>
-      </c>
-      <c r="AC39" s="12">
-        <f t="shared" si="41"/>
-        <v>5040</v>
-      </c>
-      <c r="AD39" s="12">
-        <f t="shared" si="36"/>
-        <v>5880</v>
-      </c>
-      <c r="AE39" s="2">
-        <f t="shared" si="37"/>
         <v>16800</v>
       </c>
       <c r="AF39" s="2">
@@ -5598,7 +5747,7 @@
     </row>
     <row r="40" spans="1:32">
       <c r="A40" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B40" s="41">
         <v>1.2</v>
@@ -5607,93 +5756,93 @@
         <v>22</v>
       </c>
       <c r="H40" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>286</v>
       </c>
       <c r="I40" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>572</v>
       </c>
       <c r="J40" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1143</v>
       </c>
       <c r="K40" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1714</v>
       </c>
       <c r="L40" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2000</v>
       </c>
       <c r="M40" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>4000</v>
       </c>
       <c r="N40" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5715</v>
       </c>
       <c r="O40" s="12">
         <v>110</v>
       </c>
       <c r="P40" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5712</v>
       </c>
       <c r="Q40" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>4488</v>
       </c>
       <c r="R40" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.8857142857142857</v>
       </c>
       <c r="S40" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.602857142857143</v>
       </c>
       <c r="T40" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1.2571428571428571</v>
       </c>
       <c r="U40" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1.0685714285714287</v>
       </c>
       <c r="V40" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.75121951219512195</v>
       </c>
       <c r="W40" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.63853658536585378</v>
       </c>
       <c r="Y40" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Z40" s="12">
+        <f t="shared" si="40"/>
+        <v>864</v>
+      </c>
+      <c r="AA40" s="12">
+        <f t="shared" si="41"/>
+        <v>1728</v>
+      </c>
+      <c r="AB40" s="12">
+        <f t="shared" si="42"/>
+        <v>3456</v>
+      </c>
+      <c r="AC40" s="12">
+        <f t="shared" si="43"/>
+        <v>5184</v>
+      </c>
+      <c r="AD40" s="12">
         <f t="shared" si="38"/>
-        <v>864</v>
-      </c>
-      <c r="AA40" s="12">
+        <v>6048</v>
+      </c>
+      <c r="AE40" s="2">
         <f t="shared" si="39"/>
-        <v>1728</v>
-      </c>
-      <c r="AB40" s="12">
-        <f t="shared" si="40"/>
-        <v>3456</v>
-      </c>
-      <c r="AC40" s="12">
-        <f t="shared" si="41"/>
-        <v>5184</v>
-      </c>
-      <c r="AD40" s="12">
-        <f t="shared" si="36"/>
-        <v>6048</v>
-      </c>
-      <c r="AE40" s="2">
-        <f t="shared" si="37"/>
         <v>17280</v>
       </c>
       <c r="AF40" s="2">
@@ -5705,93 +5854,93 @@
         <v>23</v>
       </c>
       <c r="H41" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>324</v>
       </c>
       <c r="I41" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>648</v>
       </c>
       <c r="J41" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1296</v>
       </c>
       <c r="K41" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1944</v>
       </c>
       <c r="L41" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2268</v>
       </c>
       <c r="M41" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>4536</v>
       </c>
       <c r="N41" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>6480</v>
       </c>
       <c r="O41" s="12">
         <v>120</v>
       </c>
       <c r="P41" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>6480</v>
       </c>
       <c r="Q41" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>5184</v>
       </c>
       <c r="R41" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>2.0571428571428574</v>
       </c>
       <c r="S41" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.8514285714285716</v>
       </c>
       <c r="T41" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1.3714285714285714</v>
       </c>
       <c r="U41" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1.2342857142857144</v>
       </c>
       <c r="V41" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.81951219512195128</v>
       </c>
       <c r="W41" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.7375609756097562</v>
       </c>
       <c r="Y41" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Z41" s="12">
+        <f t="shared" si="40"/>
+        <v>888</v>
+      </c>
+      <c r="AA41" s="12">
+        <f t="shared" si="41"/>
+        <v>1776</v>
+      </c>
+      <c r="AB41" s="12">
+        <f t="shared" si="42"/>
+        <v>3552</v>
+      </c>
+      <c r="AC41" s="12">
+        <f t="shared" si="43"/>
+        <v>5328</v>
+      </c>
+      <c r="AD41" s="12">
         <f t="shared" si="38"/>
-        <v>888</v>
-      </c>
-      <c r="AA41" s="12">
+        <v>6216</v>
+      </c>
+      <c r="AE41" s="2">
         <f t="shared" si="39"/>
-        <v>1776</v>
-      </c>
-      <c r="AB41" s="12">
-        <f t="shared" si="40"/>
-        <v>3552</v>
-      </c>
-      <c r="AC41" s="12">
-        <f t="shared" si="41"/>
-        <v>5328</v>
-      </c>
-      <c r="AD41" s="12">
-        <f t="shared" si="36"/>
-        <v>6216</v>
-      </c>
-      <c r="AE41" s="2">
-        <f t="shared" si="37"/>
         <v>17760</v>
       </c>
       <c r="AF41" s="2">
@@ -5800,29 +5949,29 @@
     </row>
     <row r="42" spans="1:32">
       <c r="A42" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G42" s="12" t="s">
         <v>24</v>
       </c>
       <c r="H42" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>365</v>
       </c>
       <c r="I42" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>730</v>
       </c>
       <c r="J42" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1460</v>
       </c>
       <c r="K42" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>2189</v>
       </c>
       <c r="L42" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2554</v>
       </c>
       <c r="M42" s="12">
@@ -5830,69 +5979,69 @@
         <v>5108</v>
       </c>
       <c r="N42" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>7298</v>
       </c>
       <c r="O42" s="12">
         <v>130</v>
       </c>
       <c r="P42" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>7296</v>
       </c>
       <c r="Q42" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>5928</v>
       </c>
       <c r="R42" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>2.2285714285714286</v>
       </c>
       <c r="S42" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2.117142857142857</v>
       </c>
       <c r="T42" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1.4857142857142858</v>
       </c>
       <c r="U42" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1.4114285714285715</v>
       </c>
       <c r="V42" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.88780487804878061</v>
       </c>
       <c r="W42" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.84341463414634155</v>
       </c>
       <c r="Y42" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Z42" s="12">
+        <f t="shared" si="40"/>
+        <v>912</v>
+      </c>
+      <c r="AA42" s="12">
+        <f t="shared" si="41"/>
+        <v>1824</v>
+      </c>
+      <c r="AB42" s="12">
+        <f t="shared" si="42"/>
+        <v>3648</v>
+      </c>
+      <c r="AC42" s="12">
+        <f t="shared" si="43"/>
+        <v>5472</v>
+      </c>
+      <c r="AD42" s="12">
         <f t="shared" si="38"/>
-        <v>912</v>
-      </c>
-      <c r="AA42" s="12">
+        <v>6384</v>
+      </c>
+      <c r="AE42" s="2">
         <f t="shared" si="39"/>
-        <v>1824</v>
-      </c>
-      <c r="AB42" s="12">
-        <f t="shared" si="40"/>
-        <v>3648</v>
-      </c>
-      <c r="AC42" s="12">
-        <f t="shared" si="41"/>
-        <v>5472</v>
-      </c>
-      <c r="AD42" s="12">
-        <f t="shared" si="36"/>
-        <v>6384</v>
-      </c>
-      <c r="AE42" s="2">
-        <f t="shared" si="37"/>
         <v>18240</v>
       </c>
       <c r="AF42" s="2">
@@ -5901,7 +6050,7 @@
     </row>
     <row r="43" spans="1:32">
       <c r="A43" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B43" s="41">
         <v>2</v>
@@ -5910,50 +6059,50 @@
         <v>25</v>
       </c>
       <c r="H43" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>408</v>
       </c>
       <c r="I43" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>816</v>
       </c>
       <c r="J43" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1632</v>
       </c>
       <c r="K43" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>2448</v>
       </c>
       <c r="L43" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2856</v>
       </c>
       <c r="M43" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5712</v>
       </c>
       <c r="N43" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>8160</v>
       </c>
       <c r="O43" s="12">
         <v>140</v>
       </c>
       <c r="P43" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>8160</v>
       </c>
       <c r="Q43" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>6720</v>
       </c>
       <c r="R43" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>2.4</v>
       </c>
       <c r="S43" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2.4</v>
       </c>
       <c r="T43" s="2">
@@ -5961,42 +6110,42 @@
         <v>0.95609756097560994</v>
       </c>
       <c r="U43" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1.6</v>
       </c>
       <c r="V43" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.95609756097560994</v>
       </c>
       <c r="W43" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.95609756097560994</v>
       </c>
       <c r="Y43" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Z43" s="12">
+        <f t="shared" si="40"/>
+        <v>936</v>
+      </c>
+      <c r="AA43" s="12">
+        <f t="shared" si="41"/>
+        <v>1872</v>
+      </c>
+      <c r="AB43" s="12">
+        <f t="shared" si="42"/>
+        <v>3744</v>
+      </c>
+      <c r="AC43" s="12">
+        <f t="shared" si="43"/>
+        <v>5616</v>
+      </c>
+      <c r="AD43" s="12">
         <f t="shared" si="38"/>
-        <v>936</v>
-      </c>
-      <c r="AA43" s="12">
+        <v>6552</v>
+      </c>
+      <c r="AE43" s="2">
         <f t="shared" si="39"/>
-        <v>1872</v>
-      </c>
-      <c r="AB43" s="12">
-        <f t="shared" si="40"/>
-        <v>3744</v>
-      </c>
-      <c r="AC43" s="12">
-        <f t="shared" si="41"/>
-        <v>5616</v>
-      </c>
-      <c r="AD43" s="12">
-        <f t="shared" si="36"/>
-        <v>6552</v>
-      </c>
-      <c r="AE43" s="2">
-        <f t="shared" si="37"/>
         <v>18720</v>
       </c>
       <c r="AF43" s="2">
@@ -6005,7 +6154,7 @@
     </row>
     <row r="44" spans="1:32">
       <c r="G44" s="46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H44" s="46"/>
       <c r="I44" s="46"/>
@@ -6025,30 +6174,30 @@
       <c r="W44" s="46"/>
       <c r="X44" s="46"/>
       <c r="Y44" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Z44" s="12">
+        <f t="shared" si="40"/>
+        <v>960</v>
+      </c>
+      <c r="AA44" s="12">
+        <f t="shared" si="41"/>
+        <v>1920</v>
+      </c>
+      <c r="AB44" s="12">
+        <f t="shared" si="42"/>
+        <v>3840</v>
+      </c>
+      <c r="AC44" s="12">
+        <f t="shared" si="43"/>
+        <v>5760</v>
+      </c>
+      <c r="AD44" s="12">
         <f t="shared" si="38"/>
-        <v>960</v>
-      </c>
-      <c r="AA44" s="12">
+        <v>6720</v>
+      </c>
+      <c r="AE44" s="2">
         <f t="shared" si="39"/>
-        <v>1920</v>
-      </c>
-      <c r="AB44" s="12">
-        <f t="shared" si="40"/>
-        <v>3840</v>
-      </c>
-      <c r="AC44" s="12">
-        <f t="shared" si="41"/>
-        <v>5760</v>
-      </c>
-      <c r="AD44" s="12">
-        <f t="shared" si="36"/>
-        <v>6720</v>
-      </c>
-      <c r="AE44" s="2">
-        <f t="shared" si="37"/>
         <v>19200</v>
       </c>
       <c r="AF44" s="2">
@@ -6057,58 +6206,58 @@
     </row>
     <row r="45" spans="1:32">
       <c r="Q45" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R45" s="26">
         <f>SUM(R46:R47)</f>
         <v>6.8571428571428568</v>
       </c>
       <c r="S45" s="26">
-        <f t="shared" ref="S45:W45" si="42">SUM(S46:S47)</f>
+        <f t="shared" ref="S45:W45" si="44">SUM(S46:S47)</f>
         <v>6.7012987012987013</v>
       </c>
       <c r="T45" s="26">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>2.7317073170731709</v>
       </c>
       <c r="U45" s="26">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>4.4675324675324681</v>
       </c>
       <c r="V45" s="26">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>2.7317073170731709</v>
       </c>
       <c r="W45" s="26">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>2.6696230598669626</v>
       </c>
       <c r="X45"/>
       <c r="Y45" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Z45" s="12">
+        <f t="shared" si="40"/>
+        <v>984</v>
+      </c>
+      <c r="AA45" s="12">
+        <f t="shared" si="41"/>
+        <v>1968</v>
+      </c>
+      <c r="AB45" s="12">
+        <f t="shared" si="42"/>
+        <v>3936</v>
+      </c>
+      <c r="AC45" s="12">
+        <f t="shared" si="43"/>
+        <v>5904</v>
+      </c>
+      <c r="AD45" s="12">
         <f t="shared" si="38"/>
-        <v>984</v>
-      </c>
-      <c r="AA45" s="12">
+        <v>6888</v>
+      </c>
+      <c r="AE45" s="2">
         <f t="shared" si="39"/>
-        <v>1968</v>
-      </c>
-      <c r="AB45" s="12">
-        <f t="shared" si="40"/>
-        <v>3936</v>
-      </c>
-      <c r="AC45" s="12">
-        <f t="shared" si="41"/>
-        <v>5904</v>
-      </c>
-      <c r="AD45" s="12">
-        <f t="shared" si="36"/>
-        <v>6888</v>
-      </c>
-      <c r="AE45" s="2">
-        <f t="shared" si="37"/>
         <v>19680</v>
       </c>
       <c r="AF45" s="2">
@@ -6117,34 +6266,34 @@
     </row>
     <row r="46" spans="1:32">
       <c r="G46" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H46" s="12">
-        <f t="shared" ref="H46:H47" si="43">ROUNDUP((P46*$B$30/100),0)</f>
+        <f t="shared" ref="H46:H47" si="45">ROUNDUP((P46*$B$30/100),0)</f>
         <v>580</v>
       </c>
       <c r="I46" s="12">
-        <f t="shared" ref="I46:I47" si="44">ROUNDUP((P46*$B$31/100),0)</f>
+        <f t="shared" ref="I46:I47" si="46">ROUNDUP((P46*$B$31/100),0)</f>
         <v>1160</v>
       </c>
       <c r="J46" s="12">
-        <f t="shared" ref="J46:J47" si="45">ROUNDUP((P46*$B$32/100),0)</f>
+        <f t="shared" ref="J46:J47" si="47">ROUNDUP((P46*$B$32/100),0)</f>
         <v>2319</v>
       </c>
       <c r="K46" s="12">
-        <f t="shared" ref="K46:K47" si="46">ROUNDUP((P46*$B$33/100),0)</f>
+        <f t="shared" ref="K46:K47" si="48">ROUNDUP((P46*$B$33/100),0)</f>
         <v>3478</v>
       </c>
       <c r="L46" s="12">
-        <f t="shared" ref="L46:L47" si="47">ROUNDUP((P46*$B$34/100),0)</f>
+        <f t="shared" ref="L46:L47" si="49">ROUNDUP((P46*$B$34/100),0)</f>
         <v>4058</v>
       </c>
       <c r="M46" s="12">
-        <f t="shared" ref="M46:M51" si="48">L46*$B$43</f>
+        <f t="shared" ref="M46:M51" si="50">L46*$B$43</f>
         <v>8116</v>
       </c>
       <c r="N46" s="12">
-        <f t="shared" ref="N46" si="49">SUM(H46:L46)</f>
+        <f t="shared" ref="N46" si="51">SUM(H46:L46)</f>
         <v>11595</v>
       </c>
       <c r="O46" s="12">
@@ -6183,30 +6332,30 @@
         <v>1.3037694013303771</v>
       </c>
       <c r="Y46" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Z46" s="12">
+        <f t="shared" si="40"/>
+        <v>1008</v>
+      </c>
+      <c r="AA46" s="12">
+        <f t="shared" si="41"/>
+        <v>2016</v>
+      </c>
+      <c r="AB46" s="12">
+        <f t="shared" si="42"/>
+        <v>4032</v>
+      </c>
+      <c r="AC46" s="12">
+        <f t="shared" si="43"/>
+        <v>6048</v>
+      </c>
+      <c r="AD46" s="12">
         <f t="shared" si="38"/>
-        <v>1008</v>
-      </c>
-      <c r="AA46" s="12">
+        <v>7056</v>
+      </c>
+      <c r="AE46" s="2">
         <f t="shared" si="39"/>
-        <v>2016</v>
-      </c>
-      <c r="AB46" s="12">
-        <f t="shared" si="40"/>
-        <v>4032</v>
-      </c>
-      <c r="AC46" s="12">
-        <f t="shared" si="41"/>
-        <v>6048</v>
-      </c>
-      <c r="AD46" s="12">
-        <f t="shared" si="36"/>
-        <v>7056</v>
-      </c>
-      <c r="AE46" s="2">
-        <f t="shared" si="37"/>
         <v>20160</v>
       </c>
       <c r="AF46" s="2">
@@ -6215,34 +6364,34 @@
     </row>
     <row r="47" spans="1:32">
       <c r="G47" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H47" s="12">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>608</v>
       </c>
       <c r="I47" s="12">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1215</v>
       </c>
       <c r="J47" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>2429</v>
       </c>
       <c r="K47" s="12">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>3644</v>
       </c>
       <c r="L47" s="12">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>4251</v>
       </c>
       <c r="M47" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>8502</v>
       </c>
       <c r="N47" s="12">
-        <f t="shared" ref="N47:N52" si="50">SUM(H47:L47)</f>
+        <f t="shared" ref="N47:N52" si="52">SUM(H47:L47)</f>
         <v>12147</v>
       </c>
       <c r="O47" s="12">
@@ -6281,30 +6430,30 @@
         <v>1.3658536585365855</v>
       </c>
       <c r="Y47" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Z47" s="12">
+        <f t="shared" si="40"/>
+        <v>1032</v>
+      </c>
+      <c r="AA47" s="12">
+        <f t="shared" si="41"/>
+        <v>2064</v>
+      </c>
+      <c r="AB47" s="12">
+        <f t="shared" si="42"/>
+        <v>4128</v>
+      </c>
+      <c r="AC47" s="12">
+        <f t="shared" si="43"/>
+        <v>6192</v>
+      </c>
+      <c r="AD47" s="12">
         <f t="shared" si="38"/>
-        <v>1032</v>
-      </c>
-      <c r="AA47" s="12">
+        <v>7224</v>
+      </c>
+      <c r="AE47" s="2">
         <f t="shared" si="39"/>
-        <v>2064</v>
-      </c>
-      <c r="AB47" s="12">
-        <f t="shared" si="40"/>
-        <v>4128</v>
-      </c>
-      <c r="AC47" s="12">
-        <f t="shared" si="41"/>
-        <v>6192</v>
-      </c>
-      <c r="AD47" s="12">
-        <f t="shared" si="36"/>
-        <v>7224</v>
-      </c>
-      <c r="AE47" s="2">
-        <f t="shared" si="37"/>
         <v>20640</v>
       </c>
       <c r="AF47" s="2">
@@ -6313,34 +6462,34 @@
     </row>
     <row r="48" spans="1:32">
       <c r="G48" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H48" s="12">
-        <f t="shared" ref="H48" si="51">ROUNDUP((P48*$B$30/100),0)</f>
+        <f t="shared" ref="H48" si="53">ROUNDUP((P48*$B$30/100),0)</f>
         <v>635</v>
       </c>
       <c r="I48" s="12">
-        <f t="shared" ref="I48" si="52">ROUNDUP((P48*$B$31/100),0)</f>
+        <f t="shared" ref="I48" si="54">ROUNDUP((P48*$B$31/100),0)</f>
         <v>1270</v>
       </c>
       <c r="J48" s="12">
-        <f t="shared" ref="J48" si="53">ROUNDUP((P48*$B$32/100),0)</f>
+        <f t="shared" ref="J48" si="55">ROUNDUP((P48*$B$32/100),0)</f>
         <v>2540</v>
       </c>
       <c r="K48" s="12">
-        <f t="shared" ref="K48" si="54">ROUNDUP((P48*$B$33/100),0)</f>
+        <f t="shared" ref="K48" si="56">ROUNDUP((P48*$B$33/100),0)</f>
         <v>3809</v>
       </c>
       <c r="L48" s="12">
-        <f t="shared" ref="L48" si="55">ROUNDUP((P48*$B$34/100),0)</f>
+        <f t="shared" ref="L48" si="57">ROUNDUP((P48*$B$34/100),0)</f>
         <v>4444</v>
       </c>
       <c r="M48" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>8888</v>
       </c>
       <c r="N48" s="12">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>12698</v>
       </c>
       <c r="O48" s="12">
@@ -6351,30 +6500,30 @@
         <v>12696</v>
       </c>
       <c r="Y48" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Z48" s="12">
+        <f t="shared" si="40"/>
+        <v>1056</v>
+      </c>
+      <c r="AA48" s="12">
+        <f t="shared" si="41"/>
+        <v>2112</v>
+      </c>
+      <c r="AB48" s="12">
+        <f t="shared" si="42"/>
+        <v>4224</v>
+      </c>
+      <c r="AC48" s="12">
+        <f t="shared" si="43"/>
+        <v>6336</v>
+      </c>
+      <c r="AD48" s="12">
         <f t="shared" si="38"/>
-        <v>1056</v>
-      </c>
-      <c r="AA48" s="12">
+        <v>7392</v>
+      </c>
+      <c r="AE48" s="2">
         <f t="shared" si="39"/>
-        <v>2112</v>
-      </c>
-      <c r="AB48" s="12">
-        <f t="shared" si="40"/>
-        <v>4224</v>
-      </c>
-      <c r="AC48" s="12">
-        <f t="shared" si="41"/>
-        <v>6336</v>
-      </c>
-      <c r="AD48" s="12">
-        <f t="shared" si="36"/>
-        <v>7392</v>
-      </c>
-      <c r="AE48" s="2">
-        <f t="shared" si="37"/>
         <v>21120</v>
       </c>
       <c r="AF48" s="2">
@@ -6383,34 +6532,34 @@
     </row>
     <row r="49" spans="7:32">
       <c r="G49" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H49" s="12">
-        <f t="shared" ref="H49" si="56">ROUNDUP((P49*$B$30/100),0)</f>
+        <f t="shared" ref="H49" si="58">ROUNDUP((P49*$B$30/100),0)</f>
         <v>692</v>
       </c>
       <c r="I49" s="12">
-        <f t="shared" ref="I49" si="57">ROUNDUP((P49*$B$31/100),0)</f>
+        <f t="shared" ref="I49" si="59">ROUNDUP((P49*$B$31/100),0)</f>
         <v>1383</v>
       </c>
       <c r="J49" s="12">
-        <f t="shared" ref="J49" si="58">ROUNDUP((P49*$B$32/100),0)</f>
+        <f t="shared" ref="J49" si="60">ROUNDUP((P49*$B$32/100),0)</f>
         <v>2765</v>
       </c>
       <c r="K49" s="12">
-        <f t="shared" ref="K49" si="59">ROUNDUP((P49*$B$33/100),0)</f>
+        <f t="shared" ref="K49" si="61">ROUNDUP((P49*$B$33/100),0)</f>
         <v>4148</v>
       </c>
       <c r="L49" s="12">
-        <f t="shared" ref="L49" si="60">ROUNDUP((P49*$B$34/100),0)</f>
+        <f t="shared" ref="L49" si="62">ROUNDUP((P49*$B$34/100),0)</f>
         <v>4839</v>
       </c>
       <c r="M49" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>9678</v>
       </c>
       <c r="N49" s="12">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>13827</v>
       </c>
       <c r="O49" s="12">
@@ -6423,34 +6572,34 @@
     </row>
     <row r="50" spans="7:32">
       <c r="G50" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H50" s="12">
-        <f t="shared" ref="H50:H51" si="61">ROUNDUP((P50*$B$30/100),0)</f>
+        <f t="shared" ref="H50:H51" si="63">ROUNDUP((P50*$B$30/100),0)</f>
         <v>750</v>
       </c>
       <c r="I50" s="12">
-        <f t="shared" ref="I50:I51" si="62">ROUNDUP((P50*$B$31/100),0)</f>
+        <f t="shared" ref="I50:I51" si="64">ROUNDUP((P50*$B$31/100),0)</f>
         <v>1500</v>
       </c>
       <c r="J50" s="12">
-        <f t="shared" ref="J50:J51" si="63">ROUNDUP((P50*$B$32/100),0)</f>
+        <f t="shared" ref="J50:J51" si="65">ROUNDUP((P50*$B$32/100),0)</f>
         <v>3000</v>
       </c>
       <c r="K50" s="12">
-        <f t="shared" ref="K50:K51" si="64">ROUNDUP((P50*$B$33/100),0)</f>
+        <f t="shared" ref="K50:K51" si="66">ROUNDUP((P50*$B$33/100),0)</f>
         <v>4500</v>
       </c>
       <c r="L50" s="12">
-        <f t="shared" ref="L50:L51" si="65">ROUNDUP((P50*$B$34/100),0)</f>
+        <f t="shared" ref="L50:L51" si="67">ROUNDUP((P50*$B$34/100),0)</f>
         <v>5250</v>
       </c>
       <c r="M50" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>10500</v>
       </c>
       <c r="N50" s="12">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>15000</v>
       </c>
       <c r="O50" s="12">
@@ -6463,34 +6612,34 @@
     </row>
     <row r="51" spans="7:32">
       <c r="G51" s="12" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H51" s="12">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>843</v>
       </c>
       <c r="I51" s="12">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>1685</v>
       </c>
       <c r="J51" s="12">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>3370</v>
       </c>
       <c r="K51" s="12">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>5055</v>
       </c>
       <c r="L51" s="12">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>5897</v>
       </c>
       <c r="M51" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>11794</v>
       </c>
       <c r="N51" s="12">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>16850</v>
       </c>
       <c r="O51" s="12">
@@ -6503,34 +6652,34 @@
     </row>
     <row r="52" spans="7:32">
       <c r="G52" s="12" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="H52" s="12">
-        <f t="shared" ref="H52" si="66">ROUNDUP((P52*$B$30/100),0)</f>
+        <f t="shared" ref="H52:H53" si="68">ROUNDUP((P52*$B$30/100),0)</f>
         <v>940</v>
       </c>
       <c r="I52" s="12">
-        <f t="shared" ref="I52" si="67">ROUNDUP((P52*$B$31/100),0)</f>
+        <f t="shared" ref="I52:I53" si="69">ROUNDUP((P52*$B$31/100),0)</f>
         <v>1880</v>
       </c>
       <c r="J52" s="12">
-        <f t="shared" ref="J52" si="68">ROUNDUP((P52*$B$32/100),0)</f>
+        <f t="shared" ref="J52:J53" si="70">ROUNDUP((P52*$B$32/100),0)</f>
         <v>3759</v>
       </c>
       <c r="K52" s="12">
-        <f t="shared" ref="K52" si="69">ROUNDUP((P52*$B$33/100),0)</f>
+        <f t="shared" ref="K52:K53" si="71">ROUNDUP((P52*$B$33/100),0)</f>
         <v>5638</v>
       </c>
       <c r="L52" s="12">
-        <f t="shared" ref="L52" si="70">ROUNDUP((P52*$B$34/100),0)</f>
+        <f t="shared" ref="L52:L53" si="72">ROUNDUP((P52*$B$34/100),0)</f>
         <v>6578</v>
       </c>
       <c r="M52" s="12">
-        <f t="shared" ref="M52" si="71">L52*$B$43</f>
+        <f t="shared" ref="M52:M53" si="73">L52*$B$43</f>
         <v>13156</v>
       </c>
       <c r="N52" s="12">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>18795</v>
       </c>
       <c r="O52" s="12">
@@ -6541,12 +6690,50 @@
         <v>18792</v>
       </c>
       <c r="Y52" s="12" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="53" spans="7:32" ht="17.25" thickBot="1">
+      <c r="G53" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="H53" s="12">
+        <f t="shared" si="68"/>
+        <v>1042</v>
+      </c>
+      <c r="I53" s="12">
+        <f t="shared" si="69"/>
+        <v>2084</v>
+      </c>
+      <c r="J53" s="12">
+        <f t="shared" si="70"/>
+        <v>4167</v>
+      </c>
+      <c r="K53" s="12">
+        <f t="shared" si="71"/>
+        <v>6250</v>
+      </c>
+      <c r="L53" s="12">
+        <f t="shared" si="72"/>
+        <v>7292</v>
+      </c>
+      <c r="M53" s="12">
+        <f t="shared" si="73"/>
+        <v>14584</v>
+      </c>
+      <c r="N53" s="12">
+        <f t="shared" ref="N53" si="74">SUM(H53:L53)</f>
+        <v>20835</v>
+      </c>
+      <c r="O53" s="12">
+        <v>250</v>
+      </c>
+      <c r="P53" s="12">
+        <f>(H26*($B$9)*$B$18)*(O53/100)+I26</f>
+        <v>20832</v>
+      </c>
       <c r="Y53" s="27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Z53" s="27">
         <v>0</v>
@@ -6567,34 +6754,34 @@
         <v>5</v>
       </c>
       <c r="AF53" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="7:32" ht="17.25" thickTop="1">
       <c r="Y54" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Z54" s="12">
         <v>0.01</v>
       </c>
       <c r="AA54" s="12">
-        <f t="shared" ref="AA54:AA68" si="72">ROUNDUP(((Z34/$B$39)*$B$40)*((100+AF54)/100),0)/100</f>
+        <f t="shared" ref="AA54:AA68" si="75">ROUNDUP(((Z34/$B$39)*$B$40)*((100+AF54)/100),0)/100</f>
         <v>0.22</v>
       </c>
       <c r="AB54" s="12">
-        <f t="shared" ref="AB54:AB68" si="73">ROUNDUP(((AA34/$B$39)*$B$40)*((100+AF54)/100),0)/100</f>
+        <f t="shared" ref="AB54:AB68" si="76">ROUNDUP(((AA34/$B$39)*$B$40)*((100+AF54)/100),0)/100</f>
         <v>0.44</v>
       </c>
       <c r="AC54" s="12">
-        <f t="shared" ref="AC54:AC68" si="74">ROUNDUP(((AB34/$B$39)*$B$40)*((100+AF54)/100),0)/100</f>
+        <f t="shared" ref="AC54:AC68" si="77">ROUNDUP(((AB34/$B$39)*$B$40)*((100+AF54)/100),0)/100</f>
         <v>0.87</v>
       </c>
       <c r="AD54" s="12">
-        <f t="shared" ref="AD54:AD68" si="75">ROUNDUP(((AC34/$B$39)*$B$40)*((100+AF54)/100),0)/100</f>
+        <f t="shared" ref="AD54:AD68" si="78">ROUNDUP(((AC34/$B$39)*$B$40)*((100+AF54)/100),0)/100</f>
         <v>1.3</v>
       </c>
       <c r="AE54" s="12">
-        <f t="shared" ref="AE54:AE68" si="76">ROUNDUP(((AD34/$B$39)*$B$40)*((100+AF54)/100),0)/100</f>
+        <f t="shared" ref="AE54:AE68" si="79">ROUNDUP(((AD34/$B$39)*$B$40)*((100+AF54)/100),0)/100</f>
         <v>1.52</v>
       </c>
       <c r="AF54" s="2">
@@ -6603,29 +6790,29 @@
     </row>
     <row r="55" spans="7:32">
       <c r="Y55" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Z55" s="12">
         <v>0.02</v>
       </c>
       <c r="AA55" s="12">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>0.24</v>
       </c>
       <c r="AB55" s="12">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>0.47</v>
       </c>
       <c r="AC55" s="12">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>0.93</v>
       </c>
       <c r="AD55" s="12">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>1.4</v>
       </c>
       <c r="AE55" s="12">
-        <f t="shared" si="76"/>
+        <f t="shared" si="79"/>
         <v>1.63</v>
       </c>
       <c r="AF55" s="2">
@@ -6634,29 +6821,29 @@
     </row>
     <row r="56" spans="7:32">
       <c r="Y56" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Z56" s="12">
         <v>0.03</v>
       </c>
       <c r="AA56" s="12">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>0.25</v>
       </c>
       <c r="AB56" s="12">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>0.5</v>
       </c>
       <c r="AC56" s="12">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>1</v>
       </c>
       <c r="AD56" s="12">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>1.5</v>
       </c>
       <c r="AE56" s="12">
-        <f t="shared" si="76"/>
+        <f t="shared" si="79"/>
         <v>1.75</v>
       </c>
       <c r="AF56" s="2">
@@ -6665,42 +6852,42 @@
     </row>
     <row r="57" spans="7:32">
       <c r="G57" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O57" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P57" s="38">
         <f>SUM(P59:P69)+SUM(Q59:Q69)</f>
         <v>22.09</v>
       </c>
       <c r="Q57" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Y57" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Z57" s="12">
         <v>0.04</v>
       </c>
       <c r="AA57" s="12">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>0.27</v>
       </c>
       <c r="AB57" s="12">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>0.54</v>
       </c>
       <c r="AC57" s="12">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>1.07</v>
       </c>
       <c r="AD57" s="12">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>1.6</v>
       </c>
       <c r="AE57" s="12">
-        <f t="shared" si="76"/>
+        <f t="shared" si="79"/>
         <v>1.87</v>
       </c>
       <c r="AF57" s="2">
@@ -6709,7 +6896,7 @@
     </row>
     <row r="58" spans="7:32" ht="17.25" thickBot="1">
       <c r="G58" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H58" s="27">
         <v>0</v>
@@ -6730,44 +6917,44 @@
         <v>5</v>
       </c>
       <c r="N58" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O58" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P58" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q58" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="R58" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="Q58" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="R58" s="27" t="s">
-        <v>96</v>
-      </c>
       <c r="Y58" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Z58" s="12">
         <v>0.05</v>
       </c>
       <c r="AA58" s="12">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>0.3</v>
       </c>
       <c r="AB58" s="12">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>0.59</v>
       </c>
       <c r="AC58" s="12">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>1.18</v>
       </c>
       <c r="AD58" s="12">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>1.77</v>
       </c>
       <c r="AE58" s="12">
-        <f t="shared" si="76"/>
+        <f t="shared" si="79"/>
         <v>2.06</v>
       </c>
       <c r="AF58" s="2">
@@ -6782,34 +6969,34 @@
         <v>0.01</v>
       </c>
       <c r="I59" s="12">
-        <f t="shared" ref="I59:I68" si="77">ROUNDUP(((H34/$B$39)*$B$40)*((100+O59)/100),0)/100</f>
+        <f t="shared" ref="I59:I68" si="80">ROUNDUP(((H34/$B$39)*$B$40)*((100+O59)/100),0)/100</f>
         <v>0.02</v>
       </c>
       <c r="J59" s="12">
-        <f t="shared" ref="J59:J68" si="78">ROUNDUP(((I34/$B$39)*$B$40)*((100+O59)/100),0)/100</f>
+        <f t="shared" ref="J59:J68" si="81">ROUNDUP(((I34/$B$39)*$B$40)*((100+O59)/100),0)/100</f>
         <v>0.03</v>
       </c>
       <c r="K59" s="12">
-        <f t="shared" ref="K59:K68" si="79">ROUNDUP(((J34/$B$39)*$B$40)*((100+O59)/100),0)/100</f>
+        <f t="shared" ref="K59:K68" si="82">ROUNDUP(((J34/$B$39)*$B$40)*((100+O59)/100),0)/100</f>
         <v>0.06</v>
       </c>
       <c r="L59" s="12">
-        <f t="shared" ref="L59:L68" si="80">ROUNDUP(((K34/$B$39)*$B$40)*((100+O59)/100),0)/100</f>
+        <f t="shared" ref="L59:L68" si="83">ROUNDUP(((K34/$B$39)*$B$40)*((100+O59)/100),0)/100</f>
         <v>0.09</v>
       </c>
       <c r="M59" s="12">
-        <f t="shared" ref="M59:M68" si="81">ROUNDUP(((L34/$B$39)*$B$40)*((100+O59)/100),0)/100</f>
+        <f t="shared" ref="M59:M68" si="84">ROUNDUP(((L34/$B$39)*$B$40)*((100+O59)/100),0)/100</f>
         <v>0.1</v>
       </c>
       <c r="N59" s="12">
-        <f t="shared" ref="N59:N68" si="82">ROUNDUP(((M34/$B$39)*$B$40)*((100+O59)/100),0)/100</f>
+        <f t="shared" ref="N59:N68" si="85">ROUNDUP(((M34/$B$39)*$B$40)*((100+O59)/100),0)/100</f>
         <v>0.2</v>
       </c>
       <c r="O59" s="13">
         <v>10</v>
       </c>
       <c r="P59" s="13">
-        <f t="shared" ref="P59:P70" si="83">SUM(H59:M59)</f>
+        <f t="shared" ref="P59:P70" si="86">SUM(H59:M59)</f>
         <v>0.31</v>
       </c>
       <c r="Q59" s="12">
@@ -6817,33 +7004,33 @@
         <v>0.2</v>
       </c>
       <c r="R59" s="13">
-        <f t="shared" ref="R59:R75" si="84">((P59+Q59)/$P$57)*100</f>
+        <f t="shared" ref="R59:R75" si="87">((P59+Q59)/$P$57)*100</f>
         <v>2.3087369850611137</v>
       </c>
       <c r="Y59" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Z59" s="12">
         <v>0.06</v>
       </c>
       <c r="AA59" s="12">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>0.33</v>
       </c>
       <c r="AB59" s="12">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>0.65</v>
       </c>
       <c r="AC59" s="12">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>1.3</v>
       </c>
       <c r="AD59" s="12">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>1.94</v>
       </c>
       <c r="AE59" s="12">
-        <f t="shared" si="76"/>
+        <f t="shared" si="79"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="AF59" s="2">
@@ -6858,68 +7045,68 @@
         <v>0.01</v>
       </c>
       <c r="I60" s="12">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>0.02</v>
       </c>
       <c r="J60" s="12">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>0.04</v>
       </c>
       <c r="K60" s="12">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>0.08</v>
       </c>
       <c r="L60" s="12">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>0.12</v>
       </c>
       <c r="M60" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="N60" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>0.27</v>
       </c>
       <c r="O60" s="13">
         <v>20</v>
       </c>
       <c r="P60" s="13">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>0.41000000000000003</v>
       </c>
       <c r="Q60" s="12">
-        <f t="shared" ref="Q60:Q70" si="85">N60</f>
+        <f t="shared" ref="Q60:Q70" si="88">N60</f>
         <v>0.27</v>
       </c>
       <c r="R60" s="13">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>3.0783159800814848</v>
       </c>
       <c r="Y60" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Z60" s="12">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AA60" s="12">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>0.36</v>
       </c>
       <c r="AB60" s="12">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>0.71</v>
       </c>
       <c r="AC60" s="12">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>1.42</v>
       </c>
       <c r="AD60" s="12">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>2.12</v>
       </c>
       <c r="AE60" s="12">
-        <f t="shared" si="76"/>
+        <f t="shared" si="79"/>
         <v>2.4700000000000002</v>
       </c>
       <c r="AF60" s="2">
@@ -6934,68 +7121,68 @@
         <v>0.02</v>
       </c>
       <c r="I61" s="12">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>0.03</v>
       </c>
       <c r="J61" s="12">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>0.05</v>
       </c>
       <c r="K61" s="12">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>0.1</v>
       </c>
       <c r="L61" s="12">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>0.15</v>
       </c>
       <c r="M61" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>0.18</v>
       </c>
       <c r="N61" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>0.35</v>
       </c>
       <c r="O61" s="13">
         <v>30</v>
       </c>
       <c r="P61" s="13">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>0.53</v>
       </c>
       <c r="Q61" s="12">
-        <f t="shared" si="85"/>
+        <f t="shared" si="88"/>
         <v>0.35</v>
       </c>
       <c r="R61" s="13">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>3.9837030330466274</v>
       </c>
       <c r="Y61" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Z61" s="12">
         <v>0.08</v>
       </c>
       <c r="AA61" s="12">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>0.4</v>
       </c>
       <c r="AB61" s="12">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>0.79</v>
       </c>
       <c r="AC61" s="12">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>1.58</v>
       </c>
       <c r="AD61" s="12">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>2.37</v>
       </c>
       <c r="AE61" s="12">
-        <f t="shared" si="76"/>
+        <f t="shared" si="79"/>
         <v>2.76</v>
       </c>
       <c r="AF61" s="2">
@@ -7004,74 +7191,74 @@
     </row>
     <row r="62" spans="7:32">
       <c r="G62" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H62" s="12">
         <v>0.02</v>
       </c>
       <c r="I62" s="12">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>0.04</v>
       </c>
       <c r="J62" s="12">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="K62" s="12">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>0.13</v>
       </c>
       <c r="L62" s="12">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>0.19</v>
       </c>
       <c r="M62" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>0.22</v>
       </c>
       <c r="N62" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>0.44</v>
       </c>
       <c r="O62" s="13">
         <v>40</v>
       </c>
       <c r="P62" s="13">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>0.67</v>
       </c>
       <c r="Q62" s="12">
-        <f t="shared" si="85"/>
+        <f t="shared" si="88"/>
         <v>0.44</v>
       </c>
       <c r="R62" s="13">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>5.0248981439565421</v>
       </c>
       <c r="Y62" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Z62" s="12">
         <v>0.09</v>
       </c>
       <c r="AA62" s="12">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>0.44</v>
       </c>
       <c r="AB62" s="12">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>0.88</v>
       </c>
       <c r="AC62" s="12">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>1.76</v>
       </c>
       <c r="AD62" s="12">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>2.63</v>
       </c>
       <c r="AE62" s="12">
-        <f t="shared" si="76"/>
+        <f t="shared" si="79"/>
         <v>3.07</v>
       </c>
       <c r="AF62" s="2">
@@ -7086,68 +7273,68 @@
         <v>0.03</v>
       </c>
       <c r="I63" s="12">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>0.04</v>
       </c>
       <c r="J63" s="12">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>0.08</v>
       </c>
       <c r="K63" s="12">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>0.16</v>
       </c>
       <c r="L63" s="12">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>0.24</v>
       </c>
       <c r="M63" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="N63" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="O63" s="13">
         <v>50</v>
       </c>
       <c r="P63" s="13">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>0.83000000000000007</v>
       </c>
       <c r="Q63" s="12">
-        <f t="shared" si="85"/>
+        <f t="shared" si="88"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="R63" s="13">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>6.2471706654594845</v>
       </c>
       <c r="Y63" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Z63" s="12">
         <v>0.1</v>
       </c>
       <c r="AA63" s="12">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>0.49</v>
       </c>
       <c r="AB63" s="12">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>0.97</v>
       </c>
       <c r="AC63" s="12">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>1.94</v>
       </c>
       <c r="AD63" s="12">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>2.9</v>
       </c>
       <c r="AE63" s="12">
-        <f t="shared" si="76"/>
+        <f t="shared" si="79"/>
         <v>3.39</v>
       </c>
       <c r="AF63" s="2">
@@ -7162,68 +7349,68 @@
         <v>0.03</v>
       </c>
       <c r="I64" s="12">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>0.05</v>
       </c>
       <c r="J64" s="12">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>0.1</v>
       </c>
       <c r="K64" s="12">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>0.2</v>
       </c>
       <c r="L64" s="12">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>0.28999999999999998</v>
       </c>
       <c r="M64" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>0.34</v>
       </c>
       <c r="N64" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>0.68</v>
       </c>
       <c r="O64" s="13">
         <v>60</v>
       </c>
       <c r="P64" s="13">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>1.01</v>
       </c>
       <c r="Q64" s="12">
-        <f t="shared" si="85"/>
+        <f t="shared" si="88"/>
         <v>0.68</v>
       </c>
       <c r="R64" s="13">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>7.6505205975554542</v>
       </c>
       <c r="Y64" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Z64" s="12">
         <v>0.11</v>
       </c>
       <c r="AA64" s="12">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>0.53</v>
       </c>
       <c r="AB64" s="12">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>1.06</v>
       </c>
       <c r="AC64" s="12">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>2.12</v>
       </c>
       <c r="AD64" s="12">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>3.18</v>
       </c>
       <c r="AE64" s="12">
-        <f t="shared" si="76"/>
+        <f t="shared" si="79"/>
         <v>3.71</v>
       </c>
       <c r="AF64" s="2">
@@ -7238,68 +7425,68 @@
         <v>0.04</v>
       </c>
       <c r="I65" s="12">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>0.06</v>
       </c>
       <c r="J65" s="12">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>0.12</v>
       </c>
       <c r="K65" s="12">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>0.24</v>
       </c>
       <c r="L65" s="12">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>0.35</v>
       </c>
       <c r="M65" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>0.41</v>
       </c>
       <c r="N65" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>0.82</v>
       </c>
       <c r="O65" s="13">
         <v>70</v>
       </c>
       <c r="P65" s="13">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>1.22</v>
       </c>
       <c r="Q65" s="12">
-        <f t="shared" si="85"/>
+        <f t="shared" si="88"/>
         <v>0.82</v>
       </c>
       <c r="R65" s="13">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>9.2349479402444548</v>
       </c>
       <c r="Y65" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Z65" s="12">
         <v>0.12</v>
       </c>
       <c r="AA65" s="12">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>0.43</v>
       </c>
       <c r="AB65" s="12">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>0.86</v>
       </c>
       <c r="AC65" s="12">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>1.71</v>
       </c>
       <c r="AD65" s="12">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>2.56</v>
       </c>
       <c r="AE65" s="12">
-        <f t="shared" si="76"/>
+        <f t="shared" si="79"/>
         <v>2.98</v>
       </c>
       <c r="AF65" s="2">
@@ -7314,68 +7501,68 @@
         <v>0.04</v>
       </c>
       <c r="I66" s="12">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="J66" s="12">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="K66" s="12">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="L66" s="12">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>0.42</v>
       </c>
       <c r="M66" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>0.49</v>
       </c>
       <c r="N66" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>0.98</v>
       </c>
       <c r="O66" s="13">
         <v>80</v>
       </c>
       <c r="P66" s="13">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>1.44</v>
       </c>
       <c r="Q66" s="12">
-        <f t="shared" si="85"/>
+        <f t="shared" si="88"/>
         <v>0.98</v>
       </c>
       <c r="R66" s="13">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>10.955183340878225</v>
       </c>
       <c r="Y66" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Z66" s="12">
         <v>0.13</v>
       </c>
       <c r="AA66" s="12">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>0.45</v>
       </c>
       <c r="AB66" s="12">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>0.9</v>
       </c>
       <c r="AC66" s="12">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>1.8</v>
       </c>
       <c r="AD66" s="12">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>2.69</v>
       </c>
       <c r="AE66" s="12">
-        <f t="shared" si="76"/>
+        <f t="shared" si="79"/>
         <v>3.14</v>
       </c>
       <c r="AF66" s="2">
@@ -7390,68 +7577,68 @@
         <v>0.05</v>
       </c>
       <c r="I67" s="12">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>0.09</v>
       </c>
       <c r="J67" s="12">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>0.17</v>
       </c>
       <c r="K67" s="12">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>0.34</v>
       </c>
       <c r="L67" s="12">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>0.5</v>
       </c>
       <c r="M67" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>0.59</v>
       </c>
       <c r="N67" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>1.17</v>
       </c>
       <c r="O67" s="13">
         <v>90</v>
       </c>
       <c r="P67" s="13">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>1.7400000000000002</v>
       </c>
       <c r="Q67" s="12">
-        <f t="shared" si="85"/>
+        <f t="shared" si="88"/>
         <v>1.17</v>
       </c>
       <c r="R67" s="13">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>13.173381620642827</v>
       </c>
       <c r="Y67" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Z67" s="12">
         <v>0.14000000000000001</v>
       </c>
       <c r="AA67" s="12">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>0.48</v>
       </c>
       <c r="AB67" s="12">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>0.95</v>
       </c>
       <c r="AC67" s="12">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>1.89</v>
       </c>
       <c r="AD67" s="12">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>2.83</v>
       </c>
       <c r="AE67" s="12">
-        <f t="shared" si="76"/>
+        <f t="shared" si="79"/>
         <v>3.3</v>
       </c>
       <c r="AF67" s="2">
@@ -7466,68 +7653,68 @@
         <v>0.05</v>
       </c>
       <c r="I68" s="12">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>0.1</v>
       </c>
       <c r="J68" s="12">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>0.2</v>
       </c>
       <c r="K68" s="12">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>0.4</v>
       </c>
       <c r="L68" s="12">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>0.59</v>
       </c>
       <c r="M68" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>0.69</v>
       </c>
       <c r="N68" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>1.38</v>
       </c>
       <c r="O68" s="13">
         <v>100</v>
       </c>
       <c r="P68" s="13">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>2.0299999999999998</v>
       </c>
       <c r="Q68" s="12">
-        <f t="shared" si="85"/>
+        <f t="shared" si="88"/>
         <v>1.38</v>
       </c>
       <c r="R68" s="13">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>15.436849253055678</v>
       </c>
       <c r="Y68" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Z68" s="12">
         <v>0.15</v>
       </c>
       <c r="AA68" s="12">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>0.5</v>
       </c>
       <c r="AB68" s="12">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>0.99</v>
       </c>
       <c r="AC68" s="12">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>1.98</v>
       </c>
       <c r="AD68" s="12">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>2.97</v>
       </c>
       <c r="AE68" s="12">
-        <f t="shared" si="76"/>
+        <f t="shared" si="79"/>
         <v>3.46</v>
       </c>
       <c r="AF68" s="2">
@@ -7536,99 +7723,99 @@
     </row>
     <row r="69" spans="7:32">
       <c r="G69" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H69" s="12">
         <v>0.06</v>
       </c>
       <c r="I69" s="12">
-        <f t="shared" ref="I69:I74" si="86">ROUNDUP(((H46/$B$39)*$B$40)*((100+O69)/100),0)/100</f>
+        <f t="shared" ref="I69:I74" si="89">ROUNDUP(((H46/$B$39)*$B$40)*((100+O69)/100),0)/100</f>
         <v>0.15</v>
       </c>
       <c r="J69" s="12">
-        <f t="shared" ref="J69:J74" si="87">ROUNDUP(((I46/$B$39)*$B$40)*((100+O69)/100),0)/100</f>
+        <f t="shared" ref="J69:J74" si="90">ROUNDUP(((I46/$B$39)*$B$40)*((100+O69)/100),0)/100</f>
         <v>0.3</v>
       </c>
       <c r="K69" s="12">
-        <f t="shared" ref="K69:K74" si="88">ROUNDUP(((J46/$B$39)*$B$40)*((100+O69)/100),0)/100</f>
+        <f t="shared" ref="K69:K74" si="91">ROUNDUP(((J46/$B$39)*$B$40)*((100+O69)/100),0)/100</f>
         <v>0.59</v>
       </c>
       <c r="L69" s="12">
-        <f t="shared" ref="L69:L74" si="89">ROUNDUP(((K46/$B$39)*$B$40)*((100+O69)/100),0)/100</f>
+        <f t="shared" ref="L69:L74" si="92">ROUNDUP(((K46/$B$39)*$B$40)*((100+O69)/100),0)/100</f>
         <v>0.88</v>
       </c>
       <c r="M69" s="12">
-        <f t="shared" ref="M69:M74" si="90">ROUNDUP(((L46/$B$39)*$B$40)*((100+O69)/100),0)/100</f>
+        <f t="shared" ref="M69:M74" si="93">ROUNDUP(((L46/$B$39)*$B$40)*((100+O69)/100),0)/100</f>
         <v>1.03</v>
       </c>
       <c r="N69" s="12">
-        <f t="shared" ref="N69:N74" si="91">ROUNDUP(((M46/$B$39)*$B$40)*((100+O69)/100),0)/100</f>
+        <f t="shared" ref="N69:N74" si="94">ROUNDUP(((M46/$B$39)*$B$40)*((100+O69)/100),0)/100</f>
         <v>2.0499999999999998</v>
       </c>
       <c r="O69" s="13">
         <v>110</v>
       </c>
       <c r="P69" s="13">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>3.01</v>
       </c>
       <c r="Q69" s="12">
-        <f t="shared" si="85"/>
+        <f t="shared" si="88"/>
         <v>2.0499999999999998</v>
       </c>
       <c r="R69" s="13">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>22.906292440018106</v>
       </c>
     </row>
     <row r="70" spans="7:32">
       <c r="G70" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H70" s="12">
         <v>0.06</v>
       </c>
       <c r="I70" s="12">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>0.17</v>
       </c>
       <c r="J70" s="12">
-        <f t="shared" si="87"/>
+        <f t="shared" si="90"/>
         <v>0.33</v>
       </c>
       <c r="K70" s="12">
-        <f t="shared" si="88"/>
+        <f t="shared" si="91"/>
         <v>0.65</v>
       </c>
       <c r="L70" s="12">
-        <f t="shared" si="89"/>
+        <f t="shared" si="92"/>
         <v>0.97</v>
       </c>
       <c r="M70" s="12">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>1.1299999999999999</v>
       </c>
       <c r="N70" s="12">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>2.25</v>
       </c>
       <c r="O70" s="13">
         <v>120</v>
       </c>
       <c r="P70" s="13">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>3.3099999999999996</v>
       </c>
       <c r="Q70" s="12">
-        <f t="shared" si="85"/>
+        <f t="shared" si="88"/>
         <v>2.25</v>
       </c>
       <c r="R70" s="13">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>25.169760072430964</v>
       </c>
       <c r="Y70" s="12" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Z70" s="12"/>
       <c r="AA70" s="12"/>
@@ -7639,52 +7826,52 @@
     </row>
     <row r="71" spans="7:32" ht="17.25" thickBot="1">
       <c r="G71" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H71" s="12">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I71" s="12">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>0.18</v>
       </c>
       <c r="J71" s="12">
-        <f t="shared" si="87"/>
+        <f t="shared" si="90"/>
         <v>0.36</v>
       </c>
       <c r="K71" s="12">
-        <f t="shared" si="88"/>
+        <f t="shared" si="91"/>
         <v>0.71</v>
       </c>
       <c r="L71" s="12">
-        <f t="shared" si="89"/>
+        <f t="shared" si="92"/>
         <v>1.06</v>
       </c>
       <c r="M71" s="12">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>1.23</v>
       </c>
       <c r="N71" s="12">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>2.46</v>
       </c>
       <c r="O71" s="13">
         <v>130</v>
       </c>
       <c r="P71" s="13">
-        <f t="shared" ref="P71" si="92">SUM(H71:M71)</f>
+        <f t="shared" ref="P71" si="95">SUM(H71:M71)</f>
         <v>3.61</v>
       </c>
       <c r="Q71" s="12">
-        <f t="shared" ref="Q71" si="93">N71</f>
+        <f t="shared" ref="Q71" si="96">N71</f>
         <v>2.46</v>
       </c>
       <c r="R71" s="13">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>27.478497057492078</v>
       </c>
       <c r="Y71" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z71" s="27">
         <v>0</v>
@@ -7707,422 +7894,467 @@
     </row>
     <row r="72" spans="7:32" ht="17.25" thickTop="1">
       <c r="G72" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H72" s="12">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I72" s="12">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>0.2</v>
       </c>
       <c r="J72" s="12">
-        <f t="shared" si="87"/>
+        <f t="shared" si="90"/>
         <v>0.4</v>
       </c>
       <c r="K72" s="12">
-        <f t="shared" si="88"/>
+        <f t="shared" si="91"/>
         <v>0.8</v>
       </c>
       <c r="L72" s="12">
-        <f t="shared" si="89"/>
+        <f t="shared" si="92"/>
         <v>1.2</v>
       </c>
       <c r="M72" s="12">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>1.4</v>
       </c>
       <c r="N72" s="12">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>2.79</v>
       </c>
       <c r="O72" s="13">
         <v>140</v>
       </c>
       <c r="P72" s="13">
-        <f t="shared" ref="P72" si="94">SUM(H72:M72)</f>
+        <f t="shared" ref="P72" si="97">SUM(H72:M72)</f>
         <v>4.07</v>
       </c>
       <c r="Q72" s="12">
-        <f t="shared" ref="Q72" si="95">N72</f>
+        <f t="shared" ref="Q72" si="98">N72</f>
         <v>2.79</v>
       </c>
       <c r="R72" s="13">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>31.05477591670439</v>
       </c>
       <c r="Y72" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Z72" s="12">
-        <f t="shared" ref="Z72:Z86" si="96">Z54</f>
+        <f t="shared" ref="Z72:Z86" si="99">Z54</f>
         <v>0.01</v>
       </c>
       <c r="AA72" s="12">
-        <f t="shared" ref="AA72:AE86" si="97">Z72+AA54</f>
+        <f t="shared" ref="AA72:AE86" si="100">Z72+AA54</f>
         <v>0.23</v>
       </c>
       <c r="AB72" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>0.67</v>
       </c>
       <c r="AC72" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>1.54</v>
       </c>
       <c r="AD72" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>2.84</v>
       </c>
       <c r="AE72" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>4.3599999999999994</v>
       </c>
     </row>
     <row r="73" spans="7:32">
       <c r="G73" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H73" s="12">
         <v>0.08</v>
       </c>
       <c r="I73" s="12">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>0.23</v>
       </c>
       <c r="J73" s="12">
-        <f t="shared" si="87"/>
+        <f t="shared" si="90"/>
         <v>0.45</v>
       </c>
       <c r="K73" s="12">
-        <f t="shared" si="88"/>
+        <f t="shared" si="91"/>
         <v>0.9</v>
       </c>
       <c r="L73" s="12">
-        <f t="shared" si="89"/>
+        <f t="shared" si="92"/>
         <v>1.35</v>
       </c>
       <c r="M73" s="12">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>1.58</v>
       </c>
       <c r="N73" s="12">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>3.15</v>
       </c>
       <c r="O73" s="13">
         <v>150</v>
       </c>
       <c r="P73" s="13">
-        <f t="shared" ref="P73:P74" si="98">SUM(H73:M73)</f>
+        <f t="shared" ref="P73:P74" si="101">SUM(H73:M73)</f>
         <v>4.59</v>
       </c>
       <c r="Q73" s="12">
-        <f t="shared" ref="Q73:Q74" si="99">N73</f>
+        <f t="shared" ref="Q73:Q74" si="102">N73</f>
         <v>3.15</v>
       </c>
       <c r="R73" s="13">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>35.038478949751017</v>
       </c>
       <c r="Y73" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Z73" s="12">
-        <f t="shared" si="96"/>
+        <f t="shared" si="99"/>
         <v>0.02</v>
       </c>
       <c r="AA73" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>0.26</v>
       </c>
       <c r="AB73" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>0.73</v>
       </c>
       <c r="AC73" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>1.6600000000000001</v>
       </c>
       <c r="AD73" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>3.06</v>
       </c>
       <c r="AE73" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>4.6899999999999995</v>
       </c>
     </row>
     <row r="74" spans="7:32">
       <c r="G74" s="12" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H74" s="12">
         <v>0.08</v>
       </c>
       <c r="I74" s="12">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>0.27</v>
       </c>
       <c r="J74" s="12">
-        <f t="shared" si="87"/>
+        <f t="shared" si="90"/>
         <v>0.53</v>
       </c>
       <c r="K74" s="12">
-        <f t="shared" si="88"/>
+        <f t="shared" si="91"/>
         <v>1.06</v>
       </c>
       <c r="L74" s="12">
-        <f t="shared" si="89"/>
+        <f t="shared" si="92"/>
         <v>1.58</v>
       </c>
       <c r="M74" s="12">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>1.84</v>
       </c>
       <c r="N74" s="12">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>3.68</v>
       </c>
       <c r="O74" s="13">
         <v>160</v>
       </c>
       <c r="P74" s="13">
-        <f t="shared" si="98"/>
+        <f t="shared" si="101"/>
         <v>5.36</v>
       </c>
       <c r="Q74" s="12">
+        <f t="shared" si="102"/>
+        <v>3.68</v>
+      </c>
+      <c r="R74" s="13">
+        <f t="shared" si="87"/>
+        <v>40.92349479402445</v>
+      </c>
+      <c r="Y74" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z74" s="12">
         <f t="shared" si="99"/>
-        <v>3.68</v>
-      </c>
-      <c r="R74" s="13">
-        <f t="shared" si="84"/>
-        <v>40.92349479402445</v>
-      </c>
-      <c r="Y74" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="Z74" s="12">
-        <f t="shared" si="96"/>
         <v>0.03</v>
       </c>
       <c r="AA74" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="AB74" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>0.78</v>
       </c>
       <c r="AC74" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>1.78</v>
       </c>
       <c r="AD74" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>3.2800000000000002</v>
       </c>
       <c r="AE74" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>5.03</v>
       </c>
     </row>
     <row r="75" spans="7:32">
       <c r="G75" s="12" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="H75" s="12">
         <v>0.09</v>
       </c>
       <c r="I75" s="12">
-        <f t="shared" ref="I75" si="100">ROUNDUP(((H52/$B$39)*$B$40)*((100+O75)/100),0)/100</f>
+        <f t="shared" ref="I75:I76" si="103">ROUNDUP(((H52/$B$39)*$B$40)*((100+O75)/100),0)/100</f>
         <v>0.32</v>
       </c>
       <c r="J75" s="12">
-        <f t="shared" ref="J75" si="101">ROUNDUP(((I52/$B$39)*$B$40)*((100+O75)/100),0)/100</f>
+        <f t="shared" ref="J75:J76" si="104">ROUNDUP(((I52/$B$39)*$B$40)*((100+O75)/100),0)/100</f>
         <v>0.64</v>
       </c>
       <c r="K75" s="12">
-        <f t="shared" ref="K75" si="102">ROUNDUP(((J52/$B$39)*$B$40)*((100+O75)/100),0)/100</f>
+        <f t="shared" ref="K75:K76" si="105">ROUNDUP(((J52/$B$39)*$B$40)*((100+O75)/100),0)/100</f>
         <v>1.27</v>
       </c>
       <c r="L75" s="12">
-        <f t="shared" ref="L75" si="103">ROUNDUP(((K52/$B$39)*$B$40)*((100+O75)/100),0)/100</f>
+        <f t="shared" ref="L75:L76" si="106">ROUNDUP(((K52/$B$39)*$B$40)*((100+O75)/100),0)/100</f>
         <v>1.9</v>
       </c>
       <c r="M75" s="12">
-        <f t="shared" ref="M75" si="104">ROUNDUP(((L52/$B$39)*$B$40)*((100+O75)/100),0)/100</f>
+        <f t="shared" ref="M75:M76" si="107">ROUNDUP(((L52/$B$39)*$B$40)*((100+O75)/100),0)/100</f>
         <v>2.2200000000000002</v>
       </c>
       <c r="N75" s="12">
-        <f t="shared" ref="N75" si="105">ROUNDUP(((M52/$B$39)*$B$40)*((100+O75)/100),0)/100</f>
+        <f t="shared" ref="N75:N76" si="108">ROUNDUP(((M52/$B$39)*$B$40)*((100+O75)/100),0)/100</f>
         <v>4.43</v>
       </c>
       <c r="O75" s="13">
         <v>180</v>
       </c>
       <c r="P75" s="13">
-        <f t="shared" ref="P75" si="106">SUM(H75:M75)</f>
+        <f t="shared" ref="P75" si="109">SUM(H75:M75)</f>
         <v>6.4400000000000013</v>
       </c>
       <c r="Q75" s="12">
-        <f t="shared" ref="Q75" si="107">N75</f>
+        <f t="shared" ref="Q75:Q76" si="110">N75</f>
         <v>4.43</v>
       </c>
       <c r="R75" s="13">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>49.207786328655509</v>
       </c>
       <c r="Y75" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z75" s="12">
+        <f t="shared" si="99"/>
+        <v>0.04</v>
+      </c>
+      <c r="AA75" s="12">
+        <f t="shared" si="100"/>
+        <v>0.31</v>
+      </c>
+      <c r="AB75" s="12">
+        <f t="shared" si="100"/>
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="AC75" s="12">
+        <f t="shared" si="100"/>
+        <v>1.9200000000000002</v>
+      </c>
+      <c r="AD75" s="12">
+        <f t="shared" si="100"/>
+        <v>3.5200000000000005</v>
+      </c>
+      <c r="AE75" s="12">
+        <f t="shared" si="100"/>
+        <v>5.3900000000000006</v>
+      </c>
+    </row>
+    <row r="76" spans="7:32">
+      <c r="G76" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="H76" s="12">
+        <v>0.09</v>
+      </c>
+      <c r="I76" s="12">
+        <f t="shared" si="103"/>
+        <v>0.38</v>
+      </c>
+      <c r="J76" s="12">
+        <f t="shared" si="104"/>
+        <v>0.76</v>
+      </c>
+      <c r="K76" s="12">
+        <f t="shared" si="105"/>
+        <v>1.51</v>
+      </c>
+      <c r="L76" s="12">
+        <f t="shared" si="106"/>
+        <v>2.25</v>
+      </c>
+      <c r="M76" s="12">
+        <f t="shared" si="107"/>
+        <v>2.63</v>
+      </c>
+      <c r="N76" s="12">
+        <f t="shared" si="108"/>
+        <v>5.26</v>
+      </c>
+      <c r="O76" s="13">
+        <v>200</v>
+      </c>
+      <c r="P76" s="13">
+        <f t="shared" ref="P76" si="111">SUM(H76:M76)</f>
+        <v>7.62</v>
+      </c>
+      <c r="Q76" s="12">
+        <f t="shared" si="110"/>
+        <v>5.26</v>
+      </c>
+      <c r="R76" s="13">
+        <f t="shared" ref="R76" si="112">((P76+Q76)/$P$57)*100</f>
+        <v>58.306926210955176</v>
+      </c>
+      <c r="Y76" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="Z75" s="12">
-        <f t="shared" si="96"/>
-        <v>0.04</v>
-      </c>
-      <c r="AA75" s="12">
-        <f t="shared" si="97"/>
-        <v>0.31</v>
-      </c>
-      <c r="AB75" s="12">
-        <f t="shared" si="97"/>
-        <v>0.85000000000000009</v>
-      </c>
-      <c r="AC75" s="12">
-        <f t="shared" si="97"/>
-        <v>1.9200000000000002</v>
-      </c>
-      <c r="AD75" s="12">
-        <f t="shared" si="97"/>
-        <v>3.5200000000000005</v>
-      </c>
-      <c r="AE75" s="12">
-        <f t="shared" si="97"/>
-        <v>5.3900000000000006</v>
-      </c>
-    </row>
-    <row r="76" spans="7:32">
-      <c r="Y76" s="12" t="s">
-        <v>203</v>
-      </c>
       <c r="Z76" s="12">
-        <f t="shared" si="96"/>
+        <f t="shared" si="99"/>
         <v>0.05</v>
       </c>
       <c r="AA76" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>0.35</v>
       </c>
       <c r="AB76" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>0.94</v>
       </c>
       <c r="AC76" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>2.12</v>
       </c>
       <c r="AD76" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>3.89</v>
       </c>
       <c r="AE76" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>5.95</v>
       </c>
     </row>
     <row r="77" spans="7:32">
       <c r="Y77" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Z77" s="12">
-        <f t="shared" si="96"/>
+        <f t="shared" si="99"/>
         <v>0.06</v>
       </c>
       <c r="AA77" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>0.39</v>
       </c>
       <c r="AB77" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>1.04</v>
       </c>
       <c r="AC77" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>2.34</v>
       </c>
       <c r="AD77" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>4.2799999999999994</v>
       </c>
       <c r="AE77" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>6.5399999999999991</v>
       </c>
     </row>
     <row r="78" spans="7:32">
       <c r="Y78" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Z78" s="12">
-        <f t="shared" si="96"/>
+        <f t="shared" si="99"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AA78" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>0.43</v>
       </c>
       <c r="AB78" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>1.1399999999999999</v>
       </c>
       <c r="AC78" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>2.5599999999999996</v>
       </c>
       <c r="AD78" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>4.68</v>
       </c>
       <c r="AE78" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>7.15</v>
       </c>
     </row>
     <row r="79" spans="7:32">
       <c r="G79" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y79" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Z79" s="12">
-        <f t="shared" si="96"/>
+        <f t="shared" si="99"/>
         <v>0.08</v>
       </c>
       <c r="AA79" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>0.48000000000000004</v>
       </c>
       <c r="AB79" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>1.27</v>
       </c>
       <c r="AC79" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>2.85</v>
       </c>
       <c r="AD79" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>5.2200000000000006</v>
       </c>
       <c r="AE79" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>7.98</v>
       </c>
     </row>
     <row r="80" spans="7:32" ht="17.25" thickBot="1">
       <c r="G80" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H80" s="27">
         <v>0</v>
@@ -8143,33 +8375,33 @@
         <v>5</v>
       </c>
       <c r="N80" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Y80" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Z80" s="12">
-        <f t="shared" si="96"/>
+        <f t="shared" si="99"/>
         <v>0.09</v>
       </c>
       <c r="AA80" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>0.53</v>
       </c>
       <c r="AB80" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>1.4100000000000001</v>
       </c>
       <c r="AC80" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>3.17</v>
       </c>
       <c r="AD80" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>5.8</v>
       </c>
       <c r="AE80" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>8.8699999999999992</v>
       </c>
     </row>
@@ -8178,58 +8410,58 @@
         <v>16</v>
       </c>
       <c r="H81" s="12">
-        <f t="shared" ref="H81:H94" si="108">H59</f>
+        <f t="shared" ref="H81:H94" si="113">H59</f>
         <v>0.01</v>
       </c>
       <c r="I81" s="12">
-        <f t="shared" ref="I81:N90" si="109">I59+H81</f>
+        <f t="shared" ref="I81:N90" si="114">I59+H81</f>
         <v>0.03</v>
       </c>
       <c r="J81" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v>0.06</v>
       </c>
       <c r="K81" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v>0.12</v>
       </c>
       <c r="L81" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v>0.21</v>
       </c>
       <c r="M81" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v>0.31</v>
       </c>
       <c r="N81" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v>0.51</v>
       </c>
       <c r="Y81" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Z81" s="12">
-        <f t="shared" si="96"/>
+        <f t="shared" si="99"/>
         <v>0.1</v>
       </c>
       <c r="AA81" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>0.59</v>
       </c>
       <c r="AB81" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>1.56</v>
       </c>
       <c r="AC81" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>3.5</v>
       </c>
       <c r="AD81" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>6.4</v>
       </c>
       <c r="AE81" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>9.7900000000000009</v>
       </c>
     </row>
@@ -8238,58 +8470,58 @@
         <v>18</v>
       </c>
       <c r="H82" s="12">
-        <f t="shared" si="108"/>
+        <f t="shared" si="113"/>
         <v>0.01</v>
       </c>
       <c r="I82" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v>0.03</v>
       </c>
       <c r="J82" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="K82" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v>0.15000000000000002</v>
       </c>
       <c r="L82" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v>0.27</v>
       </c>
       <c r="M82" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v>0.41000000000000003</v>
       </c>
       <c r="N82" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v>0.68</v>
       </c>
       <c r="Y82" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Z82" s="12">
-        <f t="shared" si="96"/>
+        <f t="shared" si="99"/>
         <v>0.11</v>
       </c>
       <c r="AA82" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>0.64</v>
       </c>
       <c r="AB82" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>1.7000000000000002</v>
       </c>
       <c r="AC82" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>3.8200000000000003</v>
       </c>
       <c r="AD82" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>7</v>
       </c>
       <c r="AE82" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>10.71</v>
       </c>
     </row>
@@ -8298,118 +8530,118 @@
         <v>19</v>
       </c>
       <c r="H83" s="12">
-        <f t="shared" si="108"/>
+        <f t="shared" si="113"/>
         <v>0.02</v>
       </c>
       <c r="I83" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v>0.05</v>
       </c>
       <c r="J83" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v>0.1</v>
       </c>
       <c r="K83" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v>0.2</v>
       </c>
       <c r="L83" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v>0.35</v>
       </c>
       <c r="M83" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v>0.53</v>
       </c>
       <c r="N83" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v>0.88</v>
       </c>
       <c r="Y83" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Z83" s="12">
-        <f t="shared" si="96"/>
+        <f t="shared" si="99"/>
         <v>0.12</v>
       </c>
       <c r="AA83" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="AB83" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>1.4100000000000001</v>
       </c>
       <c r="AC83" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>3.12</v>
       </c>
       <c r="AD83" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>5.68</v>
       </c>
       <c r="AE83" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>8.66</v>
       </c>
     </row>
     <row r="84" spans="7:32">
       <c r="G84" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H84" s="12">
-        <f t="shared" si="108"/>
+        <f t="shared" si="113"/>
         <v>0.02</v>
       </c>
       <c r="I84" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v>0.06</v>
       </c>
       <c r="J84" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v>0.13</v>
       </c>
       <c r="K84" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v>0.26</v>
       </c>
       <c r="L84" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v>0.45</v>
       </c>
       <c r="M84" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v>0.67</v>
       </c>
       <c r="N84" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v>1.1100000000000001</v>
       </c>
       <c r="Y84" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Z84" s="12">
-        <f t="shared" si="96"/>
+        <f t="shared" si="99"/>
         <v>0.13</v>
       </c>
       <c r="AA84" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>0.58000000000000007</v>
       </c>
       <c r="AB84" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>1.48</v>
       </c>
       <c r="AC84" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>3.2800000000000002</v>
       </c>
       <c r="AD84" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>5.9700000000000006</v>
       </c>
       <c r="AE84" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>9.1100000000000012</v>
       </c>
     </row>
@@ -8418,58 +8650,58 @@
         <v>20</v>
       </c>
       <c r="H85" s="12">
-        <f t="shared" si="108"/>
+        <f t="shared" si="113"/>
         <v>0.03</v>
       </c>
       <c r="I85" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="J85" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v>0.15000000000000002</v>
       </c>
       <c r="K85" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v>0.31000000000000005</v>
       </c>
       <c r="L85" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="M85" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v>0.83000000000000007</v>
       </c>
       <c r="N85" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v>1.3800000000000001</v>
       </c>
       <c r="Y85" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Z85" s="12">
-        <f t="shared" si="96"/>
+        <f t="shared" si="99"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="AA85" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>0.62</v>
       </c>
       <c r="AB85" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>1.5699999999999998</v>
       </c>
       <c r="AC85" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>3.46</v>
       </c>
       <c r="AD85" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>6.29</v>
       </c>
       <c r="AE85" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>9.59</v>
       </c>
     </row>
@@ -8478,58 +8710,58 @@
         <v>21</v>
       </c>
       <c r="H86" s="12">
-        <f t="shared" si="108"/>
+        <f t="shared" si="113"/>
         <v>0.03</v>
       </c>
       <c r="I86" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v>0.08</v>
       </c>
       <c r="J86" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v>0.18</v>
       </c>
       <c r="K86" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v>0.38</v>
       </c>
       <c r="L86" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v>0.66999999999999993</v>
       </c>
       <c r="M86" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v>1.01</v>
       </c>
       <c r="N86" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v>1.69</v>
       </c>
       <c r="Y86" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Z86" s="12">
-        <f t="shared" si="96"/>
+        <f t="shared" si="99"/>
         <v>0.15</v>
       </c>
       <c r="AA86" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>0.65</v>
       </c>
       <c r="AB86" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>1.6400000000000001</v>
       </c>
       <c r="AC86" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>3.62</v>
       </c>
       <c r="AD86" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>6.59</v>
       </c>
       <c r="AE86" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>10.050000000000001</v>
       </c>
     </row>
@@ -8538,31 +8770,31 @@
         <v>22</v>
       </c>
       <c r="H87" s="12">
-        <f t="shared" si="108"/>
+        <f t="shared" si="113"/>
         <v>0.04</v>
       </c>
       <c r="I87" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v>0.1</v>
       </c>
       <c r="J87" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v>0.22</v>
       </c>
       <c r="K87" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v>0.45999999999999996</v>
       </c>
       <c r="L87" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v>0.80999999999999994</v>
       </c>
       <c r="M87" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v>1.22</v>
       </c>
       <c r="N87" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v>2.04</v>
       </c>
       <c r="AF87" s="12"/>
@@ -8572,31 +8804,31 @@
         <v>23</v>
       </c>
       <c r="H88" s="12">
-        <f t="shared" si="108"/>
+        <f t="shared" si="113"/>
         <v>0.04</v>
       </c>
       <c r="I88" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v>0.11000000000000001</v>
       </c>
       <c r="J88" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v>0.25</v>
       </c>
       <c r="K88" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v>0.53</v>
       </c>
       <c r="L88" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v>0.95</v>
       </c>
       <c r="M88" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v>1.44</v>
       </c>
       <c r="N88" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v>2.42</v>
       </c>
     </row>
@@ -8605,31 +8837,31 @@
         <v>24</v>
       </c>
       <c r="H89" s="12">
-        <f t="shared" si="108"/>
+        <f t="shared" si="113"/>
         <v>0.05</v>
       </c>
       <c r="I89" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="J89" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v>0.31000000000000005</v>
       </c>
       <c r="K89" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v>0.65000000000000013</v>
       </c>
       <c r="L89" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v>1.1500000000000001</v>
       </c>
       <c r="M89" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v>1.7400000000000002</v>
       </c>
       <c r="N89" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v>2.91</v>
       </c>
     </row>
@@ -8638,260 +8870,292 @@
         <v>25</v>
       </c>
       <c r="H90" s="12">
-        <f t="shared" si="108"/>
+        <f t="shared" si="113"/>
         <v>0.05</v>
       </c>
       <c r="I90" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v>0.15000000000000002</v>
       </c>
       <c r="J90" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v>0.35000000000000003</v>
       </c>
       <c r="K90" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v>0.75</v>
       </c>
       <c r="L90" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v>1.3399999999999999</v>
       </c>
       <c r="M90" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v>2.0299999999999998</v>
       </c>
       <c r="N90" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v>3.4099999999999997</v>
       </c>
     </row>
     <row r="91" spans="7:32">
       <c r="G91" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H91" s="12">
-        <f t="shared" si="108"/>
+        <f t="shared" si="113"/>
         <v>0.06</v>
       </c>
       <c r="I91" s="12">
-        <f t="shared" ref="I91:N96" si="110">I69+H91</f>
+        <f t="shared" ref="I91:N96" si="115">I69+H91</f>
         <v>0.21</v>
       </c>
       <c r="J91" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v>0.51</v>
       </c>
       <c r="K91" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="L91" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v>1.98</v>
       </c>
       <c r="M91" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v>3.01</v>
       </c>
       <c r="N91" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v>5.0599999999999996</v>
       </c>
     </row>
     <row r="92" spans="7:32">
       <c r="G92" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H92" s="12">
-        <f t="shared" si="108"/>
+        <f t="shared" si="113"/>
         <v>0.06</v>
       </c>
       <c r="I92" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v>0.23</v>
       </c>
       <c r="J92" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="K92" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v>1.21</v>
       </c>
       <c r="L92" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v>2.1799999999999997</v>
       </c>
       <c r="M92" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v>3.3099999999999996</v>
       </c>
       <c r="N92" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v>5.56</v>
       </c>
     </row>
     <row r="93" spans="7:32">
       <c r="G93" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H93" s="12">
-        <f t="shared" si="108"/>
+        <f t="shared" si="113"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I93" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v>0.25</v>
       </c>
       <c r="J93" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v>0.61</v>
       </c>
       <c r="K93" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v>1.3199999999999998</v>
       </c>
       <c r="L93" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v>2.38</v>
       </c>
       <c r="M93" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v>3.61</v>
       </c>
       <c r="N93" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v>6.07</v>
       </c>
     </row>
     <row r="94" spans="7:32">
       <c r="G94" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H94" s="12">
-        <f t="shared" si="108"/>
+        <f t="shared" si="113"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I94" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v>0.27</v>
       </c>
       <c r="J94" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v>0.67</v>
       </c>
       <c r="K94" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v>1.4700000000000002</v>
       </c>
       <c r="L94" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v>2.67</v>
       </c>
       <c r="M94" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v>4.07</v>
       </c>
       <c r="N94" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v>6.86</v>
       </c>
     </row>
     <row r="95" spans="7:32">
       <c r="G95" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H95" s="12">
         <v>0.08</v>
       </c>
       <c r="I95" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v>0.31</v>
       </c>
       <c r="J95" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v>0.76</v>
       </c>
       <c r="K95" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v>1.6600000000000001</v>
       </c>
       <c r="L95" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v>3.0100000000000002</v>
       </c>
       <c r="M95" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v>4.59</v>
       </c>
       <c r="N95" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v>7.74</v>
       </c>
     </row>
     <row r="96" spans="7:32">
       <c r="G96" s="12" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H96" s="12">
         <v>0.08</v>
       </c>
       <c r="I96" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v>0.35000000000000003</v>
       </c>
       <c r="J96" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v>0.88000000000000012</v>
       </c>
       <c r="K96" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v>1.9400000000000002</v>
       </c>
       <c r="L96" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v>3.5200000000000005</v>
       </c>
       <c r="M96" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v>5.36</v>
       </c>
       <c r="N96" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v>9.0400000000000009</v>
       </c>
     </row>
     <row r="97" spans="7:14">
       <c r="G97" s="12" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="H97" s="12">
         <v>0.09</v>
       </c>
       <c r="I97" s="12">
-        <f t="shared" ref="I97" si="111">I75+H97</f>
+        <f t="shared" ref="I97:I98" si="116">I75+H97</f>
         <v>0.41000000000000003</v>
       </c>
       <c r="J97" s="12">
-        <f t="shared" ref="J97" si="112">J75+I97</f>
+        <f t="shared" ref="J97:J98" si="117">J75+I97</f>
         <v>1.05</v>
       </c>
       <c r="K97" s="12">
-        <f t="shared" ref="K97" si="113">K75+J97</f>
+        <f t="shared" ref="K97:K98" si="118">K75+J97</f>
         <v>2.3200000000000003</v>
       </c>
       <c r="L97" s="12">
-        <f t="shared" ref="L97" si="114">L75+K97</f>
+        <f t="shared" ref="L97:L98" si="119">L75+K97</f>
         <v>4.2200000000000006</v>
       </c>
       <c r="M97" s="12">
-        <f t="shared" ref="M97" si="115">M75+L97</f>
+        <f t="shared" ref="M97:M98" si="120">M75+L97</f>
         <v>6.4400000000000013</v>
       </c>
       <c r="N97" s="12">
-        <f t="shared" ref="N97" si="116">N75+M97</f>
+        <f t="shared" ref="N97:N98" si="121">N75+M97</f>
         <v>10.870000000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="7:14">
+      <c r="G98" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="H98" s="12">
+        <v>0.09</v>
+      </c>
+      <c r="I98" s="12">
+        <f t="shared" si="116"/>
+        <v>0.47</v>
+      </c>
+      <c r="J98" s="12">
+        <f t="shared" si="117"/>
+        <v>1.23</v>
+      </c>
+      <c r="K98" s="12">
+        <f t="shared" si="118"/>
+        <v>2.74</v>
+      </c>
+      <c r="L98" s="12">
+        <f t="shared" si="119"/>
+        <v>4.99</v>
+      </c>
+      <c r="M98" s="12">
+        <f t="shared" si="120"/>
+        <v>7.62</v>
+      </c>
+      <c r="N98" s="12">
+        <f t="shared" si="121"/>
+        <v>12.879999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -8908,8 +9172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14EF5D34-81E7-475D-8B1B-AFFF2EFE6FF9}">
   <dimension ref="A2:W50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8926,49 +9190,49 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" t="s">
         <v>139</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>140</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>141</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>142</v>
       </c>
-      <c r="G2" t="s">
-        <v>143</v>
-      </c>
       <c r="H2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K2" t="s">
         <v>6</v>
       </c>
       <c r="L2" t="s">
+        <v>138</v>
+      </c>
+      <c r="M2" t="s">
         <v>139</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>140</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>141</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>142</v>
       </c>
-      <c r="P2" t="s">
-        <v>143</v>
-      </c>
       <c r="Q2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T2" t="s">
+        <v>107</v>
+      </c>
+      <c r="U2" t="s">
         <v>108</v>
-      </c>
-      <c r="U2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -9003,7 +9267,7 @@
         <v>200</v>
       </c>
       <c r="T3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U3">
         <v>4</v>
@@ -9046,7 +9310,7 @@
         <v>200나</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -9080,7 +9344,7 @@
         <v>1E+60</v>
       </c>
       <c r="T4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="U4">
         <v>8</v>
@@ -9123,7 +9387,7 @@
         <v>200불</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -9157,7 +9421,7 @@
         <v>1E+64</v>
       </c>
       <c r="T5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="U5">
         <v>12</v>
@@ -9200,7 +9464,7 @@
         <v>200무</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J6">
         <v>3</v>
@@ -9234,7 +9498,7 @@
         <v>1E+68</v>
       </c>
       <c r="T6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="U6">
         <v>16</v>
@@ -9277,7 +9541,7 @@
         <v>200대</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J7">
         <v>4</v>
@@ -9311,7 +9575,7 @@
         <v>1E+72</v>
       </c>
       <c r="T7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="U7">
         <v>20</v>
@@ -9354,7 +9618,7 @@
         <v>200겁</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J8">
         <v>5</v>
@@ -9388,7 +9652,7 @@
         <v>1E+76</v>
       </c>
       <c r="T8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="U8">
         <v>24</v>
@@ -9431,7 +9695,7 @@
         <v>200업</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J9">
         <v>6</v>
@@ -9465,7 +9729,7 @@
         <v>1E+80</v>
       </c>
       <c r="T9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="U9">
         <v>28</v>
@@ -9508,7 +9772,7 @@
         <v>200긍</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J10">
         <v>7</v>
@@ -9542,7 +9806,7 @@
         <v>1E+84</v>
       </c>
       <c r="T10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="U10">
         <v>32</v>
@@ -9585,7 +9849,7 @@
         <v>200갈</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J11">
         <v>8</v>
@@ -9619,7 +9883,7 @@
         <v>1E+88</v>
       </c>
       <c r="T11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U11">
         <v>36</v>
@@ -9662,7 +9926,7 @@
         <v>200라</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J12">
         <v>9</v>
@@ -9696,7 +9960,7 @@
         <v>1E+92</v>
       </c>
       <c r="T12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="U12">
         <v>40</v>
@@ -9739,7 +10003,7 @@
         <v>200가</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J13">
         <v>10</v>
@@ -9773,7 +10037,7 @@
         <v>1E+96</v>
       </c>
       <c r="T13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="U13">
         <v>44</v>
@@ -9816,7 +10080,7 @@
         <v>200언</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J14">
         <v>11</v>
@@ -9850,7 +10114,7 @@
         <v>1E+100</v>
       </c>
       <c r="T14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="U14">
         <v>48</v>
@@ -9893,7 +10157,7 @@
         <v>200승</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J15">
         <v>12</v>
@@ -9927,7 +10191,7 @@
         <v>1E+104</v>
       </c>
       <c r="T15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="U15">
         <v>52</v>
@@ -9970,7 +10234,7 @@
         <v>200마</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J16">
         <v>13</v>
@@ -10004,7 +10268,7 @@
         <v>1E+108</v>
       </c>
       <c r="T16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U16">
         <v>56</v>
@@ -10047,7 +10311,7 @@
         <v>200살</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J17">
         <v>14</v>
@@ -10081,7 +10345,7 @@
         <v>1E+112</v>
       </c>
       <c r="T17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U17">
         <v>60</v>
@@ -10101,64 +10365,64 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ref="B18:B21" si="54">C18&amp;","&amp;D18&amp;","&amp;E18&amp;","&amp;F18&amp;","&amp;G18</f>
-        <v>10마,20마,50마,100마,200마</v>
+        <v>10섬,20섬,50섬,100섬,200섬</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" ref="C18:C21" si="55">$C$3&amp;H18</f>
-        <v>10마</v>
+        <v>10섬</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" ref="D18:D21" si="56">$D$3&amp;H18</f>
-        <v>20마</v>
+        <v>20섬</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" ref="E18:E21" si="57">$E$3&amp;H18</f>
-        <v>50마</v>
+        <v>50섬</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" ref="F18:F21" si="58">$F$3&amp;H18</f>
-        <v>100마</v>
+        <v>100섬</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" ref="G18:G21" si="59">$G$3&amp;H18</f>
-        <v>200마</v>
+        <v>200섬</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="J18">
         <v>15</v>
       </c>
       <c r="K18" s="3" t="str">
-        <f t="shared" ref="K18:K21" si="60">L18&amp;","&amp;M18&amp;","&amp;N18&amp;","&amp;O18&amp;","&amp;P18</f>
-        <v>1E+109,2E+109,5E+109,1E+110,2E+110</v>
+        <f t="shared" ref="K18:K20" si="60">L18&amp;","&amp;M18&amp;","&amp;N18&amp;","&amp;O18&amp;","&amp;P18</f>
+        <v>1E+117,2E+117,5E+117,1E+118,2E+118</v>
       </c>
       <c r="L18">
-        <f t="shared" ref="L18:L21" si="61">$C$3*Q18</f>
-        <v>9.9999999999999998E+108</v>
+        <f t="shared" ref="L18:L20" si="61">$C$3*Q18</f>
+        <v>1.0000000000000001E+117</v>
       </c>
       <c r="M18">
-        <f t="shared" ref="M18:M21" si="62">$D$3*Q18</f>
-        <v>2E+109</v>
+        <f t="shared" ref="M18:M20" si="62">$D$3*Q18</f>
+        <v>2.0000000000000001E+117</v>
       </c>
       <c r="N18">
-        <f t="shared" ref="N18:N21" si="63">$E$3*Q18</f>
-        <v>5.0000000000000001E+109</v>
+        <f t="shared" ref="N18:N20" si="63">$E$3*Q18</f>
+        <v>4.9999999999999998E+117</v>
       </c>
       <c r="O18">
-        <f t="shared" ref="O18:O21" si="64">$F$3*Q18</f>
-        <v>1E+110</v>
+        <f t="shared" ref="O18:O20" si="64">$F$3*Q18</f>
+        <v>9.9999999999999997E+117</v>
       </c>
       <c r="P18">
-        <f t="shared" ref="P18:P21" si="65">$G$3*Q18</f>
-        <v>2E+110</v>
+        <f t="shared" ref="P18:P20" si="65">$G$3*Q18</f>
+        <v>1.9999999999999999E+118</v>
       </c>
       <c r="Q18" t="str">
-        <f t="shared" ref="Q18:Q21" si="66">VLOOKUP(H18,T:W,4,FALSE)</f>
-        <v>1E+108</v>
+        <f t="shared" ref="Q18:Q24" si="66">VLOOKUP(H18,T:W,4,FALSE)</f>
+        <v>1E+116</v>
       </c>
       <c r="T18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U18">
         <v>64</v>
@@ -10178,64 +10442,64 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" si="54"/>
-        <v>10살,20살,50살,100살,200살</v>
+        <v>10찰,20찰,50찰,100찰,200찰</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="55"/>
-        <v>10살</v>
+        <v>10찰</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="56"/>
-        <v>20살</v>
+        <v>20찰</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="57"/>
-        <v>50살</v>
+        <v>50찰</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="58"/>
-        <v>100살</v>
+        <v>100찰</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="59"/>
-        <v>200살</v>
+        <v>200찰</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>179</v>
+        <v>250</v>
       </c>
       <c r="J19">
         <v>16</v>
       </c>
       <c r="K19" s="3" t="str">
         <f t="shared" si="60"/>
-        <v>1E+113,2E+113,5E+113,1E+114,2E+114</v>
+        <v>1E+121,2E+121,5E+121,1E+122,2E+122</v>
       </c>
       <c r="L19">
         <f t="shared" si="61"/>
-        <v>1E+113</v>
+        <v>9.9999999999999992E+120</v>
       </c>
       <c r="M19">
         <f t="shared" si="62"/>
-        <v>2E+113</v>
+        <v>1.9999999999999998E+121</v>
       </c>
       <c r="N19">
         <f t="shared" si="63"/>
-        <v>4.9999999999999994E+113</v>
+        <v>5.0000000000000001E+121</v>
       </c>
       <c r="O19">
         <f t="shared" si="64"/>
-        <v>9.9999999999999988E+113</v>
+        <v>1E+122</v>
       </c>
       <c r="P19">
         <f t="shared" si="65"/>
-        <v>1.9999999999999998E+114</v>
+        <v>2E+122</v>
       </c>
       <c r="Q19" t="str">
         <f t="shared" si="66"/>
-        <v>1E+112</v>
+        <v>1E+120</v>
       </c>
       <c r="T19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U19">
         <v>68</v>
@@ -10255,64 +10519,64 @@
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" si="54"/>
-        <v>10마,20마,50마,100마,200마</v>
+        <v>10교,20교,50교,100교,200교</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="55"/>
-        <v>10마</v>
+        <v>10교</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="56"/>
-        <v>20마</v>
+        <v>20교</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="57"/>
-        <v>50마</v>
+        <v>50교</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="58"/>
-        <v>100마</v>
+        <v>100교</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" si="59"/>
-        <v>200마</v>
+        <v>200교</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>167</v>
+        <v>251</v>
       </c>
       <c r="J20">
         <v>17</v>
       </c>
       <c r="K20" s="3" t="str">
         <f t="shared" si="60"/>
-        <v>1E+109,2E+109,5E+109,1E+110,2E+110</v>
+        <v>1E+125,2E+125,5E+125,1E+126,2E+126</v>
       </c>
       <c r="L20">
         <f t="shared" si="61"/>
-        <v>9.9999999999999998E+108</v>
+        <v>9.9999999999999992E+124</v>
       </c>
       <c r="M20">
         <f t="shared" si="62"/>
-        <v>2E+109</v>
+        <v>1.9999999999999998E+125</v>
       </c>
       <c r="N20">
         <f t="shared" si="63"/>
-        <v>5.0000000000000001E+109</v>
+        <v>4.9999999999999996E+125</v>
       </c>
       <c r="O20">
         <f t="shared" si="64"/>
-        <v>1E+110</v>
+        <v>9.9999999999999992E+125</v>
       </c>
       <c r="P20">
         <f t="shared" si="65"/>
-        <v>2E+110</v>
+        <v>1.9999999999999998E+126</v>
       </c>
       <c r="Q20" t="str">
         <f t="shared" si="66"/>
-        <v>1E+108</v>
+        <v>1E+124</v>
       </c>
       <c r="T20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="U20">
         <v>72</v>
@@ -10332,64 +10596,64 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" si="54"/>
-        <v>10살,20살,50살,100살,200살</v>
+        <v>10위,20위,50위,100위,200위</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="55"/>
-        <v>10살</v>
+        <v>10위</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="56"/>
-        <v>20살</v>
+        <v>20위</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="57"/>
-        <v>50살</v>
+        <v>50위</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="58"/>
-        <v>100살</v>
+        <v>100위</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" si="59"/>
-        <v>200살</v>
+        <v>200위</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>179</v>
+        <v>358</v>
       </c>
       <c r="J21">
         <v>18</v>
       </c>
       <c r="K21" s="3" t="str">
-        <f t="shared" si="60"/>
-        <v>1E+113,2E+113,5E+113,1E+114,2E+114</v>
+        <f t="shared" ref="K21:K24" si="67">L21&amp;","&amp;M21&amp;","&amp;N21&amp;","&amp;O21&amp;","&amp;P21</f>
+        <v>1E+129,2E+129,5E+129,1E+130,2E+130</v>
       </c>
       <c r="L21">
-        <f t="shared" si="61"/>
-        <v>1E+113</v>
+        <f t="shared" ref="L21:L24" si="68">$C$3*Q21</f>
+        <v>1E+129</v>
       </c>
       <c r="M21">
-        <f t="shared" si="62"/>
-        <v>2E+113</v>
+        <f t="shared" ref="M21:M24" si="69">$D$3*Q21</f>
+        <v>2E+129</v>
       </c>
       <c r="N21">
-        <f t="shared" si="63"/>
-        <v>4.9999999999999994E+113</v>
+        <f t="shared" ref="N21:N24" si="70">$E$3*Q21</f>
+        <v>5.0000000000000003E+129</v>
       </c>
       <c r="O21">
-        <f t="shared" si="64"/>
-        <v>9.9999999999999988E+113</v>
+        <f t="shared" ref="O21:O24" si="71">$F$3*Q21</f>
+        <v>1.0000000000000001E+130</v>
       </c>
       <c r="P21">
-        <f t="shared" si="65"/>
-        <v>1.9999999999999998E+114</v>
+        <f t="shared" ref="P21:P24" si="72">$G$3*Q21</f>
+        <v>2.0000000000000001E+130</v>
       </c>
       <c r="Q21" t="str">
         <f t="shared" si="66"/>
-        <v>1E+112</v>
+        <v>1E+128</v>
       </c>
       <c r="T21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="U21">
         <v>76</v>
@@ -10408,65 +10672,65 @@
         <v>19</v>
       </c>
       <c r="B22" s="3" t="str">
-        <f t="shared" ref="B22:B23" si="67">C22&amp;","&amp;D22&amp;","&amp;E22&amp;","&amp;F22&amp;","&amp;G22</f>
-        <v>10섬,20섬,50섬,100섬,200섬</v>
+        <f t="shared" ref="B22:B23" si="73">C22&amp;","&amp;D22&amp;","&amp;E22&amp;","&amp;F22&amp;","&amp;G22</f>
+        <v>10a,20a,50a,100a,200a</v>
       </c>
       <c r="C22" t="str">
-        <f t="shared" ref="C22:C23" si="68">$C$3&amp;H22</f>
-        <v>10섬</v>
+        <f t="shared" ref="C22:C23" si="74">$C$3&amp;H22</f>
+        <v>10a</v>
       </c>
       <c r="D22" t="str">
-        <f t="shared" ref="D22:D23" si="69">$D$3&amp;H22</f>
-        <v>20섬</v>
+        <f t="shared" ref="D22:D23" si="75">$D$3&amp;H22</f>
+        <v>20a</v>
       </c>
       <c r="E22" t="str">
-        <f t="shared" ref="E22:E23" si="70">$E$3&amp;H22</f>
-        <v>50섬</v>
+        <f t="shared" ref="E22:E23" si="76">$E$3&amp;H22</f>
+        <v>50a</v>
       </c>
       <c r="F22" t="str">
-        <f t="shared" ref="F22:F23" si="71">$F$3&amp;H22</f>
-        <v>100섬</v>
+        <f t="shared" ref="F22:F23" si="77">$F$3&amp;H22</f>
+        <v>100a</v>
       </c>
       <c r="G22" t="str">
-        <f t="shared" ref="G22:G23" si="72">$G$3&amp;H22</f>
-        <v>200섬</v>
+        <f t="shared" ref="G22:G23" si="78">$G$3&amp;H22</f>
+        <v>200a</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>180</v>
+        <v>359</v>
       </c>
       <c r="J22">
         <v>19</v>
       </c>
       <c r="K22" s="3" t="str">
-        <f t="shared" ref="K22:K23" si="73">L22&amp;","&amp;M22&amp;","&amp;N22&amp;","&amp;O22&amp;","&amp;P22</f>
-        <v>1E+117,2E+117,5E+117,1E+118,2E+118</v>
+        <f t="shared" si="67"/>
+        <v>1E+133,2E+133,5E+133,1E+134,2E+134</v>
       </c>
       <c r="L22">
-        <f t="shared" ref="L22:L23" si="74">$C$3*Q22</f>
-        <v>1.0000000000000001E+117</v>
+        <f t="shared" si="68"/>
+        <v>1E+133</v>
       </c>
       <c r="M22">
-        <f t="shared" ref="M22:M23" si="75">$D$3*Q22</f>
-        <v>2.0000000000000001E+117</v>
+        <f t="shared" si="69"/>
+        <v>2E+133</v>
       </c>
       <c r="N22">
-        <f t="shared" ref="N22:N23" si="76">$E$3*Q22</f>
-        <v>4.9999999999999998E+117</v>
+        <f t="shared" si="70"/>
+        <v>4.9999999999999996E+133</v>
       </c>
       <c r="O22">
-        <f t="shared" ref="O22:O23" si="77">$F$3*Q22</f>
-        <v>9.9999999999999997E+117</v>
+        <f t="shared" si="71"/>
+        <v>9.9999999999999992E+133</v>
       </c>
       <c r="P22">
-        <f t="shared" ref="P22:P23" si="78">$G$3*Q22</f>
-        <v>1.9999999999999999E+118</v>
+        <f t="shared" si="72"/>
+        <v>1.9999999999999998E+134</v>
       </c>
       <c r="Q22" t="str">
-        <f t="shared" ref="Q22:Q23" si="79">VLOOKUP(H22,T:W,4,FALSE)</f>
-        <v>1E+116</v>
+        <f t="shared" si="66"/>
+        <v>1E+132</v>
       </c>
       <c r="T22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="U22">
         <v>80</v>
@@ -10485,65 +10749,65 @@
         <v>20</v>
       </c>
       <c r="B23" s="3" t="str">
-        <f t="shared" si="67"/>
-        <v>10찰,20찰,50찰,100찰,200찰</v>
+        <f t="shared" si="73"/>
+        <v>10b,20b,50b,100b,200b</v>
       </c>
       <c r="C23" t="str">
-        <f t="shared" si="68"/>
-        <v>10찰</v>
+        <f t="shared" si="74"/>
+        <v>10b</v>
       </c>
       <c r="D23" t="str">
-        <f t="shared" si="69"/>
-        <v>20찰</v>
+        <f t="shared" si="75"/>
+        <v>20b</v>
       </c>
       <c r="E23" t="str">
-        <f t="shared" si="70"/>
-        <v>50찰</v>
+        <f t="shared" si="76"/>
+        <v>50b</v>
       </c>
       <c r="F23" t="str">
-        <f t="shared" si="71"/>
-        <v>100찰</v>
+        <f t="shared" si="77"/>
+        <v>100b</v>
       </c>
       <c r="G23" t="str">
-        <f t="shared" si="72"/>
-        <v>200찰</v>
+        <f t="shared" si="78"/>
+        <v>200b</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>253</v>
+        <v>360</v>
       </c>
       <c r="J23">
         <v>20</v>
       </c>
       <c r="K23" s="3" t="str">
-        <f t="shared" si="73"/>
-        <v>1E+121,2E+121,5E+121,1E+122,2E+122</v>
+        <f t="shared" si="67"/>
+        <v>1E+137,2E+137,5E+137,1E+138,2E+138</v>
       </c>
       <c r="L23">
-        <f t="shared" si="74"/>
-        <v>9.9999999999999992E+120</v>
+        <f t="shared" si="68"/>
+        <v>1E+137</v>
       </c>
       <c r="M23">
-        <f t="shared" si="75"/>
-        <v>1.9999999999999998E+121</v>
+        <f t="shared" si="69"/>
+        <v>2.0000000000000001E+137</v>
       </c>
       <c r="N23">
-        <f t="shared" si="76"/>
-        <v>5.0000000000000001E+121</v>
+        <f t="shared" si="70"/>
+        <v>5.0000000000000002E+137</v>
       </c>
       <c r="O23">
-        <f t="shared" si="77"/>
-        <v>1E+122</v>
+        <f t="shared" si="71"/>
+        <v>1E+138</v>
       </c>
       <c r="P23">
-        <f t="shared" si="78"/>
-        <v>2E+122</v>
+        <f t="shared" si="72"/>
+        <v>2.0000000000000001E+138</v>
       </c>
       <c r="Q23" t="str">
-        <f t="shared" si="79"/>
-        <v>1E+120</v>
+        <f t="shared" si="66"/>
+        <v>1E+136</v>
       </c>
       <c r="T23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="U23">
         <v>84</v>
@@ -10562,65 +10826,65 @@
         <v>21</v>
       </c>
       <c r="B24" s="3" t="str">
-        <f t="shared" ref="B24" si="80">C24&amp;","&amp;D24&amp;","&amp;E24&amp;","&amp;F24&amp;","&amp;G24</f>
-        <v>10교,20교,50교,100교,200교</v>
+        <f t="shared" ref="B24" si="79">C24&amp;","&amp;D24&amp;","&amp;E24&amp;","&amp;F24&amp;","&amp;G24</f>
+        <v>10c,20c,50c,100c,200c</v>
       </c>
       <c r="C24" t="str">
-        <f t="shared" ref="C24" si="81">$C$3&amp;H24</f>
-        <v>10교</v>
+        <f t="shared" ref="C24" si="80">$C$3&amp;H24</f>
+        <v>10c</v>
       </c>
       <c r="D24" t="str">
-        <f t="shared" ref="D24" si="82">$D$3&amp;H24</f>
-        <v>20교</v>
+        <f t="shared" ref="D24" si="81">$D$3&amp;H24</f>
+        <v>20c</v>
       </c>
       <c r="E24" t="str">
-        <f t="shared" ref="E24" si="83">$E$3&amp;H24</f>
-        <v>50교</v>
+        <f t="shared" ref="E24" si="82">$E$3&amp;H24</f>
+        <v>50c</v>
       </c>
       <c r="F24" t="str">
-        <f t="shared" ref="F24" si="84">$F$3&amp;H24</f>
-        <v>100교</v>
+        <f t="shared" ref="F24" si="83">$F$3&amp;H24</f>
+        <v>100c</v>
       </c>
       <c r="G24" t="str">
-        <f t="shared" ref="G24" si="85">$G$3&amp;H24</f>
-        <v>200교</v>
+        <f t="shared" ref="G24" si="84">$G$3&amp;H24</f>
+        <v>200c</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>254</v>
+        <v>361</v>
       </c>
       <c r="J24">
         <v>21</v>
       </c>
       <c r="K24" s="3" t="str">
-        <f t="shared" ref="K24" si="86">L24&amp;","&amp;M24&amp;","&amp;N24&amp;","&amp;O24&amp;","&amp;P24</f>
-        <v>1E+125,2E+125,5E+125,1E+126,2E+126</v>
+        <f t="shared" si="67"/>
+        <v>1E+141,2E+141,5E+141,1E+142,2E+142</v>
       </c>
       <c r="L24">
-        <f t="shared" ref="L24" si="87">$C$3*Q24</f>
-        <v>9.9999999999999992E+124</v>
+        <f t="shared" si="68"/>
+        <v>1E+141</v>
       </c>
       <c r="M24">
-        <f t="shared" ref="M24" si="88">$D$3*Q24</f>
-        <v>1.9999999999999998E+125</v>
+        <f t="shared" si="69"/>
+        <v>2E+141</v>
       </c>
       <c r="N24">
-        <f t="shared" ref="N24" si="89">$E$3*Q24</f>
-        <v>4.9999999999999996E+125</v>
+        <f t="shared" si="70"/>
+        <v>5.0000000000000003E+141</v>
       </c>
       <c r="O24">
-        <f t="shared" ref="O24" si="90">$F$3*Q24</f>
-        <v>9.9999999999999992E+125</v>
+        <f t="shared" si="71"/>
+        <v>1.0000000000000001E+142</v>
       </c>
       <c r="P24">
-        <f t="shared" ref="P24" si="91">$G$3*Q24</f>
-        <v>1.9999999999999998E+126</v>
+        <f t="shared" si="72"/>
+        <v>2.0000000000000001E+142</v>
       </c>
       <c r="Q24" t="str">
-        <f t="shared" ref="Q24" si="92">VLOOKUP(H24,T:W,4,FALSE)</f>
-        <v>1E+124</v>
+        <f t="shared" si="66"/>
+        <v>1E+140</v>
       </c>
       <c r="T24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U24">
         <v>88</v>
@@ -10636,7 +10900,7 @@
     </row>
     <row r="25" spans="1:23">
       <c r="T25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U25">
         <v>92</v>
@@ -10652,7 +10916,7 @@
     </row>
     <row r="26" spans="1:23">
       <c r="T26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="U26">
         <v>96</v>
@@ -10668,7 +10932,7 @@
     </row>
     <row r="27" spans="1:23">
       <c r="T27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="U27">
         <v>100</v>
@@ -10684,111 +10948,163 @@
     </row>
     <row r="28" spans="1:23">
       <c r="T28" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="U28">
         <v>104</v>
       </c>
       <c r="V28">
-        <f t="shared" ref="V28:V29" si="93">POWER(10,U28)</f>
+        <f t="shared" ref="V28:V29" si="85">POWER(10,U28)</f>
         <v>1E+104</v>
       </c>
       <c r="W28" t="str">
-        <f t="shared" ref="W28:W29" si="94">RIGHT(V28,U28)</f>
+        <f t="shared" ref="W28:W29" si="86">RIGHT(V28,U28)</f>
         <v>1E+104</v>
       </c>
     </row>
     <row r="29" spans="1:23">
       <c r="T29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="U29">
         <v>108</v>
       </c>
       <c r="V29">
-        <f t="shared" si="93"/>
+        <f t="shared" si="85"/>
         <v>1E+108</v>
       </c>
       <c r="W29" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="86"/>
         <v>1E+108</v>
       </c>
     </row>
     <row r="30" spans="1:23">
       <c r="T30" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="U30">
         <v>112</v>
       </c>
       <c r="V30">
-        <f t="shared" ref="V30:V31" si="95">POWER(10,U30)</f>
+        <f t="shared" ref="V30:V31" si="87">POWER(10,U30)</f>
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="W30" t="str">
-        <f t="shared" ref="W30:W31" si="96">RIGHT(V30,U30)</f>
+        <f t="shared" ref="W30:W31" si="88">RIGHT(V30,U30)</f>
         <v>1E+112</v>
       </c>
     </row>
     <row r="31" spans="1:23">
       <c r="T31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="U31">
         <v>116</v>
       </c>
       <c r="V31">
-        <f t="shared" si="95"/>
+        <f t="shared" si="87"/>
         <v>1E+116</v>
       </c>
       <c r="W31" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="88"/>
         <v>1E+116</v>
       </c>
     </row>
     <row r="32" spans="1:23">
       <c r="T32" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="U32">
         <v>120</v>
       </c>
       <c r="V32">
-        <f t="shared" ref="V32:V33" si="97">POWER(10,U32)</f>
+        <f t="shared" ref="V32:V33" si="89">POWER(10,U32)</f>
         <v>9.9999999999999998E+119</v>
       </c>
       <c r="W32" t="str">
-        <f t="shared" ref="W32:W33" si="98">RIGHT(V32,U32)</f>
+        <f t="shared" ref="W32:W33" si="90">RIGHT(V32,U32)</f>
         <v>1E+120</v>
       </c>
     </row>
     <row r="33" spans="20:23">
       <c r="T33" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="U33">
         <v>124</v>
       </c>
       <c r="V33">
-        <f t="shared" si="97"/>
+        <f t="shared" si="89"/>
         <v>9.9999999999999995E+123</v>
       </c>
       <c r="W33" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="90"/>
         <v>1E+124</v>
       </c>
     </row>
     <row r="34" spans="20:23">
-      <c r="V34" s="39"/>
+      <c r="T34" t="s">
+        <v>358</v>
+      </c>
+      <c r="U34">
+        <v>128</v>
+      </c>
+      <c r="V34">
+        <f t="shared" ref="V34:V37" si="91">POWER(10,U34)</f>
+        <v>1.0000000000000001E+128</v>
+      </c>
+      <c r="W34" t="str">
+        <f t="shared" ref="W34:W37" si="92">RIGHT(V34,U34)</f>
+        <v>1E+128</v>
+      </c>
     </row>
     <row r="35" spans="20:23">
-      <c r="V35" s="39"/>
+      <c r="T35" t="s">
+        <v>359</v>
+      </c>
+      <c r="U35">
+        <v>132</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="91"/>
+        <v>9.9999999999999999E+131</v>
+      </c>
+      <c r="W35" t="str">
+        <f t="shared" si="92"/>
+        <v>1E+132</v>
+      </c>
     </row>
     <row r="36" spans="20:23">
-      <c r="V36" s="39"/>
+      <c r="T36" t="s">
+        <v>360</v>
+      </c>
+      <c r="U36">
+        <v>136</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="91"/>
+        <v>1.0000000000000001E+136</v>
+      </c>
+      <c r="W36" t="str">
+        <f t="shared" si="92"/>
+        <v>1E+136</v>
+      </c>
     </row>
     <row r="37" spans="20:23">
-      <c r="V37" s="39"/>
+      <c r="T37" t="s">
+        <v>361</v>
+      </c>
+      <c r="U37">
+        <v>140</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="91"/>
+        <v>1.0000000000000001E+140</v>
+      </c>
+      <c r="W37" t="str">
+        <f t="shared" si="92"/>
+        <v>1E+140</v>
+      </c>
     </row>
     <row r="38" spans="20:23">
       <c r="V38" s="39"/>

--- a/Assets/06.Table/SuhopetTable.xlsx
+++ b/Assets/06.Table/SuhopetTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E584F8-1868-4200-B873-FA0F860AC3EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51BB188-2328-46DC-8654-AFBE84980FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="605" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="386">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1301,10 +1301,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>b</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1357,6 +1353,42 @@
   <si>
     <t>천신</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p26</t>
+  </si>
+  <si>
+    <t>신록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펫19</t>
+  </si>
+  <si>
+    <t>19단계</t>
+  </si>
+  <si>
+    <t>480,480,480,480,480</t>
+  </si>
+  <si>
+    <t>0.1,0.55,1.44,3.21,5.86,8.95,15.13</t>
+  </si>
+  <si>
+    <t>1149,2297,4594,6891,8039,16078</t>
+  </si>
+  <si>
+    <t>19단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10설,20설,50설,100설,200설</t>
+  </si>
+  <si>
+    <t>1E+133,2E+133,5E+133,1E+134,2E+134</t>
   </si>
 </sst>
 </file>
@@ -2170,10 +2202,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:U27"/>
+  <dimension ref="A1:U28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="I14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3443,10 +3475,10 @@
         <v>194</v>
       </c>
       <c r="F20" s="40" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>274</v>
@@ -3508,10 +3540,10 @@
         <v>249</v>
       </c>
       <c r="F21" s="40" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>274</v>
@@ -3886,28 +3918,28 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D27" s="43" t="s">
+        <v>374</v>
+      </c>
+      <c r="E27" s="43" t="s">
+        <v>374</v>
+      </c>
+      <c r="F27" s="40" t="s">
         <v>366</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="D27" s="43" t="s">
-        <v>375</v>
-      </c>
-      <c r="E27" s="43" t="s">
-        <v>375</v>
-      </c>
-      <c r="F27" s="40" t="s">
+      <c r="G27" s="3" t="s">
         <v>367</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>368</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>274</v>
       </c>
       <c r="I27" s="35" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>169</v>
@@ -3922,7 +3954,7 @@
         <v>49</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="O27" s="4">
         <v>6</v>
@@ -3931,7 +3963,7 @@
         <v>9016</v>
       </c>
       <c r="Q27" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="R27" s="4">
         <v>103</v>
@@ -3943,7 +3975,72 @@
         <v>230</v>
       </c>
       <c r="U27" t="s">
-        <v>373</v>
+        <v>372</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="33">
+      <c r="A28" s="2">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="D28" s="43" t="s">
+        <v>376</v>
+      </c>
+      <c r="E28" s="43" t="s">
+        <v>376</v>
+      </c>
+      <c r="F28" s="40" t="s">
+        <v>385</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="I28" s="35" t="s">
+        <v>379</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="K28" s="43">
+        <v>9016</v>
+      </c>
+      <c r="L28" s="3">
+        <v>330</v>
+      </c>
+      <c r="M28" s="4">
+        <v>49</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="O28" s="4">
+        <v>6</v>
+      </c>
+      <c r="P28" s="36">
+        <v>9016</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="R28" s="4">
+        <v>104</v>
+      </c>
+      <c r="S28" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="T28" s="51" t="s">
+        <v>230</v>
+      </c>
+      <c r="U28" t="s">
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -3967,10 +4064,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB815A5-0A26-4B2F-8716-20DE31E1881F}">
-  <dimension ref="A1:AF98"/>
+  <dimension ref="A1:AF99"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView topLeftCell="B12" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -4918,18 +5015,18 @@
         <v>420</v>
       </c>
       <c r="N25" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="O25" s="2" t="str">
         <f t="shared" si="13"/>
         <v>450,450,450,450,450</v>
       </c>
       <c r="P25" s="2" t="str">
-        <f t="shared" ref="P25" si="16">H98&amp;","&amp;I98&amp;","&amp;J98&amp;","&amp;K98&amp;","&amp;L98&amp;","&amp;M98&amp;","&amp;N98</f>
+        <f t="shared" ref="P25:P26" si="16">H98&amp;","&amp;I98&amp;","&amp;J98&amp;","&amp;K98&amp;","&amp;L98&amp;","&amp;M98&amp;","&amp;N98</f>
         <v>0.09,0.47,1.23,2.74,4.99,7.62,12.88</v>
       </c>
       <c r="Q25" s="12" t="str">
-        <f t="shared" ref="Q25" si="17">H53&amp;","&amp;I53&amp;","&amp;J53&amp;","&amp;K53&amp;","&amp;L53&amp;","&amp;M53</f>
+        <f t="shared" ref="Q25:Q26" si="17">H53&amp;","&amp;I53&amp;","&amp;J53&amp;","&amp;K53&amp;","&amp;L53&amp;","&amp;M53</f>
         <v>1042,2084,4167,6250,7292,14584</v>
       </c>
       <c r="S25" s="45"/>
@@ -4949,7 +5046,7 @@
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="G26" s="12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H26" s="12">
         <v>310</v>
@@ -4962,6 +5059,21 @@
         <f t="shared" si="15"/>
         <v>450</v>
       </c>
+      <c r="N26" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="O26" s="2" t="str">
+        <f t="shared" ref="O26" si="18">J27&amp;","&amp;J27&amp;","&amp;J27&amp;","&amp;J27&amp;","&amp;J27</f>
+        <v>480,480,480,480,480</v>
+      </c>
+      <c r="P26" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>0.1,0.55,1.44,3.21,5.86,8.95,15.13</v>
+      </c>
+      <c r="Q26" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v>1149,2297,4594,6891,8039,16078</v>
+      </c>
     </row>
     <row r="27" spans="1:30">
       <c r="A27" s="15" t="s">
@@ -4969,6 +5081,20 @@
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
+      <c r="G27" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="H27" s="12">
+        <v>330</v>
+      </c>
+      <c r="I27" s="12">
+        <f t="shared" ref="I27" si="19">H27*$B$9*$B$18*($B$13/100)</f>
+        <v>2376</v>
+      </c>
+      <c r="J27" s="12">
+        <f t="shared" ref="J27" si="20">ROUNDUP((I27/5),-1)</f>
+        <v>480</v>
+      </c>
     </row>
     <row r="28" spans="1:30">
       <c r="A28" s="29" t="s">
@@ -5015,27 +5141,27 @@
         <v>68</v>
       </c>
       <c r="R32" s="26">
-        <f t="shared" ref="R32:W32" si="18">SUM(R34:R43)</f>
+        <f t="shared" ref="R32:W32" si="21">SUM(R34:R43)</f>
         <v>16.285714285714285</v>
       </c>
       <c r="S32" s="26">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>13.328571428571429</v>
       </c>
       <c r="T32" s="26">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>10.213240418118467</v>
       </c>
       <c r="U32" s="26">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>8.8857142857142843</v>
       </c>
       <c r="V32" s="26">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>6.4878048780487809</v>
       </c>
       <c r="W32" s="26">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>5.3097560975609763</v>
       </c>
       <c r="X32"/>
@@ -5173,23 +5299,23 @@
         <v>50</v>
       </c>
       <c r="P34" s="12">
-        <f t="shared" ref="P34:P43" si="19">(H8*$B$9*$B$18)*(O34/100)+I8</f>
+        <f t="shared" ref="P34:P43" si="22">(H8*$B$9*$B$18)*(O34/100)+I8</f>
         <v>2112</v>
       </c>
       <c r="Q34" s="12">
-        <f t="shared" ref="Q34:Q43" si="20">P34-I8</f>
+        <f t="shared" ref="Q34:Q43" si="23">P34-I8</f>
         <v>1320</v>
       </c>
       <c r="R34" s="2">
-        <f t="shared" ref="R34:R43" si="21">(Q34/H8)/($B$18*7)</f>
+        <f t="shared" ref="R34:R43" si="24">(Q34/H8)/($B$18*7)</f>
         <v>0.8571428571428571</v>
       </c>
       <c r="S34" s="2">
-        <f t="shared" ref="S34:S43" si="22">(Q34/$H$17)/(7*$B$18)</f>
+        <f t="shared" ref="S34:S43" si="25">(Q34/$H$17)/(7*$B$18)</f>
         <v>0.47142857142857142</v>
       </c>
       <c r="T34" s="2">
-        <f t="shared" ref="T34:T42" si="23">(Q34/H8)/($B$18*7+$B$21)</f>
+        <f t="shared" ref="T34:T42" si="26">(Q34/H8)/($B$18*7+$B$21)</f>
         <v>0.5714285714285714</v>
       </c>
       <c r="U34" s="2">
@@ -5197,7 +5323,7 @@
         <v>0.31428571428571428</v>
       </c>
       <c r="V34" s="2">
-        <f t="shared" ref="V34:V43" si="24">(Q34/H8)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
+        <f t="shared" ref="V34:V43" si="27">(Q34/H8)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
         <v>0.34146341463414637</v>
       </c>
       <c r="W34" s="2">
@@ -5247,93 +5373,93 @@
         <v>18</v>
       </c>
       <c r="H35" s="12">
-        <f t="shared" ref="H35:H43" si="25">ROUNDUP((P35*$B$30/100),0)</f>
+        <f t="shared" ref="H35:H43" si="28">ROUNDUP((P35*$B$30/100),0)</f>
         <v>130</v>
       </c>
       <c r="I35" s="12">
-        <f t="shared" ref="I35:I43" si="26">ROUNDUP((P35*$B$31/100),0)</f>
+        <f t="shared" ref="I35:I43" si="29">ROUNDUP((P35*$B$31/100),0)</f>
         <v>260</v>
       </c>
       <c r="J35" s="12">
-        <f t="shared" ref="J35:J43" si="27">ROUNDUP((P35*$B$32/100),0)</f>
+        <f t="shared" ref="J35:J43" si="30">ROUNDUP((P35*$B$32/100),0)</f>
         <v>519</v>
       </c>
       <c r="K35" s="12">
-        <f t="shared" ref="K35:K43" si="28">ROUNDUP((P35*$B$33/100),0)</f>
+        <f t="shared" ref="K35:K43" si="31">ROUNDUP((P35*$B$33/100),0)</f>
         <v>778</v>
       </c>
       <c r="L35" s="12">
-        <f t="shared" ref="L35:L43" si="29">ROUNDUP((P35*$B$34/100),0)</f>
+        <f t="shared" ref="L35:L43" si="32">ROUNDUP((P35*$B$34/100),0)</f>
         <v>908</v>
       </c>
       <c r="M35" s="12">
-        <f t="shared" ref="M35:M43" si="30">L35*$B$43</f>
+        <f t="shared" ref="M35:M43" si="33">L35*$B$43</f>
         <v>1816</v>
       </c>
       <c r="N35" s="12">
-        <f t="shared" ref="N35:N43" si="31">SUM(H35:L35)</f>
+        <f t="shared" ref="N35:N43" si="34">SUM(H35:L35)</f>
         <v>2595</v>
       </c>
       <c r="O35" s="12">
         <v>60</v>
       </c>
       <c r="P35" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2592</v>
       </c>
       <c r="Q35" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1728</v>
       </c>
       <c r="R35" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1.0285714285714287</v>
       </c>
       <c r="S35" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0.61714285714285722</v>
       </c>
       <c r="T35" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.68571428571428572</v>
       </c>
       <c r="U35" s="2">
-        <f t="shared" ref="U35:U43" si="32">(Q35/$H$17)/($B$18*7+$B$21)</f>
+        <f t="shared" ref="U35:U43" si="35">(Q35/$H$17)/($B$18*7+$B$21)</f>
         <v>0.41142857142857148</v>
       </c>
       <c r="V35" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.40975609756097564</v>
       </c>
       <c r="W35" s="2">
-        <f t="shared" ref="W35:W43" si="33">(Q35/$H$17)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
+        <f t="shared" ref="W35:W43" si="36">(Q35/$H$17)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
         <v>0.24585365853658542</v>
       </c>
       <c r="Y35" s="12" t="s">
         <v>199</v>
       </c>
       <c r="Z35" s="12">
-        <f t="shared" ref="Z35:Z37" si="34">ROUNDUP((AE35*$B$30/100),0)</f>
+        <f t="shared" ref="Z35:Z37" si="37">ROUNDUP((AE35*$B$30/100),0)</f>
         <v>744</v>
       </c>
       <c r="AA35" s="12">
-        <f t="shared" ref="AA35:AA37" si="35">ROUNDUP((AE35*$B$31/100),0)</f>
+        <f t="shared" ref="AA35:AA37" si="38">ROUNDUP((AE35*$B$31/100),0)</f>
         <v>1488</v>
       </c>
       <c r="AB35" s="12">
-        <f t="shared" ref="AB35:AB37" si="36">ROUNDUP((AE35*$B$32/100),0)</f>
+        <f t="shared" ref="AB35:AB37" si="39">ROUNDUP((AE35*$B$32/100),0)</f>
         <v>2976</v>
       </c>
       <c r="AC35" s="12">
-        <f t="shared" ref="AC35:AC37" si="37">ROUNDUP((AE35*$B$33/100),0)</f>
+        <f t="shared" ref="AC35:AC37" si="40">ROUNDUP((AE35*$B$33/100),0)</f>
         <v>4464</v>
       </c>
       <c r="AD35" s="12">
-        <f t="shared" ref="AD35:AD48" si="38">ROUNDUP((AE35*$B$34/100),0)</f>
+        <f t="shared" ref="AD35:AD48" si="41">ROUNDUP((AE35*$B$34/100),0)</f>
         <v>5208</v>
       </c>
       <c r="AE35" s="2">
-        <f t="shared" ref="AE35:AE48" si="39">($H$17*$B$9*$B$18)*(AF35/100)</f>
+        <f t="shared" ref="AE35:AE48" si="42">($H$17*$B$9*$B$18)*(AF35/100)</f>
         <v>14880</v>
       </c>
       <c r="AF35" s="2">
@@ -5346,93 +5472,93 @@
         <v>19</v>
       </c>
       <c r="H36" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>156</v>
       </c>
       <c r="I36" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>312</v>
       </c>
       <c r="J36" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>624</v>
       </c>
       <c r="K36" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>936</v>
       </c>
       <c r="L36" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1092</v>
       </c>
       <c r="M36" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>2184</v>
       </c>
       <c r="N36" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>3120</v>
       </c>
       <c r="O36" s="12">
         <v>70</v>
       </c>
       <c r="P36" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>3120</v>
       </c>
       <c r="Q36" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>2184</v>
       </c>
       <c r="R36" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1.2</v>
       </c>
       <c r="S36" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0.78</v>
       </c>
       <c r="T36" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.8</v>
       </c>
       <c r="U36" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0.52</v>
       </c>
       <c r="V36" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.47804878048780497</v>
       </c>
       <c r="W36" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.31073170731707322</v>
       </c>
       <c r="Y36" s="12" t="s">
         <v>200</v>
       </c>
       <c r="Z36" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>768</v>
       </c>
       <c r="AA36" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>1536</v>
       </c>
       <c r="AB36" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>3072</v>
       </c>
       <c r="AC36" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>4608</v>
       </c>
       <c r="AD36" s="12">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>5376</v>
       </c>
       <c r="AE36" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>15360</v>
       </c>
       <c r="AF36" s="2">
@@ -5448,93 +5574,93 @@
         <v>85</v>
       </c>
       <c r="H37" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>185</v>
       </c>
       <c r="I37" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>370</v>
       </c>
       <c r="J37" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>740</v>
       </c>
       <c r="K37" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1109</v>
       </c>
       <c r="L37" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1294</v>
       </c>
       <c r="M37" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>2588</v>
       </c>
       <c r="N37" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>3698</v>
       </c>
       <c r="O37" s="12">
         <v>80</v>
       </c>
       <c r="P37" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>3696</v>
       </c>
       <c r="Q37" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>2688</v>
       </c>
       <c r="R37" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1.3714285714285714</v>
       </c>
       <c r="S37" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0.96</v>
       </c>
       <c r="T37" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.91428571428571426</v>
       </c>
       <c r="U37" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0.64</v>
       </c>
       <c r="V37" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.54634146341463419</v>
       </c>
       <c r="W37" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.38243902439024391</v>
       </c>
       <c r="Y37" s="12" t="s">
         <v>201</v>
       </c>
       <c r="Z37" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>792</v>
       </c>
       <c r="AA37" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>1584</v>
       </c>
       <c r="AB37" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>3168</v>
       </c>
       <c r="AC37" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>4752</v>
       </c>
       <c r="AD37" s="12">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>5544</v>
       </c>
       <c r="AE37" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>15840</v>
       </c>
       <c r="AF37" s="2">
@@ -5547,93 +5673,93 @@
         <v>20</v>
       </c>
       <c r="H38" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>216</v>
       </c>
       <c r="I38" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>432</v>
       </c>
       <c r="J38" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>864</v>
       </c>
       <c r="K38" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1296</v>
       </c>
       <c r="L38" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1512</v>
       </c>
       <c r="M38" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>3024</v>
       </c>
       <c r="N38" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>4320</v>
       </c>
       <c r="O38" s="12">
         <v>90</v>
       </c>
       <c r="P38" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>4320</v>
       </c>
       <c r="Q38" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>3240</v>
       </c>
       <c r="R38" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1.5428571428571429</v>
       </c>
       <c r="S38" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1.157142857142857</v>
       </c>
       <c r="T38" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1.0285714285714287</v>
       </c>
       <c r="U38" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0.77142857142857135</v>
       </c>
       <c r="V38" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.61463414634146352</v>
       </c>
       <c r="W38" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.46097560975609758</v>
       </c>
       <c r="Y38" s="12" t="s">
         <v>202</v>
       </c>
       <c r="Z38" s="12">
-        <f t="shared" ref="Z38:Z48" si="40">ROUNDUP((AE38*$B$30/100),0)</f>
+        <f t="shared" ref="Z38:Z48" si="43">ROUNDUP((AE38*$B$30/100),0)</f>
         <v>816</v>
       </c>
       <c r="AA38" s="12">
-        <f t="shared" ref="AA38:AA48" si="41">ROUNDUP((AE38*$B$31/100),0)</f>
+        <f t="shared" ref="AA38:AA48" si="44">ROUNDUP((AE38*$B$31/100),0)</f>
         <v>1632</v>
       </c>
       <c r="AB38" s="12">
-        <f t="shared" ref="AB38:AB48" si="42">ROUNDUP((AE38*$B$32/100),0)</f>
+        <f t="shared" ref="AB38:AB48" si="45">ROUNDUP((AE38*$B$32/100),0)</f>
         <v>3264</v>
       </c>
       <c r="AC38" s="12">
-        <f t="shared" ref="AC38:AC48" si="43">ROUNDUP((AE38*$B$33/100),0)</f>
+        <f t="shared" ref="AC38:AC48" si="46">ROUNDUP((AE38*$B$33/100),0)</f>
         <v>4896</v>
       </c>
       <c r="AD38" s="12">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>5712</v>
       </c>
       <c r="AE38" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>16320</v>
       </c>
       <c r="AF38" s="2">
@@ -5652,93 +5778,93 @@
         <v>21</v>
       </c>
       <c r="H39" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>250</v>
       </c>
       <c r="I39" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>500</v>
       </c>
       <c r="J39" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>999</v>
       </c>
       <c r="K39" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1498</v>
       </c>
       <c r="L39" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1748</v>
       </c>
       <c r="M39" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>3496</v>
       </c>
       <c r="N39" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>4995</v>
       </c>
       <c r="O39" s="12">
         <v>100</v>
       </c>
       <c r="P39" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>4992</v>
       </c>
       <c r="Q39" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>3840</v>
       </c>
       <c r="R39" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1.7142857142857142</v>
       </c>
       <c r="S39" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1.3714285714285714</v>
       </c>
       <c r="T39" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1.1428571428571428</v>
       </c>
       <c r="U39" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0.91428571428571426</v>
       </c>
       <c r="V39" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.68292682926829273</v>
       </c>
       <c r="W39" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.54634146341463419</v>
       </c>
       <c r="Y39" s="12" t="s">
         <v>203</v>
       </c>
       <c r="Z39" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>840</v>
       </c>
       <c r="AA39" s="12">
+        <f t="shared" si="44"/>
+        <v>1680</v>
+      </c>
+      <c r="AB39" s="12">
+        <f t="shared" si="45"/>
+        <v>3360</v>
+      </c>
+      <c r="AC39" s="12">
+        <f t="shared" si="46"/>
+        <v>5040</v>
+      </c>
+      <c r="AD39" s="12">
         <f t="shared" si="41"/>
-        <v>1680</v>
-      </c>
-      <c r="AB39" s="12">
+        <v>5880</v>
+      </c>
+      <c r="AE39" s="2">
         <f t="shared" si="42"/>
-        <v>3360</v>
-      </c>
-      <c r="AC39" s="12">
-        <f t="shared" si="43"/>
-        <v>5040</v>
-      </c>
-      <c r="AD39" s="12">
-        <f t="shared" si="38"/>
-        <v>5880</v>
-      </c>
-      <c r="AE39" s="2">
-        <f t="shared" si="39"/>
         <v>16800</v>
       </c>
       <c r="AF39" s="2">
@@ -5756,93 +5882,93 @@
         <v>22</v>
       </c>
       <c r="H40" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>286</v>
       </c>
       <c r="I40" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>572</v>
       </c>
       <c r="J40" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>1143</v>
       </c>
       <c r="K40" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1714</v>
       </c>
       <c r="L40" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>2000</v>
       </c>
       <c r="M40" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>4000</v>
       </c>
       <c r="N40" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>5715</v>
       </c>
       <c r="O40" s="12">
         <v>110</v>
       </c>
       <c r="P40" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>5712</v>
       </c>
       <c r="Q40" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>4488</v>
       </c>
       <c r="R40" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1.8857142857142857</v>
       </c>
       <c r="S40" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1.602857142857143</v>
       </c>
       <c r="T40" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1.2571428571428571</v>
       </c>
       <c r="U40" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>1.0685714285714287</v>
       </c>
       <c r="V40" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.75121951219512195</v>
       </c>
       <c r="W40" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.63853658536585378</v>
       </c>
       <c r="Y40" s="12" t="s">
         <v>204</v>
       </c>
       <c r="Z40" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>864</v>
       </c>
       <c r="AA40" s="12">
+        <f t="shared" si="44"/>
+        <v>1728</v>
+      </c>
+      <c r="AB40" s="12">
+        <f t="shared" si="45"/>
+        <v>3456</v>
+      </c>
+      <c r="AC40" s="12">
+        <f t="shared" si="46"/>
+        <v>5184</v>
+      </c>
+      <c r="AD40" s="12">
         <f t="shared" si="41"/>
-        <v>1728</v>
-      </c>
-      <c r="AB40" s="12">
+        <v>6048</v>
+      </c>
+      <c r="AE40" s="2">
         <f t="shared" si="42"/>
-        <v>3456</v>
-      </c>
-      <c r="AC40" s="12">
-        <f t="shared" si="43"/>
-        <v>5184</v>
-      </c>
-      <c r="AD40" s="12">
-        <f t="shared" si="38"/>
-        <v>6048</v>
-      </c>
-      <c r="AE40" s="2">
-        <f t="shared" si="39"/>
         <v>17280</v>
       </c>
       <c r="AF40" s="2">
@@ -5854,93 +5980,93 @@
         <v>23</v>
       </c>
       <c r="H41" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>324</v>
       </c>
       <c r="I41" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>648</v>
       </c>
       <c r="J41" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>1296</v>
       </c>
       <c r="K41" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1944</v>
       </c>
       <c r="L41" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>2268</v>
       </c>
       <c r="M41" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>4536</v>
       </c>
       <c r="N41" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>6480</v>
       </c>
       <c r="O41" s="12">
         <v>120</v>
       </c>
       <c r="P41" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>6480</v>
       </c>
       <c r="Q41" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>5184</v>
       </c>
       <c r="R41" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>2.0571428571428574</v>
       </c>
       <c r="S41" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1.8514285714285716</v>
       </c>
       <c r="T41" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1.3714285714285714</v>
       </c>
       <c r="U41" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>1.2342857142857144</v>
       </c>
       <c r="V41" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.81951219512195128</v>
       </c>
       <c r="W41" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.7375609756097562</v>
       </c>
       <c r="Y41" s="12" t="s">
         <v>205</v>
       </c>
       <c r="Z41" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>888</v>
       </c>
       <c r="AA41" s="12">
+        <f t="shared" si="44"/>
+        <v>1776</v>
+      </c>
+      <c r="AB41" s="12">
+        <f t="shared" si="45"/>
+        <v>3552</v>
+      </c>
+      <c r="AC41" s="12">
+        <f t="shared" si="46"/>
+        <v>5328</v>
+      </c>
+      <c r="AD41" s="12">
         <f t="shared" si="41"/>
-        <v>1776</v>
-      </c>
-      <c r="AB41" s="12">
+        <v>6216</v>
+      </c>
+      <c r="AE41" s="2">
         <f t="shared" si="42"/>
-        <v>3552</v>
-      </c>
-      <c r="AC41" s="12">
-        <f t="shared" si="43"/>
-        <v>5328</v>
-      </c>
-      <c r="AD41" s="12">
-        <f t="shared" si="38"/>
-        <v>6216</v>
-      </c>
-      <c r="AE41" s="2">
-        <f t="shared" si="39"/>
         <v>17760</v>
       </c>
       <c r="AF41" s="2">
@@ -5955,23 +6081,23 @@
         <v>24</v>
       </c>
       <c r="H42" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>365</v>
       </c>
       <c r="I42" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>730</v>
       </c>
       <c r="J42" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>1460</v>
       </c>
       <c r="K42" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>2189</v>
       </c>
       <c r="L42" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>2554</v>
       </c>
       <c r="M42" s="12">
@@ -5979,69 +6105,69 @@
         <v>5108</v>
       </c>
       <c r="N42" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>7298</v>
       </c>
       <c r="O42" s="12">
         <v>130</v>
       </c>
       <c r="P42" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>7296</v>
       </c>
       <c r="Q42" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>5928</v>
       </c>
       <c r="R42" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>2.2285714285714286</v>
       </c>
       <c r="S42" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>2.117142857142857</v>
       </c>
       <c r="T42" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1.4857142857142858</v>
       </c>
       <c r="U42" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>1.4114285714285715</v>
       </c>
       <c r="V42" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.88780487804878061</v>
       </c>
       <c r="W42" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.84341463414634155</v>
       </c>
       <c r="Y42" s="12" t="s">
         <v>206</v>
       </c>
       <c r="Z42" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>912</v>
       </c>
       <c r="AA42" s="12">
+        <f t="shared" si="44"/>
+        <v>1824</v>
+      </c>
+      <c r="AB42" s="12">
+        <f t="shared" si="45"/>
+        <v>3648</v>
+      </c>
+      <c r="AC42" s="12">
+        <f t="shared" si="46"/>
+        <v>5472</v>
+      </c>
+      <c r="AD42" s="12">
         <f t="shared" si="41"/>
-        <v>1824</v>
-      </c>
-      <c r="AB42" s="12">
+        <v>6384</v>
+      </c>
+      <c r="AE42" s="2">
         <f t="shared" si="42"/>
-        <v>3648</v>
-      </c>
-      <c r="AC42" s="12">
-        <f t="shared" si="43"/>
-        <v>5472</v>
-      </c>
-      <c r="AD42" s="12">
-        <f t="shared" si="38"/>
-        <v>6384</v>
-      </c>
-      <c r="AE42" s="2">
-        <f t="shared" si="39"/>
         <v>18240</v>
       </c>
       <c r="AF42" s="2">
@@ -6059,50 +6185,50 @@
         <v>25</v>
       </c>
       <c r="H43" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>408</v>
       </c>
       <c r="I43" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>816</v>
       </c>
       <c r="J43" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>1632</v>
       </c>
       <c r="K43" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>2448</v>
       </c>
       <c r="L43" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>2856</v>
       </c>
       <c r="M43" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>5712</v>
       </c>
       <c r="N43" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>8160</v>
       </c>
       <c r="O43" s="12">
         <v>140</v>
       </c>
       <c r="P43" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>8160</v>
       </c>
       <c r="Q43" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>6720</v>
       </c>
       <c r="R43" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>2.4</v>
       </c>
       <c r="S43" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>2.4</v>
       </c>
       <c r="T43" s="2">
@@ -6110,42 +6236,42 @@
         <v>0.95609756097560994</v>
       </c>
       <c r="U43" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>1.6</v>
       </c>
       <c r="V43" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.95609756097560994</v>
       </c>
       <c r="W43" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.95609756097560994</v>
       </c>
       <c r="Y43" s="12" t="s">
         <v>207</v>
       </c>
       <c r="Z43" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>936</v>
       </c>
       <c r="AA43" s="12">
+        <f t="shared" si="44"/>
+        <v>1872</v>
+      </c>
+      <c r="AB43" s="12">
+        <f t="shared" si="45"/>
+        <v>3744</v>
+      </c>
+      <c r="AC43" s="12">
+        <f t="shared" si="46"/>
+        <v>5616</v>
+      </c>
+      <c r="AD43" s="12">
         <f t="shared" si="41"/>
-        <v>1872</v>
-      </c>
-      <c r="AB43" s="12">
+        <v>6552</v>
+      </c>
+      <c r="AE43" s="2">
         <f t="shared" si="42"/>
-        <v>3744</v>
-      </c>
-      <c r="AC43" s="12">
-        <f t="shared" si="43"/>
-        <v>5616</v>
-      </c>
-      <c r="AD43" s="12">
-        <f t="shared" si="38"/>
-        <v>6552</v>
-      </c>
-      <c r="AE43" s="2">
-        <f t="shared" si="39"/>
         <v>18720</v>
       </c>
       <c r="AF43" s="2">
@@ -6177,27 +6303,27 @@
         <v>208</v>
       </c>
       <c r="Z44" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>960</v>
       </c>
       <c r="AA44" s="12">
+        <f t="shared" si="44"/>
+        <v>1920</v>
+      </c>
+      <c r="AB44" s="12">
+        <f t="shared" si="45"/>
+        <v>3840</v>
+      </c>
+      <c r="AC44" s="12">
+        <f t="shared" si="46"/>
+        <v>5760</v>
+      </c>
+      <c r="AD44" s="12">
         <f t="shared" si="41"/>
-        <v>1920</v>
-      </c>
-      <c r="AB44" s="12">
+        <v>6720</v>
+      </c>
+      <c r="AE44" s="2">
         <f t="shared" si="42"/>
-        <v>3840</v>
-      </c>
-      <c r="AC44" s="12">
-        <f t="shared" si="43"/>
-        <v>5760</v>
-      </c>
-      <c r="AD44" s="12">
-        <f t="shared" si="38"/>
-        <v>6720</v>
-      </c>
-      <c r="AE44" s="2">
-        <f t="shared" si="39"/>
         <v>19200</v>
       </c>
       <c r="AF44" s="2">
@@ -6213,23 +6339,23 @@
         <v>6.8571428571428568</v>
       </c>
       <c r="S45" s="26">
-        <f t="shared" ref="S45:W45" si="44">SUM(S46:S47)</f>
+        <f t="shared" ref="S45:W45" si="47">SUM(S46:S47)</f>
         <v>6.7012987012987013</v>
       </c>
       <c r="T45" s="26">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>2.7317073170731709</v>
       </c>
       <c r="U45" s="26">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>4.4675324675324681</v>
       </c>
       <c r="V45" s="26">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>2.7317073170731709</v>
       </c>
       <c r="W45" s="26">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>2.6696230598669626</v>
       </c>
       <c r="X45"/>
@@ -6237,27 +6363,27 @@
         <v>209</v>
       </c>
       <c r="Z45" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>984</v>
       </c>
       <c r="AA45" s="12">
+        <f t="shared" si="44"/>
+        <v>1968</v>
+      </c>
+      <c r="AB45" s="12">
+        <f t="shared" si="45"/>
+        <v>3936</v>
+      </c>
+      <c r="AC45" s="12">
+        <f t="shared" si="46"/>
+        <v>5904</v>
+      </c>
+      <c r="AD45" s="12">
         <f t="shared" si="41"/>
-        <v>1968</v>
-      </c>
-      <c r="AB45" s="12">
+        <v>6888</v>
+      </c>
+      <c r="AE45" s="2">
         <f t="shared" si="42"/>
-        <v>3936</v>
-      </c>
-      <c r="AC45" s="12">
-        <f t="shared" si="43"/>
-        <v>5904</v>
-      </c>
-      <c r="AD45" s="12">
-        <f t="shared" si="38"/>
-        <v>6888</v>
-      </c>
-      <c r="AE45" s="2">
-        <f t="shared" si="39"/>
         <v>19680</v>
       </c>
       <c r="AF45" s="2">
@@ -6269,31 +6395,31 @@
         <v>105</v>
       </c>
       <c r="H46" s="12">
-        <f t="shared" ref="H46:H47" si="45">ROUNDUP((P46*$B$30/100),0)</f>
+        <f t="shared" ref="H46:H47" si="48">ROUNDUP((P46*$B$30/100),0)</f>
         <v>580</v>
       </c>
       <c r="I46" s="12">
-        <f t="shared" ref="I46:I47" si="46">ROUNDUP((P46*$B$31/100),0)</f>
+        <f t="shared" ref="I46:I47" si="49">ROUNDUP((P46*$B$31/100),0)</f>
         <v>1160</v>
       </c>
       <c r="J46" s="12">
-        <f t="shared" ref="J46:J47" si="47">ROUNDUP((P46*$B$32/100),0)</f>
+        <f t="shared" ref="J46:J47" si="50">ROUNDUP((P46*$B$32/100),0)</f>
         <v>2319</v>
       </c>
       <c r="K46" s="12">
-        <f t="shared" ref="K46:K47" si="48">ROUNDUP((P46*$B$33/100),0)</f>
+        <f t="shared" ref="K46:K47" si="51">ROUNDUP((P46*$B$33/100),0)</f>
         <v>3478</v>
       </c>
       <c r="L46" s="12">
-        <f t="shared" ref="L46:L47" si="49">ROUNDUP((P46*$B$34/100),0)</f>
+        <f t="shared" ref="L46:L47" si="52">ROUNDUP((P46*$B$34/100),0)</f>
         <v>4058</v>
       </c>
       <c r="M46" s="12">
-        <f t="shared" ref="M46:M51" si="50">L46*$B$43</f>
+        <f t="shared" ref="M46:M51" si="53">L46*$B$43</f>
         <v>8116</v>
       </c>
       <c r="N46" s="12">
-        <f t="shared" ref="N46" si="51">SUM(H46:L46)</f>
+        <f t="shared" ref="N46" si="54">SUM(H46:L46)</f>
         <v>11595</v>
       </c>
       <c r="O46" s="12">
@@ -6335,27 +6461,27 @@
         <v>210</v>
       </c>
       <c r="Z46" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>1008</v>
       </c>
       <c r="AA46" s="12">
+        <f t="shared" si="44"/>
+        <v>2016</v>
+      </c>
+      <c r="AB46" s="12">
+        <f t="shared" si="45"/>
+        <v>4032</v>
+      </c>
+      <c r="AC46" s="12">
+        <f t="shared" si="46"/>
+        <v>6048</v>
+      </c>
+      <c r="AD46" s="12">
         <f t="shared" si="41"/>
-        <v>2016</v>
-      </c>
-      <c r="AB46" s="12">
+        <v>7056</v>
+      </c>
+      <c r="AE46" s="2">
         <f t="shared" si="42"/>
-        <v>4032</v>
-      </c>
-      <c r="AC46" s="12">
-        <f t="shared" si="43"/>
-        <v>6048</v>
-      </c>
-      <c r="AD46" s="12">
-        <f t="shared" si="38"/>
-        <v>7056</v>
-      </c>
-      <c r="AE46" s="2">
-        <f t="shared" si="39"/>
         <v>20160</v>
       </c>
       <c r="AF46" s="2">
@@ -6367,31 +6493,31 @@
         <v>106</v>
       </c>
       <c r="H47" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>608</v>
       </c>
       <c r="I47" s="12">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>1215</v>
       </c>
       <c r="J47" s="12">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>2429</v>
       </c>
       <c r="K47" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>3644</v>
       </c>
       <c r="L47" s="12">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>4251</v>
       </c>
       <c r="M47" s="12">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>8502</v>
       </c>
       <c r="N47" s="12">
-        <f t="shared" ref="N47:N52" si="52">SUM(H47:L47)</f>
+        <f t="shared" ref="N47:N52" si="55">SUM(H47:L47)</f>
         <v>12147</v>
       </c>
       <c r="O47" s="12">
@@ -6433,27 +6559,27 @@
         <v>211</v>
       </c>
       <c r="Z47" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>1032</v>
       </c>
       <c r="AA47" s="12">
+        <f t="shared" si="44"/>
+        <v>2064</v>
+      </c>
+      <c r="AB47" s="12">
+        <f t="shared" si="45"/>
+        <v>4128</v>
+      </c>
+      <c r="AC47" s="12">
+        <f t="shared" si="46"/>
+        <v>6192</v>
+      </c>
+      <c r="AD47" s="12">
         <f t="shared" si="41"/>
-        <v>2064</v>
-      </c>
-      <c r="AB47" s="12">
+        <v>7224</v>
+      </c>
+      <c r="AE47" s="2">
         <f t="shared" si="42"/>
-        <v>4128</v>
-      </c>
-      <c r="AC47" s="12">
-        <f t="shared" si="43"/>
-        <v>6192</v>
-      </c>
-      <c r="AD47" s="12">
-        <f t="shared" si="38"/>
-        <v>7224</v>
-      </c>
-      <c r="AE47" s="2">
-        <f t="shared" si="39"/>
         <v>20640</v>
       </c>
       <c r="AF47" s="2">
@@ -6465,31 +6591,31 @@
         <v>172</v>
       </c>
       <c r="H48" s="12">
-        <f t="shared" ref="H48" si="53">ROUNDUP((P48*$B$30/100),0)</f>
+        <f t="shared" ref="H48" si="56">ROUNDUP((P48*$B$30/100),0)</f>
         <v>635</v>
       </c>
       <c r="I48" s="12">
-        <f t="shared" ref="I48" si="54">ROUNDUP((P48*$B$31/100),0)</f>
+        <f t="shared" ref="I48" si="57">ROUNDUP((P48*$B$31/100),0)</f>
         <v>1270</v>
       </c>
       <c r="J48" s="12">
-        <f t="shared" ref="J48" si="55">ROUNDUP((P48*$B$32/100),0)</f>
+        <f t="shared" ref="J48" si="58">ROUNDUP((P48*$B$32/100),0)</f>
         <v>2540</v>
       </c>
       <c r="K48" s="12">
-        <f t="shared" ref="K48" si="56">ROUNDUP((P48*$B$33/100),0)</f>
+        <f t="shared" ref="K48" si="59">ROUNDUP((P48*$B$33/100),0)</f>
         <v>3809</v>
       </c>
       <c r="L48" s="12">
-        <f t="shared" ref="L48" si="57">ROUNDUP((P48*$B$34/100),0)</f>
+        <f t="shared" ref="L48" si="60">ROUNDUP((P48*$B$34/100),0)</f>
         <v>4444</v>
       </c>
       <c r="M48" s="12">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>8888</v>
       </c>
       <c r="N48" s="12">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>12698</v>
       </c>
       <c r="O48" s="12">
@@ -6503,27 +6629,27 @@
         <v>212</v>
       </c>
       <c r="Z48" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>1056</v>
       </c>
       <c r="AA48" s="12">
+        <f t="shared" si="44"/>
+        <v>2112</v>
+      </c>
+      <c r="AB48" s="12">
+        <f t="shared" si="45"/>
+        <v>4224</v>
+      </c>
+      <c r="AC48" s="12">
+        <f t="shared" si="46"/>
+        <v>6336</v>
+      </c>
+      <c r="AD48" s="12">
         <f t="shared" si="41"/>
-        <v>2112</v>
-      </c>
-      <c r="AB48" s="12">
+        <v>7392</v>
+      </c>
+      <c r="AE48" s="2">
         <f t="shared" si="42"/>
-        <v>4224</v>
-      </c>
-      <c r="AC48" s="12">
-        <f t="shared" si="43"/>
-        <v>6336</v>
-      </c>
-      <c r="AD48" s="12">
-        <f t="shared" si="38"/>
-        <v>7392</v>
-      </c>
-      <c r="AE48" s="2">
-        <f t="shared" si="39"/>
         <v>21120</v>
       </c>
       <c r="AF48" s="2">
@@ -6535,31 +6661,31 @@
         <v>175</v>
       </c>
       <c r="H49" s="12">
-        <f t="shared" ref="H49" si="58">ROUNDUP((P49*$B$30/100),0)</f>
+        <f t="shared" ref="H49" si="61">ROUNDUP((P49*$B$30/100),0)</f>
         <v>692</v>
       </c>
       <c r="I49" s="12">
-        <f t="shared" ref="I49" si="59">ROUNDUP((P49*$B$31/100),0)</f>
+        <f t="shared" ref="I49" si="62">ROUNDUP((P49*$B$31/100),0)</f>
         <v>1383</v>
       </c>
       <c r="J49" s="12">
-        <f t="shared" ref="J49" si="60">ROUNDUP((P49*$B$32/100),0)</f>
+        <f t="shared" ref="J49" si="63">ROUNDUP((P49*$B$32/100),0)</f>
         <v>2765</v>
       </c>
       <c r="K49" s="12">
-        <f t="shared" ref="K49" si="61">ROUNDUP((P49*$B$33/100),0)</f>
+        <f t="shared" ref="K49" si="64">ROUNDUP((P49*$B$33/100),0)</f>
         <v>4148</v>
       </c>
       <c r="L49" s="12">
-        <f t="shared" ref="L49" si="62">ROUNDUP((P49*$B$34/100),0)</f>
+        <f t="shared" ref="L49" si="65">ROUNDUP((P49*$B$34/100),0)</f>
         <v>4839</v>
       </c>
       <c r="M49" s="12">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>9678</v>
       </c>
       <c r="N49" s="12">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>13827</v>
       </c>
       <c r="O49" s="12">
@@ -6575,31 +6701,31 @@
         <v>195</v>
       </c>
       <c r="H50" s="12">
-        <f t="shared" ref="H50:H51" si="63">ROUNDUP((P50*$B$30/100),0)</f>
+        <f t="shared" ref="H50:H51" si="66">ROUNDUP((P50*$B$30/100),0)</f>
         <v>750</v>
       </c>
       <c r="I50" s="12">
-        <f t="shared" ref="I50:I51" si="64">ROUNDUP((P50*$B$31/100),0)</f>
+        <f t="shared" ref="I50:I51" si="67">ROUNDUP((P50*$B$31/100),0)</f>
         <v>1500</v>
       </c>
       <c r="J50" s="12">
-        <f t="shared" ref="J50:J51" si="65">ROUNDUP((P50*$B$32/100),0)</f>
+        <f t="shared" ref="J50:J51" si="68">ROUNDUP((P50*$B$32/100),0)</f>
         <v>3000</v>
       </c>
       <c r="K50" s="12">
-        <f t="shared" ref="K50:K51" si="66">ROUNDUP((P50*$B$33/100),0)</f>
+        <f t="shared" ref="K50:K51" si="69">ROUNDUP((P50*$B$33/100),0)</f>
         <v>4500</v>
       </c>
       <c r="L50" s="12">
-        <f t="shared" ref="L50:L51" si="67">ROUNDUP((P50*$B$34/100),0)</f>
+        <f t="shared" ref="L50:L51" si="70">ROUNDUP((P50*$B$34/100),0)</f>
         <v>5250</v>
       </c>
       <c r="M50" s="12">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>10500</v>
       </c>
       <c r="N50" s="12">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>15000</v>
       </c>
       <c r="O50" s="12">
@@ -6615,31 +6741,31 @@
         <v>246</v>
       </c>
       <c r="H51" s="12">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>843</v>
       </c>
       <c r="I51" s="12">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>1685</v>
       </c>
       <c r="J51" s="12">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>3370</v>
       </c>
       <c r="K51" s="12">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>5055</v>
       </c>
       <c r="L51" s="12">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>5897</v>
       </c>
       <c r="M51" s="12">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>11794</v>
       </c>
       <c r="N51" s="12">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>16850</v>
       </c>
       <c r="O51" s="12">
@@ -6655,31 +6781,31 @@
         <v>313</v>
       </c>
       <c r="H52" s="12">
-        <f t="shared" ref="H52:H53" si="68">ROUNDUP((P52*$B$30/100),0)</f>
+        <f t="shared" ref="H52:H53" si="71">ROUNDUP((P52*$B$30/100),0)</f>
         <v>940</v>
       </c>
       <c r="I52" s="12">
-        <f t="shared" ref="I52:I53" si="69">ROUNDUP((P52*$B$31/100),0)</f>
+        <f t="shared" ref="I52:I53" si="72">ROUNDUP((P52*$B$31/100),0)</f>
         <v>1880</v>
       </c>
       <c r="J52" s="12">
-        <f t="shared" ref="J52:J53" si="70">ROUNDUP((P52*$B$32/100),0)</f>
+        <f t="shared" ref="J52:J53" si="73">ROUNDUP((P52*$B$32/100),0)</f>
         <v>3759</v>
       </c>
       <c r="K52" s="12">
-        <f t="shared" ref="K52:K53" si="71">ROUNDUP((P52*$B$33/100),0)</f>
+        <f t="shared" ref="K52:K53" si="74">ROUNDUP((P52*$B$33/100),0)</f>
         <v>5638</v>
       </c>
       <c r="L52" s="12">
-        <f t="shared" ref="L52:L53" si="72">ROUNDUP((P52*$B$34/100),0)</f>
+        <f t="shared" ref="L52:L53" si="75">ROUNDUP((P52*$B$34/100),0)</f>
         <v>6578</v>
       </c>
       <c r="M52" s="12">
-        <f t="shared" ref="M52:M53" si="73">L52*$B$43</f>
+        <f t="shared" ref="M52:M53" si="76">L52*$B$43</f>
         <v>13156</v>
       </c>
       <c r="N52" s="12">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>18795</v>
       </c>
       <c r="O52" s="12">
@@ -6695,34 +6821,34 @@
     </row>
     <row r="53" spans="7:32" ht="17.25" thickBot="1">
       <c r="G53" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H53" s="12">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>1042</v>
       </c>
       <c r="I53" s="12">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>2084</v>
       </c>
       <c r="J53" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>4167</v>
       </c>
       <c r="K53" s="12">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>6250</v>
       </c>
       <c r="L53" s="12">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>7292</v>
       </c>
       <c r="M53" s="12">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>14584</v>
       </c>
       <c r="N53" s="12">
-        <f t="shared" ref="N53" si="74">SUM(H53:L53)</f>
+        <f t="shared" ref="N53" si="77">SUM(H53:L53)</f>
         <v>20835</v>
       </c>
       <c r="O53" s="12">
@@ -6758,6 +6884,44 @@
       </c>
     </row>
     <row r="54" spans="7:32" ht="17.25" thickTop="1">
+      <c r="G54" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="H54" s="12">
+        <f t="shared" ref="H54" si="78">ROUNDUP((P54*$B$30/100),0)</f>
+        <v>1149</v>
+      </c>
+      <c r="I54" s="12">
+        <f t="shared" ref="I54" si="79">ROUNDUP((P54*$B$31/100),0)</f>
+        <v>2297</v>
+      </c>
+      <c r="J54" s="12">
+        <f t="shared" ref="J54" si="80">ROUNDUP((P54*$B$32/100),0)</f>
+        <v>4594</v>
+      </c>
+      <c r="K54" s="12">
+        <f t="shared" ref="K54" si="81">ROUNDUP((P54*$B$33/100),0)</f>
+        <v>6891</v>
+      </c>
+      <c r="L54" s="12">
+        <f t="shared" ref="L54" si="82">ROUNDUP((P54*$B$34/100),0)</f>
+        <v>8039</v>
+      </c>
+      <c r="M54" s="12">
+        <f t="shared" ref="M54" si="83">L54*$B$43</f>
+        <v>16078</v>
+      </c>
+      <c r="N54" s="12">
+        <f t="shared" ref="N54" si="84">SUM(H54:L54)</f>
+        <v>22970</v>
+      </c>
+      <c r="O54" s="12">
+        <v>260</v>
+      </c>
+      <c r="P54" s="12">
+        <f>(H27*$B$9*$B$18)*(O54/100)+I27</f>
+        <v>22968</v>
+      </c>
       <c r="Y54" s="12" t="s">
         <v>198</v>
       </c>
@@ -6765,23 +6929,23 @@
         <v>0.01</v>
       </c>
       <c r="AA54" s="12">
-        <f t="shared" ref="AA54:AA68" si="75">ROUNDUP(((Z34/$B$39)*$B$40)*((100+AF54)/100),0)/100</f>
+        <f t="shared" ref="AA54:AA68" si="85">ROUNDUP(((Z34/$B$39)*$B$40)*((100+AF54)/100),0)/100</f>
         <v>0.22</v>
       </c>
       <c r="AB54" s="12">
-        <f t="shared" ref="AB54:AB68" si="76">ROUNDUP(((AA34/$B$39)*$B$40)*((100+AF54)/100),0)/100</f>
+        <f t="shared" ref="AB54:AB68" si="86">ROUNDUP(((AA34/$B$39)*$B$40)*((100+AF54)/100),0)/100</f>
         <v>0.44</v>
       </c>
       <c r="AC54" s="12">
-        <f t="shared" ref="AC54:AC68" si="77">ROUNDUP(((AB34/$B$39)*$B$40)*((100+AF54)/100),0)/100</f>
+        <f t="shared" ref="AC54:AC68" si="87">ROUNDUP(((AB34/$B$39)*$B$40)*((100+AF54)/100),0)/100</f>
         <v>0.87</v>
       </c>
       <c r="AD54" s="12">
-        <f t="shared" ref="AD54:AD68" si="78">ROUNDUP(((AC34/$B$39)*$B$40)*((100+AF54)/100),0)/100</f>
+        <f t="shared" ref="AD54:AD68" si="88">ROUNDUP(((AC34/$B$39)*$B$40)*((100+AF54)/100),0)/100</f>
         <v>1.3</v>
       </c>
       <c r="AE54" s="12">
-        <f t="shared" ref="AE54:AE68" si="79">ROUNDUP(((AD34/$B$39)*$B$40)*((100+AF54)/100),0)/100</f>
+        <f t="shared" ref="AE54:AE68" si="89">ROUNDUP(((AD34/$B$39)*$B$40)*((100+AF54)/100),0)/100</f>
         <v>1.52</v>
       </c>
       <c r="AF54" s="2">
@@ -6796,23 +6960,23 @@
         <v>0.02</v>
       </c>
       <c r="AA55" s="12">
-        <f t="shared" si="75"/>
+        <f t="shared" si="85"/>
         <v>0.24</v>
       </c>
       <c r="AB55" s="12">
-        <f t="shared" si="76"/>
+        <f t="shared" si="86"/>
         <v>0.47</v>
       </c>
       <c r="AC55" s="12">
-        <f t="shared" si="77"/>
+        <f t="shared" si="87"/>
         <v>0.93</v>
       </c>
       <c r="AD55" s="12">
-        <f t="shared" si="78"/>
+        <f t="shared" si="88"/>
         <v>1.4</v>
       </c>
       <c r="AE55" s="12">
-        <f t="shared" si="79"/>
+        <f t="shared" si="89"/>
         <v>1.63</v>
       </c>
       <c r="AF55" s="2">
@@ -6827,23 +6991,23 @@
         <v>0.03</v>
       </c>
       <c r="AA56" s="12">
-        <f t="shared" si="75"/>
+        <f t="shared" si="85"/>
         <v>0.25</v>
       </c>
       <c r="AB56" s="12">
-        <f t="shared" si="76"/>
+        <f t="shared" si="86"/>
         <v>0.5</v>
       </c>
       <c r="AC56" s="12">
-        <f t="shared" si="77"/>
+        <f t="shared" si="87"/>
         <v>1</v>
       </c>
       <c r="AD56" s="12">
-        <f t="shared" si="78"/>
+        <f t="shared" si="88"/>
         <v>1.5</v>
       </c>
       <c r="AE56" s="12">
-        <f t="shared" si="79"/>
+        <f t="shared" si="89"/>
         <v>1.75</v>
       </c>
       <c r="AF56" s="2">
@@ -6871,23 +7035,23 @@
         <v>0.04</v>
       </c>
       <c r="AA57" s="12">
-        <f t="shared" si="75"/>
+        <f t="shared" si="85"/>
         <v>0.27</v>
       </c>
       <c r="AB57" s="12">
-        <f t="shared" si="76"/>
+        <f t="shared" si="86"/>
         <v>0.54</v>
       </c>
       <c r="AC57" s="12">
-        <f t="shared" si="77"/>
+        <f t="shared" si="87"/>
         <v>1.07</v>
       </c>
       <c r="AD57" s="12">
-        <f t="shared" si="78"/>
+        <f t="shared" si="88"/>
         <v>1.6</v>
       </c>
       <c r="AE57" s="12">
-        <f t="shared" si="79"/>
+        <f t="shared" si="89"/>
         <v>1.87</v>
       </c>
       <c r="AF57" s="2">
@@ -6938,23 +7102,23 @@
         <v>0.05</v>
       </c>
       <c r="AA58" s="12">
-        <f t="shared" si="75"/>
+        <f t="shared" si="85"/>
         <v>0.3</v>
       </c>
       <c r="AB58" s="12">
-        <f t="shared" si="76"/>
+        <f t="shared" si="86"/>
         <v>0.59</v>
       </c>
       <c r="AC58" s="12">
-        <f t="shared" si="77"/>
+        <f t="shared" si="87"/>
         <v>1.18</v>
       </c>
       <c r="AD58" s="12">
-        <f t="shared" si="78"/>
+        <f t="shared" si="88"/>
         <v>1.77</v>
       </c>
       <c r="AE58" s="12">
-        <f t="shared" si="79"/>
+        <f t="shared" si="89"/>
         <v>2.06</v>
       </c>
       <c r="AF58" s="2">
@@ -6969,34 +7133,34 @@
         <v>0.01</v>
       </c>
       <c r="I59" s="12">
-        <f t="shared" ref="I59:I68" si="80">ROUNDUP(((H34/$B$39)*$B$40)*((100+O59)/100),0)/100</f>
+        <f t="shared" ref="I59:I68" si="90">ROUNDUP(((H34/$B$39)*$B$40)*((100+O59)/100),0)/100</f>
         <v>0.02</v>
       </c>
       <c r="J59" s="12">
-        <f t="shared" ref="J59:J68" si="81">ROUNDUP(((I34/$B$39)*$B$40)*((100+O59)/100),0)/100</f>
+        <f t="shared" ref="J59:J68" si="91">ROUNDUP(((I34/$B$39)*$B$40)*((100+O59)/100),0)/100</f>
         <v>0.03</v>
       </c>
       <c r="K59" s="12">
-        <f t="shared" ref="K59:K68" si="82">ROUNDUP(((J34/$B$39)*$B$40)*((100+O59)/100),0)/100</f>
+        <f t="shared" ref="K59:K68" si="92">ROUNDUP(((J34/$B$39)*$B$40)*((100+O59)/100),0)/100</f>
         <v>0.06</v>
       </c>
       <c r="L59" s="12">
-        <f t="shared" ref="L59:L68" si="83">ROUNDUP(((K34/$B$39)*$B$40)*((100+O59)/100),0)/100</f>
+        <f t="shared" ref="L59:L68" si="93">ROUNDUP(((K34/$B$39)*$B$40)*((100+O59)/100),0)/100</f>
         <v>0.09</v>
       </c>
       <c r="M59" s="12">
-        <f t="shared" ref="M59:M68" si="84">ROUNDUP(((L34/$B$39)*$B$40)*((100+O59)/100),0)/100</f>
+        <f t="shared" ref="M59:M68" si="94">ROUNDUP(((L34/$B$39)*$B$40)*((100+O59)/100),0)/100</f>
         <v>0.1</v>
       </c>
       <c r="N59" s="12">
-        <f t="shared" ref="N59:N68" si="85">ROUNDUP(((M34/$B$39)*$B$40)*((100+O59)/100),0)/100</f>
+        <f t="shared" ref="N59:N68" si="95">ROUNDUP(((M34/$B$39)*$B$40)*((100+O59)/100),0)/100</f>
         <v>0.2</v>
       </c>
       <c r="O59" s="13">
         <v>10</v>
       </c>
       <c r="P59" s="13">
-        <f t="shared" ref="P59:P70" si="86">SUM(H59:M59)</f>
+        <f t="shared" ref="P59:P70" si="96">SUM(H59:M59)</f>
         <v>0.31</v>
       </c>
       <c r="Q59" s="12">
@@ -7004,7 +7168,7 @@
         <v>0.2</v>
       </c>
       <c r="R59" s="13">
-        <f t="shared" ref="R59:R75" si="87">((P59+Q59)/$P$57)*100</f>
+        <f t="shared" ref="R59:R75" si="97">((P59+Q59)/$P$57)*100</f>
         <v>2.3087369850611137</v>
       </c>
       <c r="Y59" s="12" t="s">
@@ -7014,23 +7178,23 @@
         <v>0.06</v>
       </c>
       <c r="AA59" s="12">
-        <f t="shared" si="75"/>
+        <f t="shared" si="85"/>
         <v>0.33</v>
       </c>
       <c r="AB59" s="12">
-        <f t="shared" si="76"/>
+        <f t="shared" si="86"/>
         <v>0.65</v>
       </c>
       <c r="AC59" s="12">
-        <f t="shared" si="77"/>
+        <f t="shared" si="87"/>
         <v>1.3</v>
       </c>
       <c r="AD59" s="12">
-        <f t="shared" si="78"/>
+        <f t="shared" si="88"/>
         <v>1.94</v>
       </c>
       <c r="AE59" s="12">
-        <f t="shared" si="79"/>
+        <f t="shared" si="89"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="AF59" s="2">
@@ -7045,42 +7209,42 @@
         <v>0.01</v>
       </c>
       <c r="I60" s="12">
-        <f t="shared" si="80"/>
+        <f t="shared" si="90"/>
         <v>0.02</v>
       </c>
       <c r="J60" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>0.04</v>
       </c>
       <c r="K60" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="92"/>
         <v>0.08</v>
       </c>
       <c r="L60" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="93"/>
         <v>0.12</v>
       </c>
       <c r="M60" s="12">
-        <f t="shared" si="84"/>
+        <f t="shared" si="94"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="N60" s="12">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>0.27</v>
       </c>
       <c r="O60" s="13">
         <v>20</v>
       </c>
       <c r="P60" s="13">
-        <f t="shared" si="86"/>
+        <f t="shared" si="96"/>
         <v>0.41000000000000003</v>
       </c>
       <c r="Q60" s="12">
-        <f t="shared" ref="Q60:Q70" si="88">N60</f>
+        <f t="shared" ref="Q60:Q70" si="98">N60</f>
         <v>0.27</v>
       </c>
       <c r="R60" s="13">
-        <f t="shared" si="87"/>
+        <f t="shared" si="97"/>
         <v>3.0783159800814848</v>
       </c>
       <c r="Y60" s="12" t="s">
@@ -7090,23 +7254,23 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AA60" s="12">
-        <f t="shared" si="75"/>
+        <f t="shared" si="85"/>
         <v>0.36</v>
       </c>
       <c r="AB60" s="12">
-        <f t="shared" si="76"/>
+        <f t="shared" si="86"/>
         <v>0.71</v>
       </c>
       <c r="AC60" s="12">
-        <f t="shared" si="77"/>
+        <f t="shared" si="87"/>
         <v>1.42</v>
       </c>
       <c r="AD60" s="12">
-        <f t="shared" si="78"/>
+        <f t="shared" si="88"/>
         <v>2.12</v>
       </c>
       <c r="AE60" s="12">
-        <f t="shared" si="79"/>
+        <f t="shared" si="89"/>
         <v>2.4700000000000002</v>
       </c>
       <c r="AF60" s="2">
@@ -7121,42 +7285,42 @@
         <v>0.02</v>
       </c>
       <c r="I61" s="12">
-        <f t="shared" si="80"/>
+        <f t="shared" si="90"/>
         <v>0.03</v>
       </c>
       <c r="J61" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>0.05</v>
       </c>
       <c r="K61" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="92"/>
         <v>0.1</v>
       </c>
       <c r="L61" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="93"/>
         <v>0.15</v>
       </c>
       <c r="M61" s="12">
-        <f t="shared" si="84"/>
+        <f t="shared" si="94"/>
         <v>0.18</v>
       </c>
       <c r="N61" s="12">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>0.35</v>
       </c>
       <c r="O61" s="13">
         <v>30</v>
       </c>
       <c r="P61" s="13">
-        <f t="shared" si="86"/>
+        <f t="shared" si="96"/>
         <v>0.53</v>
       </c>
       <c r="Q61" s="12">
-        <f t="shared" si="88"/>
+        <f t="shared" si="98"/>
         <v>0.35</v>
       </c>
       <c r="R61" s="13">
-        <f t="shared" si="87"/>
+        <f t="shared" si="97"/>
         <v>3.9837030330466274</v>
       </c>
       <c r="Y61" s="12" t="s">
@@ -7166,23 +7330,23 @@
         <v>0.08</v>
       </c>
       <c r="AA61" s="12">
-        <f t="shared" si="75"/>
+        <f t="shared" si="85"/>
         <v>0.4</v>
       </c>
       <c r="AB61" s="12">
-        <f t="shared" si="76"/>
+        <f t="shared" si="86"/>
         <v>0.79</v>
       </c>
       <c r="AC61" s="12">
-        <f t="shared" si="77"/>
+        <f t="shared" si="87"/>
         <v>1.58</v>
       </c>
       <c r="AD61" s="12">
-        <f t="shared" si="78"/>
+        <f t="shared" si="88"/>
         <v>2.37</v>
       </c>
       <c r="AE61" s="12">
-        <f t="shared" si="79"/>
+        <f t="shared" si="89"/>
         <v>2.76</v>
       </c>
       <c r="AF61" s="2">
@@ -7197,68 +7361,68 @@
         <v>0.02</v>
       </c>
       <c r="I62" s="12">
-        <f t="shared" si="80"/>
+        <f t="shared" si="90"/>
         <v>0.04</v>
       </c>
       <c r="J62" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="K62" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="92"/>
         <v>0.13</v>
       </c>
       <c r="L62" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="93"/>
         <v>0.19</v>
       </c>
       <c r="M62" s="12">
-        <f t="shared" si="84"/>
+        <f t="shared" si="94"/>
         <v>0.22</v>
       </c>
       <c r="N62" s="12">
+        <f t="shared" si="95"/>
+        <v>0.44</v>
+      </c>
+      <c r="O62" s="13">
+        <v>40</v>
+      </c>
+      <c r="P62" s="13">
+        <f t="shared" si="96"/>
+        <v>0.67</v>
+      </c>
+      <c r="Q62" s="12">
+        <f t="shared" si="98"/>
+        <v>0.44</v>
+      </c>
+      <c r="R62" s="13">
+        <f t="shared" si="97"/>
+        <v>5.0248981439565421</v>
+      </c>
+      <c r="Y62" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="Z62" s="12">
+        <v>0.09</v>
+      </c>
+      <c r="AA62" s="12">
         <f t="shared" si="85"/>
         <v>0.44</v>
       </c>
-      <c r="O62" s="13">
-        <v>40</v>
-      </c>
-      <c r="P62" s="13">
+      <c r="AB62" s="12">
         <f t="shared" si="86"/>
-        <v>0.67</v>
-      </c>
-      <c r="Q62" s="12">
+        <v>0.88</v>
+      </c>
+      <c r="AC62" s="12">
+        <f t="shared" si="87"/>
+        <v>1.76</v>
+      </c>
+      <c r="AD62" s="12">
         <f t="shared" si="88"/>
-        <v>0.44</v>
-      </c>
-      <c r="R62" s="13">
-        <f t="shared" si="87"/>
-        <v>5.0248981439565421</v>
-      </c>
-      <c r="Y62" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="Z62" s="12">
-        <v>0.09</v>
-      </c>
-      <c r="AA62" s="12">
-        <f t="shared" si="75"/>
-        <v>0.44</v>
-      </c>
-      <c r="AB62" s="12">
-        <f t="shared" si="76"/>
-        <v>0.88</v>
-      </c>
-      <c r="AC62" s="12">
-        <f t="shared" si="77"/>
-        <v>1.76</v>
-      </c>
-      <c r="AD62" s="12">
-        <f t="shared" si="78"/>
         <v>2.63</v>
       </c>
       <c r="AE62" s="12">
-        <f t="shared" si="79"/>
+        <f t="shared" si="89"/>
         <v>3.07</v>
       </c>
       <c r="AF62" s="2">
@@ -7273,42 +7437,42 @@
         <v>0.03</v>
       </c>
       <c r="I63" s="12">
-        <f t="shared" si="80"/>
+        <f t="shared" si="90"/>
         <v>0.04</v>
       </c>
       <c r="J63" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>0.08</v>
       </c>
       <c r="K63" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="92"/>
         <v>0.16</v>
       </c>
       <c r="L63" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="93"/>
         <v>0.24</v>
       </c>
       <c r="M63" s="12">
-        <f t="shared" si="84"/>
+        <f t="shared" si="94"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="N63" s="12">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="O63" s="13">
         <v>50</v>
       </c>
       <c r="P63" s="13">
-        <f t="shared" si="86"/>
+        <f t="shared" si="96"/>
         <v>0.83000000000000007</v>
       </c>
       <c r="Q63" s="12">
-        <f t="shared" si="88"/>
+        <f t="shared" si="98"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="R63" s="13">
-        <f t="shared" si="87"/>
+        <f t="shared" si="97"/>
         <v>6.2471706654594845</v>
       </c>
       <c r="Y63" s="12" t="s">
@@ -7318,23 +7482,23 @@
         <v>0.1</v>
       </c>
       <c r="AA63" s="12">
-        <f t="shared" si="75"/>
+        <f t="shared" si="85"/>
         <v>0.49</v>
       </c>
       <c r="AB63" s="12">
-        <f t="shared" si="76"/>
+        <f t="shared" si="86"/>
         <v>0.97</v>
       </c>
       <c r="AC63" s="12">
-        <f t="shared" si="77"/>
+        <f t="shared" si="87"/>
         <v>1.94</v>
       </c>
       <c r="AD63" s="12">
-        <f t="shared" si="78"/>
+        <f t="shared" si="88"/>
         <v>2.9</v>
       </c>
       <c r="AE63" s="12">
-        <f t="shared" si="79"/>
+        <f t="shared" si="89"/>
         <v>3.39</v>
       </c>
       <c r="AF63" s="2">
@@ -7349,42 +7513,42 @@
         <v>0.03</v>
       </c>
       <c r="I64" s="12">
-        <f t="shared" si="80"/>
+        <f t="shared" si="90"/>
         <v>0.05</v>
       </c>
       <c r="J64" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>0.1</v>
       </c>
       <c r="K64" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="92"/>
         <v>0.2</v>
       </c>
       <c r="L64" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="93"/>
         <v>0.28999999999999998</v>
       </c>
       <c r="M64" s="12">
-        <f t="shared" si="84"/>
+        <f t="shared" si="94"/>
         <v>0.34</v>
       </c>
       <c r="N64" s="12">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>0.68</v>
       </c>
       <c r="O64" s="13">
         <v>60</v>
       </c>
       <c r="P64" s="13">
-        <f t="shared" si="86"/>
+        <f t="shared" si="96"/>
         <v>1.01</v>
       </c>
       <c r="Q64" s="12">
-        <f t="shared" si="88"/>
+        <f t="shared" si="98"/>
         <v>0.68</v>
       </c>
       <c r="R64" s="13">
-        <f t="shared" si="87"/>
+        <f t="shared" si="97"/>
         <v>7.6505205975554542</v>
       </c>
       <c r="Y64" s="12" t="s">
@@ -7394,23 +7558,23 @@
         <v>0.11</v>
       </c>
       <c r="AA64" s="12">
-        <f t="shared" si="75"/>
+        <f t="shared" si="85"/>
         <v>0.53</v>
       </c>
       <c r="AB64" s="12">
-        <f t="shared" si="76"/>
+        <f t="shared" si="86"/>
         <v>1.06</v>
       </c>
       <c r="AC64" s="12">
-        <f t="shared" si="77"/>
+        <f t="shared" si="87"/>
         <v>2.12</v>
       </c>
       <c r="AD64" s="12">
-        <f t="shared" si="78"/>
+        <f t="shared" si="88"/>
         <v>3.18</v>
       </c>
       <c r="AE64" s="12">
-        <f t="shared" si="79"/>
+        <f t="shared" si="89"/>
         <v>3.71</v>
       </c>
       <c r="AF64" s="2">
@@ -7425,42 +7589,42 @@
         <v>0.04</v>
       </c>
       <c r="I65" s="12">
-        <f t="shared" si="80"/>
+        <f t="shared" si="90"/>
         <v>0.06</v>
       </c>
       <c r="J65" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>0.12</v>
       </c>
       <c r="K65" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="92"/>
         <v>0.24</v>
       </c>
       <c r="L65" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="93"/>
         <v>0.35</v>
       </c>
       <c r="M65" s="12">
-        <f t="shared" si="84"/>
+        <f t="shared" si="94"/>
         <v>0.41</v>
       </c>
       <c r="N65" s="12">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>0.82</v>
       </c>
       <c r="O65" s="13">
         <v>70</v>
       </c>
       <c r="P65" s="13">
-        <f t="shared" si="86"/>
+        <f t="shared" si="96"/>
         <v>1.22</v>
       </c>
       <c r="Q65" s="12">
-        <f t="shared" si="88"/>
+        <f t="shared" si="98"/>
         <v>0.82</v>
       </c>
       <c r="R65" s="13">
-        <f t="shared" si="87"/>
+        <f t="shared" si="97"/>
         <v>9.2349479402444548</v>
       </c>
       <c r="Y65" s="12" t="s">
@@ -7470,23 +7634,23 @@
         <v>0.12</v>
       </c>
       <c r="AA65" s="12">
-        <f t="shared" si="75"/>
+        <f t="shared" si="85"/>
         <v>0.43</v>
       </c>
       <c r="AB65" s="12">
-        <f t="shared" si="76"/>
+        <f t="shared" si="86"/>
         <v>0.86</v>
       </c>
       <c r="AC65" s="12">
-        <f t="shared" si="77"/>
+        <f t="shared" si="87"/>
         <v>1.71</v>
       </c>
       <c r="AD65" s="12">
-        <f t="shared" si="78"/>
+        <f t="shared" si="88"/>
         <v>2.56</v>
       </c>
       <c r="AE65" s="12">
-        <f t="shared" si="79"/>
+        <f t="shared" si="89"/>
         <v>2.98</v>
       </c>
       <c r="AF65" s="2">
@@ -7501,42 +7665,42 @@
         <v>0.04</v>
       </c>
       <c r="I66" s="12">
-        <f t="shared" si="80"/>
+        <f t="shared" si="90"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="J66" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="K66" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="92"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="L66" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="93"/>
         <v>0.42</v>
       </c>
       <c r="M66" s="12">
-        <f t="shared" si="84"/>
+        <f t="shared" si="94"/>
         <v>0.49</v>
       </c>
       <c r="N66" s="12">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>0.98</v>
       </c>
       <c r="O66" s="13">
         <v>80</v>
       </c>
       <c r="P66" s="13">
-        <f t="shared" si="86"/>
+        <f t="shared" si="96"/>
         <v>1.44</v>
       </c>
       <c r="Q66" s="12">
-        <f t="shared" si="88"/>
+        <f t="shared" si="98"/>
         <v>0.98</v>
       </c>
       <c r="R66" s="13">
-        <f t="shared" si="87"/>
+        <f t="shared" si="97"/>
         <v>10.955183340878225</v>
       </c>
       <c r="Y66" s="12" t="s">
@@ -7546,23 +7710,23 @@
         <v>0.13</v>
       </c>
       <c r="AA66" s="12">
-        <f t="shared" si="75"/>
+        <f t="shared" si="85"/>
         <v>0.45</v>
       </c>
       <c r="AB66" s="12">
-        <f t="shared" si="76"/>
+        <f t="shared" si="86"/>
         <v>0.9</v>
       </c>
       <c r="AC66" s="12">
-        <f t="shared" si="77"/>
+        <f t="shared" si="87"/>
         <v>1.8</v>
       </c>
       <c r="AD66" s="12">
-        <f t="shared" si="78"/>
+        <f t="shared" si="88"/>
         <v>2.69</v>
       </c>
       <c r="AE66" s="12">
-        <f t="shared" si="79"/>
+        <f t="shared" si="89"/>
         <v>3.14</v>
       </c>
       <c r="AF66" s="2">
@@ -7577,42 +7741,42 @@
         <v>0.05</v>
       </c>
       <c r="I67" s="12">
-        <f t="shared" si="80"/>
+        <f t="shared" si="90"/>
         <v>0.09</v>
       </c>
       <c r="J67" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>0.17</v>
       </c>
       <c r="K67" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="92"/>
         <v>0.34</v>
       </c>
       <c r="L67" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="93"/>
         <v>0.5</v>
       </c>
       <c r="M67" s="12">
-        <f t="shared" si="84"/>
+        <f t="shared" si="94"/>
         <v>0.59</v>
       </c>
       <c r="N67" s="12">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>1.17</v>
       </c>
       <c r="O67" s="13">
         <v>90</v>
       </c>
       <c r="P67" s="13">
-        <f t="shared" si="86"/>
+        <f t="shared" si="96"/>
         <v>1.7400000000000002</v>
       </c>
       <c r="Q67" s="12">
-        <f t="shared" si="88"/>
+        <f t="shared" si="98"/>
         <v>1.17</v>
       </c>
       <c r="R67" s="13">
-        <f t="shared" si="87"/>
+        <f t="shared" si="97"/>
         <v>13.173381620642827</v>
       </c>
       <c r="Y67" s="12" t="s">
@@ -7622,23 +7786,23 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="AA67" s="12">
-        <f t="shared" si="75"/>
+        <f t="shared" si="85"/>
         <v>0.48</v>
       </c>
       <c r="AB67" s="12">
-        <f t="shared" si="76"/>
+        <f t="shared" si="86"/>
         <v>0.95</v>
       </c>
       <c r="AC67" s="12">
-        <f t="shared" si="77"/>
+        <f t="shared" si="87"/>
         <v>1.89</v>
       </c>
       <c r="AD67" s="12">
-        <f t="shared" si="78"/>
+        <f t="shared" si="88"/>
         <v>2.83</v>
       </c>
       <c r="AE67" s="12">
-        <f t="shared" si="79"/>
+        <f t="shared" si="89"/>
         <v>3.3</v>
       </c>
       <c r="AF67" s="2">
@@ -7653,42 +7817,42 @@
         <v>0.05</v>
       </c>
       <c r="I68" s="12">
-        <f t="shared" si="80"/>
+        <f t="shared" si="90"/>
         <v>0.1</v>
       </c>
       <c r="J68" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>0.2</v>
       </c>
       <c r="K68" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="92"/>
         <v>0.4</v>
       </c>
       <c r="L68" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="93"/>
         <v>0.59</v>
       </c>
       <c r="M68" s="12">
-        <f t="shared" si="84"/>
+        <f t="shared" si="94"/>
         <v>0.69</v>
       </c>
       <c r="N68" s="12">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>1.38</v>
       </c>
       <c r="O68" s="13">
         <v>100</v>
       </c>
       <c r="P68" s="13">
-        <f t="shared" si="86"/>
+        <f t="shared" si="96"/>
         <v>2.0299999999999998</v>
       </c>
       <c r="Q68" s="12">
-        <f t="shared" si="88"/>
+        <f t="shared" si="98"/>
         <v>1.38</v>
       </c>
       <c r="R68" s="13">
-        <f t="shared" si="87"/>
+        <f t="shared" si="97"/>
         <v>15.436849253055678</v>
       </c>
       <c r="Y68" s="12" t="s">
@@ -7698,23 +7862,23 @@
         <v>0.15</v>
       </c>
       <c r="AA68" s="12">
-        <f t="shared" si="75"/>
+        <f t="shared" si="85"/>
         <v>0.5</v>
       </c>
       <c r="AB68" s="12">
-        <f t="shared" si="76"/>
+        <f t="shared" si="86"/>
         <v>0.99</v>
       </c>
       <c r="AC68" s="12">
-        <f t="shared" si="77"/>
+        <f t="shared" si="87"/>
         <v>1.98</v>
       </c>
       <c r="AD68" s="12">
-        <f t="shared" si="78"/>
+        <f t="shared" si="88"/>
         <v>2.97</v>
       </c>
       <c r="AE68" s="12">
-        <f t="shared" si="79"/>
+        <f t="shared" si="89"/>
         <v>3.46</v>
       </c>
       <c r="AF68" s="2">
@@ -7729,42 +7893,42 @@
         <v>0.06</v>
       </c>
       <c r="I69" s="12">
-        <f t="shared" ref="I69:I74" si="89">ROUNDUP(((H46/$B$39)*$B$40)*((100+O69)/100),0)/100</f>
+        <f t="shared" ref="I69:I74" si="99">ROUNDUP(((H46/$B$39)*$B$40)*((100+O69)/100),0)/100</f>
         <v>0.15</v>
       </c>
       <c r="J69" s="12">
-        <f t="shared" ref="J69:J74" si="90">ROUNDUP(((I46/$B$39)*$B$40)*((100+O69)/100),0)/100</f>
+        <f t="shared" ref="J69:J74" si="100">ROUNDUP(((I46/$B$39)*$B$40)*((100+O69)/100),0)/100</f>
         <v>0.3</v>
       </c>
       <c r="K69" s="12">
-        <f t="shared" ref="K69:K74" si="91">ROUNDUP(((J46/$B$39)*$B$40)*((100+O69)/100),0)/100</f>
+        <f t="shared" ref="K69:K74" si="101">ROUNDUP(((J46/$B$39)*$B$40)*((100+O69)/100),0)/100</f>
         <v>0.59</v>
       </c>
       <c r="L69" s="12">
-        <f t="shared" ref="L69:L74" si="92">ROUNDUP(((K46/$B$39)*$B$40)*((100+O69)/100),0)/100</f>
+        <f t="shared" ref="L69:L74" si="102">ROUNDUP(((K46/$B$39)*$B$40)*((100+O69)/100),0)/100</f>
         <v>0.88</v>
       </c>
       <c r="M69" s="12">
-        <f t="shared" ref="M69:M74" si="93">ROUNDUP(((L46/$B$39)*$B$40)*((100+O69)/100),0)/100</f>
+        <f t="shared" ref="M69:M74" si="103">ROUNDUP(((L46/$B$39)*$B$40)*((100+O69)/100),0)/100</f>
         <v>1.03</v>
       </c>
       <c r="N69" s="12">
-        <f t="shared" ref="N69:N74" si="94">ROUNDUP(((M46/$B$39)*$B$40)*((100+O69)/100),0)/100</f>
+        <f t="shared" ref="N69:N74" si="104">ROUNDUP(((M46/$B$39)*$B$40)*((100+O69)/100),0)/100</f>
         <v>2.0499999999999998</v>
       </c>
       <c r="O69" s="13">
         <v>110</v>
       </c>
       <c r="P69" s="13">
-        <f t="shared" si="86"/>
+        <f t="shared" si="96"/>
         <v>3.01</v>
       </c>
       <c r="Q69" s="12">
-        <f t="shared" si="88"/>
+        <f t="shared" si="98"/>
         <v>2.0499999999999998</v>
       </c>
       <c r="R69" s="13">
-        <f t="shared" si="87"/>
+        <f t="shared" si="97"/>
         <v>22.906292440018106</v>
       </c>
     </row>
@@ -7776,42 +7940,42 @@
         <v>0.06</v>
       </c>
       <c r="I70" s="12">
-        <f t="shared" si="89"/>
+        <f t="shared" si="99"/>
         <v>0.17</v>
       </c>
       <c r="J70" s="12">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>0.33</v>
       </c>
       <c r="K70" s="12">
-        <f t="shared" si="91"/>
+        <f t="shared" si="101"/>
         <v>0.65</v>
       </c>
       <c r="L70" s="12">
-        <f t="shared" si="92"/>
+        <f t="shared" si="102"/>
         <v>0.97</v>
       </c>
       <c r="M70" s="12">
-        <f t="shared" si="93"/>
+        <f t="shared" si="103"/>
         <v>1.1299999999999999</v>
       </c>
       <c r="N70" s="12">
-        <f t="shared" si="94"/>
+        <f t="shared" si="104"/>
         <v>2.25</v>
       </c>
       <c r="O70" s="13">
         <v>120</v>
       </c>
       <c r="P70" s="13">
-        <f t="shared" si="86"/>
+        <f t="shared" si="96"/>
         <v>3.3099999999999996</v>
       </c>
       <c r="Q70" s="12">
-        <f t="shared" si="88"/>
+        <f t="shared" si="98"/>
         <v>2.25</v>
       </c>
       <c r="R70" s="13">
-        <f t="shared" si="87"/>
+        <f t="shared" si="97"/>
         <v>25.169760072430964</v>
       </c>
       <c r="Y70" s="12" t="s">
@@ -7832,42 +7996,42 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I71" s="12">
-        <f t="shared" si="89"/>
+        <f t="shared" si="99"/>
         <v>0.18</v>
       </c>
       <c r="J71" s="12">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>0.36</v>
       </c>
       <c r="K71" s="12">
-        <f t="shared" si="91"/>
+        <f t="shared" si="101"/>
         <v>0.71</v>
       </c>
       <c r="L71" s="12">
-        <f t="shared" si="92"/>
+        <f t="shared" si="102"/>
         <v>1.06</v>
       </c>
       <c r="M71" s="12">
-        <f t="shared" si="93"/>
+        <f t="shared" si="103"/>
         <v>1.23</v>
       </c>
       <c r="N71" s="12">
-        <f t="shared" si="94"/>
+        <f t="shared" si="104"/>
         <v>2.46</v>
       </c>
       <c r="O71" s="13">
         <v>130</v>
       </c>
       <c r="P71" s="13">
-        <f t="shared" ref="P71" si="95">SUM(H71:M71)</f>
+        <f t="shared" ref="P71" si="105">SUM(H71:M71)</f>
         <v>3.61</v>
       </c>
       <c r="Q71" s="12">
-        <f t="shared" ref="Q71" si="96">N71</f>
+        <f t="shared" ref="Q71" si="106">N71</f>
         <v>2.46</v>
       </c>
       <c r="R71" s="13">
-        <f t="shared" si="87"/>
+        <f t="shared" si="97"/>
         <v>27.478497057492078</v>
       </c>
       <c r="Y71" s="27" t="s">
@@ -7900,69 +8064,69 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I72" s="12">
-        <f t="shared" si="89"/>
+        <f t="shared" si="99"/>
         <v>0.2</v>
       </c>
       <c r="J72" s="12">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>0.4</v>
       </c>
       <c r="K72" s="12">
-        <f t="shared" si="91"/>
+        <f t="shared" si="101"/>
         <v>0.8</v>
       </c>
       <c r="L72" s="12">
-        <f t="shared" si="92"/>
+        <f t="shared" si="102"/>
         <v>1.2</v>
       </c>
       <c r="M72" s="12">
-        <f t="shared" si="93"/>
+        <f t="shared" si="103"/>
         <v>1.4</v>
       </c>
       <c r="N72" s="12">
-        <f t="shared" si="94"/>
+        <f t="shared" si="104"/>
         <v>2.79</v>
       </c>
       <c r="O72" s="13">
         <v>140</v>
       </c>
       <c r="P72" s="13">
-        <f t="shared" ref="P72" si="97">SUM(H72:M72)</f>
+        <f t="shared" ref="P72" si="107">SUM(H72:M72)</f>
         <v>4.07</v>
       </c>
       <c r="Q72" s="12">
-        <f t="shared" ref="Q72" si="98">N72</f>
+        <f t="shared" ref="Q72" si="108">N72</f>
         <v>2.79</v>
       </c>
       <c r="R72" s="13">
-        <f t="shared" si="87"/>
+        <f t="shared" si="97"/>
         <v>31.05477591670439</v>
       </c>
       <c r="Y72" s="12" t="s">
         <v>198</v>
       </c>
       <c r="Z72" s="12">
-        <f t="shared" ref="Z72:Z86" si="99">Z54</f>
+        <f t="shared" ref="Z72:Z86" si="109">Z54</f>
         <v>0.01</v>
       </c>
       <c r="AA72" s="12">
-        <f t="shared" ref="AA72:AE86" si="100">Z72+AA54</f>
+        <f t="shared" ref="AA72:AE86" si="110">Z72+AA54</f>
         <v>0.23</v>
       </c>
       <c r="AB72" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>0.67</v>
       </c>
       <c r="AC72" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>1.54</v>
       </c>
       <c r="AD72" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>2.84</v>
       </c>
       <c r="AE72" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>4.3599999999999994</v>
       </c>
     </row>
@@ -7974,69 +8138,69 @@
         <v>0.08</v>
       </c>
       <c r="I73" s="12">
-        <f t="shared" si="89"/>
+        <f t="shared" si="99"/>
         <v>0.23</v>
       </c>
       <c r="J73" s="12">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>0.45</v>
       </c>
       <c r="K73" s="12">
-        <f t="shared" si="91"/>
+        <f t="shared" si="101"/>
         <v>0.9</v>
       </c>
       <c r="L73" s="12">
-        <f t="shared" si="92"/>
+        <f t="shared" si="102"/>
         <v>1.35</v>
       </c>
       <c r="M73" s="12">
-        <f t="shared" si="93"/>
+        <f t="shared" si="103"/>
         <v>1.58</v>
       </c>
       <c r="N73" s="12">
-        <f t="shared" si="94"/>
+        <f t="shared" si="104"/>
         <v>3.15</v>
       </c>
       <c r="O73" s="13">
         <v>150</v>
       </c>
       <c r="P73" s="13">
-        <f t="shared" ref="P73:P74" si="101">SUM(H73:M73)</f>
+        <f t="shared" ref="P73:P74" si="111">SUM(H73:M73)</f>
         <v>4.59</v>
       </c>
       <c r="Q73" s="12">
-        <f t="shared" ref="Q73:Q74" si="102">N73</f>
+        <f t="shared" ref="Q73:Q74" si="112">N73</f>
         <v>3.15</v>
       </c>
       <c r="R73" s="13">
-        <f t="shared" si="87"/>
+        <f t="shared" si="97"/>
         <v>35.038478949751017</v>
       </c>
       <c r="Y73" s="12" t="s">
         <v>199</v>
       </c>
       <c r="Z73" s="12">
-        <f t="shared" si="99"/>
+        <f t="shared" si="109"/>
         <v>0.02</v>
       </c>
       <c r="AA73" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>0.26</v>
       </c>
       <c r="AB73" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>0.73</v>
       </c>
       <c r="AC73" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>1.6600000000000001</v>
       </c>
       <c r="AD73" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>3.06</v>
       </c>
       <c r="AE73" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>4.6899999999999995</v>
       </c>
     </row>
@@ -8048,69 +8212,69 @@
         <v>0.08</v>
       </c>
       <c r="I74" s="12">
-        <f t="shared" si="89"/>
+        <f t="shared" si="99"/>
         <v>0.27</v>
       </c>
       <c r="J74" s="12">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>0.53</v>
       </c>
       <c r="K74" s="12">
-        <f t="shared" si="91"/>
+        <f t="shared" si="101"/>
         <v>1.06</v>
       </c>
       <c r="L74" s="12">
-        <f t="shared" si="92"/>
+        <f t="shared" si="102"/>
         <v>1.58</v>
       </c>
       <c r="M74" s="12">
-        <f t="shared" si="93"/>
+        <f t="shared" si="103"/>
         <v>1.84</v>
       </c>
       <c r="N74" s="12">
-        <f t="shared" si="94"/>
+        <f t="shared" si="104"/>
         <v>3.68</v>
       </c>
       <c r="O74" s="13">
         <v>160</v>
       </c>
       <c r="P74" s="13">
-        <f t="shared" si="101"/>
+        <f t="shared" si="111"/>
         <v>5.36</v>
       </c>
       <c r="Q74" s="12">
-        <f t="shared" si="102"/>
+        <f t="shared" si="112"/>
         <v>3.68</v>
       </c>
       <c r="R74" s="13">
-        <f t="shared" si="87"/>
+        <f t="shared" si="97"/>
         <v>40.92349479402445</v>
       </c>
       <c r="Y74" s="12" t="s">
         <v>200</v>
       </c>
       <c r="Z74" s="12">
-        <f t="shared" si="99"/>
+        <f t="shared" si="109"/>
         <v>0.03</v>
       </c>
       <c r="AA74" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="AB74" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>0.78</v>
       </c>
       <c r="AC74" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>1.78</v>
       </c>
       <c r="AD74" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>3.2800000000000002</v>
       </c>
       <c r="AE74" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>5.03</v>
       </c>
     </row>
@@ -8122,172 +8286,253 @@
         <v>0.09</v>
       </c>
       <c r="I75" s="12">
-        <f t="shared" ref="I75:I76" si="103">ROUNDUP(((H52/$B$39)*$B$40)*((100+O75)/100),0)/100</f>
+        <f t="shared" ref="I75:I76" si="113">ROUNDUP(((H52/$B$39)*$B$40)*((100+O75)/100),0)/100</f>
         <v>0.32</v>
       </c>
       <c r="J75" s="12">
-        <f t="shared" ref="J75:J76" si="104">ROUNDUP(((I52/$B$39)*$B$40)*((100+O75)/100),0)/100</f>
+        <f t="shared" ref="J75:J76" si="114">ROUNDUP(((I52/$B$39)*$B$40)*((100+O75)/100),0)/100</f>
         <v>0.64</v>
       </c>
       <c r="K75" s="12">
-        <f t="shared" ref="K75:K76" si="105">ROUNDUP(((J52/$B$39)*$B$40)*((100+O75)/100),0)/100</f>
+        <f t="shared" ref="K75:K76" si="115">ROUNDUP(((J52/$B$39)*$B$40)*((100+O75)/100),0)/100</f>
         <v>1.27</v>
       </c>
       <c r="L75" s="12">
-        <f t="shared" ref="L75:L76" si="106">ROUNDUP(((K52/$B$39)*$B$40)*((100+O75)/100),0)/100</f>
+        <f t="shared" ref="L75:L76" si="116">ROUNDUP(((K52/$B$39)*$B$40)*((100+O75)/100),0)/100</f>
         <v>1.9</v>
       </c>
       <c r="M75" s="12">
-        <f t="shared" ref="M75:M76" si="107">ROUNDUP(((L52/$B$39)*$B$40)*((100+O75)/100),0)/100</f>
+        <f t="shared" ref="M75:M76" si="117">ROUNDUP(((L52/$B$39)*$B$40)*((100+O75)/100),0)/100</f>
         <v>2.2200000000000002</v>
       </c>
       <c r="N75" s="12">
-        <f t="shared" ref="N75:N76" si="108">ROUNDUP(((M52/$B$39)*$B$40)*((100+O75)/100),0)/100</f>
+        <f t="shared" ref="N75:N76" si="118">ROUNDUP(((M52/$B$39)*$B$40)*((100+O75)/100),0)/100</f>
         <v>4.43</v>
       </c>
       <c r="O75" s="13">
         <v>180</v>
       </c>
       <c r="P75" s="13">
-        <f t="shared" ref="P75" si="109">SUM(H75:M75)</f>
+        <f t="shared" ref="P75" si="119">SUM(H75:M75)</f>
         <v>6.4400000000000013</v>
       </c>
       <c r="Q75" s="12">
-        <f t="shared" ref="Q75:Q76" si="110">N75</f>
+        <f t="shared" ref="Q75:Q76" si="120">N75</f>
         <v>4.43</v>
       </c>
       <c r="R75" s="13">
-        <f t="shared" si="87"/>
+        <f t="shared" si="97"/>
         <v>49.207786328655509</v>
+      </c>
+      <c r="S75" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="T75" s="12">
+        <v>0.09</v>
+      </c>
+      <c r="U75" s="12">
+        <f t="shared" ref="U75:U76" si="121">ROUNDUP(((T52/$B$39)*$B$40)*((100+AA75)/100),0)/100</f>
+        <v>0</v>
+      </c>
+      <c r="V75" s="12">
+        <f t="shared" ref="V75:V76" si="122">ROUNDUP(((U52/$B$39)*$B$40)*((100+AA75)/100),0)/100</f>
+        <v>0</v>
+      </c>
+      <c r="W75" s="12">
+        <f t="shared" ref="W75:W76" si="123">ROUNDUP(((V52/$B$39)*$B$40)*((100+AA75)/100),0)/100</f>
+        <v>0</v>
       </c>
       <c r="Y75" s="12" t="s">
         <v>201</v>
       </c>
       <c r="Z75" s="12">
-        <f t="shared" si="99"/>
+        <f t="shared" si="109"/>
         <v>0.04</v>
       </c>
       <c r="AA75" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>0.31</v>
       </c>
       <c r="AB75" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>0.85000000000000009</v>
       </c>
       <c r="AC75" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>1.9200000000000002</v>
       </c>
       <c r="AD75" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>3.5200000000000005</v>
       </c>
       <c r="AE75" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>5.3900000000000006</v>
       </c>
     </row>
     <row r="76" spans="7:32">
       <c r="G76" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H76" s="12">
         <v>0.09</v>
       </c>
       <c r="I76" s="12">
-        <f t="shared" si="103"/>
+        <f t="shared" si="113"/>
         <v>0.38</v>
       </c>
       <c r="J76" s="12">
-        <f t="shared" si="104"/>
+        <f t="shared" si="114"/>
         <v>0.76</v>
       </c>
       <c r="K76" s="12">
-        <f t="shared" si="105"/>
+        <f t="shared" si="115"/>
         <v>1.51</v>
       </c>
       <c r="L76" s="12">
-        <f t="shared" si="106"/>
+        <f t="shared" si="116"/>
         <v>2.25</v>
       </c>
       <c r="M76" s="12">
-        <f t="shared" si="107"/>
+        <f t="shared" si="117"/>
         <v>2.63</v>
       </c>
       <c r="N76" s="12">
-        <f t="shared" si="108"/>
+        <f t="shared" si="118"/>
         <v>5.26</v>
       </c>
       <c r="O76" s="13">
         <v>200</v>
       </c>
       <c r="P76" s="13">
-        <f t="shared" ref="P76" si="111">SUM(H76:M76)</f>
+        <f t="shared" ref="P76" si="124">SUM(H76:M76)</f>
         <v>7.62</v>
       </c>
       <c r="Q76" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="120"/>
         <v>5.26</v>
       </c>
       <c r="R76" s="13">
-        <f t="shared" ref="R76" si="112">((P76+Q76)/$P$57)*100</f>
+        <f t="shared" ref="R76:R77" si="125">((P76+Q76)/$P$57)*100</f>
         <v>58.306926210955176</v>
+      </c>
+      <c r="S76" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="T76" s="12">
+        <v>0.09</v>
+      </c>
+      <c r="U76" s="12">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="V76" s="12">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="W76" s="12">
+        <f t="shared" si="123"/>
+        <v>0</v>
       </c>
       <c r="Y76" s="12" t="s">
         <v>202</v>
       </c>
       <c r="Z76" s="12">
-        <f t="shared" si="99"/>
+        <f t="shared" si="109"/>
         <v>0.05</v>
       </c>
       <c r="AA76" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>0.35</v>
       </c>
       <c r="AB76" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>0.94</v>
       </c>
       <c r="AC76" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>2.12</v>
       </c>
       <c r="AD76" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>3.89</v>
       </c>
       <c r="AE76" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>5.95</v>
       </c>
     </row>
     <row r="77" spans="7:32">
+      <c r="G77" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="H77" s="12">
+        <v>0.09</v>
+      </c>
+      <c r="I77" s="12">
+        <f t="shared" ref="I77" si="126">ROUNDUP(((H54/$B$39)*$B$40)*((100+O77)/100),0)/100</f>
+        <v>0.45</v>
+      </c>
+      <c r="J77" s="12">
+        <f t="shared" ref="J77" si="127">ROUNDUP(((I54/$B$39)*$B$40)*((100+O77)/100),0)/100</f>
+        <v>0.89</v>
+      </c>
+      <c r="K77" s="12">
+        <f t="shared" ref="K77" si="128">ROUNDUP(((J54/$B$39)*$B$40)*((100+O77)/100),0)/100</f>
+        <v>1.77</v>
+      </c>
+      <c r="L77" s="12">
+        <f t="shared" ref="L77" si="129">ROUNDUP(((K54/$B$39)*$B$40)*((100+O77)/100),0)/100</f>
+        <v>2.65</v>
+      </c>
+      <c r="M77" s="12">
+        <f t="shared" ref="M77" si="130">ROUNDUP(((L54/$B$39)*$B$40)*((100+O77)/100),0)/100</f>
+        <v>3.09</v>
+      </c>
+      <c r="N77" s="12">
+        <f t="shared" ref="N77" si="131">ROUNDUP(((M54/$B$39)*$B$40)*((100+O77)/100),0)/100</f>
+        <v>6.18</v>
+      </c>
+      <c r="O77" s="13">
+        <v>220</v>
+      </c>
+      <c r="P77" s="13">
+        <f t="shared" ref="P77" si="132">SUM(H77:M77)</f>
+        <v>8.94</v>
+      </c>
+      <c r="Q77" s="12">
+        <f t="shared" ref="Q77" si="133">N77</f>
+        <v>6.18</v>
+      </c>
+      <c r="R77" s="13">
+        <f t="shared" si="125"/>
+        <v>68.447261204164775</v>
+      </c>
       <c r="Y77" s="12" t="s">
         <v>203</v>
       </c>
       <c r="Z77" s="12">
-        <f t="shared" si="99"/>
+        <f t="shared" si="109"/>
         <v>0.06</v>
       </c>
       <c r="AA77" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>0.39</v>
       </c>
       <c r="AB77" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>1.04</v>
       </c>
       <c r="AC77" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>2.34</v>
       </c>
       <c r="AD77" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>4.2799999999999994</v>
       </c>
       <c r="AE77" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>6.5399999999999991</v>
       </c>
     </row>
@@ -8296,27 +8541,27 @@
         <v>204</v>
       </c>
       <c r="Z78" s="12">
-        <f t="shared" si="99"/>
+        <f t="shared" si="109"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AA78" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>0.43</v>
       </c>
       <c r="AB78" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>1.1399999999999999</v>
       </c>
       <c r="AC78" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>2.5599999999999996</v>
       </c>
       <c r="AD78" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>4.68</v>
       </c>
       <c r="AE78" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>7.15</v>
       </c>
     </row>
@@ -8328,27 +8573,27 @@
         <v>205</v>
       </c>
       <c r="Z79" s="12">
-        <f t="shared" si="99"/>
+        <f t="shared" si="109"/>
         <v>0.08</v>
       </c>
       <c r="AA79" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>0.48000000000000004</v>
       </c>
       <c r="AB79" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>1.27</v>
       </c>
       <c r="AC79" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>2.85</v>
       </c>
       <c r="AD79" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>5.2200000000000006</v>
       </c>
       <c r="AE79" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>7.98</v>
       </c>
     </row>
@@ -8381,27 +8626,27 @@
         <v>206</v>
       </c>
       <c r="Z80" s="12">
-        <f t="shared" si="99"/>
+        <f t="shared" si="109"/>
         <v>0.09</v>
       </c>
       <c r="AA80" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>0.53</v>
       </c>
       <c r="AB80" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>1.4100000000000001</v>
       </c>
       <c r="AC80" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>3.17</v>
       </c>
       <c r="AD80" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>5.8</v>
       </c>
       <c r="AE80" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>8.8699999999999992</v>
       </c>
     </row>
@@ -8410,58 +8655,58 @@
         <v>16</v>
       </c>
       <c r="H81" s="12">
-        <f t="shared" ref="H81:H94" si="113">H59</f>
+        <f t="shared" ref="H81:H94" si="134">H59</f>
         <v>0.01</v>
       </c>
       <c r="I81" s="12">
-        <f t="shared" ref="I81:N90" si="114">I59+H81</f>
+        <f t="shared" ref="I81:N90" si="135">I59+H81</f>
         <v>0.03</v>
       </c>
       <c r="J81" s="12">
-        <f t="shared" si="114"/>
+        <f t="shared" si="135"/>
         <v>0.06</v>
       </c>
       <c r="K81" s="12">
-        <f t="shared" si="114"/>
+        <f t="shared" si="135"/>
         <v>0.12</v>
       </c>
       <c r="L81" s="12">
-        <f t="shared" si="114"/>
+        <f t="shared" si="135"/>
         <v>0.21</v>
       </c>
       <c r="M81" s="12">
-        <f t="shared" si="114"/>
+        <f t="shared" si="135"/>
         <v>0.31</v>
       </c>
       <c r="N81" s="12">
-        <f t="shared" si="114"/>
+        <f t="shared" si="135"/>
         <v>0.51</v>
       </c>
       <c r="Y81" s="12" t="s">
         <v>207</v>
       </c>
       <c r="Z81" s="12">
-        <f t="shared" si="99"/>
+        <f t="shared" si="109"/>
         <v>0.1</v>
       </c>
       <c r="AA81" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>0.59</v>
       </c>
       <c r="AB81" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>1.56</v>
       </c>
       <c r="AC81" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>3.5</v>
       </c>
       <c r="AD81" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>6.4</v>
       </c>
       <c r="AE81" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>9.7900000000000009</v>
       </c>
     </row>
@@ -8470,58 +8715,58 @@
         <v>18</v>
       </c>
       <c r="H82" s="12">
-        <f t="shared" si="113"/>
+        <f t="shared" si="134"/>
         <v>0.01</v>
       </c>
       <c r="I82" s="12">
-        <f t="shared" si="114"/>
+        <f t="shared" si="135"/>
         <v>0.03</v>
       </c>
       <c r="J82" s="12">
-        <f t="shared" si="114"/>
+        <f t="shared" si="135"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="K82" s="12">
-        <f t="shared" si="114"/>
+        <f t="shared" si="135"/>
         <v>0.15000000000000002</v>
       </c>
       <c r="L82" s="12">
-        <f t="shared" si="114"/>
+        <f t="shared" si="135"/>
         <v>0.27</v>
       </c>
       <c r="M82" s="12">
-        <f t="shared" si="114"/>
+        <f t="shared" si="135"/>
         <v>0.41000000000000003</v>
       </c>
       <c r="N82" s="12">
-        <f t="shared" si="114"/>
+        <f t="shared" si="135"/>
         <v>0.68</v>
       </c>
       <c r="Y82" s="12" t="s">
         <v>208</v>
       </c>
       <c r="Z82" s="12">
-        <f t="shared" si="99"/>
+        <f t="shared" si="109"/>
         <v>0.11</v>
       </c>
       <c r="AA82" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>0.64</v>
       </c>
       <c r="AB82" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>1.7000000000000002</v>
       </c>
       <c r="AC82" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>3.8200000000000003</v>
       </c>
       <c r="AD82" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>7</v>
       </c>
       <c r="AE82" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>10.71</v>
       </c>
     </row>
@@ -8530,58 +8775,58 @@
         <v>19</v>
       </c>
       <c r="H83" s="12">
-        <f t="shared" si="113"/>
+        <f t="shared" si="134"/>
         <v>0.02</v>
       </c>
       <c r="I83" s="12">
-        <f t="shared" si="114"/>
+        <f t="shared" si="135"/>
         <v>0.05</v>
       </c>
       <c r="J83" s="12">
-        <f t="shared" si="114"/>
+        <f t="shared" si="135"/>
         <v>0.1</v>
       </c>
       <c r="K83" s="12">
-        <f t="shared" si="114"/>
+        <f t="shared" si="135"/>
         <v>0.2</v>
       </c>
       <c r="L83" s="12">
-        <f t="shared" si="114"/>
+        <f t="shared" si="135"/>
         <v>0.35</v>
       </c>
       <c r="M83" s="12">
-        <f t="shared" si="114"/>
+        <f t="shared" si="135"/>
         <v>0.53</v>
       </c>
       <c r="N83" s="12">
-        <f t="shared" si="114"/>
+        <f t="shared" si="135"/>
         <v>0.88</v>
       </c>
       <c r="Y83" s="12" t="s">
         <v>209</v>
       </c>
       <c r="Z83" s="12">
-        <f t="shared" si="99"/>
+        <f t="shared" si="109"/>
         <v>0.12</v>
       </c>
       <c r="AA83" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="AB83" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>1.4100000000000001</v>
       </c>
       <c r="AC83" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>3.12</v>
       </c>
       <c r="AD83" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>5.68</v>
       </c>
       <c r="AE83" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>8.66</v>
       </c>
     </row>
@@ -8590,58 +8835,58 @@
         <v>85</v>
       </c>
       <c r="H84" s="12">
-        <f t="shared" si="113"/>
+        <f t="shared" si="134"/>
         <v>0.02</v>
       </c>
       <c r="I84" s="12">
-        <f t="shared" si="114"/>
+        <f t="shared" si="135"/>
         <v>0.06</v>
       </c>
       <c r="J84" s="12">
-        <f t="shared" si="114"/>
+        <f t="shared" si="135"/>
         <v>0.13</v>
       </c>
       <c r="K84" s="12">
-        <f t="shared" si="114"/>
+        <f t="shared" si="135"/>
         <v>0.26</v>
       </c>
       <c r="L84" s="12">
-        <f t="shared" si="114"/>
+        <f t="shared" si="135"/>
         <v>0.45</v>
       </c>
       <c r="M84" s="12">
-        <f t="shared" si="114"/>
+        <f t="shared" si="135"/>
         <v>0.67</v>
       </c>
       <c r="N84" s="12">
-        <f t="shared" si="114"/>
+        <f t="shared" si="135"/>
         <v>1.1100000000000001</v>
       </c>
       <c r="Y84" s="12" t="s">
         <v>210</v>
       </c>
       <c r="Z84" s="12">
-        <f t="shared" si="99"/>
+        <f t="shared" si="109"/>
         <v>0.13</v>
       </c>
       <c r="AA84" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>0.58000000000000007</v>
       </c>
       <c r="AB84" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>1.48</v>
       </c>
       <c r="AC84" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>3.2800000000000002</v>
       </c>
       <c r="AD84" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>5.9700000000000006</v>
       </c>
       <c r="AE84" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>9.1100000000000012</v>
       </c>
     </row>
@@ -8650,58 +8895,58 @@
         <v>20</v>
       </c>
       <c r="H85" s="12">
-        <f t="shared" si="113"/>
+        <f t="shared" si="134"/>
         <v>0.03</v>
       </c>
       <c r="I85" s="12">
-        <f t="shared" si="114"/>
+        <f t="shared" si="135"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="J85" s="12">
-        <f t="shared" si="114"/>
+        <f t="shared" si="135"/>
         <v>0.15000000000000002</v>
       </c>
       <c r="K85" s="12">
-        <f t="shared" si="114"/>
+        <f t="shared" si="135"/>
         <v>0.31000000000000005</v>
       </c>
       <c r="L85" s="12">
-        <f t="shared" si="114"/>
+        <f t="shared" si="135"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="M85" s="12">
-        <f t="shared" si="114"/>
+        <f t="shared" si="135"/>
         <v>0.83000000000000007</v>
       </c>
       <c r="N85" s="12">
-        <f t="shared" si="114"/>
+        <f t="shared" si="135"/>
         <v>1.3800000000000001</v>
       </c>
       <c r="Y85" s="12" t="s">
         <v>211</v>
       </c>
       <c r="Z85" s="12">
-        <f t="shared" si="99"/>
+        <f t="shared" si="109"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="AA85" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>0.62</v>
       </c>
       <c r="AB85" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>1.5699999999999998</v>
       </c>
       <c r="AC85" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>3.46</v>
       </c>
       <c r="AD85" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>6.29</v>
       </c>
       <c r="AE85" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>9.59</v>
       </c>
     </row>
@@ -8710,58 +8955,58 @@
         <v>21</v>
       </c>
       <c r="H86" s="12">
-        <f t="shared" si="113"/>
+        <f t="shared" si="134"/>
         <v>0.03</v>
       </c>
       <c r="I86" s="12">
-        <f t="shared" si="114"/>
+        <f t="shared" si="135"/>
         <v>0.08</v>
       </c>
       <c r="J86" s="12">
-        <f t="shared" si="114"/>
+        <f t="shared" si="135"/>
         <v>0.18</v>
       </c>
       <c r="K86" s="12">
-        <f t="shared" si="114"/>
+        <f t="shared" si="135"/>
         <v>0.38</v>
       </c>
       <c r="L86" s="12">
-        <f t="shared" si="114"/>
+        <f t="shared" si="135"/>
         <v>0.66999999999999993</v>
       </c>
       <c r="M86" s="12">
-        <f t="shared" si="114"/>
+        <f t="shared" si="135"/>
         <v>1.01</v>
       </c>
       <c r="N86" s="12">
-        <f t="shared" si="114"/>
+        <f t="shared" si="135"/>
         <v>1.69</v>
       </c>
       <c r="Y86" s="12" t="s">
         <v>212</v>
       </c>
       <c r="Z86" s="12">
-        <f t="shared" si="99"/>
+        <f t="shared" si="109"/>
         <v>0.15</v>
       </c>
       <c r="AA86" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>0.65</v>
       </c>
       <c r="AB86" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>1.6400000000000001</v>
       </c>
       <c r="AC86" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>3.62</v>
       </c>
       <c r="AD86" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>6.59</v>
       </c>
       <c r="AE86" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>10.050000000000001</v>
       </c>
     </row>
@@ -8770,31 +9015,31 @@
         <v>22</v>
       </c>
       <c r="H87" s="12">
-        <f t="shared" si="113"/>
+        <f t="shared" si="134"/>
         <v>0.04</v>
       </c>
       <c r="I87" s="12">
-        <f t="shared" si="114"/>
+        <f t="shared" si="135"/>
         <v>0.1</v>
       </c>
       <c r="J87" s="12">
-        <f t="shared" si="114"/>
+        <f t="shared" si="135"/>
         <v>0.22</v>
       </c>
       <c r="K87" s="12">
-        <f t="shared" si="114"/>
+        <f t="shared" si="135"/>
         <v>0.45999999999999996</v>
       </c>
       <c r="L87" s="12">
-        <f t="shared" si="114"/>
+        <f t="shared" si="135"/>
         <v>0.80999999999999994</v>
       </c>
       <c r="M87" s="12">
-        <f t="shared" si="114"/>
+        <f t="shared" si="135"/>
         <v>1.22</v>
       </c>
       <c r="N87" s="12">
-        <f t="shared" si="114"/>
+        <f t="shared" si="135"/>
         <v>2.04</v>
       </c>
       <c r="AF87" s="12"/>
@@ -8804,31 +9049,31 @@
         <v>23</v>
       </c>
       <c r="H88" s="12">
-        <f t="shared" si="113"/>
+        <f t="shared" si="134"/>
         <v>0.04</v>
       </c>
       <c r="I88" s="12">
-        <f t="shared" si="114"/>
+        <f t="shared" si="135"/>
         <v>0.11000000000000001</v>
       </c>
       <c r="J88" s="12">
-        <f t="shared" si="114"/>
+        <f t="shared" si="135"/>
         <v>0.25</v>
       </c>
       <c r="K88" s="12">
-        <f t="shared" si="114"/>
+        <f t="shared" si="135"/>
         <v>0.53</v>
       </c>
       <c r="L88" s="12">
-        <f t="shared" si="114"/>
+        <f t="shared" si="135"/>
         <v>0.95</v>
       </c>
       <c r="M88" s="12">
-        <f t="shared" si="114"/>
+        <f t="shared" si="135"/>
         <v>1.44</v>
       </c>
       <c r="N88" s="12">
-        <f t="shared" si="114"/>
+        <f t="shared" si="135"/>
         <v>2.42</v>
       </c>
     </row>
@@ -8837,31 +9082,31 @@
         <v>24</v>
       </c>
       <c r="H89" s="12">
-        <f t="shared" si="113"/>
+        <f t="shared" si="134"/>
         <v>0.05</v>
       </c>
       <c r="I89" s="12">
-        <f t="shared" si="114"/>
+        <f t="shared" si="135"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="J89" s="12">
-        <f t="shared" si="114"/>
+        <f t="shared" si="135"/>
         <v>0.31000000000000005</v>
       </c>
       <c r="K89" s="12">
-        <f t="shared" si="114"/>
+        <f t="shared" si="135"/>
         <v>0.65000000000000013</v>
       </c>
       <c r="L89" s="12">
-        <f t="shared" si="114"/>
+        <f t="shared" si="135"/>
         <v>1.1500000000000001</v>
       </c>
       <c r="M89" s="12">
-        <f t="shared" si="114"/>
+        <f t="shared" si="135"/>
         <v>1.7400000000000002</v>
       </c>
       <c r="N89" s="12">
-        <f t="shared" si="114"/>
+        <f t="shared" si="135"/>
         <v>2.91</v>
       </c>
     </row>
@@ -8870,31 +9115,31 @@
         <v>25</v>
       </c>
       <c r="H90" s="12">
-        <f t="shared" si="113"/>
+        <f t="shared" si="134"/>
         <v>0.05</v>
       </c>
       <c r="I90" s="12">
-        <f t="shared" si="114"/>
+        <f t="shared" si="135"/>
         <v>0.15000000000000002</v>
       </c>
       <c r="J90" s="12">
-        <f t="shared" si="114"/>
+        <f t="shared" si="135"/>
         <v>0.35000000000000003</v>
       </c>
       <c r="K90" s="12">
-        <f t="shared" si="114"/>
+        <f t="shared" si="135"/>
         <v>0.75</v>
       </c>
       <c r="L90" s="12">
-        <f t="shared" si="114"/>
+        <f t="shared" si="135"/>
         <v>1.3399999999999999</v>
       </c>
       <c r="M90" s="12">
-        <f t="shared" si="114"/>
+        <f t="shared" si="135"/>
         <v>2.0299999999999998</v>
       </c>
       <c r="N90" s="12">
-        <f t="shared" si="114"/>
+        <f t="shared" si="135"/>
         <v>3.4099999999999997</v>
       </c>
     </row>
@@ -8903,31 +9148,31 @@
         <v>105</v>
       </c>
       <c r="H91" s="12">
-        <f t="shared" si="113"/>
+        <f t="shared" si="134"/>
         <v>0.06</v>
       </c>
       <c r="I91" s="12">
-        <f t="shared" ref="I91:N96" si="115">I69+H91</f>
+        <f t="shared" ref="I91:N96" si="136">I69+H91</f>
         <v>0.21</v>
       </c>
       <c r="J91" s="12">
-        <f t="shared" si="115"/>
+        <f t="shared" si="136"/>
         <v>0.51</v>
       </c>
       <c r="K91" s="12">
-        <f t="shared" si="115"/>
+        <f t="shared" si="136"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="L91" s="12">
-        <f t="shared" si="115"/>
+        <f t="shared" si="136"/>
         <v>1.98</v>
       </c>
       <c r="M91" s="12">
-        <f t="shared" si="115"/>
+        <f t="shared" si="136"/>
         <v>3.01</v>
       </c>
       <c r="N91" s="12">
-        <f t="shared" si="115"/>
+        <f t="shared" si="136"/>
         <v>5.0599999999999996</v>
       </c>
     </row>
@@ -8936,31 +9181,31 @@
         <v>106</v>
       </c>
       <c r="H92" s="12">
-        <f t="shared" si="113"/>
+        <f t="shared" si="134"/>
         <v>0.06</v>
       </c>
       <c r="I92" s="12">
-        <f t="shared" si="115"/>
+        <f t="shared" si="136"/>
         <v>0.23</v>
       </c>
       <c r="J92" s="12">
-        <f t="shared" si="115"/>
+        <f t="shared" si="136"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="K92" s="12">
-        <f t="shared" si="115"/>
+        <f t="shared" si="136"/>
         <v>1.21</v>
       </c>
       <c r="L92" s="12">
-        <f t="shared" si="115"/>
+        <f t="shared" si="136"/>
         <v>2.1799999999999997</v>
       </c>
       <c r="M92" s="12">
-        <f t="shared" si="115"/>
+        <f t="shared" si="136"/>
         <v>3.3099999999999996</v>
       </c>
       <c r="N92" s="12">
-        <f t="shared" si="115"/>
+        <f t="shared" si="136"/>
         <v>5.56</v>
       </c>
     </row>
@@ -8969,31 +9214,31 @@
         <v>172</v>
       </c>
       <c r="H93" s="12">
-        <f t="shared" si="113"/>
+        <f t="shared" si="134"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I93" s="12">
-        <f t="shared" si="115"/>
+        <f t="shared" si="136"/>
         <v>0.25</v>
       </c>
       <c r="J93" s="12">
-        <f t="shared" si="115"/>
+        <f t="shared" si="136"/>
         <v>0.61</v>
       </c>
       <c r="K93" s="12">
-        <f t="shared" si="115"/>
+        <f t="shared" si="136"/>
         <v>1.3199999999999998</v>
       </c>
       <c r="L93" s="12">
-        <f t="shared" si="115"/>
+        <f t="shared" si="136"/>
         <v>2.38</v>
       </c>
       <c r="M93" s="12">
-        <f t="shared" si="115"/>
+        <f t="shared" si="136"/>
         <v>3.61</v>
       </c>
       <c r="N93" s="12">
-        <f t="shared" si="115"/>
+        <f t="shared" si="136"/>
         <v>6.07</v>
       </c>
     </row>
@@ -9002,31 +9247,31 @@
         <v>174</v>
       </c>
       <c r="H94" s="12">
-        <f t="shared" si="113"/>
+        <f t="shared" si="134"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I94" s="12">
-        <f t="shared" si="115"/>
+        <f t="shared" si="136"/>
         <v>0.27</v>
       </c>
       <c r="J94" s="12">
-        <f t="shared" si="115"/>
+        <f t="shared" si="136"/>
         <v>0.67</v>
       </c>
       <c r="K94" s="12">
-        <f t="shared" si="115"/>
+        <f t="shared" si="136"/>
         <v>1.4700000000000002</v>
       </c>
       <c r="L94" s="12">
-        <f t="shared" si="115"/>
+        <f t="shared" si="136"/>
         <v>2.67</v>
       </c>
       <c r="M94" s="12">
-        <f t="shared" si="115"/>
+        <f t="shared" si="136"/>
         <v>4.07</v>
       </c>
       <c r="N94" s="12">
-        <f t="shared" si="115"/>
+        <f t="shared" si="136"/>
         <v>6.86</v>
       </c>
     </row>
@@ -9038,27 +9283,27 @@
         <v>0.08</v>
       </c>
       <c r="I95" s="12">
-        <f t="shared" si="115"/>
+        <f t="shared" si="136"/>
         <v>0.31</v>
       </c>
       <c r="J95" s="12">
-        <f t="shared" si="115"/>
+        <f t="shared" si="136"/>
         <v>0.76</v>
       </c>
       <c r="K95" s="12">
-        <f t="shared" si="115"/>
+        <f t="shared" si="136"/>
         <v>1.6600000000000001</v>
       </c>
       <c r="L95" s="12">
-        <f t="shared" si="115"/>
+        <f t="shared" si="136"/>
         <v>3.0100000000000002</v>
       </c>
       <c r="M95" s="12">
-        <f t="shared" si="115"/>
+        <f t="shared" si="136"/>
         <v>4.59</v>
       </c>
       <c r="N95" s="12">
-        <f t="shared" si="115"/>
+        <f t="shared" si="136"/>
         <v>7.74</v>
       </c>
     </row>
@@ -9070,27 +9315,27 @@
         <v>0.08</v>
       </c>
       <c r="I96" s="12">
-        <f t="shared" si="115"/>
+        <f t="shared" si="136"/>
         <v>0.35000000000000003</v>
       </c>
       <c r="J96" s="12">
-        <f t="shared" si="115"/>
+        <f t="shared" si="136"/>
         <v>0.88000000000000012</v>
       </c>
       <c r="K96" s="12">
-        <f t="shared" si="115"/>
+        <f t="shared" si="136"/>
         <v>1.9400000000000002</v>
       </c>
       <c r="L96" s="12">
-        <f t="shared" si="115"/>
+        <f t="shared" si="136"/>
         <v>3.5200000000000005</v>
       </c>
       <c r="M96" s="12">
-        <f t="shared" si="115"/>
+        <f t="shared" si="136"/>
         <v>5.36</v>
       </c>
       <c r="N96" s="12">
-        <f t="shared" si="115"/>
+        <f t="shared" si="136"/>
         <v>9.0400000000000009</v>
       </c>
     </row>
@@ -9102,60 +9347,92 @@
         <v>0.09</v>
       </c>
       <c r="I97" s="12">
-        <f t="shared" ref="I97:I98" si="116">I75+H97</f>
+        <f t="shared" ref="I97:I98" si="137">I75+H97</f>
         <v>0.41000000000000003</v>
       </c>
       <c r="J97" s="12">
-        <f t="shared" ref="J97:J98" si="117">J75+I97</f>
+        <f t="shared" ref="J97:J98" si="138">J75+I97</f>
         <v>1.05</v>
       </c>
       <c r="K97" s="12">
-        <f t="shared" ref="K97:K98" si="118">K75+J97</f>
+        <f t="shared" ref="K97:K98" si="139">K75+J97</f>
         <v>2.3200000000000003</v>
       </c>
       <c r="L97" s="12">
-        <f t="shared" ref="L97:L98" si="119">L75+K97</f>
+        <f t="shared" ref="L97:L98" si="140">L75+K97</f>
         <v>4.2200000000000006</v>
       </c>
       <c r="M97" s="12">
-        <f t="shared" ref="M97:M98" si="120">M75+L97</f>
+        <f t="shared" ref="M97:M98" si="141">M75+L97</f>
         <v>6.4400000000000013</v>
       </c>
       <c r="N97" s="12">
-        <f t="shared" ref="N97:N98" si="121">N75+M97</f>
+        <f t="shared" ref="N97:N98" si="142">N75+M97</f>
         <v>10.870000000000001</v>
       </c>
     </row>
     <row r="98" spans="7:14">
       <c r="G98" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H98" s="12">
         <v>0.09</v>
       </c>
       <c r="I98" s="12">
-        <f t="shared" si="116"/>
+        <f t="shared" si="137"/>
         <v>0.47</v>
       </c>
       <c r="J98" s="12">
-        <f t="shared" si="117"/>
+        <f t="shared" si="138"/>
         <v>1.23</v>
       </c>
       <c r="K98" s="12">
-        <f t="shared" si="118"/>
+        <f t="shared" si="139"/>
         <v>2.74</v>
       </c>
       <c r="L98" s="12">
-        <f t="shared" si="119"/>
+        <f t="shared" si="140"/>
         <v>4.99</v>
       </c>
       <c r="M98" s="12">
-        <f t="shared" si="120"/>
+        <f t="shared" si="141"/>
         <v>7.62</v>
       </c>
       <c r="N98" s="12">
-        <f t="shared" si="121"/>
+        <f t="shared" si="142"/>
         <v>12.879999999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="7:14">
+      <c r="G99" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="H99" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="I99" s="12">
+        <f t="shared" ref="I99" si="143">I77+H99</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J99" s="12">
+        <f t="shared" ref="J99" si="144">J77+I99</f>
+        <v>1.44</v>
+      </c>
+      <c r="K99" s="12">
+        <f t="shared" ref="K99" si="145">K77+J99</f>
+        <v>3.21</v>
+      </c>
+      <c r="L99" s="12">
+        <f t="shared" ref="L99" si="146">L77+K99</f>
+        <v>5.8599999999999994</v>
+      </c>
+      <c r="M99" s="12">
+        <f t="shared" ref="M99" si="147">M77+L99</f>
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="N99" s="12">
+        <f t="shared" ref="N99" si="148">N77+M99</f>
+        <v>15.129999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -9172,8 +9449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14EF5D34-81E7-475D-8B1B-AFFF2EFE6FF9}">
   <dimension ref="A2:W50"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -10673,30 +10950,30 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ref="B22:B23" si="73">C22&amp;","&amp;D22&amp;","&amp;E22&amp;","&amp;F22&amp;","&amp;G22</f>
-        <v>10a,20a,50a,100a,200a</v>
+        <v>10설,20설,50설,100설,200설</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" ref="C22:C23" si="74">$C$3&amp;H22</f>
-        <v>10a</v>
+        <v>10설</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" ref="D22:D23" si="75">$D$3&amp;H22</f>
-        <v>20a</v>
+        <v>20설</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" ref="E22:E23" si="76">$E$3&amp;H22</f>
-        <v>50a</v>
+        <v>50설</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" ref="F22:F23" si="77">$F$3&amp;H22</f>
-        <v>100a</v>
+        <v>100설</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" ref="G22:G23" si="78">$G$3&amp;H22</f>
-        <v>200a</v>
+        <v>200설</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>359</v>
+        <v>383</v>
       </c>
       <c r="J22">
         <v>19</v>
@@ -10773,7 +11050,7 @@
         <v>200b</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J23">
         <v>20</v>
@@ -10850,7 +11127,7 @@
         <v>200c</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J24">
         <v>21</v>
@@ -11060,7 +11337,7 @@
     </row>
     <row r="35" spans="20:23">
       <c r="T35" t="s">
-        <v>359</v>
+        <v>383</v>
       </c>
       <c r="U35">
         <v>132</v>
@@ -11076,7 +11353,7 @@
     </row>
     <row r="36" spans="20:23">
       <c r="T36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U36">
         <v>136</v>
@@ -11092,7 +11369,7 @@
     </row>
     <row r="37" spans="20:23">
       <c r="T37" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="U37">
         <v>140</v>

--- a/Assets/06.Table/SuhopetTable.xlsx
+++ b/Assets/06.Table/SuhopetTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51BB188-2328-46DC-8654-AFBE84980FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175BDF1D-D378-4B5B-9A27-9E570190A92B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="605" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-240" yWindow="0" windowWidth="29040" windowHeight="15600" tabRatio="605" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SuhopetTable" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="408">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1301,10 +1301,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>c</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1389,6 +1385,83 @@
   </si>
   <si>
     <t>1E+133,2E+133,5E+133,1E+134,2E+134</t>
+  </si>
+  <si>
+    <t>p27</t>
+  </si>
+  <si>
+    <t>p28</t>
+  </si>
+  <si>
+    <t>p29</t>
+  </si>
+  <si>
+    <t>펫20</t>
+  </si>
+  <si>
+    <t>20단계</t>
+  </si>
+  <si>
+    <t>1260,2520,5040,7560,8820,17640</t>
+  </si>
+  <si>
+    <t>0.1,0.62,1.65,3.71,6.8,10.4,17.6</t>
+  </si>
+  <si>
+    <t>510,510,510,510,510</t>
+  </si>
+  <si>
+    <t>불가사리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1E+137,2E+137,5E+137,1E+138,2E+138</t>
+  </si>
+  <si>
+    <t>10적,20적,50적,100적,200적</t>
+  </si>
+  <si>
+    <t>보스도전
+수인전에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수호묘</t>
+  </si>
+  <si>
+    <t>수호묘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수호견</t>
+  </si>
+  <si>
+    <t>수호견</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.09,0.67,1.83,4.14,7.6,11.64</t>
+  </si>
+  <si>
+    <t>0.1,0.75,2.04,4.62,8.49,13</t>
+  </si>
+  <si>
+    <t>1200,2400,4800,7200,8400</t>
+  </si>
+  <si>
+    <t>1248,2496,4992,7488,8736</t>
+  </si>
+  <si>
+    <t>350,350,350,350,350</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2202,10 +2275,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:U28"/>
+  <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView tabSelected="1" topLeftCell="I17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3475,10 +3548,10 @@
         <v>194</v>
       </c>
       <c r="F20" s="40" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>274</v>
@@ -3540,10 +3613,10 @@
         <v>249</v>
       </c>
       <c r="F21" s="40" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>274</v>
@@ -3918,28 +3991,28 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="D27" s="43" t="s">
+        <v>373</v>
+      </c>
+      <c r="E27" s="43" t="s">
+        <v>373</v>
+      </c>
+      <c r="F27" s="40" t="s">
         <v>365</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="D27" s="43" t="s">
-        <v>374</v>
-      </c>
-      <c r="E27" s="43" t="s">
-        <v>374</v>
-      </c>
-      <c r="F27" s="40" t="s">
+      <c r="G27" s="3" t="s">
         <v>366</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>367</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>274</v>
       </c>
       <c r="I27" s="35" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>169</v>
@@ -3954,7 +4027,7 @@
         <v>49</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="O27" s="4">
         <v>6</v>
@@ -3963,7 +4036,7 @@
         <v>9016</v>
       </c>
       <c r="Q27" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="R27" s="4">
         <v>103</v>
@@ -3975,7 +4048,7 @@
         <v>230</v>
       </c>
       <c r="U27" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="33">
@@ -3983,28 +4056,28 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>376</v>
-      </c>
       <c r="D28" s="43" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E28" s="43" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F28" s="40" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>274</v>
       </c>
       <c r="I28" s="35" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>169</v>
@@ -4019,7 +4092,7 @@
         <v>49</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O28" s="4">
         <v>6</v>
@@ -4028,7 +4101,7 @@
         <v>9016</v>
       </c>
       <c r="Q28" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="R28" s="4">
         <v>104</v>
@@ -4040,7 +4113,202 @@
         <v>230</v>
       </c>
       <c r="U28" t="s">
-        <v>382</v>
+        <v>381</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="33">
+      <c r="A29" s="2">
+        <v>27</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="D29" s="43" t="s">
+        <v>398</v>
+      </c>
+      <c r="E29" s="43" t="s">
+        <v>398</v>
+      </c>
+      <c r="F29" s="53" t="s">
+        <v>259</v>
+      </c>
+      <c r="G29" s="52" t="s">
+        <v>260</v>
+      </c>
+      <c r="H29" s="54" t="s">
+        <v>274</v>
+      </c>
+      <c r="I29" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="J29" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="K29" s="43">
+        <v>9016</v>
+      </c>
+      <c r="L29" s="3">
+        <v>250</v>
+      </c>
+      <c r="M29" s="4">
+        <v>49</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="O29" s="4">
+        <v>5</v>
+      </c>
+      <c r="P29" s="36">
+        <v>9016</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="R29" s="4">
+        <v>-1</v>
+      </c>
+      <c r="S29" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="T29" s="51" t="s">
+        <v>397</v>
+      </c>
+      <c r="U29" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="33">
+      <c r="A30" s="2">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D30" s="43" t="s">
+        <v>400</v>
+      </c>
+      <c r="E30" s="43" t="s">
+        <v>400</v>
+      </c>
+      <c r="F30" s="53" t="s">
+        <v>259</v>
+      </c>
+      <c r="G30" s="52" t="s">
+        <v>260</v>
+      </c>
+      <c r="H30" s="54" t="s">
+        <v>274</v>
+      </c>
+      <c r="I30" s="55" t="s">
+        <v>406</v>
+      </c>
+      <c r="J30" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="K30" s="43">
+        <v>9016</v>
+      </c>
+      <c r="L30" s="3">
+        <v>250</v>
+      </c>
+      <c r="M30" s="4">
+        <v>49</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="O30" s="4">
+        <v>5</v>
+      </c>
+      <c r="P30" s="36">
+        <v>9016</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="R30" s="4">
+        <v>-1</v>
+      </c>
+      <c r="S30" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="T30" s="51" t="s">
+        <v>397</v>
+      </c>
+      <c r="U30" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="33">
+      <c r="A31" s="2">
+        <v>29</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="D31" s="43" t="s">
+        <v>393</v>
+      </c>
+      <c r="E31" s="43" t="s">
+        <v>393</v>
+      </c>
+      <c r="F31" s="40" t="s">
+        <v>395</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="I31" s="35" t="s">
+        <v>392</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="K31" s="43">
+        <v>9016</v>
+      </c>
+      <c r="L31" s="3">
+        <v>350</v>
+      </c>
+      <c r="M31" s="4">
+        <v>49</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="O31" s="4">
+        <v>6</v>
+      </c>
+      <c r="P31" s="36">
+        <v>9016</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="R31" s="4">
+        <v>105</v>
+      </c>
+      <c r="S31" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="T31" s="51" t="s">
+        <v>230</v>
+      </c>
+      <c r="U31" t="s">
+        <v>407</v>
       </c>
     </row>
   </sheetData>
@@ -4064,10 +4332,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB815A5-0A26-4B2F-8716-20DE31E1881F}">
-  <dimension ref="A1:AF99"/>
+  <dimension ref="A1:AF101"/>
   <sheetViews>
-    <sheetView topLeftCell="B12" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+    <sheetView topLeftCell="N22" workbookViewId="0">
+      <selection activeCell="AD31" sqref="AD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -4231,7 +4499,7 @@
         <v>160,160,160,160,160</v>
       </c>
       <c r="P8" s="2" t="str">
-        <f t="shared" ref="P8:P24" si="0">H81&amp;","&amp;I81&amp;","&amp;J81&amp;","&amp;K81&amp;","&amp;L81&amp;","&amp;M81&amp;","&amp;N81</f>
+        <f t="shared" ref="P8:P24" si="0">H82&amp;","&amp;I82&amp;","&amp;J82&amp;","&amp;K82&amp;","&amp;L82&amp;","&amp;M82&amp;","&amp;N82</f>
         <v>0.01,0.03,0.06,0.12,0.21,0.31,0.51</v>
       </c>
       <c r="Q8" s="12" t="str">
@@ -4242,7 +4510,7 @@
         <v>198</v>
       </c>
       <c r="Z8" s="2" t="str">
-        <f t="shared" ref="Z8:Z22" si="2">Z72&amp;","&amp;AA72&amp;","&amp;AB72&amp;","&amp;AC72&amp;","&amp;AD72&amp;","&amp;AE72</f>
+        <f t="shared" ref="Z8:Z14" si="2">Z72&amp;","&amp;AA72&amp;","&amp;AB72&amp;","&amp;AC72&amp;","&amp;AD72&amp;","&amp;AE72</f>
         <v>0.01,0.23,0.67,1.54,2.84,4.36</v>
       </c>
       <c r="AA8" s="56" t="str">
@@ -4581,7 +4849,7 @@
         <v>205</v>
       </c>
       <c r="Z15" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="Z15:Z22" si="7">Z80&amp;","&amp;AA80&amp;","&amp;AB80&amp;","&amp;AC80&amp;","&amp;AD80&amp;","&amp;AE80</f>
         <v>0.08,0.48,1.27,2.85,5.22,7.98</v>
       </c>
       <c r="AA15" s="56" t="str">
@@ -4630,12 +4898,12 @@
         <v>206</v>
       </c>
       <c r="Z16" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>0.09,0.53,1.41,3.17,5.8,8.87</v>
+        <f t="shared" si="7"/>
+        <v>0.09,0.67,1.83,4.14,7.6,11.64</v>
       </c>
       <c r="AA16" s="56" t="str">
         <f t="shared" si="3"/>
-        <v>912,1824,3648,5472,6384</v>
+        <v>1200,2400,4800,7200,8400</v>
       </c>
     </row>
     <row r="17" spans="1:30">
@@ -4677,12 +4945,12 @@
         <v>207</v>
       </c>
       <c r="Z17" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>0.1,0.59,1.56,3.5,6.4,9.79</v>
+        <f t="shared" si="7"/>
+        <v>0.1,0.75,2.04,4.62,8.49,13</v>
       </c>
       <c r="AA17" s="56" t="str">
         <f t="shared" si="3"/>
-        <v>936,1872,3744,5616,6552</v>
+        <v>1248,2496,4992,7488,8736</v>
       </c>
     </row>
     <row r="18" spans="1:30">
@@ -4704,7 +4972,7 @@
         <v>105</v>
       </c>
       <c r="O18" s="2" t="str">
-        <f t="shared" ref="O18:O23" si="7">J19&amp;","&amp;J19&amp;","&amp;J19&amp;","&amp;J19&amp;","&amp;J19</f>
+        <f t="shared" ref="O18:O23" si="8">J19&amp;","&amp;J19&amp;","&amp;J19&amp;","&amp;J19&amp;","&amp;J19</f>
         <v>300,300,300,300,300</v>
       </c>
       <c r="P18" s="2" t="str">
@@ -4712,19 +4980,19 @@
         <v>0.06,0.21,0.51,1.1,1.98,3.01,5.06</v>
       </c>
       <c r="Q18" s="12" t="str">
-        <f t="shared" ref="Q18:Q24" si="8">H46&amp;","&amp;I46&amp;","&amp;J46&amp;","&amp;K46&amp;","&amp;L46&amp;","&amp;M46</f>
+        <f t="shared" ref="Q18:Q24" si="9">H46&amp;","&amp;I46&amp;","&amp;J46&amp;","&amp;K46&amp;","&amp;L46&amp;","&amp;M46</f>
         <v>580,1160,2319,3478,4058,8116</v>
       </c>
       <c r="Y18" s="12" t="s">
         <v>208</v>
       </c>
       <c r="Z18" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>0.11,0.64,1.7,3.82,7,10.71</v>
+        <f t="shared" si="7"/>
+        <v>0.11,0.83,2.27,5.14,9.44,14.45</v>
       </c>
       <c r="AA18" s="56" t="str">
         <f t="shared" si="3"/>
-        <v>960,1920,3840,5760,6720</v>
+        <v>1296,2592,5184,7776,9072</v>
       </c>
     </row>
     <row r="19" spans="1:30">
@@ -4745,7 +5013,7 @@
         <v>210</v>
       </c>
       <c r="I19" s="12">
-        <f t="shared" ref="I19:I21" si="9">H19*$B$9*$B$18*($B$13/100)</f>
+        <f t="shared" ref="I19:I21" si="10">H19*$B$9*$B$18*($B$13/100)</f>
         <v>1512</v>
       </c>
       <c r="J19" s="12">
@@ -4755,7 +5023,7 @@
         <v>106</v>
       </c>
       <c r="O19" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>320,320,320,320,320</v>
       </c>
       <c r="P19" s="2" t="str">
@@ -4763,19 +5031,19 @@
         <v>0.06,0.23,0.56,1.21,2.18,3.31,5.56</v>
       </c>
       <c r="Q19" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>608,1215,2429,3644,4251,8502</v>
       </c>
       <c r="Y19" s="12" t="s">
         <v>209</v>
       </c>
       <c r="Z19" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>0.12,0.55,1.41,3.12,5.68,8.66</v>
+        <f t="shared" si="7"/>
+        <v>0.12,0.71,1.88,4.21,7.7,11.77</v>
       </c>
       <c r="AA19" s="56" t="str">
         <f t="shared" si="3"/>
-        <v>984,1968,3936,5904,6888</v>
+        <v>1344,2688,5376,8064,9408</v>
       </c>
     </row>
     <row r="20" spans="1:30">
@@ -4796,7 +5064,7 @@
         <v>220</v>
       </c>
       <c r="I20" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1584</v>
       </c>
       <c r="J20" s="12">
@@ -4807,7 +5075,7 @@
         <v>172</v>
       </c>
       <c r="O20" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>340,340,340,340,340</v>
       </c>
       <c r="P20" s="2" t="str">
@@ -4815,19 +5083,19 @@
         <v>0.07,0.25,0.61,1.32,2.38,3.61,6.07</v>
       </c>
       <c r="Q20" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>635,1270,2540,3809,4444,8888</v>
       </c>
       <c r="Y20" s="12" t="s">
         <v>210</v>
       </c>
       <c r="Z20" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>0.13,0.58,1.48,3.28,5.97,9.11</v>
+        <f t="shared" si="7"/>
+        <v>0.13,0.75,1.99,4.47,8.18,12.51</v>
       </c>
       <c r="AA20" s="56" t="str">
         <f t="shared" si="3"/>
-        <v>1008,2016,4032,6048,7056</v>
+        <v>1392,2784,5568,8352,9744</v>
       </c>
     </row>
     <row r="21" spans="1:30">
@@ -4848,7 +5116,7 @@
         <v>230</v>
       </c>
       <c r="I21" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1656</v>
       </c>
       <c r="J21" s="12">
@@ -4859,7 +5127,7 @@
         <v>174</v>
       </c>
       <c r="O21" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>350,350,350,350,350</v>
       </c>
       <c r="P21" s="2" t="str">
@@ -4867,19 +5135,19 @@
         <v>0.07,0.27,0.67,1.47,2.67,4.07,6.86</v>
       </c>
       <c r="Q21" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>692,1383,2765,4148,4839,9678</v>
       </c>
       <c r="Y21" s="12" t="s">
         <v>211</v>
       </c>
       <c r="Z21" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>0.14,0.62,1.57,3.46,6.29,9.59</v>
+        <f t="shared" si="7"/>
+        <v>0.14,0.8,2.12,4.75,8.69,13.29</v>
       </c>
       <c r="AA21" s="56" t="str">
         <f t="shared" si="3"/>
-        <v>1032,2064,4128,6192,7224</v>
+        <v>1440,2880,5760,8640,10080</v>
       </c>
     </row>
     <row r="22" spans="1:30">
@@ -4898,18 +5166,18 @@
         <v>240</v>
       </c>
       <c r="I22" s="12">
-        <f t="shared" ref="I22" si="10">H22*$B$9*$B$18*($B$13/100)</f>
+        <f t="shared" ref="I22" si="11">H22*$B$9*$B$18*($B$13/100)</f>
         <v>1728</v>
       </c>
       <c r="J22" s="12">
-        <f t="shared" ref="J22:J24" si="11">ROUNDUP((I22/5),-1)</f>
+        <f t="shared" ref="J22:J24" si="12">ROUNDUP((I22/5),-1)</f>
         <v>350</v>
       </c>
       <c r="N22" s="12" t="s">
         <v>195</v>
       </c>
       <c r="O22" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>360,360,360,360,360</v>
       </c>
       <c r="P22" s="2" t="str">
@@ -4917,19 +5185,19 @@
         <v>0.08,0.31,0.76,1.66,3.01,4.59,7.74</v>
       </c>
       <c r="Q22" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>750,1500,3000,4500,5250,10500</v>
       </c>
       <c r="Y22" s="12" t="s">
         <v>212</v>
       </c>
       <c r="Z22" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>0.15,0.65,1.64,3.62,6.59,10.05</v>
+        <f t="shared" si="7"/>
+        <v>0.15,0.85,2.25,5.04,9.22,14.1</v>
       </c>
       <c r="AA22" s="56" t="str">
         <f t="shared" si="3"/>
-        <v>1056,2112,4224,6336,7392</v>
+        <v>1488,2976,5952,8928,10416</v>
       </c>
     </row>
     <row r="23" spans="1:30">
@@ -4940,18 +5208,18 @@
         <v>250</v>
       </c>
       <c r="I23" s="12">
-        <f t="shared" ref="I23:I24" si="12">H23*$B$9*$B$18*($B$13/100)</f>
+        <f t="shared" ref="I23:I24" si="13">H23*$B$9*$B$18*($B$13/100)</f>
         <v>1800</v>
       </c>
       <c r="J23" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>360</v>
       </c>
       <c r="N23" s="12" t="s">
         <v>246</v>
       </c>
       <c r="O23" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>390,390,390,390,390</v>
       </c>
       <c r="P23" s="2" t="str">
@@ -4959,7 +5227,7 @@
         <v>0.08,0.35,0.88,1.94,3.52,5.36,9.04</v>
       </c>
       <c r="Q23" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>843,1685,3370,5055,5897,11794</v>
       </c>
     </row>
@@ -4971,18 +5239,18 @@
         <v>270</v>
       </c>
       <c r="I24" s="12">
+        <f t="shared" si="13"/>
+        <v>1944</v>
+      </c>
+      <c r="J24" s="12">
         <f t="shared" si="12"/>
-        <v>1944</v>
-      </c>
-      <c r="J24" s="12">
-        <f t="shared" si="11"/>
         <v>390</v>
       </c>
       <c r="N24" s="12" t="s">
         <v>313</v>
       </c>
       <c r="O24" s="2" t="str">
-        <f t="shared" ref="O24:O25" si="13">J25&amp;","&amp;J25&amp;","&amp;J25&amp;","&amp;J25&amp;","&amp;J25</f>
+        <f t="shared" ref="O24:O25" si="14">J25&amp;","&amp;J25&amp;","&amp;J25&amp;","&amp;J25&amp;","&amp;J25</f>
         <v>420,420,420,420,420</v>
       </c>
       <c r="P24" s="2" t="str">
@@ -4990,7 +5258,7 @@
         <v>0.09,0.41,1.05,2.32,4.22,6.44,10.87</v>
       </c>
       <c r="Q24" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>940,1880,3759,5638,6578,13156</v>
       </c>
     </row>
@@ -5007,26 +5275,26 @@
         <v>290</v>
       </c>
       <c r="I25" s="12">
-        <f t="shared" ref="I25:I26" si="14">H25*$B$9*$B$18*($B$13/100)</f>
+        <f t="shared" ref="I25:I26" si="15">H25*$B$9*$B$18*($B$13/100)</f>
         <v>2088</v>
       </c>
       <c r="J25" s="12">
-        <f t="shared" ref="J25:J26" si="15">ROUNDUP((I25/5),-1)</f>
+        <f t="shared" ref="J25:J26" si="16">ROUNDUP((I25/5),-1)</f>
         <v>420</v>
       </c>
       <c r="N25" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="O25" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>450,450,450,450,450</v>
       </c>
       <c r="P25" s="2" t="str">
-        <f t="shared" ref="P25:P26" si="16">H98&amp;","&amp;I98&amp;","&amp;J98&amp;","&amp;K98&amp;","&amp;L98&amp;","&amp;M98&amp;","&amp;N98</f>
+        <f t="shared" ref="P25:P26" si="17">H99&amp;","&amp;I99&amp;","&amp;J99&amp;","&amp;K99&amp;","&amp;L99&amp;","&amp;M99&amp;","&amp;N99</f>
         <v>0.09,0.47,1.23,2.74,4.99,7.62,12.88</v>
       </c>
       <c r="Q25" s="12" t="str">
-        <f t="shared" ref="Q25:Q26" si="17">H53&amp;","&amp;I53&amp;","&amp;J53&amp;","&amp;K53&amp;","&amp;L53&amp;","&amp;M53</f>
+        <f t="shared" ref="Q25:Q27" si="18">H53&amp;","&amp;I53&amp;","&amp;J53&amp;","&amp;K53&amp;","&amp;L53&amp;","&amp;M53</f>
         <v>1042,2084,4167,6250,7292,14584</v>
       </c>
       <c r="S25" s="45"/>
@@ -5046,32 +5314,32 @@
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="G26" s="12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H26" s="12">
         <v>310</v>
       </c>
       <c r="I26" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2232</v>
       </c>
       <c r="J26" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>450</v>
       </c>
       <c r="N26" s="12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="O26" s="2" t="str">
-        <f t="shared" ref="O26" si="18">J27&amp;","&amp;J27&amp;","&amp;J27&amp;","&amp;J27&amp;","&amp;J27</f>
+        <f t="shared" ref="O26:O27" si="19">J27&amp;","&amp;J27&amp;","&amp;J27&amp;","&amp;J27&amp;","&amp;J27</f>
         <v>480,480,480,480,480</v>
       </c>
       <c r="P26" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.1,0.55,1.44,3.21,5.86,8.95,15.13</v>
       </c>
       <c r="Q26" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1149,2297,4594,6891,8039,16078</v>
       </c>
     </row>
@@ -5082,18 +5350,33 @@
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="G27" s="12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H27" s="12">
         <v>330</v>
       </c>
       <c r="I27" s="12">
-        <f t="shared" ref="I27" si="19">H27*$B$9*$B$18*($B$13/100)</f>
+        <f t="shared" ref="I27:I28" si="20">H27*$B$9*$B$18*($B$13/100)</f>
         <v>2376</v>
       </c>
       <c r="J27" s="12">
-        <f t="shared" ref="J27" si="20">ROUNDUP((I27/5),-1)</f>
+        <f t="shared" ref="J27:J28" si="21">ROUNDUP((I27/5),-1)</f>
         <v>480</v>
+      </c>
+      <c r="N27" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="O27" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>510,510,510,510,510</v>
+      </c>
+      <c r="P27" s="2" t="str">
+        <f t="shared" ref="P27" si="22">H101&amp;","&amp;I101&amp;","&amp;J101&amp;","&amp;K101&amp;","&amp;L101&amp;","&amp;M101&amp;","&amp;N101</f>
+        <v>0.1,0.62,1.65,3.71,6.8,10.4,17.6</v>
+      </c>
+      <c r="Q27" s="12" t="str">
+        <f t="shared" si="18"/>
+        <v>1260,2520,5040,7560,8820,17640</v>
       </c>
     </row>
     <row r="28" spans="1:30">
@@ -5102,6 +5385,20 @@
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
+      <c r="G28" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="H28" s="12">
+        <v>350</v>
+      </c>
+      <c r="I28" s="12">
+        <f t="shared" si="20"/>
+        <v>2520</v>
+      </c>
+      <c r="J28" s="12">
+        <f t="shared" si="21"/>
+        <v>510</v>
+      </c>
     </row>
     <row r="29" spans="1:30">
       <c r="A29" s="30" t="s">
@@ -5141,27 +5438,27 @@
         <v>68</v>
       </c>
       <c r="R32" s="26">
-        <f t="shared" ref="R32:W32" si="21">SUM(R34:R43)</f>
+        <f t="shared" ref="R32:W32" si="23">SUM(R34:R43)</f>
         <v>16.285714285714285</v>
       </c>
       <c r="S32" s="26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>13.328571428571429</v>
       </c>
       <c r="T32" s="26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>10.213240418118467</v>
       </c>
       <c r="U32" s="26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>8.8857142857142843</v>
       </c>
       <c r="V32" s="26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>6.4878048780487809</v>
       </c>
       <c r="W32" s="26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5.3097560975609763</v>
       </c>
       <c r="X32"/>
@@ -5299,23 +5596,23 @@
         <v>50</v>
       </c>
       <c r="P34" s="12">
-        <f t="shared" ref="P34:P43" si="22">(H8*$B$9*$B$18)*(O34/100)+I8</f>
+        <f t="shared" ref="P34:P43" si="24">(H8*$B$9*$B$18)*(O34/100)+I8</f>
         <v>2112</v>
       </c>
       <c r="Q34" s="12">
-        <f t="shared" ref="Q34:Q43" si="23">P34-I8</f>
+        <f t="shared" ref="Q34:Q43" si="25">P34-I8</f>
         <v>1320</v>
       </c>
       <c r="R34" s="2">
-        <f t="shared" ref="R34:R43" si="24">(Q34/H8)/($B$18*7)</f>
+        <f t="shared" ref="R34:R43" si="26">(Q34/H8)/($B$18*7)</f>
         <v>0.8571428571428571</v>
       </c>
       <c r="S34" s="2">
-        <f t="shared" ref="S34:S43" si="25">(Q34/$H$17)/(7*$B$18)</f>
+        <f t="shared" ref="S34:S43" si="27">(Q34/$H$17)/(7*$B$18)</f>
         <v>0.47142857142857142</v>
       </c>
       <c r="T34" s="2">
-        <f t="shared" ref="T34:T42" si="26">(Q34/H8)/($B$18*7+$B$21)</f>
+        <f t="shared" ref="T34:T42" si="28">(Q34/H8)/($B$18*7+$B$21)</f>
         <v>0.5714285714285714</v>
       </c>
       <c r="U34" s="2">
@@ -5323,7 +5620,7 @@
         <v>0.31428571428571428</v>
       </c>
       <c r="V34" s="2">
-        <f t="shared" ref="V34:V43" si="27">(Q34/H8)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
+        <f t="shared" ref="V34:V43" si="29">(Q34/H8)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
         <v>0.34146341463414637</v>
       </c>
       <c r="W34" s="2">
@@ -5373,93 +5670,93 @@
         <v>18</v>
       </c>
       <c r="H35" s="12">
-        <f t="shared" ref="H35:H43" si="28">ROUNDUP((P35*$B$30/100),0)</f>
+        <f t="shared" ref="H35:H43" si="30">ROUNDUP((P35*$B$30/100),0)</f>
         <v>130</v>
       </c>
       <c r="I35" s="12">
-        <f t="shared" ref="I35:I43" si="29">ROUNDUP((P35*$B$31/100),0)</f>
+        <f t="shared" ref="I35:I43" si="31">ROUNDUP((P35*$B$31/100),0)</f>
         <v>260</v>
       </c>
       <c r="J35" s="12">
-        <f t="shared" ref="J35:J43" si="30">ROUNDUP((P35*$B$32/100),0)</f>
+        <f t="shared" ref="J35:J43" si="32">ROUNDUP((P35*$B$32/100),0)</f>
         <v>519</v>
       </c>
       <c r="K35" s="12">
-        <f t="shared" ref="K35:K43" si="31">ROUNDUP((P35*$B$33/100),0)</f>
+        <f t="shared" ref="K35:K43" si="33">ROUNDUP((P35*$B$33/100),0)</f>
         <v>778</v>
       </c>
       <c r="L35" s="12">
-        <f t="shared" ref="L35:L43" si="32">ROUNDUP((P35*$B$34/100),0)</f>
+        <f t="shared" ref="L35:L43" si="34">ROUNDUP((P35*$B$34/100),0)</f>
         <v>908</v>
       </c>
       <c r="M35" s="12">
-        <f t="shared" ref="M35:M43" si="33">L35*$B$43</f>
+        <f t="shared" ref="M35:M43" si="35">L35*$B$43</f>
         <v>1816</v>
       </c>
       <c r="N35" s="12">
-        <f t="shared" ref="N35:N43" si="34">SUM(H35:L35)</f>
+        <f t="shared" ref="N35:N43" si="36">SUM(H35:L35)</f>
         <v>2595</v>
       </c>
       <c r="O35" s="12">
         <v>60</v>
       </c>
       <c r="P35" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>2592</v>
       </c>
       <c r="Q35" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1728</v>
       </c>
       <c r="R35" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.0285714285714287</v>
       </c>
       <c r="S35" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.61714285714285722</v>
       </c>
       <c r="T35" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.68571428571428572</v>
       </c>
       <c r="U35" s="2">
-        <f t="shared" ref="U35:U43" si="35">(Q35/$H$17)/($B$18*7+$B$21)</f>
+        <f t="shared" ref="U35:U43" si="37">(Q35/$H$17)/($B$18*7+$B$21)</f>
         <v>0.41142857142857148</v>
       </c>
       <c r="V35" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.40975609756097564</v>
       </c>
       <c r="W35" s="2">
-        <f t="shared" ref="W35:W43" si="36">(Q35/$H$17)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
+        <f t="shared" ref="W35:W43" si="38">(Q35/$H$17)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
         <v>0.24585365853658542</v>
       </c>
       <c r="Y35" s="12" t="s">
         <v>199</v>
       </c>
       <c r="Z35" s="12">
-        <f t="shared" ref="Z35:Z37" si="37">ROUNDUP((AE35*$B$30/100),0)</f>
+        <f t="shared" ref="Z35:Z37" si="39">ROUNDUP((AE35*$B$30/100),0)</f>
         <v>744</v>
       </c>
       <c r="AA35" s="12">
-        <f t="shared" ref="AA35:AA37" si="38">ROUNDUP((AE35*$B$31/100),0)</f>
+        <f t="shared" ref="AA35:AA37" si="40">ROUNDUP((AE35*$B$31/100),0)</f>
         <v>1488</v>
       </c>
       <c r="AB35" s="12">
-        <f t="shared" ref="AB35:AB37" si="39">ROUNDUP((AE35*$B$32/100),0)</f>
+        <f t="shared" ref="AB35:AB37" si="41">ROUNDUP((AE35*$B$32/100),0)</f>
         <v>2976</v>
       </c>
       <c r="AC35" s="12">
-        <f t="shared" ref="AC35:AC37" si="40">ROUNDUP((AE35*$B$33/100),0)</f>
+        <f t="shared" ref="AC35:AC37" si="42">ROUNDUP((AE35*$B$33/100),0)</f>
         <v>4464</v>
       </c>
       <c r="AD35" s="12">
-        <f t="shared" ref="AD35:AD48" si="41">ROUNDUP((AE35*$B$34/100),0)</f>
+        <f t="shared" ref="AD35:AD48" si="43">ROUNDUP((AE35*$B$34/100),0)</f>
         <v>5208</v>
       </c>
       <c r="AE35" s="2">
-        <f t="shared" ref="AE35:AE48" si="42">($H$17*$B$9*$B$18)*(AF35/100)</f>
+        <f t="shared" ref="AE35:AE48" si="44">($H$17*$B$9*$B$18)*(AF35/100)</f>
         <v>14880</v>
       </c>
       <c r="AF35" s="2">
@@ -5472,93 +5769,93 @@
         <v>19</v>
       </c>
       <c r="H36" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>156</v>
       </c>
       <c r="I36" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>312</v>
       </c>
       <c r="J36" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>624</v>
       </c>
       <c r="K36" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>936</v>
       </c>
       <c r="L36" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1092</v>
       </c>
       <c r="M36" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>2184</v>
       </c>
       <c r="N36" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>3120</v>
       </c>
       <c r="O36" s="12">
         <v>70</v>
       </c>
       <c r="P36" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3120</v>
       </c>
       <c r="Q36" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>2184</v>
       </c>
       <c r="R36" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.2</v>
       </c>
       <c r="S36" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.78</v>
       </c>
       <c r="T36" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.8</v>
       </c>
       <c r="U36" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.52</v>
       </c>
       <c r="V36" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.47804878048780497</v>
       </c>
       <c r="W36" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.31073170731707322</v>
       </c>
       <c r="Y36" s="12" t="s">
         <v>200</v>
       </c>
       <c r="Z36" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>768</v>
       </c>
       <c r="AA36" s="12">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1536</v>
       </c>
       <c r="AB36" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>3072</v>
       </c>
       <c r="AC36" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>4608</v>
       </c>
       <c r="AD36" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>5376</v>
       </c>
       <c r="AE36" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>15360</v>
       </c>
       <c r="AF36" s="2">
@@ -5574,93 +5871,93 @@
         <v>85</v>
       </c>
       <c r="H37" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>185</v>
       </c>
       <c r="I37" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>370</v>
       </c>
       <c r="J37" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>740</v>
       </c>
       <c r="K37" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1109</v>
       </c>
       <c r="L37" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1294</v>
       </c>
       <c r="M37" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>2588</v>
       </c>
       <c r="N37" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>3698</v>
       </c>
       <c r="O37" s="12">
         <v>80</v>
       </c>
       <c r="P37" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3696</v>
       </c>
       <c r="Q37" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>2688</v>
       </c>
       <c r="R37" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.3714285714285714</v>
       </c>
       <c r="S37" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.96</v>
       </c>
       <c r="T37" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.91428571428571426</v>
       </c>
       <c r="U37" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.64</v>
       </c>
       <c r="V37" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.54634146341463419</v>
       </c>
       <c r="W37" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.38243902439024391</v>
       </c>
       <c r="Y37" s="12" t="s">
         <v>201</v>
       </c>
       <c r="Z37" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>792</v>
       </c>
       <c r="AA37" s="12">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1584</v>
       </c>
       <c r="AB37" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>3168</v>
       </c>
       <c r="AC37" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>4752</v>
       </c>
       <c r="AD37" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>5544</v>
       </c>
       <c r="AE37" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>15840</v>
       </c>
       <c r="AF37" s="2">
@@ -5673,93 +5970,93 @@
         <v>20</v>
       </c>
       <c r="H38" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>216</v>
       </c>
       <c r="I38" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>432</v>
       </c>
       <c r="J38" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>864</v>
       </c>
       <c r="K38" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1296</v>
       </c>
       <c r="L38" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1512</v>
       </c>
       <c r="M38" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>3024</v>
       </c>
       <c r="N38" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4320</v>
       </c>
       <c r="O38" s="12">
         <v>90</v>
       </c>
       <c r="P38" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>4320</v>
       </c>
       <c r="Q38" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>3240</v>
       </c>
       <c r="R38" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.5428571428571429</v>
       </c>
       <c r="S38" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.157142857142857</v>
       </c>
       <c r="T38" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.0285714285714287</v>
       </c>
       <c r="U38" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.77142857142857135</v>
       </c>
       <c r="V38" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.61463414634146352</v>
       </c>
       <c r="W38" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.46097560975609758</v>
       </c>
       <c r="Y38" s="12" t="s">
         <v>202</v>
       </c>
       <c r="Z38" s="12">
-        <f t="shared" ref="Z38:Z48" si="43">ROUNDUP((AE38*$B$30/100),0)</f>
+        <f t="shared" ref="Z38:Z48" si="45">ROUNDUP((AE38*$B$30/100),0)</f>
         <v>816</v>
       </c>
       <c r="AA38" s="12">
-        <f t="shared" ref="AA38:AA48" si="44">ROUNDUP((AE38*$B$31/100),0)</f>
+        <f t="shared" ref="AA38:AA48" si="46">ROUNDUP((AE38*$B$31/100),0)</f>
         <v>1632</v>
       </c>
       <c r="AB38" s="12">
-        <f t="shared" ref="AB38:AB48" si="45">ROUNDUP((AE38*$B$32/100),0)</f>
+        <f t="shared" ref="AB38:AB48" si="47">ROUNDUP((AE38*$B$32/100),0)</f>
         <v>3264</v>
       </c>
       <c r="AC38" s="12">
-        <f t="shared" ref="AC38:AC48" si="46">ROUNDUP((AE38*$B$33/100),0)</f>
+        <f t="shared" ref="AC38:AC48" si="48">ROUNDUP((AE38*$B$33/100),0)</f>
         <v>4896</v>
       </c>
       <c r="AD38" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>5712</v>
       </c>
       <c r="AE38" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>16320</v>
       </c>
       <c r="AF38" s="2">
@@ -5778,93 +6075,93 @@
         <v>21</v>
       </c>
       <c r="H39" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>250</v>
       </c>
       <c r="I39" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>500</v>
       </c>
       <c r="J39" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>999</v>
       </c>
       <c r="K39" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1498</v>
       </c>
       <c r="L39" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1748</v>
       </c>
       <c r="M39" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>3496</v>
       </c>
       <c r="N39" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4995</v>
       </c>
       <c r="O39" s="12">
         <v>100</v>
       </c>
       <c r="P39" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>4992</v>
       </c>
       <c r="Q39" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>3840</v>
       </c>
       <c r="R39" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.7142857142857142</v>
       </c>
       <c r="S39" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.3714285714285714</v>
       </c>
       <c r="T39" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.1428571428571428</v>
       </c>
       <c r="U39" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.91428571428571426</v>
       </c>
       <c r="V39" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.68292682926829273</v>
       </c>
       <c r="W39" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.54634146341463419</v>
       </c>
       <c r="Y39" s="12" t="s">
         <v>203</v>
       </c>
       <c r="Z39" s="12">
+        <f t="shared" si="45"/>
+        <v>840</v>
+      </c>
+      <c r="AA39" s="12">
+        <f t="shared" si="46"/>
+        <v>1680</v>
+      </c>
+      <c r="AB39" s="12">
+        <f t="shared" si="47"/>
+        <v>3360</v>
+      </c>
+      <c r="AC39" s="12">
+        <f t="shared" si="48"/>
+        <v>5040</v>
+      </c>
+      <c r="AD39" s="12">
         <f t="shared" si="43"/>
-        <v>840</v>
-      </c>
-      <c r="AA39" s="12">
+        <v>5880</v>
+      </c>
+      <c r="AE39" s="2">
         <f t="shared" si="44"/>
-        <v>1680</v>
-      </c>
-      <c r="AB39" s="12">
-        <f t="shared" si="45"/>
-        <v>3360</v>
-      </c>
-      <c r="AC39" s="12">
-        <f t="shared" si="46"/>
-        <v>5040</v>
-      </c>
-      <c r="AD39" s="12">
-        <f t="shared" si="41"/>
-        <v>5880</v>
-      </c>
-      <c r="AE39" s="2">
-        <f t="shared" si="42"/>
         <v>16800</v>
       </c>
       <c r="AF39" s="2">
@@ -5882,93 +6179,93 @@
         <v>22</v>
       </c>
       <c r="H40" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>286</v>
       </c>
       <c r="I40" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>572</v>
       </c>
       <c r="J40" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1143</v>
       </c>
       <c r="K40" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1714</v>
       </c>
       <c r="L40" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>2000</v>
       </c>
       <c r="M40" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>4000</v>
       </c>
       <c r="N40" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>5715</v>
       </c>
       <c r="O40" s="12">
         <v>110</v>
       </c>
       <c r="P40" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5712</v>
       </c>
       <c r="Q40" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>4488</v>
       </c>
       <c r="R40" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.8857142857142857</v>
       </c>
       <c r="S40" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.602857142857143</v>
       </c>
       <c r="T40" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.2571428571428571</v>
       </c>
       <c r="U40" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.0685714285714287</v>
       </c>
       <c r="V40" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.75121951219512195</v>
       </c>
       <c r="W40" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.63853658536585378</v>
       </c>
       <c r="Y40" s="12" t="s">
         <v>204</v>
       </c>
       <c r="Z40" s="12">
+        <f t="shared" si="45"/>
+        <v>864</v>
+      </c>
+      <c r="AA40" s="12">
+        <f t="shared" si="46"/>
+        <v>1728</v>
+      </c>
+      <c r="AB40" s="12">
+        <f t="shared" si="47"/>
+        <v>3456</v>
+      </c>
+      <c r="AC40" s="12">
+        <f t="shared" si="48"/>
+        <v>5184</v>
+      </c>
+      <c r="AD40" s="12">
         <f t="shared" si="43"/>
-        <v>864</v>
-      </c>
-      <c r="AA40" s="12">
+        <v>6048</v>
+      </c>
+      <c r="AE40" s="2">
         <f t="shared" si="44"/>
-        <v>1728</v>
-      </c>
-      <c r="AB40" s="12">
-        <f t="shared" si="45"/>
-        <v>3456</v>
-      </c>
-      <c r="AC40" s="12">
-        <f t="shared" si="46"/>
-        <v>5184</v>
-      </c>
-      <c r="AD40" s="12">
-        <f t="shared" si="41"/>
-        <v>6048</v>
-      </c>
-      <c r="AE40" s="2">
-        <f t="shared" si="42"/>
         <v>17280</v>
       </c>
       <c r="AF40" s="2">
@@ -5980,93 +6277,93 @@
         <v>23</v>
       </c>
       <c r="H41" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>324</v>
       </c>
       <c r="I41" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>648</v>
       </c>
       <c r="J41" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1296</v>
       </c>
       <c r="K41" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1944</v>
       </c>
       <c r="L41" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>2268</v>
       </c>
       <c r="M41" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>4536</v>
       </c>
       <c r="N41" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>6480</v>
       </c>
       <c r="O41" s="12">
         <v>120</v>
       </c>
       <c r="P41" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>6480</v>
       </c>
       <c r="Q41" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5184</v>
       </c>
       <c r="R41" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2.0571428571428574</v>
       </c>
       <c r="S41" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.8514285714285716</v>
       </c>
       <c r="T41" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.3714285714285714</v>
       </c>
       <c r="U41" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.2342857142857144</v>
       </c>
       <c r="V41" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.81951219512195128</v>
       </c>
       <c r="W41" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.7375609756097562</v>
       </c>
       <c r="Y41" s="12" t="s">
         <v>205</v>
       </c>
       <c r="Z41" s="12">
+        <f t="shared" si="45"/>
+        <v>888</v>
+      </c>
+      <c r="AA41" s="12">
+        <f t="shared" si="46"/>
+        <v>1776</v>
+      </c>
+      <c r="AB41" s="12">
+        <f t="shared" si="47"/>
+        <v>3552</v>
+      </c>
+      <c r="AC41" s="12">
+        <f t="shared" si="48"/>
+        <v>5328</v>
+      </c>
+      <c r="AD41" s="12">
         <f t="shared" si="43"/>
-        <v>888</v>
-      </c>
-      <c r="AA41" s="12">
+        <v>6216</v>
+      </c>
+      <c r="AE41" s="2">
         <f t="shared" si="44"/>
-        <v>1776</v>
-      </c>
-      <c r="AB41" s="12">
-        <f t="shared" si="45"/>
-        <v>3552</v>
-      </c>
-      <c r="AC41" s="12">
-        <f t="shared" si="46"/>
-        <v>5328</v>
-      </c>
-      <c r="AD41" s="12">
-        <f t="shared" si="41"/>
-        <v>6216</v>
-      </c>
-      <c r="AE41" s="2">
-        <f t="shared" si="42"/>
         <v>17760</v>
       </c>
       <c r="AF41" s="2">
@@ -6081,23 +6378,23 @@
         <v>24</v>
       </c>
       <c r="H42" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>365</v>
       </c>
       <c r="I42" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>730</v>
       </c>
       <c r="J42" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1460</v>
       </c>
       <c r="K42" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>2189</v>
       </c>
       <c r="L42" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>2554</v>
       </c>
       <c r="M42" s="12">
@@ -6105,73 +6402,73 @@
         <v>5108</v>
       </c>
       <c r="N42" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>7298</v>
       </c>
       <c r="O42" s="12">
         <v>130</v>
       </c>
       <c r="P42" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>7296</v>
       </c>
       <c r="Q42" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5928</v>
       </c>
       <c r="R42" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2.2285714285714286</v>
       </c>
       <c r="S42" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2.117142857142857</v>
       </c>
       <c r="T42" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.4857142857142858</v>
       </c>
       <c r="U42" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.4114285714285715</v>
       </c>
       <c r="V42" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.88780487804878061</v>
       </c>
       <c r="W42" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.84341463414634155</v>
       </c>
       <c r="Y42" s="12" t="s">
         <v>206</v>
       </c>
       <c r="Z42" s="12">
+        <f t="shared" si="45"/>
+        <v>1200</v>
+      </c>
+      <c r="AA42" s="12">
+        <f t="shared" si="46"/>
+        <v>2400</v>
+      </c>
+      <c r="AB42" s="12">
+        <f t="shared" si="47"/>
+        <v>4800</v>
+      </c>
+      <c r="AC42" s="12">
+        <f t="shared" si="48"/>
+        <v>7200</v>
+      </c>
+      <c r="AD42" s="12">
         <f t="shared" si="43"/>
-        <v>912</v>
-      </c>
-      <c r="AA42" s="12">
-        <f t="shared" si="44"/>
-        <v>1824</v>
-      </c>
-      <c r="AB42" s="12">
-        <f t="shared" si="45"/>
-        <v>3648</v>
-      </c>
-      <c r="AC42" s="12">
-        <f t="shared" si="46"/>
-        <v>5472</v>
-      </c>
-      <c r="AD42" s="12">
-        <f t="shared" si="41"/>
-        <v>6384</v>
+        <v>8400</v>
       </c>
       <c r="AE42" s="2">
-        <f t="shared" si="42"/>
-        <v>18240</v>
+        <f>($H$17*$B$9*$B$18)*(AF42/100)</f>
+        <v>24000</v>
       </c>
       <c r="AF42" s="2">
-        <v>380</v>
+        <v>500</v>
       </c>
     </row>
     <row r="43" spans="1:32">
@@ -6185,50 +6482,50 @@
         <v>25</v>
       </c>
       <c r="H43" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>408</v>
       </c>
       <c r="I43" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>816</v>
       </c>
       <c r="J43" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1632</v>
       </c>
       <c r="K43" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>2448</v>
       </c>
       <c r="L43" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>2856</v>
       </c>
       <c r="M43" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5712</v>
       </c>
       <c r="N43" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>8160</v>
       </c>
       <c r="O43" s="12">
         <v>140</v>
       </c>
       <c r="P43" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>8160</v>
       </c>
       <c r="Q43" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>6720</v>
       </c>
       <c r="R43" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2.4</v>
       </c>
       <c r="S43" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2.4</v>
       </c>
       <c r="T43" s="2">
@@ -6236,46 +6533,46 @@
         <v>0.95609756097560994</v>
       </c>
       <c r="U43" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.6</v>
       </c>
       <c r="V43" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.95609756097560994</v>
       </c>
       <c r="W43" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.95609756097560994</v>
       </c>
       <c r="Y43" s="12" t="s">
         <v>207</v>
       </c>
       <c r="Z43" s="12">
+        <f t="shared" si="45"/>
+        <v>1248</v>
+      </c>
+      <c r="AA43" s="12">
+        <f t="shared" si="46"/>
+        <v>2496</v>
+      </c>
+      <c r="AB43" s="12">
+        <f t="shared" si="47"/>
+        <v>4992</v>
+      </c>
+      <c r="AC43" s="12">
+        <f t="shared" si="48"/>
+        <v>7488</v>
+      </c>
+      <c r="AD43" s="12">
         <f t="shared" si="43"/>
-        <v>936</v>
-      </c>
-      <c r="AA43" s="12">
+        <v>8736</v>
+      </c>
+      <c r="AE43" s="2">
         <f t="shared" si="44"/>
-        <v>1872</v>
-      </c>
-      <c r="AB43" s="12">
-        <f t="shared" si="45"/>
-        <v>3744</v>
-      </c>
-      <c r="AC43" s="12">
-        <f t="shared" si="46"/>
-        <v>5616</v>
-      </c>
-      <c r="AD43" s="12">
-        <f t="shared" si="41"/>
-        <v>6552</v>
-      </c>
-      <c r="AE43" s="2">
-        <f t="shared" si="42"/>
-        <v>18720</v>
+        <v>24960</v>
       </c>
       <c r="AF43" s="2">
-        <v>390</v>
+        <v>520</v>
       </c>
     </row>
     <row r="44" spans="1:32">
@@ -6303,31 +6600,31 @@
         <v>208</v>
       </c>
       <c r="Z44" s="12">
+        <f t="shared" si="45"/>
+        <v>1296</v>
+      </c>
+      <c r="AA44" s="12">
+        <f t="shared" si="46"/>
+        <v>2592</v>
+      </c>
+      <c r="AB44" s="12">
+        <f t="shared" si="47"/>
+        <v>5184</v>
+      </c>
+      <c r="AC44" s="12">
+        <f t="shared" si="48"/>
+        <v>7776</v>
+      </c>
+      <c r="AD44" s="12">
         <f t="shared" si="43"/>
-        <v>960</v>
-      </c>
-      <c r="AA44" s="12">
+        <v>9072</v>
+      </c>
+      <c r="AE44" s="2">
         <f t="shared" si="44"/>
-        <v>1920</v>
-      </c>
-      <c r="AB44" s="12">
-        <f t="shared" si="45"/>
-        <v>3840</v>
-      </c>
-      <c r="AC44" s="12">
-        <f t="shared" si="46"/>
-        <v>5760</v>
-      </c>
-      <c r="AD44" s="12">
-        <f t="shared" si="41"/>
-        <v>6720</v>
-      </c>
-      <c r="AE44" s="2">
-        <f t="shared" si="42"/>
-        <v>19200</v>
+        <v>25920</v>
       </c>
       <c r="AF44" s="2">
-        <v>400</v>
+        <v>540</v>
       </c>
     </row>
     <row r="45" spans="1:32">
@@ -6339,23 +6636,23 @@
         <v>6.8571428571428568</v>
       </c>
       <c r="S45" s="26">
-        <f t="shared" ref="S45:W45" si="47">SUM(S46:S47)</f>
+        <f t="shared" ref="S45:W45" si="49">SUM(S46:S47)</f>
         <v>6.7012987012987013</v>
       </c>
       <c r="T45" s="26">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>2.7317073170731709</v>
       </c>
       <c r="U45" s="26">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>4.4675324675324681</v>
       </c>
       <c r="V45" s="26">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>2.7317073170731709</v>
       </c>
       <c r="W45" s="26">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>2.6696230598669626</v>
       </c>
       <c r="X45"/>
@@ -6363,31 +6660,31 @@
         <v>209</v>
       </c>
       <c r="Z45" s="12">
+        <f t="shared" si="45"/>
+        <v>1344</v>
+      </c>
+      <c r="AA45" s="12">
+        <f t="shared" si="46"/>
+        <v>2688</v>
+      </c>
+      <c r="AB45" s="12">
+        <f t="shared" si="47"/>
+        <v>5376</v>
+      </c>
+      <c r="AC45" s="12">
+        <f t="shared" si="48"/>
+        <v>8064</v>
+      </c>
+      <c r="AD45" s="12">
         <f t="shared" si="43"/>
-        <v>984</v>
-      </c>
-      <c r="AA45" s="12">
+        <v>9408</v>
+      </c>
+      <c r="AE45" s="2">
         <f t="shared" si="44"/>
-        <v>1968</v>
-      </c>
-      <c r="AB45" s="12">
-        <f t="shared" si="45"/>
-        <v>3936</v>
-      </c>
-      <c r="AC45" s="12">
-        <f t="shared" si="46"/>
-        <v>5904</v>
-      </c>
-      <c r="AD45" s="12">
-        <f t="shared" si="41"/>
-        <v>6888</v>
-      </c>
-      <c r="AE45" s="2">
-        <f t="shared" si="42"/>
-        <v>19680</v>
+        <v>26880</v>
       </c>
       <c r="AF45" s="2">
-        <v>410</v>
+        <v>560</v>
       </c>
     </row>
     <row r="46" spans="1:32">
@@ -6395,31 +6692,31 @@
         <v>105</v>
       </c>
       <c r="H46" s="12">
-        <f t="shared" ref="H46:H47" si="48">ROUNDUP((P46*$B$30/100),0)</f>
+        <f t="shared" ref="H46:H47" si="50">ROUNDUP((P46*$B$30/100),0)</f>
         <v>580</v>
       </c>
       <c r="I46" s="12">
-        <f t="shared" ref="I46:I47" si="49">ROUNDUP((P46*$B$31/100),0)</f>
+        <f t="shared" ref="I46:I47" si="51">ROUNDUP((P46*$B$31/100),0)</f>
         <v>1160</v>
       </c>
       <c r="J46" s="12">
-        <f t="shared" ref="J46:J47" si="50">ROUNDUP((P46*$B$32/100),0)</f>
+        <f t="shared" ref="J46:J47" si="52">ROUNDUP((P46*$B$32/100),0)</f>
         <v>2319</v>
       </c>
       <c r="K46" s="12">
-        <f t="shared" ref="K46:K47" si="51">ROUNDUP((P46*$B$33/100),0)</f>
+        <f t="shared" ref="K46:K47" si="53">ROUNDUP((P46*$B$33/100),0)</f>
         <v>3478</v>
       </c>
       <c r="L46" s="12">
-        <f t="shared" ref="L46:L47" si="52">ROUNDUP((P46*$B$34/100),0)</f>
+        <f t="shared" ref="L46:L47" si="54">ROUNDUP((P46*$B$34/100),0)</f>
         <v>4058</v>
       </c>
       <c r="M46" s="12">
-        <f t="shared" ref="M46:M51" si="53">L46*$B$43</f>
+        <f t="shared" ref="M46:M51" si="55">L46*$B$43</f>
         <v>8116</v>
       </c>
       <c r="N46" s="12">
-        <f t="shared" ref="N46" si="54">SUM(H46:L46)</f>
+        <f t="shared" ref="N46" si="56">SUM(H46:L46)</f>
         <v>11595</v>
       </c>
       <c r="O46" s="12">
@@ -6461,31 +6758,31 @@
         <v>210</v>
       </c>
       <c r="Z46" s="12">
+        <f t="shared" si="45"/>
+        <v>1392</v>
+      </c>
+      <c r="AA46" s="12">
+        <f t="shared" si="46"/>
+        <v>2784</v>
+      </c>
+      <c r="AB46" s="12">
+        <f t="shared" si="47"/>
+        <v>5568</v>
+      </c>
+      <c r="AC46" s="12">
+        <f t="shared" si="48"/>
+        <v>8352</v>
+      </c>
+      <c r="AD46" s="12">
         <f t="shared" si="43"/>
-        <v>1008</v>
-      </c>
-      <c r="AA46" s="12">
+        <v>9744</v>
+      </c>
+      <c r="AE46" s="2">
         <f t="shared" si="44"/>
-        <v>2016</v>
-      </c>
-      <c r="AB46" s="12">
-        <f t="shared" si="45"/>
-        <v>4032</v>
-      </c>
-      <c r="AC46" s="12">
-        <f t="shared" si="46"/>
-        <v>6048</v>
-      </c>
-      <c r="AD46" s="12">
-        <f t="shared" si="41"/>
-        <v>7056</v>
-      </c>
-      <c r="AE46" s="2">
-        <f t="shared" si="42"/>
-        <v>20160</v>
+        <v>27840</v>
       </c>
       <c r="AF46" s="2">
-        <v>420</v>
+        <v>580</v>
       </c>
     </row>
     <row r="47" spans="1:32">
@@ -6493,31 +6790,31 @@
         <v>106</v>
       </c>
       <c r="H47" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>608</v>
       </c>
       <c r="I47" s="12">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1215</v>
       </c>
       <c r="J47" s="12">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>2429</v>
       </c>
       <c r="K47" s="12">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>3644</v>
       </c>
       <c r="L47" s="12">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>4251</v>
       </c>
       <c r="M47" s="12">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>8502</v>
       </c>
       <c r="N47" s="12">
-        <f t="shared" ref="N47:N52" si="55">SUM(H47:L47)</f>
+        <f t="shared" ref="N47:N52" si="57">SUM(H47:L47)</f>
         <v>12147</v>
       </c>
       <c r="O47" s="12">
@@ -6559,31 +6856,31 @@
         <v>211</v>
       </c>
       <c r="Z47" s="12">
+        <f t="shared" si="45"/>
+        <v>1440</v>
+      </c>
+      <c r="AA47" s="12">
+        <f t="shared" si="46"/>
+        <v>2880</v>
+      </c>
+      <c r="AB47" s="12">
+        <f t="shared" si="47"/>
+        <v>5760</v>
+      </c>
+      <c r="AC47" s="12">
+        <f t="shared" si="48"/>
+        <v>8640</v>
+      </c>
+      <c r="AD47" s="12">
         <f t="shared" si="43"/>
-        <v>1032</v>
-      </c>
-      <c r="AA47" s="12">
+        <v>10080</v>
+      </c>
+      <c r="AE47" s="2">
         <f t="shared" si="44"/>
-        <v>2064</v>
-      </c>
-      <c r="AB47" s="12">
-        <f t="shared" si="45"/>
-        <v>4128</v>
-      </c>
-      <c r="AC47" s="12">
-        <f t="shared" si="46"/>
-        <v>6192</v>
-      </c>
-      <c r="AD47" s="12">
-        <f t="shared" si="41"/>
-        <v>7224</v>
-      </c>
-      <c r="AE47" s="2">
-        <f t="shared" si="42"/>
-        <v>20640</v>
+        <v>28800</v>
       </c>
       <c r="AF47" s="2">
-        <v>430</v>
+        <v>600</v>
       </c>
     </row>
     <row r="48" spans="1:32">
@@ -6591,31 +6888,31 @@
         <v>172</v>
       </c>
       <c r="H48" s="12">
-        <f t="shared" ref="H48" si="56">ROUNDUP((P48*$B$30/100),0)</f>
+        <f t="shared" ref="H48" si="58">ROUNDUP((P48*$B$30/100),0)</f>
         <v>635</v>
       </c>
       <c r="I48" s="12">
-        <f t="shared" ref="I48" si="57">ROUNDUP((P48*$B$31/100),0)</f>
+        <f t="shared" ref="I48" si="59">ROUNDUP((P48*$B$31/100),0)</f>
         <v>1270</v>
       </c>
       <c r="J48" s="12">
-        <f t="shared" ref="J48" si="58">ROUNDUP((P48*$B$32/100),0)</f>
+        <f t="shared" ref="J48" si="60">ROUNDUP((P48*$B$32/100),0)</f>
         <v>2540</v>
       </c>
       <c r="K48" s="12">
-        <f t="shared" ref="K48" si="59">ROUNDUP((P48*$B$33/100),0)</f>
+        <f t="shared" ref="K48" si="61">ROUNDUP((P48*$B$33/100),0)</f>
         <v>3809</v>
       </c>
       <c r="L48" s="12">
-        <f t="shared" ref="L48" si="60">ROUNDUP((P48*$B$34/100),0)</f>
+        <f t="shared" ref="L48" si="62">ROUNDUP((P48*$B$34/100),0)</f>
         <v>4444</v>
       </c>
       <c r="M48" s="12">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>8888</v>
       </c>
       <c r="N48" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>12698</v>
       </c>
       <c r="O48" s="12">
@@ -6629,31 +6926,31 @@
         <v>212</v>
       </c>
       <c r="Z48" s="12">
+        <f t="shared" si="45"/>
+        <v>1488</v>
+      </c>
+      <c r="AA48" s="12">
+        <f t="shared" si="46"/>
+        <v>2976</v>
+      </c>
+      <c r="AB48" s="12">
+        <f t="shared" si="47"/>
+        <v>5952</v>
+      </c>
+      <c r="AC48" s="12">
+        <f t="shared" si="48"/>
+        <v>8928</v>
+      </c>
+      <c r="AD48" s="12">
         <f t="shared" si="43"/>
-        <v>1056</v>
-      </c>
-      <c r="AA48" s="12">
+        <v>10416</v>
+      </c>
+      <c r="AE48" s="2">
         <f t="shared" si="44"/>
-        <v>2112</v>
-      </c>
-      <c r="AB48" s="12">
-        <f t="shared" si="45"/>
-        <v>4224</v>
-      </c>
-      <c r="AC48" s="12">
-        <f t="shared" si="46"/>
-        <v>6336</v>
-      </c>
-      <c r="AD48" s="12">
-        <f t="shared" si="41"/>
-        <v>7392</v>
-      </c>
-      <c r="AE48" s="2">
-        <f t="shared" si="42"/>
-        <v>21120</v>
+        <v>29760</v>
       </c>
       <c r="AF48" s="2">
-        <v>440</v>
+        <v>620</v>
       </c>
     </row>
     <row r="49" spans="7:32">
@@ -6661,31 +6958,31 @@
         <v>175</v>
       </c>
       <c r="H49" s="12">
-        <f t="shared" ref="H49" si="61">ROUNDUP((P49*$B$30/100),0)</f>
+        <f t="shared" ref="H49" si="63">ROUNDUP((P49*$B$30/100),0)</f>
         <v>692</v>
       </c>
       <c r="I49" s="12">
-        <f t="shared" ref="I49" si="62">ROUNDUP((P49*$B$31/100),0)</f>
+        <f t="shared" ref="I49" si="64">ROUNDUP((P49*$B$31/100),0)</f>
         <v>1383</v>
       </c>
       <c r="J49" s="12">
-        <f t="shared" ref="J49" si="63">ROUNDUP((P49*$B$32/100),0)</f>
+        <f t="shared" ref="J49" si="65">ROUNDUP((P49*$B$32/100),0)</f>
         <v>2765</v>
       </c>
       <c r="K49" s="12">
-        <f t="shared" ref="K49" si="64">ROUNDUP((P49*$B$33/100),0)</f>
+        <f t="shared" ref="K49" si="66">ROUNDUP((P49*$B$33/100),0)</f>
         <v>4148</v>
       </c>
       <c r="L49" s="12">
-        <f t="shared" ref="L49" si="65">ROUNDUP((P49*$B$34/100),0)</f>
+        <f t="shared" ref="L49" si="67">ROUNDUP((P49*$B$34/100),0)</f>
         <v>4839</v>
       </c>
       <c r="M49" s="12">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>9678</v>
       </c>
       <c r="N49" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>13827</v>
       </c>
       <c r="O49" s="12">
@@ -6701,31 +6998,31 @@
         <v>195</v>
       </c>
       <c r="H50" s="12">
-        <f t="shared" ref="H50:H51" si="66">ROUNDUP((P50*$B$30/100),0)</f>
+        <f t="shared" ref="H50:H51" si="68">ROUNDUP((P50*$B$30/100),0)</f>
         <v>750</v>
       </c>
       <c r="I50" s="12">
-        <f t="shared" ref="I50:I51" si="67">ROUNDUP((P50*$B$31/100),0)</f>
+        <f t="shared" ref="I50:I51" si="69">ROUNDUP((P50*$B$31/100),0)</f>
         <v>1500</v>
       </c>
       <c r="J50" s="12">
-        <f t="shared" ref="J50:J51" si="68">ROUNDUP((P50*$B$32/100),0)</f>
+        <f t="shared" ref="J50:J51" si="70">ROUNDUP((P50*$B$32/100),0)</f>
         <v>3000</v>
       </c>
       <c r="K50" s="12">
-        <f t="shared" ref="K50:K51" si="69">ROUNDUP((P50*$B$33/100),0)</f>
+        <f t="shared" ref="K50:K51" si="71">ROUNDUP((P50*$B$33/100),0)</f>
         <v>4500</v>
       </c>
       <c r="L50" s="12">
-        <f t="shared" ref="L50:L51" si="70">ROUNDUP((P50*$B$34/100),0)</f>
+        <f t="shared" ref="L50:L51" si="72">ROUNDUP((P50*$B$34/100),0)</f>
         <v>5250</v>
       </c>
       <c r="M50" s="12">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>10500</v>
       </c>
       <c r="N50" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>15000</v>
       </c>
       <c r="O50" s="12">
@@ -6741,31 +7038,31 @@
         <v>246</v>
       </c>
       <c r="H51" s="12">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>843</v>
       </c>
       <c r="I51" s="12">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>1685</v>
       </c>
       <c r="J51" s="12">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>3370</v>
       </c>
       <c r="K51" s="12">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>5055</v>
       </c>
       <c r="L51" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>5897</v>
       </c>
       <c r="M51" s="12">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>11794</v>
       </c>
       <c r="N51" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>16850</v>
       </c>
       <c r="O51" s="12">
@@ -6781,31 +7078,31 @@
         <v>313</v>
       </c>
       <c r="H52" s="12">
-        <f t="shared" ref="H52:H53" si="71">ROUNDUP((P52*$B$30/100),0)</f>
+        <f t="shared" ref="H52:H53" si="73">ROUNDUP((P52*$B$30/100),0)</f>
         <v>940</v>
       </c>
       <c r="I52" s="12">
-        <f t="shared" ref="I52:I53" si="72">ROUNDUP((P52*$B$31/100),0)</f>
+        <f t="shared" ref="I52:I53" si="74">ROUNDUP((P52*$B$31/100),0)</f>
         <v>1880</v>
       </c>
       <c r="J52" s="12">
-        <f t="shared" ref="J52:J53" si="73">ROUNDUP((P52*$B$32/100),0)</f>
+        <f t="shared" ref="J52:J53" si="75">ROUNDUP((P52*$B$32/100),0)</f>
         <v>3759</v>
       </c>
       <c r="K52" s="12">
-        <f t="shared" ref="K52:K53" si="74">ROUNDUP((P52*$B$33/100),0)</f>
+        <f t="shared" ref="K52:K53" si="76">ROUNDUP((P52*$B$33/100),0)</f>
         <v>5638</v>
       </c>
       <c r="L52" s="12">
-        <f t="shared" ref="L52:L53" si="75">ROUNDUP((P52*$B$34/100),0)</f>
+        <f t="shared" ref="L52:L53" si="77">ROUNDUP((P52*$B$34/100),0)</f>
         <v>6578</v>
       </c>
       <c r="M52" s="12">
-        <f t="shared" ref="M52:M53" si="76">L52*$B$43</f>
+        <f t="shared" ref="M52:M53" si="78">L52*$B$43</f>
         <v>13156</v>
       </c>
       <c r="N52" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>18795</v>
       </c>
       <c r="O52" s="12">
@@ -6821,34 +7118,34 @@
     </row>
     <row r="53" spans="7:32" ht="17.25" thickBot="1">
       <c r="G53" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H53" s="12">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>1042</v>
       </c>
       <c r="I53" s="12">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>2084</v>
       </c>
       <c r="J53" s="12">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>4167</v>
       </c>
       <c r="K53" s="12">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>6250</v>
       </c>
       <c r="L53" s="12">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>7292</v>
       </c>
       <c r="M53" s="12">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>14584</v>
       </c>
       <c r="N53" s="12">
-        <f t="shared" ref="N53" si="77">SUM(H53:L53)</f>
+        <f t="shared" ref="N53" si="79">SUM(H53:L53)</f>
         <v>20835</v>
       </c>
       <c r="O53" s="12">
@@ -6885,34 +7182,34 @@
     </row>
     <row r="54" spans="7:32" ht="17.25" thickTop="1">
       <c r="G54" s="12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H54" s="12">
-        <f t="shared" ref="H54" si="78">ROUNDUP((P54*$B$30/100),0)</f>
+        <f t="shared" ref="H54:H55" si="80">ROUNDUP((P54*$B$30/100),0)</f>
         <v>1149</v>
       </c>
       <c r="I54" s="12">
-        <f t="shared" ref="I54" si="79">ROUNDUP((P54*$B$31/100),0)</f>
+        <f t="shared" ref="I54:I55" si="81">ROUNDUP((P54*$B$31/100),0)</f>
         <v>2297</v>
       </c>
       <c r="J54" s="12">
-        <f t="shared" ref="J54" si="80">ROUNDUP((P54*$B$32/100),0)</f>
+        <f t="shared" ref="J54:J55" si="82">ROUNDUP((P54*$B$32/100),0)</f>
         <v>4594</v>
       </c>
       <c r="K54" s="12">
-        <f t="shared" ref="K54" si="81">ROUNDUP((P54*$B$33/100),0)</f>
+        <f t="shared" ref="K54:K55" si="83">ROUNDUP((P54*$B$33/100),0)</f>
         <v>6891</v>
       </c>
       <c r="L54" s="12">
-        <f t="shared" ref="L54" si="82">ROUNDUP((P54*$B$34/100),0)</f>
+        <f t="shared" ref="L54:L55" si="84">ROUNDUP((P54*$B$34/100),0)</f>
         <v>8039</v>
       </c>
       <c r="M54" s="12">
-        <f t="shared" ref="M54" si="83">L54*$B$43</f>
+        <f t="shared" ref="M54:M55" si="85">L54*$B$43</f>
         <v>16078</v>
       </c>
       <c r="N54" s="12">
-        <f t="shared" ref="N54" si="84">SUM(H54:L54)</f>
+        <f t="shared" ref="N54" si="86">SUM(H54:L54)</f>
         <v>22970</v>
       </c>
       <c r="O54" s="12">
@@ -6929,23 +7226,23 @@
         <v>0.01</v>
       </c>
       <c r="AA54" s="12">
-        <f t="shared" ref="AA54:AA68" si="85">ROUNDUP(((Z34/$B$39)*$B$40)*((100+AF54)/100),0)/100</f>
+        <f t="shared" ref="AA54:AA68" si="87">ROUNDUP(((Z34/$B$39)*$B$40)*((100+AF54)/100),0)/100</f>
         <v>0.22</v>
       </c>
       <c r="AB54" s="12">
-        <f t="shared" ref="AB54:AB68" si="86">ROUNDUP(((AA34/$B$39)*$B$40)*((100+AF54)/100),0)/100</f>
+        <f t="shared" ref="AB54:AB68" si="88">ROUNDUP(((AA34/$B$39)*$B$40)*((100+AF54)/100),0)/100</f>
         <v>0.44</v>
       </c>
       <c r="AC54" s="12">
-        <f t="shared" ref="AC54:AC68" si="87">ROUNDUP(((AB34/$B$39)*$B$40)*((100+AF54)/100),0)/100</f>
+        <f t="shared" ref="AC54:AC68" si="89">ROUNDUP(((AB34/$B$39)*$B$40)*((100+AF54)/100),0)/100</f>
         <v>0.87</v>
       </c>
       <c r="AD54" s="12">
-        <f t="shared" ref="AD54:AD68" si="88">ROUNDUP(((AC34/$B$39)*$B$40)*((100+AF54)/100),0)/100</f>
+        <f t="shared" ref="AD54:AD68" si="90">ROUNDUP(((AC34/$B$39)*$B$40)*((100+AF54)/100),0)/100</f>
         <v>1.3</v>
       </c>
       <c r="AE54" s="12">
-        <f t="shared" ref="AE54:AE68" si="89">ROUNDUP(((AD34/$B$39)*$B$40)*((100+AF54)/100),0)/100</f>
+        <f t="shared" ref="AE54:AE68" si="91">ROUNDUP(((AD34/$B$39)*$B$40)*((100+AF54)/100),0)/100</f>
         <v>1.52</v>
       </c>
       <c r="AF54" s="2">
@@ -6953,6 +7250,44 @@
       </c>
     </row>
     <row r="55" spans="7:32">
+      <c r="G55" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="H55" s="12">
+        <f t="shared" si="80"/>
+        <v>1260</v>
+      </c>
+      <c r="I55" s="12">
+        <f t="shared" si="81"/>
+        <v>2520</v>
+      </c>
+      <c r="J55" s="12">
+        <f t="shared" si="82"/>
+        <v>5040</v>
+      </c>
+      <c r="K55" s="12">
+        <f t="shared" si="83"/>
+        <v>7560</v>
+      </c>
+      <c r="L55" s="12">
+        <f t="shared" si="84"/>
+        <v>8820</v>
+      </c>
+      <c r="M55" s="12">
+        <f t="shared" si="85"/>
+        <v>17640</v>
+      </c>
+      <c r="N55" s="12">
+        <f t="shared" ref="N55" si="92">SUM(H55:L55)</f>
+        <v>25200</v>
+      </c>
+      <c r="O55" s="12">
+        <v>270</v>
+      </c>
+      <c r="P55" s="12">
+        <f>(H28*($B$9)*$B$18)*(O55/100)+I28</f>
+        <v>25200</v>
+      </c>
       <c r="Y55" s="12" t="s">
         <v>199</v>
       </c>
@@ -6960,23 +7295,23 @@
         <v>0.02</v>
       </c>
       <c r="AA55" s="12">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>0.24</v>
       </c>
       <c r="AB55" s="12">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>0.47</v>
       </c>
       <c r="AC55" s="12">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>0.93</v>
       </c>
       <c r="AD55" s="12">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>1.4</v>
       </c>
       <c r="AE55" s="12">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>1.63</v>
       </c>
       <c r="AF55" s="2">
@@ -6991,23 +7326,23 @@
         <v>0.03</v>
       </c>
       <c r="AA56" s="12">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>0.25</v>
       </c>
       <c r="AB56" s="12">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>0.5</v>
       </c>
       <c r="AC56" s="12">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>1</v>
       </c>
       <c r="AD56" s="12">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>1.5</v>
       </c>
       <c r="AE56" s="12">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>1.75</v>
       </c>
       <c r="AF56" s="2">
@@ -7035,23 +7370,23 @@
         <v>0.04</v>
       </c>
       <c r="AA57" s="12">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>0.27</v>
       </c>
       <c r="AB57" s="12">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>0.54</v>
       </c>
       <c r="AC57" s="12">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>1.07</v>
       </c>
       <c r="AD57" s="12">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>1.6</v>
       </c>
       <c r="AE57" s="12">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>1.87</v>
       </c>
       <c r="AF57" s="2">
@@ -7102,23 +7437,23 @@
         <v>0.05</v>
       </c>
       <c r="AA58" s="12">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>0.3</v>
       </c>
       <c r="AB58" s="12">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>0.59</v>
       </c>
       <c r="AC58" s="12">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>1.18</v>
       </c>
       <c r="AD58" s="12">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>1.77</v>
       </c>
       <c r="AE58" s="12">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>2.06</v>
       </c>
       <c r="AF58" s="2">
@@ -7133,34 +7468,34 @@
         <v>0.01</v>
       </c>
       <c r="I59" s="12">
-        <f t="shared" ref="I59:I68" si="90">ROUNDUP(((H34/$B$39)*$B$40)*((100+O59)/100),0)/100</f>
+        <f t="shared" ref="I59:I68" si="93">ROUNDUP(((H34/$B$39)*$B$40)*((100+O59)/100),0)/100</f>
         <v>0.02</v>
       </c>
       <c r="J59" s="12">
-        <f t="shared" ref="J59:J68" si="91">ROUNDUP(((I34/$B$39)*$B$40)*((100+O59)/100),0)/100</f>
+        <f t="shared" ref="J59:J68" si="94">ROUNDUP(((I34/$B$39)*$B$40)*((100+O59)/100),0)/100</f>
         <v>0.03</v>
       </c>
       <c r="K59" s="12">
-        <f t="shared" ref="K59:K68" si="92">ROUNDUP(((J34/$B$39)*$B$40)*((100+O59)/100),0)/100</f>
+        <f t="shared" ref="K59:K68" si="95">ROUNDUP(((J34/$B$39)*$B$40)*((100+O59)/100),0)/100</f>
         <v>0.06</v>
       </c>
       <c r="L59" s="12">
-        <f t="shared" ref="L59:L68" si="93">ROUNDUP(((K34/$B$39)*$B$40)*((100+O59)/100),0)/100</f>
+        <f t="shared" ref="L59:L68" si="96">ROUNDUP(((K34/$B$39)*$B$40)*((100+O59)/100),0)/100</f>
         <v>0.09</v>
       </c>
       <c r="M59" s="12">
-        <f t="shared" ref="M59:M68" si="94">ROUNDUP(((L34/$B$39)*$B$40)*((100+O59)/100),0)/100</f>
+        <f t="shared" ref="M59:M68" si="97">ROUNDUP(((L34/$B$39)*$B$40)*((100+O59)/100),0)/100</f>
         <v>0.1</v>
       </c>
       <c r="N59" s="12">
-        <f t="shared" ref="N59:N68" si="95">ROUNDUP(((M34/$B$39)*$B$40)*((100+O59)/100),0)/100</f>
+        <f t="shared" ref="N59:N68" si="98">ROUNDUP(((M34/$B$39)*$B$40)*((100+O59)/100),0)/100</f>
         <v>0.2</v>
       </c>
       <c r="O59" s="13">
         <v>10</v>
       </c>
       <c r="P59" s="13">
-        <f t="shared" ref="P59:P70" si="96">SUM(H59:M59)</f>
+        <f t="shared" ref="P59:P70" si="99">SUM(H59:M59)</f>
         <v>0.31</v>
       </c>
       <c r="Q59" s="12">
@@ -7168,7 +7503,7 @@
         <v>0.2</v>
       </c>
       <c r="R59" s="13">
-        <f t="shared" ref="R59:R75" si="97">((P59+Q59)/$P$57)*100</f>
+        <f t="shared" ref="R59:R75" si="100">((P59+Q59)/$P$57)*100</f>
         <v>2.3087369850611137</v>
       </c>
       <c r="Y59" s="12" t="s">
@@ -7178,23 +7513,23 @@
         <v>0.06</v>
       </c>
       <c r="AA59" s="12">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>0.33</v>
       </c>
       <c r="AB59" s="12">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>0.65</v>
       </c>
       <c r="AC59" s="12">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>1.3</v>
       </c>
       <c r="AD59" s="12">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>1.94</v>
       </c>
       <c r="AE59" s="12">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="AF59" s="2">
@@ -7209,42 +7544,42 @@
         <v>0.01</v>
       </c>
       <c r="I60" s="12">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>0.02</v>
       </c>
       <c r="J60" s="12">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>0.04</v>
       </c>
       <c r="K60" s="12">
-        <f t="shared" si="92"/>
+        <f t="shared" si="95"/>
         <v>0.08</v>
       </c>
       <c r="L60" s="12">
-        <f t="shared" si="93"/>
+        <f t="shared" si="96"/>
         <v>0.12</v>
       </c>
       <c r="M60" s="12">
-        <f t="shared" si="94"/>
+        <f t="shared" si="97"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="N60" s="12">
-        <f t="shared" si="95"/>
+        <f t="shared" si="98"/>
         <v>0.27</v>
       </c>
       <c r="O60" s="13">
         <v>20</v>
       </c>
       <c r="P60" s="13">
-        <f t="shared" si="96"/>
+        <f t="shared" si="99"/>
         <v>0.41000000000000003</v>
       </c>
       <c r="Q60" s="12">
-        <f t="shared" ref="Q60:Q70" si="98">N60</f>
+        <f t="shared" ref="Q60:Q70" si="101">N60</f>
         <v>0.27</v>
       </c>
       <c r="R60" s="13">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>3.0783159800814848</v>
       </c>
       <c r="Y60" s="12" t="s">
@@ -7254,23 +7589,23 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AA60" s="12">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>0.36</v>
       </c>
       <c r="AB60" s="12">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>0.71</v>
       </c>
       <c r="AC60" s="12">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>1.42</v>
       </c>
       <c r="AD60" s="12">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>2.12</v>
       </c>
       <c r="AE60" s="12">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>2.4700000000000002</v>
       </c>
       <c r="AF60" s="2">
@@ -7285,42 +7620,42 @@
         <v>0.02</v>
       </c>
       <c r="I61" s="12">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>0.03</v>
       </c>
       <c r="J61" s="12">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>0.05</v>
       </c>
       <c r="K61" s="12">
-        <f t="shared" si="92"/>
+        <f t="shared" si="95"/>
         <v>0.1</v>
       </c>
       <c r="L61" s="12">
-        <f t="shared" si="93"/>
+        <f t="shared" si="96"/>
         <v>0.15</v>
       </c>
       <c r="M61" s="12">
-        <f t="shared" si="94"/>
+        <f t="shared" si="97"/>
         <v>0.18</v>
       </c>
       <c r="N61" s="12">
-        <f t="shared" si="95"/>
+        <f t="shared" si="98"/>
         <v>0.35</v>
       </c>
       <c r="O61" s="13">
         <v>30</v>
       </c>
       <c r="P61" s="13">
-        <f t="shared" si="96"/>
+        <f t="shared" si="99"/>
         <v>0.53</v>
       </c>
       <c r="Q61" s="12">
-        <f t="shared" si="98"/>
+        <f t="shared" si="101"/>
         <v>0.35</v>
       </c>
       <c r="R61" s="13">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>3.9837030330466274</v>
       </c>
       <c r="Y61" s="12" t="s">
@@ -7330,23 +7665,23 @@
         <v>0.08</v>
       </c>
       <c r="AA61" s="12">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>0.4</v>
       </c>
       <c r="AB61" s="12">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>0.79</v>
       </c>
       <c r="AC61" s="12">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>1.58</v>
       </c>
       <c r="AD61" s="12">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>2.37</v>
       </c>
       <c r="AE61" s="12">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>2.76</v>
       </c>
       <c r="AF61" s="2">
@@ -7361,42 +7696,42 @@
         <v>0.02</v>
       </c>
       <c r="I62" s="12">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>0.04</v>
       </c>
       <c r="J62" s="12">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="K62" s="12">
-        <f t="shared" si="92"/>
+        <f t="shared" si="95"/>
         <v>0.13</v>
       </c>
       <c r="L62" s="12">
-        <f t="shared" si="93"/>
+        <f t="shared" si="96"/>
         <v>0.19</v>
       </c>
       <c r="M62" s="12">
-        <f t="shared" si="94"/>
+        <f t="shared" si="97"/>
         <v>0.22</v>
       </c>
       <c r="N62" s="12">
-        <f t="shared" si="95"/>
+        <f t="shared" si="98"/>
         <v>0.44</v>
       </c>
       <c r="O62" s="13">
         <v>40</v>
       </c>
       <c r="P62" s="13">
-        <f t="shared" si="96"/>
+        <f t="shared" si="99"/>
         <v>0.67</v>
       </c>
       <c r="Q62" s="12">
-        <f t="shared" si="98"/>
+        <f t="shared" si="101"/>
         <v>0.44</v>
       </c>
       <c r="R62" s="13">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>5.0248981439565421</v>
       </c>
       <c r="Y62" s="12" t="s">
@@ -7406,24 +7741,24 @@
         <v>0.09</v>
       </c>
       <c r="AA62" s="12">
-        <f t="shared" si="85"/>
-        <v>0.44</v>
+        <f t="shared" si="87"/>
+        <v>0.57999999999999996</v>
       </c>
       <c r="AB62" s="12">
-        <f t="shared" si="86"/>
-        <v>0.88</v>
+        <f t="shared" si="88"/>
+        <v>1.1599999999999999</v>
       </c>
       <c r="AC62" s="12">
-        <f t="shared" si="87"/>
-        <v>1.76</v>
+        <f t="shared" si="89"/>
+        <v>2.31</v>
       </c>
       <c r="AD62" s="12">
-        <f t="shared" si="88"/>
-        <v>2.63</v>
+        <f t="shared" si="90"/>
+        <v>3.46</v>
       </c>
       <c r="AE62" s="12">
-        <f t="shared" si="89"/>
-        <v>3.07</v>
+        <f t="shared" si="91"/>
+        <v>4.04</v>
       </c>
       <c r="AF62" s="2">
         <v>300</v>
@@ -7437,42 +7772,42 @@
         <v>0.03</v>
       </c>
       <c r="I63" s="12">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>0.04</v>
       </c>
       <c r="J63" s="12">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>0.08</v>
       </c>
       <c r="K63" s="12">
-        <f t="shared" si="92"/>
+        <f t="shared" si="95"/>
         <v>0.16</v>
       </c>
       <c r="L63" s="12">
-        <f t="shared" si="93"/>
+        <f t="shared" si="96"/>
         <v>0.24</v>
       </c>
       <c r="M63" s="12">
-        <f t="shared" si="94"/>
+        <f t="shared" si="97"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="N63" s="12">
-        <f t="shared" si="95"/>
+        <f t="shared" si="98"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="O63" s="13">
         <v>50</v>
       </c>
       <c r="P63" s="13">
-        <f t="shared" si="96"/>
+        <f t="shared" si="99"/>
         <v>0.83000000000000007</v>
       </c>
       <c r="Q63" s="12">
-        <f t="shared" si="98"/>
+        <f t="shared" si="101"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="R63" s="13">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>6.2471706654594845</v>
       </c>
       <c r="Y63" s="12" t="s">
@@ -7482,24 +7817,24 @@
         <v>0.1</v>
       </c>
       <c r="AA63" s="12">
-        <f t="shared" si="85"/>
-        <v>0.49</v>
+        <f t="shared" si="87"/>
+        <v>0.65</v>
       </c>
       <c r="AB63" s="12">
-        <f t="shared" si="86"/>
-        <v>0.97</v>
+        <f t="shared" si="88"/>
+        <v>1.29</v>
       </c>
       <c r="AC63" s="12">
-        <f t="shared" si="87"/>
-        <v>1.94</v>
+        <f t="shared" si="89"/>
+        <v>2.58</v>
       </c>
       <c r="AD63" s="12">
-        <f t="shared" si="88"/>
-        <v>2.9</v>
+        <f t="shared" si="90"/>
+        <v>3.87</v>
       </c>
       <c r="AE63" s="12">
-        <f t="shared" si="89"/>
-        <v>3.39</v>
+        <f t="shared" si="91"/>
+        <v>4.51</v>
       </c>
       <c r="AF63" s="2">
         <v>330</v>
@@ -7513,42 +7848,42 @@
         <v>0.03</v>
       </c>
       <c r="I64" s="12">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>0.05</v>
       </c>
       <c r="J64" s="12">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>0.1</v>
       </c>
       <c r="K64" s="12">
-        <f t="shared" si="92"/>
+        <f t="shared" si="95"/>
         <v>0.2</v>
       </c>
       <c r="L64" s="12">
-        <f t="shared" si="93"/>
+        <f t="shared" si="96"/>
         <v>0.28999999999999998</v>
       </c>
       <c r="M64" s="12">
-        <f t="shared" si="94"/>
+        <f t="shared" si="97"/>
         <v>0.34</v>
       </c>
       <c r="N64" s="12">
-        <f t="shared" si="95"/>
+        <f t="shared" si="98"/>
         <v>0.68</v>
       </c>
       <c r="O64" s="13">
         <v>60</v>
       </c>
       <c r="P64" s="13">
-        <f t="shared" si="96"/>
+        <f t="shared" si="99"/>
         <v>1.01</v>
       </c>
       <c r="Q64" s="12">
-        <f t="shared" si="98"/>
+        <f t="shared" si="101"/>
         <v>0.68</v>
       </c>
       <c r="R64" s="13">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>7.6505205975554542</v>
       </c>
       <c r="Y64" s="12" t="s">
@@ -7558,24 +7893,24 @@
         <v>0.11</v>
       </c>
       <c r="AA64" s="12">
-        <f t="shared" si="85"/>
-        <v>0.53</v>
+        <f t="shared" si="87"/>
+        <v>0.72</v>
       </c>
       <c r="AB64" s="12">
-        <f t="shared" si="86"/>
-        <v>1.06</v>
+        <f t="shared" si="88"/>
+        <v>1.44</v>
       </c>
       <c r="AC64" s="12">
-        <f t="shared" si="87"/>
-        <v>2.12</v>
+        <f t="shared" si="89"/>
+        <v>2.87</v>
       </c>
       <c r="AD64" s="12">
-        <f t="shared" si="88"/>
-        <v>3.18</v>
+        <f t="shared" si="90"/>
+        <v>4.3</v>
       </c>
       <c r="AE64" s="12">
-        <f t="shared" si="89"/>
-        <v>3.71</v>
+        <f t="shared" si="91"/>
+        <v>5.01</v>
       </c>
       <c r="AF64" s="2">
         <v>360</v>
@@ -7589,42 +7924,42 @@
         <v>0.04</v>
       </c>
       <c r="I65" s="12">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>0.06</v>
       </c>
       <c r="J65" s="12">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>0.12</v>
       </c>
       <c r="K65" s="12">
-        <f t="shared" si="92"/>
+        <f t="shared" si="95"/>
         <v>0.24</v>
       </c>
       <c r="L65" s="12">
-        <f t="shared" si="93"/>
+        <f t="shared" si="96"/>
         <v>0.35</v>
       </c>
       <c r="M65" s="12">
-        <f t="shared" si="94"/>
+        <f t="shared" si="97"/>
         <v>0.41</v>
       </c>
       <c r="N65" s="12">
-        <f t="shared" si="95"/>
+        <f t="shared" si="98"/>
         <v>0.82</v>
       </c>
       <c r="O65" s="13">
         <v>70</v>
       </c>
       <c r="P65" s="13">
-        <f t="shared" si="96"/>
+        <f t="shared" si="99"/>
         <v>1.22</v>
       </c>
       <c r="Q65" s="12">
-        <f t="shared" si="98"/>
+        <f t="shared" si="101"/>
         <v>0.82</v>
       </c>
       <c r="R65" s="13">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>9.2349479402444548</v>
       </c>
       <c r="Y65" s="12" t="s">
@@ -7634,24 +7969,24 @@
         <v>0.12</v>
       </c>
       <c r="AA65" s="12">
-        <f t="shared" si="85"/>
-        <v>0.43</v>
+        <f t="shared" si="87"/>
+        <v>0.59</v>
       </c>
       <c r="AB65" s="12">
-        <f t="shared" si="86"/>
-        <v>0.86</v>
+        <f t="shared" si="88"/>
+        <v>1.17</v>
       </c>
       <c r="AC65" s="12">
-        <f t="shared" si="87"/>
-        <v>1.71</v>
+        <f t="shared" si="89"/>
+        <v>2.33</v>
       </c>
       <c r="AD65" s="12">
-        <f t="shared" si="88"/>
-        <v>2.56</v>
+        <f t="shared" si="90"/>
+        <v>3.49</v>
       </c>
       <c r="AE65" s="12">
-        <f t="shared" si="89"/>
-        <v>2.98</v>
+        <f t="shared" si="91"/>
+        <v>4.07</v>
       </c>
       <c r="AF65" s="2">
         <v>260</v>
@@ -7665,42 +8000,42 @@
         <v>0.04</v>
       </c>
       <c r="I66" s="12">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="J66" s="12">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="K66" s="12">
-        <f t="shared" si="92"/>
+        <f t="shared" si="95"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="L66" s="12">
-        <f t="shared" si="93"/>
+        <f t="shared" si="96"/>
         <v>0.42</v>
       </c>
       <c r="M66" s="12">
-        <f t="shared" si="94"/>
+        <f t="shared" si="97"/>
         <v>0.49</v>
       </c>
       <c r="N66" s="12">
-        <f t="shared" si="95"/>
+        <f t="shared" si="98"/>
         <v>0.98</v>
       </c>
       <c r="O66" s="13">
         <v>80</v>
       </c>
       <c r="P66" s="13">
-        <f t="shared" si="96"/>
+        <f t="shared" si="99"/>
         <v>1.44</v>
       </c>
       <c r="Q66" s="12">
-        <f t="shared" si="98"/>
+        <f t="shared" si="101"/>
         <v>0.98</v>
       </c>
       <c r="R66" s="13">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>10.955183340878225</v>
       </c>
       <c r="Y66" s="12" t="s">
@@ -7710,24 +8045,24 @@
         <v>0.13</v>
       </c>
       <c r="AA66" s="12">
-        <f t="shared" si="85"/>
-        <v>0.45</v>
+        <f t="shared" si="87"/>
+        <v>0.62</v>
       </c>
       <c r="AB66" s="12">
-        <f t="shared" si="86"/>
-        <v>0.9</v>
+        <f t="shared" si="88"/>
+        <v>1.24</v>
       </c>
       <c r="AC66" s="12">
-        <f t="shared" si="87"/>
-        <v>1.8</v>
+        <f t="shared" si="89"/>
+        <v>2.48</v>
       </c>
       <c r="AD66" s="12">
-        <f t="shared" si="88"/>
-        <v>2.69</v>
+        <f t="shared" si="90"/>
+        <v>3.71</v>
       </c>
       <c r="AE66" s="12">
-        <f t="shared" si="89"/>
-        <v>3.14</v>
+        <f t="shared" si="91"/>
+        <v>4.33</v>
       </c>
       <c r="AF66" s="2">
         <v>270</v>
@@ -7741,42 +8076,42 @@
         <v>0.05</v>
       </c>
       <c r="I67" s="12">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>0.09</v>
       </c>
       <c r="J67" s="12">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>0.17</v>
       </c>
       <c r="K67" s="12">
-        <f t="shared" si="92"/>
+        <f t="shared" si="95"/>
         <v>0.34</v>
       </c>
       <c r="L67" s="12">
-        <f t="shared" si="93"/>
+        <f t="shared" si="96"/>
         <v>0.5</v>
       </c>
       <c r="M67" s="12">
-        <f t="shared" si="94"/>
+        <f t="shared" si="97"/>
         <v>0.59</v>
       </c>
       <c r="N67" s="12">
-        <f t="shared" si="95"/>
+        <f t="shared" si="98"/>
         <v>1.17</v>
       </c>
       <c r="O67" s="13">
         <v>90</v>
       </c>
       <c r="P67" s="13">
-        <f t="shared" si="96"/>
+        <f t="shared" si="99"/>
         <v>1.7400000000000002</v>
       </c>
       <c r="Q67" s="12">
-        <f t="shared" si="98"/>
+        <f t="shared" si="101"/>
         <v>1.17</v>
       </c>
       <c r="R67" s="13">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>13.173381620642827</v>
       </c>
       <c r="Y67" s="12" t="s">
@@ -7786,24 +8121,24 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="AA67" s="12">
-        <f t="shared" si="85"/>
-        <v>0.48</v>
+        <f t="shared" si="87"/>
+        <v>0.66</v>
       </c>
       <c r="AB67" s="12">
-        <f t="shared" si="86"/>
-        <v>0.95</v>
+        <f t="shared" si="88"/>
+        <v>1.32</v>
       </c>
       <c r="AC67" s="12">
-        <f t="shared" si="87"/>
-        <v>1.89</v>
+        <f t="shared" si="89"/>
+        <v>2.63</v>
       </c>
       <c r="AD67" s="12">
-        <f t="shared" si="88"/>
-        <v>2.83</v>
+        <f t="shared" si="90"/>
+        <v>3.94</v>
       </c>
       <c r="AE67" s="12">
-        <f t="shared" si="89"/>
-        <v>3.3</v>
+        <f t="shared" si="91"/>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AF67" s="2">
         <v>280</v>
@@ -7817,42 +8152,42 @@
         <v>0.05</v>
       </c>
       <c r="I68" s="12">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>0.1</v>
       </c>
       <c r="J68" s="12">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>0.2</v>
       </c>
       <c r="K68" s="12">
-        <f t="shared" si="92"/>
+        <f t="shared" si="95"/>
         <v>0.4</v>
       </c>
       <c r="L68" s="12">
-        <f t="shared" si="93"/>
+        <f t="shared" si="96"/>
         <v>0.59</v>
       </c>
       <c r="M68" s="12">
-        <f t="shared" si="94"/>
+        <f t="shared" si="97"/>
         <v>0.69</v>
       </c>
       <c r="N68" s="12">
-        <f t="shared" si="95"/>
+        <f t="shared" si="98"/>
         <v>1.38</v>
       </c>
       <c r="O68" s="13">
         <v>100</v>
       </c>
       <c r="P68" s="13">
-        <f t="shared" si="96"/>
+        <f t="shared" si="99"/>
         <v>2.0299999999999998</v>
       </c>
       <c r="Q68" s="12">
-        <f t="shared" si="98"/>
+        <f t="shared" si="101"/>
         <v>1.38</v>
       </c>
       <c r="R68" s="13">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>15.436849253055678</v>
       </c>
       <c r="Y68" s="12" t="s">
@@ -7862,24 +8197,24 @@
         <v>0.15</v>
       </c>
       <c r="AA68" s="12">
-        <f t="shared" si="85"/>
-        <v>0.5</v>
+        <f t="shared" si="87"/>
+        <v>0.7</v>
       </c>
       <c r="AB68" s="12">
-        <f t="shared" si="86"/>
-        <v>0.99</v>
+        <f t="shared" si="88"/>
+        <v>1.4</v>
       </c>
       <c r="AC68" s="12">
-        <f t="shared" si="87"/>
-        <v>1.98</v>
+        <f t="shared" si="89"/>
+        <v>2.79</v>
       </c>
       <c r="AD68" s="12">
-        <f t="shared" si="88"/>
-        <v>2.97</v>
+        <f t="shared" si="90"/>
+        <v>4.18</v>
       </c>
       <c r="AE68" s="12">
-        <f t="shared" si="89"/>
-        <v>3.46</v>
+        <f t="shared" si="91"/>
+        <v>4.88</v>
       </c>
       <c r="AF68" s="2">
         <v>290</v>
@@ -7893,42 +8228,42 @@
         <v>0.06</v>
       </c>
       <c r="I69" s="12">
-        <f t="shared" ref="I69:I74" si="99">ROUNDUP(((H46/$B$39)*$B$40)*((100+O69)/100),0)/100</f>
+        <f t="shared" ref="I69:I74" si="102">ROUNDUP(((H46/$B$39)*$B$40)*((100+O69)/100),0)/100</f>
         <v>0.15</v>
       </c>
       <c r="J69" s="12">
-        <f t="shared" ref="J69:J74" si="100">ROUNDUP(((I46/$B$39)*$B$40)*((100+O69)/100),0)/100</f>
+        <f t="shared" ref="J69:J74" si="103">ROUNDUP(((I46/$B$39)*$B$40)*((100+O69)/100),0)/100</f>
         <v>0.3</v>
       </c>
       <c r="K69" s="12">
-        <f t="shared" ref="K69:K74" si="101">ROUNDUP(((J46/$B$39)*$B$40)*((100+O69)/100),0)/100</f>
+        <f t="shared" ref="K69:K74" si="104">ROUNDUP(((J46/$B$39)*$B$40)*((100+O69)/100),0)/100</f>
         <v>0.59</v>
       </c>
       <c r="L69" s="12">
-        <f t="shared" ref="L69:L74" si="102">ROUNDUP(((K46/$B$39)*$B$40)*((100+O69)/100),0)/100</f>
+        <f t="shared" ref="L69:L74" si="105">ROUNDUP(((K46/$B$39)*$B$40)*((100+O69)/100),0)/100</f>
         <v>0.88</v>
       </c>
       <c r="M69" s="12">
-        <f t="shared" ref="M69:M74" si="103">ROUNDUP(((L46/$B$39)*$B$40)*((100+O69)/100),0)/100</f>
+        <f t="shared" ref="M69:M74" si="106">ROUNDUP(((L46/$B$39)*$B$40)*((100+O69)/100),0)/100</f>
         <v>1.03</v>
       </c>
       <c r="N69" s="12">
-        <f t="shared" ref="N69:N74" si="104">ROUNDUP(((M46/$B$39)*$B$40)*((100+O69)/100),0)/100</f>
+        <f t="shared" ref="N69:N74" si="107">ROUNDUP(((M46/$B$39)*$B$40)*((100+O69)/100),0)/100</f>
         <v>2.0499999999999998</v>
       </c>
       <c r="O69" s="13">
         <v>110</v>
       </c>
       <c r="P69" s="13">
-        <f t="shared" si="96"/>
+        <f t="shared" si="99"/>
         <v>3.01</v>
       </c>
       <c r="Q69" s="12">
-        <f t="shared" si="98"/>
+        <f t="shared" si="101"/>
         <v>2.0499999999999998</v>
       </c>
       <c r="R69" s="13">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>22.906292440018106</v>
       </c>
     </row>
@@ -7940,42 +8275,42 @@
         <v>0.06</v>
       </c>
       <c r="I70" s="12">
-        <f t="shared" si="99"/>
+        <f t="shared" si="102"/>
         <v>0.17</v>
       </c>
       <c r="J70" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="103"/>
         <v>0.33</v>
       </c>
       <c r="K70" s="12">
-        <f t="shared" si="101"/>
+        <f t="shared" si="104"/>
         <v>0.65</v>
       </c>
       <c r="L70" s="12">
-        <f t="shared" si="102"/>
+        <f t="shared" si="105"/>
         <v>0.97</v>
       </c>
       <c r="M70" s="12">
-        <f t="shared" si="103"/>
+        <f t="shared" si="106"/>
         <v>1.1299999999999999</v>
       </c>
       <c r="N70" s="12">
-        <f t="shared" si="104"/>
+        <f t="shared" si="107"/>
         <v>2.25</v>
       </c>
       <c r="O70" s="13">
         <v>120</v>
       </c>
       <c r="P70" s="13">
-        <f t="shared" si="96"/>
+        <f t="shared" si="99"/>
         <v>3.3099999999999996</v>
       </c>
       <c r="Q70" s="12">
-        <f t="shared" si="98"/>
+        <f t="shared" si="101"/>
         <v>2.25</v>
       </c>
       <c r="R70" s="13">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>25.169760072430964</v>
       </c>
       <c r="Y70" s="12" t="s">
@@ -7996,42 +8331,42 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I71" s="12">
-        <f t="shared" si="99"/>
+        <f t="shared" si="102"/>
         <v>0.18</v>
       </c>
       <c r="J71" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="103"/>
         <v>0.36</v>
       </c>
       <c r="K71" s="12">
-        <f t="shared" si="101"/>
+        <f t="shared" si="104"/>
         <v>0.71</v>
       </c>
       <c r="L71" s="12">
-        <f t="shared" si="102"/>
+        <f t="shared" si="105"/>
         <v>1.06</v>
       </c>
       <c r="M71" s="12">
-        <f t="shared" si="103"/>
+        <f t="shared" si="106"/>
         <v>1.23</v>
       </c>
       <c r="N71" s="12">
-        <f t="shared" si="104"/>
+        <f t="shared" si="107"/>
         <v>2.46</v>
       </c>
       <c r="O71" s="13">
         <v>130</v>
       </c>
       <c r="P71" s="13">
-        <f t="shared" ref="P71" si="105">SUM(H71:M71)</f>
+        <f t="shared" ref="P71" si="108">SUM(H71:M71)</f>
         <v>3.61</v>
       </c>
       <c r="Q71" s="12">
-        <f t="shared" ref="Q71" si="106">N71</f>
+        <f t="shared" ref="Q71" si="109">N71</f>
         <v>2.46</v>
       </c>
       <c r="R71" s="13">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>27.478497057492078</v>
       </c>
       <c r="Y71" s="27" t="s">
@@ -8064,69 +8399,69 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I72" s="12">
-        <f t="shared" si="99"/>
+        <f t="shared" si="102"/>
         <v>0.2</v>
       </c>
       <c r="J72" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="103"/>
         <v>0.4</v>
       </c>
       <c r="K72" s="12">
-        <f t="shared" si="101"/>
+        <f t="shared" si="104"/>
         <v>0.8</v>
       </c>
       <c r="L72" s="12">
-        <f t="shared" si="102"/>
+        <f t="shared" si="105"/>
         <v>1.2</v>
       </c>
       <c r="M72" s="12">
-        <f t="shared" si="103"/>
+        <f t="shared" si="106"/>
         <v>1.4</v>
       </c>
       <c r="N72" s="12">
-        <f t="shared" si="104"/>
+        <f t="shared" si="107"/>
         <v>2.79</v>
       </c>
       <c r="O72" s="13">
         <v>140</v>
       </c>
       <c r="P72" s="13">
-        <f t="shared" ref="P72" si="107">SUM(H72:M72)</f>
+        <f t="shared" ref="P72" si="110">SUM(H72:M72)</f>
         <v>4.07</v>
       </c>
       <c r="Q72" s="12">
-        <f t="shared" ref="Q72" si="108">N72</f>
+        <f t="shared" ref="Q72" si="111">N72</f>
         <v>2.79</v>
       </c>
       <c r="R72" s="13">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>31.05477591670439</v>
       </c>
       <c r="Y72" s="12" t="s">
         <v>198</v>
       </c>
       <c r="Z72" s="12">
-        <f t="shared" ref="Z72:Z86" si="109">Z54</f>
+        <f t="shared" ref="Z72:Z78" si="112">Z54</f>
         <v>0.01</v>
       </c>
       <c r="AA72" s="12">
-        <f t="shared" ref="AA72:AE86" si="110">Z72+AA54</f>
+        <f t="shared" ref="AA72:AE78" si="113">Z72+AA54</f>
         <v>0.23</v>
       </c>
       <c r="AB72" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="113"/>
         <v>0.67</v>
       </c>
       <c r="AC72" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="113"/>
         <v>1.54</v>
       </c>
       <c r="AD72" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="113"/>
         <v>2.84</v>
       </c>
       <c r="AE72" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="113"/>
         <v>4.3599999999999994</v>
       </c>
     </row>
@@ -8138,69 +8473,69 @@
         <v>0.08</v>
       </c>
       <c r="I73" s="12">
-        <f t="shared" si="99"/>
+        <f t="shared" si="102"/>
         <v>0.23</v>
       </c>
       <c r="J73" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="103"/>
         <v>0.45</v>
       </c>
       <c r="K73" s="12">
-        <f t="shared" si="101"/>
+        <f t="shared" si="104"/>
         <v>0.9</v>
       </c>
       <c r="L73" s="12">
-        <f t="shared" si="102"/>
+        <f t="shared" si="105"/>
         <v>1.35</v>
       </c>
       <c r="M73" s="12">
-        <f t="shared" si="103"/>
+        <f t="shared" si="106"/>
         <v>1.58</v>
       </c>
       <c r="N73" s="12">
-        <f t="shared" si="104"/>
+        <f t="shared" si="107"/>
         <v>3.15</v>
       </c>
       <c r="O73" s="13">
         <v>150</v>
       </c>
       <c r="P73" s="13">
-        <f t="shared" ref="P73:P74" si="111">SUM(H73:M73)</f>
+        <f t="shared" ref="P73:P74" si="114">SUM(H73:M73)</f>
         <v>4.59</v>
       </c>
       <c r="Q73" s="12">
-        <f t="shared" ref="Q73:Q74" si="112">N73</f>
+        <f t="shared" ref="Q73:Q74" si="115">N73</f>
         <v>3.15</v>
       </c>
       <c r="R73" s="13">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>35.038478949751017</v>
       </c>
       <c r="Y73" s="12" t="s">
         <v>199</v>
       </c>
       <c r="Z73" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>0.02</v>
       </c>
       <c r="AA73" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="113"/>
         <v>0.26</v>
       </c>
       <c r="AB73" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="113"/>
         <v>0.73</v>
       </c>
       <c r="AC73" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="113"/>
         <v>1.6600000000000001</v>
       </c>
       <c r="AD73" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="113"/>
         <v>3.06</v>
       </c>
       <c r="AE73" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="113"/>
         <v>4.6899999999999995</v>
       </c>
     </row>
@@ -8212,69 +8547,69 @@
         <v>0.08</v>
       </c>
       <c r="I74" s="12">
-        <f t="shared" si="99"/>
+        <f t="shared" si="102"/>
         <v>0.27</v>
       </c>
       <c r="J74" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="103"/>
         <v>0.53</v>
       </c>
       <c r="K74" s="12">
-        <f t="shared" si="101"/>
+        <f t="shared" si="104"/>
         <v>1.06</v>
       </c>
       <c r="L74" s="12">
-        <f t="shared" si="102"/>
+        <f t="shared" si="105"/>
         <v>1.58</v>
       </c>
       <c r="M74" s="12">
-        <f t="shared" si="103"/>
+        <f t="shared" si="106"/>
         <v>1.84</v>
       </c>
       <c r="N74" s="12">
-        <f t="shared" si="104"/>
+        <f t="shared" si="107"/>
         <v>3.68</v>
       </c>
       <c r="O74" s="13">
         <v>160</v>
       </c>
       <c r="P74" s="13">
-        <f t="shared" si="111"/>
+        <f t="shared" si="114"/>
         <v>5.36</v>
       </c>
       <c r="Q74" s="12">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>3.68</v>
       </c>
       <c r="R74" s="13">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>40.92349479402445</v>
       </c>
       <c r="Y74" s="12" t="s">
         <v>200</v>
       </c>
       <c r="Z74" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>0.03</v>
       </c>
       <c r="AA74" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="113"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="AB74" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="113"/>
         <v>0.78</v>
       </c>
       <c r="AC74" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="113"/>
         <v>1.78</v>
       </c>
       <c r="AD74" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="113"/>
         <v>3.2800000000000002</v>
       </c>
       <c r="AE74" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="113"/>
         <v>5.03</v>
       </c>
     </row>
@@ -8286,42 +8621,42 @@
         <v>0.09</v>
       </c>
       <c r="I75" s="12">
-        <f t="shared" ref="I75:I76" si="113">ROUNDUP(((H52/$B$39)*$B$40)*((100+O75)/100),0)/100</f>
+        <f t="shared" ref="I75:I76" si="116">ROUNDUP(((H52/$B$39)*$B$40)*((100+O75)/100),0)/100</f>
         <v>0.32</v>
       </c>
       <c r="J75" s="12">
-        <f t="shared" ref="J75:J76" si="114">ROUNDUP(((I52/$B$39)*$B$40)*((100+O75)/100),0)/100</f>
+        <f t="shared" ref="J75:J76" si="117">ROUNDUP(((I52/$B$39)*$B$40)*((100+O75)/100),0)/100</f>
         <v>0.64</v>
       </c>
       <c r="K75" s="12">
-        <f t="shared" ref="K75:K76" si="115">ROUNDUP(((J52/$B$39)*$B$40)*((100+O75)/100),0)/100</f>
+        <f t="shared" ref="K75:K76" si="118">ROUNDUP(((J52/$B$39)*$B$40)*((100+O75)/100),0)/100</f>
         <v>1.27</v>
       </c>
       <c r="L75" s="12">
-        <f t="shared" ref="L75:L76" si="116">ROUNDUP(((K52/$B$39)*$B$40)*((100+O75)/100),0)/100</f>
+        <f t="shared" ref="L75:L76" si="119">ROUNDUP(((K52/$B$39)*$B$40)*((100+O75)/100),0)/100</f>
         <v>1.9</v>
       </c>
       <c r="M75" s="12">
-        <f t="shared" ref="M75:M76" si="117">ROUNDUP(((L52/$B$39)*$B$40)*((100+O75)/100),0)/100</f>
+        <f t="shared" ref="M75:M76" si="120">ROUNDUP(((L52/$B$39)*$B$40)*((100+O75)/100),0)/100</f>
         <v>2.2200000000000002</v>
       </c>
       <c r="N75" s="12">
-        <f t="shared" ref="N75:N76" si="118">ROUNDUP(((M52/$B$39)*$B$40)*((100+O75)/100),0)/100</f>
+        <f t="shared" ref="N75:N76" si="121">ROUNDUP(((M52/$B$39)*$B$40)*((100+O75)/100),0)/100</f>
         <v>4.43</v>
       </c>
       <c r="O75" s="13">
         <v>180</v>
       </c>
       <c r="P75" s="13">
-        <f t="shared" ref="P75" si="119">SUM(H75:M75)</f>
+        <f t="shared" ref="P75" si="122">SUM(H75:M75)</f>
         <v>6.4400000000000013</v>
       </c>
       <c r="Q75" s="12">
-        <f t="shared" ref="Q75:Q76" si="120">N75</f>
+        <f t="shared" ref="Q75:Q76" si="123">N75</f>
         <v>4.43</v>
       </c>
       <c r="R75" s="13">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>49.207786328655509</v>
       </c>
       <c r="S75" s="12" t="s">
@@ -8331,1108 +8666,1194 @@
         <v>0.09</v>
       </c>
       <c r="U75" s="12">
-        <f t="shared" ref="U75:U76" si="121">ROUNDUP(((T52/$B$39)*$B$40)*((100+AA75)/100),0)/100</f>
+        <f t="shared" ref="U75:U76" si="124">ROUNDUP(((T52/$B$39)*$B$40)*((100+AA75)/100),0)/100</f>
         <v>0</v>
       </c>
       <c r="V75" s="12">
-        <f t="shared" ref="V75:V76" si="122">ROUNDUP(((U52/$B$39)*$B$40)*((100+AA75)/100),0)/100</f>
+        <f t="shared" ref="V75:V76" si="125">ROUNDUP(((U52/$B$39)*$B$40)*((100+AA75)/100),0)/100</f>
         <v>0</v>
       </c>
       <c r="W75" s="12">
-        <f t="shared" ref="W75:W76" si="123">ROUNDUP(((V52/$B$39)*$B$40)*((100+AA75)/100),0)/100</f>
+        <f t="shared" ref="W75:W76" si="126">ROUNDUP(((V52/$B$39)*$B$40)*((100+AA75)/100),0)/100</f>
         <v>0</v>
       </c>
       <c r="Y75" s="12" t="s">
         <v>201</v>
       </c>
       <c r="Z75" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>0.04</v>
       </c>
       <c r="AA75" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="113"/>
         <v>0.31</v>
       </c>
       <c r="AB75" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="113"/>
         <v>0.85000000000000009</v>
       </c>
       <c r="AC75" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="113"/>
         <v>1.9200000000000002</v>
       </c>
       <c r="AD75" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="113"/>
         <v>3.5200000000000005</v>
       </c>
       <c r="AE75" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="113"/>
         <v>5.3900000000000006</v>
       </c>
     </row>
     <row r="76" spans="7:32">
       <c r="G76" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H76" s="12">
         <v>0.09</v>
       </c>
       <c r="I76" s="12">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>0.38</v>
       </c>
       <c r="J76" s="12">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>0.76</v>
       </c>
       <c r="K76" s="12">
-        <f t="shared" si="115"/>
+        <f t="shared" si="118"/>
         <v>1.51</v>
       </c>
       <c r="L76" s="12">
-        <f t="shared" si="116"/>
+        <f t="shared" si="119"/>
         <v>2.25</v>
       </c>
       <c r="M76" s="12">
-        <f t="shared" si="117"/>
+        <f t="shared" si="120"/>
         <v>2.63</v>
       </c>
       <c r="N76" s="12">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>5.26</v>
       </c>
       <c r="O76" s="13">
         <v>200</v>
       </c>
       <c r="P76" s="13">
-        <f t="shared" ref="P76" si="124">SUM(H76:M76)</f>
+        <f t="shared" ref="P76" si="127">SUM(H76:M76)</f>
         <v>7.62</v>
       </c>
       <c r="Q76" s="12">
-        <f t="shared" si="120"/>
+        <f t="shared" si="123"/>
         <v>5.26</v>
       </c>
       <c r="R76" s="13">
-        <f t="shared" ref="R76:R77" si="125">((P76+Q76)/$P$57)*100</f>
+        <f t="shared" ref="R76:R77" si="128">((P76+Q76)/$P$57)*100</f>
         <v>58.306926210955176</v>
       </c>
       <c r="S76" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="T76" s="12">
         <v>0.09</v>
       </c>
       <c r="U76" s="12">
-        <f t="shared" si="121"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="V76" s="12">
-        <f t="shared" si="122"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="W76" s="12">
-        <f t="shared" si="123"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="Y76" s="12" t="s">
         <v>202</v>
       </c>
       <c r="Z76" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>0.05</v>
       </c>
       <c r="AA76" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="113"/>
         <v>0.35</v>
       </c>
       <c r="AB76" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="113"/>
         <v>0.94</v>
       </c>
       <c r="AC76" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="113"/>
         <v>2.12</v>
       </c>
       <c r="AD76" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="113"/>
         <v>3.89</v>
       </c>
       <c r="AE76" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="113"/>
         <v>5.95</v>
       </c>
     </row>
     <row r="77" spans="7:32">
       <c r="G77" s="12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H77" s="12">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="I77" s="12">
-        <f t="shared" ref="I77" si="126">ROUNDUP(((H54/$B$39)*$B$40)*((100+O77)/100),0)/100</f>
+        <f t="shared" ref="I77:I78" si="129">ROUNDUP(((H54/$B$39)*$B$40)*((100+O77)/100),0)/100</f>
         <v>0.45</v>
       </c>
       <c r="J77" s="12">
-        <f t="shared" ref="J77" si="127">ROUNDUP(((I54/$B$39)*$B$40)*((100+O77)/100),0)/100</f>
+        <f t="shared" ref="J77:J78" si="130">ROUNDUP(((I54/$B$39)*$B$40)*((100+O77)/100),0)/100</f>
         <v>0.89</v>
       </c>
       <c r="K77" s="12">
-        <f t="shared" ref="K77" si="128">ROUNDUP(((J54/$B$39)*$B$40)*((100+O77)/100),0)/100</f>
+        <f t="shared" ref="K77:K78" si="131">ROUNDUP(((J54/$B$39)*$B$40)*((100+O77)/100),0)/100</f>
         <v>1.77</v>
       </c>
       <c r="L77" s="12">
-        <f t="shared" ref="L77" si="129">ROUNDUP(((K54/$B$39)*$B$40)*((100+O77)/100),0)/100</f>
+        <f t="shared" ref="L77:L78" si="132">ROUNDUP(((K54/$B$39)*$B$40)*((100+O77)/100),0)/100</f>
         <v>2.65</v>
       </c>
       <c r="M77" s="12">
-        <f t="shared" ref="M77" si="130">ROUNDUP(((L54/$B$39)*$B$40)*((100+O77)/100),0)/100</f>
+        <f t="shared" ref="M77:M78" si="133">ROUNDUP(((L54/$B$39)*$B$40)*((100+O77)/100),0)/100</f>
         <v>3.09</v>
       </c>
       <c r="N77" s="12">
-        <f t="shared" ref="N77" si="131">ROUNDUP(((M54/$B$39)*$B$40)*((100+O77)/100),0)/100</f>
+        <f t="shared" ref="N77:N78" si="134">ROUNDUP(((M54/$B$39)*$B$40)*((100+O77)/100),0)/100</f>
         <v>6.18</v>
       </c>
       <c r="O77" s="13">
         <v>220</v>
       </c>
       <c r="P77" s="13">
-        <f t="shared" ref="P77" si="132">SUM(H77:M77)</f>
-        <v>8.94</v>
+        <f t="shared" ref="P77:P78" si="135">SUM(H77:M77)</f>
+        <v>8.9499999999999993</v>
       </c>
       <c r="Q77" s="12">
-        <f t="shared" ref="Q77" si="133">N77</f>
+        <f t="shared" ref="Q77:Q78" si="136">N77</f>
         <v>6.18</v>
       </c>
       <c r="R77" s="13">
-        <f t="shared" si="125"/>
-        <v>68.447261204164775</v>
+        <f t="shared" si="128"/>
+        <v>68.492530556813037</v>
       </c>
       <c r="Y77" s="12" t="s">
         <v>203</v>
       </c>
       <c r="Z77" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>0.06</v>
       </c>
       <c r="AA77" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="113"/>
         <v>0.39</v>
       </c>
       <c r="AB77" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="113"/>
         <v>1.04</v>
       </c>
       <c r="AC77" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="113"/>
         <v>2.34</v>
       </c>
       <c r="AD77" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="113"/>
         <v>4.2799999999999994</v>
       </c>
       <c r="AE77" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="113"/>
         <v>6.5399999999999991</v>
       </c>
     </row>
     <row r="78" spans="7:32">
+      <c r="G78" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="H78" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="I78" s="12">
+        <f t="shared" si="129"/>
+        <v>0.52</v>
+      </c>
+      <c r="J78" s="12">
+        <f t="shared" si="130"/>
+        <v>1.03</v>
+      </c>
+      <c r="K78" s="12">
+        <f t="shared" si="131"/>
+        <v>2.06</v>
+      </c>
+      <c r="L78" s="12">
+        <f t="shared" si="132"/>
+        <v>3.09</v>
+      </c>
+      <c r="M78" s="12">
+        <f t="shared" si="133"/>
+        <v>3.6</v>
+      </c>
+      <c r="N78" s="12">
+        <f t="shared" si="134"/>
+        <v>7.2</v>
+      </c>
+      <c r="O78" s="13">
+        <v>240</v>
+      </c>
+      <c r="P78" s="13">
+        <f t="shared" si="135"/>
+        <v>10.4</v>
+      </c>
+      <c r="Q78" s="12">
+        <f t="shared" si="136"/>
+        <v>7.2</v>
+      </c>
+      <c r="R78" s="13">
+        <f t="shared" ref="R78" si="137">((P78+Q78)/$P$57)*100</f>
+        <v>79.674060660932554</v>
+      </c>
       <c r="Y78" s="12" t="s">
         <v>204</v>
       </c>
       <c r="Z78" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AA78" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="113"/>
         <v>0.43</v>
       </c>
       <c r="AB78" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="113"/>
         <v>1.1399999999999999</v>
       </c>
       <c r="AC78" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="113"/>
         <v>2.5599999999999996</v>
       </c>
       <c r="AD78" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="113"/>
         <v>4.68</v>
       </c>
       <c r="AE78" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="113"/>
         <v>7.15</v>
       </c>
     </row>
     <row r="79" spans="7:32">
-      <c r="G79" s="12" t="s">
+      <c r="Y79" s="12"/>
+      <c r="Z79" s="12"/>
+      <c r="AA79" s="12"/>
+      <c r="AB79" s="12"/>
+      <c r="AC79" s="12"/>
+      <c r="AD79" s="12"/>
+      <c r="AE79" s="12"/>
+    </row>
+    <row r="80" spans="7:32">
+      <c r="G80" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="Y79" s="12" t="s">
+      <c r="Y80" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="Z79" s="12">
-        <f t="shared" si="109"/>
+      <c r="Z80" s="12">
+        <f t="shared" ref="Z80:Z87" si="138">Z61</f>
         <v>0.08</v>
       </c>
-      <c r="AA79" s="12">
-        <f t="shared" si="110"/>
+      <c r="AA80" s="12">
+        <f t="shared" ref="AA80:AE87" si="139">Z80+AA61</f>
         <v>0.48000000000000004</v>
       </c>
-      <c r="AB79" s="12">
-        <f t="shared" si="110"/>
+      <c r="AB80" s="12">
+        <f t="shared" si="139"/>
         <v>1.27</v>
       </c>
-      <c r="AC79" s="12">
-        <f t="shared" si="110"/>
+      <c r="AC80" s="12">
+        <f t="shared" si="139"/>
         <v>2.85</v>
       </c>
-      <c r="AD79" s="12">
-        <f t="shared" si="110"/>
+      <c r="AD80" s="12">
+        <f t="shared" si="139"/>
         <v>5.2200000000000006</v>
       </c>
-      <c r="AE79" s="12">
-        <f t="shared" si="110"/>
+      <c r="AE80" s="12">
+        <f t="shared" si="139"/>
         <v>7.98</v>
       </c>
     </row>
-    <row r="80" spans="7:32" ht="17.25" thickBot="1">
-      <c r="G80" s="27" t="s">
+    <row r="81" spans="7:32" ht="17.25" thickBot="1">
+      <c r="G81" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="H80" s="27">
+      <c r="H81" s="27">
         <v>0</v>
       </c>
-      <c r="I80" s="27">
+      <c r="I81" s="27">
         <v>1</v>
       </c>
-      <c r="J80" s="27">
+      <c r="J81" s="27">
         <v>2</v>
       </c>
-      <c r="K80" s="27">
+      <c r="K81" s="27">
         <v>3</v>
       </c>
-      <c r="L80" s="27">
+      <c r="L81" s="27">
         <v>4</v>
       </c>
-      <c r="M80" s="27">
+      <c r="M81" s="27">
         <v>5</v>
       </c>
-      <c r="N80" s="27" t="s">
+      <c r="N81" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="Y80" s="12" t="s">
+      <c r="Y81" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="Z80" s="12">
-        <f t="shared" si="109"/>
+      <c r="Z81" s="12">
+        <f t="shared" si="138"/>
         <v>0.09</v>
       </c>
-      <c r="AA80" s="12">
-        <f t="shared" si="110"/>
-        <v>0.53</v>
-      </c>
-      <c r="AB80" s="12">
-        <f t="shared" si="110"/>
-        <v>1.4100000000000001</v>
-      </c>
-      <c r="AC80" s="12">
-        <f t="shared" si="110"/>
-        <v>3.17</v>
-      </c>
-      <c r="AD80" s="12">
-        <f t="shared" si="110"/>
-        <v>5.8</v>
-      </c>
-      <c r="AE80" s="12">
-        <f t="shared" si="110"/>
-        <v>8.8699999999999992</v>
-      </c>
-    </row>
-    <row r="81" spans="7:32" ht="17.25" thickTop="1">
-      <c r="G81" s="12" t="s">
+      <c r="AA81" s="12">
+        <f t="shared" si="139"/>
+        <v>0.66999999999999993</v>
+      </c>
+      <c r="AB81" s="12">
+        <f t="shared" si="139"/>
+        <v>1.8299999999999998</v>
+      </c>
+      <c r="AC81" s="12">
+        <f t="shared" si="139"/>
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="AD81" s="12">
+        <f t="shared" si="139"/>
+        <v>7.6</v>
+      </c>
+      <c r="AE81" s="12">
+        <f t="shared" si="139"/>
+        <v>11.64</v>
+      </c>
+    </row>
+    <row r="82" spans="7:32" ht="17.25" thickTop="1">
+      <c r="G82" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H81" s="12">
-        <f t="shared" ref="H81:H94" si="134">H59</f>
+      <c r="H82" s="12">
+        <f t="shared" ref="H82:H95" si="140">H59</f>
         <v>0.01</v>
       </c>
-      <c r="I81" s="12">
-        <f t="shared" ref="I81:N90" si="135">I59+H81</f>
+      <c r="I82" s="12">
+        <f t="shared" ref="I82:N91" si="141">I59+H82</f>
         <v>0.03</v>
       </c>
-      <c r="J81" s="12">
-        <f t="shared" si="135"/>
+      <c r="J82" s="12">
+        <f t="shared" si="141"/>
         <v>0.06</v>
       </c>
-      <c r="K81" s="12">
-        <f t="shared" si="135"/>
+      <c r="K82" s="12">
+        <f t="shared" si="141"/>
         <v>0.12</v>
       </c>
-      <c r="L81" s="12">
-        <f t="shared" si="135"/>
+      <c r="L82" s="12">
+        <f t="shared" si="141"/>
         <v>0.21</v>
       </c>
-      <c r="M81" s="12">
-        <f t="shared" si="135"/>
+      <c r="M82" s="12">
+        <f t="shared" si="141"/>
         <v>0.31</v>
       </c>
-      <c r="N81" s="12">
-        <f t="shared" si="135"/>
+      <c r="N82" s="12">
+        <f t="shared" si="141"/>
         <v>0.51</v>
       </c>
-      <c r="Y81" s="12" t="s">
+      <c r="Y82" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="Z81" s="12">
-        <f t="shared" si="109"/>
+      <c r="Z82" s="12">
+        <f t="shared" si="138"/>
         <v>0.1</v>
       </c>
-      <c r="AA81" s="12">
-        <f t="shared" si="110"/>
-        <v>0.59</v>
-      </c>
-      <c r="AB81" s="12">
-        <f t="shared" si="110"/>
-        <v>1.56</v>
-      </c>
-      <c r="AC81" s="12">
-        <f t="shared" si="110"/>
-        <v>3.5</v>
-      </c>
-      <c r="AD81" s="12">
-        <f t="shared" si="110"/>
-        <v>6.4</v>
-      </c>
-      <c r="AE81" s="12">
-        <f t="shared" si="110"/>
-        <v>9.7900000000000009</v>
-      </c>
-    </row>
-    <row r="82" spans="7:32">
-      <c r="G82" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H82" s="12">
-        <f t="shared" si="134"/>
-        <v>0.01</v>
-      </c>
-      <c r="I82" s="12">
-        <f t="shared" si="135"/>
-        <v>0.03</v>
-      </c>
-      <c r="J82" s="12">
-        <f t="shared" si="135"/>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="K82" s="12">
-        <f t="shared" si="135"/>
-        <v>0.15000000000000002</v>
-      </c>
-      <c r="L82" s="12">
-        <f t="shared" si="135"/>
-        <v>0.27</v>
-      </c>
-      <c r="M82" s="12">
-        <f t="shared" si="135"/>
-        <v>0.41000000000000003</v>
-      </c>
-      <c r="N82" s="12">
-        <f t="shared" si="135"/>
-        <v>0.68</v>
-      </c>
-      <c r="Y82" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="Z82" s="12">
-        <f t="shared" si="109"/>
-        <v>0.11</v>
-      </c>
       <c r="AA82" s="12">
-        <f t="shared" si="110"/>
-        <v>0.64</v>
+        <f t="shared" si="139"/>
+        <v>0.75</v>
       </c>
       <c r="AB82" s="12">
-        <f t="shared" si="110"/>
-        <v>1.7000000000000002</v>
+        <f t="shared" si="139"/>
+        <v>2.04</v>
       </c>
       <c r="AC82" s="12">
-        <f t="shared" si="110"/>
-        <v>3.8200000000000003</v>
+        <f t="shared" si="139"/>
+        <v>4.62</v>
       </c>
       <c r="AD82" s="12">
-        <f t="shared" si="110"/>
-        <v>7</v>
+        <f t="shared" si="139"/>
+        <v>8.49</v>
       </c>
       <c r="AE82" s="12">
-        <f t="shared" si="110"/>
-        <v>10.71</v>
+        <f t="shared" si="139"/>
+        <v>13</v>
       </c>
     </row>
     <row r="83" spans="7:32">
       <c r="G83" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H83" s="12">
-        <f t="shared" si="134"/>
-        <v>0.02</v>
+        <f t="shared" si="140"/>
+        <v>0.01</v>
       </c>
       <c r="I83" s="12">
-        <f t="shared" si="135"/>
-        <v>0.05</v>
+        <f t="shared" si="141"/>
+        <v>0.03</v>
       </c>
       <c r="J83" s="12">
-        <f t="shared" si="135"/>
-        <v>0.1</v>
+        <f t="shared" si="141"/>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K83" s="12">
-        <f t="shared" si="135"/>
-        <v>0.2</v>
+        <f t="shared" si="141"/>
+        <v>0.15000000000000002</v>
       </c>
       <c r="L83" s="12">
-        <f t="shared" si="135"/>
-        <v>0.35</v>
+        <f t="shared" si="141"/>
+        <v>0.27</v>
       </c>
       <c r="M83" s="12">
-        <f t="shared" si="135"/>
-        <v>0.53</v>
+        <f t="shared" si="141"/>
+        <v>0.41000000000000003</v>
       </c>
       <c r="N83" s="12">
-        <f t="shared" si="135"/>
-        <v>0.88</v>
+        <f t="shared" si="141"/>
+        <v>0.68</v>
       </c>
       <c r="Y83" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Z83" s="12">
-        <f t="shared" si="109"/>
-        <v>0.12</v>
+        <f t="shared" si="138"/>
+        <v>0.11</v>
       </c>
       <c r="AA83" s="12">
-        <f t="shared" si="110"/>
-        <v>0.55000000000000004</v>
+        <f t="shared" si="139"/>
+        <v>0.83</v>
       </c>
       <c r="AB83" s="12">
-        <f t="shared" si="110"/>
-        <v>1.4100000000000001</v>
+        <f t="shared" si="139"/>
+        <v>2.27</v>
       </c>
       <c r="AC83" s="12">
-        <f t="shared" si="110"/>
-        <v>3.12</v>
+        <f t="shared" si="139"/>
+        <v>5.1400000000000006</v>
       </c>
       <c r="AD83" s="12">
-        <f t="shared" si="110"/>
-        <v>5.68</v>
+        <f t="shared" si="139"/>
+        <v>9.4400000000000013</v>
       </c>
       <c r="AE83" s="12">
-        <f t="shared" si="110"/>
-        <v>8.66</v>
+        <f t="shared" si="139"/>
+        <v>14.450000000000001</v>
       </c>
     </row>
     <row r="84" spans="7:32">
       <c r="G84" s="12" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="H84" s="12">
-        <f t="shared" si="134"/>
+        <f t="shared" si="140"/>
         <v>0.02</v>
       </c>
       <c r="I84" s="12">
-        <f t="shared" si="135"/>
-        <v>0.06</v>
+        <f t="shared" si="141"/>
+        <v>0.05</v>
       </c>
       <c r="J84" s="12">
-        <f t="shared" si="135"/>
-        <v>0.13</v>
+        <f t="shared" si="141"/>
+        <v>0.1</v>
       </c>
       <c r="K84" s="12">
-        <f t="shared" si="135"/>
-        <v>0.26</v>
+        <f t="shared" si="141"/>
+        <v>0.2</v>
       </c>
       <c r="L84" s="12">
-        <f t="shared" si="135"/>
-        <v>0.45</v>
+        <f t="shared" si="141"/>
+        <v>0.35</v>
       </c>
       <c r="M84" s="12">
-        <f t="shared" si="135"/>
-        <v>0.67</v>
+        <f t="shared" si="141"/>
+        <v>0.53</v>
       </c>
       <c r="N84" s="12">
-        <f t="shared" si="135"/>
-        <v>1.1100000000000001</v>
+        <f t="shared" si="141"/>
+        <v>0.88</v>
       </c>
       <c r="Y84" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Z84" s="12">
-        <f t="shared" si="109"/>
-        <v>0.13</v>
+        <f t="shared" si="138"/>
+        <v>0.12</v>
       </c>
       <c r="AA84" s="12">
-        <f t="shared" si="110"/>
-        <v>0.58000000000000007</v>
+        <f t="shared" si="139"/>
+        <v>0.71</v>
       </c>
       <c r="AB84" s="12">
-        <f t="shared" si="110"/>
-        <v>1.48</v>
+        <f t="shared" si="139"/>
+        <v>1.88</v>
       </c>
       <c r="AC84" s="12">
-        <f t="shared" si="110"/>
-        <v>3.2800000000000002</v>
+        <f t="shared" si="139"/>
+        <v>4.21</v>
       </c>
       <c r="AD84" s="12">
-        <f t="shared" si="110"/>
-        <v>5.9700000000000006</v>
+        <f t="shared" si="139"/>
+        <v>7.7</v>
       </c>
       <c r="AE84" s="12">
-        <f t="shared" si="110"/>
-        <v>9.1100000000000012</v>
+        <f t="shared" si="139"/>
+        <v>11.77</v>
       </c>
     </row>
     <row r="85" spans="7:32">
       <c r="G85" s="12" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="H85" s="12">
-        <f t="shared" si="134"/>
-        <v>0.03</v>
+        <f t="shared" si="140"/>
+        <v>0.02</v>
       </c>
       <c r="I85" s="12">
-        <f t="shared" si="135"/>
-        <v>7.0000000000000007E-2</v>
+        <f t="shared" si="141"/>
+        <v>0.06</v>
       </c>
       <c r="J85" s="12">
-        <f t="shared" si="135"/>
-        <v>0.15000000000000002</v>
+        <f t="shared" si="141"/>
+        <v>0.13</v>
       </c>
       <c r="K85" s="12">
-        <f t="shared" si="135"/>
-        <v>0.31000000000000005</v>
+        <f t="shared" si="141"/>
+        <v>0.26</v>
       </c>
       <c r="L85" s="12">
-        <f t="shared" si="135"/>
-        <v>0.55000000000000004</v>
+        <f t="shared" si="141"/>
+        <v>0.45</v>
       </c>
       <c r="M85" s="12">
-        <f t="shared" si="135"/>
-        <v>0.83000000000000007</v>
+        <f t="shared" si="141"/>
+        <v>0.67</v>
       </c>
       <c r="N85" s="12">
-        <f t="shared" si="135"/>
-        <v>1.3800000000000001</v>
+        <f t="shared" si="141"/>
+        <v>1.1100000000000001</v>
       </c>
       <c r="Y85" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Z85" s="12">
-        <f t="shared" si="109"/>
-        <v>0.14000000000000001</v>
+        <f t="shared" si="138"/>
+        <v>0.13</v>
       </c>
       <c r="AA85" s="12">
-        <f t="shared" si="110"/>
-        <v>0.62</v>
+        <f t="shared" si="139"/>
+        <v>0.75</v>
       </c>
       <c r="AB85" s="12">
-        <f t="shared" si="110"/>
-        <v>1.5699999999999998</v>
+        <f t="shared" si="139"/>
+        <v>1.99</v>
       </c>
       <c r="AC85" s="12">
-        <f t="shared" si="110"/>
-        <v>3.46</v>
+        <f t="shared" si="139"/>
+        <v>4.47</v>
       </c>
       <c r="AD85" s="12">
-        <f t="shared" si="110"/>
-        <v>6.29</v>
+        <f t="shared" si="139"/>
+        <v>8.18</v>
       </c>
       <c r="AE85" s="12">
-        <f t="shared" si="110"/>
-        <v>9.59</v>
+        <f t="shared" si="139"/>
+        <v>12.51</v>
       </c>
     </row>
     <row r="86" spans="7:32">
       <c r="G86" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H86" s="12">
-        <f t="shared" si="134"/>
+        <f t="shared" si="140"/>
         <v>0.03</v>
       </c>
       <c r="I86" s="12">
-        <f t="shared" si="135"/>
-        <v>0.08</v>
+        <f t="shared" si="141"/>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J86" s="12">
-        <f t="shared" si="135"/>
-        <v>0.18</v>
+        <f t="shared" si="141"/>
+        <v>0.15000000000000002</v>
       </c>
       <c r="K86" s="12">
-        <f t="shared" si="135"/>
-        <v>0.38</v>
+        <f t="shared" si="141"/>
+        <v>0.31000000000000005</v>
       </c>
       <c r="L86" s="12">
-        <f t="shared" si="135"/>
-        <v>0.66999999999999993</v>
+        <f t="shared" si="141"/>
+        <v>0.55000000000000004</v>
       </c>
       <c r="M86" s="12">
-        <f t="shared" si="135"/>
-        <v>1.01</v>
+        <f t="shared" si="141"/>
+        <v>0.83000000000000007</v>
       </c>
       <c r="N86" s="12">
-        <f t="shared" si="135"/>
-        <v>1.69</v>
+        <f t="shared" si="141"/>
+        <v>1.3800000000000001</v>
       </c>
       <c r="Y86" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Z86" s="12">
-        <f t="shared" si="109"/>
-        <v>0.15</v>
+        <f t="shared" si="138"/>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AA86" s="12">
-        <f t="shared" si="110"/>
-        <v>0.65</v>
+        <f t="shared" si="139"/>
+        <v>0.8</v>
       </c>
       <c r="AB86" s="12">
-        <f t="shared" si="110"/>
-        <v>1.6400000000000001</v>
+        <f t="shared" si="139"/>
+        <v>2.12</v>
       </c>
       <c r="AC86" s="12">
-        <f t="shared" si="110"/>
-        <v>3.62</v>
+        <f t="shared" si="139"/>
+        <v>4.75</v>
       </c>
       <c r="AD86" s="12">
-        <f t="shared" si="110"/>
-        <v>6.59</v>
+        <f t="shared" si="139"/>
+        <v>8.69</v>
       </c>
       <c r="AE86" s="12">
-        <f t="shared" si="110"/>
-        <v>10.050000000000001</v>
+        <f t="shared" si="139"/>
+        <v>13.29</v>
       </c>
     </row>
     <row r="87" spans="7:32">
       <c r="G87" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H87" s="12">
-        <f t="shared" si="134"/>
-        <v>0.04</v>
+        <f t="shared" si="140"/>
+        <v>0.03</v>
       </c>
       <c r="I87" s="12">
-        <f t="shared" si="135"/>
-        <v>0.1</v>
+        <f t="shared" si="141"/>
+        <v>0.08</v>
       </c>
       <c r="J87" s="12">
-        <f t="shared" si="135"/>
-        <v>0.22</v>
+        <f t="shared" si="141"/>
+        <v>0.18</v>
       </c>
       <c r="K87" s="12">
-        <f t="shared" si="135"/>
-        <v>0.45999999999999996</v>
+        <f t="shared" si="141"/>
+        <v>0.38</v>
       </c>
       <c r="L87" s="12">
-        <f t="shared" si="135"/>
-        <v>0.80999999999999994</v>
+        <f t="shared" si="141"/>
+        <v>0.66999999999999993</v>
       </c>
       <c r="M87" s="12">
-        <f t="shared" si="135"/>
-        <v>1.22</v>
+        <f t="shared" si="141"/>
+        <v>1.01</v>
       </c>
       <c r="N87" s="12">
-        <f t="shared" si="135"/>
-        <v>2.04</v>
-      </c>
-      <c r="AF87" s="12"/>
+        <f t="shared" si="141"/>
+        <v>1.69</v>
+      </c>
+      <c r="Y87" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z87" s="12">
+        <f t="shared" si="138"/>
+        <v>0.15</v>
+      </c>
+      <c r="AA87" s="12">
+        <f t="shared" si="139"/>
+        <v>0.85</v>
+      </c>
+      <c r="AB87" s="12">
+        <f t="shared" si="139"/>
+        <v>2.25</v>
+      </c>
+      <c r="AC87" s="12">
+        <f t="shared" si="139"/>
+        <v>5.04</v>
+      </c>
+      <c r="AD87" s="12">
+        <f t="shared" si="139"/>
+        <v>9.2199999999999989</v>
+      </c>
+      <c r="AE87" s="12">
+        <f t="shared" si="139"/>
+        <v>14.099999999999998</v>
+      </c>
     </row>
     <row r="88" spans="7:32">
       <c r="G88" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H88" s="12">
-        <f t="shared" si="134"/>
+        <f t="shared" si="140"/>
         <v>0.04</v>
       </c>
       <c r="I88" s="12">
-        <f t="shared" si="135"/>
-        <v>0.11000000000000001</v>
+        <f t="shared" si="141"/>
+        <v>0.1</v>
       </c>
       <c r="J88" s="12">
-        <f t="shared" si="135"/>
-        <v>0.25</v>
+        <f t="shared" si="141"/>
+        <v>0.22</v>
       </c>
       <c r="K88" s="12">
-        <f t="shared" si="135"/>
-        <v>0.53</v>
+        <f t="shared" si="141"/>
+        <v>0.45999999999999996</v>
       </c>
       <c r="L88" s="12">
-        <f t="shared" si="135"/>
-        <v>0.95</v>
+        <f t="shared" si="141"/>
+        <v>0.80999999999999994</v>
       </c>
       <c r="M88" s="12">
-        <f t="shared" si="135"/>
-        <v>1.44</v>
+        <f t="shared" si="141"/>
+        <v>1.22</v>
       </c>
       <c r="N88" s="12">
-        <f t="shared" si="135"/>
-        <v>2.42</v>
-      </c>
+        <f t="shared" si="141"/>
+        <v>2.04</v>
+      </c>
+      <c r="AF88" s="12"/>
     </row>
     <row r="89" spans="7:32">
       <c r="G89" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H89" s="12">
-        <f t="shared" si="134"/>
-        <v>0.05</v>
+        <f t="shared" si="140"/>
+        <v>0.04</v>
       </c>
       <c r="I89" s="12">
-        <f t="shared" si="135"/>
-        <v>0.14000000000000001</v>
+        <f t="shared" si="141"/>
+        <v>0.11000000000000001</v>
       </c>
       <c r="J89" s="12">
-        <f t="shared" si="135"/>
-        <v>0.31000000000000005</v>
+        <f t="shared" si="141"/>
+        <v>0.25</v>
       </c>
       <c r="K89" s="12">
-        <f t="shared" si="135"/>
-        <v>0.65000000000000013</v>
+        <f t="shared" si="141"/>
+        <v>0.53</v>
       </c>
       <c r="L89" s="12">
-        <f t="shared" si="135"/>
-        <v>1.1500000000000001</v>
+        <f t="shared" si="141"/>
+        <v>0.95</v>
       </c>
       <c r="M89" s="12">
-        <f t="shared" si="135"/>
-        <v>1.7400000000000002</v>
+        <f t="shared" si="141"/>
+        <v>1.44</v>
       </c>
       <c r="N89" s="12">
-        <f t="shared" si="135"/>
-        <v>2.91</v>
+        <f t="shared" si="141"/>
+        <v>2.42</v>
       </c>
     </row>
     <row r="90" spans="7:32">
       <c r="G90" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H90" s="12">
-        <f t="shared" si="134"/>
+        <f t="shared" si="140"/>
         <v>0.05</v>
       </c>
       <c r="I90" s="12">
-        <f t="shared" si="135"/>
-        <v>0.15000000000000002</v>
+        <f t="shared" si="141"/>
+        <v>0.14000000000000001</v>
       </c>
       <c r="J90" s="12">
-        <f t="shared" si="135"/>
-        <v>0.35000000000000003</v>
+        <f t="shared" si="141"/>
+        <v>0.31000000000000005</v>
       </c>
       <c r="K90" s="12">
-        <f t="shared" si="135"/>
-        <v>0.75</v>
+        <f t="shared" si="141"/>
+        <v>0.65000000000000013</v>
       </c>
       <c r="L90" s="12">
-        <f t="shared" si="135"/>
-        <v>1.3399999999999999</v>
+        <f t="shared" si="141"/>
+        <v>1.1500000000000001</v>
       </c>
       <c r="M90" s="12">
-        <f t="shared" si="135"/>
-        <v>2.0299999999999998</v>
+        <f t="shared" si="141"/>
+        <v>1.7400000000000002</v>
       </c>
       <c r="N90" s="12">
-        <f t="shared" si="135"/>
-        <v>3.4099999999999997</v>
+        <f t="shared" si="141"/>
+        <v>2.91</v>
       </c>
     </row>
     <row r="91" spans="7:32">
       <c r="G91" s="12" t="s">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="H91" s="12">
-        <f t="shared" si="134"/>
-        <v>0.06</v>
+        <f t="shared" si="140"/>
+        <v>0.05</v>
       </c>
       <c r="I91" s="12">
-        <f t="shared" ref="I91:N96" si="136">I69+H91</f>
-        <v>0.21</v>
+        <f t="shared" si="141"/>
+        <v>0.15000000000000002</v>
       </c>
       <c r="J91" s="12">
-        <f t="shared" si="136"/>
-        <v>0.51</v>
+        <f t="shared" si="141"/>
+        <v>0.35000000000000003</v>
       </c>
       <c r="K91" s="12">
-        <f t="shared" si="136"/>
-        <v>1.1000000000000001</v>
+        <f t="shared" si="141"/>
+        <v>0.75</v>
       </c>
       <c r="L91" s="12">
-        <f t="shared" si="136"/>
-        <v>1.98</v>
+        <f t="shared" si="141"/>
+        <v>1.3399999999999999</v>
       </c>
       <c r="M91" s="12">
-        <f t="shared" si="136"/>
-        <v>3.01</v>
+        <f t="shared" si="141"/>
+        <v>2.0299999999999998</v>
       </c>
       <c r="N91" s="12">
-        <f t="shared" si="136"/>
-        <v>5.0599999999999996</v>
+        <f t="shared" si="141"/>
+        <v>3.4099999999999997</v>
       </c>
     </row>
     <row r="92" spans="7:32">
       <c r="G92" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H92" s="12">
-        <f t="shared" si="134"/>
+        <f t="shared" si="140"/>
         <v>0.06</v>
       </c>
       <c r="I92" s="12">
-        <f t="shared" si="136"/>
-        <v>0.23</v>
+        <f t="shared" ref="I92:N99" si="142">I69+H92</f>
+        <v>0.21</v>
       </c>
       <c r="J92" s="12">
-        <f t="shared" si="136"/>
-        <v>0.56000000000000005</v>
+        <f t="shared" si="142"/>
+        <v>0.51</v>
       </c>
       <c r="K92" s="12">
-        <f t="shared" si="136"/>
-        <v>1.21</v>
+        <f t="shared" si="142"/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L92" s="12">
-        <f t="shared" si="136"/>
-        <v>2.1799999999999997</v>
+        <f t="shared" si="142"/>
+        <v>1.98</v>
       </c>
       <c r="M92" s="12">
-        <f t="shared" si="136"/>
-        <v>3.3099999999999996</v>
+        <f t="shared" si="142"/>
+        <v>3.01</v>
       </c>
       <c r="N92" s="12">
-        <f t="shared" si="136"/>
-        <v>5.56</v>
+        <f t="shared" si="142"/>
+        <v>5.0599999999999996</v>
       </c>
     </row>
     <row r="93" spans="7:32">
       <c r="G93" s="12" t="s">
-        <v>172</v>
+        <v>106</v>
       </c>
       <c r="H93" s="12">
-        <f t="shared" si="134"/>
-        <v>7.0000000000000007E-2</v>
+        <f t="shared" si="140"/>
+        <v>0.06</v>
       </c>
       <c r="I93" s="12">
-        <f t="shared" si="136"/>
-        <v>0.25</v>
+        <f t="shared" si="142"/>
+        <v>0.23</v>
       </c>
       <c r="J93" s="12">
-        <f t="shared" si="136"/>
-        <v>0.61</v>
+        <f t="shared" si="142"/>
+        <v>0.56000000000000005</v>
       </c>
       <c r="K93" s="12">
-        <f t="shared" si="136"/>
-        <v>1.3199999999999998</v>
+        <f t="shared" si="142"/>
+        <v>1.21</v>
       </c>
       <c r="L93" s="12">
-        <f t="shared" si="136"/>
-        <v>2.38</v>
+        <f t="shared" si="142"/>
+        <v>2.1799999999999997</v>
       </c>
       <c r="M93" s="12">
-        <f t="shared" si="136"/>
-        <v>3.61</v>
+        <f t="shared" si="142"/>
+        <v>3.3099999999999996</v>
       </c>
       <c r="N93" s="12">
-        <f t="shared" si="136"/>
-        <v>6.07</v>
+        <f t="shared" si="142"/>
+        <v>5.56</v>
       </c>
     </row>
     <row r="94" spans="7:32">
       <c r="G94" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H94" s="12">
-        <f t="shared" si="134"/>
+        <f t="shared" si="140"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I94" s="12">
-        <f t="shared" si="136"/>
-        <v>0.27</v>
+        <f t="shared" si="142"/>
+        <v>0.25</v>
       </c>
       <c r="J94" s="12">
-        <f t="shared" si="136"/>
-        <v>0.67</v>
+        <f t="shared" si="142"/>
+        <v>0.61</v>
       </c>
       <c r="K94" s="12">
-        <f t="shared" si="136"/>
-        <v>1.4700000000000002</v>
+        <f t="shared" si="142"/>
+        <v>1.3199999999999998</v>
       </c>
       <c r="L94" s="12">
-        <f t="shared" si="136"/>
-        <v>2.67</v>
+        <f t="shared" si="142"/>
+        <v>2.38</v>
       </c>
       <c r="M94" s="12">
-        <f t="shared" si="136"/>
-        <v>4.07</v>
+        <f t="shared" si="142"/>
+        <v>3.61</v>
       </c>
       <c r="N94" s="12">
-        <f t="shared" si="136"/>
-        <v>6.86</v>
+        <f t="shared" si="142"/>
+        <v>6.07</v>
       </c>
     </row>
     <row r="95" spans="7:32">
       <c r="G95" s="12" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="H95" s="12">
-        <v>0.08</v>
+        <f t="shared" si="140"/>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I95" s="12">
-        <f t="shared" si="136"/>
-        <v>0.31</v>
+        <f t="shared" si="142"/>
+        <v>0.27</v>
       </c>
       <c r="J95" s="12">
-        <f t="shared" si="136"/>
-        <v>0.76</v>
+        <f t="shared" si="142"/>
+        <v>0.67</v>
       </c>
       <c r="K95" s="12">
-        <f t="shared" si="136"/>
-        <v>1.6600000000000001</v>
+        <f t="shared" si="142"/>
+        <v>1.4700000000000002</v>
       </c>
       <c r="L95" s="12">
-        <f t="shared" si="136"/>
-        <v>3.0100000000000002</v>
+        <f t="shared" si="142"/>
+        <v>2.67</v>
       </c>
       <c r="M95" s="12">
-        <f t="shared" si="136"/>
-        <v>4.59</v>
+        <f t="shared" si="142"/>
+        <v>4.07</v>
       </c>
       <c r="N95" s="12">
-        <f t="shared" si="136"/>
-        <v>7.74</v>
+        <f t="shared" si="142"/>
+        <v>6.86</v>
       </c>
     </row>
     <row r="96" spans="7:32">
       <c r="G96" s="12" t="s">
-        <v>246</v>
+        <v>195</v>
       </c>
       <c r="H96" s="12">
         <v>0.08</v>
       </c>
       <c r="I96" s="12">
-        <f t="shared" si="136"/>
-        <v>0.35000000000000003</v>
+        <f t="shared" si="142"/>
+        <v>0.31</v>
       </c>
       <c r="J96" s="12">
-        <f t="shared" si="136"/>
-        <v>0.88000000000000012</v>
+        <f t="shared" si="142"/>
+        <v>0.76</v>
       </c>
       <c r="K96" s="12">
-        <f t="shared" si="136"/>
-        <v>1.9400000000000002</v>
+        <f t="shared" si="142"/>
+        <v>1.6600000000000001</v>
       </c>
       <c r="L96" s="12">
-        <f t="shared" si="136"/>
-        <v>3.5200000000000005</v>
+        <f t="shared" si="142"/>
+        <v>3.0100000000000002</v>
       </c>
       <c r="M96" s="12">
-        <f t="shared" si="136"/>
-        <v>5.36</v>
+        <f t="shared" si="142"/>
+        <v>4.59</v>
       </c>
       <c r="N96" s="12">
-        <f t="shared" si="136"/>
-        <v>9.0400000000000009</v>
+        <f t="shared" si="142"/>
+        <v>7.74</v>
       </c>
     </row>
     <row r="97" spans="7:14">
       <c r="G97" s="12" t="s">
-        <v>313</v>
+        <v>246</v>
       </c>
       <c r="H97" s="12">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="I97" s="12">
-        <f t="shared" ref="I97:I98" si="137">I75+H97</f>
-        <v>0.41000000000000003</v>
+        <f t="shared" si="142"/>
+        <v>0.35000000000000003</v>
       </c>
       <c r="J97" s="12">
-        <f t="shared" ref="J97:J98" si="138">J75+I97</f>
-        <v>1.05</v>
+        <f t="shared" si="142"/>
+        <v>0.88000000000000012</v>
       </c>
       <c r="K97" s="12">
-        <f t="shared" ref="K97:K98" si="139">K75+J97</f>
-        <v>2.3200000000000003</v>
+        <f t="shared" si="142"/>
+        <v>1.9400000000000002</v>
       </c>
       <c r="L97" s="12">
-        <f t="shared" ref="L97:L98" si="140">L75+K97</f>
-        <v>4.2200000000000006</v>
+        <f t="shared" si="142"/>
+        <v>3.5200000000000005</v>
       </c>
       <c r="M97" s="12">
-        <f t="shared" ref="M97:M98" si="141">M75+L97</f>
-        <v>6.4400000000000013</v>
+        <f t="shared" si="142"/>
+        <v>5.36</v>
       </c>
       <c r="N97" s="12">
-        <f t="shared" ref="N97:N98" si="142">N75+M97</f>
-        <v>10.870000000000001</v>
+        <f t="shared" si="142"/>
+        <v>9.0400000000000009</v>
       </c>
     </row>
     <row r="98" spans="7:14">
       <c r="G98" s="12" t="s">
-        <v>370</v>
+        <v>313</v>
       </c>
       <c r="H98" s="12">
         <v>0.09</v>
       </c>
       <c r="I98" s="12">
-        <f t="shared" si="137"/>
-        <v>0.47</v>
+        <f t="shared" si="142"/>
+        <v>0.41000000000000003</v>
       </c>
       <c r="J98" s="12">
-        <f t="shared" si="138"/>
-        <v>1.23</v>
+        <f t="shared" si="142"/>
+        <v>1.05</v>
       </c>
       <c r="K98" s="12">
-        <f t="shared" si="139"/>
-        <v>2.74</v>
+        <f t="shared" si="142"/>
+        <v>2.3200000000000003</v>
       </c>
       <c r="L98" s="12">
-        <f t="shared" si="140"/>
-        <v>4.99</v>
+        <f t="shared" si="142"/>
+        <v>4.2200000000000006</v>
       </c>
       <c r="M98" s="12">
-        <f t="shared" si="141"/>
-        <v>7.62</v>
+        <f t="shared" si="142"/>
+        <v>6.4400000000000013</v>
       </c>
       <c r="N98" s="12">
         <f t="shared" si="142"/>
-        <v>12.879999999999999</v>
+        <v>10.870000000000001</v>
       </c>
     </row>
     <row r="99" spans="7:14">
       <c r="G99" s="12" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="H99" s="12">
+        <v>0.09</v>
+      </c>
+      <c r="I99" s="12">
+        <f t="shared" si="142"/>
+        <v>0.47</v>
+      </c>
+      <c r="J99" s="12">
+        <f t="shared" si="142"/>
+        <v>1.23</v>
+      </c>
+      <c r="K99" s="12">
+        <f t="shared" si="142"/>
+        <v>2.74</v>
+      </c>
+      <c r="L99" s="12">
+        <f t="shared" si="142"/>
+        <v>4.99</v>
+      </c>
+      <c r="M99" s="12">
+        <f t="shared" si="142"/>
+        <v>7.62</v>
+      </c>
+      <c r="N99" s="12">
+        <f t="shared" si="142"/>
+        <v>12.879999999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="7:14">
+      <c r="G100" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="H100" s="12">
         <v>0.1</v>
       </c>
-      <c r="I99" s="12">
-        <f t="shared" ref="I99" si="143">I77+H99</f>
+      <c r="I100" s="12">
+        <f t="shared" ref="I100" si="143">I77+H100</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="J99" s="12">
-        <f t="shared" ref="J99" si="144">J77+I99</f>
+      <c r="J100" s="12">
+        <f t="shared" ref="J100" si="144">J77+I100</f>
         <v>1.44</v>
       </c>
-      <c r="K99" s="12">
-        <f t="shared" ref="K99" si="145">K77+J99</f>
+      <c r="K100" s="12">
+        <f t="shared" ref="K100" si="145">K77+J100</f>
         <v>3.21</v>
       </c>
-      <c r="L99" s="12">
-        <f t="shared" ref="L99" si="146">L77+K99</f>
+      <c r="L100" s="12">
+        <f t="shared" ref="L100" si="146">L77+K100</f>
         <v>5.8599999999999994</v>
       </c>
-      <c r="M99" s="12">
-        <f t="shared" ref="M99" si="147">M77+L99</f>
+      <c r="M100" s="12">
+        <f t="shared" ref="M100" si="147">M77+L100</f>
         <v>8.9499999999999993</v>
       </c>
-      <c r="N99" s="12">
-        <f t="shared" ref="N99" si="148">N77+M99</f>
+      <c r="N100" s="12">
+        <f t="shared" ref="N100" si="148">N77+M100</f>
         <v>15.129999999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="7:14">
+      <c r="G101" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="H101" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="I101" s="12">
+        <f t="shared" ref="I101:N101" si="149">I78+H101</f>
+        <v>0.62</v>
+      </c>
+      <c r="J101" s="12">
+        <f t="shared" si="149"/>
+        <v>1.65</v>
+      </c>
+      <c r="K101" s="12">
+        <f t="shared" si="149"/>
+        <v>3.71</v>
+      </c>
+      <c r="L101" s="12">
+        <f t="shared" si="149"/>
+        <v>6.8</v>
+      </c>
+      <c r="M101" s="12">
+        <f t="shared" si="149"/>
+        <v>10.4</v>
+      </c>
+      <c r="N101" s="12">
+        <f t="shared" si="149"/>
+        <v>17.600000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -9450,7 +9871,7 @@
   <dimension ref="A2:W50"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -10973,7 +11394,7 @@
         <v>200설</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J22">
         <v>19</v>
@@ -11027,30 +11448,30 @@
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" si="73"/>
-        <v>10b,20b,50b,100b,200b</v>
+        <v>10적,20적,50적,100적,200적</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="74"/>
-        <v>10b</v>
+        <v>10적</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="75"/>
-        <v>20b</v>
+        <v>20적</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="76"/>
-        <v>50b</v>
+        <v>50적</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="77"/>
-        <v>100b</v>
+        <v>100적</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" si="78"/>
-        <v>200b</v>
+        <v>200적</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>359</v>
+        <v>394</v>
       </c>
       <c r="J23">
         <v>20</v>
@@ -11127,7 +11548,7 @@
         <v>200c</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J24">
         <v>21</v>
@@ -11337,7 +11758,7 @@
     </row>
     <row r="35" spans="20:23">
       <c r="T35" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="U35">
         <v>132</v>
@@ -11353,7 +11774,7 @@
     </row>
     <row r="36" spans="20:23">
       <c r="T36" t="s">
-        <v>359</v>
+        <v>394</v>
       </c>
       <c r="U36">
         <v>136</v>
@@ -11369,7 +11790,7 @@
     </row>
     <row r="37" spans="20:23">
       <c r="T37" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U37">
         <v>140</v>

--- a/Assets/06.Table/SuhopetTable.xlsx
+++ b/Assets/06.Table/SuhopetTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175BDF1D-D378-4B5B-9A27-9E570190A92B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE732FA-0B27-4230-B723-5E09C5BBB6E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-240" yWindow="0" windowWidth="29040" windowHeight="15600" tabRatio="605" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="29040" windowHeight="15600" tabRatio="605" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SuhopetTable" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="430">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1301,10 +1301,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1E+117,2E+117,5E+117,1E+118,2E+118</t>
   </si>
   <si>
@@ -1461,6 +1457,80 @@
   </si>
   <si>
     <t>20단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p30</t>
+  </si>
+  <si>
+    <t>p31</t>
+  </si>
+  <si>
+    <t>p32</t>
+  </si>
+  <si>
+    <t>1E+141,2E+141,5E+141,1E+142,2E+142</t>
+  </si>
+  <si>
+    <t>10고,20고,50고,100고,200고</t>
+  </si>
+  <si>
+    <t>540,540,540,540,540</t>
+  </si>
+  <si>
+    <t>0.11,0.71,1.9,4.28,7.85,12.02,20.35</t>
+  </si>
+  <si>
+    <t>1377,2753,5506,8259,9635,19270</t>
+  </si>
+  <si>
+    <t>백택</t>
+  </si>
+  <si>
+    <t>요괴사냥
+수호동물에서 획득!</t>
+  </si>
+  <si>
+    <t>21단계</t>
+  </si>
+  <si>
+    <t>펫21</t>
+  </si>
+  <si>
+    <t>고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.11,0.83,2.27,5.14,9.44,14.45</t>
+  </si>
+  <si>
+    <t>1296,2592,5184,7776,9072</t>
+  </si>
+  <si>
+    <t>Special</t>
+  </si>
+  <si>
+    <t>보스도전
+수인전에서 획득!</t>
+  </si>
+  <si>
+    <t>0.12,0.71,1.88,4.21,7.7,11.77</t>
+  </si>
+  <si>
+    <t>1344,2688,5376,8064,9408</t>
+  </si>
+  <si>
+    <t>수호호</t>
+  </si>
+  <si>
+    <t>수호호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수호범</t>
+  </si>
+  <si>
+    <t>수호범</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2275,10 +2345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:U31"/>
+  <dimension ref="A1:U34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R32" sqref="R32"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3548,10 +3618,10 @@
         <v>194</v>
       </c>
       <c r="F20" s="40" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>274</v>
@@ -3613,10 +3683,10 @@
         <v>249</v>
       </c>
       <c r="F21" s="40" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>274</v>
@@ -3991,28 +4061,28 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="D27" s="43" t="s">
+        <v>372</v>
+      </c>
+      <c r="E27" s="43" t="s">
+        <v>372</v>
+      </c>
+      <c r="F27" s="40" t="s">
         <v>364</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="D27" s="43" t="s">
-        <v>373</v>
-      </c>
-      <c r="E27" s="43" t="s">
-        <v>373</v>
-      </c>
-      <c r="F27" s="40" t="s">
+      <c r="G27" s="3" t="s">
         <v>365</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>366</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>274</v>
       </c>
       <c r="I27" s="35" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>169</v>
@@ -4027,7 +4097,7 @@
         <v>49</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="O27" s="4">
         <v>6</v>
@@ -4036,7 +4106,7 @@
         <v>9016</v>
       </c>
       <c r="Q27" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="R27" s="4">
         <v>103</v>
@@ -4048,7 +4118,7 @@
         <v>230</v>
       </c>
       <c r="U27" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="33">
@@ -4056,28 +4126,28 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>375</v>
-      </c>
       <c r="D28" s="43" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E28" s="43" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F28" s="40" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>274</v>
       </c>
       <c r="I28" s="35" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>169</v>
@@ -4092,7 +4162,7 @@
         <v>49</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="O28" s="4">
         <v>6</v>
@@ -4101,7 +4171,7 @@
         <v>9016</v>
       </c>
       <c r="Q28" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="R28" s="4">
         <v>104</v>
@@ -4113,7 +4183,7 @@
         <v>230</v>
       </c>
       <c r="U28" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="33">
@@ -4121,16 +4191,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D29" s="43" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E29" s="43" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F29" s="53" t="s">
         <v>259</v>
@@ -4157,7 +4227,7 @@
         <v>49</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="O29" s="4">
         <v>5</v>
@@ -4166,7 +4236,7 @@
         <v>9016</v>
       </c>
       <c r="Q29" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="R29" s="4">
         <v>-1</v>
@@ -4175,7 +4245,7 @@
         <v>183</v>
       </c>
       <c r="T29" s="51" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="U29" t="s">
         <v>239</v>
@@ -4186,16 +4256,16 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D30" s="43" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E30" s="43" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F30" s="53" t="s">
         <v>259</v>
@@ -4207,7 +4277,7 @@
         <v>274</v>
       </c>
       <c r="I30" s="55" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J30" s="52" t="s">
         <v>169</v>
@@ -4222,7 +4292,7 @@
         <v>49</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="O30" s="4">
         <v>5</v>
@@ -4231,7 +4301,7 @@
         <v>9016</v>
       </c>
       <c r="Q30" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="R30" s="4">
         <v>-1</v>
@@ -4240,7 +4310,7 @@
         <v>183</v>
       </c>
       <c r="T30" s="51" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="U30" t="s">
         <v>239</v>
@@ -4251,28 +4321,28 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D31" s="43" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E31" s="43" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F31" s="40" t="s">
+        <v>394</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>395</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>396</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>274</v>
       </c>
       <c r="I31" s="35" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J31" s="3" t="s">
         <v>169</v>
@@ -4287,7 +4357,7 @@
         <v>49</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="O31" s="4">
         <v>6</v>
@@ -4296,7 +4366,7 @@
         <v>9016</v>
       </c>
       <c r="Q31" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="R31" s="4">
         <v>105</v>
@@ -4308,7 +4378,202 @@
         <v>230</v>
       </c>
       <c r="U31" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="33">
+      <c r="A32" s="2">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>407</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="D32" s="43" t="s">
+        <v>426</v>
+      </c>
+      <c r="E32" s="43" t="s">
+        <v>426</v>
+      </c>
+      <c r="F32" s="53" t="s">
+        <v>259</v>
+      </c>
+      <c r="G32" s="52" t="s">
+        <v>260</v>
+      </c>
+      <c r="H32" s="54" t="s">
+        <v>274</v>
+      </c>
+      <c r="I32" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="J32" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="K32" s="43">
+        <v>9016</v>
+      </c>
+      <c r="L32" s="3">
+        <v>250</v>
+      </c>
+      <c r="M32" s="4">
+        <v>49</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="O32" s="4">
+        <v>5</v>
+      </c>
+      <c r="P32" s="36">
+        <v>9016</v>
+      </c>
+      <c r="Q32" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="R32" s="4">
+        <v>-1</v>
+      </c>
+      <c r="S32" s="50" t="s">
+        <v>422</v>
+      </c>
+      <c r="T32" s="51" t="s">
+        <v>423</v>
+      </c>
+      <c r="U32" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="33">
+      <c r="A33" s="2">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="D33" s="43" t="s">
+        <v>428</v>
+      </c>
+      <c r="E33" s="43" t="s">
+        <v>428</v>
+      </c>
+      <c r="F33" s="53" t="s">
+        <v>259</v>
+      </c>
+      <c r="G33" s="52" t="s">
+        <v>260</v>
+      </c>
+      <c r="H33" s="54" t="s">
+        <v>274</v>
+      </c>
+      <c r="I33" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="J33" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="K33" s="43">
+        <v>9016</v>
+      </c>
+      <c r="L33" s="3">
+        <v>250</v>
+      </c>
+      <c r="M33" s="4">
+        <v>49</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="O33" s="4">
+        <v>5</v>
+      </c>
+      <c r="P33" s="36">
+        <v>9016</v>
+      </c>
+      <c r="Q33" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="R33" s="4">
+        <v>-1</v>
+      </c>
+      <c r="S33" s="50" t="s">
+        <v>422</v>
+      </c>
+      <c r="T33" s="51" t="s">
+        <v>423</v>
+      </c>
+      <c r="U33" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" ht="33">
+      <c r="A34" s="2">
+        <v>32</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="D34" s="43" t="s">
+        <v>415</v>
+      </c>
+      <c r="E34" s="43" t="s">
+        <v>415</v>
+      </c>
+      <c r="F34" s="40" t="s">
+        <v>410</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="I34" s="35" t="s">
+        <v>412</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="K34" s="43">
+        <v>9016</v>
+      </c>
+      <c r="L34" s="3">
+        <v>370</v>
+      </c>
+      <c r="M34" s="4">
+        <v>49</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="O34" s="4">
+        <v>6</v>
+      </c>
+      <c r="P34" s="36">
+        <v>9016</v>
+      </c>
+      <c r="Q34" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="R34" s="4">
+        <v>106</v>
+      </c>
+      <c r="S34" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="T34" s="51" t="s">
+        <v>416</v>
+      </c>
+      <c r="U34" t="s">
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -4332,10 +4597,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB815A5-0A26-4B2F-8716-20DE31E1881F}">
-  <dimension ref="A1:AF101"/>
+  <dimension ref="A1:AF116"/>
   <sheetViews>
-    <sheetView topLeftCell="N22" workbookViewId="0">
-      <selection activeCell="AD31" sqref="AD31"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -4499,7 +4764,7 @@
         <v>160,160,160,160,160</v>
       </c>
       <c r="P8" s="2" t="str">
-        <f t="shared" ref="P8:P24" si="0">H82&amp;","&amp;I82&amp;","&amp;J82&amp;","&amp;K82&amp;","&amp;L82&amp;","&amp;M82&amp;","&amp;N82</f>
+        <f t="shared" ref="P8:P28" si="0">H96&amp;","&amp;I96&amp;","&amp;J96&amp;","&amp;K96&amp;","&amp;L96&amp;","&amp;M96&amp;","&amp;N96</f>
         <v>0.01,0.03,0.06,0.12,0.21,0.31,0.51</v>
       </c>
       <c r="Q8" s="12" t="str">
@@ -4510,7 +4775,7 @@
         <v>198</v>
       </c>
       <c r="Z8" s="2" t="str">
-        <f t="shared" ref="Z8:Z14" si="2">Z72&amp;","&amp;AA72&amp;","&amp;AB72&amp;","&amp;AC72&amp;","&amp;AD72&amp;","&amp;AE72</f>
+        <f t="shared" ref="Z8:Z22" si="2">Z78&amp;","&amp;AA78&amp;","&amp;AB78&amp;","&amp;AC78&amp;","&amp;AD78&amp;","&amp;AE78</f>
         <v>0.01,0.23,0.67,1.54,2.84,4.36</v>
       </c>
       <c r="AA8" s="56" t="str">
@@ -4539,7 +4804,7 @@
         <v>864</v>
       </c>
       <c r="J9" s="12">
-        <f t="shared" ref="J9:J21" si="5">ROUNDUP((I9/5),-1)</f>
+        <f t="shared" ref="J9:J29" si="5">ROUNDUP((I9/5),-1)</f>
         <v>180</v>
       </c>
       <c r="N9" s="12" t="s">
@@ -4849,7 +5114,7 @@
         <v>205</v>
       </c>
       <c r="Z15" s="2" t="str">
-        <f t="shared" ref="Z15:Z22" si="7">Z80&amp;","&amp;AA80&amp;","&amp;AB80&amp;","&amp;AC80&amp;","&amp;AD80&amp;","&amp;AE80</f>
+        <f t="shared" si="2"/>
         <v>0.08,0.48,1.27,2.85,5.22,7.98</v>
       </c>
       <c r="AA15" s="56" t="str">
@@ -4898,7 +5163,7 @@
         <v>206</v>
       </c>
       <c r="Z16" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>0.09,0.67,1.83,4.14,7.6,11.64</v>
       </c>
       <c r="AA16" s="56" t="str">
@@ -4945,7 +5210,7 @@
         <v>207</v>
       </c>
       <c r="Z17" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>0.1,0.75,2.04,4.62,8.49,13</v>
       </c>
       <c r="AA17" s="56" t="str">
@@ -4972,7 +5237,7 @@
         <v>105</v>
       </c>
       <c r="O18" s="2" t="str">
-        <f t="shared" ref="O18:O23" si="8">J19&amp;","&amp;J19&amp;","&amp;J19&amp;","&amp;J19&amp;","&amp;J19</f>
+        <f t="shared" ref="O18:O28" si="7">J19&amp;","&amp;J19&amp;","&amp;J19&amp;","&amp;J19&amp;","&amp;J19</f>
         <v>300,300,300,300,300</v>
       </c>
       <c r="P18" s="2" t="str">
@@ -4980,14 +5245,14 @@
         <v>0.06,0.21,0.51,1.1,1.98,3.01,5.06</v>
       </c>
       <c r="Q18" s="12" t="str">
-        <f t="shared" ref="Q18:Q24" si="9">H46&amp;","&amp;I46&amp;","&amp;J46&amp;","&amp;K46&amp;","&amp;L46&amp;","&amp;M46</f>
+        <f t="shared" ref="Q18:Q28" si="8">H46&amp;","&amp;I46&amp;","&amp;J46&amp;","&amp;K46&amp;","&amp;L46&amp;","&amp;M46</f>
         <v>580,1160,2319,3478,4058,8116</v>
       </c>
       <c r="Y18" s="12" t="s">
         <v>208</v>
       </c>
       <c r="Z18" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>0.11,0.83,2.27,5.14,9.44,14.45</v>
       </c>
       <c r="AA18" s="56" t="str">
@@ -5013,7 +5278,7 @@
         <v>210</v>
       </c>
       <c r="I19" s="12">
-        <f t="shared" ref="I19:I21" si="10">H19*$B$9*$B$18*($B$13/100)</f>
+        <f t="shared" ref="I19:I29" si="9">H19*$B$9*$B$18*($B$13/100)</f>
         <v>1512</v>
       </c>
       <c r="J19" s="12">
@@ -5023,7 +5288,7 @@
         <v>106</v>
       </c>
       <c r="O19" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>320,320,320,320,320</v>
       </c>
       <c r="P19" s="2" t="str">
@@ -5031,14 +5296,14 @@
         <v>0.06,0.23,0.56,1.21,2.18,3.31,5.56</v>
       </c>
       <c r="Q19" s="12" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>608,1215,2429,3644,4251,8502</v>
       </c>
       <c r="Y19" s="12" t="s">
         <v>209</v>
       </c>
       <c r="Z19" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>0.12,0.71,1.88,4.21,7.7,11.77</v>
       </c>
       <c r="AA19" s="56" t="str">
@@ -5064,7 +5329,7 @@
         <v>220</v>
       </c>
       <c r="I20" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1584</v>
       </c>
       <c r="J20" s="12">
@@ -5075,7 +5340,7 @@
         <v>172</v>
       </c>
       <c r="O20" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>340,340,340,340,340</v>
       </c>
       <c r="P20" s="2" t="str">
@@ -5083,14 +5348,14 @@
         <v>0.07,0.25,0.61,1.32,2.38,3.61,6.07</v>
       </c>
       <c r="Q20" s="12" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>635,1270,2540,3809,4444,8888</v>
       </c>
       <c r="Y20" s="12" t="s">
         <v>210</v>
       </c>
       <c r="Z20" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>0.13,0.75,1.99,4.47,8.18,12.51</v>
       </c>
       <c r="AA20" s="56" t="str">
@@ -5116,7 +5381,7 @@
         <v>230</v>
       </c>
       <c r="I21" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1656</v>
       </c>
       <c r="J21" s="12">
@@ -5127,7 +5392,7 @@
         <v>174</v>
       </c>
       <c r="O21" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>350,350,350,350,350</v>
       </c>
       <c r="P21" s="2" t="str">
@@ -5135,14 +5400,14 @@
         <v>0.07,0.27,0.67,1.47,2.67,4.07,6.86</v>
       </c>
       <c r="Q21" s="12" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>692,1383,2765,4148,4839,9678</v>
       </c>
       <c r="Y21" s="12" t="s">
         <v>211</v>
       </c>
       <c r="Z21" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>0.14,0.8,2.12,4.75,8.69,13.29</v>
       </c>
       <c r="AA21" s="56" t="str">
@@ -5166,18 +5431,18 @@
         <v>240</v>
       </c>
       <c r="I22" s="12">
-        <f t="shared" ref="I22" si="11">H22*$B$9*$B$18*($B$13/100)</f>
+        <f t="shared" si="9"/>
         <v>1728</v>
       </c>
       <c r="J22" s="12">
-        <f t="shared" ref="J22:J24" si="12">ROUNDUP((I22/5),-1)</f>
+        <f t="shared" si="5"/>
         <v>350</v>
       </c>
       <c r="N22" s="12" t="s">
         <v>195</v>
       </c>
       <c r="O22" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>360,360,360,360,360</v>
       </c>
       <c r="P22" s="2" t="str">
@@ -5185,14 +5450,14 @@
         <v>0.08,0.31,0.76,1.66,3.01,4.59,7.74</v>
       </c>
       <c r="Q22" s="12" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>750,1500,3000,4500,5250,10500</v>
       </c>
       <c r="Y22" s="12" t="s">
         <v>212</v>
       </c>
       <c r="Z22" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>0.15,0.85,2.25,5.04,9.22,14.1</v>
       </c>
       <c r="AA22" s="56" t="str">
@@ -5208,18 +5473,18 @@
         <v>250</v>
       </c>
       <c r="I23" s="12">
-        <f t="shared" ref="I23:I24" si="13">H23*$B$9*$B$18*($B$13/100)</f>
+        <f t="shared" si="9"/>
         <v>1800</v>
       </c>
       <c r="J23" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>360</v>
       </c>
       <c r="N23" s="12" t="s">
         <v>246</v>
       </c>
       <c r="O23" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>390,390,390,390,390</v>
       </c>
       <c r="P23" s="2" t="str">
@@ -5227,7 +5492,7 @@
         <v>0.08,0.35,0.88,1.94,3.52,5.36,9.04</v>
       </c>
       <c r="Q23" s="12" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>843,1685,3370,5055,5897,11794</v>
       </c>
     </row>
@@ -5239,18 +5504,18 @@
         <v>270</v>
       </c>
       <c r="I24" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>1944</v>
       </c>
       <c r="J24" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>390</v>
       </c>
       <c r="N24" s="12" t="s">
         <v>313</v>
       </c>
       <c r="O24" s="2" t="str">
-        <f t="shared" ref="O24:O25" si="14">J25&amp;","&amp;J25&amp;","&amp;J25&amp;","&amp;J25&amp;","&amp;J25</f>
+        <f t="shared" si="7"/>
         <v>420,420,420,420,420</v>
       </c>
       <c r="P24" s="2" t="str">
@@ -5258,7 +5523,7 @@
         <v>0.09,0.41,1.05,2.32,4.22,6.44,10.87</v>
       </c>
       <c r="Q24" s="12" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>940,1880,3759,5638,6578,13156</v>
       </c>
     </row>
@@ -5275,26 +5540,26 @@
         <v>290</v>
       </c>
       <c r="I25" s="12">
-        <f t="shared" ref="I25:I26" si="15">H25*$B$9*$B$18*($B$13/100)</f>
+        <f t="shared" si="9"/>
         <v>2088</v>
       </c>
       <c r="J25" s="12">
-        <f t="shared" ref="J25:J26" si="16">ROUNDUP((I25/5),-1)</f>
+        <f t="shared" si="5"/>
         <v>420</v>
       </c>
       <c r="N25" s="12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="O25" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>450,450,450,450,450</v>
       </c>
       <c r="P25" s="2" t="str">
-        <f t="shared" ref="P25:P26" si="17">H99&amp;","&amp;I99&amp;","&amp;J99&amp;","&amp;K99&amp;","&amp;L99&amp;","&amp;M99&amp;","&amp;N99</f>
+        <f t="shared" si="0"/>
         <v>0.09,0.47,1.23,2.74,4.99,7.62,12.88</v>
       </c>
       <c r="Q25" s="12" t="str">
-        <f t="shared" ref="Q25:Q27" si="18">H53&amp;","&amp;I53&amp;","&amp;J53&amp;","&amp;K53&amp;","&amp;L53&amp;","&amp;M53</f>
+        <f t="shared" si="8"/>
         <v>1042,2084,4167,6250,7292,14584</v>
       </c>
       <c r="S25" s="45"/>
@@ -5314,32 +5579,32 @@
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="G26" s="12" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H26" s="12">
         <v>310</v>
       </c>
       <c r="I26" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>2232</v>
       </c>
       <c r="J26" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>450</v>
       </c>
       <c r="N26" s="12" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="O26" s="2" t="str">
-        <f t="shared" ref="O26:O27" si="19">J27&amp;","&amp;J27&amp;","&amp;J27&amp;","&amp;J27&amp;","&amp;J27</f>
+        <f t="shared" si="7"/>
         <v>480,480,480,480,480</v>
       </c>
       <c r="P26" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="0"/>
         <v>0.1,0.55,1.44,3.21,5.86,8.95,15.13</v>
       </c>
       <c r="Q26" s="12" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>1149,2297,4594,6891,8039,16078</v>
       </c>
     </row>
@@ -5350,32 +5615,32 @@
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="G27" s="12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H27" s="12">
         <v>330</v>
       </c>
       <c r="I27" s="12">
-        <f t="shared" ref="I27:I28" si="20">H27*$B$9*$B$18*($B$13/100)</f>
+        <f t="shared" si="9"/>
         <v>2376</v>
       </c>
       <c r="J27" s="12">
-        <f t="shared" ref="J27:J28" si="21">ROUNDUP((I27/5),-1)</f>
+        <f t="shared" si="5"/>
         <v>480</v>
       </c>
       <c r="N27" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="O27" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="7"/>
         <v>510,510,510,510,510</v>
       </c>
       <c r="P27" s="2" t="str">
-        <f t="shared" ref="P27" si="22">H101&amp;","&amp;I101&amp;","&amp;J101&amp;","&amp;K101&amp;","&amp;L101&amp;","&amp;M101&amp;","&amp;N101</f>
+        <f t="shared" si="0"/>
         <v>0.1,0.62,1.65,3.71,6.8,10.4,17.6</v>
       </c>
       <c r="Q27" s="12" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>1260,2520,5040,7560,8820,17640</v>
       </c>
     </row>
@@ -5386,18 +5651,33 @@
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
       <c r="G28" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H28" s="12">
         <v>350</v>
       </c>
       <c r="I28" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="9"/>
         <v>2520</v>
       </c>
       <c r="J28" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>510</v>
+      </c>
+      <c r="N28" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="O28" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>540,540,540,540,540</v>
+      </c>
+      <c r="P28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0.11,0.71,1.9,4.28,7.85,12.02,20.35</v>
+      </c>
+      <c r="Q28" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>1377,2753,5506,8259,9635,19270</v>
       </c>
     </row>
     <row r="29" spans="1:30">
@@ -5407,6 +5687,20 @@
       <c r="B29" s="30" t="s">
         <v>88</v>
       </c>
+      <c r="G29" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="H29" s="12">
+        <v>370</v>
+      </c>
+      <c r="I29" s="12">
+        <f t="shared" si="9"/>
+        <v>2664</v>
+      </c>
+      <c r="J29" s="12">
+        <f t="shared" si="5"/>
+        <v>540</v>
+      </c>
     </row>
     <row r="30" spans="1:30">
       <c r="A30" s="21" t="s">
@@ -5438,27 +5732,27 @@
         <v>68</v>
       </c>
       <c r="R32" s="26">
-        <f t="shared" ref="R32:W32" si="23">SUM(R34:R43)</f>
+        <f t="shared" ref="R32:W32" si="10">SUM(R34:R43)</f>
         <v>16.285714285714285</v>
       </c>
       <c r="S32" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="10"/>
         <v>13.328571428571429</v>
       </c>
       <c r="T32" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="10"/>
         <v>10.213240418118467</v>
       </c>
       <c r="U32" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="10"/>
         <v>8.8857142857142843</v>
       </c>
       <c r="V32" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="10"/>
         <v>6.4878048780487809</v>
       </c>
       <c r="W32" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="10"/>
         <v>5.3097560975609763</v>
       </c>
       <c r="X32"/>
@@ -5596,23 +5890,23 @@
         <v>50</v>
       </c>
       <c r="P34" s="12">
-        <f t="shared" ref="P34:P43" si="24">(H8*$B$9*$B$18)*(O34/100)+I8</f>
+        <f t="shared" ref="P34:P43" si="11">(H8*$B$9*$B$18)*(O34/100)+I8</f>
         <v>2112</v>
       </c>
       <c r="Q34" s="12">
-        <f t="shared" ref="Q34:Q43" si="25">P34-I8</f>
+        <f t="shared" ref="Q34:Q43" si="12">P34-I8</f>
         <v>1320</v>
       </c>
       <c r="R34" s="2">
-        <f t="shared" ref="R34:R43" si="26">(Q34/H8)/($B$18*7)</f>
+        <f t="shared" ref="R34:R43" si="13">(Q34/H8)/($B$18*7)</f>
         <v>0.8571428571428571</v>
       </c>
       <c r="S34" s="2">
-        <f t="shared" ref="S34:S43" si="27">(Q34/$H$17)/(7*$B$18)</f>
+        <f t="shared" ref="S34:S43" si="14">(Q34/$H$17)/(7*$B$18)</f>
         <v>0.47142857142857142</v>
       </c>
       <c r="T34" s="2">
-        <f t="shared" ref="T34:T42" si="28">(Q34/H8)/($B$18*7+$B$21)</f>
+        <f t="shared" ref="T34:T42" si="15">(Q34/H8)/($B$18*7+$B$21)</f>
         <v>0.5714285714285714</v>
       </c>
       <c r="U34" s="2">
@@ -5620,7 +5914,7 @@
         <v>0.31428571428571428</v>
       </c>
       <c r="V34" s="2">
-        <f t="shared" ref="V34:V43" si="29">(Q34/H8)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
+        <f t="shared" ref="V34:V43" si="16">(Q34/H8)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
         <v>0.34146341463414637</v>
       </c>
       <c r="W34" s="2">
@@ -5670,93 +5964,93 @@
         <v>18</v>
       </c>
       <c r="H35" s="12">
-        <f t="shared" ref="H35:H43" si="30">ROUNDUP((P35*$B$30/100),0)</f>
+        <f t="shared" ref="H35:H43" si="17">ROUNDUP((P35*$B$30/100),0)</f>
         <v>130</v>
       </c>
       <c r="I35" s="12">
-        <f t="shared" ref="I35:I43" si="31">ROUNDUP((P35*$B$31/100),0)</f>
+        <f t="shared" ref="I35:I43" si="18">ROUNDUP((P35*$B$31/100),0)</f>
         <v>260</v>
       </c>
       <c r="J35" s="12">
-        <f t="shared" ref="J35:J43" si="32">ROUNDUP((P35*$B$32/100),0)</f>
+        <f t="shared" ref="J35:J43" si="19">ROUNDUP((P35*$B$32/100),0)</f>
         <v>519</v>
       </c>
       <c r="K35" s="12">
-        <f t="shared" ref="K35:K43" si="33">ROUNDUP((P35*$B$33/100),0)</f>
+        <f t="shared" ref="K35:K43" si="20">ROUNDUP((P35*$B$33/100),0)</f>
         <v>778</v>
       </c>
       <c r="L35" s="12">
-        <f t="shared" ref="L35:L43" si="34">ROUNDUP((P35*$B$34/100),0)</f>
+        <f t="shared" ref="L35:L43" si="21">ROUNDUP((P35*$B$34/100),0)</f>
         <v>908</v>
       </c>
       <c r="M35" s="12">
-        <f t="shared" ref="M35:M43" si="35">L35*$B$43</f>
+        <f t="shared" ref="M35:M43" si="22">L35*$B$43</f>
         <v>1816</v>
       </c>
       <c r="N35" s="12">
-        <f t="shared" ref="N35:N43" si="36">SUM(H35:L35)</f>
+        <f t="shared" ref="N35:N43" si="23">SUM(H35:L35)</f>
         <v>2595</v>
       </c>
       <c r="O35" s="12">
         <v>60</v>
       </c>
       <c r="P35" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="11"/>
         <v>2592</v>
       </c>
       <c r="Q35" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="12"/>
         <v>1728</v>
       </c>
       <c r="R35" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="13"/>
         <v>1.0285714285714287</v>
       </c>
       <c r="S35" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="14"/>
         <v>0.61714285714285722</v>
       </c>
       <c r="T35" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="15"/>
         <v>0.68571428571428572</v>
       </c>
       <c r="U35" s="2">
-        <f t="shared" ref="U35:U43" si="37">(Q35/$H$17)/($B$18*7+$B$21)</f>
+        <f t="shared" ref="U35:U43" si="24">(Q35/$H$17)/($B$18*7+$B$21)</f>
         <v>0.41142857142857148</v>
       </c>
       <c r="V35" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="16"/>
         <v>0.40975609756097564</v>
       </c>
       <c r="W35" s="2">
-        <f t="shared" ref="W35:W43" si="38">(Q35/$H$17)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
+        <f t="shared" ref="W35:W43" si="25">(Q35/$H$17)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
         <v>0.24585365853658542</v>
       </c>
       <c r="Y35" s="12" t="s">
         <v>199</v>
       </c>
       <c r="Z35" s="12">
-        <f t="shared" ref="Z35:Z37" si="39">ROUNDUP((AE35*$B$30/100),0)</f>
+        <f t="shared" ref="Z35:Z48" si="26">ROUNDUP((AE35*$B$30/100),0)</f>
         <v>744</v>
       </c>
       <c r="AA35" s="12">
-        <f t="shared" ref="AA35:AA37" si="40">ROUNDUP((AE35*$B$31/100),0)</f>
+        <f t="shared" ref="AA35:AA48" si="27">ROUNDUP((AE35*$B$31/100),0)</f>
         <v>1488</v>
       </c>
       <c r="AB35" s="12">
-        <f t="shared" ref="AB35:AB37" si="41">ROUNDUP((AE35*$B$32/100),0)</f>
+        <f t="shared" ref="AB35:AB48" si="28">ROUNDUP((AE35*$B$32/100),0)</f>
         <v>2976</v>
       </c>
       <c r="AC35" s="12">
-        <f t="shared" ref="AC35:AC37" si="42">ROUNDUP((AE35*$B$33/100),0)</f>
+        <f t="shared" ref="AC35:AC48" si="29">ROUNDUP((AE35*$B$33/100),0)</f>
         <v>4464</v>
       </c>
       <c r="AD35" s="12">
-        <f t="shared" ref="AD35:AD48" si="43">ROUNDUP((AE35*$B$34/100),0)</f>
+        <f t="shared" ref="AD35:AD48" si="30">ROUNDUP((AE35*$B$34/100),0)</f>
         <v>5208</v>
       </c>
       <c r="AE35" s="2">
-        <f t="shared" ref="AE35:AE48" si="44">($H$17*$B$9*$B$18)*(AF35/100)</f>
+        <f t="shared" ref="AE35:AE48" si="31">($H$17*$B$9*$B$18)*(AF35/100)</f>
         <v>14880</v>
       </c>
       <c r="AF35" s="2">
@@ -5769,93 +6063,93 @@
         <v>19</v>
       </c>
       <c r="H36" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="17"/>
         <v>156</v>
       </c>
       <c r="I36" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="18"/>
         <v>312</v>
       </c>
       <c r="J36" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="19"/>
         <v>624</v>
       </c>
       <c r="K36" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="20"/>
         <v>936</v>
       </c>
       <c r="L36" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="21"/>
         <v>1092</v>
       </c>
       <c r="M36" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="22"/>
         <v>2184</v>
       </c>
       <c r="N36" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="23"/>
         <v>3120</v>
       </c>
       <c r="O36" s="12">
         <v>70</v>
       </c>
       <c r="P36" s="12">
+        <f t="shared" si="11"/>
+        <v>3120</v>
+      </c>
+      <c r="Q36" s="12">
+        <f t="shared" si="12"/>
+        <v>2184</v>
+      </c>
+      <c r="R36" s="2">
+        <f t="shared" si="13"/>
+        <v>1.2</v>
+      </c>
+      <c r="S36" s="2">
+        <f t="shared" si="14"/>
+        <v>0.78</v>
+      </c>
+      <c r="T36" s="2">
+        <f t="shared" si="15"/>
+        <v>0.8</v>
+      </c>
+      <c r="U36" s="2">
         <f t="shared" si="24"/>
-        <v>3120</v>
-      </c>
-      <c r="Q36" s="12">
+        <v>0.52</v>
+      </c>
+      <c r="V36" s="2">
+        <f t="shared" si="16"/>
+        <v>0.47804878048780497</v>
+      </c>
+      <c r="W36" s="2">
         <f t="shared" si="25"/>
-        <v>2184</v>
-      </c>
-      <c r="R36" s="2">
-        <f t="shared" si="26"/>
-        <v>1.2</v>
-      </c>
-      <c r="S36" s="2">
-        <f t="shared" si="27"/>
-        <v>0.78</v>
-      </c>
-      <c r="T36" s="2">
-        <f t="shared" si="28"/>
-        <v>0.8</v>
-      </c>
-      <c r="U36" s="2">
-        <f t="shared" si="37"/>
-        <v>0.52</v>
-      </c>
-      <c r="V36" s="2">
-        <f t="shared" si="29"/>
-        <v>0.47804878048780497</v>
-      </c>
-      <c r="W36" s="2">
-        <f t="shared" si="38"/>
         <v>0.31073170731707322</v>
       </c>
       <c r="Y36" s="12" t="s">
         <v>200</v>
       </c>
       <c r="Z36" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="26"/>
         <v>768</v>
       </c>
       <c r="AA36" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="27"/>
         <v>1536</v>
       </c>
       <c r="AB36" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="28"/>
         <v>3072</v>
       </c>
       <c r="AC36" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="29"/>
         <v>4608</v>
       </c>
       <c r="AD36" s="12">
-        <f t="shared" si="43"/>
+        <f t="shared" si="30"/>
         <v>5376</v>
       </c>
       <c r="AE36" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="31"/>
         <v>15360</v>
       </c>
       <c r="AF36" s="2">
@@ -5871,93 +6165,93 @@
         <v>85</v>
       </c>
       <c r="H37" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="17"/>
         <v>185</v>
       </c>
       <c r="I37" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="18"/>
         <v>370</v>
       </c>
       <c r="J37" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="19"/>
         <v>740</v>
       </c>
       <c r="K37" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="20"/>
         <v>1109</v>
       </c>
       <c r="L37" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="21"/>
         <v>1294</v>
       </c>
       <c r="M37" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="22"/>
         <v>2588</v>
       </c>
       <c r="N37" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="23"/>
         <v>3698</v>
       </c>
       <c r="O37" s="12">
         <v>80</v>
       </c>
       <c r="P37" s="12">
+        <f t="shared" si="11"/>
+        <v>3696</v>
+      </c>
+      <c r="Q37" s="12">
+        <f t="shared" si="12"/>
+        <v>2688</v>
+      </c>
+      <c r="R37" s="2">
+        <f t="shared" si="13"/>
+        <v>1.3714285714285714</v>
+      </c>
+      <c r="S37" s="2">
+        <f t="shared" si="14"/>
+        <v>0.96</v>
+      </c>
+      <c r="T37" s="2">
+        <f t="shared" si="15"/>
+        <v>0.91428571428571426</v>
+      </c>
+      <c r="U37" s="2">
         <f t="shared" si="24"/>
-        <v>3696</v>
-      </c>
-      <c r="Q37" s="12">
+        <v>0.64</v>
+      </c>
+      <c r="V37" s="2">
+        <f t="shared" si="16"/>
+        <v>0.54634146341463419</v>
+      </c>
+      <c r="W37" s="2">
         <f t="shared" si="25"/>
-        <v>2688</v>
-      </c>
-      <c r="R37" s="2">
-        <f t="shared" si="26"/>
-        <v>1.3714285714285714</v>
-      </c>
-      <c r="S37" s="2">
-        <f t="shared" si="27"/>
-        <v>0.96</v>
-      </c>
-      <c r="T37" s="2">
-        <f t="shared" si="28"/>
-        <v>0.91428571428571426</v>
-      </c>
-      <c r="U37" s="2">
-        <f t="shared" si="37"/>
-        <v>0.64</v>
-      </c>
-      <c r="V37" s="2">
-        <f t="shared" si="29"/>
-        <v>0.54634146341463419</v>
-      </c>
-      <c r="W37" s="2">
-        <f t="shared" si="38"/>
         <v>0.38243902439024391</v>
       </c>
       <c r="Y37" s="12" t="s">
         <v>201</v>
       </c>
       <c r="Z37" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="26"/>
         <v>792</v>
       </c>
       <c r="AA37" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="27"/>
         <v>1584</v>
       </c>
       <c r="AB37" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="28"/>
         <v>3168</v>
       </c>
       <c r="AC37" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="29"/>
         <v>4752</v>
       </c>
       <c r="AD37" s="12">
-        <f t="shared" si="43"/>
+        <f t="shared" si="30"/>
         <v>5544</v>
       </c>
       <c r="AE37" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="31"/>
         <v>15840</v>
       </c>
       <c r="AF37" s="2">
@@ -5970,93 +6264,93 @@
         <v>20</v>
       </c>
       <c r="H38" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="17"/>
         <v>216</v>
       </c>
       <c r="I38" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="18"/>
         <v>432</v>
       </c>
       <c r="J38" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="19"/>
         <v>864</v>
       </c>
       <c r="K38" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="20"/>
         <v>1296</v>
       </c>
       <c r="L38" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="21"/>
         <v>1512</v>
       </c>
       <c r="M38" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="22"/>
         <v>3024</v>
       </c>
       <c r="N38" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="23"/>
         <v>4320</v>
       </c>
       <c r="O38" s="12">
         <v>90</v>
       </c>
       <c r="P38" s="12">
+        <f t="shared" si="11"/>
+        <v>4320</v>
+      </c>
+      <c r="Q38" s="12">
+        <f t="shared" si="12"/>
+        <v>3240</v>
+      </c>
+      <c r="R38" s="2">
+        <f t="shared" si="13"/>
+        <v>1.5428571428571429</v>
+      </c>
+      <c r="S38" s="2">
+        <f t="shared" si="14"/>
+        <v>1.157142857142857</v>
+      </c>
+      <c r="T38" s="2">
+        <f t="shared" si="15"/>
+        <v>1.0285714285714287</v>
+      </c>
+      <c r="U38" s="2">
         <f t="shared" si="24"/>
-        <v>4320</v>
-      </c>
-      <c r="Q38" s="12">
+        <v>0.77142857142857135</v>
+      </c>
+      <c r="V38" s="2">
+        <f t="shared" si="16"/>
+        <v>0.61463414634146352</v>
+      </c>
+      <c r="W38" s="2">
         <f t="shared" si="25"/>
-        <v>3240</v>
-      </c>
-      <c r="R38" s="2">
-        <f t="shared" si="26"/>
-        <v>1.5428571428571429</v>
-      </c>
-      <c r="S38" s="2">
-        <f t="shared" si="27"/>
-        <v>1.157142857142857</v>
-      </c>
-      <c r="T38" s="2">
-        <f t="shared" si="28"/>
-        <v>1.0285714285714287</v>
-      </c>
-      <c r="U38" s="2">
-        <f t="shared" si="37"/>
-        <v>0.77142857142857135</v>
-      </c>
-      <c r="V38" s="2">
-        <f t="shared" si="29"/>
-        <v>0.61463414634146352</v>
-      </c>
-      <c r="W38" s="2">
-        <f t="shared" si="38"/>
         <v>0.46097560975609758</v>
       </c>
       <c r="Y38" s="12" t="s">
         <v>202</v>
       </c>
       <c r="Z38" s="12">
-        <f t="shared" ref="Z38:Z48" si="45">ROUNDUP((AE38*$B$30/100),0)</f>
+        <f t="shared" si="26"/>
         <v>816</v>
       </c>
       <c r="AA38" s="12">
-        <f t="shared" ref="AA38:AA48" si="46">ROUNDUP((AE38*$B$31/100),0)</f>
+        <f t="shared" si="27"/>
         <v>1632</v>
       </c>
       <c r="AB38" s="12">
-        <f t="shared" ref="AB38:AB48" si="47">ROUNDUP((AE38*$B$32/100),0)</f>
+        <f t="shared" si="28"/>
         <v>3264</v>
       </c>
       <c r="AC38" s="12">
-        <f t="shared" ref="AC38:AC48" si="48">ROUNDUP((AE38*$B$33/100),0)</f>
+        <f t="shared" si="29"/>
         <v>4896</v>
       </c>
       <c r="AD38" s="12">
-        <f t="shared" si="43"/>
+        <f t="shared" si="30"/>
         <v>5712</v>
       </c>
       <c r="AE38" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="31"/>
         <v>16320</v>
       </c>
       <c r="AF38" s="2">
@@ -6075,93 +6369,93 @@
         <v>21</v>
       </c>
       <c r="H39" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="17"/>
         <v>250</v>
       </c>
       <c r="I39" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="18"/>
         <v>500</v>
       </c>
       <c r="J39" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="19"/>
         <v>999</v>
       </c>
       <c r="K39" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="20"/>
         <v>1498</v>
       </c>
       <c r="L39" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="21"/>
         <v>1748</v>
       </c>
       <c r="M39" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="22"/>
         <v>3496</v>
       </c>
       <c r="N39" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="23"/>
         <v>4995</v>
       </c>
       <c r="O39" s="12">
         <v>100</v>
       </c>
       <c r="P39" s="12">
+        <f t="shared" si="11"/>
+        <v>4992</v>
+      </c>
+      <c r="Q39" s="12">
+        <f t="shared" si="12"/>
+        <v>3840</v>
+      </c>
+      <c r="R39" s="2">
+        <f t="shared" si="13"/>
+        <v>1.7142857142857142</v>
+      </c>
+      <c r="S39" s="2">
+        <f t="shared" si="14"/>
+        <v>1.3714285714285714</v>
+      </c>
+      <c r="T39" s="2">
+        <f t="shared" si="15"/>
+        <v>1.1428571428571428</v>
+      </c>
+      <c r="U39" s="2">
         <f t="shared" si="24"/>
-        <v>4992</v>
-      </c>
-      <c r="Q39" s="12">
+        <v>0.91428571428571426</v>
+      </c>
+      <c r="V39" s="2">
+        <f t="shared" si="16"/>
+        <v>0.68292682926829273</v>
+      </c>
+      <c r="W39" s="2">
         <f t="shared" si="25"/>
-        <v>3840</v>
-      </c>
-      <c r="R39" s="2">
-        <f t="shared" si="26"/>
-        <v>1.7142857142857142</v>
-      </c>
-      <c r="S39" s="2">
-        <f t="shared" si="27"/>
-        <v>1.3714285714285714</v>
-      </c>
-      <c r="T39" s="2">
-        <f t="shared" si="28"/>
-        <v>1.1428571428571428</v>
-      </c>
-      <c r="U39" s="2">
-        <f t="shared" si="37"/>
-        <v>0.91428571428571426</v>
-      </c>
-      <c r="V39" s="2">
-        <f t="shared" si="29"/>
-        <v>0.68292682926829273</v>
-      </c>
-      <c r="W39" s="2">
-        <f t="shared" si="38"/>
         <v>0.54634146341463419</v>
       </c>
       <c r="Y39" s="12" t="s">
         <v>203</v>
       </c>
       <c r="Z39" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="26"/>
         <v>840</v>
       </c>
       <c r="AA39" s="12">
-        <f t="shared" si="46"/>
+        <f t="shared" si="27"/>
         <v>1680</v>
       </c>
       <c r="AB39" s="12">
-        <f t="shared" si="47"/>
+        <f t="shared" si="28"/>
         <v>3360</v>
       </c>
       <c r="AC39" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="29"/>
         <v>5040</v>
       </c>
       <c r="AD39" s="12">
-        <f t="shared" si="43"/>
+        <f t="shared" si="30"/>
         <v>5880</v>
       </c>
       <c r="AE39" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="31"/>
         <v>16800</v>
       </c>
       <c r="AF39" s="2">
@@ -6179,93 +6473,93 @@
         <v>22</v>
       </c>
       <c r="H40" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="17"/>
         <v>286</v>
       </c>
       <c r="I40" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="18"/>
         <v>572</v>
       </c>
       <c r="J40" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="19"/>
         <v>1143</v>
       </c>
       <c r="K40" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="20"/>
         <v>1714</v>
       </c>
       <c r="L40" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="21"/>
         <v>2000</v>
       </c>
       <c r="M40" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="22"/>
         <v>4000</v>
       </c>
       <c r="N40" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="23"/>
         <v>5715</v>
       </c>
       <c r="O40" s="12">
         <v>110</v>
       </c>
       <c r="P40" s="12">
+        <f t="shared" si="11"/>
+        <v>5712</v>
+      </c>
+      <c r="Q40" s="12">
+        <f t="shared" si="12"/>
+        <v>4488</v>
+      </c>
+      <c r="R40" s="2">
+        <f t="shared" si="13"/>
+        <v>1.8857142857142857</v>
+      </c>
+      <c r="S40" s="2">
+        <f t="shared" si="14"/>
+        <v>1.602857142857143</v>
+      </c>
+      <c r="T40" s="2">
+        <f t="shared" si="15"/>
+        <v>1.2571428571428571</v>
+      </c>
+      <c r="U40" s="2">
         <f t="shared" si="24"/>
-        <v>5712</v>
-      </c>
-      <c r="Q40" s="12">
+        <v>1.0685714285714287</v>
+      </c>
+      <c r="V40" s="2">
+        <f t="shared" si="16"/>
+        <v>0.75121951219512195</v>
+      </c>
+      <c r="W40" s="2">
         <f t="shared" si="25"/>
-        <v>4488</v>
-      </c>
-      <c r="R40" s="2">
-        <f t="shared" si="26"/>
-        <v>1.8857142857142857</v>
-      </c>
-      <c r="S40" s="2">
-        <f t="shared" si="27"/>
-        <v>1.602857142857143</v>
-      </c>
-      <c r="T40" s="2">
-        <f t="shared" si="28"/>
-        <v>1.2571428571428571</v>
-      </c>
-      <c r="U40" s="2">
-        <f t="shared" si="37"/>
-        <v>1.0685714285714287</v>
-      </c>
-      <c r="V40" s="2">
-        <f t="shared" si="29"/>
-        <v>0.75121951219512195</v>
-      </c>
-      <c r="W40" s="2">
-        <f t="shared" si="38"/>
         <v>0.63853658536585378</v>
       </c>
       <c r="Y40" s="12" t="s">
         <v>204</v>
       </c>
       <c r="Z40" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="26"/>
         <v>864</v>
       </c>
       <c r="AA40" s="12">
-        <f t="shared" si="46"/>
+        <f t="shared" si="27"/>
         <v>1728</v>
       </c>
       <c r="AB40" s="12">
-        <f t="shared" si="47"/>
+        <f t="shared" si="28"/>
         <v>3456</v>
       </c>
       <c r="AC40" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="29"/>
         <v>5184</v>
       </c>
       <c r="AD40" s="12">
-        <f t="shared" si="43"/>
+        <f t="shared" si="30"/>
         <v>6048</v>
       </c>
       <c r="AE40" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="31"/>
         <v>17280</v>
       </c>
       <c r="AF40" s="2">
@@ -6277,93 +6571,93 @@
         <v>23</v>
       </c>
       <c r="H41" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="17"/>
         <v>324</v>
       </c>
       <c r="I41" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="18"/>
         <v>648</v>
       </c>
       <c r="J41" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="19"/>
         <v>1296</v>
       </c>
       <c r="K41" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="20"/>
         <v>1944</v>
       </c>
       <c r="L41" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="21"/>
         <v>2268</v>
       </c>
       <c r="M41" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="22"/>
         <v>4536</v>
       </c>
       <c r="N41" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="23"/>
         <v>6480</v>
       </c>
       <c r="O41" s="12">
         <v>120</v>
       </c>
       <c r="P41" s="12">
+        <f t="shared" si="11"/>
+        <v>6480</v>
+      </c>
+      <c r="Q41" s="12">
+        <f t="shared" si="12"/>
+        <v>5184</v>
+      </c>
+      <c r="R41" s="2">
+        <f t="shared" si="13"/>
+        <v>2.0571428571428574</v>
+      </c>
+      <c r="S41" s="2">
+        <f t="shared" si="14"/>
+        <v>1.8514285714285716</v>
+      </c>
+      <c r="T41" s="2">
+        <f t="shared" si="15"/>
+        <v>1.3714285714285714</v>
+      </c>
+      <c r="U41" s="2">
         <f t="shared" si="24"/>
-        <v>6480</v>
-      </c>
-      <c r="Q41" s="12">
+        <v>1.2342857142857144</v>
+      </c>
+      <c r="V41" s="2">
+        <f t="shared" si="16"/>
+        <v>0.81951219512195128</v>
+      </c>
+      <c r="W41" s="2">
         <f t="shared" si="25"/>
-        <v>5184</v>
-      </c>
-      <c r="R41" s="2">
-        <f t="shared" si="26"/>
-        <v>2.0571428571428574</v>
-      </c>
-      <c r="S41" s="2">
-        <f t="shared" si="27"/>
-        <v>1.8514285714285716</v>
-      </c>
-      <c r="T41" s="2">
-        <f t="shared" si="28"/>
-        <v>1.3714285714285714</v>
-      </c>
-      <c r="U41" s="2">
-        <f t="shared" si="37"/>
-        <v>1.2342857142857144</v>
-      </c>
-      <c r="V41" s="2">
-        <f t="shared" si="29"/>
-        <v>0.81951219512195128</v>
-      </c>
-      <c r="W41" s="2">
-        <f t="shared" si="38"/>
         <v>0.7375609756097562</v>
       </c>
       <c r="Y41" s="12" t="s">
         <v>205</v>
       </c>
       <c r="Z41" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="26"/>
         <v>888</v>
       </c>
       <c r="AA41" s="12">
-        <f t="shared" si="46"/>
+        <f t="shared" si="27"/>
         <v>1776</v>
       </c>
       <c r="AB41" s="12">
-        <f t="shared" si="47"/>
+        <f t="shared" si="28"/>
         <v>3552</v>
       </c>
       <c r="AC41" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="29"/>
         <v>5328</v>
       </c>
       <c r="AD41" s="12">
-        <f t="shared" si="43"/>
+        <f t="shared" si="30"/>
         <v>6216</v>
       </c>
       <c r="AE41" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="31"/>
         <v>17760</v>
       </c>
       <c r="AF41" s="2">
@@ -6378,23 +6672,23 @@
         <v>24</v>
       </c>
       <c r="H42" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="17"/>
         <v>365</v>
       </c>
       <c r="I42" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="18"/>
         <v>730</v>
       </c>
       <c r="J42" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="19"/>
         <v>1460</v>
       </c>
       <c r="K42" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="20"/>
         <v>2189</v>
       </c>
       <c r="L42" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="21"/>
         <v>2554</v>
       </c>
       <c r="M42" s="12">
@@ -6402,65 +6696,65 @@
         <v>5108</v>
       </c>
       <c r="N42" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="23"/>
         <v>7298</v>
       </c>
       <c r="O42" s="12">
         <v>130</v>
       </c>
       <c r="P42" s="12">
+        <f t="shared" si="11"/>
+        <v>7296</v>
+      </c>
+      <c r="Q42" s="12">
+        <f t="shared" si="12"/>
+        <v>5928</v>
+      </c>
+      <c r="R42" s="2">
+        <f t="shared" si="13"/>
+        <v>2.2285714285714286</v>
+      </c>
+      <c r="S42" s="2">
+        <f t="shared" si="14"/>
+        <v>2.117142857142857</v>
+      </c>
+      <c r="T42" s="2">
+        <f t="shared" si="15"/>
+        <v>1.4857142857142858</v>
+      </c>
+      <c r="U42" s="2">
         <f t="shared" si="24"/>
-        <v>7296</v>
-      </c>
-      <c r="Q42" s="12">
+        <v>1.4114285714285715</v>
+      </c>
+      <c r="V42" s="2">
+        <f t="shared" si="16"/>
+        <v>0.88780487804878061</v>
+      </c>
+      <c r="W42" s="2">
         <f t="shared" si="25"/>
-        <v>5928</v>
-      </c>
-      <c r="R42" s="2">
-        <f t="shared" si="26"/>
-        <v>2.2285714285714286</v>
-      </c>
-      <c r="S42" s="2">
-        <f t="shared" si="27"/>
-        <v>2.117142857142857</v>
-      </c>
-      <c r="T42" s="2">
-        <f t="shared" si="28"/>
-        <v>1.4857142857142858</v>
-      </c>
-      <c r="U42" s="2">
-        <f t="shared" si="37"/>
-        <v>1.4114285714285715</v>
-      </c>
-      <c r="V42" s="2">
-        <f t="shared" si="29"/>
-        <v>0.88780487804878061</v>
-      </c>
-      <c r="W42" s="2">
-        <f t="shared" si="38"/>
         <v>0.84341463414634155</v>
       </c>
       <c r="Y42" s="12" t="s">
         <v>206</v>
       </c>
       <c r="Z42" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="26"/>
         <v>1200</v>
       </c>
       <c r="AA42" s="12">
-        <f t="shared" si="46"/>
+        <f t="shared" si="27"/>
         <v>2400</v>
       </c>
       <c r="AB42" s="12">
-        <f t="shared" si="47"/>
+        <f t="shared" si="28"/>
         <v>4800</v>
       </c>
       <c r="AC42" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="29"/>
         <v>7200</v>
       </c>
       <c r="AD42" s="12">
-        <f t="shared" si="43"/>
+        <f t="shared" si="30"/>
         <v>8400</v>
       </c>
       <c r="AE42" s="2">
@@ -6482,50 +6776,50 @@
         <v>25</v>
       </c>
       <c r="H43" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="17"/>
         <v>408</v>
       </c>
       <c r="I43" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="18"/>
         <v>816</v>
       </c>
       <c r="J43" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="19"/>
         <v>1632</v>
       </c>
       <c r="K43" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="20"/>
         <v>2448</v>
       </c>
       <c r="L43" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="21"/>
         <v>2856</v>
       </c>
       <c r="M43" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="22"/>
         <v>5712</v>
       </c>
       <c r="N43" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="23"/>
         <v>8160</v>
       </c>
       <c r="O43" s="12">
         <v>140</v>
       </c>
       <c r="P43" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="11"/>
         <v>8160</v>
       </c>
       <c r="Q43" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="12"/>
         <v>6720</v>
       </c>
       <c r="R43" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="13"/>
         <v>2.4</v>
       </c>
       <c r="S43" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="14"/>
         <v>2.4</v>
       </c>
       <c r="T43" s="2">
@@ -6533,42 +6827,42 @@
         <v>0.95609756097560994</v>
       </c>
       <c r="U43" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="24"/>
         <v>1.6</v>
       </c>
       <c r="V43" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="16"/>
         <v>0.95609756097560994</v>
       </c>
       <c r="W43" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="25"/>
         <v>0.95609756097560994</v>
       </c>
       <c r="Y43" s="12" t="s">
         <v>207</v>
       </c>
       <c r="Z43" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="26"/>
         <v>1248</v>
       </c>
       <c r="AA43" s="12">
-        <f t="shared" si="46"/>
+        <f t="shared" si="27"/>
         <v>2496</v>
       </c>
       <c r="AB43" s="12">
-        <f t="shared" si="47"/>
+        <f t="shared" si="28"/>
         <v>4992</v>
       </c>
       <c r="AC43" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="29"/>
         <v>7488</v>
       </c>
       <c r="AD43" s="12">
-        <f t="shared" si="43"/>
+        <f t="shared" si="30"/>
         <v>8736</v>
       </c>
       <c r="AE43" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="31"/>
         <v>24960</v>
       </c>
       <c r="AF43" s="2">
@@ -6600,27 +6894,27 @@
         <v>208</v>
       </c>
       <c r="Z44" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="26"/>
         <v>1296</v>
       </c>
       <c r="AA44" s="12">
-        <f t="shared" si="46"/>
+        <f t="shared" si="27"/>
         <v>2592</v>
       </c>
       <c r="AB44" s="12">
-        <f t="shared" si="47"/>
+        <f t="shared" si="28"/>
         <v>5184</v>
       </c>
       <c r="AC44" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="29"/>
         <v>7776</v>
       </c>
       <c r="AD44" s="12">
-        <f t="shared" si="43"/>
+        <f t="shared" si="30"/>
         <v>9072</v>
       </c>
       <c r="AE44" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="31"/>
         <v>25920</v>
       </c>
       <c r="AF44" s="2">
@@ -6636,23 +6930,23 @@
         <v>6.8571428571428568</v>
       </c>
       <c r="S45" s="26">
-        <f t="shared" ref="S45:W45" si="49">SUM(S46:S47)</f>
+        <f t="shared" ref="S45:W45" si="32">SUM(S46:S47)</f>
         <v>6.7012987012987013</v>
       </c>
       <c r="T45" s="26">
-        <f t="shared" si="49"/>
+        <f t="shared" si="32"/>
         <v>2.7317073170731709</v>
       </c>
       <c r="U45" s="26">
-        <f t="shared" si="49"/>
+        <f t="shared" si="32"/>
         <v>4.4675324675324681</v>
       </c>
       <c r="V45" s="26">
-        <f t="shared" si="49"/>
+        <f t="shared" si="32"/>
         <v>2.7317073170731709</v>
       </c>
       <c r="W45" s="26">
-        <f t="shared" si="49"/>
+        <f t="shared" si="32"/>
         <v>2.6696230598669626</v>
       </c>
       <c r="X45"/>
@@ -6660,27 +6954,27 @@
         <v>209</v>
       </c>
       <c r="Z45" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="26"/>
         <v>1344</v>
       </c>
       <c r="AA45" s="12">
-        <f t="shared" si="46"/>
+        <f t="shared" si="27"/>
         <v>2688</v>
       </c>
       <c r="AB45" s="12">
-        <f t="shared" si="47"/>
+        <f t="shared" si="28"/>
         <v>5376</v>
       </c>
       <c r="AC45" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="29"/>
         <v>8064</v>
       </c>
       <c r="AD45" s="12">
-        <f t="shared" si="43"/>
+        <f t="shared" si="30"/>
         <v>9408</v>
       </c>
       <c r="AE45" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="31"/>
         <v>26880</v>
       </c>
       <c r="AF45" s="2">
@@ -6692,31 +6986,31 @@
         <v>105</v>
       </c>
       <c r="H46" s="12">
-        <f t="shared" ref="H46:H47" si="50">ROUNDUP((P46*$B$30/100),0)</f>
+        <f t="shared" ref="H46:H56" si="33">ROUNDUP((P46*$B$30/100),0)</f>
         <v>580</v>
       </c>
       <c r="I46" s="12">
-        <f t="shared" ref="I46:I47" si="51">ROUNDUP((P46*$B$31/100),0)</f>
+        <f t="shared" ref="I46:I56" si="34">ROUNDUP((P46*$B$31/100),0)</f>
         <v>1160</v>
       </c>
       <c r="J46" s="12">
-        <f t="shared" ref="J46:J47" si="52">ROUNDUP((P46*$B$32/100),0)</f>
+        <f t="shared" ref="J46:J56" si="35">ROUNDUP((P46*$B$32/100),0)</f>
         <v>2319</v>
       </c>
       <c r="K46" s="12">
-        <f t="shared" ref="K46:K47" si="53">ROUNDUP((P46*$B$33/100),0)</f>
+        <f t="shared" ref="K46:K56" si="36">ROUNDUP((P46*$B$33/100),0)</f>
         <v>3478</v>
       </c>
       <c r="L46" s="12">
-        <f t="shared" ref="L46:L47" si="54">ROUNDUP((P46*$B$34/100),0)</f>
+        <f t="shared" ref="L46:L56" si="37">ROUNDUP((P46*$B$34/100),0)</f>
         <v>4058</v>
       </c>
       <c r="M46" s="12">
-        <f t="shared" ref="M46:M51" si="55">L46*$B$43</f>
+        <f t="shared" ref="M46:M56" si="38">L46*$B$43</f>
         <v>8116</v>
       </c>
       <c r="N46" s="12">
-        <f t="shared" ref="N46" si="56">SUM(H46:L46)</f>
+        <f t="shared" ref="N46" si="39">SUM(H46:L46)</f>
         <v>11595</v>
       </c>
       <c r="O46" s="12">
@@ -6758,27 +7052,27 @@
         <v>210</v>
       </c>
       <c r="Z46" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="26"/>
         <v>1392</v>
       </c>
       <c r="AA46" s="12">
-        <f t="shared" si="46"/>
+        <f t="shared" si="27"/>
         <v>2784</v>
       </c>
       <c r="AB46" s="12">
-        <f t="shared" si="47"/>
+        <f t="shared" si="28"/>
         <v>5568</v>
       </c>
       <c r="AC46" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="29"/>
         <v>8352</v>
       </c>
       <c r="AD46" s="12">
-        <f t="shared" si="43"/>
+        <f t="shared" si="30"/>
         <v>9744</v>
       </c>
       <c r="AE46" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="31"/>
         <v>27840</v>
       </c>
       <c r="AF46" s="2">
@@ -6790,31 +7084,31 @@
         <v>106</v>
       </c>
       <c r="H47" s="12">
-        <f t="shared" si="50"/>
+        <f t="shared" si="33"/>
         <v>608</v>
       </c>
       <c r="I47" s="12">
-        <f t="shared" si="51"/>
+        <f t="shared" si="34"/>
         <v>1215</v>
       </c>
       <c r="J47" s="12">
-        <f t="shared" si="52"/>
+        <f t="shared" si="35"/>
         <v>2429</v>
       </c>
       <c r="K47" s="12">
-        <f t="shared" si="53"/>
+        <f t="shared" si="36"/>
         <v>3644</v>
       </c>
       <c r="L47" s="12">
-        <f t="shared" si="54"/>
+        <f t="shared" si="37"/>
         <v>4251</v>
       </c>
       <c r="M47" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="38"/>
         <v>8502</v>
       </c>
       <c r="N47" s="12">
-        <f t="shared" ref="N47:N52" si="57">SUM(H47:L47)</f>
+        <f t="shared" ref="N47:N52" si="40">SUM(H47:L47)</f>
         <v>12147</v>
       </c>
       <c r="O47" s="12">
@@ -6856,27 +7150,27 @@
         <v>211</v>
       </c>
       <c r="Z47" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="26"/>
         <v>1440</v>
       </c>
       <c r="AA47" s="12">
-        <f t="shared" si="46"/>
+        <f t="shared" si="27"/>
         <v>2880</v>
       </c>
       <c r="AB47" s="12">
-        <f t="shared" si="47"/>
+        <f t="shared" si="28"/>
         <v>5760</v>
       </c>
       <c r="AC47" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="29"/>
         <v>8640</v>
       </c>
       <c r="AD47" s="12">
-        <f t="shared" si="43"/>
+        <f t="shared" si="30"/>
         <v>10080</v>
       </c>
       <c r="AE47" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="31"/>
         <v>28800</v>
       </c>
       <c r="AF47" s="2">
@@ -6888,31 +7182,31 @@
         <v>172</v>
       </c>
       <c r="H48" s="12">
-        <f t="shared" ref="H48" si="58">ROUNDUP((P48*$B$30/100),0)</f>
+        <f t="shared" si="33"/>
         <v>635</v>
       </c>
       <c r="I48" s="12">
-        <f t="shared" ref="I48" si="59">ROUNDUP((P48*$B$31/100),0)</f>
+        <f t="shared" si="34"/>
         <v>1270</v>
       </c>
       <c r="J48" s="12">
-        <f t="shared" ref="J48" si="60">ROUNDUP((P48*$B$32/100),0)</f>
+        <f t="shared" si="35"/>
         <v>2540</v>
       </c>
       <c r="K48" s="12">
-        <f t="shared" ref="K48" si="61">ROUNDUP((P48*$B$33/100),0)</f>
+        <f t="shared" si="36"/>
         <v>3809</v>
       </c>
       <c r="L48" s="12">
-        <f t="shared" ref="L48" si="62">ROUNDUP((P48*$B$34/100),0)</f>
+        <f t="shared" si="37"/>
         <v>4444</v>
       </c>
       <c r="M48" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="38"/>
         <v>8888</v>
       </c>
       <c r="N48" s="12">
-        <f t="shared" si="57"/>
+        <f t="shared" si="40"/>
         <v>12698</v>
       </c>
       <c r="O48" s="12">
@@ -6926,27 +7220,27 @@
         <v>212</v>
       </c>
       <c r="Z48" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="26"/>
         <v>1488</v>
       </c>
       <c r="AA48" s="12">
-        <f t="shared" si="46"/>
+        <f t="shared" si="27"/>
         <v>2976</v>
       </c>
       <c r="AB48" s="12">
-        <f t="shared" si="47"/>
+        <f t="shared" si="28"/>
         <v>5952</v>
       </c>
       <c r="AC48" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="29"/>
         <v>8928</v>
       </c>
       <c r="AD48" s="12">
-        <f t="shared" si="43"/>
+        <f t="shared" si="30"/>
         <v>10416</v>
       </c>
       <c r="AE48" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="31"/>
         <v>29760</v>
       </c>
       <c r="AF48" s="2">
@@ -6958,31 +7252,31 @@
         <v>175</v>
       </c>
       <c r="H49" s="12">
-        <f t="shared" ref="H49" si="63">ROUNDUP((P49*$B$30/100),0)</f>
+        <f t="shared" si="33"/>
         <v>692</v>
       </c>
       <c r="I49" s="12">
-        <f t="shared" ref="I49" si="64">ROUNDUP((P49*$B$31/100),0)</f>
+        <f t="shared" si="34"/>
         <v>1383</v>
       </c>
       <c r="J49" s="12">
-        <f t="shared" ref="J49" si="65">ROUNDUP((P49*$B$32/100),0)</f>
+        <f t="shared" si="35"/>
         <v>2765</v>
       </c>
       <c r="K49" s="12">
-        <f t="shared" ref="K49" si="66">ROUNDUP((P49*$B$33/100),0)</f>
+        <f t="shared" si="36"/>
         <v>4148</v>
       </c>
       <c r="L49" s="12">
-        <f t="shared" ref="L49" si="67">ROUNDUP((P49*$B$34/100),0)</f>
+        <f t="shared" si="37"/>
         <v>4839</v>
       </c>
       <c r="M49" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="38"/>
         <v>9678</v>
       </c>
       <c r="N49" s="12">
-        <f t="shared" si="57"/>
+        <f t="shared" si="40"/>
         <v>13827</v>
       </c>
       <c r="O49" s="12">
@@ -6998,31 +7292,31 @@
         <v>195</v>
       </c>
       <c r="H50" s="12">
-        <f t="shared" ref="H50:H51" si="68">ROUNDUP((P50*$B$30/100),0)</f>
+        <f t="shared" si="33"/>
         <v>750</v>
       </c>
       <c r="I50" s="12">
-        <f t="shared" ref="I50:I51" si="69">ROUNDUP((P50*$B$31/100),0)</f>
+        <f t="shared" si="34"/>
         <v>1500</v>
       </c>
       <c r="J50" s="12">
-        <f t="shared" ref="J50:J51" si="70">ROUNDUP((P50*$B$32/100),0)</f>
+        <f t="shared" si="35"/>
         <v>3000</v>
       </c>
       <c r="K50" s="12">
-        <f t="shared" ref="K50:K51" si="71">ROUNDUP((P50*$B$33/100),0)</f>
+        <f t="shared" si="36"/>
         <v>4500</v>
       </c>
       <c r="L50" s="12">
-        <f t="shared" ref="L50:L51" si="72">ROUNDUP((P50*$B$34/100),0)</f>
+        <f t="shared" si="37"/>
         <v>5250</v>
       </c>
       <c r="M50" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="38"/>
         <v>10500</v>
       </c>
       <c r="N50" s="12">
-        <f t="shared" si="57"/>
+        <f t="shared" si="40"/>
         <v>15000</v>
       </c>
       <c r="O50" s="12">
@@ -7038,31 +7332,31 @@
         <v>246</v>
       </c>
       <c r="H51" s="12">
-        <f t="shared" si="68"/>
+        <f t="shared" si="33"/>
         <v>843</v>
       </c>
       <c r="I51" s="12">
-        <f t="shared" si="69"/>
+        <f t="shared" si="34"/>
         <v>1685</v>
       </c>
       <c r="J51" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="35"/>
         <v>3370</v>
       </c>
       <c r="K51" s="12">
-        <f t="shared" si="71"/>
+        <f t="shared" si="36"/>
         <v>5055</v>
       </c>
       <c r="L51" s="12">
-        <f t="shared" si="72"/>
+        <f t="shared" si="37"/>
         <v>5897</v>
       </c>
       <c r="M51" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="38"/>
         <v>11794</v>
       </c>
       <c r="N51" s="12">
-        <f t="shared" si="57"/>
+        <f t="shared" si="40"/>
         <v>16850</v>
       </c>
       <c r="O51" s="12">
@@ -7078,31 +7372,31 @@
         <v>313</v>
       </c>
       <c r="H52" s="12">
-        <f t="shared" ref="H52:H53" si="73">ROUNDUP((P52*$B$30/100),0)</f>
+        <f t="shared" si="33"/>
         <v>940</v>
       </c>
       <c r="I52" s="12">
-        <f t="shared" ref="I52:I53" si="74">ROUNDUP((P52*$B$31/100),0)</f>
+        <f t="shared" si="34"/>
         <v>1880</v>
       </c>
       <c r="J52" s="12">
-        <f t="shared" ref="J52:J53" si="75">ROUNDUP((P52*$B$32/100),0)</f>
+        <f t="shared" si="35"/>
         <v>3759</v>
       </c>
       <c r="K52" s="12">
-        <f t="shared" ref="K52:K53" si="76">ROUNDUP((P52*$B$33/100),0)</f>
+        <f t="shared" si="36"/>
         <v>5638</v>
       </c>
       <c r="L52" s="12">
-        <f t="shared" ref="L52:L53" si="77">ROUNDUP((P52*$B$34/100),0)</f>
+        <f t="shared" si="37"/>
         <v>6578</v>
       </c>
       <c r="M52" s="12">
-        <f t="shared" ref="M52:M53" si="78">L52*$B$43</f>
+        <f t="shared" si="38"/>
         <v>13156</v>
       </c>
       <c r="N52" s="12">
-        <f t="shared" si="57"/>
+        <f t="shared" si="40"/>
         <v>18795</v>
       </c>
       <c r="O52" s="12">
@@ -7118,34 +7412,34 @@
     </row>
     <row r="53" spans="7:32" ht="17.25" thickBot="1">
       <c r="G53" s="12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H53" s="12">
-        <f t="shared" si="73"/>
+        <f t="shared" si="33"/>
         <v>1042</v>
       </c>
       <c r="I53" s="12">
-        <f t="shared" si="74"/>
+        <f t="shared" si="34"/>
         <v>2084</v>
       </c>
       <c r="J53" s="12">
-        <f t="shared" si="75"/>
+        <f t="shared" si="35"/>
         <v>4167</v>
       </c>
       <c r="K53" s="12">
-        <f t="shared" si="76"/>
+        <f t="shared" si="36"/>
         <v>6250</v>
       </c>
       <c r="L53" s="12">
-        <f t="shared" si="77"/>
+        <f t="shared" si="37"/>
         <v>7292</v>
       </c>
       <c r="M53" s="12">
-        <f t="shared" si="78"/>
+        <f t="shared" si="38"/>
         <v>14584</v>
       </c>
       <c r="N53" s="12">
-        <f t="shared" ref="N53" si="79">SUM(H53:L53)</f>
+        <f t="shared" ref="N53" si="41">SUM(H53:L53)</f>
         <v>20835</v>
       </c>
       <c r="O53" s="12">
@@ -7182,34 +7476,34 @@
     </row>
     <row r="54" spans="7:32" ht="17.25" thickTop="1">
       <c r="G54" s="12" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H54" s="12">
-        <f t="shared" ref="H54:H55" si="80">ROUNDUP((P54*$B$30/100),0)</f>
+        <f t="shared" si="33"/>
         <v>1149</v>
       </c>
       <c r="I54" s="12">
-        <f t="shared" ref="I54:I55" si="81">ROUNDUP((P54*$B$31/100),0)</f>
+        <f t="shared" si="34"/>
         <v>2297</v>
       </c>
       <c r="J54" s="12">
-        <f t="shared" ref="J54:J55" si="82">ROUNDUP((P54*$B$32/100),0)</f>
+        <f t="shared" si="35"/>
         <v>4594</v>
       </c>
       <c r="K54" s="12">
-        <f t="shared" ref="K54:K55" si="83">ROUNDUP((P54*$B$33/100),0)</f>
+        <f t="shared" si="36"/>
         <v>6891</v>
       </c>
       <c r="L54" s="12">
-        <f t="shared" ref="L54:L55" si="84">ROUNDUP((P54*$B$34/100),0)</f>
+        <f t="shared" si="37"/>
         <v>8039</v>
       </c>
       <c r="M54" s="12">
-        <f t="shared" ref="M54:M55" si="85">L54*$B$43</f>
+        <f t="shared" si="38"/>
         <v>16078</v>
       </c>
       <c r="N54" s="12">
-        <f t="shared" ref="N54" si="86">SUM(H54:L54)</f>
+        <f t="shared" ref="N54" si="42">SUM(H54:L54)</f>
         <v>22970</v>
       </c>
       <c r="O54" s="12">
@@ -7226,23 +7520,23 @@
         <v>0.01</v>
       </c>
       <c r="AA54" s="12">
-        <f t="shared" ref="AA54:AA68" si="87">ROUNDUP(((Z34/$B$39)*$B$40)*((100+AF54)/100),0)/100</f>
+        <f t="shared" ref="AA54:AA68" si="43">ROUNDUP(((Z34/$B$39)*$B$40)*((100+AF54)/100),0)/100</f>
         <v>0.22</v>
       </c>
       <c r="AB54" s="12">
-        <f t="shared" ref="AB54:AB68" si="88">ROUNDUP(((AA34/$B$39)*$B$40)*((100+AF54)/100),0)/100</f>
+        <f t="shared" ref="AB54:AB68" si="44">ROUNDUP(((AA34/$B$39)*$B$40)*((100+AF54)/100),0)/100</f>
         <v>0.44</v>
       </c>
       <c r="AC54" s="12">
-        <f t="shared" ref="AC54:AC68" si="89">ROUNDUP(((AB34/$B$39)*$B$40)*((100+AF54)/100),0)/100</f>
+        <f t="shared" ref="AC54:AC68" si="45">ROUNDUP(((AB34/$B$39)*$B$40)*((100+AF54)/100),0)/100</f>
         <v>0.87</v>
       </c>
       <c r="AD54" s="12">
-        <f t="shared" ref="AD54:AD68" si="90">ROUNDUP(((AC34/$B$39)*$B$40)*((100+AF54)/100),0)/100</f>
+        <f t="shared" ref="AD54:AD68" si="46">ROUNDUP(((AC34/$B$39)*$B$40)*((100+AF54)/100),0)/100</f>
         <v>1.3</v>
       </c>
       <c r="AE54" s="12">
-        <f t="shared" ref="AE54:AE68" si="91">ROUNDUP(((AD34/$B$39)*$B$40)*((100+AF54)/100),0)/100</f>
+        <f t="shared" ref="AE54:AE68" si="47">ROUNDUP(((AD34/$B$39)*$B$40)*((100+AF54)/100),0)/100</f>
         <v>1.52</v>
       </c>
       <c r="AF54" s="2">
@@ -7251,34 +7545,34 @@
     </row>
     <row r="55" spans="7:32">
       <c r="G55" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H55" s="12">
-        <f t="shared" si="80"/>
+        <f t="shared" si="33"/>
         <v>1260</v>
       </c>
       <c r="I55" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="34"/>
         <v>2520</v>
       </c>
       <c r="J55" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="35"/>
         <v>5040</v>
       </c>
       <c r="K55" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="36"/>
         <v>7560</v>
       </c>
       <c r="L55" s="12">
-        <f t="shared" si="84"/>
+        <f t="shared" si="37"/>
         <v>8820</v>
       </c>
       <c r="M55" s="12">
-        <f t="shared" si="85"/>
+        <f t="shared" si="38"/>
         <v>17640</v>
       </c>
       <c r="N55" s="12">
-        <f t="shared" ref="N55" si="92">SUM(H55:L55)</f>
+        <f t="shared" ref="N55" si="48">SUM(H55:L55)</f>
         <v>25200</v>
       </c>
       <c r="O55" s="12">
@@ -7295,23 +7589,23 @@
         <v>0.02</v>
       </c>
       <c r="AA55" s="12">
-        <f t="shared" si="87"/>
+        <f t="shared" si="43"/>
         <v>0.24</v>
       </c>
       <c r="AB55" s="12">
-        <f t="shared" si="88"/>
+        <f t="shared" si="44"/>
         <v>0.47</v>
       </c>
       <c r="AC55" s="12">
-        <f t="shared" si="89"/>
+        <f t="shared" si="45"/>
         <v>0.93</v>
       </c>
       <c r="AD55" s="12">
-        <f t="shared" si="90"/>
+        <f t="shared" si="46"/>
         <v>1.4</v>
       </c>
       <c r="AE55" s="12">
-        <f t="shared" si="91"/>
+        <f t="shared" si="47"/>
         <v>1.63</v>
       </c>
       <c r="AF55" s="2">
@@ -7319,6 +7613,44 @@
       </c>
     </row>
     <row r="56" spans="7:32">
+      <c r="G56" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="H56" s="12">
+        <f t="shared" si="33"/>
+        <v>1377</v>
+      </c>
+      <c r="I56" s="12">
+        <f t="shared" si="34"/>
+        <v>2753</v>
+      </c>
+      <c r="J56" s="12">
+        <f t="shared" si="35"/>
+        <v>5506</v>
+      </c>
+      <c r="K56" s="12">
+        <f t="shared" si="36"/>
+        <v>8259</v>
+      </c>
+      <c r="L56" s="12">
+        <f t="shared" si="37"/>
+        <v>9635</v>
+      </c>
+      <c r="M56" s="12">
+        <f t="shared" si="38"/>
+        <v>19270</v>
+      </c>
+      <c r="N56" s="12">
+        <f t="shared" ref="N56" si="49">SUM(H56:L56)</f>
+        <v>27530</v>
+      </c>
+      <c r="O56" s="12">
+        <v>280</v>
+      </c>
+      <c r="P56" s="12">
+        <f>(H29*$B$9*$B$18)*(O56/100)+I29</f>
+        <v>27528</v>
+      </c>
       <c r="Y56" s="12" t="s">
         <v>200</v>
       </c>
@@ -7326,23 +7658,23 @@
         <v>0.03</v>
       </c>
       <c r="AA56" s="12">
-        <f t="shared" si="87"/>
+        <f t="shared" si="43"/>
         <v>0.25</v>
       </c>
       <c r="AB56" s="12">
-        <f t="shared" si="88"/>
+        <f t="shared" si="44"/>
         <v>0.5</v>
       </c>
       <c r="AC56" s="12">
-        <f t="shared" si="89"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="AD56" s="12">
-        <f t="shared" si="90"/>
+        <f t="shared" si="46"/>
         <v>1.5</v>
       </c>
       <c r="AE56" s="12">
-        <f t="shared" si="91"/>
+        <f t="shared" si="47"/>
         <v>1.75</v>
       </c>
       <c r="AF56" s="2">
@@ -7350,19 +7682,6 @@
       </c>
     </row>
     <row r="57" spans="7:32">
-      <c r="G57" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="O57" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="P57" s="38">
-        <f>SUM(P59:P69)+SUM(Q59:Q69)</f>
-        <v>22.09</v>
-      </c>
-      <c r="Q57" s="24" t="s">
-        <v>145</v>
-      </c>
       <c r="Y57" s="12" t="s">
         <v>201</v>
       </c>
@@ -7370,66 +7689,30 @@
         <v>0.04</v>
       </c>
       <c r="AA57" s="12">
-        <f t="shared" si="87"/>
+        <f t="shared" si="43"/>
         <v>0.27</v>
       </c>
       <c r="AB57" s="12">
-        <f t="shared" si="88"/>
+        <f t="shared" si="44"/>
         <v>0.54</v>
       </c>
       <c r="AC57" s="12">
-        <f t="shared" si="89"/>
+        <f t="shared" si="45"/>
         <v>1.07</v>
       </c>
       <c r="AD57" s="12">
-        <f t="shared" si="90"/>
+        <f t="shared" si="46"/>
         <v>1.6</v>
       </c>
       <c r="AE57" s="12">
-        <f t="shared" si="91"/>
+        <f t="shared" si="47"/>
         <v>1.87</v>
       </c>
       <c r="AF57" s="2">
         <v>180</v>
       </c>
     </row>
-    <row r="58" spans="7:32" ht="17.25" thickBot="1">
-      <c r="G58" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="H58" s="27">
-        <v>0</v>
-      </c>
-      <c r="I58" s="27">
-        <v>1</v>
-      </c>
-      <c r="J58" s="27">
-        <v>2</v>
-      </c>
-      <c r="K58" s="27">
-        <v>3</v>
-      </c>
-      <c r="L58" s="27">
-        <v>4</v>
-      </c>
-      <c r="M58" s="27">
-        <v>5</v>
-      </c>
-      <c r="N58" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="O58" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="P58" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q58" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="R58" s="27" t="s">
-        <v>95</v>
-      </c>
+    <row r="58" spans="7:32">
       <c r="Y58" s="12" t="s">
         <v>202</v>
       </c>
@@ -7437,75 +7720,30 @@
         <v>0.05</v>
       </c>
       <c r="AA58" s="12">
-        <f t="shared" si="87"/>
+        <f t="shared" si="43"/>
         <v>0.3</v>
       </c>
       <c r="AB58" s="12">
-        <f t="shared" si="88"/>
+        <f t="shared" si="44"/>
         <v>0.59</v>
       </c>
       <c r="AC58" s="12">
-        <f t="shared" si="89"/>
+        <f t="shared" si="45"/>
         <v>1.18</v>
       </c>
       <c r="AD58" s="12">
-        <f t="shared" si="90"/>
+        <f t="shared" si="46"/>
         <v>1.77</v>
       </c>
       <c r="AE58" s="12">
-        <f t="shared" si="91"/>
+        <f t="shared" si="47"/>
         <v>2.06</v>
       </c>
       <c r="AF58" s="2">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="7:32" ht="17.25" thickTop="1">
-      <c r="G59" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H59" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="I59" s="12">
-        <f t="shared" ref="I59:I68" si="93">ROUNDUP(((H34/$B$39)*$B$40)*((100+O59)/100),0)/100</f>
-        <v>0.02</v>
-      </c>
-      <c r="J59" s="12">
-        <f t="shared" ref="J59:J68" si="94">ROUNDUP(((I34/$B$39)*$B$40)*((100+O59)/100),0)/100</f>
-        <v>0.03</v>
-      </c>
-      <c r="K59" s="12">
-        <f t="shared" ref="K59:K68" si="95">ROUNDUP(((J34/$B$39)*$B$40)*((100+O59)/100),0)/100</f>
-        <v>0.06</v>
-      </c>
-      <c r="L59" s="12">
-        <f t="shared" ref="L59:L68" si="96">ROUNDUP(((K34/$B$39)*$B$40)*((100+O59)/100),0)/100</f>
-        <v>0.09</v>
-      </c>
-      <c r="M59" s="12">
-        <f t="shared" ref="M59:M68" si="97">ROUNDUP(((L34/$B$39)*$B$40)*((100+O59)/100),0)/100</f>
-        <v>0.1</v>
-      </c>
-      <c r="N59" s="12">
-        <f t="shared" ref="N59:N68" si="98">ROUNDUP(((M34/$B$39)*$B$40)*((100+O59)/100),0)/100</f>
-        <v>0.2</v>
-      </c>
-      <c r="O59" s="13">
-        <v>10</v>
-      </c>
-      <c r="P59" s="13">
-        <f t="shared" ref="P59:P70" si="99">SUM(H59:M59)</f>
-        <v>0.31</v>
-      </c>
-      <c r="Q59" s="12">
-        <f>N59</f>
-        <v>0.2</v>
-      </c>
-      <c r="R59" s="13">
-        <f t="shared" ref="R59:R75" si="100">((P59+Q59)/$P$57)*100</f>
-        <v>2.3087369850611137</v>
-      </c>
+    <row r="59" spans="7:32">
       <c r="Y59" s="12" t="s">
         <v>203</v>
       </c>
@@ -7513,23 +7751,23 @@
         <v>0.06</v>
       </c>
       <c r="AA59" s="12">
-        <f t="shared" si="87"/>
+        <f t="shared" si="43"/>
         <v>0.33</v>
       </c>
       <c r="AB59" s="12">
-        <f t="shared" si="88"/>
+        <f t="shared" si="44"/>
         <v>0.65</v>
       </c>
       <c r="AC59" s="12">
-        <f t="shared" si="89"/>
+        <f t="shared" si="45"/>
         <v>1.3</v>
       </c>
       <c r="AD59" s="12">
-        <f t="shared" si="90"/>
+        <f t="shared" si="46"/>
         <v>1.94</v>
       </c>
       <c r="AE59" s="12">
-        <f t="shared" si="91"/>
+        <f t="shared" si="47"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="AF59" s="2">
@@ -7537,51 +7775,6 @@
       </c>
     </row>
     <row r="60" spans="7:32">
-      <c r="G60" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H60" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="I60" s="12">
-        <f t="shared" si="93"/>
-        <v>0.02</v>
-      </c>
-      <c r="J60" s="12">
-        <f t="shared" si="94"/>
-        <v>0.04</v>
-      </c>
-      <c r="K60" s="12">
-        <f t="shared" si="95"/>
-        <v>0.08</v>
-      </c>
-      <c r="L60" s="12">
-        <f t="shared" si="96"/>
-        <v>0.12</v>
-      </c>
-      <c r="M60" s="12">
-        <f t="shared" si="97"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="N60" s="12">
-        <f t="shared" si="98"/>
-        <v>0.27</v>
-      </c>
-      <c r="O60" s="13">
-        <v>20</v>
-      </c>
-      <c r="P60" s="13">
-        <f t="shared" si="99"/>
-        <v>0.41000000000000003</v>
-      </c>
-      <c r="Q60" s="12">
-        <f t="shared" ref="Q60:Q70" si="101">N60</f>
-        <v>0.27</v>
-      </c>
-      <c r="R60" s="13">
-        <f t="shared" si="100"/>
-        <v>3.0783159800814848</v>
-      </c>
       <c r="Y60" s="12" t="s">
         <v>204</v>
       </c>
@@ -7589,23 +7782,23 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AA60" s="12">
-        <f t="shared" si="87"/>
+        <f t="shared" si="43"/>
         <v>0.36</v>
       </c>
       <c r="AB60" s="12">
-        <f t="shared" si="88"/>
+        <f t="shared" si="44"/>
         <v>0.71</v>
       </c>
       <c r="AC60" s="12">
-        <f t="shared" si="89"/>
+        <f t="shared" si="45"/>
         <v>1.42</v>
       </c>
       <c r="AD60" s="12">
-        <f t="shared" si="90"/>
+        <f t="shared" si="46"/>
         <v>2.12</v>
       </c>
       <c r="AE60" s="12">
-        <f t="shared" si="91"/>
+        <f t="shared" si="47"/>
         <v>2.4700000000000002</v>
       </c>
       <c r="AF60" s="2">
@@ -7613,51 +7806,6 @@
       </c>
     </row>
     <row r="61" spans="7:32">
-      <c r="G61" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H61" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="I61" s="12">
-        <f t="shared" si="93"/>
-        <v>0.03</v>
-      </c>
-      <c r="J61" s="12">
-        <f t="shared" si="94"/>
-        <v>0.05</v>
-      </c>
-      <c r="K61" s="12">
-        <f t="shared" si="95"/>
-        <v>0.1</v>
-      </c>
-      <c r="L61" s="12">
-        <f t="shared" si="96"/>
-        <v>0.15</v>
-      </c>
-      <c r="M61" s="12">
-        <f t="shared" si="97"/>
-        <v>0.18</v>
-      </c>
-      <c r="N61" s="12">
-        <f t="shared" si="98"/>
-        <v>0.35</v>
-      </c>
-      <c r="O61" s="13">
-        <v>30</v>
-      </c>
-      <c r="P61" s="13">
-        <f t="shared" si="99"/>
-        <v>0.53</v>
-      </c>
-      <c r="Q61" s="12">
-        <f t="shared" si="101"/>
-        <v>0.35</v>
-      </c>
-      <c r="R61" s="13">
-        <f t="shared" si="100"/>
-        <v>3.9837030330466274</v>
-      </c>
       <c r="Y61" s="12" t="s">
         <v>205</v>
       </c>
@@ -7665,23 +7813,23 @@
         <v>0.08</v>
       </c>
       <c r="AA61" s="12">
-        <f t="shared" si="87"/>
+        <f t="shared" si="43"/>
         <v>0.4</v>
       </c>
       <c r="AB61" s="12">
-        <f t="shared" si="88"/>
+        <f t="shared" si="44"/>
         <v>0.79</v>
       </c>
       <c r="AC61" s="12">
-        <f t="shared" si="89"/>
+        <f t="shared" si="45"/>
         <v>1.58</v>
       </c>
       <c r="AD61" s="12">
-        <f t="shared" si="90"/>
+        <f t="shared" si="46"/>
         <v>2.37</v>
       </c>
       <c r="AE61" s="12">
-        <f t="shared" si="91"/>
+        <f t="shared" si="47"/>
         <v>2.76</v>
       </c>
       <c r="AF61" s="2">
@@ -7689,51 +7837,6 @@
       </c>
     </row>
     <row r="62" spans="7:32">
-      <c r="G62" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="H62" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="I62" s="12">
-        <f t="shared" si="93"/>
-        <v>0.04</v>
-      </c>
-      <c r="J62" s="12">
-        <f t="shared" si="94"/>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="K62" s="12">
-        <f t="shared" si="95"/>
-        <v>0.13</v>
-      </c>
-      <c r="L62" s="12">
-        <f t="shared" si="96"/>
-        <v>0.19</v>
-      </c>
-      <c r="M62" s="12">
-        <f t="shared" si="97"/>
-        <v>0.22</v>
-      </c>
-      <c r="N62" s="12">
-        <f t="shared" si="98"/>
-        <v>0.44</v>
-      </c>
-      <c r="O62" s="13">
-        <v>40</v>
-      </c>
-      <c r="P62" s="13">
-        <f t="shared" si="99"/>
-        <v>0.67</v>
-      </c>
-      <c r="Q62" s="12">
-        <f t="shared" si="101"/>
-        <v>0.44</v>
-      </c>
-      <c r="R62" s="13">
-        <f t="shared" si="100"/>
-        <v>5.0248981439565421</v>
-      </c>
       <c r="Y62" s="12" t="s">
         <v>206</v>
       </c>
@@ -7741,23 +7844,23 @@
         <v>0.09</v>
       </c>
       <c r="AA62" s="12">
-        <f t="shared" si="87"/>
+        <f t="shared" si="43"/>
         <v>0.57999999999999996</v>
       </c>
       <c r="AB62" s="12">
-        <f t="shared" si="88"/>
+        <f t="shared" si="44"/>
         <v>1.1599999999999999</v>
       </c>
       <c r="AC62" s="12">
-        <f t="shared" si="89"/>
+        <f t="shared" si="45"/>
         <v>2.31</v>
       </c>
       <c r="AD62" s="12">
-        <f t="shared" si="90"/>
+        <f t="shared" si="46"/>
         <v>3.46</v>
       </c>
       <c r="AE62" s="12">
-        <f t="shared" si="91"/>
+        <f t="shared" si="47"/>
         <v>4.04</v>
       </c>
       <c r="AF62" s="2">
@@ -7766,49 +7869,17 @@
     </row>
     <row r="63" spans="7:32">
       <c r="G63" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H63" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="I63" s="12">
-        <f t="shared" si="93"/>
-        <v>0.04</v>
-      </c>
-      <c r="J63" s="12">
-        <f t="shared" si="94"/>
-        <v>0.08</v>
-      </c>
-      <c r="K63" s="12">
-        <f t="shared" si="95"/>
-        <v>0.16</v>
-      </c>
-      <c r="L63" s="12">
-        <f t="shared" si="96"/>
-        <v>0.24</v>
-      </c>
-      <c r="M63" s="12">
-        <f t="shared" si="97"/>
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="N63" s="12">
-        <f t="shared" si="98"/>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="O63" s="13">
-        <v>50</v>
-      </c>
-      <c r="P63" s="13">
-        <f t="shared" si="99"/>
-        <v>0.83000000000000007</v>
-      </c>
-      <c r="Q63" s="12">
-        <f t="shared" si="101"/>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="R63" s="13">
-        <f t="shared" si="100"/>
-        <v>6.2471706654594845</v>
+        <v>143</v>
+      </c>
+      <c r="O63" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="P63" s="38">
+        <f>SUM(P65:P75)+SUM(Q65:Q75)</f>
+        <v>22.09</v>
+      </c>
+      <c r="Q63" s="24" t="s">
+        <v>145</v>
       </c>
       <c r="Y63" s="12" t="s">
         <v>207</v>
@@ -7817,74 +7888,65 @@
         <v>0.1</v>
       </c>
       <c r="AA63" s="12">
-        <f t="shared" si="87"/>
+        <f t="shared" si="43"/>
         <v>0.65</v>
       </c>
       <c r="AB63" s="12">
-        <f t="shared" si="88"/>
+        <f t="shared" si="44"/>
         <v>1.29</v>
       </c>
       <c r="AC63" s="12">
-        <f t="shared" si="89"/>
+        <f t="shared" si="45"/>
         <v>2.58</v>
       </c>
       <c r="AD63" s="12">
-        <f t="shared" si="90"/>
+        <f t="shared" si="46"/>
         <v>3.87</v>
       </c>
       <c r="AE63" s="12">
-        <f t="shared" si="91"/>
+        <f t="shared" si="47"/>
         <v>4.51</v>
       </c>
       <c r="AF63" s="2">
         <v>330</v>
       </c>
     </row>
-    <row r="64" spans="7:32">
-      <c r="G64" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H64" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="I64" s="12">
-        <f t="shared" si="93"/>
-        <v>0.05</v>
-      </c>
-      <c r="J64" s="12">
-        <f t="shared" si="94"/>
-        <v>0.1</v>
-      </c>
-      <c r="K64" s="12">
-        <f t="shared" si="95"/>
-        <v>0.2</v>
-      </c>
-      <c r="L64" s="12">
-        <f t="shared" si="96"/>
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="M64" s="12">
-        <f t="shared" si="97"/>
-        <v>0.34</v>
-      </c>
-      <c r="N64" s="12">
-        <f t="shared" si="98"/>
-        <v>0.68</v>
-      </c>
-      <c r="O64" s="13">
-        <v>60</v>
-      </c>
-      <c r="P64" s="13">
-        <f t="shared" si="99"/>
-        <v>1.01</v>
-      </c>
-      <c r="Q64" s="12">
-        <f t="shared" si="101"/>
-        <v>0.68</v>
-      </c>
-      <c r="R64" s="13">
-        <f t="shared" si="100"/>
-        <v>7.6505205975554542</v>
+    <row r="64" spans="7:32" ht="17.25" thickBot="1">
+      <c r="G64" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="H64" s="27">
+        <v>0</v>
+      </c>
+      <c r="I64" s="27">
+        <v>1</v>
+      </c>
+      <c r="J64" s="27">
+        <v>2</v>
+      </c>
+      <c r="K64" s="27">
+        <v>3</v>
+      </c>
+      <c r="L64" s="27">
+        <v>4</v>
+      </c>
+      <c r="M64" s="27">
+        <v>5</v>
+      </c>
+      <c r="N64" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="O64" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="P64" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q64" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="R64" s="27" t="s">
+        <v>95</v>
       </c>
       <c r="Y64" s="12" t="s">
         <v>208</v>
@@ -7893,74 +7955,74 @@
         <v>0.11</v>
       </c>
       <c r="AA64" s="12">
-        <f t="shared" si="87"/>
+        <f t="shared" si="43"/>
         <v>0.72</v>
       </c>
       <c r="AB64" s="12">
-        <f t="shared" si="88"/>
+        <f t="shared" si="44"/>
         <v>1.44</v>
       </c>
       <c r="AC64" s="12">
-        <f t="shared" si="89"/>
+        <f t="shared" si="45"/>
         <v>2.87</v>
       </c>
       <c r="AD64" s="12">
-        <f t="shared" si="90"/>
+        <f t="shared" si="46"/>
         <v>4.3</v>
       </c>
       <c r="AE64" s="12">
-        <f t="shared" si="91"/>
+        <f t="shared" si="47"/>
         <v>5.01</v>
       </c>
       <c r="AF64" s="2">
         <v>360</v>
       </c>
     </row>
-    <row r="65" spans="7:32">
+    <row r="65" spans="7:32" ht="17.25" thickTop="1">
       <c r="G65" s="12" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H65" s="12">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="I65" s="12">
-        <f t="shared" si="93"/>
+        <f t="shared" ref="I65:I74" si="50">ROUNDUP(((H34/$B$39)*$B$40)*((100+O65)/100),0)/100</f>
+        <v>0.02</v>
+      </c>
+      <c r="J65" s="12">
+        <f t="shared" ref="J65:J74" si="51">ROUNDUP(((I34/$B$39)*$B$40)*((100+O65)/100),0)/100</f>
+        <v>0.03</v>
+      </c>
+      <c r="K65" s="12">
+        <f t="shared" ref="K65:K74" si="52">ROUNDUP(((J34/$B$39)*$B$40)*((100+O65)/100),0)/100</f>
         <v>0.06</v>
       </c>
-      <c r="J65" s="12">
-        <f t="shared" si="94"/>
-        <v>0.12</v>
-      </c>
-      <c r="K65" s="12">
-        <f t="shared" si="95"/>
-        <v>0.24</v>
-      </c>
       <c r="L65" s="12">
-        <f t="shared" si="96"/>
-        <v>0.35</v>
+        <f t="shared" ref="L65:L74" si="53">ROUNDUP(((K34/$B$39)*$B$40)*((100+O65)/100),0)/100</f>
+        <v>0.09</v>
       </c>
       <c r="M65" s="12">
-        <f t="shared" si="97"/>
-        <v>0.41</v>
+        <f t="shared" ref="M65:M74" si="54">ROUNDUP(((L34/$B$39)*$B$40)*((100+O65)/100),0)/100</f>
+        <v>0.1</v>
       </c>
       <c r="N65" s="12">
-        <f t="shared" si="98"/>
-        <v>0.82</v>
+        <f t="shared" ref="N65:N74" si="55">ROUNDUP(((M34/$B$39)*$B$40)*((100+O65)/100),0)/100</f>
+        <v>0.2</v>
       </c>
       <c r="O65" s="13">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="P65" s="13">
-        <f t="shared" si="99"/>
-        <v>1.22</v>
+        <f t="shared" ref="P65:P77" si="56">SUM(H65:M65)</f>
+        <v>0.31</v>
       </c>
       <c r="Q65" s="12">
-        <f t="shared" si="101"/>
-        <v>0.82</v>
+        <f>N65</f>
+        <v>0.2</v>
       </c>
       <c r="R65" s="13">
-        <f t="shared" si="100"/>
-        <v>9.2349479402444548</v>
+        <f t="shared" ref="R65:R85" si="57">((P65+Q65)/$P$63)*100</f>
+        <v>2.3087369850611137</v>
       </c>
       <c r="Y65" s="12" t="s">
         <v>209</v>
@@ -7969,23 +8031,23 @@
         <v>0.12</v>
       </c>
       <c r="AA65" s="12">
-        <f t="shared" si="87"/>
+        <f t="shared" si="43"/>
         <v>0.59</v>
       </c>
       <c r="AB65" s="12">
-        <f t="shared" si="88"/>
+        <f t="shared" si="44"/>
         <v>1.17</v>
       </c>
       <c r="AC65" s="12">
-        <f t="shared" si="89"/>
+        <f t="shared" si="45"/>
         <v>2.33</v>
       </c>
       <c r="AD65" s="12">
-        <f t="shared" si="90"/>
+        <f t="shared" si="46"/>
         <v>3.49</v>
       </c>
       <c r="AE65" s="12">
-        <f t="shared" si="91"/>
+        <f t="shared" si="47"/>
         <v>4.07</v>
       </c>
       <c r="AF65" s="2">
@@ -7994,49 +8056,49 @@
     </row>
     <row r="66" spans="7:32">
       <c r="G66" s="12" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H66" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="I66" s="12">
+        <f t="shared" si="50"/>
+        <v>0.02</v>
+      </c>
+      <c r="J66" s="12">
+        <f t="shared" si="51"/>
         <v>0.04</v>
       </c>
-      <c r="I66" s="12">
-        <f t="shared" si="93"/>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="J66" s="12">
-        <f t="shared" si="94"/>
+      <c r="K66" s="12">
+        <f t="shared" si="52"/>
+        <v>0.08</v>
+      </c>
+      <c r="L66" s="12">
+        <f t="shared" si="53"/>
+        <v>0.12</v>
+      </c>
+      <c r="M66" s="12">
+        <f t="shared" si="54"/>
         <v>0.14000000000000001</v>
       </c>
-      <c r="K66" s="12">
-        <f t="shared" si="95"/>
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="L66" s="12">
-        <f t="shared" si="96"/>
-        <v>0.42</v>
-      </c>
-      <c r="M66" s="12">
-        <f t="shared" si="97"/>
-        <v>0.49</v>
-      </c>
       <c r="N66" s="12">
-        <f t="shared" si="98"/>
-        <v>0.98</v>
+        <f t="shared" si="55"/>
+        <v>0.27</v>
       </c>
       <c r="O66" s="13">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="P66" s="13">
-        <f t="shared" si="99"/>
-        <v>1.44</v>
+        <f t="shared" si="56"/>
+        <v>0.41000000000000003</v>
       </c>
       <c r="Q66" s="12">
-        <f t="shared" si="101"/>
-        <v>0.98</v>
+        <f t="shared" ref="Q66:Q85" si="58">N66</f>
+        <v>0.27</v>
       </c>
       <c r="R66" s="13">
-        <f t="shared" si="100"/>
-        <v>10.955183340878225</v>
+        <f t="shared" si="57"/>
+        <v>3.0783159800814848</v>
       </c>
       <c r="Y66" s="12" t="s">
         <v>210</v>
@@ -8045,23 +8107,23 @@
         <v>0.13</v>
       </c>
       <c r="AA66" s="12">
-        <f t="shared" si="87"/>
+        <f t="shared" si="43"/>
         <v>0.62</v>
       </c>
       <c r="AB66" s="12">
-        <f t="shared" si="88"/>
+        <f t="shared" si="44"/>
         <v>1.24</v>
       </c>
       <c r="AC66" s="12">
-        <f t="shared" si="89"/>
+        <f t="shared" si="45"/>
         <v>2.48</v>
       </c>
       <c r="AD66" s="12">
-        <f t="shared" si="90"/>
+        <f t="shared" si="46"/>
         <v>3.71</v>
       </c>
       <c r="AE66" s="12">
-        <f t="shared" si="91"/>
+        <f t="shared" si="47"/>
         <v>4.33</v>
       </c>
       <c r="AF66" s="2">
@@ -8070,49 +8132,49 @@
     </row>
     <row r="67" spans="7:32">
       <c r="G67" s="12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H67" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="I67" s="12">
+        <f t="shared" si="50"/>
+        <v>0.03</v>
+      </c>
+      <c r="J67" s="12">
+        <f t="shared" si="51"/>
         <v>0.05</v>
       </c>
-      <c r="I67" s="12">
-        <f t="shared" si="93"/>
-        <v>0.09</v>
-      </c>
-      <c r="J67" s="12">
-        <f t="shared" si="94"/>
-        <v>0.17</v>
-      </c>
       <c r="K67" s="12">
-        <f t="shared" si="95"/>
-        <v>0.34</v>
+        <f t="shared" si="52"/>
+        <v>0.1</v>
       </c>
       <c r="L67" s="12">
-        <f t="shared" si="96"/>
-        <v>0.5</v>
+        <f t="shared" si="53"/>
+        <v>0.15</v>
       </c>
       <c r="M67" s="12">
-        <f t="shared" si="97"/>
-        <v>0.59</v>
+        <f t="shared" si="54"/>
+        <v>0.18</v>
       </c>
       <c r="N67" s="12">
-        <f t="shared" si="98"/>
-        <v>1.17</v>
+        <f t="shared" si="55"/>
+        <v>0.35</v>
       </c>
       <c r="O67" s="13">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="P67" s="13">
-        <f t="shared" si="99"/>
-        <v>1.7400000000000002</v>
+        <f t="shared" si="56"/>
+        <v>0.53</v>
       </c>
       <c r="Q67" s="12">
-        <f t="shared" si="101"/>
-        <v>1.17</v>
+        <f t="shared" si="58"/>
+        <v>0.35</v>
       </c>
       <c r="R67" s="13">
-        <f t="shared" si="100"/>
-        <v>13.173381620642827</v>
+        <f t="shared" si="57"/>
+        <v>3.9837030330466274</v>
       </c>
       <c r="Y67" s="12" t="s">
         <v>211</v>
@@ -8121,23 +8183,23 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="AA67" s="12">
-        <f t="shared" si="87"/>
+        <f t="shared" si="43"/>
         <v>0.66</v>
       </c>
       <c r="AB67" s="12">
-        <f t="shared" si="88"/>
+        <f t="shared" si="44"/>
         <v>1.32</v>
       </c>
       <c r="AC67" s="12">
-        <f t="shared" si="89"/>
+        <f t="shared" si="45"/>
         <v>2.63</v>
       </c>
       <c r="AD67" s="12">
-        <f t="shared" si="90"/>
+        <f t="shared" si="46"/>
         <v>3.94</v>
       </c>
       <c r="AE67" s="12">
-        <f t="shared" si="91"/>
+        <f t="shared" si="47"/>
         <v>4.5999999999999996</v>
       </c>
       <c r="AF67" s="2">
@@ -8146,49 +8208,49 @@
     </row>
     <row r="68" spans="7:32">
       <c r="G68" s="12" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="H68" s="12">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I68" s="12">
-        <f t="shared" si="93"/>
-        <v>0.1</v>
+        <f t="shared" si="50"/>
+        <v>0.04</v>
       </c>
       <c r="J68" s="12">
-        <f t="shared" si="94"/>
-        <v>0.2</v>
+        <f t="shared" si="51"/>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K68" s="12">
-        <f t="shared" si="95"/>
-        <v>0.4</v>
+        <f t="shared" si="52"/>
+        <v>0.13</v>
       </c>
       <c r="L68" s="12">
-        <f t="shared" si="96"/>
-        <v>0.59</v>
+        <f t="shared" si="53"/>
+        <v>0.19</v>
       </c>
       <c r="M68" s="12">
-        <f t="shared" si="97"/>
-        <v>0.69</v>
+        <f t="shared" si="54"/>
+        <v>0.22</v>
       </c>
       <c r="N68" s="12">
-        <f t="shared" si="98"/>
-        <v>1.38</v>
+        <f t="shared" si="55"/>
+        <v>0.44</v>
       </c>
       <c r="O68" s="13">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="P68" s="13">
-        <f t="shared" si="99"/>
-        <v>2.0299999999999998</v>
+        <f t="shared" si="56"/>
+        <v>0.67</v>
       </c>
       <c r="Q68" s="12">
-        <f t="shared" si="101"/>
-        <v>1.38</v>
+        <f t="shared" si="58"/>
+        <v>0.44</v>
       </c>
       <c r="R68" s="13">
-        <f t="shared" si="100"/>
-        <v>15.436849253055678</v>
+        <f t="shared" si="57"/>
+        <v>5.0248981439565421</v>
       </c>
       <c r="Y68" s="12" t="s">
         <v>212</v>
@@ -8197,23 +8259,23 @@
         <v>0.15</v>
       </c>
       <c r="AA68" s="12">
-        <f t="shared" si="87"/>
+        <f t="shared" si="43"/>
         <v>0.7</v>
       </c>
       <c r="AB68" s="12">
-        <f t="shared" si="88"/>
+        <f t="shared" si="44"/>
         <v>1.4</v>
       </c>
       <c r="AC68" s="12">
-        <f t="shared" si="89"/>
+        <f t="shared" si="45"/>
         <v>2.79</v>
       </c>
       <c r="AD68" s="12">
-        <f t="shared" si="90"/>
+        <f t="shared" si="46"/>
         <v>4.18</v>
       </c>
       <c r="AE68" s="12">
-        <f t="shared" si="91"/>
+        <f t="shared" si="47"/>
         <v>4.88</v>
       </c>
       <c r="AF68" s="2">
@@ -8222,1638 +8284,2041 @@
     </row>
     <row r="69" spans="7:32">
       <c r="G69" s="12" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="H69" s="12">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="I69" s="12">
-        <f t="shared" ref="I69:I74" si="102">ROUNDUP(((H46/$B$39)*$B$40)*((100+O69)/100),0)/100</f>
-        <v>0.15</v>
+        <f t="shared" si="50"/>
+        <v>0.04</v>
       </c>
       <c r="J69" s="12">
-        <f t="shared" ref="J69:J74" si="103">ROUNDUP(((I46/$B$39)*$B$40)*((100+O69)/100),0)/100</f>
-        <v>0.3</v>
+        <f t="shared" si="51"/>
+        <v>0.08</v>
       </c>
       <c r="K69" s="12">
-        <f t="shared" ref="K69:K74" si="104">ROUNDUP(((J46/$B$39)*$B$40)*((100+O69)/100),0)/100</f>
-        <v>0.59</v>
+        <f t="shared" si="52"/>
+        <v>0.16</v>
       </c>
       <c r="L69" s="12">
-        <f t="shared" ref="L69:L74" si="105">ROUNDUP(((K46/$B$39)*$B$40)*((100+O69)/100),0)/100</f>
-        <v>0.88</v>
+        <f t="shared" si="53"/>
+        <v>0.24</v>
       </c>
       <c r="M69" s="12">
-        <f t="shared" ref="M69:M74" si="106">ROUNDUP(((L46/$B$39)*$B$40)*((100+O69)/100),0)/100</f>
-        <v>1.03</v>
+        <f t="shared" si="54"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="N69" s="12">
-        <f t="shared" ref="N69:N74" si="107">ROUNDUP(((M46/$B$39)*$B$40)*((100+O69)/100),0)/100</f>
-        <v>2.0499999999999998</v>
+        <f t="shared" si="55"/>
+        <v>0.55000000000000004</v>
       </c>
       <c r="O69" s="13">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="P69" s="13">
-        <f t="shared" si="99"/>
-        <v>3.01</v>
+        <f t="shared" si="56"/>
+        <v>0.83000000000000007</v>
       </c>
       <c r="Q69" s="12">
-        <f t="shared" si="101"/>
-        <v>2.0499999999999998</v>
+        <f t="shared" si="58"/>
+        <v>0.55000000000000004</v>
       </c>
       <c r="R69" s="13">
-        <f t="shared" si="100"/>
-        <v>22.906292440018106</v>
+        <f t="shared" si="57"/>
+        <v>6.2471706654594845</v>
       </c>
     </row>
     <row r="70" spans="7:32">
       <c r="G70" s="12" t="s">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="H70" s="12">
+        <v>0.03</v>
+      </c>
+      <c r="I70" s="12">
+        <f t="shared" si="50"/>
+        <v>0.05</v>
+      </c>
+      <c r="J70" s="12">
+        <f t="shared" si="51"/>
+        <v>0.1</v>
+      </c>
+      <c r="K70" s="12">
+        <f t="shared" si="52"/>
+        <v>0.2</v>
+      </c>
+      <c r="L70" s="12">
+        <f t="shared" si="53"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="M70" s="12">
+        <f t="shared" si="54"/>
+        <v>0.34</v>
+      </c>
+      <c r="N70" s="12">
+        <f t="shared" si="55"/>
+        <v>0.68</v>
+      </c>
+      <c r="O70" s="13">
+        <v>60</v>
+      </c>
+      <c r="P70" s="13">
+        <f t="shared" si="56"/>
+        <v>1.01</v>
+      </c>
+      <c r="Q70" s="12">
+        <f t="shared" si="58"/>
+        <v>0.68</v>
+      </c>
+      <c r="R70" s="13">
+        <f t="shared" si="57"/>
+        <v>7.6505205975554542</v>
+      </c>
+    </row>
+    <row r="71" spans="7:32">
+      <c r="G71" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H71" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="I71" s="12">
+        <f t="shared" si="50"/>
         <v>0.06</v>
       </c>
-      <c r="I70" s="12">
-        <f t="shared" si="102"/>
-        <v>0.17</v>
-      </c>
-      <c r="J70" s="12">
-        <f t="shared" si="103"/>
-        <v>0.33</v>
-      </c>
-      <c r="K70" s="12">
-        <f t="shared" si="104"/>
-        <v>0.65</v>
-      </c>
-      <c r="L70" s="12">
-        <f t="shared" si="105"/>
-        <v>0.97</v>
-      </c>
-      <c r="M70" s="12">
-        <f t="shared" si="106"/>
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="N70" s="12">
-        <f t="shared" si="107"/>
-        <v>2.25</v>
-      </c>
-      <c r="O70" s="13">
-        <v>120</v>
-      </c>
-      <c r="P70" s="13">
-        <f t="shared" si="99"/>
-        <v>3.3099999999999996</v>
-      </c>
-      <c r="Q70" s="12">
-        <f t="shared" si="101"/>
-        <v>2.25</v>
-      </c>
-      <c r="R70" s="13">
-        <f t="shared" si="100"/>
-        <v>25.169760072430964</v>
-      </c>
-      <c r="Y70" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="Z70" s="12"/>
-      <c r="AA70" s="12"/>
-      <c r="AB70" s="12"/>
-      <c r="AC70" s="12"/>
-      <c r="AD70" s="12"/>
-      <c r="AE70" s="12"/>
-    </row>
-    <row r="71" spans="7:32" ht="17.25" thickBot="1">
-      <c r="G71" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="H71" s="12">
+      <c r="J71" s="12">
+        <f t="shared" si="51"/>
+        <v>0.12</v>
+      </c>
+      <c r="K71" s="12">
+        <f t="shared" si="52"/>
+        <v>0.24</v>
+      </c>
+      <c r="L71" s="12">
+        <f t="shared" si="53"/>
+        <v>0.35</v>
+      </c>
+      <c r="M71" s="12">
+        <f t="shared" si="54"/>
+        <v>0.41</v>
+      </c>
+      <c r="N71" s="12">
+        <f t="shared" si="55"/>
+        <v>0.82</v>
+      </c>
+      <c r="O71" s="13">
+        <v>70</v>
+      </c>
+      <c r="P71" s="13">
+        <f t="shared" si="56"/>
+        <v>1.22</v>
+      </c>
+      <c r="Q71" s="12">
+        <f t="shared" si="58"/>
+        <v>0.82</v>
+      </c>
+      <c r="R71" s="13">
+        <f t="shared" si="57"/>
+        <v>9.2349479402444548</v>
+      </c>
+    </row>
+    <row r="72" spans="7:32">
+      <c r="G72" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H72" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="I72" s="12">
+        <f t="shared" si="50"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I71" s="12">
-        <f t="shared" si="102"/>
-        <v>0.18</v>
-      </c>
-      <c r="J71" s="12">
-        <f t="shared" si="103"/>
-        <v>0.36</v>
-      </c>
-      <c r="K71" s="12">
-        <f t="shared" si="104"/>
-        <v>0.71</v>
-      </c>
-      <c r="L71" s="12">
-        <f t="shared" si="105"/>
-        <v>1.06</v>
-      </c>
-      <c r="M71" s="12">
-        <f t="shared" si="106"/>
-        <v>1.23</v>
-      </c>
-      <c r="N71" s="12">
-        <f t="shared" si="107"/>
-        <v>2.46</v>
-      </c>
-      <c r="O71" s="13">
-        <v>130</v>
-      </c>
-      <c r="P71" s="13">
-        <f t="shared" ref="P71" si="108">SUM(H71:M71)</f>
-        <v>3.61</v>
-      </c>
-      <c r="Q71" s="12">
-        <f t="shared" ref="Q71" si="109">N71</f>
-        <v>2.46</v>
-      </c>
-      <c r="R71" s="13">
-        <f t="shared" si="100"/>
-        <v>27.478497057492078</v>
-      </c>
-      <c r="Y71" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z71" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA71" s="27">
-        <v>1</v>
-      </c>
-      <c r="AB71" s="27">
-        <v>2</v>
-      </c>
-      <c r="AC71" s="27">
-        <v>3</v>
-      </c>
-      <c r="AD71" s="27">
-        <v>4</v>
-      </c>
-      <c r="AE71" s="27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" spans="7:32" ht="17.25" thickTop="1">
-      <c r="G72" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="H72" s="12">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="I72" s="12">
-        <f t="shared" si="102"/>
-        <v>0.2</v>
-      </c>
       <c r="J72" s="12">
-        <f t="shared" si="103"/>
-        <v>0.4</v>
+        <f t="shared" si="51"/>
+        <v>0.14000000000000001</v>
       </c>
       <c r="K72" s="12">
-        <f t="shared" si="104"/>
-        <v>0.8</v>
+        <f t="shared" si="52"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="L72" s="12">
-        <f t="shared" si="105"/>
-        <v>1.2</v>
+        <f t="shared" si="53"/>
+        <v>0.42</v>
       </c>
       <c r="M72" s="12">
-        <f t="shared" si="106"/>
-        <v>1.4</v>
+        <f t="shared" si="54"/>
+        <v>0.49</v>
       </c>
       <c r="N72" s="12">
-        <f t="shared" si="107"/>
-        <v>2.79</v>
+        <f t="shared" si="55"/>
+        <v>0.98</v>
       </c>
       <c r="O72" s="13">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="P72" s="13">
-        <f t="shared" ref="P72" si="110">SUM(H72:M72)</f>
-        <v>4.07</v>
+        <f t="shared" si="56"/>
+        <v>1.44</v>
       </c>
       <c r="Q72" s="12">
-        <f t="shared" ref="Q72" si="111">N72</f>
-        <v>2.79</v>
+        <f t="shared" si="58"/>
+        <v>0.98</v>
       </c>
       <c r="R72" s="13">
-        <f t="shared" si="100"/>
-        <v>31.05477591670439</v>
-      </c>
-      <c r="Y72" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="Z72" s="12">
-        <f t="shared" ref="Z72:Z78" si="112">Z54</f>
-        <v>0.01</v>
-      </c>
-      <c r="AA72" s="12">
-        <f t="shared" ref="AA72:AE78" si="113">Z72+AA54</f>
-        <v>0.23</v>
-      </c>
-      <c r="AB72" s="12">
-        <f t="shared" si="113"/>
-        <v>0.67</v>
-      </c>
-      <c r="AC72" s="12">
-        <f t="shared" si="113"/>
-        <v>1.54</v>
-      </c>
-      <c r="AD72" s="12">
-        <f t="shared" si="113"/>
-        <v>2.84</v>
-      </c>
-      <c r="AE72" s="12">
-        <f t="shared" si="113"/>
-        <v>4.3599999999999994</v>
+        <f t="shared" si="57"/>
+        <v>10.955183340878225</v>
       </c>
     </row>
     <row r="73" spans="7:32">
       <c r="G73" s="12" t="s">
-        <v>195</v>
+        <v>24</v>
       </c>
       <c r="H73" s="12">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="I73" s="12">
-        <f t="shared" si="102"/>
-        <v>0.23</v>
+        <f t="shared" si="50"/>
+        <v>0.09</v>
       </c>
       <c r="J73" s="12">
-        <f t="shared" si="103"/>
-        <v>0.45</v>
+        <f t="shared" si="51"/>
+        <v>0.17</v>
       </c>
       <c r="K73" s="12">
-        <f t="shared" si="104"/>
-        <v>0.9</v>
+        <f t="shared" si="52"/>
+        <v>0.34</v>
       </c>
       <c r="L73" s="12">
-        <f t="shared" si="105"/>
-        <v>1.35</v>
+        <f t="shared" si="53"/>
+        <v>0.5</v>
       </c>
       <c r="M73" s="12">
-        <f t="shared" si="106"/>
-        <v>1.58</v>
+        <f t="shared" si="54"/>
+        <v>0.59</v>
       </c>
       <c r="N73" s="12">
-        <f t="shared" si="107"/>
-        <v>3.15</v>
+        <f t="shared" si="55"/>
+        <v>1.17</v>
       </c>
       <c r="O73" s="13">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="P73" s="13">
-        <f t="shared" ref="P73:P74" si="114">SUM(H73:M73)</f>
-        <v>4.59</v>
+        <f t="shared" si="56"/>
+        <v>1.7400000000000002</v>
       </c>
       <c r="Q73" s="12">
-        <f t="shared" ref="Q73:Q74" si="115">N73</f>
-        <v>3.15</v>
+        <f t="shared" si="58"/>
+        <v>1.17</v>
       </c>
       <c r="R73" s="13">
-        <f t="shared" si="100"/>
-        <v>35.038478949751017</v>
-      </c>
-      <c r="Y73" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="Z73" s="12">
-        <f t="shared" si="112"/>
-        <v>0.02</v>
-      </c>
-      <c r="AA73" s="12">
-        <f t="shared" si="113"/>
-        <v>0.26</v>
-      </c>
-      <c r="AB73" s="12">
-        <f t="shared" si="113"/>
-        <v>0.73</v>
-      </c>
-      <c r="AC73" s="12">
-        <f t="shared" si="113"/>
-        <v>1.6600000000000001</v>
-      </c>
-      <c r="AD73" s="12">
-        <f t="shared" si="113"/>
-        <v>3.06</v>
-      </c>
-      <c r="AE73" s="12">
-        <f t="shared" si="113"/>
-        <v>4.6899999999999995</v>
+        <f t="shared" si="57"/>
+        <v>13.173381620642827</v>
       </c>
     </row>
     <row r="74" spans="7:32">
       <c r="G74" s="12" t="s">
-        <v>246</v>
+        <v>25</v>
       </c>
       <c r="H74" s="12">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="I74" s="12">
-        <f t="shared" si="102"/>
-        <v>0.27</v>
+        <f t="shared" si="50"/>
+        <v>0.1</v>
       </c>
       <c r="J74" s="12">
-        <f t="shared" si="103"/>
-        <v>0.53</v>
+        <f t="shared" si="51"/>
+        <v>0.2</v>
       </c>
       <c r="K74" s="12">
-        <f t="shared" si="104"/>
-        <v>1.06</v>
+        <f t="shared" si="52"/>
+        <v>0.4</v>
       </c>
       <c r="L74" s="12">
-        <f t="shared" si="105"/>
-        <v>1.58</v>
+        <f t="shared" si="53"/>
+        <v>0.59</v>
       </c>
       <c r="M74" s="12">
-        <f t="shared" si="106"/>
-        <v>1.84</v>
+        <f t="shared" si="54"/>
+        <v>0.69</v>
       </c>
       <c r="N74" s="12">
-        <f t="shared" si="107"/>
-        <v>3.68</v>
+        <f t="shared" si="55"/>
+        <v>1.38</v>
       </c>
       <c r="O74" s="13">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="P74" s="13">
-        <f t="shared" si="114"/>
-        <v>5.36</v>
+        <f t="shared" si="56"/>
+        <v>2.0299999999999998</v>
       </c>
       <c r="Q74" s="12">
-        <f t="shared" si="115"/>
-        <v>3.68</v>
+        <f t="shared" si="58"/>
+        <v>1.38</v>
       </c>
       <c r="R74" s="13">
-        <f t="shared" si="100"/>
-        <v>40.92349479402445</v>
-      </c>
-      <c r="Y74" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="Z74" s="12">
-        <f t="shared" si="112"/>
-        <v>0.03</v>
-      </c>
-      <c r="AA74" s="12">
-        <f t="shared" si="113"/>
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="AB74" s="12">
-        <f t="shared" si="113"/>
-        <v>0.78</v>
-      </c>
-      <c r="AC74" s="12">
-        <f t="shared" si="113"/>
-        <v>1.78</v>
-      </c>
-      <c r="AD74" s="12">
-        <f t="shared" si="113"/>
-        <v>3.2800000000000002</v>
-      </c>
-      <c r="AE74" s="12">
-        <f t="shared" si="113"/>
-        <v>5.03</v>
+        <f t="shared" si="57"/>
+        <v>15.436849253055678</v>
       </c>
     </row>
     <row r="75" spans="7:32">
       <c r="G75" s="12" t="s">
-        <v>313</v>
+        <v>105</v>
       </c>
       <c r="H75" s="12">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="I75" s="12">
-        <f t="shared" ref="I75:I76" si="116">ROUNDUP(((H52/$B$39)*$B$40)*((100+O75)/100),0)/100</f>
-        <v>0.32</v>
+        <f t="shared" ref="I75:I85" si="59">ROUNDUP(((H46/$B$39)*$B$40)*((100+O75)/100),0)/100</f>
+        <v>0.15</v>
       </c>
       <c r="J75" s="12">
-        <f t="shared" ref="J75:J76" si="117">ROUNDUP(((I52/$B$39)*$B$40)*((100+O75)/100),0)/100</f>
-        <v>0.64</v>
+        <f t="shared" ref="J75:J85" si="60">ROUNDUP(((I46/$B$39)*$B$40)*((100+O75)/100),0)/100</f>
+        <v>0.3</v>
       </c>
       <c r="K75" s="12">
-        <f t="shared" ref="K75:K76" si="118">ROUNDUP(((J52/$B$39)*$B$40)*((100+O75)/100),0)/100</f>
-        <v>1.27</v>
+        <f t="shared" ref="K75:K85" si="61">ROUNDUP(((J46/$B$39)*$B$40)*((100+O75)/100),0)/100</f>
+        <v>0.59</v>
       </c>
       <c r="L75" s="12">
-        <f t="shared" ref="L75:L76" si="119">ROUNDUP(((K52/$B$39)*$B$40)*((100+O75)/100),0)/100</f>
-        <v>1.9</v>
+        <f t="shared" ref="L75:L85" si="62">ROUNDUP(((K46/$B$39)*$B$40)*((100+O75)/100),0)/100</f>
+        <v>0.88</v>
       </c>
       <c r="M75" s="12">
-        <f t="shared" ref="M75:M76" si="120">ROUNDUP(((L52/$B$39)*$B$40)*((100+O75)/100),0)/100</f>
-        <v>2.2200000000000002</v>
+        <f t="shared" ref="M75:M85" si="63">ROUNDUP(((L46/$B$39)*$B$40)*((100+O75)/100),0)/100</f>
+        <v>1.03</v>
       </c>
       <c r="N75" s="12">
-        <f t="shared" ref="N75:N76" si="121">ROUNDUP(((M52/$B$39)*$B$40)*((100+O75)/100),0)/100</f>
-        <v>4.43</v>
+        <f t="shared" ref="N75:N85" si="64">ROUNDUP(((M46/$B$39)*$B$40)*((100+O75)/100),0)/100</f>
+        <v>2.0499999999999998</v>
       </c>
       <c r="O75" s="13">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="P75" s="13">
-        <f t="shared" ref="P75" si="122">SUM(H75:M75)</f>
-        <v>6.4400000000000013</v>
+        <f t="shared" si="56"/>
+        <v>3.01</v>
       </c>
       <c r="Q75" s="12">
-        <f t="shared" ref="Q75:Q76" si="123">N75</f>
-        <v>4.43</v>
+        <f t="shared" si="58"/>
+        <v>2.0499999999999998</v>
       </c>
       <c r="R75" s="13">
-        <f t="shared" si="100"/>
-        <v>49.207786328655509</v>
-      </c>
-      <c r="S75" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="T75" s="12">
-        <v>0.09</v>
-      </c>
-      <c r="U75" s="12">
-        <f t="shared" ref="U75:U76" si="124">ROUNDUP(((T52/$B$39)*$B$40)*((100+AA75)/100),0)/100</f>
-        <v>0</v>
-      </c>
-      <c r="V75" s="12">
-        <f t="shared" ref="V75:V76" si="125">ROUNDUP(((U52/$B$39)*$B$40)*((100+AA75)/100),0)/100</f>
-        <v>0</v>
-      </c>
-      <c r="W75" s="12">
-        <f t="shared" ref="W75:W76" si="126">ROUNDUP(((V52/$B$39)*$B$40)*((100+AA75)/100),0)/100</f>
-        <v>0</v>
-      </c>
-      <c r="Y75" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="Z75" s="12">
-        <f t="shared" si="112"/>
-        <v>0.04</v>
-      </c>
-      <c r="AA75" s="12">
-        <f t="shared" si="113"/>
-        <v>0.31</v>
-      </c>
-      <c r="AB75" s="12">
-        <f t="shared" si="113"/>
-        <v>0.85000000000000009</v>
-      </c>
-      <c r="AC75" s="12">
-        <f t="shared" si="113"/>
-        <v>1.9200000000000002</v>
-      </c>
-      <c r="AD75" s="12">
-        <f t="shared" si="113"/>
-        <v>3.5200000000000005</v>
-      </c>
-      <c r="AE75" s="12">
-        <f t="shared" si="113"/>
-        <v>5.3900000000000006</v>
+        <f t="shared" si="57"/>
+        <v>22.906292440018106</v>
       </c>
     </row>
     <row r="76" spans="7:32">
       <c r="G76" s="12" t="s">
-        <v>369</v>
+        <v>106</v>
       </c>
       <c r="H76" s="12">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="I76" s="12">
-        <f t="shared" si="116"/>
-        <v>0.38</v>
+        <f t="shared" si="59"/>
+        <v>0.17</v>
       </c>
       <c r="J76" s="12">
-        <f t="shared" si="117"/>
-        <v>0.76</v>
+        <f t="shared" si="60"/>
+        <v>0.33</v>
       </c>
       <c r="K76" s="12">
-        <f t="shared" si="118"/>
-        <v>1.51</v>
+        <f t="shared" si="61"/>
+        <v>0.65</v>
       </c>
       <c r="L76" s="12">
-        <f t="shared" si="119"/>
+        <f t="shared" si="62"/>
+        <v>0.97</v>
+      </c>
+      <c r="M76" s="12">
+        <f t="shared" si="63"/>
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="N76" s="12">
+        <f t="shared" si="64"/>
         <v>2.25</v>
       </c>
-      <c r="M76" s="12">
-        <f t="shared" si="120"/>
-        <v>2.63</v>
-      </c>
-      <c r="N76" s="12">
-        <f t="shared" si="121"/>
-        <v>5.26</v>
-      </c>
       <c r="O76" s="13">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="P76" s="13">
-        <f t="shared" ref="P76" si="127">SUM(H76:M76)</f>
-        <v>7.62</v>
+        <f t="shared" si="56"/>
+        <v>3.3099999999999996</v>
       </c>
       <c r="Q76" s="12">
-        <f t="shared" si="123"/>
-        <v>5.26</v>
+        <f t="shared" si="58"/>
+        <v>2.25</v>
       </c>
       <c r="R76" s="13">
-        <f t="shared" ref="R76:R77" si="128">((P76+Q76)/$P$57)*100</f>
-        <v>58.306926210955176</v>
-      </c>
-      <c r="S76" s="12" t="s">
-        <v>369</v>
-      </c>
-      <c r="T76" s="12">
-        <v>0.09</v>
-      </c>
-      <c r="U76" s="12">
-        <f t="shared" si="124"/>
+        <f t="shared" si="57"/>
+        <v>25.169760072430964</v>
+      </c>
+      <c r="Y76" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z76" s="12"/>
+      <c r="AA76" s="12"/>
+      <c r="AB76" s="12"/>
+      <c r="AC76" s="12"/>
+      <c r="AD76" s="12"/>
+      <c r="AE76" s="12"/>
+    </row>
+    <row r="77" spans="7:32" ht="17.25" thickBot="1">
+      <c r="G77" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="H77" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I77" s="12">
+        <f t="shared" si="59"/>
+        <v>0.18</v>
+      </c>
+      <c r="J77" s="12">
+        <f t="shared" si="60"/>
+        <v>0.36</v>
+      </c>
+      <c r="K77" s="12">
+        <f t="shared" si="61"/>
+        <v>0.71</v>
+      </c>
+      <c r="L77" s="12">
+        <f t="shared" si="62"/>
+        <v>1.06</v>
+      </c>
+      <c r="M77" s="12">
+        <f t="shared" si="63"/>
+        <v>1.23</v>
+      </c>
+      <c r="N77" s="12">
+        <f t="shared" si="64"/>
+        <v>2.46</v>
+      </c>
+      <c r="O77" s="13">
+        <v>130</v>
+      </c>
+      <c r="P77" s="13">
+        <f t="shared" si="56"/>
+        <v>3.61</v>
+      </c>
+      <c r="Q77" s="12">
+        <f t="shared" si="58"/>
+        <v>2.46</v>
+      </c>
+      <c r="R77" s="13">
+        <f t="shared" si="57"/>
+        <v>27.478497057492078</v>
+      </c>
+      <c r="Y77" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z77" s="27">
         <v>0</v>
       </c>
-      <c r="V76" s="12">
-        <f t="shared" si="125"/>
-        <v>0</v>
-      </c>
-      <c r="W76" s="12">
-        <f t="shared" si="126"/>
-        <v>0</v>
-      </c>
-      <c r="Y76" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="Z76" s="12">
-        <f t="shared" si="112"/>
-        <v>0.05</v>
-      </c>
-      <c r="AA76" s="12">
-        <f t="shared" si="113"/>
-        <v>0.35</v>
-      </c>
-      <c r="AB76" s="12">
-        <f t="shared" si="113"/>
-        <v>0.94</v>
-      </c>
-      <c r="AC76" s="12">
-        <f t="shared" si="113"/>
-        <v>2.12</v>
-      </c>
-      <c r="AD76" s="12">
-        <f t="shared" si="113"/>
-        <v>3.89</v>
-      </c>
-      <c r="AE76" s="12">
-        <f t="shared" si="113"/>
-        <v>5.95</v>
-      </c>
-    </row>
-    <row r="77" spans="7:32">
-      <c r="G77" s="12" t="s">
-        <v>376</v>
-      </c>
-      <c r="H77" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="I77" s="12">
-        <f t="shared" ref="I77:I78" si="129">ROUNDUP(((H54/$B$39)*$B$40)*((100+O77)/100),0)/100</f>
+      <c r="AA77" s="27">
+        <v>1</v>
+      </c>
+      <c r="AB77" s="27">
+        <v>2</v>
+      </c>
+      <c r="AC77" s="27">
+        <v>3</v>
+      </c>
+      <c r="AD77" s="27">
+        <v>4</v>
+      </c>
+      <c r="AE77" s="27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="7:32" ht="17.25" thickTop="1">
+      <c r="G78" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="H78" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I78" s="12">
+        <f t="shared" si="59"/>
+        <v>0.2</v>
+      </c>
+      <c r="J78" s="12">
+        <f t="shared" si="60"/>
+        <v>0.4</v>
+      </c>
+      <c r="K78" s="12">
+        <f t="shared" si="61"/>
+        <v>0.8</v>
+      </c>
+      <c r="L78" s="12">
+        <f t="shared" si="62"/>
+        <v>1.2</v>
+      </c>
+      <c r="M78" s="12">
+        <f t="shared" si="63"/>
+        <v>1.4</v>
+      </c>
+      <c r="N78" s="12">
+        <f t="shared" si="64"/>
+        <v>2.79</v>
+      </c>
+      <c r="O78" s="13">
+        <v>140</v>
+      </c>
+      <c r="P78" s="13">
+        <f t="shared" ref="P78:P81" si="65">SUM(H78:M78)</f>
+        <v>4.07</v>
+      </c>
+      <c r="Q78" s="12">
+        <f t="shared" si="58"/>
+        <v>2.79</v>
+      </c>
+      <c r="R78" s="13">
+        <f t="shared" si="57"/>
+        <v>31.05477591670439</v>
+      </c>
+      <c r="Y78" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z78" s="12">
+        <f t="shared" ref="Z78:Z92" si="66">Z54</f>
+        <v>0.01</v>
+      </c>
+      <c r="AA78" s="12">
+        <f t="shared" ref="AA78:AE92" si="67">Z78+AA54</f>
+        <v>0.23</v>
+      </c>
+      <c r="AB78" s="12">
+        <f t="shared" si="67"/>
+        <v>0.67</v>
+      </c>
+      <c r="AC78" s="12">
+        <f t="shared" si="67"/>
+        <v>1.54</v>
+      </c>
+      <c r="AD78" s="12">
+        <f t="shared" si="67"/>
+        <v>2.84</v>
+      </c>
+      <c r="AE78" s="12">
+        <f t="shared" si="67"/>
+        <v>4.3599999999999994</v>
+      </c>
+    </row>
+    <row r="79" spans="7:32">
+      <c r="G79" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="H79" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="I79" s="12">
+        <f t="shared" si="59"/>
+        <v>0.23</v>
+      </c>
+      <c r="J79" s="12">
+        <f t="shared" si="60"/>
         <v>0.45</v>
       </c>
-      <c r="J77" s="12">
-        <f t="shared" ref="J77:J78" si="130">ROUNDUP(((I54/$B$39)*$B$40)*((100+O77)/100),0)/100</f>
-        <v>0.89</v>
-      </c>
-      <c r="K77" s="12">
-        <f t="shared" ref="K77:K78" si="131">ROUNDUP(((J54/$B$39)*$B$40)*((100+O77)/100),0)/100</f>
-        <v>1.77</v>
-      </c>
-      <c r="L77" s="12">
-        <f t="shared" ref="L77:L78" si="132">ROUNDUP(((K54/$B$39)*$B$40)*((100+O77)/100),0)/100</f>
-        <v>2.65</v>
-      </c>
-      <c r="M77" s="12">
-        <f t="shared" ref="M77:M78" si="133">ROUNDUP(((L54/$B$39)*$B$40)*((100+O77)/100),0)/100</f>
-        <v>3.09</v>
-      </c>
-      <c r="N77" s="12">
-        <f t="shared" ref="N77:N78" si="134">ROUNDUP(((M54/$B$39)*$B$40)*((100+O77)/100),0)/100</f>
-        <v>6.18</v>
-      </c>
-      <c r="O77" s="13">
-        <v>220</v>
-      </c>
-      <c r="P77" s="13">
-        <f t="shared" ref="P77:P78" si="135">SUM(H77:M77)</f>
-        <v>8.9499999999999993</v>
-      </c>
-      <c r="Q77" s="12">
-        <f t="shared" ref="Q77:Q78" si="136">N77</f>
-        <v>6.18</v>
-      </c>
-      <c r="R77" s="13">
-        <f t="shared" si="128"/>
-        <v>68.492530556813037</v>
-      </c>
-      <c r="Y77" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="Z77" s="12">
-        <f t="shared" si="112"/>
-        <v>0.06</v>
-      </c>
-      <c r="AA77" s="12">
-        <f t="shared" si="113"/>
-        <v>0.39</v>
-      </c>
-      <c r="AB77" s="12">
-        <f t="shared" si="113"/>
-        <v>1.04</v>
-      </c>
-      <c r="AC77" s="12">
-        <f t="shared" si="113"/>
-        <v>2.34</v>
-      </c>
-      <c r="AD77" s="12">
-        <f t="shared" si="113"/>
-        <v>4.2799999999999994</v>
-      </c>
-      <c r="AE77" s="12">
-        <f t="shared" si="113"/>
-        <v>6.5399999999999991</v>
-      </c>
-    </row>
-    <row r="78" spans="7:32">
-      <c r="G78" s="12" t="s">
-        <v>388</v>
-      </c>
-      <c r="H78" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="I78" s="12">
-        <f t="shared" si="129"/>
-        <v>0.52</v>
-      </c>
-      <c r="J78" s="12">
-        <f t="shared" si="130"/>
-        <v>1.03</v>
-      </c>
-      <c r="K78" s="12">
-        <f t="shared" si="131"/>
-        <v>2.06</v>
-      </c>
-      <c r="L78" s="12">
-        <f t="shared" si="132"/>
-        <v>3.09</v>
-      </c>
-      <c r="M78" s="12">
-        <f t="shared" si="133"/>
-        <v>3.6</v>
-      </c>
-      <c r="N78" s="12">
-        <f t="shared" si="134"/>
-        <v>7.2</v>
-      </c>
-      <c r="O78" s="13">
-        <v>240</v>
-      </c>
-      <c r="P78" s="13">
-        <f t="shared" si="135"/>
-        <v>10.4</v>
-      </c>
-      <c r="Q78" s="12">
-        <f t="shared" si="136"/>
-        <v>7.2</v>
-      </c>
-      <c r="R78" s="13">
-        <f t="shared" ref="R78" si="137">((P78+Q78)/$P$57)*100</f>
-        <v>79.674060660932554</v>
-      </c>
-      <c r="Y78" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="Z78" s="12">
-        <f t="shared" si="112"/>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AA78" s="12">
-        <f t="shared" si="113"/>
-        <v>0.43</v>
-      </c>
-      <c r="AB78" s="12">
-        <f t="shared" si="113"/>
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="AC78" s="12">
-        <f t="shared" si="113"/>
-        <v>2.5599999999999996</v>
-      </c>
-      <c r="AD78" s="12">
-        <f t="shared" si="113"/>
-        <v>4.68</v>
-      </c>
-      <c r="AE78" s="12">
-        <f t="shared" si="113"/>
-        <v>7.15</v>
-      </c>
-    </row>
-    <row r="79" spans="7:32">
-      <c r="Y79" s="12"/>
-      <c r="Z79" s="12"/>
-      <c r="AA79" s="12"/>
-      <c r="AB79" s="12"/>
-      <c r="AC79" s="12"/>
-      <c r="AD79" s="12"/>
-      <c r="AE79" s="12"/>
+      <c r="K79" s="12">
+        <f t="shared" si="61"/>
+        <v>0.9</v>
+      </c>
+      <c r="L79" s="12">
+        <f t="shared" si="62"/>
+        <v>1.35</v>
+      </c>
+      <c r="M79" s="12">
+        <f t="shared" si="63"/>
+        <v>1.58</v>
+      </c>
+      <c r="N79" s="12">
+        <f t="shared" si="64"/>
+        <v>3.15</v>
+      </c>
+      <c r="O79" s="13">
+        <v>150</v>
+      </c>
+      <c r="P79" s="13">
+        <f t="shared" si="65"/>
+        <v>4.59</v>
+      </c>
+      <c r="Q79" s="12">
+        <f t="shared" si="58"/>
+        <v>3.15</v>
+      </c>
+      <c r="R79" s="13">
+        <f t="shared" si="57"/>
+        <v>35.038478949751017</v>
+      </c>
+      <c r="Y79" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z79" s="12">
+        <f t="shared" si="66"/>
+        <v>0.02</v>
+      </c>
+      <c r="AA79" s="12">
+        <f t="shared" si="67"/>
+        <v>0.26</v>
+      </c>
+      <c r="AB79" s="12">
+        <f t="shared" si="67"/>
+        <v>0.73</v>
+      </c>
+      <c r="AC79" s="12">
+        <f t="shared" si="67"/>
+        <v>1.6600000000000001</v>
+      </c>
+      <c r="AD79" s="12">
+        <f t="shared" si="67"/>
+        <v>3.06</v>
+      </c>
+      <c r="AE79" s="12">
+        <f t="shared" si="67"/>
+        <v>4.6899999999999995</v>
+      </c>
     </row>
     <row r="80" spans="7:32">
       <c r="G80" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="H80" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="I80" s="12">
+        <f t="shared" si="59"/>
+        <v>0.27</v>
+      </c>
+      <c r="J80" s="12">
+        <f t="shared" si="60"/>
+        <v>0.53</v>
+      </c>
+      <c r="K80" s="12">
+        <f t="shared" si="61"/>
+        <v>1.06</v>
+      </c>
+      <c r="L80" s="12">
+        <f t="shared" si="62"/>
+        <v>1.58</v>
+      </c>
+      <c r="M80" s="12">
+        <f t="shared" si="63"/>
+        <v>1.84</v>
+      </c>
+      <c r="N80" s="12">
+        <f t="shared" si="64"/>
+        <v>3.68</v>
+      </c>
+      <c r="O80" s="13">
+        <v>160</v>
+      </c>
+      <c r="P80" s="13">
+        <f t="shared" si="65"/>
+        <v>5.36</v>
+      </c>
+      <c r="Q80" s="12">
+        <f t="shared" si="58"/>
+        <v>3.68</v>
+      </c>
+      <c r="R80" s="13">
+        <f t="shared" si="57"/>
+        <v>40.92349479402445</v>
+      </c>
+      <c r="Y80" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z80" s="12">
+        <f t="shared" si="66"/>
+        <v>0.03</v>
+      </c>
+      <c r="AA80" s="12">
+        <f t="shared" si="67"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AB80" s="12">
+        <f t="shared" si="67"/>
+        <v>0.78</v>
+      </c>
+      <c r="AC80" s="12">
+        <f t="shared" si="67"/>
+        <v>1.78</v>
+      </c>
+      <c r="AD80" s="12">
+        <f t="shared" si="67"/>
+        <v>3.2800000000000002</v>
+      </c>
+      <c r="AE80" s="12">
+        <f t="shared" si="67"/>
+        <v>5.03</v>
+      </c>
+    </row>
+    <row r="81" spans="7:31">
+      <c r="G81" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="H81" s="12">
+        <v>0.09</v>
+      </c>
+      <c r="I81" s="12">
+        <f t="shared" si="59"/>
+        <v>0.32</v>
+      </c>
+      <c r="J81" s="12">
+        <f t="shared" si="60"/>
+        <v>0.64</v>
+      </c>
+      <c r="K81" s="12">
+        <f t="shared" si="61"/>
+        <v>1.27</v>
+      </c>
+      <c r="L81" s="12">
+        <f t="shared" si="62"/>
+        <v>1.9</v>
+      </c>
+      <c r="M81" s="12">
+        <f t="shared" si="63"/>
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="N81" s="12">
+        <f t="shared" si="64"/>
+        <v>4.43</v>
+      </c>
+      <c r="O81" s="13">
+        <v>180</v>
+      </c>
+      <c r="P81" s="13">
+        <f t="shared" si="65"/>
+        <v>6.4400000000000013</v>
+      </c>
+      <c r="Q81" s="12">
+        <f t="shared" si="58"/>
+        <v>4.43</v>
+      </c>
+      <c r="R81" s="13">
+        <f t="shared" si="57"/>
+        <v>49.207786328655509</v>
+      </c>
+      <c r="S81" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="T81" s="12">
+        <v>0.09</v>
+      </c>
+      <c r="U81" s="12">
+        <f>ROUNDUP(((T52/$B$39)*$B$40)*((100+AA81)/100),0)/100</f>
+        <v>0</v>
+      </c>
+      <c r="V81" s="12">
+        <f>ROUNDUP(((U52/$B$39)*$B$40)*((100+AA81)/100),0)/100</f>
+        <v>0</v>
+      </c>
+      <c r="W81" s="12">
+        <f>ROUNDUP(((V52/$B$39)*$B$40)*((100+AA81)/100),0)/100</f>
+        <v>0</v>
+      </c>
+      <c r="Y81" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z81" s="12">
+        <f t="shared" si="66"/>
+        <v>0.04</v>
+      </c>
+      <c r="AA81" s="12">
+        <f t="shared" si="67"/>
+        <v>0.31</v>
+      </c>
+      <c r="AB81" s="12">
+        <f t="shared" si="67"/>
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="AC81" s="12">
+        <f t="shared" si="67"/>
+        <v>1.9200000000000002</v>
+      </c>
+      <c r="AD81" s="12">
+        <f t="shared" si="67"/>
+        <v>3.5200000000000005</v>
+      </c>
+      <c r="AE81" s="12">
+        <f t="shared" si="67"/>
+        <v>5.3900000000000006</v>
+      </c>
+    </row>
+    <row r="82" spans="7:31">
+      <c r="G82" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="H82" s="12">
+        <v>0.09</v>
+      </c>
+      <c r="I82" s="12">
+        <f t="shared" si="59"/>
+        <v>0.38</v>
+      </c>
+      <c r="J82" s="12">
+        <f t="shared" si="60"/>
+        <v>0.76</v>
+      </c>
+      <c r="K82" s="12">
+        <f t="shared" si="61"/>
+        <v>1.51</v>
+      </c>
+      <c r="L82" s="12">
+        <f t="shared" si="62"/>
+        <v>2.25</v>
+      </c>
+      <c r="M82" s="12">
+        <f t="shared" si="63"/>
+        <v>2.63</v>
+      </c>
+      <c r="N82" s="12">
+        <f t="shared" si="64"/>
+        <v>5.26</v>
+      </c>
+      <c r="O82" s="13">
+        <v>200</v>
+      </c>
+      <c r="P82" s="13">
+        <f t="shared" ref="P82:P84" si="68">SUM(H82:M82)</f>
+        <v>7.62</v>
+      </c>
+      <c r="Q82" s="12">
+        <f t="shared" si="58"/>
+        <v>5.26</v>
+      </c>
+      <c r="R82" s="13">
+        <f t="shared" si="57"/>
+        <v>58.306926210955176</v>
+      </c>
+      <c r="S82" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="T82" s="12">
+        <v>0.09</v>
+      </c>
+      <c r="U82" s="12">
+        <f>ROUNDUP(((T53/$B$39)*$B$40)*((100+AA82)/100),0)/100</f>
+        <v>0</v>
+      </c>
+      <c r="V82" s="12">
+        <f>ROUNDUP(((U53/$B$39)*$B$40)*((100+AA82)/100),0)/100</f>
+        <v>0</v>
+      </c>
+      <c r="W82" s="12">
+        <f>ROUNDUP(((V53/$B$39)*$B$40)*((100+AA82)/100),0)/100</f>
+        <v>0</v>
+      </c>
+      <c r="Y82" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z82" s="12">
+        <f t="shared" si="66"/>
+        <v>0.05</v>
+      </c>
+      <c r="AA82" s="12">
+        <f t="shared" si="67"/>
+        <v>0.35</v>
+      </c>
+      <c r="AB82" s="12">
+        <f t="shared" si="67"/>
+        <v>0.94</v>
+      </c>
+      <c r="AC82" s="12">
+        <f t="shared" si="67"/>
+        <v>2.12</v>
+      </c>
+      <c r="AD82" s="12">
+        <f t="shared" si="67"/>
+        <v>3.89</v>
+      </c>
+      <c r="AE82" s="12">
+        <f t="shared" si="67"/>
+        <v>5.95</v>
+      </c>
+    </row>
+    <row r="83" spans="7:31">
+      <c r="G83" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="H83" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="I83" s="12">
+        <f t="shared" si="59"/>
+        <v>0.45</v>
+      </c>
+      <c r="J83" s="12">
+        <f t="shared" si="60"/>
+        <v>0.89</v>
+      </c>
+      <c r="K83" s="12">
+        <f t="shared" si="61"/>
+        <v>1.77</v>
+      </c>
+      <c r="L83" s="12">
+        <f t="shared" si="62"/>
+        <v>2.65</v>
+      </c>
+      <c r="M83" s="12">
+        <f t="shared" si="63"/>
+        <v>3.09</v>
+      </c>
+      <c r="N83" s="12">
+        <f t="shared" si="64"/>
+        <v>6.18</v>
+      </c>
+      <c r="O83" s="13">
+        <v>220</v>
+      </c>
+      <c r="P83" s="13">
+        <f t="shared" si="68"/>
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="Q83" s="12">
+        <f t="shared" si="58"/>
+        <v>6.18</v>
+      </c>
+      <c r="R83" s="13">
+        <f t="shared" si="57"/>
+        <v>68.492530556813037</v>
+      </c>
+      <c r="Y83" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z83" s="12">
+        <f t="shared" si="66"/>
+        <v>0.06</v>
+      </c>
+      <c r="AA83" s="12">
+        <f t="shared" si="67"/>
+        <v>0.39</v>
+      </c>
+      <c r="AB83" s="12">
+        <f t="shared" si="67"/>
+        <v>1.04</v>
+      </c>
+      <c r="AC83" s="12">
+        <f t="shared" si="67"/>
+        <v>2.34</v>
+      </c>
+      <c r="AD83" s="12">
+        <f t="shared" si="67"/>
+        <v>4.2799999999999994</v>
+      </c>
+      <c r="AE83" s="12">
+        <f t="shared" si="67"/>
+        <v>6.5399999999999991</v>
+      </c>
+    </row>
+    <row r="84" spans="7:31">
+      <c r="G84" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="H84" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="I84" s="12">
+        <f t="shared" si="59"/>
+        <v>0.52</v>
+      </c>
+      <c r="J84" s="12">
+        <f t="shared" si="60"/>
+        <v>1.03</v>
+      </c>
+      <c r="K84" s="12">
+        <f t="shared" si="61"/>
+        <v>2.06</v>
+      </c>
+      <c r="L84" s="12">
+        <f t="shared" si="62"/>
+        <v>3.09</v>
+      </c>
+      <c r="M84" s="12">
+        <f t="shared" si="63"/>
+        <v>3.6</v>
+      </c>
+      <c r="N84" s="12">
+        <f t="shared" si="64"/>
+        <v>7.2</v>
+      </c>
+      <c r="O84" s="13">
+        <v>240</v>
+      </c>
+      <c r="P84" s="13">
+        <f t="shared" si="68"/>
+        <v>10.4</v>
+      </c>
+      <c r="Q84" s="12">
+        <f t="shared" si="58"/>
+        <v>7.2</v>
+      </c>
+      <c r="R84" s="13">
+        <f t="shared" si="57"/>
+        <v>79.674060660932554</v>
+      </c>
+      <c r="Y84" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z84" s="12">
+        <f t="shared" si="66"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AA84" s="12">
+        <f t="shared" si="67"/>
+        <v>0.43</v>
+      </c>
+      <c r="AB84" s="12">
+        <f t="shared" si="67"/>
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="AC84" s="12">
+        <f t="shared" si="67"/>
+        <v>2.5599999999999996</v>
+      </c>
+      <c r="AD84" s="12">
+        <f t="shared" si="67"/>
+        <v>4.68</v>
+      </c>
+      <c r="AE84" s="12">
+        <f t="shared" si="67"/>
+        <v>7.15</v>
+      </c>
+    </row>
+    <row r="85" spans="7:31">
+      <c r="G85" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="H85" s="12">
+        <v>0.11</v>
+      </c>
+      <c r="I85" s="12">
+        <f t="shared" si="59"/>
+        <v>0.6</v>
+      </c>
+      <c r="J85" s="12">
+        <f t="shared" si="60"/>
+        <v>1.19</v>
+      </c>
+      <c r="K85" s="12">
+        <f t="shared" si="61"/>
+        <v>2.38</v>
+      </c>
+      <c r="L85" s="12">
+        <f t="shared" si="62"/>
+        <v>3.57</v>
+      </c>
+      <c r="M85" s="12">
+        <f t="shared" si="63"/>
+        <v>4.17</v>
+      </c>
+      <c r="N85" s="12">
+        <f t="shared" si="64"/>
+        <v>8.33</v>
+      </c>
+      <c r="O85" s="13">
+        <v>260</v>
+      </c>
+      <c r="P85" s="13">
+        <f t="shared" ref="P85" si="69">SUM(H85:M85)</f>
+        <v>12.02</v>
+      </c>
+      <c r="Q85" s="12">
+        <f t="shared" si="58"/>
+        <v>8.33</v>
+      </c>
+      <c r="R85" s="13">
+        <f t="shared" si="57"/>
+        <v>92.123132639203263</v>
+      </c>
+      <c r="Y85" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="Z85" s="12">
+        <f t="shared" si="66"/>
+        <v>0.08</v>
+      </c>
+      <c r="AA85" s="12">
+        <f t="shared" si="67"/>
+        <v>0.48000000000000004</v>
+      </c>
+      <c r="AB85" s="12">
+        <f t="shared" si="67"/>
+        <v>1.27</v>
+      </c>
+      <c r="AC85" s="12">
+        <f t="shared" si="67"/>
+        <v>2.85</v>
+      </c>
+      <c r="AD85" s="12">
+        <f t="shared" si="67"/>
+        <v>5.2200000000000006</v>
+      </c>
+      <c r="AE85" s="12">
+        <f t="shared" si="67"/>
+        <v>7.98</v>
+      </c>
+    </row>
+    <row r="86" spans="7:31">
+      <c r="O86" s="13"/>
+      <c r="P86" s="13"/>
+      <c r="R86" s="13"/>
+      <c r="Y86" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="Z86" s="12">
+        <f t="shared" si="66"/>
+        <v>0.09</v>
+      </c>
+      <c r="AA86" s="12">
+        <f t="shared" si="67"/>
+        <v>0.66999999999999993</v>
+      </c>
+      <c r="AB86" s="12">
+        <f t="shared" si="67"/>
+        <v>1.8299999999999998</v>
+      </c>
+      <c r="AC86" s="12">
+        <f t="shared" si="67"/>
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="AD86" s="12">
+        <f t="shared" si="67"/>
+        <v>7.6</v>
+      </c>
+      <c r="AE86" s="12">
+        <f t="shared" si="67"/>
+        <v>11.64</v>
+      </c>
+    </row>
+    <row r="87" spans="7:31">
+      <c r="O87" s="13"/>
+      <c r="P87" s="13"/>
+      <c r="R87" s="13"/>
+      <c r="Y87" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z87" s="12">
+        <f t="shared" si="66"/>
+        <v>0.1</v>
+      </c>
+      <c r="AA87" s="12">
+        <f t="shared" si="67"/>
+        <v>0.75</v>
+      </c>
+      <c r="AB87" s="12">
+        <f t="shared" si="67"/>
+        <v>2.04</v>
+      </c>
+      <c r="AC87" s="12">
+        <f t="shared" si="67"/>
+        <v>4.62</v>
+      </c>
+      <c r="AD87" s="12">
+        <f t="shared" si="67"/>
+        <v>8.49</v>
+      </c>
+      <c r="AE87" s="12">
+        <f t="shared" si="67"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="7:31">
+      <c r="O88" s="13"/>
+      <c r="P88" s="13"/>
+      <c r="R88" s="13"/>
+      <c r="Y88" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z88" s="12">
+        <f t="shared" si="66"/>
+        <v>0.11</v>
+      </c>
+      <c r="AA88" s="12">
+        <f t="shared" si="67"/>
+        <v>0.83</v>
+      </c>
+      <c r="AB88" s="12">
+        <f t="shared" si="67"/>
+        <v>2.27</v>
+      </c>
+      <c r="AC88" s="12">
+        <f t="shared" si="67"/>
+        <v>5.1400000000000006</v>
+      </c>
+      <c r="AD88" s="12">
+        <f t="shared" si="67"/>
+        <v>9.4400000000000013</v>
+      </c>
+      <c r="AE88" s="12">
+        <f t="shared" si="67"/>
+        <v>14.450000000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="7:31">
+      <c r="O89" s="13"/>
+      <c r="P89" s="13"/>
+      <c r="R89" s="13"/>
+      <c r="Y89" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z89" s="12">
+        <f t="shared" si="66"/>
+        <v>0.12</v>
+      </c>
+      <c r="AA89" s="12">
+        <f t="shared" si="67"/>
+        <v>0.71</v>
+      </c>
+      <c r="AB89" s="12">
+        <f t="shared" si="67"/>
+        <v>1.88</v>
+      </c>
+      <c r="AC89" s="12">
+        <f t="shared" si="67"/>
+        <v>4.21</v>
+      </c>
+      <c r="AD89" s="12">
+        <f t="shared" si="67"/>
+        <v>7.7</v>
+      </c>
+      <c r="AE89" s="12">
+        <f t="shared" si="67"/>
+        <v>11.77</v>
+      </c>
+    </row>
+    <row r="90" spans="7:31">
+      <c r="O90" s="13"/>
+      <c r="P90" s="13"/>
+      <c r="R90" s="13"/>
+      <c r="Y90" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z90" s="12">
+        <f t="shared" si="66"/>
+        <v>0.13</v>
+      </c>
+      <c r="AA90" s="12">
+        <f t="shared" si="67"/>
+        <v>0.75</v>
+      </c>
+      <c r="AB90" s="12">
+        <f t="shared" si="67"/>
+        <v>1.99</v>
+      </c>
+      <c r="AC90" s="12">
+        <f t="shared" si="67"/>
+        <v>4.47</v>
+      </c>
+      <c r="AD90" s="12">
+        <f t="shared" si="67"/>
+        <v>8.18</v>
+      </c>
+      <c r="AE90" s="12">
+        <f t="shared" si="67"/>
+        <v>12.51</v>
+      </c>
+    </row>
+    <row r="91" spans="7:31">
+      <c r="O91" s="13"/>
+      <c r="P91" s="13"/>
+      <c r="R91" s="13"/>
+      <c r="Y91" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="Z91" s="12">
+        <f t="shared" si="66"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AA91" s="12">
+        <f t="shared" si="67"/>
+        <v>0.8</v>
+      </c>
+      <c r="AB91" s="12">
+        <f t="shared" si="67"/>
+        <v>2.12</v>
+      </c>
+      <c r="AC91" s="12">
+        <f t="shared" si="67"/>
+        <v>4.75</v>
+      </c>
+      <c r="AD91" s="12">
+        <f t="shared" si="67"/>
+        <v>8.69</v>
+      </c>
+      <c r="AE91" s="12">
+        <f t="shared" si="67"/>
+        <v>13.29</v>
+      </c>
+    </row>
+    <row r="92" spans="7:31">
+      <c r="O92" s="13"/>
+      <c r="P92" s="13"/>
+      <c r="R92" s="13"/>
+      <c r="Y92" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z92" s="12">
+        <f t="shared" si="66"/>
+        <v>0.15</v>
+      </c>
+      <c r="AA92" s="12">
+        <f t="shared" si="67"/>
+        <v>0.85</v>
+      </c>
+      <c r="AB92" s="12">
+        <f t="shared" si="67"/>
+        <v>2.25</v>
+      </c>
+      <c r="AC92" s="12">
+        <f t="shared" si="67"/>
+        <v>5.04</v>
+      </c>
+      <c r="AD92" s="12">
+        <f t="shared" si="67"/>
+        <v>9.2199999999999989</v>
+      </c>
+      <c r="AE92" s="12">
+        <f t="shared" si="67"/>
+        <v>14.099999999999998</v>
+      </c>
+    </row>
+    <row r="93" spans="7:31">
+      <c r="Y93" s="12"/>
+      <c r="Z93" s="12"/>
+      <c r="AA93" s="12"/>
+      <c r="AB93" s="12"/>
+      <c r="AC93" s="12"/>
+      <c r="AD93" s="12"/>
+      <c r="AE93" s="12"/>
+    </row>
+    <row r="94" spans="7:31">
+      <c r="G94" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="Y80" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="Z80" s="12">
-        <f t="shared" ref="Z80:Z87" si="138">Z61</f>
+    </row>
+    <row r="95" spans="7:31" ht="17.25" thickBot="1">
+      <c r="G95" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="H95" s="27">
+        <v>0</v>
+      </c>
+      <c r="I95" s="27">
+        <v>1</v>
+      </c>
+      <c r="J95" s="27">
+        <v>2</v>
+      </c>
+      <c r="K95" s="27">
+        <v>3</v>
+      </c>
+      <c r="L95" s="27">
+        <v>4</v>
+      </c>
+      <c r="M95" s="27">
+        <v>5</v>
+      </c>
+      <c r="N95" s="27" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="96" spans="7:31" ht="17.25" thickTop="1">
+      <c r="G96" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H96" s="12">
+        <f>H65</f>
+        <v>0.01</v>
+      </c>
+      <c r="I96" s="12">
+        <f t="shared" ref="I96:N111" si="70">I65+H96</f>
+        <v>0.03</v>
+      </c>
+      <c r="J96" s="12">
+        <f t="shared" si="70"/>
+        <v>0.06</v>
+      </c>
+      <c r="K96" s="12">
+        <f t="shared" si="70"/>
+        <v>0.12</v>
+      </c>
+      <c r="L96" s="12">
+        <f t="shared" si="70"/>
+        <v>0.21</v>
+      </c>
+      <c r="M96" s="12">
+        <f t="shared" si="70"/>
+        <v>0.31</v>
+      </c>
+      <c r="N96" s="12">
+        <f t="shared" si="70"/>
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="97" spans="7:32">
+      <c r="G97" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H97" s="12">
+        <f>H66</f>
+        <v>0.01</v>
+      </c>
+      <c r="I97" s="12">
+        <f t="shared" si="70"/>
+        <v>0.03</v>
+      </c>
+      <c r="J97" s="12">
+        <f t="shared" si="70"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K97" s="12">
+        <f t="shared" si="70"/>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="L97" s="12">
+        <f t="shared" si="70"/>
+        <v>0.27</v>
+      </c>
+      <c r="M97" s="12">
+        <f t="shared" si="70"/>
+        <v>0.41000000000000003</v>
+      </c>
+      <c r="N97" s="12">
+        <f t="shared" si="70"/>
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="98" spans="7:32">
+      <c r="G98" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H98" s="12">
+        <f t="shared" ref="H98:H116" si="71">H67</f>
+        <v>0.02</v>
+      </c>
+      <c r="I98" s="12">
+        <f t="shared" si="70"/>
+        <v>0.05</v>
+      </c>
+      <c r="J98" s="12">
+        <f t="shared" si="70"/>
+        <v>0.1</v>
+      </c>
+      <c r="K98" s="12">
+        <f t="shared" si="70"/>
+        <v>0.2</v>
+      </c>
+      <c r="L98" s="12">
+        <f t="shared" si="70"/>
+        <v>0.35</v>
+      </c>
+      <c r="M98" s="12">
+        <f t="shared" si="70"/>
+        <v>0.53</v>
+      </c>
+      <c r="N98" s="12">
+        <f t="shared" si="70"/>
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="99" spans="7:32">
+      <c r="G99" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="H99" s="12">
+        <f t="shared" si="71"/>
+        <v>0.02</v>
+      </c>
+      <c r="I99" s="12">
+        <f t="shared" si="70"/>
+        <v>0.06</v>
+      </c>
+      <c r="J99" s="12">
+        <f t="shared" si="70"/>
+        <v>0.13</v>
+      </c>
+      <c r="K99" s="12">
+        <f t="shared" si="70"/>
+        <v>0.26</v>
+      </c>
+      <c r="L99" s="12">
+        <f t="shared" si="70"/>
+        <v>0.45</v>
+      </c>
+      <c r="M99" s="12">
+        <f t="shared" si="70"/>
+        <v>0.67</v>
+      </c>
+      <c r="N99" s="12">
+        <f t="shared" si="70"/>
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="7:32">
+      <c r="G100" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H100" s="12">
+        <f t="shared" si="71"/>
+        <v>0.03</v>
+      </c>
+      <c r="I100" s="12">
+        <f t="shared" si="70"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J100" s="12">
+        <f t="shared" si="70"/>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="K100" s="12">
+        <f t="shared" si="70"/>
+        <v>0.31000000000000005</v>
+      </c>
+      <c r="L100" s="12">
+        <f t="shared" si="70"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M100" s="12">
+        <f t="shared" si="70"/>
+        <v>0.83000000000000007</v>
+      </c>
+      <c r="N100" s="12">
+        <f t="shared" si="70"/>
+        <v>1.3800000000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="7:32">
+      <c r="G101" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H101" s="12">
+        <f t="shared" si="71"/>
+        <v>0.03</v>
+      </c>
+      <c r="I101" s="12">
+        <f t="shared" si="70"/>
         <v>0.08</v>
       </c>
-      <c r="AA80" s="12">
-        <f t="shared" ref="AA80:AE87" si="139">Z80+AA61</f>
-        <v>0.48000000000000004</v>
-      </c>
-      <c r="AB80" s="12">
-        <f t="shared" si="139"/>
-        <v>1.27</v>
-      </c>
-      <c r="AC80" s="12">
-        <f t="shared" si="139"/>
-        <v>2.85</v>
-      </c>
-      <c r="AD80" s="12">
-        <f t="shared" si="139"/>
-        <v>5.2200000000000006</v>
-      </c>
-      <c r="AE80" s="12">
-        <f t="shared" si="139"/>
-        <v>7.98</v>
-      </c>
-    </row>
-    <row r="81" spans="7:32" ht="17.25" thickBot="1">
-      <c r="G81" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="H81" s="27">
-        <v>0</v>
-      </c>
-      <c r="I81" s="27">
-        <v>1</v>
-      </c>
-      <c r="J81" s="27">
-        <v>2</v>
-      </c>
-      <c r="K81" s="27">
-        <v>3</v>
-      </c>
-      <c r="L81" s="27">
-        <v>4</v>
-      </c>
-      <c r="M81" s="27">
-        <v>5</v>
-      </c>
-      <c r="N81" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="Y81" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="Z81" s="12">
-        <f t="shared" si="138"/>
+      <c r="J101" s="12">
+        <f t="shared" si="70"/>
+        <v>0.18</v>
+      </c>
+      <c r="K101" s="12">
+        <f t="shared" si="70"/>
+        <v>0.38</v>
+      </c>
+      <c r="L101" s="12">
+        <f t="shared" si="70"/>
+        <v>0.66999999999999993</v>
+      </c>
+      <c r="M101" s="12">
+        <f t="shared" si="70"/>
+        <v>1.01</v>
+      </c>
+      <c r="N101" s="12">
+        <f t="shared" si="70"/>
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="102" spans="7:32">
+      <c r="G102" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H102" s="12">
+        <f t="shared" si="71"/>
+        <v>0.04</v>
+      </c>
+      <c r="I102" s="12">
+        <f t="shared" si="70"/>
+        <v>0.1</v>
+      </c>
+      <c r="J102" s="12">
+        <f t="shared" si="70"/>
+        <v>0.22</v>
+      </c>
+      <c r="K102" s="12">
+        <f t="shared" si="70"/>
+        <v>0.45999999999999996</v>
+      </c>
+      <c r="L102" s="12">
+        <f t="shared" si="70"/>
+        <v>0.80999999999999994</v>
+      </c>
+      <c r="M102" s="12">
+        <f t="shared" si="70"/>
+        <v>1.22</v>
+      </c>
+      <c r="N102" s="12">
+        <f t="shared" si="70"/>
+        <v>2.04</v>
+      </c>
+      <c r="AF102" s="12"/>
+    </row>
+    <row r="103" spans="7:32">
+      <c r="G103" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H103" s="12">
+        <f t="shared" si="71"/>
+        <v>0.04</v>
+      </c>
+      <c r="I103" s="12">
+        <f t="shared" si="70"/>
+        <v>0.11000000000000001</v>
+      </c>
+      <c r="J103" s="12">
+        <f t="shared" si="70"/>
+        <v>0.25</v>
+      </c>
+      <c r="K103" s="12">
+        <f t="shared" si="70"/>
+        <v>0.53</v>
+      </c>
+      <c r="L103" s="12">
+        <f t="shared" si="70"/>
+        <v>0.95</v>
+      </c>
+      <c r="M103" s="12">
+        <f t="shared" si="70"/>
+        <v>1.44</v>
+      </c>
+      <c r="N103" s="12">
+        <f t="shared" si="70"/>
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="104" spans="7:32">
+      <c r="G104" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H104" s="12">
+        <f t="shared" si="71"/>
+        <v>0.05</v>
+      </c>
+      <c r="I104" s="12">
+        <f t="shared" si="70"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J104" s="12">
+        <f t="shared" si="70"/>
+        <v>0.31000000000000005</v>
+      </c>
+      <c r="K104" s="12">
+        <f t="shared" si="70"/>
+        <v>0.65000000000000013</v>
+      </c>
+      <c r="L104" s="12">
+        <f t="shared" si="70"/>
+        <v>1.1500000000000001</v>
+      </c>
+      <c r="M104" s="12">
+        <f t="shared" si="70"/>
+        <v>1.7400000000000002</v>
+      </c>
+      <c r="N104" s="12">
+        <f t="shared" si="70"/>
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="105" spans="7:32">
+      <c r="G105" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H105" s="12">
+        <f t="shared" si="71"/>
+        <v>0.05</v>
+      </c>
+      <c r="I105" s="12">
+        <f t="shared" si="70"/>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="J105" s="12">
+        <f t="shared" si="70"/>
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="K105" s="12">
+        <f t="shared" si="70"/>
+        <v>0.75</v>
+      </c>
+      <c r="L105" s="12">
+        <f t="shared" si="70"/>
+        <v>1.3399999999999999</v>
+      </c>
+      <c r="M105" s="12">
+        <f t="shared" si="70"/>
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="N105" s="12">
+        <f t="shared" si="70"/>
+        <v>3.4099999999999997</v>
+      </c>
+    </row>
+    <row r="106" spans="7:32">
+      <c r="G106" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="H106" s="12">
+        <f t="shared" si="71"/>
+        <v>0.06</v>
+      </c>
+      <c r="I106" s="12">
+        <f t="shared" si="70"/>
+        <v>0.21</v>
+      </c>
+      <c r="J106" s="12">
+        <f t="shared" si="70"/>
+        <v>0.51</v>
+      </c>
+      <c r="K106" s="12">
+        <f t="shared" si="70"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L106" s="12">
+        <f t="shared" si="70"/>
+        <v>1.98</v>
+      </c>
+      <c r="M106" s="12">
+        <f t="shared" si="70"/>
+        <v>3.01</v>
+      </c>
+      <c r="N106" s="12">
+        <f t="shared" si="70"/>
+        <v>5.0599999999999996</v>
+      </c>
+    </row>
+    <row r="107" spans="7:32">
+      <c r="G107" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="H107" s="12">
+        <f t="shared" si="71"/>
+        <v>0.06</v>
+      </c>
+      <c r="I107" s="12">
+        <f t="shared" si="70"/>
+        <v>0.23</v>
+      </c>
+      <c r="J107" s="12">
+        <f t="shared" si="70"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="K107" s="12">
+        <f t="shared" si="70"/>
+        <v>1.21</v>
+      </c>
+      <c r="L107" s="12">
+        <f t="shared" si="70"/>
+        <v>2.1799999999999997</v>
+      </c>
+      <c r="M107" s="12">
+        <f t="shared" si="70"/>
+        <v>3.3099999999999996</v>
+      </c>
+      <c r="N107" s="12">
+        <f t="shared" si="70"/>
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="108" spans="7:32">
+      <c r="G108" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="H108" s="12">
+        <f t="shared" si="71"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I108" s="12">
+        <f t="shared" si="70"/>
+        <v>0.25</v>
+      </c>
+      <c r="J108" s="12">
+        <f t="shared" si="70"/>
+        <v>0.61</v>
+      </c>
+      <c r="K108" s="12">
+        <f t="shared" si="70"/>
+        <v>1.3199999999999998</v>
+      </c>
+      <c r="L108" s="12">
+        <f t="shared" si="70"/>
+        <v>2.38</v>
+      </c>
+      <c r="M108" s="12">
+        <f t="shared" si="70"/>
+        <v>3.61</v>
+      </c>
+      <c r="N108" s="12">
+        <f t="shared" si="70"/>
+        <v>6.07</v>
+      </c>
+    </row>
+    <row r="109" spans="7:32">
+      <c r="G109" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="H109" s="12">
+        <f t="shared" si="71"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I109" s="12">
+        <f t="shared" si="70"/>
+        <v>0.27</v>
+      </c>
+      <c r="J109" s="12">
+        <f t="shared" si="70"/>
+        <v>0.67</v>
+      </c>
+      <c r="K109" s="12">
+        <f t="shared" si="70"/>
+        <v>1.4700000000000002</v>
+      </c>
+      <c r="L109" s="12">
+        <f t="shared" si="70"/>
+        <v>2.67</v>
+      </c>
+      <c r="M109" s="12">
+        <f t="shared" si="70"/>
+        <v>4.07</v>
+      </c>
+      <c r="N109" s="12">
+        <f t="shared" si="70"/>
+        <v>6.86</v>
+      </c>
+    </row>
+    <row r="110" spans="7:32">
+      <c r="G110" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="H110" s="12">
+        <f t="shared" si="71"/>
+        <v>0.08</v>
+      </c>
+      <c r="I110" s="12">
+        <f t="shared" si="70"/>
+        <v>0.31</v>
+      </c>
+      <c r="J110" s="12">
+        <f t="shared" si="70"/>
+        <v>0.76</v>
+      </c>
+      <c r="K110" s="12">
+        <f t="shared" si="70"/>
+        <v>1.6600000000000001</v>
+      </c>
+      <c r="L110" s="12">
+        <f t="shared" si="70"/>
+        <v>3.0100000000000002</v>
+      </c>
+      <c r="M110" s="12">
+        <f t="shared" si="70"/>
+        <v>4.59</v>
+      </c>
+      <c r="N110" s="12">
+        <f t="shared" si="70"/>
+        <v>7.74</v>
+      </c>
+    </row>
+    <row r="111" spans="7:32">
+      <c r="G111" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="H111" s="12">
+        <f t="shared" si="71"/>
+        <v>0.08</v>
+      </c>
+      <c r="I111" s="12">
+        <f t="shared" si="70"/>
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="J111" s="12">
+        <f t="shared" si="70"/>
+        <v>0.88000000000000012</v>
+      </c>
+      <c r="K111" s="12">
+        <f t="shared" si="70"/>
+        <v>1.9400000000000002</v>
+      </c>
+      <c r="L111" s="12">
+        <f t="shared" si="70"/>
+        <v>3.5200000000000005</v>
+      </c>
+      <c r="M111" s="12">
+        <f t="shared" si="70"/>
+        <v>5.36</v>
+      </c>
+      <c r="N111" s="12">
+        <f t="shared" si="70"/>
+        <v>9.0400000000000009</v>
+      </c>
+    </row>
+    <row r="112" spans="7:32">
+      <c r="G112" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="H112" s="12">
+        <f t="shared" si="71"/>
         <v>0.09</v>
       </c>
-      <c r="AA81" s="12">
-        <f t="shared" si="139"/>
-        <v>0.66999999999999993</v>
-      </c>
-      <c r="AB81" s="12">
-        <f t="shared" si="139"/>
-        <v>1.8299999999999998</v>
-      </c>
-      <c r="AC81" s="12">
-        <f t="shared" si="139"/>
-        <v>4.1399999999999997</v>
-      </c>
-      <c r="AD81" s="12">
-        <f t="shared" si="139"/>
-        <v>7.6</v>
-      </c>
-      <c r="AE81" s="12">
-        <f t="shared" si="139"/>
-        <v>11.64</v>
-      </c>
-    </row>
-    <row r="82" spans="7:32" ht="17.25" thickTop="1">
-      <c r="G82" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H82" s="12">
-        <f t="shared" ref="H82:H95" si="140">H59</f>
-        <v>0.01</v>
-      </c>
-      <c r="I82" s="12">
-        <f t="shared" ref="I82:N91" si="141">I59+H82</f>
-        <v>0.03</v>
-      </c>
-      <c r="J82" s="12">
-        <f t="shared" si="141"/>
-        <v>0.06</v>
-      </c>
-      <c r="K82" s="12">
-        <f t="shared" si="141"/>
-        <v>0.12</v>
-      </c>
-      <c r="L82" s="12">
-        <f t="shared" si="141"/>
-        <v>0.21</v>
-      </c>
-      <c r="M82" s="12">
-        <f t="shared" si="141"/>
-        <v>0.31</v>
-      </c>
-      <c r="N82" s="12">
-        <f t="shared" si="141"/>
-        <v>0.51</v>
-      </c>
-      <c r="Y82" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="Z82" s="12">
-        <f t="shared" si="138"/>
+      <c r="I112" s="12">
+        <f t="shared" ref="I112:N116" si="72">I81+H112</f>
+        <v>0.41000000000000003</v>
+      </c>
+      <c r="J112" s="12">
+        <f t="shared" si="72"/>
+        <v>1.05</v>
+      </c>
+      <c r="K112" s="12">
+        <f t="shared" si="72"/>
+        <v>2.3200000000000003</v>
+      </c>
+      <c r="L112" s="12">
+        <f t="shared" si="72"/>
+        <v>4.2200000000000006</v>
+      </c>
+      <c r="M112" s="12">
+        <f t="shared" si="72"/>
+        <v>6.4400000000000013</v>
+      </c>
+      <c r="N112" s="12">
+        <f t="shared" si="72"/>
+        <v>10.870000000000001</v>
+      </c>
+    </row>
+    <row r="113" spans="7:14">
+      <c r="G113" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="H113" s="12">
+        <f t="shared" si="71"/>
+        <v>0.09</v>
+      </c>
+      <c r="I113" s="12">
+        <f t="shared" si="72"/>
+        <v>0.47</v>
+      </c>
+      <c r="J113" s="12">
+        <f t="shared" si="72"/>
+        <v>1.23</v>
+      </c>
+      <c r="K113" s="12">
+        <f t="shared" si="72"/>
+        <v>2.74</v>
+      </c>
+      <c r="L113" s="12">
+        <f t="shared" si="72"/>
+        <v>4.99</v>
+      </c>
+      <c r="M113" s="12">
+        <f t="shared" si="72"/>
+        <v>7.62</v>
+      </c>
+      <c r="N113" s="12">
+        <f t="shared" si="72"/>
+        <v>12.879999999999999</v>
+      </c>
+    </row>
+    <row r="114" spans="7:14">
+      <c r="G114" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="H114" s="12">
+        <f t="shared" si="71"/>
         <v>0.1</v>
       </c>
-      <c r="AA82" s="12">
-        <f t="shared" si="139"/>
-        <v>0.75</v>
-      </c>
-      <c r="AB82" s="12">
-        <f t="shared" si="139"/>
-        <v>2.04</v>
-      </c>
-      <c r="AC82" s="12">
-        <f t="shared" si="139"/>
-        <v>4.62</v>
-      </c>
-      <c r="AD82" s="12">
-        <f t="shared" si="139"/>
-        <v>8.49</v>
-      </c>
-      <c r="AE82" s="12">
-        <f t="shared" si="139"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="83" spans="7:32">
-      <c r="G83" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H83" s="12">
-        <f t="shared" si="140"/>
-        <v>0.01</v>
-      </c>
-      <c r="I83" s="12">
-        <f t="shared" si="141"/>
-        <v>0.03</v>
-      </c>
-      <c r="J83" s="12">
-        <f t="shared" si="141"/>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="K83" s="12">
-        <f t="shared" si="141"/>
-        <v>0.15000000000000002</v>
-      </c>
-      <c r="L83" s="12">
-        <f t="shared" si="141"/>
-        <v>0.27</v>
-      </c>
-      <c r="M83" s="12">
-        <f t="shared" si="141"/>
-        <v>0.41000000000000003</v>
-      </c>
-      <c r="N83" s="12">
-        <f t="shared" si="141"/>
-        <v>0.68</v>
-      </c>
-      <c r="Y83" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="Z83" s="12">
-        <f t="shared" si="138"/>
+      <c r="I114" s="12">
+        <f t="shared" si="72"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J114" s="12">
+        <f t="shared" si="72"/>
+        <v>1.44</v>
+      </c>
+      <c r="K114" s="12">
+        <f t="shared" si="72"/>
+        <v>3.21</v>
+      </c>
+      <c r="L114" s="12">
+        <f t="shared" si="72"/>
+        <v>5.8599999999999994</v>
+      </c>
+      <c r="M114" s="12">
+        <f t="shared" si="72"/>
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="N114" s="12">
+        <f t="shared" si="72"/>
+        <v>15.129999999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="7:14">
+      <c r="G115" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="H115" s="12">
+        <f t="shared" si="71"/>
+        <v>0.1</v>
+      </c>
+      <c r="I115" s="12">
+        <f t="shared" si="72"/>
+        <v>0.62</v>
+      </c>
+      <c r="J115" s="12">
+        <f t="shared" si="72"/>
+        <v>1.65</v>
+      </c>
+      <c r="K115" s="12">
+        <f t="shared" si="72"/>
+        <v>3.71</v>
+      </c>
+      <c r="L115" s="12">
+        <f t="shared" si="72"/>
+        <v>6.8</v>
+      </c>
+      <c r="M115" s="12">
+        <f t="shared" si="72"/>
+        <v>10.4</v>
+      </c>
+      <c r="N115" s="12">
+        <f t="shared" si="72"/>
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="7:14">
+      <c r="G116" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="H116" s="12">
+        <f t="shared" si="71"/>
         <v>0.11</v>
       </c>
-      <c r="AA83" s="12">
-        <f t="shared" si="139"/>
-        <v>0.83</v>
-      </c>
-      <c r="AB83" s="12">
-        <f t="shared" si="139"/>
-        <v>2.27</v>
-      </c>
-      <c r="AC83" s="12">
-        <f t="shared" si="139"/>
-        <v>5.1400000000000006</v>
-      </c>
-      <c r="AD83" s="12">
-        <f t="shared" si="139"/>
-        <v>9.4400000000000013</v>
-      </c>
-      <c r="AE83" s="12">
-        <f t="shared" si="139"/>
-        <v>14.450000000000001</v>
-      </c>
-    </row>
-    <row r="84" spans="7:32">
-      <c r="G84" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H84" s="12">
-        <f t="shared" si="140"/>
-        <v>0.02</v>
-      </c>
-      <c r="I84" s="12">
-        <f t="shared" si="141"/>
-        <v>0.05</v>
-      </c>
-      <c r="J84" s="12">
-        <f t="shared" si="141"/>
-        <v>0.1</v>
-      </c>
-      <c r="K84" s="12">
-        <f t="shared" si="141"/>
-        <v>0.2</v>
-      </c>
-      <c r="L84" s="12">
-        <f t="shared" si="141"/>
-        <v>0.35</v>
-      </c>
-      <c r="M84" s="12">
-        <f t="shared" si="141"/>
-        <v>0.53</v>
-      </c>
-      <c r="N84" s="12">
-        <f t="shared" si="141"/>
-        <v>0.88</v>
-      </c>
-      <c r="Y84" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="Z84" s="12">
-        <f t="shared" si="138"/>
-        <v>0.12</v>
-      </c>
-      <c r="AA84" s="12">
-        <f t="shared" si="139"/>
+      <c r="I116" s="12">
+        <f t="shared" si="72"/>
         <v>0.71</v>
       </c>
-      <c r="AB84" s="12">
-        <f t="shared" si="139"/>
-        <v>1.88</v>
-      </c>
-      <c r="AC84" s="12">
-        <f t="shared" si="139"/>
-        <v>4.21</v>
-      </c>
-      <c r="AD84" s="12">
-        <f t="shared" si="139"/>
-        <v>7.7</v>
-      </c>
-      <c r="AE84" s="12">
-        <f t="shared" si="139"/>
-        <v>11.77</v>
-      </c>
-    </row>
-    <row r="85" spans="7:32">
-      <c r="G85" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="H85" s="12">
-        <f t="shared" si="140"/>
-        <v>0.02</v>
-      </c>
-      <c r="I85" s="12">
-        <f t="shared" si="141"/>
-        <v>0.06</v>
-      </c>
-      <c r="J85" s="12">
-        <f t="shared" si="141"/>
-        <v>0.13</v>
-      </c>
-      <c r="K85" s="12">
-        <f t="shared" si="141"/>
-        <v>0.26</v>
-      </c>
-      <c r="L85" s="12">
-        <f t="shared" si="141"/>
-        <v>0.45</v>
-      </c>
-      <c r="M85" s="12">
-        <f t="shared" si="141"/>
-        <v>0.67</v>
-      </c>
-      <c r="N85" s="12">
-        <f t="shared" si="141"/>
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="Y85" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="Z85" s="12">
-        <f t="shared" si="138"/>
-        <v>0.13</v>
-      </c>
-      <c r="AA85" s="12">
-        <f t="shared" si="139"/>
-        <v>0.75</v>
-      </c>
-      <c r="AB85" s="12">
-        <f t="shared" si="139"/>
-        <v>1.99</v>
-      </c>
-      <c r="AC85" s="12">
-        <f t="shared" si="139"/>
-        <v>4.47</v>
-      </c>
-      <c r="AD85" s="12">
-        <f t="shared" si="139"/>
-        <v>8.18</v>
-      </c>
-      <c r="AE85" s="12">
-        <f t="shared" si="139"/>
-        <v>12.51</v>
-      </c>
-    </row>
-    <row r="86" spans="7:32">
-      <c r="G86" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H86" s="12">
-        <f t="shared" si="140"/>
-        <v>0.03</v>
-      </c>
-      <c r="I86" s="12">
-        <f t="shared" si="141"/>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="J86" s="12">
-        <f t="shared" si="141"/>
-        <v>0.15000000000000002</v>
-      </c>
-      <c r="K86" s="12">
-        <f t="shared" si="141"/>
-        <v>0.31000000000000005</v>
-      </c>
-      <c r="L86" s="12">
-        <f t="shared" si="141"/>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="M86" s="12">
-        <f t="shared" si="141"/>
-        <v>0.83000000000000007</v>
-      </c>
-      <c r="N86" s="12">
-        <f t="shared" si="141"/>
-        <v>1.3800000000000001</v>
-      </c>
-      <c r="Y86" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="Z86" s="12">
-        <f t="shared" si="138"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AA86" s="12">
-        <f t="shared" si="139"/>
-        <v>0.8</v>
-      </c>
-      <c r="AB86" s="12">
-        <f t="shared" si="139"/>
-        <v>2.12</v>
-      </c>
-      <c r="AC86" s="12">
-        <f t="shared" si="139"/>
-        <v>4.75</v>
-      </c>
-      <c r="AD86" s="12">
-        <f t="shared" si="139"/>
-        <v>8.69</v>
-      </c>
-      <c r="AE86" s="12">
-        <f t="shared" si="139"/>
-        <v>13.29</v>
-      </c>
-    </row>
-    <row r="87" spans="7:32">
-      <c r="G87" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H87" s="12">
-        <f t="shared" si="140"/>
-        <v>0.03</v>
-      </c>
-      <c r="I87" s="12">
-        <f t="shared" si="141"/>
-        <v>0.08</v>
-      </c>
-      <c r="J87" s="12">
-        <f t="shared" si="141"/>
-        <v>0.18</v>
-      </c>
-      <c r="K87" s="12">
-        <f t="shared" si="141"/>
-        <v>0.38</v>
-      </c>
-      <c r="L87" s="12">
-        <f t="shared" si="141"/>
-        <v>0.66999999999999993</v>
-      </c>
-      <c r="M87" s="12">
-        <f t="shared" si="141"/>
-        <v>1.01</v>
-      </c>
-      <c r="N87" s="12">
-        <f t="shared" si="141"/>
-        <v>1.69</v>
-      </c>
-      <c r="Y87" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="Z87" s="12">
-        <f t="shared" si="138"/>
-        <v>0.15</v>
-      </c>
-      <c r="AA87" s="12">
-        <f t="shared" si="139"/>
-        <v>0.85</v>
-      </c>
-      <c r="AB87" s="12">
-        <f t="shared" si="139"/>
-        <v>2.25</v>
-      </c>
-      <c r="AC87" s="12">
-        <f t="shared" si="139"/>
-        <v>5.04</v>
-      </c>
-      <c r="AD87" s="12">
-        <f t="shared" si="139"/>
-        <v>9.2199999999999989</v>
-      </c>
-      <c r="AE87" s="12">
-        <f t="shared" si="139"/>
-        <v>14.099999999999998</v>
-      </c>
-    </row>
-    <row r="88" spans="7:32">
-      <c r="G88" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H88" s="12">
-        <f t="shared" si="140"/>
-        <v>0.04</v>
-      </c>
-      <c r="I88" s="12">
-        <f t="shared" si="141"/>
-        <v>0.1</v>
-      </c>
-      <c r="J88" s="12">
-        <f t="shared" si="141"/>
-        <v>0.22</v>
-      </c>
-      <c r="K88" s="12">
-        <f t="shared" si="141"/>
-        <v>0.45999999999999996</v>
-      </c>
-      <c r="L88" s="12">
-        <f t="shared" si="141"/>
-        <v>0.80999999999999994</v>
-      </c>
-      <c r="M88" s="12">
-        <f t="shared" si="141"/>
-        <v>1.22</v>
-      </c>
-      <c r="N88" s="12">
-        <f t="shared" si="141"/>
-        <v>2.04</v>
-      </c>
-      <c r="AF88" s="12"/>
-    </row>
-    <row r="89" spans="7:32">
-      <c r="G89" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H89" s="12">
-        <f t="shared" si="140"/>
-        <v>0.04</v>
-      </c>
-      <c r="I89" s="12">
-        <f t="shared" si="141"/>
-        <v>0.11000000000000001</v>
-      </c>
-      <c r="J89" s="12">
-        <f t="shared" si="141"/>
-        <v>0.25</v>
-      </c>
-      <c r="K89" s="12">
-        <f t="shared" si="141"/>
-        <v>0.53</v>
-      </c>
-      <c r="L89" s="12">
-        <f t="shared" si="141"/>
-        <v>0.95</v>
-      </c>
-      <c r="M89" s="12">
-        <f t="shared" si="141"/>
-        <v>1.44</v>
-      </c>
-      <c r="N89" s="12">
-        <f t="shared" si="141"/>
-        <v>2.42</v>
-      </c>
-    </row>
-    <row r="90" spans="7:32">
-      <c r="G90" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H90" s="12">
-        <f t="shared" si="140"/>
-        <v>0.05</v>
-      </c>
-      <c r="I90" s="12">
-        <f t="shared" si="141"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="J90" s="12">
-        <f t="shared" si="141"/>
-        <v>0.31000000000000005</v>
-      </c>
-      <c r="K90" s="12">
-        <f t="shared" si="141"/>
-        <v>0.65000000000000013</v>
-      </c>
-      <c r="L90" s="12">
-        <f t="shared" si="141"/>
-        <v>1.1500000000000001</v>
-      </c>
-      <c r="M90" s="12">
-        <f t="shared" si="141"/>
-        <v>1.7400000000000002</v>
-      </c>
-      <c r="N90" s="12">
-        <f t="shared" si="141"/>
-        <v>2.91</v>
-      </c>
-    </row>
-    <row r="91" spans="7:32">
-      <c r="G91" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H91" s="12">
-        <f t="shared" si="140"/>
-        <v>0.05</v>
-      </c>
-      <c r="I91" s="12">
-        <f t="shared" si="141"/>
-        <v>0.15000000000000002</v>
-      </c>
-      <c r="J91" s="12">
-        <f t="shared" si="141"/>
-        <v>0.35000000000000003</v>
-      </c>
-      <c r="K91" s="12">
-        <f t="shared" si="141"/>
-        <v>0.75</v>
-      </c>
-      <c r="L91" s="12">
-        <f t="shared" si="141"/>
-        <v>1.3399999999999999</v>
-      </c>
-      <c r="M91" s="12">
-        <f t="shared" si="141"/>
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="N91" s="12">
-        <f t="shared" si="141"/>
-        <v>3.4099999999999997</v>
-      </c>
-    </row>
-    <row r="92" spans="7:32">
-      <c r="G92" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="H92" s="12">
-        <f t="shared" si="140"/>
-        <v>0.06</v>
-      </c>
-      <c r="I92" s="12">
-        <f t="shared" ref="I92:N99" si="142">I69+H92</f>
-        <v>0.21</v>
-      </c>
-      <c r="J92" s="12">
-        <f t="shared" si="142"/>
-        <v>0.51</v>
-      </c>
-      <c r="K92" s="12">
-        <f t="shared" si="142"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L92" s="12">
-        <f t="shared" si="142"/>
-        <v>1.98</v>
-      </c>
-      <c r="M92" s="12">
-        <f t="shared" si="142"/>
-        <v>3.01</v>
-      </c>
-      <c r="N92" s="12">
-        <f t="shared" si="142"/>
-        <v>5.0599999999999996</v>
-      </c>
-    </row>
-    <row r="93" spans="7:32">
-      <c r="G93" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="H93" s="12">
-        <f t="shared" si="140"/>
-        <v>0.06</v>
-      </c>
-      <c r="I93" s="12">
-        <f t="shared" si="142"/>
-        <v>0.23</v>
-      </c>
-      <c r="J93" s="12">
-        <f t="shared" si="142"/>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="K93" s="12">
-        <f t="shared" si="142"/>
-        <v>1.21</v>
-      </c>
-      <c r="L93" s="12">
-        <f t="shared" si="142"/>
-        <v>2.1799999999999997</v>
-      </c>
-      <c r="M93" s="12">
-        <f t="shared" si="142"/>
-        <v>3.3099999999999996</v>
-      </c>
-      <c r="N93" s="12">
-        <f t="shared" si="142"/>
-        <v>5.56</v>
-      </c>
-    </row>
-    <row r="94" spans="7:32">
-      <c r="G94" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="H94" s="12">
-        <f t="shared" si="140"/>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="I94" s="12">
-        <f t="shared" si="142"/>
-        <v>0.25</v>
-      </c>
-      <c r="J94" s="12">
-        <f t="shared" si="142"/>
-        <v>0.61</v>
-      </c>
-      <c r="K94" s="12">
-        <f t="shared" si="142"/>
-        <v>1.3199999999999998</v>
-      </c>
-      <c r="L94" s="12">
-        <f t="shared" si="142"/>
-        <v>2.38</v>
-      </c>
-      <c r="M94" s="12">
-        <f t="shared" si="142"/>
-        <v>3.61</v>
-      </c>
-      <c r="N94" s="12">
-        <f t="shared" si="142"/>
-        <v>6.07</v>
-      </c>
-    </row>
-    <row r="95" spans="7:32">
-      <c r="G95" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="H95" s="12">
-        <f t="shared" si="140"/>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="I95" s="12">
-        <f t="shared" si="142"/>
-        <v>0.27</v>
-      </c>
-      <c r="J95" s="12">
-        <f t="shared" si="142"/>
-        <v>0.67</v>
-      </c>
-      <c r="K95" s="12">
-        <f t="shared" si="142"/>
-        <v>1.4700000000000002</v>
-      </c>
-      <c r="L95" s="12">
-        <f t="shared" si="142"/>
-        <v>2.67</v>
-      </c>
-      <c r="M95" s="12">
-        <f t="shared" si="142"/>
-        <v>4.07</v>
-      </c>
-      <c r="N95" s="12">
-        <f t="shared" si="142"/>
-        <v>6.86</v>
-      </c>
-    </row>
-    <row r="96" spans="7:32">
-      <c r="G96" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="H96" s="12">
-        <v>0.08</v>
-      </c>
-      <c r="I96" s="12">
-        <f t="shared" si="142"/>
-        <v>0.31</v>
-      </c>
-      <c r="J96" s="12">
-        <f t="shared" si="142"/>
-        <v>0.76</v>
-      </c>
-      <c r="K96" s="12">
-        <f t="shared" si="142"/>
-        <v>1.6600000000000001</v>
-      </c>
-      <c r="L96" s="12">
-        <f t="shared" si="142"/>
-        <v>3.0100000000000002</v>
-      </c>
-      <c r="M96" s="12">
-        <f t="shared" si="142"/>
-        <v>4.59</v>
-      </c>
-      <c r="N96" s="12">
-        <f t="shared" si="142"/>
-        <v>7.74</v>
-      </c>
-    </row>
-    <row r="97" spans="7:14">
-      <c r="G97" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="H97" s="12">
-        <v>0.08</v>
-      </c>
-      <c r="I97" s="12">
-        <f t="shared" si="142"/>
-        <v>0.35000000000000003</v>
-      </c>
-      <c r="J97" s="12">
-        <f t="shared" si="142"/>
-        <v>0.88000000000000012</v>
-      </c>
-      <c r="K97" s="12">
-        <f t="shared" si="142"/>
-        <v>1.9400000000000002</v>
-      </c>
-      <c r="L97" s="12">
-        <f t="shared" si="142"/>
-        <v>3.5200000000000005</v>
-      </c>
-      <c r="M97" s="12">
-        <f t="shared" si="142"/>
-        <v>5.36</v>
-      </c>
-      <c r="N97" s="12">
-        <f t="shared" si="142"/>
-        <v>9.0400000000000009</v>
-      </c>
-    </row>
-    <row r="98" spans="7:14">
-      <c r="G98" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="H98" s="12">
-        <v>0.09</v>
-      </c>
-      <c r="I98" s="12">
-        <f t="shared" si="142"/>
-        <v>0.41000000000000003</v>
-      </c>
-      <c r="J98" s="12">
-        <f t="shared" si="142"/>
-        <v>1.05</v>
-      </c>
-      <c r="K98" s="12">
-        <f t="shared" si="142"/>
-        <v>2.3200000000000003</v>
-      </c>
-      <c r="L98" s="12">
-        <f t="shared" si="142"/>
-        <v>4.2200000000000006</v>
-      </c>
-      <c r="M98" s="12">
-        <f t="shared" si="142"/>
-        <v>6.4400000000000013</v>
-      </c>
-      <c r="N98" s="12">
-        <f t="shared" si="142"/>
-        <v>10.870000000000001</v>
-      </c>
-    </row>
-    <row r="99" spans="7:14">
-      <c r="G99" s="12" t="s">
-        <v>369</v>
-      </c>
-      <c r="H99" s="12">
-        <v>0.09</v>
-      </c>
-      <c r="I99" s="12">
-        <f t="shared" si="142"/>
-        <v>0.47</v>
-      </c>
-      <c r="J99" s="12">
-        <f t="shared" si="142"/>
-        <v>1.23</v>
-      </c>
-      <c r="K99" s="12">
-        <f t="shared" si="142"/>
-        <v>2.74</v>
-      </c>
-      <c r="L99" s="12">
-        <f t="shared" si="142"/>
-        <v>4.99</v>
-      </c>
-      <c r="M99" s="12">
-        <f t="shared" si="142"/>
-        <v>7.62</v>
-      </c>
-      <c r="N99" s="12">
-        <f t="shared" si="142"/>
-        <v>12.879999999999999</v>
-      </c>
-    </row>
-    <row r="100" spans="7:14">
-      <c r="G100" s="12" t="s">
-        <v>376</v>
-      </c>
-      <c r="H100" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="I100" s="12">
-        <f t="shared" ref="I100" si="143">I77+H100</f>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="J100" s="12">
-        <f t="shared" ref="J100" si="144">J77+I100</f>
-        <v>1.44</v>
-      </c>
-      <c r="K100" s="12">
-        <f t="shared" ref="K100" si="145">K77+J100</f>
-        <v>3.21</v>
-      </c>
-      <c r="L100" s="12">
-        <f t="shared" ref="L100" si="146">L77+K100</f>
-        <v>5.8599999999999994</v>
-      </c>
-      <c r="M100" s="12">
-        <f t="shared" ref="M100" si="147">M77+L100</f>
-        <v>8.9499999999999993</v>
-      </c>
-      <c r="N100" s="12">
-        <f t="shared" ref="N100" si="148">N77+M100</f>
-        <v>15.129999999999999</v>
-      </c>
-    </row>
-    <row r="101" spans="7:14">
-      <c r="G101" s="12" t="s">
-        <v>388</v>
-      </c>
-      <c r="H101" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="I101" s="12">
-        <f t="shared" ref="I101:N101" si="149">I78+H101</f>
-        <v>0.62</v>
-      </c>
-      <c r="J101" s="12">
-        <f t="shared" si="149"/>
-        <v>1.65</v>
-      </c>
-      <c r="K101" s="12">
-        <f t="shared" si="149"/>
-        <v>3.71</v>
-      </c>
-      <c r="L101" s="12">
-        <f t="shared" si="149"/>
-        <v>6.8</v>
-      </c>
-      <c r="M101" s="12">
-        <f t="shared" si="149"/>
-        <v>10.4</v>
-      </c>
-      <c r="N101" s="12">
-        <f t="shared" si="149"/>
-        <v>17.600000000000001</v>
+      <c r="J116" s="12">
+        <f t="shared" si="72"/>
+        <v>1.9</v>
+      </c>
+      <c r="K116" s="12">
+        <f t="shared" si="72"/>
+        <v>4.2799999999999994</v>
+      </c>
+      <c r="L116" s="12">
+        <f t="shared" si="72"/>
+        <v>7.85</v>
+      </c>
+      <c r="M116" s="12">
+        <f t="shared" si="72"/>
+        <v>12.02</v>
+      </c>
+      <c r="N116" s="12">
+        <f t="shared" si="72"/>
+        <v>20.350000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -9870,8 +10335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14EF5D34-81E7-475D-8B1B-AFFF2EFE6FF9}">
   <dimension ref="A2:W50"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9988,23 +10453,23 @@
         <v>10나,20나,50나,100나,200나</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" ref="C4:C13" si="0">$C$3&amp;H4</f>
+        <f t="shared" ref="C4:C24" si="0">$C$3&amp;H4</f>
         <v>10나</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" ref="D4:D13" si="1">$D$3&amp;H4</f>
+        <f t="shared" ref="D4:D24" si="1">$D$3&amp;H4</f>
         <v>20나</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" ref="E4:E13" si="2">$E$3&amp;H4</f>
+        <f t="shared" ref="E4:E24" si="2">$E$3&amp;H4</f>
         <v>50나</v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" ref="F4:F13" si="3">$F$3&amp;H4</f>
+        <f t="shared" ref="F4:F24" si="3">$F$3&amp;H4</f>
         <v>100나</v>
       </c>
       <c r="G4" t="str">
-        <f t="shared" ref="G4:G13" si="4">$G$3&amp;H4</f>
+        <f t="shared" ref="G4:G24" si="4">$G$3&amp;H4</f>
         <v>200나</v>
       </c>
       <c r="H4" s="3" t="s">
@@ -10048,11 +10513,11 @@
         <v>8</v>
       </c>
       <c r="V4">
-        <f t="shared" ref="V4:V27" si="5">POWER(10,U4)</f>
+        <f t="shared" ref="V4:V37" si="5">POWER(10,U4)</f>
         <v>100000000</v>
       </c>
       <c r="W4" t="str">
-        <f t="shared" ref="W4:W27" si="6">RIGHT(V4,U4)</f>
+        <f t="shared" ref="W4:W37" si="6">RIGHT(V4,U4)</f>
         <v>00000000</v>
       </c>
     </row>
@@ -10061,7 +10526,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="str">
-        <f t="shared" ref="B5:B13" si="7">C5&amp;","&amp;D5&amp;","&amp;E5&amp;","&amp;F5&amp;","&amp;G5</f>
+        <f t="shared" ref="B5:B24" si="7">C5&amp;","&amp;D5&amp;","&amp;E5&amp;","&amp;F5&amp;","&amp;G5</f>
         <v>10불,20불,50불,100불,200불</v>
       </c>
       <c r="C5" t="str">
@@ -10091,31 +10556,31 @@
         <v>2</v>
       </c>
       <c r="K5" s="3" t="str">
-        <f t="shared" ref="K5:K13" si="8">L5&amp;","&amp;M5&amp;","&amp;N5&amp;","&amp;O5&amp;","&amp;P5</f>
+        <f t="shared" ref="K5:K24" si="8">L5&amp;","&amp;M5&amp;","&amp;N5&amp;","&amp;O5&amp;","&amp;P5</f>
         <v>1E+65,2E+65,5E+65,1E+66,2E+66</v>
       </c>
       <c r="L5">
-        <f t="shared" ref="L5:L13" si="9">$C$3*Q5</f>
+        <f t="shared" ref="L5:L24" si="9">$C$3*Q5</f>
         <v>9.9999999999999999E+64</v>
       </c>
       <c r="M5">
-        <f t="shared" ref="M5:M13" si="10">$D$3*Q5</f>
+        <f t="shared" ref="M5:M24" si="10">$D$3*Q5</f>
         <v>2E+65</v>
       </c>
       <c r="N5">
-        <f t="shared" ref="N5:N13" si="11">$E$3*Q5</f>
+        <f t="shared" ref="N5:N24" si="11">$E$3*Q5</f>
         <v>4.9999999999999997E+65</v>
       </c>
       <c r="O5">
-        <f t="shared" ref="O5:O13" si="12">$F$3*Q5</f>
+        <f t="shared" ref="O5:O24" si="12">$F$3*Q5</f>
         <v>9.9999999999999995E+65</v>
       </c>
       <c r="P5">
-        <f t="shared" ref="P5:P13" si="13">$G$3*Q5</f>
+        <f t="shared" ref="P5:P24" si="13">$G$3*Q5</f>
         <v>1.9999999999999999E+66</v>
       </c>
       <c r="Q5" t="str">
-        <f t="shared" ref="Q5:Q13" si="14">VLOOKUP(H5,T:W,4,FALSE)</f>
+        <f t="shared" ref="Q5:Q24" si="14">VLOOKUP(H5,T:W,4,FALSE)</f>
         <v>1E+64</v>
       </c>
       <c r="T5" t="s">
@@ -10754,27 +11219,27 @@
         <v>11</v>
       </c>
       <c r="B14" s="3" t="str">
-        <f t="shared" ref="B14" si="15">C14&amp;","&amp;D14&amp;","&amp;E14&amp;","&amp;F14&amp;","&amp;G14</f>
+        <f t="shared" si="7"/>
         <v>10언,20언,50언,100언,200언</v>
       </c>
       <c r="C14" t="str">
-        <f t="shared" ref="C14" si="16">$C$3&amp;H14</f>
+        <f t="shared" si="0"/>
         <v>10언</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" ref="D14" si="17">$D$3&amp;H14</f>
+        <f t="shared" si="1"/>
         <v>20언</v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" ref="E14" si="18">$E$3&amp;H14</f>
+        <f t="shared" si="2"/>
         <v>50언</v>
       </c>
       <c r="F14" t="str">
-        <f t="shared" ref="F14" si="19">$F$3&amp;H14</f>
+        <f t="shared" si="3"/>
         <v>100언</v>
       </c>
       <c r="G14" t="str">
-        <f t="shared" ref="G14" si="20">$G$3&amp;H14</f>
+        <f t="shared" si="4"/>
         <v>200언</v>
       </c>
       <c r="H14" s="3" t="s">
@@ -10784,31 +11249,31 @@
         <v>11</v>
       </c>
       <c r="K14" s="3" t="str">
-        <f t="shared" ref="K14" si="21">L14&amp;","&amp;M14&amp;","&amp;N14&amp;","&amp;O14&amp;","&amp;P14</f>
+        <f t="shared" si="8"/>
         <v>1E+101,2E+101,5E+101,1E+102,2E+102</v>
       </c>
       <c r="L14">
-        <f t="shared" ref="L14" si="22">$C$3*Q14</f>
+        <f t="shared" si="9"/>
         <v>9.9999999999999998E+100</v>
       </c>
       <c r="M14">
-        <f t="shared" ref="M14" si="23">$D$3*Q14</f>
+        <f t="shared" si="10"/>
         <v>2E+101</v>
       </c>
       <c r="N14">
-        <f t="shared" ref="N14" si="24">$E$3*Q14</f>
+        <f t="shared" si="11"/>
         <v>4.9999999999999999E+101</v>
       </c>
       <c r="O14">
-        <f t="shared" ref="O14" si="25">$F$3*Q14</f>
+        <f t="shared" si="12"/>
         <v>9.9999999999999998E+101</v>
       </c>
       <c r="P14">
-        <f t="shared" ref="P14" si="26">$G$3*Q14</f>
+        <f t="shared" si="13"/>
         <v>2E+102</v>
       </c>
       <c r="Q14" t="str">
-        <f t="shared" ref="Q14" si="27">VLOOKUP(H14,T:W,4,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>1E+100</v>
       </c>
       <c r="T14" t="s">
@@ -10831,27 +11296,27 @@
         <v>12</v>
       </c>
       <c r="B15" s="3" t="str">
-        <f t="shared" ref="B15" si="28">C15&amp;","&amp;D15&amp;","&amp;E15&amp;","&amp;F15&amp;","&amp;G15</f>
+        <f t="shared" si="7"/>
         <v>10승,20승,50승,100승,200승</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" ref="C15" si="29">$C$3&amp;H15</f>
+        <f t="shared" si="0"/>
         <v>10승</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" ref="D15" si="30">$D$3&amp;H15</f>
+        <f t="shared" si="1"/>
         <v>20승</v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" ref="E15" si="31">$E$3&amp;H15</f>
+        <f t="shared" si="2"/>
         <v>50승</v>
       </c>
       <c r="F15" t="str">
-        <f t="shared" ref="F15" si="32">$F$3&amp;H15</f>
+        <f t="shared" si="3"/>
         <v>100승</v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" ref="G15" si="33">$G$3&amp;H15</f>
+        <f t="shared" si="4"/>
         <v>200승</v>
       </c>
       <c r="H15" s="3" t="s">
@@ -10861,31 +11326,31 @@
         <v>12</v>
       </c>
       <c r="K15" s="3" t="str">
-        <f t="shared" ref="K15" si="34">L15&amp;","&amp;M15&amp;","&amp;N15&amp;","&amp;O15&amp;","&amp;P15</f>
+        <f t="shared" si="8"/>
         <v>1E+105,2E+105,5E+105,1E+106,2E+106</v>
       </c>
       <c r="L15">
-        <f t="shared" ref="L15" si="35">$C$3*Q15</f>
+        <f t="shared" si="9"/>
         <v>9.9999999999999994E+104</v>
       </c>
       <c r="M15">
-        <f t="shared" ref="M15" si="36">$D$3*Q15</f>
+        <f t="shared" si="10"/>
         <v>1.9999999999999999E+105</v>
       </c>
       <c r="N15">
-        <f t="shared" ref="N15" si="37">$E$3*Q15</f>
+        <f t="shared" si="11"/>
         <v>5.0000000000000005E+105</v>
       </c>
       <c r="O15">
-        <f t="shared" ref="O15" si="38">$F$3*Q15</f>
+        <f t="shared" si="12"/>
         <v>1.0000000000000001E+106</v>
       </c>
       <c r="P15">
-        <f t="shared" ref="P15" si="39">$G$3*Q15</f>
+        <f t="shared" si="13"/>
         <v>2.0000000000000002E+106</v>
       </c>
       <c r="Q15" t="str">
-        <f t="shared" ref="Q15" si="40">VLOOKUP(H15,T:W,4,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>1E+104</v>
       </c>
       <c r="T15" t="s">
@@ -10908,27 +11373,27 @@
         <v>13</v>
       </c>
       <c r="B16" s="3" t="str">
-        <f t="shared" ref="B16:B17" si="41">C16&amp;","&amp;D16&amp;","&amp;E16&amp;","&amp;F16&amp;","&amp;G16</f>
+        <f t="shared" si="7"/>
         <v>10마,20마,50마,100마,200마</v>
       </c>
       <c r="C16" t="str">
-        <f t="shared" ref="C16:C17" si="42">$C$3&amp;H16</f>
+        <f t="shared" si="0"/>
         <v>10마</v>
       </c>
       <c r="D16" t="str">
-        <f t="shared" ref="D16:D17" si="43">$D$3&amp;H16</f>
+        <f t="shared" si="1"/>
         <v>20마</v>
       </c>
       <c r="E16" t="str">
-        <f t="shared" ref="E16:E17" si="44">$E$3&amp;H16</f>
+        <f t="shared" si="2"/>
         <v>50마</v>
       </c>
       <c r="F16" t="str">
-        <f t="shared" ref="F16:F17" si="45">$F$3&amp;H16</f>
+        <f t="shared" si="3"/>
         <v>100마</v>
       </c>
       <c r="G16" t="str">
-        <f t="shared" ref="G16:G17" si="46">$G$3&amp;H16</f>
+        <f t="shared" si="4"/>
         <v>200마</v>
       </c>
       <c r="H16" s="3" t="s">
@@ -10938,31 +11403,31 @@
         <v>13</v>
       </c>
       <c r="K16" s="3" t="str">
-        <f t="shared" ref="K16:K17" si="47">L16&amp;","&amp;M16&amp;","&amp;N16&amp;","&amp;O16&amp;","&amp;P16</f>
+        <f t="shared" si="8"/>
         <v>1E+109,2E+109,5E+109,1E+110,2E+110</v>
       </c>
       <c r="L16">
-        <f t="shared" ref="L16:L17" si="48">$C$3*Q16</f>
+        <f t="shared" si="9"/>
         <v>9.9999999999999998E+108</v>
       </c>
       <c r="M16">
-        <f t="shared" ref="M16:M17" si="49">$D$3*Q16</f>
+        <f t="shared" si="10"/>
         <v>2E+109</v>
       </c>
       <c r="N16">
-        <f t="shared" ref="N16:N17" si="50">$E$3*Q16</f>
+        <f t="shared" si="11"/>
         <v>5.0000000000000001E+109</v>
       </c>
       <c r="O16">
-        <f t="shared" ref="O16:O17" si="51">$F$3*Q16</f>
+        <f t="shared" si="12"/>
         <v>1E+110</v>
       </c>
       <c r="P16">
-        <f t="shared" ref="P16:P17" si="52">$G$3*Q16</f>
+        <f t="shared" si="13"/>
         <v>2E+110</v>
       </c>
       <c r="Q16" t="str">
-        <f t="shared" ref="Q16:Q17" si="53">VLOOKUP(H16,T:W,4,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>1E+108</v>
       </c>
       <c r="T16" t="s">
@@ -10985,27 +11450,27 @@
         <v>14</v>
       </c>
       <c r="B17" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="7"/>
         <v>10살,20살,50살,100살,200살</v>
       </c>
       <c r="C17" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="0"/>
         <v>10살</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="1"/>
         <v>20살</v>
       </c>
       <c r="E17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="2"/>
         <v>50살</v>
       </c>
       <c r="F17" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="3"/>
         <v>100살</v>
       </c>
       <c r="G17" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="4"/>
         <v>200살</v>
       </c>
       <c r="H17" s="3" t="s">
@@ -11015,31 +11480,31 @@
         <v>14</v>
       </c>
       <c r="K17" s="3" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="8"/>
         <v>1E+113,2E+113,5E+113,1E+114,2E+114</v>
       </c>
       <c r="L17">
-        <f t="shared" si="48"/>
+        <f t="shared" si="9"/>
         <v>1E+113</v>
       </c>
       <c r="M17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="10"/>
         <v>2E+113</v>
       </c>
       <c r="N17">
-        <f t="shared" si="50"/>
+        <f t="shared" si="11"/>
         <v>4.9999999999999994E+113</v>
       </c>
       <c r="O17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="12"/>
         <v>9.9999999999999988E+113</v>
       </c>
       <c r="P17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="13"/>
         <v>1.9999999999999998E+114</v>
       </c>
       <c r="Q17" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="14"/>
         <v>1E+112</v>
       </c>
       <c r="T17" t="s">
@@ -11062,27 +11527,27 @@
         <v>15</v>
       </c>
       <c r="B18" s="3" t="str">
-        <f t="shared" ref="B18:B21" si="54">C18&amp;","&amp;D18&amp;","&amp;E18&amp;","&amp;F18&amp;","&amp;G18</f>
+        <f t="shared" si="7"/>
         <v>10섬,20섬,50섬,100섬,200섬</v>
       </c>
       <c r="C18" t="str">
-        <f t="shared" ref="C18:C21" si="55">$C$3&amp;H18</f>
+        <f t="shared" si="0"/>
         <v>10섬</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" ref="D18:D21" si="56">$D$3&amp;H18</f>
+        <f t="shared" si="1"/>
         <v>20섬</v>
       </c>
       <c r="E18" t="str">
-        <f t="shared" ref="E18:E21" si="57">$E$3&amp;H18</f>
+        <f t="shared" si="2"/>
         <v>50섬</v>
       </c>
       <c r="F18" t="str">
-        <f t="shared" ref="F18:F21" si="58">$F$3&amp;H18</f>
+        <f t="shared" si="3"/>
         <v>100섬</v>
       </c>
       <c r="G18" t="str">
-        <f t="shared" ref="G18:G21" si="59">$G$3&amp;H18</f>
+        <f t="shared" si="4"/>
         <v>200섬</v>
       </c>
       <c r="H18" s="3" t="s">
@@ -11092,31 +11557,31 @@
         <v>15</v>
       </c>
       <c r="K18" s="3" t="str">
-        <f t="shared" ref="K18:K20" si="60">L18&amp;","&amp;M18&amp;","&amp;N18&amp;","&amp;O18&amp;","&amp;P18</f>
+        <f t="shared" si="8"/>
         <v>1E+117,2E+117,5E+117,1E+118,2E+118</v>
       </c>
       <c r="L18">
-        <f t="shared" ref="L18:L20" si="61">$C$3*Q18</f>
+        <f t="shared" si="9"/>
         <v>1.0000000000000001E+117</v>
       </c>
       <c r="M18">
-        <f t="shared" ref="M18:M20" si="62">$D$3*Q18</f>
+        <f t="shared" si="10"/>
         <v>2.0000000000000001E+117</v>
       </c>
       <c r="N18">
-        <f t="shared" ref="N18:N20" si="63">$E$3*Q18</f>
+        <f t="shared" si="11"/>
         <v>4.9999999999999998E+117</v>
       </c>
       <c r="O18">
-        <f t="shared" ref="O18:O20" si="64">$F$3*Q18</f>
+        <f t="shared" si="12"/>
         <v>9.9999999999999997E+117</v>
       </c>
       <c r="P18">
-        <f t="shared" ref="P18:P20" si="65">$G$3*Q18</f>
+        <f t="shared" si="13"/>
         <v>1.9999999999999999E+118</v>
       </c>
       <c r="Q18" t="str">
-        <f t="shared" ref="Q18:Q24" si="66">VLOOKUP(H18,T:W,4,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>1E+116</v>
       </c>
       <c r="T18" t="s">
@@ -11139,27 +11604,27 @@
         <v>16</v>
       </c>
       <c r="B19" s="3" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="7"/>
         <v>10찰,20찰,50찰,100찰,200찰</v>
       </c>
       <c r="C19" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="0"/>
         <v>10찰</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="1"/>
         <v>20찰</v>
       </c>
       <c r="E19" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="2"/>
         <v>50찰</v>
       </c>
       <c r="F19" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="3"/>
         <v>100찰</v>
       </c>
       <c r="G19" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="4"/>
         <v>200찰</v>
       </c>
       <c r="H19" s="3" t="s">
@@ -11169,31 +11634,31 @@
         <v>16</v>
       </c>
       <c r="K19" s="3" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="8"/>
         <v>1E+121,2E+121,5E+121,1E+122,2E+122</v>
       </c>
       <c r="L19">
-        <f t="shared" si="61"/>
+        <f t="shared" si="9"/>
         <v>9.9999999999999992E+120</v>
       </c>
       <c r="M19">
-        <f t="shared" si="62"/>
+        <f t="shared" si="10"/>
         <v>1.9999999999999998E+121</v>
       </c>
       <c r="N19">
-        <f t="shared" si="63"/>
+        <f t="shared" si="11"/>
         <v>5.0000000000000001E+121</v>
       </c>
       <c r="O19">
-        <f t="shared" si="64"/>
+        <f t="shared" si="12"/>
         <v>1E+122</v>
       </c>
       <c r="P19">
-        <f t="shared" si="65"/>
+        <f t="shared" si="13"/>
         <v>2E+122</v>
       </c>
       <c r="Q19" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="14"/>
         <v>1E+120</v>
       </c>
       <c r="T19" t="s">
@@ -11216,27 +11681,27 @@
         <v>17</v>
       </c>
       <c r="B20" s="3" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="7"/>
         <v>10교,20교,50교,100교,200교</v>
       </c>
       <c r="C20" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="0"/>
         <v>10교</v>
       </c>
       <c r="D20" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="1"/>
         <v>20교</v>
       </c>
       <c r="E20" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="2"/>
         <v>50교</v>
       </c>
       <c r="F20" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="3"/>
         <v>100교</v>
       </c>
       <c r="G20" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="4"/>
         <v>200교</v>
       </c>
       <c r="H20" s="3" t="s">
@@ -11246,31 +11711,31 @@
         <v>17</v>
       </c>
       <c r="K20" s="3" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="8"/>
         <v>1E+125,2E+125,5E+125,1E+126,2E+126</v>
       </c>
       <c r="L20">
-        <f t="shared" si="61"/>
+        <f t="shared" si="9"/>
         <v>9.9999999999999992E+124</v>
       </c>
       <c r="M20">
-        <f t="shared" si="62"/>
+        <f t="shared" si="10"/>
         <v>1.9999999999999998E+125</v>
       </c>
       <c r="N20">
-        <f t="shared" si="63"/>
+        <f t="shared" si="11"/>
         <v>4.9999999999999996E+125</v>
       </c>
       <c r="O20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="12"/>
         <v>9.9999999999999992E+125</v>
       </c>
       <c r="P20">
-        <f t="shared" si="65"/>
+        <f t="shared" si="13"/>
         <v>1.9999999999999998E+126</v>
       </c>
       <c r="Q20" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="14"/>
         <v>1E+124</v>
       </c>
       <c r="T20" t="s">
@@ -11293,27 +11758,27 @@
         <v>18</v>
       </c>
       <c r="B21" s="3" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="7"/>
         <v>10위,20위,50위,100위,200위</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="0"/>
         <v>10위</v>
       </c>
       <c r="D21" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="1"/>
         <v>20위</v>
       </c>
       <c r="E21" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="2"/>
         <v>50위</v>
       </c>
       <c r="F21" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="3"/>
         <v>100위</v>
       </c>
       <c r="G21" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="4"/>
         <v>200위</v>
       </c>
       <c r="H21" s="3" t="s">
@@ -11323,31 +11788,31 @@
         <v>18</v>
       </c>
       <c r="K21" s="3" t="str">
-        <f t="shared" ref="K21:K24" si="67">L21&amp;","&amp;M21&amp;","&amp;N21&amp;","&amp;O21&amp;","&amp;P21</f>
+        <f t="shared" si="8"/>
         <v>1E+129,2E+129,5E+129,1E+130,2E+130</v>
       </c>
       <c r="L21">
-        <f t="shared" ref="L21:L24" si="68">$C$3*Q21</f>
+        <f t="shared" si="9"/>
         <v>1E+129</v>
       </c>
       <c r="M21">
-        <f t="shared" ref="M21:M24" si="69">$D$3*Q21</f>
+        <f t="shared" si="10"/>
         <v>2E+129</v>
       </c>
       <c r="N21">
-        <f t="shared" ref="N21:N24" si="70">$E$3*Q21</f>
+        <f t="shared" si="11"/>
         <v>5.0000000000000003E+129</v>
       </c>
       <c r="O21">
-        <f t="shared" ref="O21:O24" si="71">$F$3*Q21</f>
+        <f t="shared" si="12"/>
         <v>1.0000000000000001E+130</v>
       </c>
       <c r="P21">
-        <f t="shared" ref="P21:P24" si="72">$G$3*Q21</f>
+        <f t="shared" si="13"/>
         <v>2.0000000000000001E+130</v>
       </c>
       <c r="Q21" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="14"/>
         <v>1E+128</v>
       </c>
       <c r="T21" t="s">
@@ -11370,61 +11835,61 @@
         <v>19</v>
       </c>
       <c r="B22" s="3" t="str">
-        <f t="shared" ref="B22:B23" si="73">C22&amp;","&amp;D22&amp;","&amp;E22&amp;","&amp;F22&amp;","&amp;G22</f>
+        <f t="shared" si="7"/>
         <v>10설,20설,50설,100설,200설</v>
       </c>
       <c r="C22" t="str">
-        <f t="shared" ref="C22:C23" si="74">$C$3&amp;H22</f>
+        <f t="shared" si="0"/>
         <v>10설</v>
       </c>
       <c r="D22" t="str">
-        <f t="shared" ref="D22:D23" si="75">$D$3&amp;H22</f>
+        <f t="shared" si="1"/>
         <v>20설</v>
       </c>
       <c r="E22" t="str">
-        <f t="shared" ref="E22:E23" si="76">$E$3&amp;H22</f>
+        <f t="shared" si="2"/>
         <v>50설</v>
       </c>
       <c r="F22" t="str">
-        <f t="shared" ref="F22:F23" si="77">$F$3&amp;H22</f>
+        <f t="shared" si="3"/>
         <v>100설</v>
       </c>
       <c r="G22" t="str">
-        <f t="shared" ref="G22:G23" si="78">$G$3&amp;H22</f>
+        <f t="shared" si="4"/>
         <v>200설</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J22">
         <v>19</v>
       </c>
       <c r="K22" s="3" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="8"/>
         <v>1E+133,2E+133,5E+133,1E+134,2E+134</v>
       </c>
       <c r="L22">
-        <f t="shared" si="68"/>
+        <f t="shared" si="9"/>
         <v>1E+133</v>
       </c>
       <c r="M22">
-        <f t="shared" si="69"/>
+        <f t="shared" si="10"/>
         <v>2E+133</v>
       </c>
       <c r="N22">
-        <f t="shared" si="70"/>
+        <f t="shared" si="11"/>
         <v>4.9999999999999996E+133</v>
       </c>
       <c r="O22">
-        <f t="shared" si="71"/>
+        <f t="shared" si="12"/>
         <v>9.9999999999999992E+133</v>
       </c>
       <c r="P22">
-        <f t="shared" si="72"/>
+        <f t="shared" si="13"/>
         <v>1.9999999999999998E+134</v>
       </c>
       <c r="Q22" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="14"/>
         <v>1E+132</v>
       </c>
       <c r="T22" t="s">
@@ -11447,61 +11912,61 @@
         <v>20</v>
       </c>
       <c r="B23" s="3" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="7"/>
         <v>10적,20적,50적,100적,200적</v>
       </c>
       <c r="C23" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="0"/>
         <v>10적</v>
       </c>
       <c r="D23" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="1"/>
         <v>20적</v>
       </c>
       <c r="E23" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="2"/>
         <v>50적</v>
       </c>
       <c r="F23" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="3"/>
         <v>100적</v>
       </c>
       <c r="G23" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="4"/>
         <v>200적</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J23">
         <v>20</v>
       </c>
       <c r="K23" s="3" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="8"/>
         <v>1E+137,2E+137,5E+137,1E+138,2E+138</v>
       </c>
       <c r="L23">
-        <f t="shared" si="68"/>
+        <f t="shared" si="9"/>
         <v>1E+137</v>
       </c>
       <c r="M23">
-        <f t="shared" si="69"/>
+        <f t="shared" si="10"/>
         <v>2.0000000000000001E+137</v>
       </c>
       <c r="N23">
-        <f t="shared" si="70"/>
+        <f t="shared" si="11"/>
         <v>5.0000000000000002E+137</v>
       </c>
       <c r="O23">
-        <f t="shared" si="71"/>
+        <f t="shared" si="12"/>
         <v>1E+138</v>
       </c>
       <c r="P23">
-        <f t="shared" si="72"/>
+        <f t="shared" si="13"/>
         <v>2.0000000000000001E+138</v>
       </c>
       <c r="Q23" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="14"/>
         <v>1E+136</v>
       </c>
       <c r="T23" t="s">
@@ -11524,61 +11989,61 @@
         <v>21</v>
       </c>
       <c r="B24" s="3" t="str">
-        <f t="shared" ref="B24" si="79">C24&amp;","&amp;D24&amp;","&amp;E24&amp;","&amp;F24&amp;","&amp;G24</f>
-        <v>10c,20c,50c,100c,200c</v>
+        <f t="shared" si="7"/>
+        <v>10고,20고,50고,100고,200고</v>
       </c>
       <c r="C24" t="str">
-        <f t="shared" ref="C24" si="80">$C$3&amp;H24</f>
-        <v>10c</v>
+        <f t="shared" si="0"/>
+        <v>10고</v>
       </c>
       <c r="D24" t="str">
-        <f t="shared" ref="D24" si="81">$D$3&amp;H24</f>
-        <v>20c</v>
+        <f t="shared" si="1"/>
+        <v>20고</v>
       </c>
       <c r="E24" t="str">
-        <f t="shared" ref="E24" si="82">$E$3&amp;H24</f>
-        <v>50c</v>
+        <f t="shared" si="2"/>
+        <v>50고</v>
       </c>
       <c r="F24" t="str">
-        <f t="shared" ref="F24" si="83">$F$3&amp;H24</f>
-        <v>100c</v>
+        <f t="shared" si="3"/>
+        <v>100고</v>
       </c>
       <c r="G24" t="str">
-        <f t="shared" ref="G24" si="84">$G$3&amp;H24</f>
-        <v>200c</v>
+        <f t="shared" si="4"/>
+        <v>200고</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
       <c r="J24">
         <v>21</v>
       </c>
       <c r="K24" s="3" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="8"/>
         <v>1E+141,2E+141,5E+141,1E+142,2E+142</v>
       </c>
       <c r="L24">
-        <f t="shared" si="68"/>
+        <f t="shared" si="9"/>
         <v>1E+141</v>
       </c>
       <c r="M24">
-        <f t="shared" si="69"/>
+        <f t="shared" si="10"/>
         <v>2E+141</v>
       </c>
       <c r="N24">
-        <f t="shared" si="70"/>
+        <f t="shared" si="11"/>
         <v>5.0000000000000003E+141</v>
       </c>
       <c r="O24">
-        <f t="shared" si="71"/>
+        <f t="shared" si="12"/>
         <v>1.0000000000000001E+142</v>
       </c>
       <c r="P24">
-        <f t="shared" si="72"/>
+        <f t="shared" si="13"/>
         <v>2.0000000000000001E+142</v>
       </c>
       <c r="Q24" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="14"/>
         <v>1E+140</v>
       </c>
       <c r="T24" t="s">
@@ -11652,11 +12117,11 @@
         <v>104</v>
       </c>
       <c r="V28">
-        <f t="shared" ref="V28:V29" si="85">POWER(10,U28)</f>
+        <f t="shared" si="5"/>
         <v>1E+104</v>
       </c>
       <c r="W28" t="str">
-        <f t="shared" ref="W28:W29" si="86">RIGHT(V28,U28)</f>
+        <f t="shared" si="6"/>
         <v>1E+104</v>
       </c>
     </row>
@@ -11668,11 +12133,11 @@
         <v>108</v>
       </c>
       <c r="V29">
-        <f t="shared" si="85"/>
+        <f t="shared" si="5"/>
         <v>1E+108</v>
       </c>
       <c r="W29" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="6"/>
         <v>1E+108</v>
       </c>
     </row>
@@ -11684,11 +12149,11 @@
         <v>112</v>
       </c>
       <c r="V30">
-        <f t="shared" ref="V30:V31" si="87">POWER(10,U30)</f>
+        <f t="shared" si="5"/>
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="W30" t="str">
-        <f t="shared" ref="W30:W31" si="88">RIGHT(V30,U30)</f>
+        <f t="shared" si="6"/>
         <v>1E+112</v>
       </c>
     </row>
@@ -11700,11 +12165,11 @@
         <v>116</v>
       </c>
       <c r="V31">
-        <f t="shared" si="87"/>
+        <f t="shared" si="5"/>
         <v>1E+116</v>
       </c>
       <c r="W31" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="6"/>
         <v>1E+116</v>
       </c>
     </row>
@@ -11716,11 +12181,11 @@
         <v>120</v>
       </c>
       <c r="V32">
-        <f t="shared" ref="V32:V33" si="89">POWER(10,U32)</f>
+        <f t="shared" si="5"/>
         <v>9.9999999999999998E+119</v>
       </c>
       <c r="W32" t="str">
-        <f t="shared" ref="W32:W33" si="90">RIGHT(V32,U32)</f>
+        <f t="shared" si="6"/>
         <v>1E+120</v>
       </c>
     </row>
@@ -11732,11 +12197,11 @@
         <v>124</v>
       </c>
       <c r="V33">
-        <f t="shared" si="89"/>
+        <f t="shared" si="5"/>
         <v>9.9999999999999995E+123</v>
       </c>
       <c r="W33" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="6"/>
         <v>1E+124</v>
       </c>
     </row>
@@ -11748,59 +12213,59 @@
         <v>128</v>
       </c>
       <c r="V34">
-        <f t="shared" ref="V34:V37" si="91">POWER(10,U34)</f>
+        <f t="shared" si="5"/>
         <v>1.0000000000000001E+128</v>
       </c>
       <c r="W34" t="str">
-        <f t="shared" ref="W34:W37" si="92">RIGHT(V34,U34)</f>
+        <f t="shared" si="6"/>
         <v>1E+128</v>
       </c>
     </row>
     <row r="35" spans="20:23">
       <c r="T35" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="U35">
         <v>132</v>
       </c>
       <c r="V35">
-        <f t="shared" si="91"/>
+        <f t="shared" si="5"/>
         <v>9.9999999999999999E+131</v>
       </c>
       <c r="W35" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="6"/>
         <v>1E+132</v>
       </c>
     </row>
     <row r="36" spans="20:23">
       <c r="T36" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="U36">
         <v>136</v>
       </c>
       <c r="V36">
-        <f t="shared" si="91"/>
+        <f t="shared" si="5"/>
         <v>1.0000000000000001E+136</v>
       </c>
       <c r="W36" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="6"/>
         <v>1E+136</v>
       </c>
     </row>
     <row r="37" spans="20:23">
       <c r="T37" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
       <c r="U37">
         <v>140</v>
       </c>
       <c r="V37">
-        <f t="shared" si="91"/>
+        <f t="shared" si="5"/>
         <v>1.0000000000000001E+140</v>
       </c>
       <c r="W37" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="6"/>
         <v>1E+140</v>
       </c>
     </row>

--- a/Assets/06.Table/SuhopetTable.xlsx
+++ b/Assets/06.Table/SuhopetTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE732FA-0B27-4230-B723-5E09C5BBB6E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3BB5C63-F477-4D10-AB42-1B95170FB754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="29040" windowHeight="15600" tabRatio="605" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="605" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SuhopetTable" sheetId="1" r:id="rId1"/>
@@ -1514,9 +1514,6 @@
 수인전에서 획득!</t>
   </si>
   <si>
-    <t>0.12,0.71,1.88,4.21,7.7,11.77</t>
-  </si>
-  <si>
     <t>1344,2688,5376,8064,9408</t>
   </si>
   <si>
@@ -1532,6 +1529,9 @@
   <si>
     <t>수호범</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.12,0.92,2.51,5.68,10.43,15.97</t>
   </si>
 </sst>
 </file>
@@ -2347,8 +2347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:U34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="G22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4389,13 +4389,13 @@
         <v>407</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D32" s="43" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E32" s="43" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F32" s="53" t="s">
         <v>259</v>
@@ -4454,13 +4454,13 @@
         <v>408</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D33" s="43" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E33" s="43" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F33" s="53" t="s">
         <v>259</v>
@@ -4487,7 +4487,7 @@
         <v>49</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="O33" s="4">
         <v>5</v>
@@ -4496,7 +4496,7 @@
         <v>9016</v>
       </c>
       <c r="Q33" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="R33" s="4">
         <v>-1</v>
@@ -4599,8 +4599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB815A5-0A26-4B2F-8716-20DE31E1881F}">
   <dimension ref="A1:AF116"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView topLeftCell="L2" workbookViewId="0">
+      <selection activeCell="Z18" sqref="Z18:Z19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -5304,7 +5304,7 @@
       </c>
       <c r="Z19" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0.12,0.71,1.88,4.21,7.7,11.77</v>
+        <v>0.12,0.92,2.51,5.68,10.43,15.97</v>
       </c>
       <c r="AA19" s="56" t="str">
         <f t="shared" si="3"/>
@@ -5356,7 +5356,7 @@
       </c>
       <c r="Z20" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0.13,0.75,1.99,4.47,8.18,12.51</v>
+        <v>0.13,1,2.74,6.22,11.44,17.53</v>
       </c>
       <c r="AA20" s="56" t="str">
         <f t="shared" si="3"/>
@@ -5408,7 +5408,7 @@
       </c>
       <c r="Z21" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0.14,0.8,2.12,4.75,8.69,13.29</v>
+        <v>0.14,1.1,3.01,6.82,12.53,19.19</v>
       </c>
       <c r="AA21" s="56" t="str">
         <f t="shared" si="3"/>
@@ -5458,7 +5458,7 @@
       </c>
       <c r="Z22" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0.15,0.85,2.25,5.04,9.22,14.1</v>
+        <v>0.15,1.19,3.27,7.42,13.64,20.89</v>
       </c>
       <c r="AA22" s="56" t="str">
         <f t="shared" si="3"/>
@@ -8032,26 +8032,26 @@
       </c>
       <c r="AA65" s="12">
         <f t="shared" si="43"/>
-        <v>0.59</v>
+        <v>0.8</v>
       </c>
       <c r="AB65" s="12">
         <f t="shared" si="44"/>
-        <v>1.17</v>
+        <v>1.59</v>
       </c>
       <c r="AC65" s="12">
         <f t="shared" si="45"/>
-        <v>2.33</v>
+        <v>3.17</v>
       </c>
       <c r="AD65" s="12">
         <f t="shared" si="46"/>
-        <v>3.49</v>
+        <v>4.75</v>
       </c>
       <c r="AE65" s="12">
         <f t="shared" si="47"/>
-        <v>4.07</v>
+        <v>5.54</v>
       </c>
       <c r="AF65" s="2">
-        <v>260</v>
+        <v>390</v>
       </c>
     </row>
     <row r="66" spans="7:32">
@@ -8108,26 +8108,26 @@
       </c>
       <c r="AA66" s="12">
         <f t="shared" si="43"/>
-        <v>0.62</v>
+        <v>0.87</v>
       </c>
       <c r="AB66" s="12">
         <f t="shared" si="44"/>
-        <v>1.24</v>
+        <v>1.74</v>
       </c>
       <c r="AC66" s="12">
         <f t="shared" si="45"/>
-        <v>2.48</v>
+        <v>3.48</v>
       </c>
       <c r="AD66" s="12">
         <f t="shared" si="46"/>
-        <v>3.71</v>
+        <v>5.22</v>
       </c>
       <c r="AE66" s="12">
         <f t="shared" si="47"/>
-        <v>4.33</v>
+        <v>6.09</v>
       </c>
       <c r="AF66" s="2">
-        <v>270</v>
+        <v>420</v>
       </c>
     </row>
     <row r="67" spans="7:32">
@@ -8184,26 +8184,26 @@
       </c>
       <c r="AA67" s="12">
         <f t="shared" si="43"/>
-        <v>0.66</v>
+        <v>0.96</v>
       </c>
       <c r="AB67" s="12">
         <f t="shared" si="44"/>
-        <v>1.32</v>
+        <v>1.91</v>
       </c>
       <c r="AC67" s="12">
         <f t="shared" si="45"/>
-        <v>2.63</v>
+        <v>3.81</v>
       </c>
       <c r="AD67" s="12">
         <f t="shared" si="46"/>
-        <v>3.94</v>
+        <v>5.71</v>
       </c>
       <c r="AE67" s="12">
         <f t="shared" si="47"/>
-        <v>4.5999999999999996</v>
+        <v>6.66</v>
       </c>
       <c r="AF67" s="2">
-        <v>280</v>
+        <v>450</v>
       </c>
     </row>
     <row r="68" spans="7:32">
@@ -8260,26 +8260,26 @@
       </c>
       <c r="AA68" s="12">
         <f t="shared" si="43"/>
-        <v>0.7</v>
+        <v>1.04</v>
       </c>
       <c r="AB68" s="12">
         <f t="shared" si="44"/>
-        <v>1.4</v>
+        <v>2.08</v>
       </c>
       <c r="AC68" s="12">
         <f t="shared" si="45"/>
-        <v>2.79</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="AD68" s="12">
         <f t="shared" si="46"/>
-        <v>4.18</v>
+        <v>6.22</v>
       </c>
       <c r="AE68" s="12">
         <f t="shared" si="47"/>
-        <v>4.88</v>
+        <v>7.25</v>
       </c>
       <c r="AF68" s="2">
-        <v>290</v>
+        <v>480</v>
       </c>
     </row>
     <row r="69" spans="7:32">
@@ -9472,23 +9472,23 @@
       </c>
       <c r="AA89" s="12">
         <f t="shared" si="67"/>
-        <v>0.71</v>
+        <v>0.92</v>
       </c>
       <c r="AB89" s="12">
         <f t="shared" si="67"/>
-        <v>1.88</v>
+        <v>2.5100000000000002</v>
       </c>
       <c r="AC89" s="12">
         <f t="shared" si="67"/>
-        <v>4.21</v>
+        <v>5.68</v>
       </c>
       <c r="AD89" s="12">
         <f t="shared" si="67"/>
-        <v>7.7</v>
+        <v>10.43</v>
       </c>
       <c r="AE89" s="12">
         <f t="shared" si="67"/>
-        <v>11.77</v>
+        <v>15.969999999999999</v>
       </c>
     </row>
     <row r="90" spans="7:31">
@@ -9504,23 +9504,23 @@
       </c>
       <c r="AA90" s="12">
         <f t="shared" si="67"/>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AB90" s="12">
         <f t="shared" si="67"/>
-        <v>1.99</v>
+        <v>2.74</v>
       </c>
       <c r="AC90" s="12">
         <f t="shared" si="67"/>
-        <v>4.47</v>
+        <v>6.2200000000000006</v>
       </c>
       <c r="AD90" s="12">
         <f t="shared" si="67"/>
-        <v>8.18</v>
+        <v>11.440000000000001</v>
       </c>
       <c r="AE90" s="12">
         <f t="shared" si="67"/>
-        <v>12.51</v>
+        <v>17.53</v>
       </c>
     </row>
     <row r="91" spans="7:31">
@@ -9536,23 +9536,23 @@
       </c>
       <c r="AA91" s="12">
         <f t="shared" si="67"/>
-        <v>0.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AB91" s="12">
         <f t="shared" si="67"/>
-        <v>2.12</v>
+        <v>3.01</v>
       </c>
       <c r="AC91" s="12">
         <f t="shared" si="67"/>
-        <v>4.75</v>
+        <v>6.82</v>
       </c>
       <c r="AD91" s="12">
         <f t="shared" si="67"/>
-        <v>8.69</v>
+        <v>12.530000000000001</v>
       </c>
       <c r="AE91" s="12">
         <f t="shared" si="67"/>
-        <v>13.29</v>
+        <v>19.190000000000001</v>
       </c>
     </row>
     <row r="92" spans="7:31">
@@ -9568,23 +9568,23 @@
       </c>
       <c r="AA92" s="12">
         <f t="shared" si="67"/>
-        <v>0.85</v>
+        <v>1.19</v>
       </c>
       <c r="AB92" s="12">
         <f t="shared" si="67"/>
-        <v>2.25</v>
+        <v>3.27</v>
       </c>
       <c r="AC92" s="12">
         <f t="shared" si="67"/>
-        <v>5.04</v>
+        <v>7.42</v>
       </c>
       <c r="AD92" s="12">
         <f t="shared" si="67"/>
-        <v>9.2199999999999989</v>
+        <v>13.64</v>
       </c>
       <c r="AE92" s="12">
         <f t="shared" si="67"/>
-        <v>14.099999999999998</v>
+        <v>20.89</v>
       </c>
     </row>
     <row r="93" spans="7:31">

--- a/Assets/06.Table/SuhopetTable.xlsx
+++ b/Assets/06.Table/SuhopetTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3BB5C63-F477-4D10-AB42-1B95170FB754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA04D4EE-A30C-48F0-8D29-2EEE70925A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="605" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="605" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SuhopetTable" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="446">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1532,6 +1532,60 @@
   </si>
   <si>
     <t>0.12,0.92,2.51,5.68,10.43,15.97</t>
+  </si>
+  <si>
+    <t>p33</t>
+  </si>
+  <si>
+    <t>수인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펫22</t>
+  </si>
+  <si>
+    <t>22단계</t>
+  </si>
+  <si>
+    <t>뇌신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1E+145,2E+145,5E+145,1E+146,2E+146</t>
+  </si>
+  <si>
+    <t>570,570,570,570,570</t>
+  </si>
+  <si>
+    <t>0.11,0.82,2.23,5.05,9.28,14.21,24.07</t>
+  </si>
+  <si>
+    <t>1545,3089,6178,9267,10811,21622</t>
+  </si>
+  <si>
+    <t>0.13,1.06,2.92,6.64,12.22,18.72</t>
+  </si>
+  <si>
+    <t>1488,2976,5952,8928,10416</t>
+  </si>
+  <si>
+    <t>22단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10화,20화,50화,100화,200화</t>
   </si>
 </sst>
 </file>
@@ -2006,7 +2060,77 @@
     <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2345,10 +2469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:U34"/>
+  <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4576,19 +4700,152 @@
         <v>417</v>
       </c>
     </row>
+    <row r="35" spans="1:21" ht="33">
+      <c r="A35" s="2">
+        <v>33</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="D35" s="43" t="s">
+        <v>427</v>
+      </c>
+      <c r="E35" s="43" t="s">
+        <v>427</v>
+      </c>
+      <c r="F35" s="53" t="s">
+        <v>259</v>
+      </c>
+      <c r="G35" s="52" t="s">
+        <v>260</v>
+      </c>
+      <c r="H35" s="54" t="s">
+        <v>274</v>
+      </c>
+      <c r="I35" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="J35" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="K35" s="43">
+        <v>9016</v>
+      </c>
+      <c r="L35" s="3">
+        <v>250</v>
+      </c>
+      <c r="M35" s="4">
+        <v>49</v>
+      </c>
+      <c r="N35" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="O35" s="4">
+        <v>5</v>
+      </c>
+      <c r="P35" s="36">
+        <v>9016</v>
+      </c>
+      <c r="Q35" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="R35" s="4">
+        <v>-1</v>
+      </c>
+      <c r="S35" s="50" t="s">
+        <v>422</v>
+      </c>
+      <c r="T35" s="51" t="s">
+        <v>423</v>
+      </c>
+      <c r="U35" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" ht="33">
+      <c r="A36" s="2">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="D36" s="43" t="s">
+        <v>434</v>
+      </c>
+      <c r="E36" s="43" t="s">
+        <v>434</v>
+      </c>
+      <c r="F36" s="40" t="s">
+        <v>436</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="I36" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="K36" s="43">
+        <v>9016</v>
+      </c>
+      <c r="L36" s="3">
+        <v>390</v>
+      </c>
+      <c r="M36" s="4">
+        <v>49</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="O36" s="4">
+        <v>6</v>
+      </c>
+      <c r="P36" s="36">
+        <v>9016</v>
+      </c>
+      <c r="Q36" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="R36" s="4">
+        <v>106</v>
+      </c>
+      <c r="S36" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="T36" s="51" t="s">
+        <v>416</v>
+      </c>
+      <c r="U36" t="s">
+        <v>442</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J2:J1048576">
-    <cfRule type="uniqueValues" dxfId="3" priority="1"/>
+    <cfRule type="uniqueValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M1048576">
-    <cfRule type="uniqueValues" dxfId="2" priority="4"/>
+    <cfRule type="uniqueValues" dxfId="3" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O1048576">
-    <cfRule type="uniqueValues" dxfId="1" priority="5"/>
+    <cfRule type="uniqueValues" dxfId="2" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P1048576">
-    <cfRule type="uniqueValues" dxfId="0" priority="3"/>
+    <cfRule type="uniqueValues" dxfId="1" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4597,10 +4854,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB815A5-0A26-4B2F-8716-20DE31E1881F}">
-  <dimension ref="A1:AF116"/>
+  <dimension ref="A1:AF117"/>
   <sheetViews>
-    <sheetView topLeftCell="L2" workbookViewId="0">
-      <selection activeCell="Z18" sqref="Z18:Z19"/>
+    <sheetView topLeftCell="K6" workbookViewId="0">
+      <selection activeCell="AA20" sqref="AA20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -5300,15 +5557,15 @@
         <v>608,1215,2429,3644,4251,8502</v>
       </c>
       <c r="Y19" s="12" t="s">
-        <v>209</v>
+        <v>428</v>
       </c>
       <c r="Z19" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0.12,0.92,2.51,5.68,10.43,15.97</v>
+        <v>0.12,0.97,2.67,6.06,11.15,17.08</v>
       </c>
       <c r="AA19" s="56" t="str">
         <f t="shared" si="3"/>
-        <v>1344,2688,5376,8064,9408</v>
+        <v>1440,2880,5760,8640,10080</v>
       </c>
     </row>
     <row r="20" spans="1:30">
@@ -5356,11 +5613,11 @@
       </c>
       <c r="Z20" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0.13,1,2.74,6.22,11.44,17.53</v>
+        <v>0.13,1.06,2.92,6.64,12.22,18.72</v>
       </c>
       <c r="AA20" s="56" t="str">
         <f t="shared" si="3"/>
-        <v>1392,2784,5568,8352,9744</v>
+        <v>1488,2976,5952,8928,10416</v>
       </c>
     </row>
     <row r="21" spans="1:30">
@@ -5408,11 +5665,11 @@
       </c>
       <c r="Z21" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0.14,1.1,3.01,6.82,12.53,19.19</v>
+        <v>0.14,1.16,3.19,7.25,13.34,20.44</v>
       </c>
       <c r="AA21" s="56" t="str">
         <f t="shared" si="3"/>
-        <v>1440,2880,5760,8640,10080</v>
+        <v>1536,3072,6144,9216,10752</v>
       </c>
     </row>
     <row r="22" spans="1:30">
@@ -5458,11 +5715,11 @@
       </c>
       <c r="Z22" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0.15,1.19,3.27,7.42,13.64,20.89</v>
+        <v>0.15,1.26,3.47,7.88,14.5,22.22</v>
       </c>
       <c r="AA22" s="56" t="str">
         <f t="shared" si="3"/>
-        <v>1488,2976,5952,8928,10416</v>
+        <v>1584,3168,6336,9504,11088</v>
       </c>
     </row>
     <row r="23" spans="1:30">
@@ -5701,6 +5958,21 @@
         <f t="shared" si="5"/>
         <v>540</v>
       </c>
+      <c r="N29" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="O29" s="2" t="str">
+        <f t="shared" ref="O29" si="10">J30&amp;","&amp;J30&amp;","&amp;J30&amp;","&amp;J30&amp;","&amp;J30</f>
+        <v>570,570,570,570,570</v>
+      </c>
+      <c r="P29" s="2" t="str">
+        <f t="shared" ref="P29" si="11">H117&amp;","&amp;I117&amp;","&amp;J117&amp;","&amp;K117&amp;","&amp;L117&amp;","&amp;M117&amp;","&amp;N117</f>
+        <v>0.11,0.82,2.23,5.05,9.28,14.21,24.07</v>
+      </c>
+      <c r="Q29" s="12" t="str">
+        <f t="shared" ref="Q29" si="12">H57&amp;","&amp;I57&amp;","&amp;J57&amp;","&amp;K57&amp;","&amp;L57&amp;","&amp;M57</f>
+        <v>1545,3089,6178,9267,10811,21622</v>
+      </c>
     </row>
     <row r="30" spans="1:30">
       <c r="A30" s="21" t="s">
@@ -5709,6 +5981,20 @@
       <c r="B30" s="31">
         <v>5</v>
       </c>
+      <c r="G30" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="H30" s="12">
+        <v>390</v>
+      </c>
+      <c r="I30" s="12">
+        <f t="shared" ref="I30" si="13">H30*$B$9*$B$18*($B$13/100)</f>
+        <v>2808</v>
+      </c>
+      <c r="J30" s="12">
+        <f t="shared" ref="J30" si="14">ROUNDUP((I30/5),-1)</f>
+        <v>570</v>
+      </c>
     </row>
     <row r="31" spans="1:30">
       <c r="A31" s="21">
@@ -5732,27 +6018,27 @@
         <v>68</v>
       </c>
       <c r="R32" s="26">
-        <f t="shared" ref="R32:W32" si="10">SUM(R34:R43)</f>
+        <f t="shared" ref="R32:W32" si="15">SUM(R34:R43)</f>
         <v>16.285714285714285</v>
       </c>
       <c r="S32" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>13.328571428571429</v>
       </c>
       <c r="T32" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>10.213240418118467</v>
       </c>
       <c r="U32" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>8.8857142857142843</v>
       </c>
       <c r="V32" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>6.4878048780487809</v>
       </c>
       <c r="W32" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>5.3097560975609763</v>
       </c>
       <c r="X32"/>
@@ -5890,23 +6176,23 @@
         <v>50</v>
       </c>
       <c r="P34" s="12">
-        <f t="shared" ref="P34:P43" si="11">(H8*$B$9*$B$18)*(O34/100)+I8</f>
+        <f t="shared" ref="P34:P43" si="16">(H8*$B$9*$B$18)*(O34/100)+I8</f>
         <v>2112</v>
       </c>
       <c r="Q34" s="12">
-        <f t="shared" ref="Q34:Q43" si="12">P34-I8</f>
+        <f t="shared" ref="Q34:Q43" si="17">P34-I8</f>
         <v>1320</v>
       </c>
       <c r="R34" s="2">
-        <f t="shared" ref="R34:R43" si="13">(Q34/H8)/($B$18*7)</f>
+        <f t="shared" ref="R34:R43" si="18">(Q34/H8)/($B$18*7)</f>
         <v>0.8571428571428571</v>
       </c>
       <c r="S34" s="2">
-        <f t="shared" ref="S34:S43" si="14">(Q34/$H$17)/(7*$B$18)</f>
+        <f t="shared" ref="S34:S43" si="19">(Q34/$H$17)/(7*$B$18)</f>
         <v>0.47142857142857142</v>
       </c>
       <c r="T34" s="2">
-        <f t="shared" ref="T34:T42" si="15">(Q34/H8)/($B$18*7+$B$21)</f>
+        <f t="shared" ref="T34:T42" si="20">(Q34/H8)/($B$18*7+$B$21)</f>
         <v>0.5714285714285714</v>
       </c>
       <c r="U34" s="2">
@@ -5914,7 +6200,7 @@
         <v>0.31428571428571428</v>
       </c>
       <c r="V34" s="2">
-        <f t="shared" ref="V34:V43" si="16">(Q34/H8)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
+        <f t="shared" ref="V34:V43" si="21">(Q34/H8)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
         <v>0.34146341463414637</v>
       </c>
       <c r="W34" s="2">
@@ -5964,93 +6250,93 @@
         <v>18</v>
       </c>
       <c r="H35" s="12">
-        <f t="shared" ref="H35:H43" si="17">ROUNDUP((P35*$B$30/100),0)</f>
+        <f t="shared" ref="H35:H43" si="22">ROUNDUP((P35*$B$30/100),0)</f>
         <v>130</v>
       </c>
       <c r="I35" s="12">
-        <f t="shared" ref="I35:I43" si="18">ROUNDUP((P35*$B$31/100),0)</f>
+        <f t="shared" ref="I35:I43" si="23">ROUNDUP((P35*$B$31/100),0)</f>
         <v>260</v>
       </c>
       <c r="J35" s="12">
-        <f t="shared" ref="J35:J43" si="19">ROUNDUP((P35*$B$32/100),0)</f>
+        <f t="shared" ref="J35:J43" si="24">ROUNDUP((P35*$B$32/100),0)</f>
         <v>519</v>
       </c>
       <c r="K35" s="12">
-        <f t="shared" ref="K35:K43" si="20">ROUNDUP((P35*$B$33/100),0)</f>
+        <f t="shared" ref="K35:K43" si="25">ROUNDUP((P35*$B$33/100),0)</f>
         <v>778</v>
       </c>
       <c r="L35" s="12">
-        <f t="shared" ref="L35:L43" si="21">ROUNDUP((P35*$B$34/100),0)</f>
+        <f t="shared" ref="L35:L43" si="26">ROUNDUP((P35*$B$34/100),0)</f>
         <v>908</v>
       </c>
       <c r="M35" s="12">
-        <f t="shared" ref="M35:M43" si="22">L35*$B$43</f>
+        <f t="shared" ref="M35:M43" si="27">L35*$B$43</f>
         <v>1816</v>
       </c>
       <c r="N35" s="12">
-        <f t="shared" ref="N35:N43" si="23">SUM(H35:L35)</f>
+        <f t="shared" ref="N35:N43" si="28">SUM(H35:L35)</f>
         <v>2595</v>
       </c>
       <c r="O35" s="12">
         <v>60</v>
       </c>
       <c r="P35" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>2592</v>
       </c>
       <c r="Q35" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1728</v>
       </c>
       <c r="R35" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>1.0285714285714287</v>
       </c>
       <c r="S35" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.61714285714285722</v>
       </c>
       <c r="T35" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0.68571428571428572</v>
       </c>
       <c r="U35" s="2">
-        <f t="shared" ref="U35:U43" si="24">(Q35/$H$17)/($B$18*7+$B$21)</f>
+        <f t="shared" ref="U35:U43" si="29">(Q35/$H$17)/($B$18*7+$B$21)</f>
         <v>0.41142857142857148</v>
       </c>
       <c r="V35" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0.40975609756097564</v>
       </c>
       <c r="W35" s="2">
-        <f t="shared" ref="W35:W43" si="25">(Q35/$H$17)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
+        <f t="shared" ref="W35:W43" si="30">(Q35/$H$17)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
         <v>0.24585365853658542</v>
       </c>
       <c r="Y35" s="12" t="s">
         <v>199</v>
       </c>
       <c r="Z35" s="12">
-        <f t="shared" ref="Z35:Z48" si="26">ROUNDUP((AE35*$B$30/100),0)</f>
+        <f t="shared" ref="Z35:Z48" si="31">ROUNDUP((AE35*$B$30/100),0)</f>
         <v>744</v>
       </c>
       <c r="AA35" s="12">
-        <f t="shared" ref="AA35:AA48" si="27">ROUNDUP((AE35*$B$31/100),0)</f>
+        <f t="shared" ref="AA35:AA48" si="32">ROUNDUP((AE35*$B$31/100),0)</f>
         <v>1488</v>
       </c>
       <c r="AB35" s="12">
-        <f t="shared" ref="AB35:AB48" si="28">ROUNDUP((AE35*$B$32/100),0)</f>
+        <f t="shared" ref="AB35:AB48" si="33">ROUNDUP((AE35*$B$32/100),0)</f>
         <v>2976</v>
       </c>
       <c r="AC35" s="12">
-        <f t="shared" ref="AC35:AC48" si="29">ROUNDUP((AE35*$B$33/100),0)</f>
+        <f t="shared" ref="AC35:AC48" si="34">ROUNDUP((AE35*$B$33/100),0)</f>
         <v>4464</v>
       </c>
       <c r="AD35" s="12">
-        <f t="shared" ref="AD35:AD48" si="30">ROUNDUP((AE35*$B$34/100),0)</f>
+        <f t="shared" ref="AD35:AD48" si="35">ROUNDUP((AE35*$B$34/100),0)</f>
         <v>5208</v>
       </c>
       <c r="AE35" s="2">
-        <f t="shared" ref="AE35:AE48" si="31">($H$17*$B$9*$B$18)*(AF35/100)</f>
+        <f t="shared" ref="AE35:AE48" si="36">($H$17*$B$9*$B$18)*(AF35/100)</f>
         <v>14880</v>
       </c>
       <c r="AF35" s="2">
@@ -6063,93 +6349,93 @@
         <v>19</v>
       </c>
       <c r="H36" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>156</v>
       </c>
       <c r="I36" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>312</v>
       </c>
       <c r="J36" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>624</v>
       </c>
       <c r="K36" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>936</v>
       </c>
       <c r="L36" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>1092</v>
       </c>
       <c r="M36" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>2184</v>
       </c>
       <c r="N36" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>3120</v>
       </c>
       <c r="O36" s="12">
         <v>70</v>
       </c>
       <c r="P36" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3120</v>
       </c>
       <c r="Q36" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>2184</v>
       </c>
       <c r="R36" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>1.2</v>
       </c>
       <c r="S36" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.78</v>
       </c>
       <c r="T36" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0.8</v>
       </c>
       <c r="U36" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>0.52</v>
       </c>
       <c r="V36" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0.47804878048780497</v>
       </c>
       <c r="W36" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0.31073170731707322</v>
       </c>
       <c r="Y36" s="12" t="s">
         <v>200</v>
       </c>
       <c r="Z36" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>768</v>
       </c>
       <c r="AA36" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>1536</v>
       </c>
       <c r="AB36" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>3072</v>
       </c>
       <c r="AC36" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>4608</v>
       </c>
       <c r="AD36" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>5376</v>
       </c>
       <c r="AE36" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>15360</v>
       </c>
       <c r="AF36" s="2">
@@ -6165,93 +6451,93 @@
         <v>85</v>
       </c>
       <c r="H37" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>185</v>
       </c>
       <c r="I37" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>370</v>
       </c>
       <c r="J37" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>740</v>
       </c>
       <c r="K37" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>1109</v>
       </c>
       <c r="L37" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>1294</v>
       </c>
       <c r="M37" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>2588</v>
       </c>
       <c r="N37" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>3698</v>
       </c>
       <c r="O37" s="12">
         <v>80</v>
       </c>
       <c r="P37" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3696</v>
       </c>
       <c r="Q37" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>2688</v>
       </c>
       <c r="R37" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>1.3714285714285714</v>
       </c>
       <c r="S37" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.96</v>
       </c>
       <c r="T37" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0.91428571428571426</v>
       </c>
       <c r="U37" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>0.64</v>
       </c>
       <c r="V37" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0.54634146341463419</v>
       </c>
       <c r="W37" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0.38243902439024391</v>
       </c>
       <c r="Y37" s="12" t="s">
         <v>201</v>
       </c>
       <c r="Z37" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>792</v>
       </c>
       <c r="AA37" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>1584</v>
       </c>
       <c r="AB37" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>3168</v>
       </c>
       <c r="AC37" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>4752</v>
       </c>
       <c r="AD37" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>5544</v>
       </c>
       <c r="AE37" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>15840</v>
       </c>
       <c r="AF37" s="2">
@@ -6264,93 +6550,93 @@
         <v>20</v>
       </c>
       <c r="H38" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>216</v>
       </c>
       <c r="I38" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>432</v>
       </c>
       <c r="J38" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>864</v>
       </c>
       <c r="K38" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>1296</v>
       </c>
       <c r="L38" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>1512</v>
       </c>
       <c r="M38" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>3024</v>
       </c>
       <c r="N38" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>4320</v>
       </c>
       <c r="O38" s="12">
         <v>90</v>
       </c>
       <c r="P38" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>4320</v>
       </c>
       <c r="Q38" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3240</v>
       </c>
       <c r="R38" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>1.5428571428571429</v>
       </c>
       <c r="S38" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.157142857142857</v>
       </c>
       <c r="T38" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>1.0285714285714287</v>
       </c>
       <c r="U38" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>0.77142857142857135</v>
       </c>
       <c r="V38" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0.61463414634146352</v>
       </c>
       <c r="W38" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0.46097560975609758</v>
       </c>
       <c r="Y38" s="12" t="s">
         <v>202</v>
       </c>
       <c r="Z38" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>816</v>
       </c>
       <c r="AA38" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>1632</v>
       </c>
       <c r="AB38" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>3264</v>
       </c>
       <c r="AC38" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>4896</v>
       </c>
       <c r="AD38" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>5712</v>
       </c>
       <c r="AE38" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>16320</v>
       </c>
       <c r="AF38" s="2">
@@ -6369,93 +6655,93 @@
         <v>21</v>
       </c>
       <c r="H39" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>250</v>
       </c>
       <c r="I39" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>500</v>
       </c>
       <c r="J39" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>999</v>
       </c>
       <c r="K39" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>1498</v>
       </c>
       <c r="L39" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>1748</v>
       </c>
       <c r="M39" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>3496</v>
       </c>
       <c r="N39" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>4995</v>
       </c>
       <c r="O39" s="12">
         <v>100</v>
       </c>
       <c r="P39" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>4992</v>
       </c>
       <c r="Q39" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3840</v>
       </c>
       <c r="R39" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>1.7142857142857142</v>
       </c>
       <c r="S39" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.3714285714285714</v>
       </c>
       <c r="T39" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>1.1428571428571428</v>
       </c>
       <c r="U39" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>0.91428571428571426</v>
       </c>
       <c r="V39" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0.68292682926829273</v>
       </c>
       <c r="W39" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0.54634146341463419</v>
       </c>
       <c r="Y39" s="12" t="s">
         <v>203</v>
       </c>
       <c r="Z39" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>840</v>
       </c>
       <c r="AA39" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>1680</v>
       </c>
       <c r="AB39" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>3360</v>
       </c>
       <c r="AC39" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>5040</v>
       </c>
       <c r="AD39" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>5880</v>
       </c>
       <c r="AE39" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>16800</v>
       </c>
       <c r="AF39" s="2">
@@ -6473,93 +6759,93 @@
         <v>22</v>
       </c>
       <c r="H40" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>286</v>
       </c>
       <c r="I40" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>572</v>
       </c>
       <c r="J40" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>1143</v>
       </c>
       <c r="K40" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>1714</v>
       </c>
       <c r="L40" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>2000</v>
       </c>
       <c r="M40" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>4000</v>
       </c>
       <c r="N40" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>5715</v>
       </c>
       <c r="O40" s="12">
         <v>110</v>
       </c>
       <c r="P40" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>5712</v>
       </c>
       <c r="Q40" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>4488</v>
       </c>
       <c r="R40" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>1.8857142857142857</v>
       </c>
       <c r="S40" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.602857142857143</v>
       </c>
       <c r="T40" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>1.2571428571428571</v>
       </c>
       <c r="U40" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>1.0685714285714287</v>
       </c>
       <c r="V40" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0.75121951219512195</v>
       </c>
       <c r="W40" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0.63853658536585378</v>
       </c>
       <c r="Y40" s="12" t="s">
         <v>204</v>
       </c>
       <c r="Z40" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>864</v>
       </c>
       <c r="AA40" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>1728</v>
       </c>
       <c r="AB40" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>3456</v>
       </c>
       <c r="AC40" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>5184</v>
       </c>
       <c r="AD40" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>6048</v>
       </c>
       <c r="AE40" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>17280</v>
       </c>
       <c r="AF40" s="2">
@@ -6571,93 +6857,93 @@
         <v>23</v>
       </c>
       <c r="H41" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>324</v>
       </c>
       <c r="I41" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>648</v>
       </c>
       <c r="J41" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>1296</v>
       </c>
       <c r="K41" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>1944</v>
       </c>
       <c r="L41" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>2268</v>
       </c>
       <c r="M41" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>4536</v>
       </c>
       <c r="N41" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>6480</v>
       </c>
       <c r="O41" s="12">
         <v>120</v>
       </c>
       <c r="P41" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>6480</v>
       </c>
       <c r="Q41" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>5184</v>
       </c>
       <c r="R41" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>2.0571428571428574</v>
       </c>
       <c r="S41" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.8514285714285716</v>
       </c>
       <c r="T41" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>1.3714285714285714</v>
       </c>
       <c r="U41" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>1.2342857142857144</v>
       </c>
       <c r="V41" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0.81951219512195128</v>
       </c>
       <c r="W41" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0.7375609756097562</v>
       </c>
       <c r="Y41" s="12" t="s">
         <v>205</v>
       </c>
       <c r="Z41" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>888</v>
       </c>
       <c r="AA41" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>1776</v>
       </c>
       <c r="AB41" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>3552</v>
       </c>
       <c r="AC41" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>5328</v>
       </c>
       <c r="AD41" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>6216</v>
       </c>
       <c r="AE41" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>17760</v>
       </c>
       <c r="AF41" s="2">
@@ -6672,23 +6958,23 @@
         <v>24</v>
       </c>
       <c r="H42" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>365</v>
       </c>
       <c r="I42" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>730</v>
       </c>
       <c r="J42" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>1460</v>
       </c>
       <c r="K42" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>2189</v>
       </c>
       <c r="L42" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>2554</v>
       </c>
       <c r="M42" s="12">
@@ -6696,65 +6982,65 @@
         <v>5108</v>
       </c>
       <c r="N42" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>7298</v>
       </c>
       <c r="O42" s="12">
         <v>130</v>
       </c>
       <c r="P42" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>7296</v>
       </c>
       <c r="Q42" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>5928</v>
       </c>
       <c r="R42" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>2.2285714285714286</v>
       </c>
       <c r="S42" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>2.117142857142857</v>
       </c>
       <c r="T42" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>1.4857142857142858</v>
       </c>
       <c r="U42" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>1.4114285714285715</v>
       </c>
       <c r="V42" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0.88780487804878061</v>
       </c>
       <c r="W42" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0.84341463414634155</v>
       </c>
       <c r="Y42" s="12" t="s">
         <v>206</v>
       </c>
       <c r="Z42" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>1200</v>
       </c>
       <c r="AA42" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>2400</v>
       </c>
       <c r="AB42" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>4800</v>
       </c>
       <c r="AC42" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>7200</v>
       </c>
       <c r="AD42" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>8400</v>
       </c>
       <c r="AE42" s="2">
@@ -6776,50 +7062,50 @@
         <v>25</v>
       </c>
       <c r="H43" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>408</v>
       </c>
       <c r="I43" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>816</v>
       </c>
       <c r="J43" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>1632</v>
       </c>
       <c r="K43" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>2448</v>
       </c>
       <c r="L43" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>2856</v>
       </c>
       <c r="M43" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>5712</v>
       </c>
       <c r="N43" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>8160</v>
       </c>
       <c r="O43" s="12">
         <v>140</v>
       </c>
       <c r="P43" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>8160</v>
       </c>
       <c r="Q43" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>6720</v>
       </c>
       <c r="R43" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>2.4</v>
       </c>
       <c r="S43" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>2.4</v>
       </c>
       <c r="T43" s="2">
@@ -6827,42 +7113,42 @@
         <v>0.95609756097560994</v>
       </c>
       <c r="U43" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>1.6</v>
       </c>
       <c r="V43" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0.95609756097560994</v>
       </c>
       <c r="W43" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0.95609756097560994</v>
       </c>
       <c r="Y43" s="12" t="s">
         <v>207</v>
       </c>
       <c r="Z43" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>1248</v>
       </c>
       <c r="AA43" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>2496</v>
       </c>
       <c r="AB43" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>4992</v>
       </c>
       <c r="AC43" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>7488</v>
       </c>
       <c r="AD43" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>8736</v>
       </c>
       <c r="AE43" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>24960</v>
       </c>
       <c r="AF43" s="2">
@@ -6894,27 +7180,27 @@
         <v>208</v>
       </c>
       <c r="Z44" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>1296</v>
       </c>
       <c r="AA44" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>2592</v>
       </c>
       <c r="AB44" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>5184</v>
       </c>
       <c r="AC44" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>7776</v>
       </c>
       <c r="AD44" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>9072</v>
       </c>
       <c r="AE44" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>25920</v>
       </c>
       <c r="AF44" s="2">
@@ -6930,23 +7216,23 @@
         <v>6.8571428571428568</v>
       </c>
       <c r="S45" s="26">
-        <f t="shared" ref="S45:W45" si="32">SUM(S46:S47)</f>
+        <f t="shared" ref="S45:W45" si="37">SUM(S46:S47)</f>
         <v>6.7012987012987013</v>
       </c>
       <c r="T45" s="26">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>2.7317073170731709</v>
       </c>
       <c r="U45" s="26">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>4.4675324675324681</v>
       </c>
       <c r="V45" s="26">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>2.7317073170731709</v>
       </c>
       <c r="W45" s="26">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>2.6696230598669626</v>
       </c>
       <c r="X45"/>
@@ -6954,31 +7240,31 @@
         <v>209</v>
       </c>
       <c r="Z45" s="12">
-        <f t="shared" si="26"/>
-        <v>1344</v>
+        <f t="shared" si="31"/>
+        <v>1440</v>
       </c>
       <c r="AA45" s="12">
-        <f t="shared" si="27"/>
-        <v>2688</v>
+        <f t="shared" si="32"/>
+        <v>2880</v>
       </c>
       <c r="AB45" s="12">
-        <f t="shared" si="28"/>
-        <v>5376</v>
+        <f t="shared" si="33"/>
+        <v>5760</v>
       </c>
       <c r="AC45" s="12">
-        <f t="shared" si="29"/>
-        <v>8064</v>
+        <f t="shared" si="34"/>
+        <v>8640</v>
       </c>
       <c r="AD45" s="12">
-        <f t="shared" si="30"/>
-        <v>9408</v>
+        <f t="shared" si="35"/>
+        <v>10080</v>
       </c>
       <c r="AE45" s="2">
-        <f t="shared" si="31"/>
-        <v>26880</v>
+        <f t="shared" si="36"/>
+        <v>28800</v>
       </c>
       <c r="AF45" s="2">
-        <v>560</v>
+        <v>600</v>
       </c>
     </row>
     <row r="46" spans="1:32">
@@ -6986,31 +7272,31 @@
         <v>105</v>
       </c>
       <c r="H46" s="12">
-        <f t="shared" ref="H46:H56" si="33">ROUNDUP((P46*$B$30/100),0)</f>
+        <f t="shared" ref="H46:H56" si="38">ROUNDUP((P46*$B$30/100),0)</f>
         <v>580</v>
       </c>
       <c r="I46" s="12">
-        <f t="shared" ref="I46:I56" si="34">ROUNDUP((P46*$B$31/100),0)</f>
+        <f t="shared" ref="I46:I56" si="39">ROUNDUP((P46*$B$31/100),0)</f>
         <v>1160</v>
       </c>
       <c r="J46" s="12">
-        <f t="shared" ref="J46:J56" si="35">ROUNDUP((P46*$B$32/100),0)</f>
+        <f t="shared" ref="J46:J56" si="40">ROUNDUP((P46*$B$32/100),0)</f>
         <v>2319</v>
       </c>
       <c r="K46" s="12">
-        <f t="shared" ref="K46:K56" si="36">ROUNDUP((P46*$B$33/100),0)</f>
+        <f t="shared" ref="K46:K56" si="41">ROUNDUP((P46*$B$33/100),0)</f>
         <v>3478</v>
       </c>
       <c r="L46" s="12">
-        <f t="shared" ref="L46:L56" si="37">ROUNDUP((P46*$B$34/100),0)</f>
+        <f t="shared" ref="L46:L56" si="42">ROUNDUP((P46*$B$34/100),0)</f>
         <v>4058</v>
       </c>
       <c r="M46" s="12">
-        <f t="shared" ref="M46:M56" si="38">L46*$B$43</f>
+        <f t="shared" ref="M46:M56" si="43">L46*$B$43</f>
         <v>8116</v>
       </c>
       <c r="N46" s="12">
-        <f t="shared" ref="N46" si="39">SUM(H46:L46)</f>
+        <f t="shared" ref="N46" si="44">SUM(H46:L46)</f>
         <v>11595</v>
       </c>
       <c r="O46" s="12">
@@ -7052,31 +7338,31 @@
         <v>210</v>
       </c>
       <c r="Z46" s="12">
-        <f t="shared" si="26"/>
-        <v>1392</v>
+        <f t="shared" si="31"/>
+        <v>1488</v>
       </c>
       <c r="AA46" s="12">
-        <f t="shared" si="27"/>
-        <v>2784</v>
+        <f t="shared" si="32"/>
+        <v>2976</v>
       </c>
       <c r="AB46" s="12">
-        <f t="shared" si="28"/>
-        <v>5568</v>
+        <f t="shared" si="33"/>
+        <v>5952</v>
       </c>
       <c r="AC46" s="12">
-        <f t="shared" si="29"/>
-        <v>8352</v>
+        <f t="shared" si="34"/>
+        <v>8928</v>
       </c>
       <c r="AD46" s="12">
-        <f t="shared" si="30"/>
-        <v>9744</v>
+        <f t="shared" si="35"/>
+        <v>10416</v>
       </c>
       <c r="AE46" s="2">
-        <f t="shared" si="31"/>
-        <v>27840</v>
+        <f t="shared" si="36"/>
+        <v>29760</v>
       </c>
       <c r="AF46" s="2">
-        <v>580</v>
+        <v>620</v>
       </c>
     </row>
     <row r="47" spans="1:32">
@@ -7084,31 +7370,31 @@
         <v>106</v>
       </c>
       <c r="H47" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>608</v>
       </c>
       <c r="I47" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>1215</v>
       </c>
       <c r="J47" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>2429</v>
       </c>
       <c r="K47" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>3644</v>
       </c>
       <c r="L47" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>4251</v>
       </c>
       <c r="M47" s="12">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>8502</v>
       </c>
       <c r="N47" s="12">
-        <f t="shared" ref="N47:N52" si="40">SUM(H47:L47)</f>
+        <f t="shared" ref="N47:N52" si="45">SUM(H47:L47)</f>
         <v>12147</v>
       </c>
       <c r="O47" s="12">
@@ -7150,31 +7436,31 @@
         <v>211</v>
       </c>
       <c r="Z47" s="12">
-        <f t="shared" si="26"/>
-        <v>1440</v>
+        <f t="shared" si="31"/>
+        <v>1536</v>
       </c>
       <c r="AA47" s="12">
-        <f t="shared" si="27"/>
-        <v>2880</v>
+        <f t="shared" si="32"/>
+        <v>3072</v>
       </c>
       <c r="AB47" s="12">
-        <f t="shared" si="28"/>
-        <v>5760</v>
+        <f t="shared" si="33"/>
+        <v>6144</v>
       </c>
       <c r="AC47" s="12">
-        <f t="shared" si="29"/>
-        <v>8640</v>
+        <f t="shared" si="34"/>
+        <v>9216</v>
       </c>
       <c r="AD47" s="12">
-        <f t="shared" si="30"/>
-        <v>10080</v>
+        <f t="shared" si="35"/>
+        <v>10752</v>
       </c>
       <c r="AE47" s="2">
-        <f t="shared" si="31"/>
-        <v>28800</v>
+        <f t="shared" si="36"/>
+        <v>30720</v>
       </c>
       <c r="AF47" s="2">
-        <v>600</v>
+        <v>640</v>
       </c>
     </row>
     <row r="48" spans="1:32">
@@ -7182,31 +7468,31 @@
         <v>172</v>
       </c>
       <c r="H48" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>635</v>
       </c>
       <c r="I48" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>1270</v>
       </c>
       <c r="J48" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>2540</v>
       </c>
       <c r="K48" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>3809</v>
       </c>
       <c r="L48" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>4444</v>
       </c>
       <c r="M48" s="12">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>8888</v>
       </c>
       <c r="N48" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>12698</v>
       </c>
       <c r="O48" s="12">
@@ -7220,31 +7506,31 @@
         <v>212</v>
       </c>
       <c r="Z48" s="12">
-        <f t="shared" si="26"/>
-        <v>1488</v>
+        <f t="shared" si="31"/>
+        <v>1584</v>
       </c>
       <c r="AA48" s="12">
-        <f t="shared" si="27"/>
-        <v>2976</v>
+        <f t="shared" si="32"/>
+        <v>3168</v>
       </c>
       <c r="AB48" s="12">
-        <f t="shared" si="28"/>
-        <v>5952</v>
+        <f t="shared" si="33"/>
+        <v>6336</v>
       </c>
       <c r="AC48" s="12">
-        <f t="shared" si="29"/>
-        <v>8928</v>
+        <f t="shared" si="34"/>
+        <v>9504</v>
       </c>
       <c r="AD48" s="12">
-        <f t="shared" si="30"/>
-        <v>10416</v>
+        <f t="shared" si="35"/>
+        <v>11088</v>
       </c>
       <c r="AE48" s="2">
-        <f t="shared" si="31"/>
-        <v>29760</v>
+        <f t="shared" si="36"/>
+        <v>31680</v>
       </c>
       <c r="AF48" s="2">
-        <v>620</v>
+        <v>660</v>
       </c>
     </row>
     <row r="49" spans="7:32">
@@ -7252,31 +7538,31 @@
         <v>175</v>
       </c>
       <c r="H49" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>692</v>
       </c>
       <c r="I49" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>1383</v>
       </c>
       <c r="J49" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>2765</v>
       </c>
       <c r="K49" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>4148</v>
       </c>
       <c r="L49" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>4839</v>
       </c>
       <c r="M49" s="12">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>9678</v>
       </c>
       <c r="N49" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>13827</v>
       </c>
       <c r="O49" s="12">
@@ -7292,31 +7578,31 @@
         <v>195</v>
       </c>
       <c r="H50" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>750</v>
       </c>
       <c r="I50" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>1500</v>
       </c>
       <c r="J50" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>3000</v>
       </c>
       <c r="K50" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>4500</v>
       </c>
       <c r="L50" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>5250</v>
       </c>
       <c r="M50" s="12">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>10500</v>
       </c>
       <c r="N50" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>15000</v>
       </c>
       <c r="O50" s="12">
@@ -7332,31 +7618,31 @@
         <v>246</v>
       </c>
       <c r="H51" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>843</v>
       </c>
       <c r="I51" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>1685</v>
       </c>
       <c r="J51" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>3370</v>
       </c>
       <c r="K51" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>5055</v>
       </c>
       <c r="L51" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>5897</v>
       </c>
       <c r="M51" s="12">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>11794</v>
       </c>
       <c r="N51" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>16850</v>
       </c>
       <c r="O51" s="12">
@@ -7372,31 +7658,31 @@
         <v>313</v>
       </c>
       <c r="H52" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>940</v>
       </c>
       <c r="I52" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>1880</v>
       </c>
       <c r="J52" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>3759</v>
       </c>
       <c r="K52" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>5638</v>
       </c>
       <c r="L52" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>6578</v>
       </c>
       <c r="M52" s="12">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>13156</v>
       </c>
       <c r="N52" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>18795</v>
       </c>
       <c r="O52" s="12">
@@ -7415,31 +7701,31 @@
         <v>368</v>
       </c>
       <c r="H53" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>1042</v>
       </c>
       <c r="I53" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>2084</v>
       </c>
       <c r="J53" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>4167</v>
       </c>
       <c r="K53" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>6250</v>
       </c>
       <c r="L53" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>7292</v>
       </c>
       <c r="M53" s="12">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>14584</v>
       </c>
       <c r="N53" s="12">
-        <f t="shared" ref="N53" si="41">SUM(H53:L53)</f>
+        <f t="shared" ref="N53" si="46">SUM(H53:L53)</f>
         <v>20835</v>
       </c>
       <c r="O53" s="12">
@@ -7479,31 +7765,31 @@
         <v>375</v>
       </c>
       <c r="H54" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>1149</v>
       </c>
       <c r="I54" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>2297</v>
       </c>
       <c r="J54" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>4594</v>
       </c>
       <c r="K54" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>6891</v>
       </c>
       <c r="L54" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>8039</v>
       </c>
       <c r="M54" s="12">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>16078</v>
       </c>
       <c r="N54" s="12">
-        <f t="shared" ref="N54" si="42">SUM(H54:L54)</f>
+        <f t="shared" ref="N54" si="47">SUM(H54:L54)</f>
         <v>22970</v>
       </c>
       <c r="O54" s="12">
@@ -7520,23 +7806,23 @@
         <v>0.01</v>
       </c>
       <c r="AA54" s="12">
-        <f t="shared" ref="AA54:AA68" si="43">ROUNDUP(((Z34/$B$39)*$B$40)*((100+AF54)/100),0)/100</f>
+        <f t="shared" ref="AA54:AA68" si="48">ROUNDUP(((Z34/$B$39)*$B$40)*((100+AF54)/100),0)/100</f>
         <v>0.22</v>
       </c>
       <c r="AB54" s="12">
-        <f t="shared" ref="AB54:AB68" si="44">ROUNDUP(((AA34/$B$39)*$B$40)*((100+AF54)/100),0)/100</f>
+        <f t="shared" ref="AB54:AB68" si="49">ROUNDUP(((AA34/$B$39)*$B$40)*((100+AF54)/100),0)/100</f>
         <v>0.44</v>
       </c>
       <c r="AC54" s="12">
-        <f t="shared" ref="AC54:AC68" si="45">ROUNDUP(((AB34/$B$39)*$B$40)*((100+AF54)/100),0)/100</f>
+        <f t="shared" ref="AC54:AC68" si="50">ROUNDUP(((AB34/$B$39)*$B$40)*((100+AF54)/100),0)/100</f>
         <v>0.87</v>
       </c>
       <c r="AD54" s="12">
-        <f t="shared" ref="AD54:AD68" si="46">ROUNDUP(((AC34/$B$39)*$B$40)*((100+AF54)/100),0)/100</f>
+        <f t="shared" ref="AD54:AD68" si="51">ROUNDUP(((AC34/$B$39)*$B$40)*((100+AF54)/100),0)/100</f>
         <v>1.3</v>
       </c>
       <c r="AE54" s="12">
-        <f t="shared" ref="AE54:AE68" si="47">ROUNDUP(((AD34/$B$39)*$B$40)*((100+AF54)/100),0)/100</f>
+        <f t="shared" ref="AE54:AE68" si="52">ROUNDUP(((AD34/$B$39)*$B$40)*((100+AF54)/100),0)/100</f>
         <v>1.52</v>
       </c>
       <c r="AF54" s="2">
@@ -7548,31 +7834,31 @@
         <v>387</v>
       </c>
       <c r="H55" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>1260</v>
       </c>
       <c r="I55" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>2520</v>
       </c>
       <c r="J55" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>5040</v>
       </c>
       <c r="K55" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>7560</v>
       </c>
       <c r="L55" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>8820</v>
       </c>
       <c r="M55" s="12">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>17640</v>
       </c>
       <c r="N55" s="12">
-        <f t="shared" ref="N55" si="48">SUM(H55:L55)</f>
+        <f t="shared" ref="N55" si="53">SUM(H55:L55)</f>
         <v>25200</v>
       </c>
       <c r="O55" s="12">
@@ -7589,23 +7875,23 @@
         <v>0.02</v>
       </c>
       <c r="AA55" s="12">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0.24</v>
       </c>
       <c r="AB55" s="12">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>0.47</v>
       </c>
       <c r="AC55" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0.93</v>
       </c>
       <c r="AD55" s="12">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>1.4</v>
       </c>
       <c r="AE55" s="12">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>1.63</v>
       </c>
       <c r="AF55" s="2">
@@ -7617,31 +7903,31 @@
         <v>418</v>
       </c>
       <c r="H56" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>1377</v>
       </c>
       <c r="I56" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>2753</v>
       </c>
       <c r="J56" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>5506</v>
       </c>
       <c r="K56" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>8259</v>
       </c>
       <c r="L56" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>9635</v>
       </c>
       <c r="M56" s="12">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>19270</v>
       </c>
       <c r="N56" s="12">
-        <f t="shared" ref="N56" si="49">SUM(H56:L56)</f>
+        <f t="shared" ref="N56" si="54">SUM(H56:L56)</f>
         <v>27530</v>
       </c>
       <c r="O56" s="12">
@@ -7658,23 +7944,23 @@
         <v>0.03</v>
       </c>
       <c r="AA56" s="12">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0.25</v>
       </c>
       <c r="AB56" s="12">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>0.5</v>
       </c>
       <c r="AC56" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="AD56" s="12">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>1.5</v>
       </c>
       <c r="AE56" s="12">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>1.75</v>
       </c>
       <c r="AF56" s="2">
@@ -7682,6 +7968,44 @@
       </c>
     </row>
     <row r="57" spans="7:32">
+      <c r="G57" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="H57" s="12">
+        <f t="shared" ref="H57" si="55">ROUNDUP((P57*$B$30/100),0)</f>
+        <v>1545</v>
+      </c>
+      <c r="I57" s="12">
+        <f t="shared" ref="I57" si="56">ROUNDUP((P57*$B$31/100),0)</f>
+        <v>3089</v>
+      </c>
+      <c r="J57" s="12">
+        <f t="shared" ref="J57" si="57">ROUNDUP((P57*$B$32/100),0)</f>
+        <v>6178</v>
+      </c>
+      <c r="K57" s="12">
+        <f t="shared" ref="K57" si="58">ROUNDUP((P57*$B$33/100),0)</f>
+        <v>9267</v>
+      </c>
+      <c r="L57" s="12">
+        <f t="shared" ref="L57" si="59">ROUNDUP((P57*$B$34/100),0)</f>
+        <v>10811</v>
+      </c>
+      <c r="M57" s="12">
+        <f t="shared" ref="M57" si="60">L57*$B$43</f>
+        <v>21622</v>
+      </c>
+      <c r="N57" s="12">
+        <f t="shared" ref="N57" si="61">SUM(H57:L57)</f>
+        <v>30890</v>
+      </c>
+      <c r="O57" s="12">
+        <v>300</v>
+      </c>
+      <c r="P57" s="12">
+        <f>(H30*($B$9)*$B$18)*(O57/100)+I30</f>
+        <v>30888</v>
+      </c>
       <c r="Y57" s="12" t="s">
         <v>201</v>
       </c>
@@ -7689,23 +8013,23 @@
         <v>0.04</v>
       </c>
       <c r="AA57" s="12">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0.27</v>
       </c>
       <c r="AB57" s="12">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>0.54</v>
       </c>
       <c r="AC57" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>1.07</v>
       </c>
       <c r="AD57" s="12">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>1.6</v>
       </c>
       <c r="AE57" s="12">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>1.87</v>
       </c>
       <c r="AF57" s="2">
@@ -7720,23 +8044,23 @@
         <v>0.05</v>
       </c>
       <c r="AA58" s="12">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0.3</v>
       </c>
       <c r="AB58" s="12">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>0.59</v>
       </c>
       <c r="AC58" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>1.18</v>
       </c>
       <c r="AD58" s="12">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>1.77</v>
       </c>
       <c r="AE58" s="12">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>2.06</v>
       </c>
       <c r="AF58" s="2">
@@ -7751,23 +8075,23 @@
         <v>0.06</v>
       </c>
       <c r="AA59" s="12">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0.33</v>
       </c>
       <c r="AB59" s="12">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>0.65</v>
       </c>
       <c r="AC59" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>1.3</v>
       </c>
       <c r="AD59" s="12">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>1.94</v>
       </c>
       <c r="AE59" s="12">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="AF59" s="2">
@@ -7782,23 +8106,23 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AA60" s="12">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0.36</v>
       </c>
       <c r="AB60" s="12">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>0.71</v>
       </c>
       <c r="AC60" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>1.42</v>
       </c>
       <c r="AD60" s="12">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>2.12</v>
       </c>
       <c r="AE60" s="12">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>2.4700000000000002</v>
       </c>
       <c r="AF60" s="2">
@@ -7813,23 +8137,23 @@
         <v>0.08</v>
       </c>
       <c r="AA61" s="12">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0.4</v>
       </c>
       <c r="AB61" s="12">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>0.79</v>
       </c>
       <c r="AC61" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>1.58</v>
       </c>
       <c r="AD61" s="12">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>2.37</v>
       </c>
       <c r="AE61" s="12">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>2.76</v>
       </c>
       <c r="AF61" s="2">
@@ -7844,23 +8168,23 @@
         <v>0.09</v>
       </c>
       <c r="AA62" s="12">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0.57999999999999996</v>
       </c>
       <c r="AB62" s="12">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>1.1599999999999999</v>
       </c>
       <c r="AC62" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>2.31</v>
       </c>
       <c r="AD62" s="12">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>3.46</v>
       </c>
       <c r="AE62" s="12">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>4.04</v>
       </c>
       <c r="AF62" s="2">
@@ -7888,23 +8212,23 @@
         <v>0.1</v>
       </c>
       <c r="AA63" s="12">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0.65</v>
       </c>
       <c r="AB63" s="12">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>1.29</v>
       </c>
       <c r="AC63" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>2.58</v>
       </c>
       <c r="AD63" s="12">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>3.87</v>
       </c>
       <c r="AE63" s="12">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>4.51</v>
       </c>
       <c r="AF63" s="2">
@@ -7955,23 +8279,23 @@
         <v>0.11</v>
       </c>
       <c r="AA64" s="12">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0.72</v>
       </c>
       <c r="AB64" s="12">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>1.44</v>
       </c>
       <c r="AC64" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>2.87</v>
       </c>
       <c r="AD64" s="12">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>4.3</v>
       </c>
       <c r="AE64" s="12">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>5.01</v>
       </c>
       <c r="AF64" s="2">
@@ -7986,34 +8310,34 @@
         <v>0.01</v>
       </c>
       <c r="I65" s="12">
-        <f t="shared" ref="I65:I74" si="50">ROUNDUP(((H34/$B$39)*$B$40)*((100+O65)/100),0)/100</f>
+        <f t="shared" ref="I65:I74" si="62">ROUNDUP(((H34/$B$39)*$B$40)*((100+O65)/100),0)/100</f>
         <v>0.02</v>
       </c>
       <c r="J65" s="12">
-        <f t="shared" ref="J65:J74" si="51">ROUNDUP(((I34/$B$39)*$B$40)*((100+O65)/100),0)/100</f>
+        <f t="shared" ref="J65:J74" si="63">ROUNDUP(((I34/$B$39)*$B$40)*((100+O65)/100),0)/100</f>
         <v>0.03</v>
       </c>
       <c r="K65" s="12">
-        <f t="shared" ref="K65:K74" si="52">ROUNDUP(((J34/$B$39)*$B$40)*((100+O65)/100),0)/100</f>
+        <f t="shared" ref="K65:K74" si="64">ROUNDUP(((J34/$B$39)*$B$40)*((100+O65)/100),0)/100</f>
         <v>0.06</v>
       </c>
       <c r="L65" s="12">
-        <f t="shared" ref="L65:L74" si="53">ROUNDUP(((K34/$B$39)*$B$40)*((100+O65)/100),0)/100</f>
+        <f t="shared" ref="L65:L74" si="65">ROUNDUP(((K34/$B$39)*$B$40)*((100+O65)/100),0)/100</f>
         <v>0.09</v>
       </c>
       <c r="M65" s="12">
-        <f t="shared" ref="M65:M74" si="54">ROUNDUP(((L34/$B$39)*$B$40)*((100+O65)/100),0)/100</f>
+        <f t="shared" ref="M65:M74" si="66">ROUNDUP(((L34/$B$39)*$B$40)*((100+O65)/100),0)/100</f>
         <v>0.1</v>
       </c>
       <c r="N65" s="12">
-        <f t="shared" ref="N65:N74" si="55">ROUNDUP(((M34/$B$39)*$B$40)*((100+O65)/100),0)/100</f>
+        <f t="shared" ref="N65:N74" si="67">ROUNDUP(((M34/$B$39)*$B$40)*((100+O65)/100),0)/100</f>
         <v>0.2</v>
       </c>
       <c r="O65" s="13">
         <v>10</v>
       </c>
       <c r="P65" s="13">
-        <f t="shared" ref="P65:P77" si="56">SUM(H65:M65)</f>
+        <f t="shared" ref="P65:P77" si="68">SUM(H65:M65)</f>
         <v>0.31</v>
       </c>
       <c r="Q65" s="12">
@@ -8021,7 +8345,7 @@
         <v>0.2</v>
       </c>
       <c r="R65" s="13">
-        <f t="shared" ref="R65:R85" si="57">((P65+Q65)/$P$63)*100</f>
+        <f t="shared" ref="R65:R85" si="69">((P65+Q65)/$P$63)*100</f>
         <v>2.3087369850611137</v>
       </c>
       <c r="Y65" s="12" t="s">
@@ -8031,24 +8355,24 @@
         <v>0.12</v>
       </c>
       <c r="AA65" s="12">
-        <f t="shared" si="43"/>
-        <v>0.8</v>
+        <f t="shared" si="48"/>
+        <v>0.85</v>
       </c>
       <c r="AB65" s="12">
-        <f t="shared" si="44"/>
-        <v>1.59</v>
+        <f t="shared" si="49"/>
+        <v>1.7</v>
       </c>
       <c r="AC65" s="12">
-        <f t="shared" si="45"/>
-        <v>3.17</v>
+        <f t="shared" si="50"/>
+        <v>3.39</v>
       </c>
       <c r="AD65" s="12">
-        <f t="shared" si="46"/>
-        <v>4.75</v>
+        <f t="shared" si="51"/>
+        <v>5.09</v>
       </c>
       <c r="AE65" s="12">
-        <f t="shared" si="47"/>
-        <v>5.54</v>
+        <f t="shared" si="52"/>
+        <v>5.93</v>
       </c>
       <c r="AF65" s="2">
         <v>390</v>
@@ -8062,42 +8386,42 @@
         <v>0.01</v>
       </c>
       <c r="I66" s="12">
-        <f t="shared" si="50"/>
+        <f t="shared" si="62"/>
         <v>0.02</v>
       </c>
       <c r="J66" s="12">
-        <f t="shared" si="51"/>
+        <f t="shared" si="63"/>
         <v>0.04</v>
       </c>
       <c r="K66" s="12">
-        <f t="shared" si="52"/>
+        <f t="shared" si="64"/>
         <v>0.08</v>
       </c>
       <c r="L66" s="12">
-        <f t="shared" si="53"/>
+        <f t="shared" si="65"/>
         <v>0.12</v>
       </c>
       <c r="M66" s="12">
-        <f t="shared" si="54"/>
+        <f t="shared" si="66"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="N66" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="67"/>
         <v>0.27</v>
       </c>
       <c r="O66" s="13">
         <v>20</v>
       </c>
       <c r="P66" s="13">
-        <f t="shared" si="56"/>
+        <f t="shared" si="68"/>
         <v>0.41000000000000003</v>
       </c>
       <c r="Q66" s="12">
-        <f t="shared" ref="Q66:Q85" si="58">N66</f>
+        <f t="shared" ref="Q66:Q85" si="70">N66</f>
         <v>0.27</v>
       </c>
       <c r="R66" s="13">
-        <f t="shared" si="57"/>
+        <f t="shared" si="69"/>
         <v>3.0783159800814848</v>
       </c>
       <c r="Y66" s="12" t="s">
@@ -8107,24 +8431,24 @@
         <v>0.13</v>
       </c>
       <c r="AA66" s="12">
-        <f t="shared" si="43"/>
-        <v>0.87</v>
+        <f t="shared" si="48"/>
+        <v>0.93</v>
       </c>
       <c r="AB66" s="12">
-        <f t="shared" si="44"/>
-        <v>1.74</v>
+        <f t="shared" si="49"/>
+        <v>1.86</v>
       </c>
       <c r="AC66" s="12">
-        <f t="shared" si="45"/>
-        <v>3.48</v>
+        <f t="shared" si="50"/>
+        <v>3.72</v>
       </c>
       <c r="AD66" s="12">
-        <f t="shared" si="46"/>
-        <v>5.22</v>
+        <f t="shared" si="51"/>
+        <v>5.58</v>
       </c>
       <c r="AE66" s="12">
-        <f t="shared" si="47"/>
-        <v>6.09</v>
+        <f t="shared" si="52"/>
+        <v>6.5</v>
       </c>
       <c r="AF66" s="2">
         <v>420</v>
@@ -8138,42 +8462,42 @@
         <v>0.02</v>
       </c>
       <c r="I67" s="12">
-        <f t="shared" si="50"/>
+        <f t="shared" si="62"/>
         <v>0.03</v>
       </c>
       <c r="J67" s="12">
-        <f t="shared" si="51"/>
+        <f t="shared" si="63"/>
         <v>0.05</v>
       </c>
       <c r="K67" s="12">
-        <f t="shared" si="52"/>
+        <f t="shared" si="64"/>
         <v>0.1</v>
       </c>
       <c r="L67" s="12">
-        <f t="shared" si="53"/>
+        <f t="shared" si="65"/>
         <v>0.15</v>
       </c>
       <c r="M67" s="12">
-        <f t="shared" si="54"/>
+        <f t="shared" si="66"/>
         <v>0.18</v>
       </c>
       <c r="N67" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="67"/>
         <v>0.35</v>
       </c>
       <c r="O67" s="13">
         <v>30</v>
       </c>
       <c r="P67" s="13">
-        <f t="shared" si="56"/>
+        <f t="shared" si="68"/>
         <v>0.53</v>
       </c>
       <c r="Q67" s="12">
-        <f t="shared" si="58"/>
+        <f t="shared" si="70"/>
         <v>0.35</v>
       </c>
       <c r="R67" s="13">
-        <f t="shared" si="57"/>
+        <f t="shared" si="69"/>
         <v>3.9837030330466274</v>
       </c>
       <c r="Y67" s="12" t="s">
@@ -8183,24 +8507,24 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="AA67" s="12">
-        <f t="shared" si="43"/>
-        <v>0.96</v>
+        <f t="shared" si="48"/>
+        <v>1.02</v>
       </c>
       <c r="AB67" s="12">
-        <f t="shared" si="44"/>
-        <v>1.91</v>
+        <f t="shared" si="49"/>
+        <v>2.0299999999999998</v>
       </c>
       <c r="AC67" s="12">
-        <f t="shared" si="45"/>
-        <v>3.81</v>
+        <f t="shared" si="50"/>
+        <v>4.0599999999999996</v>
       </c>
       <c r="AD67" s="12">
-        <f t="shared" si="46"/>
-        <v>5.71</v>
+        <f t="shared" si="51"/>
+        <v>6.09</v>
       </c>
       <c r="AE67" s="12">
-        <f t="shared" si="47"/>
-        <v>6.66</v>
+        <f t="shared" si="52"/>
+        <v>7.1</v>
       </c>
       <c r="AF67" s="2">
         <v>450</v>
@@ -8214,42 +8538,42 @@
         <v>0.02</v>
       </c>
       <c r="I68" s="12">
-        <f t="shared" si="50"/>
+        <f t="shared" si="62"/>
         <v>0.04</v>
       </c>
       <c r="J68" s="12">
-        <f t="shared" si="51"/>
+        <f t="shared" si="63"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="K68" s="12">
-        <f t="shared" si="52"/>
+        <f t="shared" si="64"/>
         <v>0.13</v>
       </c>
       <c r="L68" s="12">
-        <f t="shared" si="53"/>
+        <f t="shared" si="65"/>
         <v>0.19</v>
       </c>
       <c r="M68" s="12">
-        <f t="shared" si="54"/>
+        <f t="shared" si="66"/>
         <v>0.22</v>
       </c>
       <c r="N68" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="67"/>
         <v>0.44</v>
       </c>
       <c r="O68" s="13">
         <v>40</v>
       </c>
       <c r="P68" s="13">
-        <f t="shared" si="56"/>
+        <f t="shared" si="68"/>
         <v>0.67</v>
       </c>
       <c r="Q68" s="12">
-        <f t="shared" si="58"/>
+        <f t="shared" si="70"/>
         <v>0.44</v>
       </c>
       <c r="R68" s="13">
-        <f t="shared" si="57"/>
+        <f t="shared" si="69"/>
         <v>5.0248981439565421</v>
       </c>
       <c r="Y68" s="12" t="s">
@@ -8259,24 +8583,24 @@
         <v>0.15</v>
       </c>
       <c r="AA68" s="12">
-        <f t="shared" si="43"/>
-        <v>1.04</v>
+        <f t="shared" si="48"/>
+        <v>1.1100000000000001</v>
       </c>
       <c r="AB68" s="12">
-        <f t="shared" si="44"/>
-        <v>2.08</v>
+        <f t="shared" si="49"/>
+        <v>2.21</v>
       </c>
       <c r="AC68" s="12">
-        <f t="shared" si="45"/>
-        <v>4.1500000000000004</v>
+        <f t="shared" si="50"/>
+        <v>4.41</v>
       </c>
       <c r="AD68" s="12">
-        <f t="shared" si="46"/>
-        <v>6.22</v>
+        <f t="shared" si="51"/>
+        <v>6.62</v>
       </c>
       <c r="AE68" s="12">
-        <f t="shared" si="47"/>
-        <v>7.25</v>
+        <f t="shared" si="52"/>
+        <v>7.72</v>
       </c>
       <c r="AF68" s="2">
         <v>480</v>
@@ -8290,42 +8614,42 @@
         <v>0.03</v>
       </c>
       <c r="I69" s="12">
-        <f t="shared" si="50"/>
+        <f t="shared" si="62"/>
         <v>0.04</v>
       </c>
       <c r="J69" s="12">
-        <f t="shared" si="51"/>
+        <f t="shared" si="63"/>
         <v>0.08</v>
       </c>
       <c r="K69" s="12">
-        <f t="shared" si="52"/>
+        <f t="shared" si="64"/>
         <v>0.16</v>
       </c>
       <c r="L69" s="12">
-        <f t="shared" si="53"/>
+        <f t="shared" si="65"/>
         <v>0.24</v>
       </c>
       <c r="M69" s="12">
-        <f t="shared" si="54"/>
+        <f t="shared" si="66"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="N69" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="67"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="O69" s="13">
         <v>50</v>
       </c>
       <c r="P69" s="13">
-        <f t="shared" si="56"/>
+        <f t="shared" si="68"/>
         <v>0.83000000000000007</v>
       </c>
       <c r="Q69" s="12">
-        <f t="shared" si="58"/>
+        <f t="shared" si="70"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="R69" s="13">
-        <f t="shared" si="57"/>
+        <f t="shared" si="69"/>
         <v>6.2471706654594845</v>
       </c>
     </row>
@@ -8337,42 +8661,42 @@
         <v>0.03</v>
       </c>
       <c r="I70" s="12">
-        <f t="shared" si="50"/>
+        <f t="shared" si="62"/>
         <v>0.05</v>
       </c>
       <c r="J70" s="12">
-        <f t="shared" si="51"/>
+        <f t="shared" si="63"/>
         <v>0.1</v>
       </c>
       <c r="K70" s="12">
-        <f t="shared" si="52"/>
+        <f t="shared" si="64"/>
         <v>0.2</v>
       </c>
       <c r="L70" s="12">
-        <f t="shared" si="53"/>
+        <f t="shared" si="65"/>
         <v>0.28999999999999998</v>
       </c>
       <c r="M70" s="12">
-        <f t="shared" si="54"/>
+        <f t="shared" si="66"/>
         <v>0.34</v>
       </c>
       <c r="N70" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="67"/>
         <v>0.68</v>
       </c>
       <c r="O70" s="13">
         <v>60</v>
       </c>
       <c r="P70" s="13">
-        <f t="shared" si="56"/>
+        <f t="shared" si="68"/>
         <v>1.01</v>
       </c>
       <c r="Q70" s="12">
-        <f t="shared" si="58"/>
+        <f t="shared" si="70"/>
         <v>0.68</v>
       </c>
       <c r="R70" s="13">
-        <f t="shared" si="57"/>
+        <f t="shared" si="69"/>
         <v>7.6505205975554542</v>
       </c>
     </row>
@@ -8384,42 +8708,42 @@
         <v>0.04</v>
       </c>
       <c r="I71" s="12">
-        <f t="shared" si="50"/>
+        <f t="shared" si="62"/>
         <v>0.06</v>
       </c>
       <c r="J71" s="12">
-        <f t="shared" si="51"/>
+        <f t="shared" si="63"/>
         <v>0.12</v>
       </c>
       <c r="K71" s="12">
-        <f t="shared" si="52"/>
+        <f t="shared" si="64"/>
         <v>0.24</v>
       </c>
       <c r="L71" s="12">
-        <f t="shared" si="53"/>
+        <f t="shared" si="65"/>
         <v>0.35</v>
       </c>
       <c r="M71" s="12">
-        <f t="shared" si="54"/>
+        <f t="shared" si="66"/>
         <v>0.41</v>
       </c>
       <c r="N71" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="67"/>
         <v>0.82</v>
       </c>
       <c r="O71" s="13">
         <v>70</v>
       </c>
       <c r="P71" s="13">
-        <f t="shared" si="56"/>
+        <f t="shared" si="68"/>
         <v>1.22</v>
       </c>
       <c r="Q71" s="12">
-        <f t="shared" si="58"/>
+        <f t="shared" si="70"/>
         <v>0.82</v>
       </c>
       <c r="R71" s="13">
-        <f t="shared" si="57"/>
+        <f t="shared" si="69"/>
         <v>9.2349479402444548</v>
       </c>
     </row>
@@ -8431,42 +8755,42 @@
         <v>0.04</v>
       </c>
       <c r="I72" s="12">
-        <f t="shared" si="50"/>
+        <f t="shared" si="62"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="J72" s="12">
-        <f t="shared" si="51"/>
+        <f t="shared" si="63"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="K72" s="12">
-        <f t="shared" si="52"/>
+        <f t="shared" si="64"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="L72" s="12">
-        <f t="shared" si="53"/>
+        <f t="shared" si="65"/>
         <v>0.42</v>
       </c>
       <c r="M72" s="12">
-        <f t="shared" si="54"/>
+        <f t="shared" si="66"/>
         <v>0.49</v>
       </c>
       <c r="N72" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="67"/>
         <v>0.98</v>
       </c>
       <c r="O72" s="13">
         <v>80</v>
       </c>
       <c r="P72" s="13">
-        <f t="shared" si="56"/>
+        <f t="shared" si="68"/>
         <v>1.44</v>
       </c>
       <c r="Q72" s="12">
-        <f t="shared" si="58"/>
+        <f t="shared" si="70"/>
         <v>0.98</v>
       </c>
       <c r="R72" s="13">
-        <f t="shared" si="57"/>
+        <f t="shared" si="69"/>
         <v>10.955183340878225</v>
       </c>
     </row>
@@ -8478,42 +8802,42 @@
         <v>0.05</v>
       </c>
       <c r="I73" s="12">
-        <f t="shared" si="50"/>
+        <f t="shared" si="62"/>
         <v>0.09</v>
       </c>
       <c r="J73" s="12">
-        <f t="shared" si="51"/>
+        <f t="shared" si="63"/>
         <v>0.17</v>
       </c>
       <c r="K73" s="12">
-        <f t="shared" si="52"/>
+        <f t="shared" si="64"/>
         <v>0.34</v>
       </c>
       <c r="L73" s="12">
-        <f t="shared" si="53"/>
+        <f t="shared" si="65"/>
         <v>0.5</v>
       </c>
       <c r="M73" s="12">
-        <f t="shared" si="54"/>
+        <f t="shared" si="66"/>
         <v>0.59</v>
       </c>
       <c r="N73" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="67"/>
         <v>1.17</v>
       </c>
       <c r="O73" s="13">
         <v>90</v>
       </c>
       <c r="P73" s="13">
-        <f t="shared" si="56"/>
+        <f t="shared" si="68"/>
         <v>1.7400000000000002</v>
       </c>
       <c r="Q73" s="12">
-        <f t="shared" si="58"/>
+        <f t="shared" si="70"/>
         <v>1.17</v>
       </c>
       <c r="R73" s="13">
-        <f t="shared" si="57"/>
+        <f t="shared" si="69"/>
         <v>13.173381620642827</v>
       </c>
     </row>
@@ -8525,42 +8849,42 @@
         <v>0.05</v>
       </c>
       <c r="I74" s="12">
-        <f t="shared" si="50"/>
+        <f t="shared" si="62"/>
         <v>0.1</v>
       </c>
       <c r="J74" s="12">
-        <f t="shared" si="51"/>
+        <f t="shared" si="63"/>
         <v>0.2</v>
       </c>
       <c r="K74" s="12">
-        <f t="shared" si="52"/>
+        <f t="shared" si="64"/>
         <v>0.4</v>
       </c>
       <c r="L74" s="12">
-        <f t="shared" si="53"/>
+        <f t="shared" si="65"/>
         <v>0.59</v>
       </c>
       <c r="M74" s="12">
-        <f t="shared" si="54"/>
+        <f t="shared" si="66"/>
         <v>0.69</v>
       </c>
       <c r="N74" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="67"/>
         <v>1.38</v>
       </c>
       <c r="O74" s="13">
         <v>100</v>
       </c>
       <c r="P74" s="13">
-        <f t="shared" si="56"/>
+        <f t="shared" si="68"/>
         <v>2.0299999999999998</v>
       </c>
       <c r="Q74" s="12">
-        <f t="shared" si="58"/>
+        <f t="shared" si="70"/>
         <v>1.38</v>
       </c>
       <c r="R74" s="13">
-        <f t="shared" si="57"/>
+        <f t="shared" si="69"/>
         <v>15.436849253055678</v>
       </c>
     </row>
@@ -8572,42 +8896,42 @@
         <v>0.06</v>
       </c>
       <c r="I75" s="12">
-        <f t="shared" ref="I75:I85" si="59">ROUNDUP(((H46/$B$39)*$B$40)*((100+O75)/100),0)/100</f>
+        <f t="shared" ref="I75:I85" si="71">ROUNDUP(((H46/$B$39)*$B$40)*((100+O75)/100),0)/100</f>
         <v>0.15</v>
       </c>
       <c r="J75" s="12">
-        <f t="shared" ref="J75:J85" si="60">ROUNDUP(((I46/$B$39)*$B$40)*((100+O75)/100),0)/100</f>
+        <f t="shared" ref="J75:J85" si="72">ROUNDUP(((I46/$B$39)*$B$40)*((100+O75)/100),0)/100</f>
         <v>0.3</v>
       </c>
       <c r="K75" s="12">
-        <f t="shared" ref="K75:K85" si="61">ROUNDUP(((J46/$B$39)*$B$40)*((100+O75)/100),0)/100</f>
+        <f t="shared" ref="K75:K85" si="73">ROUNDUP(((J46/$B$39)*$B$40)*((100+O75)/100),0)/100</f>
         <v>0.59</v>
       </c>
       <c r="L75" s="12">
-        <f t="shared" ref="L75:L85" si="62">ROUNDUP(((K46/$B$39)*$B$40)*((100+O75)/100),0)/100</f>
+        <f t="shared" ref="L75:L85" si="74">ROUNDUP(((K46/$B$39)*$B$40)*((100+O75)/100),0)/100</f>
         <v>0.88</v>
       </c>
       <c r="M75" s="12">
-        <f t="shared" ref="M75:M85" si="63">ROUNDUP(((L46/$B$39)*$B$40)*((100+O75)/100),0)/100</f>
+        <f t="shared" ref="M75:M85" si="75">ROUNDUP(((L46/$B$39)*$B$40)*((100+O75)/100),0)/100</f>
         <v>1.03</v>
       </c>
       <c r="N75" s="12">
-        <f t="shared" ref="N75:N85" si="64">ROUNDUP(((M46/$B$39)*$B$40)*((100+O75)/100),0)/100</f>
+        <f t="shared" ref="N75:N85" si="76">ROUNDUP(((M46/$B$39)*$B$40)*((100+O75)/100),0)/100</f>
         <v>2.0499999999999998</v>
       </c>
       <c r="O75" s="13">
         <v>110</v>
       </c>
       <c r="P75" s="13">
-        <f t="shared" si="56"/>
+        <f t="shared" si="68"/>
         <v>3.01</v>
       </c>
       <c r="Q75" s="12">
-        <f t="shared" si="58"/>
+        <f t="shared" si="70"/>
         <v>2.0499999999999998</v>
       </c>
       <c r="R75" s="13">
-        <f t="shared" si="57"/>
+        <f t="shared" si="69"/>
         <v>22.906292440018106</v>
       </c>
     </row>
@@ -8619,42 +8943,42 @@
         <v>0.06</v>
       </c>
       <c r="I76" s="12">
-        <f t="shared" si="59"/>
+        <f t="shared" si="71"/>
         <v>0.17</v>
       </c>
       <c r="J76" s="12">
-        <f t="shared" si="60"/>
+        <f t="shared" si="72"/>
         <v>0.33</v>
       </c>
       <c r="K76" s="12">
-        <f t="shared" si="61"/>
+        <f t="shared" si="73"/>
         <v>0.65</v>
       </c>
       <c r="L76" s="12">
-        <f t="shared" si="62"/>
+        <f t="shared" si="74"/>
         <v>0.97</v>
       </c>
       <c r="M76" s="12">
-        <f t="shared" si="63"/>
+        <f t="shared" si="75"/>
         <v>1.1299999999999999</v>
       </c>
       <c r="N76" s="12">
-        <f t="shared" si="64"/>
+        <f t="shared" si="76"/>
         <v>2.25</v>
       </c>
       <c r="O76" s="13">
         <v>120</v>
       </c>
       <c r="P76" s="13">
-        <f t="shared" si="56"/>
+        <f t="shared" si="68"/>
         <v>3.3099999999999996</v>
       </c>
       <c r="Q76" s="12">
-        <f t="shared" si="58"/>
+        <f t="shared" si="70"/>
         <v>2.25</v>
       </c>
       <c r="R76" s="13">
-        <f t="shared" si="57"/>
+        <f t="shared" si="69"/>
         <v>25.169760072430964</v>
       </c>
       <c r="Y76" s="12" t="s">
@@ -8675,42 +8999,42 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I77" s="12">
-        <f t="shared" si="59"/>
+        <f t="shared" si="71"/>
         <v>0.18</v>
       </c>
       <c r="J77" s="12">
-        <f t="shared" si="60"/>
+        <f t="shared" si="72"/>
         <v>0.36</v>
       </c>
       <c r="K77" s="12">
-        <f t="shared" si="61"/>
+        <f t="shared" si="73"/>
         <v>0.71</v>
       </c>
       <c r="L77" s="12">
-        <f t="shared" si="62"/>
+        <f t="shared" si="74"/>
         <v>1.06</v>
       </c>
       <c r="M77" s="12">
-        <f t="shared" si="63"/>
+        <f t="shared" si="75"/>
         <v>1.23</v>
       </c>
       <c r="N77" s="12">
-        <f t="shared" si="64"/>
+        <f t="shared" si="76"/>
         <v>2.46</v>
       </c>
       <c r="O77" s="13">
         <v>130</v>
       </c>
       <c r="P77" s="13">
-        <f t="shared" si="56"/>
+        <f t="shared" si="68"/>
         <v>3.61</v>
       </c>
       <c r="Q77" s="12">
-        <f t="shared" si="58"/>
+        <f t="shared" si="70"/>
         <v>2.46</v>
       </c>
       <c r="R77" s="13">
-        <f t="shared" si="57"/>
+        <f t="shared" si="69"/>
         <v>27.478497057492078</v>
       </c>
       <c r="Y77" s="27" t="s">
@@ -8743,69 +9067,69 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I78" s="12">
-        <f t="shared" si="59"/>
+        <f t="shared" si="71"/>
         <v>0.2</v>
       </c>
       <c r="J78" s="12">
-        <f t="shared" si="60"/>
+        <f t="shared" si="72"/>
         <v>0.4</v>
       </c>
       <c r="K78" s="12">
-        <f t="shared" si="61"/>
+        <f t="shared" si="73"/>
         <v>0.8</v>
       </c>
       <c r="L78" s="12">
-        <f t="shared" si="62"/>
+        <f t="shared" si="74"/>
         <v>1.2</v>
       </c>
       <c r="M78" s="12">
-        <f t="shared" si="63"/>
+        <f t="shared" si="75"/>
         <v>1.4</v>
       </c>
       <c r="N78" s="12">
-        <f t="shared" si="64"/>
+        <f t="shared" si="76"/>
         <v>2.79</v>
       </c>
       <c r="O78" s="13">
         <v>140</v>
       </c>
       <c r="P78" s="13">
-        <f t="shared" ref="P78:P81" si="65">SUM(H78:M78)</f>
+        <f t="shared" ref="P78:P81" si="77">SUM(H78:M78)</f>
         <v>4.07</v>
       </c>
       <c r="Q78" s="12">
-        <f t="shared" si="58"/>
+        <f t="shared" si="70"/>
         <v>2.79</v>
       </c>
       <c r="R78" s="13">
-        <f t="shared" si="57"/>
+        <f t="shared" si="69"/>
         <v>31.05477591670439</v>
       </c>
       <c r="Y78" s="12" t="s">
         <v>198</v>
       </c>
       <c r="Z78" s="12">
-        <f t="shared" ref="Z78:Z92" si="66">Z54</f>
+        <f t="shared" ref="Z78:Z92" si="78">Z54</f>
         <v>0.01</v>
       </c>
       <c r="AA78" s="12">
-        <f t="shared" ref="AA78:AE92" si="67">Z78+AA54</f>
+        <f t="shared" ref="AA78:AE92" si="79">Z78+AA54</f>
         <v>0.23</v>
       </c>
       <c r="AB78" s="12">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v>0.67</v>
       </c>
       <c r="AC78" s="12">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v>1.54</v>
       </c>
       <c r="AD78" s="12">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v>2.84</v>
       </c>
       <c r="AE78" s="12">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v>4.3599999999999994</v>
       </c>
     </row>
@@ -8817,69 +9141,69 @@
         <v>0.08</v>
       </c>
       <c r="I79" s="12">
-        <f t="shared" si="59"/>
+        <f t="shared" si="71"/>
         <v>0.23</v>
       </c>
       <c r="J79" s="12">
-        <f t="shared" si="60"/>
+        <f t="shared" si="72"/>
         <v>0.45</v>
       </c>
       <c r="K79" s="12">
-        <f t="shared" si="61"/>
+        <f t="shared" si="73"/>
         <v>0.9</v>
       </c>
       <c r="L79" s="12">
-        <f t="shared" si="62"/>
+        <f t="shared" si="74"/>
         <v>1.35</v>
       </c>
       <c r="M79" s="12">
-        <f t="shared" si="63"/>
+        <f t="shared" si="75"/>
         <v>1.58</v>
       </c>
       <c r="N79" s="12">
-        <f t="shared" si="64"/>
+        <f t="shared" si="76"/>
         <v>3.15</v>
       </c>
       <c r="O79" s="13">
         <v>150</v>
       </c>
       <c r="P79" s="13">
-        <f t="shared" si="65"/>
+        <f t="shared" si="77"/>
         <v>4.59</v>
       </c>
       <c r="Q79" s="12">
-        <f t="shared" si="58"/>
+        <f t="shared" si="70"/>
         <v>3.15</v>
       </c>
       <c r="R79" s="13">
-        <f t="shared" si="57"/>
+        <f t="shared" si="69"/>
         <v>35.038478949751017</v>
       </c>
       <c r="Y79" s="12" t="s">
         <v>199</v>
       </c>
       <c r="Z79" s="12">
-        <f t="shared" si="66"/>
+        <f t="shared" si="78"/>
         <v>0.02</v>
       </c>
       <c r="AA79" s="12">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v>0.26</v>
       </c>
       <c r="AB79" s="12">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v>0.73</v>
       </c>
       <c r="AC79" s="12">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v>1.6600000000000001</v>
       </c>
       <c r="AD79" s="12">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v>3.06</v>
       </c>
       <c r="AE79" s="12">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v>4.6899999999999995</v>
       </c>
     </row>
@@ -8891,69 +9215,69 @@
         <v>0.08</v>
       </c>
       <c r="I80" s="12">
-        <f t="shared" si="59"/>
+        <f t="shared" si="71"/>
         <v>0.27</v>
       </c>
       <c r="J80" s="12">
-        <f t="shared" si="60"/>
+        <f t="shared" si="72"/>
         <v>0.53</v>
       </c>
       <c r="K80" s="12">
-        <f t="shared" si="61"/>
+        <f t="shared" si="73"/>
         <v>1.06</v>
       </c>
       <c r="L80" s="12">
-        <f t="shared" si="62"/>
+        <f t="shared" si="74"/>
         <v>1.58</v>
       </c>
       <c r="M80" s="12">
-        <f t="shared" si="63"/>
+        <f t="shared" si="75"/>
         <v>1.84</v>
       </c>
       <c r="N80" s="12">
-        <f t="shared" si="64"/>
+        <f t="shared" si="76"/>
         <v>3.68</v>
       </c>
       <c r="O80" s="13">
         <v>160</v>
       </c>
       <c r="P80" s="13">
-        <f t="shared" si="65"/>
+        <f t="shared" si="77"/>
         <v>5.36</v>
       </c>
       <c r="Q80" s="12">
-        <f t="shared" si="58"/>
+        <f t="shared" si="70"/>
         <v>3.68</v>
       </c>
       <c r="R80" s="13">
-        <f t="shared" si="57"/>
+        <f t="shared" si="69"/>
         <v>40.92349479402445</v>
       </c>
       <c r="Y80" s="12" t="s">
         <v>200</v>
       </c>
       <c r="Z80" s="12">
-        <f t="shared" si="66"/>
+        <f t="shared" si="78"/>
         <v>0.03</v>
       </c>
       <c r="AA80" s="12">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="AB80" s="12">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v>0.78</v>
       </c>
       <c r="AC80" s="12">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v>1.78</v>
       </c>
       <c r="AD80" s="12">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v>3.2800000000000002</v>
       </c>
       <c r="AE80" s="12">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v>5.03</v>
       </c>
     </row>
@@ -8965,42 +9289,42 @@
         <v>0.09</v>
       </c>
       <c r="I81" s="12">
-        <f t="shared" si="59"/>
+        <f t="shared" si="71"/>
         <v>0.32</v>
       </c>
       <c r="J81" s="12">
-        <f t="shared" si="60"/>
+        <f t="shared" si="72"/>
         <v>0.64</v>
       </c>
       <c r="K81" s="12">
-        <f t="shared" si="61"/>
+        <f t="shared" si="73"/>
         <v>1.27</v>
       </c>
       <c r="L81" s="12">
-        <f t="shared" si="62"/>
+        <f t="shared" si="74"/>
         <v>1.9</v>
       </c>
       <c r="M81" s="12">
-        <f t="shared" si="63"/>
+        <f t="shared" si="75"/>
         <v>2.2200000000000002</v>
       </c>
       <c r="N81" s="12">
-        <f t="shared" si="64"/>
+        <f t="shared" si="76"/>
         <v>4.43</v>
       </c>
       <c r="O81" s="13">
         <v>180</v>
       </c>
       <c r="P81" s="13">
-        <f t="shared" si="65"/>
+        <f t="shared" si="77"/>
         <v>6.4400000000000013</v>
       </c>
       <c r="Q81" s="12">
-        <f t="shared" si="58"/>
+        <f t="shared" si="70"/>
         <v>4.43</v>
       </c>
       <c r="R81" s="13">
-        <f t="shared" si="57"/>
+        <f t="shared" si="69"/>
         <v>49.207786328655509</v>
       </c>
       <c r="S81" s="12" t="s">
@@ -9025,27 +9349,27 @@
         <v>201</v>
       </c>
       <c r="Z81" s="12">
-        <f t="shared" si="66"/>
+        <f t="shared" si="78"/>
         <v>0.04</v>
       </c>
       <c r="AA81" s="12">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v>0.31</v>
       </c>
       <c r="AB81" s="12">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v>0.85000000000000009</v>
       </c>
       <c r="AC81" s="12">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v>1.9200000000000002</v>
       </c>
       <c r="AD81" s="12">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v>3.5200000000000005</v>
       </c>
       <c r="AE81" s="12">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v>5.3900000000000006</v>
       </c>
     </row>
@@ -9057,42 +9381,42 @@
         <v>0.09</v>
       </c>
       <c r="I82" s="12">
-        <f t="shared" si="59"/>
+        <f t="shared" si="71"/>
         <v>0.38</v>
       </c>
       <c r="J82" s="12">
-        <f t="shared" si="60"/>
+        <f t="shared" si="72"/>
         <v>0.76</v>
       </c>
       <c r="K82" s="12">
-        <f t="shared" si="61"/>
+        <f t="shared" si="73"/>
         <v>1.51</v>
       </c>
       <c r="L82" s="12">
-        <f t="shared" si="62"/>
+        <f t="shared" si="74"/>
         <v>2.25</v>
       </c>
       <c r="M82" s="12">
-        <f t="shared" si="63"/>
+        <f t="shared" si="75"/>
         <v>2.63</v>
       </c>
       <c r="N82" s="12">
-        <f t="shared" si="64"/>
+        <f t="shared" si="76"/>
         <v>5.26</v>
       </c>
       <c r="O82" s="13">
         <v>200</v>
       </c>
       <c r="P82" s="13">
-        <f t="shared" ref="P82:P84" si="68">SUM(H82:M82)</f>
+        <f t="shared" ref="P82:P84" si="80">SUM(H82:M82)</f>
         <v>7.62</v>
       </c>
       <c r="Q82" s="12">
-        <f t="shared" si="58"/>
+        <f t="shared" si="70"/>
         <v>5.26</v>
       </c>
       <c r="R82" s="13">
-        <f t="shared" si="57"/>
+        <f t="shared" si="69"/>
         <v>58.306926210955176</v>
       </c>
       <c r="S82" s="12" t="s">
@@ -9117,27 +9441,27 @@
         <v>202</v>
       </c>
       <c r="Z82" s="12">
-        <f t="shared" si="66"/>
+        <f t="shared" si="78"/>
         <v>0.05</v>
       </c>
       <c r="AA82" s="12">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v>0.35</v>
       </c>
       <c r="AB82" s="12">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v>0.94</v>
       </c>
       <c r="AC82" s="12">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v>2.12</v>
       </c>
       <c r="AD82" s="12">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v>3.89</v>
       </c>
       <c r="AE82" s="12">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v>5.95</v>
       </c>
     </row>
@@ -9149,69 +9473,69 @@
         <v>0.1</v>
       </c>
       <c r="I83" s="12">
-        <f t="shared" si="59"/>
+        <f t="shared" si="71"/>
         <v>0.45</v>
       </c>
       <c r="J83" s="12">
-        <f t="shared" si="60"/>
+        <f t="shared" si="72"/>
         <v>0.89</v>
       </c>
       <c r="K83" s="12">
-        <f t="shared" si="61"/>
+        <f t="shared" si="73"/>
         <v>1.77</v>
       </c>
       <c r="L83" s="12">
-        <f t="shared" si="62"/>
+        <f t="shared" si="74"/>
         <v>2.65</v>
       </c>
       <c r="M83" s="12">
-        <f t="shared" si="63"/>
+        <f t="shared" si="75"/>
         <v>3.09</v>
       </c>
       <c r="N83" s="12">
-        <f t="shared" si="64"/>
+        <f t="shared" si="76"/>
         <v>6.18</v>
       </c>
       <c r="O83" s="13">
         <v>220</v>
       </c>
       <c r="P83" s="13">
-        <f t="shared" si="68"/>
+        <f t="shared" si="80"/>
         <v>8.9499999999999993</v>
       </c>
       <c r="Q83" s="12">
-        <f t="shared" si="58"/>
+        <f t="shared" si="70"/>
         <v>6.18</v>
       </c>
       <c r="R83" s="13">
-        <f t="shared" si="57"/>
+        <f t="shared" si="69"/>
         <v>68.492530556813037</v>
       </c>
       <c r="Y83" s="12" t="s">
         <v>203</v>
       </c>
       <c r="Z83" s="12">
-        <f t="shared" si="66"/>
+        <f t="shared" si="78"/>
         <v>0.06</v>
       </c>
       <c r="AA83" s="12">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v>0.39</v>
       </c>
       <c r="AB83" s="12">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v>1.04</v>
       </c>
       <c r="AC83" s="12">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v>2.34</v>
       </c>
       <c r="AD83" s="12">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v>4.2799999999999994</v>
       </c>
       <c r="AE83" s="12">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v>6.5399999999999991</v>
       </c>
     </row>
@@ -9223,69 +9547,69 @@
         <v>0.1</v>
       </c>
       <c r="I84" s="12">
-        <f t="shared" si="59"/>
+        <f t="shared" si="71"/>
         <v>0.52</v>
       </c>
       <c r="J84" s="12">
-        <f t="shared" si="60"/>
+        <f t="shared" si="72"/>
         <v>1.03</v>
       </c>
       <c r="K84" s="12">
-        <f t="shared" si="61"/>
+        <f t="shared" si="73"/>
         <v>2.06</v>
       </c>
       <c r="L84" s="12">
-        <f t="shared" si="62"/>
+        <f t="shared" si="74"/>
         <v>3.09</v>
       </c>
       <c r="M84" s="12">
-        <f t="shared" si="63"/>
+        <f t="shared" si="75"/>
         <v>3.6</v>
       </c>
       <c r="N84" s="12">
-        <f t="shared" si="64"/>
+        <f t="shared" si="76"/>
         <v>7.2</v>
       </c>
       <c r="O84" s="13">
         <v>240</v>
       </c>
       <c r="P84" s="13">
-        <f t="shared" si="68"/>
+        <f t="shared" si="80"/>
         <v>10.4</v>
       </c>
       <c r="Q84" s="12">
-        <f t="shared" si="58"/>
+        <f t="shared" si="70"/>
         <v>7.2</v>
       </c>
       <c r="R84" s="13">
-        <f t="shared" si="57"/>
+        <f t="shared" si="69"/>
         <v>79.674060660932554</v>
       </c>
       <c r="Y84" s="12" t="s">
         <v>204</v>
       </c>
       <c r="Z84" s="12">
-        <f t="shared" si="66"/>
+        <f t="shared" si="78"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AA84" s="12">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v>0.43</v>
       </c>
       <c r="AB84" s="12">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v>1.1399999999999999</v>
       </c>
       <c r="AC84" s="12">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v>2.5599999999999996</v>
       </c>
       <c r="AD84" s="12">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v>4.68</v>
       </c>
       <c r="AE84" s="12">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v>7.15</v>
       </c>
     </row>
@@ -9297,101 +9621,143 @@
         <v>0.11</v>
       </c>
       <c r="I85" s="12">
-        <f t="shared" si="59"/>
+        <f t="shared" si="71"/>
         <v>0.6</v>
       </c>
       <c r="J85" s="12">
-        <f t="shared" si="60"/>
+        <f t="shared" si="72"/>
         <v>1.19</v>
       </c>
       <c r="K85" s="12">
-        <f t="shared" si="61"/>
+        <f t="shared" si="73"/>
         <v>2.38</v>
       </c>
       <c r="L85" s="12">
-        <f t="shared" si="62"/>
+        <f t="shared" si="74"/>
         <v>3.57</v>
       </c>
       <c r="M85" s="12">
-        <f t="shared" si="63"/>
+        <f t="shared" si="75"/>
         <v>4.17</v>
       </c>
       <c r="N85" s="12">
-        <f t="shared" si="64"/>
+        <f t="shared" si="76"/>
         <v>8.33</v>
       </c>
       <c r="O85" s="13">
         <v>260</v>
       </c>
       <c r="P85" s="13">
-        <f t="shared" ref="P85" si="69">SUM(H85:M85)</f>
+        <f t="shared" ref="P85:P86" si="81">SUM(H85:M85)</f>
         <v>12.02</v>
       </c>
       <c r="Q85" s="12">
-        <f t="shared" si="58"/>
+        <f t="shared" si="70"/>
         <v>8.33</v>
       </c>
       <c r="R85" s="13">
-        <f t="shared" si="57"/>
+        <f t="shared" si="69"/>
         <v>92.123132639203263</v>
       </c>
       <c r="Y85" s="12" t="s">
         <v>205</v>
       </c>
       <c r="Z85" s="12">
-        <f t="shared" si="66"/>
+        <f t="shared" si="78"/>
         <v>0.08</v>
       </c>
       <c r="AA85" s="12">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v>0.48000000000000004</v>
       </c>
       <c r="AB85" s="12">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v>1.27</v>
       </c>
       <c r="AC85" s="12">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v>2.85</v>
       </c>
       <c r="AD85" s="12">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v>5.2200000000000006</v>
       </c>
       <c r="AE85" s="12">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v>7.98</v>
       </c>
     </row>
     <row r="86" spans="7:31">
-      <c r="O86" s="13"/>
-      <c r="P86" s="13"/>
-      <c r="R86" s="13"/>
+      <c r="G86" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="H86" s="12">
+        <v>0.11</v>
+      </c>
+      <c r="I86" s="12">
+        <f t="shared" ref="I86" si="82">ROUNDUP(((H57/$B$39)*$B$40)*((100+O86)/100),0)/100</f>
+        <v>0.71</v>
+      </c>
+      <c r="J86" s="12">
+        <f t="shared" ref="J86" si="83">ROUNDUP(((I57/$B$39)*$B$40)*((100+O86)/100),0)/100</f>
+        <v>1.41</v>
+      </c>
+      <c r="K86" s="12">
+        <f t="shared" ref="K86" si="84">ROUNDUP(((J57/$B$39)*$B$40)*((100+O86)/100),0)/100</f>
+        <v>2.82</v>
+      </c>
+      <c r="L86" s="12">
+        <f t="shared" ref="L86" si="85">ROUNDUP(((K57/$B$39)*$B$40)*((100+O86)/100),0)/100</f>
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="M86" s="12">
+        <f t="shared" ref="M86" si="86">ROUNDUP(((L57/$B$39)*$B$40)*((100+O86)/100),0)/100</f>
+        <v>4.93</v>
+      </c>
+      <c r="N86" s="12">
+        <f t="shared" ref="N86" si="87">ROUNDUP(((M57/$B$39)*$B$40)*((100+O86)/100),0)/100</f>
+        <v>9.86</v>
+      </c>
+      <c r="O86" s="13">
+        <v>280</v>
+      </c>
+      <c r="P86" s="13">
+        <f t="shared" si="81"/>
+        <v>14.21</v>
+      </c>
+      <c r="Q86" s="12">
+        <f t="shared" ref="Q86" si="88">N86</f>
+        <v>9.86</v>
+      </c>
+      <c r="R86" s="13">
+        <f t="shared" ref="R86" si="89">((P86+Q86)/$P$63)*100</f>
+        <v>108.96333182435491</v>
+      </c>
       <c r="Y86" s="12" t="s">
         <v>206</v>
       </c>
       <c r="Z86" s="12">
-        <f t="shared" si="66"/>
+        <f t="shared" si="78"/>
         <v>0.09</v>
       </c>
       <c r="AA86" s="12">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v>0.66999999999999993</v>
       </c>
       <c r="AB86" s="12">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v>1.8299999999999998</v>
       </c>
       <c r="AC86" s="12">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v>4.1399999999999997</v>
       </c>
       <c r="AD86" s="12">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v>7.6</v>
       </c>
       <c r="AE86" s="12">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v>11.64</v>
       </c>
     </row>
@@ -9403,27 +9769,27 @@
         <v>207</v>
       </c>
       <c r="Z87" s="12">
-        <f t="shared" si="66"/>
+        <f t="shared" si="78"/>
         <v>0.1</v>
       </c>
       <c r="AA87" s="12">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v>0.75</v>
       </c>
       <c r="AB87" s="12">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v>2.04</v>
       </c>
       <c r="AC87" s="12">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v>4.62</v>
       </c>
       <c r="AD87" s="12">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v>8.49</v>
       </c>
       <c r="AE87" s="12">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v>13</v>
       </c>
     </row>
@@ -9435,27 +9801,27 @@
         <v>208</v>
       </c>
       <c r="Z88" s="12">
-        <f t="shared" si="66"/>
+        <f t="shared" si="78"/>
         <v>0.11</v>
       </c>
       <c r="AA88" s="12">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v>0.83</v>
       </c>
       <c r="AB88" s="12">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v>2.27</v>
       </c>
       <c r="AC88" s="12">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v>5.1400000000000006</v>
       </c>
       <c r="AD88" s="12">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v>9.4400000000000013</v>
       </c>
       <c r="AE88" s="12">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v>14.450000000000001</v>
       </c>
     </row>
@@ -9467,28 +9833,28 @@
         <v>209</v>
       </c>
       <c r="Z89" s="12">
-        <f t="shared" si="66"/>
+        <f t="shared" si="78"/>
         <v>0.12</v>
       </c>
       <c r="AA89" s="12">
-        <f t="shared" si="67"/>
-        <v>0.92</v>
+        <f t="shared" si="79"/>
+        <v>0.97</v>
       </c>
       <c r="AB89" s="12">
-        <f t="shared" si="67"/>
-        <v>2.5100000000000002</v>
+        <f t="shared" si="79"/>
+        <v>2.67</v>
       </c>
       <c r="AC89" s="12">
-        <f t="shared" si="67"/>
-        <v>5.68</v>
+        <f t="shared" si="79"/>
+        <v>6.0600000000000005</v>
       </c>
       <c r="AD89" s="12">
-        <f t="shared" si="67"/>
-        <v>10.43</v>
+        <f t="shared" si="79"/>
+        <v>11.15</v>
       </c>
       <c r="AE89" s="12">
-        <f t="shared" si="67"/>
-        <v>15.969999999999999</v>
+        <f t="shared" si="79"/>
+        <v>17.079999999999998</v>
       </c>
     </row>
     <row r="90" spans="7:31">
@@ -9499,28 +9865,28 @@
         <v>210</v>
       </c>
       <c r="Z90" s="12">
-        <f t="shared" si="66"/>
+        <f t="shared" si="78"/>
         <v>0.13</v>
       </c>
       <c r="AA90" s="12">
-        <f t="shared" si="67"/>
-        <v>1</v>
+        <f t="shared" si="79"/>
+        <v>1.06</v>
       </c>
       <c r="AB90" s="12">
-        <f t="shared" si="67"/>
-        <v>2.74</v>
+        <f t="shared" si="79"/>
+        <v>2.92</v>
       </c>
       <c r="AC90" s="12">
-        <f t="shared" si="67"/>
-        <v>6.2200000000000006</v>
+        <f t="shared" si="79"/>
+        <v>6.6400000000000006</v>
       </c>
       <c r="AD90" s="12">
-        <f t="shared" si="67"/>
-        <v>11.440000000000001</v>
+        <f t="shared" si="79"/>
+        <v>12.22</v>
       </c>
       <c r="AE90" s="12">
-        <f t="shared" si="67"/>
-        <v>17.53</v>
+        <f t="shared" si="79"/>
+        <v>18.72</v>
       </c>
     </row>
     <row r="91" spans="7:31">
@@ -9531,28 +9897,28 @@
         <v>211</v>
       </c>
       <c r="Z91" s="12">
-        <f t="shared" si="66"/>
+        <f t="shared" si="78"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="AA91" s="12">
-        <f t="shared" si="67"/>
-        <v>1.1000000000000001</v>
+        <f t="shared" si="79"/>
+        <v>1.1600000000000001</v>
       </c>
       <c r="AB91" s="12">
-        <f t="shared" si="67"/>
-        <v>3.01</v>
+        <f t="shared" si="79"/>
+        <v>3.19</v>
       </c>
       <c r="AC91" s="12">
-        <f t="shared" si="67"/>
-        <v>6.82</v>
+        <f t="shared" si="79"/>
+        <v>7.25</v>
       </c>
       <c r="AD91" s="12">
-        <f t="shared" si="67"/>
-        <v>12.530000000000001</v>
+        <f t="shared" si="79"/>
+        <v>13.34</v>
       </c>
       <c r="AE91" s="12">
-        <f t="shared" si="67"/>
-        <v>19.190000000000001</v>
+        <f t="shared" si="79"/>
+        <v>20.439999999999998</v>
       </c>
     </row>
     <row r="92" spans="7:31">
@@ -9563,28 +9929,28 @@
         <v>212</v>
       </c>
       <c r="Z92" s="12">
-        <f t="shared" si="66"/>
+        <f t="shared" si="78"/>
         <v>0.15</v>
       </c>
       <c r="AA92" s="12">
-        <f t="shared" si="67"/>
-        <v>1.19</v>
+        <f t="shared" si="79"/>
+        <v>1.26</v>
       </c>
       <c r="AB92" s="12">
-        <f t="shared" si="67"/>
-        <v>3.27</v>
+        <f t="shared" si="79"/>
+        <v>3.4699999999999998</v>
       </c>
       <c r="AC92" s="12">
-        <f t="shared" si="67"/>
-        <v>7.42</v>
+        <f t="shared" si="79"/>
+        <v>7.88</v>
       </c>
       <c r="AD92" s="12">
-        <f t="shared" si="67"/>
-        <v>13.64</v>
+        <f t="shared" si="79"/>
+        <v>14.5</v>
       </c>
       <c r="AE92" s="12">
-        <f t="shared" si="67"/>
-        <v>20.89</v>
+        <f t="shared" si="79"/>
+        <v>22.22</v>
       </c>
     </row>
     <row r="93" spans="7:31">
@@ -9636,27 +10002,27 @@
         <v>0.01</v>
       </c>
       <c r="I96" s="12">
-        <f t="shared" ref="I96:N111" si="70">I65+H96</f>
+        <f t="shared" ref="I96:N111" si="90">I65+H96</f>
         <v>0.03</v>
       </c>
       <c r="J96" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>0.06</v>
       </c>
       <c r="K96" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>0.12</v>
       </c>
       <c r="L96" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>0.21</v>
       </c>
       <c r="M96" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>0.31</v>
       </c>
       <c r="N96" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>0.51</v>
       </c>
     </row>
@@ -9669,27 +10035,27 @@
         <v>0.01</v>
       </c>
       <c r="I97" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>0.03</v>
       </c>
       <c r="J97" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="K97" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>0.15000000000000002</v>
       </c>
       <c r="L97" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>0.27</v>
       </c>
       <c r="M97" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>0.41000000000000003</v>
       </c>
       <c r="N97" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>0.68</v>
       </c>
     </row>
@@ -9698,31 +10064,31 @@
         <v>19</v>
       </c>
       <c r="H98" s="12">
-        <f t="shared" ref="H98:H116" si="71">H67</f>
+        <f t="shared" ref="H98:H117" si="91">H67</f>
         <v>0.02</v>
       </c>
       <c r="I98" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>0.05</v>
       </c>
       <c r="J98" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>0.1</v>
       </c>
       <c r="K98" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>0.2</v>
       </c>
       <c r="L98" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>0.35</v>
       </c>
       <c r="M98" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>0.53</v>
       </c>
       <c r="N98" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>0.88</v>
       </c>
     </row>
@@ -9731,31 +10097,31 @@
         <v>85</v>
       </c>
       <c r="H99" s="12">
-        <f t="shared" si="71"/>
+        <f t="shared" si="91"/>
         <v>0.02</v>
       </c>
       <c r="I99" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>0.06</v>
       </c>
       <c r="J99" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>0.13</v>
       </c>
       <c r="K99" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>0.26</v>
       </c>
       <c r="L99" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>0.45</v>
       </c>
       <c r="M99" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>0.67</v>
       </c>
       <c r="N99" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>1.1100000000000001</v>
       </c>
     </row>
@@ -9764,31 +10130,31 @@
         <v>20</v>
       </c>
       <c r="H100" s="12">
-        <f t="shared" si="71"/>
+        <f t="shared" si="91"/>
         <v>0.03</v>
       </c>
       <c r="I100" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="J100" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>0.15000000000000002</v>
       </c>
       <c r="K100" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>0.31000000000000005</v>
       </c>
       <c r="L100" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="M100" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>0.83000000000000007</v>
       </c>
       <c r="N100" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>1.3800000000000001</v>
       </c>
     </row>
@@ -9797,31 +10163,31 @@
         <v>21</v>
       </c>
       <c r="H101" s="12">
-        <f t="shared" si="71"/>
+        <f t="shared" si="91"/>
         <v>0.03</v>
       </c>
       <c r="I101" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>0.08</v>
       </c>
       <c r="J101" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>0.18</v>
       </c>
       <c r="K101" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>0.38</v>
       </c>
       <c r="L101" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>0.66999999999999993</v>
       </c>
       <c r="M101" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>1.01</v>
       </c>
       <c r="N101" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>1.69</v>
       </c>
     </row>
@@ -9830,31 +10196,31 @@
         <v>22</v>
       </c>
       <c r="H102" s="12">
-        <f t="shared" si="71"/>
+        <f t="shared" si="91"/>
         <v>0.04</v>
       </c>
       <c r="I102" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>0.1</v>
       </c>
       <c r="J102" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>0.22</v>
       </c>
       <c r="K102" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>0.45999999999999996</v>
       </c>
       <c r="L102" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>0.80999999999999994</v>
       </c>
       <c r="M102" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>1.22</v>
       </c>
       <c r="N102" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>2.04</v>
       </c>
       <c r="AF102" s="12"/>
@@ -9864,31 +10230,31 @@
         <v>23</v>
       </c>
       <c r="H103" s="12">
-        <f t="shared" si="71"/>
+        <f t="shared" si="91"/>
         <v>0.04</v>
       </c>
       <c r="I103" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>0.11000000000000001</v>
       </c>
       <c r="J103" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>0.25</v>
       </c>
       <c r="K103" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>0.53</v>
       </c>
       <c r="L103" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>0.95</v>
       </c>
       <c r="M103" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>1.44</v>
       </c>
       <c r="N103" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>2.42</v>
       </c>
     </row>
@@ -9897,31 +10263,31 @@
         <v>24</v>
       </c>
       <c r="H104" s="12">
-        <f t="shared" si="71"/>
+        <f t="shared" si="91"/>
         <v>0.05</v>
       </c>
       <c r="I104" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="J104" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>0.31000000000000005</v>
       </c>
       <c r="K104" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>0.65000000000000013</v>
       </c>
       <c r="L104" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>1.1500000000000001</v>
       </c>
       <c r="M104" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>1.7400000000000002</v>
       </c>
       <c r="N104" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>2.91</v>
       </c>
     </row>
@@ -9930,31 +10296,31 @@
         <v>25</v>
       </c>
       <c r="H105" s="12">
-        <f t="shared" si="71"/>
+        <f t="shared" si="91"/>
         <v>0.05</v>
       </c>
       <c r="I105" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>0.15000000000000002</v>
       </c>
       <c r="J105" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>0.35000000000000003</v>
       </c>
       <c r="K105" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>0.75</v>
       </c>
       <c r="L105" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>1.3399999999999999</v>
       </c>
       <c r="M105" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>2.0299999999999998</v>
       </c>
       <c r="N105" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>3.4099999999999997</v>
       </c>
     </row>
@@ -9963,31 +10329,31 @@
         <v>105</v>
       </c>
       <c r="H106" s="12">
-        <f t="shared" si="71"/>
+        <f t="shared" si="91"/>
         <v>0.06</v>
       </c>
       <c r="I106" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>0.21</v>
       </c>
       <c r="J106" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>0.51</v>
       </c>
       <c r="K106" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="L106" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>1.98</v>
       </c>
       <c r="M106" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>3.01</v>
       </c>
       <c r="N106" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>5.0599999999999996</v>
       </c>
     </row>
@@ -9996,31 +10362,31 @@
         <v>106</v>
       </c>
       <c r="H107" s="12">
-        <f t="shared" si="71"/>
+        <f t="shared" si="91"/>
         <v>0.06</v>
       </c>
       <c r="I107" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>0.23</v>
       </c>
       <c r="J107" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="K107" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>1.21</v>
       </c>
       <c r="L107" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>2.1799999999999997</v>
       </c>
       <c r="M107" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>3.3099999999999996</v>
       </c>
       <c r="N107" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>5.56</v>
       </c>
     </row>
@@ -10029,31 +10395,31 @@
         <v>172</v>
       </c>
       <c r="H108" s="12">
-        <f t="shared" si="71"/>
+        <f t="shared" si="91"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I108" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>0.25</v>
       </c>
       <c r="J108" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>0.61</v>
       </c>
       <c r="K108" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>1.3199999999999998</v>
       </c>
       <c r="L108" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>2.38</v>
       </c>
       <c r="M108" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>3.61</v>
       </c>
       <c r="N108" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>6.07</v>
       </c>
     </row>
@@ -10062,31 +10428,31 @@
         <v>174</v>
       </c>
       <c r="H109" s="12">
-        <f t="shared" si="71"/>
+        <f t="shared" si="91"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I109" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>0.27</v>
       </c>
       <c r="J109" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>0.67</v>
       </c>
       <c r="K109" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>1.4700000000000002</v>
       </c>
       <c r="L109" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>2.67</v>
       </c>
       <c r="M109" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>4.07</v>
       </c>
       <c r="N109" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>6.86</v>
       </c>
     </row>
@@ -10095,31 +10461,31 @@
         <v>195</v>
       </c>
       <c r="H110" s="12">
-        <f t="shared" si="71"/>
+        <f t="shared" si="91"/>
         <v>0.08</v>
       </c>
       <c r="I110" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>0.31</v>
       </c>
       <c r="J110" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>0.76</v>
       </c>
       <c r="K110" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>1.6600000000000001</v>
       </c>
       <c r="L110" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>3.0100000000000002</v>
       </c>
       <c r="M110" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>4.59</v>
       </c>
       <c r="N110" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>7.74</v>
       </c>
     </row>
@@ -10128,31 +10494,31 @@
         <v>246</v>
       </c>
       <c r="H111" s="12">
-        <f t="shared" si="71"/>
+        <f t="shared" si="91"/>
         <v>0.08</v>
       </c>
       <c r="I111" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>0.35000000000000003</v>
       </c>
       <c r="J111" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>0.88000000000000012</v>
       </c>
       <c r="K111" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>1.9400000000000002</v>
       </c>
       <c r="L111" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>3.5200000000000005</v>
       </c>
       <c r="M111" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>5.36</v>
       </c>
       <c r="N111" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="90"/>
         <v>9.0400000000000009</v>
       </c>
     </row>
@@ -10161,31 +10527,31 @@
         <v>313</v>
       </c>
       <c r="H112" s="12">
-        <f t="shared" si="71"/>
+        <f t="shared" si="91"/>
         <v>0.09</v>
       </c>
       <c r="I112" s="12">
-        <f t="shared" ref="I112:N116" si="72">I81+H112</f>
+        <f t="shared" ref="I112:N116" si="92">I81+H112</f>
         <v>0.41000000000000003</v>
       </c>
       <c r="J112" s="12">
-        <f t="shared" si="72"/>
+        <f t="shared" si="92"/>
         <v>1.05</v>
       </c>
       <c r="K112" s="12">
-        <f t="shared" si="72"/>
+        <f t="shared" si="92"/>
         <v>2.3200000000000003</v>
       </c>
       <c r="L112" s="12">
-        <f t="shared" si="72"/>
+        <f t="shared" si="92"/>
         <v>4.2200000000000006</v>
       </c>
       <c r="M112" s="12">
-        <f t="shared" si="72"/>
+        <f t="shared" si="92"/>
         <v>6.4400000000000013</v>
       </c>
       <c r="N112" s="12">
-        <f t="shared" si="72"/>
+        <f t="shared" si="92"/>
         <v>10.870000000000001</v>
       </c>
     </row>
@@ -10194,31 +10560,31 @@
         <v>368</v>
       </c>
       <c r="H113" s="12">
-        <f t="shared" si="71"/>
+        <f t="shared" si="91"/>
         <v>0.09</v>
       </c>
       <c r="I113" s="12">
-        <f t="shared" si="72"/>
+        <f t="shared" si="92"/>
         <v>0.47</v>
       </c>
       <c r="J113" s="12">
-        <f t="shared" si="72"/>
+        <f t="shared" si="92"/>
         <v>1.23</v>
       </c>
       <c r="K113" s="12">
-        <f t="shared" si="72"/>
+        <f t="shared" si="92"/>
         <v>2.74</v>
       </c>
       <c r="L113" s="12">
-        <f t="shared" si="72"/>
+        <f t="shared" si="92"/>
         <v>4.99</v>
       </c>
       <c r="M113" s="12">
-        <f t="shared" si="72"/>
+        <f t="shared" si="92"/>
         <v>7.62</v>
       </c>
       <c r="N113" s="12">
-        <f t="shared" si="72"/>
+        <f t="shared" si="92"/>
         <v>12.879999999999999</v>
       </c>
     </row>
@@ -10227,31 +10593,31 @@
         <v>375</v>
       </c>
       <c r="H114" s="12">
-        <f t="shared" si="71"/>
+        <f t="shared" si="91"/>
         <v>0.1</v>
       </c>
       <c r="I114" s="12">
-        <f t="shared" si="72"/>
+        <f t="shared" si="92"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="J114" s="12">
-        <f t="shared" si="72"/>
+        <f t="shared" si="92"/>
         <v>1.44</v>
       </c>
       <c r="K114" s="12">
-        <f t="shared" si="72"/>
+        <f t="shared" si="92"/>
         <v>3.21</v>
       </c>
       <c r="L114" s="12">
-        <f t="shared" si="72"/>
+        <f t="shared" si="92"/>
         <v>5.8599999999999994</v>
       </c>
       <c r="M114" s="12">
-        <f t="shared" si="72"/>
+        <f t="shared" si="92"/>
         <v>8.9499999999999993</v>
       </c>
       <c r="N114" s="12">
-        <f t="shared" si="72"/>
+        <f t="shared" si="92"/>
         <v>15.129999999999999</v>
       </c>
     </row>
@@ -10260,31 +10626,31 @@
         <v>387</v>
       </c>
       <c r="H115" s="12">
-        <f t="shared" si="71"/>
+        <f t="shared" si="91"/>
         <v>0.1</v>
       </c>
       <c r="I115" s="12">
-        <f t="shared" si="72"/>
+        <f t="shared" si="92"/>
         <v>0.62</v>
       </c>
       <c r="J115" s="12">
-        <f t="shared" si="72"/>
+        <f t="shared" si="92"/>
         <v>1.65</v>
       </c>
       <c r="K115" s="12">
-        <f t="shared" si="72"/>
+        <f t="shared" si="92"/>
         <v>3.71</v>
       </c>
       <c r="L115" s="12">
-        <f t="shared" si="72"/>
+        <f t="shared" si="92"/>
         <v>6.8</v>
       </c>
       <c r="M115" s="12">
-        <f t="shared" si="72"/>
+        <f t="shared" si="92"/>
         <v>10.4</v>
       </c>
       <c r="N115" s="12">
-        <f t="shared" si="72"/>
+        <f t="shared" si="92"/>
         <v>17.600000000000001</v>
       </c>
     </row>
@@ -10293,32 +10659,65 @@
         <v>418</v>
       </c>
       <c r="H116" s="12">
-        <f t="shared" si="71"/>
+        <f t="shared" si="91"/>
         <v>0.11</v>
       </c>
       <c r="I116" s="12">
-        <f t="shared" si="72"/>
+        <f t="shared" si="92"/>
         <v>0.71</v>
       </c>
       <c r="J116" s="12">
-        <f t="shared" si="72"/>
+        <f t="shared" si="92"/>
         <v>1.9</v>
       </c>
       <c r="K116" s="12">
-        <f t="shared" si="72"/>
+        <f t="shared" si="92"/>
         <v>4.2799999999999994</v>
       </c>
       <c r="L116" s="12">
-        <f t="shared" si="72"/>
+        <f t="shared" si="92"/>
         <v>7.85</v>
       </c>
       <c r="M116" s="12">
-        <f t="shared" si="72"/>
+        <f t="shared" si="92"/>
         <v>12.02</v>
       </c>
       <c r="N116" s="12">
-        <f t="shared" si="72"/>
+        <f t="shared" si="92"/>
         <v>20.350000000000001</v>
+      </c>
+    </row>
+    <row r="117" spans="7:14">
+      <c r="G117" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="H117" s="12">
+        <f t="shared" si="91"/>
+        <v>0.11</v>
+      </c>
+      <c r="I117" s="12">
+        <f t="shared" ref="I117" si="93">I86+H117</f>
+        <v>0.82</v>
+      </c>
+      <c r="J117" s="12">
+        <f t="shared" ref="J117" si="94">J86+I117</f>
+        <v>2.23</v>
+      </c>
+      <c r="K117" s="12">
+        <f t="shared" ref="K117" si="95">K86+J117</f>
+        <v>5.05</v>
+      </c>
+      <c r="L117" s="12">
+        <f t="shared" ref="L117" si="96">L86+K117</f>
+        <v>9.2800000000000011</v>
+      </c>
+      <c r="M117" s="12">
+        <f t="shared" ref="M117" si="97">M86+L117</f>
+        <v>14.21</v>
+      </c>
+      <c r="N117" s="12">
+        <f t="shared" ref="N117" si="98">N86+M117</f>
+        <v>24.07</v>
       </c>
     </row>
   </sheetData>
@@ -10335,8 +10734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14EF5D34-81E7-475D-8B1B-AFFF2EFE6FF9}">
   <dimension ref="A2:W50"/>
   <sheetViews>
-    <sheetView topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -12062,6 +12461,67 @@
       </c>
     </row>
     <row r="25" spans="1:23">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" s="3" t="str">
+        <f t="shared" ref="B25:B26" si="15">C25&amp;","&amp;D25&amp;","&amp;E25&amp;","&amp;F25&amp;","&amp;G25</f>
+        <v>10화,20화,50화,100화,200화</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" ref="C25:C26" si="16">$C$3&amp;H25</f>
+        <v>10화</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" ref="D25:D26" si="17">$D$3&amp;H25</f>
+        <v>20화</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" ref="E25:E26" si="18">$E$3&amp;H25</f>
+        <v>50화</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" ref="F25:F26" si="19">$F$3&amp;H25</f>
+        <v>100화</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" ref="G25:G26" si="20">$G$3&amp;H25</f>
+        <v>200화</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="J25">
+        <v>22</v>
+      </c>
+      <c r="K25" s="3" t="str">
+        <f t="shared" ref="K25:K26" si="21">L25&amp;","&amp;M25&amp;","&amp;N25&amp;","&amp;O25&amp;","&amp;P25</f>
+        <v>1E+145,2E+145,5E+145,1E+146,2E+146</v>
+      </c>
+      <c r="L25">
+        <f t="shared" ref="L25:L26" si="22">$C$3*Q25</f>
+        <v>9.9999999999999999E+144</v>
+      </c>
+      <c r="M25">
+        <f t="shared" ref="M25:M26" si="23">$D$3*Q25</f>
+        <v>2E+145</v>
+      </c>
+      <c r="N25">
+        <f t="shared" ref="N25:N26" si="24">$E$3*Q25</f>
+        <v>4.9999999999999997E+145</v>
+      </c>
+      <c r="O25">
+        <f t="shared" ref="O25:O26" si="25">$F$3*Q25</f>
+        <v>9.9999999999999993E+145</v>
+      </c>
+      <c r="P25">
+        <f t="shared" ref="P25:P26" si="26">$G$3*Q25</f>
+        <v>1.9999999999999999E+146</v>
+      </c>
+      <c r="Q25" t="str">
+        <f t="shared" ref="Q25:Q26" si="27">VLOOKUP(H25,T:W,4,FALSE)</f>
+        <v>1E+144</v>
+      </c>
       <c r="T25" t="s">
         <v>131</v>
       </c>
@@ -12078,6 +12538,67 @@
       </c>
     </row>
     <row r="26" spans="1:23">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>10b,20b,50b,100b,200b</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="16"/>
+        <v>10b</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="17"/>
+        <v>20b</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="18"/>
+        <v>50b</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="19"/>
+        <v>100b</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="20"/>
+        <v>200b</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="J26">
+        <v>23</v>
+      </c>
+      <c r="K26" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>1E+149,2E+149,5E+149,1E+150,2E+150</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="22"/>
+        <v>1E+149</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="23"/>
+        <v>2.0000000000000001E+149</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="24"/>
+        <v>4.9999999999999999E+149</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="25"/>
+        <v>9.9999999999999998E+149</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="26"/>
+        <v>2E+150</v>
+      </c>
+      <c r="Q26" t="str">
+        <f t="shared" si="27"/>
+        <v>1E+148</v>
+      </c>
       <c r="T26" t="s">
         <v>132</v>
       </c>
@@ -12270,10 +12791,36 @@
       </c>
     </row>
     <row r="38" spans="20:23">
-      <c r="V38" s="39"/>
+      <c r="T38" t="s">
+        <v>444</v>
+      </c>
+      <c r="U38">
+        <v>144</v>
+      </c>
+      <c r="V38">
+        <f t="shared" ref="V38:V39" si="28">POWER(10,U38)</f>
+        <v>1E+144</v>
+      </c>
+      <c r="W38" t="str">
+        <f t="shared" ref="W38:W39" si="29">RIGHT(V38,U38)</f>
+        <v>1E+144</v>
+      </c>
     </row>
     <row r="39" spans="20:23">
-      <c r="V39" s="39"/>
+      <c r="T39" t="s">
+        <v>435</v>
+      </c>
+      <c r="U39">
+        <v>148</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="28"/>
+        <v>1E+148</v>
+      </c>
+      <c r="W39" t="str">
+        <f t="shared" si="29"/>
+        <v>1E+148</v>
+      </c>
     </row>
     <row r="40" spans="20:23">
       <c r="V40" s="39"/>

--- a/Assets/06.Table/SuhopetTable.xlsx
+++ b/Assets/06.Table/SuhopetTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1CDE6C-FEB7-4ECB-839D-4DF74C4FD579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F4FE2B-5847-4CAC-9A01-B3C81060A982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="605" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="605" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SuhopetTable" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="472">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1635,6 +1635,43 @@
   <si>
     <t>수호랑</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장산범</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24단계</t>
+  </si>
+  <si>
+    <t>펫24</t>
+  </si>
+  <si>
+    <t>620,620,620,620,620</t>
+  </si>
+  <si>
+    <t>0.12,1.09,3.02,6.87,12.65,19.39,32.87</t>
+  </si>
+  <si>
+    <t>1910,3819,7637,11456,13365,26730</t>
+  </si>
+  <si>
+    <t>24단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10월,20월,50월,100월,200월</t>
+  </si>
+  <si>
+    <t>1E+153,2E+153,5E+153,1E+154,2E+154</t>
   </si>
 </sst>
 </file>
@@ -2037,12 +2074,6 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2070,102 +2101,19 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="보통" xfId="2" builtinId="28"/>
     <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="45">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2208,9 +2156,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2234,23 +2185,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -2258,167 +2192,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2737,10 +2511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:U38"/>
+  <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2771,55 +2545,55 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="43" t="s">
+      <c r="M1" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="43" t="s">
+      <c r="N1" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="43" t="s">
+      <c r="O1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="43" t="s">
+      <c r="P1" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="43" t="s">
+      <c r="Q1" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="R1" s="43" t="s">
+      <c r="R1" s="41" t="s">
         <v>159</v>
       </c>
-      <c r="S1" s="44" t="s">
+      <c r="S1" s="42" t="s">
         <v>181</v>
       </c>
       <c r="T1" s="1" t="s">
@@ -2845,16 +2619,16 @@
       <c r="E2" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="43" t="s">
         <v>330</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="H2" s="46" t="s">
+      <c r="H2" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="45" t="s">
         <v>271</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -2875,7 +2649,7 @@
       <c r="O2" s="1">
         <v>6</v>
       </c>
-      <c r="P2" s="48">
+      <c r="P2" s="46">
         <v>9016</v>
       </c>
       <c r="Q2" s="1" t="s">
@@ -2884,10 +2658,10 @@
       <c r="R2" s="1">
         <v>56</v>
       </c>
-      <c r="S2" s="49" t="s">
+      <c r="S2" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="T2" s="50" t="s">
+      <c r="T2" s="48" t="s">
         <v>230</v>
       </c>
       <c r="U2" s="1" t="s">
@@ -2910,16 +2684,16 @@
       <c r="E3" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F3" s="45" t="s">
+      <c r="F3" s="43" t="s">
         <v>331</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="H3" s="46" t="s">
+      <c r="H3" s="44" t="s">
         <v>274</v>
       </c>
-      <c r="I3" s="47" t="s">
+      <c r="I3" s="45" t="s">
         <v>275</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -2940,7 +2714,7 @@
       <c r="O3" s="1">
         <v>6</v>
       </c>
-      <c r="P3" s="48">
+      <c r="P3" s="46">
         <v>9016</v>
       </c>
       <c r="Q3" s="1" t="s">
@@ -2949,10 +2723,10 @@
       <c r="R3" s="1">
         <v>57</v>
       </c>
-      <c r="S3" s="49" t="s">
+      <c r="S3" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="T3" s="50" t="s">
+      <c r="T3" s="48" t="s">
         <v>230</v>
       </c>
       <c r="U3" s="1" t="s">
@@ -2975,16 +2749,16 @@
       <c r="E4" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F4" s="45" t="s">
+      <c r="F4" s="43" t="s">
         <v>332</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="H4" s="46" t="s">
+      <c r="H4" s="44" t="s">
         <v>274</v>
       </c>
-      <c r="I4" s="47" t="s">
+      <c r="I4" s="45" t="s">
         <v>278</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -3005,7 +2779,7 @@
       <c r="O4" s="1">
         <v>6</v>
       </c>
-      <c r="P4" s="48">
+      <c r="P4" s="46">
         <v>9016</v>
       </c>
       <c r="Q4" s="1" t="s">
@@ -3014,10 +2788,10 @@
       <c r="R4" s="1">
         <v>58</v>
       </c>
-      <c r="S4" s="49" t="s">
+      <c r="S4" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="T4" s="50" t="s">
+      <c r="T4" s="48" t="s">
         <v>230</v>
       </c>
       <c r="U4" s="1" t="s">
@@ -3040,16 +2814,16 @@
       <c r="E5" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F5" s="45" t="s">
+      <c r="F5" s="43" t="s">
         <v>333</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="H5" s="46" t="s">
+      <c r="H5" s="44" t="s">
         <v>274</v>
       </c>
-      <c r="I5" s="47" t="s">
+      <c r="I5" s="45" t="s">
         <v>281</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -3070,7 +2844,7 @@
       <c r="O5" s="1">
         <v>6</v>
       </c>
-      <c r="P5" s="48">
+      <c r="P5" s="46">
         <v>9016</v>
       </c>
       <c r="Q5" s="1" t="s">
@@ -3079,10 +2853,10 @@
       <c r="R5" s="1">
         <v>59</v>
       </c>
-      <c r="S5" s="49" t="s">
+      <c r="S5" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="T5" s="50" t="s">
+      <c r="T5" s="48" t="s">
         <v>230</v>
       </c>
       <c r="U5" s="1" t="s">
@@ -3105,16 +2879,16 @@
       <c r="E6" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F6" s="45" t="s">
+      <c r="F6" s="43" t="s">
         <v>334</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="H6" s="46" t="s">
+      <c r="H6" s="44" t="s">
         <v>274</v>
       </c>
-      <c r="I6" s="47" t="s">
+      <c r="I6" s="45" t="s">
         <v>284</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -3135,7 +2909,7 @@
       <c r="O6" s="1">
         <v>6</v>
       </c>
-      <c r="P6" s="48">
+      <c r="P6" s="46">
         <v>9016</v>
       </c>
       <c r="Q6" s="1" t="s">
@@ -3144,10 +2918,10 @@
       <c r="R6" s="1">
         <v>60</v>
       </c>
-      <c r="S6" s="49" t="s">
+      <c r="S6" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="T6" s="50" t="s">
+      <c r="T6" s="48" t="s">
         <v>230</v>
       </c>
       <c r="U6" s="1" t="s">
@@ -3170,16 +2944,16 @@
       <c r="E7" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F7" s="45" t="s">
+      <c r="F7" s="43" t="s">
         <v>335</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="H7" s="46" t="s">
+      <c r="H7" s="44" t="s">
         <v>274</v>
       </c>
-      <c r="I7" s="47" t="s">
+      <c r="I7" s="45" t="s">
         <v>287</v>
       </c>
       <c r="J7" s="1" t="s">
@@ -3200,7 +2974,7 @@
       <c r="O7" s="1">
         <v>6</v>
       </c>
-      <c r="P7" s="48">
+      <c r="P7" s="46">
         <v>9016</v>
       </c>
       <c r="Q7" s="1" t="s">
@@ -3209,10 +2983,10 @@
       <c r="R7" s="1">
         <v>61</v>
       </c>
-      <c r="S7" s="49" t="s">
+      <c r="S7" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="T7" s="50" t="s">
+      <c r="T7" s="48" t="s">
         <v>230</v>
       </c>
       <c r="U7" s="1" t="s">
@@ -3235,16 +3009,16 @@
       <c r="E8" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="F8" s="45" t="s">
+      <c r="F8" s="43" t="s">
         <v>336</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="H8" s="46" t="s">
+      <c r="H8" s="44" t="s">
         <v>274</v>
       </c>
-      <c r="I8" s="47" t="s">
+      <c r="I8" s="45" t="s">
         <v>290</v>
       </c>
       <c r="J8" s="1" t="s">
@@ -3265,7 +3039,7 @@
       <c r="O8" s="1">
         <v>6</v>
       </c>
-      <c r="P8" s="48">
+      <c r="P8" s="46">
         <v>9016</v>
       </c>
       <c r="Q8" s="1" t="s">
@@ -3274,10 +3048,10 @@
       <c r="R8" s="1">
         <v>62</v>
       </c>
-      <c r="S8" s="49" t="s">
+      <c r="S8" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="T8" s="50" t="s">
+      <c r="T8" s="48" t="s">
         <v>230</v>
       </c>
       <c r="U8" s="1" t="s">
@@ -3300,16 +3074,16 @@
       <c r="E9" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F9" s="45" t="s">
+      <c r="F9" s="43" t="s">
         <v>337</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="H9" s="46" t="s">
+      <c r="H9" s="44" t="s">
         <v>274</v>
       </c>
-      <c r="I9" s="47" t="s">
+      <c r="I9" s="45" t="s">
         <v>293</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -3330,7 +3104,7 @@
       <c r="O9" s="1">
         <v>6</v>
       </c>
-      <c r="P9" s="48">
+      <c r="P9" s="46">
         <v>9016</v>
       </c>
       <c r="Q9" s="1" t="s">
@@ -3339,17 +3113,17 @@
       <c r="R9" s="1">
         <v>63</v>
       </c>
-      <c r="S9" s="49" t="s">
+      <c r="S9" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="T9" s="50" t="s">
+      <c r="T9" s="48" t="s">
         <v>230</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="51" customFormat="1" ht="33">
+    <row r="10" spans="1:21" s="49" customFormat="1" ht="33">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3365,16 +3139,16 @@
       <c r="E10" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F10" s="45" t="s">
+      <c r="F10" s="43" t="s">
         <v>338</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="H10" s="46" t="s">
+      <c r="H10" s="44" t="s">
         <v>274</v>
       </c>
-      <c r="I10" s="47" t="s">
+      <c r="I10" s="45" t="s">
         <v>296</v>
       </c>
       <c r="J10" s="1" t="s">
@@ -3395,7 +3169,7 @@
       <c r="O10" s="1">
         <v>6</v>
       </c>
-      <c r="P10" s="48">
+      <c r="P10" s="46">
         <v>9016</v>
       </c>
       <c r="Q10" s="1" t="s">
@@ -3404,13 +3178,13 @@
       <c r="R10" s="1">
         <v>64</v>
       </c>
-      <c r="S10" s="49" t="s">
+      <c r="S10" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="T10" s="50" t="s">
+      <c r="T10" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="U10" s="51" t="s">
+      <c r="U10" s="49" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3430,16 +3204,16 @@
       <c r="E11" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F11" s="45" t="s">
+      <c r="F11" s="43" t="s">
         <v>339</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="H11" s="46" t="s">
+      <c r="H11" s="44" t="s">
         <v>274</v>
       </c>
-      <c r="I11" s="47" t="s">
+      <c r="I11" s="45" t="s">
         <v>299</v>
       </c>
       <c r="J11" s="1" t="s">
@@ -3460,7 +3234,7 @@
       <c r="O11" s="1">
         <v>6</v>
       </c>
-      <c r="P11" s="48">
+      <c r="P11" s="46">
         <v>9016</v>
       </c>
       <c r="Q11" s="1" t="s">
@@ -3469,10 +3243,10 @@
       <c r="R11" s="1">
         <v>65</v>
       </c>
-      <c r="S11" s="49" t="s">
+      <c r="S11" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="T11" s="50" t="s">
+      <c r="T11" s="48" t="s">
         <v>230</v>
       </c>
       <c r="U11" s="1" t="s">
@@ -3495,16 +3269,16 @@
       <c r="E12" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F12" s="45" t="s">
+      <c r="F12" s="43" t="s">
         <v>340</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="H12" s="46" t="s">
+      <c r="H12" s="44" t="s">
         <v>274</v>
       </c>
-      <c r="I12" s="47" t="s">
+      <c r="I12" s="45" t="s">
         <v>302</v>
       </c>
       <c r="J12" s="1" t="s">
@@ -3525,7 +3299,7 @@
       <c r="O12" s="1">
         <v>6</v>
       </c>
-      <c r="P12" s="48">
+      <c r="P12" s="46">
         <v>9016</v>
       </c>
       <c r="Q12" s="1" t="s">
@@ -3534,10 +3308,10 @@
       <c r="R12" s="1">
         <v>66</v>
       </c>
-      <c r="S12" s="49" t="s">
+      <c r="S12" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="T12" s="50" t="s">
+      <c r="T12" s="48" t="s">
         <v>230</v>
       </c>
       <c r="U12" s="1" t="s">
@@ -3560,16 +3334,16 @@
       <c r="E13" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="F13" s="45" t="s">
+      <c r="F13" s="43" t="s">
         <v>341</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="H13" s="46" t="s">
+      <c r="H13" s="44" t="s">
         <v>274</v>
       </c>
-      <c r="I13" s="47" t="s">
+      <c r="I13" s="45" t="s">
         <v>305</v>
       </c>
       <c r="J13" s="1" t="s">
@@ -3590,7 +3364,7 @@
       <c r="O13" s="1">
         <v>6</v>
       </c>
-      <c r="P13" s="48">
+      <c r="P13" s="46">
         <v>9016</v>
       </c>
       <c r="Q13" s="1" t="s">
@@ -3599,10 +3373,10 @@
       <c r="R13" s="1">
         <v>67</v>
       </c>
-      <c r="S13" s="49" t="s">
+      <c r="S13" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="T13" s="50" t="s">
+      <c r="T13" s="48" t="s">
         <v>230</v>
       </c>
       <c r="U13" s="1" t="s">
@@ -3625,16 +3399,16 @@
       <c r="E14" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F14" s="45" t="s">
+      <c r="F14" s="43" t="s">
         <v>342</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="H14" s="46" t="s">
+      <c r="H14" s="44" t="s">
         <v>274</v>
       </c>
-      <c r="I14" s="47" t="s">
+      <c r="I14" s="45" t="s">
         <v>308</v>
       </c>
       <c r="J14" s="1" t="s">
@@ -3655,7 +3429,7 @@
       <c r="O14" s="1">
         <v>6</v>
       </c>
-      <c r="P14" s="48">
+      <c r="P14" s="46">
         <v>9016</v>
       </c>
       <c r="Q14" s="1" t="s">
@@ -3664,10 +3438,10 @@
       <c r="R14" s="1">
         <v>68</v>
       </c>
-      <c r="S14" s="49" t="s">
+      <c r="S14" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="T14" s="50" t="s">
+      <c r="T14" s="48" t="s">
         <v>230</v>
       </c>
       <c r="U14" s="1" t="s">
@@ -3690,16 +3464,16 @@
       <c r="E15" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="F15" s="45" t="s">
+      <c r="F15" s="43" t="s">
         <v>357</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="H15" s="46" t="s">
+      <c r="H15" s="44" t="s">
         <v>274</v>
       </c>
-      <c r="I15" s="47" t="s">
+      <c r="I15" s="45" t="s">
         <v>188</v>
       </c>
       <c r="J15" s="1" t="s">
@@ -3720,7 +3494,7 @@
       <c r="O15" s="1">
         <v>6</v>
       </c>
-      <c r="P15" s="48">
+      <c r="P15" s="46">
         <v>9016</v>
       </c>
       <c r="Q15" s="1" t="s">
@@ -3729,10 +3503,10 @@
       <c r="R15" s="1">
         <v>69</v>
       </c>
-      <c r="S15" s="49" t="s">
+      <c r="S15" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="T15" s="50" t="s">
+      <c r="T15" s="48" t="s">
         <v>230</v>
       </c>
       <c r="U15" s="1" t="s">
@@ -3755,16 +3529,16 @@
       <c r="E16" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="F16" s="45" t="s">
+      <c r="F16" s="43" t="s">
         <v>321</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="H16" s="46" t="s">
+      <c r="H16" s="44" t="s">
         <v>274</v>
       </c>
-      <c r="I16" s="47" t="s">
+      <c r="I16" s="45" t="s">
         <v>188</v>
       </c>
       <c r="J16" s="1" t="s">
@@ -3785,7 +3559,7 @@
       <c r="O16" s="1">
         <v>5</v>
       </c>
-      <c r="P16" s="48">
+      <c r="P16" s="46">
         <v>9016</v>
       </c>
       <c r="Q16" s="1" t="s">
@@ -3794,10 +3568,10 @@
       <c r="R16" s="1">
         <v>-1</v>
       </c>
-      <c r="S16" s="49" t="s">
+      <c r="S16" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="T16" s="50" t="s">
+      <c r="T16" s="48" t="s">
         <v>229</v>
       </c>
       <c r="U16" s="1" t="s">
@@ -3820,16 +3594,16 @@
       <c r="E17" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="F17" s="45" t="s">
+      <c r="F17" s="43" t="s">
         <v>323</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="H17" s="46" t="s">
+      <c r="H17" s="44" t="s">
         <v>274</v>
       </c>
-      <c r="I17" s="47" t="s">
+      <c r="I17" s="45" t="s">
         <v>189</v>
       </c>
       <c r="J17" s="1" t="s">
@@ -3850,7 +3624,7 @@
       <c r="O17" s="1">
         <v>5</v>
       </c>
-      <c r="P17" s="48">
+      <c r="P17" s="46">
         <v>9016</v>
       </c>
       <c r="Q17" s="1" t="s">
@@ -3859,10 +3633,10 @@
       <c r="R17" s="1">
         <v>-1</v>
       </c>
-      <c r="S17" s="49" t="s">
+      <c r="S17" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="T17" s="50" t="s">
+      <c r="T17" s="48" t="s">
         <v>229</v>
       </c>
       <c r="U17" s="1" t="s">
@@ -3885,16 +3659,16 @@
       <c r="E18" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="F18" s="45" t="s">
+      <c r="F18" s="43" t="s">
         <v>321</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="H18" s="46" t="s">
+      <c r="H18" s="44" t="s">
         <v>274</v>
       </c>
-      <c r="I18" s="47" t="s">
+      <c r="I18" s="45" t="s">
         <v>190</v>
       </c>
       <c r="J18" s="1" t="s">
@@ -3915,7 +3689,7 @@
       <c r="O18" s="1">
         <v>5</v>
       </c>
-      <c r="P18" s="48">
+      <c r="P18" s="46">
         <v>9016</v>
       </c>
       <c r="Q18" s="1" t="s">
@@ -3924,10 +3698,10 @@
       <c r="R18" s="1">
         <v>-1</v>
       </c>
-      <c r="S18" s="49" t="s">
+      <c r="S18" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="T18" s="50" t="s">
+      <c r="T18" s="48" t="s">
         <v>229</v>
       </c>
       <c r="U18" s="1" t="s">
@@ -3950,16 +3724,16 @@
       <c r="E19" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F19" s="45" t="s">
+      <c r="F19" s="43" t="s">
         <v>323</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="H19" s="46" t="s">
+      <c r="H19" s="44" t="s">
         <v>274</v>
       </c>
-      <c r="I19" s="47" t="s">
+      <c r="I19" s="45" t="s">
         <v>191</v>
       </c>
       <c r="J19" s="1" t="s">
@@ -3980,7 +3754,7 @@
       <c r="O19" s="1">
         <v>5</v>
       </c>
-      <c r="P19" s="48">
+      <c r="P19" s="46">
         <v>9016</v>
       </c>
       <c r="Q19" s="1" t="s">
@@ -3989,10 +3763,10 @@
       <c r="R19" s="1">
         <v>-1</v>
       </c>
-      <c r="S19" s="49" t="s">
+      <c r="S19" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="T19" s="50" t="s">
+      <c r="T19" s="48" t="s">
         <v>229</v>
       </c>
       <c r="U19" s="1" t="s">
@@ -4015,16 +3789,16 @@
       <c r="E20" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="F20" s="45" t="s">
+      <c r="F20" s="43" t="s">
         <v>359</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="H20" s="46" t="s">
+      <c r="H20" s="44" t="s">
         <v>274</v>
       </c>
-      <c r="I20" s="47" t="s">
+      <c r="I20" s="45" t="s">
         <v>215</v>
       </c>
       <c r="J20" s="1" t="s">
@@ -4045,7 +3819,7 @@
       <c r="O20" s="1">
         <v>6</v>
       </c>
-      <c r="P20" s="48">
+      <c r="P20" s="46">
         <v>9016</v>
       </c>
       <c r="Q20" s="1" t="s">
@@ -4054,10 +3828,10 @@
       <c r="R20" s="1">
         <v>70</v>
       </c>
-      <c r="S20" s="49" t="s">
+      <c r="S20" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="T20" s="50" t="s">
+      <c r="T20" s="48" t="s">
         <v>230</v>
       </c>
       <c r="U20" s="1" t="s">
@@ -4080,16 +3854,16 @@
       <c r="E21" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="F21" s="45" t="s">
+      <c r="F21" s="43" t="s">
         <v>360</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="H21" s="46" t="s">
+      <c r="H21" s="44" t="s">
         <v>274</v>
       </c>
-      <c r="I21" s="47" t="s">
+      <c r="I21" s="45" t="s">
         <v>252</v>
       </c>
       <c r="J21" s="1" t="s">
@@ -4110,7 +3884,7 @@
       <c r="O21" s="1">
         <v>6</v>
       </c>
-      <c r="P21" s="48">
+      <c r="P21" s="46">
         <v>9016</v>
       </c>
       <c r="Q21" s="1" t="s">
@@ -4119,10 +3893,10 @@
       <c r="R21" s="1">
         <v>101</v>
       </c>
-      <c r="S21" s="49" t="s">
+      <c r="S21" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="T21" s="50" t="s">
+      <c r="T21" s="48" t="s">
         <v>230</v>
       </c>
       <c r="U21" s="1" t="s">
@@ -4145,16 +3919,16 @@
       <c r="E22" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="F22" s="45" t="s">
+      <c r="F22" s="43" t="s">
         <v>259</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="H22" s="46" t="s">
+      <c r="H22" s="44" t="s">
         <v>274</v>
       </c>
-      <c r="I22" s="47" t="s">
+      <c r="I22" s="45" t="s">
         <v>188</v>
       </c>
       <c r="J22" s="1" t="s">
@@ -4175,7 +3949,7 @@
       <c r="O22" s="1">
         <v>5</v>
       </c>
-      <c r="P22" s="48">
+      <c r="P22" s="46">
         <v>9016</v>
       </c>
       <c r="Q22" s="1" t="s">
@@ -4184,10 +3958,10 @@
       <c r="R22" s="1">
         <v>-1</v>
       </c>
-      <c r="S22" s="49" t="s">
+      <c r="S22" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="T22" s="50" t="s">
+      <c r="T22" s="48" t="s">
         <v>264</v>
       </c>
       <c r="U22" s="1" t="s">
@@ -4210,16 +3984,16 @@
       <c r="E23" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="F23" s="45" t="s">
+      <c r="F23" s="43" t="s">
         <v>259</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="H23" s="46" t="s">
+      <c r="H23" s="44" t="s">
         <v>274</v>
       </c>
-      <c r="I23" s="47" t="s">
+      <c r="I23" s="45" t="s">
         <v>189</v>
       </c>
       <c r="J23" s="1" t="s">
@@ -4240,7 +4014,7 @@
       <c r="O23" s="1">
         <v>5</v>
       </c>
-      <c r="P23" s="48">
+      <c r="P23" s="46">
         <v>9016</v>
       </c>
       <c r="Q23" s="1" t="s">
@@ -4249,10 +4023,10 @@
       <c r="R23" s="1">
         <v>-1</v>
       </c>
-      <c r="S23" s="49" t="s">
+      <c r="S23" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="T23" s="50" t="s">
+      <c r="T23" s="48" t="s">
         <v>264</v>
       </c>
       <c r="U23" s="1" t="s">
@@ -4275,16 +4049,16 @@
       <c r="E24" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="F24" s="45" t="s">
+      <c r="F24" s="43" t="s">
         <v>259</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="H24" s="46" t="s">
+      <c r="H24" s="44" t="s">
         <v>274</v>
       </c>
-      <c r="I24" s="47" t="s">
+      <c r="I24" s="45" t="s">
         <v>190</v>
       </c>
       <c r="J24" s="1" t="s">
@@ -4305,7 +4079,7 @@
       <c r="O24" s="1">
         <v>5</v>
       </c>
-      <c r="P24" s="48">
+      <c r="P24" s="46">
         <v>9016</v>
       </c>
       <c r="Q24" s="1" t="s">
@@ -4314,10 +4088,10 @@
       <c r="R24" s="1">
         <v>-1</v>
       </c>
-      <c r="S24" s="49" t="s">
+      <c r="S24" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="T24" s="50" t="s">
+      <c r="T24" s="48" t="s">
         <v>264</v>
       </c>
       <c r="U24" s="1" t="s">
@@ -4340,16 +4114,16 @@
       <c r="E25" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="F25" s="45" t="s">
+      <c r="F25" s="43" t="s">
         <v>259</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="H25" s="46" t="s">
+      <c r="H25" s="44" t="s">
         <v>274</v>
       </c>
-      <c r="I25" s="47" t="s">
+      <c r="I25" s="45" t="s">
         <v>191</v>
       </c>
       <c r="J25" s="1" t="s">
@@ -4370,7 +4144,7 @@
       <c r="O25" s="1">
         <v>5</v>
       </c>
-      <c r="P25" s="48">
+      <c r="P25" s="46">
         <v>9016</v>
       </c>
       <c r="Q25" s="1" t="s">
@@ -4379,10 +4153,10 @@
       <c r="R25" s="1">
         <v>-1</v>
       </c>
-      <c r="S25" s="49" t="s">
+      <c r="S25" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="T25" s="50" t="s">
+      <c r="T25" s="48" t="s">
         <v>264</v>
       </c>
       <c r="U25" s="1" t="s">
@@ -4405,16 +4179,16 @@
       <c r="E26" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="F26" s="45" t="s">
+      <c r="F26" s="43" t="s">
         <v>269</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="H26" s="46" t="s">
+      <c r="H26" s="44" t="s">
         <v>274</v>
       </c>
-      <c r="I26" s="47" t="s">
+      <c r="I26" s="45" t="s">
         <v>315</v>
       </c>
       <c r="J26" s="1" t="s">
@@ -4435,7 +4209,7 @@
       <c r="O26" s="1">
         <v>6</v>
       </c>
-      <c r="P26" s="48">
+      <c r="P26" s="46">
         <v>9016</v>
       </c>
       <c r="Q26" s="1" t="s">
@@ -4444,10 +4218,10 @@
       <c r="R26" s="1">
         <v>102</v>
       </c>
-      <c r="S26" s="49" t="s">
+      <c r="S26" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="T26" s="50" t="s">
+      <c r="T26" s="48" t="s">
         <v>230</v>
       </c>
       <c r="U26" s="1" t="s">
@@ -4470,16 +4244,16 @@
       <c r="E27" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="F27" s="45" t="s">
+      <c r="F27" s="43" t="s">
         <v>364</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="H27" s="46" t="s">
+      <c r="H27" s="44" t="s">
         <v>274</v>
       </c>
-      <c r="I27" s="47" t="s">
+      <c r="I27" s="45" t="s">
         <v>367</v>
       </c>
       <c r="J27" s="1" t="s">
@@ -4500,7 +4274,7 @@
       <c r="O27" s="1">
         <v>6</v>
       </c>
-      <c r="P27" s="48">
+      <c r="P27" s="46">
         <v>9016</v>
       </c>
       <c r="Q27" s="1" t="s">
@@ -4509,10 +4283,10 @@
       <c r="R27" s="1">
         <v>103</v>
       </c>
-      <c r="S27" s="49" t="s">
+      <c r="S27" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="T27" s="50" t="s">
+      <c r="T27" s="48" t="s">
         <v>230</v>
       </c>
       <c r="U27" s="1" t="s">
@@ -4535,16 +4309,16 @@
       <c r="E28" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="F28" s="45" t="s">
+      <c r="F28" s="43" t="s">
         <v>383</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="H28" s="46" t="s">
+      <c r="H28" s="44" t="s">
         <v>274</v>
       </c>
-      <c r="I28" s="47" t="s">
+      <c r="I28" s="45" t="s">
         <v>377</v>
       </c>
       <c r="J28" s="1" t="s">
@@ -4565,7 +4339,7 @@
       <c r="O28" s="1">
         <v>6</v>
       </c>
-      <c r="P28" s="48">
+      <c r="P28" s="46">
         <v>9016</v>
       </c>
       <c r="Q28" s="1" t="s">
@@ -4574,10 +4348,10 @@
       <c r="R28" s="1">
         <v>104</v>
       </c>
-      <c r="S28" s="49" t="s">
+      <c r="S28" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="T28" s="50" t="s">
+      <c r="T28" s="48" t="s">
         <v>230</v>
       </c>
       <c r="U28" s="1" t="s">
@@ -4600,16 +4374,16 @@
       <c r="E29" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="F29" s="45" t="s">
+      <c r="F29" s="43" t="s">
         <v>259</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="H29" s="46" t="s">
+      <c r="H29" s="44" t="s">
         <v>274</v>
       </c>
-      <c r="I29" s="47" t="s">
+      <c r="I29" s="45" t="s">
         <v>188</v>
       </c>
       <c r="J29" s="1" t="s">
@@ -4630,7 +4404,7 @@
       <c r="O29" s="1">
         <v>5</v>
       </c>
-      <c r="P29" s="48">
+      <c r="P29" s="46">
         <v>9016</v>
       </c>
       <c r="Q29" s="1" t="s">
@@ -4639,10 +4413,10 @@
       <c r="R29" s="1">
         <v>-1</v>
       </c>
-      <c r="S29" s="49" t="s">
+      <c r="S29" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="T29" s="50" t="s">
+      <c r="T29" s="48" t="s">
         <v>396</v>
       </c>
       <c r="U29" s="1" t="s">
@@ -4665,16 +4439,16 @@
       <c r="E30" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="F30" s="45" t="s">
+      <c r="F30" s="43" t="s">
         <v>259</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="H30" s="46" t="s">
+      <c r="H30" s="44" t="s">
         <v>274</v>
       </c>
-      <c r="I30" s="47" t="s">
+      <c r="I30" s="45" t="s">
         <v>405</v>
       </c>
       <c r="J30" s="1" t="s">
@@ -4695,7 +4469,7 @@
       <c r="O30" s="1">
         <v>5</v>
       </c>
-      <c r="P30" s="48">
+      <c r="P30" s="46">
         <v>9016</v>
       </c>
       <c r="Q30" s="1" t="s">
@@ -4704,10 +4478,10 @@
       <c r="R30" s="1">
         <v>-1</v>
       </c>
-      <c r="S30" s="49" t="s">
+      <c r="S30" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="T30" s="50" t="s">
+      <c r="T30" s="48" t="s">
         <v>396</v>
       </c>
       <c r="U30" s="1" t="s">
@@ -4730,16 +4504,16 @@
       <c r="E31" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="F31" s="45" t="s">
+      <c r="F31" s="43" t="s">
         <v>394</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="H31" s="46" t="s">
+      <c r="H31" s="44" t="s">
         <v>274</v>
       </c>
-      <c r="I31" s="47" t="s">
+      <c r="I31" s="45" t="s">
         <v>391</v>
       </c>
       <c r="J31" s="1" t="s">
@@ -4760,7 +4534,7 @@
       <c r="O31" s="1">
         <v>6</v>
       </c>
-      <c r="P31" s="48">
+      <c r="P31" s="46">
         <v>9016</v>
       </c>
       <c r="Q31" s="1" t="s">
@@ -4769,10 +4543,10 @@
       <c r="R31" s="1">
         <v>105</v>
       </c>
-      <c r="S31" s="49" t="s">
+      <c r="S31" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="T31" s="50" t="s">
+      <c r="T31" s="48" t="s">
         <v>230</v>
       </c>
       <c r="U31" s="1" t="s">
@@ -4795,16 +4569,16 @@
       <c r="E32" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="F32" s="45" t="s">
+      <c r="F32" s="43" t="s">
         <v>259</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="H32" s="46" t="s">
+      <c r="H32" s="44" t="s">
         <v>274</v>
       </c>
-      <c r="I32" s="47" t="s">
+      <c r="I32" s="45" t="s">
         <v>188</v>
       </c>
       <c r="J32" s="1" t="s">
@@ -4825,7 +4599,7 @@
       <c r="O32" s="1">
         <v>5</v>
       </c>
-      <c r="P32" s="48">
+      <c r="P32" s="46">
         <v>9016</v>
       </c>
       <c r="Q32" s="1" t="s">
@@ -4834,10 +4608,10 @@
       <c r="R32" s="1">
         <v>-1</v>
       </c>
-      <c r="S32" s="49" t="s">
+      <c r="S32" s="47" t="s">
         <v>422</v>
       </c>
-      <c r="T32" s="50" t="s">
+      <c r="T32" s="48" t="s">
         <v>423</v>
       </c>
       <c r="U32" s="1" t="s">
@@ -4860,16 +4634,16 @@
       <c r="E33" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="F33" s="45" t="s">
+      <c r="F33" s="43" t="s">
         <v>259</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="H33" s="46" t="s">
+      <c r="H33" s="44" t="s">
         <v>274</v>
       </c>
-      <c r="I33" s="47" t="s">
+      <c r="I33" s="45" t="s">
         <v>188</v>
       </c>
       <c r="J33" s="1" t="s">
@@ -4890,7 +4664,7 @@
       <c r="O33" s="1">
         <v>5</v>
       </c>
-      <c r="P33" s="48">
+      <c r="P33" s="46">
         <v>9016</v>
       </c>
       <c r="Q33" s="1" t="s">
@@ -4899,10 +4673,10 @@
       <c r="R33" s="1">
         <v>-1</v>
       </c>
-      <c r="S33" s="49" t="s">
+      <c r="S33" s="47" t="s">
         <v>422</v>
       </c>
-      <c r="T33" s="50" t="s">
+      <c r="T33" s="48" t="s">
         <v>423</v>
       </c>
       <c r="U33" s="1" t="s">
@@ -4925,16 +4699,16 @@
       <c r="E34" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="F34" s="45" t="s">
+      <c r="F34" s="43" t="s">
         <v>410</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="H34" s="46" t="s">
+      <c r="H34" s="44" t="s">
         <v>274</v>
       </c>
-      <c r="I34" s="47" t="s">
+      <c r="I34" s="45" t="s">
         <v>412</v>
       </c>
       <c r="J34" s="1" t="s">
@@ -4955,7 +4729,7 @@
       <c r="O34" s="1">
         <v>6</v>
       </c>
-      <c r="P34" s="48">
+      <c r="P34" s="46">
         <v>9016</v>
       </c>
       <c r="Q34" s="1" t="s">
@@ -4964,10 +4738,10 @@
       <c r="R34" s="1">
         <v>106</v>
       </c>
-      <c r="S34" s="49" t="s">
+      <c r="S34" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="T34" s="50" t="s">
+      <c r="T34" s="48" t="s">
         <v>416</v>
       </c>
       <c r="U34" s="1" t="s">
@@ -4990,16 +4764,16 @@
       <c r="E35" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="F35" s="45" t="s">
+      <c r="F35" s="43" t="s">
         <v>259</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="H35" s="46" t="s">
+      <c r="H35" s="44" t="s">
         <v>274</v>
       </c>
-      <c r="I35" s="47" t="s">
+      <c r="I35" s="45" t="s">
         <v>188</v>
       </c>
       <c r="J35" s="1" t="s">
@@ -5020,7 +4794,7 @@
       <c r="O35" s="1">
         <v>5</v>
       </c>
-      <c r="P35" s="48">
+      <c r="P35" s="46">
         <v>9016</v>
       </c>
       <c r="Q35" s="1" t="s">
@@ -5029,10 +4803,10 @@
       <c r="R35" s="1">
         <v>-1</v>
       </c>
-      <c r="S35" s="49" t="s">
+      <c r="S35" s="47" t="s">
         <v>422</v>
       </c>
-      <c r="T35" s="50" t="s">
+      <c r="T35" s="48" t="s">
         <v>423</v>
       </c>
       <c r="U35" s="1" t="s">
@@ -5055,16 +4829,16 @@
       <c r="E36" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="F36" s="45" t="s">
+      <c r="F36" s="43" t="s">
         <v>434</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="H36" s="46" t="s">
+      <c r="H36" s="44" t="s">
         <v>274</v>
       </c>
-      <c r="I36" s="47" t="s">
+      <c r="I36" s="45" t="s">
         <v>435</v>
       </c>
       <c r="J36" s="1" t="s">
@@ -5085,7 +4859,7 @@
       <c r="O36" s="1">
         <v>6</v>
       </c>
-      <c r="P36" s="48">
+      <c r="P36" s="46">
         <v>9016</v>
       </c>
       <c r="Q36" s="1" t="s">
@@ -5094,10 +4868,10 @@
       <c r="R36" s="1">
         <v>107</v>
       </c>
-      <c r="S36" s="49" t="s">
+      <c r="S36" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="T36" s="50" t="s">
+      <c r="T36" s="48" t="s">
         <v>416</v>
       </c>
       <c r="U36" s="1" t="s">
@@ -5120,16 +4894,16 @@
       <c r="E37" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="F37" s="45" t="s">
+      <c r="F37" s="43" t="s">
         <v>259</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="H37" s="46" t="s">
+      <c r="H37" s="44" t="s">
         <v>274</v>
       </c>
-      <c r="I37" s="47" t="s">
+      <c r="I37" s="45" t="s">
         <v>188</v>
       </c>
       <c r="J37" s="1" t="s">
@@ -5150,7 +4924,7 @@
       <c r="O37" s="1">
         <v>5</v>
       </c>
-      <c r="P37" s="48">
+      <c r="P37" s="46">
         <v>9016</v>
       </c>
       <c r="Q37" s="1" t="s">
@@ -5159,10 +4933,10 @@
       <c r="R37" s="1">
         <v>-1</v>
       </c>
-      <c r="S37" s="49" t="s">
+      <c r="S37" s="47" t="s">
         <v>422</v>
       </c>
-      <c r="T37" s="50" t="s">
+      <c r="T37" s="48" t="s">
         <v>423</v>
       </c>
       <c r="U37" s="1" t="s">
@@ -5180,21 +4954,21 @@
         <v>446</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="F38" s="45" t="s">
+        <v>446</v>
+      </c>
+      <c r="F38" s="43" t="s">
         <v>459</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="H38" s="46" t="s">
+      <c r="H38" s="44" t="s">
         <v>274</v>
       </c>
-      <c r="I38" s="47" t="s">
+      <c r="I38" s="45" t="s">
         <v>456</v>
       </c>
       <c r="J38" s="1" t="s">
@@ -5215,7 +4989,7 @@
       <c r="O38" s="1">
         <v>6</v>
       </c>
-      <c r="P38" s="48">
+      <c r="P38" s="46">
         <v>9016</v>
       </c>
       <c r="Q38" s="1" t="s">
@@ -5224,46 +4998,114 @@
       <c r="R38" s="1">
         <v>108</v>
       </c>
-      <c r="S38" s="49" t="s">
+      <c r="S38" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="T38" s="50" t="s">
+      <c r="T38" s="48" t="s">
         <v>416</v>
       </c>
       <c r="U38" s="1" t="s">
         <v>449</v>
       </c>
     </row>
+    <row r="39" spans="1:21" ht="33">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="F39" s="43" t="s">
+        <v>471</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="H39" s="44" t="s">
+        <v>274</v>
+      </c>
+      <c r="I39" s="45" t="s">
+        <v>465</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="K39" s="1">
+        <v>9016</v>
+      </c>
+      <c r="L39" s="1">
+        <v>430</v>
+      </c>
+      <c r="M39" s="1">
+        <v>49</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="O39" s="1">
+        <v>6</v>
+      </c>
+      <c r="P39" s="46">
+        <v>9016</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="R39" s="1">
+        <v>109</v>
+      </c>
+      <c r="S39" s="47" t="s">
+        <v>182</v>
+      </c>
+      <c r="T39" s="48" t="s">
+        <v>416</v>
+      </c>
+      <c r="U39" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="17" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J1048576">
-    <cfRule type="uniqueValues" dxfId="16" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M1048576">
-    <cfRule type="uniqueValues" dxfId="15" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O1048576">
-    <cfRule type="uniqueValues" dxfId="14" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P1048576">
-    <cfRule type="uniqueValues" dxfId="13" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1048576">
-    <cfRule type="duplicateValues" dxfId="12" priority="4"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A1:U1048576">
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="9" priority="4">
       <formula>$S1="Special"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U1048576">
-    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J1048576">
+    <cfRule type="uniqueValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M1048576">
+    <cfRule type="uniqueValues" dxfId="4" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:O1048576">
+    <cfRule type="uniqueValues" dxfId="3" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2:P1048576">
+    <cfRule type="uniqueValues" dxfId="2" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:R1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U1:U1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5272,10 +5114,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB815A5-0A26-4B2F-8716-20DE31E1881F}">
-  <dimension ref="A1:AF125"/>
+  <dimension ref="A1:AF126"/>
   <sheetViews>
-    <sheetView topLeftCell="N8" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+    <sheetView topLeftCell="B12" workbookViewId="0">
+      <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -5309,7 +5151,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="4" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="50" t="s">
         <v>38</v>
       </c>
       <c r="B1" s="38"/>
@@ -5327,7 +5169,7 @@
       <c r="Q1" s="5"/>
     </row>
     <row r="2" spans="1:27" s="6" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A2" s="42"/>
+      <c r="A2" s="51"/>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
       <c r="G2" s="7"/>
@@ -6417,15 +6259,15 @@
         <v>451</v>
       </c>
       <c r="O30" s="1" t="str">
-        <f t="shared" ref="O30" si="15">J31&amp;","&amp;J31&amp;","&amp;J31&amp;","&amp;J31&amp;","&amp;J31</f>
+        <f t="shared" ref="O30:O31" si="15">J31&amp;","&amp;J31&amp;","&amp;J31&amp;","&amp;J31&amp;","&amp;J31</f>
         <v>600,600,600,600,600</v>
       </c>
       <c r="P30" s="1" t="str">
-        <f t="shared" ref="P30" si="16">H125&amp;","&amp;I125&amp;","&amp;J125&amp;","&amp;K125&amp;","&amp;L125&amp;","&amp;M125&amp;","&amp;N125</f>
+        <f t="shared" ref="P30:P31" si="16">H125&amp;","&amp;I125&amp;","&amp;J125&amp;","&amp;K125&amp;","&amp;L125&amp;","&amp;M125&amp;","&amp;N125</f>
         <v>0.12,0.95,2.61,5.92,10.88,16.67,28.25</v>
       </c>
       <c r="Q30" s="9" t="str">
-        <f t="shared" ref="Q30" si="17">H65&amp;","&amp;I65&amp;","&amp;J65&amp;","&amp;K65&amp;","&amp;L65&amp;","&amp;M65</f>
+        <f t="shared" ref="Q30:Q31" si="17">H65&amp;","&amp;I65&amp;","&amp;J65&amp;","&amp;K65&amp;","&amp;L65&amp;","&amp;M65</f>
         <v>1722,3444,6888,10332,12054,24108</v>
       </c>
     </row>
@@ -6450,6 +6292,21 @@
         <f t="shared" si="14"/>
         <v>600</v>
       </c>
+      <c r="N31" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="O31" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>620,620,620,620,620</v>
+      </c>
+      <c r="P31" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>0.12,1.09,3.02,6.87,12.65,19.39,32.87</v>
+      </c>
+      <c r="Q31" s="9" t="str">
+        <f t="shared" si="17"/>
+        <v>1910,3819,7637,11456,13365,26730</v>
+      </c>
     </row>
     <row r="32" spans="1:27">
       <c r="A32" s="18" t="s">
@@ -6458,6 +6315,20 @@
       <c r="B32" s="28">
         <v>20</v>
       </c>
+      <c r="G32" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="H32" s="9">
+        <v>430</v>
+      </c>
+      <c r="I32" s="9">
+        <f t="shared" ref="I32" si="18">H32*$B$9*$B$18*($B$13/100)</f>
+        <v>3096</v>
+      </c>
+      <c r="J32" s="9">
+        <f t="shared" ref="J32" si="19">ROUNDUP((I32/5),-1)</f>
+        <v>620</v>
+      </c>
     </row>
     <row r="33" spans="1:32">
       <c r="A33" s="29" t="s">
@@ -6503,27 +6374,27 @@
         <v>68</v>
       </c>
       <c r="R39" s="23">
-        <f t="shared" ref="R39:W39" si="18">SUM(R41:R50)</f>
+        <f t="shared" ref="R39:W39" si="20">SUM(R41:R50)</f>
         <v>16.285714285714285</v>
       </c>
       <c r="S39" s="23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>13.328571428571429</v>
       </c>
       <c r="T39" s="23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>10.213240418118467</v>
       </c>
       <c r="U39" s="23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>8.8857142857142843</v>
       </c>
       <c r="V39" s="23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>6.4878048780487809</v>
       </c>
       <c r="W39" s="23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>5.3097560975609763</v>
       </c>
       <c r="X39"/>
@@ -6628,23 +6499,23 @@
         <v>106</v>
       </c>
       <c r="I41" s="9">
-        <f>ROUNDUP((P41*$B$31/100),0)</f>
+        <f t="shared" ref="I41:I50" si="21">ROUNDUP((P41*$B$31/100),0)</f>
         <v>212</v>
       </c>
       <c r="J41" s="9">
-        <f>ROUNDUP((P41*$B$32/100),0)</f>
+        <f t="shared" ref="J41:J50" si="22">ROUNDUP((P41*$B$32/100),0)</f>
         <v>423</v>
       </c>
       <c r="K41" s="9">
-        <f>ROUNDUP((P41*$B$33/100),0)</f>
+        <f t="shared" ref="K41:K50" si="23">ROUNDUP((P41*$B$33/100),0)</f>
         <v>634</v>
       </c>
       <c r="L41" s="9">
-        <f>ROUNDUP((P41*$B$34/100),0)</f>
+        <f t="shared" ref="L41:L50" si="24">ROUNDUP((P41*$B$34/100),0)</f>
         <v>740</v>
       </c>
       <c r="M41" s="9">
-        <f>L41*$B$43</f>
+        <f t="shared" ref="M41:M50" si="25">L41*$B$43</f>
         <v>1480</v>
       </c>
       <c r="N41" s="9">
@@ -6655,23 +6526,23 @@
         <v>50</v>
       </c>
       <c r="P41" s="9">
-        <f>(H8*$B$9*$B$18)*(O41/100)+I8</f>
+        <f t="shared" ref="P41:P50" si="26">(H8*$B$9*$B$18)*(O41/100)+I8</f>
         <v>2112</v>
       </c>
       <c r="Q41" s="9">
-        <f>P41-I8</f>
+        <f t="shared" ref="Q41:Q50" si="27">P41-I8</f>
         <v>1320</v>
       </c>
       <c r="R41" s="1">
-        <f>(Q41/H8)/($B$18*7)</f>
+        <f t="shared" ref="R41:R50" si="28">(Q41/H8)/($B$18*7)</f>
         <v>0.8571428571428571</v>
       </c>
       <c r="S41" s="1">
-        <f t="shared" ref="S41:S50" si="19">(Q41/$H$17)/(7*$B$18)</f>
+        <f t="shared" ref="S41:S50" si="29">(Q41/$H$17)/(7*$B$18)</f>
         <v>0.47142857142857142</v>
       </c>
       <c r="T41" s="1">
-        <f>(Q41/H8)/($B$18*7+$B$21)</f>
+        <f t="shared" ref="T41:T49" si="30">(Q41/H8)/($B$18*7+$B$21)</f>
         <v>0.5714285714285714</v>
       </c>
       <c r="U41" s="1">
@@ -6679,7 +6550,7 @@
         <v>0.31428571428571428</v>
       </c>
       <c r="V41" s="1">
-        <f>(Q41/H8)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
+        <f t="shared" ref="V41:V50" si="31">(Q41/H8)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
         <v>0.34146341463414637</v>
       </c>
       <c r="W41" s="1">
@@ -6694,19 +6565,19 @@
         <v>720</v>
       </c>
       <c r="AA41" s="9">
-        <f>ROUNDUP((AE41*$B$31/100),0)</f>
+        <f t="shared" ref="AA41:AA55" si="32">ROUNDUP((AE41*$B$31/100),0)</f>
         <v>1440</v>
       </c>
       <c r="AB41" s="9">
-        <f>ROUNDUP((AE41*$B$32/100),0)</f>
+        <f t="shared" ref="AB41:AB55" si="33">ROUNDUP((AE41*$B$32/100),0)</f>
         <v>2880</v>
       </c>
       <c r="AC41" s="9">
-        <f>ROUNDUP((AE41*$B$33/100),0)</f>
+        <f t="shared" ref="AC41:AC55" si="34">ROUNDUP((AE41*$B$33/100),0)</f>
         <v>4320</v>
       </c>
       <c r="AD41" s="9">
-        <f>ROUNDUP((AE41*$B$34/100),0)</f>
+        <f t="shared" ref="AD41:AD55" si="35">ROUNDUP((AE41*$B$34/100),0)</f>
         <v>5040</v>
       </c>
       <c r="AE41" s="1">
@@ -6725,93 +6596,93 @@
         <v>18</v>
       </c>
       <c r="H42" s="9">
-        <f t="shared" ref="H42:H50" si="20">ROUNDUP((P42*$B$30/100),0)</f>
+        <f t="shared" ref="H42:H50" si="36">ROUNDUP((P42*$B$30/100),0)</f>
         <v>130</v>
       </c>
       <c r="I42" s="9">
-        <f>ROUNDUP((P42*$B$31/100),0)</f>
+        <f t="shared" si="21"/>
         <v>260</v>
       </c>
       <c r="J42" s="9">
-        <f>ROUNDUP((P42*$B$32/100),0)</f>
+        <f t="shared" si="22"/>
         <v>519</v>
       </c>
       <c r="K42" s="9">
-        <f>ROUNDUP((P42*$B$33/100),0)</f>
+        <f t="shared" si="23"/>
         <v>778</v>
       </c>
       <c r="L42" s="9">
-        <f>ROUNDUP((P42*$B$34/100),0)</f>
+        <f t="shared" si="24"/>
         <v>908</v>
       </c>
       <c r="M42" s="9">
-        <f>L42*$B$43</f>
+        <f t="shared" si="25"/>
         <v>1816</v>
       </c>
       <c r="N42" s="9">
-        <f t="shared" ref="N42:N50" si="21">SUM(H42:L42)</f>
+        <f t="shared" ref="N42:N50" si="37">SUM(H42:L42)</f>
         <v>2595</v>
       </c>
       <c r="O42" s="9">
         <v>60</v>
       </c>
       <c r="P42" s="9">
-        <f>(H9*$B$9*$B$18)*(O42/100)+I9</f>
+        <f t="shared" si="26"/>
         <v>2592</v>
       </c>
       <c r="Q42" s="9">
-        <f>P42-I9</f>
+        <f t="shared" si="27"/>
         <v>1728</v>
       </c>
       <c r="R42" s="1">
-        <f>(Q42/H9)/($B$18*7)</f>
+        <f t="shared" si="28"/>
         <v>1.0285714285714287</v>
       </c>
       <c r="S42" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>0.61714285714285722</v>
       </c>
       <c r="T42" s="1">
-        <f>(Q42/H9)/($B$18*7+$B$21)</f>
+        <f t="shared" si="30"/>
         <v>0.68571428571428572</v>
       </c>
       <c r="U42" s="1">
-        <f t="shared" ref="U42:U50" si="22">(Q42/$H$17)/($B$18*7+$B$21)</f>
+        <f t="shared" ref="U42:U50" si="38">(Q42/$H$17)/($B$18*7+$B$21)</f>
         <v>0.41142857142857148</v>
       </c>
       <c r="V42" s="1">
-        <f>(Q42/H9)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
+        <f t="shared" si="31"/>
         <v>0.40975609756097564</v>
       </c>
       <c r="W42" s="1">
-        <f t="shared" ref="W42:W50" si="23">(Q42/$H$17)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
+        <f t="shared" ref="W42:W50" si="39">(Q42/$H$17)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
         <v>0.24585365853658542</v>
       </c>
       <c r="Y42" s="9" t="s">
         <v>199</v>
       </c>
       <c r="Z42" s="9">
-        <f t="shared" ref="Z42:Z55" si="24">ROUNDUP((AE42*$B$30/100),0)</f>
+        <f t="shared" ref="Z42:Z55" si="40">ROUNDUP((AE42*$B$30/100),0)</f>
         <v>744</v>
       </c>
       <c r="AA42" s="9">
-        <f>ROUNDUP((AE42*$B$31/100),0)</f>
+        <f t="shared" si="32"/>
         <v>1488</v>
       </c>
       <c r="AB42" s="9">
-        <f>ROUNDUP((AE42*$B$32/100),0)</f>
+        <f t="shared" si="33"/>
         <v>2976</v>
       </c>
       <c r="AC42" s="9">
-        <f>ROUNDUP((AE42*$B$33/100),0)</f>
+        <f t="shared" si="34"/>
         <v>4464</v>
       </c>
       <c r="AD42" s="9">
-        <f>ROUNDUP((AE42*$B$34/100),0)</f>
+        <f t="shared" si="35"/>
         <v>5208</v>
       </c>
       <c r="AE42" s="1">
-        <f t="shared" ref="AE42:AE55" si="25">($H$17*$B$9*$B$18)*(AF42/100)</f>
+        <f t="shared" ref="AE42:AE55" si="41">($H$17*$B$9*$B$18)*(AF42/100)</f>
         <v>14880</v>
       </c>
       <c r="AF42" s="1">
@@ -6830,93 +6701,93 @@
         <v>19</v>
       </c>
       <c r="H43" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="36"/>
         <v>156</v>
       </c>
       <c r="I43" s="9">
-        <f>ROUNDUP((P43*$B$31/100),0)</f>
+        <f t="shared" si="21"/>
         <v>312</v>
       </c>
       <c r="J43" s="9">
-        <f>ROUNDUP((P43*$B$32/100),0)</f>
+        <f t="shared" si="22"/>
         <v>624</v>
       </c>
       <c r="K43" s="9">
-        <f>ROUNDUP((P43*$B$33/100),0)</f>
+        <f t="shared" si="23"/>
         <v>936</v>
       </c>
       <c r="L43" s="9">
-        <f>ROUNDUP((P43*$B$34/100),0)</f>
+        <f t="shared" si="24"/>
         <v>1092</v>
       </c>
       <c r="M43" s="9">
-        <f>L43*$B$43</f>
+        <f t="shared" si="25"/>
         <v>2184</v>
       </c>
       <c r="N43" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="37"/>
         <v>3120</v>
       </c>
       <c r="O43" s="9">
         <v>70</v>
       </c>
       <c r="P43" s="9">
-        <f>(H10*$B$9*$B$18)*(O43/100)+I10</f>
+        <f t="shared" si="26"/>
         <v>3120</v>
       </c>
       <c r="Q43" s="9">
-        <f>P43-I10</f>
+        <f t="shared" si="27"/>
         <v>2184</v>
       </c>
       <c r="R43" s="1">
-        <f>(Q43/H10)/($B$18*7)</f>
+        <f t="shared" si="28"/>
         <v>1.2</v>
       </c>
       <c r="S43" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>0.78</v>
       </c>
       <c r="T43" s="1">
-        <f>(Q43/H10)/($B$18*7+$B$21)</f>
+        <f t="shared" si="30"/>
         <v>0.8</v>
       </c>
       <c r="U43" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="38"/>
         <v>0.52</v>
       </c>
       <c r="V43" s="1">
-        <f>(Q43/H10)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
+        <f t="shared" si="31"/>
         <v>0.47804878048780497</v>
       </c>
       <c r="W43" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="39"/>
         <v>0.31073170731707322</v>
       </c>
       <c r="Y43" s="9" t="s">
         <v>200</v>
       </c>
       <c r="Z43" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="40"/>
         <v>768</v>
       </c>
       <c r="AA43" s="9">
-        <f>ROUNDUP((AE43*$B$31/100),0)</f>
+        <f t="shared" si="32"/>
         <v>1536</v>
       </c>
       <c r="AB43" s="9">
-        <f>ROUNDUP((AE43*$B$32/100),0)</f>
+        <f t="shared" si="33"/>
         <v>3072</v>
       </c>
       <c r="AC43" s="9">
-        <f>ROUNDUP((AE43*$B$33/100),0)</f>
+        <f t="shared" si="34"/>
         <v>4608</v>
       </c>
       <c r="AD43" s="9">
-        <f>ROUNDUP((AE43*$B$34/100),0)</f>
+        <f t="shared" si="35"/>
         <v>5376</v>
       </c>
       <c r="AE43" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="41"/>
         <v>15360</v>
       </c>
       <c r="AF43" s="1">
@@ -6929,93 +6800,93 @@
         <v>85</v>
       </c>
       <c r="H44" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="36"/>
         <v>185</v>
       </c>
       <c r="I44" s="9">
-        <f>ROUNDUP((P44*$B$31/100),0)</f>
+        <f t="shared" si="21"/>
         <v>370</v>
       </c>
       <c r="J44" s="9">
-        <f>ROUNDUP((P44*$B$32/100),0)</f>
+        <f t="shared" si="22"/>
         <v>740</v>
       </c>
       <c r="K44" s="9">
-        <f>ROUNDUP((P44*$B$33/100),0)</f>
+        <f t="shared" si="23"/>
         <v>1109</v>
       </c>
       <c r="L44" s="9">
-        <f>ROUNDUP((P44*$B$34/100),0)</f>
+        <f t="shared" si="24"/>
         <v>1294</v>
       </c>
       <c r="M44" s="9">
-        <f>L44*$B$43</f>
+        <f t="shared" si="25"/>
         <v>2588</v>
       </c>
       <c r="N44" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="37"/>
         <v>3698</v>
       </c>
       <c r="O44" s="9">
         <v>80</v>
       </c>
       <c r="P44" s="9">
-        <f>(H11*$B$9*$B$18)*(O44/100)+I11</f>
+        <f t="shared" si="26"/>
         <v>3696</v>
       </c>
       <c r="Q44" s="9">
-        <f>P44-I11</f>
+        <f t="shared" si="27"/>
         <v>2688</v>
       </c>
       <c r="R44" s="1">
-        <f>(Q44/H11)/($B$18*7)</f>
+        <f t="shared" si="28"/>
         <v>1.3714285714285714</v>
       </c>
       <c r="S44" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>0.96</v>
       </c>
       <c r="T44" s="1">
-        <f>(Q44/H11)/($B$18*7+$B$21)</f>
+        <f t="shared" si="30"/>
         <v>0.91428571428571426</v>
       </c>
       <c r="U44" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="38"/>
         <v>0.64</v>
       </c>
       <c r="V44" s="1">
-        <f>(Q44/H11)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
+        <f t="shared" si="31"/>
         <v>0.54634146341463419</v>
       </c>
       <c r="W44" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="39"/>
         <v>0.38243902439024391</v>
       </c>
       <c r="Y44" s="9" t="s">
         <v>201</v>
       </c>
       <c r="Z44" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="40"/>
         <v>792</v>
       </c>
       <c r="AA44" s="9">
-        <f>ROUNDUP((AE44*$B$31/100),0)</f>
+        <f t="shared" si="32"/>
         <v>1584</v>
       </c>
       <c r="AB44" s="9">
-        <f>ROUNDUP((AE44*$B$32/100),0)</f>
+        <f t="shared" si="33"/>
         <v>3168</v>
       </c>
       <c r="AC44" s="9">
-        <f>ROUNDUP((AE44*$B$33/100),0)</f>
+        <f t="shared" si="34"/>
         <v>4752</v>
       </c>
       <c r="AD44" s="9">
-        <f>ROUNDUP((AE44*$B$34/100),0)</f>
+        <f t="shared" si="35"/>
         <v>5544</v>
       </c>
       <c r="AE44" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="41"/>
         <v>15840</v>
       </c>
       <c r="AF44" s="1">
@@ -7028,93 +6899,93 @@
         <v>20</v>
       </c>
       <c r="H45" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="36"/>
         <v>216</v>
       </c>
       <c r="I45" s="9">
-        <f>ROUNDUP((P45*$B$31/100),0)</f>
+        <f t="shared" si="21"/>
         <v>432</v>
       </c>
       <c r="J45" s="9">
-        <f>ROUNDUP((P45*$B$32/100),0)</f>
+        <f t="shared" si="22"/>
         <v>864</v>
       </c>
       <c r="K45" s="9">
-        <f>ROUNDUP((P45*$B$33/100),0)</f>
+        <f t="shared" si="23"/>
         <v>1296</v>
       </c>
       <c r="L45" s="9">
-        <f>ROUNDUP((P45*$B$34/100),0)</f>
+        <f t="shared" si="24"/>
         <v>1512</v>
       </c>
       <c r="M45" s="9">
-        <f>L45*$B$43</f>
+        <f t="shared" si="25"/>
         <v>3024</v>
       </c>
       <c r="N45" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="37"/>
         <v>4320</v>
       </c>
       <c r="O45" s="9">
         <v>90</v>
       </c>
       <c r="P45" s="9">
-        <f>(H12*$B$9*$B$18)*(O45/100)+I12</f>
+        <f t="shared" si="26"/>
         <v>4320</v>
       </c>
       <c r="Q45" s="9">
-        <f>P45-I12</f>
+        <f t="shared" si="27"/>
         <v>3240</v>
       </c>
       <c r="R45" s="1">
-        <f>(Q45/H12)/($B$18*7)</f>
+        <f t="shared" si="28"/>
         <v>1.5428571428571429</v>
       </c>
       <c r="S45" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>1.157142857142857</v>
       </c>
       <c r="T45" s="1">
-        <f>(Q45/H12)/($B$18*7+$B$21)</f>
+        <f t="shared" si="30"/>
         <v>1.0285714285714287</v>
       </c>
       <c r="U45" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="38"/>
         <v>0.77142857142857135</v>
       </c>
       <c r="V45" s="1">
-        <f>(Q45/H12)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
+        <f t="shared" si="31"/>
         <v>0.61463414634146352</v>
       </c>
       <c r="W45" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="39"/>
         <v>0.46097560975609758</v>
       </c>
       <c r="Y45" s="9" t="s">
         <v>202</v>
       </c>
       <c r="Z45" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="40"/>
         <v>816</v>
       </c>
       <c r="AA45" s="9">
-        <f>ROUNDUP((AE45*$B$31/100),0)</f>
+        <f t="shared" si="32"/>
         <v>1632</v>
       </c>
       <c r="AB45" s="9">
-        <f>ROUNDUP((AE45*$B$32/100),0)</f>
+        <f t="shared" si="33"/>
         <v>3264</v>
       </c>
       <c r="AC45" s="9">
-        <f>ROUNDUP((AE45*$B$33/100),0)</f>
+        <f t="shared" si="34"/>
         <v>4896</v>
       </c>
       <c r="AD45" s="9">
-        <f>ROUNDUP((AE45*$B$34/100),0)</f>
+        <f t="shared" si="35"/>
         <v>5712</v>
       </c>
       <c r="AE45" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="41"/>
         <v>16320</v>
       </c>
       <c r="AF45" s="1">
@@ -7127,93 +6998,93 @@
         <v>21</v>
       </c>
       <c r="H46" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="36"/>
         <v>250</v>
       </c>
       <c r="I46" s="9">
-        <f>ROUNDUP((P46*$B$31/100),0)</f>
+        <f t="shared" si="21"/>
         <v>500</v>
       </c>
       <c r="J46" s="9">
-        <f>ROUNDUP((P46*$B$32/100),0)</f>
+        <f t="shared" si="22"/>
         <v>999</v>
       </c>
       <c r="K46" s="9">
-        <f>ROUNDUP((P46*$B$33/100),0)</f>
+        <f t="shared" si="23"/>
         <v>1498</v>
       </c>
       <c r="L46" s="9">
-        <f>ROUNDUP((P46*$B$34/100),0)</f>
+        <f t="shared" si="24"/>
         <v>1748</v>
       </c>
       <c r="M46" s="9">
-        <f>L46*$B$43</f>
+        <f t="shared" si="25"/>
         <v>3496</v>
       </c>
       <c r="N46" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="37"/>
         <v>4995</v>
       </c>
       <c r="O46" s="9">
         <v>100</v>
       </c>
       <c r="P46" s="9">
-        <f>(H13*$B$9*$B$18)*(O46/100)+I13</f>
+        <f t="shared" si="26"/>
         <v>4992</v>
       </c>
       <c r="Q46" s="9">
-        <f>P46-I13</f>
+        <f t="shared" si="27"/>
         <v>3840</v>
       </c>
       <c r="R46" s="1">
-        <f>(Q46/H13)/($B$18*7)</f>
+        <f t="shared" si="28"/>
         <v>1.7142857142857142</v>
       </c>
       <c r="S46" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>1.3714285714285714</v>
       </c>
       <c r="T46" s="1">
-        <f>(Q46/H13)/($B$18*7+$B$21)</f>
+        <f t="shared" si="30"/>
         <v>1.1428571428571428</v>
       </c>
       <c r="U46" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="38"/>
         <v>0.91428571428571426</v>
       </c>
       <c r="V46" s="1">
-        <f>(Q46/H13)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
+        <f t="shared" si="31"/>
         <v>0.68292682926829273</v>
       </c>
       <c r="W46" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="39"/>
         <v>0.54634146341463419</v>
       </c>
       <c r="Y46" s="9" t="s">
         <v>203</v>
       </c>
       <c r="Z46" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="40"/>
         <v>840</v>
       </c>
       <c r="AA46" s="9">
-        <f>ROUNDUP((AE46*$B$31/100),0)</f>
+        <f t="shared" si="32"/>
         <v>1680</v>
       </c>
       <c r="AB46" s="9">
-        <f>ROUNDUP((AE46*$B$32/100),0)</f>
+        <f t="shared" si="33"/>
         <v>3360</v>
       </c>
       <c r="AC46" s="9">
-        <f>ROUNDUP((AE46*$B$33/100),0)</f>
+        <f t="shared" si="34"/>
         <v>5040</v>
       </c>
       <c r="AD46" s="9">
-        <f>ROUNDUP((AE46*$B$34/100),0)</f>
+        <f t="shared" si="35"/>
         <v>5880</v>
       </c>
       <c r="AE46" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="41"/>
         <v>16800</v>
       </c>
       <c r="AF46" s="1">
@@ -7225,93 +7096,93 @@
         <v>22</v>
       </c>
       <c r="H47" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="36"/>
         <v>286</v>
       </c>
       <c r="I47" s="9">
-        <f>ROUNDUP((P47*$B$31/100),0)</f>
+        <f t="shared" si="21"/>
         <v>572</v>
       </c>
       <c r="J47" s="9">
-        <f>ROUNDUP((P47*$B$32/100),0)</f>
+        <f t="shared" si="22"/>
         <v>1143</v>
       </c>
       <c r="K47" s="9">
-        <f>ROUNDUP((P47*$B$33/100),0)</f>
+        <f t="shared" si="23"/>
         <v>1714</v>
       </c>
       <c r="L47" s="9">
-        <f>ROUNDUP((P47*$B$34/100),0)</f>
+        <f t="shared" si="24"/>
         <v>2000</v>
       </c>
       <c r="M47" s="9">
-        <f>L47*$B$43</f>
+        <f t="shared" si="25"/>
         <v>4000</v>
       </c>
       <c r="N47" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="37"/>
         <v>5715</v>
       </c>
       <c r="O47" s="9">
         <v>110</v>
       </c>
       <c r="P47" s="9">
-        <f>(H14*$B$9*$B$18)*(O47/100)+I14</f>
+        <f t="shared" si="26"/>
         <v>5712</v>
       </c>
       <c r="Q47" s="9">
-        <f>P47-I14</f>
+        <f t="shared" si="27"/>
         <v>4488</v>
       </c>
       <c r="R47" s="1">
-        <f>(Q47/H14)/($B$18*7)</f>
+        <f t="shared" si="28"/>
         <v>1.8857142857142857</v>
       </c>
       <c r="S47" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>1.602857142857143</v>
       </c>
       <c r="T47" s="1">
-        <f>(Q47/H14)/($B$18*7+$B$21)</f>
+        <f t="shared" si="30"/>
         <v>1.2571428571428571</v>
       </c>
       <c r="U47" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="38"/>
         <v>1.0685714285714287</v>
       </c>
       <c r="V47" s="1">
-        <f>(Q47/H14)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
+        <f t="shared" si="31"/>
         <v>0.75121951219512195</v>
       </c>
       <c r="W47" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="39"/>
         <v>0.63853658536585378</v>
       </c>
       <c r="Y47" s="9" t="s">
         <v>204</v>
       </c>
       <c r="Z47" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="40"/>
         <v>864</v>
       </c>
       <c r="AA47" s="9">
-        <f>ROUNDUP((AE47*$B$31/100),0)</f>
+        <f t="shared" si="32"/>
         <v>1728</v>
       </c>
       <c r="AB47" s="9">
-        <f>ROUNDUP((AE47*$B$32/100),0)</f>
+        <f t="shared" si="33"/>
         <v>3456</v>
       </c>
       <c r="AC47" s="9">
-        <f>ROUNDUP((AE47*$B$33/100),0)</f>
+        <f t="shared" si="34"/>
         <v>5184</v>
       </c>
       <c r="AD47" s="9">
-        <f>ROUNDUP((AE47*$B$34/100),0)</f>
+        <f t="shared" si="35"/>
         <v>6048</v>
       </c>
       <c r="AE47" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="41"/>
         <v>17280</v>
       </c>
       <c r="AF47" s="1">
@@ -7323,93 +7194,93 @@
         <v>23</v>
       </c>
       <c r="H48" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="36"/>
         <v>324</v>
       </c>
       <c r="I48" s="9">
-        <f>ROUNDUP((P48*$B$31/100),0)</f>
+        <f t="shared" si="21"/>
         <v>648</v>
       </c>
       <c r="J48" s="9">
-        <f>ROUNDUP((P48*$B$32/100),0)</f>
+        <f t="shared" si="22"/>
         <v>1296</v>
       </c>
       <c r="K48" s="9">
-        <f>ROUNDUP((P48*$B$33/100),0)</f>
+        <f t="shared" si="23"/>
         <v>1944</v>
       </c>
       <c r="L48" s="9">
-        <f>ROUNDUP((P48*$B$34/100),0)</f>
+        <f t="shared" si="24"/>
         <v>2268</v>
       </c>
       <c r="M48" s="9">
-        <f>L48*$B$43</f>
+        <f t="shared" si="25"/>
         <v>4536</v>
       </c>
       <c r="N48" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="37"/>
         <v>6480</v>
       </c>
       <c r="O48" s="9">
         <v>120</v>
       </c>
       <c r="P48" s="9">
-        <f>(H15*$B$9*$B$18)*(O48/100)+I15</f>
+        <f t="shared" si="26"/>
         <v>6480</v>
       </c>
       <c r="Q48" s="9">
-        <f>P48-I15</f>
+        <f t="shared" si="27"/>
         <v>5184</v>
       </c>
       <c r="R48" s="1">
-        <f>(Q48/H15)/($B$18*7)</f>
+        <f t="shared" si="28"/>
         <v>2.0571428571428574</v>
       </c>
       <c r="S48" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>1.8514285714285716</v>
       </c>
       <c r="T48" s="1">
-        <f>(Q48/H15)/($B$18*7+$B$21)</f>
+        <f t="shared" si="30"/>
         <v>1.3714285714285714</v>
       </c>
       <c r="U48" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="38"/>
         <v>1.2342857142857144</v>
       </c>
       <c r="V48" s="1">
-        <f>(Q48/H15)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
+        <f t="shared" si="31"/>
         <v>0.81951219512195128</v>
       </c>
       <c r="W48" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="39"/>
         <v>0.7375609756097562</v>
       </c>
       <c r="Y48" s="9" t="s">
         <v>205</v>
       </c>
       <c r="Z48" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="40"/>
         <v>888</v>
       </c>
       <c r="AA48" s="9">
-        <f>ROUNDUP((AE48*$B$31/100),0)</f>
+        <f t="shared" si="32"/>
         <v>1776</v>
       </c>
       <c r="AB48" s="9">
-        <f>ROUNDUP((AE48*$B$32/100),0)</f>
+        <f t="shared" si="33"/>
         <v>3552</v>
       </c>
       <c r="AC48" s="9">
-        <f>ROUNDUP((AE48*$B$33/100),0)</f>
+        <f t="shared" si="34"/>
         <v>5328</v>
       </c>
       <c r="AD48" s="9">
-        <f>ROUNDUP((AE48*$B$34/100),0)</f>
+        <f t="shared" si="35"/>
         <v>6216</v>
       </c>
       <c r="AE48" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="41"/>
         <v>17760</v>
       </c>
       <c r="AF48" s="1">
@@ -7421,89 +7292,89 @@
         <v>24</v>
       </c>
       <c r="H49" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="36"/>
         <v>365</v>
       </c>
       <c r="I49" s="9">
-        <f>ROUNDUP((P49*$B$31/100),0)</f>
+        <f t="shared" si="21"/>
         <v>730</v>
       </c>
       <c r="J49" s="9">
-        <f>ROUNDUP((P49*$B$32/100),0)</f>
+        <f t="shared" si="22"/>
         <v>1460</v>
       </c>
       <c r="K49" s="9">
-        <f>ROUNDUP((P49*$B$33/100),0)</f>
+        <f t="shared" si="23"/>
         <v>2189</v>
       </c>
       <c r="L49" s="9">
-        <f>ROUNDUP((P49*$B$34/100),0)</f>
+        <f t="shared" si="24"/>
         <v>2554</v>
       </c>
       <c r="M49" s="9">
-        <f>L49*$B$43</f>
+        <f t="shared" si="25"/>
         <v>5108</v>
       </c>
       <c r="N49" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="37"/>
         <v>7298</v>
       </c>
       <c r="O49" s="9">
         <v>130</v>
       </c>
       <c r="P49" s="9">
-        <f>(H16*$B$9*$B$18)*(O49/100)+I16</f>
+        <f t="shared" si="26"/>
         <v>7296</v>
       </c>
       <c r="Q49" s="9">
-        <f>P49-I16</f>
+        <f t="shared" si="27"/>
         <v>5928</v>
       </c>
       <c r="R49" s="1">
-        <f>(Q49/H16)/($B$18*7)</f>
+        <f t="shared" si="28"/>
         <v>2.2285714285714286</v>
       </c>
       <c r="S49" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>2.117142857142857</v>
       </c>
       <c r="T49" s="1">
-        <f>(Q49/H16)/($B$18*7+$B$21)</f>
+        <f t="shared" si="30"/>
         <v>1.4857142857142858</v>
       </c>
       <c r="U49" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="38"/>
         <v>1.4114285714285715</v>
       </c>
       <c r="V49" s="1">
-        <f>(Q49/H16)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
+        <f t="shared" si="31"/>
         <v>0.88780487804878061</v>
       </c>
       <c r="W49" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="39"/>
         <v>0.84341463414634155</v>
       </c>
       <c r="Y49" s="9" t="s">
         <v>206</v>
       </c>
       <c r="Z49" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="40"/>
         <v>1200</v>
       </c>
       <c r="AA49" s="9">
-        <f>ROUNDUP((AE49*$B$31/100),0)</f>
+        <f t="shared" si="32"/>
         <v>2400</v>
       </c>
       <c r="AB49" s="9">
-        <f>ROUNDUP((AE49*$B$32/100),0)</f>
+        <f t="shared" si="33"/>
         <v>4800</v>
       </c>
       <c r="AC49" s="9">
-        <f>ROUNDUP((AE49*$B$33/100),0)</f>
+        <f t="shared" si="34"/>
         <v>7200</v>
       </c>
       <c r="AD49" s="9">
-        <f>ROUNDUP((AE49*$B$34/100),0)</f>
+        <f t="shared" si="35"/>
         <v>8400</v>
       </c>
       <c r="AE49" s="1">
@@ -7519,50 +7390,50 @@
         <v>25</v>
       </c>
       <c r="H50" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="36"/>
         <v>408</v>
       </c>
       <c r="I50" s="9">
-        <f>ROUNDUP((P50*$B$31/100),0)</f>
+        <f t="shared" si="21"/>
         <v>816</v>
       </c>
       <c r="J50" s="9">
-        <f>ROUNDUP((P50*$B$32/100),0)</f>
+        <f t="shared" si="22"/>
         <v>1632</v>
       </c>
       <c r="K50" s="9">
-        <f>ROUNDUP((P50*$B$33/100),0)</f>
+        <f t="shared" si="23"/>
         <v>2448</v>
       </c>
       <c r="L50" s="9">
-        <f>ROUNDUP((P50*$B$34/100),0)</f>
+        <f t="shared" si="24"/>
         <v>2856</v>
       </c>
       <c r="M50" s="9">
-        <f>L50*$B$43</f>
+        <f t="shared" si="25"/>
         <v>5712</v>
       </c>
       <c r="N50" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="37"/>
         <v>8160</v>
       </c>
       <c r="O50" s="9">
         <v>140</v>
       </c>
       <c r="P50" s="9">
-        <f>(H17*$B$9*$B$18)*(O50/100)+I17</f>
+        <f t="shared" si="26"/>
         <v>8160</v>
       </c>
       <c r="Q50" s="9">
-        <f>P50-I17</f>
+        <f t="shared" si="27"/>
         <v>6720</v>
       </c>
       <c r="R50" s="1">
-        <f>(Q50/H17)/($B$18*7)</f>
+        <f t="shared" si="28"/>
         <v>2.4</v>
       </c>
       <c r="S50" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>2.4</v>
       </c>
       <c r="T50" s="1">
@@ -7570,42 +7441,42 @@
         <v>0.95609756097560994</v>
       </c>
       <c r="U50" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="38"/>
         <v>1.6</v>
       </c>
       <c r="V50" s="1">
-        <f>(Q50/H17)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
+        <f t="shared" si="31"/>
         <v>0.95609756097560994</v>
       </c>
       <c r="W50" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="39"/>
         <v>0.95609756097560994</v>
       </c>
       <c r="Y50" s="9" t="s">
         <v>207</v>
       </c>
       <c r="Z50" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="40"/>
         <v>1248</v>
       </c>
       <c r="AA50" s="9">
-        <f>ROUNDUP((AE50*$B$31/100),0)</f>
+        <f t="shared" si="32"/>
         <v>2496</v>
       </c>
       <c r="AB50" s="9">
-        <f>ROUNDUP((AE50*$B$32/100),0)</f>
+        <f t="shared" si="33"/>
         <v>4992</v>
       </c>
       <c r="AC50" s="9">
-        <f>ROUNDUP((AE50*$B$33/100),0)</f>
+        <f t="shared" si="34"/>
         <v>7488</v>
       </c>
       <c r="AD50" s="9">
-        <f>ROUNDUP((AE50*$B$34/100),0)</f>
+        <f t="shared" si="35"/>
         <v>8736</v>
       </c>
       <c r="AE50" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="41"/>
         <v>24960</v>
       </c>
       <c r="AF50" s="1">
@@ -7637,27 +7508,27 @@
         <v>208</v>
       </c>
       <c r="Z51" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="40"/>
         <v>1296</v>
       </c>
       <c r="AA51" s="9">
-        <f>ROUNDUP((AE51*$B$31/100),0)</f>
+        <f t="shared" si="32"/>
         <v>2592</v>
       </c>
       <c r="AB51" s="9">
-        <f>ROUNDUP((AE51*$B$32/100),0)</f>
+        <f t="shared" si="33"/>
         <v>5184</v>
       </c>
       <c r="AC51" s="9">
-        <f>ROUNDUP((AE51*$B$33/100),0)</f>
+        <f t="shared" si="34"/>
         <v>7776</v>
       </c>
       <c r="AD51" s="9">
-        <f>ROUNDUP((AE51*$B$34/100),0)</f>
+        <f t="shared" si="35"/>
         <v>9072</v>
       </c>
       <c r="AE51" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="41"/>
         <v>25920</v>
       </c>
       <c r="AF51" s="1">
@@ -7673,23 +7544,23 @@
         <v>6.8571428571428568</v>
       </c>
       <c r="S52" s="23">
-        <f t="shared" ref="S52:W52" si="26">SUM(S53:S54)</f>
+        <f t="shared" ref="S52:W52" si="42">SUM(S53:S54)</f>
         <v>6.7012987012987013</v>
       </c>
       <c r="T52" s="23">
-        <f t="shared" si="26"/>
+        <f t="shared" si="42"/>
         <v>2.7317073170731709</v>
       </c>
       <c r="U52" s="23">
-        <f t="shared" si="26"/>
+        <f t="shared" si="42"/>
         <v>4.4675324675324681</v>
       </c>
       <c r="V52" s="23">
-        <f t="shared" si="26"/>
+        <f t="shared" si="42"/>
         <v>2.7317073170731709</v>
       </c>
       <c r="W52" s="23">
-        <f t="shared" si="26"/>
+        <f t="shared" si="42"/>
         <v>2.6696230598669626</v>
       </c>
       <c r="X52"/>
@@ -7697,27 +7568,27 @@
         <v>209</v>
       </c>
       <c r="Z52" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="40"/>
         <v>1440</v>
       </c>
       <c r="AA52" s="9">
-        <f>ROUNDUP((AE52*$B$31/100),0)</f>
+        <f t="shared" si="32"/>
         <v>2880</v>
       </c>
       <c r="AB52" s="9">
-        <f>ROUNDUP((AE52*$B$32/100),0)</f>
+        <f t="shared" si="33"/>
         <v>5760</v>
       </c>
       <c r="AC52" s="9">
-        <f>ROUNDUP((AE52*$B$33/100),0)</f>
+        <f t="shared" si="34"/>
         <v>8640</v>
       </c>
       <c r="AD52" s="9">
-        <f>ROUNDUP((AE52*$B$34/100),0)</f>
+        <f t="shared" si="35"/>
         <v>10080</v>
       </c>
       <c r="AE52" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="41"/>
         <v>28800</v>
       </c>
       <c r="AF52" s="1">
@@ -7729,31 +7600,31 @@
         <v>105</v>
       </c>
       <c r="H53" s="9">
-        <f t="shared" ref="H53:H63" si="27">ROUNDUP((P53*$B$30/100),0)</f>
+        <f t="shared" ref="H53:H63" si="43">ROUNDUP((P53*$B$30/100),0)</f>
         <v>580</v>
       </c>
       <c r="I53" s="9">
-        <f>ROUNDUP((P53*$B$31/100),0)</f>
+        <f t="shared" ref="I53:I65" si="44">ROUNDUP((P53*$B$31/100),0)</f>
         <v>1160</v>
       </c>
       <c r="J53" s="9">
-        <f>ROUNDUP((P53*$B$32/100),0)</f>
+        <f t="shared" ref="J53:J65" si="45">ROUNDUP((P53*$B$32/100),0)</f>
         <v>2319</v>
       </c>
       <c r="K53" s="9">
-        <f>ROUNDUP((P53*$B$33/100),0)</f>
+        <f t="shared" ref="K53:K65" si="46">ROUNDUP((P53*$B$33/100),0)</f>
         <v>3478</v>
       </c>
       <c r="L53" s="9">
-        <f>ROUNDUP((P53*$B$34/100),0)</f>
+        <f t="shared" ref="L53:L65" si="47">ROUNDUP((P53*$B$34/100),0)</f>
         <v>4058</v>
       </c>
       <c r="M53" s="9">
-        <f>L53*$B$43</f>
+        <f t="shared" ref="M53:M66" si="48">L53*$B$43</f>
         <v>8116</v>
       </c>
       <c r="N53" s="9">
-        <f t="shared" ref="N53" si="28">SUM(H53:L53)</f>
+        <f t="shared" ref="N53" si="49">SUM(H53:L53)</f>
         <v>11595</v>
       </c>
       <c r="O53" s="9">
@@ -7795,27 +7666,27 @@
         <v>210</v>
       </c>
       <c r="Z53" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="40"/>
         <v>1488</v>
       </c>
       <c r="AA53" s="9">
-        <f>ROUNDUP((AE53*$B$31/100),0)</f>
+        <f t="shared" si="32"/>
         <v>2976</v>
       </c>
       <c r="AB53" s="9">
-        <f>ROUNDUP((AE53*$B$32/100),0)</f>
+        <f t="shared" si="33"/>
         <v>5952</v>
       </c>
       <c r="AC53" s="9">
-        <f>ROUNDUP((AE53*$B$33/100),0)</f>
+        <f t="shared" si="34"/>
         <v>8928</v>
       </c>
       <c r="AD53" s="9">
-        <f>ROUNDUP((AE53*$B$34/100),0)</f>
+        <f t="shared" si="35"/>
         <v>10416</v>
       </c>
       <c r="AE53" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="41"/>
         <v>29760</v>
       </c>
       <c r="AF53" s="1">
@@ -7827,31 +7698,31 @@
         <v>106</v>
       </c>
       <c r="H54" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="43"/>
         <v>608</v>
       </c>
       <c r="I54" s="9">
-        <f>ROUNDUP((P54*$B$31/100),0)</f>
+        <f t="shared" si="44"/>
         <v>1215</v>
       </c>
       <c r="J54" s="9">
-        <f>ROUNDUP((P54*$B$32/100),0)</f>
+        <f t="shared" si="45"/>
         <v>2429</v>
       </c>
       <c r="K54" s="9">
-        <f>ROUNDUP((P54*$B$33/100),0)</f>
+        <f t="shared" si="46"/>
         <v>3644</v>
       </c>
       <c r="L54" s="9">
-        <f>ROUNDUP((P54*$B$34/100),0)</f>
+        <f t="shared" si="47"/>
         <v>4251</v>
       </c>
       <c r="M54" s="9">
-        <f>L54*$B$43</f>
+        <f t="shared" si="48"/>
         <v>8502</v>
       </c>
       <c r="N54" s="9">
-        <f t="shared" ref="N54:N59" si="29">SUM(H54:L54)</f>
+        <f t="shared" ref="N54:N59" si="50">SUM(H54:L54)</f>
         <v>12147</v>
       </c>
       <c r="O54" s="9">
@@ -7893,27 +7764,27 @@
         <v>211</v>
       </c>
       <c r="Z54" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="40"/>
         <v>1536</v>
       </c>
       <c r="AA54" s="9">
-        <f>ROUNDUP((AE54*$B$31/100),0)</f>
+        <f t="shared" si="32"/>
         <v>3072</v>
       </c>
       <c r="AB54" s="9">
-        <f>ROUNDUP((AE54*$B$32/100),0)</f>
+        <f t="shared" si="33"/>
         <v>6144</v>
       </c>
       <c r="AC54" s="9">
-        <f>ROUNDUP((AE54*$B$33/100),0)</f>
+        <f t="shared" si="34"/>
         <v>9216</v>
       </c>
       <c r="AD54" s="9">
-        <f>ROUNDUP((AE54*$B$34/100),0)</f>
+        <f t="shared" si="35"/>
         <v>10752</v>
       </c>
       <c r="AE54" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="41"/>
         <v>30720</v>
       </c>
       <c r="AF54" s="1">
@@ -7925,31 +7796,31 @@
         <v>172</v>
       </c>
       <c r="H55" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="43"/>
         <v>635</v>
       </c>
       <c r="I55" s="9">
-        <f>ROUNDUP((P55*$B$31/100),0)</f>
+        <f t="shared" si="44"/>
         <v>1270</v>
       </c>
       <c r="J55" s="9">
-        <f>ROUNDUP((P55*$B$32/100),0)</f>
+        <f t="shared" si="45"/>
         <v>2540</v>
       </c>
       <c r="K55" s="9">
-        <f>ROUNDUP((P55*$B$33/100),0)</f>
+        <f t="shared" si="46"/>
         <v>3809</v>
       </c>
       <c r="L55" s="9">
-        <f>ROUNDUP((P55*$B$34/100),0)</f>
+        <f t="shared" si="47"/>
         <v>4444</v>
       </c>
       <c r="M55" s="9">
-        <f>L55*$B$43</f>
+        <f t="shared" si="48"/>
         <v>8888</v>
       </c>
       <c r="N55" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="50"/>
         <v>12698</v>
       </c>
       <c r="O55" s="9">
@@ -7963,27 +7834,27 @@
         <v>212</v>
       </c>
       <c r="Z55" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="40"/>
         <v>1584</v>
       </c>
       <c r="AA55" s="9">
-        <f>ROUNDUP((AE55*$B$31/100),0)</f>
+        <f t="shared" si="32"/>
         <v>3168</v>
       </c>
       <c r="AB55" s="9">
-        <f>ROUNDUP((AE55*$B$32/100),0)</f>
+        <f t="shared" si="33"/>
         <v>6336</v>
       </c>
       <c r="AC55" s="9">
-        <f>ROUNDUP((AE55*$B$33/100),0)</f>
+        <f t="shared" si="34"/>
         <v>9504</v>
       </c>
       <c r="AD55" s="9">
-        <f>ROUNDUP((AE55*$B$34/100),0)</f>
+        <f t="shared" si="35"/>
         <v>11088</v>
       </c>
       <c r="AE55" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="41"/>
         <v>31680</v>
       </c>
       <c r="AF55" s="1">
@@ -7995,31 +7866,31 @@
         <v>175</v>
       </c>
       <c r="H56" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="43"/>
         <v>692</v>
       </c>
       <c r="I56" s="9">
-        <f>ROUNDUP((P56*$B$31/100),0)</f>
+        <f t="shared" si="44"/>
         <v>1383</v>
       </c>
       <c r="J56" s="9">
-        <f>ROUNDUP((P56*$B$32/100),0)</f>
+        <f t="shared" si="45"/>
         <v>2765</v>
       </c>
       <c r="K56" s="9">
-        <f>ROUNDUP((P56*$B$33/100),0)</f>
+        <f t="shared" si="46"/>
         <v>4148</v>
       </c>
       <c r="L56" s="9">
-        <f>ROUNDUP((P56*$B$34/100),0)</f>
+        <f t="shared" si="47"/>
         <v>4839</v>
       </c>
       <c r="M56" s="9">
-        <f>L56*$B$43</f>
+        <f t="shared" si="48"/>
         <v>9678</v>
       </c>
       <c r="N56" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="50"/>
         <v>13827</v>
       </c>
       <c r="O56" s="9">
@@ -8035,31 +7906,31 @@
         <v>195</v>
       </c>
       <c r="H57" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="43"/>
         <v>750</v>
       </c>
       <c r="I57" s="9">
-        <f>ROUNDUP((P57*$B$31/100),0)</f>
+        <f t="shared" si="44"/>
         <v>1500</v>
       </c>
       <c r="J57" s="9">
-        <f>ROUNDUP((P57*$B$32/100),0)</f>
+        <f t="shared" si="45"/>
         <v>3000</v>
       </c>
       <c r="K57" s="9">
-        <f>ROUNDUP((P57*$B$33/100),0)</f>
+        <f t="shared" si="46"/>
         <v>4500</v>
       </c>
       <c r="L57" s="9">
-        <f>ROUNDUP((P57*$B$34/100),0)</f>
+        <f t="shared" si="47"/>
         <v>5250</v>
       </c>
       <c r="M57" s="9">
-        <f>L57*$B$43</f>
+        <f t="shared" si="48"/>
         <v>10500</v>
       </c>
       <c r="N57" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="50"/>
         <v>15000</v>
       </c>
       <c r="O57" s="9">
@@ -8075,31 +7946,31 @@
         <v>246</v>
       </c>
       <c r="H58" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="43"/>
         <v>843</v>
       </c>
       <c r="I58" s="9">
-        <f>ROUNDUP((P58*$B$31/100),0)</f>
+        <f t="shared" si="44"/>
         <v>1685</v>
       </c>
       <c r="J58" s="9">
-        <f>ROUNDUP((P58*$B$32/100),0)</f>
+        <f t="shared" si="45"/>
         <v>3370</v>
       </c>
       <c r="K58" s="9">
-        <f>ROUNDUP((P58*$B$33/100),0)</f>
+        <f t="shared" si="46"/>
         <v>5055</v>
       </c>
       <c r="L58" s="9">
-        <f>ROUNDUP((P58*$B$34/100),0)</f>
+        <f t="shared" si="47"/>
         <v>5897</v>
       </c>
       <c r="M58" s="9">
-        <f>L58*$B$43</f>
+        <f t="shared" si="48"/>
         <v>11794</v>
       </c>
       <c r="N58" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="50"/>
         <v>16850</v>
       </c>
       <c r="O58" s="9">
@@ -8115,31 +7986,31 @@
         <v>313</v>
       </c>
       <c r="H59" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="43"/>
         <v>940</v>
       </c>
       <c r="I59" s="9">
-        <f>ROUNDUP((P59*$B$31/100),0)</f>
+        <f t="shared" si="44"/>
         <v>1880</v>
       </c>
       <c r="J59" s="9">
-        <f>ROUNDUP((P59*$B$32/100),0)</f>
+        <f t="shared" si="45"/>
         <v>3759</v>
       </c>
       <c r="K59" s="9">
-        <f>ROUNDUP((P59*$B$33/100),0)</f>
+        <f t="shared" si="46"/>
         <v>5638</v>
       </c>
       <c r="L59" s="9">
-        <f>ROUNDUP((P59*$B$34/100),0)</f>
+        <f t="shared" si="47"/>
         <v>6578</v>
       </c>
       <c r="M59" s="9">
-        <f>L59*$B$43</f>
+        <f t="shared" si="48"/>
         <v>13156</v>
       </c>
       <c r="N59" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="50"/>
         <v>18795</v>
       </c>
       <c r="O59" s="9">
@@ -8158,31 +8029,31 @@
         <v>368</v>
       </c>
       <c r="H60" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="43"/>
         <v>1042</v>
       </c>
       <c r="I60" s="9">
-        <f>ROUNDUP((P60*$B$31/100),0)</f>
+        <f t="shared" si="44"/>
         <v>2084</v>
       </c>
       <c r="J60" s="9">
-        <f>ROUNDUP((P60*$B$32/100),0)</f>
+        <f t="shared" si="45"/>
         <v>4167</v>
       </c>
       <c r="K60" s="9">
-        <f>ROUNDUP((P60*$B$33/100),0)</f>
+        <f t="shared" si="46"/>
         <v>6250</v>
       </c>
       <c r="L60" s="9">
-        <f>ROUNDUP((P60*$B$34/100),0)</f>
+        <f t="shared" si="47"/>
         <v>7292</v>
       </c>
       <c r="M60" s="9">
-        <f>L60*$B$43</f>
+        <f t="shared" si="48"/>
         <v>14584</v>
       </c>
       <c r="N60" s="9">
-        <f t="shared" ref="N60" si="30">SUM(H60:L60)</f>
+        <f t="shared" ref="N60" si="51">SUM(H60:L60)</f>
         <v>20835</v>
       </c>
       <c r="O60" s="9">
@@ -8222,31 +8093,31 @@
         <v>375</v>
       </c>
       <c r="H61" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="43"/>
         <v>1149</v>
       </c>
       <c r="I61" s="9">
-        <f>ROUNDUP((P61*$B$31/100),0)</f>
+        <f t="shared" si="44"/>
         <v>2297</v>
       </c>
       <c r="J61" s="9">
-        <f>ROUNDUP((P61*$B$32/100),0)</f>
+        <f t="shared" si="45"/>
         <v>4594</v>
       </c>
       <c r="K61" s="9">
-        <f>ROUNDUP((P61*$B$33/100),0)</f>
+        <f t="shared" si="46"/>
         <v>6891</v>
       </c>
       <c r="L61" s="9">
-        <f>ROUNDUP((P61*$B$34/100),0)</f>
+        <f t="shared" si="47"/>
         <v>8039</v>
       </c>
       <c r="M61" s="9">
-        <f>L61*$B$43</f>
+        <f t="shared" si="48"/>
         <v>16078</v>
       </c>
       <c r="N61" s="9">
-        <f t="shared" ref="N61" si="31">SUM(H61:L61)</f>
+        <f t="shared" ref="N61" si="52">SUM(H61:L61)</f>
         <v>22970</v>
       </c>
       <c r="O61" s="9">
@@ -8263,23 +8134,23 @@
         <v>0.01</v>
       </c>
       <c r="AA61" s="9">
-        <f>ROUNDUP(((Z41/$B$39)*$B$40)*((100+AF61)/100),0)/100</f>
+        <f t="shared" ref="AA61:AA75" si="53">ROUNDUP(((Z41/$B$39)*$B$40)*((100+AF61)/100),0)/100</f>
         <v>0.22</v>
       </c>
       <c r="AB61" s="9">
-        <f>ROUNDUP(((AA41/$B$39)*$B$40)*((100+AF61)/100),0)/100</f>
+        <f t="shared" ref="AB61:AB75" si="54">ROUNDUP(((AA41/$B$39)*$B$40)*((100+AF61)/100),0)/100</f>
         <v>0.44</v>
       </c>
       <c r="AC61" s="9">
-        <f>ROUNDUP(((AB41/$B$39)*$B$40)*((100+AF61)/100),0)/100</f>
+        <f t="shared" ref="AC61:AC75" si="55">ROUNDUP(((AB41/$B$39)*$B$40)*((100+AF61)/100),0)/100</f>
         <v>0.87</v>
       </c>
       <c r="AD61" s="9">
-        <f>ROUNDUP(((AC41/$B$39)*$B$40)*((100+AF61)/100),0)/100</f>
+        <f t="shared" ref="AD61:AD75" si="56">ROUNDUP(((AC41/$B$39)*$B$40)*((100+AF61)/100),0)/100</f>
         <v>1.3</v>
       </c>
       <c r="AE61" s="9">
-        <f>ROUNDUP(((AD41/$B$39)*$B$40)*((100+AF61)/100),0)/100</f>
+        <f t="shared" ref="AE61:AE75" si="57">ROUNDUP(((AD41/$B$39)*$B$40)*((100+AF61)/100),0)/100</f>
         <v>1.52</v>
       </c>
       <c r="AF61" s="1">
@@ -8291,31 +8162,31 @@
         <v>387</v>
       </c>
       <c r="H62" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="43"/>
         <v>1260</v>
       </c>
       <c r="I62" s="9">
-        <f>ROUNDUP((P62*$B$31/100),0)</f>
+        <f t="shared" si="44"/>
         <v>2520</v>
       </c>
       <c r="J62" s="9">
-        <f>ROUNDUP((P62*$B$32/100),0)</f>
+        <f t="shared" si="45"/>
         <v>5040</v>
       </c>
       <c r="K62" s="9">
-        <f>ROUNDUP((P62*$B$33/100),0)</f>
+        <f t="shared" si="46"/>
         <v>7560</v>
       </c>
       <c r="L62" s="9">
-        <f>ROUNDUP((P62*$B$34/100),0)</f>
+        <f t="shared" si="47"/>
         <v>8820</v>
       </c>
       <c r="M62" s="9">
-        <f>L62*$B$43</f>
+        <f t="shared" si="48"/>
         <v>17640</v>
       </c>
       <c r="N62" s="9">
-        <f t="shared" ref="N62" si="32">SUM(H62:L62)</f>
+        <f t="shared" ref="N62" si="58">SUM(H62:L62)</f>
         <v>25200</v>
       </c>
       <c r="O62" s="9">
@@ -8332,23 +8203,23 @@
         <v>0.02</v>
       </c>
       <c r="AA62" s="9">
-        <f>ROUNDUP(((Z42/$B$39)*$B$40)*((100+AF62)/100),0)/100</f>
+        <f t="shared" si="53"/>
         <v>0.24</v>
       </c>
       <c r="AB62" s="9">
-        <f>ROUNDUP(((AA42/$B$39)*$B$40)*((100+AF62)/100),0)/100</f>
+        <f t="shared" si="54"/>
         <v>0.47</v>
       </c>
       <c r="AC62" s="9">
-        <f>ROUNDUP(((AB42/$B$39)*$B$40)*((100+AF62)/100),0)/100</f>
+        <f t="shared" si="55"/>
         <v>0.93</v>
       </c>
       <c r="AD62" s="9">
-        <f>ROUNDUP(((AC42/$B$39)*$B$40)*((100+AF62)/100),0)/100</f>
+        <f t="shared" si="56"/>
         <v>1.4</v>
       </c>
       <c r="AE62" s="9">
-        <f>ROUNDUP(((AD42/$B$39)*$B$40)*((100+AF62)/100),0)/100</f>
+        <f t="shared" si="57"/>
         <v>1.63</v>
       </c>
       <c r="AF62" s="1">
@@ -8360,31 +8231,31 @@
         <v>418</v>
       </c>
       <c r="H63" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="43"/>
         <v>1377</v>
       </c>
       <c r="I63" s="9">
-        <f>ROUNDUP((P63*$B$31/100),0)</f>
+        <f t="shared" si="44"/>
         <v>2753</v>
       </c>
       <c r="J63" s="9">
-        <f>ROUNDUP((P63*$B$32/100),0)</f>
+        <f t="shared" si="45"/>
         <v>5506</v>
       </c>
       <c r="K63" s="9">
-        <f>ROUNDUP((P63*$B$33/100),0)</f>
+        <f t="shared" si="46"/>
         <v>8259</v>
       </c>
       <c r="L63" s="9">
-        <f>ROUNDUP((P63*$B$34/100),0)</f>
+        <f t="shared" si="47"/>
         <v>9635</v>
       </c>
       <c r="M63" s="9">
-        <f>L63*$B$43</f>
+        <f t="shared" si="48"/>
         <v>19270</v>
       </c>
       <c r="N63" s="9">
-        <f t="shared" ref="N63" si="33">SUM(H63:L63)</f>
+        <f t="shared" ref="N63" si="59">SUM(H63:L63)</f>
         <v>27530</v>
       </c>
       <c r="O63" s="9">
@@ -8401,23 +8272,23 @@
         <v>0.03</v>
       </c>
       <c r="AA63" s="9">
-        <f>ROUNDUP(((Z43/$B$39)*$B$40)*((100+AF63)/100),0)/100</f>
+        <f t="shared" si="53"/>
         <v>0.25</v>
       </c>
       <c r="AB63" s="9">
-        <f>ROUNDUP(((AA43/$B$39)*$B$40)*((100+AF63)/100),0)/100</f>
+        <f t="shared" si="54"/>
         <v>0.5</v>
       </c>
       <c r="AC63" s="9">
-        <f>ROUNDUP(((AB43/$B$39)*$B$40)*((100+AF63)/100),0)/100</f>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="AD63" s="9">
-        <f>ROUNDUP(((AC43/$B$39)*$B$40)*((100+AF63)/100),0)/100</f>
+        <f t="shared" si="56"/>
         <v>1.5</v>
       </c>
       <c r="AE63" s="9">
-        <f>ROUNDUP(((AD43/$B$39)*$B$40)*((100+AF63)/100),0)/100</f>
+        <f t="shared" si="57"/>
         <v>1.75</v>
       </c>
       <c r="AF63" s="1">
@@ -8429,31 +8300,31 @@
         <v>431</v>
       </c>
       <c r="H64" s="9">
-        <f t="shared" ref="H64:H65" si="34">ROUNDUP((P64*$B$30/100),0)</f>
+        <f t="shared" ref="H64:H65" si="60">ROUNDUP((P64*$B$30/100),0)</f>
         <v>1545</v>
       </c>
       <c r="I64" s="9">
-        <f>ROUNDUP((P64*$B$31/100),0)</f>
+        <f t="shared" si="44"/>
         <v>3089</v>
       </c>
       <c r="J64" s="9">
-        <f>ROUNDUP((P64*$B$32/100),0)</f>
+        <f t="shared" si="45"/>
         <v>6178</v>
       </c>
       <c r="K64" s="9">
-        <f>ROUNDUP((P64*$B$33/100),0)</f>
+        <f t="shared" si="46"/>
         <v>9267</v>
       </c>
       <c r="L64" s="9">
-        <f>ROUNDUP((P64*$B$34/100),0)</f>
+        <f t="shared" si="47"/>
         <v>10811</v>
       </c>
       <c r="M64" s="9">
-        <f>L64*$B$43</f>
+        <f t="shared" si="48"/>
         <v>21622</v>
       </c>
       <c r="N64" s="9">
-        <f t="shared" ref="N64" si="35">SUM(H64:L64)</f>
+        <f t="shared" ref="N64" si="61">SUM(H64:L64)</f>
         <v>30890</v>
       </c>
       <c r="O64" s="9">
@@ -8470,23 +8341,23 @@
         <v>0.04</v>
       </c>
       <c r="AA64" s="9">
-        <f>ROUNDUP(((Z44/$B$39)*$B$40)*((100+AF64)/100),0)/100</f>
+        <f t="shared" si="53"/>
         <v>0.27</v>
       </c>
       <c r="AB64" s="9">
-        <f>ROUNDUP(((AA44/$B$39)*$B$40)*((100+AF64)/100),0)/100</f>
+        <f t="shared" si="54"/>
         <v>0.54</v>
       </c>
       <c r="AC64" s="9">
-        <f>ROUNDUP(((AB44/$B$39)*$B$40)*((100+AF64)/100),0)/100</f>
+        <f t="shared" si="55"/>
         <v>1.07</v>
       </c>
       <c r="AD64" s="9">
-        <f>ROUNDUP(((AC44/$B$39)*$B$40)*((100+AF64)/100),0)/100</f>
+        <f t="shared" si="56"/>
         <v>1.6</v>
       </c>
       <c r="AE64" s="9">
-        <f>ROUNDUP(((AD44/$B$39)*$B$40)*((100+AF64)/100),0)/100</f>
+        <f t="shared" si="57"/>
         <v>1.87</v>
       </c>
       <c r="AF64" s="1">
@@ -8498,31 +8369,31 @@
         <v>451</v>
       </c>
       <c r="H65" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="60"/>
         <v>1722</v>
       </c>
       <c r="I65" s="9">
-        <f>ROUNDUP((P65*$B$31/100),0)</f>
+        <f t="shared" si="44"/>
         <v>3444</v>
       </c>
       <c r="J65" s="9">
-        <f>ROUNDUP((P65*$B$32/100),0)</f>
+        <f t="shared" si="45"/>
         <v>6888</v>
       </c>
       <c r="K65" s="9">
-        <f>ROUNDUP((P65*$B$33/100),0)</f>
+        <f t="shared" si="46"/>
         <v>10332</v>
       </c>
       <c r="L65" s="9">
-        <f>ROUNDUP((P65*$B$34/100),0)</f>
+        <f t="shared" si="47"/>
         <v>12054</v>
       </c>
       <c r="M65" s="9">
-        <f>L65*$B$43</f>
+        <f t="shared" si="48"/>
         <v>24108</v>
       </c>
       <c r="N65" s="9">
-        <f t="shared" ref="N65" si="36">SUM(H65:L65)</f>
+        <f t="shared" ref="N65:N66" si="62">SUM(H65:L65)</f>
         <v>34440</v>
       </c>
       <c r="O65" s="9">
@@ -8539,23 +8410,23 @@
         <v>0.05</v>
       </c>
       <c r="AA65" s="9">
-        <f>ROUNDUP(((Z45/$B$39)*$B$40)*((100+AF65)/100),0)/100</f>
+        <f t="shared" si="53"/>
         <v>0.3</v>
       </c>
       <c r="AB65" s="9">
-        <f>ROUNDUP(((AA45/$B$39)*$B$40)*((100+AF65)/100),0)/100</f>
+        <f t="shared" si="54"/>
         <v>0.59</v>
       </c>
       <c r="AC65" s="9">
-        <f>ROUNDUP(((AB45/$B$39)*$B$40)*((100+AF65)/100),0)/100</f>
+        <f t="shared" si="55"/>
         <v>1.18</v>
       </c>
       <c r="AD65" s="9">
-        <f>ROUNDUP(((AC45/$B$39)*$B$40)*((100+AF65)/100),0)/100</f>
+        <f t="shared" si="56"/>
         <v>1.77</v>
       </c>
       <c r="AE65" s="9">
-        <f>ROUNDUP(((AD45/$B$39)*$B$40)*((100+AF65)/100),0)/100</f>
+        <f t="shared" si="57"/>
         <v>2.06</v>
       </c>
       <c r="AF65" s="1">
@@ -8563,6 +8434,44 @@
       </c>
     </row>
     <row r="66" spans="7:32">
+      <c r="G66" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="H66" s="9">
+        <f t="shared" ref="H66" si="63">ROUNDUP((P66*$B$30/100),0)</f>
+        <v>1910</v>
+      </c>
+      <c r="I66" s="9">
+        <f t="shared" ref="I66" si="64">ROUNDUP((P66*$B$31/100),0)</f>
+        <v>3819</v>
+      </c>
+      <c r="J66" s="9">
+        <f t="shared" ref="J66" si="65">ROUNDUP((P66*$B$32/100),0)</f>
+        <v>7637</v>
+      </c>
+      <c r="K66" s="9">
+        <f t="shared" ref="K66" si="66">ROUNDUP((P66*$B$33/100),0)</f>
+        <v>11456</v>
+      </c>
+      <c r="L66" s="9">
+        <f t="shared" ref="L66" si="67">ROUNDUP((P66*$B$34/100),0)</f>
+        <v>13365</v>
+      </c>
+      <c r="M66" s="9">
+        <f t="shared" si="48"/>
+        <v>26730</v>
+      </c>
+      <c r="N66" s="9">
+        <f t="shared" si="62"/>
+        <v>38187</v>
+      </c>
+      <c r="O66" s="9">
+        <v>340</v>
+      </c>
+      <c r="P66" s="9">
+        <f>(H32*($B$9)*$B$18)*(O66/100)+I32</f>
+        <v>38184</v>
+      </c>
       <c r="Y66" s="9" t="s">
         <v>203</v>
       </c>
@@ -8570,23 +8479,23 @@
         <v>0.06</v>
       </c>
       <c r="AA66" s="9">
-        <f>ROUNDUP(((Z46/$B$39)*$B$40)*((100+AF66)/100),0)/100</f>
+        <f t="shared" si="53"/>
         <v>0.33</v>
       </c>
       <c r="AB66" s="9">
-        <f>ROUNDUP(((AA46/$B$39)*$B$40)*((100+AF66)/100),0)/100</f>
+        <f t="shared" si="54"/>
         <v>0.65</v>
       </c>
       <c r="AC66" s="9">
-        <f>ROUNDUP(((AB46/$B$39)*$B$40)*((100+AF66)/100),0)/100</f>
+        <f t="shared" si="55"/>
         <v>1.3</v>
       </c>
       <c r="AD66" s="9">
-        <f>ROUNDUP(((AC46/$B$39)*$B$40)*((100+AF66)/100),0)/100</f>
+        <f t="shared" si="56"/>
         <v>1.94</v>
       </c>
       <c r="AE66" s="9">
-        <f>ROUNDUP(((AD46/$B$39)*$B$40)*((100+AF66)/100),0)/100</f>
+        <f t="shared" si="57"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="AF66" s="1">
@@ -8601,23 +8510,23 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AA67" s="9">
-        <f>ROUNDUP(((Z47/$B$39)*$B$40)*((100+AF67)/100),0)/100</f>
+        <f t="shared" si="53"/>
         <v>0.36</v>
       </c>
       <c r="AB67" s="9">
-        <f>ROUNDUP(((AA47/$B$39)*$B$40)*((100+AF67)/100),0)/100</f>
+        <f t="shared" si="54"/>
         <v>0.71</v>
       </c>
       <c r="AC67" s="9">
-        <f>ROUNDUP(((AB47/$B$39)*$B$40)*((100+AF67)/100),0)/100</f>
+        <f t="shared" si="55"/>
         <v>1.42</v>
       </c>
       <c r="AD67" s="9">
-        <f>ROUNDUP(((AC47/$B$39)*$B$40)*((100+AF67)/100),0)/100</f>
+        <f t="shared" si="56"/>
         <v>2.12</v>
       </c>
       <c r="AE67" s="9">
-        <f>ROUNDUP(((AD47/$B$39)*$B$40)*((100+AF67)/100),0)/100</f>
+        <f t="shared" si="57"/>
         <v>2.4700000000000002</v>
       </c>
       <c r="AF67" s="1">
@@ -8632,23 +8541,23 @@
         <v>0.08</v>
       </c>
       <c r="AA68" s="9">
-        <f>ROUNDUP(((Z48/$B$39)*$B$40)*((100+AF68)/100),0)/100</f>
+        <f t="shared" si="53"/>
         <v>0.4</v>
       </c>
       <c r="AB68" s="9">
-        <f>ROUNDUP(((AA48/$B$39)*$B$40)*((100+AF68)/100),0)/100</f>
+        <f t="shared" si="54"/>
         <v>0.79</v>
       </c>
       <c r="AC68" s="9">
-        <f>ROUNDUP(((AB48/$B$39)*$B$40)*((100+AF68)/100),0)/100</f>
+        <f t="shared" si="55"/>
         <v>1.58</v>
       </c>
       <c r="AD68" s="9">
-        <f>ROUNDUP(((AC48/$B$39)*$B$40)*((100+AF68)/100),0)/100</f>
+        <f t="shared" si="56"/>
         <v>2.37</v>
       </c>
       <c r="AE68" s="9">
-        <f>ROUNDUP(((AD48/$B$39)*$B$40)*((100+AF68)/100),0)/100</f>
+        <f t="shared" si="57"/>
         <v>2.76</v>
       </c>
       <c r="AF68" s="1">
@@ -8663,23 +8572,23 @@
         <v>0.09</v>
       </c>
       <c r="AA69" s="9">
-        <f>ROUNDUP(((Z49/$B$39)*$B$40)*((100+AF69)/100),0)/100</f>
+        <f t="shared" si="53"/>
         <v>0.57999999999999996</v>
       </c>
       <c r="AB69" s="9">
-        <f>ROUNDUP(((AA49/$B$39)*$B$40)*((100+AF69)/100),0)/100</f>
+        <f t="shared" si="54"/>
         <v>1.1599999999999999</v>
       </c>
       <c r="AC69" s="9">
-        <f>ROUNDUP(((AB49/$B$39)*$B$40)*((100+AF69)/100),0)/100</f>
+        <f t="shared" si="55"/>
         <v>2.31</v>
       </c>
       <c r="AD69" s="9">
-        <f>ROUNDUP(((AC49/$B$39)*$B$40)*((100+AF69)/100),0)/100</f>
+        <f t="shared" si="56"/>
         <v>3.46</v>
       </c>
       <c r="AE69" s="9">
-        <f>ROUNDUP(((AD49/$B$39)*$B$40)*((100+AF69)/100),0)/100</f>
+        <f t="shared" si="57"/>
         <v>4.04</v>
       </c>
       <c r="AF69" s="1">
@@ -8707,23 +8616,23 @@
         <v>0.1</v>
       </c>
       <c r="AA70" s="9">
-        <f>ROUNDUP(((Z50/$B$39)*$B$40)*((100+AF70)/100),0)/100</f>
+        <f t="shared" si="53"/>
         <v>0.65</v>
       </c>
       <c r="AB70" s="9">
-        <f>ROUNDUP(((AA50/$B$39)*$B$40)*((100+AF70)/100),0)/100</f>
+        <f t="shared" si="54"/>
         <v>1.29</v>
       </c>
       <c r="AC70" s="9">
-        <f>ROUNDUP(((AB50/$B$39)*$B$40)*((100+AF70)/100),0)/100</f>
+        <f t="shared" si="55"/>
         <v>2.58</v>
       </c>
       <c r="AD70" s="9">
-        <f>ROUNDUP(((AC50/$B$39)*$B$40)*((100+AF70)/100),0)/100</f>
+        <f t="shared" si="56"/>
         <v>3.87</v>
       </c>
       <c r="AE70" s="9">
-        <f>ROUNDUP(((AD50/$B$39)*$B$40)*((100+AF70)/100),0)/100</f>
+        <f t="shared" si="57"/>
         <v>4.51</v>
       </c>
       <c r="AF70" s="1">
@@ -8774,23 +8683,23 @@
         <v>0.11</v>
       </c>
       <c r="AA71" s="9">
-        <f>ROUNDUP(((Z51/$B$39)*$B$40)*((100+AF71)/100),0)/100</f>
+        <f t="shared" si="53"/>
         <v>0.72</v>
       </c>
       <c r="AB71" s="9">
-        <f>ROUNDUP(((AA51/$B$39)*$B$40)*((100+AF71)/100),0)/100</f>
+        <f t="shared" si="54"/>
         <v>1.44</v>
       </c>
       <c r="AC71" s="9">
-        <f>ROUNDUP(((AB51/$B$39)*$B$40)*((100+AF71)/100),0)/100</f>
+        <f t="shared" si="55"/>
         <v>2.87</v>
       </c>
       <c r="AD71" s="9">
-        <f>ROUNDUP(((AC51/$B$39)*$B$40)*((100+AF71)/100),0)/100</f>
+        <f t="shared" si="56"/>
         <v>4.3</v>
       </c>
       <c r="AE71" s="9">
-        <f>ROUNDUP(((AD51/$B$39)*$B$40)*((100+AF71)/100),0)/100</f>
+        <f t="shared" si="57"/>
         <v>5.01</v>
       </c>
       <c r="AF71" s="1">
@@ -8805,34 +8714,34 @@
         <v>0.01</v>
       </c>
       <c r="I72" s="9">
-        <f>ROUNDUP(((H41/$B$39)*$B$40)*((100+O72)/100),0)/100</f>
+        <f t="shared" ref="I72:I81" si="68">ROUNDUP(((H41/$B$39)*$B$40)*((100+O72)/100),0)/100</f>
         <v>0.02</v>
       </c>
       <c r="J72" s="9">
-        <f>ROUNDUP(((I41/$B$39)*$B$40)*((100+O72)/100),0)/100</f>
+        <f t="shared" ref="J72:J81" si="69">ROUNDUP(((I41/$B$39)*$B$40)*((100+O72)/100),0)/100</f>
         <v>0.03</v>
       </c>
       <c r="K72" s="9">
-        <f>ROUNDUP(((J41/$B$39)*$B$40)*((100+O72)/100),0)/100</f>
+        <f t="shared" ref="K72:K81" si="70">ROUNDUP(((J41/$B$39)*$B$40)*((100+O72)/100),0)/100</f>
         <v>0.06</v>
       </c>
       <c r="L72" s="9">
-        <f>ROUNDUP(((K41/$B$39)*$B$40)*((100+O72)/100),0)/100</f>
+        <f t="shared" ref="L72:L81" si="71">ROUNDUP(((K41/$B$39)*$B$40)*((100+O72)/100),0)/100</f>
         <v>0.09</v>
       </c>
       <c r="M72" s="9">
-        <f>ROUNDUP(((L41/$B$39)*$B$40)*((100+O72)/100),0)/100</f>
+        <f t="shared" ref="M72:M81" si="72">ROUNDUP(((L41/$B$39)*$B$40)*((100+O72)/100),0)/100</f>
         <v>0.1</v>
       </c>
       <c r="N72" s="9">
-        <f>ROUNDUP(((M41/$B$39)*$B$40)*((100+O72)/100),0)/100</f>
+        <f t="shared" ref="N72:N81" si="73">ROUNDUP(((M41/$B$39)*$B$40)*((100+O72)/100),0)/100</f>
         <v>0.2</v>
       </c>
       <c r="O72" s="10">
         <v>10</v>
       </c>
       <c r="P72" s="10">
-        <f t="shared" ref="P72:P84" si="37">SUM(H72:M72)</f>
+        <f t="shared" ref="P72:P84" si="74">SUM(H72:M72)</f>
         <v>0.31</v>
       </c>
       <c r="Q72" s="9">
@@ -8840,7 +8749,7 @@
         <v>0.2</v>
       </c>
       <c r="R72" s="10">
-        <f t="shared" ref="R72:R92" si="38">((P72+Q72)/$P$70)*100</f>
+        <f t="shared" ref="R72:R92" si="75">((P72+Q72)/$P$70)*100</f>
         <v>2.3087369850611137</v>
       </c>
       <c r="Y72" s="9" t="s">
@@ -8850,23 +8759,23 @@
         <v>0.12</v>
       </c>
       <c r="AA72" s="9">
-        <f>ROUNDUP(((Z52/$B$39)*$B$40)*((100+AF72)/100),0)/100</f>
+        <f t="shared" si="53"/>
         <v>0.85</v>
       </c>
       <c r="AB72" s="9">
-        <f>ROUNDUP(((AA52/$B$39)*$B$40)*((100+AF72)/100),0)/100</f>
+        <f t="shared" si="54"/>
         <v>1.7</v>
       </c>
       <c r="AC72" s="9">
-        <f>ROUNDUP(((AB52/$B$39)*$B$40)*((100+AF72)/100),0)/100</f>
+        <f t="shared" si="55"/>
         <v>3.39</v>
       </c>
       <c r="AD72" s="9">
-        <f>ROUNDUP(((AC52/$B$39)*$B$40)*((100+AF72)/100),0)/100</f>
+        <f t="shared" si="56"/>
         <v>5.09</v>
       </c>
       <c r="AE72" s="9">
-        <f>ROUNDUP(((AD52/$B$39)*$B$40)*((100+AF72)/100),0)/100</f>
+        <f t="shared" si="57"/>
         <v>5.93</v>
       </c>
       <c r="AF72" s="1">
@@ -8881,42 +8790,42 @@
         <v>0.01</v>
       </c>
       <c r="I73" s="9">
-        <f>ROUNDUP(((H42/$B$39)*$B$40)*((100+O73)/100),0)/100</f>
+        <f t="shared" si="68"/>
         <v>0.02</v>
       </c>
       <c r="J73" s="9">
-        <f>ROUNDUP(((I42/$B$39)*$B$40)*((100+O73)/100),0)/100</f>
+        <f t="shared" si="69"/>
         <v>0.04</v>
       </c>
       <c r="K73" s="9">
-        <f>ROUNDUP(((J42/$B$39)*$B$40)*((100+O73)/100),0)/100</f>
+        <f t="shared" si="70"/>
         <v>0.08</v>
       </c>
       <c r="L73" s="9">
-        <f>ROUNDUP(((K42/$B$39)*$B$40)*((100+O73)/100),0)/100</f>
+        <f t="shared" si="71"/>
         <v>0.12</v>
       </c>
       <c r="M73" s="9">
-        <f>ROUNDUP(((L42/$B$39)*$B$40)*((100+O73)/100),0)/100</f>
+        <f t="shared" si="72"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="N73" s="9">
-        <f>ROUNDUP(((M42/$B$39)*$B$40)*((100+O73)/100),0)/100</f>
+        <f t="shared" si="73"/>
         <v>0.27</v>
       </c>
       <c r="O73" s="10">
         <v>20</v>
       </c>
       <c r="P73" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="74"/>
         <v>0.41000000000000003</v>
       </c>
       <c r="Q73" s="9">
-        <f t="shared" ref="Q73:Q92" si="39">N73</f>
+        <f t="shared" ref="Q73:Q92" si="76">N73</f>
         <v>0.27</v>
       </c>
       <c r="R73" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="75"/>
         <v>3.0783159800814848</v>
       </c>
       <c r="Y73" s="9" t="s">
@@ -8926,23 +8835,23 @@
         <v>0.13</v>
       </c>
       <c r="AA73" s="9">
-        <f>ROUNDUP(((Z53/$B$39)*$B$40)*((100+AF73)/100),0)/100</f>
+        <f t="shared" si="53"/>
         <v>0.93</v>
       </c>
       <c r="AB73" s="9">
-        <f>ROUNDUP(((AA53/$B$39)*$B$40)*((100+AF73)/100),0)/100</f>
+        <f t="shared" si="54"/>
         <v>1.86</v>
       </c>
       <c r="AC73" s="9">
-        <f>ROUNDUP(((AB53/$B$39)*$B$40)*((100+AF73)/100),0)/100</f>
+        <f t="shared" si="55"/>
         <v>3.72</v>
       </c>
       <c r="AD73" s="9">
-        <f>ROUNDUP(((AC53/$B$39)*$B$40)*((100+AF73)/100),0)/100</f>
+        <f t="shared" si="56"/>
         <v>5.58</v>
       </c>
       <c r="AE73" s="9">
-        <f>ROUNDUP(((AD53/$B$39)*$B$40)*((100+AF73)/100),0)/100</f>
+        <f t="shared" si="57"/>
         <v>6.5</v>
       </c>
       <c r="AF73" s="1">
@@ -8957,42 +8866,42 @@
         <v>0.02</v>
       </c>
       <c r="I74" s="9">
-        <f>ROUNDUP(((H43/$B$39)*$B$40)*((100+O74)/100),0)/100</f>
+        <f t="shared" si="68"/>
         <v>0.03</v>
       </c>
       <c r="J74" s="9">
-        <f>ROUNDUP(((I43/$B$39)*$B$40)*((100+O74)/100),0)/100</f>
+        <f t="shared" si="69"/>
         <v>0.05</v>
       </c>
       <c r="K74" s="9">
-        <f>ROUNDUP(((J43/$B$39)*$B$40)*((100+O74)/100),0)/100</f>
+        <f t="shared" si="70"/>
         <v>0.1</v>
       </c>
       <c r="L74" s="9">
-        <f>ROUNDUP(((K43/$B$39)*$B$40)*((100+O74)/100),0)/100</f>
+        <f t="shared" si="71"/>
         <v>0.15</v>
       </c>
       <c r="M74" s="9">
-        <f>ROUNDUP(((L43/$B$39)*$B$40)*((100+O74)/100),0)/100</f>
+        <f t="shared" si="72"/>
         <v>0.18</v>
       </c>
       <c r="N74" s="9">
-        <f>ROUNDUP(((M43/$B$39)*$B$40)*((100+O74)/100),0)/100</f>
+        <f t="shared" si="73"/>
         <v>0.35</v>
       </c>
       <c r="O74" s="10">
         <v>30</v>
       </c>
       <c r="P74" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="74"/>
         <v>0.53</v>
       </c>
       <c r="Q74" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="76"/>
         <v>0.35</v>
       </c>
       <c r="R74" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="75"/>
         <v>3.9837030330466274</v>
       </c>
       <c r="Y74" s="9" t="s">
@@ -9002,23 +8911,23 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="AA74" s="9">
-        <f>ROUNDUP(((Z54/$B$39)*$B$40)*((100+AF74)/100),0)/100</f>
+        <f t="shared" si="53"/>
         <v>1.02</v>
       </c>
       <c r="AB74" s="9">
-        <f>ROUNDUP(((AA54/$B$39)*$B$40)*((100+AF74)/100),0)/100</f>
+        <f t="shared" si="54"/>
         <v>2.0299999999999998</v>
       </c>
       <c r="AC74" s="9">
-        <f>ROUNDUP(((AB54/$B$39)*$B$40)*((100+AF74)/100),0)/100</f>
+        <f t="shared" si="55"/>
         <v>4.0599999999999996</v>
       </c>
       <c r="AD74" s="9">
-        <f>ROUNDUP(((AC54/$B$39)*$B$40)*((100+AF74)/100),0)/100</f>
+        <f t="shared" si="56"/>
         <v>6.09</v>
       </c>
       <c r="AE74" s="9">
-        <f>ROUNDUP(((AD54/$B$39)*$B$40)*((100+AF74)/100),0)/100</f>
+        <f t="shared" si="57"/>
         <v>7.1</v>
       </c>
       <c r="AF74" s="1">
@@ -9033,42 +8942,42 @@
         <v>0.02</v>
       </c>
       <c r="I75" s="9">
-        <f>ROUNDUP(((H44/$B$39)*$B$40)*((100+O75)/100),0)/100</f>
+        <f t="shared" si="68"/>
         <v>0.04</v>
       </c>
       <c r="J75" s="9">
-        <f>ROUNDUP(((I44/$B$39)*$B$40)*((100+O75)/100),0)/100</f>
+        <f t="shared" si="69"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="K75" s="9">
-        <f>ROUNDUP(((J44/$B$39)*$B$40)*((100+O75)/100),0)/100</f>
+        <f t="shared" si="70"/>
         <v>0.13</v>
       </c>
       <c r="L75" s="9">
-        <f>ROUNDUP(((K44/$B$39)*$B$40)*((100+O75)/100),0)/100</f>
+        <f t="shared" si="71"/>
         <v>0.19</v>
       </c>
       <c r="M75" s="9">
-        <f>ROUNDUP(((L44/$B$39)*$B$40)*((100+O75)/100),0)/100</f>
+        <f t="shared" si="72"/>
         <v>0.22</v>
       </c>
       <c r="N75" s="9">
-        <f>ROUNDUP(((M44/$B$39)*$B$40)*((100+O75)/100),0)/100</f>
+        <f t="shared" si="73"/>
         <v>0.44</v>
       </c>
       <c r="O75" s="10">
         <v>40</v>
       </c>
       <c r="P75" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="74"/>
         <v>0.67</v>
       </c>
       <c r="Q75" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="76"/>
         <v>0.44</v>
       </c>
       <c r="R75" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="75"/>
         <v>5.0248981439565421</v>
       </c>
       <c r="Y75" s="9" t="s">
@@ -9078,23 +8987,23 @@
         <v>0.15</v>
       </c>
       <c r="AA75" s="9">
-        <f>ROUNDUP(((Z55/$B$39)*$B$40)*((100+AF75)/100),0)/100</f>
+        <f t="shared" si="53"/>
         <v>1.1100000000000001</v>
       </c>
       <c r="AB75" s="9">
-        <f>ROUNDUP(((AA55/$B$39)*$B$40)*((100+AF75)/100),0)/100</f>
+        <f t="shared" si="54"/>
         <v>2.21</v>
       </c>
       <c r="AC75" s="9">
-        <f>ROUNDUP(((AB55/$B$39)*$B$40)*((100+AF75)/100),0)/100</f>
+        <f t="shared" si="55"/>
         <v>4.41</v>
       </c>
       <c r="AD75" s="9">
-        <f>ROUNDUP(((AC55/$B$39)*$B$40)*((100+AF75)/100),0)/100</f>
+        <f t="shared" si="56"/>
         <v>6.62</v>
       </c>
       <c r="AE75" s="9">
-        <f>ROUNDUP(((AD55/$B$39)*$B$40)*((100+AF75)/100),0)/100</f>
+        <f t="shared" si="57"/>
         <v>7.72</v>
       </c>
       <c r="AF75" s="1">
@@ -9109,42 +9018,42 @@
         <v>0.03</v>
       </c>
       <c r="I76" s="9">
-        <f>ROUNDUP(((H45/$B$39)*$B$40)*((100+O76)/100),0)/100</f>
+        <f t="shared" si="68"/>
         <v>0.04</v>
       </c>
       <c r="J76" s="9">
-        <f>ROUNDUP(((I45/$B$39)*$B$40)*((100+O76)/100),0)/100</f>
+        <f t="shared" si="69"/>
         <v>0.08</v>
       </c>
       <c r="K76" s="9">
-        <f>ROUNDUP(((J45/$B$39)*$B$40)*((100+O76)/100),0)/100</f>
+        <f t="shared" si="70"/>
         <v>0.16</v>
       </c>
       <c r="L76" s="9">
-        <f>ROUNDUP(((K45/$B$39)*$B$40)*((100+O76)/100),0)/100</f>
+        <f t="shared" si="71"/>
         <v>0.24</v>
       </c>
       <c r="M76" s="9">
-        <f>ROUNDUP(((L45/$B$39)*$B$40)*((100+O76)/100),0)/100</f>
+        <f t="shared" si="72"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="N76" s="9">
-        <f>ROUNDUP(((M45/$B$39)*$B$40)*((100+O76)/100),0)/100</f>
+        <f t="shared" si="73"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="O76" s="10">
         <v>50</v>
       </c>
       <c r="P76" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="74"/>
         <v>0.83000000000000007</v>
       </c>
       <c r="Q76" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="76"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="R76" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="75"/>
         <v>6.2471706654594845</v>
       </c>
     </row>
@@ -9156,42 +9065,42 @@
         <v>0.03</v>
       </c>
       <c r="I77" s="9">
-        <f>ROUNDUP(((H46/$B$39)*$B$40)*((100+O77)/100),0)/100</f>
+        <f t="shared" si="68"/>
         <v>0.05</v>
       </c>
       <c r="J77" s="9">
-        <f>ROUNDUP(((I46/$B$39)*$B$40)*((100+O77)/100),0)/100</f>
+        <f t="shared" si="69"/>
         <v>0.1</v>
       </c>
       <c r="K77" s="9">
-        <f>ROUNDUP(((J46/$B$39)*$B$40)*((100+O77)/100),0)/100</f>
+        <f t="shared" si="70"/>
         <v>0.2</v>
       </c>
       <c r="L77" s="9">
-        <f>ROUNDUP(((K46/$B$39)*$B$40)*((100+O77)/100),0)/100</f>
+        <f t="shared" si="71"/>
         <v>0.28999999999999998</v>
       </c>
       <c r="M77" s="9">
-        <f>ROUNDUP(((L46/$B$39)*$B$40)*((100+O77)/100),0)/100</f>
+        <f t="shared" si="72"/>
         <v>0.34</v>
       </c>
       <c r="N77" s="9">
-        <f>ROUNDUP(((M46/$B$39)*$B$40)*((100+O77)/100),0)/100</f>
+        <f t="shared" si="73"/>
         <v>0.68</v>
       </c>
       <c r="O77" s="10">
         <v>60</v>
       </c>
       <c r="P77" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="74"/>
         <v>1.01</v>
       </c>
       <c r="Q77" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="76"/>
         <v>0.68</v>
       </c>
       <c r="R77" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="75"/>
         <v>7.6505205975554542</v>
       </c>
     </row>
@@ -9203,42 +9112,42 @@
         <v>0.04</v>
       </c>
       <c r="I78" s="9">
-        <f>ROUNDUP(((H47/$B$39)*$B$40)*((100+O78)/100),0)/100</f>
+        <f t="shared" si="68"/>
         <v>0.06</v>
       </c>
       <c r="J78" s="9">
-        <f>ROUNDUP(((I47/$B$39)*$B$40)*((100+O78)/100),0)/100</f>
+        <f t="shared" si="69"/>
         <v>0.12</v>
       </c>
       <c r="K78" s="9">
-        <f>ROUNDUP(((J47/$B$39)*$B$40)*((100+O78)/100),0)/100</f>
+        <f t="shared" si="70"/>
         <v>0.24</v>
       </c>
       <c r="L78" s="9">
-        <f>ROUNDUP(((K47/$B$39)*$B$40)*((100+O78)/100),0)/100</f>
+        <f t="shared" si="71"/>
         <v>0.35</v>
       </c>
       <c r="M78" s="9">
-        <f>ROUNDUP(((L47/$B$39)*$B$40)*((100+O78)/100),0)/100</f>
+        <f t="shared" si="72"/>
         <v>0.41</v>
       </c>
       <c r="N78" s="9">
-        <f>ROUNDUP(((M47/$B$39)*$B$40)*((100+O78)/100),0)/100</f>
+        <f t="shared" si="73"/>
         <v>0.82</v>
       </c>
       <c r="O78" s="10">
         <v>70</v>
       </c>
       <c r="P78" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="74"/>
         <v>1.22</v>
       </c>
       <c r="Q78" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="76"/>
         <v>0.82</v>
       </c>
       <c r="R78" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="75"/>
         <v>9.2349479402444548</v>
       </c>
     </row>
@@ -9250,42 +9159,42 @@
         <v>0.04</v>
       </c>
       <c r="I79" s="9">
-        <f>ROUNDUP(((H48/$B$39)*$B$40)*((100+O79)/100),0)/100</f>
+        <f t="shared" si="68"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="J79" s="9">
-        <f>ROUNDUP(((I48/$B$39)*$B$40)*((100+O79)/100),0)/100</f>
+        <f t="shared" si="69"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="K79" s="9">
-        <f>ROUNDUP(((J48/$B$39)*$B$40)*((100+O79)/100),0)/100</f>
+        <f t="shared" si="70"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="L79" s="9">
-        <f>ROUNDUP(((K48/$B$39)*$B$40)*((100+O79)/100),0)/100</f>
+        <f t="shared" si="71"/>
         <v>0.42</v>
       </c>
       <c r="M79" s="9">
-        <f>ROUNDUP(((L48/$B$39)*$B$40)*((100+O79)/100),0)/100</f>
+        <f t="shared" si="72"/>
         <v>0.49</v>
       </c>
       <c r="N79" s="9">
-        <f>ROUNDUP(((M48/$B$39)*$B$40)*((100+O79)/100),0)/100</f>
+        <f t="shared" si="73"/>
         <v>0.98</v>
       </c>
       <c r="O79" s="10">
         <v>80</v>
       </c>
       <c r="P79" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="74"/>
         <v>1.44</v>
       </c>
       <c r="Q79" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="76"/>
         <v>0.98</v>
       </c>
       <c r="R79" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="75"/>
         <v>10.955183340878225</v>
       </c>
     </row>
@@ -9297,42 +9206,42 @@
         <v>0.05</v>
       </c>
       <c r="I80" s="9">
-        <f>ROUNDUP(((H49/$B$39)*$B$40)*((100+O80)/100),0)/100</f>
+        <f t="shared" si="68"/>
         <v>0.09</v>
       </c>
       <c r="J80" s="9">
-        <f>ROUNDUP(((I49/$B$39)*$B$40)*((100+O80)/100),0)/100</f>
+        <f t="shared" si="69"/>
         <v>0.17</v>
       </c>
       <c r="K80" s="9">
-        <f>ROUNDUP(((J49/$B$39)*$B$40)*((100+O80)/100),0)/100</f>
+        <f t="shared" si="70"/>
         <v>0.34</v>
       </c>
       <c r="L80" s="9">
-        <f>ROUNDUP(((K49/$B$39)*$B$40)*((100+O80)/100),0)/100</f>
+        <f t="shared" si="71"/>
         <v>0.5</v>
       </c>
       <c r="M80" s="9">
-        <f>ROUNDUP(((L49/$B$39)*$B$40)*((100+O80)/100),0)/100</f>
+        <f t="shared" si="72"/>
         <v>0.59</v>
       </c>
       <c r="N80" s="9">
-        <f>ROUNDUP(((M49/$B$39)*$B$40)*((100+O80)/100),0)/100</f>
+        <f t="shared" si="73"/>
         <v>1.17</v>
       </c>
       <c r="O80" s="10">
         <v>90</v>
       </c>
       <c r="P80" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="74"/>
         <v>1.7400000000000002</v>
       </c>
       <c r="Q80" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="76"/>
         <v>1.17</v>
       </c>
       <c r="R80" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="75"/>
         <v>13.173381620642827</v>
       </c>
     </row>
@@ -9344,42 +9253,42 @@
         <v>0.05</v>
       </c>
       <c r="I81" s="9">
-        <f>ROUNDUP(((H50/$B$39)*$B$40)*((100+O81)/100),0)/100</f>
+        <f t="shared" si="68"/>
         <v>0.1</v>
       </c>
       <c r="J81" s="9">
-        <f>ROUNDUP(((I50/$B$39)*$B$40)*((100+O81)/100),0)/100</f>
+        <f t="shared" si="69"/>
         <v>0.2</v>
       </c>
       <c r="K81" s="9">
-        <f>ROUNDUP(((J50/$B$39)*$B$40)*((100+O81)/100),0)/100</f>
+        <f t="shared" si="70"/>
         <v>0.4</v>
       </c>
       <c r="L81" s="9">
-        <f>ROUNDUP(((K50/$B$39)*$B$40)*((100+O81)/100),0)/100</f>
+        <f t="shared" si="71"/>
         <v>0.59</v>
       </c>
       <c r="M81" s="9">
-        <f>ROUNDUP(((L50/$B$39)*$B$40)*((100+O81)/100),0)/100</f>
+        <f t="shared" si="72"/>
         <v>0.69</v>
       </c>
       <c r="N81" s="9">
-        <f>ROUNDUP(((M50/$B$39)*$B$40)*((100+O81)/100),0)/100</f>
+        <f t="shared" si="73"/>
         <v>1.38</v>
       </c>
       <c r="O81" s="10">
         <v>100</v>
       </c>
       <c r="P81" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="74"/>
         <v>2.0299999999999998</v>
       </c>
       <c r="Q81" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="76"/>
         <v>1.38</v>
       </c>
       <c r="R81" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="75"/>
         <v>15.436849253055678</v>
       </c>
     </row>
@@ -9391,42 +9300,42 @@
         <v>0.06</v>
       </c>
       <c r="I82" s="9">
-        <f>ROUNDUP(((H53/$B$39)*$B$40)*((100+O82)/100),0)/100</f>
+        <f t="shared" ref="I82:I94" si="77">ROUNDUP(((H53/$B$39)*$B$40)*((100+O82)/100),0)/100</f>
         <v>0.15</v>
       </c>
       <c r="J82" s="9">
-        <f>ROUNDUP(((I53/$B$39)*$B$40)*((100+O82)/100),0)/100</f>
+        <f t="shared" ref="J82:J94" si="78">ROUNDUP(((I53/$B$39)*$B$40)*((100+O82)/100),0)/100</f>
         <v>0.3</v>
       </c>
       <c r="K82" s="9">
-        <f>ROUNDUP(((J53/$B$39)*$B$40)*((100+O82)/100),0)/100</f>
+        <f t="shared" ref="K82:K94" si="79">ROUNDUP(((J53/$B$39)*$B$40)*((100+O82)/100),0)/100</f>
         <v>0.59</v>
       </c>
       <c r="L82" s="9">
-        <f>ROUNDUP(((K53/$B$39)*$B$40)*((100+O82)/100),0)/100</f>
+        <f t="shared" ref="L82:L94" si="80">ROUNDUP(((K53/$B$39)*$B$40)*((100+O82)/100),0)/100</f>
         <v>0.88</v>
       </c>
       <c r="M82" s="9">
-        <f>ROUNDUP(((L53/$B$39)*$B$40)*((100+O82)/100),0)/100</f>
+        <f t="shared" ref="M82:M94" si="81">ROUNDUP(((L53/$B$39)*$B$40)*((100+O82)/100),0)/100</f>
         <v>1.03</v>
       </c>
       <c r="N82" s="9">
-        <f>ROUNDUP(((M53/$B$39)*$B$40)*((100+O82)/100),0)/100</f>
+        <f t="shared" ref="N82:N95" si="82">ROUNDUP(((M53/$B$39)*$B$40)*((100+O82)/100),0)/100</f>
         <v>2.0499999999999998</v>
       </c>
       <c r="O82" s="10">
         <v>110</v>
       </c>
       <c r="P82" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="74"/>
         <v>3.01</v>
       </c>
       <c r="Q82" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="76"/>
         <v>2.0499999999999998</v>
       </c>
       <c r="R82" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="75"/>
         <v>22.906292440018106</v>
       </c>
     </row>
@@ -9438,42 +9347,42 @@
         <v>0.06</v>
       </c>
       <c r="I83" s="9">
-        <f>ROUNDUP(((H54/$B$39)*$B$40)*((100+O83)/100),0)/100</f>
+        <f t="shared" si="77"/>
         <v>0.17</v>
       </c>
       <c r="J83" s="9">
-        <f>ROUNDUP(((I54/$B$39)*$B$40)*((100+O83)/100),0)/100</f>
+        <f t="shared" si="78"/>
         <v>0.33</v>
       </c>
       <c r="K83" s="9">
-        <f>ROUNDUP(((J54/$B$39)*$B$40)*((100+O83)/100),0)/100</f>
+        <f t="shared" si="79"/>
         <v>0.65</v>
       </c>
       <c r="L83" s="9">
-        <f>ROUNDUP(((K54/$B$39)*$B$40)*((100+O83)/100),0)/100</f>
+        <f t="shared" si="80"/>
         <v>0.97</v>
       </c>
       <c r="M83" s="9">
-        <f>ROUNDUP(((L54/$B$39)*$B$40)*((100+O83)/100),0)/100</f>
+        <f t="shared" si="81"/>
         <v>1.1299999999999999</v>
       </c>
       <c r="N83" s="9">
-        <f>ROUNDUP(((M54/$B$39)*$B$40)*((100+O83)/100),0)/100</f>
+        <f t="shared" si="82"/>
         <v>2.25</v>
       </c>
       <c r="O83" s="10">
         <v>120</v>
       </c>
       <c r="P83" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="74"/>
         <v>3.3099999999999996</v>
       </c>
       <c r="Q83" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="76"/>
         <v>2.25</v>
       </c>
       <c r="R83" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="75"/>
         <v>25.169760072430964</v>
       </c>
       <c r="Y83" s="9" t="s">
@@ -9494,42 +9403,42 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I84" s="9">
-        <f>ROUNDUP(((H55/$B$39)*$B$40)*((100+O84)/100),0)/100</f>
+        <f t="shared" si="77"/>
         <v>0.18</v>
       </c>
       <c r="J84" s="9">
-        <f>ROUNDUP(((I55/$B$39)*$B$40)*((100+O84)/100),0)/100</f>
+        <f t="shared" si="78"/>
         <v>0.36</v>
       </c>
       <c r="K84" s="9">
-        <f>ROUNDUP(((J55/$B$39)*$B$40)*((100+O84)/100),0)/100</f>
+        <f t="shared" si="79"/>
         <v>0.71</v>
       </c>
       <c r="L84" s="9">
-        <f>ROUNDUP(((K55/$B$39)*$B$40)*((100+O84)/100),0)/100</f>
+        <f t="shared" si="80"/>
         <v>1.06</v>
       </c>
       <c r="M84" s="9">
-        <f>ROUNDUP(((L55/$B$39)*$B$40)*((100+O84)/100),0)/100</f>
+        <f t="shared" si="81"/>
         <v>1.23</v>
       </c>
       <c r="N84" s="9">
-        <f>ROUNDUP(((M55/$B$39)*$B$40)*((100+O84)/100),0)/100</f>
+        <f t="shared" si="82"/>
         <v>2.46</v>
       </c>
       <c r="O84" s="10">
         <v>130</v>
       </c>
       <c r="P84" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="74"/>
         <v>3.61</v>
       </c>
       <c r="Q84" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="76"/>
         <v>2.46</v>
       </c>
       <c r="R84" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="75"/>
         <v>27.478497057492078</v>
       </c>
       <c r="Y84" s="24" t="s">
@@ -9562,69 +9471,69 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I85" s="9">
-        <f>ROUNDUP(((H56/$B$39)*$B$40)*((100+O85)/100),0)/100</f>
+        <f t="shared" si="77"/>
         <v>0.2</v>
       </c>
       <c r="J85" s="9">
-        <f>ROUNDUP(((I56/$B$39)*$B$40)*((100+O85)/100),0)/100</f>
+        <f t="shared" si="78"/>
         <v>0.4</v>
       </c>
       <c r="K85" s="9">
-        <f>ROUNDUP(((J56/$B$39)*$B$40)*((100+O85)/100),0)/100</f>
+        <f t="shared" si="79"/>
         <v>0.8</v>
       </c>
       <c r="L85" s="9">
-        <f>ROUNDUP(((K56/$B$39)*$B$40)*((100+O85)/100),0)/100</f>
+        <f t="shared" si="80"/>
         <v>1.2</v>
       </c>
       <c r="M85" s="9">
-        <f>ROUNDUP(((L56/$B$39)*$B$40)*((100+O85)/100),0)/100</f>
+        <f t="shared" si="81"/>
         <v>1.4</v>
       </c>
       <c r="N85" s="9">
-        <f>ROUNDUP(((M56/$B$39)*$B$40)*((100+O85)/100),0)/100</f>
+        <f t="shared" si="82"/>
         <v>2.79</v>
       </c>
       <c r="O85" s="10">
         <v>140</v>
       </c>
       <c r="P85" s="10">
-        <f t="shared" ref="P85:P88" si="40">SUM(H85:M85)</f>
+        <f t="shared" ref="P85:P88" si="83">SUM(H85:M85)</f>
         <v>4.07</v>
       </c>
       <c r="Q85" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="76"/>
         <v>2.79</v>
       </c>
       <c r="R85" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="75"/>
         <v>31.05477591670439</v>
       </c>
       <c r="Y85" s="9" t="s">
         <v>198</v>
       </c>
       <c r="Z85" s="9">
-        <f t="shared" ref="Z85:Z99" si="41">Z61</f>
+        <f t="shared" ref="Z85:Z99" si="84">Z61</f>
         <v>0.01</v>
       </c>
       <c r="AA85" s="9">
-        <f t="shared" ref="AA85:AE99" si="42">Z85+AA61</f>
+        <f t="shared" ref="AA85:AE99" si="85">Z85+AA61</f>
         <v>0.23</v>
       </c>
       <c r="AB85" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="85"/>
         <v>0.67</v>
       </c>
       <c r="AC85" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="85"/>
         <v>1.54</v>
       </c>
       <c r="AD85" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="85"/>
         <v>2.84</v>
       </c>
       <c r="AE85" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="85"/>
         <v>4.3599999999999994</v>
       </c>
     </row>
@@ -9636,69 +9545,69 @@
         <v>0.08</v>
       </c>
       <c r="I86" s="9">
-        <f>ROUNDUP(((H57/$B$39)*$B$40)*((100+O86)/100),0)/100</f>
+        <f t="shared" si="77"/>
         <v>0.23</v>
       </c>
       <c r="J86" s="9">
-        <f>ROUNDUP(((I57/$B$39)*$B$40)*((100+O86)/100),0)/100</f>
+        <f t="shared" si="78"/>
         <v>0.45</v>
       </c>
       <c r="K86" s="9">
-        <f>ROUNDUP(((J57/$B$39)*$B$40)*((100+O86)/100),0)/100</f>
+        <f t="shared" si="79"/>
         <v>0.9</v>
       </c>
       <c r="L86" s="9">
-        <f>ROUNDUP(((K57/$B$39)*$B$40)*((100+O86)/100),0)/100</f>
+        <f t="shared" si="80"/>
         <v>1.35</v>
       </c>
       <c r="M86" s="9">
-        <f>ROUNDUP(((L57/$B$39)*$B$40)*((100+O86)/100),0)/100</f>
+        <f t="shared" si="81"/>
         <v>1.58</v>
       </c>
       <c r="N86" s="9">
-        <f>ROUNDUP(((M57/$B$39)*$B$40)*((100+O86)/100),0)/100</f>
+        <f t="shared" si="82"/>
         <v>3.15</v>
       </c>
       <c r="O86" s="10">
         <v>150</v>
       </c>
       <c r="P86" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="83"/>
         <v>4.59</v>
       </c>
       <c r="Q86" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="76"/>
         <v>3.15</v>
       </c>
       <c r="R86" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="75"/>
         <v>35.038478949751017</v>
       </c>
       <c r="Y86" s="9" t="s">
         <v>199</v>
       </c>
       <c r="Z86" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="84"/>
         <v>0.02</v>
       </c>
       <c r="AA86" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="85"/>
         <v>0.26</v>
       </c>
       <c r="AB86" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="85"/>
         <v>0.73</v>
       </c>
       <c r="AC86" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="85"/>
         <v>1.6600000000000001</v>
       </c>
       <c r="AD86" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="85"/>
         <v>3.06</v>
       </c>
       <c r="AE86" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="85"/>
         <v>4.6899999999999995</v>
       </c>
     </row>
@@ -9710,69 +9619,69 @@
         <v>0.08</v>
       </c>
       <c r="I87" s="9">
-        <f>ROUNDUP(((H58/$B$39)*$B$40)*((100+O87)/100),0)/100</f>
+        <f t="shared" si="77"/>
         <v>0.27</v>
       </c>
       <c r="J87" s="9">
-        <f>ROUNDUP(((I58/$B$39)*$B$40)*((100+O87)/100),0)/100</f>
+        <f t="shared" si="78"/>
         <v>0.53</v>
       </c>
       <c r="K87" s="9">
-        <f>ROUNDUP(((J58/$B$39)*$B$40)*((100+O87)/100),0)/100</f>
+        <f t="shared" si="79"/>
         <v>1.06</v>
       </c>
       <c r="L87" s="9">
-        <f>ROUNDUP(((K58/$B$39)*$B$40)*((100+O87)/100),0)/100</f>
+        <f t="shared" si="80"/>
         <v>1.58</v>
       </c>
       <c r="M87" s="9">
-        <f>ROUNDUP(((L58/$B$39)*$B$40)*((100+O87)/100),0)/100</f>
+        <f t="shared" si="81"/>
         <v>1.84</v>
       </c>
       <c r="N87" s="9">
-        <f>ROUNDUP(((M58/$B$39)*$B$40)*((100+O87)/100),0)/100</f>
+        <f t="shared" si="82"/>
         <v>3.68</v>
       </c>
       <c r="O87" s="10">
         <v>160</v>
       </c>
       <c r="P87" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="83"/>
         <v>5.36</v>
       </c>
       <c r="Q87" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="76"/>
         <v>3.68</v>
       </c>
       <c r="R87" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="75"/>
         <v>40.92349479402445</v>
       </c>
       <c r="Y87" s="9" t="s">
         <v>200</v>
       </c>
       <c r="Z87" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="84"/>
         <v>0.03</v>
       </c>
       <c r="AA87" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="85"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="AB87" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="85"/>
         <v>0.78</v>
       </c>
       <c r="AC87" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="85"/>
         <v>1.78</v>
       </c>
       <c r="AD87" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="85"/>
         <v>3.2800000000000002</v>
       </c>
       <c r="AE87" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="85"/>
         <v>5.03</v>
       </c>
     </row>
@@ -9784,42 +9693,42 @@
         <v>0.09</v>
       </c>
       <c r="I88" s="9">
-        <f>ROUNDUP(((H59/$B$39)*$B$40)*((100+O88)/100),0)/100</f>
+        <f t="shared" si="77"/>
         <v>0.32</v>
       </c>
       <c r="J88" s="9">
-        <f>ROUNDUP(((I59/$B$39)*$B$40)*((100+O88)/100),0)/100</f>
+        <f t="shared" si="78"/>
         <v>0.64</v>
       </c>
       <c r="K88" s="9">
-        <f>ROUNDUP(((J59/$B$39)*$B$40)*((100+O88)/100),0)/100</f>
+        <f t="shared" si="79"/>
         <v>1.27</v>
       </c>
       <c r="L88" s="9">
-        <f>ROUNDUP(((K59/$B$39)*$B$40)*((100+O88)/100),0)/100</f>
+        <f t="shared" si="80"/>
         <v>1.9</v>
       </c>
       <c r="M88" s="9">
-        <f>ROUNDUP(((L59/$B$39)*$B$40)*((100+O88)/100),0)/100</f>
+        <f t="shared" si="81"/>
         <v>2.2200000000000002</v>
       </c>
       <c r="N88" s="9">
-        <f>ROUNDUP(((M59/$B$39)*$B$40)*((100+O88)/100),0)/100</f>
+        <f t="shared" si="82"/>
         <v>4.43</v>
       </c>
       <c r="O88" s="10">
         <v>180</v>
       </c>
       <c r="P88" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="83"/>
         <v>6.4400000000000013</v>
       </c>
       <c r="Q88" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="76"/>
         <v>4.43</v>
       </c>
       <c r="R88" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="75"/>
         <v>49.207786328655509</v>
       </c>
       <c r="S88" s="9" t="s">
@@ -9844,27 +9753,27 @@
         <v>201</v>
       </c>
       <c r="Z88" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="84"/>
         <v>0.04</v>
       </c>
       <c r="AA88" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="85"/>
         <v>0.31</v>
       </c>
       <c r="AB88" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="85"/>
         <v>0.85000000000000009</v>
       </c>
       <c r="AC88" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="85"/>
         <v>1.9200000000000002</v>
       </c>
       <c r="AD88" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="85"/>
         <v>3.5200000000000005</v>
       </c>
       <c r="AE88" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="85"/>
         <v>5.3900000000000006</v>
       </c>
     </row>
@@ -9876,42 +9785,42 @@
         <v>0.09</v>
       </c>
       <c r="I89" s="9">
-        <f>ROUNDUP(((H60/$B$39)*$B$40)*((100+O89)/100),0)/100</f>
+        <f t="shared" si="77"/>
         <v>0.38</v>
       </c>
       <c r="J89" s="9">
-        <f>ROUNDUP(((I60/$B$39)*$B$40)*((100+O89)/100),0)/100</f>
+        <f t="shared" si="78"/>
         <v>0.76</v>
       </c>
       <c r="K89" s="9">
-        <f>ROUNDUP(((J60/$B$39)*$B$40)*((100+O89)/100),0)/100</f>
+        <f t="shared" si="79"/>
         <v>1.51</v>
       </c>
       <c r="L89" s="9">
-        <f>ROUNDUP(((K60/$B$39)*$B$40)*((100+O89)/100),0)/100</f>
+        <f t="shared" si="80"/>
         <v>2.25</v>
       </c>
       <c r="M89" s="9">
-        <f>ROUNDUP(((L60/$B$39)*$B$40)*((100+O89)/100),0)/100</f>
+        <f t="shared" si="81"/>
         <v>2.63</v>
       </c>
       <c r="N89" s="9">
-        <f>ROUNDUP(((M60/$B$39)*$B$40)*((100+O89)/100),0)/100</f>
+        <f t="shared" si="82"/>
         <v>5.26</v>
       </c>
       <c r="O89" s="10">
         <v>200</v>
       </c>
       <c r="P89" s="10">
-        <f t="shared" ref="P89:P91" si="43">SUM(H89:M89)</f>
+        <f t="shared" ref="P89:P91" si="86">SUM(H89:M89)</f>
         <v>7.62</v>
       </c>
       <c r="Q89" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="76"/>
         <v>5.26</v>
       </c>
       <c r="R89" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="75"/>
         <v>58.306926210955176</v>
       </c>
       <c r="S89" s="9" t="s">
@@ -9936,27 +9845,27 @@
         <v>202</v>
       </c>
       <c r="Z89" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="84"/>
         <v>0.05</v>
       </c>
       <c r="AA89" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="85"/>
         <v>0.35</v>
       </c>
       <c r="AB89" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="85"/>
         <v>0.94</v>
       </c>
       <c r="AC89" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="85"/>
         <v>2.12</v>
       </c>
       <c r="AD89" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="85"/>
         <v>3.89</v>
       </c>
       <c r="AE89" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="85"/>
         <v>5.95</v>
       </c>
     </row>
@@ -9968,69 +9877,69 @@
         <v>0.1</v>
       </c>
       <c r="I90" s="9">
-        <f>ROUNDUP(((H61/$B$39)*$B$40)*((100+O90)/100),0)/100</f>
+        <f t="shared" si="77"/>
         <v>0.45</v>
       </c>
       <c r="J90" s="9">
-        <f>ROUNDUP(((I61/$B$39)*$B$40)*((100+O90)/100),0)/100</f>
+        <f t="shared" si="78"/>
         <v>0.89</v>
       </c>
       <c r="K90" s="9">
-        <f>ROUNDUP(((J61/$B$39)*$B$40)*((100+O90)/100),0)/100</f>
+        <f t="shared" si="79"/>
         <v>1.77</v>
       </c>
       <c r="L90" s="9">
-        <f>ROUNDUP(((K61/$B$39)*$B$40)*((100+O90)/100),0)/100</f>
+        <f t="shared" si="80"/>
         <v>2.65</v>
       </c>
       <c r="M90" s="9">
-        <f>ROUNDUP(((L61/$B$39)*$B$40)*((100+O90)/100),0)/100</f>
+        <f t="shared" si="81"/>
         <v>3.09</v>
       </c>
       <c r="N90" s="9">
-        <f>ROUNDUP(((M61/$B$39)*$B$40)*((100+O90)/100),0)/100</f>
+        <f t="shared" si="82"/>
         <v>6.18</v>
       </c>
       <c r="O90" s="10">
         <v>220</v>
       </c>
       <c r="P90" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="86"/>
         <v>8.9499999999999993</v>
       </c>
       <c r="Q90" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="76"/>
         <v>6.18</v>
       </c>
       <c r="R90" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="75"/>
         <v>68.492530556813037</v>
       </c>
       <c r="Y90" s="9" t="s">
         <v>203</v>
       </c>
       <c r="Z90" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="84"/>
         <v>0.06</v>
       </c>
       <c r="AA90" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="85"/>
         <v>0.39</v>
       </c>
       <c r="AB90" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="85"/>
         <v>1.04</v>
       </c>
       <c r="AC90" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="85"/>
         <v>2.34</v>
       </c>
       <c r="AD90" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="85"/>
         <v>4.2799999999999994</v>
       </c>
       <c r="AE90" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="85"/>
         <v>6.5399999999999991</v>
       </c>
     </row>
@@ -10042,69 +9951,69 @@
         <v>0.1</v>
       </c>
       <c r="I91" s="9">
-        <f>ROUNDUP(((H62/$B$39)*$B$40)*((100+O91)/100),0)/100</f>
+        <f t="shared" si="77"/>
         <v>0.52</v>
       </c>
       <c r="J91" s="9">
-        <f>ROUNDUP(((I62/$B$39)*$B$40)*((100+O91)/100),0)/100</f>
+        <f t="shared" si="78"/>
         <v>1.03</v>
       </c>
       <c r="K91" s="9">
-        <f>ROUNDUP(((J62/$B$39)*$B$40)*((100+O91)/100),0)/100</f>
+        <f t="shared" si="79"/>
         <v>2.06</v>
       </c>
       <c r="L91" s="9">
-        <f>ROUNDUP(((K62/$B$39)*$B$40)*((100+O91)/100),0)/100</f>
+        <f t="shared" si="80"/>
         <v>3.09</v>
       </c>
       <c r="M91" s="9">
-        <f>ROUNDUP(((L62/$B$39)*$B$40)*((100+O91)/100),0)/100</f>
+        <f t="shared" si="81"/>
         <v>3.6</v>
       </c>
       <c r="N91" s="9">
-        <f>ROUNDUP(((M62/$B$39)*$B$40)*((100+O91)/100),0)/100</f>
+        <f t="shared" si="82"/>
         <v>7.2</v>
       </c>
       <c r="O91" s="10">
         <v>240</v>
       </c>
       <c r="P91" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="86"/>
         <v>10.4</v>
       </c>
       <c r="Q91" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="76"/>
         <v>7.2</v>
       </c>
       <c r="R91" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="75"/>
         <v>79.674060660932554</v>
       </c>
       <c r="Y91" s="9" t="s">
         <v>204</v>
       </c>
       <c r="Z91" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="84"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AA91" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="85"/>
         <v>0.43</v>
       </c>
       <c r="AB91" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="85"/>
         <v>1.1399999999999999</v>
       </c>
       <c r="AC91" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="85"/>
         <v>2.5599999999999996</v>
       </c>
       <c r="AD91" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="85"/>
         <v>4.68</v>
       </c>
       <c r="AE91" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="85"/>
         <v>7.15</v>
       </c>
     </row>
@@ -10116,69 +10025,69 @@
         <v>0.11</v>
       </c>
       <c r="I92" s="9">
-        <f>ROUNDUP(((H63/$B$39)*$B$40)*((100+O92)/100),0)/100</f>
+        <f t="shared" si="77"/>
         <v>0.6</v>
       </c>
       <c r="J92" s="9">
-        <f>ROUNDUP(((I63/$B$39)*$B$40)*((100+O92)/100),0)/100</f>
+        <f t="shared" si="78"/>
         <v>1.19</v>
       </c>
       <c r="K92" s="9">
-        <f>ROUNDUP(((J63/$B$39)*$B$40)*((100+O92)/100),0)/100</f>
+        <f t="shared" si="79"/>
         <v>2.38</v>
       </c>
       <c r="L92" s="9">
-        <f>ROUNDUP(((K63/$B$39)*$B$40)*((100+O92)/100),0)/100</f>
+        <f t="shared" si="80"/>
         <v>3.57</v>
       </c>
       <c r="M92" s="9">
-        <f>ROUNDUP(((L63/$B$39)*$B$40)*((100+O92)/100),0)/100</f>
+        <f t="shared" si="81"/>
         <v>4.17</v>
       </c>
       <c r="N92" s="9">
-        <f>ROUNDUP(((M63/$B$39)*$B$40)*((100+O92)/100),0)/100</f>
+        <f t="shared" si="82"/>
         <v>8.33</v>
       </c>
       <c r="O92" s="10">
         <v>260</v>
       </c>
       <c r="P92" s="10">
-        <f t="shared" ref="P92:P93" si="44">SUM(H92:M92)</f>
+        <f t="shared" ref="P92:P93" si="87">SUM(H92:M92)</f>
         <v>12.02</v>
       </c>
       <c r="Q92" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="76"/>
         <v>8.33</v>
       </c>
       <c r="R92" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="75"/>
         <v>92.123132639203263</v>
       </c>
       <c r="Y92" s="9" t="s">
         <v>205</v>
       </c>
       <c r="Z92" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="84"/>
         <v>0.08</v>
       </c>
       <c r="AA92" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="85"/>
         <v>0.48000000000000004</v>
       </c>
       <c r="AB92" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="85"/>
         <v>1.27</v>
       </c>
       <c r="AC92" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="85"/>
         <v>2.85</v>
       </c>
       <c r="AD92" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="85"/>
         <v>5.2200000000000006</v>
       </c>
       <c r="AE92" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="85"/>
         <v>7.98</v>
       </c>
     </row>
@@ -10190,69 +10099,87 @@
         <v>0.11</v>
       </c>
       <c r="I93" s="9">
-        <f>ROUNDUP(((H64/$B$39)*$B$40)*((100+O93)/100),0)/100</f>
+        <f t="shared" si="77"/>
         <v>0.71</v>
       </c>
       <c r="J93" s="9">
-        <f>ROUNDUP(((I64/$B$39)*$B$40)*((100+O93)/100),0)/100</f>
+        <f t="shared" si="78"/>
         <v>1.41</v>
       </c>
       <c r="K93" s="9">
-        <f>ROUNDUP(((J64/$B$39)*$B$40)*((100+O93)/100),0)/100</f>
+        <f t="shared" si="79"/>
         <v>2.82</v>
       </c>
       <c r="L93" s="9">
-        <f>ROUNDUP(((K64/$B$39)*$B$40)*((100+O93)/100),0)/100</f>
+        <f t="shared" si="80"/>
         <v>4.2300000000000004</v>
       </c>
       <c r="M93" s="9">
-        <f>ROUNDUP(((L64/$B$39)*$B$40)*((100+O93)/100),0)/100</f>
+        <f t="shared" si="81"/>
         <v>4.93</v>
       </c>
       <c r="N93" s="9">
-        <f>ROUNDUP(((M64/$B$39)*$B$40)*((100+O93)/100),0)/100</f>
+        <f t="shared" si="82"/>
         <v>9.86</v>
       </c>
       <c r="O93" s="10">
         <v>280</v>
       </c>
       <c r="P93" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="87"/>
         <v>14.21</v>
       </c>
       <c r="Q93" s="9">
-        <f t="shared" ref="Q93:Q94" si="45">N93</f>
+        <f t="shared" ref="Q93:Q94" si="88">N93</f>
         <v>9.86</v>
       </c>
       <c r="R93" s="10">
-        <f t="shared" ref="R93:R94" si="46">((P93+Q93)/$P$70)*100</f>
+        <f t="shared" ref="R93:R94" si="89">((P93+Q93)/$P$70)*100</f>
         <v>108.96333182435491</v>
+      </c>
+      <c r="S93" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="T93" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="U93" s="9">
+        <f t="shared" ref="U93:U94" si="90">ROUNDUP(((T64/$B$39)*$B$40)*((100+AA93)/100),0)/100</f>
+        <v>0</v>
+      </c>
+      <c r="V93" s="9">
+        <f t="shared" ref="V93:V94" si="91">ROUNDUP(((U64/$B$39)*$B$40)*((100+AA93)/100),0)/100</f>
+        <v>0</v>
+      </c>
+      <c r="W93" s="9">
+        <f t="shared" ref="W93:W94" si="92">ROUNDUP(((V64/$B$39)*$B$40)*((100+AA93)/100),0)/100</f>
+        <v>0</v>
       </c>
       <c r="Y93" s="9" t="s">
         <v>206</v>
       </c>
       <c r="Z93" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="84"/>
         <v>0.09</v>
       </c>
       <c r="AA93" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="85"/>
         <v>0.66999999999999993</v>
       </c>
       <c r="AB93" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="85"/>
         <v>1.8299999999999998</v>
       </c>
       <c r="AC93" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="85"/>
         <v>4.1399999999999997</v>
       </c>
       <c r="AD93" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="85"/>
         <v>7.6</v>
       </c>
       <c r="AE93" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="85"/>
         <v>11.64</v>
       </c>
     </row>
@@ -10264,101 +10191,161 @@
         <v>0.12</v>
       </c>
       <c r="I94" s="9">
-        <f>ROUNDUP(((H65/$B$39)*$B$40)*((100+O94)/100),0)/100</f>
+        <f t="shared" si="77"/>
         <v>0.83</v>
       </c>
       <c r="J94" s="9">
-        <f>ROUNDUP(((I65/$B$39)*$B$40)*((100+O94)/100),0)/100</f>
+        <f t="shared" si="78"/>
         <v>1.66</v>
       </c>
       <c r="K94" s="9">
-        <f>ROUNDUP(((J65/$B$39)*$B$40)*((100+O94)/100),0)/100</f>
+        <f t="shared" si="79"/>
         <v>3.31</v>
       </c>
       <c r="L94" s="9">
-        <f>ROUNDUP(((K65/$B$39)*$B$40)*((100+O94)/100),0)/100</f>
+        <f t="shared" si="80"/>
         <v>4.96</v>
       </c>
       <c r="M94" s="9">
-        <f>ROUNDUP(((L65/$B$39)*$B$40)*((100+O94)/100),0)/100</f>
+        <f t="shared" si="81"/>
         <v>5.79</v>
       </c>
       <c r="N94" s="9">
-        <f>ROUNDUP(((M65/$B$39)*$B$40)*((100+O94)/100),0)/100</f>
+        <f t="shared" si="82"/>
         <v>11.58</v>
       </c>
       <c r="O94" s="10">
         <v>300</v>
       </c>
       <c r="P94" s="10">
-        <f t="shared" ref="P94" si="47">SUM(H94:M94)</f>
+        <f t="shared" ref="P94:P95" si="93">SUM(H94:M94)</f>
         <v>16.669999999999998</v>
       </c>
       <c r="Q94" s="9">
-        <f t="shared" si="45"/>
+        <f t="shared" si="88"/>
         <v>11.58</v>
       </c>
       <c r="R94" s="10">
-        <f t="shared" si="46"/>
+        <f t="shared" si="89"/>
         <v>127.88592123132638</v>
+      </c>
+      <c r="S94" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="T94" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="U94" s="9">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="V94" s="9">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="W94" s="9">
+        <f t="shared" si="92"/>
+        <v>0</v>
       </c>
       <c r="Y94" s="9" t="s">
         <v>207</v>
       </c>
       <c r="Z94" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="84"/>
         <v>0.1</v>
       </c>
       <c r="AA94" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="85"/>
         <v>0.75</v>
       </c>
       <c r="AB94" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="85"/>
         <v>2.04</v>
       </c>
       <c r="AC94" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="85"/>
         <v>4.62</v>
       </c>
       <c r="AD94" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="85"/>
         <v>8.49</v>
       </c>
       <c r="AE94" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="85"/>
         <v>13</v>
       </c>
     </row>
     <row r="95" spans="7:31">
-      <c r="O95" s="10"/>
-      <c r="P95" s="10"/>
-      <c r="R95" s="10"/>
+      <c r="G95" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="H95" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="I95" s="9">
+        <f t="shared" ref="I95" si="94">ROUNDUP(((H66/$B$39)*$B$40)*((100+O95)/100),0)/100</f>
+        <v>0.97</v>
+      </c>
+      <c r="J95" s="9">
+        <f t="shared" ref="J95" si="95">ROUNDUP(((I66/$B$39)*$B$40)*((100+O95)/100),0)/100</f>
+        <v>1.93</v>
+      </c>
+      <c r="K95" s="9">
+        <f t="shared" ref="K95" si="96">ROUNDUP(((J66/$B$39)*$B$40)*((100+O95)/100),0)/100</f>
+        <v>3.85</v>
+      </c>
+      <c r="L95" s="9">
+        <f t="shared" ref="L95" si="97">ROUNDUP(((K66/$B$39)*$B$40)*((100+O95)/100),0)/100</f>
+        <v>5.78</v>
+      </c>
+      <c r="M95" s="9">
+        <f t="shared" ref="M95" si="98">ROUNDUP(((L66/$B$39)*$B$40)*((100+O95)/100),0)/100</f>
+        <v>6.74</v>
+      </c>
+      <c r="N95" s="9">
+        <f t="shared" si="82"/>
+        <v>13.48</v>
+      </c>
+      <c r="O95" s="10">
+        <v>320</v>
+      </c>
+      <c r="P95" s="10">
+        <f t="shared" si="93"/>
+        <v>19.39</v>
+      </c>
+      <c r="Q95" s="9">
+        <f t="shared" ref="Q95" si="99">N95</f>
+        <v>13.48</v>
+      </c>
+      <c r="R95" s="10">
+        <f t="shared" ref="R95" si="100">((P95+Q95)/$P$70)*100</f>
+        <v>148.80036215482119</v>
+      </c>
       <c r="Y95" s="9" t="s">
         <v>208</v>
       </c>
       <c r="Z95" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="84"/>
         <v>0.11</v>
       </c>
       <c r="AA95" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="85"/>
         <v>0.83</v>
       </c>
       <c r="AB95" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="85"/>
         <v>2.27</v>
       </c>
       <c r="AC95" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="85"/>
         <v>5.1400000000000006</v>
       </c>
       <c r="AD95" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="85"/>
         <v>9.4400000000000013</v>
       </c>
       <c r="AE95" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="85"/>
         <v>14.450000000000001</v>
       </c>
     </row>
@@ -10370,27 +10357,27 @@
         <v>209</v>
       </c>
       <c r="Z96" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="84"/>
         <v>0.12</v>
       </c>
       <c r="AA96" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="85"/>
         <v>0.97</v>
       </c>
       <c r="AB96" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="85"/>
         <v>2.67</v>
       </c>
       <c r="AC96" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="85"/>
         <v>6.0600000000000005</v>
       </c>
       <c r="AD96" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="85"/>
         <v>11.15</v>
       </c>
       <c r="AE96" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="85"/>
         <v>17.079999999999998</v>
       </c>
     </row>
@@ -10402,27 +10389,27 @@
         <v>210</v>
       </c>
       <c r="Z97" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="84"/>
         <v>0.13</v>
       </c>
       <c r="AA97" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="85"/>
         <v>1.06</v>
       </c>
       <c r="AB97" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="85"/>
         <v>2.92</v>
       </c>
       <c r="AC97" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="85"/>
         <v>6.6400000000000006</v>
       </c>
       <c r="AD97" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="85"/>
         <v>12.22</v>
       </c>
       <c r="AE97" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="85"/>
         <v>18.72</v>
       </c>
     </row>
@@ -10434,27 +10421,27 @@
         <v>211</v>
       </c>
       <c r="Z98" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="84"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="AA98" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="85"/>
         <v>1.1600000000000001</v>
       </c>
       <c r="AB98" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="85"/>
         <v>3.19</v>
       </c>
       <c r="AC98" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="85"/>
         <v>7.25</v>
       </c>
       <c r="AD98" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="85"/>
         <v>13.34</v>
       </c>
       <c r="AE98" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="85"/>
         <v>20.439999999999998</v>
       </c>
     </row>
@@ -10466,27 +10453,27 @@
         <v>212</v>
       </c>
       <c r="Z99" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="84"/>
         <v>0.15</v>
       </c>
       <c r="AA99" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="85"/>
         <v>1.26</v>
       </c>
       <c r="AB99" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="85"/>
         <v>3.4699999999999998</v>
       </c>
       <c r="AC99" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="85"/>
         <v>7.88</v>
       </c>
       <c r="AD99" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="85"/>
         <v>14.5</v>
       </c>
       <c r="AE99" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="85"/>
         <v>22.22</v>
       </c>
     </row>
@@ -10539,27 +10526,27 @@
         <v>0.01</v>
       </c>
       <c r="I103" s="9">
-        <f t="shared" ref="I103:N118" si="48">I72+H103</f>
+        <f t="shared" ref="I103:N118" si="101">I72+H103</f>
         <v>0.03</v>
       </c>
       <c r="J103" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>0.06</v>
       </c>
       <c r="K103" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>0.12</v>
       </c>
       <c r="L103" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>0.21</v>
       </c>
       <c r="M103" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>0.31</v>
       </c>
       <c r="N103" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>0.51</v>
       </c>
     </row>
@@ -10572,27 +10559,27 @@
         <v>0.01</v>
       </c>
       <c r="I104" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>0.03</v>
       </c>
       <c r="J104" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="K104" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>0.15000000000000002</v>
       </c>
       <c r="L104" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>0.27</v>
       </c>
       <c r="M104" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>0.41000000000000003</v>
       </c>
       <c r="N104" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>0.68</v>
       </c>
     </row>
@@ -10601,31 +10588,31 @@
         <v>19</v>
       </c>
       <c r="H105" s="9">
-        <f t="shared" ref="H105:H125" si="49">H74</f>
+        <f t="shared" ref="H105:H126" si="102">H74</f>
         <v>0.02</v>
       </c>
       <c r="I105" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>0.05</v>
       </c>
       <c r="J105" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>0.1</v>
       </c>
       <c r="K105" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>0.2</v>
       </c>
       <c r="L105" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>0.35</v>
       </c>
       <c r="M105" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>0.53</v>
       </c>
       <c r="N105" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>0.88</v>
       </c>
     </row>
@@ -10634,31 +10621,31 @@
         <v>85</v>
       </c>
       <c r="H106" s="9">
-        <f t="shared" si="49"/>
+        <f t="shared" si="102"/>
         <v>0.02</v>
       </c>
       <c r="I106" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>0.06</v>
       </c>
       <c r="J106" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>0.13</v>
       </c>
       <c r="K106" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>0.26</v>
       </c>
       <c r="L106" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>0.45</v>
       </c>
       <c r="M106" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>0.67</v>
       </c>
       <c r="N106" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>1.1100000000000001</v>
       </c>
     </row>
@@ -10667,31 +10654,31 @@
         <v>20</v>
       </c>
       <c r="H107" s="9">
-        <f t="shared" si="49"/>
+        <f t="shared" si="102"/>
         <v>0.03</v>
       </c>
       <c r="I107" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="J107" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>0.15000000000000002</v>
       </c>
       <c r="K107" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>0.31000000000000005</v>
       </c>
       <c r="L107" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="M107" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>0.83000000000000007</v>
       </c>
       <c r="N107" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>1.3800000000000001</v>
       </c>
     </row>
@@ -10700,31 +10687,31 @@
         <v>21</v>
       </c>
       <c r="H108" s="9">
-        <f t="shared" si="49"/>
+        <f t="shared" si="102"/>
         <v>0.03</v>
       </c>
       <c r="I108" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>0.08</v>
       </c>
       <c r="J108" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>0.18</v>
       </c>
       <c r="K108" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>0.38</v>
       </c>
       <c r="L108" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>0.66999999999999993</v>
       </c>
       <c r="M108" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>1.01</v>
       </c>
       <c r="N108" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>1.69</v>
       </c>
     </row>
@@ -10733,31 +10720,31 @@
         <v>22</v>
       </c>
       <c r="H109" s="9">
-        <f t="shared" si="49"/>
+        <f t="shared" si="102"/>
         <v>0.04</v>
       </c>
       <c r="I109" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>0.1</v>
       </c>
       <c r="J109" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>0.22</v>
       </c>
       <c r="K109" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>0.45999999999999996</v>
       </c>
       <c r="L109" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>0.80999999999999994</v>
       </c>
       <c r="M109" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>1.22</v>
       </c>
       <c r="N109" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>2.04</v>
       </c>
       <c r="AF109" s="9"/>
@@ -10767,31 +10754,31 @@
         <v>23</v>
       </c>
       <c r="H110" s="9">
-        <f t="shared" si="49"/>
+        <f t="shared" si="102"/>
         <v>0.04</v>
       </c>
       <c r="I110" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>0.11000000000000001</v>
       </c>
       <c r="J110" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>0.25</v>
       </c>
       <c r="K110" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>0.53</v>
       </c>
       <c r="L110" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>0.95</v>
       </c>
       <c r="M110" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>1.44</v>
       </c>
       <c r="N110" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>2.42</v>
       </c>
     </row>
@@ -10800,31 +10787,31 @@
         <v>24</v>
       </c>
       <c r="H111" s="9">
-        <f t="shared" si="49"/>
+        <f t="shared" si="102"/>
         <v>0.05</v>
       </c>
       <c r="I111" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="J111" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>0.31000000000000005</v>
       </c>
       <c r="K111" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>0.65000000000000013</v>
       </c>
       <c r="L111" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>1.1500000000000001</v>
       </c>
       <c r="M111" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>1.7400000000000002</v>
       </c>
       <c r="N111" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>2.91</v>
       </c>
     </row>
@@ -10833,31 +10820,31 @@
         <v>25</v>
       </c>
       <c r="H112" s="9">
-        <f t="shared" si="49"/>
+        <f t="shared" si="102"/>
         <v>0.05</v>
       </c>
       <c r="I112" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>0.15000000000000002</v>
       </c>
       <c r="J112" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>0.35000000000000003</v>
       </c>
       <c r="K112" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>0.75</v>
       </c>
       <c r="L112" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>1.3399999999999999</v>
       </c>
       <c r="M112" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>2.0299999999999998</v>
       </c>
       <c r="N112" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>3.4099999999999997</v>
       </c>
     </row>
@@ -10866,31 +10853,31 @@
         <v>105</v>
       </c>
       <c r="H113" s="9">
-        <f t="shared" si="49"/>
+        <f t="shared" si="102"/>
         <v>0.06</v>
       </c>
       <c r="I113" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>0.21</v>
       </c>
       <c r="J113" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>0.51</v>
       </c>
       <c r="K113" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="L113" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>1.98</v>
       </c>
       <c r="M113" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>3.01</v>
       </c>
       <c r="N113" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>5.0599999999999996</v>
       </c>
     </row>
@@ -10899,31 +10886,31 @@
         <v>106</v>
       </c>
       <c r="H114" s="9">
-        <f t="shared" si="49"/>
+        <f t="shared" si="102"/>
         <v>0.06</v>
       </c>
       <c r="I114" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>0.23</v>
       </c>
       <c r="J114" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="K114" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>1.21</v>
       </c>
       <c r="L114" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>2.1799999999999997</v>
       </c>
       <c r="M114" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>3.3099999999999996</v>
       </c>
       <c r="N114" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>5.56</v>
       </c>
     </row>
@@ -10932,31 +10919,31 @@
         <v>172</v>
       </c>
       <c r="H115" s="9">
-        <f t="shared" si="49"/>
+        <f t="shared" si="102"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I115" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>0.25</v>
       </c>
       <c r="J115" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>0.61</v>
       </c>
       <c r="K115" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>1.3199999999999998</v>
       </c>
       <c r="L115" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>2.38</v>
       </c>
       <c r="M115" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>3.61</v>
       </c>
       <c r="N115" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>6.07</v>
       </c>
     </row>
@@ -10965,31 +10952,31 @@
         <v>174</v>
       </c>
       <c r="H116" s="9">
-        <f t="shared" si="49"/>
+        <f t="shared" si="102"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I116" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>0.27</v>
       </c>
       <c r="J116" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>0.67</v>
       </c>
       <c r="K116" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>1.4700000000000002</v>
       </c>
       <c r="L116" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>2.67</v>
       </c>
       <c r="M116" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>4.07</v>
       </c>
       <c r="N116" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>6.86</v>
       </c>
     </row>
@@ -10998,31 +10985,31 @@
         <v>195</v>
       </c>
       <c r="H117" s="9">
-        <f t="shared" si="49"/>
+        <f t="shared" si="102"/>
         <v>0.08</v>
       </c>
       <c r="I117" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>0.31</v>
       </c>
       <c r="J117" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>0.76</v>
       </c>
       <c r="K117" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>1.6600000000000001</v>
       </c>
       <c r="L117" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>3.0100000000000002</v>
       </c>
       <c r="M117" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>4.59</v>
       </c>
       <c r="N117" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>7.74</v>
       </c>
     </row>
@@ -11031,31 +11018,31 @@
         <v>246</v>
       </c>
       <c r="H118" s="9">
-        <f t="shared" si="49"/>
+        <f t="shared" si="102"/>
         <v>0.08</v>
       </c>
       <c r="I118" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>0.35000000000000003</v>
       </c>
       <c r="J118" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>0.88000000000000012</v>
       </c>
       <c r="K118" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>1.9400000000000002</v>
       </c>
       <c r="L118" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>3.5200000000000005</v>
       </c>
       <c r="M118" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>5.36</v>
       </c>
       <c r="N118" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="101"/>
         <v>9.0400000000000009</v>
       </c>
     </row>
@@ -11064,31 +11051,31 @@
         <v>313</v>
       </c>
       <c r="H119" s="9">
-        <f t="shared" si="49"/>
+        <f t="shared" si="102"/>
         <v>0.09</v>
       </c>
       <c r="I119" s="9">
-        <f t="shared" ref="I119:N123" si="50">I88+H119</f>
+        <f t="shared" ref="I119:N123" si="103">I88+H119</f>
         <v>0.41000000000000003</v>
       </c>
       <c r="J119" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="103"/>
         <v>1.05</v>
       </c>
       <c r="K119" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="103"/>
         <v>2.3200000000000003</v>
       </c>
       <c r="L119" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="103"/>
         <v>4.2200000000000006</v>
       </c>
       <c r="M119" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="103"/>
         <v>6.4400000000000013</v>
       </c>
       <c r="N119" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="103"/>
         <v>10.870000000000001</v>
       </c>
     </row>
@@ -11097,31 +11084,31 @@
         <v>368</v>
       </c>
       <c r="H120" s="9">
-        <f t="shared" si="49"/>
+        <f t="shared" si="102"/>
         <v>0.09</v>
       </c>
       <c r="I120" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="103"/>
         <v>0.47</v>
       </c>
       <c r="J120" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="103"/>
         <v>1.23</v>
       </c>
       <c r="K120" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="103"/>
         <v>2.74</v>
       </c>
       <c r="L120" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="103"/>
         <v>4.99</v>
       </c>
       <c r="M120" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="103"/>
         <v>7.62</v>
       </c>
       <c r="N120" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="103"/>
         <v>12.879999999999999</v>
       </c>
     </row>
@@ -11130,31 +11117,31 @@
         <v>375</v>
       </c>
       <c r="H121" s="9">
-        <f t="shared" si="49"/>
+        <f t="shared" si="102"/>
         <v>0.1</v>
       </c>
       <c r="I121" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="103"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="J121" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="103"/>
         <v>1.44</v>
       </c>
       <c r="K121" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="103"/>
         <v>3.21</v>
       </c>
       <c r="L121" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="103"/>
         <v>5.8599999999999994</v>
       </c>
       <c r="M121" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="103"/>
         <v>8.9499999999999993</v>
       </c>
       <c r="N121" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="103"/>
         <v>15.129999999999999</v>
       </c>
     </row>
@@ -11163,31 +11150,31 @@
         <v>387</v>
       </c>
       <c r="H122" s="9">
-        <f t="shared" si="49"/>
+        <f t="shared" si="102"/>
         <v>0.1</v>
       </c>
       <c r="I122" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="103"/>
         <v>0.62</v>
       </c>
       <c r="J122" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="103"/>
         <v>1.65</v>
       </c>
       <c r="K122" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="103"/>
         <v>3.71</v>
       </c>
       <c r="L122" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="103"/>
         <v>6.8</v>
       </c>
       <c r="M122" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="103"/>
         <v>10.4</v>
       </c>
       <c r="N122" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="103"/>
         <v>17.600000000000001</v>
       </c>
     </row>
@@ -11196,31 +11183,31 @@
         <v>418</v>
       </c>
       <c r="H123" s="9">
-        <f t="shared" si="49"/>
+        <f t="shared" si="102"/>
         <v>0.11</v>
       </c>
       <c r="I123" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="103"/>
         <v>0.71</v>
       </c>
       <c r="J123" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="103"/>
         <v>1.9</v>
       </c>
       <c r="K123" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="103"/>
         <v>4.2799999999999994</v>
       </c>
       <c r="L123" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="103"/>
         <v>7.85</v>
       </c>
       <c r="M123" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="103"/>
         <v>12.02</v>
       </c>
       <c r="N123" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="103"/>
         <v>20.350000000000001</v>
       </c>
     </row>
@@ -11229,31 +11216,31 @@
         <v>431</v>
       </c>
       <c r="H124" s="9">
-        <f t="shared" si="49"/>
+        <f t="shared" si="102"/>
         <v>0.11</v>
       </c>
       <c r="I124" s="9">
-        <f t="shared" ref="I124:I125" si="51">I93+H124</f>
+        <f t="shared" ref="I124:I125" si="104">I93+H124</f>
         <v>0.82</v>
       </c>
       <c r="J124" s="9">
-        <f t="shared" ref="J124:J125" si="52">J93+I124</f>
+        <f t="shared" ref="J124:J125" si="105">J93+I124</f>
         <v>2.23</v>
       </c>
       <c r="K124" s="9">
-        <f t="shared" ref="K124:K125" si="53">K93+J124</f>
+        <f t="shared" ref="K124:K125" si="106">K93+J124</f>
         <v>5.05</v>
       </c>
       <c r="L124" s="9">
-        <f t="shared" ref="L124:L125" si="54">L93+K124</f>
+        <f t="shared" ref="L124:L125" si="107">L93+K124</f>
         <v>9.2800000000000011</v>
       </c>
       <c r="M124" s="9">
-        <f t="shared" ref="M124:M125" si="55">M93+L124</f>
+        <f t="shared" ref="M124:M125" si="108">M93+L124</f>
         <v>14.21</v>
       </c>
       <c r="N124" s="9">
-        <f t="shared" ref="N124:N125" si="56">N93+M124</f>
+        <f t="shared" ref="N124:N125" si="109">N93+M124</f>
         <v>24.07</v>
       </c>
     </row>
@@ -11262,32 +11249,65 @@
         <v>450</v>
       </c>
       <c r="H125" s="9">
-        <f t="shared" si="49"/>
+        <f t="shared" si="102"/>
         <v>0.12</v>
       </c>
       <c r="I125" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="104"/>
         <v>0.95</v>
       </c>
       <c r="J125" s="9">
-        <f t="shared" si="52"/>
+        <f t="shared" si="105"/>
         <v>2.61</v>
       </c>
       <c r="K125" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="106"/>
         <v>5.92</v>
       </c>
       <c r="L125" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="107"/>
         <v>10.879999999999999</v>
       </c>
       <c r="M125" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="108"/>
         <v>16.669999999999998</v>
       </c>
       <c r="N125" s="9">
-        <f t="shared" si="56"/>
+        <f t="shared" si="109"/>
         <v>28.25</v>
+      </c>
+    </row>
+    <row r="126" spans="7:14">
+      <c r="G126" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="H126" s="9">
+        <f t="shared" si="102"/>
+        <v>0.12</v>
+      </c>
+      <c r="I126" s="9">
+        <f t="shared" ref="I126" si="110">I95+H126</f>
+        <v>1.0899999999999999</v>
+      </c>
+      <c r="J126" s="9">
+        <f t="shared" ref="J126" si="111">J95+I126</f>
+        <v>3.0199999999999996</v>
+      </c>
+      <c r="K126" s="9">
+        <f t="shared" ref="K126" si="112">K95+J126</f>
+        <v>6.8699999999999992</v>
+      </c>
+      <c r="L126" s="9">
+        <f t="shared" ref="L126" si="113">L95+K126</f>
+        <v>12.649999999999999</v>
+      </c>
+      <c r="M126" s="9">
+        <f t="shared" ref="M126" si="114">M95+L126</f>
+        <v>19.39</v>
+      </c>
+      <c r="N126" s="9">
+        <f t="shared" ref="N126" si="115">N95+M126</f>
+        <v>32.870000000000005</v>
       </c>
     </row>
   </sheetData>
@@ -11305,7 +11325,7 @@
   <dimension ref="A2:W50"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -13185,6 +13205,67 @@
       </c>
     </row>
     <row r="27" spans="1:23">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" s="2" t="str">
+        <f t="shared" ref="B27" si="28">C27&amp;","&amp;D27&amp;","&amp;E27&amp;","&amp;F27&amp;","&amp;G27</f>
+        <v>10월,20월,50월,100월,200월</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" ref="C27" si="29">$C$3&amp;H27</f>
+        <v>10월</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" ref="D27" si="30">$D$3&amp;H27</f>
+        <v>20월</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" ref="E27" si="31">$E$3&amp;H27</f>
+        <v>50월</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" ref="F27" si="32">$F$3&amp;H27</f>
+        <v>100월</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" ref="G27" si="33">$G$3&amp;H27</f>
+        <v>200월</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="J27">
+        <v>24</v>
+      </c>
+      <c r="K27" s="2" t="str">
+        <f t="shared" ref="K27" si="34">L27&amp;","&amp;M27&amp;","&amp;N27&amp;","&amp;O27&amp;","&amp;P27</f>
+        <v>1E+153,2E+153,5E+153,1E+154,2E+154</v>
+      </c>
+      <c r="L27">
+        <f t="shared" ref="L27" si="35">$C$3*Q27</f>
+        <v>1E+153</v>
+      </c>
+      <c r="M27">
+        <f t="shared" ref="M27" si="36">$D$3*Q27</f>
+        <v>2E+153</v>
+      </c>
+      <c r="N27">
+        <f t="shared" ref="N27" si="37">$E$3*Q27</f>
+        <v>5.0000000000000002E+153</v>
+      </c>
+      <c r="O27">
+        <f t="shared" ref="O27" si="38">$F$3*Q27</f>
+        <v>1E+154</v>
+      </c>
+      <c r="P27">
+        <f t="shared" ref="P27" si="39">$G$3*Q27</f>
+        <v>2.0000000000000001E+154</v>
+      </c>
+      <c r="Q27" t="str">
+        <f t="shared" ref="Q27" si="40">VLOOKUP(H27,T:W,4,FALSE)</f>
+        <v>1E+152</v>
+      </c>
       <c r="T27" t="s">
         <v>158</v>
       </c>
@@ -13368,11 +13449,11 @@
         <v>144</v>
       </c>
       <c r="V38">
-        <f t="shared" ref="V38:V39" si="28">POWER(10,U38)</f>
+        <f t="shared" ref="V38:V39" si="41">POWER(10,U38)</f>
         <v>1E+144</v>
       </c>
       <c r="W38" t="str">
-        <f t="shared" ref="W38:W39" si="29">RIGHT(V38,U38)</f>
+        <f t="shared" ref="W38:W39" si="42">RIGHT(V38,U38)</f>
         <v>1E+144</v>
       </c>
     </row>
@@ -13384,16 +13465,29 @@
         <v>148</v>
       </c>
       <c r="V39">
-        <f t="shared" si="28"/>
+        <f t="shared" si="41"/>
         <v>1E+148</v>
       </c>
       <c r="W39" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="42"/>
         <v>1E+148</v>
       </c>
     </row>
     <row r="40" spans="20:23">
-      <c r="V40" s="33"/>
+      <c r="T40" t="s">
+        <v>469</v>
+      </c>
+      <c r="U40">
+        <v>152</v>
+      </c>
+      <c r="V40">
+        <f t="shared" ref="V40" si="43">POWER(10,U40)</f>
+        <v>1E+152</v>
+      </c>
+      <c r="W40" t="str">
+        <f t="shared" ref="W40" si="44">RIGHT(V40,U40)</f>
+        <v>1E+152</v>
+      </c>
     </row>
     <row r="41" spans="20:23">
       <c r="V41" s="33"/>

--- a/Assets/06.Table/SuhopetTable.xlsx
+++ b/Assets/06.Table/SuhopetTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F4FE2B-5847-4CAC-9A01-B3C81060A982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28FC17A-E94B-4FA6-B39C-A53DF7533C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="605" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="483">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1672,6 +1672,43 @@
   </si>
   <si>
     <t>1E+153,2E+153,5E+153,1E+154,2E+154</t>
+  </si>
+  <si>
+    <t>25단계</t>
+  </si>
+  <si>
+    <t>펫25</t>
+  </si>
+  <si>
+    <t>후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10후,20후,50후,100후,200후</t>
+  </si>
+  <si>
+    <t>1E+157,2E+157,5E+157,1E+158,2E+158</t>
+  </si>
+  <si>
+    <t>맥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>650,650,650,650,650</t>
+  </si>
+  <si>
+    <t>0.13,1.25,3.48,7.93,14.61,22.4,37.97</t>
+  </si>
+  <si>
+    <t>2106,4212,8424,12636,14742,29484</t>
+  </si>
+  <si>
+    <t>25단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2511,10 +2548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:U39"/>
+  <dimension ref="A1:U40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="H28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5071,6 +5108,71 @@
       </c>
       <c r="U39" s="1" t="s">
         <v>468</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" ht="33">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="F40" s="43" t="s">
+        <v>476</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="H40" s="44" t="s">
+        <v>274</v>
+      </c>
+      <c r="I40" s="45" t="s">
+        <v>479</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="K40" s="1">
+        <v>9016</v>
+      </c>
+      <c r="L40" s="1">
+        <v>450</v>
+      </c>
+      <c r="M40" s="1">
+        <v>49</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="O40" s="1">
+        <v>6</v>
+      </c>
+      <c r="P40" s="46">
+        <v>9016</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="R40" s="1">
+        <v>110</v>
+      </c>
+      <c r="S40" s="47" t="s">
+        <v>182</v>
+      </c>
+      <c r="T40" s="48" t="s">
+        <v>416</v>
+      </c>
+      <c r="U40" s="1" t="s">
+        <v>482</v>
       </c>
     </row>
   </sheetData>
@@ -5114,10 +5216,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB815A5-0A26-4B2F-8716-20DE31E1881F}">
-  <dimension ref="A1:AF126"/>
+  <dimension ref="A1:AF127"/>
   <sheetViews>
-    <sheetView topLeftCell="B12" workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31"/>
+    <sheetView topLeftCell="B14" workbookViewId="0">
+      <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -6322,12 +6424,27 @@
         <v>430</v>
       </c>
       <c r="I32" s="9">
-        <f t="shared" ref="I32" si="18">H32*$B$9*$B$18*($B$13/100)</f>
+        <f t="shared" ref="I32:I33" si="18">H32*$B$9*$B$18*($B$13/100)</f>
         <v>3096</v>
       </c>
       <c r="J32" s="9">
-        <f t="shared" ref="J32" si="19">ROUNDUP((I32/5),-1)</f>
+        <f t="shared" ref="J32:J33" si="19">ROUNDUP((I32/5),-1)</f>
         <v>620</v>
+      </c>
+      <c r="N32" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="O32" s="1" t="str">
+        <f t="shared" ref="O32" si="20">J33&amp;","&amp;J33&amp;","&amp;J33&amp;","&amp;J33&amp;","&amp;J33</f>
+        <v>650,650,650,650,650</v>
+      </c>
+      <c r="P32" s="1" t="str">
+        <f t="shared" ref="P32" si="21">H127&amp;","&amp;I127&amp;","&amp;J127&amp;","&amp;K127&amp;","&amp;L127&amp;","&amp;M127&amp;","&amp;N127</f>
+        <v>0.13,1.25,3.48,7.93,14.61,22.4,37.97</v>
+      </c>
+      <c r="Q32" s="9" t="str">
+        <f t="shared" ref="Q32" si="22">H67&amp;","&amp;I67&amp;","&amp;J67&amp;","&amp;K67&amp;","&amp;L67&amp;","&amp;M67</f>
+        <v>2106,4212,8424,12636,14742,29484</v>
       </c>
     </row>
     <row r="33" spans="1:32">
@@ -6337,6 +6454,20 @@
       <c r="B33" s="30">
         <v>30</v>
       </c>
+      <c r="G33" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="H33" s="9">
+        <v>450</v>
+      </c>
+      <c r="I33" s="9">
+        <f t="shared" si="18"/>
+        <v>3240</v>
+      </c>
+      <c r="J33" s="9">
+        <f t="shared" si="19"/>
+        <v>650</v>
+      </c>
     </row>
     <row r="34" spans="1:32">
       <c r="A34" s="18" t="s">
@@ -6374,27 +6505,27 @@
         <v>68</v>
       </c>
       <c r="R39" s="23">
-        <f t="shared" ref="R39:W39" si="20">SUM(R41:R50)</f>
+        <f t="shared" ref="R39:W39" si="23">SUM(R41:R50)</f>
         <v>16.285714285714285</v>
       </c>
       <c r="S39" s="23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>13.328571428571429</v>
       </c>
       <c r="T39" s="23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>10.213240418118467</v>
       </c>
       <c r="U39" s="23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>8.8857142857142843</v>
       </c>
       <c r="V39" s="23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>6.4878048780487809</v>
       </c>
       <c r="W39" s="23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>5.3097560975609763</v>
       </c>
       <c r="X39"/>
@@ -6499,23 +6630,23 @@
         <v>106</v>
       </c>
       <c r="I41" s="9">
-        <f t="shared" ref="I41:I50" si="21">ROUNDUP((P41*$B$31/100),0)</f>
+        <f t="shared" ref="I41:I50" si="24">ROUNDUP((P41*$B$31/100),0)</f>
         <v>212</v>
       </c>
       <c r="J41" s="9">
-        <f t="shared" ref="J41:J50" si="22">ROUNDUP((P41*$B$32/100),0)</f>
+        <f t="shared" ref="J41:J50" si="25">ROUNDUP((P41*$B$32/100),0)</f>
         <v>423</v>
       </c>
       <c r="K41" s="9">
-        <f t="shared" ref="K41:K50" si="23">ROUNDUP((P41*$B$33/100),0)</f>
+        <f t="shared" ref="K41:K50" si="26">ROUNDUP((P41*$B$33/100),0)</f>
         <v>634</v>
       </c>
       <c r="L41" s="9">
-        <f t="shared" ref="L41:L50" si="24">ROUNDUP((P41*$B$34/100),0)</f>
+        <f t="shared" ref="L41:L50" si="27">ROUNDUP((P41*$B$34/100),0)</f>
         <v>740</v>
       </c>
       <c r="M41" s="9">
-        <f t="shared" ref="M41:M50" si="25">L41*$B$43</f>
+        <f t="shared" ref="M41:M50" si="28">L41*$B$43</f>
         <v>1480</v>
       </c>
       <c r="N41" s="9">
@@ -6526,23 +6657,23 @@
         <v>50</v>
       </c>
       <c r="P41" s="9">
-        <f t="shared" ref="P41:P50" si="26">(H8*$B$9*$B$18)*(O41/100)+I8</f>
+        <f t="shared" ref="P41:P50" si="29">(H8*$B$9*$B$18)*(O41/100)+I8</f>
         <v>2112</v>
       </c>
       <c r="Q41" s="9">
-        <f t="shared" ref="Q41:Q50" si="27">P41-I8</f>
+        <f t="shared" ref="Q41:Q50" si="30">P41-I8</f>
         <v>1320</v>
       </c>
       <c r="R41" s="1">
-        <f t="shared" ref="R41:R50" si="28">(Q41/H8)/($B$18*7)</f>
+        <f t="shared" ref="R41:R50" si="31">(Q41/H8)/($B$18*7)</f>
         <v>0.8571428571428571</v>
       </c>
       <c r="S41" s="1">
-        <f t="shared" ref="S41:S50" si="29">(Q41/$H$17)/(7*$B$18)</f>
+        <f t="shared" ref="S41:S50" si="32">(Q41/$H$17)/(7*$B$18)</f>
         <v>0.47142857142857142</v>
       </c>
       <c r="T41" s="1">
-        <f t="shared" ref="T41:T49" si="30">(Q41/H8)/($B$18*7+$B$21)</f>
+        <f t="shared" ref="T41:T49" si="33">(Q41/H8)/($B$18*7+$B$21)</f>
         <v>0.5714285714285714</v>
       </c>
       <c r="U41" s="1">
@@ -6550,7 +6681,7 @@
         <v>0.31428571428571428</v>
       </c>
       <c r="V41" s="1">
-        <f t="shared" ref="V41:V50" si="31">(Q41/H8)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
+        <f t="shared" ref="V41:V50" si="34">(Q41/H8)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
         <v>0.34146341463414637</v>
       </c>
       <c r="W41" s="1">
@@ -6565,19 +6696,19 @@
         <v>720</v>
       </c>
       <c r="AA41" s="9">
-        <f t="shared" ref="AA41:AA55" si="32">ROUNDUP((AE41*$B$31/100),0)</f>
+        <f t="shared" ref="AA41:AA55" si="35">ROUNDUP((AE41*$B$31/100),0)</f>
         <v>1440</v>
       </c>
       <c r="AB41" s="9">
-        <f t="shared" ref="AB41:AB55" si="33">ROUNDUP((AE41*$B$32/100),0)</f>
+        <f t="shared" ref="AB41:AB55" si="36">ROUNDUP((AE41*$B$32/100),0)</f>
         <v>2880</v>
       </c>
       <c r="AC41" s="9">
-        <f t="shared" ref="AC41:AC55" si="34">ROUNDUP((AE41*$B$33/100),0)</f>
+        <f t="shared" ref="AC41:AC55" si="37">ROUNDUP((AE41*$B$33/100),0)</f>
         <v>4320</v>
       </c>
       <c r="AD41" s="9">
-        <f t="shared" ref="AD41:AD55" si="35">ROUNDUP((AE41*$B$34/100),0)</f>
+        <f t="shared" ref="AD41:AD55" si="38">ROUNDUP((AE41*$B$34/100),0)</f>
         <v>5040</v>
       </c>
       <c r="AE41" s="1">
@@ -6596,93 +6727,93 @@
         <v>18</v>
       </c>
       <c r="H42" s="9">
-        <f t="shared" ref="H42:H50" si="36">ROUNDUP((P42*$B$30/100),0)</f>
+        <f t="shared" ref="H42:H50" si="39">ROUNDUP((P42*$B$30/100),0)</f>
         <v>130</v>
       </c>
       <c r="I42" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>260</v>
       </c>
       <c r="J42" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>519</v>
       </c>
       <c r="K42" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>778</v>
       </c>
       <c r="L42" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>908</v>
       </c>
       <c r="M42" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>1816</v>
       </c>
       <c r="N42" s="9">
-        <f t="shared" ref="N42:N50" si="37">SUM(H42:L42)</f>
+        <f t="shared" ref="N42:N50" si="40">SUM(H42:L42)</f>
         <v>2595</v>
       </c>
       <c r="O42" s="9">
         <v>60</v>
       </c>
       <c r="P42" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>2592</v>
       </c>
       <c r="Q42" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>1728</v>
       </c>
       <c r="R42" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1.0285714285714287</v>
       </c>
       <c r="S42" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.61714285714285722</v>
       </c>
       <c r="T42" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0.68571428571428572</v>
       </c>
       <c r="U42" s="1">
-        <f t="shared" ref="U42:U50" si="38">(Q42/$H$17)/($B$18*7+$B$21)</f>
+        <f t="shared" ref="U42:U50" si="41">(Q42/$H$17)/($B$18*7+$B$21)</f>
         <v>0.41142857142857148</v>
       </c>
       <c r="V42" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0.40975609756097564</v>
       </c>
       <c r="W42" s="1">
-        <f t="shared" ref="W42:W50" si="39">(Q42/$H$17)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
+        <f t="shared" ref="W42:W50" si="42">(Q42/$H$17)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
         <v>0.24585365853658542</v>
       </c>
       <c r="Y42" s="9" t="s">
         <v>199</v>
       </c>
       <c r="Z42" s="9">
-        <f t="shared" ref="Z42:Z55" si="40">ROUNDUP((AE42*$B$30/100),0)</f>
+        <f t="shared" ref="Z42:Z55" si="43">ROUNDUP((AE42*$B$30/100),0)</f>
         <v>744</v>
       </c>
       <c r="AA42" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>1488</v>
       </c>
       <c r="AB42" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>2976</v>
       </c>
       <c r="AC42" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>4464</v>
       </c>
       <c r="AD42" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>5208</v>
       </c>
       <c r="AE42" s="1">
-        <f t="shared" ref="AE42:AE55" si="41">($H$17*$B$9*$B$18)*(AF42/100)</f>
+        <f t="shared" ref="AE42:AE55" si="44">($H$17*$B$9*$B$18)*(AF42/100)</f>
         <v>14880</v>
       </c>
       <c r="AF42" s="1">
@@ -6701,93 +6832,93 @@
         <v>19</v>
       </c>
       <c r="H43" s="9">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>156</v>
       </c>
       <c r="I43" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>312</v>
       </c>
       <c r="J43" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>624</v>
       </c>
       <c r="K43" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>936</v>
       </c>
       <c r="L43" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>1092</v>
       </c>
       <c r="M43" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>2184</v>
       </c>
       <c r="N43" s="9">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>3120</v>
       </c>
       <c r="O43" s="9">
         <v>70</v>
       </c>
       <c r="P43" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>3120</v>
       </c>
       <c r="Q43" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>2184</v>
       </c>
       <c r="R43" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1.2</v>
       </c>
       <c r="S43" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.78</v>
       </c>
       <c r="T43" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0.8</v>
       </c>
       <c r="U43" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.52</v>
       </c>
       <c r="V43" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0.47804878048780497</v>
       </c>
       <c r="W43" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0.31073170731707322</v>
       </c>
       <c r="Y43" s="9" t="s">
         <v>200</v>
       </c>
       <c r="Z43" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>768</v>
       </c>
       <c r="AA43" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>1536</v>
       </c>
       <c r="AB43" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>3072</v>
       </c>
       <c r="AC43" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>4608</v>
       </c>
       <c r="AD43" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>5376</v>
       </c>
       <c r="AE43" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>15360</v>
       </c>
       <c r="AF43" s="1">
@@ -6800,93 +6931,93 @@
         <v>85</v>
       </c>
       <c r="H44" s="9">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>185</v>
       </c>
       <c r="I44" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>370</v>
       </c>
       <c r="J44" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>740</v>
       </c>
       <c r="K44" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1109</v>
       </c>
       <c r="L44" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>1294</v>
       </c>
       <c r="M44" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>2588</v>
       </c>
       <c r="N44" s="9">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>3698</v>
       </c>
       <c r="O44" s="9">
         <v>80</v>
       </c>
       <c r="P44" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>3696</v>
       </c>
       <c r="Q44" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>2688</v>
       </c>
       <c r="R44" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1.3714285714285714</v>
       </c>
       <c r="S44" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.96</v>
       </c>
       <c r="T44" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0.91428571428571426</v>
       </c>
       <c r="U44" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.64</v>
       </c>
       <c r="V44" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0.54634146341463419</v>
       </c>
       <c r="W44" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0.38243902439024391</v>
       </c>
       <c r="Y44" s="9" t="s">
         <v>201</v>
       </c>
       <c r="Z44" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>792</v>
       </c>
       <c r="AA44" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>1584</v>
       </c>
       <c r="AB44" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>3168</v>
       </c>
       <c r="AC44" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>4752</v>
       </c>
       <c r="AD44" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>5544</v>
       </c>
       <c r="AE44" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>15840</v>
       </c>
       <c r="AF44" s="1">
@@ -6899,93 +7030,93 @@
         <v>20</v>
       </c>
       <c r="H45" s="9">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>216</v>
       </c>
       <c r="I45" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>432</v>
       </c>
       <c r="J45" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>864</v>
       </c>
       <c r="K45" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1296</v>
       </c>
       <c r="L45" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>1512</v>
       </c>
       <c r="M45" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>3024</v>
       </c>
       <c r="N45" s="9">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>4320</v>
       </c>
       <c r="O45" s="9">
         <v>90</v>
       </c>
       <c r="P45" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>4320</v>
       </c>
       <c r="Q45" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>3240</v>
       </c>
       <c r="R45" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1.5428571428571429</v>
       </c>
       <c r="S45" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1.157142857142857</v>
       </c>
       <c r="T45" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>1.0285714285714287</v>
       </c>
       <c r="U45" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.77142857142857135</v>
       </c>
       <c r="V45" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0.61463414634146352</v>
       </c>
       <c r="W45" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0.46097560975609758</v>
       </c>
       <c r="Y45" s="9" t="s">
         <v>202</v>
       </c>
       <c r="Z45" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>816</v>
       </c>
       <c r="AA45" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>1632</v>
       </c>
       <c r="AB45" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>3264</v>
       </c>
       <c r="AC45" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>4896</v>
       </c>
       <c r="AD45" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>5712</v>
       </c>
       <c r="AE45" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>16320</v>
       </c>
       <c r="AF45" s="1">
@@ -6998,93 +7129,93 @@
         <v>21</v>
       </c>
       <c r="H46" s="9">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>250</v>
       </c>
       <c r="I46" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>500</v>
       </c>
       <c r="J46" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>999</v>
       </c>
       <c r="K46" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1498</v>
       </c>
       <c r="L46" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>1748</v>
       </c>
       <c r="M46" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>3496</v>
       </c>
       <c r="N46" s="9">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>4995</v>
       </c>
       <c r="O46" s="9">
         <v>100</v>
       </c>
       <c r="P46" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>4992</v>
       </c>
       <c r="Q46" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>3840</v>
       </c>
       <c r="R46" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1.7142857142857142</v>
       </c>
       <c r="S46" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1.3714285714285714</v>
       </c>
       <c r="T46" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>1.1428571428571428</v>
       </c>
       <c r="U46" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.91428571428571426</v>
       </c>
       <c r="V46" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0.68292682926829273</v>
       </c>
       <c r="W46" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0.54634146341463419</v>
       </c>
       <c r="Y46" s="9" t="s">
         <v>203</v>
       </c>
       <c r="Z46" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>840</v>
       </c>
       <c r="AA46" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>1680</v>
       </c>
       <c r="AB46" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>3360</v>
       </c>
       <c r="AC46" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>5040</v>
       </c>
       <c r="AD46" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>5880</v>
       </c>
       <c r="AE46" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>16800</v>
       </c>
       <c r="AF46" s="1">
@@ -7096,93 +7227,93 @@
         <v>22</v>
       </c>
       <c r="H47" s="9">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>286</v>
       </c>
       <c r="I47" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>572</v>
       </c>
       <c r="J47" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1143</v>
       </c>
       <c r="K47" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1714</v>
       </c>
       <c r="L47" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>2000</v>
       </c>
       <c r="M47" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>4000</v>
       </c>
       <c r="N47" s="9">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>5715</v>
       </c>
       <c r="O47" s="9">
         <v>110</v>
       </c>
       <c r="P47" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>5712</v>
       </c>
       <c r="Q47" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>4488</v>
       </c>
       <c r="R47" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1.8857142857142857</v>
       </c>
       <c r="S47" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1.602857142857143</v>
       </c>
       <c r="T47" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>1.2571428571428571</v>
       </c>
       <c r="U47" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1.0685714285714287</v>
       </c>
       <c r="V47" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0.75121951219512195</v>
       </c>
       <c r="W47" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0.63853658536585378</v>
       </c>
       <c r="Y47" s="9" t="s">
         <v>204</v>
       </c>
       <c r="Z47" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>864</v>
       </c>
       <c r="AA47" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>1728</v>
       </c>
       <c r="AB47" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>3456</v>
       </c>
       <c r="AC47" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>5184</v>
       </c>
       <c r="AD47" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>6048</v>
       </c>
       <c r="AE47" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>17280</v>
       </c>
       <c r="AF47" s="1">
@@ -7194,93 +7325,93 @@
         <v>23</v>
       </c>
       <c r="H48" s="9">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>324</v>
       </c>
       <c r="I48" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>648</v>
       </c>
       <c r="J48" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1296</v>
       </c>
       <c r="K48" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1944</v>
       </c>
       <c r="L48" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>2268</v>
       </c>
       <c r="M48" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>4536</v>
       </c>
       <c r="N48" s="9">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>6480</v>
       </c>
       <c r="O48" s="9">
         <v>120</v>
       </c>
       <c r="P48" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>6480</v>
       </c>
       <c r="Q48" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>5184</v>
       </c>
       <c r="R48" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>2.0571428571428574</v>
       </c>
       <c r="S48" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1.8514285714285716</v>
       </c>
       <c r="T48" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>1.3714285714285714</v>
       </c>
       <c r="U48" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1.2342857142857144</v>
       </c>
       <c r="V48" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0.81951219512195128</v>
       </c>
       <c r="W48" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0.7375609756097562</v>
       </c>
       <c r="Y48" s="9" t="s">
         <v>205</v>
       </c>
       <c r="Z48" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>888</v>
       </c>
       <c r="AA48" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>1776</v>
       </c>
       <c r="AB48" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>3552</v>
       </c>
       <c r="AC48" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>5328</v>
       </c>
       <c r="AD48" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>6216</v>
       </c>
       <c r="AE48" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>17760</v>
       </c>
       <c r="AF48" s="1">
@@ -7292,89 +7423,89 @@
         <v>24</v>
       </c>
       <c r="H49" s="9">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>365</v>
       </c>
       <c r="I49" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>730</v>
       </c>
       <c r="J49" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1460</v>
       </c>
       <c r="K49" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>2189</v>
       </c>
       <c r="L49" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>2554</v>
       </c>
       <c r="M49" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>5108</v>
       </c>
       <c r="N49" s="9">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>7298</v>
       </c>
       <c r="O49" s="9">
         <v>130</v>
       </c>
       <c r="P49" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>7296</v>
       </c>
       <c r="Q49" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>5928</v>
       </c>
       <c r="R49" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>2.2285714285714286</v>
       </c>
       <c r="S49" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>2.117142857142857</v>
       </c>
       <c r="T49" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>1.4857142857142858</v>
       </c>
       <c r="U49" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1.4114285714285715</v>
       </c>
       <c r="V49" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0.88780487804878061</v>
       </c>
       <c r="W49" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0.84341463414634155</v>
       </c>
       <c r="Y49" s="9" t="s">
         <v>206</v>
       </c>
       <c r="Z49" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>1200</v>
       </c>
       <c r="AA49" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>2400</v>
       </c>
       <c r="AB49" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>4800</v>
       </c>
       <c r="AC49" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>7200</v>
       </c>
       <c r="AD49" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>8400</v>
       </c>
       <c r="AE49" s="1">
@@ -7390,50 +7521,50 @@
         <v>25</v>
       </c>
       <c r="H50" s="9">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>408</v>
       </c>
       <c r="I50" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>816</v>
       </c>
       <c r="J50" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1632</v>
       </c>
       <c r="K50" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>2448</v>
       </c>
       <c r="L50" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>2856</v>
       </c>
       <c r="M50" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>5712</v>
       </c>
       <c r="N50" s="9">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>8160</v>
       </c>
       <c r="O50" s="9">
         <v>140</v>
       </c>
       <c r="P50" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>8160</v>
       </c>
       <c r="Q50" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>6720</v>
       </c>
       <c r="R50" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>2.4</v>
       </c>
       <c r="S50" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>2.4</v>
       </c>
       <c r="T50" s="1">
@@ -7441,42 +7572,42 @@
         <v>0.95609756097560994</v>
       </c>
       <c r="U50" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1.6</v>
       </c>
       <c r="V50" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0.95609756097560994</v>
       </c>
       <c r="W50" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0.95609756097560994</v>
       </c>
       <c r="Y50" s="9" t="s">
         <v>207</v>
       </c>
       <c r="Z50" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>1248</v>
       </c>
       <c r="AA50" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>2496</v>
       </c>
       <c r="AB50" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>4992</v>
       </c>
       <c r="AC50" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>7488</v>
       </c>
       <c r="AD50" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>8736</v>
       </c>
       <c r="AE50" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>24960</v>
       </c>
       <c r="AF50" s="1">
@@ -7508,27 +7639,27 @@
         <v>208</v>
       </c>
       <c r="Z51" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>1296</v>
       </c>
       <c r="AA51" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>2592</v>
       </c>
       <c r="AB51" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>5184</v>
       </c>
       <c r="AC51" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>7776</v>
       </c>
       <c r="AD51" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>9072</v>
       </c>
       <c r="AE51" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>25920</v>
       </c>
       <c r="AF51" s="1">
@@ -7544,23 +7675,23 @@
         <v>6.8571428571428568</v>
       </c>
       <c r="S52" s="23">
-        <f t="shared" ref="S52:W52" si="42">SUM(S53:S54)</f>
+        <f t="shared" ref="S52:W52" si="45">SUM(S53:S54)</f>
         <v>6.7012987012987013</v>
       </c>
       <c r="T52" s="23">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>2.7317073170731709</v>
       </c>
       <c r="U52" s="23">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>4.4675324675324681</v>
       </c>
       <c r="V52" s="23">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>2.7317073170731709</v>
       </c>
       <c r="W52" s="23">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>2.6696230598669626</v>
       </c>
       <c r="X52"/>
@@ -7568,27 +7699,27 @@
         <v>209</v>
       </c>
       <c r="Z52" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>1440</v>
       </c>
       <c r="AA52" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>2880</v>
       </c>
       <c r="AB52" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>5760</v>
       </c>
       <c r="AC52" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>8640</v>
       </c>
       <c r="AD52" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>10080</v>
       </c>
       <c r="AE52" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>28800</v>
       </c>
       <c r="AF52" s="1">
@@ -7600,31 +7731,31 @@
         <v>105</v>
       </c>
       <c r="H53" s="9">
-        <f t="shared" ref="H53:H63" si="43">ROUNDUP((P53*$B$30/100),0)</f>
+        <f t="shared" ref="H53:H63" si="46">ROUNDUP((P53*$B$30/100),0)</f>
         <v>580</v>
       </c>
       <c r="I53" s="9">
-        <f t="shared" ref="I53:I65" si="44">ROUNDUP((P53*$B$31/100),0)</f>
+        <f t="shared" ref="I53:I65" si="47">ROUNDUP((P53*$B$31/100),0)</f>
         <v>1160</v>
       </c>
       <c r="J53" s="9">
-        <f t="shared" ref="J53:J65" si="45">ROUNDUP((P53*$B$32/100),0)</f>
+        <f t="shared" ref="J53:J65" si="48">ROUNDUP((P53*$B$32/100),0)</f>
         <v>2319</v>
       </c>
       <c r="K53" s="9">
-        <f t="shared" ref="K53:K65" si="46">ROUNDUP((P53*$B$33/100),0)</f>
+        <f t="shared" ref="K53:K65" si="49">ROUNDUP((P53*$B$33/100),0)</f>
         <v>3478</v>
       </c>
       <c r="L53" s="9">
-        <f t="shared" ref="L53:L65" si="47">ROUNDUP((P53*$B$34/100),0)</f>
+        <f t="shared" ref="L53:L65" si="50">ROUNDUP((P53*$B$34/100),0)</f>
         <v>4058</v>
       </c>
       <c r="M53" s="9">
-        <f t="shared" ref="M53:M66" si="48">L53*$B$43</f>
+        <f t="shared" ref="M53:M66" si="51">L53*$B$43</f>
         <v>8116</v>
       </c>
       <c r="N53" s="9">
-        <f t="shared" ref="N53" si="49">SUM(H53:L53)</f>
+        <f t="shared" ref="N53" si="52">SUM(H53:L53)</f>
         <v>11595</v>
       </c>
       <c r="O53" s="9">
@@ -7666,27 +7797,27 @@
         <v>210</v>
       </c>
       <c r="Z53" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>1488</v>
       </c>
       <c r="AA53" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>2976</v>
       </c>
       <c r="AB53" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>5952</v>
       </c>
       <c r="AC53" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>8928</v>
       </c>
       <c r="AD53" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>10416</v>
       </c>
       <c r="AE53" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>29760</v>
       </c>
       <c r="AF53" s="1">
@@ -7698,31 +7829,31 @@
         <v>106</v>
       </c>
       <c r="H54" s="9">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>608</v>
       </c>
       <c r="I54" s="9">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>1215</v>
       </c>
       <c r="J54" s="9">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>2429</v>
       </c>
       <c r="K54" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>3644</v>
       </c>
       <c r="L54" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>4251</v>
       </c>
       <c r="M54" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>8502</v>
       </c>
       <c r="N54" s="9">
-        <f t="shared" ref="N54:N59" si="50">SUM(H54:L54)</f>
+        <f t="shared" ref="N54:N59" si="53">SUM(H54:L54)</f>
         <v>12147</v>
       </c>
       <c r="O54" s="9">
@@ -7764,27 +7895,27 @@
         <v>211</v>
       </c>
       <c r="Z54" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>1536</v>
       </c>
       <c r="AA54" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>3072</v>
       </c>
       <c r="AB54" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>6144</v>
       </c>
       <c r="AC54" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>9216</v>
       </c>
       <c r="AD54" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>10752</v>
       </c>
       <c r="AE54" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>30720</v>
       </c>
       <c r="AF54" s="1">
@@ -7796,31 +7927,31 @@
         <v>172</v>
       </c>
       <c r="H55" s="9">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>635</v>
       </c>
       <c r="I55" s="9">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>1270</v>
       </c>
       <c r="J55" s="9">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>2540</v>
       </c>
       <c r="K55" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>3809</v>
       </c>
       <c r="L55" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>4444</v>
       </c>
       <c r="M55" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>8888</v>
       </c>
       <c r="N55" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>12698</v>
       </c>
       <c r="O55" s="9">
@@ -7834,27 +7965,27 @@
         <v>212</v>
       </c>
       <c r="Z55" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>1584</v>
       </c>
       <c r="AA55" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>3168</v>
       </c>
       <c r="AB55" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>6336</v>
       </c>
       <c r="AC55" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>9504</v>
       </c>
       <c r="AD55" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>11088</v>
       </c>
       <c r="AE55" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>31680</v>
       </c>
       <c r="AF55" s="1">
@@ -7866,31 +7997,31 @@
         <v>175</v>
       </c>
       <c r="H56" s="9">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>692</v>
       </c>
       <c r="I56" s="9">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>1383</v>
       </c>
       <c r="J56" s="9">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>2765</v>
       </c>
       <c r="K56" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>4148</v>
       </c>
       <c r="L56" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>4839</v>
       </c>
       <c r="M56" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>9678</v>
       </c>
       <c r="N56" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>13827</v>
       </c>
       <c r="O56" s="9">
@@ -7906,31 +8037,31 @@
         <v>195</v>
       </c>
       <c r="H57" s="9">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>750</v>
       </c>
       <c r="I57" s="9">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>1500</v>
       </c>
       <c r="J57" s="9">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>3000</v>
       </c>
       <c r="K57" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>4500</v>
       </c>
       <c r="L57" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>5250</v>
       </c>
       <c r="M57" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>10500</v>
       </c>
       <c r="N57" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>15000</v>
       </c>
       <c r="O57" s="9">
@@ -7946,31 +8077,31 @@
         <v>246</v>
       </c>
       <c r="H58" s="9">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>843</v>
       </c>
       <c r="I58" s="9">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>1685</v>
       </c>
       <c r="J58" s="9">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>3370</v>
       </c>
       <c r="K58" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>5055</v>
       </c>
       <c r="L58" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>5897</v>
       </c>
       <c r="M58" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>11794</v>
       </c>
       <c r="N58" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>16850</v>
       </c>
       <c r="O58" s="9">
@@ -7986,31 +8117,31 @@
         <v>313</v>
       </c>
       <c r="H59" s="9">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>940</v>
       </c>
       <c r="I59" s="9">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>1880</v>
       </c>
       <c r="J59" s="9">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>3759</v>
       </c>
       <c r="K59" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>5638</v>
       </c>
       <c r="L59" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>6578</v>
       </c>
       <c r="M59" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>13156</v>
       </c>
       <c r="N59" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>18795</v>
       </c>
       <c r="O59" s="9">
@@ -8029,31 +8160,31 @@
         <v>368</v>
       </c>
       <c r="H60" s="9">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>1042</v>
       </c>
       <c r="I60" s="9">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>2084</v>
       </c>
       <c r="J60" s="9">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>4167</v>
       </c>
       <c r="K60" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>6250</v>
       </c>
       <c r="L60" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>7292</v>
       </c>
       <c r="M60" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>14584</v>
       </c>
       <c r="N60" s="9">
-        <f t="shared" ref="N60" si="51">SUM(H60:L60)</f>
+        <f t="shared" ref="N60" si="54">SUM(H60:L60)</f>
         <v>20835</v>
       </c>
       <c r="O60" s="9">
@@ -8093,31 +8224,31 @@
         <v>375</v>
       </c>
       <c r="H61" s="9">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>1149</v>
       </c>
       <c r="I61" s="9">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>2297</v>
       </c>
       <c r="J61" s="9">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>4594</v>
       </c>
       <c r="K61" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>6891</v>
       </c>
       <c r="L61" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>8039</v>
       </c>
       <c r="M61" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>16078</v>
       </c>
       <c r="N61" s="9">
-        <f t="shared" ref="N61" si="52">SUM(H61:L61)</f>
+        <f t="shared" ref="N61" si="55">SUM(H61:L61)</f>
         <v>22970</v>
       </c>
       <c r="O61" s="9">
@@ -8134,23 +8265,23 @@
         <v>0.01</v>
       </c>
       <c r="AA61" s="9">
-        <f t="shared" ref="AA61:AA75" si="53">ROUNDUP(((Z41/$B$39)*$B$40)*((100+AF61)/100),0)/100</f>
+        <f t="shared" ref="AA61:AA75" si="56">ROUNDUP(((Z41/$B$39)*$B$40)*((100+AF61)/100),0)/100</f>
         <v>0.22</v>
       </c>
       <c r="AB61" s="9">
-        <f t="shared" ref="AB61:AB75" si="54">ROUNDUP(((AA41/$B$39)*$B$40)*((100+AF61)/100),0)/100</f>
+        <f t="shared" ref="AB61:AB75" si="57">ROUNDUP(((AA41/$B$39)*$B$40)*((100+AF61)/100),0)/100</f>
         <v>0.44</v>
       </c>
       <c r="AC61" s="9">
-        <f t="shared" ref="AC61:AC75" si="55">ROUNDUP(((AB41/$B$39)*$B$40)*((100+AF61)/100),0)/100</f>
+        <f t="shared" ref="AC61:AC75" si="58">ROUNDUP(((AB41/$B$39)*$B$40)*((100+AF61)/100),0)/100</f>
         <v>0.87</v>
       </c>
       <c r="AD61" s="9">
-        <f t="shared" ref="AD61:AD75" si="56">ROUNDUP(((AC41/$B$39)*$B$40)*((100+AF61)/100),0)/100</f>
+        <f t="shared" ref="AD61:AD75" si="59">ROUNDUP(((AC41/$B$39)*$B$40)*((100+AF61)/100),0)/100</f>
         <v>1.3</v>
       </c>
       <c r="AE61" s="9">
-        <f t="shared" ref="AE61:AE75" si="57">ROUNDUP(((AD41/$B$39)*$B$40)*((100+AF61)/100),0)/100</f>
+        <f t="shared" ref="AE61:AE75" si="60">ROUNDUP(((AD41/$B$39)*$B$40)*((100+AF61)/100),0)/100</f>
         <v>1.52</v>
       </c>
       <c r="AF61" s="1">
@@ -8162,31 +8293,31 @@
         <v>387</v>
       </c>
       <c r="H62" s="9">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>1260</v>
       </c>
       <c r="I62" s="9">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>2520</v>
       </c>
       <c r="J62" s="9">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>5040</v>
       </c>
       <c r="K62" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>7560</v>
       </c>
       <c r="L62" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>8820</v>
       </c>
       <c r="M62" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>17640</v>
       </c>
       <c r="N62" s="9">
-        <f t="shared" ref="N62" si="58">SUM(H62:L62)</f>
+        <f t="shared" ref="N62" si="61">SUM(H62:L62)</f>
         <v>25200</v>
       </c>
       <c r="O62" s="9">
@@ -8203,23 +8334,23 @@
         <v>0.02</v>
       </c>
       <c r="AA62" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>0.24</v>
       </c>
       <c r="AB62" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>0.47</v>
       </c>
       <c r="AC62" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>0.93</v>
       </c>
       <c r="AD62" s="9">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>1.4</v>
       </c>
       <c r="AE62" s="9">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>1.63</v>
       </c>
       <c r="AF62" s="1">
@@ -8231,31 +8362,31 @@
         <v>418</v>
       </c>
       <c r="H63" s="9">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>1377</v>
       </c>
       <c r="I63" s="9">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>2753</v>
       </c>
       <c r="J63" s="9">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>5506</v>
       </c>
       <c r="K63" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>8259</v>
       </c>
       <c r="L63" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>9635</v>
       </c>
       <c r="M63" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>19270</v>
       </c>
       <c r="N63" s="9">
-        <f t="shared" ref="N63" si="59">SUM(H63:L63)</f>
+        <f t="shared" ref="N63" si="62">SUM(H63:L63)</f>
         <v>27530</v>
       </c>
       <c r="O63" s="9">
@@ -8272,23 +8403,23 @@
         <v>0.03</v>
       </c>
       <c r="AA63" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>0.25</v>
       </c>
       <c r="AB63" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>0.5</v>
       </c>
       <c r="AC63" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="AD63" s="9">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>1.5</v>
       </c>
       <c r="AE63" s="9">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>1.75</v>
       </c>
       <c r="AF63" s="1">
@@ -8300,31 +8431,31 @@
         <v>431</v>
       </c>
       <c r="H64" s="9">
-        <f t="shared" ref="H64:H65" si="60">ROUNDUP((P64*$B$30/100),0)</f>
+        <f t="shared" ref="H64:H65" si="63">ROUNDUP((P64*$B$30/100),0)</f>
         <v>1545</v>
       </c>
       <c r="I64" s="9">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>3089</v>
       </c>
       <c r="J64" s="9">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>6178</v>
       </c>
       <c r="K64" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>9267</v>
       </c>
       <c r="L64" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>10811</v>
       </c>
       <c r="M64" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>21622</v>
       </c>
       <c r="N64" s="9">
-        <f t="shared" ref="N64" si="61">SUM(H64:L64)</f>
+        <f t="shared" ref="N64" si="64">SUM(H64:L64)</f>
         <v>30890</v>
       </c>
       <c r="O64" s="9">
@@ -8341,23 +8472,23 @@
         <v>0.04</v>
       </c>
       <c r="AA64" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>0.27</v>
       </c>
       <c r="AB64" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>0.54</v>
       </c>
       <c r="AC64" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>1.07</v>
       </c>
       <c r="AD64" s="9">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>1.6</v>
       </c>
       <c r="AE64" s="9">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>1.87</v>
       </c>
       <c r="AF64" s="1">
@@ -8369,31 +8500,31 @@
         <v>451</v>
       </c>
       <c r="H65" s="9">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>1722</v>
       </c>
       <c r="I65" s="9">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>3444</v>
       </c>
       <c r="J65" s="9">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>6888</v>
       </c>
       <c r="K65" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>10332</v>
       </c>
       <c r="L65" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>12054</v>
       </c>
       <c r="M65" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>24108</v>
       </c>
       <c r="N65" s="9">
-        <f t="shared" ref="N65:N66" si="62">SUM(H65:L65)</f>
+        <f t="shared" ref="N65:N66" si="65">SUM(H65:L65)</f>
         <v>34440</v>
       </c>
       <c r="O65" s="9">
@@ -8410,23 +8541,23 @@
         <v>0.05</v>
       </c>
       <c r="AA65" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>0.3</v>
       </c>
       <c r="AB65" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>0.59</v>
       </c>
       <c r="AC65" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>1.18</v>
       </c>
       <c r="AD65" s="9">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>1.77</v>
       </c>
       <c r="AE65" s="9">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>2.06</v>
       </c>
       <c r="AF65" s="1">
@@ -8438,31 +8569,31 @@
         <v>464</v>
       </c>
       <c r="H66" s="9">
-        <f t="shared" ref="H66" si="63">ROUNDUP((P66*$B$30/100),0)</f>
+        <f t="shared" ref="H66:H67" si="66">ROUNDUP((P66*$B$30/100),0)</f>
         <v>1910</v>
       </c>
       <c r="I66" s="9">
-        <f t="shared" ref="I66" si="64">ROUNDUP((P66*$B$31/100),0)</f>
+        <f t="shared" ref="I66:I67" si="67">ROUNDUP((P66*$B$31/100),0)</f>
         <v>3819</v>
       </c>
       <c r="J66" s="9">
-        <f t="shared" ref="J66" si="65">ROUNDUP((P66*$B$32/100),0)</f>
+        <f t="shared" ref="J66:J67" si="68">ROUNDUP((P66*$B$32/100),0)</f>
         <v>7637</v>
       </c>
       <c r="K66" s="9">
-        <f t="shared" ref="K66" si="66">ROUNDUP((P66*$B$33/100),0)</f>
+        <f t="shared" ref="K66:K67" si="69">ROUNDUP((P66*$B$33/100),0)</f>
         <v>11456</v>
       </c>
       <c r="L66" s="9">
-        <f t="shared" ref="L66" si="67">ROUNDUP((P66*$B$34/100),0)</f>
+        <f t="shared" ref="L66:L67" si="70">ROUNDUP((P66*$B$34/100),0)</f>
         <v>13365</v>
       </c>
       <c r="M66" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>26730</v>
       </c>
       <c r="N66" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>38187</v>
       </c>
       <c r="O66" s="9">
@@ -8479,23 +8610,23 @@
         <v>0.06</v>
       </c>
       <c r="AA66" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>0.33</v>
       </c>
       <c r="AB66" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>0.65</v>
       </c>
       <c r="AC66" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>1.3</v>
       </c>
       <c r="AD66" s="9">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>1.94</v>
       </c>
       <c r="AE66" s="9">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="AF66" s="1">
@@ -8503,6 +8634,44 @@
       </c>
     </row>
     <row r="67" spans="7:32">
+      <c r="G67" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="H67" s="9">
+        <f t="shared" si="66"/>
+        <v>2106</v>
+      </c>
+      <c r="I67" s="9">
+        <f t="shared" si="67"/>
+        <v>4212</v>
+      </c>
+      <c r="J67" s="9">
+        <f t="shared" si="68"/>
+        <v>8424</v>
+      </c>
+      <c r="K67" s="9">
+        <f t="shared" si="69"/>
+        <v>12636</v>
+      </c>
+      <c r="L67" s="9">
+        <f t="shared" si="70"/>
+        <v>14742</v>
+      </c>
+      <c r="M67" s="9">
+        <f t="shared" ref="M67" si="71">L67*$B$43</f>
+        <v>29484</v>
+      </c>
+      <c r="N67" s="9">
+        <f t="shared" ref="N67" si="72">SUM(H67:L67)</f>
+        <v>42120</v>
+      </c>
+      <c r="O67" s="9">
+        <v>360</v>
+      </c>
+      <c r="P67" s="9">
+        <f>(H33*$B$9*$B$18)*(O67/100)+I33</f>
+        <v>42120</v>
+      </c>
       <c r="Y67" s="9" t="s">
         <v>204</v>
       </c>
@@ -8510,23 +8679,23 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AA67" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>0.36</v>
       </c>
       <c r="AB67" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>0.71</v>
       </c>
       <c r="AC67" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>1.42</v>
       </c>
       <c r="AD67" s="9">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>2.12</v>
       </c>
       <c r="AE67" s="9">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>2.4700000000000002</v>
       </c>
       <c r="AF67" s="1">
@@ -8541,23 +8710,23 @@
         <v>0.08</v>
       </c>
       <c r="AA68" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>0.4</v>
       </c>
       <c r="AB68" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>0.79</v>
       </c>
       <c r="AC68" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>1.58</v>
       </c>
       <c r="AD68" s="9">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>2.37</v>
       </c>
       <c r="AE68" s="9">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>2.76</v>
       </c>
       <c r="AF68" s="1">
@@ -8572,23 +8741,23 @@
         <v>0.09</v>
       </c>
       <c r="AA69" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>0.57999999999999996</v>
       </c>
       <c r="AB69" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>1.1599999999999999</v>
       </c>
       <c r="AC69" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>2.31</v>
       </c>
       <c r="AD69" s="9">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>3.46</v>
       </c>
       <c r="AE69" s="9">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>4.04</v>
       </c>
       <c r="AF69" s="1">
@@ -8616,23 +8785,23 @@
         <v>0.1</v>
       </c>
       <c r="AA70" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>0.65</v>
       </c>
       <c r="AB70" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>1.29</v>
       </c>
       <c r="AC70" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>2.58</v>
       </c>
       <c r="AD70" s="9">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>3.87</v>
       </c>
       <c r="AE70" s="9">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>4.51</v>
       </c>
       <c r="AF70" s="1">
@@ -8683,23 +8852,23 @@
         <v>0.11</v>
       </c>
       <c r="AA71" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>0.72</v>
       </c>
       <c r="AB71" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>1.44</v>
       </c>
       <c r="AC71" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>2.87</v>
       </c>
       <c r="AD71" s="9">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>4.3</v>
       </c>
       <c r="AE71" s="9">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>5.01</v>
       </c>
       <c r="AF71" s="1">
@@ -8714,34 +8883,34 @@
         <v>0.01</v>
       </c>
       <c r="I72" s="9">
-        <f t="shared" ref="I72:I81" si="68">ROUNDUP(((H41/$B$39)*$B$40)*((100+O72)/100),0)/100</f>
+        <f t="shared" ref="I72:I81" si="73">ROUNDUP(((H41/$B$39)*$B$40)*((100+O72)/100),0)/100</f>
         <v>0.02</v>
       </c>
       <c r="J72" s="9">
-        <f t="shared" ref="J72:J81" si="69">ROUNDUP(((I41/$B$39)*$B$40)*((100+O72)/100),0)/100</f>
+        <f t="shared" ref="J72:J81" si="74">ROUNDUP(((I41/$B$39)*$B$40)*((100+O72)/100),0)/100</f>
         <v>0.03</v>
       </c>
       <c r="K72" s="9">
-        <f t="shared" ref="K72:K81" si="70">ROUNDUP(((J41/$B$39)*$B$40)*((100+O72)/100),0)/100</f>
+        <f t="shared" ref="K72:K81" si="75">ROUNDUP(((J41/$B$39)*$B$40)*((100+O72)/100),0)/100</f>
         <v>0.06</v>
       </c>
       <c r="L72" s="9">
-        <f t="shared" ref="L72:L81" si="71">ROUNDUP(((K41/$B$39)*$B$40)*((100+O72)/100),0)/100</f>
+        <f t="shared" ref="L72:L81" si="76">ROUNDUP(((K41/$B$39)*$B$40)*((100+O72)/100),0)/100</f>
         <v>0.09</v>
       </c>
       <c r="M72" s="9">
-        <f t="shared" ref="M72:M81" si="72">ROUNDUP(((L41/$B$39)*$B$40)*((100+O72)/100),0)/100</f>
+        <f t="shared" ref="M72:M81" si="77">ROUNDUP(((L41/$B$39)*$B$40)*((100+O72)/100),0)/100</f>
         <v>0.1</v>
       </c>
       <c r="N72" s="9">
-        <f t="shared" ref="N72:N81" si="73">ROUNDUP(((M41/$B$39)*$B$40)*((100+O72)/100),0)/100</f>
+        <f t="shared" ref="N72:N81" si="78">ROUNDUP(((M41/$B$39)*$B$40)*((100+O72)/100),0)/100</f>
         <v>0.2</v>
       </c>
       <c r="O72" s="10">
         <v>10</v>
       </c>
       <c r="P72" s="10">
-        <f t="shared" ref="P72:P84" si="74">SUM(H72:M72)</f>
+        <f t="shared" ref="P72:P84" si="79">SUM(H72:M72)</f>
         <v>0.31</v>
       </c>
       <c r="Q72" s="9">
@@ -8749,7 +8918,7 @@
         <v>0.2</v>
       </c>
       <c r="R72" s="10">
-        <f t="shared" ref="R72:R92" si="75">((P72+Q72)/$P$70)*100</f>
+        <f t="shared" ref="R72:R92" si="80">((P72+Q72)/$P$70)*100</f>
         <v>2.3087369850611137</v>
       </c>
       <c r="Y72" s="9" t="s">
@@ -8759,23 +8928,23 @@
         <v>0.12</v>
       </c>
       <c r="AA72" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>0.85</v>
       </c>
       <c r="AB72" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>1.7</v>
       </c>
       <c r="AC72" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>3.39</v>
       </c>
       <c r="AD72" s="9">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>5.09</v>
       </c>
       <c r="AE72" s="9">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>5.93</v>
       </c>
       <c r="AF72" s="1">
@@ -8790,42 +8959,42 @@
         <v>0.01</v>
       </c>
       <c r="I73" s="9">
-        <f t="shared" si="68"/>
+        <f t="shared" si="73"/>
         <v>0.02</v>
       </c>
       <c r="J73" s="9">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>0.04</v>
       </c>
       <c r="K73" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="75"/>
         <v>0.08</v>
       </c>
       <c r="L73" s="9">
-        <f t="shared" si="71"/>
+        <f t="shared" si="76"/>
         <v>0.12</v>
       </c>
       <c r="M73" s="9">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="N73" s="9">
-        <f t="shared" si="73"/>
+        <f t="shared" si="78"/>
         <v>0.27</v>
       </c>
       <c r="O73" s="10">
         <v>20</v>
       </c>
       <c r="P73" s="10">
-        <f t="shared" si="74"/>
+        <f t="shared" si="79"/>
         <v>0.41000000000000003</v>
       </c>
       <c r="Q73" s="9">
-        <f t="shared" ref="Q73:Q92" si="76">N73</f>
+        <f t="shared" ref="Q73:Q92" si="81">N73</f>
         <v>0.27</v>
       </c>
       <c r="R73" s="10">
-        <f t="shared" si="75"/>
+        <f t="shared" si="80"/>
         <v>3.0783159800814848</v>
       </c>
       <c r="Y73" s="9" t="s">
@@ -8835,23 +9004,23 @@
         <v>0.13</v>
       </c>
       <c r="AA73" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>0.93</v>
       </c>
       <c r="AB73" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>1.86</v>
       </c>
       <c r="AC73" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>3.72</v>
       </c>
       <c r="AD73" s="9">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>5.58</v>
       </c>
       <c r="AE73" s="9">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>6.5</v>
       </c>
       <c r="AF73" s="1">
@@ -8866,42 +9035,42 @@
         <v>0.02</v>
       </c>
       <c r="I74" s="9">
-        <f t="shared" si="68"/>
+        <f t="shared" si="73"/>
         <v>0.03</v>
       </c>
       <c r="J74" s="9">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>0.05</v>
       </c>
       <c r="K74" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="75"/>
         <v>0.1</v>
       </c>
       <c r="L74" s="9">
-        <f t="shared" si="71"/>
+        <f t="shared" si="76"/>
         <v>0.15</v>
       </c>
       <c r="M74" s="9">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>0.18</v>
       </c>
       <c r="N74" s="9">
-        <f t="shared" si="73"/>
+        <f t="shared" si="78"/>
         <v>0.35</v>
       </c>
       <c r="O74" s="10">
         <v>30</v>
       </c>
       <c r="P74" s="10">
-        <f t="shared" si="74"/>
+        <f t="shared" si="79"/>
         <v>0.53</v>
       </c>
       <c r="Q74" s="9">
-        <f t="shared" si="76"/>
+        <f t="shared" si="81"/>
         <v>0.35</v>
       </c>
       <c r="R74" s="10">
-        <f t="shared" si="75"/>
+        <f t="shared" si="80"/>
         <v>3.9837030330466274</v>
       </c>
       <c r="Y74" s="9" t="s">
@@ -8911,23 +9080,23 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="AA74" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>1.02</v>
       </c>
       <c r="AB74" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>2.0299999999999998</v>
       </c>
       <c r="AC74" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>4.0599999999999996</v>
       </c>
       <c r="AD74" s="9">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>6.09</v>
       </c>
       <c r="AE74" s="9">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>7.1</v>
       </c>
       <c r="AF74" s="1">
@@ -8942,42 +9111,42 @@
         <v>0.02</v>
       </c>
       <c r="I75" s="9">
-        <f t="shared" si="68"/>
+        <f t="shared" si="73"/>
         <v>0.04</v>
       </c>
       <c r="J75" s="9">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="K75" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="75"/>
         <v>0.13</v>
       </c>
       <c r="L75" s="9">
-        <f t="shared" si="71"/>
+        <f t="shared" si="76"/>
         <v>0.19</v>
       </c>
       <c r="M75" s="9">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>0.22</v>
       </c>
       <c r="N75" s="9">
-        <f t="shared" si="73"/>
+        <f t="shared" si="78"/>
         <v>0.44</v>
       </c>
       <c r="O75" s="10">
         <v>40</v>
       </c>
       <c r="P75" s="10">
-        <f t="shared" si="74"/>
+        <f t="shared" si="79"/>
         <v>0.67</v>
       </c>
       <c r="Q75" s="9">
-        <f t="shared" si="76"/>
+        <f t="shared" si="81"/>
         <v>0.44</v>
       </c>
       <c r="R75" s="10">
-        <f t="shared" si="75"/>
+        <f t="shared" si="80"/>
         <v>5.0248981439565421</v>
       </c>
       <c r="Y75" s="9" t="s">
@@ -8987,23 +9156,23 @@
         <v>0.15</v>
       </c>
       <c r="AA75" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>1.1100000000000001</v>
       </c>
       <c r="AB75" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>2.21</v>
       </c>
       <c r="AC75" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>4.41</v>
       </c>
       <c r="AD75" s="9">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>6.62</v>
       </c>
       <c r="AE75" s="9">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>7.72</v>
       </c>
       <c r="AF75" s="1">
@@ -9018,42 +9187,42 @@
         <v>0.03</v>
       </c>
       <c r="I76" s="9">
-        <f t="shared" si="68"/>
+        <f t="shared" si="73"/>
         <v>0.04</v>
       </c>
       <c r="J76" s="9">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>0.08</v>
       </c>
       <c r="K76" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="75"/>
         <v>0.16</v>
       </c>
       <c r="L76" s="9">
-        <f t="shared" si="71"/>
+        <f t="shared" si="76"/>
         <v>0.24</v>
       </c>
       <c r="M76" s="9">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="N76" s="9">
-        <f t="shared" si="73"/>
+        <f t="shared" si="78"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="O76" s="10">
         <v>50</v>
       </c>
       <c r="P76" s="10">
-        <f t="shared" si="74"/>
+        <f t="shared" si="79"/>
         <v>0.83000000000000007</v>
       </c>
       <c r="Q76" s="9">
-        <f t="shared" si="76"/>
+        <f t="shared" si="81"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="R76" s="10">
-        <f t="shared" si="75"/>
+        <f t="shared" si="80"/>
         <v>6.2471706654594845</v>
       </c>
     </row>
@@ -9065,42 +9234,42 @@
         <v>0.03</v>
       </c>
       <c r="I77" s="9">
-        <f t="shared" si="68"/>
+        <f t="shared" si="73"/>
         <v>0.05</v>
       </c>
       <c r="J77" s="9">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>0.1</v>
       </c>
       <c r="K77" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="75"/>
         <v>0.2</v>
       </c>
       <c r="L77" s="9">
-        <f t="shared" si="71"/>
+        <f t="shared" si="76"/>
         <v>0.28999999999999998</v>
       </c>
       <c r="M77" s="9">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>0.34</v>
       </c>
       <c r="N77" s="9">
-        <f t="shared" si="73"/>
+        <f t="shared" si="78"/>
         <v>0.68</v>
       </c>
       <c r="O77" s="10">
         <v>60</v>
       </c>
       <c r="P77" s="10">
-        <f t="shared" si="74"/>
+        <f t="shared" si="79"/>
         <v>1.01</v>
       </c>
       <c r="Q77" s="9">
-        <f t="shared" si="76"/>
+        <f t="shared" si="81"/>
         <v>0.68</v>
       </c>
       <c r="R77" s="10">
-        <f t="shared" si="75"/>
+        <f t="shared" si="80"/>
         <v>7.6505205975554542</v>
       </c>
     </row>
@@ -9112,42 +9281,42 @@
         <v>0.04</v>
       </c>
       <c r="I78" s="9">
-        <f t="shared" si="68"/>
+        <f t="shared" si="73"/>
         <v>0.06</v>
       </c>
       <c r="J78" s="9">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>0.12</v>
       </c>
       <c r="K78" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="75"/>
         <v>0.24</v>
       </c>
       <c r="L78" s="9">
-        <f t="shared" si="71"/>
+        <f t="shared" si="76"/>
         <v>0.35</v>
       </c>
       <c r="M78" s="9">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>0.41</v>
       </c>
       <c r="N78" s="9">
-        <f t="shared" si="73"/>
+        <f t="shared" si="78"/>
         <v>0.82</v>
       </c>
       <c r="O78" s="10">
         <v>70</v>
       </c>
       <c r="P78" s="10">
-        <f t="shared" si="74"/>
+        <f t="shared" si="79"/>
         <v>1.22</v>
       </c>
       <c r="Q78" s="9">
-        <f t="shared" si="76"/>
+        <f t="shared" si="81"/>
         <v>0.82</v>
       </c>
       <c r="R78" s="10">
-        <f t="shared" si="75"/>
+        <f t="shared" si="80"/>
         <v>9.2349479402444548</v>
       </c>
     </row>
@@ -9159,42 +9328,42 @@
         <v>0.04</v>
       </c>
       <c r="I79" s="9">
-        <f t="shared" si="68"/>
+        <f t="shared" si="73"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="J79" s="9">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="K79" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="75"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="L79" s="9">
-        <f t="shared" si="71"/>
+        <f t="shared" si="76"/>
         <v>0.42</v>
       </c>
       <c r="M79" s="9">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>0.49</v>
       </c>
       <c r="N79" s="9">
-        <f t="shared" si="73"/>
+        <f t="shared" si="78"/>
         <v>0.98</v>
       </c>
       <c r="O79" s="10">
         <v>80</v>
       </c>
       <c r="P79" s="10">
-        <f t="shared" si="74"/>
+        <f t="shared" si="79"/>
         <v>1.44</v>
       </c>
       <c r="Q79" s="9">
-        <f t="shared" si="76"/>
+        <f t="shared" si="81"/>
         <v>0.98</v>
       </c>
       <c r="R79" s="10">
-        <f t="shared" si="75"/>
+        <f t="shared" si="80"/>
         <v>10.955183340878225</v>
       </c>
     </row>
@@ -9206,42 +9375,42 @@
         <v>0.05</v>
       </c>
       <c r="I80" s="9">
-        <f t="shared" si="68"/>
+        <f t="shared" si="73"/>
         <v>0.09</v>
       </c>
       <c r="J80" s="9">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>0.17</v>
       </c>
       <c r="K80" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="75"/>
         <v>0.34</v>
       </c>
       <c r="L80" s="9">
-        <f t="shared" si="71"/>
+        <f t="shared" si="76"/>
         <v>0.5</v>
       </c>
       <c r="M80" s="9">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>0.59</v>
       </c>
       <c r="N80" s="9">
-        <f t="shared" si="73"/>
+        <f t="shared" si="78"/>
         <v>1.17</v>
       </c>
       <c r="O80" s="10">
         <v>90</v>
       </c>
       <c r="P80" s="10">
-        <f t="shared" si="74"/>
+        <f t="shared" si="79"/>
         <v>1.7400000000000002</v>
       </c>
       <c r="Q80" s="9">
-        <f t="shared" si="76"/>
+        <f t="shared" si="81"/>
         <v>1.17</v>
       </c>
       <c r="R80" s="10">
-        <f t="shared" si="75"/>
+        <f t="shared" si="80"/>
         <v>13.173381620642827</v>
       </c>
     </row>
@@ -9253,42 +9422,42 @@
         <v>0.05</v>
       </c>
       <c r="I81" s="9">
-        <f t="shared" si="68"/>
+        <f t="shared" si="73"/>
         <v>0.1</v>
       </c>
       <c r="J81" s="9">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>0.2</v>
       </c>
       <c r="K81" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="75"/>
         <v>0.4</v>
       </c>
       <c r="L81" s="9">
-        <f t="shared" si="71"/>
+        <f t="shared" si="76"/>
         <v>0.59</v>
       </c>
       <c r="M81" s="9">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>0.69</v>
       </c>
       <c r="N81" s="9">
-        <f t="shared" si="73"/>
+        <f t="shared" si="78"/>
         <v>1.38</v>
       </c>
       <c r="O81" s="10">
         <v>100</v>
       </c>
       <c r="P81" s="10">
-        <f t="shared" si="74"/>
+        <f t="shared" si="79"/>
         <v>2.0299999999999998</v>
       </c>
       <c r="Q81" s="9">
-        <f t="shared" si="76"/>
+        <f t="shared" si="81"/>
         <v>1.38</v>
       </c>
       <c r="R81" s="10">
-        <f t="shared" si="75"/>
+        <f t="shared" si="80"/>
         <v>15.436849253055678</v>
       </c>
     </row>
@@ -9300,42 +9469,42 @@
         <v>0.06</v>
       </c>
       <c r="I82" s="9">
-        <f t="shared" ref="I82:I94" si="77">ROUNDUP(((H53/$B$39)*$B$40)*((100+O82)/100),0)/100</f>
+        <f t="shared" ref="I82:I94" si="82">ROUNDUP(((H53/$B$39)*$B$40)*((100+O82)/100),0)/100</f>
         <v>0.15</v>
       </c>
       <c r="J82" s="9">
-        <f t="shared" ref="J82:J94" si="78">ROUNDUP(((I53/$B$39)*$B$40)*((100+O82)/100),0)/100</f>
+        <f t="shared" ref="J82:J94" si="83">ROUNDUP(((I53/$B$39)*$B$40)*((100+O82)/100),0)/100</f>
         <v>0.3</v>
       </c>
       <c r="K82" s="9">
-        <f t="shared" ref="K82:K94" si="79">ROUNDUP(((J53/$B$39)*$B$40)*((100+O82)/100),0)/100</f>
+        <f t="shared" ref="K82:K94" si="84">ROUNDUP(((J53/$B$39)*$B$40)*((100+O82)/100),0)/100</f>
         <v>0.59</v>
       </c>
       <c r="L82" s="9">
-        <f t="shared" ref="L82:L94" si="80">ROUNDUP(((K53/$B$39)*$B$40)*((100+O82)/100),0)/100</f>
+        <f t="shared" ref="L82:L94" si="85">ROUNDUP(((K53/$B$39)*$B$40)*((100+O82)/100),0)/100</f>
         <v>0.88</v>
       </c>
       <c r="M82" s="9">
-        <f t="shared" ref="M82:M94" si="81">ROUNDUP(((L53/$B$39)*$B$40)*((100+O82)/100),0)/100</f>
+        <f t="shared" ref="M82:M94" si="86">ROUNDUP(((L53/$B$39)*$B$40)*((100+O82)/100),0)/100</f>
         <v>1.03</v>
       </c>
       <c r="N82" s="9">
-        <f t="shared" ref="N82:N95" si="82">ROUNDUP(((M53/$B$39)*$B$40)*((100+O82)/100),0)/100</f>
+        <f t="shared" ref="N82:N95" si="87">ROUNDUP(((M53/$B$39)*$B$40)*((100+O82)/100),0)/100</f>
         <v>2.0499999999999998</v>
       </c>
       <c r="O82" s="10">
         <v>110</v>
       </c>
       <c r="P82" s="10">
-        <f t="shared" si="74"/>
+        <f t="shared" si="79"/>
         <v>3.01</v>
       </c>
       <c r="Q82" s="9">
-        <f t="shared" si="76"/>
+        <f t="shared" si="81"/>
         <v>2.0499999999999998</v>
       </c>
       <c r="R82" s="10">
-        <f t="shared" si="75"/>
+        <f t="shared" si="80"/>
         <v>22.906292440018106</v>
       </c>
     </row>
@@ -9347,42 +9516,42 @@
         <v>0.06</v>
       </c>
       <c r="I83" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="82"/>
         <v>0.17</v>
       </c>
       <c r="J83" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>0.33</v>
       </c>
       <c r="K83" s="9">
-        <f t="shared" si="79"/>
+        <f t="shared" si="84"/>
         <v>0.65</v>
       </c>
       <c r="L83" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="85"/>
         <v>0.97</v>
       </c>
       <c r="M83" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="86"/>
         <v>1.1299999999999999</v>
       </c>
       <c r="N83" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="87"/>
         <v>2.25</v>
       </c>
       <c r="O83" s="10">
         <v>120</v>
       </c>
       <c r="P83" s="10">
-        <f t="shared" si="74"/>
+        <f t="shared" si="79"/>
         <v>3.3099999999999996</v>
       </c>
       <c r="Q83" s="9">
-        <f t="shared" si="76"/>
+        <f t="shared" si="81"/>
         <v>2.25</v>
       </c>
       <c r="R83" s="10">
-        <f t="shared" si="75"/>
+        <f t="shared" si="80"/>
         <v>25.169760072430964</v>
       </c>
       <c r="Y83" s="9" t="s">
@@ -9403,42 +9572,42 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I84" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="82"/>
         <v>0.18</v>
       </c>
       <c r="J84" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>0.36</v>
       </c>
       <c r="K84" s="9">
-        <f t="shared" si="79"/>
+        <f t="shared" si="84"/>
         <v>0.71</v>
       </c>
       <c r="L84" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="85"/>
         <v>1.06</v>
       </c>
       <c r="M84" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="86"/>
         <v>1.23</v>
       </c>
       <c r="N84" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="87"/>
         <v>2.46</v>
       </c>
       <c r="O84" s="10">
         <v>130</v>
       </c>
       <c r="P84" s="10">
-        <f t="shared" si="74"/>
+        <f t="shared" si="79"/>
         <v>3.61</v>
       </c>
       <c r="Q84" s="9">
-        <f t="shared" si="76"/>
+        <f t="shared" si="81"/>
         <v>2.46</v>
       </c>
       <c r="R84" s="10">
-        <f t="shared" si="75"/>
+        <f t="shared" si="80"/>
         <v>27.478497057492078</v>
       </c>
       <c r="Y84" s="24" t="s">
@@ -9471,69 +9640,69 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I85" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="82"/>
         <v>0.2</v>
       </c>
       <c r="J85" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>0.4</v>
       </c>
       <c r="K85" s="9">
-        <f t="shared" si="79"/>
+        <f t="shared" si="84"/>
         <v>0.8</v>
       </c>
       <c r="L85" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="85"/>
         <v>1.2</v>
       </c>
       <c r="M85" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="86"/>
         <v>1.4</v>
       </c>
       <c r="N85" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="87"/>
         <v>2.79</v>
       </c>
       <c r="O85" s="10">
         <v>140</v>
       </c>
       <c r="P85" s="10">
-        <f t="shared" ref="P85:P88" si="83">SUM(H85:M85)</f>
+        <f t="shared" ref="P85:P88" si="88">SUM(H85:M85)</f>
         <v>4.07</v>
       </c>
       <c r="Q85" s="9">
-        <f t="shared" si="76"/>
+        <f t="shared" si="81"/>
         <v>2.79</v>
       </c>
       <c r="R85" s="10">
-        <f t="shared" si="75"/>
+        <f t="shared" si="80"/>
         <v>31.05477591670439</v>
       </c>
       <c r="Y85" s="9" t="s">
         <v>198</v>
       </c>
       <c r="Z85" s="9">
-        <f t="shared" ref="Z85:Z99" si="84">Z61</f>
+        <f t="shared" ref="Z85:Z99" si="89">Z61</f>
         <v>0.01</v>
       </c>
       <c r="AA85" s="9">
-        <f t="shared" ref="AA85:AE99" si="85">Z85+AA61</f>
+        <f t="shared" ref="AA85:AE99" si="90">Z85+AA61</f>
         <v>0.23</v>
       </c>
       <c r="AB85" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>0.67</v>
       </c>
       <c r="AC85" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>1.54</v>
       </c>
       <c r="AD85" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>2.84</v>
       </c>
       <c r="AE85" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>4.3599999999999994</v>
       </c>
     </row>
@@ -9545,69 +9714,69 @@
         <v>0.08</v>
       </c>
       <c r="I86" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="82"/>
         <v>0.23</v>
       </c>
       <c r="J86" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>0.45</v>
       </c>
       <c r="K86" s="9">
-        <f t="shared" si="79"/>
+        <f t="shared" si="84"/>
         <v>0.9</v>
       </c>
       <c r="L86" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="85"/>
         <v>1.35</v>
       </c>
       <c r="M86" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="86"/>
         <v>1.58</v>
       </c>
       <c r="N86" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="87"/>
         <v>3.15</v>
       </c>
       <c r="O86" s="10">
         <v>150</v>
       </c>
       <c r="P86" s="10">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>4.59</v>
       </c>
       <c r="Q86" s="9">
-        <f t="shared" si="76"/>
+        <f t="shared" si="81"/>
         <v>3.15</v>
       </c>
       <c r="R86" s="10">
-        <f t="shared" si="75"/>
+        <f t="shared" si="80"/>
         <v>35.038478949751017</v>
       </c>
       <c r="Y86" s="9" t="s">
         <v>199</v>
       </c>
       <c r="Z86" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="89"/>
         <v>0.02</v>
       </c>
       <c r="AA86" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>0.26</v>
       </c>
       <c r="AB86" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>0.73</v>
       </c>
       <c r="AC86" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>1.6600000000000001</v>
       </c>
       <c r="AD86" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>3.06</v>
       </c>
       <c r="AE86" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>4.6899999999999995</v>
       </c>
     </row>
@@ -9619,69 +9788,69 @@
         <v>0.08</v>
       </c>
       <c r="I87" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="82"/>
         <v>0.27</v>
       </c>
       <c r="J87" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>0.53</v>
       </c>
       <c r="K87" s="9">
-        <f t="shared" si="79"/>
+        <f t="shared" si="84"/>
         <v>1.06</v>
       </c>
       <c r="L87" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="85"/>
         <v>1.58</v>
       </c>
       <c r="M87" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="86"/>
         <v>1.84</v>
       </c>
       <c r="N87" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="87"/>
         <v>3.68</v>
       </c>
       <c r="O87" s="10">
         <v>160</v>
       </c>
       <c r="P87" s="10">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>5.36</v>
       </c>
       <c r="Q87" s="9">
-        <f t="shared" si="76"/>
+        <f t="shared" si="81"/>
         <v>3.68</v>
       </c>
       <c r="R87" s="10">
-        <f t="shared" si="75"/>
+        <f t="shared" si="80"/>
         <v>40.92349479402445</v>
       </c>
       <c r="Y87" s="9" t="s">
         <v>200</v>
       </c>
       <c r="Z87" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="89"/>
         <v>0.03</v>
       </c>
       <c r="AA87" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="AB87" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>0.78</v>
       </c>
       <c r="AC87" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>1.78</v>
       </c>
       <c r="AD87" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>3.2800000000000002</v>
       </c>
       <c r="AE87" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>5.03</v>
       </c>
     </row>
@@ -9693,42 +9862,42 @@
         <v>0.09</v>
       </c>
       <c r="I88" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="82"/>
         <v>0.32</v>
       </c>
       <c r="J88" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>0.64</v>
       </c>
       <c r="K88" s="9">
-        <f t="shared" si="79"/>
+        <f t="shared" si="84"/>
         <v>1.27</v>
       </c>
       <c r="L88" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="85"/>
         <v>1.9</v>
       </c>
       <c r="M88" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="86"/>
         <v>2.2200000000000002</v>
       </c>
       <c r="N88" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="87"/>
         <v>4.43</v>
       </c>
       <c r="O88" s="10">
         <v>180</v>
       </c>
       <c r="P88" s="10">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>6.4400000000000013</v>
       </c>
       <c r="Q88" s="9">
-        <f t="shared" si="76"/>
+        <f t="shared" si="81"/>
         <v>4.43</v>
       </c>
       <c r="R88" s="10">
-        <f t="shared" si="75"/>
+        <f t="shared" si="80"/>
         <v>49.207786328655509</v>
       </c>
       <c r="S88" s="9" t="s">
@@ -9753,27 +9922,27 @@
         <v>201</v>
       </c>
       <c r="Z88" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="89"/>
         <v>0.04</v>
       </c>
       <c r="AA88" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>0.31</v>
       </c>
       <c r="AB88" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>0.85000000000000009</v>
       </c>
       <c r="AC88" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>1.9200000000000002</v>
       </c>
       <c r="AD88" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>3.5200000000000005</v>
       </c>
       <c r="AE88" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>5.3900000000000006</v>
       </c>
     </row>
@@ -9785,42 +9954,42 @@
         <v>0.09</v>
       </c>
       <c r="I89" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="82"/>
         <v>0.38</v>
       </c>
       <c r="J89" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>0.76</v>
       </c>
       <c r="K89" s="9">
-        <f t="shared" si="79"/>
+        <f t="shared" si="84"/>
         <v>1.51</v>
       </c>
       <c r="L89" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="85"/>
         <v>2.25</v>
       </c>
       <c r="M89" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="86"/>
         <v>2.63</v>
       </c>
       <c r="N89" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="87"/>
         <v>5.26</v>
       </c>
       <c r="O89" s="10">
         <v>200</v>
       </c>
       <c r="P89" s="10">
-        <f t="shared" ref="P89:P91" si="86">SUM(H89:M89)</f>
+        <f t="shared" ref="P89:P91" si="91">SUM(H89:M89)</f>
         <v>7.62</v>
       </c>
       <c r="Q89" s="9">
-        <f t="shared" si="76"/>
+        <f t="shared" si="81"/>
         <v>5.26</v>
       </c>
       <c r="R89" s="10">
-        <f t="shared" si="75"/>
+        <f t="shared" si="80"/>
         <v>58.306926210955176</v>
       </c>
       <c r="S89" s="9" t="s">
@@ -9845,27 +10014,27 @@
         <v>202</v>
       </c>
       <c r="Z89" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="89"/>
         <v>0.05</v>
       </c>
       <c r="AA89" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>0.35</v>
       </c>
       <c r="AB89" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>0.94</v>
       </c>
       <c r="AC89" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>2.12</v>
       </c>
       <c r="AD89" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>3.89</v>
       </c>
       <c r="AE89" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>5.95</v>
       </c>
     </row>
@@ -9877,69 +10046,69 @@
         <v>0.1</v>
       </c>
       <c r="I90" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="82"/>
         <v>0.45</v>
       </c>
       <c r="J90" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>0.89</v>
       </c>
       <c r="K90" s="9">
-        <f t="shared" si="79"/>
+        <f t="shared" si="84"/>
         <v>1.77</v>
       </c>
       <c r="L90" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="85"/>
         <v>2.65</v>
       </c>
       <c r="M90" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="86"/>
         <v>3.09</v>
       </c>
       <c r="N90" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="87"/>
         <v>6.18</v>
       </c>
       <c r="O90" s="10">
         <v>220</v>
       </c>
       <c r="P90" s="10">
-        <f t="shared" si="86"/>
+        <f t="shared" si="91"/>
         <v>8.9499999999999993</v>
       </c>
       <c r="Q90" s="9">
-        <f t="shared" si="76"/>
+        <f t="shared" si="81"/>
         <v>6.18</v>
       </c>
       <c r="R90" s="10">
-        <f t="shared" si="75"/>
+        <f t="shared" si="80"/>
         <v>68.492530556813037</v>
       </c>
       <c r="Y90" s="9" t="s">
         <v>203</v>
       </c>
       <c r="Z90" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="89"/>
         <v>0.06</v>
       </c>
       <c r="AA90" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>0.39</v>
       </c>
       <c r="AB90" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>1.04</v>
       </c>
       <c r="AC90" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>2.34</v>
       </c>
       <c r="AD90" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>4.2799999999999994</v>
       </c>
       <c r="AE90" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>6.5399999999999991</v>
       </c>
     </row>
@@ -9951,69 +10120,69 @@
         <v>0.1</v>
       </c>
       <c r="I91" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="82"/>
         <v>0.52</v>
       </c>
       <c r="J91" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>1.03</v>
       </c>
       <c r="K91" s="9">
-        <f t="shared" si="79"/>
+        <f t="shared" si="84"/>
         <v>2.06</v>
       </c>
       <c r="L91" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="85"/>
         <v>3.09</v>
       </c>
       <c r="M91" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="86"/>
         <v>3.6</v>
       </c>
       <c r="N91" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="87"/>
         <v>7.2</v>
       </c>
       <c r="O91" s="10">
         <v>240</v>
       </c>
       <c r="P91" s="10">
-        <f t="shared" si="86"/>
+        <f t="shared" si="91"/>
         <v>10.4</v>
       </c>
       <c r="Q91" s="9">
-        <f t="shared" si="76"/>
+        <f t="shared" si="81"/>
         <v>7.2</v>
       </c>
       <c r="R91" s="10">
-        <f t="shared" si="75"/>
+        <f t="shared" si="80"/>
         <v>79.674060660932554</v>
       </c>
       <c r="Y91" s="9" t="s">
         <v>204</v>
       </c>
       <c r="Z91" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="89"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AA91" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>0.43</v>
       </c>
       <c r="AB91" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>1.1399999999999999</v>
       </c>
       <c r="AC91" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>2.5599999999999996</v>
       </c>
       <c r="AD91" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>4.68</v>
       </c>
       <c r="AE91" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>7.15</v>
       </c>
     </row>
@@ -10025,69 +10194,69 @@
         <v>0.11</v>
       </c>
       <c r="I92" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="82"/>
         <v>0.6</v>
       </c>
       <c r="J92" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>1.19</v>
       </c>
       <c r="K92" s="9">
-        <f t="shared" si="79"/>
+        <f t="shared" si="84"/>
         <v>2.38</v>
       </c>
       <c r="L92" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="85"/>
         <v>3.57</v>
       </c>
       <c r="M92" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="86"/>
         <v>4.17</v>
       </c>
       <c r="N92" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="87"/>
         <v>8.33</v>
       </c>
       <c r="O92" s="10">
         <v>260</v>
       </c>
       <c r="P92" s="10">
-        <f t="shared" ref="P92:P93" si="87">SUM(H92:M92)</f>
+        <f t="shared" ref="P92:P93" si="92">SUM(H92:M92)</f>
         <v>12.02</v>
       </c>
       <c r="Q92" s="9">
-        <f t="shared" si="76"/>
+        <f t="shared" si="81"/>
         <v>8.33</v>
       </c>
       <c r="R92" s="10">
-        <f t="shared" si="75"/>
+        <f t="shared" si="80"/>
         <v>92.123132639203263</v>
       </c>
       <c r="Y92" s="9" t="s">
         <v>205</v>
       </c>
       <c r="Z92" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="89"/>
         <v>0.08</v>
       </c>
       <c r="AA92" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>0.48000000000000004</v>
       </c>
       <c r="AB92" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>1.27</v>
       </c>
       <c r="AC92" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>2.85</v>
       </c>
       <c r="AD92" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>5.2200000000000006</v>
       </c>
       <c r="AE92" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>7.98</v>
       </c>
     </row>
@@ -10099,42 +10268,42 @@
         <v>0.11</v>
       </c>
       <c r="I93" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="82"/>
         <v>0.71</v>
       </c>
       <c r="J93" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>1.41</v>
       </c>
       <c r="K93" s="9">
-        <f t="shared" si="79"/>
+        <f t="shared" si="84"/>
         <v>2.82</v>
       </c>
       <c r="L93" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="85"/>
         <v>4.2300000000000004</v>
       </c>
       <c r="M93" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="86"/>
         <v>4.93</v>
       </c>
       <c r="N93" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="87"/>
         <v>9.86</v>
       </c>
       <c r="O93" s="10">
         <v>280</v>
       </c>
       <c r="P93" s="10">
-        <f t="shared" si="87"/>
+        <f t="shared" si="92"/>
         <v>14.21</v>
       </c>
       <c r="Q93" s="9">
-        <f t="shared" ref="Q93:Q94" si="88">N93</f>
+        <f t="shared" ref="Q93:Q94" si="93">N93</f>
         <v>9.86</v>
       </c>
       <c r="R93" s="10">
-        <f t="shared" ref="R93:R94" si="89">((P93+Q93)/$P$70)*100</f>
+        <f t="shared" ref="R93:R94" si="94">((P93+Q93)/$P$70)*100</f>
         <v>108.96333182435491</v>
       </c>
       <c r="S93" s="9" t="s">
@@ -10144,42 +10313,42 @@
         <v>0.11</v>
       </c>
       <c r="U93" s="9">
-        <f t="shared" ref="U93:U94" si="90">ROUNDUP(((T64/$B$39)*$B$40)*((100+AA93)/100),0)/100</f>
+        <f t="shared" ref="U93:U94" si="95">ROUNDUP(((T64/$B$39)*$B$40)*((100+AA93)/100),0)/100</f>
         <v>0</v>
       </c>
       <c r="V93" s="9">
-        <f t="shared" ref="V93:V94" si="91">ROUNDUP(((U64/$B$39)*$B$40)*((100+AA93)/100),0)/100</f>
+        <f t="shared" ref="V93:V94" si="96">ROUNDUP(((U64/$B$39)*$B$40)*((100+AA93)/100),0)/100</f>
         <v>0</v>
       </c>
       <c r="W93" s="9">
-        <f t="shared" ref="W93:W94" si="92">ROUNDUP(((V64/$B$39)*$B$40)*((100+AA93)/100),0)/100</f>
+        <f t="shared" ref="W93:W94" si="97">ROUNDUP(((V64/$B$39)*$B$40)*((100+AA93)/100),0)/100</f>
         <v>0</v>
       </c>
       <c r="Y93" s="9" t="s">
         <v>206</v>
       </c>
       <c r="Z93" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="89"/>
         <v>0.09</v>
       </c>
       <c r="AA93" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>0.66999999999999993</v>
       </c>
       <c r="AB93" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>1.8299999999999998</v>
       </c>
       <c r="AC93" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>4.1399999999999997</v>
       </c>
       <c r="AD93" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>7.6</v>
       </c>
       <c r="AE93" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>11.64</v>
       </c>
     </row>
@@ -10191,42 +10360,42 @@
         <v>0.12</v>
       </c>
       <c r="I94" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="82"/>
         <v>0.83</v>
       </c>
       <c r="J94" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>1.66</v>
       </c>
       <c r="K94" s="9">
-        <f t="shared" si="79"/>
+        <f t="shared" si="84"/>
         <v>3.31</v>
       </c>
       <c r="L94" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="85"/>
         <v>4.96</v>
       </c>
       <c r="M94" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="86"/>
         <v>5.79</v>
       </c>
       <c r="N94" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="87"/>
         <v>11.58</v>
       </c>
       <c r="O94" s="10">
         <v>300</v>
       </c>
       <c r="P94" s="10">
-        <f t="shared" ref="P94:P95" si="93">SUM(H94:M94)</f>
+        <f t="shared" ref="P94:P95" si="98">SUM(H94:M94)</f>
         <v>16.669999999999998</v>
       </c>
       <c r="Q94" s="9">
-        <f t="shared" si="88"/>
+        <f t="shared" si="93"/>
         <v>11.58</v>
       </c>
       <c r="R94" s="10">
-        <f t="shared" si="89"/>
+        <f t="shared" si="94"/>
         <v>127.88592123132638</v>
       </c>
       <c r="S94" s="9" t="s">
@@ -10236,42 +10405,42 @@
         <v>0.12</v>
       </c>
       <c r="U94" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="V94" s="9">
-        <f t="shared" si="91"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="W94" s="9">
-        <f t="shared" si="92"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="Y94" s="9" t="s">
         <v>207</v>
       </c>
       <c r="Z94" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="89"/>
         <v>0.1</v>
       </c>
       <c r="AA94" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>0.75</v>
       </c>
       <c r="AB94" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>2.04</v>
       </c>
       <c r="AC94" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>4.62</v>
       </c>
       <c r="AD94" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>8.49</v>
       </c>
       <c r="AE94" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>13</v>
       </c>
     </row>
@@ -10283,101 +10452,143 @@
         <v>0.12</v>
       </c>
       <c r="I95" s="9">
-        <f t="shared" ref="I95" si="94">ROUNDUP(((H66/$B$39)*$B$40)*((100+O95)/100),0)/100</f>
+        <f t="shared" ref="I95:I96" si="99">ROUNDUP(((H66/$B$39)*$B$40)*((100+O95)/100),0)/100</f>
         <v>0.97</v>
       </c>
       <c r="J95" s="9">
-        <f t="shared" ref="J95" si="95">ROUNDUP(((I66/$B$39)*$B$40)*((100+O95)/100),0)/100</f>
+        <f t="shared" ref="J95:J96" si="100">ROUNDUP(((I66/$B$39)*$B$40)*((100+O95)/100),0)/100</f>
         <v>1.93</v>
       </c>
       <c r="K95" s="9">
-        <f t="shared" ref="K95" si="96">ROUNDUP(((J66/$B$39)*$B$40)*((100+O95)/100),0)/100</f>
+        <f t="shared" ref="K95:K96" si="101">ROUNDUP(((J66/$B$39)*$B$40)*((100+O95)/100),0)/100</f>
         <v>3.85</v>
       </c>
       <c r="L95" s="9">
-        <f t="shared" ref="L95" si="97">ROUNDUP(((K66/$B$39)*$B$40)*((100+O95)/100),0)/100</f>
+        <f t="shared" ref="L95:L96" si="102">ROUNDUP(((K66/$B$39)*$B$40)*((100+O95)/100),0)/100</f>
         <v>5.78</v>
       </c>
       <c r="M95" s="9">
-        <f t="shared" ref="M95" si="98">ROUNDUP(((L66/$B$39)*$B$40)*((100+O95)/100),0)/100</f>
+        <f t="shared" ref="M95:M96" si="103">ROUNDUP(((L66/$B$39)*$B$40)*((100+O95)/100),0)/100</f>
         <v>6.74</v>
       </c>
       <c r="N95" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="87"/>
         <v>13.48</v>
       </c>
       <c r="O95" s="10">
         <v>320</v>
       </c>
       <c r="P95" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="98"/>
         <v>19.39</v>
       </c>
       <c r="Q95" s="9">
-        <f t="shared" ref="Q95" si="99">N95</f>
+        <f t="shared" ref="Q95:Q96" si="104">N95</f>
         <v>13.48</v>
       </c>
       <c r="R95" s="10">
-        <f t="shared" ref="R95" si="100">((P95+Q95)/$P$70)*100</f>
+        <f t="shared" ref="R95:R96" si="105">((P95+Q95)/$P$70)*100</f>
         <v>148.80036215482119</v>
       </c>
       <c r="Y95" s="9" t="s">
         <v>208</v>
       </c>
       <c r="Z95" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="89"/>
         <v>0.11</v>
       </c>
       <c r="AA95" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>0.83</v>
       </c>
       <c r="AB95" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>2.27</v>
       </c>
       <c r="AC95" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>5.1400000000000006</v>
       </c>
       <c r="AD95" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>9.4400000000000013</v>
       </c>
       <c r="AE95" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>14.450000000000001</v>
       </c>
     </row>
     <row r="96" spans="7:31">
-      <c r="O96" s="10"/>
-      <c r="P96" s="10"/>
-      <c r="R96" s="10"/>
+      <c r="G96" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="H96" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="I96" s="9">
+        <f t="shared" si="99"/>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="J96" s="9">
+        <f t="shared" si="100"/>
+        <v>2.23</v>
+      </c>
+      <c r="K96" s="9">
+        <f t="shared" si="101"/>
+        <v>4.45</v>
+      </c>
+      <c r="L96" s="9">
+        <f t="shared" si="102"/>
+        <v>6.68</v>
+      </c>
+      <c r="M96" s="9">
+        <f t="shared" si="103"/>
+        <v>7.79</v>
+      </c>
+      <c r="N96" s="9">
+        <f t="shared" ref="N96" si="106">ROUNDUP(((M67/$B$39)*$B$40)*((100+O96)/100),0)/100</f>
+        <v>15.57</v>
+      </c>
+      <c r="O96" s="10">
+        <v>340</v>
+      </c>
+      <c r="P96" s="10">
+        <f t="shared" ref="P96" si="107">SUM(H96:M96)</f>
+        <v>22.4</v>
+      </c>
+      <c r="Q96" s="9">
+        <f t="shared" si="104"/>
+        <v>15.57</v>
+      </c>
+      <c r="R96" s="10">
+        <f t="shared" si="105"/>
+        <v>171.88773200543233</v>
+      </c>
       <c r="Y96" s="9" t="s">
         <v>209</v>
       </c>
       <c r="Z96" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="89"/>
         <v>0.12</v>
       </c>
       <c r="AA96" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>0.97</v>
       </c>
       <c r="AB96" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>2.67</v>
       </c>
       <c r="AC96" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>6.0600000000000005</v>
       </c>
       <c r="AD96" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>11.15</v>
       </c>
       <c r="AE96" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>17.079999999999998</v>
       </c>
     </row>
@@ -10389,27 +10600,27 @@
         <v>210</v>
       </c>
       <c r="Z97" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="89"/>
         <v>0.13</v>
       </c>
       <c r="AA97" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>1.06</v>
       </c>
       <c r="AB97" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>2.92</v>
       </c>
       <c r="AC97" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>6.6400000000000006</v>
       </c>
       <c r="AD97" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>12.22</v>
       </c>
       <c r="AE97" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>18.72</v>
       </c>
     </row>
@@ -10421,27 +10632,27 @@
         <v>211</v>
       </c>
       <c r="Z98" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="89"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="AA98" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>1.1600000000000001</v>
       </c>
       <c r="AB98" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>3.19</v>
       </c>
       <c r="AC98" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>7.25</v>
       </c>
       <c r="AD98" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>13.34</v>
       </c>
       <c r="AE98" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>20.439999999999998</v>
       </c>
     </row>
@@ -10453,27 +10664,27 @@
         <v>212</v>
       </c>
       <c r="Z99" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="89"/>
         <v>0.15</v>
       </c>
       <c r="AA99" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>1.26</v>
       </c>
       <c r="AB99" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>3.4699999999999998</v>
       </c>
       <c r="AC99" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>7.88</v>
       </c>
       <c r="AD99" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>14.5</v>
       </c>
       <c r="AE99" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>22.22</v>
       </c>
     </row>
@@ -10526,27 +10737,27 @@
         <v>0.01</v>
       </c>
       <c r="I103" s="9">
-        <f t="shared" ref="I103:N118" si="101">I72+H103</f>
+        <f t="shared" ref="I103:N118" si="108">I72+H103</f>
         <v>0.03</v>
       </c>
       <c r="J103" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>0.06</v>
       </c>
       <c r="K103" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>0.12</v>
       </c>
       <c r="L103" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>0.21</v>
       </c>
       <c r="M103" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>0.31</v>
       </c>
       <c r="N103" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>0.51</v>
       </c>
     </row>
@@ -10559,27 +10770,27 @@
         <v>0.01</v>
       </c>
       <c r="I104" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>0.03</v>
       </c>
       <c r="J104" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="K104" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>0.15000000000000002</v>
       </c>
       <c r="L104" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>0.27</v>
       </c>
       <c r="M104" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>0.41000000000000003</v>
       </c>
       <c r="N104" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>0.68</v>
       </c>
     </row>
@@ -10588,31 +10799,31 @@
         <v>19</v>
       </c>
       <c r="H105" s="9">
-        <f t="shared" ref="H105:H126" si="102">H74</f>
+        <f t="shared" ref="H105:H127" si="109">H74</f>
         <v>0.02</v>
       </c>
       <c r="I105" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>0.05</v>
       </c>
       <c r="J105" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>0.1</v>
       </c>
       <c r="K105" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>0.2</v>
       </c>
       <c r="L105" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>0.35</v>
       </c>
       <c r="M105" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>0.53</v>
       </c>
       <c r="N105" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>0.88</v>
       </c>
     </row>
@@ -10621,31 +10832,31 @@
         <v>85</v>
       </c>
       <c r="H106" s="9">
-        <f t="shared" si="102"/>
+        <f t="shared" si="109"/>
         <v>0.02</v>
       </c>
       <c r="I106" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>0.06</v>
       </c>
       <c r="J106" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>0.13</v>
       </c>
       <c r="K106" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>0.26</v>
       </c>
       <c r="L106" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>0.45</v>
       </c>
       <c r="M106" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>0.67</v>
       </c>
       <c r="N106" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>1.1100000000000001</v>
       </c>
     </row>
@@ -10654,31 +10865,31 @@
         <v>20</v>
       </c>
       <c r="H107" s="9">
-        <f t="shared" si="102"/>
+        <f t="shared" si="109"/>
         <v>0.03</v>
       </c>
       <c r="I107" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="J107" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>0.15000000000000002</v>
       </c>
       <c r="K107" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>0.31000000000000005</v>
       </c>
       <c r="L107" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="M107" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>0.83000000000000007</v>
       </c>
       <c r="N107" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>1.3800000000000001</v>
       </c>
     </row>
@@ -10687,31 +10898,31 @@
         <v>21</v>
       </c>
       <c r="H108" s="9">
-        <f t="shared" si="102"/>
+        <f t="shared" si="109"/>
         <v>0.03</v>
       </c>
       <c r="I108" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>0.08</v>
       </c>
       <c r="J108" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>0.18</v>
       </c>
       <c r="K108" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>0.38</v>
       </c>
       <c r="L108" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>0.66999999999999993</v>
       </c>
       <c r="M108" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>1.01</v>
       </c>
       <c r="N108" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>1.69</v>
       </c>
     </row>
@@ -10720,31 +10931,31 @@
         <v>22</v>
       </c>
       <c r="H109" s="9">
-        <f t="shared" si="102"/>
+        <f t="shared" si="109"/>
         <v>0.04</v>
       </c>
       <c r="I109" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>0.1</v>
       </c>
       <c r="J109" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>0.22</v>
       </c>
       <c r="K109" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>0.45999999999999996</v>
       </c>
       <c r="L109" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>0.80999999999999994</v>
       </c>
       <c r="M109" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>1.22</v>
       </c>
       <c r="N109" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>2.04</v>
       </c>
       <c r="AF109" s="9"/>
@@ -10754,31 +10965,31 @@
         <v>23</v>
       </c>
       <c r="H110" s="9">
-        <f t="shared" si="102"/>
+        <f t="shared" si="109"/>
         <v>0.04</v>
       </c>
       <c r="I110" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>0.11000000000000001</v>
       </c>
       <c r="J110" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>0.25</v>
       </c>
       <c r="K110" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>0.53</v>
       </c>
       <c r="L110" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>0.95</v>
       </c>
       <c r="M110" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>1.44</v>
       </c>
       <c r="N110" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>2.42</v>
       </c>
     </row>
@@ -10787,31 +10998,31 @@
         <v>24</v>
       </c>
       <c r="H111" s="9">
-        <f t="shared" si="102"/>
+        <f t="shared" si="109"/>
         <v>0.05</v>
       </c>
       <c r="I111" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="J111" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>0.31000000000000005</v>
       </c>
       <c r="K111" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>0.65000000000000013</v>
       </c>
       <c r="L111" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>1.1500000000000001</v>
       </c>
       <c r="M111" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>1.7400000000000002</v>
       </c>
       <c r="N111" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>2.91</v>
       </c>
     </row>
@@ -10820,31 +11031,31 @@
         <v>25</v>
       </c>
       <c r="H112" s="9">
-        <f t="shared" si="102"/>
+        <f t="shared" si="109"/>
         <v>0.05</v>
       </c>
       <c r="I112" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>0.15000000000000002</v>
       </c>
       <c r="J112" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>0.35000000000000003</v>
       </c>
       <c r="K112" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>0.75</v>
       </c>
       <c r="L112" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>1.3399999999999999</v>
       </c>
       <c r="M112" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>2.0299999999999998</v>
       </c>
       <c r="N112" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>3.4099999999999997</v>
       </c>
     </row>
@@ -10853,31 +11064,31 @@
         <v>105</v>
       </c>
       <c r="H113" s="9">
-        <f t="shared" si="102"/>
+        <f t="shared" si="109"/>
         <v>0.06</v>
       </c>
       <c r="I113" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>0.21</v>
       </c>
       <c r="J113" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>0.51</v>
       </c>
       <c r="K113" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="L113" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>1.98</v>
       </c>
       <c r="M113" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>3.01</v>
       </c>
       <c r="N113" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>5.0599999999999996</v>
       </c>
     </row>
@@ -10886,31 +11097,31 @@
         <v>106</v>
       </c>
       <c r="H114" s="9">
-        <f t="shared" si="102"/>
+        <f t="shared" si="109"/>
         <v>0.06</v>
       </c>
       <c r="I114" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>0.23</v>
       </c>
       <c r="J114" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="K114" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>1.21</v>
       </c>
       <c r="L114" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>2.1799999999999997</v>
       </c>
       <c r="M114" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>3.3099999999999996</v>
       </c>
       <c r="N114" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>5.56</v>
       </c>
     </row>
@@ -10919,31 +11130,31 @@
         <v>172</v>
       </c>
       <c r="H115" s="9">
-        <f t="shared" si="102"/>
+        <f t="shared" si="109"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I115" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>0.25</v>
       </c>
       <c r="J115" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>0.61</v>
       </c>
       <c r="K115" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>1.3199999999999998</v>
       </c>
       <c r="L115" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>2.38</v>
       </c>
       <c r="M115" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>3.61</v>
       </c>
       <c r="N115" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>6.07</v>
       </c>
     </row>
@@ -10952,31 +11163,31 @@
         <v>174</v>
       </c>
       <c r="H116" s="9">
-        <f t="shared" si="102"/>
+        <f t="shared" si="109"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I116" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>0.27</v>
       </c>
       <c r="J116" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>0.67</v>
       </c>
       <c r="K116" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>1.4700000000000002</v>
       </c>
       <c r="L116" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>2.67</v>
       </c>
       <c r="M116" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>4.07</v>
       </c>
       <c r="N116" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>6.86</v>
       </c>
     </row>
@@ -10985,31 +11196,31 @@
         <v>195</v>
       </c>
       <c r="H117" s="9">
-        <f t="shared" si="102"/>
+        <f t="shared" si="109"/>
         <v>0.08</v>
       </c>
       <c r="I117" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>0.31</v>
       </c>
       <c r="J117" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>0.76</v>
       </c>
       <c r="K117" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>1.6600000000000001</v>
       </c>
       <c r="L117" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>3.0100000000000002</v>
       </c>
       <c r="M117" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>4.59</v>
       </c>
       <c r="N117" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>7.74</v>
       </c>
     </row>
@@ -11018,31 +11229,31 @@
         <v>246</v>
       </c>
       <c r="H118" s="9">
-        <f t="shared" si="102"/>
+        <f t="shared" si="109"/>
         <v>0.08</v>
       </c>
       <c r="I118" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>0.35000000000000003</v>
       </c>
       <c r="J118" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>0.88000000000000012</v>
       </c>
       <c r="K118" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>1.9400000000000002</v>
       </c>
       <c r="L118" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>3.5200000000000005</v>
       </c>
       <c r="M118" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>5.36</v>
       </c>
       <c r="N118" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>9.0400000000000009</v>
       </c>
     </row>
@@ -11051,31 +11262,31 @@
         <v>313</v>
       </c>
       <c r="H119" s="9">
-        <f t="shared" si="102"/>
+        <f t="shared" si="109"/>
         <v>0.09</v>
       </c>
       <c r="I119" s="9">
-        <f t="shared" ref="I119:N123" si="103">I88+H119</f>
+        <f t="shared" ref="I119:N123" si="110">I88+H119</f>
         <v>0.41000000000000003</v>
       </c>
       <c r="J119" s="9">
-        <f t="shared" si="103"/>
+        <f t="shared" si="110"/>
         <v>1.05</v>
       </c>
       <c r="K119" s="9">
-        <f t="shared" si="103"/>
+        <f t="shared" si="110"/>
         <v>2.3200000000000003</v>
       </c>
       <c r="L119" s="9">
-        <f t="shared" si="103"/>
+        <f t="shared" si="110"/>
         <v>4.2200000000000006</v>
       </c>
       <c r="M119" s="9">
-        <f t="shared" si="103"/>
+        <f t="shared" si="110"/>
         <v>6.4400000000000013</v>
       </c>
       <c r="N119" s="9">
-        <f t="shared" si="103"/>
+        <f t="shared" si="110"/>
         <v>10.870000000000001</v>
       </c>
     </row>
@@ -11084,31 +11295,31 @@
         <v>368</v>
       </c>
       <c r="H120" s="9">
-        <f t="shared" si="102"/>
+        <f t="shared" si="109"/>
         <v>0.09</v>
       </c>
       <c r="I120" s="9">
-        <f t="shared" si="103"/>
+        <f t="shared" si="110"/>
         <v>0.47</v>
       </c>
       <c r="J120" s="9">
-        <f t="shared" si="103"/>
+        <f t="shared" si="110"/>
         <v>1.23</v>
       </c>
       <c r="K120" s="9">
-        <f t="shared" si="103"/>
+        <f t="shared" si="110"/>
         <v>2.74</v>
       </c>
       <c r="L120" s="9">
-        <f t="shared" si="103"/>
+        <f t="shared" si="110"/>
         <v>4.99</v>
       </c>
       <c r="M120" s="9">
-        <f t="shared" si="103"/>
+        <f t="shared" si="110"/>
         <v>7.62</v>
       </c>
       <c r="N120" s="9">
-        <f t="shared" si="103"/>
+        <f t="shared" si="110"/>
         <v>12.879999999999999</v>
       </c>
     </row>
@@ -11117,31 +11328,31 @@
         <v>375</v>
       </c>
       <c r="H121" s="9">
-        <f t="shared" si="102"/>
+        <f t="shared" si="109"/>
         <v>0.1</v>
       </c>
       <c r="I121" s="9">
-        <f t="shared" si="103"/>
+        <f t="shared" si="110"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="J121" s="9">
-        <f t="shared" si="103"/>
+        <f t="shared" si="110"/>
         <v>1.44</v>
       </c>
       <c r="K121" s="9">
-        <f t="shared" si="103"/>
+        <f t="shared" si="110"/>
         <v>3.21</v>
       </c>
       <c r="L121" s="9">
-        <f t="shared" si="103"/>
+        <f t="shared" si="110"/>
         <v>5.8599999999999994</v>
       </c>
       <c r="M121" s="9">
-        <f t="shared" si="103"/>
+        <f t="shared" si="110"/>
         <v>8.9499999999999993</v>
       </c>
       <c r="N121" s="9">
-        <f t="shared" si="103"/>
+        <f t="shared" si="110"/>
         <v>15.129999999999999</v>
       </c>
     </row>
@@ -11150,31 +11361,31 @@
         <v>387</v>
       </c>
       <c r="H122" s="9">
-        <f t="shared" si="102"/>
+        <f t="shared" si="109"/>
         <v>0.1</v>
       </c>
       <c r="I122" s="9">
-        <f t="shared" si="103"/>
+        <f t="shared" si="110"/>
         <v>0.62</v>
       </c>
       <c r="J122" s="9">
-        <f t="shared" si="103"/>
+        <f t="shared" si="110"/>
         <v>1.65</v>
       </c>
       <c r="K122" s="9">
-        <f t="shared" si="103"/>
+        <f t="shared" si="110"/>
         <v>3.71</v>
       </c>
       <c r="L122" s="9">
-        <f t="shared" si="103"/>
+        <f t="shared" si="110"/>
         <v>6.8</v>
       </c>
       <c r="M122" s="9">
-        <f t="shared" si="103"/>
+        <f t="shared" si="110"/>
         <v>10.4</v>
       </c>
       <c r="N122" s="9">
-        <f t="shared" si="103"/>
+        <f t="shared" si="110"/>
         <v>17.600000000000001</v>
       </c>
     </row>
@@ -11183,31 +11394,31 @@
         <v>418</v>
       </c>
       <c r="H123" s="9">
-        <f t="shared" si="102"/>
+        <f t="shared" si="109"/>
         <v>0.11</v>
       </c>
       <c r="I123" s="9">
-        <f t="shared" si="103"/>
+        <f t="shared" si="110"/>
         <v>0.71</v>
       </c>
       <c r="J123" s="9">
-        <f t="shared" si="103"/>
+        <f t="shared" si="110"/>
         <v>1.9</v>
       </c>
       <c r="K123" s="9">
-        <f t="shared" si="103"/>
+        <f t="shared" si="110"/>
         <v>4.2799999999999994</v>
       </c>
       <c r="L123" s="9">
-        <f t="shared" si="103"/>
+        <f t="shared" si="110"/>
         <v>7.85</v>
       </c>
       <c r="M123" s="9">
-        <f t="shared" si="103"/>
+        <f t="shared" si="110"/>
         <v>12.02</v>
       </c>
       <c r="N123" s="9">
-        <f t="shared" si="103"/>
+        <f t="shared" si="110"/>
         <v>20.350000000000001</v>
       </c>
     </row>
@@ -11216,31 +11427,31 @@
         <v>431</v>
       </c>
       <c r="H124" s="9">
-        <f t="shared" si="102"/>
+        <f t="shared" si="109"/>
         <v>0.11</v>
       </c>
       <c r="I124" s="9">
-        <f t="shared" ref="I124:I125" si="104">I93+H124</f>
+        <f t="shared" ref="I124:I125" si="111">I93+H124</f>
         <v>0.82</v>
       </c>
       <c r="J124" s="9">
-        <f t="shared" ref="J124:J125" si="105">J93+I124</f>
+        <f t="shared" ref="J124:J125" si="112">J93+I124</f>
         <v>2.23</v>
       </c>
       <c r="K124" s="9">
-        <f t="shared" ref="K124:K125" si="106">K93+J124</f>
+        <f t="shared" ref="K124:K125" si="113">K93+J124</f>
         <v>5.05</v>
       </c>
       <c r="L124" s="9">
-        <f t="shared" ref="L124:L125" si="107">L93+K124</f>
+        <f t="shared" ref="L124:L125" si="114">L93+K124</f>
         <v>9.2800000000000011</v>
       </c>
       <c r="M124" s="9">
-        <f t="shared" ref="M124:M125" si="108">M93+L124</f>
+        <f t="shared" ref="M124:M125" si="115">M93+L124</f>
         <v>14.21</v>
       </c>
       <c r="N124" s="9">
-        <f t="shared" ref="N124:N125" si="109">N93+M124</f>
+        <f t="shared" ref="N124:N125" si="116">N93+M124</f>
         <v>24.07</v>
       </c>
     </row>
@@ -11249,31 +11460,31 @@
         <v>450</v>
       </c>
       <c r="H125" s="9">
-        <f t="shared" si="102"/>
+        <f t="shared" si="109"/>
         <v>0.12</v>
       </c>
       <c r="I125" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="111"/>
         <v>0.95</v>
       </c>
       <c r="J125" s="9">
-        <f t="shared" si="105"/>
+        <f t="shared" si="112"/>
         <v>2.61</v>
       </c>
       <c r="K125" s="9">
-        <f t="shared" si="106"/>
+        <f t="shared" si="113"/>
         <v>5.92</v>
       </c>
       <c r="L125" s="9">
-        <f t="shared" si="107"/>
+        <f t="shared" si="114"/>
         <v>10.879999999999999</v>
       </c>
       <c r="M125" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="115"/>
         <v>16.669999999999998</v>
       </c>
       <c r="N125" s="9">
-        <f t="shared" si="109"/>
+        <f t="shared" si="116"/>
         <v>28.25</v>
       </c>
     </row>
@@ -11282,32 +11493,65 @@
         <v>464</v>
       </c>
       <c r="H126" s="9">
-        <f t="shared" si="102"/>
+        <f t="shared" si="109"/>
         <v>0.12</v>
       </c>
       <c r="I126" s="9">
-        <f t="shared" ref="I126" si="110">I95+H126</f>
+        <f t="shared" ref="I126:I127" si="117">I95+H126</f>
         <v>1.0899999999999999</v>
       </c>
       <c r="J126" s="9">
-        <f t="shared" ref="J126" si="111">J95+I126</f>
+        <f t="shared" ref="J126:J127" si="118">J95+I126</f>
         <v>3.0199999999999996</v>
       </c>
       <c r="K126" s="9">
-        <f t="shared" ref="K126" si="112">K95+J126</f>
+        <f t="shared" ref="K126:K127" si="119">K95+J126</f>
         <v>6.8699999999999992</v>
       </c>
       <c r="L126" s="9">
-        <f t="shared" ref="L126" si="113">L95+K126</f>
+        <f t="shared" ref="L126:L127" si="120">L95+K126</f>
         <v>12.649999999999999</v>
       </c>
       <c r="M126" s="9">
-        <f t="shared" ref="M126" si="114">M95+L126</f>
+        <f t="shared" ref="M126:M127" si="121">M95+L126</f>
         <v>19.39</v>
       </c>
       <c r="N126" s="9">
-        <f t="shared" ref="N126" si="115">N95+M126</f>
+        <f t="shared" ref="N126:N127" si="122">N95+M126</f>
         <v>32.870000000000005</v>
+      </c>
+    </row>
+    <row r="127" spans="7:14">
+      <c r="G127" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="H127" s="9">
+        <f t="shared" si="109"/>
+        <v>0.13</v>
+      </c>
+      <c r="I127" s="9">
+        <f t="shared" si="117"/>
+        <v>1.25</v>
+      </c>
+      <c r="J127" s="9">
+        <f t="shared" si="118"/>
+        <v>3.48</v>
+      </c>
+      <c r="K127" s="9">
+        <f t="shared" si="119"/>
+        <v>7.93</v>
+      </c>
+      <c r="L127" s="9">
+        <f t="shared" si="120"/>
+        <v>14.61</v>
+      </c>
+      <c r="M127" s="9">
+        <f t="shared" si="121"/>
+        <v>22.4</v>
+      </c>
+      <c r="N127" s="9">
+        <f t="shared" si="122"/>
+        <v>37.97</v>
       </c>
     </row>
   </sheetData>
@@ -11324,8 +11568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14EF5D34-81E7-475D-8B1B-AFFF2EFE6FF9}">
   <dimension ref="A2:W50"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -13209,27 +13453,27 @@
         <v>24</v>
       </c>
       <c r="B27" s="2" t="str">
-        <f t="shared" ref="B27" si="28">C27&amp;","&amp;D27&amp;","&amp;E27&amp;","&amp;F27&amp;","&amp;G27</f>
+        <f t="shared" ref="B27:B28" si="28">C27&amp;","&amp;D27&amp;","&amp;E27&amp;","&amp;F27&amp;","&amp;G27</f>
         <v>10월,20월,50월,100월,200월</v>
       </c>
       <c r="C27" t="str">
-        <f t="shared" ref="C27" si="29">$C$3&amp;H27</f>
+        <f t="shared" ref="C27:C28" si="29">$C$3&amp;H27</f>
         <v>10월</v>
       </c>
       <c r="D27" t="str">
-        <f t="shared" ref="D27" si="30">$D$3&amp;H27</f>
+        <f t="shared" ref="D27:D28" si="30">$D$3&amp;H27</f>
         <v>20월</v>
       </c>
       <c r="E27" t="str">
-        <f t="shared" ref="E27" si="31">$E$3&amp;H27</f>
+        <f t="shared" ref="E27:E28" si="31">$E$3&amp;H27</f>
         <v>50월</v>
       </c>
       <c r="F27" t="str">
-        <f t="shared" ref="F27" si="32">$F$3&amp;H27</f>
+        <f t="shared" ref="F27:F28" si="32">$F$3&amp;H27</f>
         <v>100월</v>
       </c>
       <c r="G27" t="str">
-        <f t="shared" ref="G27" si="33">$G$3&amp;H27</f>
+        <f t="shared" ref="G27:G28" si="33">$G$3&amp;H27</f>
         <v>200월</v>
       </c>
       <c r="H27" s="2" t="s">
@@ -13239,31 +13483,31 @@
         <v>24</v>
       </c>
       <c r="K27" s="2" t="str">
-        <f t="shared" ref="K27" si="34">L27&amp;","&amp;M27&amp;","&amp;N27&amp;","&amp;O27&amp;","&amp;P27</f>
+        <f t="shared" ref="K27:K28" si="34">L27&amp;","&amp;M27&amp;","&amp;N27&amp;","&amp;O27&amp;","&amp;P27</f>
         <v>1E+153,2E+153,5E+153,1E+154,2E+154</v>
       </c>
       <c r="L27">
-        <f t="shared" ref="L27" si="35">$C$3*Q27</f>
+        <f t="shared" ref="L27:L28" si="35">$C$3*Q27</f>
         <v>1E+153</v>
       </c>
       <c r="M27">
-        <f t="shared" ref="M27" si="36">$D$3*Q27</f>
+        <f t="shared" ref="M27:M28" si="36">$D$3*Q27</f>
         <v>2E+153</v>
       </c>
       <c r="N27">
-        <f t="shared" ref="N27" si="37">$E$3*Q27</f>
+        <f t="shared" ref="N27:N28" si="37">$E$3*Q27</f>
         <v>5.0000000000000002E+153</v>
       </c>
       <c r="O27">
-        <f t="shared" ref="O27" si="38">$F$3*Q27</f>
+        <f t="shared" ref="O27:O28" si="38">$F$3*Q27</f>
         <v>1E+154</v>
       </c>
       <c r="P27">
-        <f t="shared" ref="P27" si="39">$G$3*Q27</f>
+        <f t="shared" ref="P27:P28" si="39">$G$3*Q27</f>
         <v>2.0000000000000001E+154</v>
       </c>
       <c r="Q27" t="str">
-        <f t="shared" ref="Q27" si="40">VLOOKUP(H27,T:W,4,FALSE)</f>
+        <f t="shared" ref="Q27:Q28" si="40">VLOOKUP(H27,T:W,4,FALSE)</f>
         <v>1E+152</v>
       </c>
       <c r="T27" t="s">
@@ -13282,6 +13526,67 @@
       </c>
     </row>
     <row r="28" spans="1:23">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" s="2" t="str">
+        <f t="shared" si="28"/>
+        <v>10후,20후,50후,100후,200후</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="29"/>
+        <v>10후</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="30"/>
+        <v>20후</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="31"/>
+        <v>50후</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="32"/>
+        <v>100후</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="33"/>
+        <v>200후</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="J28">
+        <v>25</v>
+      </c>
+      <c r="K28" s="2" t="str">
+        <f t="shared" si="34"/>
+        <v>1E+157,2E+157,5E+157,1E+158,2E+158</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="35"/>
+        <v>9.9999999999999998E+156</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="36"/>
+        <v>2E+157</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="37"/>
+        <v>4.9999999999999998E+157</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="38"/>
+        <v>9.9999999999999995E+157</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="39"/>
+        <v>1.9999999999999999E+158</v>
+      </c>
+      <c r="Q28" t="str">
+        <f t="shared" si="40"/>
+        <v>1E+156</v>
+      </c>
       <c r="T28" t="s">
         <v>165</v>
       </c>
@@ -13481,16 +13786,29 @@
         <v>152</v>
       </c>
       <c r="V40">
-        <f t="shared" ref="V40" si="43">POWER(10,U40)</f>
+        <f t="shared" ref="V40:V41" si="43">POWER(10,U40)</f>
         <v>1E+152</v>
       </c>
       <c r="W40" t="str">
-        <f t="shared" ref="W40" si="44">RIGHT(V40,U40)</f>
+        <f t="shared" ref="W40:W41" si="44">RIGHT(V40,U40)</f>
         <v>1E+152</v>
       </c>
     </row>
     <row r="41" spans="20:23">
-      <c r="V41" s="33"/>
+      <c r="T41" t="s">
+        <v>474</v>
+      </c>
+      <c r="U41">
+        <v>156</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="43"/>
+        <v>9.9999999999999998E+155</v>
+      </c>
+      <c r="W41" t="str">
+        <f t="shared" si="44"/>
+        <v>1E+156</v>
+      </c>
     </row>
     <row r="42" spans="20:23">
       <c r="V42" s="33"/>

--- a/Assets/06.Table/SuhopetTable.xlsx
+++ b/Assets/06.Table/SuhopetTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28FC17A-E94B-4FA6-B39C-A53DF7533C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5AF7BF-B3EB-4606-A99B-4D99E7BEF268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="605" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="496">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1708,6 +1708,50 @@
   </si>
   <si>
     <t>25단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양광</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10단,20단,50단,100단,200단</t>
+  </si>
+  <si>
+    <t>1E+161,2E+161,5E+161,1E+162,2E+162</t>
+  </si>
+  <si>
+    <t>26단계</t>
+  </si>
+  <si>
+    <t>펫26</t>
+  </si>
+  <si>
+    <t>펫27</t>
+  </si>
+  <si>
+    <t>펫26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>680,680,680,680,680</t>
+  </si>
+  <si>
+    <t>0.13,1.41,3.97,9.08,16.74,25.68,43.56</t>
+  </si>
+  <si>
+    <t>2313,4625,9250,13875,16187,32374</t>
+  </si>
+  <si>
+    <t>26단계</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2548,10 +2592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:U40"/>
+  <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P42" sqref="P42"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5173,6 +5217,71 @@
       </c>
       <c r="U40" s="1" t="s">
         <v>482</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" ht="33">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="F41" s="43" t="s">
+        <v>487</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="H41" s="44" t="s">
+        <v>274</v>
+      </c>
+      <c r="I41" s="45" t="s">
+        <v>492</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="K41" s="1">
+        <v>9016</v>
+      </c>
+      <c r="L41" s="1">
+        <v>470</v>
+      </c>
+      <c r="M41" s="1">
+        <v>49</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="O41" s="1">
+        <v>6</v>
+      </c>
+      <c r="P41" s="46">
+        <v>9016</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="R41" s="1">
+        <v>196</v>
+      </c>
+      <c r="S41" s="47" t="s">
+        <v>182</v>
+      </c>
+      <c r="T41" s="48" t="s">
+        <v>416</v>
+      </c>
+      <c r="U41" s="1" t="s">
+        <v>495</v>
       </c>
     </row>
   </sheetData>
@@ -5216,10 +5325,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB815A5-0A26-4B2F-8716-20DE31E1881F}">
-  <dimension ref="A1:AF127"/>
+  <dimension ref="A1:AF128"/>
   <sheetViews>
-    <sheetView topLeftCell="B14" workbookViewId="0">
-      <selection activeCell="Q32" sqref="Q32"/>
+    <sheetView topLeftCell="B12" workbookViewId="0">
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -6435,15 +6544,15 @@
         <v>473</v>
       </c>
       <c r="O32" s="1" t="str">
-        <f t="shared" ref="O32" si="20">J33&amp;","&amp;J33&amp;","&amp;J33&amp;","&amp;J33&amp;","&amp;J33</f>
+        <f t="shared" ref="O32:O33" si="20">J33&amp;","&amp;J33&amp;","&amp;J33&amp;","&amp;J33&amp;","&amp;J33</f>
         <v>650,650,650,650,650</v>
       </c>
       <c r="P32" s="1" t="str">
-        <f t="shared" ref="P32" si="21">H127&amp;","&amp;I127&amp;","&amp;J127&amp;","&amp;K127&amp;","&amp;L127&amp;","&amp;M127&amp;","&amp;N127</f>
+        <f t="shared" ref="P32:P33" si="21">H127&amp;","&amp;I127&amp;","&amp;J127&amp;","&amp;K127&amp;","&amp;L127&amp;","&amp;M127&amp;","&amp;N127</f>
         <v>0.13,1.25,3.48,7.93,14.61,22.4,37.97</v>
       </c>
       <c r="Q32" s="9" t="str">
-        <f t="shared" ref="Q32" si="22">H67&amp;","&amp;I67&amp;","&amp;J67&amp;","&amp;K67&amp;","&amp;L67&amp;","&amp;M67</f>
+        <f t="shared" ref="Q32:Q33" si="22">H67&amp;","&amp;I67&amp;","&amp;J67&amp;","&amp;K67&amp;","&amp;L67&amp;","&amp;M67</f>
         <v>2106,4212,8424,12636,14742,29484</v>
       </c>
     </row>
@@ -6468,6 +6577,21 @@
         <f t="shared" si="19"/>
         <v>650</v>
       </c>
+      <c r="N33" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="O33" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>680,680,680,680,680</v>
+      </c>
+      <c r="P33" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>0.13,1.41,3.97,9.08,16.74,25.68,43.56</v>
+      </c>
+      <c r="Q33" s="9" t="str">
+        <f t="shared" si="22"/>
+        <v>2313,4625,9250,13875,16187,32374</v>
+      </c>
     </row>
     <row r="34" spans="1:32">
       <c r="A34" s="18" t="s">
@@ -6476,6 +6600,35 @@
       <c r="B34" s="28">
         <v>35</v>
       </c>
+      <c r="G34" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="H34" s="9">
+        <v>470</v>
+      </c>
+      <c r="I34" s="9">
+        <f t="shared" ref="I34" si="23">H34*$B$9*$B$18*($B$13/100)</f>
+        <v>3384</v>
+      </c>
+      <c r="J34" s="9">
+        <f t="shared" ref="J34" si="24">ROUNDUP((I34/5),-1)</f>
+        <v>680</v>
+      </c>
+      <c r="N34" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="O34" s="1" t="str">
+        <f t="shared" ref="O34" si="25">J35&amp;","&amp;J35&amp;","&amp;J35&amp;","&amp;J35&amp;","&amp;J35</f>
+        <v>,,,,</v>
+      </c>
+      <c r="P34" s="1" t="str">
+        <f t="shared" ref="P34" si="26">H129&amp;","&amp;I129&amp;","&amp;J129&amp;","&amp;K129&amp;","&amp;L129&amp;","&amp;M129&amp;","&amp;N129</f>
+        <v>,,,,,,</v>
+      </c>
+      <c r="Q34" s="9" t="str">
+        <f t="shared" ref="Q34" si="27">H69&amp;","&amp;I69&amp;","&amp;J69&amp;","&amp;K69&amp;","&amp;L69&amp;","&amp;M69</f>
+        <v>,,,,,</v>
+      </c>
     </row>
     <row r="35" spans="1:32">
       <c r="A35" s="31" t="s">
@@ -6505,27 +6658,27 @@
         <v>68</v>
       </c>
       <c r="R39" s="23">
-        <f t="shared" ref="R39:W39" si="23">SUM(R41:R50)</f>
+        <f t="shared" ref="R39:W39" si="28">SUM(R41:R50)</f>
         <v>16.285714285714285</v>
       </c>
       <c r="S39" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>13.328571428571429</v>
       </c>
       <c r="T39" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>10.213240418118467</v>
       </c>
       <c r="U39" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>8.8857142857142843</v>
       </c>
       <c r="V39" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>6.4878048780487809</v>
       </c>
       <c r="W39" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>5.3097560975609763</v>
       </c>
       <c r="X39"/>
@@ -6630,23 +6783,23 @@
         <v>106</v>
       </c>
       <c r="I41" s="9">
-        <f t="shared" ref="I41:I50" si="24">ROUNDUP((P41*$B$31/100),0)</f>
+        <f t="shared" ref="I41:I50" si="29">ROUNDUP((P41*$B$31/100),0)</f>
         <v>212</v>
       </c>
       <c r="J41" s="9">
-        <f t="shared" ref="J41:J50" si="25">ROUNDUP((P41*$B$32/100),0)</f>
+        <f t="shared" ref="J41:J50" si="30">ROUNDUP((P41*$B$32/100),0)</f>
         <v>423</v>
       </c>
       <c r="K41" s="9">
-        <f t="shared" ref="K41:K50" si="26">ROUNDUP((P41*$B$33/100),0)</f>
+        <f t="shared" ref="K41:K50" si="31">ROUNDUP((P41*$B$33/100),0)</f>
         <v>634</v>
       </c>
       <c r="L41" s="9">
-        <f t="shared" ref="L41:L50" si="27">ROUNDUP((P41*$B$34/100),0)</f>
+        <f t="shared" ref="L41:L50" si="32">ROUNDUP((P41*$B$34/100),0)</f>
         <v>740</v>
       </c>
       <c r="M41" s="9">
-        <f t="shared" ref="M41:M50" si="28">L41*$B$43</f>
+        <f t="shared" ref="M41:M50" si="33">L41*$B$43</f>
         <v>1480</v>
       </c>
       <c r="N41" s="9">
@@ -6657,23 +6810,23 @@
         <v>50</v>
       </c>
       <c r="P41" s="9">
-        <f t="shared" ref="P41:P50" si="29">(H8*$B$9*$B$18)*(O41/100)+I8</f>
+        <f t="shared" ref="P41:P50" si="34">(H8*$B$9*$B$18)*(O41/100)+I8</f>
         <v>2112</v>
       </c>
       <c r="Q41" s="9">
-        <f t="shared" ref="Q41:Q50" si="30">P41-I8</f>
+        <f t="shared" ref="Q41:Q50" si="35">P41-I8</f>
         <v>1320</v>
       </c>
       <c r="R41" s="1">
-        <f t="shared" ref="R41:R50" si="31">(Q41/H8)/($B$18*7)</f>
+        <f t="shared" ref="R41:R50" si="36">(Q41/H8)/($B$18*7)</f>
         <v>0.8571428571428571</v>
       </c>
       <c r="S41" s="1">
-        <f t="shared" ref="S41:S50" si="32">(Q41/$H$17)/(7*$B$18)</f>
+        <f t="shared" ref="S41:S50" si="37">(Q41/$H$17)/(7*$B$18)</f>
         <v>0.47142857142857142</v>
       </c>
       <c r="T41" s="1">
-        <f t="shared" ref="T41:T49" si="33">(Q41/H8)/($B$18*7+$B$21)</f>
+        <f t="shared" ref="T41:T49" si="38">(Q41/H8)/($B$18*7+$B$21)</f>
         <v>0.5714285714285714</v>
       </c>
       <c r="U41" s="1">
@@ -6681,7 +6834,7 @@
         <v>0.31428571428571428</v>
       </c>
       <c r="V41" s="1">
-        <f t="shared" ref="V41:V50" si="34">(Q41/H8)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
+        <f t="shared" ref="V41:V50" si="39">(Q41/H8)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
         <v>0.34146341463414637</v>
       </c>
       <c r="W41" s="1">
@@ -6696,19 +6849,19 @@
         <v>720</v>
       </c>
       <c r="AA41" s="9">
-        <f t="shared" ref="AA41:AA55" si="35">ROUNDUP((AE41*$B$31/100),0)</f>
+        <f t="shared" ref="AA41:AA55" si="40">ROUNDUP((AE41*$B$31/100),0)</f>
         <v>1440</v>
       </c>
       <c r="AB41" s="9">
-        <f t="shared" ref="AB41:AB55" si="36">ROUNDUP((AE41*$B$32/100),0)</f>
+        <f t="shared" ref="AB41:AB55" si="41">ROUNDUP((AE41*$B$32/100),0)</f>
         <v>2880</v>
       </c>
       <c r="AC41" s="9">
-        <f t="shared" ref="AC41:AC55" si="37">ROUNDUP((AE41*$B$33/100),0)</f>
+        <f t="shared" ref="AC41:AC55" si="42">ROUNDUP((AE41*$B$33/100),0)</f>
         <v>4320</v>
       </c>
       <c r="AD41" s="9">
-        <f t="shared" ref="AD41:AD55" si="38">ROUNDUP((AE41*$B$34/100),0)</f>
+        <f t="shared" ref="AD41:AD55" si="43">ROUNDUP((AE41*$B$34/100),0)</f>
         <v>5040</v>
       </c>
       <c r="AE41" s="1">
@@ -6727,93 +6880,93 @@
         <v>18</v>
       </c>
       <c r="H42" s="9">
-        <f t="shared" ref="H42:H50" si="39">ROUNDUP((P42*$B$30/100),0)</f>
+        <f t="shared" ref="H42:H50" si="44">ROUNDUP((P42*$B$30/100),0)</f>
         <v>130</v>
       </c>
       <c r="I42" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>260</v>
       </c>
       <c r="J42" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>519</v>
       </c>
       <c r="K42" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>778</v>
       </c>
       <c r="L42" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>908</v>
       </c>
       <c r="M42" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>1816</v>
       </c>
       <c r="N42" s="9">
-        <f t="shared" ref="N42:N50" si="40">SUM(H42:L42)</f>
+        <f t="shared" ref="N42:N50" si="45">SUM(H42:L42)</f>
         <v>2595</v>
       </c>
       <c r="O42" s="9">
         <v>60</v>
       </c>
       <c r="P42" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>2592</v>
       </c>
       <c r="Q42" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>1728</v>
       </c>
       <c r="R42" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>1.0285714285714287</v>
       </c>
       <c r="S42" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>0.61714285714285722</v>
       </c>
       <c r="T42" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0.68571428571428572</v>
       </c>
       <c r="U42" s="1">
-        <f t="shared" ref="U42:U50" si="41">(Q42/$H$17)/($B$18*7+$B$21)</f>
+        <f t="shared" ref="U42:U50" si="46">(Q42/$H$17)/($B$18*7+$B$21)</f>
         <v>0.41142857142857148</v>
       </c>
       <c r="V42" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0.40975609756097564</v>
       </c>
       <c r="W42" s="1">
-        <f t="shared" ref="W42:W50" si="42">(Q42/$H$17)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
+        <f t="shared" ref="W42:W50" si="47">(Q42/$H$17)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
         <v>0.24585365853658542</v>
       </c>
       <c r="Y42" s="9" t="s">
         <v>199</v>
       </c>
       <c r="Z42" s="9">
-        <f t="shared" ref="Z42:Z55" si="43">ROUNDUP((AE42*$B$30/100),0)</f>
+        <f t="shared" ref="Z42:Z55" si="48">ROUNDUP((AE42*$B$30/100),0)</f>
         <v>744</v>
       </c>
       <c r="AA42" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>1488</v>
       </c>
       <c r="AB42" s="9">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>2976</v>
       </c>
       <c r="AC42" s="9">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>4464</v>
       </c>
       <c r="AD42" s="9">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>5208</v>
       </c>
       <c r="AE42" s="1">
-        <f t="shared" ref="AE42:AE55" si="44">($H$17*$B$9*$B$18)*(AF42/100)</f>
+        <f t="shared" ref="AE42:AE55" si="49">($H$17*$B$9*$B$18)*(AF42/100)</f>
         <v>14880</v>
       </c>
       <c r="AF42" s="1">
@@ -6832,93 +6985,93 @@
         <v>19</v>
       </c>
       <c r="H43" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>156</v>
       </c>
       <c r="I43" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>312</v>
       </c>
       <c r="J43" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>624</v>
       </c>
       <c r="K43" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>936</v>
       </c>
       <c r="L43" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>1092</v>
       </c>
       <c r="M43" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>2184</v>
       </c>
       <c r="N43" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>3120</v>
       </c>
       <c r="O43" s="9">
         <v>70</v>
       </c>
       <c r="P43" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>3120</v>
       </c>
       <c r="Q43" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>2184</v>
       </c>
       <c r="R43" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>1.2</v>
       </c>
       <c r="S43" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>0.78</v>
       </c>
       <c r="T43" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0.8</v>
       </c>
       <c r="U43" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>0.52</v>
       </c>
       <c r="V43" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0.47804878048780497</v>
       </c>
       <c r="W43" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>0.31073170731707322</v>
       </c>
       <c r="Y43" s="9" t="s">
         <v>200</v>
       </c>
       <c r="Z43" s="9">
+        <f t="shared" si="48"/>
+        <v>768</v>
+      </c>
+      <c r="AA43" s="9">
+        <f t="shared" si="40"/>
+        <v>1536</v>
+      </c>
+      <c r="AB43" s="9">
+        <f t="shared" si="41"/>
+        <v>3072</v>
+      </c>
+      <c r="AC43" s="9">
+        <f t="shared" si="42"/>
+        <v>4608</v>
+      </c>
+      <c r="AD43" s="9">
         <f t="shared" si="43"/>
-        <v>768</v>
-      </c>
-      <c r="AA43" s="9">
-        <f t="shared" si="35"/>
-        <v>1536</v>
-      </c>
-      <c r="AB43" s="9">
-        <f t="shared" si="36"/>
-        <v>3072</v>
-      </c>
-      <c r="AC43" s="9">
-        <f t="shared" si="37"/>
-        <v>4608</v>
-      </c>
-      <c r="AD43" s="9">
-        <f t="shared" si="38"/>
         <v>5376</v>
       </c>
       <c r="AE43" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>15360</v>
       </c>
       <c r="AF43" s="1">
@@ -6931,93 +7084,93 @@
         <v>85</v>
       </c>
       <c r="H44" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>185</v>
       </c>
       <c r="I44" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>370</v>
       </c>
       <c r="J44" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>740</v>
       </c>
       <c r="K44" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>1109</v>
       </c>
       <c r="L44" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>1294</v>
       </c>
       <c r="M44" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>2588</v>
       </c>
       <c r="N44" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>3698</v>
       </c>
       <c r="O44" s="9">
         <v>80</v>
       </c>
       <c r="P44" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>3696</v>
       </c>
       <c r="Q44" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>2688</v>
       </c>
       <c r="R44" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>1.3714285714285714</v>
       </c>
       <c r="S44" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>0.96</v>
       </c>
       <c r="T44" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0.91428571428571426</v>
       </c>
       <c r="U44" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>0.64</v>
       </c>
       <c r="V44" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0.54634146341463419</v>
       </c>
       <c r="W44" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>0.38243902439024391</v>
       </c>
       <c r="Y44" s="9" t="s">
         <v>201</v>
       </c>
       <c r="Z44" s="9">
+        <f t="shared" si="48"/>
+        <v>792</v>
+      </c>
+      <c r="AA44" s="9">
+        <f t="shared" si="40"/>
+        <v>1584</v>
+      </c>
+      <c r="AB44" s="9">
+        <f t="shared" si="41"/>
+        <v>3168</v>
+      </c>
+      <c r="AC44" s="9">
+        <f t="shared" si="42"/>
+        <v>4752</v>
+      </c>
+      <c r="AD44" s="9">
         <f t="shared" si="43"/>
-        <v>792</v>
-      </c>
-      <c r="AA44" s="9">
-        <f t="shared" si="35"/>
-        <v>1584</v>
-      </c>
-      <c r="AB44" s="9">
-        <f t="shared" si="36"/>
-        <v>3168</v>
-      </c>
-      <c r="AC44" s="9">
-        <f t="shared" si="37"/>
-        <v>4752</v>
-      </c>
-      <c r="AD44" s="9">
-        <f t="shared" si="38"/>
         <v>5544</v>
       </c>
       <c r="AE44" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>15840</v>
       </c>
       <c r="AF44" s="1">
@@ -7030,93 +7183,93 @@
         <v>20</v>
       </c>
       <c r="H45" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>216</v>
       </c>
       <c r="I45" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>432</v>
       </c>
       <c r="J45" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>864</v>
       </c>
       <c r="K45" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>1296</v>
       </c>
       <c r="L45" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>1512</v>
       </c>
       <c r="M45" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>3024</v>
       </c>
       <c r="N45" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>4320</v>
       </c>
       <c r="O45" s="9">
         <v>90</v>
       </c>
       <c r="P45" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>4320</v>
       </c>
       <c r="Q45" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>3240</v>
       </c>
       <c r="R45" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>1.5428571428571429</v>
       </c>
       <c r="S45" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>1.157142857142857</v>
       </c>
       <c r="T45" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>1.0285714285714287</v>
       </c>
       <c r="U45" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>0.77142857142857135</v>
       </c>
       <c r="V45" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0.61463414634146352</v>
       </c>
       <c r="W45" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>0.46097560975609758</v>
       </c>
       <c r="Y45" s="9" t="s">
         <v>202</v>
       </c>
       <c r="Z45" s="9">
+        <f t="shared" si="48"/>
+        <v>816</v>
+      </c>
+      <c r="AA45" s="9">
+        <f t="shared" si="40"/>
+        <v>1632</v>
+      </c>
+      <c r="AB45" s="9">
+        <f t="shared" si="41"/>
+        <v>3264</v>
+      </c>
+      <c r="AC45" s="9">
+        <f t="shared" si="42"/>
+        <v>4896</v>
+      </c>
+      <c r="AD45" s="9">
         <f t="shared" si="43"/>
-        <v>816</v>
-      </c>
-      <c r="AA45" s="9">
-        <f t="shared" si="35"/>
-        <v>1632</v>
-      </c>
-      <c r="AB45" s="9">
-        <f t="shared" si="36"/>
-        <v>3264</v>
-      </c>
-      <c r="AC45" s="9">
-        <f t="shared" si="37"/>
-        <v>4896</v>
-      </c>
-      <c r="AD45" s="9">
-        <f t="shared" si="38"/>
         <v>5712</v>
       </c>
       <c r="AE45" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>16320</v>
       </c>
       <c r="AF45" s="1">
@@ -7129,93 +7282,93 @@
         <v>21</v>
       </c>
       <c r="H46" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>250</v>
       </c>
       <c r="I46" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>500</v>
       </c>
       <c r="J46" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>999</v>
       </c>
       <c r="K46" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>1498</v>
       </c>
       <c r="L46" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>1748</v>
       </c>
       <c r="M46" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>3496</v>
       </c>
       <c r="N46" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>4995</v>
       </c>
       <c r="O46" s="9">
         <v>100</v>
       </c>
       <c r="P46" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>4992</v>
       </c>
       <c r="Q46" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>3840</v>
       </c>
       <c r="R46" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>1.7142857142857142</v>
       </c>
       <c r="S46" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>1.3714285714285714</v>
       </c>
       <c r="T46" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>1.1428571428571428</v>
       </c>
       <c r="U46" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>0.91428571428571426</v>
       </c>
       <c r="V46" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0.68292682926829273</v>
       </c>
       <c r="W46" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>0.54634146341463419</v>
       </c>
       <c r="Y46" s="9" t="s">
         <v>203</v>
       </c>
       <c r="Z46" s="9">
+        <f t="shared" si="48"/>
+        <v>840</v>
+      </c>
+      <c r="AA46" s="9">
+        <f t="shared" si="40"/>
+        <v>1680</v>
+      </c>
+      <c r="AB46" s="9">
+        <f t="shared" si="41"/>
+        <v>3360</v>
+      </c>
+      <c r="AC46" s="9">
+        <f t="shared" si="42"/>
+        <v>5040</v>
+      </c>
+      <c r="AD46" s="9">
         <f t="shared" si="43"/>
-        <v>840</v>
-      </c>
-      <c r="AA46" s="9">
-        <f t="shared" si="35"/>
-        <v>1680</v>
-      </c>
-      <c r="AB46" s="9">
-        <f t="shared" si="36"/>
-        <v>3360</v>
-      </c>
-      <c r="AC46" s="9">
-        <f t="shared" si="37"/>
-        <v>5040</v>
-      </c>
-      <c r="AD46" s="9">
-        <f t="shared" si="38"/>
         <v>5880</v>
       </c>
       <c r="AE46" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>16800</v>
       </c>
       <c r="AF46" s="1">
@@ -7227,93 +7380,93 @@
         <v>22</v>
       </c>
       <c r="H47" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>286</v>
       </c>
       <c r="I47" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>572</v>
       </c>
       <c r="J47" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>1143</v>
       </c>
       <c r="K47" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>1714</v>
       </c>
       <c r="L47" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>2000</v>
       </c>
       <c r="M47" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>4000</v>
       </c>
       <c r="N47" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>5715</v>
       </c>
       <c r="O47" s="9">
         <v>110</v>
       </c>
       <c r="P47" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>5712</v>
       </c>
       <c r="Q47" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>4488</v>
       </c>
       <c r="R47" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>1.8857142857142857</v>
       </c>
       <c r="S47" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>1.602857142857143</v>
       </c>
       <c r="T47" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>1.2571428571428571</v>
       </c>
       <c r="U47" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>1.0685714285714287</v>
       </c>
       <c r="V47" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0.75121951219512195</v>
       </c>
       <c r="W47" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>0.63853658536585378</v>
       </c>
       <c r="Y47" s="9" t="s">
         <v>204</v>
       </c>
       <c r="Z47" s="9">
+        <f t="shared" si="48"/>
+        <v>864</v>
+      </c>
+      <c r="AA47" s="9">
+        <f t="shared" si="40"/>
+        <v>1728</v>
+      </c>
+      <c r="AB47" s="9">
+        <f t="shared" si="41"/>
+        <v>3456</v>
+      </c>
+      <c r="AC47" s="9">
+        <f t="shared" si="42"/>
+        <v>5184</v>
+      </c>
+      <c r="AD47" s="9">
         <f t="shared" si="43"/>
-        <v>864</v>
-      </c>
-      <c r="AA47" s="9">
-        <f t="shared" si="35"/>
-        <v>1728</v>
-      </c>
-      <c r="AB47" s="9">
-        <f t="shared" si="36"/>
-        <v>3456</v>
-      </c>
-      <c r="AC47" s="9">
-        <f t="shared" si="37"/>
-        <v>5184</v>
-      </c>
-      <c r="AD47" s="9">
-        <f t="shared" si="38"/>
         <v>6048</v>
       </c>
       <c r="AE47" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>17280</v>
       </c>
       <c r="AF47" s="1">
@@ -7325,93 +7478,93 @@
         <v>23</v>
       </c>
       <c r="H48" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>324</v>
       </c>
       <c r="I48" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>648</v>
       </c>
       <c r="J48" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>1296</v>
       </c>
       <c r="K48" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>1944</v>
       </c>
       <c r="L48" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>2268</v>
       </c>
       <c r="M48" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>4536</v>
       </c>
       <c r="N48" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>6480</v>
       </c>
       <c r="O48" s="9">
         <v>120</v>
       </c>
       <c r="P48" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>6480</v>
       </c>
       <c r="Q48" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>5184</v>
       </c>
       <c r="R48" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>2.0571428571428574</v>
       </c>
       <c r="S48" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>1.8514285714285716</v>
       </c>
       <c r="T48" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>1.3714285714285714</v>
       </c>
       <c r="U48" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>1.2342857142857144</v>
       </c>
       <c r="V48" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0.81951219512195128</v>
       </c>
       <c r="W48" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>0.7375609756097562</v>
       </c>
       <c r="Y48" s="9" t="s">
         <v>205</v>
       </c>
       <c r="Z48" s="9">
+        <f t="shared" si="48"/>
+        <v>888</v>
+      </c>
+      <c r="AA48" s="9">
+        <f t="shared" si="40"/>
+        <v>1776</v>
+      </c>
+      <c r="AB48" s="9">
+        <f t="shared" si="41"/>
+        <v>3552</v>
+      </c>
+      <c r="AC48" s="9">
+        <f t="shared" si="42"/>
+        <v>5328</v>
+      </c>
+      <c r="AD48" s="9">
         <f t="shared" si="43"/>
-        <v>888</v>
-      </c>
-      <c r="AA48" s="9">
-        <f t="shared" si="35"/>
-        <v>1776</v>
-      </c>
-      <c r="AB48" s="9">
-        <f t="shared" si="36"/>
-        <v>3552</v>
-      </c>
-      <c r="AC48" s="9">
-        <f t="shared" si="37"/>
-        <v>5328</v>
-      </c>
-      <c r="AD48" s="9">
-        <f t="shared" si="38"/>
         <v>6216</v>
       </c>
       <c r="AE48" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>17760</v>
       </c>
       <c r="AF48" s="1">
@@ -7423,89 +7576,89 @@
         <v>24</v>
       </c>
       <c r="H49" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>365</v>
       </c>
       <c r="I49" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>730</v>
       </c>
       <c r="J49" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>1460</v>
       </c>
       <c r="K49" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>2189</v>
       </c>
       <c r="L49" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>2554</v>
       </c>
       <c r="M49" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>5108</v>
       </c>
       <c r="N49" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>7298</v>
       </c>
       <c r="O49" s="9">
         <v>130</v>
       </c>
       <c r="P49" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>7296</v>
       </c>
       <c r="Q49" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>5928</v>
       </c>
       <c r="R49" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>2.2285714285714286</v>
       </c>
       <c r="S49" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>2.117142857142857</v>
       </c>
       <c r="T49" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>1.4857142857142858</v>
       </c>
       <c r="U49" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>1.4114285714285715</v>
       </c>
       <c r="V49" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0.88780487804878061</v>
       </c>
       <c r="W49" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>0.84341463414634155</v>
       </c>
       <c r="Y49" s="9" t="s">
         <v>206</v>
       </c>
       <c r="Z49" s="9">
+        <f t="shared" si="48"/>
+        <v>1200</v>
+      </c>
+      <c r="AA49" s="9">
+        <f t="shared" si="40"/>
+        <v>2400</v>
+      </c>
+      <c r="AB49" s="9">
+        <f t="shared" si="41"/>
+        <v>4800</v>
+      </c>
+      <c r="AC49" s="9">
+        <f t="shared" si="42"/>
+        <v>7200</v>
+      </c>
+      <c r="AD49" s="9">
         <f t="shared" si="43"/>
-        <v>1200</v>
-      </c>
-      <c r="AA49" s="9">
-        <f t="shared" si="35"/>
-        <v>2400</v>
-      </c>
-      <c r="AB49" s="9">
-        <f t="shared" si="36"/>
-        <v>4800</v>
-      </c>
-      <c r="AC49" s="9">
-        <f t="shared" si="37"/>
-        <v>7200</v>
-      </c>
-      <c r="AD49" s="9">
-        <f t="shared" si="38"/>
         <v>8400</v>
       </c>
       <c r="AE49" s="1">
@@ -7521,50 +7674,50 @@
         <v>25</v>
       </c>
       <c r="H50" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>408</v>
       </c>
       <c r="I50" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>816</v>
       </c>
       <c r="J50" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>1632</v>
       </c>
       <c r="K50" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>2448</v>
       </c>
       <c r="L50" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>2856</v>
       </c>
       <c r="M50" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>5712</v>
       </c>
       <c r="N50" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>8160</v>
       </c>
       <c r="O50" s="9">
         <v>140</v>
       </c>
       <c r="P50" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>8160</v>
       </c>
       <c r="Q50" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>6720</v>
       </c>
       <c r="R50" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>2.4</v>
       </c>
       <c r="S50" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>2.4</v>
       </c>
       <c r="T50" s="1">
@@ -7572,42 +7725,42 @@
         <v>0.95609756097560994</v>
       </c>
       <c r="U50" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>1.6</v>
       </c>
       <c r="V50" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0.95609756097560994</v>
       </c>
       <c r="W50" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>0.95609756097560994</v>
       </c>
       <c r="Y50" s="9" t="s">
         <v>207</v>
       </c>
       <c r="Z50" s="9">
+        <f t="shared" si="48"/>
+        <v>1248</v>
+      </c>
+      <c r="AA50" s="9">
+        <f t="shared" si="40"/>
+        <v>2496</v>
+      </c>
+      <c r="AB50" s="9">
+        <f t="shared" si="41"/>
+        <v>4992</v>
+      </c>
+      <c r="AC50" s="9">
+        <f t="shared" si="42"/>
+        <v>7488</v>
+      </c>
+      <c r="AD50" s="9">
         <f t="shared" si="43"/>
-        <v>1248</v>
-      </c>
-      <c r="AA50" s="9">
-        <f t="shared" si="35"/>
-        <v>2496</v>
-      </c>
-      <c r="AB50" s="9">
-        <f t="shared" si="36"/>
-        <v>4992</v>
-      </c>
-      <c r="AC50" s="9">
-        <f t="shared" si="37"/>
-        <v>7488</v>
-      </c>
-      <c r="AD50" s="9">
-        <f t="shared" si="38"/>
         <v>8736</v>
       </c>
       <c r="AE50" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>24960</v>
       </c>
       <c r="AF50" s="1">
@@ -7639,27 +7792,27 @@
         <v>208</v>
       </c>
       <c r="Z51" s="9">
+        <f t="shared" si="48"/>
+        <v>1296</v>
+      </c>
+      <c r="AA51" s="9">
+        <f t="shared" si="40"/>
+        <v>2592</v>
+      </c>
+      <c r="AB51" s="9">
+        <f t="shared" si="41"/>
+        <v>5184</v>
+      </c>
+      <c r="AC51" s="9">
+        <f t="shared" si="42"/>
+        <v>7776</v>
+      </c>
+      <c r="AD51" s="9">
         <f t="shared" si="43"/>
-        <v>1296</v>
-      </c>
-      <c r="AA51" s="9">
-        <f t="shared" si="35"/>
-        <v>2592</v>
-      </c>
-      <c r="AB51" s="9">
-        <f t="shared" si="36"/>
-        <v>5184</v>
-      </c>
-      <c r="AC51" s="9">
-        <f t="shared" si="37"/>
-        <v>7776</v>
-      </c>
-      <c r="AD51" s="9">
-        <f t="shared" si="38"/>
         <v>9072</v>
       </c>
       <c r="AE51" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>25920</v>
       </c>
       <c r="AF51" s="1">
@@ -7675,23 +7828,23 @@
         <v>6.8571428571428568</v>
       </c>
       <c r="S52" s="23">
-        <f t="shared" ref="S52:W52" si="45">SUM(S53:S54)</f>
+        <f t="shared" ref="S52:W52" si="50">SUM(S53:S54)</f>
         <v>6.7012987012987013</v>
       </c>
       <c r="T52" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>2.7317073170731709</v>
       </c>
       <c r="U52" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>4.4675324675324681</v>
       </c>
       <c r="V52" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>2.7317073170731709</v>
       </c>
       <c r="W52" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>2.6696230598669626</v>
       </c>
       <c r="X52"/>
@@ -7699,27 +7852,27 @@
         <v>209</v>
       </c>
       <c r="Z52" s="9">
+        <f t="shared" si="48"/>
+        <v>1440</v>
+      </c>
+      <c r="AA52" s="9">
+        <f t="shared" si="40"/>
+        <v>2880</v>
+      </c>
+      <c r="AB52" s="9">
+        <f t="shared" si="41"/>
+        <v>5760</v>
+      </c>
+      <c r="AC52" s="9">
+        <f t="shared" si="42"/>
+        <v>8640</v>
+      </c>
+      <c r="AD52" s="9">
         <f t="shared" si="43"/>
-        <v>1440</v>
-      </c>
-      <c r="AA52" s="9">
-        <f t="shared" si="35"/>
-        <v>2880</v>
-      </c>
-      <c r="AB52" s="9">
-        <f t="shared" si="36"/>
-        <v>5760</v>
-      </c>
-      <c r="AC52" s="9">
-        <f t="shared" si="37"/>
-        <v>8640</v>
-      </c>
-      <c r="AD52" s="9">
-        <f t="shared" si="38"/>
         <v>10080</v>
       </c>
       <c r="AE52" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>28800</v>
       </c>
       <c r="AF52" s="1">
@@ -7731,31 +7884,31 @@
         <v>105</v>
       </c>
       <c r="H53" s="9">
-        <f t="shared" ref="H53:H63" si="46">ROUNDUP((P53*$B$30/100),0)</f>
+        <f t="shared" ref="H53:H63" si="51">ROUNDUP((P53*$B$30/100),0)</f>
         <v>580</v>
       </c>
       <c r="I53" s="9">
-        <f t="shared" ref="I53:I65" si="47">ROUNDUP((P53*$B$31/100),0)</f>
+        <f t="shared" ref="I53:I65" si="52">ROUNDUP((P53*$B$31/100),0)</f>
         <v>1160</v>
       </c>
       <c r="J53" s="9">
-        <f t="shared" ref="J53:J65" si="48">ROUNDUP((P53*$B$32/100),0)</f>
+        <f t="shared" ref="J53:J65" si="53">ROUNDUP((P53*$B$32/100),0)</f>
         <v>2319</v>
       </c>
       <c r="K53" s="9">
-        <f t="shared" ref="K53:K65" si="49">ROUNDUP((P53*$B$33/100),0)</f>
+        <f t="shared" ref="K53:K65" si="54">ROUNDUP((P53*$B$33/100),0)</f>
         <v>3478</v>
       </c>
       <c r="L53" s="9">
-        <f t="shared" ref="L53:L65" si="50">ROUNDUP((P53*$B$34/100),0)</f>
+        <f t="shared" ref="L53:L65" si="55">ROUNDUP((P53*$B$34/100),0)</f>
         <v>4058</v>
       </c>
       <c r="M53" s="9">
-        <f t="shared" ref="M53:M66" si="51">L53*$B$43</f>
+        <f t="shared" ref="M53:M66" si="56">L53*$B$43</f>
         <v>8116</v>
       </c>
       <c r="N53" s="9">
-        <f t="shared" ref="N53" si="52">SUM(H53:L53)</f>
+        <f t="shared" ref="N53" si="57">SUM(H53:L53)</f>
         <v>11595</v>
       </c>
       <c r="O53" s="9">
@@ -7797,27 +7950,27 @@
         <v>210</v>
       </c>
       <c r="Z53" s="9">
+        <f t="shared" si="48"/>
+        <v>1488</v>
+      </c>
+      <c r="AA53" s="9">
+        <f t="shared" si="40"/>
+        <v>2976</v>
+      </c>
+      <c r="AB53" s="9">
+        <f t="shared" si="41"/>
+        <v>5952</v>
+      </c>
+      <c r="AC53" s="9">
+        <f t="shared" si="42"/>
+        <v>8928</v>
+      </c>
+      <c r="AD53" s="9">
         <f t="shared" si="43"/>
-        <v>1488</v>
-      </c>
-      <c r="AA53" s="9">
-        <f t="shared" si="35"/>
-        <v>2976</v>
-      </c>
-      <c r="AB53" s="9">
-        <f t="shared" si="36"/>
-        <v>5952</v>
-      </c>
-      <c r="AC53" s="9">
-        <f t="shared" si="37"/>
-        <v>8928</v>
-      </c>
-      <c r="AD53" s="9">
-        <f t="shared" si="38"/>
         <v>10416</v>
       </c>
       <c r="AE53" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>29760</v>
       </c>
       <c r="AF53" s="1">
@@ -7829,31 +7982,31 @@
         <v>106</v>
       </c>
       <c r="H54" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>608</v>
       </c>
       <c r="I54" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>1215</v>
       </c>
       <c r="J54" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>2429</v>
       </c>
       <c r="K54" s="9">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>3644</v>
       </c>
       <c r="L54" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>4251</v>
       </c>
       <c r="M54" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>8502</v>
       </c>
       <c r="N54" s="9">
-        <f t="shared" ref="N54:N59" si="53">SUM(H54:L54)</f>
+        <f t="shared" ref="N54:N59" si="58">SUM(H54:L54)</f>
         <v>12147</v>
       </c>
       <c r="O54" s="9">
@@ -7895,27 +8048,27 @@
         <v>211</v>
       </c>
       <c r="Z54" s="9">
+        <f t="shared" si="48"/>
+        <v>1536</v>
+      </c>
+      <c r="AA54" s="9">
+        <f t="shared" si="40"/>
+        <v>3072</v>
+      </c>
+      <c r="AB54" s="9">
+        <f t="shared" si="41"/>
+        <v>6144</v>
+      </c>
+      <c r="AC54" s="9">
+        <f t="shared" si="42"/>
+        <v>9216</v>
+      </c>
+      <c r="AD54" s="9">
         <f t="shared" si="43"/>
-        <v>1536</v>
-      </c>
-      <c r="AA54" s="9">
-        <f t="shared" si="35"/>
-        <v>3072</v>
-      </c>
-      <c r="AB54" s="9">
-        <f t="shared" si="36"/>
-        <v>6144</v>
-      </c>
-      <c r="AC54" s="9">
-        <f t="shared" si="37"/>
-        <v>9216</v>
-      </c>
-      <c r="AD54" s="9">
-        <f t="shared" si="38"/>
         <v>10752</v>
       </c>
       <c r="AE54" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>30720</v>
       </c>
       <c r="AF54" s="1">
@@ -7927,31 +8080,31 @@
         <v>172</v>
       </c>
       <c r="H55" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>635</v>
       </c>
       <c r="I55" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>1270</v>
       </c>
       <c r="J55" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>2540</v>
       </c>
       <c r="K55" s="9">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>3809</v>
       </c>
       <c r="L55" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>4444</v>
       </c>
       <c r="M55" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>8888</v>
       </c>
       <c r="N55" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>12698</v>
       </c>
       <c r="O55" s="9">
@@ -7965,27 +8118,27 @@
         <v>212</v>
       </c>
       <c r="Z55" s="9">
+        <f t="shared" si="48"/>
+        <v>1584</v>
+      </c>
+      <c r="AA55" s="9">
+        <f t="shared" si="40"/>
+        <v>3168</v>
+      </c>
+      <c r="AB55" s="9">
+        <f t="shared" si="41"/>
+        <v>6336</v>
+      </c>
+      <c r="AC55" s="9">
+        <f t="shared" si="42"/>
+        <v>9504</v>
+      </c>
+      <c r="AD55" s="9">
         <f t="shared" si="43"/>
-        <v>1584</v>
-      </c>
-      <c r="AA55" s="9">
-        <f t="shared" si="35"/>
-        <v>3168</v>
-      </c>
-      <c r="AB55" s="9">
-        <f t="shared" si="36"/>
-        <v>6336</v>
-      </c>
-      <c r="AC55" s="9">
-        <f t="shared" si="37"/>
-        <v>9504</v>
-      </c>
-      <c r="AD55" s="9">
-        <f t="shared" si="38"/>
         <v>11088</v>
       </c>
       <c r="AE55" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>31680</v>
       </c>
       <c r="AF55" s="1">
@@ -7997,31 +8150,31 @@
         <v>175</v>
       </c>
       <c r="H56" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>692</v>
       </c>
       <c r="I56" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>1383</v>
       </c>
       <c r="J56" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>2765</v>
       </c>
       <c r="K56" s="9">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>4148</v>
       </c>
       <c r="L56" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>4839</v>
       </c>
       <c r="M56" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>9678</v>
       </c>
       <c r="N56" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>13827</v>
       </c>
       <c r="O56" s="9">
@@ -8037,31 +8190,31 @@
         <v>195</v>
       </c>
       <c r="H57" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>750</v>
       </c>
       <c r="I57" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>1500</v>
       </c>
       <c r="J57" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>3000</v>
       </c>
       <c r="K57" s="9">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>4500</v>
       </c>
       <c r="L57" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>5250</v>
       </c>
       <c r="M57" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>10500</v>
       </c>
       <c r="N57" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>15000</v>
       </c>
       <c r="O57" s="9">
@@ -8077,31 +8230,31 @@
         <v>246</v>
       </c>
       <c r="H58" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>843</v>
       </c>
       <c r="I58" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>1685</v>
       </c>
       <c r="J58" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>3370</v>
       </c>
       <c r="K58" s="9">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>5055</v>
       </c>
       <c r="L58" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>5897</v>
       </c>
       <c r="M58" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>11794</v>
       </c>
       <c r="N58" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>16850</v>
       </c>
       <c r="O58" s="9">
@@ -8117,31 +8270,31 @@
         <v>313</v>
       </c>
       <c r="H59" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>940</v>
       </c>
       <c r="I59" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>1880</v>
       </c>
       <c r="J59" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>3759</v>
       </c>
       <c r="K59" s="9">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>5638</v>
       </c>
       <c r="L59" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>6578</v>
       </c>
       <c r="M59" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>13156</v>
       </c>
       <c r="N59" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>18795</v>
       </c>
       <c r="O59" s="9">
@@ -8160,31 +8313,31 @@
         <v>368</v>
       </c>
       <c r="H60" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>1042</v>
       </c>
       <c r="I60" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>2084</v>
       </c>
       <c r="J60" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>4167</v>
       </c>
       <c r="K60" s="9">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>6250</v>
       </c>
       <c r="L60" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>7292</v>
       </c>
       <c r="M60" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>14584</v>
       </c>
       <c r="N60" s="9">
-        <f t="shared" ref="N60" si="54">SUM(H60:L60)</f>
+        <f t="shared" ref="N60" si="59">SUM(H60:L60)</f>
         <v>20835</v>
       </c>
       <c r="O60" s="9">
@@ -8224,31 +8377,31 @@
         <v>375</v>
       </c>
       <c r="H61" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>1149</v>
       </c>
       <c r="I61" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>2297</v>
       </c>
       <c r="J61" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>4594</v>
       </c>
       <c r="K61" s="9">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>6891</v>
       </c>
       <c r="L61" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>8039</v>
       </c>
       <c r="M61" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>16078</v>
       </c>
       <c r="N61" s="9">
-        <f t="shared" ref="N61" si="55">SUM(H61:L61)</f>
+        <f t="shared" ref="N61" si="60">SUM(H61:L61)</f>
         <v>22970</v>
       </c>
       <c r="O61" s="9">
@@ -8265,23 +8418,23 @@
         <v>0.01</v>
       </c>
       <c r="AA61" s="9">
-        <f t="shared" ref="AA61:AA75" si="56">ROUNDUP(((Z41/$B$39)*$B$40)*((100+AF61)/100),0)/100</f>
+        <f t="shared" ref="AA61:AA75" si="61">ROUNDUP(((Z41/$B$39)*$B$40)*((100+AF61)/100),0)/100</f>
         <v>0.22</v>
       </c>
       <c r="AB61" s="9">
-        <f t="shared" ref="AB61:AB75" si="57">ROUNDUP(((AA41/$B$39)*$B$40)*((100+AF61)/100),0)/100</f>
+        <f t="shared" ref="AB61:AB75" si="62">ROUNDUP(((AA41/$B$39)*$B$40)*((100+AF61)/100),0)/100</f>
         <v>0.44</v>
       </c>
       <c r="AC61" s="9">
-        <f t="shared" ref="AC61:AC75" si="58">ROUNDUP(((AB41/$B$39)*$B$40)*((100+AF61)/100),0)/100</f>
+        <f t="shared" ref="AC61:AC75" si="63">ROUNDUP(((AB41/$B$39)*$B$40)*((100+AF61)/100),0)/100</f>
         <v>0.87</v>
       </c>
       <c r="AD61" s="9">
-        <f t="shared" ref="AD61:AD75" si="59">ROUNDUP(((AC41/$B$39)*$B$40)*((100+AF61)/100),0)/100</f>
+        <f t="shared" ref="AD61:AD75" si="64">ROUNDUP(((AC41/$B$39)*$B$40)*((100+AF61)/100),0)/100</f>
         <v>1.3</v>
       </c>
       <c r="AE61" s="9">
-        <f t="shared" ref="AE61:AE75" si="60">ROUNDUP(((AD41/$B$39)*$B$40)*((100+AF61)/100),0)/100</f>
+        <f t="shared" ref="AE61:AE75" si="65">ROUNDUP(((AD41/$B$39)*$B$40)*((100+AF61)/100),0)/100</f>
         <v>1.52</v>
       </c>
       <c r="AF61" s="1">
@@ -8293,31 +8446,31 @@
         <v>387</v>
       </c>
       <c r="H62" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>1260</v>
       </c>
       <c r="I62" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>2520</v>
       </c>
       <c r="J62" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>5040</v>
       </c>
       <c r="K62" s="9">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>7560</v>
       </c>
       <c r="L62" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>8820</v>
       </c>
       <c r="M62" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>17640</v>
       </c>
       <c r="N62" s="9">
-        <f t="shared" ref="N62" si="61">SUM(H62:L62)</f>
+        <f t="shared" ref="N62" si="66">SUM(H62:L62)</f>
         <v>25200</v>
       </c>
       <c r="O62" s="9">
@@ -8334,23 +8487,23 @@
         <v>0.02</v>
       </c>
       <c r="AA62" s="9">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>0.24</v>
       </c>
       <c r="AB62" s="9">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>0.47</v>
       </c>
       <c r="AC62" s="9">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v>0.93</v>
       </c>
       <c r="AD62" s="9">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>1.4</v>
       </c>
       <c r="AE62" s="9">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>1.63</v>
       </c>
       <c r="AF62" s="1">
@@ -8362,31 +8515,31 @@
         <v>418</v>
       </c>
       <c r="H63" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>1377</v>
       </c>
       <c r="I63" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>2753</v>
       </c>
       <c r="J63" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>5506</v>
       </c>
       <c r="K63" s="9">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>8259</v>
       </c>
       <c r="L63" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>9635</v>
       </c>
       <c r="M63" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>19270</v>
       </c>
       <c r="N63" s="9">
-        <f t="shared" ref="N63" si="62">SUM(H63:L63)</f>
+        <f t="shared" ref="N63" si="67">SUM(H63:L63)</f>
         <v>27530</v>
       </c>
       <c r="O63" s="9">
@@ -8403,23 +8556,23 @@
         <v>0.03</v>
       </c>
       <c r="AA63" s="9">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>0.25</v>
       </c>
       <c r="AB63" s="9">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>0.5</v>
       </c>
       <c r="AC63" s="9">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v>1</v>
       </c>
       <c r="AD63" s="9">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>1.5</v>
       </c>
       <c r="AE63" s="9">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>1.75</v>
       </c>
       <c r="AF63" s="1">
@@ -8431,31 +8584,31 @@
         <v>431</v>
       </c>
       <c r="H64" s="9">
-        <f t="shared" ref="H64:H65" si="63">ROUNDUP((P64*$B$30/100),0)</f>
+        <f t="shared" ref="H64:H65" si="68">ROUNDUP((P64*$B$30/100),0)</f>
         <v>1545</v>
       </c>
       <c r="I64" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>3089</v>
       </c>
       <c r="J64" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>6178</v>
       </c>
       <c r="K64" s="9">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>9267</v>
       </c>
       <c r="L64" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>10811</v>
       </c>
       <c r="M64" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>21622</v>
       </c>
       <c r="N64" s="9">
-        <f t="shared" ref="N64" si="64">SUM(H64:L64)</f>
+        <f t="shared" ref="N64" si="69">SUM(H64:L64)</f>
         <v>30890</v>
       </c>
       <c r="O64" s="9">
@@ -8472,23 +8625,23 @@
         <v>0.04</v>
       </c>
       <c r="AA64" s="9">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>0.27</v>
       </c>
       <c r="AB64" s="9">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>0.54</v>
       </c>
       <c r="AC64" s="9">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v>1.07</v>
       </c>
       <c r="AD64" s="9">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>1.6</v>
       </c>
       <c r="AE64" s="9">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>1.87</v>
       </c>
       <c r="AF64" s="1">
@@ -8500,31 +8653,31 @@
         <v>451</v>
       </c>
       <c r="H65" s="9">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v>1722</v>
       </c>
       <c r="I65" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>3444</v>
       </c>
       <c r="J65" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>6888</v>
       </c>
       <c r="K65" s="9">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>10332</v>
       </c>
       <c r="L65" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>12054</v>
       </c>
       <c r="M65" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>24108</v>
       </c>
       <c r="N65" s="9">
-        <f t="shared" ref="N65:N66" si="65">SUM(H65:L65)</f>
+        <f t="shared" ref="N65:N66" si="70">SUM(H65:L65)</f>
         <v>34440</v>
       </c>
       <c r="O65" s="9">
@@ -8541,23 +8694,23 @@
         <v>0.05</v>
       </c>
       <c r="AA65" s="9">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>0.3</v>
       </c>
       <c r="AB65" s="9">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>0.59</v>
       </c>
       <c r="AC65" s="9">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v>1.18</v>
       </c>
       <c r="AD65" s="9">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>1.77</v>
       </c>
       <c r="AE65" s="9">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>2.06</v>
       </c>
       <c r="AF65" s="1">
@@ -8569,31 +8722,31 @@
         <v>464</v>
       </c>
       <c r="H66" s="9">
-        <f t="shared" ref="H66:H67" si="66">ROUNDUP((P66*$B$30/100),0)</f>
+        <f t="shared" ref="H66:H67" si="71">ROUNDUP((P66*$B$30/100),0)</f>
         <v>1910</v>
       </c>
       <c r="I66" s="9">
-        <f t="shared" ref="I66:I67" si="67">ROUNDUP((P66*$B$31/100),0)</f>
+        <f t="shared" ref="I66:I67" si="72">ROUNDUP((P66*$B$31/100),0)</f>
         <v>3819</v>
       </c>
       <c r="J66" s="9">
-        <f t="shared" ref="J66:J67" si="68">ROUNDUP((P66*$B$32/100),0)</f>
+        <f t="shared" ref="J66:J67" si="73">ROUNDUP((P66*$B$32/100),0)</f>
         <v>7637</v>
       </c>
       <c r="K66" s="9">
-        <f t="shared" ref="K66:K67" si="69">ROUNDUP((P66*$B$33/100),0)</f>
+        <f t="shared" ref="K66:K67" si="74">ROUNDUP((P66*$B$33/100),0)</f>
         <v>11456</v>
       </c>
       <c r="L66" s="9">
-        <f t="shared" ref="L66:L67" si="70">ROUNDUP((P66*$B$34/100),0)</f>
+        <f t="shared" ref="L66:L67" si="75">ROUNDUP((P66*$B$34/100),0)</f>
         <v>13365</v>
       </c>
       <c r="M66" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>26730</v>
       </c>
       <c r="N66" s="9">
-        <f t="shared" si="65"/>
+        <f t="shared" si="70"/>
         <v>38187</v>
       </c>
       <c r="O66" s="9">
@@ -8610,23 +8763,23 @@
         <v>0.06</v>
       </c>
       <c r="AA66" s="9">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>0.33</v>
       </c>
       <c r="AB66" s="9">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>0.65</v>
       </c>
       <c r="AC66" s="9">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v>1.3</v>
       </c>
       <c r="AD66" s="9">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>1.94</v>
       </c>
       <c r="AE66" s="9">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="AF66" s="1">
@@ -8638,31 +8791,31 @@
         <v>473</v>
       </c>
       <c r="H67" s="9">
-        <f t="shared" si="66"/>
+        <f t="shared" si="71"/>
         <v>2106</v>
       </c>
       <c r="I67" s="9">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>4212</v>
       </c>
       <c r="J67" s="9">
-        <f t="shared" si="68"/>
+        <f t="shared" si="73"/>
         <v>8424</v>
       </c>
       <c r="K67" s="9">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>12636</v>
       </c>
       <c r="L67" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="75"/>
         <v>14742</v>
       </c>
       <c r="M67" s="9">
-        <f t="shared" ref="M67" si="71">L67*$B$43</f>
+        <f t="shared" ref="M67:M68" si="76">L67*$B$43</f>
         <v>29484</v>
       </c>
       <c r="N67" s="9">
-        <f t="shared" ref="N67" si="72">SUM(H67:L67)</f>
+        <f t="shared" ref="N67:N68" si="77">SUM(H67:L67)</f>
         <v>42120</v>
       </c>
       <c r="O67" s="9">
@@ -8679,23 +8832,23 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AA67" s="9">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>0.36</v>
       </c>
       <c r="AB67" s="9">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>0.71</v>
       </c>
       <c r="AC67" s="9">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v>1.42</v>
       </c>
       <c r="AD67" s="9">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>2.12</v>
       </c>
       <c r="AE67" s="9">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>2.4700000000000002</v>
       </c>
       <c r="AF67" s="1">
@@ -8703,6 +8856,44 @@
       </c>
     </row>
     <row r="68" spans="7:32">
+      <c r="G68" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="H68" s="9">
+        <f t="shared" ref="H68" si="78">ROUNDUP((P68*$B$30/100),0)</f>
+        <v>2313</v>
+      </c>
+      <c r="I68" s="9">
+        <f t="shared" ref="I68" si="79">ROUNDUP((P68*$B$31/100),0)</f>
+        <v>4625</v>
+      </c>
+      <c r="J68" s="9">
+        <f t="shared" ref="J68" si="80">ROUNDUP((P68*$B$32/100),0)</f>
+        <v>9250</v>
+      </c>
+      <c r="K68" s="9">
+        <f t="shared" ref="K68" si="81">ROUNDUP((P68*$B$33/100),0)</f>
+        <v>13875</v>
+      </c>
+      <c r="L68" s="9">
+        <f t="shared" ref="L68" si="82">ROUNDUP((P68*$B$34/100),0)</f>
+        <v>16187</v>
+      </c>
+      <c r="M68" s="9">
+        <f t="shared" si="76"/>
+        <v>32374</v>
+      </c>
+      <c r="N68" s="9">
+        <f t="shared" si="77"/>
+        <v>46250</v>
+      </c>
+      <c r="O68" s="9">
+        <v>380</v>
+      </c>
+      <c r="P68" s="9">
+        <f>(H34*($B$9)*$B$18)*(O68/100)+I34</f>
+        <v>46248</v>
+      </c>
       <c r="Y68" s="9" t="s">
         <v>205</v>
       </c>
@@ -8710,23 +8901,23 @@
         <v>0.08</v>
       </c>
       <c r="AA68" s="9">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>0.4</v>
       </c>
       <c r="AB68" s="9">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>0.79</v>
       </c>
       <c r="AC68" s="9">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v>1.58</v>
       </c>
       <c r="AD68" s="9">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>2.37</v>
       </c>
       <c r="AE68" s="9">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>2.76</v>
       </c>
       <c r="AF68" s="1">
@@ -8741,23 +8932,23 @@
         <v>0.09</v>
       </c>
       <c r="AA69" s="9">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>0.57999999999999996</v>
       </c>
       <c r="AB69" s="9">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>1.1599999999999999</v>
       </c>
       <c r="AC69" s="9">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v>2.31</v>
       </c>
       <c r="AD69" s="9">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>3.46</v>
       </c>
       <c r="AE69" s="9">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>4.04</v>
       </c>
       <c r="AF69" s="1">
@@ -8785,23 +8976,23 @@
         <v>0.1</v>
       </c>
       <c r="AA70" s="9">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>0.65</v>
       </c>
       <c r="AB70" s="9">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>1.29</v>
       </c>
       <c r="AC70" s="9">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v>2.58</v>
       </c>
       <c r="AD70" s="9">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>3.87</v>
       </c>
       <c r="AE70" s="9">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>4.51</v>
       </c>
       <c r="AF70" s="1">
@@ -8852,23 +9043,23 @@
         <v>0.11</v>
       </c>
       <c r="AA71" s="9">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>0.72</v>
       </c>
       <c r="AB71" s="9">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>1.44</v>
       </c>
       <c r="AC71" s="9">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v>2.87</v>
       </c>
       <c r="AD71" s="9">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>4.3</v>
       </c>
       <c r="AE71" s="9">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>5.01</v>
       </c>
       <c r="AF71" s="1">
@@ -8883,34 +9074,34 @@
         <v>0.01</v>
       </c>
       <c r="I72" s="9">
-        <f t="shared" ref="I72:I81" si="73">ROUNDUP(((H41/$B$39)*$B$40)*((100+O72)/100),0)/100</f>
+        <f t="shared" ref="I72:I81" si="83">ROUNDUP(((H41/$B$39)*$B$40)*((100+O72)/100),0)/100</f>
         <v>0.02</v>
       </c>
       <c r="J72" s="9">
-        <f t="shared" ref="J72:J81" si="74">ROUNDUP(((I41/$B$39)*$B$40)*((100+O72)/100),0)/100</f>
+        <f t="shared" ref="J72:J81" si="84">ROUNDUP(((I41/$B$39)*$B$40)*((100+O72)/100),0)/100</f>
         <v>0.03</v>
       </c>
       <c r="K72" s="9">
-        <f t="shared" ref="K72:K81" si="75">ROUNDUP(((J41/$B$39)*$B$40)*((100+O72)/100),0)/100</f>
+        <f t="shared" ref="K72:K81" si="85">ROUNDUP(((J41/$B$39)*$B$40)*((100+O72)/100),0)/100</f>
         <v>0.06</v>
       </c>
       <c r="L72" s="9">
-        <f t="shared" ref="L72:L81" si="76">ROUNDUP(((K41/$B$39)*$B$40)*((100+O72)/100),0)/100</f>
+        <f t="shared" ref="L72:L81" si="86">ROUNDUP(((K41/$B$39)*$B$40)*((100+O72)/100),0)/100</f>
         <v>0.09</v>
       </c>
       <c r="M72" s="9">
-        <f t="shared" ref="M72:M81" si="77">ROUNDUP(((L41/$B$39)*$B$40)*((100+O72)/100),0)/100</f>
+        <f t="shared" ref="M72:M81" si="87">ROUNDUP(((L41/$B$39)*$B$40)*((100+O72)/100),0)/100</f>
         <v>0.1</v>
       </c>
       <c r="N72" s="9">
-        <f t="shared" ref="N72:N81" si="78">ROUNDUP(((M41/$B$39)*$B$40)*((100+O72)/100),0)/100</f>
+        <f t="shared" ref="N72:N81" si="88">ROUNDUP(((M41/$B$39)*$B$40)*((100+O72)/100),0)/100</f>
         <v>0.2</v>
       </c>
       <c r="O72" s="10">
         <v>10</v>
       </c>
       <c r="P72" s="10">
-        <f t="shared" ref="P72:P84" si="79">SUM(H72:M72)</f>
+        <f t="shared" ref="P72:P84" si="89">SUM(H72:M72)</f>
         <v>0.31</v>
       </c>
       <c r="Q72" s="9">
@@ -8918,7 +9109,7 @@
         <v>0.2</v>
       </c>
       <c r="R72" s="10">
-        <f t="shared" ref="R72:R92" si="80">((P72+Q72)/$P$70)*100</f>
+        <f t="shared" ref="R72:R92" si="90">((P72+Q72)/$P$70)*100</f>
         <v>2.3087369850611137</v>
       </c>
       <c r="Y72" s="9" t="s">
@@ -8928,23 +9119,23 @@
         <v>0.12</v>
       </c>
       <c r="AA72" s="9">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>0.85</v>
       </c>
       <c r="AB72" s="9">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>1.7</v>
       </c>
       <c r="AC72" s="9">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v>3.39</v>
       </c>
       <c r="AD72" s="9">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>5.09</v>
       </c>
       <c r="AE72" s="9">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>5.93</v>
       </c>
       <c r="AF72" s="1">
@@ -8959,42 +9150,42 @@
         <v>0.01</v>
       </c>
       <c r="I73" s="9">
-        <f t="shared" si="73"/>
+        <f t="shared" si="83"/>
         <v>0.02</v>
       </c>
       <c r="J73" s="9">
-        <f t="shared" si="74"/>
+        <f t="shared" si="84"/>
         <v>0.04</v>
       </c>
       <c r="K73" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="85"/>
         <v>0.08</v>
       </c>
       <c r="L73" s="9">
-        <f t="shared" si="76"/>
+        <f t="shared" si="86"/>
         <v>0.12</v>
       </c>
       <c r="M73" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="87"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="N73" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="88"/>
         <v>0.27</v>
       </c>
       <c r="O73" s="10">
         <v>20</v>
       </c>
       <c r="P73" s="10">
-        <f t="shared" si="79"/>
+        <f t="shared" si="89"/>
         <v>0.41000000000000003</v>
       </c>
       <c r="Q73" s="9">
-        <f t="shared" ref="Q73:Q92" si="81">N73</f>
+        <f t="shared" ref="Q73:Q92" si="91">N73</f>
         <v>0.27</v>
       </c>
       <c r="R73" s="10">
-        <f t="shared" si="80"/>
+        <f t="shared" si="90"/>
         <v>3.0783159800814848</v>
       </c>
       <c r="Y73" s="9" t="s">
@@ -9004,23 +9195,23 @@
         <v>0.13</v>
       </c>
       <c r="AA73" s="9">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>0.93</v>
       </c>
       <c r="AB73" s="9">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>1.86</v>
       </c>
       <c r="AC73" s="9">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v>3.72</v>
       </c>
       <c r="AD73" s="9">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>5.58</v>
       </c>
       <c r="AE73" s="9">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>6.5</v>
       </c>
       <c r="AF73" s="1">
@@ -9035,42 +9226,42 @@
         <v>0.02</v>
       </c>
       <c r="I74" s="9">
-        <f t="shared" si="73"/>
+        <f t="shared" si="83"/>
         <v>0.03</v>
       </c>
       <c r="J74" s="9">
-        <f t="shared" si="74"/>
+        <f t="shared" si="84"/>
         <v>0.05</v>
       </c>
       <c r="K74" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="85"/>
         <v>0.1</v>
       </c>
       <c r="L74" s="9">
-        <f t="shared" si="76"/>
+        <f t="shared" si="86"/>
         <v>0.15</v>
       </c>
       <c r="M74" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="87"/>
         <v>0.18</v>
       </c>
       <c r="N74" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="88"/>
         <v>0.35</v>
       </c>
       <c r="O74" s="10">
         <v>30</v>
       </c>
       <c r="P74" s="10">
-        <f t="shared" si="79"/>
+        <f t="shared" si="89"/>
         <v>0.53</v>
       </c>
       <c r="Q74" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>0.35</v>
       </c>
       <c r="R74" s="10">
-        <f t="shared" si="80"/>
+        <f t="shared" si="90"/>
         <v>3.9837030330466274</v>
       </c>
       <c r="Y74" s="9" t="s">
@@ -9080,23 +9271,23 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="AA74" s="9">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>1.02</v>
       </c>
       <c r="AB74" s="9">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>2.0299999999999998</v>
       </c>
       <c r="AC74" s="9">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v>4.0599999999999996</v>
       </c>
       <c r="AD74" s="9">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>6.09</v>
       </c>
       <c r="AE74" s="9">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>7.1</v>
       </c>
       <c r="AF74" s="1">
@@ -9111,42 +9302,42 @@
         <v>0.02</v>
       </c>
       <c r="I75" s="9">
-        <f t="shared" si="73"/>
+        <f t="shared" si="83"/>
         <v>0.04</v>
       </c>
       <c r="J75" s="9">
-        <f t="shared" si="74"/>
+        <f t="shared" si="84"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="K75" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="85"/>
         <v>0.13</v>
       </c>
       <c r="L75" s="9">
-        <f t="shared" si="76"/>
+        <f t="shared" si="86"/>
         <v>0.19</v>
       </c>
       <c r="M75" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="87"/>
         <v>0.22</v>
       </c>
       <c r="N75" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="88"/>
         <v>0.44</v>
       </c>
       <c r="O75" s="10">
         <v>40</v>
       </c>
       <c r="P75" s="10">
-        <f t="shared" si="79"/>
+        <f t="shared" si="89"/>
         <v>0.67</v>
       </c>
       <c r="Q75" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>0.44</v>
       </c>
       <c r="R75" s="10">
-        <f t="shared" si="80"/>
+        <f t="shared" si="90"/>
         <v>5.0248981439565421</v>
       </c>
       <c r="Y75" s="9" t="s">
@@ -9156,23 +9347,23 @@
         <v>0.15</v>
       </c>
       <c r="AA75" s="9">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>1.1100000000000001</v>
       </c>
       <c r="AB75" s="9">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>2.21</v>
       </c>
       <c r="AC75" s="9">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v>4.41</v>
       </c>
       <c r="AD75" s="9">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>6.62</v>
       </c>
       <c r="AE75" s="9">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>7.72</v>
       </c>
       <c r="AF75" s="1">
@@ -9187,42 +9378,42 @@
         <v>0.03</v>
       </c>
       <c r="I76" s="9">
-        <f t="shared" si="73"/>
+        <f t="shared" si="83"/>
         <v>0.04</v>
       </c>
       <c r="J76" s="9">
-        <f t="shared" si="74"/>
+        <f t="shared" si="84"/>
         <v>0.08</v>
       </c>
       <c r="K76" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="85"/>
         <v>0.16</v>
       </c>
       <c r="L76" s="9">
-        <f t="shared" si="76"/>
+        <f t="shared" si="86"/>
         <v>0.24</v>
       </c>
       <c r="M76" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="87"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="N76" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="88"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="O76" s="10">
         <v>50</v>
       </c>
       <c r="P76" s="10">
-        <f t="shared" si="79"/>
+        <f t="shared" si="89"/>
         <v>0.83000000000000007</v>
       </c>
       <c r="Q76" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="R76" s="10">
-        <f t="shared" si="80"/>
+        <f t="shared" si="90"/>
         <v>6.2471706654594845</v>
       </c>
     </row>
@@ -9234,42 +9425,42 @@
         <v>0.03</v>
       </c>
       <c r="I77" s="9">
-        <f t="shared" si="73"/>
+        <f t="shared" si="83"/>
         <v>0.05</v>
       </c>
       <c r="J77" s="9">
-        <f t="shared" si="74"/>
+        <f t="shared" si="84"/>
         <v>0.1</v>
       </c>
       <c r="K77" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="85"/>
         <v>0.2</v>
       </c>
       <c r="L77" s="9">
-        <f t="shared" si="76"/>
+        <f t="shared" si="86"/>
         <v>0.28999999999999998</v>
       </c>
       <c r="M77" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="87"/>
         <v>0.34</v>
       </c>
       <c r="N77" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="88"/>
         <v>0.68</v>
       </c>
       <c r="O77" s="10">
         <v>60</v>
       </c>
       <c r="P77" s="10">
-        <f t="shared" si="79"/>
+        <f t="shared" si="89"/>
         <v>1.01</v>
       </c>
       <c r="Q77" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>0.68</v>
       </c>
       <c r="R77" s="10">
-        <f t="shared" si="80"/>
+        <f t="shared" si="90"/>
         <v>7.6505205975554542</v>
       </c>
     </row>
@@ -9281,42 +9472,42 @@
         <v>0.04</v>
       </c>
       <c r="I78" s="9">
-        <f t="shared" si="73"/>
+        <f t="shared" si="83"/>
         <v>0.06</v>
       </c>
       <c r="J78" s="9">
-        <f t="shared" si="74"/>
+        <f t="shared" si="84"/>
         <v>0.12</v>
       </c>
       <c r="K78" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="85"/>
         <v>0.24</v>
       </c>
       <c r="L78" s="9">
-        <f t="shared" si="76"/>
+        <f t="shared" si="86"/>
         <v>0.35</v>
       </c>
       <c r="M78" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="87"/>
         <v>0.41</v>
       </c>
       <c r="N78" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="88"/>
         <v>0.82</v>
       </c>
       <c r="O78" s="10">
         <v>70</v>
       </c>
       <c r="P78" s="10">
-        <f t="shared" si="79"/>
+        <f t="shared" si="89"/>
         <v>1.22</v>
       </c>
       <c r="Q78" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>0.82</v>
       </c>
       <c r="R78" s="10">
-        <f t="shared" si="80"/>
+        <f t="shared" si="90"/>
         <v>9.2349479402444548</v>
       </c>
     </row>
@@ -9328,42 +9519,42 @@
         <v>0.04</v>
       </c>
       <c r="I79" s="9">
-        <f t="shared" si="73"/>
+        <f t="shared" si="83"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="J79" s="9">
-        <f t="shared" si="74"/>
+        <f t="shared" si="84"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="K79" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="85"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="L79" s="9">
-        <f t="shared" si="76"/>
+        <f t="shared" si="86"/>
         <v>0.42</v>
       </c>
       <c r="M79" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="87"/>
         <v>0.49</v>
       </c>
       <c r="N79" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="88"/>
         <v>0.98</v>
       </c>
       <c r="O79" s="10">
         <v>80</v>
       </c>
       <c r="P79" s="10">
-        <f t="shared" si="79"/>
+        <f t="shared" si="89"/>
         <v>1.44</v>
       </c>
       <c r="Q79" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>0.98</v>
       </c>
       <c r="R79" s="10">
-        <f t="shared" si="80"/>
+        <f t="shared" si="90"/>
         <v>10.955183340878225</v>
       </c>
     </row>
@@ -9375,42 +9566,42 @@
         <v>0.05</v>
       </c>
       <c r="I80" s="9">
-        <f t="shared" si="73"/>
+        <f t="shared" si="83"/>
         <v>0.09</v>
       </c>
       <c r="J80" s="9">
-        <f t="shared" si="74"/>
+        <f t="shared" si="84"/>
         <v>0.17</v>
       </c>
       <c r="K80" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="85"/>
         <v>0.34</v>
       </c>
       <c r="L80" s="9">
-        <f t="shared" si="76"/>
+        <f t="shared" si="86"/>
         <v>0.5</v>
       </c>
       <c r="M80" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="87"/>
         <v>0.59</v>
       </c>
       <c r="N80" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="88"/>
         <v>1.17</v>
       </c>
       <c r="O80" s="10">
         <v>90</v>
       </c>
       <c r="P80" s="10">
-        <f t="shared" si="79"/>
+        <f t="shared" si="89"/>
         <v>1.7400000000000002</v>
       </c>
       <c r="Q80" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>1.17</v>
       </c>
       <c r="R80" s="10">
-        <f t="shared" si="80"/>
+        <f t="shared" si="90"/>
         <v>13.173381620642827</v>
       </c>
     </row>
@@ -9422,42 +9613,42 @@
         <v>0.05</v>
       </c>
       <c r="I81" s="9">
-        <f t="shared" si="73"/>
+        <f t="shared" si="83"/>
         <v>0.1</v>
       </c>
       <c r="J81" s="9">
-        <f t="shared" si="74"/>
+        <f t="shared" si="84"/>
         <v>0.2</v>
       </c>
       <c r="K81" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="85"/>
         <v>0.4</v>
       </c>
       <c r="L81" s="9">
-        <f t="shared" si="76"/>
+        <f t="shared" si="86"/>
         <v>0.59</v>
       </c>
       <c r="M81" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="87"/>
         <v>0.69</v>
       </c>
       <c r="N81" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="88"/>
         <v>1.38</v>
       </c>
       <c r="O81" s="10">
         <v>100</v>
       </c>
       <c r="P81" s="10">
-        <f t="shared" si="79"/>
+        <f t="shared" si="89"/>
         <v>2.0299999999999998</v>
       </c>
       <c r="Q81" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>1.38</v>
       </c>
       <c r="R81" s="10">
-        <f t="shared" si="80"/>
+        <f t="shared" si="90"/>
         <v>15.436849253055678</v>
       </c>
     </row>
@@ -9469,42 +9660,42 @@
         <v>0.06</v>
       </c>
       <c r="I82" s="9">
-        <f t="shared" ref="I82:I94" si="82">ROUNDUP(((H53/$B$39)*$B$40)*((100+O82)/100),0)/100</f>
+        <f t="shared" ref="I82:I94" si="92">ROUNDUP(((H53/$B$39)*$B$40)*((100+O82)/100),0)/100</f>
         <v>0.15</v>
       </c>
       <c r="J82" s="9">
-        <f t="shared" ref="J82:J94" si="83">ROUNDUP(((I53/$B$39)*$B$40)*((100+O82)/100),0)/100</f>
+        <f t="shared" ref="J82:J94" si="93">ROUNDUP(((I53/$B$39)*$B$40)*((100+O82)/100),0)/100</f>
         <v>0.3</v>
       </c>
       <c r="K82" s="9">
-        <f t="shared" ref="K82:K94" si="84">ROUNDUP(((J53/$B$39)*$B$40)*((100+O82)/100),0)/100</f>
+        <f t="shared" ref="K82:K94" si="94">ROUNDUP(((J53/$B$39)*$B$40)*((100+O82)/100),0)/100</f>
         <v>0.59</v>
       </c>
       <c r="L82" s="9">
-        <f t="shared" ref="L82:L94" si="85">ROUNDUP(((K53/$B$39)*$B$40)*((100+O82)/100),0)/100</f>
+        <f t="shared" ref="L82:L94" si="95">ROUNDUP(((K53/$B$39)*$B$40)*((100+O82)/100),0)/100</f>
         <v>0.88</v>
       </c>
       <c r="M82" s="9">
-        <f t="shared" ref="M82:M94" si="86">ROUNDUP(((L53/$B$39)*$B$40)*((100+O82)/100),0)/100</f>
+        <f t="shared" ref="M82:M94" si="96">ROUNDUP(((L53/$B$39)*$B$40)*((100+O82)/100),0)/100</f>
         <v>1.03</v>
       </c>
       <c r="N82" s="9">
-        <f t="shared" ref="N82:N95" si="87">ROUNDUP(((M53/$B$39)*$B$40)*((100+O82)/100),0)/100</f>
+        <f t="shared" ref="N82:N95" si="97">ROUNDUP(((M53/$B$39)*$B$40)*((100+O82)/100),0)/100</f>
         <v>2.0499999999999998</v>
       </c>
       <c r="O82" s="10">
         <v>110</v>
       </c>
       <c r="P82" s="10">
-        <f t="shared" si="79"/>
+        <f t="shared" si="89"/>
         <v>3.01</v>
       </c>
       <c r="Q82" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>2.0499999999999998</v>
       </c>
       <c r="R82" s="10">
-        <f t="shared" si="80"/>
+        <f t="shared" si="90"/>
         <v>22.906292440018106</v>
       </c>
     </row>
@@ -9516,42 +9707,42 @@
         <v>0.06</v>
       </c>
       <c r="I83" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="92"/>
         <v>0.17</v>
       </c>
       <c r="J83" s="9">
-        <f t="shared" si="83"/>
+        <f t="shared" si="93"/>
         <v>0.33</v>
       </c>
       <c r="K83" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="94"/>
         <v>0.65</v>
       </c>
       <c r="L83" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>0.97</v>
       </c>
       <c r="M83" s="9">
-        <f t="shared" si="86"/>
+        <f t="shared" si="96"/>
         <v>1.1299999999999999</v>
       </c>
       <c r="N83" s="9">
-        <f t="shared" si="87"/>
+        <f t="shared" si="97"/>
         <v>2.25</v>
       </c>
       <c r="O83" s="10">
         <v>120</v>
       </c>
       <c r="P83" s="10">
-        <f t="shared" si="79"/>
+        <f t="shared" si="89"/>
         <v>3.3099999999999996</v>
       </c>
       <c r="Q83" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>2.25</v>
       </c>
       <c r="R83" s="10">
-        <f t="shared" si="80"/>
+        <f t="shared" si="90"/>
         <v>25.169760072430964</v>
       </c>
       <c r="Y83" s="9" t="s">
@@ -9572,42 +9763,42 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I84" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="92"/>
         <v>0.18</v>
       </c>
       <c r="J84" s="9">
-        <f t="shared" si="83"/>
+        <f t="shared" si="93"/>
         <v>0.36</v>
       </c>
       <c r="K84" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="94"/>
         <v>0.71</v>
       </c>
       <c r="L84" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>1.06</v>
       </c>
       <c r="M84" s="9">
-        <f t="shared" si="86"/>
+        <f t="shared" si="96"/>
         <v>1.23</v>
       </c>
       <c r="N84" s="9">
-        <f t="shared" si="87"/>
+        <f t="shared" si="97"/>
         <v>2.46</v>
       </c>
       <c r="O84" s="10">
         <v>130</v>
       </c>
       <c r="P84" s="10">
-        <f t="shared" si="79"/>
+        <f t="shared" si="89"/>
         <v>3.61</v>
       </c>
       <c r="Q84" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>2.46</v>
       </c>
       <c r="R84" s="10">
-        <f t="shared" si="80"/>
+        <f t="shared" si="90"/>
         <v>27.478497057492078</v>
       </c>
       <c r="Y84" s="24" t="s">
@@ -9640,69 +9831,69 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I85" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="92"/>
         <v>0.2</v>
       </c>
       <c r="J85" s="9">
-        <f t="shared" si="83"/>
+        <f t="shared" si="93"/>
         <v>0.4</v>
       </c>
       <c r="K85" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="94"/>
         <v>0.8</v>
       </c>
       <c r="L85" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>1.2</v>
       </c>
       <c r="M85" s="9">
-        <f t="shared" si="86"/>
+        <f t="shared" si="96"/>
         <v>1.4</v>
       </c>
       <c r="N85" s="9">
-        <f t="shared" si="87"/>
+        <f t="shared" si="97"/>
         <v>2.79</v>
       </c>
       <c r="O85" s="10">
         <v>140</v>
       </c>
       <c r="P85" s="10">
-        <f t="shared" ref="P85:P88" si="88">SUM(H85:M85)</f>
+        <f t="shared" ref="P85:P88" si="98">SUM(H85:M85)</f>
         <v>4.07</v>
       </c>
       <c r="Q85" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>2.79</v>
       </c>
       <c r="R85" s="10">
-        <f t="shared" si="80"/>
+        <f t="shared" si="90"/>
         <v>31.05477591670439</v>
       </c>
       <c r="Y85" s="9" t="s">
         <v>198</v>
       </c>
       <c r="Z85" s="9">
-        <f t="shared" ref="Z85:Z99" si="89">Z61</f>
+        <f t="shared" ref="Z85:Z99" si="99">Z61</f>
         <v>0.01</v>
       </c>
       <c r="AA85" s="9">
-        <f t="shared" ref="AA85:AE99" si="90">Z85+AA61</f>
+        <f t="shared" ref="AA85:AE99" si="100">Z85+AA61</f>
         <v>0.23</v>
       </c>
       <c r="AB85" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>0.67</v>
       </c>
       <c r="AC85" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>1.54</v>
       </c>
       <c r="AD85" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>2.84</v>
       </c>
       <c r="AE85" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>4.3599999999999994</v>
       </c>
     </row>
@@ -9714,69 +9905,69 @@
         <v>0.08</v>
       </c>
       <c r="I86" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="92"/>
         <v>0.23</v>
       </c>
       <c r="J86" s="9">
-        <f t="shared" si="83"/>
+        <f t="shared" si="93"/>
         <v>0.45</v>
       </c>
       <c r="K86" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="94"/>
         <v>0.9</v>
       </c>
       <c r="L86" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>1.35</v>
       </c>
       <c r="M86" s="9">
-        <f t="shared" si="86"/>
+        <f t="shared" si="96"/>
         <v>1.58</v>
       </c>
       <c r="N86" s="9">
-        <f t="shared" si="87"/>
+        <f t="shared" si="97"/>
         <v>3.15</v>
       </c>
       <c r="O86" s="10">
         <v>150</v>
       </c>
       <c r="P86" s="10">
-        <f t="shared" si="88"/>
+        <f t="shared" si="98"/>
         <v>4.59</v>
       </c>
       <c r="Q86" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>3.15</v>
       </c>
       <c r="R86" s="10">
-        <f t="shared" si="80"/>
+        <f t="shared" si="90"/>
         <v>35.038478949751017</v>
       </c>
       <c r="Y86" s="9" t="s">
         <v>199</v>
       </c>
       <c r="Z86" s="9">
-        <f t="shared" si="89"/>
+        <f t="shared" si="99"/>
         <v>0.02</v>
       </c>
       <c r="AA86" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>0.26</v>
       </c>
       <c r="AB86" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>0.73</v>
       </c>
       <c r="AC86" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>1.6600000000000001</v>
       </c>
       <c r="AD86" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>3.06</v>
       </c>
       <c r="AE86" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>4.6899999999999995</v>
       </c>
     </row>
@@ -9788,69 +9979,69 @@
         <v>0.08</v>
       </c>
       <c r="I87" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="92"/>
         <v>0.27</v>
       </c>
       <c r="J87" s="9">
-        <f t="shared" si="83"/>
+        <f t="shared" si="93"/>
         <v>0.53</v>
       </c>
       <c r="K87" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="94"/>
         <v>1.06</v>
       </c>
       <c r="L87" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>1.58</v>
       </c>
       <c r="M87" s="9">
-        <f t="shared" si="86"/>
+        <f t="shared" si="96"/>
         <v>1.84</v>
       </c>
       <c r="N87" s="9">
-        <f t="shared" si="87"/>
+        <f t="shared" si="97"/>
         <v>3.68</v>
       </c>
       <c r="O87" s="10">
         <v>160</v>
       </c>
       <c r="P87" s="10">
-        <f t="shared" si="88"/>
+        <f t="shared" si="98"/>
         <v>5.36</v>
       </c>
       <c r="Q87" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>3.68</v>
       </c>
       <c r="R87" s="10">
-        <f t="shared" si="80"/>
+        <f t="shared" si="90"/>
         <v>40.92349479402445</v>
       </c>
       <c r="Y87" s="9" t="s">
         <v>200</v>
       </c>
       <c r="Z87" s="9">
-        <f t="shared" si="89"/>
+        <f t="shared" si="99"/>
         <v>0.03</v>
       </c>
       <c r="AA87" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="AB87" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>0.78</v>
       </c>
       <c r="AC87" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>1.78</v>
       </c>
       <c r="AD87" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>3.2800000000000002</v>
       </c>
       <c r="AE87" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>5.03</v>
       </c>
     </row>
@@ -9862,42 +10053,42 @@
         <v>0.09</v>
       </c>
       <c r="I88" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="92"/>
         <v>0.32</v>
       </c>
       <c r="J88" s="9">
-        <f t="shared" si="83"/>
+        <f t="shared" si="93"/>
         <v>0.64</v>
       </c>
       <c r="K88" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="94"/>
         <v>1.27</v>
       </c>
       <c r="L88" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>1.9</v>
       </c>
       <c r="M88" s="9">
-        <f t="shared" si="86"/>
+        <f t="shared" si="96"/>
         <v>2.2200000000000002</v>
       </c>
       <c r="N88" s="9">
-        <f t="shared" si="87"/>
+        <f t="shared" si="97"/>
         <v>4.43</v>
       </c>
       <c r="O88" s="10">
         <v>180</v>
       </c>
       <c r="P88" s="10">
-        <f t="shared" si="88"/>
+        <f t="shared" si="98"/>
         <v>6.4400000000000013</v>
       </c>
       <c r="Q88" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>4.43</v>
       </c>
       <c r="R88" s="10">
-        <f t="shared" si="80"/>
+        <f t="shared" si="90"/>
         <v>49.207786328655509</v>
       </c>
       <c r="S88" s="9" t="s">
@@ -9922,27 +10113,27 @@
         <v>201</v>
       </c>
       <c r="Z88" s="9">
-        <f t="shared" si="89"/>
+        <f t="shared" si="99"/>
         <v>0.04</v>
       </c>
       <c r="AA88" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>0.31</v>
       </c>
       <c r="AB88" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>0.85000000000000009</v>
       </c>
       <c r="AC88" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>1.9200000000000002</v>
       </c>
       <c r="AD88" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>3.5200000000000005</v>
       </c>
       <c r="AE88" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>5.3900000000000006</v>
       </c>
     </row>
@@ -9954,42 +10145,42 @@
         <v>0.09</v>
       </c>
       <c r="I89" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="92"/>
         <v>0.38</v>
       </c>
       <c r="J89" s="9">
-        <f t="shared" si="83"/>
+        <f t="shared" si="93"/>
         <v>0.76</v>
       </c>
       <c r="K89" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="94"/>
         <v>1.51</v>
       </c>
       <c r="L89" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>2.25</v>
       </c>
       <c r="M89" s="9">
-        <f t="shared" si="86"/>
+        <f t="shared" si="96"/>
         <v>2.63</v>
       </c>
       <c r="N89" s="9">
-        <f t="shared" si="87"/>
+        <f t="shared" si="97"/>
         <v>5.26</v>
       </c>
       <c r="O89" s="10">
         <v>200</v>
       </c>
       <c r="P89" s="10">
-        <f t="shared" ref="P89:P91" si="91">SUM(H89:M89)</f>
+        <f t="shared" ref="P89:P91" si="101">SUM(H89:M89)</f>
         <v>7.62</v>
       </c>
       <c r="Q89" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>5.26</v>
       </c>
       <c r="R89" s="10">
-        <f t="shared" si="80"/>
+        <f t="shared" si="90"/>
         <v>58.306926210955176</v>
       </c>
       <c r="S89" s="9" t="s">
@@ -10014,27 +10205,27 @@
         <v>202</v>
       </c>
       <c r="Z89" s="9">
-        <f t="shared" si="89"/>
+        <f t="shared" si="99"/>
         <v>0.05</v>
       </c>
       <c r="AA89" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>0.35</v>
       </c>
       <c r="AB89" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>0.94</v>
       </c>
       <c r="AC89" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>2.12</v>
       </c>
       <c r="AD89" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>3.89</v>
       </c>
       <c r="AE89" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>5.95</v>
       </c>
     </row>
@@ -10046,69 +10237,69 @@
         <v>0.1</v>
       </c>
       <c r="I90" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="92"/>
         <v>0.45</v>
       </c>
       <c r="J90" s="9">
-        <f t="shared" si="83"/>
+        <f t="shared" si="93"/>
         <v>0.89</v>
       </c>
       <c r="K90" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="94"/>
         <v>1.77</v>
       </c>
       <c r="L90" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>2.65</v>
       </c>
       <c r="M90" s="9">
-        <f t="shared" si="86"/>
+        <f t="shared" si="96"/>
         <v>3.09</v>
       </c>
       <c r="N90" s="9">
-        <f t="shared" si="87"/>
+        <f t="shared" si="97"/>
         <v>6.18</v>
       </c>
       <c r="O90" s="10">
         <v>220</v>
       </c>
       <c r="P90" s="10">
+        <f t="shared" si="101"/>
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="Q90" s="9">
         <f t="shared" si="91"/>
-        <v>8.9499999999999993</v>
-      </c>
-      <c r="Q90" s="9">
-        <f t="shared" si="81"/>
         <v>6.18</v>
       </c>
       <c r="R90" s="10">
-        <f t="shared" si="80"/>
+        <f t="shared" si="90"/>
         <v>68.492530556813037</v>
       </c>
       <c r="Y90" s="9" t="s">
         <v>203</v>
       </c>
       <c r="Z90" s="9">
-        <f t="shared" si="89"/>
+        <f t="shared" si="99"/>
         <v>0.06</v>
       </c>
       <c r="AA90" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>0.39</v>
       </c>
       <c r="AB90" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>1.04</v>
       </c>
       <c r="AC90" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>2.34</v>
       </c>
       <c r="AD90" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>4.2799999999999994</v>
       </c>
       <c r="AE90" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>6.5399999999999991</v>
       </c>
     </row>
@@ -10120,69 +10311,69 @@
         <v>0.1</v>
       </c>
       <c r="I91" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="92"/>
         <v>0.52</v>
       </c>
       <c r="J91" s="9">
-        <f t="shared" si="83"/>
+        <f t="shared" si="93"/>
         <v>1.03</v>
       </c>
       <c r="K91" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="94"/>
         <v>2.06</v>
       </c>
       <c r="L91" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>3.09</v>
       </c>
       <c r="M91" s="9">
-        <f t="shared" si="86"/>
+        <f t="shared" si="96"/>
         <v>3.6</v>
       </c>
       <c r="N91" s="9">
-        <f t="shared" si="87"/>
+        <f t="shared" si="97"/>
         <v>7.2</v>
       </c>
       <c r="O91" s="10">
         <v>240</v>
       </c>
       <c r="P91" s="10">
+        <f t="shared" si="101"/>
+        <v>10.4</v>
+      </c>
+      <c r="Q91" s="9">
         <f t="shared" si="91"/>
-        <v>10.4</v>
-      </c>
-      <c r="Q91" s="9">
-        <f t="shared" si="81"/>
         <v>7.2</v>
       </c>
       <c r="R91" s="10">
-        <f t="shared" si="80"/>
+        <f t="shared" si="90"/>
         <v>79.674060660932554</v>
       </c>
       <c r="Y91" s="9" t="s">
         <v>204</v>
       </c>
       <c r="Z91" s="9">
-        <f t="shared" si="89"/>
+        <f t="shared" si="99"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AA91" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>0.43</v>
       </c>
       <c r="AB91" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>1.1399999999999999</v>
       </c>
       <c r="AC91" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>2.5599999999999996</v>
       </c>
       <c r="AD91" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>4.68</v>
       </c>
       <c r="AE91" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>7.15</v>
       </c>
     </row>
@@ -10194,69 +10385,69 @@
         <v>0.11</v>
       </c>
       <c r="I92" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="92"/>
         <v>0.6</v>
       </c>
       <c r="J92" s="9">
-        <f t="shared" si="83"/>
+        <f t="shared" si="93"/>
         <v>1.19</v>
       </c>
       <c r="K92" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="94"/>
         <v>2.38</v>
       </c>
       <c r="L92" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>3.57</v>
       </c>
       <c r="M92" s="9">
-        <f t="shared" si="86"/>
+        <f t="shared" si="96"/>
         <v>4.17</v>
       </c>
       <c r="N92" s="9">
-        <f t="shared" si="87"/>
+        <f t="shared" si="97"/>
         <v>8.33</v>
       </c>
       <c r="O92" s="10">
         <v>260</v>
       </c>
       <c r="P92" s="10">
-        <f t="shared" ref="P92:P93" si="92">SUM(H92:M92)</f>
+        <f t="shared" ref="P92:P93" si="102">SUM(H92:M92)</f>
         <v>12.02</v>
       </c>
       <c r="Q92" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>8.33</v>
       </c>
       <c r="R92" s="10">
-        <f t="shared" si="80"/>
+        <f t="shared" si="90"/>
         <v>92.123132639203263</v>
       </c>
       <c r="Y92" s="9" t="s">
         <v>205</v>
       </c>
       <c r="Z92" s="9">
-        <f t="shared" si="89"/>
+        <f t="shared" si="99"/>
         <v>0.08</v>
       </c>
       <c r="AA92" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>0.48000000000000004</v>
       </c>
       <c r="AB92" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>1.27</v>
       </c>
       <c r="AC92" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>2.85</v>
       </c>
       <c r="AD92" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>5.2200000000000006</v>
       </c>
       <c r="AE92" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>7.98</v>
       </c>
     </row>
@@ -10268,42 +10459,42 @@
         <v>0.11</v>
       </c>
       <c r="I93" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="92"/>
         <v>0.71</v>
       </c>
       <c r="J93" s="9">
-        <f t="shared" si="83"/>
+        <f t="shared" si="93"/>
         <v>1.41</v>
       </c>
       <c r="K93" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="94"/>
         <v>2.82</v>
       </c>
       <c r="L93" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>4.2300000000000004</v>
       </c>
       <c r="M93" s="9">
-        <f t="shared" si="86"/>
+        <f t="shared" si="96"/>
         <v>4.93</v>
       </c>
       <c r="N93" s="9">
-        <f t="shared" si="87"/>
+        <f t="shared" si="97"/>
         <v>9.86</v>
       </c>
       <c r="O93" s="10">
         <v>280</v>
       </c>
       <c r="P93" s="10">
-        <f t="shared" si="92"/>
+        <f t="shared" si="102"/>
         <v>14.21</v>
       </c>
       <c r="Q93" s="9">
-        <f t="shared" ref="Q93:Q94" si="93">N93</f>
+        <f t="shared" ref="Q93:Q94" si="103">N93</f>
         <v>9.86</v>
       </c>
       <c r="R93" s="10">
-        <f t="shared" ref="R93:R94" si="94">((P93+Q93)/$P$70)*100</f>
+        <f t="shared" ref="R93:R94" si="104">((P93+Q93)/$P$70)*100</f>
         <v>108.96333182435491</v>
       </c>
       <c r="S93" s="9" t="s">
@@ -10313,42 +10504,42 @@
         <v>0.11</v>
       </c>
       <c r="U93" s="9">
-        <f t="shared" ref="U93:U94" si="95">ROUNDUP(((T64/$B$39)*$B$40)*((100+AA93)/100),0)/100</f>
+        <f t="shared" ref="U93:U94" si="105">ROUNDUP(((T64/$B$39)*$B$40)*((100+AA93)/100),0)/100</f>
         <v>0</v>
       </c>
       <c r="V93" s="9">
-        <f t="shared" ref="V93:V94" si="96">ROUNDUP(((U64/$B$39)*$B$40)*((100+AA93)/100),0)/100</f>
+        <f t="shared" ref="V93:V94" si="106">ROUNDUP(((U64/$B$39)*$B$40)*((100+AA93)/100),0)/100</f>
         <v>0</v>
       </c>
       <c r="W93" s="9">
-        <f t="shared" ref="W93:W94" si="97">ROUNDUP(((V64/$B$39)*$B$40)*((100+AA93)/100),0)/100</f>
+        <f t="shared" ref="W93:W94" si="107">ROUNDUP(((V64/$B$39)*$B$40)*((100+AA93)/100),0)/100</f>
         <v>0</v>
       </c>
       <c r="Y93" s="9" t="s">
         <v>206</v>
       </c>
       <c r="Z93" s="9">
-        <f t="shared" si="89"/>
+        <f t="shared" si="99"/>
         <v>0.09</v>
       </c>
       <c r="AA93" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>0.66999999999999993</v>
       </c>
       <c r="AB93" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>1.8299999999999998</v>
       </c>
       <c r="AC93" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>4.1399999999999997</v>
       </c>
       <c r="AD93" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>7.6</v>
       </c>
       <c r="AE93" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>11.64</v>
       </c>
     </row>
@@ -10360,42 +10551,42 @@
         <v>0.12</v>
       </c>
       <c r="I94" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="92"/>
         <v>0.83</v>
       </c>
       <c r="J94" s="9">
-        <f t="shared" si="83"/>
+        <f t="shared" si="93"/>
         <v>1.66</v>
       </c>
       <c r="K94" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="94"/>
         <v>3.31</v>
       </c>
       <c r="L94" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>4.96</v>
       </c>
       <c r="M94" s="9">
-        <f t="shared" si="86"/>
+        <f t="shared" si="96"/>
         <v>5.79</v>
       </c>
       <c r="N94" s="9">
-        <f t="shared" si="87"/>
+        <f t="shared" si="97"/>
         <v>11.58</v>
       </c>
       <c r="O94" s="10">
         <v>300</v>
       </c>
       <c r="P94" s="10">
-        <f t="shared" ref="P94:P95" si="98">SUM(H94:M94)</f>
+        <f t="shared" ref="P94:P95" si="108">SUM(H94:M94)</f>
         <v>16.669999999999998</v>
       </c>
       <c r="Q94" s="9">
-        <f t="shared" si="93"/>
+        <f t="shared" si="103"/>
         <v>11.58</v>
       </c>
       <c r="R94" s="10">
-        <f t="shared" si="94"/>
+        <f t="shared" si="104"/>
         <v>127.88592123132638</v>
       </c>
       <c r="S94" s="9" t="s">
@@ -10405,42 +10596,42 @@
         <v>0.12</v>
       </c>
       <c r="U94" s="9">
-        <f t="shared" si="95"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="V94" s="9">
-        <f t="shared" si="96"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="W94" s="9">
-        <f t="shared" si="97"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="Y94" s="9" t="s">
         <v>207</v>
       </c>
       <c r="Z94" s="9">
-        <f t="shared" si="89"/>
+        <f t="shared" si="99"/>
         <v>0.1</v>
       </c>
       <c r="AA94" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>0.75</v>
       </c>
       <c r="AB94" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>2.04</v>
       </c>
       <c r="AC94" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>4.62</v>
       </c>
       <c r="AD94" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>8.49</v>
       </c>
       <c r="AE94" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>13</v>
       </c>
     </row>
@@ -10452,69 +10643,69 @@
         <v>0.12</v>
       </c>
       <c r="I95" s="9">
-        <f t="shared" ref="I95:I96" si="99">ROUNDUP(((H66/$B$39)*$B$40)*((100+O95)/100),0)/100</f>
+        <f t="shared" ref="I95:I96" si="109">ROUNDUP(((H66/$B$39)*$B$40)*((100+O95)/100),0)/100</f>
         <v>0.97</v>
       </c>
       <c r="J95" s="9">
-        <f t="shared" ref="J95:J96" si="100">ROUNDUP(((I66/$B$39)*$B$40)*((100+O95)/100),0)/100</f>
+        <f t="shared" ref="J95:J96" si="110">ROUNDUP(((I66/$B$39)*$B$40)*((100+O95)/100),0)/100</f>
         <v>1.93</v>
       </c>
       <c r="K95" s="9">
-        <f t="shared" ref="K95:K96" si="101">ROUNDUP(((J66/$B$39)*$B$40)*((100+O95)/100),0)/100</f>
+        <f t="shared" ref="K95:K96" si="111">ROUNDUP(((J66/$B$39)*$B$40)*((100+O95)/100),0)/100</f>
         <v>3.85</v>
       </c>
       <c r="L95" s="9">
-        <f t="shared" ref="L95:L96" si="102">ROUNDUP(((K66/$B$39)*$B$40)*((100+O95)/100),0)/100</f>
+        <f t="shared" ref="L95:L96" si="112">ROUNDUP(((K66/$B$39)*$B$40)*((100+O95)/100),0)/100</f>
         <v>5.78</v>
       </c>
       <c r="M95" s="9">
-        <f t="shared" ref="M95:M96" si="103">ROUNDUP(((L66/$B$39)*$B$40)*((100+O95)/100),0)/100</f>
+        <f t="shared" ref="M95:M96" si="113">ROUNDUP(((L66/$B$39)*$B$40)*((100+O95)/100),0)/100</f>
         <v>6.74</v>
       </c>
       <c r="N95" s="9">
-        <f t="shared" si="87"/>
+        <f t="shared" si="97"/>
         <v>13.48</v>
       </c>
       <c r="O95" s="10">
         <v>320</v>
       </c>
       <c r="P95" s="10">
-        <f t="shared" si="98"/>
+        <f t="shared" si="108"/>
         <v>19.39</v>
       </c>
       <c r="Q95" s="9">
-        <f t="shared" ref="Q95:Q96" si="104">N95</f>
+        <f t="shared" ref="Q95:Q96" si="114">N95</f>
         <v>13.48</v>
       </c>
       <c r="R95" s="10">
-        <f t="shared" ref="R95:R96" si="105">((P95+Q95)/$P$70)*100</f>
+        <f t="shared" ref="R95:R96" si="115">((P95+Q95)/$P$70)*100</f>
         <v>148.80036215482119</v>
       </c>
       <c r="Y95" s="9" t="s">
         <v>208</v>
       </c>
       <c r="Z95" s="9">
-        <f t="shared" si="89"/>
+        <f t="shared" si="99"/>
         <v>0.11</v>
       </c>
       <c r="AA95" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>0.83</v>
       </c>
       <c r="AB95" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>2.27</v>
       </c>
       <c r="AC95" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>5.1400000000000006</v>
       </c>
       <c r="AD95" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>9.4400000000000013</v>
       </c>
       <c r="AE95" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>14.450000000000001</v>
       </c>
     </row>
@@ -10526,101 +10717,143 @@
         <v>0.13</v>
       </c>
       <c r="I96" s="9">
-        <f t="shared" si="99"/>
+        <f t="shared" si="109"/>
         <v>1.1200000000000001</v>
       </c>
       <c r="J96" s="9">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>2.23</v>
       </c>
       <c r="K96" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="111"/>
         <v>4.45</v>
       </c>
       <c r="L96" s="9">
-        <f t="shared" si="102"/>
+        <f t="shared" si="112"/>
         <v>6.68</v>
       </c>
       <c r="M96" s="9">
-        <f t="shared" si="103"/>
+        <f t="shared" si="113"/>
         <v>7.79</v>
       </c>
       <c r="N96" s="9">
-        <f t="shared" ref="N96" si="106">ROUNDUP(((M67/$B$39)*$B$40)*((100+O96)/100),0)/100</f>
+        <f t="shared" ref="N96:N97" si="116">ROUNDUP(((M67/$B$39)*$B$40)*((100+O96)/100),0)/100</f>
         <v>15.57</v>
       </c>
       <c r="O96" s="10">
         <v>340</v>
       </c>
       <c r="P96" s="10">
-        <f t="shared" ref="P96" si="107">SUM(H96:M96)</f>
+        <f t="shared" ref="P96:P97" si="117">SUM(H96:M96)</f>
         <v>22.4</v>
       </c>
       <c r="Q96" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="114"/>
         <v>15.57</v>
       </c>
       <c r="R96" s="10">
-        <f t="shared" si="105"/>
+        <f t="shared" si="115"/>
         <v>171.88773200543233</v>
       </c>
       <c r="Y96" s="9" t="s">
         <v>209</v>
       </c>
       <c r="Z96" s="9">
-        <f t="shared" si="89"/>
+        <f t="shared" si="99"/>
         <v>0.12</v>
       </c>
       <c r="AA96" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>0.97</v>
       </c>
       <c r="AB96" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>2.67</v>
       </c>
       <c r="AC96" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>6.0600000000000005</v>
       </c>
       <c r="AD96" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>11.15</v>
       </c>
       <c r="AE96" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>17.079999999999998</v>
       </c>
     </row>
     <row r="97" spans="7:32">
-      <c r="O97" s="10"/>
-      <c r="P97" s="10"/>
-      <c r="R97" s="10"/>
+      <c r="G97" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="H97" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="I97" s="9">
+        <f t="shared" ref="I97" si="118">ROUNDUP(((H68/$B$39)*$B$40)*((100+O97)/100),0)/100</f>
+        <v>1.28</v>
+      </c>
+      <c r="J97" s="9">
+        <f t="shared" ref="J97" si="119">ROUNDUP(((I68/$B$39)*$B$40)*((100+O97)/100),0)/100</f>
+        <v>2.56</v>
+      </c>
+      <c r="K97" s="9">
+        <f t="shared" ref="K97" si="120">ROUNDUP(((J68/$B$39)*$B$40)*((100+O97)/100),0)/100</f>
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="L97" s="9">
+        <f t="shared" ref="L97" si="121">ROUNDUP(((K68/$B$39)*$B$40)*((100+O97)/100),0)/100</f>
+        <v>7.66</v>
+      </c>
+      <c r="M97" s="9">
+        <f t="shared" ref="M97" si="122">ROUNDUP(((L68/$B$39)*$B$40)*((100+O97)/100),0)/100</f>
+        <v>8.94</v>
+      </c>
+      <c r="N97" s="9">
+        <f t="shared" si="116"/>
+        <v>17.88</v>
+      </c>
+      <c r="O97" s="10">
+        <v>360</v>
+      </c>
+      <c r="P97" s="10">
+        <f t="shared" si="117"/>
+        <v>25.68</v>
+      </c>
+      <c r="Q97" s="9">
+        <f t="shared" ref="Q97" si="123">N97</f>
+        <v>17.88</v>
+      </c>
+      <c r="R97" s="10">
+        <f t="shared" ref="R97" si="124">((P97+Q97)/$P$70)*100</f>
+        <v>197.19330013580807</v>
+      </c>
       <c r="Y97" s="9" t="s">
         <v>210</v>
       </c>
       <c r="Z97" s="9">
-        <f t="shared" si="89"/>
+        <f t="shared" si="99"/>
         <v>0.13</v>
       </c>
       <c r="AA97" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>1.06</v>
       </c>
       <c r="AB97" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>2.92</v>
       </c>
       <c r="AC97" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>6.6400000000000006</v>
       </c>
       <c r="AD97" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>12.22</v>
       </c>
       <c r="AE97" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>18.72</v>
       </c>
     </row>
@@ -10632,27 +10865,27 @@
         <v>211</v>
       </c>
       <c r="Z98" s="9">
-        <f t="shared" si="89"/>
+        <f t="shared" si="99"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="AA98" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>1.1600000000000001</v>
       </c>
       <c r="AB98" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>3.19</v>
       </c>
       <c r="AC98" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>7.25</v>
       </c>
       <c r="AD98" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>13.34</v>
       </c>
       <c r="AE98" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>20.439999999999998</v>
       </c>
     </row>
@@ -10664,27 +10897,27 @@
         <v>212</v>
       </c>
       <c r="Z99" s="9">
-        <f t="shared" si="89"/>
+        <f t="shared" si="99"/>
         <v>0.15</v>
       </c>
       <c r="AA99" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>1.26</v>
       </c>
       <c r="AB99" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>3.4699999999999998</v>
       </c>
       <c r="AC99" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>7.88</v>
       </c>
       <c r="AD99" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>14.5</v>
       </c>
       <c r="AE99" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>22.22</v>
       </c>
     </row>
@@ -10737,27 +10970,27 @@
         <v>0.01</v>
       </c>
       <c r="I103" s="9">
-        <f t="shared" ref="I103:N118" si="108">I72+H103</f>
+        <f t="shared" ref="I103:N118" si="125">I72+H103</f>
         <v>0.03</v>
       </c>
       <c r="J103" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>0.06</v>
       </c>
       <c r="K103" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>0.12</v>
       </c>
       <c r="L103" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>0.21</v>
       </c>
       <c r="M103" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>0.31</v>
       </c>
       <c r="N103" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>0.51</v>
       </c>
     </row>
@@ -10770,27 +11003,27 @@
         <v>0.01</v>
       </c>
       <c r="I104" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>0.03</v>
       </c>
       <c r="J104" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="K104" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>0.15000000000000002</v>
       </c>
       <c r="L104" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>0.27</v>
       </c>
       <c r="M104" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>0.41000000000000003</v>
       </c>
       <c r="N104" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>0.68</v>
       </c>
     </row>
@@ -10799,31 +11032,31 @@
         <v>19</v>
       </c>
       <c r="H105" s="9">
-        <f t="shared" ref="H105:H127" si="109">H74</f>
+        <f t="shared" ref="H105:H128" si="126">H74</f>
         <v>0.02</v>
       </c>
       <c r="I105" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>0.05</v>
       </c>
       <c r="J105" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>0.1</v>
       </c>
       <c r="K105" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>0.2</v>
       </c>
       <c r="L105" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>0.35</v>
       </c>
       <c r="M105" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>0.53</v>
       </c>
       <c r="N105" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>0.88</v>
       </c>
     </row>
@@ -10832,31 +11065,31 @@
         <v>85</v>
       </c>
       <c r="H106" s="9">
-        <f t="shared" si="109"/>
+        <f t="shared" si="126"/>
         <v>0.02</v>
       </c>
       <c r="I106" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>0.06</v>
       </c>
       <c r="J106" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>0.13</v>
       </c>
       <c r="K106" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>0.26</v>
       </c>
       <c r="L106" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>0.45</v>
       </c>
       <c r="M106" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>0.67</v>
       </c>
       <c r="N106" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>1.1100000000000001</v>
       </c>
     </row>
@@ -10865,31 +11098,31 @@
         <v>20</v>
       </c>
       <c r="H107" s="9">
-        <f t="shared" si="109"/>
+        <f t="shared" si="126"/>
         <v>0.03</v>
       </c>
       <c r="I107" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="J107" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>0.15000000000000002</v>
       </c>
       <c r="K107" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>0.31000000000000005</v>
       </c>
       <c r="L107" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="M107" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>0.83000000000000007</v>
       </c>
       <c r="N107" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>1.3800000000000001</v>
       </c>
     </row>
@@ -10898,31 +11131,31 @@
         <v>21</v>
       </c>
       <c r="H108" s="9">
-        <f t="shared" si="109"/>
+        <f t="shared" si="126"/>
         <v>0.03</v>
       </c>
       <c r="I108" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>0.08</v>
       </c>
       <c r="J108" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>0.18</v>
       </c>
       <c r="K108" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>0.38</v>
       </c>
       <c r="L108" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>0.66999999999999993</v>
       </c>
       <c r="M108" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>1.01</v>
       </c>
       <c r="N108" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>1.69</v>
       </c>
     </row>
@@ -10931,31 +11164,31 @@
         <v>22</v>
       </c>
       <c r="H109" s="9">
-        <f t="shared" si="109"/>
+        <f t="shared" si="126"/>
         <v>0.04</v>
       </c>
       <c r="I109" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>0.1</v>
       </c>
       <c r="J109" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>0.22</v>
       </c>
       <c r="K109" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>0.45999999999999996</v>
       </c>
       <c r="L109" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>0.80999999999999994</v>
       </c>
       <c r="M109" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>1.22</v>
       </c>
       <c r="N109" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>2.04</v>
       </c>
       <c r="AF109" s="9"/>
@@ -10965,31 +11198,31 @@
         <v>23</v>
       </c>
       <c r="H110" s="9">
-        <f t="shared" si="109"/>
+        <f t="shared" si="126"/>
         <v>0.04</v>
       </c>
       <c r="I110" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>0.11000000000000001</v>
       </c>
       <c r="J110" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>0.25</v>
       </c>
       <c r="K110" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>0.53</v>
       </c>
       <c r="L110" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>0.95</v>
       </c>
       <c r="M110" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>1.44</v>
       </c>
       <c r="N110" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>2.42</v>
       </c>
     </row>
@@ -10998,31 +11231,31 @@
         <v>24</v>
       </c>
       <c r="H111" s="9">
-        <f t="shared" si="109"/>
+        <f t="shared" si="126"/>
         <v>0.05</v>
       </c>
       <c r="I111" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="J111" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>0.31000000000000005</v>
       </c>
       <c r="K111" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>0.65000000000000013</v>
       </c>
       <c r="L111" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>1.1500000000000001</v>
       </c>
       <c r="M111" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>1.7400000000000002</v>
       </c>
       <c r="N111" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>2.91</v>
       </c>
     </row>
@@ -11031,31 +11264,31 @@
         <v>25</v>
       </c>
       <c r="H112" s="9">
-        <f t="shared" si="109"/>
+        <f t="shared" si="126"/>
         <v>0.05</v>
       </c>
       <c r="I112" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>0.15000000000000002</v>
       </c>
       <c r="J112" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>0.35000000000000003</v>
       </c>
       <c r="K112" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>0.75</v>
       </c>
       <c r="L112" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>1.3399999999999999</v>
       </c>
       <c r="M112" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>2.0299999999999998</v>
       </c>
       <c r="N112" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>3.4099999999999997</v>
       </c>
     </row>
@@ -11064,31 +11297,31 @@
         <v>105</v>
       </c>
       <c r="H113" s="9">
-        <f t="shared" si="109"/>
+        <f t="shared" si="126"/>
         <v>0.06</v>
       </c>
       <c r="I113" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>0.21</v>
       </c>
       <c r="J113" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>0.51</v>
       </c>
       <c r="K113" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="L113" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>1.98</v>
       </c>
       <c r="M113" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>3.01</v>
       </c>
       <c r="N113" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>5.0599999999999996</v>
       </c>
     </row>
@@ -11097,31 +11330,31 @@
         <v>106</v>
       </c>
       <c r="H114" s="9">
-        <f t="shared" si="109"/>
+        <f t="shared" si="126"/>
         <v>0.06</v>
       </c>
       <c r="I114" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>0.23</v>
       </c>
       <c r="J114" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="K114" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>1.21</v>
       </c>
       <c r="L114" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>2.1799999999999997</v>
       </c>
       <c r="M114" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>3.3099999999999996</v>
       </c>
       <c r="N114" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>5.56</v>
       </c>
     </row>
@@ -11130,31 +11363,31 @@
         <v>172</v>
       </c>
       <c r="H115" s="9">
-        <f t="shared" si="109"/>
+        <f t="shared" si="126"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I115" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>0.25</v>
       </c>
       <c r="J115" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>0.61</v>
       </c>
       <c r="K115" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>1.3199999999999998</v>
       </c>
       <c r="L115" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>2.38</v>
       </c>
       <c r="M115" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>3.61</v>
       </c>
       <c r="N115" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>6.07</v>
       </c>
     </row>
@@ -11163,31 +11396,31 @@
         <v>174</v>
       </c>
       <c r="H116" s="9">
-        <f t="shared" si="109"/>
+        <f t="shared" si="126"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I116" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>0.27</v>
       </c>
       <c r="J116" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>0.67</v>
       </c>
       <c r="K116" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>1.4700000000000002</v>
       </c>
       <c r="L116" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>2.67</v>
       </c>
       <c r="M116" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>4.07</v>
       </c>
       <c r="N116" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>6.86</v>
       </c>
     </row>
@@ -11196,31 +11429,31 @@
         <v>195</v>
       </c>
       <c r="H117" s="9">
-        <f t="shared" si="109"/>
+        <f t="shared" si="126"/>
         <v>0.08</v>
       </c>
       <c r="I117" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>0.31</v>
       </c>
       <c r="J117" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>0.76</v>
       </c>
       <c r="K117" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>1.6600000000000001</v>
       </c>
       <c r="L117" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>3.0100000000000002</v>
       </c>
       <c r="M117" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>4.59</v>
       </c>
       <c r="N117" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>7.74</v>
       </c>
     </row>
@@ -11229,31 +11462,31 @@
         <v>246</v>
       </c>
       <c r="H118" s="9">
-        <f t="shared" si="109"/>
+        <f t="shared" si="126"/>
         <v>0.08</v>
       </c>
       <c r="I118" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>0.35000000000000003</v>
       </c>
       <c r="J118" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>0.88000000000000012</v>
       </c>
       <c r="K118" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>1.9400000000000002</v>
       </c>
       <c r="L118" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>3.5200000000000005</v>
       </c>
       <c r="M118" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>5.36</v>
       </c>
       <c r="N118" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>9.0400000000000009</v>
       </c>
     </row>
@@ -11262,31 +11495,31 @@
         <v>313</v>
       </c>
       <c r="H119" s="9">
-        <f t="shared" si="109"/>
+        <f t="shared" si="126"/>
         <v>0.09</v>
       </c>
       <c r="I119" s="9">
-        <f t="shared" ref="I119:N123" si="110">I88+H119</f>
+        <f t="shared" ref="I119:N123" si="127">I88+H119</f>
         <v>0.41000000000000003</v>
       </c>
       <c r="J119" s="9">
-        <f t="shared" si="110"/>
+        <f t="shared" si="127"/>
         <v>1.05</v>
       </c>
       <c r="K119" s="9">
-        <f t="shared" si="110"/>
+        <f t="shared" si="127"/>
         <v>2.3200000000000003</v>
       </c>
       <c r="L119" s="9">
-        <f t="shared" si="110"/>
+        <f t="shared" si="127"/>
         <v>4.2200000000000006</v>
       </c>
       <c r="M119" s="9">
-        <f t="shared" si="110"/>
+        <f t="shared" si="127"/>
         <v>6.4400000000000013</v>
       </c>
       <c r="N119" s="9">
-        <f t="shared" si="110"/>
+        <f t="shared" si="127"/>
         <v>10.870000000000001</v>
       </c>
     </row>
@@ -11295,31 +11528,31 @@
         <v>368</v>
       </c>
       <c r="H120" s="9">
-        <f t="shared" si="109"/>
+        <f t="shared" si="126"/>
         <v>0.09</v>
       </c>
       <c r="I120" s="9">
-        <f t="shared" si="110"/>
+        <f t="shared" si="127"/>
         <v>0.47</v>
       </c>
       <c r="J120" s="9">
-        <f t="shared" si="110"/>
+        <f t="shared" si="127"/>
         <v>1.23</v>
       </c>
       <c r="K120" s="9">
-        <f t="shared" si="110"/>
+        <f t="shared" si="127"/>
         <v>2.74</v>
       </c>
       <c r="L120" s="9">
-        <f t="shared" si="110"/>
+        <f t="shared" si="127"/>
         <v>4.99</v>
       </c>
       <c r="M120" s="9">
-        <f t="shared" si="110"/>
+        <f t="shared" si="127"/>
         <v>7.62</v>
       </c>
       <c r="N120" s="9">
-        <f t="shared" si="110"/>
+        <f t="shared" si="127"/>
         <v>12.879999999999999</v>
       </c>
     </row>
@@ -11328,31 +11561,31 @@
         <v>375</v>
       </c>
       <c r="H121" s="9">
-        <f t="shared" si="109"/>
+        <f t="shared" si="126"/>
         <v>0.1</v>
       </c>
       <c r="I121" s="9">
-        <f t="shared" si="110"/>
+        <f t="shared" si="127"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="J121" s="9">
-        <f t="shared" si="110"/>
+        <f t="shared" si="127"/>
         <v>1.44</v>
       </c>
       <c r="K121" s="9">
-        <f t="shared" si="110"/>
+        <f t="shared" si="127"/>
         <v>3.21</v>
       </c>
       <c r="L121" s="9">
-        <f t="shared" si="110"/>
+        <f t="shared" si="127"/>
         <v>5.8599999999999994</v>
       </c>
       <c r="M121" s="9">
-        <f t="shared" si="110"/>
+        <f t="shared" si="127"/>
         <v>8.9499999999999993</v>
       </c>
       <c r="N121" s="9">
-        <f t="shared" si="110"/>
+        <f t="shared" si="127"/>
         <v>15.129999999999999</v>
       </c>
     </row>
@@ -11361,31 +11594,31 @@
         <v>387</v>
       </c>
       <c r="H122" s="9">
-        <f t="shared" si="109"/>
+        <f t="shared" si="126"/>
         <v>0.1</v>
       </c>
       <c r="I122" s="9">
-        <f t="shared" si="110"/>
+        <f t="shared" si="127"/>
         <v>0.62</v>
       </c>
       <c r="J122" s="9">
-        <f t="shared" si="110"/>
+        <f t="shared" si="127"/>
         <v>1.65</v>
       </c>
       <c r="K122" s="9">
-        <f t="shared" si="110"/>
+        <f t="shared" si="127"/>
         <v>3.71</v>
       </c>
       <c r="L122" s="9">
-        <f t="shared" si="110"/>
+        <f t="shared" si="127"/>
         <v>6.8</v>
       </c>
       <c r="M122" s="9">
-        <f t="shared" si="110"/>
+        <f t="shared" si="127"/>
         <v>10.4</v>
       </c>
       <c r="N122" s="9">
-        <f t="shared" si="110"/>
+        <f t="shared" si="127"/>
         <v>17.600000000000001</v>
       </c>
     </row>
@@ -11394,31 +11627,31 @@
         <v>418</v>
       </c>
       <c r="H123" s="9">
-        <f t="shared" si="109"/>
+        <f t="shared" si="126"/>
         <v>0.11</v>
       </c>
       <c r="I123" s="9">
-        <f t="shared" si="110"/>
+        <f t="shared" si="127"/>
         <v>0.71</v>
       </c>
       <c r="J123" s="9">
-        <f t="shared" si="110"/>
+        <f t="shared" si="127"/>
         <v>1.9</v>
       </c>
       <c r="K123" s="9">
-        <f t="shared" si="110"/>
+        <f t="shared" si="127"/>
         <v>4.2799999999999994</v>
       </c>
       <c r="L123" s="9">
-        <f t="shared" si="110"/>
+        <f t="shared" si="127"/>
         <v>7.85</v>
       </c>
       <c r="M123" s="9">
-        <f t="shared" si="110"/>
+        <f t="shared" si="127"/>
         <v>12.02</v>
       </c>
       <c r="N123" s="9">
-        <f t="shared" si="110"/>
+        <f t="shared" si="127"/>
         <v>20.350000000000001</v>
       </c>
     </row>
@@ -11427,31 +11660,31 @@
         <v>431</v>
       </c>
       <c r="H124" s="9">
-        <f t="shared" si="109"/>
+        <f t="shared" si="126"/>
         <v>0.11</v>
       </c>
       <c r="I124" s="9">
-        <f t="shared" ref="I124:I125" si="111">I93+H124</f>
+        <f t="shared" ref="I124:I125" si="128">I93+H124</f>
         <v>0.82</v>
       </c>
       <c r="J124" s="9">
-        <f t="shared" ref="J124:J125" si="112">J93+I124</f>
+        <f t="shared" ref="J124:J125" si="129">J93+I124</f>
         <v>2.23</v>
       </c>
       <c r="K124" s="9">
-        <f t="shared" ref="K124:K125" si="113">K93+J124</f>
+        <f t="shared" ref="K124:K125" si="130">K93+J124</f>
         <v>5.05</v>
       </c>
       <c r="L124" s="9">
-        <f t="shared" ref="L124:L125" si="114">L93+K124</f>
+        <f t="shared" ref="L124:L125" si="131">L93+K124</f>
         <v>9.2800000000000011</v>
       </c>
       <c r="M124" s="9">
-        <f t="shared" ref="M124:M125" si="115">M93+L124</f>
+        <f t="shared" ref="M124:M125" si="132">M93+L124</f>
         <v>14.21</v>
       </c>
       <c r="N124" s="9">
-        <f t="shared" ref="N124:N125" si="116">N93+M124</f>
+        <f t="shared" ref="N124:N125" si="133">N93+M124</f>
         <v>24.07</v>
       </c>
     </row>
@@ -11460,31 +11693,31 @@
         <v>450</v>
       </c>
       <c r="H125" s="9">
-        <f t="shared" si="109"/>
+        <f t="shared" si="126"/>
         <v>0.12</v>
       </c>
       <c r="I125" s="9">
-        <f t="shared" si="111"/>
+        <f t="shared" si="128"/>
         <v>0.95</v>
       </c>
       <c r="J125" s="9">
-        <f t="shared" si="112"/>
+        <f t="shared" si="129"/>
         <v>2.61</v>
       </c>
       <c r="K125" s="9">
-        <f t="shared" si="113"/>
+        <f t="shared" si="130"/>
         <v>5.92</v>
       </c>
       <c r="L125" s="9">
-        <f t="shared" si="114"/>
+        <f t="shared" si="131"/>
         <v>10.879999999999999</v>
       </c>
       <c r="M125" s="9">
-        <f t="shared" si="115"/>
+        <f t="shared" si="132"/>
         <v>16.669999999999998</v>
       </c>
       <c r="N125" s="9">
-        <f t="shared" si="116"/>
+        <f t="shared" si="133"/>
         <v>28.25</v>
       </c>
     </row>
@@ -11493,31 +11726,31 @@
         <v>464</v>
       </c>
       <c r="H126" s="9">
-        <f t="shared" si="109"/>
+        <f t="shared" si="126"/>
         <v>0.12</v>
       </c>
       <c r="I126" s="9">
-        <f t="shared" ref="I126:I127" si="117">I95+H126</f>
+        <f t="shared" ref="I126:I127" si="134">I95+H126</f>
         <v>1.0899999999999999</v>
       </c>
       <c r="J126" s="9">
-        <f t="shared" ref="J126:J127" si="118">J95+I126</f>
+        <f t="shared" ref="J126:J127" si="135">J95+I126</f>
         <v>3.0199999999999996</v>
       </c>
       <c r="K126" s="9">
-        <f t="shared" ref="K126:K127" si="119">K95+J126</f>
+        <f t="shared" ref="K126:K127" si="136">K95+J126</f>
         <v>6.8699999999999992</v>
       </c>
       <c r="L126" s="9">
-        <f t="shared" ref="L126:L127" si="120">L95+K126</f>
+        <f t="shared" ref="L126:L127" si="137">L95+K126</f>
         <v>12.649999999999999</v>
       </c>
       <c r="M126" s="9">
-        <f t="shared" ref="M126:M127" si="121">M95+L126</f>
+        <f t="shared" ref="M126:M127" si="138">M95+L126</f>
         <v>19.39</v>
       </c>
       <c r="N126" s="9">
-        <f t="shared" ref="N126:N127" si="122">N95+M126</f>
+        <f t="shared" ref="N126:N127" si="139">N95+M126</f>
         <v>32.870000000000005</v>
       </c>
     </row>
@@ -11526,32 +11759,65 @@
         <v>473</v>
       </c>
       <c r="H127" s="9">
-        <f t="shared" si="109"/>
+        <f t="shared" si="126"/>
         <v>0.13</v>
       </c>
       <c r="I127" s="9">
-        <f t="shared" si="117"/>
+        <f t="shared" si="134"/>
         <v>1.25</v>
       </c>
       <c r="J127" s="9">
-        <f t="shared" si="118"/>
+        <f t="shared" si="135"/>
         <v>3.48</v>
       </c>
       <c r="K127" s="9">
-        <f t="shared" si="119"/>
+        <f t="shared" si="136"/>
         <v>7.93</v>
       </c>
       <c r="L127" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="137"/>
         <v>14.61</v>
       </c>
       <c r="M127" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="138"/>
         <v>22.4</v>
       </c>
       <c r="N127" s="9">
-        <f t="shared" si="122"/>
+        <f t="shared" si="139"/>
         <v>37.97</v>
+      </c>
+    </row>
+    <row r="128" spans="7:14">
+      <c r="G128" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="H128" s="9">
+        <f t="shared" si="126"/>
+        <v>0.13</v>
+      </c>
+      <c r="I128" s="9">
+        <f t="shared" ref="I128" si="140">I97+H128</f>
+        <v>1.4100000000000001</v>
+      </c>
+      <c r="J128" s="9">
+        <f t="shared" ref="J128" si="141">J97+I128</f>
+        <v>3.97</v>
+      </c>
+      <c r="K128" s="9">
+        <f t="shared" ref="K128" si="142">K97+J128</f>
+        <v>9.08</v>
+      </c>
+      <c r="L128" s="9">
+        <f t="shared" ref="L128" si="143">L97+K128</f>
+        <v>16.740000000000002</v>
+      </c>
+      <c r="M128" s="9">
+        <f t="shared" ref="M128" si="144">M97+L128</f>
+        <v>25.68</v>
+      </c>
+      <c r="N128" s="9">
+        <f t="shared" ref="N128" si="145">N97+M128</f>
+        <v>43.56</v>
       </c>
     </row>
   </sheetData>
@@ -11569,7 +11835,7 @@
   <dimension ref="A2:W50"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -13603,6 +13869,67 @@
       </c>
     </row>
     <row r="29" spans="1:23">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29" s="2" t="str">
+        <f t="shared" ref="B29" si="41">C29&amp;","&amp;D29&amp;","&amp;E29&amp;","&amp;F29&amp;","&amp;G29</f>
+        <v>10단,20단,50단,100단,200단</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" ref="C29" si="42">$C$3&amp;H29</f>
+        <v>10단</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" ref="D29" si="43">$D$3&amp;H29</f>
+        <v>20단</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" ref="E29" si="44">$E$3&amp;H29</f>
+        <v>50단</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" ref="F29" si="45">$F$3&amp;H29</f>
+        <v>100단</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" ref="G29" si="46">$G$3&amp;H29</f>
+        <v>200단</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="J29">
+        <v>26</v>
+      </c>
+      <c r="K29" s="2" t="str">
+        <f t="shared" ref="K29" si="47">L29&amp;","&amp;M29&amp;","&amp;N29&amp;","&amp;O29&amp;","&amp;P29</f>
+        <v>1E+161,2E+161,5E+161,1E+162,2E+162</v>
+      </c>
+      <c r="L29">
+        <f t="shared" ref="L29" si="48">$C$3*Q29</f>
+        <v>1E+161</v>
+      </c>
+      <c r="M29">
+        <f t="shared" ref="M29" si="49">$D$3*Q29</f>
+        <v>2.0000000000000001E+161</v>
+      </c>
+      <c r="N29">
+        <f t="shared" ref="N29" si="50">$E$3*Q29</f>
+        <v>4.9999999999999997E+161</v>
+      </c>
+      <c r="O29">
+        <f t="shared" ref="O29" si="51">$F$3*Q29</f>
+        <v>9.9999999999999994E+161</v>
+      </c>
+      <c r="P29">
+        <f t="shared" ref="P29" si="52">$G$3*Q29</f>
+        <v>1.9999999999999999E+162</v>
+      </c>
+      <c r="Q29" t="str">
+        <f t="shared" ref="Q29" si="53">VLOOKUP(H29,T:W,4,FALSE)</f>
+        <v>1E+160</v>
+      </c>
       <c r="T29" t="s">
         <v>166</v>
       </c>
@@ -13754,11 +14081,11 @@
         <v>144</v>
       </c>
       <c r="V38">
-        <f t="shared" ref="V38:V39" si="41">POWER(10,U38)</f>
+        <f t="shared" ref="V38:V39" si="54">POWER(10,U38)</f>
         <v>1E+144</v>
       </c>
       <c r="W38" t="str">
-        <f t="shared" ref="W38:W39" si="42">RIGHT(V38,U38)</f>
+        <f t="shared" ref="W38:W39" si="55">RIGHT(V38,U38)</f>
         <v>1E+144</v>
       </c>
     </row>
@@ -13770,11 +14097,11 @@
         <v>148</v>
       </c>
       <c r="V39">
-        <f t="shared" si="41"/>
+        <f t="shared" si="54"/>
         <v>1E+148</v>
       </c>
       <c r="W39" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>1E+148</v>
       </c>
     </row>
@@ -13786,11 +14113,11 @@
         <v>152</v>
       </c>
       <c r="V40">
-        <f t="shared" ref="V40:V41" si="43">POWER(10,U40)</f>
+        <f t="shared" ref="V40:V41" si="56">POWER(10,U40)</f>
         <v>1E+152</v>
       </c>
       <c r="W40" t="str">
-        <f t="shared" ref="W40:W41" si="44">RIGHT(V40,U40)</f>
+        <f t="shared" ref="W40:W41" si="57">RIGHT(V40,U40)</f>
         <v>1E+152</v>
       </c>
     </row>
@@ -13802,16 +14129,29 @@
         <v>156</v>
       </c>
       <c r="V41">
-        <f t="shared" si="43"/>
+        <f t="shared" si="56"/>
         <v>9.9999999999999998E+155</v>
       </c>
       <c r="W41" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="57"/>
         <v>1E+156</v>
       </c>
     </row>
     <row r="42" spans="20:23">
-      <c r="V42" s="33"/>
+      <c r="T42" t="s">
+        <v>485</v>
+      </c>
+      <c r="U42">
+        <v>160</v>
+      </c>
+      <c r="V42">
+        <f t="shared" ref="V42" si="58">POWER(10,U42)</f>
+        <v>1E+160</v>
+      </c>
+      <c r="W42" t="str">
+        <f t="shared" ref="W42" si="59">RIGHT(V42,U42)</f>
+        <v>1E+160</v>
+      </c>
     </row>
     <row r="43" spans="20:23">
       <c r="V43" s="33"/>

--- a/Assets/06.Table/SuhopetTable.xlsx
+++ b/Assets/06.Table/SuhopetTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5AF7BF-B3EB-4606-A99B-4D99E7BEF268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6534615B-9B28-4A18-BFE4-CCA58B6F9944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="605" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="506">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1752,6 +1752,40 @@
   </si>
   <si>
     <t>26단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부귀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1E+165,2E+165,5E+165,1E+166,2E+166</t>
+  </si>
+  <si>
+    <t>10절,20절,50절,100절,200절</t>
+  </si>
+  <si>
+    <t>27단계</t>
+  </si>
+  <si>
+    <t>710,710,710,710,710</t>
+  </si>
+  <si>
+    <t>0.14,1.6,4.52,10.35,19.09,29.29,49.68</t>
+  </si>
+  <si>
+    <t>2529,5057,10114,15171,17699,35398</t>
+  </si>
+  <si>
+    <t>27단계</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2592,10 +2626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:U41"/>
+  <dimension ref="A1:U42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5282,6 +5316,71 @@
       </c>
       <c r="U41" s="1" t="s">
         <v>495</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" ht="33">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="F42" s="43" t="s">
+        <v>499</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="H42" s="44" t="s">
+        <v>274</v>
+      </c>
+      <c r="I42" s="45" t="s">
+        <v>502</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="K42" s="1">
+        <v>9016</v>
+      </c>
+      <c r="L42" s="1">
+        <v>490</v>
+      </c>
+      <c r="M42" s="1">
+        <v>49</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="O42" s="1">
+        <v>6</v>
+      </c>
+      <c r="P42" s="46">
+        <v>9016</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="R42" s="1">
+        <v>197</v>
+      </c>
+      <c r="S42" s="47" t="s">
+        <v>182</v>
+      </c>
+      <c r="T42" s="48" t="s">
+        <v>416</v>
+      </c>
+      <c r="U42" s="1" t="s">
+        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -5325,10 +5424,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB815A5-0A26-4B2F-8716-20DE31E1881F}">
-  <dimension ref="A1:AF128"/>
+  <dimension ref="A1:AF134"/>
   <sheetViews>
-    <sheetView topLeftCell="B12" workbookViewId="0">
-      <selection activeCell="Q33" sqref="Q33"/>
+    <sheetView topLeftCell="B21" workbookViewId="0">
+      <selection activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -5492,7 +5591,7 @@
         <v>160,160,160,160,160</v>
       </c>
       <c r="P8" s="1" t="str">
-        <f t="shared" ref="P8:P28" si="0">H103&amp;","&amp;I103&amp;","&amp;J103&amp;","&amp;K103&amp;","&amp;L103&amp;","&amp;M103&amp;","&amp;N103</f>
+        <f t="shared" ref="P8:P28" si="0">H108&amp;","&amp;I108&amp;","&amp;J108&amp;","&amp;K108&amp;","&amp;L108&amp;","&amp;M108&amp;","&amp;N108</f>
         <v>0.01,0.03,0.06,0.12,0.21,0.31,0.51</v>
       </c>
       <c r="Q8" s="9" t="str">
@@ -5503,11 +5602,11 @@
         <v>198</v>
       </c>
       <c r="Z8" s="1" t="str">
-        <f t="shared" ref="Z8:Z22" si="2">Z85&amp;","&amp;AA85&amp;","&amp;AB85&amp;","&amp;AC85&amp;","&amp;AD85&amp;","&amp;AE85</f>
+        <f>Z85&amp;","&amp;AA85&amp;","&amp;AB85&amp;","&amp;AC85&amp;","&amp;AD85&amp;","&amp;AE85</f>
         <v>0.01,0.23,0.67,1.54,2.84,4.36</v>
       </c>
       <c r="AA8" s="40" t="str">
-        <f t="shared" ref="AA8:AA22" si="3">Z41&amp;","&amp;AA41&amp;","&amp;AB41&amp;","&amp;AC41&amp;","&amp;AD41</f>
+        <f t="shared" ref="AA8:AA22" si="2">Z41&amp;","&amp;AA41&amp;","&amp;AB41&amp;","&amp;AC41&amp;","&amp;AD41</f>
         <v>720,1440,2880,4320,5040</v>
       </c>
     </row>
@@ -5528,18 +5627,18 @@
         <v>120</v>
       </c>
       <c r="I9" s="9">
-        <f t="shared" ref="I9:I17" si="4">H9*$B$9*$B$18*($B$13/100)</f>
+        <f t="shared" ref="I9:I17" si="3">H9*$B$9*$B$18*($B$13/100)</f>
         <v>864</v>
       </c>
       <c r="J9" s="9">
-        <f t="shared" ref="J9:J29" si="5">ROUNDUP((I9/5),-1)</f>
+        <f t="shared" ref="J9:J29" si="4">ROUNDUP((I9/5),-1)</f>
         <v>180</v>
       </c>
       <c r="N9" s="9" t="s">
         <v>18</v>
       </c>
       <c r="O9" s="1" t="str">
-        <f t="shared" ref="O9:O16" si="6">J9&amp;","&amp;J9&amp;","&amp;J9&amp;","&amp;J9&amp;","&amp;J9</f>
+        <f t="shared" ref="O9:O16" si="5">J9&amp;","&amp;J9&amp;","&amp;J9&amp;","&amp;J9&amp;","&amp;J9</f>
         <v>180,180,180,180,180</v>
       </c>
       <c r="P9" s="1" t="str">
@@ -5554,11 +5653,11 @@
         <v>199</v>
       </c>
       <c r="Z9" s="1" t="str">
+        <f>Z86&amp;","&amp;AA86&amp;","&amp;AB86&amp;","&amp;AC86&amp;","&amp;AD86&amp;","&amp;AE86</f>
+        <v>0.02,0.26,0.73,1.66,3.06,4.69</v>
+      </c>
+      <c r="AA9" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>0.02,0.26,0.73,1.66,3.06,4.69</v>
-      </c>
-      <c r="AA9" s="40" t="str">
-        <f t="shared" si="3"/>
         <v>744,1488,2976,4464,5208</v>
       </c>
     </row>
@@ -5573,18 +5672,18 @@
         <v>130</v>
       </c>
       <c r="I10" s="9">
+        <f t="shared" si="3"/>
+        <v>936</v>
+      </c>
+      <c r="J10" s="9">
         <f t="shared" si="4"/>
-        <v>936</v>
-      </c>
-      <c r="J10" s="9">
-        <f t="shared" si="5"/>
         <v>190</v>
       </c>
       <c r="N10" s="9" t="s">
         <v>19</v>
       </c>
       <c r="O10" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>190,190,190,190,190</v>
       </c>
       <c r="P10" s="1" t="str">
@@ -5599,11 +5698,11 @@
         <v>200</v>
       </c>
       <c r="Z10" s="1" t="str">
+        <f>Z87&amp;","&amp;AA87&amp;","&amp;AB87&amp;","&amp;AC87&amp;","&amp;AD87&amp;","&amp;AE87</f>
+        <v>0.03,0.28,0.78,1.78,3.28,5.03</v>
+      </c>
+      <c r="AA10" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>0.03,0.28,0.78,1.78,3.28,5.03</v>
-      </c>
-      <c r="AA10" s="40" t="str">
-        <f t="shared" si="3"/>
         <v>768,1536,3072,4608,5376</v>
       </c>
     </row>
@@ -5624,18 +5723,18 @@
         <v>140</v>
       </c>
       <c r="I11" s="9">
+        <f t="shared" si="3"/>
+        <v>1008</v>
+      </c>
+      <c r="J11" s="9">
         <f t="shared" si="4"/>
-        <v>1008</v>
-      </c>
-      <c r="J11" s="9">
-        <f t="shared" si="5"/>
         <v>210</v>
       </c>
       <c r="N11" s="9" t="s">
         <v>85</v>
       </c>
       <c r="O11" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>210,210,210,210,210</v>
       </c>
       <c r="P11" s="1" t="str">
@@ -5650,11 +5749,11 @@
         <v>201</v>
       </c>
       <c r="Z11" s="1" t="str">
+        <f>Z88&amp;","&amp;AA88&amp;","&amp;AB88&amp;","&amp;AC88&amp;","&amp;AD88&amp;","&amp;AE88</f>
+        <v>0.04,0.31,0.85,1.92,3.52,5.39</v>
+      </c>
+      <c r="AA11" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>0.04,0.31,0.85,1.92,3.52,5.39</v>
-      </c>
-      <c r="AA11" s="40" t="str">
-        <f t="shared" si="3"/>
         <v>792,1584,3168,4752,5544</v>
       </c>
     </row>
@@ -5676,18 +5775,18 @@
         <v>150</v>
       </c>
       <c r="I12" s="9">
+        <f t="shared" si="3"/>
+        <v>1080</v>
+      </c>
+      <c r="J12" s="9">
         <f t="shared" si="4"/>
-        <v>1080</v>
-      </c>
-      <c r="J12" s="9">
-        <f t="shared" si="5"/>
         <v>220</v>
       </c>
       <c r="N12" s="9" t="s">
         <v>20</v>
       </c>
       <c r="O12" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>220,220,220,220,220</v>
       </c>
       <c r="P12" s="1" t="str">
@@ -5702,11 +5801,11 @@
         <v>202</v>
       </c>
       <c r="Z12" s="1" t="str">
+        <f>Z89&amp;","&amp;AA89&amp;","&amp;AB89&amp;","&amp;AC89&amp;","&amp;AD89&amp;","&amp;AE89</f>
+        <v>0.05,0.35,0.94,2.12,3.89,5.95</v>
+      </c>
+      <c r="AA12" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>0.05,0.35,0.94,2.12,3.89,5.95</v>
-      </c>
-      <c r="AA12" s="40" t="str">
-        <f t="shared" si="3"/>
         <v>816,1632,3264,4896,5712</v>
       </c>
     </row>
@@ -5727,18 +5826,18 @@
         <v>160</v>
       </c>
       <c r="I13" s="9">
+        <f t="shared" si="3"/>
+        <v>1152</v>
+      </c>
+      <c r="J13" s="9">
         <f t="shared" si="4"/>
-        <v>1152</v>
-      </c>
-      <c r="J13" s="9">
-        <f t="shared" si="5"/>
         <v>240</v>
       </c>
       <c r="N13" s="9" t="s">
         <v>21</v>
       </c>
       <c r="O13" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>240,240,240,240,240</v>
       </c>
       <c r="P13" s="1" t="str">
@@ -5753,11 +5852,11 @@
         <v>203</v>
       </c>
       <c r="Z13" s="1" t="str">
+        <f>Z90&amp;","&amp;AA90&amp;","&amp;AB90&amp;","&amp;AC90&amp;","&amp;AD90&amp;","&amp;AE90</f>
+        <v>0.06,0.39,1.04,2.34,4.28,6.54</v>
+      </c>
+      <c r="AA13" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>0.06,0.39,1.04,2.34,4.28,6.54</v>
-      </c>
-      <c r="AA13" s="40" t="str">
-        <f t="shared" si="3"/>
         <v>840,1680,3360,5040,5880</v>
       </c>
     </row>
@@ -5772,18 +5871,18 @@
         <v>170</v>
       </c>
       <c r="I14" s="9">
+        <f t="shared" si="3"/>
+        <v>1224</v>
+      </c>
+      <c r="J14" s="9">
         <f t="shared" si="4"/>
-        <v>1224</v>
-      </c>
-      <c r="J14" s="9">
-        <f t="shared" si="5"/>
         <v>250</v>
       </c>
       <c r="N14" s="9" t="s">
         <v>22</v>
       </c>
       <c r="O14" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>250,250,250,250,250</v>
       </c>
       <c r="P14" s="1" t="str">
@@ -5798,11 +5897,11 @@
         <v>204</v>
       </c>
       <c r="Z14" s="1" t="str">
+        <f>Z91&amp;","&amp;AA91&amp;","&amp;AB91&amp;","&amp;AC91&amp;","&amp;AD91&amp;","&amp;AE91</f>
+        <v>0.07,0.43,1.14,2.56,4.68,7.15</v>
+      </c>
+      <c r="AA14" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>0.07,0.43,1.14,2.56,4.68,7.15</v>
-      </c>
-      <c r="AA14" s="40" t="str">
-        <f t="shared" si="3"/>
         <v>864,1728,3456,5184,6048</v>
       </c>
     </row>
@@ -5816,18 +5915,18 @@
         <v>180</v>
       </c>
       <c r="I15" s="9">
+        <f t="shared" si="3"/>
+        <v>1296</v>
+      </c>
+      <c r="J15" s="9">
         <f t="shared" si="4"/>
-        <v>1296</v>
-      </c>
-      <c r="J15" s="9">
-        <f t="shared" si="5"/>
         <v>260</v>
       </c>
       <c r="N15" s="9" t="s">
         <v>23</v>
       </c>
       <c r="O15" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>260,260,260,260,260</v>
       </c>
       <c r="P15" s="1" t="str">
@@ -5842,11 +5941,11 @@
         <v>205</v>
       </c>
       <c r="Z15" s="1" t="str">
+        <f>Z92&amp;","&amp;AA92&amp;","&amp;AB92&amp;","&amp;AC92&amp;","&amp;AD92&amp;","&amp;AE92</f>
+        <v>0.08,0.48,1.27,2.85,5.22,7.98</v>
+      </c>
+      <c r="AA15" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>0.08,0.48,1.27,2.85,5.22,7.98</v>
-      </c>
-      <c r="AA15" s="40" t="str">
-        <f t="shared" si="3"/>
         <v>888,1776,3552,5328,6216</v>
       </c>
     </row>
@@ -5865,18 +5964,18 @@
         <v>190</v>
       </c>
       <c r="I16" s="9">
+        <f t="shared" si="3"/>
+        <v>1368</v>
+      </c>
+      <c r="J16" s="9">
         <f t="shared" si="4"/>
-        <v>1368</v>
-      </c>
-      <c r="J16" s="9">
-        <f t="shared" si="5"/>
         <v>280</v>
       </c>
       <c r="N16" s="9" t="s">
         <v>24</v>
       </c>
       <c r="O16" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>280,280,280,280,280</v>
       </c>
       <c r="P16" s="1" t="str">
@@ -5891,11 +5990,11 @@
         <v>206</v>
       </c>
       <c r="Z16" s="1" t="str">
+        <f>Z93&amp;","&amp;AA93&amp;","&amp;AB93&amp;","&amp;AC93&amp;","&amp;AD93&amp;","&amp;AE93</f>
+        <v>0.09,0.67,1.83,4.14,7.6,11.64</v>
+      </c>
+      <c r="AA16" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>0.09,0.67,1.83,4.14,7.6,11.64</v>
-      </c>
-      <c r="AA16" s="40" t="str">
-        <f t="shared" si="3"/>
         <v>1200,2400,4800,7200,8400</v>
       </c>
     </row>
@@ -5912,11 +6011,11 @@
         <v>200</v>
       </c>
       <c r="I17" s="9">
+        <f t="shared" si="3"/>
+        <v>1440</v>
+      </c>
+      <c r="J17" s="9">
         <f t="shared" si="4"/>
-        <v>1440</v>
-      </c>
-      <c r="J17" s="9">
-        <f t="shared" si="5"/>
         <v>290</v>
       </c>
       <c r="N17" s="9" t="s">
@@ -5938,11 +6037,11 @@
         <v>207</v>
       </c>
       <c r="Z17" s="1" t="str">
+        <f>Z94&amp;","&amp;AA94&amp;","&amp;AB94&amp;","&amp;AC94&amp;","&amp;AD94&amp;","&amp;AE94</f>
+        <v>0.1,0.75,2.04,4.62,8.49,13</v>
+      </c>
+      <c r="AA17" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>0.1,0.75,2.04,4.62,8.49,13</v>
-      </c>
-      <c r="AA17" s="40" t="str">
-        <f t="shared" si="3"/>
         <v>1248,2496,4992,7488,8736</v>
       </c>
     </row>
@@ -5965,7 +6064,7 @@
         <v>105</v>
       </c>
       <c r="O18" s="1" t="str">
-        <f t="shared" ref="O18:O28" si="7">J19&amp;","&amp;J19&amp;","&amp;J19&amp;","&amp;J19&amp;","&amp;J19</f>
+        <f t="shared" ref="O18:O28" si="6">J19&amp;","&amp;J19&amp;","&amp;J19&amp;","&amp;J19&amp;","&amp;J19</f>
         <v>300,300,300,300,300</v>
       </c>
       <c r="P18" s="1" t="str">
@@ -5973,18 +6072,18 @@
         <v>0.06,0.21,0.51,1.1,1.98,3.01,5.06</v>
       </c>
       <c r="Q18" s="9" t="str">
-        <f t="shared" ref="Q18:Q28" si="8">H53&amp;","&amp;I53&amp;","&amp;J53&amp;","&amp;K53&amp;","&amp;L53&amp;","&amp;M53</f>
+        <f t="shared" ref="Q18:Q28" si="7">H53&amp;","&amp;I53&amp;","&amp;J53&amp;","&amp;K53&amp;","&amp;L53&amp;","&amp;M53</f>
         <v>580,1160,2319,3478,4058,8116</v>
       </c>
       <c r="Y18" s="9" t="s">
         <v>208</v>
       </c>
       <c r="Z18" s="1" t="str">
+        <f>Z95&amp;","&amp;AA95&amp;","&amp;AB95&amp;","&amp;AC95&amp;","&amp;AD95&amp;","&amp;AE95</f>
+        <v>0.11,0.83,2.27,5.14,9.44,14.45</v>
+      </c>
+      <c r="AA18" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>0.11,0.83,2.27,5.14,9.44,14.45</v>
-      </c>
-      <c r="AA18" s="40" t="str">
-        <f t="shared" si="3"/>
         <v>1296,2592,5184,7776,9072</v>
       </c>
     </row>
@@ -6006,7 +6105,7 @@
         <v>210</v>
       </c>
       <c r="I19" s="9">
-        <f t="shared" ref="I19:I29" si="9">H19*$B$9*$B$18*($B$13/100)</f>
+        <f t="shared" ref="I19:I29" si="8">H19*$B$9*$B$18*($B$13/100)</f>
         <v>1512</v>
       </c>
       <c r="J19" s="9">
@@ -6016,7 +6115,7 @@
         <v>106</v>
       </c>
       <c r="O19" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>320,320,320,320,320</v>
       </c>
       <c r="P19" s="1" t="str">
@@ -6024,18 +6123,18 @@
         <v>0.06,0.23,0.56,1.21,2.18,3.31,5.56</v>
       </c>
       <c r="Q19" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>608,1215,2429,3644,4251,8502</v>
       </c>
       <c r="Y19" s="9" t="s">
         <v>428</v>
       </c>
       <c r="Z19" s="1" t="str">
+        <f>Z96&amp;","&amp;AA96&amp;","&amp;AB96&amp;","&amp;AC96&amp;","&amp;AD96&amp;","&amp;AE96</f>
+        <v>0.12,0.97,2.67,6.06,11.15,17.08</v>
+      </c>
+      <c r="AA19" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>0.12,0.97,2.67,6.06,11.15,17.08</v>
-      </c>
-      <c r="AA19" s="40" t="str">
-        <f t="shared" si="3"/>
         <v>1440,2880,5760,8640,10080</v>
       </c>
     </row>
@@ -6057,18 +6156,18 @@
         <v>220</v>
       </c>
       <c r="I20" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1584</v>
       </c>
       <c r="J20" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>320</v>
       </c>
       <c r="N20" s="9" t="s">
         <v>172</v>
       </c>
       <c r="O20" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>340,340,340,340,340</v>
       </c>
       <c r="P20" s="1" t="str">
@@ -6076,18 +6175,18 @@
         <v>0.07,0.25,0.61,1.32,2.38,3.61,6.07</v>
       </c>
       <c r="Q20" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>635,1270,2540,3809,4444,8888</v>
       </c>
       <c r="Y20" s="9" t="s">
         <v>210</v>
       </c>
       <c r="Z20" s="1" t="str">
+        <f>Z97&amp;","&amp;AA97&amp;","&amp;AB97&amp;","&amp;AC97&amp;","&amp;AD97&amp;","&amp;AE97</f>
+        <v>0.13,1.06,2.92,6.64,12.22,18.72</v>
+      </c>
+      <c r="AA20" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>0.13,1.06,2.92,6.64,12.22,18.72</v>
-      </c>
-      <c r="AA20" s="40" t="str">
-        <f t="shared" si="3"/>
         <v>1488,2976,5952,8928,10416</v>
       </c>
     </row>
@@ -6109,18 +6208,18 @@
         <v>230</v>
       </c>
       <c r="I21" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1656</v>
       </c>
       <c r="J21" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>340</v>
       </c>
       <c r="N21" s="9" t="s">
         <v>174</v>
       </c>
       <c r="O21" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>350,350,350,350,350</v>
       </c>
       <c r="P21" s="1" t="str">
@@ -6128,18 +6227,18 @@
         <v>0.07,0.27,0.67,1.47,2.67,4.07,6.86</v>
       </c>
       <c r="Q21" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>692,1383,2765,4148,4839,9678</v>
       </c>
       <c r="Y21" s="9" t="s">
         <v>211</v>
       </c>
       <c r="Z21" s="1" t="str">
+        <f>Z98&amp;","&amp;AA98&amp;","&amp;AB98&amp;","&amp;AC98&amp;","&amp;AD98&amp;","&amp;AE98</f>
+        <v>0.14,1.16,3.19,7.25,13.34,20.44</v>
+      </c>
+      <c r="AA21" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>0.14,1.16,3.19,7.25,13.34,20.44</v>
-      </c>
-      <c r="AA21" s="40" t="str">
-        <f t="shared" si="3"/>
         <v>1536,3072,6144,9216,10752</v>
       </c>
     </row>
@@ -6159,18 +6258,18 @@
         <v>240</v>
       </c>
       <c r="I22" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1728</v>
       </c>
       <c r="J22" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>350</v>
       </c>
       <c r="N22" s="9" t="s">
         <v>195</v>
       </c>
       <c r="O22" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>360,360,360,360,360</v>
       </c>
       <c r="P22" s="1" t="str">
@@ -6178,18 +6277,18 @@
         <v>0.08,0.31,0.76,1.66,3.01,4.59,7.74</v>
       </c>
       <c r="Q22" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>750,1500,3000,4500,5250,10500</v>
       </c>
       <c r="Y22" s="9" t="s">
         <v>212</v>
       </c>
       <c r="Z22" s="1" t="str">
+        <f>Z99&amp;","&amp;AA99&amp;","&amp;AB99&amp;","&amp;AC99&amp;","&amp;AD99&amp;","&amp;AE99</f>
+        <v>0.15,1.26,3.47,7.88,14.5,22.22</v>
+      </c>
+      <c r="AA22" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>0.15,1.26,3.47,7.88,14.5,22.22</v>
-      </c>
-      <c r="AA22" s="40" t="str">
-        <f t="shared" si="3"/>
         <v>1584,3168,6336,9504,11088</v>
       </c>
     </row>
@@ -6201,18 +6300,18 @@
         <v>250</v>
       </c>
       <c r="I23" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1800</v>
       </c>
       <c r="J23" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>360</v>
       </c>
       <c r="N23" s="9" t="s">
         <v>246</v>
       </c>
       <c r="O23" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>390,390,390,390,390</v>
       </c>
       <c r="P23" s="1" t="str">
@@ -6220,7 +6319,7 @@
         <v>0.08,0.35,0.88,1.94,3.52,5.36,9.04</v>
       </c>
       <c r="Q23" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>843,1685,3370,5055,5897,11794</v>
       </c>
     </row>
@@ -6232,18 +6331,18 @@
         <v>270</v>
       </c>
       <c r="I24" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1944</v>
       </c>
       <c r="J24" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>390</v>
       </c>
       <c r="N24" s="9" t="s">
         <v>313</v>
       </c>
       <c r="O24" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>420,420,420,420,420</v>
       </c>
       <c r="P24" s="1" t="str">
@@ -6251,7 +6350,7 @@
         <v>0.09,0.41,1.05,2.32,4.22,6.44,10.87</v>
       </c>
       <c r="Q24" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>940,1880,3759,5638,6578,13156</v>
       </c>
     </row>
@@ -6268,18 +6367,18 @@
         <v>290</v>
       </c>
       <c r="I25" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2088</v>
       </c>
       <c r="J25" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>420</v>
       </c>
       <c r="N25" s="9" t="s">
         <v>368</v>
       </c>
       <c r="O25" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>450,450,450,450,450</v>
       </c>
       <c r="P25" s="1" t="str">
@@ -6287,7 +6386,7 @@
         <v>0.09,0.47,1.23,2.74,4.99,7.62,12.88</v>
       </c>
       <c r="Q25" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1042,2084,4167,6250,7292,14584</v>
       </c>
       <c r="S25" s="36"/>
@@ -6313,18 +6412,18 @@
         <v>310</v>
       </c>
       <c r="I26" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2232</v>
       </c>
       <c r="J26" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>450</v>
       </c>
       <c r="N26" s="9" t="s">
         <v>375</v>
       </c>
       <c r="O26" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>480,480,480,480,480</v>
       </c>
       <c r="P26" s="1" t="str">
@@ -6332,7 +6431,7 @@
         <v>0.1,0.55,1.44,3.21,5.86,8.95,15.13</v>
       </c>
       <c r="Q26" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1149,2297,4594,6891,8039,16078</v>
       </c>
     </row>
@@ -6349,18 +6448,18 @@
         <v>330</v>
       </c>
       <c r="I27" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2376</v>
       </c>
       <c r="J27" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>480</v>
       </c>
       <c r="N27" s="9" t="s">
         <v>387</v>
       </c>
       <c r="O27" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>510,510,510,510,510</v>
       </c>
       <c r="P27" s="1" t="str">
@@ -6368,7 +6467,7 @@
         <v>0.1,0.62,1.65,3.71,6.8,10.4,17.6</v>
       </c>
       <c r="Q27" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1260,2520,5040,7560,8820,17640</v>
       </c>
     </row>
@@ -6385,18 +6484,18 @@
         <v>350</v>
       </c>
       <c r="I28" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2520</v>
       </c>
       <c r="J28" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>510</v>
       </c>
       <c r="N28" s="9" t="s">
         <v>418</v>
       </c>
       <c r="O28" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>540,540,540,540,540</v>
       </c>
       <c r="P28" s="1" t="str">
@@ -6404,7 +6503,7 @@
         <v>0.11,0.71,1.9,4.28,7.85,12.02,20.35</v>
       </c>
       <c r="Q28" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1377,2753,5506,8259,9635,19270</v>
       </c>
     </row>
@@ -6422,26 +6521,26 @@
         <v>370</v>
       </c>
       <c r="I29" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2664</v>
       </c>
       <c r="J29" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>540</v>
       </c>
       <c r="N29" s="9" t="s">
         <v>431</v>
       </c>
       <c r="O29" s="1" t="str">
-        <f t="shared" ref="O29" si="10">J30&amp;","&amp;J30&amp;","&amp;J30&amp;","&amp;J30&amp;","&amp;J30</f>
+        <f t="shared" ref="O29" si="9">J30&amp;","&amp;J30&amp;","&amp;J30&amp;","&amp;J30&amp;","&amp;J30</f>
         <v>570,570,570,570,570</v>
       </c>
       <c r="P29" s="1" t="str">
-        <f t="shared" ref="P29" si="11">H124&amp;","&amp;I124&amp;","&amp;J124&amp;","&amp;K124&amp;","&amp;L124&amp;","&amp;M124&amp;","&amp;N124</f>
+        <f t="shared" ref="P29" si="10">H129&amp;","&amp;I129&amp;","&amp;J129&amp;","&amp;K129&amp;","&amp;L129&amp;","&amp;M129&amp;","&amp;N129</f>
         <v>0.11,0.82,2.23,5.05,9.28,14.21,24.07</v>
       </c>
       <c r="Q29" s="9" t="str">
-        <f t="shared" ref="Q29" si="12">H64&amp;","&amp;I64&amp;","&amp;J64&amp;","&amp;K64&amp;","&amp;L64&amp;","&amp;M64</f>
+        <f t="shared" ref="Q29" si="11">H64&amp;","&amp;I64&amp;","&amp;J64&amp;","&amp;K64&amp;","&amp;L64&amp;","&amp;M64</f>
         <v>1545,3089,6178,9267,10811,21622</v>
       </c>
     </row>
@@ -6459,26 +6558,26 @@
         <v>390</v>
       </c>
       <c r="I30" s="9">
-        <f t="shared" ref="I30:I31" si="13">H30*$B$9*$B$18*($B$13/100)</f>
+        <f t="shared" ref="I30:I31" si="12">H30*$B$9*$B$18*($B$13/100)</f>
         <v>2808</v>
       </c>
       <c r="J30" s="9">
-        <f t="shared" ref="J30:J31" si="14">ROUNDUP((I30/5),-1)</f>
+        <f t="shared" ref="J30:J31" si="13">ROUNDUP((I30/5),-1)</f>
         <v>570</v>
       </c>
       <c r="N30" s="9" t="s">
         <v>451</v>
       </c>
       <c r="O30" s="1" t="str">
-        <f t="shared" ref="O30:O31" si="15">J31&amp;","&amp;J31&amp;","&amp;J31&amp;","&amp;J31&amp;","&amp;J31</f>
+        <f t="shared" ref="O30:O31" si="14">J31&amp;","&amp;J31&amp;","&amp;J31&amp;","&amp;J31&amp;","&amp;J31</f>
         <v>600,600,600,600,600</v>
       </c>
       <c r="P30" s="1" t="str">
-        <f t="shared" ref="P30:P31" si="16">H125&amp;","&amp;I125&amp;","&amp;J125&amp;","&amp;K125&amp;","&amp;L125&amp;","&amp;M125&amp;","&amp;N125</f>
+        <f t="shared" ref="P30:P31" si="15">H130&amp;","&amp;I130&amp;","&amp;J130&amp;","&amp;K130&amp;","&amp;L130&amp;","&amp;M130&amp;","&amp;N130</f>
         <v>0.12,0.95,2.61,5.92,10.88,16.67,28.25</v>
       </c>
       <c r="Q30" s="9" t="str">
-        <f t="shared" ref="Q30:Q31" si="17">H65&amp;","&amp;I65&amp;","&amp;J65&amp;","&amp;K65&amp;","&amp;L65&amp;","&amp;M65</f>
+        <f t="shared" ref="Q30:Q31" si="16">H65&amp;","&amp;I65&amp;","&amp;J65&amp;","&amp;K65&amp;","&amp;L65&amp;","&amp;M65</f>
         <v>1722,3444,6888,10332,12054,24108</v>
       </c>
     </row>
@@ -6496,26 +6595,26 @@
         <v>410</v>
       </c>
       <c r="I31" s="9">
+        <f t="shared" si="12"/>
+        <v>2952</v>
+      </c>
+      <c r="J31" s="9">
         <f t="shared" si="13"/>
-        <v>2952</v>
-      </c>
-      <c r="J31" s="9">
-        <f t="shared" si="14"/>
         <v>600</v>
       </c>
       <c r="N31" s="9" t="s">
         <v>464</v>
       </c>
       <c r="O31" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>620,620,620,620,620</v>
+      </c>
+      <c r="P31" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>620,620,620,620,620</v>
-      </c>
-      <c r="P31" s="1" t="str">
+        <v>0.12,1.09,3.02,6.87,12.65,19.39,32.87</v>
+      </c>
+      <c r="Q31" s="9" t="str">
         <f t="shared" si="16"/>
-        <v>0.12,1.09,3.02,6.87,12.65,19.39,32.87</v>
-      </c>
-      <c r="Q31" s="9" t="str">
-        <f t="shared" si="17"/>
         <v>1910,3819,7637,11456,13365,26730</v>
       </c>
     </row>
@@ -6533,26 +6632,26 @@
         <v>430</v>
       </c>
       <c r="I32" s="9">
-        <f t="shared" ref="I32:I33" si="18">H32*$B$9*$B$18*($B$13/100)</f>
+        <f t="shared" ref="I32:I33" si="17">H32*$B$9*$B$18*($B$13/100)</f>
         <v>3096</v>
       </c>
       <c r="J32" s="9">
-        <f t="shared" ref="J32:J33" si="19">ROUNDUP((I32/5),-1)</f>
+        <f t="shared" ref="J32:J33" si="18">ROUNDUP((I32/5),-1)</f>
         <v>620</v>
       </c>
       <c r="N32" s="9" t="s">
         <v>473</v>
       </c>
       <c r="O32" s="1" t="str">
-        <f t="shared" ref="O32:O33" si="20">J33&amp;","&amp;J33&amp;","&amp;J33&amp;","&amp;J33&amp;","&amp;J33</f>
+        <f t="shared" ref="O32:O33" si="19">J33&amp;","&amp;J33&amp;","&amp;J33&amp;","&amp;J33&amp;","&amp;J33</f>
         <v>650,650,650,650,650</v>
       </c>
       <c r="P32" s="1" t="str">
-        <f t="shared" ref="P32:P33" si="21">H127&amp;","&amp;I127&amp;","&amp;J127&amp;","&amp;K127&amp;","&amp;L127&amp;","&amp;M127&amp;","&amp;N127</f>
+        <f t="shared" ref="P32:P33" si="20">H132&amp;","&amp;I132&amp;","&amp;J132&amp;","&amp;K132&amp;","&amp;L132&amp;","&amp;M132&amp;","&amp;N132</f>
         <v>0.13,1.25,3.48,7.93,14.61,22.4,37.97</v>
       </c>
       <c r="Q32" s="9" t="str">
-        <f t="shared" ref="Q32:Q33" si="22">H67&amp;","&amp;I67&amp;","&amp;J67&amp;","&amp;K67&amp;","&amp;L67&amp;","&amp;M67</f>
+        <f t="shared" ref="Q32:Q33" si="21">H67&amp;","&amp;I67&amp;","&amp;J67&amp;","&amp;K67&amp;","&amp;L67&amp;","&amp;M67</f>
         <v>2106,4212,8424,12636,14742,29484</v>
       </c>
     </row>
@@ -6570,26 +6669,26 @@
         <v>450</v>
       </c>
       <c r="I33" s="9">
+        <f t="shared" si="17"/>
+        <v>3240</v>
+      </c>
+      <c r="J33" s="9">
         <f t="shared" si="18"/>
-        <v>3240</v>
-      </c>
-      <c r="J33" s="9">
-        <f t="shared" si="19"/>
         <v>650</v>
       </c>
       <c r="N33" s="9" t="s">
         <v>491</v>
       </c>
       <c r="O33" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>680,680,680,680,680</v>
+      </c>
+      <c r="P33" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>680,680,680,680,680</v>
-      </c>
-      <c r="P33" s="1" t="str">
+        <v>0.13,1.41,3.97,9.08,16.74,25.68,43.56</v>
+      </c>
+      <c r="Q33" s="9" t="str">
         <f t="shared" si="21"/>
-        <v>0.13,1.41,3.97,9.08,16.74,25.68,43.56</v>
-      </c>
-      <c r="Q33" s="9" t="str">
-        <f t="shared" si="22"/>
         <v>2313,4625,9250,13875,16187,32374</v>
       </c>
     </row>
@@ -6607,27 +6706,27 @@
         <v>470</v>
       </c>
       <c r="I34" s="9">
-        <f t="shared" ref="I34" si="23">H34*$B$9*$B$18*($B$13/100)</f>
+        <f t="shared" ref="I34:I35" si="22">H34*$B$9*$B$18*($B$13/100)</f>
         <v>3384</v>
       </c>
       <c r="J34" s="9">
-        <f t="shared" ref="J34" si="24">ROUNDUP((I34/5),-1)</f>
+        <f t="shared" ref="J34:J35" si="23">ROUNDUP((I34/5),-1)</f>
         <v>680</v>
       </c>
       <c r="N34" s="9" t="s">
         <v>490</v>
       </c>
       <c r="O34" s="1" t="str">
-        <f t="shared" ref="O34" si="25">J35&amp;","&amp;J35&amp;","&amp;J35&amp;","&amp;J35&amp;","&amp;J35</f>
-        <v>,,,,</v>
+        <f t="shared" ref="O34" si="24">J35&amp;","&amp;J35&amp;","&amp;J35&amp;","&amp;J35&amp;","&amp;J35</f>
+        <v>710,710,710,710,710</v>
       </c>
       <c r="P34" s="1" t="str">
-        <f t="shared" ref="P34" si="26">H129&amp;","&amp;I129&amp;","&amp;J129&amp;","&amp;K129&amp;","&amp;L129&amp;","&amp;M129&amp;","&amp;N129</f>
-        <v>,,,,,,</v>
+        <f t="shared" ref="P34" si="25">H134&amp;","&amp;I134&amp;","&amp;J134&amp;","&amp;K134&amp;","&amp;L134&amp;","&amp;M134&amp;","&amp;N134</f>
+        <v>0.14,1.6,4.52,10.35,19.09,29.29,49.68</v>
       </c>
       <c r="Q34" s="9" t="str">
-        <f t="shared" ref="Q34" si="27">H69&amp;","&amp;I69&amp;","&amp;J69&amp;","&amp;K69&amp;","&amp;L69&amp;","&amp;M69</f>
-        <v>,,,,,</v>
+        <f t="shared" ref="Q34" si="26">H69&amp;","&amp;I69&amp;","&amp;J69&amp;","&amp;K69&amp;","&amp;L69&amp;","&amp;M69</f>
+        <v>2529,5057,10114,15171,17699,35398</v>
       </c>
     </row>
     <row r="35" spans="1:32">
@@ -6638,6 +6737,20 @@
         <f>SUM(B30:B34)</f>
         <v>100</v>
       </c>
+      <c r="G35" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="H35" s="9">
+        <v>490</v>
+      </c>
+      <c r="I35" s="9">
+        <f t="shared" si="22"/>
+        <v>3528</v>
+      </c>
+      <c r="J35" s="9">
+        <f t="shared" si="23"/>
+        <v>710</v>
+      </c>
     </row>
     <row r="37" spans="1:32">
       <c r="A37" s="1" t="s">
@@ -6658,27 +6771,27 @@
         <v>68</v>
       </c>
       <c r="R39" s="23">
-        <f t="shared" ref="R39:W39" si="28">SUM(R41:R50)</f>
+        <f t="shared" ref="R39:W39" si="27">SUM(R41:R50)</f>
         <v>16.285714285714285</v>
       </c>
       <c r="S39" s="23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>13.328571428571429</v>
       </c>
       <c r="T39" s="23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>10.213240418118467</v>
       </c>
       <c r="U39" s="23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>8.8857142857142843</v>
       </c>
       <c r="V39" s="23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>6.4878048780487809</v>
       </c>
       <c r="W39" s="23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>5.3097560975609763</v>
       </c>
       <c r="X39"/>
@@ -6783,23 +6896,23 @@
         <v>106</v>
       </c>
       <c r="I41" s="9">
-        <f t="shared" ref="I41:I50" si="29">ROUNDUP((P41*$B$31/100),0)</f>
+        <f t="shared" ref="I41:I50" si="28">ROUNDUP((P41*$B$31/100),0)</f>
         <v>212</v>
       </c>
       <c r="J41" s="9">
-        <f t="shared" ref="J41:J50" si="30">ROUNDUP((P41*$B$32/100),0)</f>
+        <f t="shared" ref="J41:J50" si="29">ROUNDUP((P41*$B$32/100),0)</f>
         <v>423</v>
       </c>
       <c r="K41" s="9">
-        <f t="shared" ref="K41:K50" si="31">ROUNDUP((P41*$B$33/100),0)</f>
+        <f t="shared" ref="K41:K50" si="30">ROUNDUP((P41*$B$33/100),0)</f>
         <v>634</v>
       </c>
       <c r="L41" s="9">
-        <f t="shared" ref="L41:L50" si="32">ROUNDUP((P41*$B$34/100),0)</f>
+        <f t="shared" ref="L41:L50" si="31">ROUNDUP((P41*$B$34/100),0)</f>
         <v>740</v>
       </c>
       <c r="M41" s="9">
-        <f t="shared" ref="M41:M50" si="33">L41*$B$43</f>
+        <f t="shared" ref="M41:M50" si="32">L41*$B$43</f>
         <v>1480</v>
       </c>
       <c r="N41" s="9">
@@ -6810,23 +6923,23 @@
         <v>50</v>
       </c>
       <c r="P41" s="9">
-        <f t="shared" ref="P41:P50" si="34">(H8*$B$9*$B$18)*(O41/100)+I8</f>
+        <f t="shared" ref="P41:P50" si="33">(H8*$B$9*$B$18)*(O41/100)+I8</f>
         <v>2112</v>
       </c>
       <c r="Q41" s="9">
-        <f t="shared" ref="Q41:Q50" si="35">P41-I8</f>
+        <f t="shared" ref="Q41:Q50" si="34">P41-I8</f>
         <v>1320</v>
       </c>
       <c r="R41" s="1">
-        <f t="shared" ref="R41:R50" si="36">(Q41/H8)/($B$18*7)</f>
+        <f t="shared" ref="R41:R50" si="35">(Q41/H8)/($B$18*7)</f>
         <v>0.8571428571428571</v>
       </c>
       <c r="S41" s="1">
-        <f t="shared" ref="S41:S50" si="37">(Q41/$H$17)/(7*$B$18)</f>
+        <f t="shared" ref="S41:S50" si="36">(Q41/$H$17)/(7*$B$18)</f>
         <v>0.47142857142857142</v>
       </c>
       <c r="T41" s="1">
-        <f t="shared" ref="T41:T49" si="38">(Q41/H8)/($B$18*7+$B$21)</f>
+        <f t="shared" ref="T41:T49" si="37">(Q41/H8)/($B$18*7+$B$21)</f>
         <v>0.5714285714285714</v>
       </c>
       <c r="U41" s="1">
@@ -6834,7 +6947,7 @@
         <v>0.31428571428571428</v>
       </c>
       <c r="V41" s="1">
-        <f t="shared" ref="V41:V50" si="39">(Q41/H8)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
+        <f t="shared" ref="V41:V50" si="38">(Q41/H8)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
         <v>0.34146341463414637</v>
       </c>
       <c r="W41" s="1">
@@ -6849,19 +6962,19 @@
         <v>720</v>
       </c>
       <c r="AA41" s="9">
-        <f t="shared" ref="AA41:AA55" si="40">ROUNDUP((AE41*$B$31/100),0)</f>
+        <f t="shared" ref="AA41:AA55" si="39">ROUNDUP((AE41*$B$31/100),0)</f>
         <v>1440</v>
       </c>
       <c r="AB41" s="9">
-        <f t="shared" ref="AB41:AB55" si="41">ROUNDUP((AE41*$B$32/100),0)</f>
+        <f t="shared" ref="AB41:AB55" si="40">ROUNDUP((AE41*$B$32/100),0)</f>
         <v>2880</v>
       </c>
       <c r="AC41" s="9">
-        <f t="shared" ref="AC41:AC55" si="42">ROUNDUP((AE41*$B$33/100),0)</f>
+        <f t="shared" ref="AC41:AC55" si="41">ROUNDUP((AE41*$B$33/100),0)</f>
         <v>4320</v>
       </c>
       <c r="AD41" s="9">
-        <f t="shared" ref="AD41:AD55" si="43">ROUNDUP((AE41*$B$34/100),0)</f>
+        <f t="shared" ref="AD41:AD55" si="42">ROUNDUP((AE41*$B$34/100),0)</f>
         <v>5040</v>
       </c>
       <c r="AE41" s="1">
@@ -6880,93 +6993,93 @@
         <v>18</v>
       </c>
       <c r="H42" s="9">
-        <f t="shared" ref="H42:H50" si="44">ROUNDUP((P42*$B$30/100),0)</f>
+        <f t="shared" ref="H42:H50" si="43">ROUNDUP((P42*$B$30/100),0)</f>
         <v>130</v>
       </c>
       <c r="I42" s="9">
+        <f t="shared" si="28"/>
+        <v>260</v>
+      </c>
+      <c r="J42" s="9">
         <f t="shared" si="29"/>
-        <v>260</v>
-      </c>
-      <c r="J42" s="9">
+        <v>519</v>
+      </c>
+      <c r="K42" s="9">
         <f t="shared" si="30"/>
-        <v>519</v>
-      </c>
-      <c r="K42" s="9">
+        <v>778</v>
+      </c>
+      <c r="L42" s="9">
         <f t="shared" si="31"/>
-        <v>778</v>
-      </c>
-      <c r="L42" s="9">
+        <v>908</v>
+      </c>
+      <c r="M42" s="9">
         <f t="shared" si="32"/>
-        <v>908</v>
-      </c>
-      <c r="M42" s="9">
-        <f t="shared" si="33"/>
         <v>1816</v>
       </c>
       <c r="N42" s="9">
-        <f t="shared" ref="N42:N50" si="45">SUM(H42:L42)</f>
+        <f t="shared" ref="N42:N50" si="44">SUM(H42:L42)</f>
         <v>2595</v>
       </c>
       <c r="O42" s="9">
         <v>60</v>
       </c>
       <c r="P42" s="9">
+        <f t="shared" si="33"/>
+        <v>2592</v>
+      </c>
+      <c r="Q42" s="9">
         <f t="shared" si="34"/>
-        <v>2592</v>
-      </c>
-      <c r="Q42" s="9">
+        <v>1728</v>
+      </c>
+      <c r="R42" s="1">
         <f t="shared" si="35"/>
-        <v>1728</v>
-      </c>
-      <c r="R42" s="1">
+        <v>1.0285714285714287</v>
+      </c>
+      <c r="S42" s="1">
         <f t="shared" si="36"/>
-        <v>1.0285714285714287</v>
-      </c>
-      <c r="S42" s="1">
+        <v>0.61714285714285722</v>
+      </c>
+      <c r="T42" s="1">
         <f t="shared" si="37"/>
-        <v>0.61714285714285722</v>
-      </c>
-      <c r="T42" s="1">
+        <v>0.68571428571428572</v>
+      </c>
+      <c r="U42" s="1">
+        <f t="shared" ref="U42:U50" si="45">(Q42/$H$17)/($B$18*7+$B$21)</f>
+        <v>0.41142857142857148</v>
+      </c>
+      <c r="V42" s="1">
         <f t="shared" si="38"/>
-        <v>0.68571428571428572</v>
-      </c>
-      <c r="U42" s="1">
-        <f t="shared" ref="U42:U50" si="46">(Q42/$H$17)/($B$18*7+$B$21)</f>
-        <v>0.41142857142857148</v>
-      </c>
-      <c r="V42" s="1">
-        <f t="shared" si="39"/>
         <v>0.40975609756097564</v>
       </c>
       <c r="W42" s="1">
-        <f t="shared" ref="W42:W50" si="47">(Q42/$H$17)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
+        <f t="shared" ref="W42:W50" si="46">(Q42/$H$17)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
         <v>0.24585365853658542</v>
       </c>
       <c r="Y42" s="9" t="s">
         <v>199</v>
       </c>
       <c r="Z42" s="9">
-        <f t="shared" ref="Z42:Z55" si="48">ROUNDUP((AE42*$B$30/100),0)</f>
+        <f t="shared" ref="Z42:Z55" si="47">ROUNDUP((AE42*$B$30/100),0)</f>
         <v>744</v>
       </c>
       <c r="AA42" s="9">
+        <f t="shared" si="39"/>
+        <v>1488</v>
+      </c>
+      <c r="AB42" s="9">
         <f t="shared" si="40"/>
-        <v>1488</v>
-      </c>
-      <c r="AB42" s="9">
+        <v>2976</v>
+      </c>
+      <c r="AC42" s="9">
         <f t="shared" si="41"/>
-        <v>2976</v>
-      </c>
-      <c r="AC42" s="9">
+        <v>4464</v>
+      </c>
+      <c r="AD42" s="9">
         <f t="shared" si="42"/>
-        <v>4464</v>
-      </c>
-      <c r="AD42" s="9">
-        <f t="shared" si="43"/>
         <v>5208</v>
       </c>
       <c r="AE42" s="1">
-        <f t="shared" ref="AE42:AE55" si="49">($H$17*$B$9*$B$18)*(AF42/100)</f>
+        <f t="shared" ref="AE42:AE55" si="48">($H$17*$B$9*$B$18)*(AF42/100)</f>
         <v>14880</v>
       </c>
       <c r="AF42" s="1">
@@ -6985,93 +7098,93 @@
         <v>19</v>
       </c>
       <c r="H43" s="9">
+        <f t="shared" si="43"/>
+        <v>156</v>
+      </c>
+      <c r="I43" s="9">
+        <f t="shared" si="28"/>
+        <v>312</v>
+      </c>
+      <c r="J43" s="9">
+        <f t="shared" si="29"/>
+        <v>624</v>
+      </c>
+      <c r="K43" s="9">
+        <f t="shared" si="30"/>
+        <v>936</v>
+      </c>
+      <c r="L43" s="9">
+        <f t="shared" si="31"/>
+        <v>1092</v>
+      </c>
+      <c r="M43" s="9">
+        <f t="shared" si="32"/>
+        <v>2184</v>
+      </c>
+      <c r="N43" s="9">
         <f t="shared" si="44"/>
-        <v>156</v>
-      </c>
-      <c r="I43" s="9">
-        <f t="shared" si="29"/>
-        <v>312</v>
-      </c>
-      <c r="J43" s="9">
-        <f t="shared" si="30"/>
-        <v>624</v>
-      </c>
-      <c r="K43" s="9">
-        <f t="shared" si="31"/>
-        <v>936</v>
-      </c>
-      <c r="L43" s="9">
-        <f t="shared" si="32"/>
-        <v>1092</v>
-      </c>
-      <c r="M43" s="9">
-        <f t="shared" si="33"/>
-        <v>2184</v>
-      </c>
-      <c r="N43" s="9">
-        <f t="shared" si="45"/>
         <v>3120</v>
       </c>
       <c r="O43" s="9">
         <v>70</v>
       </c>
       <c r="P43" s="9">
+        <f t="shared" si="33"/>
+        <v>3120</v>
+      </c>
+      <c r="Q43" s="9">
         <f t="shared" si="34"/>
-        <v>3120</v>
-      </c>
-      <c r="Q43" s="9">
+        <v>2184</v>
+      </c>
+      <c r="R43" s="1">
         <f t="shared" si="35"/>
-        <v>2184</v>
-      </c>
-      <c r="R43" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="S43" s="1">
         <f t="shared" si="36"/>
-        <v>1.2</v>
-      </c>
-      <c r="S43" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="T43" s="1">
         <f t="shared" si="37"/>
-        <v>0.78</v>
-      </c>
-      <c r="T43" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="U43" s="1">
+        <f t="shared" si="45"/>
+        <v>0.52</v>
+      </c>
+      <c r="V43" s="1">
         <f t="shared" si="38"/>
-        <v>0.8</v>
-      </c>
-      <c r="U43" s="1">
+        <v>0.47804878048780497</v>
+      </c>
+      <c r="W43" s="1">
         <f t="shared" si="46"/>
-        <v>0.52</v>
-      </c>
-      <c r="V43" s="1">
-        <f t="shared" si="39"/>
-        <v>0.47804878048780497</v>
-      </c>
-      <c r="W43" s="1">
-        <f t="shared" si="47"/>
         <v>0.31073170731707322</v>
       </c>
       <c r="Y43" s="9" t="s">
         <v>200</v>
       </c>
       <c r="Z43" s="9">
+        <f t="shared" si="47"/>
+        <v>768</v>
+      </c>
+      <c r="AA43" s="9">
+        <f t="shared" si="39"/>
+        <v>1536</v>
+      </c>
+      <c r="AB43" s="9">
+        <f t="shared" si="40"/>
+        <v>3072</v>
+      </c>
+      <c r="AC43" s="9">
+        <f t="shared" si="41"/>
+        <v>4608</v>
+      </c>
+      <c r="AD43" s="9">
+        <f t="shared" si="42"/>
+        <v>5376</v>
+      </c>
+      <c r="AE43" s="1">
         <f t="shared" si="48"/>
-        <v>768</v>
-      </c>
-      <c r="AA43" s="9">
-        <f t="shared" si="40"/>
-        <v>1536</v>
-      </c>
-      <c r="AB43" s="9">
-        <f t="shared" si="41"/>
-        <v>3072</v>
-      </c>
-      <c r="AC43" s="9">
-        <f t="shared" si="42"/>
-        <v>4608</v>
-      </c>
-      <c r="AD43" s="9">
-        <f t="shared" si="43"/>
-        <v>5376</v>
-      </c>
-      <c r="AE43" s="1">
-        <f t="shared" si="49"/>
         <v>15360</v>
       </c>
       <c r="AF43" s="1">
@@ -7084,93 +7197,93 @@
         <v>85</v>
       </c>
       <c r="H44" s="9">
+        <f t="shared" si="43"/>
+        <v>185</v>
+      </c>
+      <c r="I44" s="9">
+        <f t="shared" si="28"/>
+        <v>370</v>
+      </c>
+      <c r="J44" s="9">
+        <f t="shared" si="29"/>
+        <v>740</v>
+      </c>
+      <c r="K44" s="9">
+        <f t="shared" si="30"/>
+        <v>1109</v>
+      </c>
+      <c r="L44" s="9">
+        <f t="shared" si="31"/>
+        <v>1294</v>
+      </c>
+      <c r="M44" s="9">
+        <f t="shared" si="32"/>
+        <v>2588</v>
+      </c>
+      <c r="N44" s="9">
         <f t="shared" si="44"/>
-        <v>185</v>
-      </c>
-      <c r="I44" s="9">
-        <f t="shared" si="29"/>
-        <v>370</v>
-      </c>
-      <c r="J44" s="9">
-        <f t="shared" si="30"/>
-        <v>740</v>
-      </c>
-      <c r="K44" s="9">
-        <f t="shared" si="31"/>
-        <v>1109</v>
-      </c>
-      <c r="L44" s="9">
-        <f t="shared" si="32"/>
-        <v>1294</v>
-      </c>
-      <c r="M44" s="9">
-        <f t="shared" si="33"/>
-        <v>2588</v>
-      </c>
-      <c r="N44" s="9">
-        <f t="shared" si="45"/>
         <v>3698</v>
       </c>
       <c r="O44" s="9">
         <v>80</v>
       </c>
       <c r="P44" s="9">
+        <f t="shared" si="33"/>
+        <v>3696</v>
+      </c>
+      <c r="Q44" s="9">
         <f t="shared" si="34"/>
-        <v>3696</v>
-      </c>
-      <c r="Q44" s="9">
+        <v>2688</v>
+      </c>
+      <c r="R44" s="1">
         <f t="shared" si="35"/>
-        <v>2688</v>
-      </c>
-      <c r="R44" s="1">
+        <v>1.3714285714285714</v>
+      </c>
+      <c r="S44" s="1">
         <f t="shared" si="36"/>
-        <v>1.3714285714285714</v>
-      </c>
-      <c r="S44" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="T44" s="1">
         <f t="shared" si="37"/>
-        <v>0.96</v>
-      </c>
-      <c r="T44" s="1">
+        <v>0.91428571428571426</v>
+      </c>
+      <c r="U44" s="1">
+        <f t="shared" si="45"/>
+        <v>0.64</v>
+      </c>
+      <c r="V44" s="1">
         <f t="shared" si="38"/>
-        <v>0.91428571428571426</v>
-      </c>
-      <c r="U44" s="1">
+        <v>0.54634146341463419</v>
+      </c>
+      <c r="W44" s="1">
         <f t="shared" si="46"/>
-        <v>0.64</v>
-      </c>
-      <c r="V44" s="1">
-        <f t="shared" si="39"/>
-        <v>0.54634146341463419</v>
-      </c>
-      <c r="W44" s="1">
-        <f t="shared" si="47"/>
         <v>0.38243902439024391</v>
       </c>
       <c r="Y44" s="9" t="s">
         <v>201</v>
       </c>
       <c r="Z44" s="9">
+        <f t="shared" si="47"/>
+        <v>792</v>
+      </c>
+      <c r="AA44" s="9">
+        <f t="shared" si="39"/>
+        <v>1584</v>
+      </c>
+      <c r="AB44" s="9">
+        <f t="shared" si="40"/>
+        <v>3168</v>
+      </c>
+      <c r="AC44" s="9">
+        <f t="shared" si="41"/>
+        <v>4752</v>
+      </c>
+      <c r="AD44" s="9">
+        <f t="shared" si="42"/>
+        <v>5544</v>
+      </c>
+      <c r="AE44" s="1">
         <f t="shared" si="48"/>
-        <v>792</v>
-      </c>
-      <c r="AA44" s="9">
-        <f t="shared" si="40"/>
-        <v>1584</v>
-      </c>
-      <c r="AB44" s="9">
-        <f t="shared" si="41"/>
-        <v>3168</v>
-      </c>
-      <c r="AC44" s="9">
-        <f t="shared" si="42"/>
-        <v>4752</v>
-      </c>
-      <c r="AD44" s="9">
-        <f t="shared" si="43"/>
-        <v>5544</v>
-      </c>
-      <c r="AE44" s="1">
-        <f t="shared" si="49"/>
         <v>15840</v>
       </c>
       <c r="AF44" s="1">
@@ -7183,93 +7296,93 @@
         <v>20</v>
       </c>
       <c r="H45" s="9">
+        <f t="shared" si="43"/>
+        <v>216</v>
+      </c>
+      <c r="I45" s="9">
+        <f t="shared" si="28"/>
+        <v>432</v>
+      </c>
+      <c r="J45" s="9">
+        <f t="shared" si="29"/>
+        <v>864</v>
+      </c>
+      <c r="K45" s="9">
+        <f t="shared" si="30"/>
+        <v>1296</v>
+      </c>
+      <c r="L45" s="9">
+        <f t="shared" si="31"/>
+        <v>1512</v>
+      </c>
+      <c r="M45" s="9">
+        <f t="shared" si="32"/>
+        <v>3024</v>
+      </c>
+      <c r="N45" s="9">
         <f t="shared" si="44"/>
-        <v>216</v>
-      </c>
-      <c r="I45" s="9">
-        <f t="shared" si="29"/>
-        <v>432</v>
-      </c>
-      <c r="J45" s="9">
-        <f t="shared" si="30"/>
-        <v>864</v>
-      </c>
-      <c r="K45" s="9">
-        <f t="shared" si="31"/>
-        <v>1296</v>
-      </c>
-      <c r="L45" s="9">
-        <f t="shared" si="32"/>
-        <v>1512</v>
-      </c>
-      <c r="M45" s="9">
-        <f t="shared" si="33"/>
-        <v>3024</v>
-      </c>
-      <c r="N45" s="9">
-        <f t="shared" si="45"/>
         <v>4320</v>
       </c>
       <c r="O45" s="9">
         <v>90</v>
       </c>
       <c r="P45" s="9">
+        <f t="shared" si="33"/>
+        <v>4320</v>
+      </c>
+      <c r="Q45" s="9">
         <f t="shared" si="34"/>
-        <v>4320</v>
-      </c>
-      <c r="Q45" s="9">
+        <v>3240</v>
+      </c>
+      <c r="R45" s="1">
         <f t="shared" si="35"/>
-        <v>3240</v>
-      </c>
-      <c r="R45" s="1">
+        <v>1.5428571428571429</v>
+      </c>
+      <c r="S45" s="1">
         <f t="shared" si="36"/>
-        <v>1.5428571428571429</v>
-      </c>
-      <c r="S45" s="1">
+        <v>1.157142857142857</v>
+      </c>
+      <c r="T45" s="1">
         <f t="shared" si="37"/>
-        <v>1.157142857142857</v>
-      </c>
-      <c r="T45" s="1">
+        <v>1.0285714285714287</v>
+      </c>
+      <c r="U45" s="1">
+        <f t="shared" si="45"/>
+        <v>0.77142857142857135</v>
+      </c>
+      <c r="V45" s="1">
         <f t="shared" si="38"/>
-        <v>1.0285714285714287</v>
-      </c>
-      <c r="U45" s="1">
+        <v>0.61463414634146352</v>
+      </c>
+      <c r="W45" s="1">
         <f t="shared" si="46"/>
-        <v>0.77142857142857135</v>
-      </c>
-      <c r="V45" s="1">
-        <f t="shared" si="39"/>
-        <v>0.61463414634146352</v>
-      </c>
-      <c r="W45" s="1">
-        <f t="shared" si="47"/>
         <v>0.46097560975609758</v>
       </c>
       <c r="Y45" s="9" t="s">
         <v>202</v>
       </c>
       <c r="Z45" s="9">
+        <f t="shared" si="47"/>
+        <v>816</v>
+      </c>
+      <c r="AA45" s="9">
+        <f t="shared" si="39"/>
+        <v>1632</v>
+      </c>
+      <c r="AB45" s="9">
+        <f t="shared" si="40"/>
+        <v>3264</v>
+      </c>
+      <c r="AC45" s="9">
+        <f t="shared" si="41"/>
+        <v>4896</v>
+      </c>
+      <c r="AD45" s="9">
+        <f t="shared" si="42"/>
+        <v>5712</v>
+      </c>
+      <c r="AE45" s="1">
         <f t="shared" si="48"/>
-        <v>816</v>
-      </c>
-      <c r="AA45" s="9">
-        <f t="shared" si="40"/>
-        <v>1632</v>
-      </c>
-      <c r="AB45" s="9">
-        <f t="shared" si="41"/>
-        <v>3264</v>
-      </c>
-      <c r="AC45" s="9">
-        <f t="shared" si="42"/>
-        <v>4896</v>
-      </c>
-      <c r="AD45" s="9">
-        <f t="shared" si="43"/>
-        <v>5712</v>
-      </c>
-      <c r="AE45" s="1">
-        <f t="shared" si="49"/>
         <v>16320</v>
       </c>
       <c r="AF45" s="1">
@@ -7282,93 +7395,93 @@
         <v>21</v>
       </c>
       <c r="H46" s="9">
+        <f t="shared" si="43"/>
+        <v>250</v>
+      </c>
+      <c r="I46" s="9">
+        <f t="shared" si="28"/>
+        <v>500</v>
+      </c>
+      <c r="J46" s="9">
+        <f t="shared" si="29"/>
+        <v>999</v>
+      </c>
+      <c r="K46" s="9">
+        <f t="shared" si="30"/>
+        <v>1498</v>
+      </c>
+      <c r="L46" s="9">
+        <f t="shared" si="31"/>
+        <v>1748</v>
+      </c>
+      <c r="M46" s="9">
+        <f t="shared" si="32"/>
+        <v>3496</v>
+      </c>
+      <c r="N46" s="9">
         <f t="shared" si="44"/>
-        <v>250</v>
-      </c>
-      <c r="I46" s="9">
-        <f t="shared" si="29"/>
-        <v>500</v>
-      </c>
-      <c r="J46" s="9">
-        <f t="shared" si="30"/>
-        <v>999</v>
-      </c>
-      <c r="K46" s="9">
-        <f t="shared" si="31"/>
-        <v>1498</v>
-      </c>
-      <c r="L46" s="9">
-        <f t="shared" si="32"/>
-        <v>1748</v>
-      </c>
-      <c r="M46" s="9">
-        <f t="shared" si="33"/>
-        <v>3496</v>
-      </c>
-      <c r="N46" s="9">
-        <f t="shared" si="45"/>
         <v>4995</v>
       </c>
       <c r="O46" s="9">
         <v>100</v>
       </c>
       <c r="P46" s="9">
+        <f t="shared" si="33"/>
+        <v>4992</v>
+      </c>
+      <c r="Q46" s="9">
         <f t="shared" si="34"/>
-        <v>4992</v>
-      </c>
-      <c r="Q46" s="9">
+        <v>3840</v>
+      </c>
+      <c r="R46" s="1">
         <f t="shared" si="35"/>
-        <v>3840</v>
-      </c>
-      <c r="R46" s="1">
+        <v>1.7142857142857142</v>
+      </c>
+      <c r="S46" s="1">
         <f t="shared" si="36"/>
-        <v>1.7142857142857142</v>
-      </c>
-      <c r="S46" s="1">
+        <v>1.3714285714285714</v>
+      </c>
+      <c r="T46" s="1">
         <f t="shared" si="37"/>
-        <v>1.3714285714285714</v>
-      </c>
-      <c r="T46" s="1">
+        <v>1.1428571428571428</v>
+      </c>
+      <c r="U46" s="1">
+        <f t="shared" si="45"/>
+        <v>0.91428571428571426</v>
+      </c>
+      <c r="V46" s="1">
         <f t="shared" si="38"/>
-        <v>1.1428571428571428</v>
-      </c>
-      <c r="U46" s="1">
+        <v>0.68292682926829273</v>
+      </c>
+      <c r="W46" s="1">
         <f t="shared" si="46"/>
-        <v>0.91428571428571426</v>
-      </c>
-      <c r="V46" s="1">
-        <f t="shared" si="39"/>
-        <v>0.68292682926829273</v>
-      </c>
-      <c r="W46" s="1">
-        <f t="shared" si="47"/>
         <v>0.54634146341463419</v>
       </c>
       <c r="Y46" s="9" t="s">
         <v>203</v>
       </c>
       <c r="Z46" s="9">
+        <f t="shared" si="47"/>
+        <v>840</v>
+      </c>
+      <c r="AA46" s="9">
+        <f t="shared" si="39"/>
+        <v>1680</v>
+      </c>
+      <c r="AB46" s="9">
+        <f t="shared" si="40"/>
+        <v>3360</v>
+      </c>
+      <c r="AC46" s="9">
+        <f t="shared" si="41"/>
+        <v>5040</v>
+      </c>
+      <c r="AD46" s="9">
+        <f t="shared" si="42"/>
+        <v>5880</v>
+      </c>
+      <c r="AE46" s="1">
         <f t="shared" si="48"/>
-        <v>840</v>
-      </c>
-      <c r="AA46" s="9">
-        <f t="shared" si="40"/>
-        <v>1680</v>
-      </c>
-      <c r="AB46" s="9">
-        <f t="shared" si="41"/>
-        <v>3360</v>
-      </c>
-      <c r="AC46" s="9">
-        <f t="shared" si="42"/>
-        <v>5040</v>
-      </c>
-      <c r="AD46" s="9">
-        <f t="shared" si="43"/>
-        <v>5880</v>
-      </c>
-      <c r="AE46" s="1">
-        <f t="shared" si="49"/>
         <v>16800</v>
       </c>
       <c r="AF46" s="1">
@@ -7380,93 +7493,93 @@
         <v>22</v>
       </c>
       <c r="H47" s="9">
+        <f t="shared" si="43"/>
+        <v>286</v>
+      </c>
+      <c r="I47" s="9">
+        <f t="shared" si="28"/>
+        <v>572</v>
+      </c>
+      <c r="J47" s="9">
+        <f t="shared" si="29"/>
+        <v>1143</v>
+      </c>
+      <c r="K47" s="9">
+        <f t="shared" si="30"/>
+        <v>1714</v>
+      </c>
+      <c r="L47" s="9">
+        <f t="shared" si="31"/>
+        <v>2000</v>
+      </c>
+      <c r="M47" s="9">
+        <f t="shared" si="32"/>
+        <v>4000</v>
+      </c>
+      <c r="N47" s="9">
         <f t="shared" si="44"/>
-        <v>286</v>
-      </c>
-      <c r="I47" s="9">
-        <f t="shared" si="29"/>
-        <v>572</v>
-      </c>
-      <c r="J47" s="9">
-        <f t="shared" si="30"/>
-        <v>1143</v>
-      </c>
-      <c r="K47" s="9">
-        <f t="shared" si="31"/>
-        <v>1714</v>
-      </c>
-      <c r="L47" s="9">
-        <f t="shared" si="32"/>
-        <v>2000</v>
-      </c>
-      <c r="M47" s="9">
-        <f t="shared" si="33"/>
-        <v>4000</v>
-      </c>
-      <c r="N47" s="9">
-        <f t="shared" si="45"/>
         <v>5715</v>
       </c>
       <c r="O47" s="9">
         <v>110</v>
       </c>
       <c r="P47" s="9">
+        <f t="shared" si="33"/>
+        <v>5712</v>
+      </c>
+      <c r="Q47" s="9">
         <f t="shared" si="34"/>
-        <v>5712</v>
-      </c>
-      <c r="Q47" s="9">
+        <v>4488</v>
+      </c>
+      <c r="R47" s="1">
         <f t="shared" si="35"/>
-        <v>4488</v>
-      </c>
-      <c r="R47" s="1">
+        <v>1.8857142857142857</v>
+      </c>
+      <c r="S47" s="1">
         <f t="shared" si="36"/>
-        <v>1.8857142857142857</v>
-      </c>
-      <c r="S47" s="1">
+        <v>1.602857142857143</v>
+      </c>
+      <c r="T47" s="1">
         <f t="shared" si="37"/>
-        <v>1.602857142857143</v>
-      </c>
-      <c r="T47" s="1">
+        <v>1.2571428571428571</v>
+      </c>
+      <c r="U47" s="1">
+        <f t="shared" si="45"/>
+        <v>1.0685714285714287</v>
+      </c>
+      <c r="V47" s="1">
         <f t="shared" si="38"/>
-        <v>1.2571428571428571</v>
-      </c>
-      <c r="U47" s="1">
+        <v>0.75121951219512195</v>
+      </c>
+      <c r="W47" s="1">
         <f t="shared" si="46"/>
-        <v>1.0685714285714287</v>
-      </c>
-      <c r="V47" s="1">
-        <f t="shared" si="39"/>
-        <v>0.75121951219512195</v>
-      </c>
-      <c r="W47" s="1">
-        <f t="shared" si="47"/>
         <v>0.63853658536585378</v>
       </c>
       <c r="Y47" s="9" t="s">
         <v>204</v>
       </c>
       <c r="Z47" s="9">
+        <f t="shared" si="47"/>
+        <v>864</v>
+      </c>
+      <c r="AA47" s="9">
+        <f t="shared" si="39"/>
+        <v>1728</v>
+      </c>
+      <c r="AB47" s="9">
+        <f t="shared" si="40"/>
+        <v>3456</v>
+      </c>
+      <c r="AC47" s="9">
+        <f t="shared" si="41"/>
+        <v>5184</v>
+      </c>
+      <c r="AD47" s="9">
+        <f t="shared" si="42"/>
+        <v>6048</v>
+      </c>
+      <c r="AE47" s="1">
         <f t="shared" si="48"/>
-        <v>864</v>
-      </c>
-      <c r="AA47" s="9">
-        <f t="shared" si="40"/>
-        <v>1728</v>
-      </c>
-      <c r="AB47" s="9">
-        <f t="shared" si="41"/>
-        <v>3456</v>
-      </c>
-      <c r="AC47" s="9">
-        <f t="shared" si="42"/>
-        <v>5184</v>
-      </c>
-      <c r="AD47" s="9">
-        <f t="shared" si="43"/>
-        <v>6048</v>
-      </c>
-      <c r="AE47" s="1">
-        <f t="shared" si="49"/>
         <v>17280</v>
       </c>
       <c r="AF47" s="1">
@@ -7478,93 +7591,93 @@
         <v>23</v>
       </c>
       <c r="H48" s="9">
+        <f t="shared" si="43"/>
+        <v>324</v>
+      </c>
+      <c r="I48" s="9">
+        <f t="shared" si="28"/>
+        <v>648</v>
+      </c>
+      <c r="J48" s="9">
+        <f t="shared" si="29"/>
+        <v>1296</v>
+      </c>
+      <c r="K48" s="9">
+        <f t="shared" si="30"/>
+        <v>1944</v>
+      </c>
+      <c r="L48" s="9">
+        <f t="shared" si="31"/>
+        <v>2268</v>
+      </c>
+      <c r="M48" s="9">
+        <f t="shared" si="32"/>
+        <v>4536</v>
+      </c>
+      <c r="N48" s="9">
         <f t="shared" si="44"/>
-        <v>324</v>
-      </c>
-      <c r="I48" s="9">
-        <f t="shared" si="29"/>
-        <v>648</v>
-      </c>
-      <c r="J48" s="9">
-        <f t="shared" si="30"/>
-        <v>1296</v>
-      </c>
-      <c r="K48" s="9">
-        <f t="shared" si="31"/>
-        <v>1944</v>
-      </c>
-      <c r="L48" s="9">
-        <f t="shared" si="32"/>
-        <v>2268</v>
-      </c>
-      <c r="M48" s="9">
-        <f t="shared" si="33"/>
-        <v>4536</v>
-      </c>
-      <c r="N48" s="9">
-        <f t="shared" si="45"/>
         <v>6480</v>
       </c>
       <c r="O48" s="9">
         <v>120</v>
       </c>
       <c r="P48" s="9">
+        <f t="shared" si="33"/>
+        <v>6480</v>
+      </c>
+      <c r="Q48" s="9">
         <f t="shared" si="34"/>
-        <v>6480</v>
-      </c>
-      <c r="Q48" s="9">
+        <v>5184</v>
+      </c>
+      <c r="R48" s="1">
         <f t="shared" si="35"/>
-        <v>5184</v>
-      </c>
-      <c r="R48" s="1">
+        <v>2.0571428571428574</v>
+      </c>
+      <c r="S48" s="1">
         <f t="shared" si="36"/>
-        <v>2.0571428571428574</v>
-      </c>
-      <c r="S48" s="1">
+        <v>1.8514285714285716</v>
+      </c>
+      <c r="T48" s="1">
         <f t="shared" si="37"/>
-        <v>1.8514285714285716</v>
-      </c>
-      <c r="T48" s="1">
+        <v>1.3714285714285714</v>
+      </c>
+      <c r="U48" s="1">
+        <f t="shared" si="45"/>
+        <v>1.2342857142857144</v>
+      </c>
+      <c r="V48" s="1">
         <f t="shared" si="38"/>
-        <v>1.3714285714285714</v>
-      </c>
-      <c r="U48" s="1">
+        <v>0.81951219512195128</v>
+      </c>
+      <c r="W48" s="1">
         <f t="shared" si="46"/>
-        <v>1.2342857142857144</v>
-      </c>
-      <c r="V48" s="1">
-        <f t="shared" si="39"/>
-        <v>0.81951219512195128</v>
-      </c>
-      <c r="W48" s="1">
-        <f t="shared" si="47"/>
         <v>0.7375609756097562</v>
       </c>
       <c r="Y48" s="9" t="s">
         <v>205</v>
       </c>
       <c r="Z48" s="9">
+        <f t="shared" si="47"/>
+        <v>888</v>
+      </c>
+      <c r="AA48" s="9">
+        <f t="shared" si="39"/>
+        <v>1776</v>
+      </c>
+      <c r="AB48" s="9">
+        <f t="shared" si="40"/>
+        <v>3552</v>
+      </c>
+      <c r="AC48" s="9">
+        <f t="shared" si="41"/>
+        <v>5328</v>
+      </c>
+      <c r="AD48" s="9">
+        <f t="shared" si="42"/>
+        <v>6216</v>
+      </c>
+      <c r="AE48" s="1">
         <f t="shared" si="48"/>
-        <v>888</v>
-      </c>
-      <c r="AA48" s="9">
-        <f t="shared" si="40"/>
-        <v>1776</v>
-      </c>
-      <c r="AB48" s="9">
-        <f t="shared" si="41"/>
-        <v>3552</v>
-      </c>
-      <c r="AC48" s="9">
-        <f t="shared" si="42"/>
-        <v>5328</v>
-      </c>
-      <c r="AD48" s="9">
-        <f t="shared" si="43"/>
-        <v>6216</v>
-      </c>
-      <c r="AE48" s="1">
-        <f t="shared" si="49"/>
         <v>17760</v>
       </c>
       <c r="AF48" s="1">
@@ -7576,89 +7689,89 @@
         <v>24</v>
       </c>
       <c r="H49" s="9">
+        <f t="shared" si="43"/>
+        <v>365</v>
+      </c>
+      <c r="I49" s="9">
+        <f t="shared" si="28"/>
+        <v>730</v>
+      </c>
+      <c r="J49" s="9">
+        <f t="shared" si="29"/>
+        <v>1460</v>
+      </c>
+      <c r="K49" s="9">
+        <f t="shared" si="30"/>
+        <v>2189</v>
+      </c>
+      <c r="L49" s="9">
+        <f t="shared" si="31"/>
+        <v>2554</v>
+      </c>
+      <c r="M49" s="9">
+        <f t="shared" si="32"/>
+        <v>5108</v>
+      </c>
+      <c r="N49" s="9">
         <f t="shared" si="44"/>
-        <v>365</v>
-      </c>
-      <c r="I49" s="9">
-        <f t="shared" si="29"/>
-        <v>730</v>
-      </c>
-      <c r="J49" s="9">
-        <f t="shared" si="30"/>
-        <v>1460</v>
-      </c>
-      <c r="K49" s="9">
-        <f t="shared" si="31"/>
-        <v>2189</v>
-      </c>
-      <c r="L49" s="9">
-        <f t="shared" si="32"/>
-        <v>2554</v>
-      </c>
-      <c r="M49" s="9">
-        <f t="shared" si="33"/>
-        <v>5108</v>
-      </c>
-      <c r="N49" s="9">
-        <f t="shared" si="45"/>
         <v>7298</v>
       </c>
       <c r="O49" s="9">
         <v>130</v>
       </c>
       <c r="P49" s="9">
+        <f t="shared" si="33"/>
+        <v>7296</v>
+      </c>
+      <c r="Q49" s="9">
         <f t="shared" si="34"/>
-        <v>7296</v>
-      </c>
-      <c r="Q49" s="9">
+        <v>5928</v>
+      </c>
+      <c r="R49" s="1">
         <f t="shared" si="35"/>
-        <v>5928</v>
-      </c>
-      <c r="R49" s="1">
+        <v>2.2285714285714286</v>
+      </c>
+      <c r="S49" s="1">
         <f t="shared" si="36"/>
-        <v>2.2285714285714286</v>
-      </c>
-      <c r="S49" s="1">
+        <v>2.117142857142857</v>
+      </c>
+      <c r="T49" s="1">
         <f t="shared" si="37"/>
-        <v>2.117142857142857</v>
-      </c>
-      <c r="T49" s="1">
+        <v>1.4857142857142858</v>
+      </c>
+      <c r="U49" s="1">
+        <f t="shared" si="45"/>
+        <v>1.4114285714285715</v>
+      </c>
+      <c r="V49" s="1">
         <f t="shared" si="38"/>
-        <v>1.4857142857142858</v>
-      </c>
-      <c r="U49" s="1">
+        <v>0.88780487804878061</v>
+      </c>
+      <c r="W49" s="1">
         <f t="shared" si="46"/>
-        <v>1.4114285714285715</v>
-      </c>
-      <c r="V49" s="1">
-        <f t="shared" si="39"/>
-        <v>0.88780487804878061</v>
-      </c>
-      <c r="W49" s="1">
-        <f t="shared" si="47"/>
         <v>0.84341463414634155</v>
       </c>
       <c r="Y49" s="9" t="s">
         <v>206</v>
       </c>
       <c r="Z49" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>1200</v>
       </c>
       <c r="AA49" s="9">
+        <f t="shared" si="39"/>
+        <v>2400</v>
+      </c>
+      <c r="AB49" s="9">
         <f t="shared" si="40"/>
-        <v>2400</v>
-      </c>
-      <c r="AB49" s="9">
+        <v>4800</v>
+      </c>
+      <c r="AC49" s="9">
         <f t="shared" si="41"/>
-        <v>4800</v>
-      </c>
-      <c r="AC49" s="9">
+        <v>7200</v>
+      </c>
+      <c r="AD49" s="9">
         <f t="shared" si="42"/>
-        <v>7200</v>
-      </c>
-      <c r="AD49" s="9">
-        <f t="shared" si="43"/>
         <v>8400</v>
       </c>
       <c r="AE49" s="1">
@@ -7674,50 +7787,50 @@
         <v>25</v>
       </c>
       <c r="H50" s="9">
+        <f t="shared" si="43"/>
+        <v>408</v>
+      </c>
+      <c r="I50" s="9">
+        <f t="shared" si="28"/>
+        <v>816</v>
+      </c>
+      <c r="J50" s="9">
+        <f t="shared" si="29"/>
+        <v>1632</v>
+      </c>
+      <c r="K50" s="9">
+        <f t="shared" si="30"/>
+        <v>2448</v>
+      </c>
+      <c r="L50" s="9">
+        <f t="shared" si="31"/>
+        <v>2856</v>
+      </c>
+      <c r="M50" s="9">
+        <f t="shared" si="32"/>
+        <v>5712</v>
+      </c>
+      <c r="N50" s="9">
         <f t="shared" si="44"/>
-        <v>408</v>
-      </c>
-      <c r="I50" s="9">
-        <f t="shared" si="29"/>
-        <v>816</v>
-      </c>
-      <c r="J50" s="9">
-        <f t="shared" si="30"/>
-        <v>1632</v>
-      </c>
-      <c r="K50" s="9">
-        <f t="shared" si="31"/>
-        <v>2448</v>
-      </c>
-      <c r="L50" s="9">
-        <f t="shared" si="32"/>
-        <v>2856</v>
-      </c>
-      <c r="M50" s="9">
-        <f t="shared" si="33"/>
-        <v>5712</v>
-      </c>
-      <c r="N50" s="9">
-        <f t="shared" si="45"/>
         <v>8160</v>
       </c>
       <c r="O50" s="9">
         <v>140</v>
       </c>
       <c r="P50" s="9">
+        <f t="shared" si="33"/>
+        <v>8160</v>
+      </c>
+      <c r="Q50" s="9">
         <f t="shared" si="34"/>
-        <v>8160</v>
-      </c>
-      <c r="Q50" s="9">
+        <v>6720</v>
+      </c>
+      <c r="R50" s="1">
         <f t="shared" si="35"/>
-        <v>6720</v>
-      </c>
-      <c r="R50" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="S50" s="1">
         <f t="shared" si="36"/>
-        <v>2.4</v>
-      </c>
-      <c r="S50" s="1">
-        <f t="shared" si="37"/>
         <v>2.4</v>
       </c>
       <c r="T50" s="1">
@@ -7725,42 +7838,42 @@
         <v>0.95609756097560994</v>
       </c>
       <c r="U50" s="1">
+        <f t="shared" si="45"/>
+        <v>1.6</v>
+      </c>
+      <c r="V50" s="1">
+        <f t="shared" si="38"/>
+        <v>0.95609756097560994</v>
+      </c>
+      <c r="W50" s="1">
         <f t="shared" si="46"/>
-        <v>1.6</v>
-      </c>
-      <c r="V50" s="1">
-        <f t="shared" si="39"/>
-        <v>0.95609756097560994</v>
-      </c>
-      <c r="W50" s="1">
-        <f t="shared" si="47"/>
         <v>0.95609756097560994</v>
       </c>
       <c r="Y50" s="9" t="s">
         <v>207</v>
       </c>
       <c r="Z50" s="9">
+        <f t="shared" si="47"/>
+        <v>1248</v>
+      </c>
+      <c r="AA50" s="9">
+        <f t="shared" si="39"/>
+        <v>2496</v>
+      </c>
+      <c r="AB50" s="9">
+        <f t="shared" si="40"/>
+        <v>4992</v>
+      </c>
+      <c r="AC50" s="9">
+        <f t="shared" si="41"/>
+        <v>7488</v>
+      </c>
+      <c r="AD50" s="9">
+        <f t="shared" si="42"/>
+        <v>8736</v>
+      </c>
+      <c r="AE50" s="1">
         <f t="shared" si="48"/>
-        <v>1248</v>
-      </c>
-      <c r="AA50" s="9">
-        <f t="shared" si="40"/>
-        <v>2496</v>
-      </c>
-      <c r="AB50" s="9">
-        <f t="shared" si="41"/>
-        <v>4992</v>
-      </c>
-      <c r="AC50" s="9">
-        <f t="shared" si="42"/>
-        <v>7488</v>
-      </c>
-      <c r="AD50" s="9">
-        <f t="shared" si="43"/>
-        <v>8736</v>
-      </c>
-      <c r="AE50" s="1">
-        <f t="shared" si="49"/>
         <v>24960</v>
       </c>
       <c r="AF50" s="1">
@@ -7792,27 +7905,27 @@
         <v>208</v>
       </c>
       <c r="Z51" s="9">
+        <f t="shared" si="47"/>
+        <v>1296</v>
+      </c>
+      <c r="AA51" s="9">
+        <f t="shared" si="39"/>
+        <v>2592</v>
+      </c>
+      <c r="AB51" s="9">
+        <f t="shared" si="40"/>
+        <v>5184</v>
+      </c>
+      <c r="AC51" s="9">
+        <f t="shared" si="41"/>
+        <v>7776</v>
+      </c>
+      <c r="AD51" s="9">
+        <f t="shared" si="42"/>
+        <v>9072</v>
+      </c>
+      <c r="AE51" s="1">
         <f t="shared" si="48"/>
-        <v>1296</v>
-      </c>
-      <c r="AA51" s="9">
-        <f t="shared" si="40"/>
-        <v>2592</v>
-      </c>
-      <c r="AB51" s="9">
-        <f t="shared" si="41"/>
-        <v>5184</v>
-      </c>
-      <c r="AC51" s="9">
-        <f t="shared" si="42"/>
-        <v>7776</v>
-      </c>
-      <c r="AD51" s="9">
-        <f t="shared" si="43"/>
-        <v>9072</v>
-      </c>
-      <c r="AE51" s="1">
-        <f t="shared" si="49"/>
         <v>25920</v>
       </c>
       <c r="AF51" s="1">
@@ -7828,23 +7941,23 @@
         <v>6.8571428571428568</v>
       </c>
       <c r="S52" s="23">
-        <f t="shared" ref="S52:W52" si="50">SUM(S53:S54)</f>
+        <f t="shared" ref="S52:W52" si="49">SUM(S53:S54)</f>
         <v>6.7012987012987013</v>
       </c>
       <c r="T52" s="23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>2.7317073170731709</v>
       </c>
       <c r="U52" s="23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>4.4675324675324681</v>
       </c>
       <c r="V52" s="23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>2.7317073170731709</v>
       </c>
       <c r="W52" s="23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>2.6696230598669626</v>
       </c>
       <c r="X52"/>
@@ -7852,27 +7965,27 @@
         <v>209</v>
       </c>
       <c r="Z52" s="9">
+        <f t="shared" si="47"/>
+        <v>1440</v>
+      </c>
+      <c r="AA52" s="9">
+        <f t="shared" si="39"/>
+        <v>2880</v>
+      </c>
+      <c r="AB52" s="9">
+        <f t="shared" si="40"/>
+        <v>5760</v>
+      </c>
+      <c r="AC52" s="9">
+        <f t="shared" si="41"/>
+        <v>8640</v>
+      </c>
+      <c r="AD52" s="9">
+        <f t="shared" si="42"/>
+        <v>10080</v>
+      </c>
+      <c r="AE52" s="1">
         <f t="shared" si="48"/>
-        <v>1440</v>
-      </c>
-      <c r="AA52" s="9">
-        <f t="shared" si="40"/>
-        <v>2880</v>
-      </c>
-      <c r="AB52" s="9">
-        <f t="shared" si="41"/>
-        <v>5760</v>
-      </c>
-      <c r="AC52" s="9">
-        <f t="shared" si="42"/>
-        <v>8640</v>
-      </c>
-      <c r="AD52" s="9">
-        <f t="shared" si="43"/>
-        <v>10080</v>
-      </c>
-      <c r="AE52" s="1">
-        <f t="shared" si="49"/>
         <v>28800</v>
       </c>
       <c r="AF52" s="1">
@@ -7884,31 +7997,31 @@
         <v>105</v>
       </c>
       <c r="H53" s="9">
-        <f t="shared" ref="H53:H63" si="51">ROUNDUP((P53*$B$30/100),0)</f>
+        <f t="shared" ref="H53:H63" si="50">ROUNDUP((P53*$B$30/100),0)</f>
         <v>580</v>
       </c>
       <c r="I53" s="9">
-        <f t="shared" ref="I53:I65" si="52">ROUNDUP((P53*$B$31/100),0)</f>
+        <f t="shared" ref="I53:I65" si="51">ROUNDUP((P53*$B$31/100),0)</f>
         <v>1160</v>
       </c>
       <c r="J53" s="9">
-        <f t="shared" ref="J53:J65" si="53">ROUNDUP((P53*$B$32/100),0)</f>
+        <f t="shared" ref="J53:J65" si="52">ROUNDUP((P53*$B$32/100),0)</f>
         <v>2319</v>
       </c>
       <c r="K53" s="9">
-        <f t="shared" ref="K53:K65" si="54">ROUNDUP((P53*$B$33/100),0)</f>
+        <f t="shared" ref="K53:K65" si="53">ROUNDUP((P53*$B$33/100),0)</f>
         <v>3478</v>
       </c>
       <c r="L53" s="9">
-        <f t="shared" ref="L53:L65" si="55">ROUNDUP((P53*$B$34/100),0)</f>
+        <f t="shared" ref="L53:L65" si="54">ROUNDUP((P53*$B$34/100),0)</f>
         <v>4058</v>
       </c>
       <c r="M53" s="9">
-        <f t="shared" ref="M53:M66" si="56">L53*$B$43</f>
+        <f t="shared" ref="M53:M66" si="55">L53*$B$43</f>
         <v>8116</v>
       </c>
       <c r="N53" s="9">
-        <f t="shared" ref="N53" si="57">SUM(H53:L53)</f>
+        <f t="shared" ref="N53" si="56">SUM(H53:L53)</f>
         <v>11595</v>
       </c>
       <c r="O53" s="9">
@@ -7950,27 +8063,27 @@
         <v>210</v>
       </c>
       <c r="Z53" s="9">
+        <f t="shared" si="47"/>
+        <v>1488</v>
+      </c>
+      <c r="AA53" s="9">
+        <f t="shared" si="39"/>
+        <v>2976</v>
+      </c>
+      <c r="AB53" s="9">
+        <f t="shared" si="40"/>
+        <v>5952</v>
+      </c>
+      <c r="AC53" s="9">
+        <f t="shared" si="41"/>
+        <v>8928</v>
+      </c>
+      <c r="AD53" s="9">
+        <f t="shared" si="42"/>
+        <v>10416</v>
+      </c>
+      <c r="AE53" s="1">
         <f t="shared" si="48"/>
-        <v>1488</v>
-      </c>
-      <c r="AA53" s="9">
-        <f t="shared" si="40"/>
-        <v>2976</v>
-      </c>
-      <c r="AB53" s="9">
-        <f t="shared" si="41"/>
-        <v>5952</v>
-      </c>
-      <c r="AC53" s="9">
-        <f t="shared" si="42"/>
-        <v>8928</v>
-      </c>
-      <c r="AD53" s="9">
-        <f t="shared" si="43"/>
-        <v>10416</v>
-      </c>
-      <c r="AE53" s="1">
-        <f t="shared" si="49"/>
         <v>29760</v>
       </c>
       <c r="AF53" s="1">
@@ -7982,31 +8095,31 @@
         <v>106</v>
       </c>
       <c r="H54" s="9">
+        <f t="shared" si="50"/>
+        <v>608</v>
+      </c>
+      <c r="I54" s="9">
         <f t="shared" si="51"/>
-        <v>608</v>
-      </c>
-      <c r="I54" s="9">
+        <v>1215</v>
+      </c>
+      <c r="J54" s="9">
         <f t="shared" si="52"/>
-        <v>1215</v>
-      </c>
-      <c r="J54" s="9">
+        <v>2429</v>
+      </c>
+      <c r="K54" s="9">
         <f t="shared" si="53"/>
-        <v>2429</v>
-      </c>
-      <c r="K54" s="9">
+        <v>3644</v>
+      </c>
+      <c r="L54" s="9">
         <f t="shared" si="54"/>
-        <v>3644</v>
-      </c>
-      <c r="L54" s="9">
+        <v>4251</v>
+      </c>
+      <c r="M54" s="9">
         <f t="shared" si="55"/>
-        <v>4251</v>
-      </c>
-      <c r="M54" s="9">
-        <f t="shared" si="56"/>
         <v>8502</v>
       </c>
       <c r="N54" s="9">
-        <f t="shared" ref="N54:N59" si="58">SUM(H54:L54)</f>
+        <f t="shared" ref="N54:N59" si="57">SUM(H54:L54)</f>
         <v>12147</v>
       </c>
       <c r="O54" s="9">
@@ -8048,27 +8161,27 @@
         <v>211</v>
       </c>
       <c r="Z54" s="9">
+        <f t="shared" si="47"/>
+        <v>1536</v>
+      </c>
+      <c r="AA54" s="9">
+        <f t="shared" si="39"/>
+        <v>3072</v>
+      </c>
+      <c r="AB54" s="9">
+        <f t="shared" si="40"/>
+        <v>6144</v>
+      </c>
+      <c r="AC54" s="9">
+        <f t="shared" si="41"/>
+        <v>9216</v>
+      </c>
+      <c r="AD54" s="9">
+        <f t="shared" si="42"/>
+        <v>10752</v>
+      </c>
+      <c r="AE54" s="1">
         <f t="shared" si="48"/>
-        <v>1536</v>
-      </c>
-      <c r="AA54" s="9">
-        <f t="shared" si="40"/>
-        <v>3072</v>
-      </c>
-      <c r="AB54" s="9">
-        <f t="shared" si="41"/>
-        <v>6144</v>
-      </c>
-      <c r="AC54" s="9">
-        <f t="shared" si="42"/>
-        <v>9216</v>
-      </c>
-      <c r="AD54" s="9">
-        <f t="shared" si="43"/>
-        <v>10752</v>
-      </c>
-      <c r="AE54" s="1">
-        <f t="shared" si="49"/>
         <v>30720</v>
       </c>
       <c r="AF54" s="1">
@@ -8080,31 +8193,31 @@
         <v>172</v>
       </c>
       <c r="H55" s="9">
+        <f t="shared" si="50"/>
+        <v>635</v>
+      </c>
+      <c r="I55" s="9">
         <f t="shared" si="51"/>
-        <v>635</v>
-      </c>
-      <c r="I55" s="9">
+        <v>1270</v>
+      </c>
+      <c r="J55" s="9">
         <f t="shared" si="52"/>
-        <v>1270</v>
-      </c>
-      <c r="J55" s="9">
+        <v>2540</v>
+      </c>
+      <c r="K55" s="9">
         <f t="shared" si="53"/>
-        <v>2540</v>
-      </c>
-      <c r="K55" s="9">
+        <v>3809</v>
+      </c>
+      <c r="L55" s="9">
         <f t="shared" si="54"/>
-        <v>3809</v>
-      </c>
-      <c r="L55" s="9">
+        <v>4444</v>
+      </c>
+      <c r="M55" s="9">
         <f t="shared" si="55"/>
-        <v>4444</v>
-      </c>
-      <c r="M55" s="9">
-        <f t="shared" si="56"/>
         <v>8888</v>
       </c>
       <c r="N55" s="9">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>12698</v>
       </c>
       <c r="O55" s="9">
@@ -8118,27 +8231,27 @@
         <v>212</v>
       </c>
       <c r="Z55" s="9">
+        <f t="shared" si="47"/>
+        <v>1584</v>
+      </c>
+      <c r="AA55" s="9">
+        <f t="shared" si="39"/>
+        <v>3168</v>
+      </c>
+      <c r="AB55" s="9">
+        <f t="shared" si="40"/>
+        <v>6336</v>
+      </c>
+      <c r="AC55" s="9">
+        <f t="shared" si="41"/>
+        <v>9504</v>
+      </c>
+      <c r="AD55" s="9">
+        <f t="shared" si="42"/>
+        <v>11088</v>
+      </c>
+      <c r="AE55" s="1">
         <f t="shared" si="48"/>
-        <v>1584</v>
-      </c>
-      <c r="AA55" s="9">
-        <f t="shared" si="40"/>
-        <v>3168</v>
-      </c>
-      <c r="AB55" s="9">
-        <f t="shared" si="41"/>
-        <v>6336</v>
-      </c>
-      <c r="AC55" s="9">
-        <f t="shared" si="42"/>
-        <v>9504</v>
-      </c>
-      <c r="AD55" s="9">
-        <f t="shared" si="43"/>
-        <v>11088</v>
-      </c>
-      <c r="AE55" s="1">
-        <f t="shared" si="49"/>
         <v>31680</v>
       </c>
       <c r="AF55" s="1">
@@ -8150,31 +8263,31 @@
         <v>175</v>
       </c>
       <c r="H56" s="9">
+        <f t="shared" si="50"/>
+        <v>692</v>
+      </c>
+      <c r="I56" s="9">
         <f t="shared" si="51"/>
-        <v>692</v>
-      </c>
-      <c r="I56" s="9">
+        <v>1383</v>
+      </c>
+      <c r="J56" s="9">
         <f t="shared" si="52"/>
-        <v>1383</v>
-      </c>
-      <c r="J56" s="9">
+        <v>2765</v>
+      </c>
+      <c r="K56" s="9">
         <f t="shared" si="53"/>
-        <v>2765</v>
-      </c>
-      <c r="K56" s="9">
+        <v>4148</v>
+      </c>
+      <c r="L56" s="9">
         <f t="shared" si="54"/>
-        <v>4148</v>
-      </c>
-      <c r="L56" s="9">
+        <v>4839</v>
+      </c>
+      <c r="M56" s="9">
         <f t="shared" si="55"/>
-        <v>4839</v>
-      </c>
-      <c r="M56" s="9">
-        <f t="shared" si="56"/>
         <v>9678</v>
       </c>
       <c r="N56" s="9">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>13827</v>
       </c>
       <c r="O56" s="9">
@@ -8190,31 +8303,31 @@
         <v>195</v>
       </c>
       <c r="H57" s="9">
+        <f t="shared" si="50"/>
+        <v>750</v>
+      </c>
+      <c r="I57" s="9">
         <f t="shared" si="51"/>
-        <v>750</v>
-      </c>
-      <c r="I57" s="9">
+        <v>1500</v>
+      </c>
+      <c r="J57" s="9">
         <f t="shared" si="52"/>
-        <v>1500</v>
-      </c>
-      <c r="J57" s="9">
+        <v>3000</v>
+      </c>
+      <c r="K57" s="9">
         <f t="shared" si="53"/>
-        <v>3000</v>
-      </c>
-      <c r="K57" s="9">
+        <v>4500</v>
+      </c>
+      <c r="L57" s="9">
         <f t="shared" si="54"/>
-        <v>4500</v>
-      </c>
-      <c r="L57" s="9">
+        <v>5250</v>
+      </c>
+      <c r="M57" s="9">
         <f t="shared" si="55"/>
-        <v>5250</v>
-      </c>
-      <c r="M57" s="9">
-        <f t="shared" si="56"/>
         <v>10500</v>
       </c>
       <c r="N57" s="9">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>15000</v>
       </c>
       <c r="O57" s="9">
@@ -8230,31 +8343,31 @@
         <v>246</v>
       </c>
       <c r="H58" s="9">
+        <f t="shared" si="50"/>
+        <v>843</v>
+      </c>
+      <c r="I58" s="9">
         <f t="shared" si="51"/>
-        <v>843</v>
-      </c>
-      <c r="I58" s="9">
+        <v>1685</v>
+      </c>
+      <c r="J58" s="9">
         <f t="shared" si="52"/>
-        <v>1685</v>
-      </c>
-      <c r="J58" s="9">
+        <v>3370</v>
+      </c>
+      <c r="K58" s="9">
         <f t="shared" si="53"/>
-        <v>3370</v>
-      </c>
-      <c r="K58" s="9">
+        <v>5055</v>
+      </c>
+      <c r="L58" s="9">
         <f t="shared" si="54"/>
-        <v>5055</v>
-      </c>
-      <c r="L58" s="9">
+        <v>5897</v>
+      </c>
+      <c r="M58" s="9">
         <f t="shared" si="55"/>
-        <v>5897</v>
-      </c>
-      <c r="M58" s="9">
-        <f t="shared" si="56"/>
         <v>11794</v>
       </c>
       <c r="N58" s="9">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>16850</v>
       </c>
       <c r="O58" s="9">
@@ -8270,31 +8383,31 @@
         <v>313</v>
       </c>
       <c r="H59" s="9">
+        <f t="shared" si="50"/>
+        <v>940</v>
+      </c>
+      <c r="I59" s="9">
         <f t="shared" si="51"/>
-        <v>940</v>
-      </c>
-      <c r="I59" s="9">
+        <v>1880</v>
+      </c>
+      <c r="J59" s="9">
         <f t="shared" si="52"/>
-        <v>1880</v>
-      </c>
-      <c r="J59" s="9">
+        <v>3759</v>
+      </c>
+      <c r="K59" s="9">
         <f t="shared" si="53"/>
-        <v>3759</v>
-      </c>
-      <c r="K59" s="9">
+        <v>5638</v>
+      </c>
+      <c r="L59" s="9">
         <f t="shared" si="54"/>
-        <v>5638</v>
-      </c>
-      <c r="L59" s="9">
+        <v>6578</v>
+      </c>
+      <c r="M59" s="9">
         <f t="shared" si="55"/>
-        <v>6578</v>
-      </c>
-      <c r="M59" s="9">
-        <f t="shared" si="56"/>
         <v>13156</v>
       </c>
       <c r="N59" s="9">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>18795</v>
       </c>
       <c r="O59" s="9">
@@ -8313,31 +8426,31 @@
         <v>368</v>
       </c>
       <c r="H60" s="9">
+        <f t="shared" si="50"/>
+        <v>1042</v>
+      </c>
+      <c r="I60" s="9">
         <f t="shared" si="51"/>
-        <v>1042</v>
-      </c>
-      <c r="I60" s="9">
+        <v>2084</v>
+      </c>
+      <c r="J60" s="9">
         <f t="shared" si="52"/>
-        <v>2084</v>
-      </c>
-      <c r="J60" s="9">
+        <v>4167</v>
+      </c>
+      <c r="K60" s="9">
         <f t="shared" si="53"/>
-        <v>4167</v>
-      </c>
-      <c r="K60" s="9">
+        <v>6250</v>
+      </c>
+      <c r="L60" s="9">
         <f t="shared" si="54"/>
-        <v>6250</v>
-      </c>
-      <c r="L60" s="9">
+        <v>7292</v>
+      </c>
+      <c r="M60" s="9">
         <f t="shared" si="55"/>
-        <v>7292</v>
-      </c>
-      <c r="M60" s="9">
-        <f t="shared" si="56"/>
         <v>14584</v>
       </c>
       <c r="N60" s="9">
-        <f t="shared" ref="N60" si="59">SUM(H60:L60)</f>
+        <f t="shared" ref="N60" si="58">SUM(H60:L60)</f>
         <v>20835</v>
       </c>
       <c r="O60" s="9">
@@ -8377,31 +8490,31 @@
         <v>375</v>
       </c>
       <c r="H61" s="9">
+        <f t="shared" si="50"/>
+        <v>1149</v>
+      </c>
+      <c r="I61" s="9">
         <f t="shared" si="51"/>
-        <v>1149</v>
-      </c>
-      <c r="I61" s="9">
+        <v>2297</v>
+      </c>
+      <c r="J61" s="9">
         <f t="shared" si="52"/>
-        <v>2297</v>
-      </c>
-      <c r="J61" s="9">
+        <v>4594</v>
+      </c>
+      <c r="K61" s="9">
         <f t="shared" si="53"/>
-        <v>4594</v>
-      </c>
-      <c r="K61" s="9">
+        <v>6891</v>
+      </c>
+      <c r="L61" s="9">
         <f t="shared" si="54"/>
-        <v>6891</v>
-      </c>
-      <c r="L61" s="9">
+        <v>8039</v>
+      </c>
+      <c r="M61" s="9">
         <f t="shared" si="55"/>
-        <v>8039</v>
-      </c>
-      <c r="M61" s="9">
-        <f t="shared" si="56"/>
         <v>16078</v>
       </c>
       <c r="N61" s="9">
-        <f t="shared" ref="N61" si="60">SUM(H61:L61)</f>
+        <f t="shared" ref="N61" si="59">SUM(H61:L61)</f>
         <v>22970</v>
       </c>
       <c r="O61" s="9">
@@ -8418,23 +8531,23 @@
         <v>0.01</v>
       </c>
       <c r="AA61" s="9">
-        <f t="shared" ref="AA61:AA75" si="61">ROUNDUP(((Z41/$B$39)*$B$40)*((100+AF61)/100),0)/100</f>
+        <f t="shared" ref="AA61:AA68" si="60">ROUNDUP(((Z41/$B$39)*$B$40)*((100+AF61)/100),0)/100</f>
         <v>0.22</v>
       </c>
       <c r="AB61" s="9">
-        <f t="shared" ref="AB61:AB75" si="62">ROUNDUP(((AA41/$B$39)*$B$40)*((100+AF61)/100),0)/100</f>
+        <f t="shared" ref="AB61:AB68" si="61">ROUNDUP(((AA41/$B$39)*$B$40)*((100+AF61)/100),0)/100</f>
         <v>0.44</v>
       </c>
       <c r="AC61" s="9">
-        <f t="shared" ref="AC61:AC75" si="63">ROUNDUP(((AB41/$B$39)*$B$40)*((100+AF61)/100),0)/100</f>
+        <f t="shared" ref="AC61:AC68" si="62">ROUNDUP(((AB41/$B$39)*$B$40)*((100+AF61)/100),0)/100</f>
         <v>0.87</v>
       </c>
       <c r="AD61" s="9">
-        <f t="shared" ref="AD61:AD75" si="64">ROUNDUP(((AC41/$B$39)*$B$40)*((100+AF61)/100),0)/100</f>
+        <f t="shared" ref="AD61:AD68" si="63">ROUNDUP(((AC41/$B$39)*$B$40)*((100+AF61)/100),0)/100</f>
         <v>1.3</v>
       </c>
       <c r="AE61" s="9">
-        <f t="shared" ref="AE61:AE75" si="65">ROUNDUP(((AD41/$B$39)*$B$40)*((100+AF61)/100),0)/100</f>
+        <f t="shared" ref="AE61:AE68" si="64">ROUNDUP(((AD41/$B$39)*$B$40)*((100+AF61)/100),0)/100</f>
         <v>1.52</v>
       </c>
       <c r="AF61" s="1">
@@ -8446,31 +8559,31 @@
         <v>387</v>
       </c>
       <c r="H62" s="9">
+        <f t="shared" si="50"/>
+        <v>1260</v>
+      </c>
+      <c r="I62" s="9">
         <f t="shared" si="51"/>
-        <v>1260</v>
-      </c>
-      <c r="I62" s="9">
+        <v>2520</v>
+      </c>
+      <c r="J62" s="9">
         <f t="shared" si="52"/>
-        <v>2520</v>
-      </c>
-      <c r="J62" s="9">
+        <v>5040</v>
+      </c>
+      <c r="K62" s="9">
         <f t="shared" si="53"/>
-        <v>5040</v>
-      </c>
-      <c r="K62" s="9">
+        <v>7560</v>
+      </c>
+      <c r="L62" s="9">
         <f t="shared" si="54"/>
-        <v>7560</v>
-      </c>
-      <c r="L62" s="9">
+        <v>8820</v>
+      </c>
+      <c r="M62" s="9">
         <f t="shared" si="55"/>
-        <v>8820</v>
-      </c>
-      <c r="M62" s="9">
-        <f t="shared" si="56"/>
         <v>17640</v>
       </c>
       <c r="N62" s="9">
-        <f t="shared" ref="N62" si="66">SUM(H62:L62)</f>
+        <f t="shared" ref="N62" si="65">SUM(H62:L62)</f>
         <v>25200</v>
       </c>
       <c r="O62" s="9">
@@ -8487,23 +8600,23 @@
         <v>0.02</v>
       </c>
       <c r="AA62" s="9">
+        <f t="shared" si="60"/>
+        <v>0.24</v>
+      </c>
+      <c r="AB62" s="9">
         <f t="shared" si="61"/>
-        <v>0.24</v>
-      </c>
-      <c r="AB62" s="9">
+        <v>0.47</v>
+      </c>
+      <c r="AC62" s="9">
         <f t="shared" si="62"/>
-        <v>0.47</v>
-      </c>
-      <c r="AC62" s="9">
+        <v>0.93</v>
+      </c>
+      <c r="AD62" s="9">
         <f t="shared" si="63"/>
-        <v>0.93</v>
-      </c>
-      <c r="AD62" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="AE62" s="9">
         <f t="shared" si="64"/>
-        <v>1.4</v>
-      </c>
-      <c r="AE62" s="9">
-        <f t="shared" si="65"/>
         <v>1.63</v>
       </c>
       <c r="AF62" s="1">
@@ -8515,31 +8628,31 @@
         <v>418</v>
       </c>
       <c r="H63" s="9">
+        <f t="shared" si="50"/>
+        <v>1377</v>
+      </c>
+      <c r="I63" s="9">
         <f t="shared" si="51"/>
-        <v>1377</v>
-      </c>
-      <c r="I63" s="9">
+        <v>2753</v>
+      </c>
+      <c r="J63" s="9">
         <f t="shared" si="52"/>
-        <v>2753</v>
-      </c>
-      <c r="J63" s="9">
+        <v>5506</v>
+      </c>
+      <c r="K63" s="9">
         <f t="shared" si="53"/>
-        <v>5506</v>
-      </c>
-      <c r="K63" s="9">
+        <v>8259</v>
+      </c>
+      <c r="L63" s="9">
         <f t="shared" si="54"/>
-        <v>8259</v>
-      </c>
-      <c r="L63" s="9">
+        <v>9635</v>
+      </c>
+      <c r="M63" s="9">
         <f t="shared" si="55"/>
-        <v>9635</v>
-      </c>
-      <c r="M63" s="9">
-        <f t="shared" si="56"/>
         <v>19270</v>
       </c>
       <c r="N63" s="9">
-        <f t="shared" ref="N63" si="67">SUM(H63:L63)</f>
+        <f t="shared" ref="N63" si="66">SUM(H63:L63)</f>
         <v>27530</v>
       </c>
       <c r="O63" s="9">
@@ -8556,23 +8669,23 @@
         <v>0.03</v>
       </c>
       <c r="AA63" s="9">
+        <f t="shared" si="60"/>
+        <v>0.25</v>
+      </c>
+      <c r="AB63" s="9">
         <f t="shared" si="61"/>
-        <v>0.25</v>
-      </c>
-      <c r="AB63" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AC63" s="9">
         <f t="shared" si="62"/>
-        <v>0.5</v>
-      </c>
-      <c r="AC63" s="9">
+        <v>1</v>
+      </c>
+      <c r="AD63" s="9">
         <f t="shared" si="63"/>
-        <v>1</v>
-      </c>
-      <c r="AD63" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="AE63" s="9">
         <f t="shared" si="64"/>
-        <v>1.5</v>
-      </c>
-      <c r="AE63" s="9">
-        <f t="shared" si="65"/>
         <v>1.75</v>
       </c>
       <c r="AF63" s="1">
@@ -8584,31 +8697,31 @@
         <v>431</v>
       </c>
       <c r="H64" s="9">
-        <f t="shared" ref="H64:H65" si="68">ROUNDUP((P64*$B$30/100),0)</f>
+        <f t="shared" ref="H64:H65" si="67">ROUNDUP((P64*$B$30/100),0)</f>
         <v>1545</v>
       </c>
       <c r="I64" s="9">
+        <f t="shared" si="51"/>
+        <v>3089</v>
+      </c>
+      <c r="J64" s="9">
         <f t="shared" si="52"/>
-        <v>3089</v>
-      </c>
-      <c r="J64" s="9">
+        <v>6178</v>
+      </c>
+      <c r="K64" s="9">
         <f t="shared" si="53"/>
-        <v>6178</v>
-      </c>
-      <c r="K64" s="9">
+        <v>9267</v>
+      </c>
+      <c r="L64" s="9">
         <f t="shared" si="54"/>
-        <v>9267</v>
-      </c>
-      <c r="L64" s="9">
+        <v>10811</v>
+      </c>
+      <c r="M64" s="9">
         <f t="shared" si="55"/>
-        <v>10811</v>
-      </c>
-      <c r="M64" s="9">
-        <f t="shared" si="56"/>
         <v>21622</v>
       </c>
       <c r="N64" s="9">
-        <f t="shared" ref="N64" si="69">SUM(H64:L64)</f>
+        <f t="shared" ref="N64" si="68">SUM(H64:L64)</f>
         <v>30890</v>
       </c>
       <c r="O64" s="9">
@@ -8625,23 +8738,23 @@
         <v>0.04</v>
       </c>
       <c r="AA64" s="9">
+        <f t="shared" si="60"/>
+        <v>0.27</v>
+      </c>
+      <c r="AB64" s="9">
         <f t="shared" si="61"/>
-        <v>0.27</v>
-      </c>
-      <c r="AB64" s="9">
+        <v>0.54</v>
+      </c>
+      <c r="AC64" s="9">
         <f t="shared" si="62"/>
-        <v>0.54</v>
-      </c>
-      <c r="AC64" s="9">
+        <v>1.07</v>
+      </c>
+      <c r="AD64" s="9">
         <f t="shared" si="63"/>
-        <v>1.07</v>
-      </c>
-      <c r="AD64" s="9">
+        <v>1.6</v>
+      </c>
+      <c r="AE64" s="9">
         <f t="shared" si="64"/>
-        <v>1.6</v>
-      </c>
-      <c r="AE64" s="9">
-        <f t="shared" si="65"/>
         <v>1.87</v>
       </c>
       <c r="AF64" s="1">
@@ -8653,31 +8766,31 @@
         <v>451</v>
       </c>
       <c r="H65" s="9">
-        <f t="shared" si="68"/>
+        <f t="shared" si="67"/>
         <v>1722</v>
       </c>
       <c r="I65" s="9">
+        <f t="shared" si="51"/>
+        <v>3444</v>
+      </c>
+      <c r="J65" s="9">
         <f t="shared" si="52"/>
-        <v>3444</v>
-      </c>
-      <c r="J65" s="9">
+        <v>6888</v>
+      </c>
+      <c r="K65" s="9">
         <f t="shared" si="53"/>
-        <v>6888</v>
-      </c>
-      <c r="K65" s="9">
+        <v>10332</v>
+      </c>
+      <c r="L65" s="9">
         <f t="shared" si="54"/>
-        <v>10332</v>
-      </c>
-      <c r="L65" s="9">
+        <v>12054</v>
+      </c>
+      <c r="M65" s="9">
         <f t="shared" si="55"/>
-        <v>12054</v>
-      </c>
-      <c r="M65" s="9">
-        <f t="shared" si="56"/>
         <v>24108</v>
       </c>
       <c r="N65" s="9">
-        <f t="shared" ref="N65:N66" si="70">SUM(H65:L65)</f>
+        <f t="shared" ref="N65:N66" si="69">SUM(H65:L65)</f>
         <v>34440</v>
       </c>
       <c r="O65" s="9">
@@ -8694,23 +8807,23 @@
         <v>0.05</v>
       </c>
       <c r="AA65" s="9">
+        <f t="shared" si="60"/>
+        <v>0.3</v>
+      </c>
+      <c r="AB65" s="9">
         <f t="shared" si="61"/>
-        <v>0.3</v>
-      </c>
-      <c r="AB65" s="9">
+        <v>0.59</v>
+      </c>
+      <c r="AC65" s="9">
         <f t="shared" si="62"/>
-        <v>0.59</v>
-      </c>
-      <c r="AC65" s="9">
+        <v>1.18</v>
+      </c>
+      <c r="AD65" s="9">
         <f t="shared" si="63"/>
-        <v>1.18</v>
-      </c>
-      <c r="AD65" s="9">
+        <v>1.77</v>
+      </c>
+      <c r="AE65" s="9">
         <f t="shared" si="64"/>
-        <v>1.77</v>
-      </c>
-      <c r="AE65" s="9">
-        <f t="shared" si="65"/>
         <v>2.06</v>
       </c>
       <c r="AF65" s="1">
@@ -8722,31 +8835,31 @@
         <v>464</v>
       </c>
       <c r="H66" s="9">
-        <f t="shared" ref="H66:H67" si="71">ROUNDUP((P66*$B$30/100),0)</f>
+        <f t="shared" ref="H66:H67" si="70">ROUNDUP((P66*$B$30/100),0)</f>
         <v>1910</v>
       </c>
       <c r="I66" s="9">
-        <f t="shared" ref="I66:I67" si="72">ROUNDUP((P66*$B$31/100),0)</f>
+        <f t="shared" ref="I66:I67" si="71">ROUNDUP((P66*$B$31/100),0)</f>
         <v>3819</v>
       </c>
       <c r="J66" s="9">
-        <f t="shared" ref="J66:J67" si="73">ROUNDUP((P66*$B$32/100),0)</f>
+        <f t="shared" ref="J66:J67" si="72">ROUNDUP((P66*$B$32/100),0)</f>
         <v>7637</v>
       </c>
       <c r="K66" s="9">
-        <f t="shared" ref="K66:K67" si="74">ROUNDUP((P66*$B$33/100),0)</f>
+        <f t="shared" ref="K66:K67" si="73">ROUNDUP((P66*$B$33/100),0)</f>
         <v>11456</v>
       </c>
       <c r="L66" s="9">
-        <f t="shared" ref="L66:L67" si="75">ROUNDUP((P66*$B$34/100),0)</f>
+        <f t="shared" ref="L66:L67" si="74">ROUNDUP((P66*$B$34/100),0)</f>
         <v>13365</v>
       </c>
       <c r="M66" s="9">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>26730</v>
       </c>
       <c r="N66" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>38187</v>
       </c>
       <c r="O66" s="9">
@@ -8763,23 +8876,23 @@
         <v>0.06</v>
       </c>
       <c r="AA66" s="9">
+        <f t="shared" si="60"/>
+        <v>0.33</v>
+      </c>
+      <c r="AB66" s="9">
         <f t="shared" si="61"/>
-        <v>0.33</v>
-      </c>
-      <c r="AB66" s="9">
+        <v>0.65</v>
+      </c>
+      <c r="AC66" s="9">
         <f t="shared" si="62"/>
-        <v>0.65</v>
-      </c>
-      <c r="AC66" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="AD66" s="9">
         <f t="shared" si="63"/>
-        <v>1.3</v>
-      </c>
-      <c r="AD66" s="9">
+        <v>1.94</v>
+      </c>
+      <c r="AE66" s="9">
         <f t="shared" si="64"/>
-        <v>1.94</v>
-      </c>
-      <c r="AE66" s="9">
-        <f t="shared" si="65"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="AF66" s="1">
@@ -8791,31 +8904,31 @@
         <v>473</v>
       </c>
       <c r="H67" s="9">
+        <f t="shared" si="70"/>
+        <v>2106</v>
+      </c>
+      <c r="I67" s="9">
         <f t="shared" si="71"/>
-        <v>2106</v>
-      </c>
-      <c r="I67" s="9">
+        <v>4212</v>
+      </c>
+      <c r="J67" s="9">
         <f t="shared" si="72"/>
-        <v>4212</v>
-      </c>
-      <c r="J67" s="9">
+        <v>8424</v>
+      </c>
+      <c r="K67" s="9">
         <f t="shared" si="73"/>
-        <v>8424</v>
-      </c>
-      <c r="K67" s="9">
+        <v>12636</v>
+      </c>
+      <c r="L67" s="9">
         <f t="shared" si="74"/>
-        <v>12636</v>
-      </c>
-      <c r="L67" s="9">
-        <f t="shared" si="75"/>
         <v>14742</v>
       </c>
       <c r="M67" s="9">
-        <f t="shared" ref="M67:M68" si="76">L67*$B$43</f>
+        <f t="shared" ref="M67:M68" si="75">L67*$B$43</f>
         <v>29484</v>
       </c>
       <c r="N67" s="9">
-        <f t="shared" ref="N67:N68" si="77">SUM(H67:L67)</f>
+        <f t="shared" ref="N67:N68" si="76">SUM(H67:L67)</f>
         <v>42120</v>
       </c>
       <c r="O67" s="9">
@@ -8832,23 +8945,23 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AA67" s="9">
+        <f t="shared" si="60"/>
+        <v>0.36</v>
+      </c>
+      <c r="AB67" s="9">
         <f t="shared" si="61"/>
-        <v>0.36</v>
-      </c>
-      <c r="AB67" s="9">
+        <v>0.71</v>
+      </c>
+      <c r="AC67" s="9">
         <f t="shared" si="62"/>
-        <v>0.71</v>
-      </c>
-      <c r="AC67" s="9">
+        <v>1.42</v>
+      </c>
+      <c r="AD67" s="9">
         <f t="shared" si="63"/>
-        <v>1.42</v>
-      </c>
-      <c r="AD67" s="9">
+        <v>2.12</v>
+      </c>
+      <c r="AE67" s="9">
         <f t="shared" si="64"/>
-        <v>2.12</v>
-      </c>
-      <c r="AE67" s="9">
-        <f t="shared" si="65"/>
         <v>2.4700000000000002</v>
       </c>
       <c r="AF67" s="1">
@@ -8860,31 +8973,31 @@
         <v>489</v>
       </c>
       <c r="H68" s="9">
-        <f t="shared" ref="H68" si="78">ROUNDUP((P68*$B$30/100),0)</f>
+        <f t="shared" ref="H68:H69" si="77">ROUNDUP((P68*$B$30/100),0)</f>
         <v>2313</v>
       </c>
       <c r="I68" s="9">
-        <f t="shared" ref="I68" si="79">ROUNDUP((P68*$B$31/100),0)</f>
+        <f t="shared" ref="I68:I69" si="78">ROUNDUP((P68*$B$31/100),0)</f>
         <v>4625</v>
       </c>
       <c r="J68" s="9">
-        <f t="shared" ref="J68" si="80">ROUNDUP((P68*$B$32/100),0)</f>
+        <f t="shared" ref="J68:J69" si="79">ROUNDUP((P68*$B$32/100),0)</f>
         <v>9250</v>
       </c>
       <c r="K68" s="9">
-        <f t="shared" ref="K68" si="81">ROUNDUP((P68*$B$33/100),0)</f>
+        <f t="shared" ref="K68:K69" si="80">ROUNDUP((P68*$B$33/100),0)</f>
         <v>13875</v>
       </c>
       <c r="L68" s="9">
-        <f t="shared" ref="L68" si="82">ROUNDUP((P68*$B$34/100),0)</f>
+        <f t="shared" ref="L68:L69" si="81">ROUNDUP((P68*$B$34/100),0)</f>
         <v>16187</v>
       </c>
       <c r="M68" s="9">
+        <f t="shared" si="75"/>
+        <v>32374</v>
+      </c>
+      <c r="N68" s="9">
         <f t="shared" si="76"/>
-        <v>32374</v>
-      </c>
-      <c r="N68" s="9">
-        <f t="shared" si="77"/>
         <v>46250</v>
       </c>
       <c r="O68" s="9">
@@ -8901,23 +9014,23 @@
         <v>0.08</v>
       </c>
       <c r="AA68" s="9">
+        <f t="shared" si="60"/>
+        <v>0.4</v>
+      </c>
+      <c r="AB68" s="9">
         <f t="shared" si="61"/>
-        <v>0.4</v>
-      </c>
-      <c r="AB68" s="9">
+        <v>0.79</v>
+      </c>
+      <c r="AC68" s="9">
         <f t="shared" si="62"/>
-        <v>0.79</v>
-      </c>
-      <c r="AC68" s="9">
+        <v>1.58</v>
+      </c>
+      <c r="AD68" s="9">
         <f t="shared" si="63"/>
-        <v>1.58</v>
-      </c>
-      <c r="AD68" s="9">
+        <v>2.37</v>
+      </c>
+      <c r="AE68" s="9">
         <f t="shared" si="64"/>
-        <v>2.37</v>
-      </c>
-      <c r="AE68" s="9">
-        <f t="shared" si="65"/>
         <v>2.76</v>
       </c>
       <c r="AF68" s="1">
@@ -8925,6 +9038,44 @@
       </c>
     </row>
     <row r="69" spans="7:32">
+      <c r="G69" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="H69" s="9">
+        <f t="shared" si="77"/>
+        <v>2529</v>
+      </c>
+      <c r="I69" s="9">
+        <f t="shared" si="78"/>
+        <v>5057</v>
+      </c>
+      <c r="J69" s="9">
+        <f t="shared" si="79"/>
+        <v>10114</v>
+      </c>
+      <c r="K69" s="9">
+        <f t="shared" si="80"/>
+        <v>15171</v>
+      </c>
+      <c r="L69" s="9">
+        <f t="shared" si="81"/>
+        <v>17699</v>
+      </c>
+      <c r="M69" s="9">
+        <f t="shared" ref="M69" si="82">L69*$B$43</f>
+        <v>35398</v>
+      </c>
+      <c r="N69" s="9">
+        <f t="shared" ref="N69" si="83">SUM(H69:L69)</f>
+        <v>50570</v>
+      </c>
+      <c r="O69" s="9">
+        <v>400</v>
+      </c>
+      <c r="P69" s="9">
+        <f>(H35*$B$9*$B$18)*(O69/100)+I35</f>
+        <v>50568</v>
+      </c>
       <c r="Y69" s="9" t="s">
         <v>206</v>
       </c>
@@ -8932,23 +9083,23 @@
         <v>0.09</v>
       </c>
       <c r="AA69" s="9">
-        <f t="shared" si="61"/>
+        <f>ROUNDUP(((Z49/$B$39)*$B$40)*((100+AF69)/100),0)/100</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="AB69" s="9">
-        <f t="shared" si="62"/>
+        <f>ROUNDUP(((AA49/$B$39)*$B$40)*((100+AF69)/100),0)/100</f>
         <v>1.1599999999999999</v>
       </c>
       <c r="AC69" s="9">
-        <f t="shared" si="63"/>
+        <f>ROUNDUP(((AB49/$B$39)*$B$40)*((100+AF69)/100),0)/100</f>
         <v>2.31</v>
       </c>
       <c r="AD69" s="9">
-        <f t="shared" si="64"/>
+        <f>ROUNDUP(((AC49/$B$39)*$B$40)*((100+AF69)/100),0)/100</f>
         <v>3.46</v>
       </c>
       <c r="AE69" s="9">
-        <f t="shared" si="65"/>
+        <f>ROUNDUP(((AD49/$B$39)*$B$40)*((100+AF69)/100),0)/100</f>
         <v>4.04</v>
       </c>
       <c r="AF69" s="1">
@@ -8956,19 +9107,6 @@
       </c>
     </row>
     <row r="70" spans="7:32">
-      <c r="G70" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="O70" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="P70" s="32">
-        <f>SUM(P72:P82)+SUM(Q72:Q82)</f>
-        <v>22.09</v>
-      </c>
-      <c r="Q70" s="21" t="s">
-        <v>145</v>
-      </c>
       <c r="Y70" s="9" t="s">
         <v>207</v>
       </c>
@@ -8976,66 +9114,30 @@
         <v>0.1</v>
       </c>
       <c r="AA70" s="9">
-        <f t="shared" si="61"/>
+        <f>ROUNDUP(((Z50/$B$39)*$B$40)*((100+AF70)/100),0)/100</f>
         <v>0.65</v>
       </c>
       <c r="AB70" s="9">
-        <f t="shared" si="62"/>
+        <f>ROUNDUP(((AA50/$B$39)*$B$40)*((100+AF70)/100),0)/100</f>
         <v>1.29</v>
       </c>
       <c r="AC70" s="9">
-        <f t="shared" si="63"/>
+        <f>ROUNDUP(((AB50/$B$39)*$B$40)*((100+AF70)/100),0)/100</f>
         <v>2.58</v>
       </c>
       <c r="AD70" s="9">
-        <f t="shared" si="64"/>
+        <f>ROUNDUP(((AC50/$B$39)*$B$40)*((100+AF70)/100),0)/100</f>
         <v>3.87</v>
       </c>
       <c r="AE70" s="9">
-        <f t="shared" si="65"/>
+        <f>ROUNDUP(((AD50/$B$39)*$B$40)*((100+AF70)/100),0)/100</f>
         <v>4.51</v>
       </c>
       <c r="AF70" s="1">
         <v>330</v>
       </c>
     </row>
-    <row r="71" spans="7:32" ht="17.25" thickBot="1">
-      <c r="G71" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="H71" s="24">
-        <v>0</v>
-      </c>
-      <c r="I71" s="24">
-        <v>1</v>
-      </c>
-      <c r="J71" s="24">
-        <v>2</v>
-      </c>
-      <c r="K71" s="24">
-        <v>3</v>
-      </c>
-      <c r="L71" s="24">
-        <v>4</v>
-      </c>
-      <c r="M71" s="24">
-        <v>5</v>
-      </c>
-      <c r="N71" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="O71" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="P71" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q71" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="R71" s="24" t="s">
-        <v>95</v>
-      </c>
+    <row r="71" spans="7:32">
       <c r="Y71" s="9" t="s">
         <v>208</v>
       </c>
@@ -9043,75 +9145,30 @@
         <v>0.11</v>
       </c>
       <c r="AA71" s="9">
-        <f t="shared" si="61"/>
+        <f>ROUNDUP(((Z51/$B$39)*$B$40)*((100+AF71)/100),0)/100</f>
         <v>0.72</v>
       </c>
       <c r="AB71" s="9">
-        <f t="shared" si="62"/>
+        <f>ROUNDUP(((AA51/$B$39)*$B$40)*((100+AF71)/100),0)/100</f>
         <v>1.44</v>
       </c>
       <c r="AC71" s="9">
-        <f t="shared" si="63"/>
+        <f>ROUNDUP(((AB51/$B$39)*$B$40)*((100+AF71)/100),0)/100</f>
         <v>2.87</v>
       </c>
       <c r="AD71" s="9">
-        <f t="shared" si="64"/>
+        <f>ROUNDUP(((AC51/$B$39)*$B$40)*((100+AF71)/100),0)/100</f>
         <v>4.3</v>
       </c>
       <c r="AE71" s="9">
-        <f t="shared" si="65"/>
+        <f>ROUNDUP(((AD51/$B$39)*$B$40)*((100+AF71)/100),0)/100</f>
         <v>5.01</v>
       </c>
       <c r="AF71" s="1">
         <v>360</v>
       </c>
     </row>
-    <row r="72" spans="7:32" ht="17.25" thickTop="1">
-      <c r="G72" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H72" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="I72" s="9">
-        <f t="shared" ref="I72:I81" si="83">ROUNDUP(((H41/$B$39)*$B$40)*((100+O72)/100),0)/100</f>
-        <v>0.02</v>
-      </c>
-      <c r="J72" s="9">
-        <f t="shared" ref="J72:J81" si="84">ROUNDUP(((I41/$B$39)*$B$40)*((100+O72)/100),0)/100</f>
-        <v>0.03</v>
-      </c>
-      <c r="K72" s="9">
-        <f t="shared" ref="K72:K81" si="85">ROUNDUP(((J41/$B$39)*$B$40)*((100+O72)/100),0)/100</f>
-        <v>0.06</v>
-      </c>
-      <c r="L72" s="9">
-        <f t="shared" ref="L72:L81" si="86">ROUNDUP(((K41/$B$39)*$B$40)*((100+O72)/100),0)/100</f>
-        <v>0.09</v>
-      </c>
-      <c r="M72" s="9">
-        <f t="shared" ref="M72:M81" si="87">ROUNDUP(((L41/$B$39)*$B$40)*((100+O72)/100),0)/100</f>
-        <v>0.1</v>
-      </c>
-      <c r="N72" s="9">
-        <f t="shared" ref="N72:N81" si="88">ROUNDUP(((M41/$B$39)*$B$40)*((100+O72)/100),0)/100</f>
-        <v>0.2</v>
-      </c>
-      <c r="O72" s="10">
-        <v>10</v>
-      </c>
-      <c r="P72" s="10">
-        <f t="shared" ref="P72:P84" si="89">SUM(H72:M72)</f>
-        <v>0.31</v>
-      </c>
-      <c r="Q72" s="9">
-        <f>N72</f>
-        <v>0.2</v>
-      </c>
-      <c r="R72" s="10">
-        <f t="shared" ref="R72:R92" si="90">((P72+Q72)/$P$70)*100</f>
-        <v>2.3087369850611137</v>
-      </c>
+    <row r="72" spans="7:32">
       <c r="Y72" s="9" t="s">
         <v>209</v>
       </c>
@@ -9119,23 +9176,23 @@
         <v>0.12</v>
       </c>
       <c r="AA72" s="9">
-        <f t="shared" si="61"/>
+        <f>ROUNDUP(((Z52/$B$39)*$B$40)*((100+AF72)/100),0)/100</f>
         <v>0.85</v>
       </c>
       <c r="AB72" s="9">
-        <f t="shared" si="62"/>
+        <f>ROUNDUP(((AA52/$B$39)*$B$40)*((100+AF72)/100),0)/100</f>
         <v>1.7</v>
       </c>
       <c r="AC72" s="9">
-        <f t="shared" si="63"/>
+        <f>ROUNDUP(((AB52/$B$39)*$B$40)*((100+AF72)/100),0)/100</f>
         <v>3.39</v>
       </c>
       <c r="AD72" s="9">
-        <f t="shared" si="64"/>
+        <f>ROUNDUP(((AC52/$B$39)*$B$40)*((100+AF72)/100),0)/100</f>
         <v>5.09</v>
       </c>
       <c r="AE72" s="9">
-        <f t="shared" si="65"/>
+        <f>ROUNDUP(((AD52/$B$39)*$B$40)*((100+AF72)/100),0)/100</f>
         <v>5.93</v>
       </c>
       <c r="AF72" s="1">
@@ -9143,51 +9200,6 @@
       </c>
     </row>
     <row r="73" spans="7:32">
-      <c r="G73" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H73" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="I73" s="9">
-        <f t="shared" si="83"/>
-        <v>0.02</v>
-      </c>
-      <c r="J73" s="9">
-        <f t="shared" si="84"/>
-        <v>0.04</v>
-      </c>
-      <c r="K73" s="9">
-        <f t="shared" si="85"/>
-        <v>0.08</v>
-      </c>
-      <c r="L73" s="9">
-        <f t="shared" si="86"/>
-        <v>0.12</v>
-      </c>
-      <c r="M73" s="9">
-        <f t="shared" si="87"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="N73" s="9">
-        <f t="shared" si="88"/>
-        <v>0.27</v>
-      </c>
-      <c r="O73" s="10">
-        <v>20</v>
-      </c>
-      <c r="P73" s="10">
-        <f t="shared" si="89"/>
-        <v>0.41000000000000003</v>
-      </c>
-      <c r="Q73" s="9">
-        <f t="shared" ref="Q73:Q92" si="91">N73</f>
-        <v>0.27</v>
-      </c>
-      <c r="R73" s="10">
-        <f t="shared" si="90"/>
-        <v>3.0783159800814848</v>
-      </c>
       <c r="Y73" s="9" t="s">
         <v>210</v>
       </c>
@@ -9195,23 +9207,23 @@
         <v>0.13</v>
       </c>
       <c r="AA73" s="9">
-        <f t="shared" si="61"/>
+        <f>ROUNDUP(((Z53/$B$39)*$B$40)*((100+AF73)/100),0)/100</f>
         <v>0.93</v>
       </c>
       <c r="AB73" s="9">
-        <f t="shared" si="62"/>
+        <f>ROUNDUP(((AA53/$B$39)*$B$40)*((100+AF73)/100),0)/100</f>
         <v>1.86</v>
       </c>
       <c r="AC73" s="9">
-        <f t="shared" si="63"/>
+        <f>ROUNDUP(((AB53/$B$39)*$B$40)*((100+AF73)/100),0)/100</f>
         <v>3.72</v>
       </c>
       <c r="AD73" s="9">
-        <f t="shared" si="64"/>
+        <f>ROUNDUP(((AC53/$B$39)*$B$40)*((100+AF73)/100),0)/100</f>
         <v>5.58</v>
       </c>
       <c r="AE73" s="9">
-        <f t="shared" si="65"/>
+        <f>ROUNDUP(((AD53/$B$39)*$B$40)*((100+AF73)/100),0)/100</f>
         <v>6.5</v>
       </c>
       <c r="AF73" s="1">
@@ -9219,51 +9231,6 @@
       </c>
     </row>
     <row r="74" spans="7:32">
-      <c r="G74" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H74" s="9">
-        <v>0.02</v>
-      </c>
-      <c r="I74" s="9">
-        <f t="shared" si="83"/>
-        <v>0.03</v>
-      </c>
-      <c r="J74" s="9">
-        <f t="shared" si="84"/>
-        <v>0.05</v>
-      </c>
-      <c r="K74" s="9">
-        <f t="shared" si="85"/>
-        <v>0.1</v>
-      </c>
-      <c r="L74" s="9">
-        <f t="shared" si="86"/>
-        <v>0.15</v>
-      </c>
-      <c r="M74" s="9">
-        <f t="shared" si="87"/>
-        <v>0.18</v>
-      </c>
-      <c r="N74" s="9">
-        <f t="shared" si="88"/>
-        <v>0.35</v>
-      </c>
-      <c r="O74" s="10">
-        <v>30</v>
-      </c>
-      <c r="P74" s="10">
-        <f t="shared" si="89"/>
-        <v>0.53</v>
-      </c>
-      <c r="Q74" s="9">
-        <f t="shared" si="91"/>
-        <v>0.35</v>
-      </c>
-      <c r="R74" s="10">
-        <f t="shared" si="90"/>
-        <v>3.9837030330466274</v>
-      </c>
       <c r="Y74" s="9" t="s">
         <v>211</v>
       </c>
@@ -9271,23 +9238,23 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="AA74" s="9">
-        <f t="shared" si="61"/>
+        <f>ROUNDUP(((Z54/$B$39)*$B$40)*((100+AF74)/100),0)/100</f>
         <v>1.02</v>
       </c>
       <c r="AB74" s="9">
-        <f t="shared" si="62"/>
+        <f>ROUNDUP(((AA54/$B$39)*$B$40)*((100+AF74)/100),0)/100</f>
         <v>2.0299999999999998</v>
       </c>
       <c r="AC74" s="9">
-        <f t="shared" si="63"/>
+        <f>ROUNDUP(((AB54/$B$39)*$B$40)*((100+AF74)/100),0)/100</f>
         <v>4.0599999999999996</v>
       </c>
       <c r="AD74" s="9">
-        <f t="shared" si="64"/>
+        <f>ROUNDUP(((AC54/$B$39)*$B$40)*((100+AF74)/100),0)/100</f>
         <v>6.09</v>
       </c>
       <c r="AE74" s="9">
-        <f t="shared" si="65"/>
+        <f>ROUNDUP(((AD54/$B$39)*$B$40)*((100+AF74)/100),0)/100</f>
         <v>7.1</v>
       </c>
       <c r="AF74" s="1">
@@ -9296,49 +9263,17 @@
     </row>
     <row r="75" spans="7:32">
       <c r="G75" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="H75" s="9">
-        <v>0.02</v>
-      </c>
-      <c r="I75" s="9">
-        <f t="shared" si="83"/>
-        <v>0.04</v>
-      </c>
-      <c r="J75" s="9">
-        <f t="shared" si="84"/>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="K75" s="9">
-        <f t="shared" si="85"/>
-        <v>0.13</v>
-      </c>
-      <c r="L75" s="9">
-        <f t="shared" si="86"/>
-        <v>0.19</v>
-      </c>
-      <c r="M75" s="9">
-        <f t="shared" si="87"/>
-        <v>0.22</v>
-      </c>
-      <c r="N75" s="9">
-        <f t="shared" si="88"/>
-        <v>0.44</v>
-      </c>
-      <c r="O75" s="10">
-        <v>40</v>
-      </c>
-      <c r="P75" s="10">
-        <f t="shared" si="89"/>
-        <v>0.67</v>
-      </c>
-      <c r="Q75" s="9">
-        <f t="shared" si="91"/>
-        <v>0.44</v>
-      </c>
-      <c r="R75" s="10">
-        <f t="shared" si="90"/>
-        <v>5.0248981439565421</v>
+        <v>143</v>
+      </c>
+      <c r="O75" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="P75" s="32">
+        <f>SUM(P77:P87)+SUM(Q77:Q87)</f>
+        <v>22.09</v>
+      </c>
+      <c r="Q75" s="21" t="s">
+        <v>145</v>
       </c>
       <c r="Y75" s="9" t="s">
         <v>212</v>
@@ -9347,403 +9282,394 @@
         <v>0.15</v>
       </c>
       <c r="AA75" s="9">
-        <f t="shared" si="61"/>
+        <f>ROUNDUP(((Z55/$B$39)*$B$40)*((100+AF75)/100),0)/100</f>
         <v>1.1100000000000001</v>
       </c>
       <c r="AB75" s="9">
-        <f t="shared" si="62"/>
+        <f>ROUNDUP(((AA55/$B$39)*$B$40)*((100+AF75)/100),0)/100</f>
         <v>2.21</v>
       </c>
       <c r="AC75" s="9">
-        <f t="shared" si="63"/>
+        <f>ROUNDUP(((AB55/$B$39)*$B$40)*((100+AF75)/100),0)/100</f>
         <v>4.41</v>
       </c>
       <c r="AD75" s="9">
-        <f t="shared" si="64"/>
+        <f>ROUNDUP(((AC55/$B$39)*$B$40)*((100+AF75)/100),0)/100</f>
         <v>6.62</v>
       </c>
       <c r="AE75" s="9">
-        <f t="shared" si="65"/>
+        <f>ROUNDUP(((AD55/$B$39)*$B$40)*((100+AF75)/100),0)/100</f>
         <v>7.72</v>
       </c>
       <c r="AF75" s="1">
         <v>480</v>
       </c>
     </row>
-    <row r="76" spans="7:32">
-      <c r="G76" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H76" s="9">
+    <row r="76" spans="7:32" ht="17.25" thickBot="1">
+      <c r="G76" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="H76" s="24">
+        <v>0</v>
+      </c>
+      <c r="I76" s="24">
+        <v>1</v>
+      </c>
+      <c r="J76" s="24">
+        <v>2</v>
+      </c>
+      <c r="K76" s="24">
+        <v>3</v>
+      </c>
+      <c r="L76" s="24">
+        <v>4</v>
+      </c>
+      <c r="M76" s="24">
+        <v>5</v>
+      </c>
+      <c r="N76" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="O76" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="P76" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q76" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="R76" s="24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="77" spans="7:32" ht="17.25" thickTop="1">
+      <c r="G77" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H77" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I77" s="9">
+        <f>ROUNDUP(((H41/$B$39)*$B$40)*((100+O77)/100),0)/100</f>
+        <v>0.02</v>
+      </c>
+      <c r="J77" s="9">
+        <f>ROUNDUP(((I41/$B$39)*$B$40)*((100+O77)/100),0)/100</f>
         <v>0.03</v>
       </c>
-      <c r="I76" s="9">
-        <f t="shared" si="83"/>
-        <v>0.04</v>
-      </c>
-      <c r="J76" s="9">
-        <f t="shared" si="84"/>
-        <v>0.08</v>
-      </c>
-      <c r="K76" s="9">
-        <f t="shared" si="85"/>
-        <v>0.16</v>
-      </c>
-      <c r="L76" s="9">
-        <f t="shared" si="86"/>
-        <v>0.24</v>
-      </c>
-      <c r="M76" s="9">
-        <f t="shared" si="87"/>
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="N76" s="9">
-        <f t="shared" si="88"/>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="O76" s="10">
-        <v>50</v>
-      </c>
-      <c r="P76" s="10">
-        <f t="shared" si="89"/>
-        <v>0.83000000000000007</v>
-      </c>
-      <c r="Q76" s="9">
-        <f t="shared" si="91"/>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="R76" s="10">
-        <f t="shared" si="90"/>
-        <v>6.2471706654594845</v>
-      </c>
-    </row>
-    <row r="77" spans="7:32">
-      <c r="G77" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H77" s="9">
-        <v>0.03</v>
-      </c>
-      <c r="I77" s="9">
-        <f t="shared" si="83"/>
-        <v>0.05</v>
-      </c>
-      <c r="J77" s="9">
-        <f t="shared" si="84"/>
+      <c r="K77" s="9">
+        <f>ROUNDUP(((J41/$B$39)*$B$40)*((100+O77)/100),0)/100</f>
+        <v>0.06</v>
+      </c>
+      <c r="L77" s="9">
+        <f>ROUNDUP(((K41/$B$39)*$B$40)*((100+O77)/100),0)/100</f>
+        <v>0.09</v>
+      </c>
+      <c r="M77" s="9">
+        <f>ROUNDUP(((L41/$B$39)*$B$40)*((100+O77)/100),0)/100</f>
         <v>0.1</v>
       </c>
-      <c r="K77" s="9">
-        <f t="shared" si="85"/>
+      <c r="N77" s="9">
+        <f>ROUNDUP(((M41/$B$39)*$B$40)*((100+O77)/100),0)/100</f>
         <v>0.2</v>
       </c>
-      <c r="L77" s="9">
-        <f t="shared" si="86"/>
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="M77" s="9">
-        <f t="shared" si="87"/>
-        <v>0.34</v>
-      </c>
-      <c r="N77" s="9">
-        <f t="shared" si="88"/>
-        <v>0.68</v>
-      </c>
       <c r="O77" s="10">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="P77" s="10">
-        <f t="shared" si="89"/>
-        <v>1.01</v>
+        <f t="shared" ref="P77:P89" si="84">SUM(H77:M77)</f>
+        <v>0.31</v>
       </c>
       <c r="Q77" s="9">
-        <f t="shared" si="91"/>
-        <v>0.68</v>
+        <f>N77</f>
+        <v>0.2</v>
       </c>
       <c r="R77" s="10">
-        <f t="shared" si="90"/>
-        <v>7.6505205975554542</v>
+        <f t="shared" ref="R77:R97" si="85">((P77+Q77)/$P$75)*100</f>
+        <v>2.3087369850611137</v>
       </c>
     </row>
     <row r="78" spans="7:32">
       <c r="G78" s="9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H78" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I78" s="9">
+        <f>ROUNDUP(((H42/$B$39)*$B$40)*((100+O78)/100),0)/100</f>
+        <v>0.02</v>
+      </c>
+      <c r="J78" s="9">
+        <f>ROUNDUP(((I42/$B$39)*$B$40)*((100+O78)/100),0)/100</f>
         <v>0.04</v>
       </c>
-      <c r="I78" s="9">
-        <f t="shared" si="83"/>
-        <v>0.06</v>
-      </c>
-      <c r="J78" s="9">
+      <c r="K78" s="9">
+        <f>ROUNDUP(((J42/$B$39)*$B$40)*((100+O78)/100),0)/100</f>
+        <v>0.08</v>
+      </c>
+      <c r="L78" s="9">
+        <f>ROUNDUP(((K42/$B$39)*$B$40)*((100+O78)/100),0)/100</f>
+        <v>0.12</v>
+      </c>
+      <c r="M78" s="9">
+        <f>ROUNDUP(((L42/$B$39)*$B$40)*((100+O78)/100),0)/100</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N78" s="9">
+        <f>ROUNDUP(((M42/$B$39)*$B$40)*((100+O78)/100),0)/100</f>
+        <v>0.27</v>
+      </c>
+      <c r="O78" s="10">
+        <v>20</v>
+      </c>
+      <c r="P78" s="10">
         <f t="shared" si="84"/>
-        <v>0.12</v>
-      </c>
-      <c r="K78" s="9">
+        <v>0.41000000000000003</v>
+      </c>
+      <c r="Q78" s="9">
+        <f t="shared" ref="Q78:Q97" si="86">N78</f>
+        <v>0.27</v>
+      </c>
+      <c r="R78" s="10">
         <f t="shared" si="85"/>
-        <v>0.24</v>
-      </c>
-      <c r="L78" s="9">
+        <v>3.0783159800814848</v>
+      </c>
+    </row>
+    <row r="79" spans="7:32">
+      <c r="G79" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H79" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="I79" s="9">
+        <f>ROUNDUP(((H43/$B$39)*$B$40)*((100+O79)/100),0)/100</f>
+        <v>0.03</v>
+      </c>
+      <c r="J79" s="9">
+        <f>ROUNDUP(((I43/$B$39)*$B$40)*((100+O79)/100),0)/100</f>
+        <v>0.05</v>
+      </c>
+      <c r="K79" s="9">
+        <f>ROUNDUP(((J43/$B$39)*$B$40)*((100+O79)/100),0)/100</f>
+        <v>0.1</v>
+      </c>
+      <c r="L79" s="9">
+        <f>ROUNDUP(((K43/$B$39)*$B$40)*((100+O79)/100),0)/100</f>
+        <v>0.15</v>
+      </c>
+      <c r="M79" s="9">
+        <f>ROUNDUP(((L43/$B$39)*$B$40)*((100+O79)/100),0)/100</f>
+        <v>0.18</v>
+      </c>
+      <c r="N79" s="9">
+        <f>ROUNDUP(((M43/$B$39)*$B$40)*((100+O79)/100),0)/100</f>
+        <v>0.35</v>
+      </c>
+      <c r="O79" s="10">
+        <v>30</v>
+      </c>
+      <c r="P79" s="10">
+        <f t="shared" si="84"/>
+        <v>0.53</v>
+      </c>
+      <c r="Q79" s="9">
         <f t="shared" si="86"/>
         <v>0.35</v>
       </c>
-      <c r="M78" s="9">
-        <f t="shared" si="87"/>
-        <v>0.41</v>
-      </c>
-      <c r="N78" s="9">
-        <f t="shared" si="88"/>
-        <v>0.82</v>
-      </c>
-      <c r="O78" s="10">
-        <v>70</v>
-      </c>
-      <c r="P78" s="10">
-        <f t="shared" si="89"/>
-        <v>1.22</v>
-      </c>
-      <c r="Q78" s="9">
-        <f t="shared" si="91"/>
-        <v>0.82</v>
-      </c>
-      <c r="R78" s="10">
-        <f t="shared" si="90"/>
-        <v>9.2349479402444548</v>
-      </c>
-    </row>
-    <row r="79" spans="7:32">
-      <c r="G79" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H79" s="9">
-        <v>0.04</v>
-      </c>
-      <c r="I79" s="9">
-        <f t="shared" si="83"/>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="J79" s="9">
-        <f t="shared" si="84"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="K79" s="9">
+      <c r="R79" s="10">
         <f t="shared" si="85"/>
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="L79" s="9">
-        <f t="shared" si="86"/>
-        <v>0.42</v>
-      </c>
-      <c r="M79" s="9">
-        <f t="shared" si="87"/>
-        <v>0.49</v>
-      </c>
-      <c r="N79" s="9">
-        <f t="shared" si="88"/>
-        <v>0.98</v>
-      </c>
-      <c r="O79" s="10">
-        <v>80</v>
-      </c>
-      <c r="P79" s="10">
-        <f t="shared" si="89"/>
-        <v>1.44</v>
-      </c>
-      <c r="Q79" s="9">
-        <f t="shared" si="91"/>
-        <v>0.98</v>
-      </c>
-      <c r="R79" s="10">
-        <f t="shared" si="90"/>
-        <v>10.955183340878225</v>
+        <v>3.9837030330466274</v>
       </c>
     </row>
     <row r="80" spans="7:32">
       <c r="G80" s="9" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="H80" s="9">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I80" s="9">
-        <f t="shared" si="83"/>
-        <v>0.09</v>
+        <f>ROUNDUP(((H44/$B$39)*$B$40)*((100+O80)/100),0)/100</f>
+        <v>0.04</v>
       </c>
       <c r="J80" s="9">
+        <f>ROUNDUP(((I44/$B$39)*$B$40)*((100+O80)/100),0)/100</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K80" s="9">
+        <f>ROUNDUP(((J44/$B$39)*$B$40)*((100+O80)/100),0)/100</f>
+        <v>0.13</v>
+      </c>
+      <c r="L80" s="9">
+        <f>ROUNDUP(((K44/$B$39)*$B$40)*((100+O80)/100),0)/100</f>
+        <v>0.19</v>
+      </c>
+      <c r="M80" s="9">
+        <f>ROUNDUP(((L44/$B$39)*$B$40)*((100+O80)/100),0)/100</f>
+        <v>0.22</v>
+      </c>
+      <c r="N80" s="9">
+        <f>ROUNDUP(((M44/$B$39)*$B$40)*((100+O80)/100),0)/100</f>
+        <v>0.44</v>
+      </c>
+      <c r="O80" s="10">
+        <v>40</v>
+      </c>
+      <c r="P80" s="10">
         <f t="shared" si="84"/>
-        <v>0.17</v>
-      </c>
-      <c r="K80" s="9">
+        <v>0.67</v>
+      </c>
+      <c r="Q80" s="9">
+        <f t="shared" si="86"/>
+        <v>0.44</v>
+      </c>
+      <c r="R80" s="10">
         <f t="shared" si="85"/>
-        <v>0.34</v>
-      </c>
-      <c r="L80" s="9">
-        <f t="shared" si="86"/>
-        <v>0.5</v>
-      </c>
-      <c r="M80" s="9">
-        <f t="shared" si="87"/>
-        <v>0.59</v>
-      </c>
-      <c r="N80" s="9">
-        <f t="shared" si="88"/>
-        <v>1.17</v>
-      </c>
-      <c r="O80" s="10">
-        <v>90</v>
-      </c>
-      <c r="P80" s="10">
-        <f t="shared" si="89"/>
-        <v>1.7400000000000002</v>
-      </c>
-      <c r="Q80" s="9">
-        <f t="shared" si="91"/>
-        <v>1.17</v>
-      </c>
-      <c r="R80" s="10">
-        <f t="shared" si="90"/>
-        <v>13.173381620642827</v>
+        <v>5.0248981439565421</v>
       </c>
     </row>
     <row r="81" spans="7:31">
       <c r="G81" s="9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H81" s="9">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I81" s="9">
-        <f t="shared" si="83"/>
-        <v>0.1</v>
+        <f>ROUNDUP(((H45/$B$39)*$B$40)*((100+O81)/100),0)/100</f>
+        <v>0.04</v>
       </c>
       <c r="J81" s="9">
+        <f>ROUNDUP(((I45/$B$39)*$B$40)*((100+O81)/100),0)/100</f>
+        <v>0.08</v>
+      </c>
+      <c r="K81" s="9">
+        <f>ROUNDUP(((J45/$B$39)*$B$40)*((100+O81)/100),0)/100</f>
+        <v>0.16</v>
+      </c>
+      <c r="L81" s="9">
+        <f>ROUNDUP(((K45/$B$39)*$B$40)*((100+O81)/100),0)/100</f>
+        <v>0.24</v>
+      </c>
+      <c r="M81" s="9">
+        <f>ROUNDUP(((L45/$B$39)*$B$40)*((100+O81)/100),0)/100</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="N81" s="9">
+        <f>ROUNDUP(((M45/$B$39)*$B$40)*((100+O81)/100),0)/100</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="O81" s="10">
+        <v>50</v>
+      </c>
+      <c r="P81" s="10">
         <f t="shared" si="84"/>
-        <v>0.2</v>
-      </c>
-      <c r="K81" s="9">
+        <v>0.83000000000000007</v>
+      </c>
+      <c r="Q81" s="9">
+        <f t="shared" si="86"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R81" s="10">
         <f t="shared" si="85"/>
-        <v>0.4</v>
-      </c>
-      <c r="L81" s="9">
-        <f t="shared" si="86"/>
-        <v>0.59</v>
-      </c>
-      <c r="M81" s="9">
-        <f t="shared" si="87"/>
-        <v>0.69</v>
-      </c>
-      <c r="N81" s="9">
-        <f t="shared" si="88"/>
-        <v>1.38</v>
-      </c>
-      <c r="O81" s="10">
-        <v>100</v>
-      </c>
-      <c r="P81" s="10">
-        <f t="shared" si="89"/>
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="Q81" s="9">
-        <f t="shared" si="91"/>
-        <v>1.38</v>
-      </c>
-      <c r="R81" s="10">
-        <f t="shared" si="90"/>
-        <v>15.436849253055678</v>
+        <v>6.2471706654594845</v>
       </c>
     </row>
     <row r="82" spans="7:31">
       <c r="G82" s="9" t="s">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="H82" s="9">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="I82" s="9">
-        <f t="shared" ref="I82:I94" si="92">ROUNDUP(((H53/$B$39)*$B$40)*((100+O82)/100),0)/100</f>
-        <v>0.15</v>
+        <f>ROUNDUP(((H46/$B$39)*$B$40)*((100+O82)/100),0)/100</f>
+        <v>0.05</v>
       </c>
       <c r="J82" s="9">
-        <f t="shared" ref="J82:J94" si="93">ROUNDUP(((I53/$B$39)*$B$40)*((100+O82)/100),0)/100</f>
-        <v>0.3</v>
+        <f>ROUNDUP(((I46/$B$39)*$B$40)*((100+O82)/100),0)/100</f>
+        <v>0.1</v>
       </c>
       <c r="K82" s="9">
-        <f t="shared" ref="K82:K94" si="94">ROUNDUP(((J53/$B$39)*$B$40)*((100+O82)/100),0)/100</f>
-        <v>0.59</v>
+        <f>ROUNDUP(((J46/$B$39)*$B$40)*((100+O82)/100),0)/100</f>
+        <v>0.2</v>
       </c>
       <c r="L82" s="9">
-        <f t="shared" ref="L82:L94" si="95">ROUNDUP(((K53/$B$39)*$B$40)*((100+O82)/100),0)/100</f>
-        <v>0.88</v>
+        <f>ROUNDUP(((K46/$B$39)*$B$40)*((100+O82)/100),0)/100</f>
+        <v>0.28999999999999998</v>
       </c>
       <c r="M82" s="9">
-        <f t="shared" ref="M82:M94" si="96">ROUNDUP(((L53/$B$39)*$B$40)*((100+O82)/100),0)/100</f>
-        <v>1.03</v>
+        <f>ROUNDUP(((L46/$B$39)*$B$40)*((100+O82)/100),0)/100</f>
+        <v>0.34</v>
       </c>
       <c r="N82" s="9">
-        <f t="shared" ref="N82:N95" si="97">ROUNDUP(((M53/$B$39)*$B$40)*((100+O82)/100),0)/100</f>
-        <v>2.0499999999999998</v>
+        <f>ROUNDUP(((M46/$B$39)*$B$40)*((100+O82)/100),0)/100</f>
+        <v>0.68</v>
       </c>
       <c r="O82" s="10">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="P82" s="10">
-        <f t="shared" si="89"/>
-        <v>3.01</v>
+        <f t="shared" si="84"/>
+        <v>1.01</v>
       </c>
       <c r="Q82" s="9">
-        <f t="shared" si="91"/>
-        <v>2.0499999999999998</v>
+        <f t="shared" si="86"/>
+        <v>0.68</v>
       </c>
       <c r="R82" s="10">
-        <f t="shared" si="90"/>
-        <v>22.906292440018106</v>
+        <f t="shared" si="85"/>
+        <v>7.6505205975554542</v>
       </c>
     </row>
     <row r="83" spans="7:31">
       <c r="G83" s="9" t="s">
-        <v>106</v>
+        <v>22</v>
       </c>
       <c r="H83" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="I83" s="9">
+        <f>ROUNDUP(((H47/$B$39)*$B$40)*((100+O83)/100),0)/100</f>
         <v>0.06</v>
       </c>
-      <c r="I83" s="9">
-        <f t="shared" si="92"/>
-        <v>0.17</v>
-      </c>
       <c r="J83" s="9">
-        <f t="shared" si="93"/>
-        <v>0.33</v>
+        <f>ROUNDUP(((I47/$B$39)*$B$40)*((100+O83)/100),0)/100</f>
+        <v>0.12</v>
       </c>
       <c r="K83" s="9">
-        <f t="shared" si="94"/>
-        <v>0.65</v>
+        <f>ROUNDUP(((J47/$B$39)*$B$40)*((100+O83)/100),0)/100</f>
+        <v>0.24</v>
       </c>
       <c r="L83" s="9">
-        <f t="shared" si="95"/>
-        <v>0.97</v>
+        <f>ROUNDUP(((K47/$B$39)*$B$40)*((100+O83)/100),0)/100</f>
+        <v>0.35</v>
       </c>
       <c r="M83" s="9">
-        <f t="shared" si="96"/>
-        <v>1.1299999999999999</v>
+        <f>ROUNDUP(((L47/$B$39)*$B$40)*((100+O83)/100),0)/100</f>
+        <v>0.41</v>
       </c>
       <c r="N83" s="9">
-        <f t="shared" si="97"/>
-        <v>2.25</v>
+        <f>ROUNDUP(((M47/$B$39)*$B$40)*((100+O83)/100),0)/100</f>
+        <v>0.82</v>
       </c>
       <c r="O83" s="10">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="P83" s="10">
-        <f t="shared" si="89"/>
-        <v>3.3099999999999996</v>
+        <f t="shared" si="84"/>
+        <v>1.22</v>
       </c>
       <c r="Q83" s="9">
-        <f t="shared" si="91"/>
-        <v>2.25</v>
+        <f t="shared" si="86"/>
+        <v>0.82</v>
       </c>
       <c r="R83" s="10">
-        <f t="shared" si="90"/>
-        <v>25.169760072430964</v>
+        <f t="shared" si="85"/>
+        <v>9.2349479402444548</v>
       </c>
       <c r="Y83" s="9" t="s">
         <v>220</v>
@@ -9757,49 +9683,49 @@
     </row>
     <row r="84" spans="7:31" ht="17.25" thickBot="1">
       <c r="G84" s="9" t="s">
-        <v>172</v>
+        <v>23</v>
       </c>
       <c r="H84" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="I84" s="9">
+        <f>ROUNDUP(((H48/$B$39)*$B$40)*((100+O84)/100),0)/100</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I84" s="9">
-        <f t="shared" si="92"/>
-        <v>0.18</v>
-      </c>
       <c r="J84" s="9">
-        <f t="shared" si="93"/>
-        <v>0.36</v>
+        <f>ROUNDUP(((I48/$B$39)*$B$40)*((100+O84)/100),0)/100</f>
+        <v>0.14000000000000001</v>
       </c>
       <c r="K84" s="9">
-        <f t="shared" si="94"/>
-        <v>0.71</v>
+        <f>ROUNDUP(((J48/$B$39)*$B$40)*((100+O84)/100),0)/100</f>
+        <v>0.28000000000000003</v>
       </c>
       <c r="L84" s="9">
-        <f t="shared" si="95"/>
-        <v>1.06</v>
+        <f>ROUNDUP(((K48/$B$39)*$B$40)*((100+O84)/100),0)/100</f>
+        <v>0.42</v>
       </c>
       <c r="M84" s="9">
-        <f t="shared" si="96"/>
-        <v>1.23</v>
+        <f>ROUNDUP(((L48/$B$39)*$B$40)*((100+O84)/100),0)/100</f>
+        <v>0.49</v>
       </c>
       <c r="N84" s="9">
-        <f t="shared" si="97"/>
-        <v>2.46</v>
+        <f>ROUNDUP(((M48/$B$39)*$B$40)*((100+O84)/100),0)/100</f>
+        <v>0.98</v>
       </c>
       <c r="O84" s="10">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="P84" s="10">
-        <f t="shared" si="89"/>
-        <v>3.61</v>
+        <f t="shared" si="84"/>
+        <v>1.44</v>
       </c>
       <c r="Q84" s="9">
-        <f t="shared" si="91"/>
-        <v>2.46</v>
+        <f t="shared" si="86"/>
+        <v>0.98</v>
       </c>
       <c r="R84" s="10">
-        <f t="shared" si="90"/>
-        <v>27.478497057492078</v>
+        <f t="shared" si="85"/>
+        <v>10.955183340878225</v>
       </c>
       <c r="Y84" s="24" t="s">
         <v>69</v>
@@ -9825,1999 +9751,2309 @@
     </row>
     <row r="85" spans="7:31" ht="17.25" thickTop="1">
       <c r="G85" s="9" t="s">
-        <v>175</v>
+        <v>24</v>
       </c>
       <c r="H85" s="9">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="I85" s="9">
-        <f t="shared" si="92"/>
-        <v>0.2</v>
+        <f>ROUNDUP(((H49/$B$39)*$B$40)*((100+O85)/100),0)/100</f>
+        <v>0.09</v>
       </c>
       <c r="J85" s="9">
-        <f t="shared" si="93"/>
-        <v>0.4</v>
+        <f>ROUNDUP(((I49/$B$39)*$B$40)*((100+O85)/100),0)/100</f>
+        <v>0.17</v>
       </c>
       <c r="K85" s="9">
-        <f t="shared" si="94"/>
-        <v>0.8</v>
+        <f>ROUNDUP(((J49/$B$39)*$B$40)*((100+O85)/100),0)/100</f>
+        <v>0.34</v>
       </c>
       <c r="L85" s="9">
-        <f t="shared" si="95"/>
-        <v>1.2</v>
+        <f>ROUNDUP(((K49/$B$39)*$B$40)*((100+O85)/100),0)/100</f>
+        <v>0.5</v>
       </c>
       <c r="M85" s="9">
-        <f t="shared" si="96"/>
-        <v>1.4</v>
+        <f>ROUNDUP(((L49/$B$39)*$B$40)*((100+O85)/100),0)/100</f>
+        <v>0.59</v>
       </c>
       <c r="N85" s="9">
-        <f t="shared" si="97"/>
-        <v>2.79</v>
+        <f>ROUNDUP(((M49/$B$39)*$B$40)*((100+O85)/100),0)/100</f>
+        <v>1.17</v>
       </c>
       <c r="O85" s="10">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="P85" s="10">
-        <f t="shared" ref="P85:P88" si="98">SUM(H85:M85)</f>
-        <v>4.07</v>
+        <f t="shared" si="84"/>
+        <v>1.7400000000000002</v>
       </c>
       <c r="Q85" s="9">
-        <f t="shared" si="91"/>
-        <v>2.79</v>
+        <f t="shared" si="86"/>
+        <v>1.17</v>
       </c>
       <c r="R85" s="10">
-        <f t="shared" si="90"/>
-        <v>31.05477591670439</v>
+        <f t="shared" si="85"/>
+        <v>13.173381620642827</v>
       </c>
       <c r="Y85" s="9" t="s">
         <v>198</v>
       </c>
       <c r="Z85" s="9">
-        <f t="shared" ref="Z85:Z99" si="99">Z61</f>
+        <f>Z61</f>
         <v>0.01</v>
       </c>
       <c r="AA85" s="9">
-        <f t="shared" ref="AA85:AE99" si="100">Z85+AA61</f>
+        <f>Z85+AA61</f>
         <v>0.23</v>
       </c>
       <c r="AB85" s="9">
-        <f t="shared" si="100"/>
+        <f>AA85+AB61</f>
         <v>0.67</v>
       </c>
       <c r="AC85" s="9">
-        <f t="shared" si="100"/>
+        <f>AB85+AC61</f>
         <v>1.54</v>
       </c>
       <c r="AD85" s="9">
-        <f t="shared" si="100"/>
+        <f>AC85+AD61</f>
         <v>2.84</v>
       </c>
       <c r="AE85" s="9">
-        <f t="shared" si="100"/>
+        <f>AD85+AE61</f>
         <v>4.3599999999999994</v>
       </c>
     </row>
     <row r="86" spans="7:31">
       <c r="G86" s="9" t="s">
-        <v>195</v>
+        <v>25</v>
       </c>
       <c r="H86" s="9">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="I86" s="9">
-        <f t="shared" si="92"/>
-        <v>0.23</v>
+        <f>ROUNDUP(((H50/$B$39)*$B$40)*((100+O86)/100),0)/100</f>
+        <v>0.1</v>
       </c>
       <c r="J86" s="9">
-        <f t="shared" si="93"/>
-        <v>0.45</v>
+        <f>ROUNDUP(((I50/$B$39)*$B$40)*((100+O86)/100),0)/100</f>
+        <v>0.2</v>
       </c>
       <c r="K86" s="9">
-        <f t="shared" si="94"/>
-        <v>0.9</v>
+        <f>ROUNDUP(((J50/$B$39)*$B$40)*((100+O86)/100),0)/100</f>
+        <v>0.4</v>
       </c>
       <c r="L86" s="9">
-        <f t="shared" si="95"/>
-        <v>1.35</v>
+        <f>ROUNDUP(((K50/$B$39)*$B$40)*((100+O86)/100),0)/100</f>
+        <v>0.59</v>
       </c>
       <c r="M86" s="9">
-        <f t="shared" si="96"/>
-        <v>1.58</v>
+        <f>ROUNDUP(((L50/$B$39)*$B$40)*((100+O86)/100),0)/100</f>
+        <v>0.69</v>
       </c>
       <c r="N86" s="9">
-        <f t="shared" si="97"/>
-        <v>3.15</v>
+        <f>ROUNDUP(((M50/$B$39)*$B$40)*((100+O86)/100),0)/100</f>
+        <v>1.38</v>
       </c>
       <c r="O86" s="10">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="P86" s="10">
-        <f t="shared" si="98"/>
-        <v>4.59</v>
+        <f t="shared" si="84"/>
+        <v>2.0299999999999998</v>
       </c>
       <c r="Q86" s="9">
-        <f t="shared" si="91"/>
-        <v>3.15</v>
+        <f t="shared" si="86"/>
+        <v>1.38</v>
       </c>
       <c r="R86" s="10">
-        <f t="shared" si="90"/>
-        <v>35.038478949751017</v>
+        <f t="shared" si="85"/>
+        <v>15.436849253055678</v>
       </c>
       <c r="Y86" s="9" t="s">
         <v>199</v>
       </c>
       <c r="Z86" s="9">
-        <f t="shared" si="99"/>
+        <f>Z62</f>
         <v>0.02</v>
       </c>
       <c r="AA86" s="9">
-        <f t="shared" si="100"/>
+        <f>Z86+AA62</f>
         <v>0.26</v>
       </c>
       <c r="AB86" s="9">
-        <f t="shared" si="100"/>
+        <f>AA86+AB62</f>
         <v>0.73</v>
       </c>
       <c r="AC86" s="9">
-        <f t="shared" si="100"/>
+        <f>AB86+AC62</f>
         <v>1.6600000000000001</v>
       </c>
       <c r="AD86" s="9">
-        <f t="shared" si="100"/>
+        <f>AC86+AD62</f>
         <v>3.06</v>
       </c>
       <c r="AE86" s="9">
-        <f t="shared" si="100"/>
+        <f>AD86+AE62</f>
         <v>4.6899999999999995</v>
       </c>
     </row>
     <row r="87" spans="7:31">
       <c r="G87" s="9" t="s">
-        <v>246</v>
+        <v>105</v>
       </c>
       <c r="H87" s="9">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="I87" s="9">
-        <f t="shared" si="92"/>
-        <v>0.27</v>
+        <f>ROUNDUP(((H53/$B$39)*$B$40)*((100+O87)/100),0)/100</f>
+        <v>0.15</v>
       </c>
       <c r="J87" s="9">
-        <f t="shared" si="93"/>
-        <v>0.53</v>
+        <f>ROUNDUP(((I53/$B$39)*$B$40)*((100+O87)/100),0)/100</f>
+        <v>0.3</v>
       </c>
       <c r="K87" s="9">
-        <f t="shared" si="94"/>
-        <v>1.06</v>
+        <f>ROUNDUP(((J53/$B$39)*$B$40)*((100+O87)/100),0)/100</f>
+        <v>0.59</v>
       </c>
       <c r="L87" s="9">
-        <f t="shared" si="95"/>
-        <v>1.58</v>
+        <f>ROUNDUP(((K53/$B$39)*$B$40)*((100+O87)/100),0)/100</f>
+        <v>0.88</v>
       </c>
       <c r="M87" s="9">
-        <f t="shared" si="96"/>
-        <v>1.84</v>
+        <f>ROUNDUP(((L53/$B$39)*$B$40)*((100+O87)/100),0)/100</f>
+        <v>1.03</v>
       </c>
       <c r="N87" s="9">
-        <f t="shared" si="97"/>
-        <v>3.68</v>
+        <f>ROUNDUP(((M53/$B$39)*$B$40)*((100+O87)/100),0)/100</f>
+        <v>2.0499999999999998</v>
       </c>
       <c r="O87" s="10">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="P87" s="10">
-        <f t="shared" si="98"/>
-        <v>5.36</v>
+        <f t="shared" si="84"/>
+        <v>3.01</v>
       </c>
       <c r="Q87" s="9">
-        <f t="shared" si="91"/>
-        <v>3.68</v>
+        <f t="shared" si="86"/>
+        <v>2.0499999999999998</v>
       </c>
       <c r="R87" s="10">
-        <f t="shared" si="90"/>
-        <v>40.92349479402445</v>
+        <f t="shared" si="85"/>
+        <v>22.906292440018106</v>
       </c>
       <c r="Y87" s="9" t="s">
         <v>200</v>
       </c>
       <c r="Z87" s="9">
-        <f t="shared" si="99"/>
+        <f>Z63</f>
         <v>0.03</v>
       </c>
       <c r="AA87" s="9">
-        <f t="shared" si="100"/>
+        <f>Z87+AA63</f>
         <v>0.28000000000000003</v>
       </c>
       <c r="AB87" s="9">
-        <f t="shared" si="100"/>
+        <f>AA87+AB63</f>
         <v>0.78</v>
       </c>
       <c r="AC87" s="9">
-        <f t="shared" si="100"/>
+        <f>AB87+AC63</f>
         <v>1.78</v>
       </c>
       <c r="AD87" s="9">
-        <f t="shared" si="100"/>
+        <f>AC87+AD63</f>
         <v>3.2800000000000002</v>
       </c>
       <c r="AE87" s="9">
-        <f t="shared" si="100"/>
+        <f>AD87+AE63</f>
         <v>5.03</v>
       </c>
     </row>
     <row r="88" spans="7:31">
       <c r="G88" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H88" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="I88" s="9">
+        <f>ROUNDUP(((H54/$B$39)*$B$40)*((100+O88)/100),0)/100</f>
+        <v>0.17</v>
+      </c>
+      <c r="J88" s="9">
+        <f>ROUNDUP(((I54/$B$39)*$B$40)*((100+O88)/100),0)/100</f>
+        <v>0.33</v>
+      </c>
+      <c r="K88" s="9">
+        <f>ROUNDUP(((J54/$B$39)*$B$40)*((100+O88)/100),0)/100</f>
+        <v>0.65</v>
+      </c>
+      <c r="L88" s="9">
+        <f>ROUNDUP(((K54/$B$39)*$B$40)*((100+O88)/100),0)/100</f>
+        <v>0.97</v>
+      </c>
+      <c r="M88" s="9">
+        <f>ROUNDUP(((L54/$B$39)*$B$40)*((100+O88)/100),0)/100</f>
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="N88" s="9">
+        <f>ROUNDUP(((M54/$B$39)*$B$40)*((100+O88)/100),0)/100</f>
+        <v>2.25</v>
+      </c>
+      <c r="O88" s="10">
+        <v>120</v>
+      </c>
+      <c r="P88" s="10">
+        <f t="shared" si="84"/>
+        <v>3.3099999999999996</v>
+      </c>
+      <c r="Q88" s="9">
+        <f t="shared" si="86"/>
+        <v>2.25</v>
+      </c>
+      <c r="R88" s="10">
+        <f t="shared" si="85"/>
+        <v>25.169760072430964</v>
+      </c>
+      <c r="Y88" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z88" s="9">
+        <f>Z64</f>
+        <v>0.04</v>
+      </c>
+      <c r="AA88" s="9">
+        <f>Z88+AA64</f>
+        <v>0.31</v>
+      </c>
+      <c r="AB88" s="9">
+        <f>AA88+AB64</f>
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="AC88" s="9">
+        <f>AB88+AC64</f>
+        <v>1.9200000000000002</v>
+      </c>
+      <c r="AD88" s="9">
+        <f>AC88+AD64</f>
+        <v>3.5200000000000005</v>
+      </c>
+      <c r="AE88" s="9">
+        <f>AD88+AE64</f>
+        <v>5.3900000000000006</v>
+      </c>
+    </row>
+    <row r="89" spans="7:31">
+      <c r="G89" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="H89" s="9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I89" s="9">
+        <f>ROUNDUP(((H55/$B$39)*$B$40)*((100+O89)/100),0)/100</f>
+        <v>0.18</v>
+      </c>
+      <c r="J89" s="9">
+        <f>ROUNDUP(((I55/$B$39)*$B$40)*((100+O89)/100),0)/100</f>
+        <v>0.36</v>
+      </c>
+      <c r="K89" s="9">
+        <f>ROUNDUP(((J55/$B$39)*$B$40)*((100+O89)/100),0)/100</f>
+        <v>0.71</v>
+      </c>
+      <c r="L89" s="9">
+        <f>ROUNDUP(((K55/$B$39)*$B$40)*((100+O89)/100),0)/100</f>
+        <v>1.06</v>
+      </c>
+      <c r="M89" s="9">
+        <f>ROUNDUP(((L55/$B$39)*$B$40)*((100+O89)/100),0)/100</f>
+        <v>1.23</v>
+      </c>
+      <c r="N89" s="9">
+        <f>ROUNDUP(((M55/$B$39)*$B$40)*((100+O89)/100),0)/100</f>
+        <v>2.46</v>
+      </c>
+      <c r="O89" s="10">
+        <v>130</v>
+      </c>
+      <c r="P89" s="10">
+        <f t="shared" si="84"/>
+        <v>3.61</v>
+      </c>
+      <c r="Q89" s="9">
+        <f t="shared" si="86"/>
+        <v>2.46</v>
+      </c>
+      <c r="R89" s="10">
+        <f t="shared" si="85"/>
+        <v>27.478497057492078</v>
+      </c>
+      <c r="Y89" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z89" s="9">
+        <f>Z65</f>
+        <v>0.05</v>
+      </c>
+      <c r="AA89" s="9">
+        <f>Z89+AA65</f>
+        <v>0.35</v>
+      </c>
+      <c r="AB89" s="9">
+        <f>AA89+AB65</f>
+        <v>0.94</v>
+      </c>
+      <c r="AC89" s="9">
+        <f>AB89+AC65</f>
+        <v>2.12</v>
+      </c>
+      <c r="AD89" s="9">
+        <f>AC89+AD65</f>
+        <v>3.89</v>
+      </c>
+      <c r="AE89" s="9">
+        <f>AD89+AE65</f>
+        <v>5.95</v>
+      </c>
+    </row>
+    <row r="90" spans="7:31">
+      <c r="G90" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="H90" s="9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I90" s="9">
+        <f>ROUNDUP(((H56/$B$39)*$B$40)*((100+O90)/100),0)/100</f>
+        <v>0.2</v>
+      </c>
+      <c r="J90" s="9">
+        <f>ROUNDUP(((I56/$B$39)*$B$40)*((100+O90)/100),0)/100</f>
+        <v>0.4</v>
+      </c>
+      <c r="K90" s="9">
+        <f>ROUNDUP(((J56/$B$39)*$B$40)*((100+O90)/100),0)/100</f>
+        <v>0.8</v>
+      </c>
+      <c r="L90" s="9">
+        <f>ROUNDUP(((K56/$B$39)*$B$40)*((100+O90)/100),0)/100</f>
+        <v>1.2</v>
+      </c>
+      <c r="M90" s="9">
+        <f>ROUNDUP(((L56/$B$39)*$B$40)*((100+O90)/100),0)/100</f>
+        <v>1.4</v>
+      </c>
+      <c r="N90" s="9">
+        <f>ROUNDUP(((M56/$B$39)*$B$40)*((100+O90)/100),0)/100</f>
+        <v>2.79</v>
+      </c>
+      <c r="O90" s="10">
+        <v>140</v>
+      </c>
+      <c r="P90" s="10">
+        <f t="shared" ref="P90:P93" si="87">SUM(H90:M90)</f>
+        <v>4.07</v>
+      </c>
+      <c r="Q90" s="9">
+        <f t="shared" si="86"/>
+        <v>2.79</v>
+      </c>
+      <c r="R90" s="10">
+        <f t="shared" si="85"/>
+        <v>31.05477591670439</v>
+      </c>
+      <c r="Y90" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z90" s="9">
+        <f>Z66</f>
+        <v>0.06</v>
+      </c>
+      <c r="AA90" s="9">
+        <f>Z90+AA66</f>
+        <v>0.39</v>
+      </c>
+      <c r="AB90" s="9">
+        <f>AA90+AB66</f>
+        <v>1.04</v>
+      </c>
+      <c r="AC90" s="9">
+        <f>AB90+AC66</f>
+        <v>2.34</v>
+      </c>
+      <c r="AD90" s="9">
+        <f>AC90+AD66</f>
+        <v>4.2799999999999994</v>
+      </c>
+      <c r="AE90" s="9">
+        <f>AD90+AE66</f>
+        <v>6.5399999999999991</v>
+      </c>
+    </row>
+    <row r="91" spans="7:31">
+      <c r="G91" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="H91" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="I91" s="9">
+        <f>ROUNDUP(((H57/$B$39)*$B$40)*((100+O91)/100),0)/100</f>
+        <v>0.23</v>
+      </c>
+      <c r="J91" s="9">
+        <f>ROUNDUP(((I57/$B$39)*$B$40)*((100+O91)/100),0)/100</f>
+        <v>0.45</v>
+      </c>
+      <c r="K91" s="9">
+        <f>ROUNDUP(((J57/$B$39)*$B$40)*((100+O91)/100),0)/100</f>
+        <v>0.9</v>
+      </c>
+      <c r="L91" s="9">
+        <f>ROUNDUP(((K57/$B$39)*$B$40)*((100+O91)/100),0)/100</f>
+        <v>1.35</v>
+      </c>
+      <c r="M91" s="9">
+        <f>ROUNDUP(((L57/$B$39)*$B$40)*((100+O91)/100),0)/100</f>
+        <v>1.58</v>
+      </c>
+      <c r="N91" s="9">
+        <f>ROUNDUP(((M57/$B$39)*$B$40)*((100+O91)/100),0)/100</f>
+        <v>3.15</v>
+      </c>
+      <c r="O91" s="10">
+        <v>150</v>
+      </c>
+      <c r="P91" s="10">
+        <f t="shared" si="87"/>
+        <v>4.59</v>
+      </c>
+      <c r="Q91" s="9">
+        <f t="shared" si="86"/>
+        <v>3.15</v>
+      </c>
+      <c r="R91" s="10">
+        <f t="shared" si="85"/>
+        <v>35.038478949751017</v>
+      </c>
+      <c r="Y91" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z91" s="9">
+        <f>Z67</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AA91" s="9">
+        <f>Z91+AA67</f>
+        <v>0.43</v>
+      </c>
+      <c r="AB91" s="9">
+        <f>AA91+AB67</f>
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="AC91" s="9">
+        <f>AB91+AC67</f>
+        <v>2.5599999999999996</v>
+      </c>
+      <c r="AD91" s="9">
+        <f>AC91+AD67</f>
+        <v>4.68</v>
+      </c>
+      <c r="AE91" s="9">
+        <f>AD91+AE67</f>
+        <v>7.15</v>
+      </c>
+    </row>
+    <row r="92" spans="7:31">
+      <c r="G92" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="H92" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="I92" s="9">
+        <f>ROUNDUP(((H58/$B$39)*$B$40)*((100+O92)/100),0)/100</f>
+        <v>0.27</v>
+      </c>
+      <c r="J92" s="9">
+        <f>ROUNDUP(((I58/$B$39)*$B$40)*((100+O92)/100),0)/100</f>
+        <v>0.53</v>
+      </c>
+      <c r="K92" s="9">
+        <f>ROUNDUP(((J58/$B$39)*$B$40)*((100+O92)/100),0)/100</f>
+        <v>1.06</v>
+      </c>
+      <c r="L92" s="9">
+        <f>ROUNDUP(((K58/$B$39)*$B$40)*((100+O92)/100),0)/100</f>
+        <v>1.58</v>
+      </c>
+      <c r="M92" s="9">
+        <f>ROUNDUP(((L58/$B$39)*$B$40)*((100+O92)/100),0)/100</f>
+        <v>1.84</v>
+      </c>
+      <c r="N92" s="9">
+        <f>ROUNDUP(((M58/$B$39)*$B$40)*((100+O92)/100),0)/100</f>
+        <v>3.68</v>
+      </c>
+      <c r="O92" s="10">
+        <v>160</v>
+      </c>
+      <c r="P92" s="10">
+        <f t="shared" si="87"/>
+        <v>5.36</v>
+      </c>
+      <c r="Q92" s="9">
+        <f t="shared" si="86"/>
+        <v>3.68</v>
+      </c>
+      <c r="R92" s="10">
+        <f t="shared" si="85"/>
+        <v>40.92349479402445</v>
+      </c>
+      <c r="Y92" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="Z92" s="9">
+        <f>Z68</f>
+        <v>0.08</v>
+      </c>
+      <c r="AA92" s="9">
+        <f>Z92+AA68</f>
+        <v>0.48000000000000004</v>
+      </c>
+      <c r="AB92" s="9">
+        <f>AA92+AB68</f>
+        <v>1.27</v>
+      </c>
+      <c r="AC92" s="9">
+        <f>AB92+AC68</f>
+        <v>2.85</v>
+      </c>
+      <c r="AD92" s="9">
+        <f>AC92+AD68</f>
+        <v>5.2200000000000006</v>
+      </c>
+      <c r="AE92" s="9">
+        <f>AD92+AE68</f>
+        <v>7.98</v>
+      </c>
+    </row>
+    <row r="93" spans="7:31">
+      <c r="G93" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="H88" s="9">
+      <c r="H93" s="9">
         <v>0.09</v>
       </c>
-      <c r="I88" s="9">
-        <f t="shared" si="92"/>
+      <c r="I93" s="9">
+        <f>ROUNDUP(((H59/$B$39)*$B$40)*((100+O93)/100),0)/100</f>
         <v>0.32</v>
       </c>
-      <c r="J88" s="9">
-        <f t="shared" si="93"/>
+      <c r="J93" s="9">
+        <f>ROUNDUP(((I59/$B$39)*$B$40)*((100+O93)/100),0)/100</f>
         <v>0.64</v>
       </c>
-      <c r="K88" s="9">
-        <f t="shared" si="94"/>
+      <c r="K93" s="9">
+        <f>ROUNDUP(((J59/$B$39)*$B$40)*((100+O93)/100),0)/100</f>
         <v>1.27</v>
       </c>
-      <c r="L88" s="9">
-        <f t="shared" si="95"/>
+      <c r="L93" s="9">
+        <f>ROUNDUP(((K59/$B$39)*$B$40)*((100+O93)/100),0)/100</f>
         <v>1.9</v>
       </c>
-      <c r="M88" s="9">
-        <f t="shared" si="96"/>
+      <c r="M93" s="9">
+        <f>ROUNDUP(((L59/$B$39)*$B$40)*((100+O93)/100),0)/100</f>
         <v>2.2200000000000002</v>
       </c>
-      <c r="N88" s="9">
-        <f t="shared" si="97"/>
+      <c r="N93" s="9">
+        <f>ROUNDUP(((M59/$B$39)*$B$40)*((100+O93)/100),0)/100</f>
         <v>4.43</v>
       </c>
-      <c r="O88" s="10">
+      <c r="O93" s="10">
         <v>180</v>
       </c>
-      <c r="P88" s="10">
-        <f t="shared" si="98"/>
+      <c r="P93" s="10">
+        <f t="shared" si="87"/>
         <v>6.4400000000000013</v>
       </c>
-      <c r="Q88" s="9">
-        <f t="shared" si="91"/>
+      <c r="Q93" s="9">
+        <f t="shared" si="86"/>
         <v>4.43</v>
       </c>
-      <c r="R88" s="10">
-        <f t="shared" si="90"/>
+      <c r="R93" s="10">
+        <f t="shared" si="85"/>
         <v>49.207786328655509</v>
       </c>
-      <c r="S88" s="9" t="s">
+      <c r="S93" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="T88" s="9">
+      <c r="T93" s="9">
         <v>0.09</v>
       </c>
-      <c r="U88" s="9">
+      <c r="U93" s="9">
         <f>ROUNDUP(((T59/$B$39)*$B$40)*((100+AA88)/100),0)/100</f>
         <v>0</v>
       </c>
-      <c r="V88" s="9">
+      <c r="V93" s="9">
         <f>ROUNDUP(((U59/$B$39)*$B$40)*((100+AA88)/100),0)/100</f>
         <v>0</v>
       </c>
-      <c r="W88" s="9">
+      <c r="W93" s="9">
         <f>ROUNDUP(((V59/$B$39)*$B$40)*((100+AA88)/100),0)/100</f>
         <v>0</v>
       </c>
-      <c r="Y88" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="Z88" s="9">
-        <f t="shared" si="99"/>
-        <v>0.04</v>
-      </c>
-      <c r="AA88" s="9">
-        <f t="shared" si="100"/>
-        <v>0.31</v>
-      </c>
-      <c r="AB88" s="9">
-        <f t="shared" si="100"/>
-        <v>0.85000000000000009</v>
-      </c>
-      <c r="AC88" s="9">
-        <f t="shared" si="100"/>
-        <v>1.9200000000000002</v>
-      </c>
-      <c r="AD88" s="9">
-        <f t="shared" si="100"/>
-        <v>3.5200000000000005</v>
-      </c>
-      <c r="AE88" s="9">
-        <f t="shared" si="100"/>
-        <v>5.3900000000000006</v>
-      </c>
-    </row>
-    <row r="89" spans="7:31">
-      <c r="G89" s="9" t="s">
+      <c r="Y93" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="Z93" s="9">
+        <f>Z69</f>
+        <v>0.09</v>
+      </c>
+      <c r="AA93" s="9">
+        <f>Z93+AA69</f>
+        <v>0.66999999999999993</v>
+      </c>
+      <c r="AB93" s="9">
+        <f>AA93+AB69</f>
+        <v>1.8299999999999998</v>
+      </c>
+      <c r="AC93" s="9">
+        <f>AB93+AC69</f>
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="AD93" s="9">
+        <f>AC93+AD69</f>
+        <v>7.6</v>
+      </c>
+      <c r="AE93" s="9">
+        <f>AD93+AE69</f>
+        <v>11.64</v>
+      </c>
+    </row>
+    <row r="94" spans="7:31">
+      <c r="G94" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="H89" s="9">
+      <c r="H94" s="9">
         <v>0.09</v>
       </c>
-      <c r="I89" s="9">
-        <f t="shared" si="92"/>
+      <c r="I94" s="9">
+        <f>ROUNDUP(((H60/$B$39)*$B$40)*((100+O94)/100),0)/100</f>
         <v>0.38</v>
       </c>
-      <c r="J89" s="9">
-        <f t="shared" si="93"/>
+      <c r="J94" s="9">
+        <f>ROUNDUP(((I60/$B$39)*$B$40)*((100+O94)/100),0)/100</f>
         <v>0.76</v>
       </c>
-      <c r="K89" s="9">
-        <f t="shared" si="94"/>
+      <c r="K94" s="9">
+        <f>ROUNDUP(((J60/$B$39)*$B$40)*((100+O94)/100),0)/100</f>
         <v>1.51</v>
       </c>
-      <c r="L89" s="9">
-        <f t="shared" si="95"/>
+      <c r="L94" s="9">
+        <f>ROUNDUP(((K60/$B$39)*$B$40)*((100+O94)/100),0)/100</f>
         <v>2.25</v>
       </c>
-      <c r="M89" s="9">
-        <f t="shared" si="96"/>
+      <c r="M94" s="9">
+        <f>ROUNDUP(((L60/$B$39)*$B$40)*((100+O94)/100),0)/100</f>
         <v>2.63</v>
       </c>
-      <c r="N89" s="9">
-        <f t="shared" si="97"/>
+      <c r="N94" s="9">
+        <f>ROUNDUP(((M60/$B$39)*$B$40)*((100+O94)/100),0)/100</f>
         <v>5.26</v>
       </c>
-      <c r="O89" s="10">
+      <c r="O94" s="10">
         <v>200</v>
       </c>
-      <c r="P89" s="10">
-        <f t="shared" ref="P89:P91" si="101">SUM(H89:M89)</f>
+      <c r="P94" s="10">
+        <f t="shared" ref="P94:P96" si="88">SUM(H94:M94)</f>
         <v>7.62</v>
       </c>
-      <c r="Q89" s="9">
-        <f t="shared" si="91"/>
+      <c r="Q94" s="9">
+        <f t="shared" si="86"/>
         <v>5.26</v>
       </c>
-      <c r="R89" s="10">
-        <f t="shared" si="90"/>
+      <c r="R94" s="10">
+        <f t="shared" si="85"/>
         <v>58.306926210955176</v>
       </c>
-      <c r="S89" s="9" t="s">
+      <c r="S94" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="T89" s="9">
+      <c r="T94" s="9">
         <v>0.09</v>
       </c>
-      <c r="U89" s="9">
+      <c r="U94" s="9">
         <f>ROUNDUP(((T60/$B$39)*$B$40)*((100+AA89)/100),0)/100</f>
         <v>0</v>
       </c>
-      <c r="V89" s="9">
+      <c r="V94" s="9">
         <f>ROUNDUP(((U60/$B$39)*$B$40)*((100+AA89)/100),0)/100</f>
         <v>0</v>
       </c>
-      <c r="W89" s="9">
+      <c r="W94" s="9">
         <f>ROUNDUP(((V60/$B$39)*$B$40)*((100+AA89)/100),0)/100</f>
         <v>0</v>
       </c>
-      <c r="Y89" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="Z89" s="9">
-        <f t="shared" si="99"/>
-        <v>0.05</v>
-      </c>
-      <c r="AA89" s="9">
-        <f t="shared" si="100"/>
-        <v>0.35</v>
-      </c>
-      <c r="AB89" s="9">
-        <f t="shared" si="100"/>
-        <v>0.94</v>
-      </c>
-      <c r="AC89" s="9">
-        <f t="shared" si="100"/>
-        <v>2.12</v>
-      </c>
-      <c r="AD89" s="9">
-        <f t="shared" si="100"/>
-        <v>3.89</v>
-      </c>
-      <c r="AE89" s="9">
-        <f t="shared" si="100"/>
-        <v>5.95</v>
-      </c>
-    </row>
-    <row r="90" spans="7:31">
-      <c r="G90" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="H90" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="I90" s="9">
-        <f t="shared" si="92"/>
-        <v>0.45</v>
-      </c>
-      <c r="J90" s="9">
-        <f t="shared" si="93"/>
-        <v>0.89</v>
-      </c>
-      <c r="K90" s="9">
-        <f t="shared" si="94"/>
-        <v>1.77</v>
-      </c>
-      <c r="L90" s="9">
-        <f t="shared" si="95"/>
-        <v>2.65</v>
-      </c>
-      <c r="M90" s="9">
-        <f t="shared" si="96"/>
-        <v>3.09</v>
-      </c>
-      <c r="N90" s="9">
-        <f t="shared" si="97"/>
-        <v>6.18</v>
-      </c>
-      <c r="O90" s="10">
-        <v>220</v>
-      </c>
-      <c r="P90" s="10">
-        <f t="shared" si="101"/>
-        <v>8.9499999999999993</v>
-      </c>
-      <c r="Q90" s="9">
-        <f t="shared" si="91"/>
-        <v>6.18</v>
-      </c>
-      <c r="R90" s="10">
-        <f t="shared" si="90"/>
-        <v>68.492530556813037</v>
-      </c>
-      <c r="Y90" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="Z90" s="9">
-        <f t="shared" si="99"/>
-        <v>0.06</v>
-      </c>
-      <c r="AA90" s="9">
-        <f t="shared" si="100"/>
-        <v>0.39</v>
-      </c>
-      <c r="AB90" s="9">
-        <f t="shared" si="100"/>
-        <v>1.04</v>
-      </c>
-      <c r="AC90" s="9">
-        <f t="shared" si="100"/>
-        <v>2.34</v>
-      </c>
-      <c r="AD90" s="9">
-        <f t="shared" si="100"/>
-        <v>4.2799999999999994</v>
-      </c>
-      <c r="AE90" s="9">
-        <f t="shared" si="100"/>
-        <v>6.5399999999999991</v>
-      </c>
-    </row>
-    <row r="91" spans="7:31">
-      <c r="G91" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="H91" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="I91" s="9">
-        <f t="shared" si="92"/>
-        <v>0.52</v>
-      </c>
-      <c r="J91" s="9">
-        <f t="shared" si="93"/>
-        <v>1.03</v>
-      </c>
-      <c r="K91" s="9">
-        <f t="shared" si="94"/>
-        <v>2.06</v>
-      </c>
-      <c r="L91" s="9">
-        <f t="shared" si="95"/>
-        <v>3.09</v>
-      </c>
-      <c r="M91" s="9">
-        <f t="shared" si="96"/>
-        <v>3.6</v>
-      </c>
-      <c r="N91" s="9">
-        <f t="shared" si="97"/>
-        <v>7.2</v>
-      </c>
-      <c r="O91" s="10">
-        <v>240</v>
-      </c>
-      <c r="P91" s="10">
-        <f t="shared" si="101"/>
-        <v>10.4</v>
-      </c>
-      <c r="Q91" s="9">
-        <f t="shared" si="91"/>
-        <v>7.2</v>
-      </c>
-      <c r="R91" s="10">
-        <f t="shared" si="90"/>
-        <v>79.674060660932554</v>
-      </c>
-      <c r="Y91" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="Z91" s="9">
-        <f t="shared" si="99"/>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AA91" s="9">
-        <f t="shared" si="100"/>
-        <v>0.43</v>
-      </c>
-      <c r="AB91" s="9">
-        <f t="shared" si="100"/>
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="AC91" s="9">
-        <f t="shared" si="100"/>
-        <v>2.5599999999999996</v>
-      </c>
-      <c r="AD91" s="9">
-        <f t="shared" si="100"/>
-        <v>4.68</v>
-      </c>
-      <c r="AE91" s="9">
-        <f t="shared" si="100"/>
-        <v>7.15</v>
-      </c>
-    </row>
-    <row r="92" spans="7:31">
-      <c r="G92" s="9" t="s">
-        <v>418</v>
-      </c>
-      <c r="H92" s="9">
-        <v>0.11</v>
-      </c>
-      <c r="I92" s="9">
-        <f t="shared" si="92"/>
-        <v>0.6</v>
-      </c>
-      <c r="J92" s="9">
-        <f t="shared" si="93"/>
-        <v>1.19</v>
-      </c>
-      <c r="K92" s="9">
-        <f t="shared" si="94"/>
-        <v>2.38</v>
-      </c>
-      <c r="L92" s="9">
-        <f t="shared" si="95"/>
-        <v>3.57</v>
-      </c>
-      <c r="M92" s="9">
-        <f t="shared" si="96"/>
-        <v>4.17</v>
-      </c>
-      <c r="N92" s="9">
-        <f t="shared" si="97"/>
-        <v>8.33</v>
-      </c>
-      <c r="O92" s="10">
-        <v>260</v>
-      </c>
-      <c r="P92" s="10">
-        <f t="shared" ref="P92:P93" si="102">SUM(H92:M92)</f>
-        <v>12.02</v>
-      </c>
-      <c r="Q92" s="9">
-        <f t="shared" si="91"/>
-        <v>8.33</v>
-      </c>
-      <c r="R92" s="10">
-        <f t="shared" si="90"/>
-        <v>92.123132639203263</v>
-      </c>
-      <c r="Y92" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="Z92" s="9">
-        <f t="shared" si="99"/>
-        <v>0.08</v>
-      </c>
-      <c r="AA92" s="9">
-        <f t="shared" si="100"/>
-        <v>0.48000000000000004</v>
-      </c>
-      <c r="AB92" s="9">
-        <f t="shared" si="100"/>
-        <v>1.27</v>
-      </c>
-      <c r="AC92" s="9">
-        <f t="shared" si="100"/>
-        <v>2.85</v>
-      </c>
-      <c r="AD92" s="9">
-        <f t="shared" si="100"/>
-        <v>5.2200000000000006</v>
-      </c>
-      <c r="AE92" s="9">
-        <f t="shared" si="100"/>
-        <v>7.98</v>
-      </c>
-    </row>
-    <row r="93" spans="7:31">
-      <c r="G93" s="9" t="s">
-        <v>431</v>
-      </c>
-      <c r="H93" s="9">
-        <v>0.11</v>
-      </c>
-      <c r="I93" s="9">
-        <f t="shared" si="92"/>
-        <v>0.71</v>
-      </c>
-      <c r="J93" s="9">
-        <f t="shared" si="93"/>
-        <v>1.41</v>
-      </c>
-      <c r="K93" s="9">
-        <f t="shared" si="94"/>
-        <v>2.82</v>
-      </c>
-      <c r="L93" s="9">
-        <f t="shared" si="95"/>
-        <v>4.2300000000000004</v>
-      </c>
-      <c r="M93" s="9">
-        <f t="shared" si="96"/>
-        <v>4.93</v>
-      </c>
-      <c r="N93" s="9">
-        <f t="shared" si="97"/>
-        <v>9.86</v>
-      </c>
-      <c r="O93" s="10">
-        <v>280</v>
-      </c>
-      <c r="P93" s="10">
-        <f t="shared" si="102"/>
-        <v>14.21</v>
-      </c>
-      <c r="Q93" s="9">
-        <f t="shared" ref="Q93:Q94" si="103">N93</f>
-        <v>9.86</v>
-      </c>
-      <c r="R93" s="10">
-        <f t="shared" ref="R93:R94" si="104">((P93+Q93)/$P$70)*100</f>
-        <v>108.96333182435491</v>
-      </c>
-      <c r="S93" s="9" t="s">
-        <v>431</v>
-      </c>
-      <c r="T93" s="9">
-        <v>0.11</v>
-      </c>
-      <c r="U93" s="9">
-        <f t="shared" ref="U93:U94" si="105">ROUNDUP(((T64/$B$39)*$B$40)*((100+AA93)/100),0)/100</f>
-        <v>0</v>
-      </c>
-      <c r="V93" s="9">
-        <f t="shared" ref="V93:V94" si="106">ROUNDUP(((U64/$B$39)*$B$40)*((100+AA93)/100),0)/100</f>
-        <v>0</v>
-      </c>
-      <c r="W93" s="9">
-        <f t="shared" ref="W93:W94" si="107">ROUNDUP(((V64/$B$39)*$B$40)*((100+AA93)/100),0)/100</f>
-        <v>0</v>
-      </c>
-      <c r="Y93" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="Z93" s="9">
-        <f t="shared" si="99"/>
-        <v>0.09</v>
-      </c>
-      <c r="AA93" s="9">
-        <f t="shared" si="100"/>
-        <v>0.66999999999999993</v>
-      </c>
-      <c r="AB93" s="9">
-        <f t="shared" si="100"/>
-        <v>1.8299999999999998</v>
-      </c>
-      <c r="AC93" s="9">
-        <f t="shared" si="100"/>
-        <v>4.1399999999999997</v>
-      </c>
-      <c r="AD93" s="9">
-        <f t="shared" si="100"/>
-        <v>7.6</v>
-      </c>
-      <c r="AE93" s="9">
-        <f t="shared" si="100"/>
-        <v>11.64</v>
-      </c>
-    </row>
-    <row r="94" spans="7:31">
-      <c r="G94" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="H94" s="9">
-        <v>0.12</v>
-      </c>
-      <c r="I94" s="9">
-        <f t="shared" si="92"/>
-        <v>0.83</v>
-      </c>
-      <c r="J94" s="9">
-        <f t="shared" si="93"/>
-        <v>1.66</v>
-      </c>
-      <c r="K94" s="9">
-        <f t="shared" si="94"/>
-        <v>3.31</v>
-      </c>
-      <c r="L94" s="9">
-        <f t="shared" si="95"/>
-        <v>4.96</v>
-      </c>
-      <c r="M94" s="9">
-        <f t="shared" si="96"/>
-        <v>5.79</v>
-      </c>
-      <c r="N94" s="9">
-        <f t="shared" si="97"/>
-        <v>11.58</v>
-      </c>
-      <c r="O94" s="10">
-        <v>300</v>
-      </c>
-      <c r="P94" s="10">
-        <f t="shared" ref="P94:P95" si="108">SUM(H94:M94)</f>
-        <v>16.669999999999998</v>
-      </c>
-      <c r="Q94" s="9">
-        <f t="shared" si="103"/>
-        <v>11.58</v>
-      </c>
-      <c r="R94" s="10">
-        <f t="shared" si="104"/>
-        <v>127.88592123132638</v>
-      </c>
-      <c r="S94" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="T94" s="9">
-        <v>0.12</v>
-      </c>
-      <c r="U94" s="9">
-        <f t="shared" si="105"/>
-        <v>0</v>
-      </c>
-      <c r="V94" s="9">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="W94" s="9">
-        <f t="shared" si="107"/>
-        <v>0</v>
-      </c>
       <c r="Y94" s="9" t="s">
         <v>207</v>
       </c>
       <c r="Z94" s="9">
-        <f t="shared" si="99"/>
+        <f>Z70</f>
         <v>0.1</v>
       </c>
       <c r="AA94" s="9">
-        <f t="shared" si="100"/>
+        <f>Z94+AA70</f>
         <v>0.75</v>
       </c>
       <c r="AB94" s="9">
-        <f t="shared" si="100"/>
+        <f>AA94+AB70</f>
         <v>2.04</v>
       </c>
       <c r="AC94" s="9">
-        <f t="shared" si="100"/>
+        <f>AB94+AC70</f>
         <v>4.62</v>
       </c>
       <c r="AD94" s="9">
-        <f t="shared" si="100"/>
+        <f>AC94+AD70</f>
         <v>8.49</v>
       </c>
       <c r="AE94" s="9">
-        <f t="shared" si="100"/>
+        <f>AD94+AE70</f>
         <v>13</v>
       </c>
     </row>
     <row r="95" spans="7:31">
       <c r="G95" s="9" t="s">
-        <v>464</v>
+        <v>375</v>
       </c>
       <c r="H95" s="9">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="I95" s="9">
-        <f t="shared" ref="I95:I96" si="109">ROUNDUP(((H66/$B$39)*$B$40)*((100+O95)/100),0)/100</f>
-        <v>0.97</v>
+        <f>ROUNDUP(((H61/$B$39)*$B$40)*((100+O95)/100),0)/100</f>
+        <v>0.45</v>
       </c>
       <c r="J95" s="9">
-        <f t="shared" ref="J95:J96" si="110">ROUNDUP(((I66/$B$39)*$B$40)*((100+O95)/100),0)/100</f>
-        <v>1.93</v>
+        <f>ROUNDUP(((I61/$B$39)*$B$40)*((100+O95)/100),0)/100</f>
+        <v>0.89</v>
       </c>
       <c r="K95" s="9">
-        <f t="shared" ref="K95:K96" si="111">ROUNDUP(((J66/$B$39)*$B$40)*((100+O95)/100),0)/100</f>
-        <v>3.85</v>
+        <f>ROUNDUP(((J61/$B$39)*$B$40)*((100+O95)/100),0)/100</f>
+        <v>1.77</v>
       </c>
       <c r="L95" s="9">
-        <f t="shared" ref="L95:L96" si="112">ROUNDUP(((K66/$B$39)*$B$40)*((100+O95)/100),0)/100</f>
-        <v>5.78</v>
+        <f>ROUNDUP(((K61/$B$39)*$B$40)*((100+O95)/100),0)/100</f>
+        <v>2.65</v>
       </c>
       <c r="M95" s="9">
-        <f t="shared" ref="M95:M96" si="113">ROUNDUP(((L66/$B$39)*$B$40)*((100+O95)/100),0)/100</f>
-        <v>6.74</v>
+        <f>ROUNDUP(((L61/$B$39)*$B$40)*((100+O95)/100),0)/100</f>
+        <v>3.09</v>
       </c>
       <c r="N95" s="9">
-        <f t="shared" si="97"/>
-        <v>13.48</v>
+        <f>ROUNDUP(((M61/$B$39)*$B$40)*((100+O95)/100),0)/100</f>
+        <v>6.18</v>
       </c>
       <c r="O95" s="10">
-        <v>320</v>
+        <v>220</v>
       </c>
       <c r="P95" s="10">
-        <f t="shared" si="108"/>
-        <v>19.39</v>
+        <f t="shared" si="88"/>
+        <v>8.9499999999999993</v>
       </c>
       <c r="Q95" s="9">
-        <f t="shared" ref="Q95:Q96" si="114">N95</f>
-        <v>13.48</v>
+        <f t="shared" si="86"/>
+        <v>6.18</v>
       </c>
       <c r="R95" s="10">
-        <f t="shared" ref="R95:R96" si="115">((P95+Q95)/$P$70)*100</f>
-        <v>148.80036215482119</v>
+        <f t="shared" si="85"/>
+        <v>68.492530556813037</v>
       </c>
       <c r="Y95" s="9" t="s">
         <v>208</v>
       </c>
       <c r="Z95" s="9">
-        <f t="shared" si="99"/>
+        <f>Z71</f>
         <v>0.11</v>
       </c>
       <c r="AA95" s="9">
-        <f t="shared" si="100"/>
+        <f>Z95+AA71</f>
         <v>0.83</v>
       </c>
       <c r="AB95" s="9">
-        <f t="shared" si="100"/>
+        <f>AA95+AB71</f>
         <v>2.27</v>
       </c>
       <c r="AC95" s="9">
-        <f t="shared" si="100"/>
+        <f>AB95+AC71</f>
         <v>5.1400000000000006</v>
       </c>
       <c r="AD95" s="9">
-        <f t="shared" si="100"/>
+        <f>AC95+AD71</f>
         <v>9.4400000000000013</v>
       </c>
       <c r="AE95" s="9">
-        <f t="shared" si="100"/>
+        <f>AD95+AE71</f>
         <v>14.450000000000001</v>
       </c>
     </row>
     <row r="96" spans="7:31">
       <c r="G96" s="9" t="s">
-        <v>473</v>
+        <v>387</v>
       </c>
       <c r="H96" s="9">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="I96" s="9">
-        <f t="shared" si="109"/>
-        <v>1.1200000000000001</v>
+        <f>ROUNDUP(((H62/$B$39)*$B$40)*((100+O96)/100),0)/100</f>
+        <v>0.52</v>
       </c>
       <c r="J96" s="9">
-        <f t="shared" si="110"/>
-        <v>2.23</v>
+        <f>ROUNDUP(((I62/$B$39)*$B$40)*((100+O96)/100),0)/100</f>
+        <v>1.03</v>
       </c>
       <c r="K96" s="9">
-        <f t="shared" si="111"/>
-        <v>4.45</v>
+        <f>ROUNDUP(((J62/$B$39)*$B$40)*((100+O96)/100),0)/100</f>
+        <v>2.06</v>
       </c>
       <c r="L96" s="9">
-        <f t="shared" si="112"/>
-        <v>6.68</v>
+        <f>ROUNDUP(((K62/$B$39)*$B$40)*((100+O96)/100),0)/100</f>
+        <v>3.09</v>
       </c>
       <c r="M96" s="9">
-        <f t="shared" si="113"/>
-        <v>7.79</v>
+        <f>ROUNDUP(((L62/$B$39)*$B$40)*((100+O96)/100),0)/100</f>
+        <v>3.6</v>
       </c>
       <c r="N96" s="9">
-        <f t="shared" ref="N96:N97" si="116">ROUNDUP(((M67/$B$39)*$B$40)*((100+O96)/100),0)/100</f>
-        <v>15.57</v>
+        <f>ROUNDUP(((M62/$B$39)*$B$40)*((100+O96)/100),0)/100</f>
+        <v>7.2</v>
       </c>
       <c r="O96" s="10">
-        <v>340</v>
+        <v>240</v>
       </c>
       <c r="P96" s="10">
-        <f t="shared" ref="P96:P97" si="117">SUM(H96:M96)</f>
-        <v>22.4</v>
+        <f t="shared" si="88"/>
+        <v>10.4</v>
       </c>
       <c r="Q96" s="9">
-        <f t="shared" si="114"/>
-        <v>15.57</v>
+        <f t="shared" si="86"/>
+        <v>7.2</v>
       </c>
       <c r="R96" s="10">
-        <f t="shared" si="115"/>
-        <v>171.88773200543233</v>
+        <f t="shared" si="85"/>
+        <v>79.674060660932554</v>
       </c>
       <c r="Y96" s="9" t="s">
         <v>209</v>
       </c>
       <c r="Z96" s="9">
-        <f t="shared" si="99"/>
+        <f>Z72</f>
         <v>0.12</v>
       </c>
       <c r="AA96" s="9">
-        <f t="shared" si="100"/>
+        <f>Z96+AA72</f>
         <v>0.97</v>
       </c>
       <c r="AB96" s="9">
-        <f t="shared" si="100"/>
+        <f>AA96+AB72</f>
         <v>2.67</v>
       </c>
       <c r="AC96" s="9">
-        <f t="shared" si="100"/>
+        <f>AB96+AC72</f>
         <v>6.0600000000000005</v>
       </c>
       <c r="AD96" s="9">
-        <f t="shared" si="100"/>
+        <f>AC96+AD72</f>
         <v>11.15</v>
       </c>
       <c r="AE96" s="9">
-        <f t="shared" si="100"/>
+        <f>AD96+AE72</f>
         <v>17.079999999999998</v>
       </c>
     </row>
-    <row r="97" spans="7:32">
+    <row r="97" spans="7:31">
       <c r="G97" s="9" t="s">
-        <v>489</v>
+        <v>418</v>
       </c>
       <c r="H97" s="9">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="I97" s="9">
-        <f t="shared" ref="I97" si="118">ROUNDUP(((H68/$B$39)*$B$40)*((100+O97)/100),0)/100</f>
-        <v>1.28</v>
+        <f>ROUNDUP(((H63/$B$39)*$B$40)*((100+O97)/100),0)/100</f>
+        <v>0.6</v>
       </c>
       <c r="J97" s="9">
-        <f t="shared" ref="J97" si="119">ROUNDUP(((I68/$B$39)*$B$40)*((100+O97)/100),0)/100</f>
-        <v>2.56</v>
+        <f>ROUNDUP(((I63/$B$39)*$B$40)*((100+O97)/100),0)/100</f>
+        <v>1.19</v>
       </c>
       <c r="K97" s="9">
-        <f t="shared" ref="K97" si="120">ROUNDUP(((J68/$B$39)*$B$40)*((100+O97)/100),0)/100</f>
-        <v>5.1100000000000003</v>
+        <f>ROUNDUP(((J63/$B$39)*$B$40)*((100+O97)/100),0)/100</f>
+        <v>2.38</v>
       </c>
       <c r="L97" s="9">
-        <f t="shared" ref="L97" si="121">ROUNDUP(((K68/$B$39)*$B$40)*((100+O97)/100),0)/100</f>
-        <v>7.66</v>
+        <f>ROUNDUP(((K63/$B$39)*$B$40)*((100+O97)/100),0)/100</f>
+        <v>3.57</v>
       </c>
       <c r="M97" s="9">
-        <f t="shared" ref="M97" si="122">ROUNDUP(((L68/$B$39)*$B$40)*((100+O97)/100),0)/100</f>
-        <v>8.94</v>
+        <f>ROUNDUP(((L63/$B$39)*$B$40)*((100+O97)/100),0)/100</f>
+        <v>4.17</v>
       </c>
       <c r="N97" s="9">
-        <f t="shared" si="116"/>
-        <v>17.88</v>
+        <f>ROUNDUP(((M63/$B$39)*$B$40)*((100+O97)/100),0)/100</f>
+        <v>8.33</v>
       </c>
       <c r="O97" s="10">
-        <v>360</v>
+        <v>260</v>
       </c>
       <c r="P97" s="10">
-        <f t="shared" si="117"/>
-        <v>25.68</v>
+        <f t="shared" ref="P97:P98" si="89">SUM(H97:M97)</f>
+        <v>12.02</v>
       </c>
       <c r="Q97" s="9">
-        <f t="shared" ref="Q97" si="123">N97</f>
-        <v>17.88</v>
+        <f t="shared" si="86"/>
+        <v>8.33</v>
       </c>
       <c r="R97" s="10">
-        <f t="shared" ref="R97" si="124">((P97+Q97)/$P$70)*100</f>
-        <v>197.19330013580807</v>
+        <f t="shared" si="85"/>
+        <v>92.123132639203263</v>
       </c>
       <c r="Y97" s="9" t="s">
         <v>210</v>
       </c>
       <c r="Z97" s="9">
-        <f t="shared" si="99"/>
+        <f>Z73</f>
         <v>0.13</v>
       </c>
       <c r="AA97" s="9">
-        <f t="shared" si="100"/>
+        <f>Z97+AA73</f>
         <v>1.06</v>
       </c>
       <c r="AB97" s="9">
-        <f t="shared" si="100"/>
+        <f>AA97+AB73</f>
         <v>2.92</v>
       </c>
       <c r="AC97" s="9">
-        <f t="shared" si="100"/>
+        <f>AB97+AC73</f>
         <v>6.6400000000000006</v>
       </c>
       <c r="AD97" s="9">
-        <f t="shared" si="100"/>
+        <f>AC97+AD73</f>
         <v>12.22</v>
       </c>
       <c r="AE97" s="9">
-        <f t="shared" si="100"/>
+        <f>AD97+AE73</f>
         <v>18.72</v>
       </c>
     </row>
-    <row r="98" spans="7:32">
-      <c r="O98" s="10"/>
-      <c r="P98" s="10"/>
-      <c r="R98" s="10"/>
+    <row r="98" spans="7:31">
+      <c r="G98" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="H98" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="I98" s="9">
+        <f>ROUNDUP(((H64/$B$39)*$B$40)*((100+O98)/100),0)/100</f>
+        <v>0.71</v>
+      </c>
+      <c r="J98" s="9">
+        <f>ROUNDUP(((I64/$B$39)*$B$40)*((100+O98)/100),0)/100</f>
+        <v>1.41</v>
+      </c>
+      <c r="K98" s="9">
+        <f>ROUNDUP(((J64/$B$39)*$B$40)*((100+O98)/100),0)/100</f>
+        <v>2.82</v>
+      </c>
+      <c r="L98" s="9">
+        <f>ROUNDUP(((K64/$B$39)*$B$40)*((100+O98)/100),0)/100</f>
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="M98" s="9">
+        <f>ROUNDUP(((L64/$B$39)*$B$40)*((100+O98)/100),0)/100</f>
+        <v>4.93</v>
+      </c>
+      <c r="N98" s="9">
+        <f>ROUNDUP(((M64/$B$39)*$B$40)*((100+O98)/100),0)/100</f>
+        <v>9.86</v>
+      </c>
+      <c r="O98" s="10">
+        <v>280</v>
+      </c>
+      <c r="P98" s="10">
+        <f t="shared" si="89"/>
+        <v>14.21</v>
+      </c>
+      <c r="Q98" s="9">
+        <f t="shared" ref="Q98:Q99" si="90">N98</f>
+        <v>9.86</v>
+      </c>
+      <c r="R98" s="10">
+        <f t="shared" ref="R98:R99" si="91">((P98+Q98)/$P$75)*100</f>
+        <v>108.96333182435491</v>
+      </c>
+      <c r="S98" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="T98" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="U98" s="9">
+        <f>ROUNDUP(((T64/$B$39)*$B$40)*((100+AA93)/100),0)/100</f>
+        <v>0</v>
+      </c>
+      <c r="V98" s="9">
+        <f>ROUNDUP(((U64/$B$39)*$B$40)*((100+AA93)/100),0)/100</f>
+        <v>0</v>
+      </c>
+      <c r="W98" s="9">
+        <f>ROUNDUP(((V64/$B$39)*$B$40)*((100+AA93)/100),0)/100</f>
+        <v>0</v>
+      </c>
       <c r="Y98" s="9" t="s">
         <v>211</v>
       </c>
       <c r="Z98" s="9">
-        <f t="shared" si="99"/>
+        <f>Z74</f>
         <v>0.14000000000000001</v>
       </c>
       <c r="AA98" s="9">
-        <f t="shared" si="100"/>
+        <f>Z98+AA74</f>
         <v>1.1600000000000001</v>
       </c>
       <c r="AB98" s="9">
-        <f t="shared" si="100"/>
+        <f>AA98+AB74</f>
         <v>3.19</v>
       </c>
       <c r="AC98" s="9">
-        <f t="shared" si="100"/>
+        <f>AB98+AC74</f>
         <v>7.25</v>
       </c>
       <c r="AD98" s="9">
-        <f t="shared" si="100"/>
+        <f>AC98+AD74</f>
         <v>13.34</v>
       </c>
       <c r="AE98" s="9">
-        <f t="shared" si="100"/>
+        <f>AD98+AE74</f>
         <v>20.439999999999998</v>
       </c>
     </row>
-    <row r="99" spans="7:32">
-      <c r="O99" s="10"/>
-      <c r="P99" s="10"/>
-      <c r="R99" s="10"/>
+    <row r="99" spans="7:31">
+      <c r="G99" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="H99" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="I99" s="9">
+        <f>ROUNDUP(((H65/$B$39)*$B$40)*((100+O99)/100),0)/100</f>
+        <v>0.83</v>
+      </c>
+      <c r="J99" s="9">
+        <f>ROUNDUP(((I65/$B$39)*$B$40)*((100+O99)/100),0)/100</f>
+        <v>1.66</v>
+      </c>
+      <c r="K99" s="9">
+        <f>ROUNDUP(((J65/$B$39)*$B$40)*((100+O99)/100),0)/100</f>
+        <v>3.31</v>
+      </c>
+      <c r="L99" s="9">
+        <f>ROUNDUP(((K65/$B$39)*$B$40)*((100+O99)/100),0)/100</f>
+        <v>4.96</v>
+      </c>
+      <c r="M99" s="9">
+        <f>ROUNDUP(((L65/$B$39)*$B$40)*((100+O99)/100),0)/100</f>
+        <v>5.79</v>
+      </c>
+      <c r="N99" s="9">
+        <f>ROUNDUP(((M65/$B$39)*$B$40)*((100+O99)/100),0)/100</f>
+        <v>11.58</v>
+      </c>
+      <c r="O99" s="10">
+        <v>300</v>
+      </c>
+      <c r="P99" s="10">
+        <f t="shared" ref="P99:P100" si="92">SUM(H99:M99)</f>
+        <v>16.669999999999998</v>
+      </c>
+      <c r="Q99" s="9">
+        <f t="shared" si="90"/>
+        <v>11.58</v>
+      </c>
+      <c r="R99" s="10">
+        <f t="shared" si="91"/>
+        <v>127.88592123132638</v>
+      </c>
+      <c r="S99" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="T99" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="U99" s="9">
+        <f>ROUNDUP(((T65/$B$39)*$B$40)*((100+AA94)/100),0)/100</f>
+        <v>0</v>
+      </c>
+      <c r="V99" s="9">
+        <f>ROUNDUP(((U65/$B$39)*$B$40)*((100+AA94)/100),0)/100</f>
+        <v>0</v>
+      </c>
+      <c r="W99" s="9">
+        <f>ROUNDUP(((V65/$B$39)*$B$40)*((100+AA94)/100),0)/100</f>
+        <v>0</v>
+      </c>
       <c r="Y99" s="9" t="s">
         <v>212</v>
       </c>
       <c r="Z99" s="9">
-        <f t="shared" si="99"/>
+        <f>Z75</f>
         <v>0.15</v>
       </c>
       <c r="AA99" s="9">
-        <f t="shared" si="100"/>
+        <f>Z99+AA75</f>
         <v>1.26</v>
       </c>
       <c r="AB99" s="9">
-        <f t="shared" si="100"/>
+        <f>AA99+AB75</f>
         <v>3.4699999999999998</v>
       </c>
       <c r="AC99" s="9">
-        <f t="shared" si="100"/>
+        <f>AB99+AC75</f>
         <v>7.88</v>
       </c>
       <c r="AD99" s="9">
-        <f t="shared" si="100"/>
+        <f>AC99+AD75</f>
         <v>14.5</v>
       </c>
       <c r="AE99" s="9">
-        <f t="shared" si="100"/>
+        <f>AD99+AE75</f>
         <v>22.22</v>
       </c>
     </row>
-    <row r="100" spans="7:32">
-      <c r="Y100" s="9"/>
-      <c r="Z100" s="9"/>
-      <c r="AA100" s="9"/>
-      <c r="AB100" s="9"/>
-      <c r="AC100" s="9"/>
-      <c r="AD100" s="9"/>
-      <c r="AE100" s="9"/>
-    </row>
-    <row r="101" spans="7:32">
+    <row r="100" spans="7:31">
+      <c r="G100" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="H100" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="I100" s="9">
+        <f>ROUNDUP(((H66/$B$39)*$B$40)*((100+O100)/100),0)/100</f>
+        <v>0.97</v>
+      </c>
+      <c r="J100" s="9">
+        <f>ROUNDUP(((I66/$B$39)*$B$40)*((100+O100)/100),0)/100</f>
+        <v>1.93</v>
+      </c>
+      <c r="K100" s="9">
+        <f>ROUNDUP(((J66/$B$39)*$B$40)*((100+O100)/100),0)/100</f>
+        <v>3.85</v>
+      </c>
+      <c r="L100" s="9">
+        <f>ROUNDUP(((K66/$B$39)*$B$40)*((100+O100)/100),0)/100</f>
+        <v>5.78</v>
+      </c>
+      <c r="M100" s="9">
+        <f>ROUNDUP(((L66/$B$39)*$B$40)*((100+O100)/100),0)/100</f>
+        <v>6.74</v>
+      </c>
+      <c r="N100" s="9">
+        <f>ROUNDUP(((M66/$B$39)*$B$40)*((100+O100)/100),0)/100</f>
+        <v>13.48</v>
+      </c>
+      <c r="O100" s="10">
+        <v>320</v>
+      </c>
+      <c r="P100" s="10">
+        <f t="shared" si="92"/>
+        <v>19.39</v>
+      </c>
+      <c r="Q100" s="9">
+        <f t="shared" ref="Q100:Q101" si="93">N100</f>
+        <v>13.48</v>
+      </c>
+      <c r="R100" s="10">
+        <f t="shared" ref="R100:R101" si="94">((P100+Q100)/$P$75)*100</f>
+        <v>148.80036215482119</v>
+      </c>
+    </row>
+    <row r="101" spans="7:31">
       <c r="G101" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="H101" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="I101" s="9">
+        <f>ROUNDUP(((H67/$B$39)*$B$40)*((100+O101)/100),0)/100</f>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="J101" s="9">
+        <f>ROUNDUP(((I67/$B$39)*$B$40)*((100+O101)/100),0)/100</f>
+        <v>2.23</v>
+      </c>
+      <c r="K101" s="9">
+        <f>ROUNDUP(((J67/$B$39)*$B$40)*((100+O101)/100),0)/100</f>
+        <v>4.45</v>
+      </c>
+      <c r="L101" s="9">
+        <f>ROUNDUP(((K67/$B$39)*$B$40)*((100+O101)/100),0)/100</f>
+        <v>6.68</v>
+      </c>
+      <c r="M101" s="9">
+        <f>ROUNDUP(((L67/$B$39)*$B$40)*((100+O101)/100),0)/100</f>
+        <v>7.79</v>
+      </c>
+      <c r="N101" s="9">
+        <f>ROUNDUP(((M67/$B$39)*$B$40)*((100+O101)/100),0)/100</f>
+        <v>15.57</v>
+      </c>
+      <c r="O101" s="10">
+        <v>340</v>
+      </c>
+      <c r="P101" s="10">
+        <f t="shared" ref="P101:P102" si="95">SUM(H101:M101)</f>
+        <v>22.4</v>
+      </c>
+      <c r="Q101" s="9">
+        <f t="shared" si="93"/>
+        <v>15.57</v>
+      </c>
+      <c r="R101" s="10">
+        <f t="shared" si="94"/>
+        <v>171.88773200543233</v>
+      </c>
+    </row>
+    <row r="102" spans="7:31">
+      <c r="G102" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="H102" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="I102" s="9">
+        <f t="shared" ref="I102" si="96">ROUNDUP(((H68/$B$39)*$B$40)*((100+O102)/100),0)/100</f>
+        <v>1.28</v>
+      </c>
+      <c r="J102" s="9">
+        <f t="shared" ref="J102" si="97">ROUNDUP(((I68/$B$39)*$B$40)*((100+O102)/100),0)/100</f>
+        <v>2.56</v>
+      </c>
+      <c r="K102" s="9">
+        <f t="shared" ref="K102" si="98">ROUNDUP(((J68/$B$39)*$B$40)*((100+O102)/100),0)/100</f>
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="L102" s="9">
+        <f t="shared" ref="L102" si="99">ROUNDUP(((K68/$B$39)*$B$40)*((100+O102)/100),0)/100</f>
+        <v>7.66</v>
+      </c>
+      <c r="M102" s="9">
+        <f t="shared" ref="M102" si="100">ROUNDUP(((L68/$B$39)*$B$40)*((100+O102)/100),0)/100</f>
+        <v>8.94</v>
+      </c>
+      <c r="N102" s="9">
+        <f>ROUNDUP(((M68/$B$39)*$B$40)*((100+O102)/100),0)/100</f>
+        <v>17.88</v>
+      </c>
+      <c r="O102" s="10">
+        <v>360</v>
+      </c>
+      <c r="P102" s="10">
+        <f t="shared" si="95"/>
+        <v>25.68</v>
+      </c>
+      <c r="Q102" s="9">
+        <f t="shared" ref="Q102:Q103" si="101">N102</f>
+        <v>17.88</v>
+      </c>
+      <c r="R102" s="10">
+        <f t="shared" ref="R102:R103" si="102">((P102+Q102)/$P$75)*100</f>
+        <v>197.19330013580807</v>
+      </c>
+    </row>
+    <row r="103" spans="7:31">
+      <c r="G103" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="H103" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I103" s="9">
+        <f>ROUNDUP(((H69/$B$39)*$B$40)*((100+O103)/100),0)/100</f>
+        <v>1.46</v>
+      </c>
+      <c r="J103" s="9">
+        <f>ROUNDUP(((I69/$B$39)*$B$40)*((100+O103)/100),0)/100</f>
+        <v>2.92</v>
+      </c>
+      <c r="K103" s="9">
+        <f>ROUNDUP(((J69/$B$39)*$B$40)*((100+O103)/100),0)/100</f>
+        <v>5.83</v>
+      </c>
+      <c r="L103" s="9">
+        <f>ROUNDUP(((K69/$B$39)*$B$40)*((100+O103)/100),0)/100</f>
+        <v>8.74</v>
+      </c>
+      <c r="M103" s="9">
+        <f>ROUNDUP(((L69/$B$39)*$B$40)*((100+O103)/100),0)/100</f>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="N103" s="9">
+        <f>ROUNDUP(((M69/$B$39)*$B$40)*((100+O103)/100),0)/100</f>
+        <v>20.39</v>
+      </c>
+      <c r="O103" s="10">
+        <v>380</v>
+      </c>
+      <c r="P103" s="10">
+        <f t="shared" ref="P103" si="103">SUM(H103:M103)</f>
+        <v>29.29</v>
+      </c>
+      <c r="Q103" s="9">
+        <f t="shared" si="101"/>
+        <v>20.39</v>
+      </c>
+      <c r="R103" s="10">
+        <f t="shared" si="102"/>
+        <v>224.89814395654145</v>
+      </c>
+    </row>
+    <row r="104" spans="7:31">
+      <c r="O104" s="10"/>
+      <c r="P104" s="10"/>
+      <c r="R104" s="10"/>
+    </row>
+    <row r="105" spans="7:31">
+      <c r="Y105" s="9"/>
+      <c r="Z105" s="9"/>
+      <c r="AA105" s="9"/>
+      <c r="AB105" s="9"/>
+      <c r="AC105" s="9"/>
+      <c r="AD105" s="9"/>
+      <c r="AE105" s="9"/>
+    </row>
+    <row r="106" spans="7:31">
+      <c r="G106" s="9" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="102" spans="7:32" ht="17.25" thickBot="1">
-      <c r="G102" s="24" t="s">
+    <row r="107" spans="7:31" ht="17.25" thickBot="1">
+      <c r="G107" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="H102" s="24">
+      <c r="H107" s="24">
         <v>0</v>
       </c>
-      <c r="I102" s="24">
+      <c r="I107" s="24">
         <v>1</v>
       </c>
-      <c r="J102" s="24">
+      <c r="J107" s="24">
         <v>2</v>
       </c>
-      <c r="K102" s="24">
+      <c r="K107" s="24">
         <v>3</v>
       </c>
-      <c r="L102" s="24">
+      <c r="L107" s="24">
         <v>4</v>
       </c>
-      <c r="M102" s="24">
+      <c r="M107" s="24">
         <v>5</v>
       </c>
-      <c r="N102" s="24" t="s">
+      <c r="N107" s="24" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="103" spans="7:32" ht="17.25" thickTop="1">
-      <c r="G103" s="9" t="s">
+    <row r="108" spans="7:31" ht="17.25" thickTop="1">
+      <c r="G108" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H103" s="9">
-        <f>H72</f>
+      <c r="H108" s="9">
+        <f>H77</f>
         <v>0.01</v>
       </c>
-      <c r="I103" s="9">
-        <f t="shared" ref="I103:N118" si="125">I72+H103</f>
+      <c r="I108" s="9">
+        <f t="shared" ref="I108:N123" si="104">I77+H108</f>
         <v>0.03</v>
       </c>
-      <c r="J103" s="9">
-        <f t="shared" si="125"/>
+      <c r="J108" s="9">
+        <f t="shared" si="104"/>
         <v>0.06</v>
       </c>
-      <c r="K103" s="9">
-        <f t="shared" si="125"/>
+      <c r="K108" s="9">
+        <f t="shared" si="104"/>
         <v>0.12</v>
       </c>
-      <c r="L103" s="9">
-        <f t="shared" si="125"/>
+      <c r="L108" s="9">
+        <f t="shared" si="104"/>
         <v>0.21</v>
       </c>
-      <c r="M103" s="9">
-        <f t="shared" si="125"/>
+      <c r="M108" s="9">
+        <f t="shared" si="104"/>
         <v>0.31</v>
       </c>
-      <c r="N103" s="9">
-        <f t="shared" si="125"/>
+      <c r="N108" s="9">
+        <f t="shared" si="104"/>
         <v>0.51</v>
       </c>
     </row>
-    <row r="104" spans="7:32">
-      <c r="G104" s="9" t="s">
+    <row r="109" spans="7:31">
+      <c r="G109" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H104" s="9">
-        <f>H73</f>
+      <c r="H109" s="9">
+        <f>H78</f>
         <v>0.01</v>
       </c>
-      <c r="I104" s="9">
-        <f t="shared" si="125"/>
+      <c r="I109" s="9">
+        <f t="shared" si="104"/>
         <v>0.03</v>
       </c>
-      <c r="J104" s="9">
-        <f t="shared" si="125"/>
+      <c r="J109" s="9">
+        <f t="shared" si="104"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="K104" s="9">
-        <f t="shared" si="125"/>
+      <c r="K109" s="9">
+        <f t="shared" si="104"/>
         <v>0.15000000000000002</v>
       </c>
-      <c r="L104" s="9">
-        <f t="shared" si="125"/>
+      <c r="L109" s="9">
+        <f t="shared" si="104"/>
         <v>0.27</v>
       </c>
-      <c r="M104" s="9">
-        <f t="shared" si="125"/>
+      <c r="M109" s="9">
+        <f t="shared" si="104"/>
         <v>0.41000000000000003</v>
       </c>
-      <c r="N104" s="9">
-        <f t="shared" si="125"/>
+      <c r="N109" s="9">
+        <f t="shared" si="104"/>
         <v>0.68</v>
       </c>
     </row>
-    <row r="105" spans="7:32">
-      <c r="G105" s="9" t="s">
+    <row r="110" spans="7:31">
+      <c r="G110" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H105" s="9">
-        <f t="shared" ref="H105:H128" si="126">H74</f>
+      <c r="H110" s="9">
+        <f t="shared" ref="H110:H134" si="105">H79</f>
         <v>0.02</v>
       </c>
-      <c r="I105" s="9">
-        <f t="shared" si="125"/>
+      <c r="I110" s="9">
+        <f t="shared" si="104"/>
         <v>0.05</v>
       </c>
-      <c r="J105" s="9">
-        <f t="shared" si="125"/>
+      <c r="J110" s="9">
+        <f t="shared" si="104"/>
         <v>0.1</v>
       </c>
-      <c r="K105" s="9">
-        <f t="shared" si="125"/>
+      <c r="K110" s="9">
+        <f t="shared" si="104"/>
         <v>0.2</v>
       </c>
-      <c r="L105" s="9">
-        <f t="shared" si="125"/>
+      <c r="L110" s="9">
+        <f t="shared" si="104"/>
         <v>0.35</v>
       </c>
-      <c r="M105" s="9">
-        <f t="shared" si="125"/>
+      <c r="M110" s="9">
+        <f t="shared" si="104"/>
         <v>0.53</v>
       </c>
-      <c r="N105" s="9">
-        <f t="shared" si="125"/>
+      <c r="N110" s="9">
+        <f t="shared" si="104"/>
         <v>0.88</v>
       </c>
     </row>
-    <row r="106" spans="7:32">
-      <c r="G106" s="9" t="s">
+    <row r="111" spans="7:31">
+      <c r="G111" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="H106" s="9">
-        <f t="shared" si="126"/>
+      <c r="H111" s="9">
+        <f t="shared" si="105"/>
         <v>0.02</v>
       </c>
-      <c r="I106" s="9">
-        <f t="shared" si="125"/>
+      <c r="I111" s="9">
+        <f t="shared" si="104"/>
         <v>0.06</v>
       </c>
-      <c r="J106" s="9">
-        <f t="shared" si="125"/>
+      <c r="J111" s="9">
+        <f t="shared" si="104"/>
         <v>0.13</v>
       </c>
-      <c r="K106" s="9">
-        <f t="shared" si="125"/>
+      <c r="K111" s="9">
+        <f t="shared" si="104"/>
         <v>0.26</v>
       </c>
-      <c r="L106" s="9">
-        <f t="shared" si="125"/>
+      <c r="L111" s="9">
+        <f t="shared" si="104"/>
         <v>0.45</v>
       </c>
-      <c r="M106" s="9">
-        <f t="shared" si="125"/>
+      <c r="M111" s="9">
+        <f t="shared" si="104"/>
         <v>0.67</v>
       </c>
-      <c r="N106" s="9">
-        <f t="shared" si="125"/>
+      <c r="N111" s="9">
+        <f t="shared" si="104"/>
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="107" spans="7:32">
-      <c r="G107" s="9" t="s">
+    <row r="112" spans="7:31">
+      <c r="G112" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H107" s="9">
-        <f t="shared" si="126"/>
+      <c r="H112" s="9">
+        <f t="shared" si="105"/>
         <v>0.03</v>
       </c>
-      <c r="I107" s="9">
-        <f t="shared" si="125"/>
+      <c r="I112" s="9">
+        <f t="shared" si="104"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J107" s="9">
-        <f t="shared" si="125"/>
+      <c r="J112" s="9">
+        <f t="shared" si="104"/>
         <v>0.15000000000000002</v>
       </c>
-      <c r="K107" s="9">
-        <f t="shared" si="125"/>
+      <c r="K112" s="9">
+        <f t="shared" si="104"/>
         <v>0.31000000000000005</v>
       </c>
-      <c r="L107" s="9">
-        <f t="shared" si="125"/>
+      <c r="L112" s="9">
+        <f t="shared" si="104"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="M107" s="9">
-        <f t="shared" si="125"/>
+      <c r="M112" s="9">
+        <f t="shared" si="104"/>
         <v>0.83000000000000007</v>
       </c>
-      <c r="N107" s="9">
-        <f t="shared" si="125"/>
+      <c r="N112" s="9">
+        <f t="shared" si="104"/>
         <v>1.3800000000000001</v>
       </c>
     </row>
-    <row r="108" spans="7:32">
-      <c r="G108" s="9" t="s">
+    <row r="113" spans="7:32">
+      <c r="G113" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H108" s="9">
-        <f t="shared" si="126"/>
+      <c r="H113" s="9">
+        <f t="shared" si="105"/>
         <v>0.03</v>
       </c>
-      <c r="I108" s="9">
-        <f t="shared" si="125"/>
+      <c r="I113" s="9">
+        <f t="shared" si="104"/>
         <v>0.08</v>
       </c>
-      <c r="J108" s="9">
-        <f t="shared" si="125"/>
+      <c r="J113" s="9">
+        <f t="shared" si="104"/>
         <v>0.18</v>
       </c>
-      <c r="K108" s="9">
-        <f t="shared" si="125"/>
+      <c r="K113" s="9">
+        <f t="shared" si="104"/>
         <v>0.38</v>
       </c>
-      <c r="L108" s="9">
-        <f t="shared" si="125"/>
+      <c r="L113" s="9">
+        <f t="shared" si="104"/>
         <v>0.66999999999999993</v>
       </c>
-      <c r="M108" s="9">
-        <f t="shared" si="125"/>
+      <c r="M113" s="9">
+        <f t="shared" si="104"/>
         <v>1.01</v>
       </c>
-      <c r="N108" s="9">
-        <f t="shared" si="125"/>
+      <c r="N113" s="9">
+        <f t="shared" si="104"/>
         <v>1.69</v>
       </c>
     </row>
-    <row r="109" spans="7:32">
-      <c r="G109" s="9" t="s">
+    <row r="114" spans="7:32">
+      <c r="G114" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H109" s="9">
-        <f t="shared" si="126"/>
+      <c r="H114" s="9">
+        <f t="shared" si="105"/>
         <v>0.04</v>
       </c>
-      <c r="I109" s="9">
-        <f t="shared" si="125"/>
+      <c r="I114" s="9">
+        <f t="shared" si="104"/>
         <v>0.1</v>
       </c>
-      <c r="J109" s="9">
-        <f t="shared" si="125"/>
+      <c r="J114" s="9">
+        <f t="shared" si="104"/>
         <v>0.22</v>
       </c>
-      <c r="K109" s="9">
-        <f t="shared" si="125"/>
+      <c r="K114" s="9">
+        <f t="shared" si="104"/>
         <v>0.45999999999999996</v>
       </c>
-      <c r="L109" s="9">
-        <f t="shared" si="125"/>
+      <c r="L114" s="9">
+        <f t="shared" si="104"/>
         <v>0.80999999999999994</v>
       </c>
-      <c r="M109" s="9">
-        <f t="shared" si="125"/>
+      <c r="M114" s="9">
+        <f t="shared" si="104"/>
         <v>1.22</v>
       </c>
-      <c r="N109" s="9">
-        <f t="shared" si="125"/>
+      <c r="N114" s="9">
+        <f t="shared" si="104"/>
         <v>2.04</v>
       </c>
-      <c r="AF109" s="9"/>
-    </row>
-    <row r="110" spans="7:32">
-      <c r="G110" s="9" t="s">
+      <c r="AF114" s="9"/>
+    </row>
+    <row r="115" spans="7:32">
+      <c r="G115" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H110" s="9">
-        <f t="shared" si="126"/>
+      <c r="H115" s="9">
+        <f t="shared" si="105"/>
         <v>0.04</v>
       </c>
-      <c r="I110" s="9">
-        <f t="shared" si="125"/>
+      <c r="I115" s="9">
+        <f t="shared" si="104"/>
         <v>0.11000000000000001</v>
       </c>
-      <c r="J110" s="9">
-        <f t="shared" si="125"/>
+      <c r="J115" s="9">
+        <f t="shared" si="104"/>
         <v>0.25</v>
       </c>
-      <c r="K110" s="9">
-        <f t="shared" si="125"/>
+      <c r="K115" s="9">
+        <f t="shared" si="104"/>
         <v>0.53</v>
       </c>
-      <c r="L110" s="9">
-        <f t="shared" si="125"/>
+      <c r="L115" s="9">
+        <f t="shared" si="104"/>
         <v>0.95</v>
       </c>
-      <c r="M110" s="9">
-        <f t="shared" si="125"/>
+      <c r="M115" s="9">
+        <f t="shared" si="104"/>
         <v>1.44</v>
       </c>
-      <c r="N110" s="9">
-        <f t="shared" si="125"/>
+      <c r="N115" s="9">
+        <f t="shared" si="104"/>
         <v>2.42</v>
       </c>
     </row>
-    <row r="111" spans="7:32">
-      <c r="G111" s="9" t="s">
+    <row r="116" spans="7:32">
+      <c r="G116" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H111" s="9">
-        <f t="shared" si="126"/>
+      <c r="H116" s="9">
+        <f t="shared" si="105"/>
         <v>0.05</v>
       </c>
-      <c r="I111" s="9">
-        <f t="shared" si="125"/>
+      <c r="I116" s="9">
+        <f t="shared" si="104"/>
         <v>0.14000000000000001</v>
       </c>
-      <c r="J111" s="9">
-        <f t="shared" si="125"/>
+      <c r="J116" s="9">
+        <f t="shared" si="104"/>
         <v>0.31000000000000005</v>
       </c>
-      <c r="K111" s="9">
-        <f t="shared" si="125"/>
+      <c r="K116" s="9">
+        <f t="shared" si="104"/>
         <v>0.65000000000000013</v>
       </c>
-      <c r="L111" s="9">
-        <f t="shared" si="125"/>
+      <c r="L116" s="9">
+        <f t="shared" si="104"/>
         <v>1.1500000000000001</v>
       </c>
-      <c r="M111" s="9">
-        <f t="shared" si="125"/>
+      <c r="M116" s="9">
+        <f t="shared" si="104"/>
         <v>1.7400000000000002</v>
       </c>
-      <c r="N111" s="9">
-        <f t="shared" si="125"/>
+      <c r="N116" s="9">
+        <f t="shared" si="104"/>
         <v>2.91</v>
       </c>
     </row>
-    <row r="112" spans="7:32">
-      <c r="G112" s="9" t="s">
+    <row r="117" spans="7:32">
+      <c r="G117" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H112" s="9">
-        <f t="shared" si="126"/>
+      <c r="H117" s="9">
+        <f t="shared" si="105"/>
         <v>0.05</v>
       </c>
-      <c r="I112" s="9">
-        <f t="shared" si="125"/>
+      <c r="I117" s="9">
+        <f t="shared" si="104"/>
         <v>0.15000000000000002</v>
       </c>
-      <c r="J112" s="9">
-        <f t="shared" si="125"/>
+      <c r="J117" s="9">
+        <f t="shared" si="104"/>
         <v>0.35000000000000003</v>
       </c>
-      <c r="K112" s="9">
-        <f t="shared" si="125"/>
+      <c r="K117" s="9">
+        <f t="shared" si="104"/>
         <v>0.75</v>
       </c>
-      <c r="L112" s="9">
-        <f t="shared" si="125"/>
+      <c r="L117" s="9">
+        <f t="shared" si="104"/>
         <v>1.3399999999999999</v>
       </c>
-      <c r="M112" s="9">
-        <f t="shared" si="125"/>
+      <c r="M117" s="9">
+        <f t="shared" si="104"/>
         <v>2.0299999999999998</v>
       </c>
-      <c r="N112" s="9">
-        <f t="shared" si="125"/>
+      <c r="N117" s="9">
+        <f t="shared" si="104"/>
         <v>3.4099999999999997</v>
       </c>
     </row>
-    <row r="113" spans="7:14">
-      <c r="G113" s="9" t="s">
+    <row r="118" spans="7:32">
+      <c r="G118" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="H113" s="9">
-        <f t="shared" si="126"/>
+      <c r="H118" s="9">
+        <f t="shared" si="105"/>
         <v>0.06</v>
       </c>
-      <c r="I113" s="9">
-        <f t="shared" si="125"/>
+      <c r="I118" s="9">
+        <f t="shared" si="104"/>
         <v>0.21</v>
       </c>
-      <c r="J113" s="9">
-        <f t="shared" si="125"/>
+      <c r="J118" s="9">
+        <f t="shared" si="104"/>
         <v>0.51</v>
       </c>
-      <c r="K113" s="9">
-        <f t="shared" si="125"/>
+      <c r="K118" s="9">
+        <f t="shared" si="104"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="L113" s="9">
-        <f t="shared" si="125"/>
+      <c r="L118" s="9">
+        <f t="shared" si="104"/>
         <v>1.98</v>
       </c>
-      <c r="M113" s="9">
-        <f t="shared" si="125"/>
+      <c r="M118" s="9">
+        <f t="shared" si="104"/>
         <v>3.01</v>
       </c>
-      <c r="N113" s="9">
-        <f t="shared" si="125"/>
+      <c r="N118" s="9">
+        <f t="shared" si="104"/>
         <v>5.0599999999999996</v>
       </c>
     </row>
-    <row r="114" spans="7:14">
-      <c r="G114" s="9" t="s">
+    <row r="119" spans="7:32">
+      <c r="G119" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="H114" s="9">
-        <f t="shared" si="126"/>
+      <c r="H119" s="9">
+        <f t="shared" si="105"/>
         <v>0.06</v>
       </c>
-      <c r="I114" s="9">
-        <f t="shared" si="125"/>
+      <c r="I119" s="9">
+        <f t="shared" si="104"/>
         <v>0.23</v>
       </c>
-      <c r="J114" s="9">
-        <f t="shared" si="125"/>
+      <c r="J119" s="9">
+        <f t="shared" si="104"/>
         <v>0.56000000000000005</v>
       </c>
-      <c r="K114" s="9">
-        <f t="shared" si="125"/>
+      <c r="K119" s="9">
+        <f t="shared" si="104"/>
         <v>1.21</v>
       </c>
-      <c r="L114" s="9">
-        <f t="shared" si="125"/>
+      <c r="L119" s="9">
+        <f t="shared" si="104"/>
         <v>2.1799999999999997</v>
       </c>
-      <c r="M114" s="9">
-        <f t="shared" si="125"/>
+      <c r="M119" s="9">
+        <f t="shared" si="104"/>
         <v>3.3099999999999996</v>
       </c>
-      <c r="N114" s="9">
-        <f t="shared" si="125"/>
+      <c r="N119" s="9">
+        <f t="shared" si="104"/>
         <v>5.56</v>
       </c>
     </row>
-    <row r="115" spans="7:14">
-      <c r="G115" s="9" t="s">
+    <row r="120" spans="7:32">
+      <c r="G120" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="H115" s="9">
-        <f t="shared" si="126"/>
+      <c r="H120" s="9">
+        <f t="shared" si="105"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I115" s="9">
-        <f t="shared" si="125"/>
+      <c r="I120" s="9">
+        <f t="shared" si="104"/>
         <v>0.25</v>
       </c>
-      <c r="J115" s="9">
-        <f t="shared" si="125"/>
+      <c r="J120" s="9">
+        <f t="shared" si="104"/>
         <v>0.61</v>
       </c>
-      <c r="K115" s="9">
-        <f t="shared" si="125"/>
+      <c r="K120" s="9">
+        <f t="shared" si="104"/>
         <v>1.3199999999999998</v>
       </c>
-      <c r="L115" s="9">
-        <f t="shared" si="125"/>
+      <c r="L120" s="9">
+        <f t="shared" si="104"/>
         <v>2.38</v>
       </c>
-      <c r="M115" s="9">
-        <f t="shared" si="125"/>
+      <c r="M120" s="9">
+        <f t="shared" si="104"/>
         <v>3.61</v>
       </c>
-      <c r="N115" s="9">
-        <f t="shared" si="125"/>
+      <c r="N120" s="9">
+        <f t="shared" si="104"/>
         <v>6.07</v>
       </c>
     </row>
-    <row r="116" spans="7:14">
-      <c r="G116" s="9" t="s">
+    <row r="121" spans="7:32">
+      <c r="G121" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="H116" s="9">
-        <f t="shared" si="126"/>
+      <c r="H121" s="9">
+        <f t="shared" si="105"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I116" s="9">
-        <f t="shared" si="125"/>
+      <c r="I121" s="9">
+        <f t="shared" si="104"/>
         <v>0.27</v>
       </c>
-      <c r="J116" s="9">
-        <f t="shared" si="125"/>
+      <c r="J121" s="9">
+        <f t="shared" si="104"/>
         <v>0.67</v>
       </c>
-      <c r="K116" s="9">
-        <f t="shared" si="125"/>
+      <c r="K121" s="9">
+        <f t="shared" si="104"/>
         <v>1.4700000000000002</v>
       </c>
-      <c r="L116" s="9">
-        <f t="shared" si="125"/>
+      <c r="L121" s="9">
+        <f t="shared" si="104"/>
         <v>2.67</v>
       </c>
-      <c r="M116" s="9">
-        <f t="shared" si="125"/>
+      <c r="M121" s="9">
+        <f t="shared" si="104"/>
         <v>4.07</v>
       </c>
-      <c r="N116" s="9">
-        <f t="shared" si="125"/>
+      <c r="N121" s="9">
+        <f t="shared" si="104"/>
         <v>6.86</v>
       </c>
     </row>
-    <row r="117" spans="7:14">
-      <c r="G117" s="9" t="s">
+    <row r="122" spans="7:32">
+      <c r="G122" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="H117" s="9">
-        <f t="shared" si="126"/>
+      <c r="H122" s="9">
+        <f t="shared" si="105"/>
         <v>0.08</v>
       </c>
-      <c r="I117" s="9">
-        <f t="shared" si="125"/>
+      <c r="I122" s="9">
+        <f t="shared" si="104"/>
         <v>0.31</v>
       </c>
-      <c r="J117" s="9">
-        <f t="shared" si="125"/>
+      <c r="J122" s="9">
+        <f t="shared" si="104"/>
         <v>0.76</v>
       </c>
-      <c r="K117" s="9">
-        <f t="shared" si="125"/>
+      <c r="K122" s="9">
+        <f t="shared" si="104"/>
         <v>1.6600000000000001</v>
       </c>
-      <c r="L117" s="9">
-        <f t="shared" si="125"/>
+      <c r="L122" s="9">
+        <f t="shared" si="104"/>
         <v>3.0100000000000002</v>
       </c>
-      <c r="M117" s="9">
-        <f t="shared" si="125"/>
+      <c r="M122" s="9">
+        <f t="shared" si="104"/>
         <v>4.59</v>
       </c>
-      <c r="N117" s="9">
-        <f t="shared" si="125"/>
+      <c r="N122" s="9">
+        <f t="shared" si="104"/>
         <v>7.74</v>
       </c>
     </row>
-    <row r="118" spans="7:14">
-      <c r="G118" s="9" t="s">
+    <row r="123" spans="7:32">
+      <c r="G123" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="H118" s="9">
-        <f t="shared" si="126"/>
+      <c r="H123" s="9">
+        <f t="shared" si="105"/>
         <v>0.08</v>
       </c>
-      <c r="I118" s="9">
-        <f t="shared" si="125"/>
+      <c r="I123" s="9">
+        <f t="shared" si="104"/>
         <v>0.35000000000000003</v>
       </c>
-      <c r="J118" s="9">
-        <f t="shared" si="125"/>
+      <c r="J123" s="9">
+        <f t="shared" si="104"/>
         <v>0.88000000000000012</v>
       </c>
-      <c r="K118" s="9">
-        <f t="shared" si="125"/>
+      <c r="K123" s="9">
+        <f t="shared" si="104"/>
         <v>1.9400000000000002</v>
       </c>
-      <c r="L118" s="9">
-        <f t="shared" si="125"/>
+      <c r="L123" s="9">
+        <f t="shared" si="104"/>
         <v>3.5200000000000005</v>
       </c>
-      <c r="M118" s="9">
-        <f t="shared" si="125"/>
+      <c r="M123" s="9">
+        <f t="shared" si="104"/>
         <v>5.36</v>
       </c>
-      <c r="N118" s="9">
-        <f t="shared" si="125"/>
+      <c r="N123" s="9">
+        <f t="shared" si="104"/>
         <v>9.0400000000000009</v>
       </c>
     </row>
-    <row r="119" spans="7:14">
-      <c r="G119" s="9" t="s">
+    <row r="124" spans="7:32">
+      <c r="G124" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="H119" s="9">
-        <f t="shared" si="126"/>
+      <c r="H124" s="9">
+        <f t="shared" si="105"/>
         <v>0.09</v>
       </c>
-      <c r="I119" s="9">
-        <f t="shared" ref="I119:N123" si="127">I88+H119</f>
+      <c r="I124" s="9">
+        <f t="shared" ref="I124:N128" si="106">I93+H124</f>
         <v>0.41000000000000003</v>
       </c>
-      <c r="J119" s="9">
-        <f t="shared" si="127"/>
+      <c r="J124" s="9">
+        <f t="shared" si="106"/>
         <v>1.05</v>
       </c>
-      <c r="K119" s="9">
-        <f t="shared" si="127"/>
+      <c r="K124" s="9">
+        <f t="shared" si="106"/>
         <v>2.3200000000000003</v>
       </c>
-      <c r="L119" s="9">
-        <f t="shared" si="127"/>
+      <c r="L124" s="9">
+        <f t="shared" si="106"/>
         <v>4.2200000000000006</v>
       </c>
-      <c r="M119" s="9">
-        <f t="shared" si="127"/>
+      <c r="M124" s="9">
+        <f t="shared" si="106"/>
         <v>6.4400000000000013</v>
       </c>
-      <c r="N119" s="9">
-        <f t="shared" si="127"/>
+      <c r="N124" s="9">
+        <f t="shared" si="106"/>
         <v>10.870000000000001</v>
       </c>
     </row>
-    <row r="120" spans="7:14">
-      <c r="G120" s="9" t="s">
+    <row r="125" spans="7:32">
+      <c r="G125" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="H120" s="9">
-        <f t="shared" si="126"/>
+      <c r="H125" s="9">
+        <f t="shared" si="105"/>
         <v>0.09</v>
       </c>
-      <c r="I120" s="9">
-        <f t="shared" si="127"/>
+      <c r="I125" s="9">
+        <f t="shared" si="106"/>
         <v>0.47</v>
       </c>
-      <c r="J120" s="9">
-        <f t="shared" si="127"/>
+      <c r="J125" s="9">
+        <f t="shared" si="106"/>
         <v>1.23</v>
       </c>
-      <c r="K120" s="9">
-        <f t="shared" si="127"/>
+      <c r="K125" s="9">
+        <f t="shared" si="106"/>
         <v>2.74</v>
       </c>
-      <c r="L120" s="9">
-        <f t="shared" si="127"/>
+      <c r="L125" s="9">
+        <f t="shared" si="106"/>
         <v>4.99</v>
       </c>
-      <c r="M120" s="9">
-        <f t="shared" si="127"/>
+      <c r="M125" s="9">
+        <f t="shared" si="106"/>
         <v>7.62</v>
       </c>
-      <c r="N120" s="9">
-        <f t="shared" si="127"/>
+      <c r="N125" s="9">
+        <f t="shared" si="106"/>
         <v>12.879999999999999</v>
       </c>
     </row>
-    <row r="121" spans="7:14">
-      <c r="G121" s="9" t="s">
+    <row r="126" spans="7:32">
+      <c r="G126" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="H121" s="9">
-        <f t="shared" si="126"/>
+      <c r="H126" s="9">
+        <f t="shared" si="105"/>
         <v>0.1</v>
       </c>
-      <c r="I121" s="9">
-        <f t="shared" si="127"/>
+      <c r="I126" s="9">
+        <f t="shared" si="106"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="J121" s="9">
-        <f t="shared" si="127"/>
+      <c r="J126" s="9">
+        <f t="shared" si="106"/>
         <v>1.44</v>
       </c>
-      <c r="K121" s="9">
-        <f t="shared" si="127"/>
+      <c r="K126" s="9">
+        <f t="shared" si="106"/>
         <v>3.21</v>
       </c>
-      <c r="L121" s="9">
-        <f t="shared" si="127"/>
+      <c r="L126" s="9">
+        <f t="shared" si="106"/>
         <v>5.8599999999999994</v>
       </c>
-      <c r="M121" s="9">
-        <f t="shared" si="127"/>
+      <c r="M126" s="9">
+        <f t="shared" si="106"/>
         <v>8.9499999999999993</v>
       </c>
-      <c r="N121" s="9">
-        <f t="shared" si="127"/>
+      <c r="N126" s="9">
+        <f t="shared" si="106"/>
         <v>15.129999999999999</v>
       </c>
     </row>
-    <row r="122" spans="7:14">
-      <c r="G122" s="9" t="s">
+    <row r="127" spans="7:32">
+      <c r="G127" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="H122" s="9">
-        <f t="shared" si="126"/>
+      <c r="H127" s="9">
+        <f t="shared" si="105"/>
         <v>0.1</v>
       </c>
-      <c r="I122" s="9">
-        <f t="shared" si="127"/>
+      <c r="I127" s="9">
+        <f t="shared" si="106"/>
         <v>0.62</v>
       </c>
-      <c r="J122" s="9">
-        <f t="shared" si="127"/>
+      <c r="J127" s="9">
+        <f t="shared" si="106"/>
         <v>1.65</v>
       </c>
-      <c r="K122" s="9">
-        <f t="shared" si="127"/>
+      <c r="K127" s="9">
+        <f t="shared" si="106"/>
         <v>3.71</v>
       </c>
-      <c r="L122" s="9">
-        <f t="shared" si="127"/>
+      <c r="L127" s="9">
+        <f t="shared" si="106"/>
         <v>6.8</v>
       </c>
-      <c r="M122" s="9">
-        <f t="shared" si="127"/>
+      <c r="M127" s="9">
+        <f t="shared" si="106"/>
         <v>10.4</v>
       </c>
-      <c r="N122" s="9">
-        <f t="shared" si="127"/>
+      <c r="N127" s="9">
+        <f t="shared" si="106"/>
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="123" spans="7:14">
-      <c r="G123" s="9" t="s">
+    <row r="128" spans="7:32">
+      <c r="G128" s="9" t="s">
         <v>418</v>
       </c>
-      <c r="H123" s="9">
-        <f t="shared" si="126"/>
+      <c r="H128" s="9">
+        <f t="shared" si="105"/>
         <v>0.11</v>
       </c>
-      <c r="I123" s="9">
-        <f t="shared" si="127"/>
+      <c r="I128" s="9">
+        <f t="shared" si="106"/>
         <v>0.71</v>
       </c>
-      <c r="J123" s="9">
-        <f t="shared" si="127"/>
+      <c r="J128" s="9">
+        <f t="shared" si="106"/>
         <v>1.9</v>
       </c>
-      <c r="K123" s="9">
-        <f t="shared" si="127"/>
+      <c r="K128" s="9">
+        <f t="shared" si="106"/>
         <v>4.2799999999999994</v>
       </c>
-      <c r="L123" s="9">
-        <f t="shared" si="127"/>
+      <c r="L128" s="9">
+        <f t="shared" si="106"/>
         <v>7.85</v>
       </c>
-      <c r="M123" s="9">
-        <f t="shared" si="127"/>
+      <c r="M128" s="9">
+        <f t="shared" si="106"/>
         <v>12.02</v>
       </c>
-      <c r="N123" s="9">
-        <f t="shared" si="127"/>
+      <c r="N128" s="9">
+        <f t="shared" si="106"/>
         <v>20.350000000000001</v>
       </c>
     </row>
-    <row r="124" spans="7:14">
-      <c r="G124" s="9" t="s">
+    <row r="129" spans="7:14">
+      <c r="G129" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="H124" s="9">
-        <f t="shared" si="126"/>
+      <c r="H129" s="9">
+        <f t="shared" si="105"/>
         <v>0.11</v>
       </c>
-      <c r="I124" s="9">
-        <f t="shared" ref="I124:I125" si="128">I93+H124</f>
+      <c r="I129" s="9">
+        <f t="shared" ref="I129:I130" si="107">I98+H129</f>
         <v>0.82</v>
       </c>
-      <c r="J124" s="9">
-        <f t="shared" ref="J124:J125" si="129">J93+I124</f>
+      <c r="J129" s="9">
+        <f t="shared" ref="J129:J130" si="108">J98+I129</f>
         <v>2.23</v>
       </c>
-      <c r="K124" s="9">
-        <f t="shared" ref="K124:K125" si="130">K93+J124</f>
+      <c r="K129" s="9">
+        <f t="shared" ref="K129:K130" si="109">K98+J129</f>
         <v>5.05</v>
       </c>
-      <c r="L124" s="9">
-        <f t="shared" ref="L124:L125" si="131">L93+K124</f>
+      <c r="L129" s="9">
+        <f t="shared" ref="L129:L130" si="110">L98+K129</f>
         <v>9.2800000000000011</v>
       </c>
-      <c r="M124" s="9">
-        <f t="shared" ref="M124:M125" si="132">M93+L124</f>
+      <c r="M129" s="9">
+        <f t="shared" ref="M129:M130" si="111">M98+L129</f>
         <v>14.21</v>
       </c>
-      <c r="N124" s="9">
-        <f t="shared" ref="N124:N125" si="133">N93+M124</f>
+      <c r="N129" s="9">
+        <f t="shared" ref="N129:N130" si="112">N98+M129</f>
         <v>24.07</v>
       </c>
     </row>
-    <row r="125" spans="7:14">
-      <c r="G125" s="9" t="s">
+    <row r="130" spans="7:14">
+      <c r="G130" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="H125" s="9">
-        <f t="shared" si="126"/>
+      <c r="H130" s="9">
+        <f t="shared" si="105"/>
         <v>0.12</v>
       </c>
-      <c r="I125" s="9">
-        <f t="shared" si="128"/>
+      <c r="I130" s="9">
+        <f t="shared" si="107"/>
         <v>0.95</v>
       </c>
-      <c r="J125" s="9">
-        <f t="shared" si="129"/>
+      <c r="J130" s="9">
+        <f t="shared" si="108"/>
         <v>2.61</v>
       </c>
-      <c r="K125" s="9">
-        <f t="shared" si="130"/>
+      <c r="K130" s="9">
+        <f t="shared" si="109"/>
         <v>5.92</v>
       </c>
-      <c r="L125" s="9">
-        <f t="shared" si="131"/>
+      <c r="L130" s="9">
+        <f t="shared" si="110"/>
         <v>10.879999999999999</v>
       </c>
-      <c r="M125" s="9">
-        <f t="shared" si="132"/>
+      <c r="M130" s="9">
+        <f t="shared" si="111"/>
         <v>16.669999999999998</v>
       </c>
-      <c r="N125" s="9">
-        <f t="shared" si="133"/>
+      <c r="N130" s="9">
+        <f t="shared" si="112"/>
         <v>28.25</v>
       </c>
     </row>
-    <row r="126" spans="7:14">
-      <c r="G126" s="9" t="s">
+    <row r="131" spans="7:14">
+      <c r="G131" s="9" t="s">
         <v>464</v>
       </c>
-      <c r="H126" s="9">
-        <f t="shared" si="126"/>
+      <c r="H131" s="9">
+        <f t="shared" si="105"/>
         <v>0.12</v>
       </c>
-      <c r="I126" s="9">
-        <f t="shared" ref="I126:I127" si="134">I95+H126</f>
+      <c r="I131" s="9">
+        <f t="shared" ref="I131:I132" si="113">I100+H131</f>
         <v>1.0899999999999999</v>
       </c>
-      <c r="J126" s="9">
-        <f t="shared" ref="J126:J127" si="135">J95+I126</f>
+      <c r="J131" s="9">
+        <f t="shared" ref="J131:J132" si="114">J100+I131</f>
         <v>3.0199999999999996</v>
       </c>
-      <c r="K126" s="9">
-        <f t="shared" ref="K126:K127" si="136">K95+J126</f>
+      <c r="K131" s="9">
+        <f t="shared" ref="K131:K132" si="115">K100+J131</f>
         <v>6.8699999999999992</v>
       </c>
-      <c r="L126" s="9">
-        <f t="shared" ref="L126:L127" si="137">L95+K126</f>
+      <c r="L131" s="9">
+        <f t="shared" ref="L131:L132" si="116">L100+K131</f>
         <v>12.649999999999999</v>
       </c>
-      <c r="M126" s="9">
-        <f t="shared" ref="M126:M127" si="138">M95+L126</f>
+      <c r="M131" s="9">
+        <f t="shared" ref="M131:M132" si="117">M100+L131</f>
         <v>19.39</v>
       </c>
-      <c r="N126" s="9">
-        <f t="shared" ref="N126:N127" si="139">N95+M126</f>
+      <c r="N131" s="9">
+        <f t="shared" ref="N131:N132" si="118">N100+M131</f>
         <v>32.870000000000005</v>
       </c>
     </row>
-    <row r="127" spans="7:14">
-      <c r="G127" s="9" t="s">
+    <row r="132" spans="7:14">
+      <c r="G132" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="H127" s="9">
-        <f t="shared" si="126"/>
+      <c r="H132" s="9">
+        <f t="shared" si="105"/>
         <v>0.13</v>
       </c>
-      <c r="I127" s="9">
-        <f t="shared" si="134"/>
+      <c r="I132" s="9">
+        <f t="shared" si="113"/>
         <v>1.25</v>
       </c>
-      <c r="J127" s="9">
-        <f t="shared" si="135"/>
+      <c r="J132" s="9">
+        <f t="shared" si="114"/>
         <v>3.48</v>
       </c>
-      <c r="K127" s="9">
-        <f t="shared" si="136"/>
+      <c r="K132" s="9">
+        <f t="shared" si="115"/>
         <v>7.93</v>
       </c>
-      <c r="L127" s="9">
-        <f t="shared" si="137"/>
+      <c r="L132" s="9">
+        <f t="shared" si="116"/>
         <v>14.61</v>
       </c>
-      <c r="M127" s="9">
-        <f t="shared" si="138"/>
+      <c r="M132" s="9">
+        <f t="shared" si="117"/>
         <v>22.4</v>
       </c>
-      <c r="N127" s="9">
-        <f t="shared" si="139"/>
+      <c r="N132" s="9">
+        <f t="shared" si="118"/>
         <v>37.97</v>
       </c>
     </row>
-    <row r="128" spans="7:14">
-      <c r="G128" s="9" t="s">
+    <row r="133" spans="7:14">
+      <c r="G133" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="H128" s="9">
-        <f t="shared" si="126"/>
+      <c r="H133" s="9">
+        <f t="shared" si="105"/>
         <v>0.13</v>
       </c>
-      <c r="I128" s="9">
-        <f t="shared" ref="I128" si="140">I97+H128</f>
+      <c r="I133" s="9">
+        <f t="shared" ref="I133:I134" si="119">I102+H133</f>
         <v>1.4100000000000001</v>
       </c>
-      <c r="J128" s="9">
-        <f t="shared" ref="J128" si="141">J97+I128</f>
+      <c r="J133" s="9">
+        <f t="shared" ref="J133:J134" si="120">J102+I133</f>
         <v>3.97</v>
       </c>
-      <c r="K128" s="9">
-        <f t="shared" ref="K128" si="142">K97+J128</f>
+      <c r="K133" s="9">
+        <f t="shared" ref="K133:K134" si="121">K102+J133</f>
         <v>9.08</v>
       </c>
-      <c r="L128" s="9">
-        <f t="shared" ref="L128" si="143">L97+K128</f>
+      <c r="L133" s="9">
+        <f t="shared" ref="L133:L134" si="122">L102+K133</f>
         <v>16.740000000000002</v>
       </c>
-      <c r="M128" s="9">
-        <f t="shared" ref="M128" si="144">M97+L128</f>
+      <c r="M133" s="9">
+        <f t="shared" ref="M133:M134" si="123">M102+L133</f>
         <v>25.68</v>
       </c>
-      <c r="N128" s="9">
-        <f t="shared" ref="N128" si="145">N97+M128</f>
+      <c r="N133" s="9">
+        <f t="shared" ref="N133:N134" si="124">N102+M133</f>
         <v>43.56</v>
+      </c>
+    </row>
+    <row r="134" spans="7:14">
+      <c r="G134" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="H134" s="9">
+        <f t="shared" si="105"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I134" s="9">
+        <f t="shared" si="119"/>
+        <v>1.6</v>
+      </c>
+      <c r="J134" s="9">
+        <f t="shared" si="120"/>
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="K134" s="9">
+        <f t="shared" si="121"/>
+        <v>10.35</v>
+      </c>
+      <c r="L134" s="9">
+        <f t="shared" si="122"/>
+        <v>19.09</v>
+      </c>
+      <c r="M134" s="9">
+        <f t="shared" si="123"/>
+        <v>29.29</v>
+      </c>
+      <c r="N134" s="9">
+        <f t="shared" si="124"/>
+        <v>49.68</v>
       </c>
     </row>
   </sheetData>
@@ -11834,8 +12070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14EF5D34-81E7-475D-8B1B-AFFF2EFE6FF9}">
   <dimension ref="A2:W50"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -13873,27 +14109,27 @@
         <v>26</v>
       </c>
       <c r="B29" s="2" t="str">
-        <f t="shared" ref="B29" si="41">C29&amp;","&amp;D29&amp;","&amp;E29&amp;","&amp;F29&amp;","&amp;G29</f>
+        <f t="shared" ref="B29:B30" si="41">C29&amp;","&amp;D29&amp;","&amp;E29&amp;","&amp;F29&amp;","&amp;G29</f>
         <v>10단,20단,50단,100단,200단</v>
       </c>
       <c r="C29" t="str">
-        <f t="shared" ref="C29" si="42">$C$3&amp;H29</f>
+        <f t="shared" ref="C29:C30" si="42">$C$3&amp;H29</f>
         <v>10단</v>
       </c>
       <c r="D29" t="str">
-        <f t="shared" ref="D29" si="43">$D$3&amp;H29</f>
+        <f t="shared" ref="D29:D30" si="43">$D$3&amp;H29</f>
         <v>20단</v>
       </c>
       <c r="E29" t="str">
-        <f t="shared" ref="E29" si="44">$E$3&amp;H29</f>
+        <f t="shared" ref="E29:E30" si="44">$E$3&amp;H29</f>
         <v>50단</v>
       </c>
       <c r="F29" t="str">
-        <f t="shared" ref="F29" si="45">$F$3&amp;H29</f>
+        <f t="shared" ref="F29:F30" si="45">$F$3&amp;H29</f>
         <v>100단</v>
       </c>
       <c r="G29" t="str">
-        <f t="shared" ref="G29" si="46">$G$3&amp;H29</f>
+        <f t="shared" ref="G29:G30" si="46">$G$3&amp;H29</f>
         <v>200단</v>
       </c>
       <c r="H29" s="2" t="s">
@@ -13903,31 +14139,31 @@
         <v>26</v>
       </c>
       <c r="K29" s="2" t="str">
-        <f t="shared" ref="K29" si="47">L29&amp;","&amp;M29&amp;","&amp;N29&amp;","&amp;O29&amp;","&amp;P29</f>
+        <f t="shared" ref="K29:K30" si="47">L29&amp;","&amp;M29&amp;","&amp;N29&amp;","&amp;O29&amp;","&amp;P29</f>
         <v>1E+161,2E+161,5E+161,1E+162,2E+162</v>
       </c>
       <c r="L29">
-        <f t="shared" ref="L29" si="48">$C$3*Q29</f>
+        <f t="shared" ref="L29:L30" si="48">$C$3*Q29</f>
         <v>1E+161</v>
       </c>
       <c r="M29">
-        <f t="shared" ref="M29" si="49">$D$3*Q29</f>
+        <f t="shared" ref="M29:M30" si="49">$D$3*Q29</f>
         <v>2.0000000000000001E+161</v>
       </c>
       <c r="N29">
-        <f t="shared" ref="N29" si="50">$E$3*Q29</f>
+        <f t="shared" ref="N29:N30" si="50">$E$3*Q29</f>
         <v>4.9999999999999997E+161</v>
       </c>
       <c r="O29">
-        <f t="shared" ref="O29" si="51">$F$3*Q29</f>
+        <f t="shared" ref="O29:O30" si="51">$F$3*Q29</f>
         <v>9.9999999999999994E+161</v>
       </c>
       <c r="P29">
-        <f t="shared" ref="P29" si="52">$G$3*Q29</f>
+        <f t="shared" ref="P29:P30" si="52">$G$3*Q29</f>
         <v>1.9999999999999999E+162</v>
       </c>
       <c r="Q29" t="str">
-        <f t="shared" ref="Q29" si="53">VLOOKUP(H29,T:W,4,FALSE)</f>
+        <f t="shared" ref="Q29:Q30" si="53">VLOOKUP(H29,T:W,4,FALSE)</f>
         <v>1E+160</v>
       </c>
       <c r="T29" t="s">
@@ -13946,6 +14182,67 @@
       </c>
     </row>
     <row r="30" spans="1:23">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>10절,20절,50절,100절,200절</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="42"/>
+        <v>10절</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="43"/>
+        <v>20절</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="44"/>
+        <v>50절</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="45"/>
+        <v>100절</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="46"/>
+        <v>200절</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="J30">
+        <v>27</v>
+      </c>
+      <c r="K30" s="2" t="str">
+        <f t="shared" si="47"/>
+        <v>1E+165,2E+165,5E+165,1E+166,2E+166</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="48"/>
+        <v>1.0000000000000001E+165</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="49"/>
+        <v>2.0000000000000002E+165</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="50"/>
+        <v>4.9999999999999997E+165</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="51"/>
+        <v>9.9999999999999994E+165</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="52"/>
+        <v>1.9999999999999999E+166</v>
+      </c>
+      <c r="Q30" t="str">
+        <f t="shared" si="53"/>
+        <v>1E+164</v>
+      </c>
       <c r="T30" t="s">
         <v>178</v>
       </c>
@@ -14145,16 +14442,29 @@
         <v>160</v>
       </c>
       <c r="V42">
-        <f t="shared" ref="V42" si="58">POWER(10,U42)</f>
+        <f t="shared" ref="V42:V43" si="58">POWER(10,U42)</f>
         <v>1E+160</v>
       </c>
       <c r="W42" t="str">
-        <f t="shared" ref="W42" si="59">RIGHT(V42,U42)</f>
+        <f t="shared" ref="W42:W43" si="59">RIGHT(V42,U42)</f>
         <v>1E+160</v>
       </c>
     </row>
     <row r="43" spans="20:23">
-      <c r="V43" s="33"/>
+      <c r="T43" t="s">
+        <v>498</v>
+      </c>
+      <c r="U43">
+        <v>164</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="58"/>
+        <v>1E+164</v>
+      </c>
+      <c r="W43" t="str">
+        <f t="shared" si="59"/>
+        <v>1E+164</v>
+      </c>
     </row>
     <row r="44" spans="20:23">
       <c r="V44" s="33"/>

--- a/Assets/06.Table/SuhopetTable.xlsx
+++ b/Assets/06.Table/SuhopetTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6534615B-9B28-4A18-BFE4-CCA58B6F9944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD408F8-1BFF-40CA-93C5-7EA0E69112A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="605" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="517">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1786,6 +1786,43 @@
   </si>
   <si>
     <t>27단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>길리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1E+169,2E+169,5E+169,1E+170,2E+170</t>
+  </si>
+  <si>
+    <t>10격,20격,50격,100격,200격</t>
+  </si>
+  <si>
+    <t>28단계</t>
+  </si>
+  <si>
+    <t>펫28</t>
+  </si>
+  <si>
+    <t>740,740,740,740,740</t>
+  </si>
+  <si>
+    <t>0.14,1.72,4.88,11.2,20.68,31.74,53.85</t>
+  </si>
+  <si>
+    <t>2632,5264,10527,15790,18422,36844</t>
+  </si>
+  <si>
+    <t>28단계</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2626,10 +2663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:U42"/>
+  <dimension ref="A1:U43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5381,6 +5418,71 @@
       </c>
       <c r="U42" s="1" t="s">
         <v>505</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" ht="33">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="F43" s="43" t="s">
+        <v>509</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H43" s="44" t="s">
+        <v>274</v>
+      </c>
+      <c r="I43" s="45" t="s">
+        <v>513</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="K43" s="1">
+        <v>9016</v>
+      </c>
+      <c r="L43" s="1">
+        <v>510</v>
+      </c>
+      <c r="M43" s="1">
+        <v>49</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="O43" s="1">
+        <v>6</v>
+      </c>
+      <c r="P43" s="46">
+        <v>9016</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="R43" s="1">
+        <v>198</v>
+      </c>
+      <c r="S43" s="47" t="s">
+        <v>182</v>
+      </c>
+      <c r="T43" s="48" t="s">
+        <v>416</v>
+      </c>
+      <c r="U43" s="1" t="s">
+        <v>516</v>
       </c>
     </row>
   </sheetData>
@@ -5424,10 +5526,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB815A5-0A26-4B2F-8716-20DE31E1881F}">
-  <dimension ref="A1:AF134"/>
+  <dimension ref="A1:AF135"/>
   <sheetViews>
-    <sheetView topLeftCell="B21" workbookViewId="0">
-      <selection activeCell="Q34" sqref="Q34"/>
+    <sheetView topLeftCell="B12" workbookViewId="0">
+      <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -5602,11 +5704,11 @@
         <v>198</v>
       </c>
       <c r="Z8" s="1" t="str">
-        <f>Z85&amp;","&amp;AA85&amp;","&amp;AB85&amp;","&amp;AC85&amp;","&amp;AD85&amp;","&amp;AE85</f>
+        <f t="shared" ref="Z8:Z22" si="2">Z85&amp;","&amp;AA85&amp;","&amp;AB85&amp;","&amp;AC85&amp;","&amp;AD85&amp;","&amp;AE85</f>
         <v>0.01,0.23,0.67,1.54,2.84,4.36</v>
       </c>
       <c r="AA8" s="40" t="str">
-        <f t="shared" ref="AA8:AA22" si="2">Z41&amp;","&amp;AA41&amp;","&amp;AB41&amp;","&amp;AC41&amp;","&amp;AD41</f>
+        <f t="shared" ref="AA8:AA22" si="3">Z41&amp;","&amp;AA41&amp;","&amp;AB41&amp;","&amp;AC41&amp;","&amp;AD41</f>
         <v>720,1440,2880,4320,5040</v>
       </c>
     </row>
@@ -5627,18 +5729,18 @@
         <v>120</v>
       </c>
       <c r="I9" s="9">
-        <f t="shared" ref="I9:I17" si="3">H9*$B$9*$B$18*($B$13/100)</f>
+        <f t="shared" ref="I9:I17" si="4">H9*$B$9*$B$18*($B$13/100)</f>
         <v>864</v>
       </c>
       <c r="J9" s="9">
-        <f t="shared" ref="J9:J29" si="4">ROUNDUP((I9/5),-1)</f>
+        <f t="shared" ref="J9:J29" si="5">ROUNDUP((I9/5),-1)</f>
         <v>180</v>
       </c>
       <c r="N9" s="9" t="s">
         <v>18</v>
       </c>
       <c r="O9" s="1" t="str">
-        <f t="shared" ref="O9:O16" si="5">J9&amp;","&amp;J9&amp;","&amp;J9&amp;","&amp;J9&amp;","&amp;J9</f>
+        <f t="shared" ref="O9:O16" si="6">J9&amp;","&amp;J9&amp;","&amp;J9&amp;","&amp;J9&amp;","&amp;J9</f>
         <v>180,180,180,180,180</v>
       </c>
       <c r="P9" s="1" t="str">
@@ -5653,11 +5755,11 @@
         <v>199</v>
       </c>
       <c r="Z9" s="1" t="str">
-        <f>Z86&amp;","&amp;AA86&amp;","&amp;AB86&amp;","&amp;AC86&amp;","&amp;AD86&amp;","&amp;AE86</f>
+        <f t="shared" si="2"/>
         <v>0.02,0.26,0.73,1.66,3.06,4.69</v>
       </c>
       <c r="AA9" s="40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>744,1488,2976,4464,5208</v>
       </c>
     </row>
@@ -5672,18 +5774,18 @@
         <v>130</v>
       </c>
       <c r="I10" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>936</v>
       </c>
       <c r="J10" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>190</v>
       </c>
       <c r="N10" s="9" t="s">
         <v>19</v>
       </c>
       <c r="O10" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>190,190,190,190,190</v>
       </c>
       <c r="P10" s="1" t="str">
@@ -5698,11 +5800,11 @@
         <v>200</v>
       </c>
       <c r="Z10" s="1" t="str">
-        <f>Z87&amp;","&amp;AA87&amp;","&amp;AB87&amp;","&amp;AC87&amp;","&amp;AD87&amp;","&amp;AE87</f>
+        <f t="shared" si="2"/>
         <v>0.03,0.28,0.78,1.78,3.28,5.03</v>
       </c>
       <c r="AA10" s="40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>768,1536,3072,4608,5376</v>
       </c>
     </row>
@@ -5723,18 +5825,18 @@
         <v>140</v>
       </c>
       <c r="I11" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1008</v>
       </c>
       <c r="J11" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>210</v>
       </c>
       <c r="N11" s="9" t="s">
         <v>85</v>
       </c>
       <c r="O11" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>210,210,210,210,210</v>
       </c>
       <c r="P11" s="1" t="str">
@@ -5749,11 +5851,11 @@
         <v>201</v>
       </c>
       <c r="Z11" s="1" t="str">
-        <f>Z88&amp;","&amp;AA88&amp;","&amp;AB88&amp;","&amp;AC88&amp;","&amp;AD88&amp;","&amp;AE88</f>
+        <f t="shared" si="2"/>
         <v>0.04,0.31,0.85,1.92,3.52,5.39</v>
       </c>
       <c r="AA11" s="40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>792,1584,3168,4752,5544</v>
       </c>
     </row>
@@ -5775,18 +5877,18 @@
         <v>150</v>
       </c>
       <c r="I12" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1080</v>
       </c>
       <c r="J12" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>220</v>
       </c>
       <c r="N12" s="9" t="s">
         <v>20</v>
       </c>
       <c r="O12" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>220,220,220,220,220</v>
       </c>
       <c r="P12" s="1" t="str">
@@ -5801,11 +5903,11 @@
         <v>202</v>
       </c>
       <c r="Z12" s="1" t="str">
-        <f>Z89&amp;","&amp;AA89&amp;","&amp;AB89&amp;","&amp;AC89&amp;","&amp;AD89&amp;","&amp;AE89</f>
+        <f t="shared" si="2"/>
         <v>0.05,0.35,0.94,2.12,3.89,5.95</v>
       </c>
       <c r="AA12" s="40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>816,1632,3264,4896,5712</v>
       </c>
     </row>
@@ -5826,18 +5928,18 @@
         <v>160</v>
       </c>
       <c r="I13" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1152</v>
       </c>
       <c r="J13" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>240</v>
       </c>
       <c r="N13" s="9" t="s">
         <v>21</v>
       </c>
       <c r="O13" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>240,240,240,240,240</v>
       </c>
       <c r="P13" s="1" t="str">
@@ -5852,11 +5954,11 @@
         <v>203</v>
       </c>
       <c r="Z13" s="1" t="str">
-        <f>Z90&amp;","&amp;AA90&amp;","&amp;AB90&amp;","&amp;AC90&amp;","&amp;AD90&amp;","&amp;AE90</f>
+        <f t="shared" si="2"/>
         <v>0.06,0.39,1.04,2.34,4.28,6.54</v>
       </c>
       <c r="AA13" s="40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>840,1680,3360,5040,5880</v>
       </c>
     </row>
@@ -5871,18 +5973,18 @@
         <v>170</v>
       </c>
       <c r="I14" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1224</v>
       </c>
       <c r="J14" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>250</v>
       </c>
       <c r="N14" s="9" t="s">
         <v>22</v>
       </c>
       <c r="O14" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>250,250,250,250,250</v>
       </c>
       <c r="P14" s="1" t="str">
@@ -5897,11 +5999,11 @@
         <v>204</v>
       </c>
       <c r="Z14" s="1" t="str">
-        <f>Z91&amp;","&amp;AA91&amp;","&amp;AB91&amp;","&amp;AC91&amp;","&amp;AD91&amp;","&amp;AE91</f>
+        <f t="shared" si="2"/>
         <v>0.07,0.43,1.14,2.56,4.68,7.15</v>
       </c>
       <c r="AA14" s="40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>864,1728,3456,5184,6048</v>
       </c>
     </row>
@@ -5915,18 +6017,18 @@
         <v>180</v>
       </c>
       <c r="I15" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1296</v>
       </c>
       <c r="J15" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>260</v>
       </c>
       <c r="N15" s="9" t="s">
         <v>23</v>
       </c>
       <c r="O15" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>260,260,260,260,260</v>
       </c>
       <c r="P15" s="1" t="str">
@@ -5941,11 +6043,11 @@
         <v>205</v>
       </c>
       <c r="Z15" s="1" t="str">
-        <f>Z92&amp;","&amp;AA92&amp;","&amp;AB92&amp;","&amp;AC92&amp;","&amp;AD92&amp;","&amp;AE92</f>
+        <f t="shared" si="2"/>
         <v>0.08,0.48,1.27,2.85,5.22,7.98</v>
       </c>
       <c r="AA15" s="40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>888,1776,3552,5328,6216</v>
       </c>
     </row>
@@ -5964,18 +6066,18 @@
         <v>190</v>
       </c>
       <c r="I16" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1368</v>
       </c>
       <c r="J16" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>280</v>
       </c>
       <c r="N16" s="9" t="s">
         <v>24</v>
       </c>
       <c r="O16" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>280,280,280,280,280</v>
       </c>
       <c r="P16" s="1" t="str">
@@ -5990,11 +6092,11 @@
         <v>206</v>
       </c>
       <c r="Z16" s="1" t="str">
-        <f>Z93&amp;","&amp;AA93&amp;","&amp;AB93&amp;","&amp;AC93&amp;","&amp;AD93&amp;","&amp;AE93</f>
+        <f t="shared" si="2"/>
         <v>0.09,0.67,1.83,4.14,7.6,11.64</v>
       </c>
       <c r="AA16" s="40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1200,2400,4800,7200,8400</v>
       </c>
     </row>
@@ -6011,11 +6113,11 @@
         <v>200</v>
       </c>
       <c r="I17" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1440</v>
       </c>
       <c r="J17" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>290</v>
       </c>
       <c r="N17" s="9" t="s">
@@ -6037,11 +6139,11 @@
         <v>207</v>
       </c>
       <c r="Z17" s="1" t="str">
-        <f>Z94&amp;","&amp;AA94&amp;","&amp;AB94&amp;","&amp;AC94&amp;","&amp;AD94&amp;","&amp;AE94</f>
+        <f t="shared" si="2"/>
         <v>0.1,0.75,2.04,4.62,8.49,13</v>
       </c>
       <c r="AA17" s="40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1248,2496,4992,7488,8736</v>
       </c>
     </row>
@@ -6064,7 +6166,7 @@
         <v>105</v>
       </c>
       <c r="O18" s="1" t="str">
-        <f t="shared" ref="O18:O28" si="6">J19&amp;","&amp;J19&amp;","&amp;J19&amp;","&amp;J19&amp;","&amp;J19</f>
+        <f t="shared" ref="O18:O28" si="7">J19&amp;","&amp;J19&amp;","&amp;J19&amp;","&amp;J19&amp;","&amp;J19</f>
         <v>300,300,300,300,300</v>
       </c>
       <c r="P18" s="1" t="str">
@@ -6072,18 +6174,18 @@
         <v>0.06,0.21,0.51,1.1,1.98,3.01,5.06</v>
       </c>
       <c r="Q18" s="9" t="str">
-        <f t="shared" ref="Q18:Q28" si="7">H53&amp;","&amp;I53&amp;","&amp;J53&amp;","&amp;K53&amp;","&amp;L53&amp;","&amp;M53</f>
+        <f t="shared" ref="Q18:Q28" si="8">H53&amp;","&amp;I53&amp;","&amp;J53&amp;","&amp;K53&amp;","&amp;L53&amp;","&amp;M53</f>
         <v>580,1160,2319,3478,4058,8116</v>
       </c>
       <c r="Y18" s="9" t="s">
         <v>208</v>
       </c>
       <c r="Z18" s="1" t="str">
-        <f>Z95&amp;","&amp;AA95&amp;","&amp;AB95&amp;","&amp;AC95&amp;","&amp;AD95&amp;","&amp;AE95</f>
+        <f t="shared" si="2"/>
         <v>0.11,0.83,2.27,5.14,9.44,14.45</v>
       </c>
       <c r="AA18" s="40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1296,2592,5184,7776,9072</v>
       </c>
     </row>
@@ -6105,7 +6207,7 @@
         <v>210</v>
       </c>
       <c r="I19" s="9">
-        <f t="shared" ref="I19:I29" si="8">H19*$B$9*$B$18*($B$13/100)</f>
+        <f t="shared" ref="I19:I29" si="9">H19*$B$9*$B$18*($B$13/100)</f>
         <v>1512</v>
       </c>
       <c r="J19" s="9">
@@ -6115,7 +6217,7 @@
         <v>106</v>
       </c>
       <c r="O19" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>320,320,320,320,320</v>
       </c>
       <c r="P19" s="1" t="str">
@@ -6123,18 +6225,18 @@
         <v>0.06,0.23,0.56,1.21,2.18,3.31,5.56</v>
       </c>
       <c r="Q19" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>608,1215,2429,3644,4251,8502</v>
       </c>
       <c r="Y19" s="9" t="s">
         <v>428</v>
       </c>
       <c r="Z19" s="1" t="str">
-        <f>Z96&amp;","&amp;AA96&amp;","&amp;AB96&amp;","&amp;AC96&amp;","&amp;AD96&amp;","&amp;AE96</f>
+        <f t="shared" si="2"/>
         <v>0.12,0.97,2.67,6.06,11.15,17.08</v>
       </c>
       <c r="AA19" s="40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1440,2880,5760,8640,10080</v>
       </c>
     </row>
@@ -6156,18 +6258,18 @@
         <v>220</v>
       </c>
       <c r="I20" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1584</v>
       </c>
       <c r="J20" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>320</v>
       </c>
       <c r="N20" s="9" t="s">
         <v>172</v>
       </c>
       <c r="O20" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>340,340,340,340,340</v>
       </c>
       <c r="P20" s="1" t="str">
@@ -6175,18 +6277,18 @@
         <v>0.07,0.25,0.61,1.32,2.38,3.61,6.07</v>
       </c>
       <c r="Q20" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>635,1270,2540,3809,4444,8888</v>
       </c>
       <c r="Y20" s="9" t="s">
         <v>210</v>
       </c>
       <c r="Z20" s="1" t="str">
-        <f>Z97&amp;","&amp;AA97&amp;","&amp;AB97&amp;","&amp;AC97&amp;","&amp;AD97&amp;","&amp;AE97</f>
+        <f t="shared" si="2"/>
         <v>0.13,1.06,2.92,6.64,12.22,18.72</v>
       </c>
       <c r="AA20" s="40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1488,2976,5952,8928,10416</v>
       </c>
     </row>
@@ -6208,18 +6310,18 @@
         <v>230</v>
       </c>
       <c r="I21" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1656</v>
       </c>
       <c r="J21" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>340</v>
       </c>
       <c r="N21" s="9" t="s">
         <v>174</v>
       </c>
       <c r="O21" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>350,350,350,350,350</v>
       </c>
       <c r="P21" s="1" t="str">
@@ -6227,18 +6329,18 @@
         <v>0.07,0.27,0.67,1.47,2.67,4.07,6.86</v>
       </c>
       <c r="Q21" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>692,1383,2765,4148,4839,9678</v>
       </c>
       <c r="Y21" s="9" t="s">
         <v>211</v>
       </c>
       <c r="Z21" s="1" t="str">
-        <f>Z98&amp;","&amp;AA98&amp;","&amp;AB98&amp;","&amp;AC98&amp;","&amp;AD98&amp;","&amp;AE98</f>
+        <f t="shared" si="2"/>
         <v>0.14,1.16,3.19,7.25,13.34,20.44</v>
       </c>
       <c r="AA21" s="40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1536,3072,6144,9216,10752</v>
       </c>
     </row>
@@ -6258,18 +6360,18 @@
         <v>240</v>
       </c>
       <c r="I22" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1728</v>
       </c>
       <c r="J22" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>350</v>
       </c>
       <c r="N22" s="9" t="s">
         <v>195</v>
       </c>
       <c r="O22" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>360,360,360,360,360</v>
       </c>
       <c r="P22" s="1" t="str">
@@ -6277,18 +6379,18 @@
         <v>0.08,0.31,0.76,1.66,3.01,4.59,7.74</v>
       </c>
       <c r="Q22" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>750,1500,3000,4500,5250,10500</v>
       </c>
       <c r="Y22" s="9" t="s">
         <v>212</v>
       </c>
       <c r="Z22" s="1" t="str">
-        <f>Z99&amp;","&amp;AA99&amp;","&amp;AB99&amp;","&amp;AC99&amp;","&amp;AD99&amp;","&amp;AE99</f>
+        <f t="shared" si="2"/>
         <v>0.15,1.26,3.47,7.88,14.5,22.22</v>
       </c>
       <c r="AA22" s="40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1584,3168,6336,9504,11088</v>
       </c>
     </row>
@@ -6300,18 +6402,18 @@
         <v>250</v>
       </c>
       <c r="I23" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1800</v>
       </c>
       <c r="J23" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>360</v>
       </c>
       <c r="N23" s="9" t="s">
         <v>246</v>
       </c>
       <c r="O23" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>390,390,390,390,390</v>
       </c>
       <c r="P23" s="1" t="str">
@@ -6319,7 +6421,7 @@
         <v>0.08,0.35,0.88,1.94,3.52,5.36,9.04</v>
       </c>
       <c r="Q23" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>843,1685,3370,5055,5897,11794</v>
       </c>
     </row>
@@ -6331,18 +6433,18 @@
         <v>270</v>
       </c>
       <c r="I24" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1944</v>
       </c>
       <c r="J24" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>390</v>
       </c>
       <c r="N24" s="9" t="s">
         <v>313</v>
       </c>
       <c r="O24" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>420,420,420,420,420</v>
       </c>
       <c r="P24" s="1" t="str">
@@ -6350,7 +6452,7 @@
         <v>0.09,0.41,1.05,2.32,4.22,6.44,10.87</v>
       </c>
       <c r="Q24" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>940,1880,3759,5638,6578,13156</v>
       </c>
     </row>
@@ -6367,18 +6469,18 @@
         <v>290</v>
       </c>
       <c r="I25" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2088</v>
       </c>
       <c r="J25" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>420</v>
       </c>
       <c r="N25" s="9" t="s">
         <v>368</v>
       </c>
       <c r="O25" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>450,450,450,450,450</v>
       </c>
       <c r="P25" s="1" t="str">
@@ -6386,7 +6488,7 @@
         <v>0.09,0.47,1.23,2.74,4.99,7.62,12.88</v>
       </c>
       <c r="Q25" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1042,2084,4167,6250,7292,14584</v>
       </c>
       <c r="S25" s="36"/>
@@ -6412,18 +6514,18 @@
         <v>310</v>
       </c>
       <c r="I26" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2232</v>
       </c>
       <c r="J26" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>450</v>
       </c>
       <c r="N26" s="9" t="s">
         <v>375</v>
       </c>
       <c r="O26" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>480,480,480,480,480</v>
       </c>
       <c r="P26" s="1" t="str">
@@ -6431,7 +6533,7 @@
         <v>0.1,0.55,1.44,3.21,5.86,8.95,15.13</v>
       </c>
       <c r="Q26" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1149,2297,4594,6891,8039,16078</v>
       </c>
     </row>
@@ -6448,18 +6550,18 @@
         <v>330</v>
       </c>
       <c r="I27" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2376</v>
       </c>
       <c r="J27" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>480</v>
       </c>
       <c r="N27" s="9" t="s">
         <v>387</v>
       </c>
       <c r="O27" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>510,510,510,510,510</v>
       </c>
       <c r="P27" s="1" t="str">
@@ -6467,7 +6569,7 @@
         <v>0.1,0.62,1.65,3.71,6.8,10.4,17.6</v>
       </c>
       <c r="Q27" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1260,2520,5040,7560,8820,17640</v>
       </c>
     </row>
@@ -6484,18 +6586,18 @@
         <v>350</v>
       </c>
       <c r="I28" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2520</v>
       </c>
       <c r="J28" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>510</v>
       </c>
       <c r="N28" s="9" t="s">
         <v>418</v>
       </c>
       <c r="O28" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>540,540,540,540,540</v>
       </c>
       <c r="P28" s="1" t="str">
@@ -6503,7 +6605,7 @@
         <v>0.11,0.71,1.9,4.28,7.85,12.02,20.35</v>
       </c>
       <c r="Q28" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1377,2753,5506,8259,9635,19270</v>
       </c>
     </row>
@@ -6521,26 +6623,26 @@
         <v>370</v>
       </c>
       <c r="I29" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2664</v>
       </c>
       <c r="J29" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>540</v>
       </c>
       <c r="N29" s="9" t="s">
         <v>431</v>
       </c>
       <c r="O29" s="1" t="str">
-        <f t="shared" ref="O29" si="9">J30&amp;","&amp;J30&amp;","&amp;J30&amp;","&amp;J30&amp;","&amp;J30</f>
+        <f t="shared" ref="O29" si="10">J30&amp;","&amp;J30&amp;","&amp;J30&amp;","&amp;J30&amp;","&amp;J30</f>
         <v>570,570,570,570,570</v>
       </c>
       <c r="P29" s="1" t="str">
-        <f t="shared" ref="P29" si="10">H129&amp;","&amp;I129&amp;","&amp;J129&amp;","&amp;K129&amp;","&amp;L129&amp;","&amp;M129&amp;","&amp;N129</f>
+        <f t="shared" ref="P29" si="11">H129&amp;","&amp;I129&amp;","&amp;J129&amp;","&amp;K129&amp;","&amp;L129&amp;","&amp;M129&amp;","&amp;N129</f>
         <v>0.11,0.82,2.23,5.05,9.28,14.21,24.07</v>
       </c>
       <c r="Q29" s="9" t="str">
-        <f t="shared" ref="Q29" si="11">H64&amp;","&amp;I64&amp;","&amp;J64&amp;","&amp;K64&amp;","&amp;L64&amp;","&amp;M64</f>
+        <f t="shared" ref="Q29" si="12">H64&amp;","&amp;I64&amp;","&amp;J64&amp;","&amp;K64&amp;","&amp;L64&amp;","&amp;M64</f>
         <v>1545,3089,6178,9267,10811,21622</v>
       </c>
     </row>
@@ -6558,26 +6660,26 @@
         <v>390</v>
       </c>
       <c r="I30" s="9">
-        <f t="shared" ref="I30:I31" si="12">H30*$B$9*$B$18*($B$13/100)</f>
+        <f t="shared" ref="I30:I31" si="13">H30*$B$9*$B$18*($B$13/100)</f>
         <v>2808</v>
       </c>
       <c r="J30" s="9">
-        <f t="shared" ref="J30:J31" si="13">ROUNDUP((I30/5),-1)</f>
+        <f t="shared" ref="J30:J31" si="14">ROUNDUP((I30/5),-1)</f>
         <v>570</v>
       </c>
       <c r="N30" s="9" t="s">
         <v>451</v>
       </c>
       <c r="O30" s="1" t="str">
-        <f t="shared" ref="O30:O31" si="14">J31&amp;","&amp;J31&amp;","&amp;J31&amp;","&amp;J31&amp;","&amp;J31</f>
+        <f t="shared" ref="O30:O31" si="15">J31&amp;","&amp;J31&amp;","&amp;J31&amp;","&amp;J31&amp;","&amp;J31</f>
         <v>600,600,600,600,600</v>
       </c>
       <c r="P30" s="1" t="str">
-        <f t="shared" ref="P30:P31" si="15">H130&amp;","&amp;I130&amp;","&amp;J130&amp;","&amp;K130&amp;","&amp;L130&amp;","&amp;M130&amp;","&amp;N130</f>
+        <f t="shared" ref="P30:P31" si="16">H130&amp;","&amp;I130&amp;","&amp;J130&amp;","&amp;K130&amp;","&amp;L130&amp;","&amp;M130&amp;","&amp;N130</f>
         <v>0.12,0.95,2.61,5.92,10.88,16.67,28.25</v>
       </c>
       <c r="Q30" s="9" t="str">
-        <f t="shared" ref="Q30:Q31" si="16">H65&amp;","&amp;I65&amp;","&amp;J65&amp;","&amp;K65&amp;","&amp;L65&amp;","&amp;M65</f>
+        <f t="shared" ref="Q30:Q31" si="17">H65&amp;","&amp;I65&amp;","&amp;J65&amp;","&amp;K65&amp;","&amp;L65&amp;","&amp;M65</f>
         <v>1722,3444,6888,10332,12054,24108</v>
       </c>
     </row>
@@ -6595,26 +6697,26 @@
         <v>410</v>
       </c>
       <c r="I31" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2952</v>
       </c>
       <c r="J31" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>600</v>
       </c>
       <c r="N31" s="9" t="s">
         <v>464</v>
       </c>
       <c r="O31" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>620,620,620,620,620</v>
       </c>
       <c r="P31" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.12,1.09,3.02,6.87,12.65,19.39,32.87</v>
       </c>
       <c r="Q31" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1910,3819,7637,11456,13365,26730</v>
       </c>
     </row>
@@ -6632,26 +6734,26 @@
         <v>430</v>
       </c>
       <c r="I32" s="9">
-        <f t="shared" ref="I32:I33" si="17">H32*$B$9*$B$18*($B$13/100)</f>
+        <f t="shared" ref="I32:I33" si="18">H32*$B$9*$B$18*($B$13/100)</f>
         <v>3096</v>
       </c>
       <c r="J32" s="9">
-        <f t="shared" ref="J32:J33" si="18">ROUNDUP((I32/5),-1)</f>
+        <f t="shared" ref="J32:J33" si="19">ROUNDUP((I32/5),-1)</f>
         <v>620</v>
       </c>
       <c r="N32" s="9" t="s">
         <v>473</v>
       </c>
       <c r="O32" s="1" t="str">
-        <f t="shared" ref="O32:O33" si="19">J33&amp;","&amp;J33&amp;","&amp;J33&amp;","&amp;J33&amp;","&amp;J33</f>
+        <f t="shared" ref="O32:O33" si="20">J33&amp;","&amp;J33&amp;","&amp;J33&amp;","&amp;J33&amp;","&amp;J33</f>
         <v>650,650,650,650,650</v>
       </c>
       <c r="P32" s="1" t="str">
-        <f t="shared" ref="P32:P33" si="20">H132&amp;","&amp;I132&amp;","&amp;J132&amp;","&amp;K132&amp;","&amp;L132&amp;","&amp;M132&amp;","&amp;N132</f>
+        <f t="shared" ref="P32:P33" si="21">H132&amp;","&amp;I132&amp;","&amp;J132&amp;","&amp;K132&amp;","&amp;L132&amp;","&amp;M132&amp;","&amp;N132</f>
         <v>0.13,1.25,3.48,7.93,14.61,22.4,37.97</v>
       </c>
       <c r="Q32" s="9" t="str">
-        <f t="shared" ref="Q32:Q33" si="21">H67&amp;","&amp;I67&amp;","&amp;J67&amp;","&amp;K67&amp;","&amp;L67&amp;","&amp;M67</f>
+        <f t="shared" ref="Q32:Q33" si="22">H67&amp;","&amp;I67&amp;","&amp;J67&amp;","&amp;K67&amp;","&amp;L67&amp;","&amp;M67</f>
         <v>2106,4212,8424,12636,14742,29484</v>
       </c>
     </row>
@@ -6669,26 +6771,26 @@
         <v>450</v>
       </c>
       <c r="I33" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3240</v>
       </c>
       <c r="J33" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>650</v>
       </c>
       <c r="N33" s="9" t="s">
         <v>491</v>
       </c>
       <c r="O33" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>680,680,680,680,680</v>
       </c>
       <c r="P33" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.13,1.41,3.97,9.08,16.74,25.68,43.56</v>
       </c>
       <c r="Q33" s="9" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2313,4625,9250,13875,16187,32374</v>
       </c>
     </row>
@@ -6706,26 +6808,26 @@
         <v>470</v>
       </c>
       <c r="I34" s="9">
-        <f t="shared" ref="I34:I35" si="22">H34*$B$9*$B$18*($B$13/100)</f>
+        <f t="shared" ref="I34:I35" si="23">H34*$B$9*$B$18*($B$13/100)</f>
         <v>3384</v>
       </c>
       <c r="J34" s="9">
-        <f t="shared" ref="J34:J35" si="23">ROUNDUP((I34/5),-1)</f>
+        <f t="shared" ref="J34:J35" si="24">ROUNDUP((I34/5),-1)</f>
         <v>680</v>
       </c>
       <c r="N34" s="9" t="s">
         <v>490</v>
       </c>
       <c r="O34" s="1" t="str">
-        <f t="shared" ref="O34" si="24">J35&amp;","&amp;J35&amp;","&amp;J35&amp;","&amp;J35&amp;","&amp;J35</f>
+        <f t="shared" ref="O34:O35" si="25">J35&amp;","&amp;J35&amp;","&amp;J35&amp;","&amp;J35&amp;","&amp;J35</f>
         <v>710,710,710,710,710</v>
       </c>
       <c r="P34" s="1" t="str">
-        <f t="shared" ref="P34" si="25">H134&amp;","&amp;I134&amp;","&amp;J134&amp;","&amp;K134&amp;","&amp;L134&amp;","&amp;M134&amp;","&amp;N134</f>
+        <f t="shared" ref="P34:P35" si="26">H134&amp;","&amp;I134&amp;","&amp;J134&amp;","&amp;K134&amp;","&amp;L134&amp;","&amp;M134&amp;","&amp;N134</f>
         <v>0.14,1.6,4.52,10.35,19.09,29.29,49.68</v>
       </c>
       <c r="Q34" s="9" t="str">
-        <f t="shared" ref="Q34" si="26">H69&amp;","&amp;I69&amp;","&amp;J69&amp;","&amp;K69&amp;","&amp;L69&amp;","&amp;M69</f>
+        <f t="shared" ref="Q34:Q35" si="27">H69&amp;","&amp;I69&amp;","&amp;J69&amp;","&amp;K69&amp;","&amp;L69&amp;","&amp;M69</f>
         <v>2529,5057,10114,15171,17699,35398</v>
       </c>
     </row>
@@ -6744,12 +6846,43 @@
         <v>490</v>
       </c>
       <c r="I35" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>3528</v>
       </c>
       <c r="J35" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>710</v>
+      </c>
+      <c r="N35" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="O35" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v>740,740,740,740,740</v>
+      </c>
+      <c r="P35" s="1" t="str">
+        <f t="shared" si="26"/>
+        <v>0.14,1.72,4.88,11.2,20.68,31.74,53.85</v>
+      </c>
+      <c r="Q35" s="9" t="str">
+        <f t="shared" si="27"/>
+        <v>2632,5264,10527,15790,18422,36844</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32">
+      <c r="G36" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="H36" s="9">
+        <v>510</v>
+      </c>
+      <c r="I36" s="9">
+        <f t="shared" ref="I36" si="28">H36*$B$9*$B$18*($B$13/100)</f>
+        <v>3672</v>
+      </c>
+      <c r="J36" s="9">
+        <f t="shared" ref="J36" si="29">ROUNDUP((I36/5),-1)</f>
+        <v>740</v>
       </c>
     </row>
     <row r="37" spans="1:32">
@@ -6771,27 +6904,27 @@
         <v>68</v>
       </c>
       <c r="R39" s="23">
-        <f t="shared" ref="R39:W39" si="27">SUM(R41:R50)</f>
+        <f t="shared" ref="R39:W39" si="30">SUM(R41:R50)</f>
         <v>16.285714285714285</v>
       </c>
       <c r="S39" s="23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>13.328571428571429</v>
       </c>
       <c r="T39" s="23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>10.213240418118467</v>
       </c>
       <c r="U39" s="23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>8.8857142857142843</v>
       </c>
       <c r="V39" s="23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>6.4878048780487809</v>
       </c>
       <c r="W39" s="23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>5.3097560975609763</v>
       </c>
       <c r="X39"/>
@@ -6896,23 +7029,23 @@
         <v>106</v>
       </c>
       <c r="I41" s="9">
-        <f t="shared" ref="I41:I50" si="28">ROUNDUP((P41*$B$31/100),0)</f>
+        <f t="shared" ref="I41:I50" si="31">ROUNDUP((P41*$B$31/100),0)</f>
         <v>212</v>
       </c>
       <c r="J41" s="9">
-        <f t="shared" ref="J41:J50" si="29">ROUNDUP((P41*$B$32/100),0)</f>
+        <f t="shared" ref="J41:J50" si="32">ROUNDUP((P41*$B$32/100),0)</f>
         <v>423</v>
       </c>
       <c r="K41" s="9">
-        <f t="shared" ref="K41:K50" si="30">ROUNDUP((P41*$B$33/100),0)</f>
+        <f t="shared" ref="K41:K50" si="33">ROUNDUP((P41*$B$33/100),0)</f>
         <v>634</v>
       </c>
       <c r="L41" s="9">
-        <f t="shared" ref="L41:L50" si="31">ROUNDUP((P41*$B$34/100),0)</f>
+        <f t="shared" ref="L41:L50" si="34">ROUNDUP((P41*$B$34/100),0)</f>
         <v>740</v>
       </c>
       <c r="M41" s="9">
-        <f t="shared" ref="M41:M50" si="32">L41*$B$43</f>
+        <f t="shared" ref="M41:M50" si="35">L41*$B$43</f>
         <v>1480</v>
       </c>
       <c r="N41" s="9">
@@ -6923,23 +7056,23 @@
         <v>50</v>
       </c>
       <c r="P41" s="9">
-        <f t="shared" ref="P41:P50" si="33">(H8*$B$9*$B$18)*(O41/100)+I8</f>
+        <f t="shared" ref="P41:P50" si="36">(H8*$B$9*$B$18)*(O41/100)+I8</f>
         <v>2112</v>
       </c>
       <c r="Q41" s="9">
-        <f t="shared" ref="Q41:Q50" si="34">P41-I8</f>
+        <f t="shared" ref="Q41:Q50" si="37">P41-I8</f>
         <v>1320</v>
       </c>
       <c r="R41" s="1">
-        <f t="shared" ref="R41:R50" si="35">(Q41/H8)/($B$18*7)</f>
+        <f t="shared" ref="R41:R50" si="38">(Q41/H8)/($B$18*7)</f>
         <v>0.8571428571428571</v>
       </c>
       <c r="S41" s="1">
-        <f t="shared" ref="S41:S50" si="36">(Q41/$H$17)/(7*$B$18)</f>
+        <f t="shared" ref="S41:S50" si="39">(Q41/$H$17)/(7*$B$18)</f>
         <v>0.47142857142857142</v>
       </c>
       <c r="T41" s="1">
-        <f t="shared" ref="T41:T49" si="37">(Q41/H8)/($B$18*7+$B$21)</f>
+        <f t="shared" ref="T41:T49" si="40">(Q41/H8)/($B$18*7+$B$21)</f>
         <v>0.5714285714285714</v>
       </c>
       <c r="U41" s="1">
@@ -6947,7 +7080,7 @@
         <v>0.31428571428571428</v>
       </c>
       <c r="V41" s="1">
-        <f t="shared" ref="V41:V50" si="38">(Q41/H8)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
+        <f t="shared" ref="V41:V50" si="41">(Q41/H8)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
         <v>0.34146341463414637</v>
       </c>
       <c r="W41" s="1">
@@ -6962,19 +7095,19 @@
         <v>720</v>
       </c>
       <c r="AA41" s="9">
-        <f t="shared" ref="AA41:AA55" si="39">ROUNDUP((AE41*$B$31/100),0)</f>
+        <f t="shared" ref="AA41:AA55" si="42">ROUNDUP((AE41*$B$31/100),0)</f>
         <v>1440</v>
       </c>
       <c r="AB41" s="9">
-        <f t="shared" ref="AB41:AB55" si="40">ROUNDUP((AE41*$B$32/100),0)</f>
+        <f t="shared" ref="AB41:AB55" si="43">ROUNDUP((AE41*$B$32/100),0)</f>
         <v>2880</v>
       </c>
       <c r="AC41" s="9">
-        <f t="shared" ref="AC41:AC55" si="41">ROUNDUP((AE41*$B$33/100),0)</f>
+        <f t="shared" ref="AC41:AC55" si="44">ROUNDUP((AE41*$B$33/100),0)</f>
         <v>4320</v>
       </c>
       <c r="AD41" s="9">
-        <f t="shared" ref="AD41:AD55" si="42">ROUNDUP((AE41*$B$34/100),0)</f>
+        <f t="shared" ref="AD41:AD55" si="45">ROUNDUP((AE41*$B$34/100),0)</f>
         <v>5040</v>
       </c>
       <c r="AE41" s="1">
@@ -6993,93 +7126,93 @@
         <v>18</v>
       </c>
       <c r="H42" s="9">
-        <f t="shared" ref="H42:H50" si="43">ROUNDUP((P42*$B$30/100),0)</f>
+        <f t="shared" ref="H42:H50" si="46">ROUNDUP((P42*$B$30/100),0)</f>
         <v>130</v>
       </c>
       <c r="I42" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>260</v>
       </c>
       <c r="J42" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>519</v>
       </c>
       <c r="K42" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>778</v>
       </c>
       <c r="L42" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>908</v>
       </c>
       <c r="M42" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>1816</v>
       </c>
       <c r="N42" s="9">
-        <f t="shared" ref="N42:N50" si="44">SUM(H42:L42)</f>
+        <f t="shared" ref="N42:N50" si="47">SUM(H42:L42)</f>
         <v>2595</v>
       </c>
       <c r="O42" s="9">
         <v>60</v>
       </c>
       <c r="P42" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>2592</v>
       </c>
       <c r="Q42" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>1728</v>
       </c>
       <c r="R42" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>1.0285714285714287</v>
       </c>
       <c r="S42" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>0.61714285714285722</v>
       </c>
       <c r="T42" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0.68571428571428572</v>
       </c>
       <c r="U42" s="1">
-        <f t="shared" ref="U42:U50" si="45">(Q42/$H$17)/($B$18*7+$B$21)</f>
+        <f t="shared" ref="U42:U50" si="48">(Q42/$H$17)/($B$18*7+$B$21)</f>
         <v>0.41142857142857148</v>
       </c>
       <c r="V42" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.40975609756097564</v>
       </c>
       <c r="W42" s="1">
-        <f t="shared" ref="W42:W50" si="46">(Q42/$H$17)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
+        <f t="shared" ref="W42:W50" si="49">(Q42/$H$17)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
         <v>0.24585365853658542</v>
       </c>
       <c r="Y42" s="9" t="s">
         <v>199</v>
       </c>
       <c r="Z42" s="9">
-        <f t="shared" ref="Z42:Z55" si="47">ROUNDUP((AE42*$B$30/100),0)</f>
+        <f t="shared" ref="Z42:Z55" si="50">ROUNDUP((AE42*$B$30/100),0)</f>
         <v>744</v>
       </c>
       <c r="AA42" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>1488</v>
       </c>
       <c r="AB42" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>2976</v>
       </c>
       <c r="AC42" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>4464</v>
       </c>
       <c r="AD42" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>5208</v>
       </c>
       <c r="AE42" s="1">
-        <f t="shared" ref="AE42:AE55" si="48">($H$17*$B$9*$B$18)*(AF42/100)</f>
+        <f t="shared" ref="AE42:AE55" si="51">($H$17*$B$9*$B$18)*(AF42/100)</f>
         <v>14880</v>
       </c>
       <c r="AF42" s="1">
@@ -7098,93 +7231,93 @@
         <v>19</v>
       </c>
       <c r="H43" s="9">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>156</v>
       </c>
       <c r="I43" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>312</v>
       </c>
       <c r="J43" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>624</v>
       </c>
       <c r="K43" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>936</v>
       </c>
       <c r="L43" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>1092</v>
       </c>
       <c r="M43" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>2184</v>
       </c>
       <c r="N43" s="9">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>3120</v>
       </c>
       <c r="O43" s="9">
         <v>70</v>
       </c>
       <c r="P43" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>3120</v>
       </c>
       <c r="Q43" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>2184</v>
       </c>
       <c r="R43" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>1.2</v>
       </c>
       <c r="S43" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>0.78</v>
       </c>
       <c r="T43" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0.8</v>
       </c>
       <c r="U43" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0.52</v>
       </c>
       <c r="V43" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.47804878048780497</v>
       </c>
       <c r="W43" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>0.31073170731707322</v>
       </c>
       <c r="Y43" s="9" t="s">
         <v>200</v>
       </c>
       <c r="Z43" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>768</v>
       </c>
       <c r="AA43" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>1536</v>
       </c>
       <c r="AB43" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>3072</v>
       </c>
       <c r="AC43" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>4608</v>
       </c>
       <c r="AD43" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>5376</v>
       </c>
       <c r="AE43" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>15360</v>
       </c>
       <c r="AF43" s="1">
@@ -7197,93 +7330,93 @@
         <v>85</v>
       </c>
       <c r="H44" s="9">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>185</v>
       </c>
       <c r="I44" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>370</v>
       </c>
       <c r="J44" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>740</v>
       </c>
       <c r="K44" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>1109</v>
       </c>
       <c r="L44" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>1294</v>
       </c>
       <c r="M44" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>2588</v>
       </c>
       <c r="N44" s="9">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>3698</v>
       </c>
       <c r="O44" s="9">
         <v>80</v>
       </c>
       <c r="P44" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>3696</v>
       </c>
       <c r="Q44" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>2688</v>
       </c>
       <c r="R44" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>1.3714285714285714</v>
       </c>
       <c r="S44" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>0.96</v>
       </c>
       <c r="T44" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0.91428571428571426</v>
       </c>
       <c r="U44" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0.64</v>
       </c>
       <c r="V44" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.54634146341463419</v>
       </c>
       <c r="W44" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>0.38243902439024391</v>
       </c>
       <c r="Y44" s="9" t="s">
         <v>201</v>
       </c>
       <c r="Z44" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>792</v>
       </c>
       <c r="AA44" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>1584</v>
       </c>
       <c r="AB44" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>3168</v>
       </c>
       <c r="AC44" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>4752</v>
       </c>
       <c r="AD44" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>5544</v>
       </c>
       <c r="AE44" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>15840</v>
       </c>
       <c r="AF44" s="1">
@@ -7296,93 +7429,93 @@
         <v>20</v>
       </c>
       <c r="H45" s="9">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>216</v>
       </c>
       <c r="I45" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>432</v>
       </c>
       <c r="J45" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>864</v>
       </c>
       <c r="K45" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>1296</v>
       </c>
       <c r="L45" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>1512</v>
       </c>
       <c r="M45" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>3024</v>
       </c>
       <c r="N45" s="9">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>4320</v>
       </c>
       <c r="O45" s="9">
         <v>90</v>
       </c>
       <c r="P45" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>4320</v>
       </c>
       <c r="Q45" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>3240</v>
       </c>
       <c r="R45" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>1.5428571428571429</v>
       </c>
       <c r="S45" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>1.157142857142857</v>
       </c>
       <c r="T45" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>1.0285714285714287</v>
       </c>
       <c r="U45" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0.77142857142857135</v>
       </c>
       <c r="V45" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.61463414634146352</v>
       </c>
       <c r="W45" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>0.46097560975609758</v>
       </c>
       <c r="Y45" s="9" t="s">
         <v>202</v>
       </c>
       <c r="Z45" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>816</v>
       </c>
       <c r="AA45" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>1632</v>
       </c>
       <c r="AB45" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>3264</v>
       </c>
       <c r="AC45" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>4896</v>
       </c>
       <c r="AD45" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>5712</v>
       </c>
       <c r="AE45" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>16320</v>
       </c>
       <c r="AF45" s="1">
@@ -7395,93 +7528,93 @@
         <v>21</v>
       </c>
       <c r="H46" s="9">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>250</v>
       </c>
       <c r="I46" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>500</v>
       </c>
       <c r="J46" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>999</v>
       </c>
       <c r="K46" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>1498</v>
       </c>
       <c r="L46" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>1748</v>
       </c>
       <c r="M46" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>3496</v>
       </c>
       <c r="N46" s="9">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>4995</v>
       </c>
       <c r="O46" s="9">
         <v>100</v>
       </c>
       <c r="P46" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>4992</v>
       </c>
       <c r="Q46" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>3840</v>
       </c>
       <c r="R46" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>1.7142857142857142</v>
       </c>
       <c r="S46" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>1.3714285714285714</v>
       </c>
       <c r="T46" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>1.1428571428571428</v>
       </c>
       <c r="U46" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0.91428571428571426</v>
       </c>
       <c r="V46" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.68292682926829273</v>
       </c>
       <c r="W46" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>0.54634146341463419</v>
       </c>
       <c r="Y46" s="9" t="s">
         <v>203</v>
       </c>
       <c r="Z46" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>840</v>
       </c>
       <c r="AA46" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>1680</v>
       </c>
       <c r="AB46" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>3360</v>
       </c>
       <c r="AC46" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>5040</v>
       </c>
       <c r="AD46" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>5880</v>
       </c>
       <c r="AE46" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>16800</v>
       </c>
       <c r="AF46" s="1">
@@ -7493,93 +7626,93 @@
         <v>22</v>
       </c>
       <c r="H47" s="9">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>286</v>
       </c>
       <c r="I47" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>572</v>
       </c>
       <c r="J47" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1143</v>
       </c>
       <c r="K47" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>1714</v>
       </c>
       <c r="L47" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>2000</v>
       </c>
       <c r="M47" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>4000</v>
       </c>
       <c r="N47" s="9">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>5715</v>
       </c>
       <c r="O47" s="9">
         <v>110</v>
       </c>
       <c r="P47" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>5712</v>
       </c>
       <c r="Q47" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>4488</v>
       </c>
       <c r="R47" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>1.8857142857142857</v>
       </c>
       <c r="S47" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>1.602857142857143</v>
       </c>
       <c r="T47" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>1.2571428571428571</v>
       </c>
       <c r="U47" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>1.0685714285714287</v>
       </c>
       <c r="V47" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.75121951219512195</v>
       </c>
       <c r="W47" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>0.63853658536585378</v>
       </c>
       <c r="Y47" s="9" t="s">
         <v>204</v>
       </c>
       <c r="Z47" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>864</v>
       </c>
       <c r="AA47" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>1728</v>
       </c>
       <c r="AB47" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>3456</v>
       </c>
       <c r="AC47" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>5184</v>
       </c>
       <c r="AD47" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>6048</v>
       </c>
       <c r="AE47" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>17280</v>
       </c>
       <c r="AF47" s="1">
@@ -7591,93 +7724,93 @@
         <v>23</v>
       </c>
       <c r="H48" s="9">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>324</v>
       </c>
       <c r="I48" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>648</v>
       </c>
       <c r="J48" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1296</v>
       </c>
       <c r="K48" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>1944</v>
       </c>
       <c r="L48" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>2268</v>
       </c>
       <c r="M48" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>4536</v>
       </c>
       <c r="N48" s="9">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>6480</v>
       </c>
       <c r="O48" s="9">
         <v>120</v>
       </c>
       <c r="P48" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>6480</v>
       </c>
       <c r="Q48" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>5184</v>
       </c>
       <c r="R48" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>2.0571428571428574</v>
       </c>
       <c r="S48" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>1.8514285714285716</v>
       </c>
       <c r="T48" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>1.3714285714285714</v>
       </c>
       <c r="U48" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>1.2342857142857144</v>
       </c>
       <c r="V48" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.81951219512195128</v>
       </c>
       <c r="W48" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>0.7375609756097562</v>
       </c>
       <c r="Y48" s="9" t="s">
         <v>205</v>
       </c>
       <c r="Z48" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>888</v>
       </c>
       <c r="AA48" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>1776</v>
       </c>
       <c r="AB48" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>3552</v>
       </c>
       <c r="AC48" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>5328</v>
       </c>
       <c r="AD48" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>6216</v>
       </c>
       <c r="AE48" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>17760</v>
       </c>
       <c r="AF48" s="1">
@@ -7689,89 +7822,89 @@
         <v>24</v>
       </c>
       <c r="H49" s="9">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>365</v>
       </c>
       <c r="I49" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>730</v>
       </c>
       <c r="J49" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1460</v>
       </c>
       <c r="K49" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>2189</v>
       </c>
       <c r="L49" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>2554</v>
       </c>
       <c r="M49" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>5108</v>
       </c>
       <c r="N49" s="9">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>7298</v>
       </c>
       <c r="O49" s="9">
         <v>130</v>
       </c>
       <c r="P49" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>7296</v>
       </c>
       <c r="Q49" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>5928</v>
       </c>
       <c r="R49" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>2.2285714285714286</v>
       </c>
       <c r="S49" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>2.117142857142857</v>
       </c>
       <c r="T49" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>1.4857142857142858</v>
       </c>
       <c r="U49" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>1.4114285714285715</v>
       </c>
       <c r="V49" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.88780487804878061</v>
       </c>
       <c r="W49" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>0.84341463414634155</v>
       </c>
       <c r="Y49" s="9" t="s">
         <v>206</v>
       </c>
       <c r="Z49" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>1200</v>
       </c>
       <c r="AA49" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>2400</v>
       </c>
       <c r="AB49" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>4800</v>
       </c>
       <c r="AC49" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>7200</v>
       </c>
       <c r="AD49" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>8400</v>
       </c>
       <c r="AE49" s="1">
@@ -7787,50 +7920,50 @@
         <v>25</v>
       </c>
       <c r="H50" s="9">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>408</v>
       </c>
       <c r="I50" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>816</v>
       </c>
       <c r="J50" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1632</v>
       </c>
       <c r="K50" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>2448</v>
       </c>
       <c r="L50" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>2856</v>
       </c>
       <c r="M50" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>5712</v>
       </c>
       <c r="N50" s="9">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>8160</v>
       </c>
       <c r="O50" s="9">
         <v>140</v>
       </c>
       <c r="P50" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>8160</v>
       </c>
       <c r="Q50" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>6720</v>
       </c>
       <c r="R50" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>2.4</v>
       </c>
       <c r="S50" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>2.4</v>
       </c>
       <c r="T50" s="1">
@@ -7838,42 +7971,42 @@
         <v>0.95609756097560994</v>
       </c>
       <c r="U50" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>1.6</v>
       </c>
       <c r="V50" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.95609756097560994</v>
       </c>
       <c r="W50" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>0.95609756097560994</v>
       </c>
       <c r="Y50" s="9" t="s">
         <v>207</v>
       </c>
       <c r="Z50" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>1248</v>
       </c>
       <c r="AA50" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>2496</v>
       </c>
       <c r="AB50" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>4992</v>
       </c>
       <c r="AC50" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>7488</v>
       </c>
       <c r="AD50" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>8736</v>
       </c>
       <c r="AE50" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>24960</v>
       </c>
       <c r="AF50" s="1">
@@ -7905,27 +8038,27 @@
         <v>208</v>
       </c>
       <c r="Z51" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>1296</v>
       </c>
       <c r="AA51" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>2592</v>
       </c>
       <c r="AB51" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>5184</v>
       </c>
       <c r="AC51" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>7776</v>
       </c>
       <c r="AD51" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>9072</v>
       </c>
       <c r="AE51" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>25920</v>
       </c>
       <c r="AF51" s="1">
@@ -7941,23 +8074,23 @@
         <v>6.8571428571428568</v>
       </c>
       <c r="S52" s="23">
-        <f t="shared" ref="S52:W52" si="49">SUM(S53:S54)</f>
+        <f t="shared" ref="S52:W52" si="52">SUM(S53:S54)</f>
         <v>6.7012987012987013</v>
       </c>
       <c r="T52" s="23">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>2.7317073170731709</v>
       </c>
       <c r="U52" s="23">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>4.4675324675324681</v>
       </c>
       <c r="V52" s="23">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>2.7317073170731709</v>
       </c>
       <c r="W52" s="23">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>2.6696230598669626</v>
       </c>
       <c r="X52"/>
@@ -7965,27 +8098,27 @@
         <v>209</v>
       </c>
       <c r="Z52" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>1440</v>
       </c>
       <c r="AA52" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>2880</v>
       </c>
       <c r="AB52" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>5760</v>
       </c>
       <c r="AC52" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>8640</v>
       </c>
       <c r="AD52" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>10080</v>
       </c>
       <c r="AE52" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>28800</v>
       </c>
       <c r="AF52" s="1">
@@ -7997,31 +8130,31 @@
         <v>105</v>
       </c>
       <c r="H53" s="9">
-        <f t="shared" ref="H53:H63" si="50">ROUNDUP((P53*$B$30/100),0)</f>
+        <f t="shared" ref="H53:H63" si="53">ROUNDUP((P53*$B$30/100),0)</f>
         <v>580</v>
       </c>
       <c r="I53" s="9">
-        <f t="shared" ref="I53:I65" si="51">ROUNDUP((P53*$B$31/100),0)</f>
+        <f t="shared" ref="I53:I65" si="54">ROUNDUP((P53*$B$31/100),0)</f>
         <v>1160</v>
       </c>
       <c r="J53" s="9">
-        <f t="shared" ref="J53:J65" si="52">ROUNDUP((P53*$B$32/100),0)</f>
+        <f t="shared" ref="J53:J65" si="55">ROUNDUP((P53*$B$32/100),0)</f>
         <v>2319</v>
       </c>
       <c r="K53" s="9">
-        <f t="shared" ref="K53:K65" si="53">ROUNDUP((P53*$B$33/100),0)</f>
+        <f t="shared" ref="K53:K65" si="56">ROUNDUP((P53*$B$33/100),0)</f>
         <v>3478</v>
       </c>
       <c r="L53" s="9">
-        <f t="shared" ref="L53:L65" si="54">ROUNDUP((P53*$B$34/100),0)</f>
+        <f t="shared" ref="L53:L65" si="57">ROUNDUP((P53*$B$34/100),0)</f>
         <v>4058</v>
       </c>
       <c r="M53" s="9">
-        <f t="shared" ref="M53:M66" si="55">L53*$B$43</f>
+        <f t="shared" ref="M53:M66" si="58">L53*$B$43</f>
         <v>8116</v>
       </c>
       <c r="N53" s="9">
-        <f t="shared" ref="N53" si="56">SUM(H53:L53)</f>
+        <f t="shared" ref="N53" si="59">SUM(H53:L53)</f>
         <v>11595</v>
       </c>
       <c r="O53" s="9">
@@ -8063,27 +8196,27 @@
         <v>210</v>
       </c>
       <c r="Z53" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>1488</v>
       </c>
       <c r="AA53" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>2976</v>
       </c>
       <c r="AB53" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>5952</v>
       </c>
       <c r="AC53" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>8928</v>
       </c>
       <c r="AD53" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>10416</v>
       </c>
       <c r="AE53" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>29760</v>
       </c>
       <c r="AF53" s="1">
@@ -8095,31 +8228,31 @@
         <v>106</v>
       </c>
       <c r="H54" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>608</v>
       </c>
       <c r="I54" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>1215</v>
       </c>
       <c r="J54" s="9">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>2429</v>
       </c>
       <c r="K54" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>3644</v>
       </c>
       <c r="L54" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>4251</v>
       </c>
       <c r="M54" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>8502</v>
       </c>
       <c r="N54" s="9">
-        <f t="shared" ref="N54:N59" si="57">SUM(H54:L54)</f>
+        <f t="shared" ref="N54:N59" si="60">SUM(H54:L54)</f>
         <v>12147</v>
       </c>
       <c r="O54" s="9">
@@ -8161,27 +8294,27 @@
         <v>211</v>
       </c>
       <c r="Z54" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>1536</v>
       </c>
       <c r="AA54" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>3072</v>
       </c>
       <c r="AB54" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>6144</v>
       </c>
       <c r="AC54" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>9216</v>
       </c>
       <c r="AD54" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>10752</v>
       </c>
       <c r="AE54" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>30720</v>
       </c>
       <c r="AF54" s="1">
@@ -8193,31 +8326,31 @@
         <v>172</v>
       </c>
       <c r="H55" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>635</v>
       </c>
       <c r="I55" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>1270</v>
       </c>
       <c r="J55" s="9">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>2540</v>
       </c>
       <c r="K55" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>3809</v>
       </c>
       <c r="L55" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>4444</v>
       </c>
       <c r="M55" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>8888</v>
       </c>
       <c r="N55" s="9">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>12698</v>
       </c>
       <c r="O55" s="9">
@@ -8231,27 +8364,27 @@
         <v>212</v>
       </c>
       <c r="Z55" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>1584</v>
       </c>
       <c r="AA55" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>3168</v>
       </c>
       <c r="AB55" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>6336</v>
       </c>
       <c r="AC55" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>9504</v>
       </c>
       <c r="AD55" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>11088</v>
       </c>
       <c r="AE55" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>31680</v>
       </c>
       <c r="AF55" s="1">
@@ -8263,31 +8396,31 @@
         <v>175</v>
       </c>
       <c r="H56" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>692</v>
       </c>
       <c r="I56" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>1383</v>
       </c>
       <c r="J56" s="9">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>2765</v>
       </c>
       <c r="K56" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>4148</v>
       </c>
       <c r="L56" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>4839</v>
       </c>
       <c r="M56" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>9678</v>
       </c>
       <c r="N56" s="9">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>13827</v>
       </c>
       <c r="O56" s="9">
@@ -8303,31 +8436,31 @@
         <v>195</v>
       </c>
       <c r="H57" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>750</v>
       </c>
       <c r="I57" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>1500</v>
       </c>
       <c r="J57" s="9">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>3000</v>
       </c>
       <c r="K57" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>4500</v>
       </c>
       <c r="L57" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>5250</v>
       </c>
       <c r="M57" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>10500</v>
       </c>
       <c r="N57" s="9">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>15000</v>
       </c>
       <c r="O57" s="9">
@@ -8343,31 +8476,31 @@
         <v>246</v>
       </c>
       <c r="H58" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>843</v>
       </c>
       <c r="I58" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>1685</v>
       </c>
       <c r="J58" s="9">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>3370</v>
       </c>
       <c r="K58" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>5055</v>
       </c>
       <c r="L58" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>5897</v>
       </c>
       <c r="M58" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>11794</v>
       </c>
       <c r="N58" s="9">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>16850</v>
       </c>
       <c r="O58" s="9">
@@ -8383,31 +8516,31 @@
         <v>313</v>
       </c>
       <c r="H59" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>940</v>
       </c>
       <c r="I59" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>1880</v>
       </c>
       <c r="J59" s="9">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>3759</v>
       </c>
       <c r="K59" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>5638</v>
       </c>
       <c r="L59" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>6578</v>
       </c>
       <c r="M59" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>13156</v>
       </c>
       <c r="N59" s="9">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>18795</v>
       </c>
       <c r="O59" s="9">
@@ -8426,31 +8559,31 @@
         <v>368</v>
       </c>
       <c r="H60" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>1042</v>
       </c>
       <c r="I60" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>2084</v>
       </c>
       <c r="J60" s="9">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>4167</v>
       </c>
       <c r="K60" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>6250</v>
       </c>
       <c r="L60" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>7292</v>
       </c>
       <c r="M60" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>14584</v>
       </c>
       <c r="N60" s="9">
-        <f t="shared" ref="N60" si="58">SUM(H60:L60)</f>
+        <f t="shared" ref="N60" si="61">SUM(H60:L60)</f>
         <v>20835</v>
       </c>
       <c r="O60" s="9">
@@ -8490,31 +8623,31 @@
         <v>375</v>
       </c>
       <c r="H61" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>1149</v>
       </c>
       <c r="I61" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>2297</v>
       </c>
       <c r="J61" s="9">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>4594</v>
       </c>
       <c r="K61" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>6891</v>
       </c>
       <c r="L61" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>8039</v>
       </c>
       <c r="M61" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>16078</v>
       </c>
       <c r="N61" s="9">
-        <f t="shared" ref="N61" si="59">SUM(H61:L61)</f>
+        <f t="shared" ref="N61" si="62">SUM(H61:L61)</f>
         <v>22970</v>
       </c>
       <c r="O61" s="9">
@@ -8531,23 +8664,23 @@
         <v>0.01</v>
       </c>
       <c r="AA61" s="9">
-        <f t="shared" ref="AA61:AA68" si="60">ROUNDUP(((Z41/$B$39)*$B$40)*((100+AF61)/100),0)/100</f>
+        <f t="shared" ref="AA61:AA68" si="63">ROUNDUP(((Z41/$B$39)*$B$40)*((100+AF61)/100),0)/100</f>
         <v>0.22</v>
       </c>
       <c r="AB61" s="9">
-        <f t="shared" ref="AB61:AB68" si="61">ROUNDUP(((AA41/$B$39)*$B$40)*((100+AF61)/100),0)/100</f>
+        <f t="shared" ref="AB61:AB68" si="64">ROUNDUP(((AA41/$B$39)*$B$40)*((100+AF61)/100),0)/100</f>
         <v>0.44</v>
       </c>
       <c r="AC61" s="9">
-        <f t="shared" ref="AC61:AC68" si="62">ROUNDUP(((AB41/$B$39)*$B$40)*((100+AF61)/100),0)/100</f>
+        <f t="shared" ref="AC61:AC68" si="65">ROUNDUP(((AB41/$B$39)*$B$40)*((100+AF61)/100),0)/100</f>
         <v>0.87</v>
       </c>
       <c r="AD61" s="9">
-        <f t="shared" ref="AD61:AD68" si="63">ROUNDUP(((AC41/$B$39)*$B$40)*((100+AF61)/100),0)/100</f>
+        <f t="shared" ref="AD61:AD68" si="66">ROUNDUP(((AC41/$B$39)*$B$40)*((100+AF61)/100),0)/100</f>
         <v>1.3</v>
       </c>
       <c r="AE61" s="9">
-        <f t="shared" ref="AE61:AE68" si="64">ROUNDUP(((AD41/$B$39)*$B$40)*((100+AF61)/100),0)/100</f>
+        <f t="shared" ref="AE61:AE68" si="67">ROUNDUP(((AD41/$B$39)*$B$40)*((100+AF61)/100),0)/100</f>
         <v>1.52</v>
       </c>
       <c r="AF61" s="1">
@@ -8559,31 +8692,31 @@
         <v>387</v>
       </c>
       <c r="H62" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>1260</v>
       </c>
       <c r="I62" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>2520</v>
       </c>
       <c r="J62" s="9">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>5040</v>
       </c>
       <c r="K62" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>7560</v>
       </c>
       <c r="L62" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>8820</v>
       </c>
       <c r="M62" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>17640</v>
       </c>
       <c r="N62" s="9">
-        <f t="shared" ref="N62" si="65">SUM(H62:L62)</f>
+        <f t="shared" ref="N62" si="68">SUM(H62:L62)</f>
         <v>25200</v>
       </c>
       <c r="O62" s="9">
@@ -8600,23 +8733,23 @@
         <v>0.02</v>
       </c>
       <c r="AA62" s="9">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0.24</v>
       </c>
       <c r="AB62" s="9">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>0.47</v>
       </c>
       <c r="AC62" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>0.93</v>
       </c>
       <c r="AD62" s="9">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>1.4</v>
       </c>
       <c r="AE62" s="9">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>1.63</v>
       </c>
       <c r="AF62" s="1">
@@ -8628,31 +8761,31 @@
         <v>418</v>
       </c>
       <c r="H63" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>1377</v>
       </c>
       <c r="I63" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>2753</v>
       </c>
       <c r="J63" s="9">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>5506</v>
       </c>
       <c r="K63" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>8259</v>
       </c>
       <c r="L63" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>9635</v>
       </c>
       <c r="M63" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>19270</v>
       </c>
       <c r="N63" s="9">
-        <f t="shared" ref="N63" si="66">SUM(H63:L63)</f>
+        <f t="shared" ref="N63" si="69">SUM(H63:L63)</f>
         <v>27530</v>
       </c>
       <c r="O63" s="9">
@@ -8669,23 +8802,23 @@
         <v>0.03</v>
       </c>
       <c r="AA63" s="9">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0.25</v>
       </c>
       <c r="AB63" s="9">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>0.5</v>
       </c>
       <c r="AC63" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>1</v>
       </c>
       <c r="AD63" s="9">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>1.5</v>
       </c>
       <c r="AE63" s="9">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>1.75</v>
       </c>
       <c r="AF63" s="1">
@@ -8697,31 +8830,31 @@
         <v>431</v>
       </c>
       <c r="H64" s="9">
-        <f t="shared" ref="H64:H65" si="67">ROUNDUP((P64*$B$30/100),0)</f>
+        <f t="shared" ref="H64:H65" si="70">ROUNDUP((P64*$B$30/100),0)</f>
         <v>1545</v>
       </c>
       <c r="I64" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>3089</v>
       </c>
       <c r="J64" s="9">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>6178</v>
       </c>
       <c r="K64" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>9267</v>
       </c>
       <c r="L64" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>10811</v>
       </c>
       <c r="M64" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>21622</v>
       </c>
       <c r="N64" s="9">
-        <f t="shared" ref="N64" si="68">SUM(H64:L64)</f>
+        <f t="shared" ref="N64" si="71">SUM(H64:L64)</f>
         <v>30890</v>
       </c>
       <c r="O64" s="9">
@@ -8738,23 +8871,23 @@
         <v>0.04</v>
       </c>
       <c r="AA64" s="9">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0.27</v>
       </c>
       <c r="AB64" s="9">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>0.54</v>
       </c>
       <c r="AC64" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>1.07</v>
       </c>
       <c r="AD64" s="9">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>1.6</v>
       </c>
       <c r="AE64" s="9">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>1.87</v>
       </c>
       <c r="AF64" s="1">
@@ -8766,31 +8899,31 @@
         <v>451</v>
       </c>
       <c r="H65" s="9">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>1722</v>
       </c>
       <c r="I65" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>3444</v>
       </c>
       <c r="J65" s="9">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>6888</v>
       </c>
       <c r="K65" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>10332</v>
       </c>
       <c r="L65" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>12054</v>
       </c>
       <c r="M65" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>24108</v>
       </c>
       <c r="N65" s="9">
-        <f t="shared" ref="N65:N66" si="69">SUM(H65:L65)</f>
+        <f t="shared" ref="N65:N66" si="72">SUM(H65:L65)</f>
         <v>34440</v>
       </c>
       <c r="O65" s="9">
@@ -8807,23 +8940,23 @@
         <v>0.05</v>
       </c>
       <c r="AA65" s="9">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0.3</v>
       </c>
       <c r="AB65" s="9">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>0.59</v>
       </c>
       <c r="AC65" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>1.18</v>
       </c>
       <c r="AD65" s="9">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>1.77</v>
       </c>
       <c r="AE65" s="9">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>2.06</v>
       </c>
       <c r="AF65" s="1">
@@ -8835,31 +8968,31 @@
         <v>464</v>
       </c>
       <c r="H66" s="9">
-        <f t="shared" ref="H66:H67" si="70">ROUNDUP((P66*$B$30/100),0)</f>
+        <f t="shared" ref="H66:H67" si="73">ROUNDUP((P66*$B$30/100),0)</f>
         <v>1910</v>
       </c>
       <c r="I66" s="9">
-        <f t="shared" ref="I66:I67" si="71">ROUNDUP((P66*$B$31/100),0)</f>
+        <f t="shared" ref="I66:I67" si="74">ROUNDUP((P66*$B$31/100),0)</f>
         <v>3819</v>
       </c>
       <c r="J66" s="9">
-        <f t="shared" ref="J66:J67" si="72">ROUNDUP((P66*$B$32/100),0)</f>
+        <f t="shared" ref="J66:J67" si="75">ROUNDUP((P66*$B$32/100),0)</f>
         <v>7637</v>
       </c>
       <c r="K66" s="9">
-        <f t="shared" ref="K66:K67" si="73">ROUNDUP((P66*$B$33/100),0)</f>
+        <f t="shared" ref="K66:K67" si="76">ROUNDUP((P66*$B$33/100),0)</f>
         <v>11456</v>
       </c>
       <c r="L66" s="9">
-        <f t="shared" ref="L66:L67" si="74">ROUNDUP((P66*$B$34/100),0)</f>
+        <f t="shared" ref="L66:L67" si="77">ROUNDUP((P66*$B$34/100),0)</f>
         <v>13365</v>
       </c>
       <c r="M66" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>26730</v>
       </c>
       <c r="N66" s="9">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>38187</v>
       </c>
       <c r="O66" s="9">
@@ -8876,23 +9009,23 @@
         <v>0.06</v>
       </c>
       <c r="AA66" s="9">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0.33</v>
       </c>
       <c r="AB66" s="9">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>0.65</v>
       </c>
       <c r="AC66" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>1.3</v>
       </c>
       <c r="AD66" s="9">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>1.94</v>
       </c>
       <c r="AE66" s="9">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="AF66" s="1">
@@ -8904,31 +9037,31 @@
         <v>473</v>
       </c>
       <c r="H67" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>2106</v>
       </c>
       <c r="I67" s="9">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>4212</v>
       </c>
       <c r="J67" s="9">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>8424</v>
       </c>
       <c r="K67" s="9">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>12636</v>
       </c>
       <c r="L67" s="9">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>14742</v>
       </c>
       <c r="M67" s="9">
-        <f t="shared" ref="M67:M68" si="75">L67*$B$43</f>
+        <f t="shared" ref="M67:M68" si="78">L67*$B$43</f>
         <v>29484</v>
       </c>
       <c r="N67" s="9">
-        <f t="shared" ref="N67:N68" si="76">SUM(H67:L67)</f>
+        <f t="shared" ref="N67:N68" si="79">SUM(H67:L67)</f>
         <v>42120</v>
       </c>
       <c r="O67" s="9">
@@ -8945,23 +9078,23 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AA67" s="9">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0.36</v>
       </c>
       <c r="AB67" s="9">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>0.71</v>
       </c>
       <c r="AC67" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>1.42</v>
       </c>
       <c r="AD67" s="9">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>2.12</v>
       </c>
       <c r="AE67" s="9">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>2.4700000000000002</v>
       </c>
       <c r="AF67" s="1">
@@ -8973,31 +9106,31 @@
         <v>489</v>
       </c>
       <c r="H68" s="9">
-        <f t="shared" ref="H68:H69" si="77">ROUNDUP((P68*$B$30/100),0)</f>
+        <f t="shared" ref="H68:H69" si="80">ROUNDUP((P68*$B$30/100),0)</f>
         <v>2313</v>
       </c>
       <c r="I68" s="9">
-        <f t="shared" ref="I68:I69" si="78">ROUNDUP((P68*$B$31/100),0)</f>
+        <f t="shared" ref="I68:I69" si="81">ROUNDUP((P68*$B$31/100),0)</f>
         <v>4625</v>
       </c>
       <c r="J68" s="9">
-        <f t="shared" ref="J68:J69" si="79">ROUNDUP((P68*$B$32/100),0)</f>
+        <f t="shared" ref="J68:J69" si="82">ROUNDUP((P68*$B$32/100),0)</f>
         <v>9250</v>
       </c>
       <c r="K68" s="9">
-        <f t="shared" ref="K68:K69" si="80">ROUNDUP((P68*$B$33/100),0)</f>
+        <f t="shared" ref="K68:K69" si="83">ROUNDUP((P68*$B$33/100),0)</f>
         <v>13875</v>
       </c>
       <c r="L68" s="9">
-        <f t="shared" ref="L68:L69" si="81">ROUNDUP((P68*$B$34/100),0)</f>
+        <f t="shared" ref="L68:L69" si="84">ROUNDUP((P68*$B$34/100),0)</f>
         <v>16187</v>
       </c>
       <c r="M68" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>32374</v>
       </c>
       <c r="N68" s="9">
-        <f t="shared" si="76"/>
+        <f t="shared" si="79"/>
         <v>46250</v>
       </c>
       <c r="O68" s="9">
@@ -9014,23 +9147,23 @@
         <v>0.08</v>
       </c>
       <c r="AA68" s="9">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0.4</v>
       </c>
       <c r="AB68" s="9">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>0.79</v>
       </c>
       <c r="AC68" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>1.58</v>
       </c>
       <c r="AD68" s="9">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>2.37</v>
       </c>
       <c r="AE68" s="9">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>2.76</v>
       </c>
       <c r="AF68" s="1">
@@ -9042,31 +9175,31 @@
         <v>490</v>
       </c>
       <c r="H69" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>2529</v>
       </c>
       <c r="I69" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>5057</v>
       </c>
       <c r="J69" s="9">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>10114</v>
       </c>
       <c r="K69" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>15171</v>
       </c>
       <c r="L69" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>17699</v>
       </c>
       <c r="M69" s="9">
-        <f t="shared" ref="M69" si="82">L69*$B$43</f>
+        <f t="shared" ref="M69:M70" si="85">L69*$B$43</f>
         <v>35398</v>
       </c>
       <c r="N69" s="9">
-        <f t="shared" ref="N69" si="83">SUM(H69:L69)</f>
+        <f t="shared" ref="N69:N70" si="86">SUM(H69:L69)</f>
         <v>50570</v>
       </c>
       <c r="O69" s="9">
@@ -9083,23 +9216,23 @@
         <v>0.09</v>
       </c>
       <c r="AA69" s="9">
-        <f>ROUNDUP(((Z49/$B$39)*$B$40)*((100+AF69)/100),0)/100</f>
+        <f t="shared" ref="AA69:AA75" si="87">ROUNDUP(((Z49/$B$39)*$B$40)*((100+AF69)/100),0)/100</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="AB69" s="9">
-        <f>ROUNDUP(((AA49/$B$39)*$B$40)*((100+AF69)/100),0)/100</f>
+        <f t="shared" ref="AB69:AB75" si="88">ROUNDUP(((AA49/$B$39)*$B$40)*((100+AF69)/100),0)/100</f>
         <v>1.1599999999999999</v>
       </c>
       <c r="AC69" s="9">
-        <f>ROUNDUP(((AB49/$B$39)*$B$40)*((100+AF69)/100),0)/100</f>
+        <f t="shared" ref="AC69:AC75" si="89">ROUNDUP(((AB49/$B$39)*$B$40)*((100+AF69)/100),0)/100</f>
         <v>2.31</v>
       </c>
       <c r="AD69" s="9">
-        <f>ROUNDUP(((AC49/$B$39)*$B$40)*((100+AF69)/100),0)/100</f>
+        <f t="shared" ref="AD69:AD75" si="90">ROUNDUP(((AC49/$B$39)*$B$40)*((100+AF69)/100),0)/100</f>
         <v>3.46</v>
       </c>
       <c r="AE69" s="9">
-        <f>ROUNDUP(((AD49/$B$39)*$B$40)*((100+AF69)/100),0)/100</f>
+        <f t="shared" ref="AE69:AE75" si="91">ROUNDUP(((AD49/$B$39)*$B$40)*((100+AF69)/100),0)/100</f>
         <v>4.04</v>
       </c>
       <c r="AF69" s="1">
@@ -9107,6 +9240,44 @@
       </c>
     </row>
     <row r="70" spans="7:32">
+      <c r="G70" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="H70" s="9">
+        <f t="shared" ref="H70" si="92">ROUNDUP((P70*$B$30/100),0)</f>
+        <v>2632</v>
+      </c>
+      <c r="I70" s="9">
+        <f t="shared" ref="I70" si="93">ROUNDUP((P70*$B$31/100),0)</f>
+        <v>5264</v>
+      </c>
+      <c r="J70" s="9">
+        <f t="shared" ref="J70" si="94">ROUNDUP((P70*$B$32/100),0)</f>
+        <v>10527</v>
+      </c>
+      <c r="K70" s="9">
+        <f t="shared" ref="K70" si="95">ROUNDUP((P70*$B$33/100),0)</f>
+        <v>15790</v>
+      </c>
+      <c r="L70" s="9">
+        <f t="shared" ref="L70" si="96">ROUNDUP((P70*$B$34/100),0)</f>
+        <v>18422</v>
+      </c>
+      <c r="M70" s="9">
+        <f t="shared" si="85"/>
+        <v>36844</v>
+      </c>
+      <c r="N70" s="9">
+        <f t="shared" si="86"/>
+        <v>52635</v>
+      </c>
+      <c r="O70" s="9">
+        <v>400</v>
+      </c>
+      <c r="P70" s="9">
+        <f>(H36*($B$9)*$B$18)*(O70/100)+I36</f>
+        <v>52632</v>
+      </c>
       <c r="Y70" s="9" t="s">
         <v>207</v>
       </c>
@@ -9114,23 +9285,23 @@
         <v>0.1</v>
       </c>
       <c r="AA70" s="9">
-        <f>ROUNDUP(((Z50/$B$39)*$B$40)*((100+AF70)/100),0)/100</f>
+        <f t="shared" si="87"/>
         <v>0.65</v>
       </c>
       <c r="AB70" s="9">
-        <f>ROUNDUP(((AA50/$B$39)*$B$40)*((100+AF70)/100),0)/100</f>
+        <f t="shared" si="88"/>
         <v>1.29</v>
       </c>
       <c r="AC70" s="9">
-        <f>ROUNDUP(((AB50/$B$39)*$B$40)*((100+AF70)/100),0)/100</f>
+        <f t="shared" si="89"/>
         <v>2.58</v>
       </c>
       <c r="AD70" s="9">
-        <f>ROUNDUP(((AC50/$B$39)*$B$40)*((100+AF70)/100),0)/100</f>
+        <f t="shared" si="90"/>
         <v>3.87</v>
       </c>
       <c r="AE70" s="9">
-        <f>ROUNDUP(((AD50/$B$39)*$B$40)*((100+AF70)/100),0)/100</f>
+        <f t="shared" si="91"/>
         <v>4.51</v>
       </c>
       <c r="AF70" s="1">
@@ -9145,23 +9316,23 @@
         <v>0.11</v>
       </c>
       <c r="AA71" s="9">
-        <f>ROUNDUP(((Z51/$B$39)*$B$40)*((100+AF71)/100),0)/100</f>
+        <f t="shared" si="87"/>
         <v>0.72</v>
       </c>
       <c r="AB71" s="9">
-        <f>ROUNDUP(((AA51/$B$39)*$B$40)*((100+AF71)/100),0)/100</f>
+        <f t="shared" si="88"/>
         <v>1.44</v>
       </c>
       <c r="AC71" s="9">
-        <f>ROUNDUP(((AB51/$B$39)*$B$40)*((100+AF71)/100),0)/100</f>
+        <f t="shared" si="89"/>
         <v>2.87</v>
       </c>
       <c r="AD71" s="9">
-        <f>ROUNDUP(((AC51/$B$39)*$B$40)*((100+AF71)/100),0)/100</f>
+        <f t="shared" si="90"/>
         <v>4.3</v>
       </c>
       <c r="AE71" s="9">
-        <f>ROUNDUP(((AD51/$B$39)*$B$40)*((100+AF71)/100),0)/100</f>
+        <f t="shared" si="91"/>
         <v>5.01</v>
       </c>
       <c r="AF71" s="1">
@@ -9176,23 +9347,23 @@
         <v>0.12</v>
       </c>
       <c r="AA72" s="9">
-        <f>ROUNDUP(((Z52/$B$39)*$B$40)*((100+AF72)/100),0)/100</f>
+        <f t="shared" si="87"/>
         <v>0.85</v>
       </c>
       <c r="AB72" s="9">
-        <f>ROUNDUP(((AA52/$B$39)*$B$40)*((100+AF72)/100),0)/100</f>
+        <f t="shared" si="88"/>
         <v>1.7</v>
       </c>
       <c r="AC72" s="9">
-        <f>ROUNDUP(((AB52/$B$39)*$B$40)*((100+AF72)/100),0)/100</f>
+        <f t="shared" si="89"/>
         <v>3.39</v>
       </c>
       <c r="AD72" s="9">
-        <f>ROUNDUP(((AC52/$B$39)*$B$40)*((100+AF72)/100),0)/100</f>
+        <f t="shared" si="90"/>
         <v>5.09</v>
       </c>
       <c r="AE72" s="9">
-        <f>ROUNDUP(((AD52/$B$39)*$B$40)*((100+AF72)/100),0)/100</f>
+        <f t="shared" si="91"/>
         <v>5.93</v>
       </c>
       <c r="AF72" s="1">
@@ -9207,23 +9378,23 @@
         <v>0.13</v>
       </c>
       <c r="AA73" s="9">
-        <f>ROUNDUP(((Z53/$B$39)*$B$40)*((100+AF73)/100),0)/100</f>
+        <f t="shared" si="87"/>
         <v>0.93</v>
       </c>
       <c r="AB73" s="9">
-        <f>ROUNDUP(((AA53/$B$39)*$B$40)*((100+AF73)/100),0)/100</f>
+        <f t="shared" si="88"/>
         <v>1.86</v>
       </c>
       <c r="AC73" s="9">
-        <f>ROUNDUP(((AB53/$B$39)*$B$40)*((100+AF73)/100),0)/100</f>
+        <f t="shared" si="89"/>
         <v>3.72</v>
       </c>
       <c r="AD73" s="9">
-        <f>ROUNDUP(((AC53/$B$39)*$B$40)*((100+AF73)/100),0)/100</f>
+        <f t="shared" si="90"/>
         <v>5.58</v>
       </c>
       <c r="AE73" s="9">
-        <f>ROUNDUP(((AD53/$B$39)*$B$40)*((100+AF73)/100),0)/100</f>
+        <f t="shared" si="91"/>
         <v>6.5</v>
       </c>
       <c r="AF73" s="1">
@@ -9238,23 +9409,23 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="AA74" s="9">
-        <f>ROUNDUP(((Z54/$B$39)*$B$40)*((100+AF74)/100),0)/100</f>
+        <f t="shared" si="87"/>
         <v>1.02</v>
       </c>
       <c r="AB74" s="9">
-        <f>ROUNDUP(((AA54/$B$39)*$B$40)*((100+AF74)/100),0)/100</f>
+        <f t="shared" si="88"/>
         <v>2.0299999999999998</v>
       </c>
       <c r="AC74" s="9">
-        <f>ROUNDUP(((AB54/$B$39)*$B$40)*((100+AF74)/100),0)/100</f>
+        <f t="shared" si="89"/>
         <v>4.0599999999999996</v>
       </c>
       <c r="AD74" s="9">
-        <f>ROUNDUP(((AC54/$B$39)*$B$40)*((100+AF74)/100),0)/100</f>
+        <f t="shared" si="90"/>
         <v>6.09</v>
       </c>
       <c r="AE74" s="9">
-        <f>ROUNDUP(((AD54/$B$39)*$B$40)*((100+AF74)/100),0)/100</f>
+        <f t="shared" si="91"/>
         <v>7.1</v>
       </c>
       <c r="AF74" s="1">
@@ -9282,23 +9453,23 @@
         <v>0.15</v>
       </c>
       <c r="AA75" s="9">
-        <f>ROUNDUP(((Z55/$B$39)*$B$40)*((100+AF75)/100),0)/100</f>
+        <f t="shared" si="87"/>
         <v>1.1100000000000001</v>
       </c>
       <c r="AB75" s="9">
-        <f>ROUNDUP(((AA55/$B$39)*$B$40)*((100+AF75)/100),0)/100</f>
+        <f t="shared" si="88"/>
         <v>2.21</v>
       </c>
       <c r="AC75" s="9">
-        <f>ROUNDUP(((AB55/$B$39)*$B$40)*((100+AF75)/100),0)/100</f>
+        <f t="shared" si="89"/>
         <v>4.41</v>
       </c>
       <c r="AD75" s="9">
-        <f>ROUNDUP(((AC55/$B$39)*$B$40)*((100+AF75)/100),0)/100</f>
+        <f t="shared" si="90"/>
         <v>6.62</v>
       </c>
       <c r="AE75" s="9">
-        <f>ROUNDUP(((AD55/$B$39)*$B$40)*((100+AF75)/100),0)/100</f>
+        <f t="shared" si="91"/>
         <v>7.72</v>
       </c>
       <c r="AF75" s="1">
@@ -9351,34 +9522,34 @@
         <v>0.01</v>
       </c>
       <c r="I77" s="9">
-        <f>ROUNDUP(((H41/$B$39)*$B$40)*((100+O77)/100),0)/100</f>
+        <f t="shared" ref="I77:I86" si="97">ROUNDUP(((H41/$B$39)*$B$40)*((100+O77)/100),0)/100</f>
         <v>0.02</v>
       </c>
       <c r="J77" s="9">
-        <f>ROUNDUP(((I41/$B$39)*$B$40)*((100+O77)/100),0)/100</f>
+        <f t="shared" ref="J77:J86" si="98">ROUNDUP(((I41/$B$39)*$B$40)*((100+O77)/100),0)/100</f>
         <v>0.03</v>
       </c>
       <c r="K77" s="9">
-        <f>ROUNDUP(((J41/$B$39)*$B$40)*((100+O77)/100),0)/100</f>
+        <f t="shared" ref="K77:K86" si="99">ROUNDUP(((J41/$B$39)*$B$40)*((100+O77)/100),0)/100</f>
         <v>0.06</v>
       </c>
       <c r="L77" s="9">
-        <f>ROUNDUP(((K41/$B$39)*$B$40)*((100+O77)/100),0)/100</f>
+        <f t="shared" ref="L77:L86" si="100">ROUNDUP(((K41/$B$39)*$B$40)*((100+O77)/100),0)/100</f>
         <v>0.09</v>
       </c>
       <c r="M77" s="9">
-        <f>ROUNDUP(((L41/$B$39)*$B$40)*((100+O77)/100),0)/100</f>
+        <f t="shared" ref="M77:M86" si="101">ROUNDUP(((L41/$B$39)*$B$40)*((100+O77)/100),0)/100</f>
         <v>0.1</v>
       </c>
       <c r="N77" s="9">
-        <f>ROUNDUP(((M41/$B$39)*$B$40)*((100+O77)/100),0)/100</f>
+        <f t="shared" ref="N77:N86" si="102">ROUNDUP(((M41/$B$39)*$B$40)*((100+O77)/100),0)/100</f>
         <v>0.2</v>
       </c>
       <c r="O77" s="10">
         <v>10</v>
       </c>
       <c r="P77" s="10">
-        <f t="shared" ref="P77:P89" si="84">SUM(H77:M77)</f>
+        <f t="shared" ref="P77:P89" si="103">SUM(H77:M77)</f>
         <v>0.31</v>
       </c>
       <c r="Q77" s="9">
@@ -9386,7 +9557,7 @@
         <v>0.2</v>
       </c>
       <c r="R77" s="10">
-        <f t="shared" ref="R77:R97" si="85">((P77+Q77)/$P$75)*100</f>
+        <f t="shared" ref="R77:R97" si="104">((P77+Q77)/$P$75)*100</f>
         <v>2.3087369850611137</v>
       </c>
     </row>
@@ -9398,42 +9569,42 @@
         <v>0.01</v>
       </c>
       <c r="I78" s="9">
-        <f>ROUNDUP(((H42/$B$39)*$B$40)*((100+O78)/100),0)/100</f>
+        <f t="shared" si="97"/>
         <v>0.02</v>
       </c>
       <c r="J78" s="9">
-        <f>ROUNDUP(((I42/$B$39)*$B$40)*((100+O78)/100),0)/100</f>
+        <f t="shared" si="98"/>
         <v>0.04</v>
       </c>
       <c r="K78" s="9">
-        <f>ROUNDUP(((J42/$B$39)*$B$40)*((100+O78)/100),0)/100</f>
+        <f t="shared" si="99"/>
         <v>0.08</v>
       </c>
       <c r="L78" s="9">
-        <f>ROUNDUP(((K42/$B$39)*$B$40)*((100+O78)/100),0)/100</f>
+        <f t="shared" si="100"/>
         <v>0.12</v>
       </c>
       <c r="M78" s="9">
-        <f>ROUNDUP(((L42/$B$39)*$B$40)*((100+O78)/100),0)/100</f>
+        <f t="shared" si="101"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="N78" s="9">
-        <f>ROUNDUP(((M42/$B$39)*$B$40)*((100+O78)/100),0)/100</f>
+        <f t="shared" si="102"/>
         <v>0.27</v>
       </c>
       <c r="O78" s="10">
         <v>20</v>
       </c>
       <c r="P78" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="103"/>
         <v>0.41000000000000003</v>
       </c>
       <c r="Q78" s="9">
-        <f t="shared" ref="Q78:Q97" si="86">N78</f>
+        <f t="shared" ref="Q78:Q97" si="105">N78</f>
         <v>0.27</v>
       </c>
       <c r="R78" s="10">
-        <f t="shared" si="85"/>
+        <f t="shared" si="104"/>
         <v>3.0783159800814848</v>
       </c>
     </row>
@@ -9445,42 +9616,42 @@
         <v>0.02</v>
       </c>
       <c r="I79" s="9">
-        <f>ROUNDUP(((H43/$B$39)*$B$40)*((100+O79)/100),0)/100</f>
+        <f t="shared" si="97"/>
         <v>0.03</v>
       </c>
       <c r="J79" s="9">
-        <f>ROUNDUP(((I43/$B$39)*$B$40)*((100+O79)/100),0)/100</f>
+        <f t="shared" si="98"/>
         <v>0.05</v>
       </c>
       <c r="K79" s="9">
-        <f>ROUNDUP(((J43/$B$39)*$B$40)*((100+O79)/100),0)/100</f>
+        <f t="shared" si="99"/>
         <v>0.1</v>
       </c>
       <c r="L79" s="9">
-        <f>ROUNDUP(((K43/$B$39)*$B$40)*((100+O79)/100),0)/100</f>
+        <f t="shared" si="100"/>
         <v>0.15</v>
       </c>
       <c r="M79" s="9">
-        <f>ROUNDUP(((L43/$B$39)*$B$40)*((100+O79)/100),0)/100</f>
+        <f t="shared" si="101"/>
         <v>0.18</v>
       </c>
       <c r="N79" s="9">
-        <f>ROUNDUP(((M43/$B$39)*$B$40)*((100+O79)/100),0)/100</f>
+        <f t="shared" si="102"/>
         <v>0.35</v>
       </c>
       <c r="O79" s="10">
         <v>30</v>
       </c>
       <c r="P79" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="103"/>
         <v>0.53</v>
       </c>
       <c r="Q79" s="9">
-        <f t="shared" si="86"/>
+        <f t="shared" si="105"/>
         <v>0.35</v>
       </c>
       <c r="R79" s="10">
-        <f t="shared" si="85"/>
+        <f t="shared" si="104"/>
         <v>3.9837030330466274</v>
       </c>
     </row>
@@ -9492,42 +9663,42 @@
         <v>0.02</v>
       </c>
       <c r="I80" s="9">
-        <f>ROUNDUP(((H44/$B$39)*$B$40)*((100+O80)/100),0)/100</f>
+        <f t="shared" si="97"/>
         <v>0.04</v>
       </c>
       <c r="J80" s="9">
-        <f>ROUNDUP(((I44/$B$39)*$B$40)*((100+O80)/100),0)/100</f>
+        <f t="shared" si="98"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="K80" s="9">
-        <f>ROUNDUP(((J44/$B$39)*$B$40)*((100+O80)/100),0)/100</f>
+        <f t="shared" si="99"/>
         <v>0.13</v>
       </c>
       <c r="L80" s="9">
-        <f>ROUNDUP(((K44/$B$39)*$B$40)*((100+O80)/100),0)/100</f>
+        <f t="shared" si="100"/>
         <v>0.19</v>
       </c>
       <c r="M80" s="9">
-        <f>ROUNDUP(((L44/$B$39)*$B$40)*((100+O80)/100),0)/100</f>
+        <f t="shared" si="101"/>
         <v>0.22</v>
       </c>
       <c r="N80" s="9">
-        <f>ROUNDUP(((M44/$B$39)*$B$40)*((100+O80)/100),0)/100</f>
+        <f t="shared" si="102"/>
         <v>0.44</v>
       </c>
       <c r="O80" s="10">
         <v>40</v>
       </c>
       <c r="P80" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="103"/>
         <v>0.67</v>
       </c>
       <c r="Q80" s="9">
-        <f t="shared" si="86"/>
+        <f t="shared" si="105"/>
         <v>0.44</v>
       </c>
       <c r="R80" s="10">
-        <f t="shared" si="85"/>
+        <f t="shared" si="104"/>
         <v>5.0248981439565421</v>
       </c>
     </row>
@@ -9539,42 +9710,42 @@
         <v>0.03</v>
       </c>
       <c r="I81" s="9">
-        <f>ROUNDUP(((H45/$B$39)*$B$40)*((100+O81)/100),0)/100</f>
+        <f t="shared" si="97"/>
         <v>0.04</v>
       </c>
       <c r="J81" s="9">
-        <f>ROUNDUP(((I45/$B$39)*$B$40)*((100+O81)/100),0)/100</f>
+        <f t="shared" si="98"/>
         <v>0.08</v>
       </c>
       <c r="K81" s="9">
-        <f>ROUNDUP(((J45/$B$39)*$B$40)*((100+O81)/100),0)/100</f>
+        <f t="shared" si="99"/>
         <v>0.16</v>
       </c>
       <c r="L81" s="9">
-        <f>ROUNDUP(((K45/$B$39)*$B$40)*((100+O81)/100),0)/100</f>
+        <f t="shared" si="100"/>
         <v>0.24</v>
       </c>
       <c r="M81" s="9">
-        <f>ROUNDUP(((L45/$B$39)*$B$40)*((100+O81)/100),0)/100</f>
+        <f t="shared" si="101"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="N81" s="9">
-        <f>ROUNDUP(((M45/$B$39)*$B$40)*((100+O81)/100),0)/100</f>
+        <f t="shared" si="102"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="O81" s="10">
         <v>50</v>
       </c>
       <c r="P81" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="103"/>
         <v>0.83000000000000007</v>
       </c>
       <c r="Q81" s="9">
-        <f t="shared" si="86"/>
+        <f t="shared" si="105"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="R81" s="10">
-        <f t="shared" si="85"/>
+        <f t="shared" si="104"/>
         <v>6.2471706654594845</v>
       </c>
     </row>
@@ -9586,42 +9757,42 @@
         <v>0.03</v>
       </c>
       <c r="I82" s="9">
-        <f>ROUNDUP(((H46/$B$39)*$B$40)*((100+O82)/100),0)/100</f>
+        <f t="shared" si="97"/>
         <v>0.05</v>
       </c>
       <c r="J82" s="9">
-        <f>ROUNDUP(((I46/$B$39)*$B$40)*((100+O82)/100),0)/100</f>
+        <f t="shared" si="98"/>
         <v>0.1</v>
       </c>
       <c r="K82" s="9">
-        <f>ROUNDUP(((J46/$B$39)*$B$40)*((100+O82)/100),0)/100</f>
+        <f t="shared" si="99"/>
         <v>0.2</v>
       </c>
       <c r="L82" s="9">
-        <f>ROUNDUP(((K46/$B$39)*$B$40)*((100+O82)/100),0)/100</f>
+        <f t="shared" si="100"/>
         <v>0.28999999999999998</v>
       </c>
       <c r="M82" s="9">
-        <f>ROUNDUP(((L46/$B$39)*$B$40)*((100+O82)/100),0)/100</f>
+        <f t="shared" si="101"/>
         <v>0.34</v>
       </c>
       <c r="N82" s="9">
-        <f>ROUNDUP(((M46/$B$39)*$B$40)*((100+O82)/100),0)/100</f>
+        <f t="shared" si="102"/>
         <v>0.68</v>
       </c>
       <c r="O82" s="10">
         <v>60</v>
       </c>
       <c r="P82" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="103"/>
         <v>1.01</v>
       </c>
       <c r="Q82" s="9">
-        <f t="shared" si="86"/>
+        <f t="shared" si="105"/>
         <v>0.68</v>
       </c>
       <c r="R82" s="10">
-        <f t="shared" si="85"/>
+        <f t="shared" si="104"/>
         <v>7.6505205975554542</v>
       </c>
     </row>
@@ -9633,42 +9804,42 @@
         <v>0.04</v>
       </c>
       <c r="I83" s="9">
-        <f>ROUNDUP(((H47/$B$39)*$B$40)*((100+O83)/100),0)/100</f>
+        <f t="shared" si="97"/>
         <v>0.06</v>
       </c>
       <c r="J83" s="9">
-        <f>ROUNDUP(((I47/$B$39)*$B$40)*((100+O83)/100),0)/100</f>
+        <f t="shared" si="98"/>
         <v>0.12</v>
       </c>
       <c r="K83" s="9">
-        <f>ROUNDUP(((J47/$B$39)*$B$40)*((100+O83)/100),0)/100</f>
+        <f t="shared" si="99"/>
         <v>0.24</v>
       </c>
       <c r="L83" s="9">
-        <f>ROUNDUP(((K47/$B$39)*$B$40)*((100+O83)/100),0)/100</f>
+        <f t="shared" si="100"/>
         <v>0.35</v>
       </c>
       <c r="M83" s="9">
-        <f>ROUNDUP(((L47/$B$39)*$B$40)*((100+O83)/100),0)/100</f>
+        <f t="shared" si="101"/>
         <v>0.41</v>
       </c>
       <c r="N83" s="9">
-        <f>ROUNDUP(((M47/$B$39)*$B$40)*((100+O83)/100),0)/100</f>
+        <f t="shared" si="102"/>
         <v>0.82</v>
       </c>
       <c r="O83" s="10">
         <v>70</v>
       </c>
       <c r="P83" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="103"/>
         <v>1.22</v>
       </c>
       <c r="Q83" s="9">
-        <f t="shared" si="86"/>
+        <f t="shared" si="105"/>
         <v>0.82</v>
       </c>
       <c r="R83" s="10">
-        <f t="shared" si="85"/>
+        <f t="shared" si="104"/>
         <v>9.2349479402444548</v>
       </c>
       <c r="Y83" s="9" t="s">
@@ -9689,42 +9860,42 @@
         <v>0.04</v>
       </c>
       <c r="I84" s="9">
-        <f>ROUNDUP(((H48/$B$39)*$B$40)*((100+O84)/100),0)/100</f>
+        <f t="shared" si="97"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="J84" s="9">
-        <f>ROUNDUP(((I48/$B$39)*$B$40)*((100+O84)/100),0)/100</f>
+        <f t="shared" si="98"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="K84" s="9">
-        <f>ROUNDUP(((J48/$B$39)*$B$40)*((100+O84)/100),0)/100</f>
+        <f t="shared" si="99"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="L84" s="9">
-        <f>ROUNDUP(((K48/$B$39)*$B$40)*((100+O84)/100),0)/100</f>
+        <f t="shared" si="100"/>
         <v>0.42</v>
       </c>
       <c r="M84" s="9">
-        <f>ROUNDUP(((L48/$B$39)*$B$40)*((100+O84)/100),0)/100</f>
+        <f t="shared" si="101"/>
         <v>0.49</v>
       </c>
       <c r="N84" s="9">
-        <f>ROUNDUP(((M48/$B$39)*$B$40)*((100+O84)/100),0)/100</f>
+        <f t="shared" si="102"/>
         <v>0.98</v>
       </c>
       <c r="O84" s="10">
         <v>80</v>
       </c>
       <c r="P84" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="103"/>
         <v>1.44</v>
       </c>
       <c r="Q84" s="9">
-        <f t="shared" si="86"/>
+        <f t="shared" si="105"/>
         <v>0.98</v>
       </c>
       <c r="R84" s="10">
-        <f t="shared" si="85"/>
+        <f t="shared" si="104"/>
         <v>10.955183340878225</v>
       </c>
       <c r="Y84" s="24" t="s">
@@ -9757,69 +9928,69 @@
         <v>0.05</v>
       </c>
       <c r="I85" s="9">
-        <f>ROUNDUP(((H49/$B$39)*$B$40)*((100+O85)/100),0)/100</f>
+        <f t="shared" si="97"/>
         <v>0.09</v>
       </c>
       <c r="J85" s="9">
-        <f>ROUNDUP(((I49/$B$39)*$B$40)*((100+O85)/100),0)/100</f>
+        <f t="shared" si="98"/>
         <v>0.17</v>
       </c>
       <c r="K85" s="9">
-        <f>ROUNDUP(((J49/$B$39)*$B$40)*((100+O85)/100),0)/100</f>
+        <f t="shared" si="99"/>
         <v>0.34</v>
       </c>
       <c r="L85" s="9">
-        <f>ROUNDUP(((K49/$B$39)*$B$40)*((100+O85)/100),0)/100</f>
+        <f t="shared" si="100"/>
         <v>0.5</v>
       </c>
       <c r="M85" s="9">
-        <f>ROUNDUP(((L49/$B$39)*$B$40)*((100+O85)/100),0)/100</f>
+        <f t="shared" si="101"/>
         <v>0.59</v>
       </c>
       <c r="N85" s="9">
-        <f>ROUNDUP(((M49/$B$39)*$B$40)*((100+O85)/100),0)/100</f>
+        <f t="shared" si="102"/>
         <v>1.17</v>
       </c>
       <c r="O85" s="10">
         <v>90</v>
       </c>
       <c r="P85" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="103"/>
         <v>1.7400000000000002</v>
       </c>
       <c r="Q85" s="9">
-        <f t="shared" si="86"/>
+        <f t="shared" si="105"/>
         <v>1.17</v>
       </c>
       <c r="R85" s="10">
-        <f t="shared" si="85"/>
+        <f t="shared" si="104"/>
         <v>13.173381620642827</v>
       </c>
       <c r="Y85" s="9" t="s">
         <v>198</v>
       </c>
       <c r="Z85" s="9">
-        <f>Z61</f>
+        <f t="shared" ref="Z85:Z99" si="106">Z61</f>
         <v>0.01</v>
       </c>
       <c r="AA85" s="9">
-        <f>Z85+AA61</f>
+        <f t="shared" ref="AA85:AE99" si="107">Z85+AA61</f>
         <v>0.23</v>
       </c>
       <c r="AB85" s="9">
-        <f>AA85+AB61</f>
+        <f t="shared" si="107"/>
         <v>0.67</v>
       </c>
       <c r="AC85" s="9">
-        <f>AB85+AC61</f>
+        <f t="shared" si="107"/>
         <v>1.54</v>
       </c>
       <c r="AD85" s="9">
-        <f>AC85+AD61</f>
+        <f t="shared" si="107"/>
         <v>2.84</v>
       </c>
       <c r="AE85" s="9">
-        <f>AD85+AE61</f>
+        <f t="shared" si="107"/>
         <v>4.3599999999999994</v>
       </c>
     </row>
@@ -9831,69 +10002,69 @@
         <v>0.05</v>
       </c>
       <c r="I86" s="9">
-        <f>ROUNDUP(((H50/$B$39)*$B$40)*((100+O86)/100),0)/100</f>
+        <f t="shared" si="97"/>
         <v>0.1</v>
       </c>
       <c r="J86" s="9">
-        <f>ROUNDUP(((I50/$B$39)*$B$40)*((100+O86)/100),0)/100</f>
+        <f t="shared" si="98"/>
         <v>0.2</v>
       </c>
       <c r="K86" s="9">
-        <f>ROUNDUP(((J50/$B$39)*$B$40)*((100+O86)/100),0)/100</f>
+        <f t="shared" si="99"/>
         <v>0.4</v>
       </c>
       <c r="L86" s="9">
-        <f>ROUNDUP(((K50/$B$39)*$B$40)*((100+O86)/100),0)/100</f>
+        <f t="shared" si="100"/>
         <v>0.59</v>
       </c>
       <c r="M86" s="9">
-        <f>ROUNDUP(((L50/$B$39)*$B$40)*((100+O86)/100),0)/100</f>
+        <f t="shared" si="101"/>
         <v>0.69</v>
       </c>
       <c r="N86" s="9">
-        <f>ROUNDUP(((M50/$B$39)*$B$40)*((100+O86)/100),0)/100</f>
+        <f t="shared" si="102"/>
         <v>1.38</v>
       </c>
       <c r="O86" s="10">
         <v>100</v>
       </c>
       <c r="P86" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="103"/>
         <v>2.0299999999999998</v>
       </c>
       <c r="Q86" s="9">
-        <f t="shared" si="86"/>
+        <f t="shared" si="105"/>
         <v>1.38</v>
       </c>
       <c r="R86" s="10">
-        <f t="shared" si="85"/>
+        <f t="shared" si="104"/>
         <v>15.436849253055678</v>
       </c>
       <c r="Y86" s="9" t="s">
         <v>199</v>
       </c>
       <c r="Z86" s="9">
-        <f>Z62</f>
+        <f t="shared" si="106"/>
         <v>0.02</v>
       </c>
       <c r="AA86" s="9">
-        <f>Z86+AA62</f>
+        <f t="shared" si="107"/>
         <v>0.26</v>
       </c>
       <c r="AB86" s="9">
-        <f>AA86+AB62</f>
+        <f t="shared" si="107"/>
         <v>0.73</v>
       </c>
       <c r="AC86" s="9">
-        <f>AB86+AC62</f>
+        <f t="shared" si="107"/>
         <v>1.6600000000000001</v>
       </c>
       <c r="AD86" s="9">
-        <f>AC86+AD62</f>
+        <f t="shared" si="107"/>
         <v>3.06</v>
       </c>
       <c r="AE86" s="9">
-        <f>AD86+AE62</f>
+        <f t="shared" si="107"/>
         <v>4.6899999999999995</v>
       </c>
     </row>
@@ -9905,69 +10076,69 @@
         <v>0.06</v>
       </c>
       <c r="I87" s="9">
-        <f>ROUNDUP(((H53/$B$39)*$B$40)*((100+O87)/100),0)/100</f>
+        <f t="shared" ref="I87:I101" si="108">ROUNDUP(((H53/$B$39)*$B$40)*((100+O87)/100),0)/100</f>
         <v>0.15</v>
       </c>
       <c r="J87" s="9">
-        <f>ROUNDUP(((I53/$B$39)*$B$40)*((100+O87)/100),0)/100</f>
+        <f t="shared" ref="J87:J101" si="109">ROUNDUP(((I53/$B$39)*$B$40)*((100+O87)/100),0)/100</f>
         <v>0.3</v>
       </c>
       <c r="K87" s="9">
-        <f>ROUNDUP(((J53/$B$39)*$B$40)*((100+O87)/100),0)/100</f>
+        <f t="shared" ref="K87:K101" si="110">ROUNDUP(((J53/$B$39)*$B$40)*((100+O87)/100),0)/100</f>
         <v>0.59</v>
       </c>
       <c r="L87" s="9">
-        <f>ROUNDUP(((K53/$B$39)*$B$40)*((100+O87)/100),0)/100</f>
+        <f t="shared" ref="L87:L101" si="111">ROUNDUP(((K53/$B$39)*$B$40)*((100+O87)/100),0)/100</f>
         <v>0.88</v>
       </c>
       <c r="M87" s="9">
-        <f>ROUNDUP(((L53/$B$39)*$B$40)*((100+O87)/100),0)/100</f>
+        <f t="shared" ref="M87:M101" si="112">ROUNDUP(((L53/$B$39)*$B$40)*((100+O87)/100),0)/100</f>
         <v>1.03</v>
       </c>
       <c r="N87" s="9">
-        <f>ROUNDUP(((M53/$B$39)*$B$40)*((100+O87)/100),0)/100</f>
+        <f t="shared" ref="N87:N104" si="113">ROUNDUP(((M53/$B$39)*$B$40)*((100+O87)/100),0)/100</f>
         <v>2.0499999999999998</v>
       </c>
       <c r="O87" s="10">
         <v>110</v>
       </c>
       <c r="P87" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="103"/>
         <v>3.01</v>
       </c>
       <c r="Q87" s="9">
-        <f t="shared" si="86"/>
+        <f t="shared" si="105"/>
         <v>2.0499999999999998</v>
       </c>
       <c r="R87" s="10">
-        <f t="shared" si="85"/>
+        <f t="shared" si="104"/>
         <v>22.906292440018106</v>
       </c>
       <c r="Y87" s="9" t="s">
         <v>200</v>
       </c>
       <c r="Z87" s="9">
-        <f>Z63</f>
+        <f t="shared" si="106"/>
         <v>0.03</v>
       </c>
       <c r="AA87" s="9">
-        <f>Z87+AA63</f>
+        <f t="shared" si="107"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="AB87" s="9">
-        <f>AA87+AB63</f>
+        <f t="shared" si="107"/>
         <v>0.78</v>
       </c>
       <c r="AC87" s="9">
-        <f>AB87+AC63</f>
+        <f t="shared" si="107"/>
         <v>1.78</v>
       </c>
       <c r="AD87" s="9">
-        <f>AC87+AD63</f>
+        <f t="shared" si="107"/>
         <v>3.2800000000000002</v>
       </c>
       <c r="AE87" s="9">
-        <f>AD87+AE63</f>
+        <f t="shared" si="107"/>
         <v>5.03</v>
       </c>
     </row>
@@ -9979,69 +10150,69 @@
         <v>0.06</v>
       </c>
       <c r="I88" s="9">
-        <f>ROUNDUP(((H54/$B$39)*$B$40)*((100+O88)/100),0)/100</f>
+        <f t="shared" si="108"/>
         <v>0.17</v>
       </c>
       <c r="J88" s="9">
-        <f>ROUNDUP(((I54/$B$39)*$B$40)*((100+O88)/100),0)/100</f>
+        <f t="shared" si="109"/>
         <v>0.33</v>
       </c>
       <c r="K88" s="9">
-        <f>ROUNDUP(((J54/$B$39)*$B$40)*((100+O88)/100),0)/100</f>
+        <f t="shared" si="110"/>
         <v>0.65</v>
       </c>
       <c r="L88" s="9">
-        <f>ROUNDUP(((K54/$B$39)*$B$40)*((100+O88)/100),0)/100</f>
+        <f t="shared" si="111"/>
         <v>0.97</v>
       </c>
       <c r="M88" s="9">
-        <f>ROUNDUP(((L54/$B$39)*$B$40)*((100+O88)/100),0)/100</f>
+        <f t="shared" si="112"/>
         <v>1.1299999999999999</v>
       </c>
       <c r="N88" s="9">
-        <f>ROUNDUP(((M54/$B$39)*$B$40)*((100+O88)/100),0)/100</f>
+        <f t="shared" si="113"/>
         <v>2.25</v>
       </c>
       <c r="O88" s="10">
         <v>120</v>
       </c>
       <c r="P88" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="103"/>
         <v>3.3099999999999996</v>
       </c>
       <c r="Q88" s="9">
-        <f t="shared" si="86"/>
+        <f t="shared" si="105"/>
         <v>2.25</v>
       </c>
       <c r="R88" s="10">
-        <f t="shared" si="85"/>
+        <f t="shared" si="104"/>
         <v>25.169760072430964</v>
       </c>
       <c r="Y88" s="9" t="s">
         <v>201</v>
       </c>
       <c r="Z88" s="9">
-        <f>Z64</f>
+        <f t="shared" si="106"/>
         <v>0.04</v>
       </c>
       <c r="AA88" s="9">
-        <f>Z88+AA64</f>
+        <f t="shared" si="107"/>
         <v>0.31</v>
       </c>
       <c r="AB88" s="9">
-        <f>AA88+AB64</f>
+        <f t="shared" si="107"/>
         <v>0.85000000000000009</v>
       </c>
       <c r="AC88" s="9">
-        <f>AB88+AC64</f>
+        <f t="shared" si="107"/>
         <v>1.9200000000000002</v>
       </c>
       <c r="AD88" s="9">
-        <f>AC88+AD64</f>
+        <f t="shared" si="107"/>
         <v>3.5200000000000005</v>
       </c>
       <c r="AE88" s="9">
-        <f>AD88+AE64</f>
+        <f t="shared" si="107"/>
         <v>5.3900000000000006</v>
       </c>
     </row>
@@ -10053,69 +10224,69 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I89" s="9">
-        <f>ROUNDUP(((H55/$B$39)*$B$40)*((100+O89)/100),0)/100</f>
+        <f t="shared" si="108"/>
         <v>0.18</v>
       </c>
       <c r="J89" s="9">
-        <f>ROUNDUP(((I55/$B$39)*$B$40)*((100+O89)/100),0)/100</f>
+        <f t="shared" si="109"/>
         <v>0.36</v>
       </c>
       <c r="K89" s="9">
-        <f>ROUNDUP(((J55/$B$39)*$B$40)*((100+O89)/100),0)/100</f>
+        <f t="shared" si="110"/>
         <v>0.71</v>
       </c>
       <c r="L89" s="9">
-        <f>ROUNDUP(((K55/$B$39)*$B$40)*((100+O89)/100),0)/100</f>
+        <f t="shared" si="111"/>
         <v>1.06</v>
       </c>
       <c r="M89" s="9">
-        <f>ROUNDUP(((L55/$B$39)*$B$40)*((100+O89)/100),0)/100</f>
+        <f t="shared" si="112"/>
         <v>1.23</v>
       </c>
       <c r="N89" s="9">
-        <f>ROUNDUP(((M55/$B$39)*$B$40)*((100+O89)/100),0)/100</f>
+        <f t="shared" si="113"/>
         <v>2.46</v>
       </c>
       <c r="O89" s="10">
         <v>130</v>
       </c>
       <c r="P89" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="103"/>
         <v>3.61</v>
       </c>
       <c r="Q89" s="9">
-        <f t="shared" si="86"/>
+        <f t="shared" si="105"/>
         <v>2.46</v>
       </c>
       <c r="R89" s="10">
-        <f t="shared" si="85"/>
+        <f t="shared" si="104"/>
         <v>27.478497057492078</v>
       </c>
       <c r="Y89" s="9" t="s">
         <v>202</v>
       </c>
       <c r="Z89" s="9">
-        <f>Z65</f>
+        <f t="shared" si="106"/>
         <v>0.05</v>
       </c>
       <c r="AA89" s="9">
-        <f>Z89+AA65</f>
+        <f t="shared" si="107"/>
         <v>0.35</v>
       </c>
       <c r="AB89" s="9">
-        <f>AA89+AB65</f>
+        <f t="shared" si="107"/>
         <v>0.94</v>
       </c>
       <c r="AC89" s="9">
-        <f>AB89+AC65</f>
+        <f t="shared" si="107"/>
         <v>2.12</v>
       </c>
       <c r="AD89" s="9">
-        <f>AC89+AD65</f>
+        <f t="shared" si="107"/>
         <v>3.89</v>
       </c>
       <c r="AE89" s="9">
-        <f>AD89+AE65</f>
+        <f t="shared" si="107"/>
         <v>5.95</v>
       </c>
     </row>
@@ -10127,69 +10298,69 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I90" s="9">
-        <f>ROUNDUP(((H56/$B$39)*$B$40)*((100+O90)/100),0)/100</f>
+        <f t="shared" si="108"/>
         <v>0.2</v>
       </c>
       <c r="J90" s="9">
-        <f>ROUNDUP(((I56/$B$39)*$B$40)*((100+O90)/100),0)/100</f>
+        <f t="shared" si="109"/>
         <v>0.4</v>
       </c>
       <c r="K90" s="9">
-        <f>ROUNDUP(((J56/$B$39)*$B$40)*((100+O90)/100),0)/100</f>
+        <f t="shared" si="110"/>
         <v>0.8</v>
       </c>
       <c r="L90" s="9">
-        <f>ROUNDUP(((K56/$B$39)*$B$40)*((100+O90)/100),0)/100</f>
+        <f t="shared" si="111"/>
         <v>1.2</v>
       </c>
       <c r="M90" s="9">
-        <f>ROUNDUP(((L56/$B$39)*$B$40)*((100+O90)/100),0)/100</f>
+        <f t="shared" si="112"/>
         <v>1.4</v>
       </c>
       <c r="N90" s="9">
-        <f>ROUNDUP(((M56/$B$39)*$B$40)*((100+O90)/100),0)/100</f>
+        <f t="shared" si="113"/>
         <v>2.79</v>
       </c>
       <c r="O90" s="10">
         <v>140</v>
       </c>
       <c r="P90" s="10">
-        <f t="shared" ref="P90:P93" si="87">SUM(H90:M90)</f>
+        <f t="shared" ref="P90:P93" si="114">SUM(H90:M90)</f>
         <v>4.07</v>
       </c>
       <c r="Q90" s="9">
-        <f t="shared" si="86"/>
+        <f t="shared" si="105"/>
         <v>2.79</v>
       </c>
       <c r="R90" s="10">
-        <f t="shared" si="85"/>
+        <f t="shared" si="104"/>
         <v>31.05477591670439</v>
       </c>
       <c r="Y90" s="9" t="s">
         <v>203</v>
       </c>
       <c r="Z90" s="9">
-        <f>Z66</f>
+        <f t="shared" si="106"/>
         <v>0.06</v>
       </c>
       <c r="AA90" s="9">
-        <f>Z90+AA66</f>
+        <f t="shared" si="107"/>
         <v>0.39</v>
       </c>
       <c r="AB90" s="9">
-        <f>AA90+AB66</f>
+        <f t="shared" si="107"/>
         <v>1.04</v>
       </c>
       <c r="AC90" s="9">
-        <f>AB90+AC66</f>
+        <f t="shared" si="107"/>
         <v>2.34</v>
       </c>
       <c r="AD90" s="9">
-        <f>AC90+AD66</f>
+        <f t="shared" si="107"/>
         <v>4.2799999999999994</v>
       </c>
       <c r="AE90" s="9">
-        <f>AD90+AE66</f>
+        <f t="shared" si="107"/>
         <v>6.5399999999999991</v>
       </c>
     </row>
@@ -10201,69 +10372,69 @@
         <v>0.08</v>
       </c>
       <c r="I91" s="9">
-        <f>ROUNDUP(((H57/$B$39)*$B$40)*((100+O91)/100),0)/100</f>
+        <f t="shared" si="108"/>
         <v>0.23</v>
       </c>
       <c r="J91" s="9">
-        <f>ROUNDUP(((I57/$B$39)*$B$40)*((100+O91)/100),0)/100</f>
+        <f t="shared" si="109"/>
         <v>0.45</v>
       </c>
       <c r="K91" s="9">
-        <f>ROUNDUP(((J57/$B$39)*$B$40)*((100+O91)/100),0)/100</f>
+        <f t="shared" si="110"/>
         <v>0.9</v>
       </c>
       <c r="L91" s="9">
-        <f>ROUNDUP(((K57/$B$39)*$B$40)*((100+O91)/100),0)/100</f>
+        <f t="shared" si="111"/>
         <v>1.35</v>
       </c>
       <c r="M91" s="9">
-        <f>ROUNDUP(((L57/$B$39)*$B$40)*((100+O91)/100),0)/100</f>
+        <f t="shared" si="112"/>
         <v>1.58</v>
       </c>
       <c r="N91" s="9">
-        <f>ROUNDUP(((M57/$B$39)*$B$40)*((100+O91)/100),0)/100</f>
+        <f t="shared" si="113"/>
         <v>3.15</v>
       </c>
       <c r="O91" s="10">
         <v>150</v>
       </c>
       <c r="P91" s="10">
-        <f t="shared" si="87"/>
+        <f t="shared" si="114"/>
         <v>4.59</v>
       </c>
       <c r="Q91" s="9">
-        <f t="shared" si="86"/>
+        <f t="shared" si="105"/>
         <v>3.15</v>
       </c>
       <c r="R91" s="10">
-        <f t="shared" si="85"/>
+        <f t="shared" si="104"/>
         <v>35.038478949751017</v>
       </c>
       <c r="Y91" s="9" t="s">
         <v>204</v>
       </c>
       <c r="Z91" s="9">
-        <f>Z67</f>
+        <f t="shared" si="106"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AA91" s="9">
-        <f>Z91+AA67</f>
+        <f t="shared" si="107"/>
         <v>0.43</v>
       </c>
       <c r="AB91" s="9">
-        <f>AA91+AB67</f>
+        <f t="shared" si="107"/>
         <v>1.1399999999999999</v>
       </c>
       <c r="AC91" s="9">
-        <f>AB91+AC67</f>
+        <f t="shared" si="107"/>
         <v>2.5599999999999996</v>
       </c>
       <c r="AD91" s="9">
-        <f>AC91+AD67</f>
+        <f t="shared" si="107"/>
         <v>4.68</v>
       </c>
       <c r="AE91" s="9">
-        <f>AD91+AE67</f>
+        <f t="shared" si="107"/>
         <v>7.15</v>
       </c>
     </row>
@@ -10275,69 +10446,69 @@
         <v>0.08</v>
       </c>
       <c r="I92" s="9">
-        <f>ROUNDUP(((H58/$B$39)*$B$40)*((100+O92)/100),0)/100</f>
+        <f t="shared" si="108"/>
         <v>0.27</v>
       </c>
       <c r="J92" s="9">
-        <f>ROUNDUP(((I58/$B$39)*$B$40)*((100+O92)/100),0)/100</f>
+        <f t="shared" si="109"/>
         <v>0.53</v>
       </c>
       <c r="K92" s="9">
-        <f>ROUNDUP(((J58/$B$39)*$B$40)*((100+O92)/100),0)/100</f>
+        <f t="shared" si="110"/>
         <v>1.06</v>
       </c>
       <c r="L92" s="9">
-        <f>ROUNDUP(((K58/$B$39)*$B$40)*((100+O92)/100),0)/100</f>
+        <f t="shared" si="111"/>
         <v>1.58</v>
       </c>
       <c r="M92" s="9">
-        <f>ROUNDUP(((L58/$B$39)*$B$40)*((100+O92)/100),0)/100</f>
+        <f t="shared" si="112"/>
         <v>1.84</v>
       </c>
       <c r="N92" s="9">
-        <f>ROUNDUP(((M58/$B$39)*$B$40)*((100+O92)/100),0)/100</f>
+        <f t="shared" si="113"/>
         <v>3.68</v>
       </c>
       <c r="O92" s="10">
         <v>160</v>
       </c>
       <c r="P92" s="10">
-        <f t="shared" si="87"/>
+        <f t="shared" si="114"/>
         <v>5.36</v>
       </c>
       <c r="Q92" s="9">
-        <f t="shared" si="86"/>
+        <f t="shared" si="105"/>
         <v>3.68</v>
       </c>
       <c r="R92" s="10">
-        <f t="shared" si="85"/>
+        <f t="shared" si="104"/>
         <v>40.92349479402445</v>
       </c>
       <c r="Y92" s="9" t="s">
         <v>205</v>
       </c>
       <c r="Z92" s="9">
-        <f>Z68</f>
+        <f t="shared" si="106"/>
         <v>0.08</v>
       </c>
       <c r="AA92" s="9">
-        <f>Z92+AA68</f>
+        <f t="shared" si="107"/>
         <v>0.48000000000000004</v>
       </c>
       <c r="AB92" s="9">
-        <f>AA92+AB68</f>
+        <f t="shared" si="107"/>
         <v>1.27</v>
       </c>
       <c r="AC92" s="9">
-        <f>AB92+AC68</f>
+        <f t="shared" si="107"/>
         <v>2.85</v>
       </c>
       <c r="AD92" s="9">
-        <f>AC92+AD68</f>
+        <f t="shared" si="107"/>
         <v>5.2200000000000006</v>
       </c>
       <c r="AE92" s="9">
-        <f>AD92+AE68</f>
+        <f t="shared" si="107"/>
         <v>7.98</v>
       </c>
     </row>
@@ -10349,42 +10520,42 @@
         <v>0.09</v>
       </c>
       <c r="I93" s="9">
-        <f>ROUNDUP(((H59/$B$39)*$B$40)*((100+O93)/100),0)/100</f>
+        <f t="shared" si="108"/>
         <v>0.32</v>
       </c>
       <c r="J93" s="9">
-        <f>ROUNDUP(((I59/$B$39)*$B$40)*((100+O93)/100),0)/100</f>
+        <f t="shared" si="109"/>
         <v>0.64</v>
       </c>
       <c r="K93" s="9">
-        <f>ROUNDUP(((J59/$B$39)*$B$40)*((100+O93)/100),0)/100</f>
+        <f t="shared" si="110"/>
         <v>1.27</v>
       </c>
       <c r="L93" s="9">
-        <f>ROUNDUP(((K59/$B$39)*$B$40)*((100+O93)/100),0)/100</f>
+        <f t="shared" si="111"/>
         <v>1.9</v>
       </c>
       <c r="M93" s="9">
-        <f>ROUNDUP(((L59/$B$39)*$B$40)*((100+O93)/100),0)/100</f>
+        <f t="shared" si="112"/>
         <v>2.2200000000000002</v>
       </c>
       <c r="N93" s="9">
-        <f>ROUNDUP(((M59/$B$39)*$B$40)*((100+O93)/100),0)/100</f>
+        <f t="shared" si="113"/>
         <v>4.43</v>
       </c>
       <c r="O93" s="10">
         <v>180</v>
       </c>
       <c r="P93" s="10">
-        <f t="shared" si="87"/>
+        <f t="shared" si="114"/>
         <v>6.4400000000000013</v>
       </c>
       <c r="Q93" s="9">
-        <f t="shared" si="86"/>
+        <f t="shared" si="105"/>
         <v>4.43</v>
       </c>
       <c r="R93" s="10">
-        <f t="shared" si="85"/>
+        <f t="shared" si="104"/>
         <v>49.207786328655509</v>
       </c>
       <c r="S93" s="9" t="s">
@@ -10409,27 +10580,27 @@
         <v>206</v>
       </c>
       <c r="Z93" s="9">
-        <f>Z69</f>
+        <f t="shared" si="106"/>
         <v>0.09</v>
       </c>
       <c r="AA93" s="9">
-        <f>Z93+AA69</f>
+        <f t="shared" si="107"/>
         <v>0.66999999999999993</v>
       </c>
       <c r="AB93" s="9">
-        <f>AA93+AB69</f>
+        <f t="shared" si="107"/>
         <v>1.8299999999999998</v>
       </c>
       <c r="AC93" s="9">
-        <f>AB93+AC69</f>
+        <f t="shared" si="107"/>
         <v>4.1399999999999997</v>
       </c>
       <c r="AD93" s="9">
-        <f>AC93+AD69</f>
+        <f t="shared" si="107"/>
         <v>7.6</v>
       </c>
       <c r="AE93" s="9">
-        <f>AD93+AE69</f>
+        <f t="shared" si="107"/>
         <v>11.64</v>
       </c>
     </row>
@@ -10441,42 +10612,42 @@
         <v>0.09</v>
       </c>
       <c r="I94" s="9">
-        <f>ROUNDUP(((H60/$B$39)*$B$40)*((100+O94)/100),0)/100</f>
+        <f t="shared" si="108"/>
         <v>0.38</v>
       </c>
       <c r="J94" s="9">
-        <f>ROUNDUP(((I60/$B$39)*$B$40)*((100+O94)/100),0)/100</f>
+        <f t="shared" si="109"/>
         <v>0.76</v>
       </c>
       <c r="K94" s="9">
-        <f>ROUNDUP(((J60/$B$39)*$B$40)*((100+O94)/100),0)/100</f>
+        <f t="shared" si="110"/>
         <v>1.51</v>
       </c>
       <c r="L94" s="9">
-        <f>ROUNDUP(((K60/$B$39)*$B$40)*((100+O94)/100),0)/100</f>
+        <f t="shared" si="111"/>
         <v>2.25</v>
       </c>
       <c r="M94" s="9">
-        <f>ROUNDUP(((L60/$B$39)*$B$40)*((100+O94)/100),0)/100</f>
+        <f t="shared" si="112"/>
         <v>2.63</v>
       </c>
       <c r="N94" s="9">
-        <f>ROUNDUP(((M60/$B$39)*$B$40)*((100+O94)/100),0)/100</f>
+        <f t="shared" si="113"/>
         <v>5.26</v>
       </c>
       <c r="O94" s="10">
         <v>200</v>
       </c>
       <c r="P94" s="10">
-        <f t="shared" ref="P94:P96" si="88">SUM(H94:M94)</f>
+        <f t="shared" ref="P94:P96" si="115">SUM(H94:M94)</f>
         <v>7.62</v>
       </c>
       <c r="Q94" s="9">
-        <f t="shared" si="86"/>
+        <f t="shared" si="105"/>
         <v>5.26</v>
       </c>
       <c r="R94" s="10">
-        <f t="shared" si="85"/>
+        <f t="shared" si="104"/>
         <v>58.306926210955176</v>
       </c>
       <c r="S94" s="9" t="s">
@@ -10501,27 +10672,27 @@
         <v>207</v>
       </c>
       <c r="Z94" s="9">
-        <f>Z70</f>
+        <f t="shared" si="106"/>
         <v>0.1</v>
       </c>
       <c r="AA94" s="9">
-        <f>Z94+AA70</f>
+        <f t="shared" si="107"/>
         <v>0.75</v>
       </c>
       <c r="AB94" s="9">
-        <f>AA94+AB70</f>
+        <f t="shared" si="107"/>
         <v>2.04</v>
       </c>
       <c r="AC94" s="9">
-        <f>AB94+AC70</f>
+        <f t="shared" si="107"/>
         <v>4.62</v>
       </c>
       <c r="AD94" s="9">
-        <f>AC94+AD70</f>
+        <f t="shared" si="107"/>
         <v>8.49</v>
       </c>
       <c r="AE94" s="9">
-        <f>AD94+AE70</f>
+        <f t="shared" si="107"/>
         <v>13</v>
       </c>
     </row>
@@ -10533,69 +10704,69 @@
         <v>0.1</v>
       </c>
       <c r="I95" s="9">
-        <f>ROUNDUP(((H61/$B$39)*$B$40)*((100+O95)/100),0)/100</f>
+        <f t="shared" si="108"/>
         <v>0.45</v>
       </c>
       <c r="J95" s="9">
-        <f>ROUNDUP(((I61/$B$39)*$B$40)*((100+O95)/100),0)/100</f>
+        <f t="shared" si="109"/>
         <v>0.89</v>
       </c>
       <c r="K95" s="9">
-        <f>ROUNDUP(((J61/$B$39)*$B$40)*((100+O95)/100),0)/100</f>
+        <f t="shared" si="110"/>
         <v>1.77</v>
       </c>
       <c r="L95" s="9">
-        <f>ROUNDUP(((K61/$B$39)*$B$40)*((100+O95)/100),0)/100</f>
+        <f t="shared" si="111"/>
         <v>2.65</v>
       </c>
       <c r="M95" s="9">
-        <f>ROUNDUP(((L61/$B$39)*$B$40)*((100+O95)/100),0)/100</f>
+        <f t="shared" si="112"/>
         <v>3.09</v>
       </c>
       <c r="N95" s="9">
-        <f>ROUNDUP(((M61/$B$39)*$B$40)*((100+O95)/100),0)/100</f>
+        <f t="shared" si="113"/>
         <v>6.18</v>
       </c>
       <c r="O95" s="10">
         <v>220</v>
       </c>
       <c r="P95" s="10">
-        <f t="shared" si="88"/>
+        <f t="shared" si="115"/>
         <v>8.9499999999999993</v>
       </c>
       <c r="Q95" s="9">
-        <f t="shared" si="86"/>
+        <f t="shared" si="105"/>
         <v>6.18</v>
       </c>
       <c r="R95" s="10">
-        <f t="shared" si="85"/>
+        <f t="shared" si="104"/>
         <v>68.492530556813037</v>
       </c>
       <c r="Y95" s="9" t="s">
         <v>208</v>
       </c>
       <c r="Z95" s="9">
-        <f>Z71</f>
+        <f t="shared" si="106"/>
         <v>0.11</v>
       </c>
       <c r="AA95" s="9">
-        <f>Z95+AA71</f>
+        <f t="shared" si="107"/>
         <v>0.83</v>
       </c>
       <c r="AB95" s="9">
-        <f>AA95+AB71</f>
+        <f t="shared" si="107"/>
         <v>2.27</v>
       </c>
       <c r="AC95" s="9">
-        <f>AB95+AC71</f>
+        <f t="shared" si="107"/>
         <v>5.1400000000000006</v>
       </c>
       <c r="AD95" s="9">
-        <f>AC95+AD71</f>
+        <f t="shared" si="107"/>
         <v>9.4400000000000013</v>
       </c>
       <c r="AE95" s="9">
-        <f>AD95+AE71</f>
+        <f t="shared" si="107"/>
         <v>14.450000000000001</v>
       </c>
     </row>
@@ -10607,69 +10778,69 @@
         <v>0.1</v>
       </c>
       <c r="I96" s="9">
-        <f>ROUNDUP(((H62/$B$39)*$B$40)*((100+O96)/100),0)/100</f>
+        <f t="shared" si="108"/>
         <v>0.52</v>
       </c>
       <c r="J96" s="9">
-        <f>ROUNDUP(((I62/$B$39)*$B$40)*((100+O96)/100),0)/100</f>
+        <f t="shared" si="109"/>
         <v>1.03</v>
       </c>
       <c r="K96" s="9">
-        <f>ROUNDUP(((J62/$B$39)*$B$40)*((100+O96)/100),0)/100</f>
+        <f t="shared" si="110"/>
         <v>2.06</v>
       </c>
       <c r="L96" s="9">
-        <f>ROUNDUP(((K62/$B$39)*$B$40)*((100+O96)/100),0)/100</f>
+        <f t="shared" si="111"/>
         <v>3.09</v>
       </c>
       <c r="M96" s="9">
-        <f>ROUNDUP(((L62/$B$39)*$B$40)*((100+O96)/100),0)/100</f>
+        <f t="shared" si="112"/>
         <v>3.6</v>
       </c>
       <c r="N96" s="9">
-        <f>ROUNDUP(((M62/$B$39)*$B$40)*((100+O96)/100),0)/100</f>
+        <f t="shared" si="113"/>
         <v>7.2</v>
       </c>
       <c r="O96" s="10">
         <v>240</v>
       </c>
       <c r="P96" s="10">
-        <f t="shared" si="88"/>
+        <f t="shared" si="115"/>
         <v>10.4</v>
       </c>
       <c r="Q96" s="9">
-        <f t="shared" si="86"/>
+        <f t="shared" si="105"/>
         <v>7.2</v>
       </c>
       <c r="R96" s="10">
-        <f t="shared" si="85"/>
+        <f t="shared" si="104"/>
         <v>79.674060660932554</v>
       </c>
       <c r="Y96" s="9" t="s">
         <v>209</v>
       </c>
       <c r="Z96" s="9">
-        <f>Z72</f>
+        <f t="shared" si="106"/>
         <v>0.12</v>
       </c>
       <c r="AA96" s="9">
-        <f>Z96+AA72</f>
+        <f t="shared" si="107"/>
         <v>0.97</v>
       </c>
       <c r="AB96" s="9">
-        <f>AA96+AB72</f>
+        <f t="shared" si="107"/>
         <v>2.67</v>
       </c>
       <c r="AC96" s="9">
-        <f>AB96+AC72</f>
+        <f t="shared" si="107"/>
         <v>6.0600000000000005</v>
       </c>
       <c r="AD96" s="9">
-        <f>AC96+AD72</f>
+        <f t="shared" si="107"/>
         <v>11.15</v>
       </c>
       <c r="AE96" s="9">
-        <f>AD96+AE72</f>
+        <f t="shared" si="107"/>
         <v>17.079999999999998</v>
       </c>
     </row>
@@ -10681,69 +10852,69 @@
         <v>0.11</v>
       </c>
       <c r="I97" s="9">
-        <f>ROUNDUP(((H63/$B$39)*$B$40)*((100+O97)/100),0)/100</f>
+        <f t="shared" si="108"/>
         <v>0.6</v>
       </c>
       <c r="J97" s="9">
-        <f>ROUNDUP(((I63/$B$39)*$B$40)*((100+O97)/100),0)/100</f>
+        <f t="shared" si="109"/>
         <v>1.19</v>
       </c>
       <c r="K97" s="9">
-        <f>ROUNDUP(((J63/$B$39)*$B$40)*((100+O97)/100),0)/100</f>
+        <f t="shared" si="110"/>
         <v>2.38</v>
       </c>
       <c r="L97" s="9">
-        <f>ROUNDUP(((K63/$B$39)*$B$40)*((100+O97)/100),0)/100</f>
+        <f t="shared" si="111"/>
         <v>3.57</v>
       </c>
       <c r="M97" s="9">
-        <f>ROUNDUP(((L63/$B$39)*$B$40)*((100+O97)/100),0)/100</f>
+        <f t="shared" si="112"/>
         <v>4.17</v>
       </c>
       <c r="N97" s="9">
-        <f>ROUNDUP(((M63/$B$39)*$B$40)*((100+O97)/100),0)/100</f>
+        <f t="shared" si="113"/>
         <v>8.33</v>
       </c>
       <c r="O97" s="10">
         <v>260</v>
       </c>
       <c r="P97" s="10">
-        <f t="shared" ref="P97:P98" si="89">SUM(H97:M97)</f>
+        <f t="shared" ref="P97:P98" si="116">SUM(H97:M97)</f>
         <v>12.02</v>
       </c>
       <c r="Q97" s="9">
-        <f t="shared" si="86"/>
+        <f t="shared" si="105"/>
         <v>8.33</v>
       </c>
       <c r="R97" s="10">
-        <f t="shared" si="85"/>
+        <f t="shared" si="104"/>
         <v>92.123132639203263</v>
       </c>
       <c r="Y97" s="9" t="s">
         <v>210</v>
       </c>
       <c r="Z97" s="9">
-        <f>Z73</f>
+        <f t="shared" si="106"/>
         <v>0.13</v>
       </c>
       <c r="AA97" s="9">
-        <f>Z97+AA73</f>
+        <f t="shared" si="107"/>
         <v>1.06</v>
       </c>
       <c r="AB97" s="9">
-        <f>AA97+AB73</f>
+        <f t="shared" si="107"/>
         <v>2.92</v>
       </c>
       <c r="AC97" s="9">
-        <f>AB97+AC73</f>
+        <f t="shared" si="107"/>
         <v>6.6400000000000006</v>
       </c>
       <c r="AD97" s="9">
-        <f>AC97+AD73</f>
+        <f t="shared" si="107"/>
         <v>12.22</v>
       </c>
       <c r="AE97" s="9">
-        <f>AD97+AE73</f>
+        <f t="shared" si="107"/>
         <v>18.72</v>
       </c>
     </row>
@@ -10755,42 +10926,42 @@
         <v>0.11</v>
       </c>
       <c r="I98" s="9">
-        <f>ROUNDUP(((H64/$B$39)*$B$40)*((100+O98)/100),0)/100</f>
+        <f t="shared" si="108"/>
         <v>0.71</v>
       </c>
       <c r="J98" s="9">
-        <f>ROUNDUP(((I64/$B$39)*$B$40)*((100+O98)/100),0)/100</f>
+        <f t="shared" si="109"/>
         <v>1.41</v>
       </c>
       <c r="K98" s="9">
-        <f>ROUNDUP(((J64/$B$39)*$B$40)*((100+O98)/100),0)/100</f>
+        <f t="shared" si="110"/>
         <v>2.82</v>
       </c>
       <c r="L98" s="9">
-        <f>ROUNDUP(((K64/$B$39)*$B$40)*((100+O98)/100),0)/100</f>
+        <f t="shared" si="111"/>
         <v>4.2300000000000004</v>
       </c>
       <c r="M98" s="9">
-        <f>ROUNDUP(((L64/$B$39)*$B$40)*((100+O98)/100),0)/100</f>
+        <f t="shared" si="112"/>
         <v>4.93</v>
       </c>
       <c r="N98" s="9">
-        <f>ROUNDUP(((M64/$B$39)*$B$40)*((100+O98)/100),0)/100</f>
+        <f t="shared" si="113"/>
         <v>9.86</v>
       </c>
       <c r="O98" s="10">
         <v>280</v>
       </c>
       <c r="P98" s="10">
-        <f t="shared" si="89"/>
+        <f t="shared" si="116"/>
         <v>14.21</v>
       </c>
       <c r="Q98" s="9">
-        <f t="shared" ref="Q98:Q99" si="90">N98</f>
+        <f t="shared" ref="Q98:Q99" si="117">N98</f>
         <v>9.86</v>
       </c>
       <c r="R98" s="10">
-        <f t="shared" ref="R98:R99" si="91">((P98+Q98)/$P$75)*100</f>
+        <f t="shared" ref="R98:R99" si="118">((P98+Q98)/$P$75)*100</f>
         <v>108.96333182435491</v>
       </c>
       <c r="S98" s="9" t="s">
@@ -10815,27 +10986,27 @@
         <v>211</v>
       </c>
       <c r="Z98" s="9">
-        <f>Z74</f>
+        <f t="shared" si="106"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="AA98" s="9">
-        <f>Z98+AA74</f>
+        <f t="shared" si="107"/>
         <v>1.1600000000000001</v>
       </c>
       <c r="AB98" s="9">
-        <f>AA98+AB74</f>
+        <f t="shared" si="107"/>
         <v>3.19</v>
       </c>
       <c r="AC98" s="9">
-        <f>AB98+AC74</f>
+        <f t="shared" si="107"/>
         <v>7.25</v>
       </c>
       <c r="AD98" s="9">
-        <f>AC98+AD74</f>
+        <f t="shared" si="107"/>
         <v>13.34</v>
       </c>
       <c r="AE98" s="9">
-        <f>AD98+AE74</f>
+        <f t="shared" si="107"/>
         <v>20.439999999999998</v>
       </c>
     </row>
@@ -10847,42 +11018,42 @@
         <v>0.12</v>
       </c>
       <c r="I99" s="9">
-        <f>ROUNDUP(((H65/$B$39)*$B$40)*((100+O99)/100),0)/100</f>
+        <f t="shared" si="108"/>
         <v>0.83</v>
       </c>
       <c r="J99" s="9">
-        <f>ROUNDUP(((I65/$B$39)*$B$40)*((100+O99)/100),0)/100</f>
+        <f t="shared" si="109"/>
         <v>1.66</v>
       </c>
       <c r="K99" s="9">
-        <f>ROUNDUP(((J65/$B$39)*$B$40)*((100+O99)/100),0)/100</f>
+        <f t="shared" si="110"/>
         <v>3.31</v>
       </c>
       <c r="L99" s="9">
-        <f>ROUNDUP(((K65/$B$39)*$B$40)*((100+O99)/100),0)/100</f>
+        <f t="shared" si="111"/>
         <v>4.96</v>
       </c>
       <c r="M99" s="9">
-        <f>ROUNDUP(((L65/$B$39)*$B$40)*((100+O99)/100),0)/100</f>
+        <f t="shared" si="112"/>
         <v>5.79</v>
       </c>
       <c r="N99" s="9">
-        <f>ROUNDUP(((M65/$B$39)*$B$40)*((100+O99)/100),0)/100</f>
+        <f t="shared" si="113"/>
         <v>11.58</v>
       </c>
       <c r="O99" s="10">
         <v>300</v>
       </c>
       <c r="P99" s="10">
-        <f t="shared" ref="P99:P100" si="92">SUM(H99:M99)</f>
+        <f t="shared" ref="P99:P100" si="119">SUM(H99:M99)</f>
         <v>16.669999999999998</v>
       </c>
       <c r="Q99" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="117"/>
         <v>11.58</v>
       </c>
       <c r="R99" s="10">
-        <f t="shared" si="91"/>
+        <f t="shared" si="118"/>
         <v>127.88592123132638</v>
       </c>
       <c r="S99" s="9" t="s">
@@ -10907,27 +11078,27 @@
         <v>212</v>
       </c>
       <c r="Z99" s="9">
-        <f>Z75</f>
+        <f t="shared" si="106"/>
         <v>0.15</v>
       </c>
       <c r="AA99" s="9">
-        <f>Z99+AA75</f>
+        <f t="shared" si="107"/>
         <v>1.26</v>
       </c>
       <c r="AB99" s="9">
-        <f>AA99+AB75</f>
+        <f t="shared" si="107"/>
         <v>3.4699999999999998</v>
       </c>
       <c r="AC99" s="9">
-        <f>AB99+AC75</f>
+        <f t="shared" si="107"/>
         <v>7.88</v>
       </c>
       <c r="AD99" s="9">
-        <f>AC99+AD75</f>
+        <f t="shared" si="107"/>
         <v>14.5</v>
       </c>
       <c r="AE99" s="9">
-        <f>AD99+AE75</f>
+        <f t="shared" si="107"/>
         <v>22.22</v>
       </c>
     </row>
@@ -10939,42 +11110,42 @@
         <v>0.12</v>
       </c>
       <c r="I100" s="9">
-        <f>ROUNDUP(((H66/$B$39)*$B$40)*((100+O100)/100),0)/100</f>
+        <f t="shared" si="108"/>
         <v>0.97</v>
       </c>
       <c r="J100" s="9">
-        <f>ROUNDUP(((I66/$B$39)*$B$40)*((100+O100)/100),0)/100</f>
+        <f t="shared" si="109"/>
         <v>1.93</v>
       </c>
       <c r="K100" s="9">
-        <f>ROUNDUP(((J66/$B$39)*$B$40)*((100+O100)/100),0)/100</f>
+        <f t="shared" si="110"/>
         <v>3.85</v>
       </c>
       <c r="L100" s="9">
-        <f>ROUNDUP(((K66/$B$39)*$B$40)*((100+O100)/100),0)/100</f>
+        <f t="shared" si="111"/>
         <v>5.78</v>
       </c>
       <c r="M100" s="9">
-        <f>ROUNDUP(((L66/$B$39)*$B$40)*((100+O100)/100),0)/100</f>
+        <f t="shared" si="112"/>
         <v>6.74</v>
       </c>
       <c r="N100" s="9">
-        <f>ROUNDUP(((M66/$B$39)*$B$40)*((100+O100)/100),0)/100</f>
+        <f t="shared" si="113"/>
         <v>13.48</v>
       </c>
       <c r="O100" s="10">
         <v>320</v>
       </c>
       <c r="P100" s="10">
-        <f t="shared" si="92"/>
+        <f t="shared" si="119"/>
         <v>19.39</v>
       </c>
       <c r="Q100" s="9">
-        <f t="shared" ref="Q100:Q101" si="93">N100</f>
+        <f t="shared" ref="Q100:Q101" si="120">N100</f>
         <v>13.48</v>
       </c>
       <c r="R100" s="10">
-        <f t="shared" ref="R100:R101" si="94">((P100+Q100)/$P$75)*100</f>
+        <f t="shared" ref="R100:R101" si="121">((P100+Q100)/$P$75)*100</f>
         <v>148.80036215482119</v>
       </c>
     </row>
@@ -10986,42 +11157,42 @@
         <v>0.13</v>
       </c>
       <c r="I101" s="9">
-        <f>ROUNDUP(((H67/$B$39)*$B$40)*((100+O101)/100),0)/100</f>
+        <f t="shared" si="108"/>
         <v>1.1200000000000001</v>
       </c>
       <c r="J101" s="9">
-        <f>ROUNDUP(((I67/$B$39)*$B$40)*((100+O101)/100),0)/100</f>
+        <f t="shared" si="109"/>
         <v>2.23</v>
       </c>
       <c r="K101" s="9">
-        <f>ROUNDUP(((J67/$B$39)*$B$40)*((100+O101)/100),0)/100</f>
+        <f t="shared" si="110"/>
         <v>4.45</v>
       </c>
       <c r="L101" s="9">
-        <f>ROUNDUP(((K67/$B$39)*$B$40)*((100+O101)/100),0)/100</f>
+        <f t="shared" si="111"/>
         <v>6.68</v>
       </c>
       <c r="M101" s="9">
-        <f>ROUNDUP(((L67/$B$39)*$B$40)*((100+O101)/100),0)/100</f>
+        <f t="shared" si="112"/>
         <v>7.79</v>
       </c>
       <c r="N101" s="9">
-        <f>ROUNDUP(((M67/$B$39)*$B$40)*((100+O101)/100),0)/100</f>
+        <f t="shared" si="113"/>
         <v>15.57</v>
       </c>
       <c r="O101" s="10">
         <v>340</v>
       </c>
       <c r="P101" s="10">
-        <f t="shared" ref="P101:P102" si="95">SUM(H101:M101)</f>
+        <f t="shared" ref="P101:P102" si="122">SUM(H101:M101)</f>
         <v>22.4</v>
       </c>
       <c r="Q101" s="9">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>15.57</v>
       </c>
       <c r="R101" s="10">
-        <f t="shared" si="94"/>
+        <f t="shared" si="121"/>
         <v>171.88773200543233</v>
       </c>
     </row>
@@ -11033,42 +11204,42 @@
         <v>0.13</v>
       </c>
       <c r="I102" s="9">
-        <f t="shared" ref="I102" si="96">ROUNDUP(((H68/$B$39)*$B$40)*((100+O102)/100),0)/100</f>
+        <f t="shared" ref="I102" si="123">ROUNDUP(((H68/$B$39)*$B$40)*((100+O102)/100),0)/100</f>
         <v>1.28</v>
       </c>
       <c r="J102" s="9">
-        <f t="shared" ref="J102" si="97">ROUNDUP(((I68/$B$39)*$B$40)*((100+O102)/100),0)/100</f>
+        <f t="shared" ref="J102" si="124">ROUNDUP(((I68/$B$39)*$B$40)*((100+O102)/100),0)/100</f>
         <v>2.56</v>
       </c>
       <c r="K102" s="9">
-        <f t="shared" ref="K102" si="98">ROUNDUP(((J68/$B$39)*$B$40)*((100+O102)/100),0)/100</f>
+        <f t="shared" ref="K102" si="125">ROUNDUP(((J68/$B$39)*$B$40)*((100+O102)/100),0)/100</f>
         <v>5.1100000000000003</v>
       </c>
       <c r="L102" s="9">
-        <f t="shared" ref="L102" si="99">ROUNDUP(((K68/$B$39)*$B$40)*((100+O102)/100),0)/100</f>
+        <f t="shared" ref="L102" si="126">ROUNDUP(((K68/$B$39)*$B$40)*((100+O102)/100),0)/100</f>
         <v>7.66</v>
       </c>
       <c r="M102" s="9">
-        <f t="shared" ref="M102" si="100">ROUNDUP(((L68/$B$39)*$B$40)*((100+O102)/100),0)/100</f>
+        <f t="shared" ref="M102" si="127">ROUNDUP(((L68/$B$39)*$B$40)*((100+O102)/100),0)/100</f>
         <v>8.94</v>
       </c>
       <c r="N102" s="9">
-        <f>ROUNDUP(((M68/$B$39)*$B$40)*((100+O102)/100),0)/100</f>
+        <f t="shared" si="113"/>
         <v>17.88</v>
       </c>
       <c r="O102" s="10">
         <v>360</v>
       </c>
       <c r="P102" s="10">
-        <f t="shared" si="95"/>
+        <f t="shared" si="122"/>
         <v>25.68</v>
       </c>
       <c r="Q102" s="9">
-        <f t="shared" ref="Q102:Q103" si="101">N102</f>
+        <f t="shared" ref="Q102:Q103" si="128">N102</f>
         <v>17.88</v>
       </c>
       <c r="R102" s="10">
-        <f t="shared" ref="R102:R103" si="102">((P102+Q102)/$P$75)*100</f>
+        <f t="shared" ref="R102:R103" si="129">((P102+Q102)/$P$75)*100</f>
         <v>197.19330013580807</v>
       </c>
     </row>
@@ -11100,29 +11271,71 @@
         <v>10.199999999999999</v>
       </c>
       <c r="N103" s="9">
-        <f>ROUNDUP(((M69/$B$39)*$B$40)*((100+O103)/100),0)/100</f>
+        <f t="shared" si="113"/>
         <v>20.39</v>
       </c>
       <c r="O103" s="10">
         <v>380</v>
       </c>
       <c r="P103" s="10">
-        <f t="shared" ref="P103" si="103">SUM(H103:M103)</f>
+        <f t="shared" ref="P103:P104" si="130">SUM(H103:M103)</f>
         <v>29.29</v>
       </c>
       <c r="Q103" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="128"/>
         <v>20.39</v>
       </c>
       <c r="R103" s="10">
-        <f t="shared" si="102"/>
+        <f t="shared" si="129"/>
         <v>224.89814395654145</v>
       </c>
     </row>
     <row r="104" spans="7:31">
-      <c r="O104" s="10"/>
-      <c r="P104" s="10"/>
-      <c r="R104" s="10"/>
+      <c r="G104" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="H104" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I104" s="9">
+        <f t="shared" ref="I104" si="131">ROUNDUP(((H70/$B$39)*$B$40)*((100+O104)/100),0)/100</f>
+        <v>1.58</v>
+      </c>
+      <c r="J104" s="9">
+        <f t="shared" ref="J104" si="132">ROUNDUP(((I70/$B$39)*$B$40)*((100+O104)/100),0)/100</f>
+        <v>3.16</v>
+      </c>
+      <c r="K104" s="9">
+        <f t="shared" ref="K104" si="133">ROUNDUP(((J70/$B$39)*$B$40)*((100+O104)/100),0)/100</f>
+        <v>6.32</v>
+      </c>
+      <c r="L104" s="9">
+        <f t="shared" ref="L104" si="134">ROUNDUP(((K70/$B$39)*$B$40)*((100+O104)/100),0)/100</f>
+        <v>9.48</v>
+      </c>
+      <c r="M104" s="9">
+        <f t="shared" ref="M104" si="135">ROUNDUP(((L70/$B$39)*$B$40)*((100+O104)/100),0)/100</f>
+        <v>11.06</v>
+      </c>
+      <c r="N104" s="9">
+        <f t="shared" si="113"/>
+        <v>22.11</v>
+      </c>
+      <c r="O104" s="10">
+        <v>400</v>
+      </c>
+      <c r="P104" s="10">
+        <f t="shared" si="130"/>
+        <v>31.740000000000002</v>
+      </c>
+      <c r="Q104" s="9">
+        <f t="shared" ref="Q104" si="136">N104</f>
+        <v>22.11</v>
+      </c>
+      <c r="R104" s="10">
+        <f t="shared" ref="R104" si="137">((P104+Q104)/$P$75)*100</f>
+        <v>243.77546401086465</v>
+      </c>
     </row>
     <row r="105" spans="7:31">
       <c r="Y105" s="9"/>
@@ -11173,27 +11386,27 @@
         <v>0.01</v>
       </c>
       <c r="I108" s="9">
-        <f t="shared" ref="I108:N123" si="104">I77+H108</f>
+        <f t="shared" ref="I108:N123" si="138">I77+H108</f>
         <v>0.03</v>
       </c>
       <c r="J108" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>0.06</v>
       </c>
       <c r="K108" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>0.12</v>
       </c>
       <c r="L108" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>0.21</v>
       </c>
       <c r="M108" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>0.31</v>
       </c>
       <c r="N108" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>0.51</v>
       </c>
     </row>
@@ -11206,27 +11419,27 @@
         <v>0.01</v>
       </c>
       <c r="I109" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>0.03</v>
       </c>
       <c r="J109" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="K109" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>0.15000000000000002</v>
       </c>
       <c r="L109" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>0.27</v>
       </c>
       <c r="M109" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>0.41000000000000003</v>
       </c>
       <c r="N109" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>0.68</v>
       </c>
     </row>
@@ -11235,31 +11448,31 @@
         <v>19</v>
       </c>
       <c r="H110" s="9">
-        <f t="shared" ref="H110:H134" si="105">H79</f>
+        <f t="shared" ref="H110:H135" si="139">H79</f>
         <v>0.02</v>
       </c>
       <c r="I110" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>0.05</v>
       </c>
       <c r="J110" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>0.1</v>
       </c>
       <c r="K110" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>0.2</v>
       </c>
       <c r="L110" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>0.35</v>
       </c>
       <c r="M110" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>0.53</v>
       </c>
       <c r="N110" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>0.88</v>
       </c>
     </row>
@@ -11268,31 +11481,31 @@
         <v>85</v>
       </c>
       <c r="H111" s="9">
-        <f t="shared" si="105"/>
+        <f t="shared" si="139"/>
         <v>0.02</v>
       </c>
       <c r="I111" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>0.06</v>
       </c>
       <c r="J111" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>0.13</v>
       </c>
       <c r="K111" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>0.26</v>
       </c>
       <c r="L111" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>0.45</v>
       </c>
       <c r="M111" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>0.67</v>
       </c>
       <c r="N111" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>1.1100000000000001</v>
       </c>
     </row>
@@ -11301,31 +11514,31 @@
         <v>20</v>
       </c>
       <c r="H112" s="9">
-        <f t="shared" si="105"/>
+        <f t="shared" si="139"/>
         <v>0.03</v>
       </c>
       <c r="I112" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="J112" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>0.15000000000000002</v>
       </c>
       <c r="K112" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>0.31000000000000005</v>
       </c>
       <c r="L112" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="M112" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>0.83000000000000007</v>
       </c>
       <c r="N112" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>1.3800000000000001</v>
       </c>
     </row>
@@ -11334,31 +11547,31 @@
         <v>21</v>
       </c>
       <c r="H113" s="9">
-        <f t="shared" si="105"/>
+        <f t="shared" si="139"/>
         <v>0.03</v>
       </c>
       <c r="I113" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>0.08</v>
       </c>
       <c r="J113" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>0.18</v>
       </c>
       <c r="K113" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>0.38</v>
       </c>
       <c r="L113" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>0.66999999999999993</v>
       </c>
       <c r="M113" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>1.01</v>
       </c>
       <c r="N113" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>1.69</v>
       </c>
     </row>
@@ -11367,31 +11580,31 @@
         <v>22</v>
       </c>
       <c r="H114" s="9">
-        <f t="shared" si="105"/>
+        <f t="shared" si="139"/>
         <v>0.04</v>
       </c>
       <c r="I114" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>0.1</v>
       </c>
       <c r="J114" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>0.22</v>
       </c>
       <c r="K114" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>0.45999999999999996</v>
       </c>
       <c r="L114" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>0.80999999999999994</v>
       </c>
       <c r="M114" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>1.22</v>
       </c>
       <c r="N114" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>2.04</v>
       </c>
       <c r="AF114" s="9"/>
@@ -11401,31 +11614,31 @@
         <v>23</v>
       </c>
       <c r="H115" s="9">
-        <f t="shared" si="105"/>
+        <f t="shared" si="139"/>
         <v>0.04</v>
       </c>
       <c r="I115" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>0.11000000000000001</v>
       </c>
       <c r="J115" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>0.25</v>
       </c>
       <c r="K115" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>0.53</v>
       </c>
       <c r="L115" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>0.95</v>
       </c>
       <c r="M115" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>1.44</v>
       </c>
       <c r="N115" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>2.42</v>
       </c>
     </row>
@@ -11434,31 +11647,31 @@
         <v>24</v>
       </c>
       <c r="H116" s="9">
-        <f t="shared" si="105"/>
+        <f t="shared" si="139"/>
         <v>0.05</v>
       </c>
       <c r="I116" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="J116" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>0.31000000000000005</v>
       </c>
       <c r="K116" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>0.65000000000000013</v>
       </c>
       <c r="L116" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>1.1500000000000001</v>
       </c>
       <c r="M116" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>1.7400000000000002</v>
       </c>
       <c r="N116" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>2.91</v>
       </c>
     </row>
@@ -11467,31 +11680,31 @@
         <v>25</v>
       </c>
       <c r="H117" s="9">
-        <f t="shared" si="105"/>
+        <f t="shared" si="139"/>
         <v>0.05</v>
       </c>
       <c r="I117" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>0.15000000000000002</v>
       </c>
       <c r="J117" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>0.35000000000000003</v>
       </c>
       <c r="K117" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>0.75</v>
       </c>
       <c r="L117" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>1.3399999999999999</v>
       </c>
       <c r="M117" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>2.0299999999999998</v>
       </c>
       <c r="N117" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>3.4099999999999997</v>
       </c>
     </row>
@@ -11500,31 +11713,31 @@
         <v>105</v>
       </c>
       <c r="H118" s="9">
-        <f t="shared" si="105"/>
+        <f t="shared" si="139"/>
         <v>0.06</v>
       </c>
       <c r="I118" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>0.21</v>
       </c>
       <c r="J118" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>0.51</v>
       </c>
       <c r="K118" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="L118" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>1.98</v>
       </c>
       <c r="M118" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>3.01</v>
       </c>
       <c r="N118" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>5.0599999999999996</v>
       </c>
     </row>
@@ -11533,31 +11746,31 @@
         <v>106</v>
       </c>
       <c r="H119" s="9">
-        <f t="shared" si="105"/>
+        <f t="shared" si="139"/>
         <v>0.06</v>
       </c>
       <c r="I119" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>0.23</v>
       </c>
       <c r="J119" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="K119" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>1.21</v>
       </c>
       <c r="L119" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>2.1799999999999997</v>
       </c>
       <c r="M119" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>3.3099999999999996</v>
       </c>
       <c r="N119" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>5.56</v>
       </c>
     </row>
@@ -11566,31 +11779,31 @@
         <v>172</v>
       </c>
       <c r="H120" s="9">
-        <f t="shared" si="105"/>
+        <f t="shared" si="139"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I120" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>0.25</v>
       </c>
       <c r="J120" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>0.61</v>
       </c>
       <c r="K120" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>1.3199999999999998</v>
       </c>
       <c r="L120" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>2.38</v>
       </c>
       <c r="M120" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>3.61</v>
       </c>
       <c r="N120" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>6.07</v>
       </c>
     </row>
@@ -11599,31 +11812,31 @@
         <v>174</v>
       </c>
       <c r="H121" s="9">
-        <f t="shared" si="105"/>
+        <f t="shared" si="139"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I121" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>0.27</v>
       </c>
       <c r="J121" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>0.67</v>
       </c>
       <c r="K121" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>1.4700000000000002</v>
       </c>
       <c r="L121" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>2.67</v>
       </c>
       <c r="M121" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>4.07</v>
       </c>
       <c r="N121" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>6.86</v>
       </c>
     </row>
@@ -11632,31 +11845,31 @@
         <v>195</v>
       </c>
       <c r="H122" s="9">
-        <f t="shared" si="105"/>
+        <f t="shared" si="139"/>
         <v>0.08</v>
       </c>
       <c r="I122" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>0.31</v>
       </c>
       <c r="J122" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>0.76</v>
       </c>
       <c r="K122" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>1.6600000000000001</v>
       </c>
       <c r="L122" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>3.0100000000000002</v>
       </c>
       <c r="M122" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>4.59</v>
       </c>
       <c r="N122" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>7.74</v>
       </c>
     </row>
@@ -11665,31 +11878,31 @@
         <v>246</v>
       </c>
       <c r="H123" s="9">
-        <f t="shared" si="105"/>
+        <f t="shared" si="139"/>
         <v>0.08</v>
       </c>
       <c r="I123" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>0.35000000000000003</v>
       </c>
       <c r="J123" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>0.88000000000000012</v>
       </c>
       <c r="K123" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>1.9400000000000002</v>
       </c>
       <c r="L123" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>3.5200000000000005</v>
       </c>
       <c r="M123" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>5.36</v>
       </c>
       <c r="N123" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="138"/>
         <v>9.0400000000000009</v>
       </c>
     </row>
@@ -11698,31 +11911,31 @@
         <v>313</v>
       </c>
       <c r="H124" s="9">
-        <f t="shared" si="105"/>
+        <f t="shared" si="139"/>
         <v>0.09</v>
       </c>
       <c r="I124" s="9">
-        <f t="shared" ref="I124:N128" si="106">I93+H124</f>
+        <f t="shared" ref="I124:N128" si="140">I93+H124</f>
         <v>0.41000000000000003</v>
       </c>
       <c r="J124" s="9">
-        <f t="shared" si="106"/>
+        <f t="shared" si="140"/>
         <v>1.05</v>
       </c>
       <c r="K124" s="9">
-        <f t="shared" si="106"/>
+        <f t="shared" si="140"/>
         <v>2.3200000000000003</v>
       </c>
       <c r="L124" s="9">
-        <f t="shared" si="106"/>
+        <f t="shared" si="140"/>
         <v>4.2200000000000006</v>
       </c>
       <c r="M124" s="9">
-        <f t="shared" si="106"/>
+        <f t="shared" si="140"/>
         <v>6.4400000000000013</v>
       </c>
       <c r="N124" s="9">
-        <f t="shared" si="106"/>
+        <f t="shared" si="140"/>
         <v>10.870000000000001</v>
       </c>
     </row>
@@ -11731,31 +11944,31 @@
         <v>368</v>
       </c>
       <c r="H125" s="9">
-        <f t="shared" si="105"/>
+        <f t="shared" si="139"/>
         <v>0.09</v>
       </c>
       <c r="I125" s="9">
-        <f t="shared" si="106"/>
+        <f t="shared" si="140"/>
         <v>0.47</v>
       </c>
       <c r="J125" s="9">
-        <f t="shared" si="106"/>
+        <f t="shared" si="140"/>
         <v>1.23</v>
       </c>
       <c r="K125" s="9">
-        <f t="shared" si="106"/>
+        <f t="shared" si="140"/>
         <v>2.74</v>
       </c>
       <c r="L125" s="9">
-        <f t="shared" si="106"/>
+        <f t="shared" si="140"/>
         <v>4.99</v>
       </c>
       <c r="M125" s="9">
-        <f t="shared" si="106"/>
+        <f t="shared" si="140"/>
         <v>7.62</v>
       </c>
       <c r="N125" s="9">
-        <f t="shared" si="106"/>
+        <f t="shared" si="140"/>
         <v>12.879999999999999</v>
       </c>
     </row>
@@ -11764,31 +11977,31 @@
         <v>375</v>
       </c>
       <c r="H126" s="9">
-        <f t="shared" si="105"/>
+        <f t="shared" si="139"/>
         <v>0.1</v>
       </c>
       <c r="I126" s="9">
-        <f t="shared" si="106"/>
+        <f t="shared" si="140"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="J126" s="9">
-        <f t="shared" si="106"/>
+        <f t="shared" si="140"/>
         <v>1.44</v>
       </c>
       <c r="K126" s="9">
-        <f t="shared" si="106"/>
+        <f t="shared" si="140"/>
         <v>3.21</v>
       </c>
       <c r="L126" s="9">
-        <f t="shared" si="106"/>
+        <f t="shared" si="140"/>
         <v>5.8599999999999994</v>
       </c>
       <c r="M126" s="9">
-        <f t="shared" si="106"/>
+        <f t="shared" si="140"/>
         <v>8.9499999999999993</v>
       </c>
       <c r="N126" s="9">
-        <f t="shared" si="106"/>
+        <f t="shared" si="140"/>
         <v>15.129999999999999</v>
       </c>
     </row>
@@ -11797,31 +12010,31 @@
         <v>387</v>
       </c>
       <c r="H127" s="9">
-        <f t="shared" si="105"/>
+        <f t="shared" si="139"/>
         <v>0.1</v>
       </c>
       <c r="I127" s="9">
-        <f t="shared" si="106"/>
+        <f t="shared" si="140"/>
         <v>0.62</v>
       </c>
       <c r="J127" s="9">
-        <f t="shared" si="106"/>
+        <f t="shared" si="140"/>
         <v>1.65</v>
       </c>
       <c r="K127" s="9">
-        <f t="shared" si="106"/>
+        <f t="shared" si="140"/>
         <v>3.71</v>
       </c>
       <c r="L127" s="9">
-        <f t="shared" si="106"/>
+        <f t="shared" si="140"/>
         <v>6.8</v>
       </c>
       <c r="M127" s="9">
-        <f t="shared" si="106"/>
+        <f t="shared" si="140"/>
         <v>10.4</v>
       </c>
       <c r="N127" s="9">
-        <f t="shared" si="106"/>
+        <f t="shared" si="140"/>
         <v>17.600000000000001</v>
       </c>
     </row>
@@ -11830,31 +12043,31 @@
         <v>418</v>
       </c>
       <c r="H128" s="9">
-        <f t="shared" si="105"/>
+        <f t="shared" si="139"/>
         <v>0.11</v>
       </c>
       <c r="I128" s="9">
-        <f t="shared" si="106"/>
+        <f t="shared" si="140"/>
         <v>0.71</v>
       </c>
       <c r="J128" s="9">
-        <f t="shared" si="106"/>
+        <f t="shared" si="140"/>
         <v>1.9</v>
       </c>
       <c r="K128" s="9">
-        <f t="shared" si="106"/>
+        <f t="shared" si="140"/>
         <v>4.2799999999999994</v>
       </c>
       <c r="L128" s="9">
-        <f t="shared" si="106"/>
+        <f t="shared" si="140"/>
         <v>7.85</v>
       </c>
       <c r="M128" s="9">
-        <f t="shared" si="106"/>
+        <f t="shared" si="140"/>
         <v>12.02</v>
       </c>
       <c r="N128" s="9">
-        <f t="shared" si="106"/>
+        <f t="shared" si="140"/>
         <v>20.350000000000001</v>
       </c>
     </row>
@@ -11863,31 +12076,31 @@
         <v>431</v>
       </c>
       <c r="H129" s="9">
-        <f t="shared" si="105"/>
+        <f t="shared" si="139"/>
         <v>0.11</v>
       </c>
       <c r="I129" s="9">
-        <f t="shared" ref="I129:I130" si="107">I98+H129</f>
+        <f t="shared" ref="I129:I130" si="141">I98+H129</f>
         <v>0.82</v>
       </c>
       <c r="J129" s="9">
-        <f t="shared" ref="J129:J130" si="108">J98+I129</f>
+        <f t="shared" ref="J129:J130" si="142">J98+I129</f>
         <v>2.23</v>
       </c>
       <c r="K129" s="9">
-        <f t="shared" ref="K129:K130" si="109">K98+J129</f>
+        <f t="shared" ref="K129:K130" si="143">K98+J129</f>
         <v>5.05</v>
       </c>
       <c r="L129" s="9">
-        <f t="shared" ref="L129:L130" si="110">L98+K129</f>
+        <f t="shared" ref="L129:L130" si="144">L98+K129</f>
         <v>9.2800000000000011</v>
       </c>
       <c r="M129" s="9">
-        <f t="shared" ref="M129:M130" si="111">M98+L129</f>
+        <f t="shared" ref="M129:M130" si="145">M98+L129</f>
         <v>14.21</v>
       </c>
       <c r="N129" s="9">
-        <f t="shared" ref="N129:N130" si="112">N98+M129</f>
+        <f t="shared" ref="N129:N130" si="146">N98+M129</f>
         <v>24.07</v>
       </c>
     </row>
@@ -11896,31 +12109,31 @@
         <v>450</v>
       </c>
       <c r="H130" s="9">
-        <f t="shared" si="105"/>
+        <f t="shared" si="139"/>
         <v>0.12</v>
       </c>
       <c r="I130" s="9">
-        <f t="shared" si="107"/>
+        <f t="shared" si="141"/>
         <v>0.95</v>
       </c>
       <c r="J130" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="142"/>
         <v>2.61</v>
       </c>
       <c r="K130" s="9">
-        <f t="shared" si="109"/>
+        <f t="shared" si="143"/>
         <v>5.92</v>
       </c>
       <c r="L130" s="9">
-        <f t="shared" si="110"/>
+        <f t="shared" si="144"/>
         <v>10.879999999999999</v>
       </c>
       <c r="M130" s="9">
-        <f t="shared" si="111"/>
+        <f t="shared" si="145"/>
         <v>16.669999999999998</v>
       </c>
       <c r="N130" s="9">
-        <f t="shared" si="112"/>
+        <f t="shared" si="146"/>
         <v>28.25</v>
       </c>
     </row>
@@ -11929,31 +12142,31 @@
         <v>464</v>
       </c>
       <c r="H131" s="9">
-        <f t="shared" si="105"/>
+        <f t="shared" si="139"/>
         <v>0.12</v>
       </c>
       <c r="I131" s="9">
-        <f t="shared" ref="I131:I132" si="113">I100+H131</f>
+        <f t="shared" ref="I131:I132" si="147">I100+H131</f>
         <v>1.0899999999999999</v>
       </c>
       <c r="J131" s="9">
-        <f t="shared" ref="J131:J132" si="114">J100+I131</f>
+        <f t="shared" ref="J131:J132" si="148">J100+I131</f>
         <v>3.0199999999999996</v>
       </c>
       <c r="K131" s="9">
-        <f t="shared" ref="K131:K132" si="115">K100+J131</f>
+        <f t="shared" ref="K131:K132" si="149">K100+J131</f>
         <v>6.8699999999999992</v>
       </c>
       <c r="L131" s="9">
-        <f t="shared" ref="L131:L132" si="116">L100+K131</f>
+        <f t="shared" ref="L131:L132" si="150">L100+K131</f>
         <v>12.649999999999999</v>
       </c>
       <c r="M131" s="9">
-        <f t="shared" ref="M131:M132" si="117">M100+L131</f>
+        <f t="shared" ref="M131:M132" si="151">M100+L131</f>
         <v>19.39</v>
       </c>
       <c r="N131" s="9">
-        <f t="shared" ref="N131:N132" si="118">N100+M131</f>
+        <f t="shared" ref="N131:N132" si="152">N100+M131</f>
         <v>32.870000000000005</v>
       </c>
     </row>
@@ -11962,31 +12175,31 @@
         <v>473</v>
       </c>
       <c r="H132" s="9">
-        <f t="shared" si="105"/>
+        <f t="shared" si="139"/>
         <v>0.13</v>
       </c>
       <c r="I132" s="9">
-        <f t="shared" si="113"/>
+        <f t="shared" si="147"/>
         <v>1.25</v>
       </c>
       <c r="J132" s="9">
-        <f t="shared" si="114"/>
+        <f t="shared" si="148"/>
         <v>3.48</v>
       </c>
       <c r="K132" s="9">
-        <f t="shared" si="115"/>
+        <f t="shared" si="149"/>
         <v>7.93</v>
       </c>
       <c r="L132" s="9">
-        <f t="shared" si="116"/>
+        <f t="shared" si="150"/>
         <v>14.61</v>
       </c>
       <c r="M132" s="9">
-        <f t="shared" si="117"/>
+        <f t="shared" si="151"/>
         <v>22.4</v>
       </c>
       <c r="N132" s="9">
-        <f t="shared" si="118"/>
+        <f t="shared" si="152"/>
         <v>37.97</v>
       </c>
     </row>
@@ -11995,31 +12208,31 @@
         <v>489</v>
       </c>
       <c r="H133" s="9">
-        <f t="shared" si="105"/>
+        <f t="shared" si="139"/>
         <v>0.13</v>
       </c>
       <c r="I133" s="9">
-        <f t="shared" ref="I133:I134" si="119">I102+H133</f>
+        <f t="shared" ref="I133:I134" si="153">I102+H133</f>
         <v>1.4100000000000001</v>
       </c>
       <c r="J133" s="9">
-        <f t="shared" ref="J133:J134" si="120">J102+I133</f>
+        <f t="shared" ref="J133:J134" si="154">J102+I133</f>
         <v>3.97</v>
       </c>
       <c r="K133" s="9">
-        <f t="shared" ref="K133:K134" si="121">K102+J133</f>
+        <f t="shared" ref="K133:K134" si="155">K102+J133</f>
         <v>9.08</v>
       </c>
       <c r="L133" s="9">
-        <f t="shared" ref="L133:L134" si="122">L102+K133</f>
+        <f t="shared" ref="L133:L134" si="156">L102+K133</f>
         <v>16.740000000000002</v>
       </c>
       <c r="M133" s="9">
-        <f t="shared" ref="M133:M134" si="123">M102+L133</f>
+        <f t="shared" ref="M133:M134" si="157">M102+L133</f>
         <v>25.68</v>
       </c>
       <c r="N133" s="9">
-        <f t="shared" ref="N133:N134" si="124">N102+M133</f>
+        <f t="shared" ref="N133:N134" si="158">N102+M133</f>
         <v>43.56</v>
       </c>
     </row>
@@ -12028,32 +12241,65 @@
         <v>490</v>
       </c>
       <c r="H134" s="9">
-        <f t="shared" si="105"/>
+        <f t="shared" si="139"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="I134" s="9">
-        <f t="shared" si="119"/>
+        <f t="shared" si="153"/>
         <v>1.6</v>
       </c>
       <c r="J134" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="154"/>
         <v>4.5199999999999996</v>
       </c>
       <c r="K134" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="155"/>
         <v>10.35</v>
       </c>
       <c r="L134" s="9">
-        <f t="shared" si="122"/>
+        <f t="shared" si="156"/>
         <v>19.09</v>
       </c>
       <c r="M134" s="9">
-        <f t="shared" si="123"/>
+        <f t="shared" si="157"/>
         <v>29.29</v>
       </c>
       <c r="N134" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="158"/>
         <v>49.68</v>
+      </c>
+    </row>
+    <row r="135" spans="7:14">
+      <c r="G135" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="H135" s="9">
+        <f t="shared" si="139"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I135" s="9">
+        <f t="shared" ref="I135" si="159">I104+H135</f>
+        <v>1.7200000000000002</v>
+      </c>
+      <c r="J135" s="9">
+        <f t="shared" ref="J135" si="160">J104+I135</f>
+        <v>4.8800000000000008</v>
+      </c>
+      <c r="K135" s="9">
+        <f t="shared" ref="K135" si="161">K104+J135</f>
+        <v>11.200000000000001</v>
+      </c>
+      <c r="L135" s="9">
+        <f t="shared" ref="L135" si="162">L104+K135</f>
+        <v>20.68</v>
+      </c>
+      <c r="M135" s="9">
+        <f t="shared" ref="M135" si="163">M104+L135</f>
+        <v>31.740000000000002</v>
+      </c>
+      <c r="N135" s="9">
+        <f t="shared" ref="N135" si="164">N104+M135</f>
+        <v>53.85</v>
       </c>
     </row>
   </sheetData>
@@ -12070,8 +12316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14EF5D34-81E7-475D-8B1B-AFFF2EFE6FF9}">
   <dimension ref="A2:W50"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -14259,6 +14505,67 @@
       </c>
     </row>
     <row r="31" spans="1:23">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31" s="2" t="str">
+        <f t="shared" ref="B31" si="54">C31&amp;","&amp;D31&amp;","&amp;E31&amp;","&amp;F31&amp;","&amp;G31</f>
+        <v>10격,20격,50격,100격,200격</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" ref="C31" si="55">$C$3&amp;H31</f>
+        <v>10격</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" ref="D31" si="56">$D$3&amp;H31</f>
+        <v>20격</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" ref="E31" si="57">$E$3&amp;H31</f>
+        <v>50격</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" ref="F31" si="58">$F$3&amp;H31</f>
+        <v>100격</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" ref="G31" si="59">$G$3&amp;H31</f>
+        <v>200격</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="J31">
+        <v>28</v>
+      </c>
+      <c r="K31" s="2" t="str">
+        <f t="shared" ref="K31" si="60">L31&amp;","&amp;M31&amp;","&amp;N31&amp;","&amp;O31&amp;","&amp;P31</f>
+        <v>1E+169,2E+169,5E+169,1E+170,2E+170</v>
+      </c>
+      <c r="L31">
+        <f t="shared" ref="L31" si="61">$C$3*Q31</f>
+        <v>9.9999999999999993E+168</v>
+      </c>
+      <c r="M31">
+        <f t="shared" ref="M31" si="62">$D$3*Q31</f>
+        <v>1.9999999999999999E+169</v>
+      </c>
+      <c r="N31">
+        <f t="shared" ref="N31" si="63">$E$3*Q31</f>
+        <v>4.9999999999999995E+169</v>
+      </c>
+      <c r="O31">
+        <f t="shared" ref="O31" si="64">$F$3*Q31</f>
+        <v>9.999999999999999E+169</v>
+      </c>
+      <c r="P31">
+        <f t="shared" ref="P31" si="65">$G$3*Q31</f>
+        <v>1.9999999999999998E+170</v>
+      </c>
+      <c r="Q31" t="str">
+        <f t="shared" ref="Q31" si="66">VLOOKUP(H31,T:W,4,FALSE)</f>
+        <v>1E+168</v>
+      </c>
       <c r="T31" t="s">
         <v>179</v>
       </c>
@@ -14378,11 +14685,11 @@
         <v>144</v>
       </c>
       <c r="V38">
-        <f t="shared" ref="V38:V39" si="54">POWER(10,U38)</f>
+        <f t="shared" ref="V38:V39" si="67">POWER(10,U38)</f>
         <v>1E+144</v>
       </c>
       <c r="W38" t="str">
-        <f t="shared" ref="W38:W39" si="55">RIGHT(V38,U38)</f>
+        <f t="shared" ref="W38:W39" si="68">RIGHT(V38,U38)</f>
         <v>1E+144</v>
       </c>
     </row>
@@ -14394,11 +14701,11 @@
         <v>148</v>
       </c>
       <c r="V39">
-        <f t="shared" si="54"/>
+        <f t="shared" si="67"/>
         <v>1E+148</v>
       </c>
       <c r="W39" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="68"/>
         <v>1E+148</v>
       </c>
     </row>
@@ -14410,11 +14717,11 @@
         <v>152</v>
       </c>
       <c r="V40">
-        <f t="shared" ref="V40:V41" si="56">POWER(10,U40)</f>
+        <f t="shared" ref="V40:V41" si="69">POWER(10,U40)</f>
         <v>1E+152</v>
       </c>
       <c r="W40" t="str">
-        <f t="shared" ref="W40:W41" si="57">RIGHT(V40,U40)</f>
+        <f t="shared" ref="W40:W41" si="70">RIGHT(V40,U40)</f>
         <v>1E+152</v>
       </c>
     </row>
@@ -14426,11 +14733,11 @@
         <v>156</v>
       </c>
       <c r="V41">
-        <f t="shared" si="56"/>
+        <f t="shared" si="69"/>
         <v>9.9999999999999998E+155</v>
       </c>
       <c r="W41" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="70"/>
         <v>1E+156</v>
       </c>
     </row>
@@ -14442,11 +14749,11 @@
         <v>160</v>
       </c>
       <c r="V42">
-        <f t="shared" ref="V42:V43" si="58">POWER(10,U42)</f>
+        <f t="shared" ref="V42:V43" si="71">POWER(10,U42)</f>
         <v>1E+160</v>
       </c>
       <c r="W42" t="str">
-        <f t="shared" ref="W42:W43" si="59">RIGHT(V42,U42)</f>
+        <f t="shared" ref="W42:W43" si="72">RIGHT(V42,U42)</f>
         <v>1E+160</v>
       </c>
     </row>
@@ -14458,16 +14765,29 @@
         <v>164</v>
       </c>
       <c r="V43">
-        <f t="shared" si="58"/>
+        <f t="shared" si="71"/>
         <v>1E+164</v>
       </c>
       <c r="W43" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="72"/>
         <v>1E+164</v>
       </c>
     </row>
     <row r="44" spans="20:23">
-      <c r="V44" s="33"/>
+      <c r="T44" t="s">
+        <v>508</v>
+      </c>
+      <c r="U44">
+        <v>168</v>
+      </c>
+      <c r="V44">
+        <f t="shared" ref="V44" si="73">POWER(10,U44)</f>
+        <v>9.9999999999999993E+167</v>
+      </c>
+      <c r="W44" t="str">
+        <f t="shared" ref="W44" si="74">RIGHT(V44,U44)</f>
+        <v>1E+168</v>
+      </c>
     </row>
     <row r="45" spans="20:23">
       <c r="V45" s="33"/>

--- a/Assets/06.Table/SuhopetTable.xlsx
+++ b/Assets/06.Table/SuhopetTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E618B9F-3C3F-4F23-95B4-1C8DF88E8FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7919602-0BA2-4AD1-8B91-05614ACC4061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="605" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="551">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1898,6 +1898,47 @@
   <si>
     <t>박위</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31단계</t>
+  </si>
+  <si>
+    <t>펫31</t>
+  </si>
+  <si>
+    <t>830,830,830,830,830</t>
+  </si>
+  <si>
+    <t>0.16,2.14,6.1,14.01,25.87,39.71,67.39</t>
+  </si>
+  <si>
+    <t>2942,5883,11765,17648,20589,41178</t>
+  </si>
+  <si>
+    <t>31단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영양</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10채,20채,50채,100채,200채</t>
+  </si>
+  <si>
+    <t>1E+181,2E+181,5E+181,1E+182,2E+182</t>
   </si>
 </sst>
 </file>
@@ -2737,10 +2778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:U45"/>
+  <dimension ref="A1:U46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V39" sqref="V39"/>
+    <sheetView tabSelected="1" topLeftCell="I37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U46" sqref="U46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5687,6 +5728,71 @@
       </c>
       <c r="U45" s="1" t="s">
         <v>524</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" ht="33">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="F46" s="43" t="s">
+        <v>550</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="H46" s="44" t="s">
+        <v>274</v>
+      </c>
+      <c r="I46" s="45" t="s">
+        <v>541</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="K46" s="1">
+        <v>9016</v>
+      </c>
+      <c r="L46" s="1">
+        <v>570</v>
+      </c>
+      <c r="M46" s="1">
+        <v>49</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="O46" s="1">
+        <v>6</v>
+      </c>
+      <c r="P46" s="46">
+        <v>9016</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="R46" s="1">
+        <v>201</v>
+      </c>
+      <c r="S46" s="47" t="s">
+        <v>182</v>
+      </c>
+      <c r="T46" s="48" t="s">
+        <v>416</v>
+      </c>
+      <c r="U46" s="1" t="s">
+        <v>544</v>
       </c>
     </row>
   </sheetData>
@@ -5730,10 +5836,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB815A5-0A26-4B2F-8716-20DE31E1881F}">
-  <dimension ref="A1:AF158"/>
+  <dimension ref="A1:AF159"/>
   <sheetViews>
-    <sheetView topLeftCell="E12" workbookViewId="0">
-      <selection activeCell="Q36" sqref="Q36:Q37"/>
+    <sheetView topLeftCell="C15" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -5897,22 +6003,22 @@
         <v>160,160,160,160,160</v>
       </c>
       <c r="P8" s="1" t="str">
-        <f>H129&amp;","&amp;I129&amp;","&amp;J129&amp;","&amp;K129&amp;","&amp;L129&amp;","&amp;M129&amp;","&amp;N129</f>
+        <f t="shared" ref="P8:P33" si="0">H129&amp;","&amp;I129&amp;","&amp;J129&amp;","&amp;K129&amp;","&amp;L129&amp;","&amp;M129&amp;","&amp;N129</f>
         <v>0.01,0.03,0.06,0.12,0.21,0.31,0.51</v>
       </c>
       <c r="Q8" s="9" t="str">
-        <f>H51&amp;","&amp;I51&amp;","&amp;J51&amp;","&amp;K51&amp;","&amp;L51&amp;","&amp;M51</f>
+        <f t="shared" ref="Q8:Q17" si="1">H51&amp;","&amp;I51&amp;","&amp;J51&amp;","&amp;K51&amp;","&amp;L51&amp;","&amp;M51</f>
         <v>106,212,423,634,740,1480</v>
       </c>
       <c r="Y8" s="9" t="s">
         <v>198</v>
       </c>
       <c r="Z8" s="1" t="str">
-        <f>Z95&amp;","&amp;AA95&amp;","&amp;AB95&amp;","&amp;AC95&amp;","&amp;AD95&amp;","&amp;AE95</f>
+        <f t="shared" ref="Z8:Z22" si="2">Z95&amp;","&amp;AA95&amp;","&amp;AB95&amp;","&amp;AC95&amp;","&amp;AD95&amp;","&amp;AE95</f>
         <v>0.01,0.23,0.67,1.54,2.84,4.36</v>
       </c>
       <c r="AA8" s="40" t="str">
-        <f>Z51&amp;","&amp;AA51&amp;","&amp;AB51&amp;","&amp;AC51&amp;","&amp;AD51</f>
+        <f t="shared" ref="AA8:AA22" si="3">Z51&amp;","&amp;AA51&amp;","&amp;AB51&amp;","&amp;AC51&amp;","&amp;AD51</f>
         <v>720,1440,2880,4320,5040</v>
       </c>
     </row>
@@ -5933,37 +6039,37 @@
         <v>120</v>
       </c>
       <c r="I9" s="9">
-        <f t="shared" ref="I9:I17" si="0">H9*$B$9*$B$18*($B$13/100)</f>
+        <f t="shared" ref="I9:I17" si="4">H9*$B$9*$B$18*($B$13/100)</f>
         <v>864</v>
       </c>
       <c r="J9" s="9">
-        <f t="shared" ref="J9:J29" si="1">ROUNDUP((I9/5),-1)</f>
+        <f t="shared" ref="J9:J29" si="5">ROUNDUP((I9/5),-1)</f>
         <v>180</v>
       </c>
       <c r="N9" s="9" t="s">
         <v>18</v>
       </c>
       <c r="O9" s="1" t="str">
-        <f t="shared" ref="O9:O16" si="2">J9&amp;","&amp;J9&amp;","&amp;J9&amp;","&amp;J9&amp;","&amp;J9</f>
+        <f t="shared" ref="O9:O16" si="6">J9&amp;","&amp;J9&amp;","&amp;J9&amp;","&amp;J9&amp;","&amp;J9</f>
         <v>180,180,180,180,180</v>
       </c>
       <c r="P9" s="1" t="str">
-        <f>H130&amp;","&amp;I130&amp;","&amp;J130&amp;","&amp;K130&amp;","&amp;L130&amp;","&amp;M130&amp;","&amp;N130</f>
+        <f t="shared" si="0"/>
         <v>0.01,0.03,0.07,0.15,0.27,0.41,0.68</v>
       </c>
       <c r="Q9" s="9" t="str">
-        <f>H52&amp;","&amp;I52&amp;","&amp;J52&amp;","&amp;K52&amp;","&amp;L52&amp;","&amp;M52</f>
+        <f t="shared" si="1"/>
         <v>130,260,519,778,908,1816</v>
       </c>
       <c r="Y9" s="9" t="s">
         <v>199</v>
       </c>
       <c r="Z9" s="1" t="str">
-        <f>Z96&amp;","&amp;AA96&amp;","&amp;AB96&amp;","&amp;AC96&amp;","&amp;AD96&amp;","&amp;AE96</f>
+        <f t="shared" si="2"/>
         <v>0.02,0.26,0.73,1.66,3.06,4.69</v>
       </c>
       <c r="AA9" s="40" t="str">
-        <f>Z52&amp;","&amp;AA52&amp;","&amp;AB52&amp;","&amp;AC52&amp;","&amp;AD52</f>
+        <f t="shared" si="3"/>
         <v>744,1488,2976,4464,5208</v>
       </c>
     </row>
@@ -5978,37 +6084,37 @@
         <v>130</v>
       </c>
       <c r="I10" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>936</v>
       </c>
       <c r="J10" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>190</v>
       </c>
       <c r="N10" s="9" t="s">
         <v>19</v>
       </c>
       <c r="O10" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>190,190,190,190,190</v>
       </c>
       <c r="P10" s="1" t="str">
-        <f>H131&amp;","&amp;I131&amp;","&amp;J131&amp;","&amp;K131&amp;","&amp;L131&amp;","&amp;M131&amp;","&amp;N131</f>
+        <f t="shared" si="0"/>
         <v>0.02,0.05,0.1,0.2,0.35,0.53,0.88</v>
       </c>
       <c r="Q10" s="9" t="str">
-        <f>H53&amp;","&amp;I53&amp;","&amp;J53&amp;","&amp;K53&amp;","&amp;L53&amp;","&amp;M53</f>
+        <f t="shared" si="1"/>
         <v>156,312,624,936,1092,2184</v>
       </c>
       <c r="Y10" s="9" t="s">
         <v>200</v>
       </c>
       <c r="Z10" s="1" t="str">
-        <f>Z97&amp;","&amp;AA97&amp;","&amp;AB97&amp;","&amp;AC97&amp;","&amp;AD97&amp;","&amp;AE97</f>
+        <f t="shared" si="2"/>
         <v>0.03,0.28,0.78,1.78,3.28,5.03</v>
       </c>
       <c r="AA10" s="40" t="str">
-        <f>Z53&amp;","&amp;AA53&amp;","&amp;AB53&amp;","&amp;AC53&amp;","&amp;AD53</f>
+        <f t="shared" si="3"/>
         <v>768,1536,3072,4608,5376</v>
       </c>
     </row>
@@ -6029,37 +6135,37 @@
         <v>140</v>
       </c>
       <c r="I11" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1008</v>
       </c>
       <c r="J11" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>210</v>
       </c>
       <c r="N11" s="9" t="s">
         <v>85</v>
       </c>
       <c r="O11" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>210,210,210,210,210</v>
       </c>
       <c r="P11" s="1" t="str">
-        <f>H132&amp;","&amp;I132&amp;","&amp;J132&amp;","&amp;K132&amp;","&amp;L132&amp;","&amp;M132&amp;","&amp;N132</f>
+        <f t="shared" si="0"/>
         <v>0.02,0.06,0.13,0.26,0.45,0.67,1.11</v>
       </c>
       <c r="Q11" s="9" t="str">
-        <f>H54&amp;","&amp;I54&amp;","&amp;J54&amp;","&amp;K54&amp;","&amp;L54&amp;","&amp;M54</f>
+        <f t="shared" si="1"/>
         <v>185,370,740,1109,1294,2588</v>
       </c>
       <c r="Y11" s="9" t="s">
         <v>201</v>
       </c>
       <c r="Z11" s="1" t="str">
-        <f>Z98&amp;","&amp;AA98&amp;","&amp;AB98&amp;","&amp;AC98&amp;","&amp;AD98&amp;","&amp;AE98</f>
+        <f t="shared" si="2"/>
         <v>0.04,0.31,0.85,1.92,3.52,5.39</v>
       </c>
       <c r="AA11" s="40" t="str">
-        <f>Z54&amp;","&amp;AA54&amp;","&amp;AB54&amp;","&amp;AC54&amp;","&amp;AD54</f>
+        <f t="shared" si="3"/>
         <v>792,1584,3168,4752,5544</v>
       </c>
     </row>
@@ -6081,37 +6187,37 @@
         <v>150</v>
       </c>
       <c r="I12" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1080</v>
       </c>
       <c r="J12" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>220</v>
       </c>
       <c r="N12" s="9" t="s">
         <v>20</v>
       </c>
       <c r="O12" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>220,220,220,220,220</v>
       </c>
       <c r="P12" s="1" t="str">
-        <f>H133&amp;","&amp;I133&amp;","&amp;J133&amp;","&amp;K133&amp;","&amp;L133&amp;","&amp;M133&amp;","&amp;N133</f>
+        <f t="shared" si="0"/>
         <v>0.03,0.07,0.15,0.31,0.55,0.83,1.38</v>
       </c>
       <c r="Q12" s="9" t="str">
-        <f>H55&amp;","&amp;I55&amp;","&amp;J55&amp;","&amp;K55&amp;","&amp;L55&amp;","&amp;M55</f>
+        <f t="shared" si="1"/>
         <v>216,432,864,1296,1512,3024</v>
       </c>
       <c r="Y12" s="9" t="s">
         <v>202</v>
       </c>
       <c r="Z12" s="1" t="str">
-        <f>Z99&amp;","&amp;AA99&amp;","&amp;AB99&amp;","&amp;AC99&amp;","&amp;AD99&amp;","&amp;AE99</f>
+        <f t="shared" si="2"/>
         <v>0.05,0.35,0.94,2.12,3.89,5.95</v>
       </c>
       <c r="AA12" s="40" t="str">
-        <f>Z55&amp;","&amp;AA55&amp;","&amp;AB55&amp;","&amp;AC55&amp;","&amp;AD55</f>
+        <f t="shared" si="3"/>
         <v>816,1632,3264,4896,5712</v>
       </c>
     </row>
@@ -6132,37 +6238,37 @@
         <v>160</v>
       </c>
       <c r="I13" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1152</v>
       </c>
       <c r="J13" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>240</v>
       </c>
       <c r="N13" s="9" t="s">
         <v>21</v>
       </c>
       <c r="O13" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>240,240,240,240,240</v>
       </c>
       <c r="P13" s="1" t="str">
-        <f>H134&amp;","&amp;I134&amp;","&amp;J134&amp;","&amp;K134&amp;","&amp;L134&amp;","&amp;M134&amp;","&amp;N134</f>
+        <f t="shared" si="0"/>
         <v>0.03,0.08,0.18,0.38,0.67,1.01,1.69</v>
       </c>
       <c r="Q13" s="9" t="str">
-        <f>H56&amp;","&amp;I56&amp;","&amp;J56&amp;","&amp;K56&amp;","&amp;L56&amp;","&amp;M56</f>
+        <f t="shared" si="1"/>
         <v>250,500,999,1498,1748,3496</v>
       </c>
       <c r="Y13" s="9" t="s">
         <v>203</v>
       </c>
       <c r="Z13" s="1" t="str">
-        <f>Z100&amp;","&amp;AA100&amp;","&amp;AB100&amp;","&amp;AC100&amp;","&amp;AD100&amp;","&amp;AE100</f>
+        <f t="shared" si="2"/>
         <v>0.06,0.39,1.04,2.34,4.28,6.54</v>
       </c>
       <c r="AA13" s="40" t="str">
-        <f>Z56&amp;","&amp;AA56&amp;","&amp;AB56&amp;","&amp;AC56&amp;","&amp;AD56</f>
+        <f t="shared" si="3"/>
         <v>840,1680,3360,5040,5880</v>
       </c>
     </row>
@@ -6177,37 +6283,37 @@
         <v>170</v>
       </c>
       <c r="I14" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1224</v>
       </c>
       <c r="J14" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>250</v>
       </c>
       <c r="N14" s="9" t="s">
         <v>22</v>
       </c>
       <c r="O14" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>250,250,250,250,250</v>
       </c>
       <c r="P14" s="1" t="str">
-        <f>H135&amp;","&amp;I135&amp;","&amp;J135&amp;","&amp;K135&amp;","&amp;L135&amp;","&amp;M135&amp;","&amp;N135</f>
+        <f t="shared" si="0"/>
         <v>0.04,0.1,0.22,0.46,0.81,1.22,2.04</v>
       </c>
       <c r="Q14" s="9" t="str">
-        <f>H57&amp;","&amp;I57&amp;","&amp;J57&amp;","&amp;K57&amp;","&amp;L57&amp;","&amp;M57</f>
+        <f t="shared" si="1"/>
         <v>286,572,1143,1714,2000,4000</v>
       </c>
       <c r="Y14" s="9" t="s">
         <v>204</v>
       </c>
       <c r="Z14" s="1" t="str">
-        <f>Z101&amp;","&amp;AA101&amp;","&amp;AB101&amp;","&amp;AC101&amp;","&amp;AD101&amp;","&amp;AE101</f>
+        <f t="shared" si="2"/>
         <v>0.07,0.43,1.14,2.56,4.68,7.15</v>
       </c>
       <c r="AA14" s="40" t="str">
-        <f>Z57&amp;","&amp;AA57&amp;","&amp;AB57&amp;","&amp;AC57&amp;","&amp;AD57</f>
+        <f t="shared" si="3"/>
         <v>864,1728,3456,5184,6048</v>
       </c>
     </row>
@@ -6221,37 +6327,37 @@
         <v>180</v>
       </c>
       <c r="I15" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1296</v>
       </c>
       <c r="J15" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>260</v>
       </c>
       <c r="N15" s="9" t="s">
         <v>23</v>
       </c>
       <c r="O15" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>260,260,260,260,260</v>
       </c>
       <c r="P15" s="1" t="str">
-        <f>H136&amp;","&amp;I136&amp;","&amp;J136&amp;","&amp;K136&amp;","&amp;L136&amp;","&amp;M136&amp;","&amp;N136</f>
+        <f t="shared" si="0"/>
         <v>0.04,0.11,0.25,0.53,0.95,1.44,2.42</v>
       </c>
       <c r="Q15" s="9" t="str">
-        <f>H58&amp;","&amp;I58&amp;","&amp;J58&amp;","&amp;K58&amp;","&amp;L58&amp;","&amp;M58</f>
+        <f t="shared" si="1"/>
         <v>324,648,1296,1944,2268,4536</v>
       </c>
       <c r="Y15" s="9" t="s">
         <v>205</v>
       </c>
       <c r="Z15" s="1" t="str">
-        <f>Z102&amp;","&amp;AA102&amp;","&amp;AB102&amp;","&amp;AC102&amp;","&amp;AD102&amp;","&amp;AE102</f>
+        <f t="shared" si="2"/>
         <v>0.08,0.48,1.27,2.85,5.22,7.98</v>
       </c>
       <c r="AA15" s="40" t="str">
-        <f>Z58&amp;","&amp;AA58&amp;","&amp;AB58&amp;","&amp;AC58&amp;","&amp;AD58</f>
+        <f t="shared" si="3"/>
         <v>888,1776,3552,5328,6216</v>
       </c>
     </row>
@@ -6270,37 +6376,37 @@
         <v>190</v>
       </c>
       <c r="I16" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1368</v>
       </c>
       <c r="J16" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>280</v>
       </c>
       <c r="N16" s="9" t="s">
         <v>24</v>
       </c>
       <c r="O16" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>280,280,280,280,280</v>
       </c>
       <c r="P16" s="1" t="str">
-        <f>H137&amp;","&amp;I137&amp;","&amp;J137&amp;","&amp;K137&amp;","&amp;L137&amp;","&amp;M137&amp;","&amp;N137</f>
+        <f t="shared" si="0"/>
         <v>0.05,0.14,0.31,0.65,1.15,1.74,2.91</v>
       </c>
       <c r="Q16" s="9" t="str">
-        <f>H59&amp;","&amp;I59&amp;","&amp;J59&amp;","&amp;K59&amp;","&amp;L59&amp;","&amp;M59</f>
+        <f t="shared" si="1"/>
         <v>365,730,1460,2189,2554,5108</v>
       </c>
       <c r="Y16" s="9" t="s">
         <v>206</v>
       </c>
       <c r="Z16" s="1" t="str">
-        <f>Z103&amp;","&amp;AA103&amp;","&amp;AB103&amp;","&amp;AC103&amp;","&amp;AD103&amp;","&amp;AE103</f>
+        <f t="shared" si="2"/>
         <v>0.09,0.67,1.83,4.14,7.6,11.64</v>
       </c>
       <c r="AA16" s="40" t="str">
-        <f>Z59&amp;","&amp;AA59&amp;","&amp;AB59&amp;","&amp;AC59&amp;","&amp;AD59</f>
+        <f t="shared" si="3"/>
         <v>1200,2400,4800,7200,8400</v>
       </c>
     </row>
@@ -6317,11 +6423,11 @@
         <v>200</v>
       </c>
       <c r="I17" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1440</v>
       </c>
       <c r="J17" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>290</v>
       </c>
       <c r="N17" s="9" t="s">
@@ -6332,22 +6438,22 @@
         <v>290,290,290,290,290</v>
       </c>
       <c r="P17" s="1" t="str">
-        <f>H138&amp;","&amp;I138&amp;","&amp;J138&amp;","&amp;K138&amp;","&amp;L138&amp;","&amp;M138&amp;","&amp;N138</f>
+        <f t="shared" si="0"/>
         <v>0.05,0.15,0.35,0.75,1.34,2.03,3.41</v>
       </c>
       <c r="Q17" s="9" t="str">
-        <f>H60&amp;","&amp;I60&amp;","&amp;J60&amp;","&amp;K60&amp;","&amp;L60&amp;","&amp;M60</f>
+        <f t="shared" si="1"/>
         <v>408,816,1632,2448,2856,5712</v>
       </c>
       <c r="Y17" s="9" t="s">
         <v>207</v>
       </c>
       <c r="Z17" s="1" t="str">
-        <f>Z104&amp;","&amp;AA104&amp;","&amp;AB104&amp;","&amp;AC104&amp;","&amp;AD104&amp;","&amp;AE104</f>
+        <f t="shared" si="2"/>
         <v>0.1,0.75,2.04,4.62,8.49,13</v>
       </c>
       <c r="AA17" s="40" t="str">
-        <f>Z60&amp;","&amp;AA60&amp;","&amp;AB60&amp;","&amp;AC60&amp;","&amp;AD60</f>
+        <f t="shared" si="3"/>
         <v>1248,2496,4992,7488,8736</v>
       </c>
     </row>
@@ -6370,26 +6476,26 @@
         <v>105</v>
       </c>
       <c r="O18" s="1" t="str">
-        <f t="shared" ref="O18:O28" si="3">J19&amp;","&amp;J19&amp;","&amp;J19&amp;","&amp;J19&amp;","&amp;J19</f>
+        <f t="shared" ref="O18:O28" si="7">J19&amp;","&amp;J19&amp;","&amp;J19&amp;","&amp;J19&amp;","&amp;J19</f>
         <v>300,300,300,300,300</v>
       </c>
       <c r="P18" s="1" t="str">
-        <f>H139&amp;","&amp;I139&amp;","&amp;J139&amp;","&amp;K139&amp;","&amp;L139&amp;","&amp;M139&amp;","&amp;N139</f>
+        <f t="shared" si="0"/>
         <v>0.06,0.21,0.51,1.1,1.98,3.01,5.06</v>
       </c>
       <c r="Q18" s="9" t="str">
-        <f>H63&amp;","&amp;I63&amp;","&amp;J63&amp;","&amp;K63&amp;","&amp;L63&amp;","&amp;M63</f>
+        <f t="shared" ref="Q18:Q33" si="8">H63&amp;","&amp;I63&amp;","&amp;J63&amp;","&amp;K63&amp;","&amp;L63&amp;","&amp;M63</f>
         <v>580,1160,2319,3478,4058,8116</v>
       </c>
       <c r="Y18" s="9" t="s">
         <v>208</v>
       </c>
       <c r="Z18" s="1" t="str">
-        <f>Z105&amp;","&amp;AA105&amp;","&amp;AB105&amp;","&amp;AC105&amp;","&amp;AD105&amp;","&amp;AE105</f>
+        <f t="shared" si="2"/>
         <v>0.11,0.83,2.27,5.14,9.44,14.45</v>
       </c>
       <c r="AA18" s="40" t="str">
-        <f>Z61&amp;","&amp;AA61&amp;","&amp;AB61&amp;","&amp;AC61&amp;","&amp;AD61</f>
+        <f t="shared" si="3"/>
         <v>1296,2592,5184,7776,9072</v>
       </c>
     </row>
@@ -6411,7 +6517,7 @@
         <v>210</v>
       </c>
       <c r="I19" s="9">
-        <f t="shared" ref="I19:I29" si="4">H19*$B$9*$B$18*($B$13/100)</f>
+        <f t="shared" ref="I19:I29" si="9">H19*$B$9*$B$18*($B$13/100)</f>
         <v>1512</v>
       </c>
       <c r="J19" s="9">
@@ -6421,26 +6527,26 @@
         <v>106</v>
       </c>
       <c r="O19" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>320,320,320,320,320</v>
       </c>
       <c r="P19" s="1" t="str">
-        <f>H140&amp;","&amp;I140&amp;","&amp;J140&amp;","&amp;K140&amp;","&amp;L140&amp;","&amp;M140&amp;","&amp;N140</f>
+        <f t="shared" si="0"/>
         <v>0.06,0.23,0.56,1.21,2.18,3.31,5.56</v>
       </c>
       <c r="Q19" s="9" t="str">
-        <f>H64&amp;","&amp;I64&amp;","&amp;J64&amp;","&amp;K64&amp;","&amp;L64&amp;","&amp;M64</f>
+        <f t="shared" si="8"/>
         <v>608,1215,2429,3644,4251,8502</v>
       </c>
       <c r="Y19" s="9" t="s">
         <v>428</v>
       </c>
       <c r="Z19" s="1" t="str">
-        <f>Z106&amp;","&amp;AA106&amp;","&amp;AB106&amp;","&amp;AC106&amp;","&amp;AD106&amp;","&amp;AE106</f>
+        <f t="shared" si="2"/>
         <v>0.12,0.97,2.67,6.06,11.15,17.08</v>
       </c>
       <c r="AA19" s="40" t="str">
-        <f>Z62&amp;","&amp;AA62&amp;","&amp;AB62&amp;","&amp;AC62&amp;","&amp;AD62</f>
+        <f t="shared" si="3"/>
         <v>1440,2880,5760,8640,10080</v>
       </c>
     </row>
@@ -6462,37 +6568,37 @@
         <v>220</v>
       </c>
       <c r="I20" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1584</v>
       </c>
       <c r="J20" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>320</v>
       </c>
       <c r="N20" s="9" t="s">
         <v>172</v>
       </c>
       <c r="O20" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>340,340,340,340,340</v>
       </c>
       <c r="P20" s="1" t="str">
-        <f>H141&amp;","&amp;I141&amp;","&amp;J141&amp;","&amp;K141&amp;","&amp;L141&amp;","&amp;M141&amp;","&amp;N141</f>
+        <f t="shared" si="0"/>
         <v>0.07,0.25,0.61,1.32,2.38,3.61,6.07</v>
       </c>
       <c r="Q20" s="9" t="str">
-        <f>H65&amp;","&amp;I65&amp;","&amp;J65&amp;","&amp;K65&amp;","&amp;L65&amp;","&amp;M65</f>
+        <f t="shared" si="8"/>
         <v>635,1270,2540,3809,4444,8888</v>
       </c>
       <c r="Y20" s="9" t="s">
         <v>210</v>
       </c>
       <c r="Z20" s="1" t="str">
-        <f>Z107&amp;","&amp;AA107&amp;","&amp;AB107&amp;","&amp;AC107&amp;","&amp;AD107&amp;","&amp;AE107</f>
+        <f t="shared" si="2"/>
         <v>0.13,1.06,2.92,6.64,12.22,18.72</v>
       </c>
       <c r="AA20" s="40" t="str">
-        <f>Z63&amp;","&amp;AA63&amp;","&amp;AB63&amp;","&amp;AC63&amp;","&amp;AD63</f>
+        <f t="shared" si="3"/>
         <v>1488,2976,5952,8928,10416</v>
       </c>
     </row>
@@ -6514,37 +6620,37 @@
         <v>230</v>
       </c>
       <c r="I21" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1656</v>
       </c>
       <c r="J21" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>340</v>
       </c>
       <c r="N21" s="9" t="s">
         <v>174</v>
       </c>
       <c r="O21" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>350,350,350,350,350</v>
       </c>
       <c r="P21" s="1" t="str">
-        <f>H142&amp;","&amp;I142&amp;","&amp;J142&amp;","&amp;K142&amp;","&amp;L142&amp;","&amp;M142&amp;","&amp;N142</f>
+        <f t="shared" si="0"/>
         <v>0.07,0.27,0.67,1.47,2.67,4.07,6.86</v>
       </c>
       <c r="Q21" s="9" t="str">
-        <f>H66&amp;","&amp;I66&amp;","&amp;J66&amp;","&amp;K66&amp;","&amp;L66&amp;","&amp;M66</f>
+        <f t="shared" si="8"/>
         <v>692,1383,2765,4148,4839,9678</v>
       </c>
       <c r="Y21" s="9" t="s">
         <v>211</v>
       </c>
       <c r="Z21" s="1" t="str">
-        <f>Z108&amp;","&amp;AA108&amp;","&amp;AB108&amp;","&amp;AC108&amp;","&amp;AD108&amp;","&amp;AE108</f>
+        <f t="shared" si="2"/>
         <v>0.14,1.16,3.19,7.25,13.34,20.44</v>
       </c>
       <c r="AA21" s="40" t="str">
-        <f>Z64&amp;","&amp;AA64&amp;","&amp;AB64&amp;","&amp;AC64&amp;","&amp;AD64</f>
+        <f t="shared" si="3"/>
         <v>1536,3072,6144,9216,10752</v>
       </c>
     </row>
@@ -6564,37 +6670,37 @@
         <v>240</v>
       </c>
       <c r="I22" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1728</v>
       </c>
       <c r="J22" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>350</v>
       </c>
       <c r="N22" s="9" t="s">
         <v>195</v>
       </c>
       <c r="O22" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>360,360,360,360,360</v>
       </c>
       <c r="P22" s="1" t="str">
-        <f>H143&amp;","&amp;I143&amp;","&amp;J143&amp;","&amp;K143&amp;","&amp;L143&amp;","&amp;M143&amp;","&amp;N143</f>
+        <f t="shared" si="0"/>
         <v>0.08,0.31,0.76,1.66,3.01,4.59,7.74</v>
       </c>
       <c r="Q22" s="9" t="str">
-        <f>H67&amp;","&amp;I67&amp;","&amp;J67&amp;","&amp;K67&amp;","&amp;L67&amp;","&amp;M67</f>
+        <f t="shared" si="8"/>
         <v>750,1500,3000,4500,5250,10500</v>
       </c>
       <c r="Y22" s="9" t="s">
         <v>212</v>
       </c>
       <c r="Z22" s="1" t="str">
-        <f>Z109&amp;","&amp;AA109&amp;","&amp;AB109&amp;","&amp;AC109&amp;","&amp;AD109&amp;","&amp;AE109</f>
+        <f t="shared" si="2"/>
         <v>0.15,1.26,3.47,7.88,14.5,22.22</v>
       </c>
       <c r="AA22" s="40" t="str">
-        <f>Z65&amp;","&amp;AA65&amp;","&amp;AB65&amp;","&amp;AC65&amp;","&amp;AD65</f>
+        <f t="shared" si="3"/>
         <v>1584,3168,6336,9504,11088</v>
       </c>
     </row>
@@ -6606,26 +6712,26 @@
         <v>250</v>
       </c>
       <c r="I23" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1800</v>
       </c>
       <c r="J23" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>360</v>
       </c>
       <c r="N23" s="9" t="s">
         <v>246</v>
       </c>
       <c r="O23" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>390,390,390,390,390</v>
       </c>
       <c r="P23" s="1" t="str">
-        <f>H144&amp;","&amp;I144&amp;","&amp;J144&amp;","&amp;K144&amp;","&amp;L144&amp;","&amp;M144&amp;","&amp;N144</f>
+        <f t="shared" si="0"/>
         <v>0.08,0.35,0.88,1.94,3.52,5.36,9.04</v>
       </c>
       <c r="Q23" s="9" t="str">
-        <f>H68&amp;","&amp;I68&amp;","&amp;J68&amp;","&amp;K68&amp;","&amp;L68&amp;","&amp;M68</f>
+        <f t="shared" si="8"/>
         <v>843,1685,3370,5055,5897,11794</v>
       </c>
     </row>
@@ -6637,26 +6743,26 @@
         <v>270</v>
       </c>
       <c r="I24" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1944</v>
       </c>
       <c r="J24" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>390</v>
       </c>
       <c r="N24" s="9" t="s">
         <v>313</v>
       </c>
       <c r="O24" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>420,420,420,420,420</v>
       </c>
       <c r="P24" s="1" t="str">
-        <f>H145&amp;","&amp;I145&amp;","&amp;J145&amp;","&amp;K145&amp;","&amp;L145&amp;","&amp;M145&amp;","&amp;N145</f>
+        <f t="shared" si="0"/>
         <v>0.09,0.41,1.05,2.32,4.22,6.44,10.87</v>
       </c>
       <c r="Q24" s="9" t="str">
-        <f>H69&amp;","&amp;I69&amp;","&amp;J69&amp;","&amp;K69&amp;","&amp;L69&amp;","&amp;M69</f>
+        <f t="shared" si="8"/>
         <v>940,1880,3759,5638,6578,13156</v>
       </c>
     </row>
@@ -6673,26 +6779,26 @@
         <v>290</v>
       </c>
       <c r="I25" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2088</v>
       </c>
       <c r="J25" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>420</v>
       </c>
       <c r="N25" s="9" t="s">
         <v>368</v>
       </c>
       <c r="O25" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>450,450,450,450,450</v>
       </c>
       <c r="P25" s="1" t="str">
-        <f>H146&amp;","&amp;I146&amp;","&amp;J146&amp;","&amp;K146&amp;","&amp;L146&amp;","&amp;M146&amp;","&amp;N146</f>
+        <f t="shared" si="0"/>
         <v>0.09,0.47,1.23,2.74,4.99,7.62,12.88</v>
       </c>
       <c r="Q25" s="9" t="str">
-        <f>H70&amp;","&amp;I70&amp;","&amp;J70&amp;","&amp;K70&amp;","&amp;L70&amp;","&amp;M70</f>
+        <f t="shared" si="8"/>
         <v>1042,2084,4167,6250,7292,14584</v>
       </c>
       <c r="S25" s="36"/>
@@ -6718,26 +6824,26 @@
         <v>310</v>
       </c>
       <c r="I26" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2232</v>
       </c>
       <c r="J26" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>450</v>
       </c>
       <c r="N26" s="9" t="s">
         <v>375</v>
       </c>
       <c r="O26" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>480,480,480,480,480</v>
       </c>
       <c r="P26" s="1" t="str">
-        <f>H147&amp;","&amp;I147&amp;","&amp;J147&amp;","&amp;K147&amp;","&amp;L147&amp;","&amp;M147&amp;","&amp;N147</f>
+        <f t="shared" si="0"/>
         <v>0.1,0.55,1.44,3.21,5.86,8.95,15.13</v>
       </c>
       <c r="Q26" s="9" t="str">
-        <f>H71&amp;","&amp;I71&amp;","&amp;J71&amp;","&amp;K71&amp;","&amp;L71&amp;","&amp;M71</f>
+        <f t="shared" si="8"/>
         <v>1149,2297,4594,6891,8039,16078</v>
       </c>
     </row>
@@ -6754,26 +6860,26 @@
         <v>330</v>
       </c>
       <c r="I27" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2376</v>
       </c>
       <c r="J27" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>480</v>
       </c>
       <c r="N27" s="9" t="s">
         <v>387</v>
       </c>
       <c r="O27" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>510,510,510,510,510</v>
       </c>
       <c r="P27" s="1" t="str">
-        <f>H148&amp;","&amp;I148&amp;","&amp;J148&amp;","&amp;K148&amp;","&amp;L148&amp;","&amp;M148&amp;","&amp;N148</f>
+        <f t="shared" si="0"/>
         <v>0.1,0.62,1.65,3.71,6.8,10.4,17.6</v>
       </c>
       <c r="Q27" s="9" t="str">
-        <f>H72&amp;","&amp;I72&amp;","&amp;J72&amp;","&amp;K72&amp;","&amp;L72&amp;","&amp;M72</f>
+        <f t="shared" si="8"/>
         <v>1260,2520,5040,7560,8820,17640</v>
       </c>
     </row>
@@ -6790,26 +6896,26 @@
         <v>350</v>
       </c>
       <c r="I28" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2520</v>
       </c>
       <c r="J28" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>510</v>
       </c>
       <c r="N28" s="9" t="s">
         <v>418</v>
       </c>
       <c r="O28" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>540,540,540,540,540</v>
       </c>
       <c r="P28" s="1" t="str">
-        <f>H149&amp;","&amp;I149&amp;","&amp;J149&amp;","&amp;K149&amp;","&amp;L149&amp;","&amp;M149&amp;","&amp;N149</f>
+        <f t="shared" si="0"/>
         <v>0.11,0.71,1.9,4.28,7.85,12.02,20.35</v>
       </c>
       <c r="Q28" s="9" t="str">
-        <f>H73&amp;","&amp;I73&amp;","&amp;J73&amp;","&amp;K73&amp;","&amp;L73&amp;","&amp;M73</f>
+        <f t="shared" si="8"/>
         <v>1377,2753,5506,8259,9635,19270</v>
       </c>
     </row>
@@ -6827,26 +6933,26 @@
         <v>370</v>
       </c>
       <c r="I29" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2664</v>
       </c>
       <c r="J29" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>540</v>
       </c>
       <c r="N29" s="9" t="s">
         <v>431</v>
       </c>
       <c r="O29" s="1" t="str">
-        <f t="shared" ref="O29" si="5">J30&amp;","&amp;J30&amp;","&amp;J30&amp;","&amp;J30&amp;","&amp;J30</f>
+        <f t="shared" ref="O29" si="10">J30&amp;","&amp;J30&amp;","&amp;J30&amp;","&amp;J30&amp;","&amp;J30</f>
         <v>570,570,570,570,570</v>
       </c>
       <c r="P29" s="1" t="str">
-        <f>H150&amp;","&amp;I150&amp;","&amp;J150&amp;","&amp;K150&amp;","&amp;L150&amp;","&amp;M150&amp;","&amp;N150</f>
+        <f t="shared" si="0"/>
         <v>0.11,0.82,2.23,5.05,9.28,14.21,24.07</v>
       </c>
       <c r="Q29" s="9" t="str">
-        <f>H74&amp;","&amp;I74&amp;","&amp;J74&amp;","&amp;K74&amp;","&amp;L74&amp;","&amp;M74</f>
+        <f t="shared" si="8"/>
         <v>1545,3089,6178,9267,10811,21622</v>
       </c>
     </row>
@@ -6864,26 +6970,26 @@
         <v>390</v>
       </c>
       <c r="I30" s="9">
-        <f t="shared" ref="I30:I31" si="6">H30*$B$9*$B$18*($B$13/100)</f>
+        <f t="shared" ref="I30:I31" si="11">H30*$B$9*$B$18*($B$13/100)</f>
         <v>2808</v>
       </c>
       <c r="J30" s="9">
-        <f t="shared" ref="J30:J31" si="7">ROUNDUP((I30/5),-1)</f>
+        <f t="shared" ref="J30:J31" si="12">ROUNDUP((I30/5),-1)</f>
         <v>570</v>
       </c>
       <c r="N30" s="9" t="s">
         <v>451</v>
       </c>
       <c r="O30" s="1" t="str">
-        <f t="shared" ref="O30:O31" si="8">J31&amp;","&amp;J31&amp;","&amp;J31&amp;","&amp;J31&amp;","&amp;J31</f>
+        <f t="shared" ref="O30:O31" si="13">J31&amp;","&amp;J31&amp;","&amp;J31&amp;","&amp;J31&amp;","&amp;J31</f>
         <v>600,600,600,600,600</v>
       </c>
       <c r="P30" s="1" t="str">
-        <f>H151&amp;","&amp;I151&amp;","&amp;J151&amp;","&amp;K151&amp;","&amp;L151&amp;","&amp;M151&amp;","&amp;N151</f>
+        <f t="shared" si="0"/>
         <v>0.12,0.95,2.61,5.92,10.88,16.67,28.25</v>
       </c>
       <c r="Q30" s="9" t="str">
-        <f>H75&amp;","&amp;I75&amp;","&amp;J75&amp;","&amp;K75&amp;","&amp;L75&amp;","&amp;M75</f>
+        <f t="shared" si="8"/>
         <v>1722,3444,6888,10332,12054,24108</v>
       </c>
     </row>
@@ -6901,26 +7007,26 @@
         <v>410</v>
       </c>
       <c r="I31" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>2952</v>
       </c>
       <c r="J31" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>600</v>
       </c>
       <c r="N31" s="9" t="s">
         <v>464</v>
       </c>
       <c r="O31" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>620,620,620,620,620</v>
+      </c>
+      <c r="P31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0.12,1.09,3.02,6.87,12.65,19.39,32.87</v>
+      </c>
+      <c r="Q31" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>620,620,620,620,620</v>
-      </c>
-      <c r="P31" s="1" t="str">
-        <f>H152&amp;","&amp;I152&amp;","&amp;J152&amp;","&amp;K152&amp;","&amp;L152&amp;","&amp;M152&amp;","&amp;N152</f>
-        <v>0.12,1.09,3.02,6.87,12.65,19.39,32.87</v>
-      </c>
-      <c r="Q31" s="9" t="str">
-        <f>H76&amp;","&amp;I76&amp;","&amp;J76&amp;","&amp;K76&amp;","&amp;L76&amp;","&amp;M76</f>
         <v>1910,3819,7637,11456,13365,26730</v>
       </c>
     </row>
@@ -6938,26 +7044,26 @@
         <v>430</v>
       </c>
       <c r="I32" s="9">
-        <f t="shared" ref="I32:I33" si="9">H32*$B$9*$B$18*($B$13/100)</f>
+        <f t="shared" ref="I32:I33" si="14">H32*$B$9*$B$18*($B$13/100)</f>
         <v>3096</v>
       </c>
       <c r="J32" s="9">
-        <f t="shared" ref="J32:J33" si="10">ROUNDUP((I32/5),-1)</f>
+        <f t="shared" ref="J32:J33" si="15">ROUNDUP((I32/5),-1)</f>
         <v>620</v>
       </c>
       <c r="N32" s="9" t="s">
         <v>473</v>
       </c>
       <c r="O32" s="1" t="str">
-        <f t="shared" ref="O32:O33" si="11">J33&amp;","&amp;J33&amp;","&amp;J33&amp;","&amp;J33&amp;","&amp;J33</f>
+        <f t="shared" ref="O32:O33" si="16">J33&amp;","&amp;J33&amp;","&amp;J33&amp;","&amp;J33&amp;","&amp;J33</f>
         <v>650,650,650,650,650</v>
       </c>
       <c r="P32" s="1" t="str">
-        <f>H153&amp;","&amp;I153&amp;","&amp;J153&amp;","&amp;K153&amp;","&amp;L153&amp;","&amp;M153&amp;","&amp;N153</f>
+        <f t="shared" si="0"/>
         <v>0.13,1.25,3.48,7.93,14.61,22.4,37.97</v>
       </c>
       <c r="Q32" s="9" t="str">
-        <f>H77&amp;","&amp;I77&amp;","&amp;J77&amp;","&amp;K77&amp;","&amp;L77&amp;","&amp;M77</f>
+        <f t="shared" si="8"/>
         <v>2106,4212,8424,12636,14742,29484</v>
       </c>
     </row>
@@ -6975,26 +7081,26 @@
         <v>450</v>
       </c>
       <c r="I33" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>3240</v>
       </c>
       <c r="J33" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>650</v>
       </c>
       <c r="N33" s="9" t="s">
         <v>491</v>
       </c>
       <c r="O33" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>680,680,680,680,680</v>
       </c>
       <c r="P33" s="1" t="str">
-        <f>H154&amp;","&amp;I154&amp;","&amp;J154&amp;","&amp;K154&amp;","&amp;L154&amp;","&amp;M154&amp;","&amp;N154</f>
+        <f t="shared" si="0"/>
         <v>0.13,1.41,3.97,9.08,16.74,25.68,43.56</v>
       </c>
       <c r="Q33" s="9" t="str">
-        <f>H78&amp;","&amp;I78&amp;","&amp;J78&amp;","&amp;K78&amp;","&amp;L78&amp;","&amp;M78</f>
+        <f t="shared" si="8"/>
         <v>2313,4625,9250,13875,16187,32374</v>
       </c>
     </row>
@@ -7012,26 +7118,26 @@
         <v>470</v>
       </c>
       <c r="I34" s="9">
-        <f t="shared" ref="I34:I35" si="12">H34*$B$9*$B$18*($B$13/100)</f>
+        <f t="shared" ref="I34:I35" si="17">H34*$B$9*$B$18*($B$13/100)</f>
         <v>3384</v>
       </c>
       <c r="J34" s="9">
-        <f t="shared" ref="J34:J35" si="13">ROUNDUP((I34/5),-1)</f>
+        <f t="shared" ref="J34:J35" si="18">ROUNDUP((I34/5),-1)</f>
         <v>680</v>
       </c>
       <c r="N34" s="9" t="s">
         <v>490</v>
       </c>
       <c r="O34" s="1" t="str">
-        <f t="shared" ref="O34:O38" si="14">J35&amp;","&amp;J35&amp;","&amp;J35&amp;","&amp;J35&amp;","&amp;J35</f>
+        <f t="shared" ref="O34:O37" si="19">J35&amp;","&amp;J35&amp;","&amp;J35&amp;","&amp;J35&amp;","&amp;J35</f>
         <v>710,710,710,710,710</v>
       </c>
       <c r="P34" s="1" t="str">
-        <f t="shared" ref="P34:P38" si="15">H155&amp;","&amp;I155&amp;","&amp;J155&amp;","&amp;K155&amp;","&amp;L155&amp;","&amp;M155&amp;","&amp;N155</f>
+        <f t="shared" ref="P34:P37" si="20">H155&amp;","&amp;I155&amp;","&amp;J155&amp;","&amp;K155&amp;","&amp;L155&amp;","&amp;M155&amp;","&amp;N155</f>
         <v>0.14,1.6,4.52,10.35,19.09,29.29,49.68</v>
       </c>
       <c r="Q34" s="9" t="str">
-        <f t="shared" ref="Q34:Q38" si="16">H79&amp;","&amp;I79&amp;","&amp;J79&amp;","&amp;K79&amp;","&amp;L79&amp;","&amp;M79</f>
+        <f t="shared" ref="Q34:Q37" si="21">H79&amp;","&amp;I79&amp;","&amp;J79&amp;","&amp;K79&amp;","&amp;L79&amp;","&amp;M79</f>
         <v>2529,5057,10114,15171,17699,35398</v>
       </c>
     </row>
@@ -7050,42 +7156,42 @@
         <v>490</v>
       </c>
       <c r="I35" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3528</v>
       </c>
       <c r="J35" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>710</v>
       </c>
       <c r="N35" s="9" t="s">
         <v>512</v>
       </c>
       <c r="O35" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>740,740,740,740,740</v>
       </c>
       <c r="P35" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0.14,1.72,4.88,11.2,20.68,31.74,53.85</v>
       </c>
       <c r="Q35" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>2632,5264,10527,15790,18422,36844</v>
       </c>
       <c r="S35" s="1" t="str">
-        <f t="shared" ref="S35" si="17">N36&amp;","&amp;N36&amp;","&amp;N36&amp;","&amp;N36&amp;","&amp;N36</f>
+        <f t="shared" ref="S35" si="22">N36&amp;","&amp;N36&amp;","&amp;N36&amp;","&amp;N36&amp;","&amp;N36</f>
         <v>펫29,펫29,펫29,펫29,펫29</v>
       </c>
       <c r="T35" s="1" t="str">
-        <f t="shared" ref="T35" si="18">L156&amp;","&amp;M156&amp;","&amp;N156&amp;","&amp;O156&amp;","&amp;P156&amp;","&amp;Q156&amp;","&amp;R156</f>
+        <f t="shared" ref="T35" si="23">L156&amp;","&amp;M156&amp;","&amp;N156&amp;","&amp;O156&amp;","&amp;P156&amp;","&amp;Q156&amp;","&amp;R156</f>
         <v>20.68,31.74,53.85,,,,</v>
       </c>
       <c r="U35" s="9" t="str">
-        <f t="shared" ref="U35" si="19">L80&amp;","&amp;M80&amp;","&amp;N80&amp;","&amp;O80&amp;","&amp;P80&amp;","&amp;Q80</f>
+        <f t="shared" ref="U35" si="24">L80&amp;","&amp;M80&amp;","&amp;N80&amp;","&amp;O80&amp;","&amp;P80&amp;","&amp;Q80</f>
         <v>18422,36844,52635,400,52632,</v>
       </c>
       <c r="W35" s="1" t="str">
-        <f t="shared" ref="W35" si="20">R36&amp;","&amp;R36&amp;","&amp;R36&amp;","&amp;R36&amp;","&amp;R36</f>
+        <f t="shared" ref="W35" si="25">R36&amp;","&amp;R36&amp;","&amp;R36&amp;","&amp;R36&amp;","&amp;R36</f>
         <v>,,,,</v>
       </c>
     </row>
@@ -7097,26 +7203,26 @@
         <v>510</v>
       </c>
       <c r="I36" s="9">
-        <f t="shared" ref="I36:I38" si="21">H36*$B$9*$B$18*($B$13/100)</f>
+        <f t="shared" ref="I36:I38" si="26">H36*$B$9*$B$18*($B$13/100)</f>
         <v>3672</v>
       </c>
       <c r="J36" s="9">
-        <f t="shared" ref="J36:J38" si="22">ROUNDUP((I36/5),-1)</f>
+        <f t="shared" ref="J36:J38" si="27">ROUNDUP((I36/5),-1)</f>
         <v>740</v>
       </c>
       <c r="N36" s="9" t="s">
         <v>517</v>
       </c>
       <c r="O36" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>770,770,770,770,770</v>
       </c>
       <c r="P36" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0.15,1.86,5.28,12.11,22.35,34.3,58.2</v>
       </c>
       <c r="Q36" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>2735,5470,10940,16409,19144,38288</v>
       </c>
     </row>
@@ -7131,26 +7237,26 @@
         <v>530</v>
       </c>
       <c r="I37" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>3816</v>
       </c>
       <c r="J37" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>770</v>
       </c>
       <c r="N37" s="9" t="s">
         <v>519</v>
       </c>
       <c r="O37" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>800,800,800,800,800</v>
       </c>
       <c r="P37" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0.15,1.99,5.67,13.03,24.07,36.95,62.7</v>
       </c>
       <c r="Q37" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>2838,5676,11352,17028,19866,39732</v>
       </c>
     </row>
@@ -7162,15 +7268,28 @@
         <v>550</v>
       </c>
       <c r="I38" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>3960</v>
       </c>
       <c r="J38" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>800</v>
       </c>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
+      <c r="N38" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="O38" s="1" t="str">
+        <f t="shared" ref="O38" si="28">J39&amp;","&amp;J39&amp;","&amp;J39&amp;","&amp;J39&amp;","&amp;J39</f>
+        <v>830,830,830,830,830</v>
+      </c>
+      <c r="P38" s="1" t="str">
+        <f t="shared" ref="P38" si="29">H159&amp;","&amp;I159&amp;","&amp;J159&amp;","&amp;K159&amp;","&amp;L159&amp;","&amp;M159&amp;","&amp;N159</f>
+        <v>0.16,2.14,6.1,14.01,25.87,39.71,67.39</v>
+      </c>
+      <c r="Q38" s="9" t="str">
+        <f t="shared" ref="Q38" si="30">H83&amp;","&amp;I83&amp;","&amp;J83&amp;","&amp;K83&amp;","&amp;L83&amp;","&amp;M83</f>
+        <v>2942,5883,11765,17648,20589,41178</v>
+      </c>
     </row>
     <row r="39" spans="1:23">
       <c r="A39" s="15" t="s">
@@ -7179,6 +7298,20 @@
       <c r="B39" s="16">
         <v>100</v>
       </c>
+      <c r="G39" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="H39" s="9">
+        <v>570</v>
+      </c>
+      <c r="I39" s="9">
+        <f t="shared" ref="I39" si="31">H39*$B$9*$B$18*($B$13/100)</f>
+        <v>4104</v>
+      </c>
+      <c r="J39" s="9">
+        <f t="shared" ref="J39" si="32">ROUNDUP((I39/5),-1)</f>
+        <v>830</v>
+      </c>
     </row>
     <row r="40" spans="1:23">
       <c r="A40" s="15" t="s">
@@ -7219,27 +7352,27 @@
         <v>68</v>
       </c>
       <c r="R49" s="23">
-        <f t="shared" ref="R49:W49" si="23">SUM(R51:R60)</f>
+        <f t="shared" ref="R49:W49" si="33">SUM(R51:R60)</f>
         <v>16.285714285714285</v>
       </c>
       <c r="S49" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>13.328571428571429</v>
       </c>
       <c r="T49" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>10.213240418118467</v>
       </c>
       <c r="U49" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>8.8857142857142843</v>
       </c>
       <c r="V49" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>6.4878048780487809</v>
       </c>
       <c r="W49" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>5.3097560975609763</v>
       </c>
       <c r="X49"/>
@@ -7338,23 +7471,23 @@
         <v>106</v>
       </c>
       <c r="I51" s="9">
-        <f t="shared" ref="I51:I60" si="24">ROUNDUP((P51*$B$31/100),0)</f>
+        <f t="shared" ref="I51:I60" si="34">ROUNDUP((P51*$B$31/100),0)</f>
         <v>212</v>
       </c>
       <c r="J51" s="9">
-        <f t="shared" ref="J51:J60" si="25">ROUNDUP((P51*$B$32/100),0)</f>
+        <f t="shared" ref="J51:J60" si="35">ROUNDUP((P51*$B$32/100),0)</f>
         <v>423</v>
       </c>
       <c r="K51" s="9">
-        <f t="shared" ref="K51:K60" si="26">ROUNDUP((P51*$B$33/100),0)</f>
+        <f t="shared" ref="K51:K60" si="36">ROUNDUP((P51*$B$33/100),0)</f>
         <v>634</v>
       </c>
       <c r="L51" s="9">
-        <f t="shared" ref="L51:L60" si="27">ROUNDUP((P51*$B$34/100),0)</f>
+        <f t="shared" ref="L51:L60" si="37">ROUNDUP((P51*$B$34/100),0)</f>
         <v>740</v>
       </c>
       <c r="M51" s="9">
-        <f t="shared" ref="M51:M60" si="28">L51*$B$43</f>
+        <f t="shared" ref="M51:M60" si="38">L51*$B$43</f>
         <v>1480</v>
       </c>
       <c r="N51" s="9">
@@ -7365,23 +7498,23 @@
         <v>50</v>
       </c>
       <c r="P51" s="9">
-        <f>(H8*$B$9*$B$18)*(O51/100)+I8</f>
+        <f t="shared" ref="P51:P60" si="39">(H8*$B$9*$B$18)*(O51/100)+I8</f>
         <v>2112</v>
       </c>
       <c r="Q51" s="9">
-        <f>P51-I8</f>
+        <f t="shared" ref="Q51:Q60" si="40">P51-I8</f>
         <v>1320</v>
       </c>
       <c r="R51" s="1">
-        <f>(Q51/H8)/($B$18*7)</f>
+        <f t="shared" ref="R51:R60" si="41">(Q51/H8)/($B$18*7)</f>
         <v>0.8571428571428571</v>
       </c>
       <c r="S51" s="1">
-        <f t="shared" ref="S51:S60" si="29">(Q51/$H$17)/(7*$B$18)</f>
+        <f t="shared" ref="S51:S60" si="42">(Q51/$H$17)/(7*$B$18)</f>
         <v>0.47142857142857142</v>
       </c>
       <c r="T51" s="1">
-        <f>(Q51/H8)/($B$18*7+$B$21)</f>
+        <f t="shared" ref="T51:T59" si="43">(Q51/H8)/($B$18*7+$B$21)</f>
         <v>0.5714285714285714</v>
       </c>
       <c r="U51" s="1">
@@ -7389,7 +7522,7 @@
         <v>0.31428571428571428</v>
       </c>
       <c r="V51" s="1">
-        <f>(Q51/H8)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
+        <f t="shared" ref="V51:V60" si="44">(Q51/H8)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
         <v>0.34146341463414637</v>
       </c>
       <c r="W51" s="1">
@@ -7404,19 +7537,19 @@
         <v>720</v>
       </c>
       <c r="AA51" s="9">
-        <f t="shared" ref="AA51:AA65" si="30">ROUNDUP((AE51*$B$31/100),0)</f>
+        <f t="shared" ref="AA51:AA65" si="45">ROUNDUP((AE51*$B$31/100),0)</f>
         <v>1440</v>
       </c>
       <c r="AB51" s="9">
-        <f t="shared" ref="AB51:AB65" si="31">ROUNDUP((AE51*$B$32/100),0)</f>
+        <f t="shared" ref="AB51:AB65" si="46">ROUNDUP((AE51*$B$32/100),0)</f>
         <v>2880</v>
       </c>
       <c r="AC51" s="9">
-        <f t="shared" ref="AC51:AC65" si="32">ROUNDUP((AE51*$B$33/100),0)</f>
+        <f t="shared" ref="AC51:AC65" si="47">ROUNDUP((AE51*$B$33/100),0)</f>
         <v>4320</v>
       </c>
       <c r="AD51" s="9">
-        <f t="shared" ref="AD51:AD65" si="33">ROUNDUP((AE51*$B$34/100),0)</f>
+        <f t="shared" ref="AD51:AD65" si="48">ROUNDUP((AE51*$B$34/100),0)</f>
         <v>5040</v>
       </c>
       <c r="AE51" s="1">
@@ -7432,93 +7565,93 @@
         <v>18</v>
       </c>
       <c r="H52" s="9">
-        <f t="shared" ref="H52:H60" si="34">ROUNDUP((P52*$B$30/100),0)</f>
+        <f t="shared" ref="H52:H60" si="49">ROUNDUP((P52*$B$30/100),0)</f>
         <v>130</v>
       </c>
       <c r="I52" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>260</v>
       </c>
       <c r="J52" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>519</v>
       </c>
       <c r="K52" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>778</v>
       </c>
       <c r="L52" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>908</v>
       </c>
       <c r="M52" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>1816</v>
       </c>
       <c r="N52" s="9">
-        <f t="shared" ref="N52:N60" si="35">SUM(H52:L52)</f>
+        <f t="shared" ref="N52:N60" si="50">SUM(H52:L52)</f>
         <v>2595</v>
       </c>
       <c r="O52" s="9">
         <v>60</v>
       </c>
       <c r="P52" s="9">
-        <f>(H9*$B$9*$B$18)*(O52/100)+I9</f>
+        <f t="shared" si="39"/>
         <v>2592</v>
       </c>
       <c r="Q52" s="9">
-        <f>P52-I9</f>
+        <f t="shared" si="40"/>
         <v>1728</v>
       </c>
       <c r="R52" s="1">
-        <f>(Q52/H9)/($B$18*7)</f>
+        <f t="shared" si="41"/>
         <v>1.0285714285714287</v>
       </c>
       <c r="S52" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="42"/>
         <v>0.61714285714285722</v>
       </c>
       <c r="T52" s="1">
-        <f>(Q52/H9)/($B$18*7+$B$21)</f>
+        <f t="shared" si="43"/>
         <v>0.68571428571428572</v>
       </c>
       <c r="U52" s="1">
-        <f t="shared" ref="U52:U60" si="36">(Q52/$H$17)/($B$18*7+$B$21)</f>
+        <f t="shared" ref="U52:U60" si="51">(Q52/$H$17)/($B$18*7+$B$21)</f>
         <v>0.41142857142857148</v>
       </c>
       <c r="V52" s="1">
-        <f>(Q52/H9)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
+        <f t="shared" si="44"/>
         <v>0.40975609756097564</v>
       </c>
       <c r="W52" s="1">
-        <f t="shared" ref="W52:W60" si="37">(Q52/$H$17)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
+        <f t="shared" ref="W52:W60" si="52">(Q52/$H$17)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
         <v>0.24585365853658542</v>
       </c>
       <c r="Y52" s="9" t="s">
         <v>199</v>
       </c>
       <c r="Z52" s="9">
-        <f t="shared" ref="Z52:Z65" si="38">ROUNDUP((AE52*$B$30/100),0)</f>
+        <f t="shared" ref="Z52:Z65" si="53">ROUNDUP((AE52*$B$30/100),0)</f>
         <v>744</v>
       </c>
       <c r="AA52" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="45"/>
         <v>1488</v>
       </c>
       <c r="AB52" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="46"/>
         <v>2976</v>
       </c>
       <c r="AC52" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="47"/>
         <v>4464</v>
       </c>
       <c r="AD52" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="48"/>
         <v>5208</v>
       </c>
       <c r="AE52" s="1">
-        <f t="shared" ref="AE52:AE65" si="39">($H$17*$B$9*$B$18)*(AF52/100)</f>
+        <f t="shared" ref="AE52:AE65" si="54">($H$17*$B$9*$B$18)*(AF52/100)</f>
         <v>14880</v>
       </c>
       <c r="AF52" s="1">
@@ -7530,93 +7663,93 @@
         <v>19</v>
       </c>
       <c r="H53" s="9">
+        <f t="shared" si="49"/>
+        <v>156</v>
+      </c>
+      <c r="I53" s="9">
         <f t="shared" si="34"/>
-        <v>156</v>
-      </c>
-      <c r="I53" s="9">
-        <f t="shared" si="24"/>
         <v>312</v>
       </c>
       <c r="J53" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>624</v>
       </c>
       <c r="K53" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>936</v>
       </c>
       <c r="L53" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>1092</v>
       </c>
       <c r="M53" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>2184</v>
       </c>
       <c r="N53" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="50"/>
         <v>3120</v>
       </c>
       <c r="O53" s="9">
         <v>70</v>
       </c>
       <c r="P53" s="9">
-        <f>(H10*$B$9*$B$18)*(O53/100)+I10</f>
+        <f t="shared" si="39"/>
         <v>3120</v>
       </c>
       <c r="Q53" s="9">
-        <f>P53-I10</f>
+        <f t="shared" si="40"/>
         <v>2184</v>
       </c>
       <c r="R53" s="1">
-        <f>(Q53/H10)/($B$18*7)</f>
+        <f t="shared" si="41"/>
         <v>1.2</v>
       </c>
       <c r="S53" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="42"/>
         <v>0.78</v>
       </c>
       <c r="T53" s="1">
-        <f>(Q53/H10)/($B$18*7+$B$21)</f>
+        <f t="shared" si="43"/>
         <v>0.8</v>
       </c>
       <c r="U53" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="51"/>
         <v>0.52</v>
       </c>
       <c r="V53" s="1">
-        <f>(Q53/H10)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
+        <f t="shared" si="44"/>
         <v>0.47804878048780497</v>
       </c>
       <c r="W53" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="52"/>
         <v>0.31073170731707322</v>
       </c>
       <c r="Y53" s="9" t="s">
         <v>200</v>
       </c>
       <c r="Z53" s="9">
-        <f t="shared" si="38"/>
+        <f t="shared" si="53"/>
         <v>768</v>
       </c>
       <c r="AA53" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="45"/>
         <v>1536</v>
       </c>
       <c r="AB53" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="46"/>
         <v>3072</v>
       </c>
       <c r="AC53" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="47"/>
         <v>4608</v>
       </c>
       <c r="AD53" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="48"/>
         <v>5376</v>
       </c>
       <c r="AE53" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="54"/>
         <v>15360</v>
       </c>
       <c r="AF53" s="1">
@@ -7628,93 +7761,93 @@
         <v>85</v>
       </c>
       <c r="H54" s="9">
+        <f t="shared" si="49"/>
+        <v>185</v>
+      </c>
+      <c r="I54" s="9">
         <f t="shared" si="34"/>
-        <v>185</v>
-      </c>
-      <c r="I54" s="9">
-        <f t="shared" si="24"/>
         <v>370</v>
       </c>
       <c r="J54" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>740</v>
       </c>
       <c r="K54" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>1109</v>
       </c>
       <c r="L54" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>1294</v>
       </c>
       <c r="M54" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>2588</v>
       </c>
       <c r="N54" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="50"/>
         <v>3698</v>
       </c>
       <c r="O54" s="9">
         <v>80</v>
       </c>
       <c r="P54" s="9">
-        <f>(H11*$B$9*$B$18)*(O54/100)+I11</f>
+        <f t="shared" si="39"/>
         <v>3696</v>
       </c>
       <c r="Q54" s="9">
-        <f>P54-I11</f>
+        <f t="shared" si="40"/>
         <v>2688</v>
       </c>
       <c r="R54" s="1">
-        <f>(Q54/H11)/($B$18*7)</f>
+        <f t="shared" si="41"/>
         <v>1.3714285714285714</v>
       </c>
       <c r="S54" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="42"/>
         <v>0.96</v>
       </c>
       <c r="T54" s="1">
-        <f>(Q54/H11)/($B$18*7+$B$21)</f>
+        <f t="shared" si="43"/>
         <v>0.91428571428571426</v>
       </c>
       <c r="U54" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="51"/>
         <v>0.64</v>
       </c>
       <c r="V54" s="1">
-        <f>(Q54/H11)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
+        <f t="shared" si="44"/>
         <v>0.54634146341463419</v>
       </c>
       <c r="W54" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="52"/>
         <v>0.38243902439024391</v>
       </c>
       <c r="Y54" s="9" t="s">
         <v>201</v>
       </c>
       <c r="Z54" s="9">
-        <f t="shared" si="38"/>
+        <f t="shared" si="53"/>
         <v>792</v>
       </c>
       <c r="AA54" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="45"/>
         <v>1584</v>
       </c>
       <c r="AB54" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="46"/>
         <v>3168</v>
       </c>
       <c r="AC54" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="47"/>
         <v>4752</v>
       </c>
       <c r="AD54" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="48"/>
         <v>5544</v>
       </c>
       <c r="AE54" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="54"/>
         <v>15840</v>
       </c>
       <c r="AF54" s="1">
@@ -7726,93 +7859,93 @@
         <v>20</v>
       </c>
       <c r="H55" s="9">
+        <f t="shared" si="49"/>
+        <v>216</v>
+      </c>
+      <c r="I55" s="9">
         <f t="shared" si="34"/>
-        <v>216</v>
-      </c>
-      <c r="I55" s="9">
-        <f t="shared" si="24"/>
         <v>432</v>
       </c>
       <c r="J55" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>864</v>
       </c>
       <c r="K55" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>1296</v>
       </c>
       <c r="L55" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>1512</v>
       </c>
       <c r="M55" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>3024</v>
       </c>
       <c r="N55" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="50"/>
         <v>4320</v>
       </c>
       <c r="O55" s="9">
         <v>90</v>
       </c>
       <c r="P55" s="9">
-        <f>(H12*$B$9*$B$18)*(O55/100)+I12</f>
+        <f t="shared" si="39"/>
         <v>4320</v>
       </c>
       <c r="Q55" s="9">
-        <f>P55-I12</f>
+        <f t="shared" si="40"/>
         <v>3240</v>
       </c>
       <c r="R55" s="1">
-        <f>(Q55/H12)/($B$18*7)</f>
+        <f t="shared" si="41"/>
         <v>1.5428571428571429</v>
       </c>
       <c r="S55" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="42"/>
         <v>1.157142857142857</v>
       </c>
       <c r="T55" s="1">
-        <f>(Q55/H12)/($B$18*7+$B$21)</f>
+        <f t="shared" si="43"/>
         <v>1.0285714285714287</v>
       </c>
       <c r="U55" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="51"/>
         <v>0.77142857142857135</v>
       </c>
       <c r="V55" s="1">
-        <f>(Q55/H12)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
+        <f t="shared" si="44"/>
         <v>0.61463414634146352</v>
       </c>
       <c r="W55" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="52"/>
         <v>0.46097560975609758</v>
       </c>
       <c r="Y55" s="9" t="s">
         <v>202</v>
       </c>
       <c r="Z55" s="9">
-        <f t="shared" si="38"/>
+        <f t="shared" si="53"/>
         <v>816</v>
       </c>
       <c r="AA55" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="45"/>
         <v>1632</v>
       </c>
       <c r="AB55" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="46"/>
         <v>3264</v>
       </c>
       <c r="AC55" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="47"/>
         <v>4896</v>
       </c>
       <c r="AD55" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="48"/>
         <v>5712</v>
       </c>
       <c r="AE55" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="54"/>
         <v>16320</v>
       </c>
       <c r="AF55" s="1">
@@ -7824,93 +7957,93 @@
         <v>21</v>
       </c>
       <c r="H56" s="9">
+        <f t="shared" si="49"/>
+        <v>250</v>
+      </c>
+      <c r="I56" s="9">
         <f t="shared" si="34"/>
-        <v>250</v>
-      </c>
-      <c r="I56" s="9">
-        <f t="shared" si="24"/>
         <v>500</v>
       </c>
       <c r="J56" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>999</v>
       </c>
       <c r="K56" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>1498</v>
       </c>
       <c r="L56" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>1748</v>
       </c>
       <c r="M56" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>3496</v>
       </c>
       <c r="N56" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="50"/>
         <v>4995</v>
       </c>
       <c r="O56" s="9">
         <v>100</v>
       </c>
       <c r="P56" s="9">
-        <f>(H13*$B$9*$B$18)*(O56/100)+I13</f>
+        <f t="shared" si="39"/>
         <v>4992</v>
       </c>
       <c r="Q56" s="9">
-        <f>P56-I13</f>
+        <f t="shared" si="40"/>
         <v>3840</v>
       </c>
       <c r="R56" s="1">
-        <f>(Q56/H13)/($B$18*7)</f>
+        <f t="shared" si="41"/>
         <v>1.7142857142857142</v>
       </c>
       <c r="S56" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="42"/>
         <v>1.3714285714285714</v>
       </c>
       <c r="T56" s="1">
-        <f>(Q56/H13)/($B$18*7+$B$21)</f>
+        <f t="shared" si="43"/>
         <v>1.1428571428571428</v>
       </c>
       <c r="U56" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="51"/>
         <v>0.91428571428571426</v>
       </c>
       <c r="V56" s="1">
-        <f>(Q56/H13)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
+        <f t="shared" si="44"/>
         <v>0.68292682926829273</v>
       </c>
       <c r="W56" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="52"/>
         <v>0.54634146341463419</v>
       </c>
       <c r="Y56" s="9" t="s">
         <v>203</v>
       </c>
       <c r="Z56" s="9">
-        <f t="shared" si="38"/>
+        <f t="shared" si="53"/>
         <v>840</v>
       </c>
       <c r="AA56" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="45"/>
         <v>1680</v>
       </c>
       <c r="AB56" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="46"/>
         <v>3360</v>
       </c>
       <c r="AC56" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="47"/>
         <v>5040</v>
       </c>
       <c r="AD56" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="48"/>
         <v>5880</v>
       </c>
       <c r="AE56" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="54"/>
         <v>16800</v>
       </c>
       <c r="AF56" s="1">
@@ -7922,93 +8055,93 @@
         <v>22</v>
       </c>
       <c r="H57" s="9">
+        <f t="shared" si="49"/>
+        <v>286</v>
+      </c>
+      <c r="I57" s="9">
         <f t="shared" si="34"/>
-        <v>286</v>
-      </c>
-      <c r="I57" s="9">
-        <f t="shared" si="24"/>
         <v>572</v>
       </c>
       <c r="J57" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>1143</v>
       </c>
       <c r="K57" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>1714</v>
       </c>
       <c r="L57" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>2000</v>
       </c>
       <c r="M57" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>4000</v>
       </c>
       <c r="N57" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="50"/>
         <v>5715</v>
       </c>
       <c r="O57" s="9">
         <v>110</v>
       </c>
       <c r="P57" s="9">
-        <f>(H14*$B$9*$B$18)*(O57/100)+I14</f>
+        <f t="shared" si="39"/>
         <v>5712</v>
       </c>
       <c r="Q57" s="9">
-        <f>P57-I14</f>
+        <f t="shared" si="40"/>
         <v>4488</v>
       </c>
       <c r="R57" s="1">
-        <f>(Q57/H14)/($B$18*7)</f>
+        <f t="shared" si="41"/>
         <v>1.8857142857142857</v>
       </c>
       <c r="S57" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="42"/>
         <v>1.602857142857143</v>
       </c>
       <c r="T57" s="1">
-        <f>(Q57/H14)/($B$18*7+$B$21)</f>
+        <f t="shared" si="43"/>
         <v>1.2571428571428571</v>
       </c>
       <c r="U57" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="51"/>
         <v>1.0685714285714287</v>
       </c>
       <c r="V57" s="1">
-        <f>(Q57/H14)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
+        <f t="shared" si="44"/>
         <v>0.75121951219512195</v>
       </c>
       <c r="W57" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="52"/>
         <v>0.63853658536585378</v>
       </c>
       <c r="Y57" s="9" t="s">
         <v>204</v>
       </c>
       <c r="Z57" s="9">
-        <f t="shared" si="38"/>
+        <f t="shared" si="53"/>
         <v>864</v>
       </c>
       <c r="AA57" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="45"/>
         <v>1728</v>
       </c>
       <c r="AB57" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="46"/>
         <v>3456</v>
       </c>
       <c r="AC57" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="47"/>
         <v>5184</v>
       </c>
       <c r="AD57" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="48"/>
         <v>6048</v>
       </c>
       <c r="AE57" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="54"/>
         <v>17280</v>
       </c>
       <c r="AF57" s="1">
@@ -8020,93 +8153,93 @@
         <v>23</v>
       </c>
       <c r="H58" s="9">
+        <f t="shared" si="49"/>
+        <v>324</v>
+      </c>
+      <c r="I58" s="9">
         <f t="shared" si="34"/>
-        <v>324</v>
-      </c>
-      <c r="I58" s="9">
-        <f t="shared" si="24"/>
         <v>648</v>
       </c>
       <c r="J58" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>1296</v>
       </c>
       <c r="K58" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>1944</v>
       </c>
       <c r="L58" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>2268</v>
       </c>
       <c r="M58" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>4536</v>
       </c>
       <c r="N58" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="50"/>
         <v>6480</v>
       </c>
       <c r="O58" s="9">
         <v>120</v>
       </c>
       <c r="P58" s="9">
-        <f>(H15*$B$9*$B$18)*(O58/100)+I15</f>
+        <f t="shared" si="39"/>
         <v>6480</v>
       </c>
       <c r="Q58" s="9">
-        <f>P58-I15</f>
+        <f t="shared" si="40"/>
         <v>5184</v>
       </c>
       <c r="R58" s="1">
-        <f>(Q58/H15)/($B$18*7)</f>
+        <f t="shared" si="41"/>
         <v>2.0571428571428574</v>
       </c>
       <c r="S58" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="42"/>
         <v>1.8514285714285716</v>
       </c>
       <c r="T58" s="1">
-        <f>(Q58/H15)/($B$18*7+$B$21)</f>
+        <f t="shared" si="43"/>
         <v>1.3714285714285714</v>
       </c>
       <c r="U58" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="51"/>
         <v>1.2342857142857144</v>
       </c>
       <c r="V58" s="1">
-        <f>(Q58/H15)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
+        <f t="shared" si="44"/>
         <v>0.81951219512195128</v>
       </c>
       <c r="W58" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="52"/>
         <v>0.7375609756097562</v>
       </c>
       <c r="Y58" s="9" t="s">
         <v>205</v>
       </c>
       <c r="Z58" s="9">
-        <f t="shared" si="38"/>
+        <f t="shared" si="53"/>
         <v>888</v>
       </c>
       <c r="AA58" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="45"/>
         <v>1776</v>
       </c>
       <c r="AB58" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="46"/>
         <v>3552</v>
       </c>
       <c r="AC58" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="47"/>
         <v>5328</v>
       </c>
       <c r="AD58" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="48"/>
         <v>6216</v>
       </c>
       <c r="AE58" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="54"/>
         <v>17760</v>
       </c>
       <c r="AF58" s="1">
@@ -8118,89 +8251,89 @@
         <v>24</v>
       </c>
       <c r="H59" s="9">
+        <f t="shared" si="49"/>
+        <v>365</v>
+      </c>
+      <c r="I59" s="9">
         <f t="shared" si="34"/>
-        <v>365</v>
-      </c>
-      <c r="I59" s="9">
-        <f t="shared" si="24"/>
         <v>730</v>
       </c>
       <c r="J59" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>1460</v>
       </c>
       <c r="K59" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>2189</v>
       </c>
       <c r="L59" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>2554</v>
       </c>
       <c r="M59" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>5108</v>
       </c>
       <c r="N59" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="50"/>
         <v>7298</v>
       </c>
       <c r="O59" s="9">
         <v>130</v>
       </c>
       <c r="P59" s="9">
-        <f>(H16*$B$9*$B$18)*(O59/100)+I16</f>
+        <f t="shared" si="39"/>
         <v>7296</v>
       </c>
       <c r="Q59" s="9">
-        <f>P59-I16</f>
+        <f t="shared" si="40"/>
         <v>5928</v>
       </c>
       <c r="R59" s="1">
-        <f>(Q59/H16)/($B$18*7)</f>
+        <f t="shared" si="41"/>
         <v>2.2285714285714286</v>
       </c>
       <c r="S59" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="42"/>
         <v>2.117142857142857</v>
       </c>
       <c r="T59" s="1">
-        <f>(Q59/H16)/($B$18*7+$B$21)</f>
+        <f t="shared" si="43"/>
         <v>1.4857142857142858</v>
       </c>
       <c r="U59" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="51"/>
         <v>1.4114285714285715</v>
       </c>
       <c r="V59" s="1">
-        <f>(Q59/H16)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
+        <f t="shared" si="44"/>
         <v>0.88780487804878061</v>
       </c>
       <c r="W59" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="52"/>
         <v>0.84341463414634155</v>
       </c>
       <c r="Y59" s="9" t="s">
         <v>206</v>
       </c>
       <c r="Z59" s="9">
-        <f t="shared" si="38"/>
+        <f t="shared" si="53"/>
         <v>1200</v>
       </c>
       <c r="AA59" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="45"/>
         <v>2400</v>
       </c>
       <c r="AB59" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="46"/>
         <v>4800</v>
       </c>
       <c r="AC59" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="47"/>
         <v>7200</v>
       </c>
       <c r="AD59" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="48"/>
         <v>8400</v>
       </c>
       <c r="AE59" s="1">
@@ -8216,50 +8349,50 @@
         <v>25</v>
       </c>
       <c r="H60" s="9">
+        <f t="shared" si="49"/>
+        <v>408</v>
+      </c>
+      <c r="I60" s="9">
         <f t="shared" si="34"/>
-        <v>408</v>
-      </c>
-      <c r="I60" s="9">
-        <f t="shared" si="24"/>
         <v>816</v>
       </c>
       <c r="J60" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>1632</v>
       </c>
       <c r="K60" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>2448</v>
       </c>
       <c r="L60" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>2856</v>
       </c>
       <c r="M60" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>5712</v>
       </c>
       <c r="N60" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="50"/>
         <v>8160</v>
       </c>
       <c r="O60" s="9">
         <v>140</v>
       </c>
       <c r="P60" s="9">
-        <f>(H17*$B$9*$B$18)*(O60/100)+I17</f>
+        <f t="shared" si="39"/>
         <v>8160</v>
       </c>
       <c r="Q60" s="9">
-        <f>P60-I17</f>
+        <f t="shared" si="40"/>
         <v>6720</v>
       </c>
       <c r="R60" s="1">
-        <f>(Q60/H17)/($B$18*7)</f>
+        <f t="shared" si="41"/>
         <v>2.4</v>
       </c>
       <c r="S60" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="42"/>
         <v>2.4</v>
       </c>
       <c r="T60" s="1">
@@ -8267,42 +8400,42 @@
         <v>0.95609756097560994</v>
       </c>
       <c r="U60" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="51"/>
         <v>1.6</v>
       </c>
       <c r="V60" s="1">
-        <f>(Q60/H17)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
+        <f t="shared" si="44"/>
         <v>0.95609756097560994</v>
       </c>
       <c r="W60" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="52"/>
         <v>0.95609756097560994</v>
       </c>
       <c r="Y60" s="9" t="s">
         <v>207</v>
       </c>
       <c r="Z60" s="9">
-        <f t="shared" si="38"/>
+        <f t="shared" si="53"/>
         <v>1248</v>
       </c>
       <c r="AA60" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="45"/>
         <v>2496</v>
       </c>
       <c r="AB60" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="46"/>
         <v>4992</v>
       </c>
       <c r="AC60" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="47"/>
         <v>7488</v>
       </c>
       <c r="AD60" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="48"/>
         <v>8736</v>
       </c>
       <c r="AE60" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="54"/>
         <v>24960</v>
       </c>
       <c r="AF60" s="1">
@@ -8334,27 +8467,27 @@
         <v>208</v>
       </c>
       <c r="Z61" s="9">
-        <f t="shared" si="38"/>
+        <f t="shared" si="53"/>
         <v>1296</v>
       </c>
       <c r="AA61" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="45"/>
         <v>2592</v>
       </c>
       <c r="AB61" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="46"/>
         <v>5184</v>
       </c>
       <c r="AC61" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="47"/>
         <v>7776</v>
       </c>
       <c r="AD61" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="48"/>
         <v>9072</v>
       </c>
       <c r="AE61" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="54"/>
         <v>25920</v>
       </c>
       <c r="AF61" s="1">
@@ -8370,23 +8503,23 @@
         <v>6.8571428571428568</v>
       </c>
       <c r="S62" s="23">
-        <f t="shared" ref="S62:W62" si="40">SUM(S63:S64)</f>
+        <f t="shared" ref="S62:W62" si="55">SUM(S63:S64)</f>
         <v>6.7012987012987013</v>
       </c>
       <c r="T62" s="23">
-        <f t="shared" si="40"/>
+        <f t="shared" si="55"/>
         <v>2.7317073170731709</v>
       </c>
       <c r="U62" s="23">
-        <f t="shared" si="40"/>
+        <f t="shared" si="55"/>
         <v>4.4675324675324681</v>
       </c>
       <c r="V62" s="23">
-        <f t="shared" si="40"/>
+        <f t="shared" si="55"/>
         <v>2.7317073170731709</v>
       </c>
       <c r="W62" s="23">
-        <f t="shared" si="40"/>
+        <f t="shared" si="55"/>
         <v>2.6696230598669626</v>
       </c>
       <c r="X62"/>
@@ -8394,27 +8527,27 @@
         <v>209</v>
       </c>
       <c r="Z62" s="9">
-        <f t="shared" si="38"/>
+        <f t="shared" si="53"/>
         <v>1440</v>
       </c>
       <c r="AA62" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="45"/>
         <v>2880</v>
       </c>
       <c r="AB62" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="46"/>
         <v>5760</v>
       </c>
       <c r="AC62" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="47"/>
         <v>8640</v>
       </c>
       <c r="AD62" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="48"/>
         <v>10080</v>
       </c>
       <c r="AE62" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="54"/>
         <v>28800</v>
       </c>
       <c r="AF62" s="1">
@@ -8426,31 +8559,31 @@
         <v>105</v>
       </c>
       <c r="H63" s="9">
-        <f t="shared" ref="H63:H73" si="41">ROUNDUP((P63*$B$30/100),0)</f>
+        <f t="shared" ref="H63:H73" si="56">ROUNDUP((P63*$B$30/100),0)</f>
         <v>580</v>
       </c>
       <c r="I63" s="9">
-        <f t="shared" ref="I63:I75" si="42">ROUNDUP((P63*$B$31/100),0)</f>
+        <f t="shared" ref="I63:I75" si="57">ROUNDUP((P63*$B$31/100),0)</f>
         <v>1160</v>
       </c>
       <c r="J63" s="9">
-        <f t="shared" ref="J63:J75" si="43">ROUNDUP((P63*$B$32/100),0)</f>
+        <f t="shared" ref="J63:J75" si="58">ROUNDUP((P63*$B$32/100),0)</f>
         <v>2319</v>
       </c>
       <c r="K63" s="9">
-        <f t="shared" ref="K63:K75" si="44">ROUNDUP((P63*$B$33/100),0)</f>
+        <f t="shared" ref="K63:K75" si="59">ROUNDUP((P63*$B$33/100),0)</f>
         <v>3478</v>
       </c>
       <c r="L63" s="9">
-        <f t="shared" ref="L63:L75" si="45">ROUNDUP((P63*$B$34/100),0)</f>
+        <f t="shared" ref="L63:L75" si="60">ROUNDUP((P63*$B$34/100),0)</f>
         <v>4058</v>
       </c>
       <c r="M63" s="9">
-        <f t="shared" ref="M63:M76" si="46">L63*$B$43</f>
+        <f t="shared" ref="M63:M76" si="61">L63*$B$43</f>
         <v>8116</v>
       </c>
       <c r="N63" s="9">
-        <f t="shared" ref="N63" si="47">SUM(H63:L63)</f>
+        <f t="shared" ref="N63" si="62">SUM(H63:L63)</f>
         <v>11595</v>
       </c>
       <c r="O63" s="9">
@@ -8492,27 +8625,27 @@
         <v>210</v>
       </c>
       <c r="Z63" s="9">
-        <f t="shared" si="38"/>
+        <f t="shared" si="53"/>
         <v>1488</v>
       </c>
       <c r="AA63" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="45"/>
         <v>2976</v>
       </c>
       <c r="AB63" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="46"/>
         <v>5952</v>
       </c>
       <c r="AC63" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="47"/>
         <v>8928</v>
       </c>
       <c r="AD63" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="48"/>
         <v>10416</v>
       </c>
       <c r="AE63" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="54"/>
         <v>29760</v>
       </c>
       <c r="AF63" s="1">
@@ -8524,31 +8657,31 @@
         <v>106</v>
       </c>
       <c r="H64" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="56"/>
         <v>608</v>
       </c>
       <c r="I64" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="57"/>
         <v>1215</v>
       </c>
       <c r="J64" s="9">
-        <f t="shared" si="43"/>
+        <f t="shared" si="58"/>
         <v>2429</v>
       </c>
       <c r="K64" s="9">
-        <f t="shared" si="44"/>
+        <f t="shared" si="59"/>
         <v>3644</v>
       </c>
       <c r="L64" s="9">
-        <f t="shared" si="45"/>
+        <f t="shared" si="60"/>
         <v>4251</v>
       </c>
       <c r="M64" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="61"/>
         <v>8502</v>
       </c>
       <c r="N64" s="9">
-        <f t="shared" ref="N64:N69" si="48">SUM(H64:L64)</f>
+        <f t="shared" ref="N64:N69" si="63">SUM(H64:L64)</f>
         <v>12147</v>
       </c>
       <c r="O64" s="9">
@@ -8590,27 +8723,27 @@
         <v>211</v>
       </c>
       <c r="Z64" s="9">
-        <f t="shared" si="38"/>
+        <f t="shared" si="53"/>
         <v>1536</v>
       </c>
       <c r="AA64" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="45"/>
         <v>3072</v>
       </c>
       <c r="AB64" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="46"/>
         <v>6144</v>
       </c>
       <c r="AC64" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="47"/>
         <v>9216</v>
       </c>
       <c r="AD64" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="48"/>
         <v>10752</v>
       </c>
       <c r="AE64" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="54"/>
         <v>30720</v>
       </c>
       <c r="AF64" s="1">
@@ -8622,31 +8755,31 @@
         <v>172</v>
       </c>
       <c r="H65" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="56"/>
         <v>635</v>
       </c>
       <c r="I65" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="57"/>
         <v>1270</v>
       </c>
       <c r="J65" s="9">
-        <f t="shared" si="43"/>
+        <f t="shared" si="58"/>
         <v>2540</v>
       </c>
       <c r="K65" s="9">
-        <f t="shared" si="44"/>
+        <f t="shared" si="59"/>
         <v>3809</v>
       </c>
       <c r="L65" s="9">
-        <f t="shared" si="45"/>
+        <f t="shared" si="60"/>
         <v>4444</v>
       </c>
       <c r="M65" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="61"/>
         <v>8888</v>
       </c>
       <c r="N65" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="63"/>
         <v>12698</v>
       </c>
       <c r="O65" s="9">
@@ -8660,27 +8793,27 @@
         <v>212</v>
       </c>
       <c r="Z65" s="9">
-        <f t="shared" si="38"/>
+        <f t="shared" si="53"/>
         <v>1584</v>
       </c>
       <c r="AA65" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="45"/>
         <v>3168</v>
       </c>
       <c r="AB65" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="46"/>
         <v>6336</v>
       </c>
       <c r="AC65" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="47"/>
         <v>9504</v>
       </c>
       <c r="AD65" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="48"/>
         <v>11088</v>
       </c>
       <c r="AE65" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="54"/>
         <v>31680</v>
       </c>
       <c r="AF65" s="1">
@@ -8692,31 +8825,31 @@
         <v>175</v>
       </c>
       <c r="H66" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="56"/>
         <v>692</v>
       </c>
       <c r="I66" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="57"/>
         <v>1383</v>
       </c>
       <c r="J66" s="9">
-        <f t="shared" si="43"/>
+        <f t="shared" si="58"/>
         <v>2765</v>
       </c>
       <c r="K66" s="9">
-        <f t="shared" si="44"/>
+        <f t="shared" si="59"/>
         <v>4148</v>
       </c>
       <c r="L66" s="9">
-        <f t="shared" si="45"/>
+        <f t="shared" si="60"/>
         <v>4839</v>
       </c>
       <c r="M66" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="61"/>
         <v>9678</v>
       </c>
       <c r="N66" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="63"/>
         <v>13827</v>
       </c>
       <c r="O66" s="9">
@@ -8732,31 +8865,31 @@
         <v>195</v>
       </c>
       <c r="H67" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="56"/>
         <v>750</v>
       </c>
       <c r="I67" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="57"/>
         <v>1500</v>
       </c>
       <c r="J67" s="9">
-        <f t="shared" si="43"/>
+        <f t="shared" si="58"/>
         <v>3000</v>
       </c>
       <c r="K67" s="9">
-        <f t="shared" si="44"/>
+        <f t="shared" si="59"/>
         <v>4500</v>
       </c>
       <c r="L67" s="9">
-        <f t="shared" si="45"/>
+        <f t="shared" si="60"/>
         <v>5250</v>
       </c>
       <c r="M67" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="61"/>
         <v>10500</v>
       </c>
       <c r="N67" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="63"/>
         <v>15000</v>
       </c>
       <c r="O67" s="9">
@@ -8772,31 +8905,31 @@
         <v>246</v>
       </c>
       <c r="H68" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="56"/>
         <v>843</v>
       </c>
       <c r="I68" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="57"/>
         <v>1685</v>
       </c>
       <c r="J68" s="9">
-        <f t="shared" si="43"/>
+        <f t="shared" si="58"/>
         <v>3370</v>
       </c>
       <c r="K68" s="9">
-        <f t="shared" si="44"/>
+        <f t="shared" si="59"/>
         <v>5055</v>
       </c>
       <c r="L68" s="9">
-        <f t="shared" si="45"/>
+        <f t="shared" si="60"/>
         <v>5897</v>
       </c>
       <c r="M68" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="61"/>
         <v>11794</v>
       </c>
       <c r="N68" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="63"/>
         <v>16850</v>
       </c>
       <c r="O68" s="9">
@@ -8812,31 +8945,31 @@
         <v>313</v>
       </c>
       <c r="H69" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="56"/>
         <v>940</v>
       </c>
       <c r="I69" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="57"/>
         <v>1880</v>
       </c>
       <c r="J69" s="9">
-        <f t="shared" si="43"/>
+        <f t="shared" si="58"/>
         <v>3759</v>
       </c>
       <c r="K69" s="9">
-        <f t="shared" si="44"/>
+        <f t="shared" si="59"/>
         <v>5638</v>
       </c>
       <c r="L69" s="9">
-        <f t="shared" si="45"/>
+        <f t="shared" si="60"/>
         <v>6578</v>
       </c>
       <c r="M69" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="61"/>
         <v>13156</v>
       </c>
       <c r="N69" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="63"/>
         <v>18795</v>
       </c>
       <c r="O69" s="9">
@@ -8855,31 +8988,31 @@
         <v>368</v>
       </c>
       <c r="H70" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="56"/>
         <v>1042</v>
       </c>
       <c r="I70" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="57"/>
         <v>2084</v>
       </c>
       <c r="J70" s="9">
-        <f t="shared" si="43"/>
+        <f t="shared" si="58"/>
         <v>4167</v>
       </c>
       <c r="K70" s="9">
-        <f t="shared" si="44"/>
+        <f t="shared" si="59"/>
         <v>6250</v>
       </c>
       <c r="L70" s="9">
-        <f t="shared" si="45"/>
+        <f t="shared" si="60"/>
         <v>7292</v>
       </c>
       <c r="M70" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="61"/>
         <v>14584</v>
       </c>
       <c r="N70" s="9">
-        <f t="shared" ref="N70" si="49">SUM(H70:L70)</f>
+        <f t="shared" ref="N70" si="64">SUM(H70:L70)</f>
         <v>20835</v>
       </c>
       <c r="O70" s="9">
@@ -8919,31 +9052,31 @@
         <v>375</v>
       </c>
       <c r="H71" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="56"/>
         <v>1149</v>
       </c>
       <c r="I71" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="57"/>
         <v>2297</v>
       </c>
       <c r="J71" s="9">
-        <f t="shared" si="43"/>
+        <f t="shared" si="58"/>
         <v>4594</v>
       </c>
       <c r="K71" s="9">
-        <f t="shared" si="44"/>
+        <f t="shared" si="59"/>
         <v>6891</v>
       </c>
       <c r="L71" s="9">
-        <f t="shared" si="45"/>
+        <f t="shared" si="60"/>
         <v>8039</v>
       </c>
       <c r="M71" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="61"/>
         <v>16078</v>
       </c>
       <c r="N71" s="9">
-        <f t="shared" ref="N71" si="50">SUM(H71:L71)</f>
+        <f t="shared" ref="N71" si="65">SUM(H71:L71)</f>
         <v>22970</v>
       </c>
       <c r="O71" s="9">
@@ -8960,23 +9093,23 @@
         <v>0.01</v>
       </c>
       <c r="AA71" s="9">
-        <f t="shared" ref="AA71:AA78" si="51">ROUNDUP(((Z51/$B$39)*$B$40)*((100+AF71)/100),0)/100</f>
+        <f t="shared" ref="AA71:AA78" si="66">ROUNDUP(((Z51/$B$39)*$B$40)*((100+AF71)/100),0)/100</f>
         <v>0.22</v>
       </c>
       <c r="AB71" s="9">
-        <f t="shared" ref="AB71:AB78" si="52">ROUNDUP(((AA51/$B$39)*$B$40)*((100+AF71)/100),0)/100</f>
+        <f t="shared" ref="AB71:AB78" si="67">ROUNDUP(((AA51/$B$39)*$B$40)*((100+AF71)/100),0)/100</f>
         <v>0.44</v>
       </c>
       <c r="AC71" s="9">
-        <f t="shared" ref="AC71:AC78" si="53">ROUNDUP(((AB51/$B$39)*$B$40)*((100+AF71)/100),0)/100</f>
+        <f t="shared" ref="AC71:AC78" si="68">ROUNDUP(((AB51/$B$39)*$B$40)*((100+AF71)/100),0)/100</f>
         <v>0.87</v>
       </c>
       <c r="AD71" s="9">
-        <f t="shared" ref="AD71:AD78" si="54">ROUNDUP(((AC51/$B$39)*$B$40)*((100+AF71)/100),0)/100</f>
+        <f t="shared" ref="AD71:AD78" si="69">ROUNDUP(((AC51/$B$39)*$B$40)*((100+AF71)/100),0)/100</f>
         <v>1.3</v>
       </c>
       <c r="AE71" s="9">
-        <f t="shared" ref="AE71:AE78" si="55">ROUNDUP(((AD51/$B$39)*$B$40)*((100+AF71)/100),0)/100</f>
+        <f t="shared" ref="AE71:AE78" si="70">ROUNDUP(((AD51/$B$39)*$B$40)*((100+AF71)/100),0)/100</f>
         <v>1.52</v>
       </c>
       <c r="AF71" s="1">
@@ -8988,31 +9121,31 @@
         <v>387</v>
       </c>
       <c r="H72" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="56"/>
         <v>1260</v>
       </c>
       <c r="I72" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="57"/>
         <v>2520</v>
       </c>
       <c r="J72" s="9">
-        <f t="shared" si="43"/>
+        <f t="shared" si="58"/>
         <v>5040</v>
       </c>
       <c r="K72" s="9">
-        <f t="shared" si="44"/>
+        <f t="shared" si="59"/>
         <v>7560</v>
       </c>
       <c r="L72" s="9">
-        <f t="shared" si="45"/>
+        <f t="shared" si="60"/>
         <v>8820</v>
       </c>
       <c r="M72" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="61"/>
         <v>17640</v>
       </c>
       <c r="N72" s="9">
-        <f t="shared" ref="N72" si="56">SUM(H72:L72)</f>
+        <f t="shared" ref="N72" si="71">SUM(H72:L72)</f>
         <v>25200</v>
       </c>
       <c r="O72" s="9">
@@ -9029,23 +9162,23 @@
         <v>0.02</v>
       </c>
       <c r="AA72" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="66"/>
         <v>0.24</v>
       </c>
       <c r="AB72" s="9">
-        <f t="shared" si="52"/>
+        <f t="shared" si="67"/>
         <v>0.47</v>
       </c>
       <c r="AC72" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="68"/>
         <v>0.93</v>
       </c>
       <c r="AD72" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="69"/>
         <v>1.4</v>
       </c>
       <c r="AE72" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="70"/>
         <v>1.63</v>
       </c>
       <c r="AF72" s="1">
@@ -9057,31 +9190,31 @@
         <v>418</v>
       </c>
       <c r="H73" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="56"/>
         <v>1377</v>
       </c>
       <c r="I73" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="57"/>
         <v>2753</v>
       </c>
       <c r="J73" s="9">
-        <f t="shared" si="43"/>
+        <f t="shared" si="58"/>
         <v>5506</v>
       </c>
       <c r="K73" s="9">
-        <f t="shared" si="44"/>
+        <f t="shared" si="59"/>
         <v>8259</v>
       </c>
       <c r="L73" s="9">
-        <f t="shared" si="45"/>
+        <f t="shared" si="60"/>
         <v>9635</v>
       </c>
       <c r="M73" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="61"/>
         <v>19270</v>
       </c>
       <c r="N73" s="9">
-        <f t="shared" ref="N73" si="57">SUM(H73:L73)</f>
+        <f t="shared" ref="N73" si="72">SUM(H73:L73)</f>
         <v>27530</v>
       </c>
       <c r="O73" s="9">
@@ -9098,23 +9231,23 @@
         <v>0.03</v>
       </c>
       <c r="AA73" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="66"/>
         <v>0.25</v>
       </c>
       <c r="AB73" s="9">
-        <f t="shared" si="52"/>
+        <f t="shared" si="67"/>
         <v>0.5</v>
       </c>
       <c r="AC73" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="68"/>
         <v>1</v>
       </c>
       <c r="AD73" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="69"/>
         <v>1.5</v>
       </c>
       <c r="AE73" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="70"/>
         <v>1.75</v>
       </c>
       <c r="AF73" s="1">
@@ -9126,31 +9259,31 @@
         <v>431</v>
       </c>
       <c r="H74" s="9">
-        <f t="shared" ref="H74:H75" si="58">ROUNDUP((P74*$B$30/100),0)</f>
+        <f t="shared" ref="H74:H75" si="73">ROUNDUP((P74*$B$30/100),0)</f>
         <v>1545</v>
       </c>
       <c r="I74" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="57"/>
         <v>3089</v>
       </c>
       <c r="J74" s="9">
-        <f t="shared" si="43"/>
+        <f t="shared" si="58"/>
         <v>6178</v>
       </c>
       <c r="K74" s="9">
-        <f t="shared" si="44"/>
+        <f t="shared" si="59"/>
         <v>9267</v>
       </c>
       <c r="L74" s="9">
-        <f t="shared" si="45"/>
+        <f t="shared" si="60"/>
         <v>10811</v>
       </c>
       <c r="M74" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="61"/>
         <v>21622</v>
       </c>
       <c r="N74" s="9">
-        <f t="shared" ref="N74" si="59">SUM(H74:L74)</f>
+        <f t="shared" ref="N74" si="74">SUM(H74:L74)</f>
         <v>30890</v>
       </c>
       <c r="O74" s="9">
@@ -9167,23 +9300,23 @@
         <v>0.04</v>
       </c>
       <c r="AA74" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="66"/>
         <v>0.27</v>
       </c>
       <c r="AB74" s="9">
-        <f t="shared" si="52"/>
+        <f t="shared" si="67"/>
         <v>0.54</v>
       </c>
       <c r="AC74" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="68"/>
         <v>1.07</v>
       </c>
       <c r="AD74" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="69"/>
         <v>1.6</v>
       </c>
       <c r="AE74" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="70"/>
         <v>1.87</v>
       </c>
       <c r="AF74" s="1">
@@ -9195,31 +9328,31 @@
         <v>451</v>
       </c>
       <c r="H75" s="9">
+        <f t="shared" si="73"/>
+        <v>1722</v>
+      </c>
+      <c r="I75" s="9">
+        <f t="shared" si="57"/>
+        <v>3444</v>
+      </c>
+      <c r="J75" s="9">
         <f t="shared" si="58"/>
-        <v>1722</v>
-      </c>
-      <c r="I75" s="9">
-        <f t="shared" si="42"/>
-        <v>3444</v>
-      </c>
-      <c r="J75" s="9">
-        <f t="shared" si="43"/>
         <v>6888</v>
       </c>
       <c r="K75" s="9">
-        <f t="shared" si="44"/>
+        <f t="shared" si="59"/>
         <v>10332</v>
       </c>
       <c r="L75" s="9">
-        <f t="shared" si="45"/>
+        <f t="shared" si="60"/>
         <v>12054</v>
       </c>
       <c r="M75" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="61"/>
         <v>24108</v>
       </c>
       <c r="N75" s="9">
-        <f t="shared" ref="N75:N76" si="60">SUM(H75:L75)</f>
+        <f t="shared" ref="N75:N76" si="75">SUM(H75:L75)</f>
         <v>34440</v>
       </c>
       <c r="O75" s="9">
@@ -9236,23 +9369,23 @@
         <v>0.05</v>
       </c>
       <c r="AA75" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="66"/>
         <v>0.3</v>
       </c>
       <c r="AB75" s="9">
-        <f t="shared" si="52"/>
+        <f t="shared" si="67"/>
         <v>0.59</v>
       </c>
       <c r="AC75" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="68"/>
         <v>1.18</v>
       </c>
       <c r="AD75" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="69"/>
         <v>1.77</v>
       </c>
       <c r="AE75" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="70"/>
         <v>2.06</v>
       </c>
       <c r="AF75" s="1">
@@ -9264,31 +9397,31 @@
         <v>464</v>
       </c>
       <c r="H76" s="9">
-        <f t="shared" ref="H76:H77" si="61">ROUNDUP((P76*$B$30/100),0)</f>
+        <f t="shared" ref="H76:H77" si="76">ROUNDUP((P76*$B$30/100),0)</f>
         <v>1910</v>
       </c>
       <c r="I76" s="9">
-        <f t="shared" ref="I76:I77" si="62">ROUNDUP((P76*$B$31/100),0)</f>
+        <f t="shared" ref="I76:I77" si="77">ROUNDUP((P76*$B$31/100),0)</f>
         <v>3819</v>
       </c>
       <c r="J76" s="9">
-        <f t="shared" ref="J76:J77" si="63">ROUNDUP((P76*$B$32/100),0)</f>
+        <f t="shared" ref="J76:J77" si="78">ROUNDUP((P76*$B$32/100),0)</f>
         <v>7637</v>
       </c>
       <c r="K76" s="9">
-        <f t="shared" ref="K76:K77" si="64">ROUNDUP((P76*$B$33/100),0)</f>
+        <f t="shared" ref="K76:K77" si="79">ROUNDUP((P76*$B$33/100),0)</f>
         <v>11456</v>
       </c>
       <c r="L76" s="9">
-        <f t="shared" ref="L76:L77" si="65">ROUNDUP((P76*$B$34/100),0)</f>
+        <f t="shared" ref="L76:L77" si="80">ROUNDUP((P76*$B$34/100),0)</f>
         <v>13365</v>
       </c>
       <c r="M76" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="61"/>
         <v>26730</v>
       </c>
       <c r="N76" s="9">
-        <f t="shared" si="60"/>
+        <f t="shared" si="75"/>
         <v>38187</v>
       </c>
       <c r="O76" s="9">
@@ -9305,23 +9438,23 @@
         <v>0.06</v>
       </c>
       <c r="AA76" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="66"/>
         <v>0.33</v>
       </c>
       <c r="AB76" s="9">
-        <f t="shared" si="52"/>
+        <f t="shared" si="67"/>
         <v>0.65</v>
       </c>
       <c r="AC76" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="68"/>
         <v>1.3</v>
       </c>
       <c r="AD76" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="69"/>
         <v>1.94</v>
       </c>
       <c r="AE76" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="70"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="AF76" s="1">
@@ -9333,31 +9466,31 @@
         <v>473</v>
       </c>
       <c r="H77" s="9">
-        <f t="shared" si="61"/>
+        <f t="shared" si="76"/>
         <v>2106</v>
       </c>
       <c r="I77" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="77"/>
         <v>4212</v>
       </c>
       <c r="J77" s="9">
-        <f t="shared" si="63"/>
+        <f t="shared" si="78"/>
         <v>8424</v>
       </c>
       <c r="K77" s="9">
-        <f t="shared" si="64"/>
+        <f t="shared" si="79"/>
         <v>12636</v>
       </c>
       <c r="L77" s="9">
-        <f t="shared" si="65"/>
+        <f t="shared" si="80"/>
         <v>14742</v>
       </c>
       <c r="M77" s="9">
-        <f t="shared" ref="M77:M78" si="66">L77*$B$43</f>
+        <f t="shared" ref="M77:M78" si="81">L77*$B$43</f>
         <v>29484</v>
       </c>
       <c r="N77" s="9">
-        <f t="shared" ref="N77:N78" si="67">SUM(H77:L77)</f>
+        <f t="shared" ref="N77:N78" si="82">SUM(H77:L77)</f>
         <v>42120</v>
       </c>
       <c r="O77" s="9">
@@ -9374,23 +9507,23 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AA77" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="66"/>
         <v>0.36</v>
       </c>
       <c r="AB77" s="9">
-        <f t="shared" si="52"/>
+        <f t="shared" si="67"/>
         <v>0.71</v>
       </c>
       <c r="AC77" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="68"/>
         <v>1.42</v>
       </c>
       <c r="AD77" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="69"/>
         <v>2.12</v>
       </c>
       <c r="AE77" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="70"/>
         <v>2.4700000000000002</v>
       </c>
       <c r="AF77" s="1">
@@ -9402,31 +9535,31 @@
         <v>489</v>
       </c>
       <c r="H78" s="9">
-        <f t="shared" ref="H78:H79" si="68">ROUNDUP((P78*$B$30/100),0)</f>
+        <f t="shared" ref="H78:H79" si="83">ROUNDUP((P78*$B$30/100),0)</f>
         <v>2313</v>
       </c>
       <c r="I78" s="9">
-        <f t="shared" ref="I78:I79" si="69">ROUNDUP((P78*$B$31/100),0)</f>
+        <f t="shared" ref="I78:I79" si="84">ROUNDUP((P78*$B$31/100),0)</f>
         <v>4625</v>
       </c>
       <c r="J78" s="9">
-        <f t="shared" ref="J78:J79" si="70">ROUNDUP((P78*$B$32/100),0)</f>
+        <f t="shared" ref="J78:J79" si="85">ROUNDUP((P78*$B$32/100),0)</f>
         <v>9250</v>
       </c>
       <c r="K78" s="9">
-        <f t="shared" ref="K78:K79" si="71">ROUNDUP((P78*$B$33/100),0)</f>
+        <f t="shared" ref="K78:K79" si="86">ROUNDUP((P78*$B$33/100),0)</f>
         <v>13875</v>
       </c>
       <c r="L78" s="9">
-        <f t="shared" ref="L78:L79" si="72">ROUNDUP((P78*$B$34/100),0)</f>
+        <f t="shared" ref="L78:L79" si="87">ROUNDUP((P78*$B$34/100),0)</f>
         <v>16187</v>
       </c>
       <c r="M78" s="9">
-        <f t="shared" si="66"/>
+        <f t="shared" si="81"/>
         <v>32374</v>
       </c>
       <c r="N78" s="9">
-        <f t="shared" si="67"/>
+        <f t="shared" si="82"/>
         <v>46250</v>
       </c>
       <c r="O78" s="9">
@@ -9443,23 +9576,23 @@
         <v>0.08</v>
       </c>
       <c r="AA78" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="66"/>
         <v>0.4</v>
       </c>
       <c r="AB78" s="9">
-        <f t="shared" si="52"/>
+        <f t="shared" si="67"/>
         <v>0.79</v>
       </c>
       <c r="AC78" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="68"/>
         <v>1.58</v>
       </c>
       <c r="AD78" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="69"/>
         <v>2.37</v>
       </c>
       <c r="AE78" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="70"/>
         <v>2.76</v>
       </c>
       <c r="AF78" s="1">
@@ -9471,31 +9604,31 @@
         <v>490</v>
       </c>
       <c r="H79" s="9">
-        <f t="shared" si="68"/>
+        <f t="shared" si="83"/>
         <v>2529</v>
       </c>
       <c r="I79" s="9">
-        <f t="shared" si="69"/>
+        <f t="shared" si="84"/>
         <v>5057</v>
       </c>
       <c r="J79" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="85"/>
         <v>10114</v>
       </c>
       <c r="K79" s="9">
-        <f t="shared" si="71"/>
+        <f t="shared" si="86"/>
         <v>15171</v>
       </c>
       <c r="L79" s="9">
-        <f t="shared" si="72"/>
+        <f t="shared" si="87"/>
         <v>17699</v>
       </c>
       <c r="M79" s="9">
-        <f t="shared" ref="M79:M80" si="73">L79*$B$43</f>
+        <f t="shared" ref="M79:M80" si="88">L79*$B$43</f>
         <v>35398</v>
       </c>
       <c r="N79" s="9">
-        <f t="shared" ref="N79:N80" si="74">SUM(H79:L79)</f>
+        <f t="shared" ref="N79:N80" si="89">SUM(H79:L79)</f>
         <v>50570</v>
       </c>
       <c r="O79" s="9">
@@ -9512,23 +9645,23 @@
         <v>0.09</v>
       </c>
       <c r="AA79" s="9">
-        <f t="shared" ref="AA79:AA85" si="75">ROUNDUP(((Z59/$B$39)*$B$40)*((100+AF79)/100),0)/100</f>
+        <f t="shared" ref="AA79:AA85" si="90">ROUNDUP(((Z59/$B$39)*$B$40)*((100+AF79)/100),0)/100</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="AB79" s="9">
-        <f t="shared" ref="AB79:AB85" si="76">ROUNDUP(((AA59/$B$39)*$B$40)*((100+AF79)/100),0)/100</f>
+        <f t="shared" ref="AB79:AB85" si="91">ROUNDUP(((AA59/$B$39)*$B$40)*((100+AF79)/100),0)/100</f>
         <v>1.1599999999999999</v>
       </c>
       <c r="AC79" s="9">
-        <f t="shared" ref="AC79:AC85" si="77">ROUNDUP(((AB59/$B$39)*$B$40)*((100+AF79)/100),0)/100</f>
+        <f t="shared" ref="AC79:AC85" si="92">ROUNDUP(((AB59/$B$39)*$B$40)*((100+AF79)/100),0)/100</f>
         <v>2.31</v>
       </c>
       <c r="AD79" s="9">
-        <f t="shared" ref="AD79:AD85" si="78">ROUNDUP(((AC59/$B$39)*$B$40)*((100+AF79)/100),0)/100</f>
+        <f t="shared" ref="AD79:AD85" si="93">ROUNDUP(((AC59/$B$39)*$B$40)*((100+AF79)/100),0)/100</f>
         <v>3.46</v>
       </c>
       <c r="AE79" s="9">
-        <f t="shared" ref="AE79:AE85" si="79">ROUNDUP(((AD59/$B$39)*$B$40)*((100+AF79)/100),0)/100</f>
+        <f t="shared" ref="AE79:AE85" si="94">ROUNDUP(((AD59/$B$39)*$B$40)*((100+AF79)/100),0)/100</f>
         <v>4.04</v>
       </c>
       <c r="AF79" s="1">
@@ -9540,31 +9673,31 @@
         <v>512</v>
       </c>
       <c r="H80" s="9">
-        <f t="shared" ref="H80:H81" si="80">ROUNDUP((P80*$B$30/100),0)</f>
+        <f t="shared" ref="H80:H81" si="95">ROUNDUP((P80*$B$30/100),0)</f>
         <v>2632</v>
       </c>
       <c r="I80" s="9">
-        <f t="shared" ref="I80:I81" si="81">ROUNDUP((P80*$B$31/100),0)</f>
+        <f t="shared" ref="I80:I81" si="96">ROUNDUP((P80*$B$31/100),0)</f>
         <v>5264</v>
       </c>
       <c r="J80" s="9">
-        <f t="shared" ref="J80:J81" si="82">ROUNDUP((P80*$B$32/100),0)</f>
+        <f t="shared" ref="J80:J81" si="97">ROUNDUP((P80*$B$32/100),0)</f>
         <v>10527</v>
       </c>
       <c r="K80" s="9">
-        <f t="shared" ref="K80:K81" si="83">ROUNDUP((P80*$B$33/100),0)</f>
+        <f t="shared" ref="K80:K81" si="98">ROUNDUP((P80*$B$33/100),0)</f>
         <v>15790</v>
       </c>
       <c r="L80" s="9">
-        <f t="shared" ref="L80:L81" si="84">ROUNDUP((P80*$B$34/100),0)</f>
+        <f t="shared" ref="L80:L81" si="99">ROUNDUP((P80*$B$34/100),0)</f>
         <v>18422</v>
       </c>
       <c r="M80" s="9">
-        <f t="shared" si="73"/>
+        <f t="shared" si="88"/>
         <v>36844</v>
       </c>
       <c r="N80" s="9">
-        <f t="shared" si="74"/>
+        <f t="shared" si="89"/>
         <v>52635</v>
       </c>
       <c r="O80" s="9">
@@ -9581,23 +9714,23 @@
         <v>0.1</v>
       </c>
       <c r="AA80" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="90"/>
         <v>0.65</v>
       </c>
       <c r="AB80" s="9">
-        <f t="shared" si="76"/>
+        <f t="shared" si="91"/>
         <v>1.29</v>
       </c>
       <c r="AC80" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="92"/>
         <v>2.58</v>
       </c>
       <c r="AD80" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="93"/>
         <v>3.87</v>
       </c>
       <c r="AE80" s="9">
-        <f t="shared" si="79"/>
+        <f t="shared" si="94"/>
         <v>4.51</v>
       </c>
       <c r="AF80" s="1">
@@ -9609,31 +9742,31 @@
         <v>517</v>
       </c>
       <c r="H81" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="95"/>
         <v>2735</v>
       </c>
       <c r="I81" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="96"/>
         <v>5470</v>
       </c>
       <c r="J81" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="97"/>
         <v>10940</v>
       </c>
       <c r="K81" s="9">
-        <f t="shared" si="83"/>
+        <f t="shared" si="98"/>
         <v>16409</v>
       </c>
       <c r="L81" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="99"/>
         <v>19144</v>
       </c>
       <c r="M81" s="9">
-        <f t="shared" ref="M81:M82" si="85">L81*$B$43</f>
+        <f t="shared" ref="M81:M82" si="100">L81*$B$43</f>
         <v>38288</v>
       </c>
       <c r="N81" s="9">
-        <f t="shared" ref="N81:N82" si="86">SUM(H81:L81)</f>
+        <f t="shared" ref="N81:N82" si="101">SUM(H81:L81)</f>
         <v>54698</v>
       </c>
       <c r="O81" s="9">
@@ -9650,23 +9783,23 @@
         <v>0.11</v>
       </c>
       <c r="AA81" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="90"/>
         <v>0.72</v>
       </c>
       <c r="AB81" s="9">
-        <f t="shared" si="76"/>
+        <f t="shared" si="91"/>
         <v>1.44</v>
       </c>
       <c r="AC81" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="92"/>
         <v>2.87</v>
       </c>
       <c r="AD81" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="93"/>
         <v>4.3</v>
       </c>
       <c r="AE81" s="9">
-        <f t="shared" si="79"/>
+        <f t="shared" si="94"/>
         <v>5.01</v>
       </c>
       <c r="AF81" s="1">
@@ -9678,31 +9811,31 @@
         <v>519</v>
       </c>
       <c r="H82" s="9">
-        <f t="shared" ref="H82" si="87">ROUNDUP((P82*$B$30/100),0)</f>
+        <f t="shared" ref="H82:H83" si="102">ROUNDUP((P82*$B$30/100),0)</f>
         <v>2838</v>
       </c>
       <c r="I82" s="9">
-        <f t="shared" ref="I82" si="88">ROUNDUP((P82*$B$31/100),0)</f>
+        <f t="shared" ref="I82:I83" si="103">ROUNDUP((P82*$B$31/100),0)</f>
         <v>5676</v>
       </c>
       <c r="J82" s="9">
-        <f t="shared" ref="J82" si="89">ROUNDUP((P82*$B$32/100),0)</f>
+        <f t="shared" ref="J82:J83" si="104">ROUNDUP((P82*$B$32/100),0)</f>
         <v>11352</v>
       </c>
       <c r="K82" s="9">
-        <f t="shared" ref="K82" si="90">ROUNDUP((P82*$B$33/100),0)</f>
+        <f t="shared" ref="K82:K83" si="105">ROUNDUP((P82*$B$33/100),0)</f>
         <v>17028</v>
       </c>
       <c r="L82" s="9">
-        <f t="shared" ref="L82" si="91">ROUNDUP((P82*$B$34/100),0)</f>
+        <f t="shared" ref="L82:L83" si="106">ROUNDUP((P82*$B$34/100),0)</f>
         <v>19866</v>
       </c>
       <c r="M82" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="100"/>
         <v>39732</v>
       </c>
       <c r="N82" s="9">
-        <f t="shared" si="86"/>
+        <f t="shared" si="101"/>
         <v>56760</v>
       </c>
       <c r="O82" s="9">
@@ -9719,23 +9852,23 @@
         <v>0.12</v>
       </c>
       <c r="AA82" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="90"/>
         <v>0.85</v>
       </c>
       <c r="AB82" s="9">
-        <f t="shared" si="76"/>
+        <f t="shared" si="91"/>
         <v>1.7</v>
       </c>
       <c r="AC82" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="92"/>
         <v>3.39</v>
       </c>
       <c r="AD82" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="93"/>
         <v>5.09</v>
       </c>
       <c r="AE82" s="9">
-        <f t="shared" si="79"/>
+        <f t="shared" si="94"/>
         <v>5.93</v>
       </c>
       <c r="AF82" s="1">
@@ -9743,6 +9876,44 @@
       </c>
     </row>
     <row r="83" spans="7:32">
+      <c r="G83" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="H83" s="9">
+        <f t="shared" si="102"/>
+        <v>2942</v>
+      </c>
+      <c r="I83" s="9">
+        <f t="shared" si="103"/>
+        <v>5883</v>
+      </c>
+      <c r="J83" s="9">
+        <f t="shared" si="104"/>
+        <v>11765</v>
+      </c>
+      <c r="K83" s="9">
+        <f t="shared" si="105"/>
+        <v>17648</v>
+      </c>
+      <c r="L83" s="9">
+        <f t="shared" si="106"/>
+        <v>20589</v>
+      </c>
+      <c r="M83" s="9">
+        <f t="shared" ref="M83" si="107">L83*$B$43</f>
+        <v>41178</v>
+      </c>
+      <c r="N83" s="9">
+        <f t="shared" ref="N83" si="108">SUM(H83:L83)</f>
+        <v>58827</v>
+      </c>
+      <c r="O83" s="9">
+        <v>400</v>
+      </c>
+      <c r="P83" s="9">
+        <f>(H39*$B$9*$B$18)*(O83/100)+I39</f>
+        <v>58824</v>
+      </c>
       <c r="Y83" s="9" t="s">
         <v>210</v>
       </c>
@@ -9750,23 +9921,23 @@
         <v>0.13</v>
       </c>
       <c r="AA83" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="90"/>
         <v>0.93</v>
       </c>
       <c r="AB83" s="9">
-        <f t="shared" si="76"/>
+        <f t="shared" si="91"/>
         <v>1.86</v>
       </c>
       <c r="AC83" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="92"/>
         <v>3.72</v>
       </c>
       <c r="AD83" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="93"/>
         <v>5.58</v>
       </c>
       <c r="AE83" s="9">
-        <f t="shared" si="79"/>
+        <f t="shared" si="94"/>
         <v>6.5</v>
       </c>
       <c r="AF83" s="1">
@@ -9781,23 +9952,23 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="AA84" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="90"/>
         <v>1.02</v>
       </c>
       <c r="AB84" s="9">
-        <f t="shared" si="76"/>
+        <f t="shared" si="91"/>
         <v>2.0299999999999998</v>
       </c>
       <c r="AC84" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="92"/>
         <v>4.0599999999999996</v>
       </c>
       <c r="AD84" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="93"/>
         <v>6.09</v>
       </c>
       <c r="AE84" s="9">
-        <f t="shared" si="79"/>
+        <f t="shared" si="94"/>
         <v>7.1</v>
       </c>
       <c r="AF84" s="1">
@@ -9825,23 +9996,23 @@
         <v>0.15</v>
       </c>
       <c r="AA85" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="90"/>
         <v>1.1100000000000001</v>
       </c>
       <c r="AB85" s="9">
-        <f t="shared" si="76"/>
+        <f t="shared" si="91"/>
         <v>2.21</v>
       </c>
       <c r="AC85" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="92"/>
         <v>4.41</v>
       </c>
       <c r="AD85" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="93"/>
         <v>6.62</v>
       </c>
       <c r="AE85" s="9">
-        <f t="shared" si="79"/>
+        <f t="shared" si="94"/>
         <v>7.72</v>
       </c>
       <c r="AF85" s="1">
@@ -9894,34 +10065,34 @@
         <v>0.01</v>
       </c>
       <c r="I87" s="9">
-        <f t="shared" ref="I87:I96" si="92">ROUNDUP(((H51/$B$39)*$B$40)*((100+O87)/100),0)/100</f>
+        <f t="shared" ref="I87:I96" si="109">ROUNDUP(((H51/$B$39)*$B$40)*((100+O87)/100),0)/100</f>
         <v>0.02</v>
       </c>
       <c r="J87" s="9">
-        <f t="shared" ref="J87:J96" si="93">ROUNDUP(((I51/$B$39)*$B$40)*((100+O87)/100),0)/100</f>
+        <f t="shared" ref="J87:J96" si="110">ROUNDUP(((I51/$B$39)*$B$40)*((100+O87)/100),0)/100</f>
         <v>0.03</v>
       </c>
       <c r="K87" s="9">
-        <f t="shared" ref="K87:K96" si="94">ROUNDUP(((J51/$B$39)*$B$40)*((100+O87)/100),0)/100</f>
+        <f t="shared" ref="K87:K96" si="111">ROUNDUP(((J51/$B$39)*$B$40)*((100+O87)/100),0)/100</f>
         <v>0.06</v>
       </c>
       <c r="L87" s="9">
-        <f t="shared" ref="L87:L96" si="95">ROUNDUP(((K51/$B$39)*$B$40)*((100+O87)/100),0)/100</f>
+        <f t="shared" ref="L87:L96" si="112">ROUNDUP(((K51/$B$39)*$B$40)*((100+O87)/100),0)/100</f>
         <v>0.09</v>
       </c>
       <c r="M87" s="9">
-        <f t="shared" ref="M87:M96" si="96">ROUNDUP(((L51/$B$39)*$B$40)*((100+O87)/100),0)/100</f>
+        <f t="shared" ref="M87:M96" si="113">ROUNDUP(((L51/$B$39)*$B$40)*((100+O87)/100),0)/100</f>
         <v>0.1</v>
       </c>
       <c r="N87" s="9">
-        <f t="shared" ref="N87:N96" si="97">ROUNDUP(((M51/$B$39)*$B$40)*((100+O87)/100),0)/100</f>
+        <f t="shared" ref="N87:N96" si="114">ROUNDUP(((M51/$B$39)*$B$40)*((100+O87)/100),0)/100</f>
         <v>0.2</v>
       </c>
       <c r="O87" s="10">
         <v>10</v>
       </c>
       <c r="P87" s="10">
-        <f t="shared" ref="P87:P99" si="98">SUM(H87:M87)</f>
+        <f t="shared" ref="P87:P99" si="115">SUM(H87:M87)</f>
         <v>0.31</v>
       </c>
       <c r="Q87" s="9">
@@ -9929,7 +10100,7 @@
         <v>0.2</v>
       </c>
       <c r="R87" s="10">
-        <f>((P87+Q87)/$P$85)*100</f>
+        <f t="shared" ref="R87:R116" si="116">((P87+Q87)/$P$85)*100</f>
         <v>2.3087369850611137</v>
       </c>
     </row>
@@ -9941,42 +10112,42 @@
         <v>0.01</v>
       </c>
       <c r="I88" s="9">
-        <f t="shared" si="92"/>
+        <f t="shared" si="109"/>
         <v>0.02</v>
       </c>
       <c r="J88" s="9">
-        <f t="shared" si="93"/>
+        <f t="shared" si="110"/>
         <v>0.04</v>
       </c>
       <c r="K88" s="9">
-        <f t="shared" si="94"/>
+        <f t="shared" si="111"/>
         <v>0.08</v>
       </c>
       <c r="L88" s="9">
-        <f t="shared" si="95"/>
+        <f t="shared" si="112"/>
         <v>0.12</v>
       </c>
       <c r="M88" s="9">
-        <f t="shared" si="96"/>
+        <f t="shared" si="113"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="N88" s="9">
-        <f t="shared" si="97"/>
+        <f t="shared" si="114"/>
         <v>0.27</v>
       </c>
       <c r="O88" s="10">
         <v>20</v>
       </c>
       <c r="P88" s="10">
-        <f t="shared" si="98"/>
+        <f t="shared" si="115"/>
         <v>0.41000000000000003</v>
       </c>
       <c r="Q88" s="9">
-        <f t="shared" ref="Q88:Q107" si="99">N88</f>
+        <f t="shared" ref="Q88:Q107" si="117">N88</f>
         <v>0.27</v>
       </c>
       <c r="R88" s="10">
-        <f>((P88+Q88)/$P$85)*100</f>
+        <f t="shared" si="116"/>
         <v>3.0783159800814848</v>
       </c>
     </row>
@@ -9988,42 +10159,42 @@
         <v>0.02</v>
       </c>
       <c r="I89" s="9">
-        <f t="shared" si="92"/>
+        <f t="shared" si="109"/>
         <v>0.03</v>
       </c>
       <c r="J89" s="9">
-        <f t="shared" si="93"/>
+        <f t="shared" si="110"/>
         <v>0.05</v>
       </c>
       <c r="K89" s="9">
-        <f t="shared" si="94"/>
+        <f t="shared" si="111"/>
         <v>0.1</v>
       </c>
       <c r="L89" s="9">
-        <f t="shared" si="95"/>
+        <f t="shared" si="112"/>
         <v>0.15</v>
       </c>
       <c r="M89" s="9">
-        <f t="shared" si="96"/>
+        <f t="shared" si="113"/>
         <v>0.18</v>
       </c>
       <c r="N89" s="9">
-        <f t="shared" si="97"/>
+        <f t="shared" si="114"/>
         <v>0.35</v>
       </c>
       <c r="O89" s="10">
         <v>30</v>
       </c>
       <c r="P89" s="10">
-        <f t="shared" si="98"/>
+        <f t="shared" si="115"/>
         <v>0.53</v>
       </c>
       <c r="Q89" s="9">
-        <f t="shared" si="99"/>
+        <f t="shared" si="117"/>
         <v>0.35</v>
       </c>
       <c r="R89" s="10">
-        <f>((P89+Q89)/$P$85)*100</f>
+        <f t="shared" si="116"/>
         <v>3.9837030330466274</v>
       </c>
     </row>
@@ -10035,42 +10206,42 @@
         <v>0.02</v>
       </c>
       <c r="I90" s="9">
-        <f t="shared" si="92"/>
+        <f t="shared" si="109"/>
         <v>0.04</v>
       </c>
       <c r="J90" s="9">
-        <f t="shared" si="93"/>
+        <f t="shared" si="110"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="K90" s="9">
-        <f t="shared" si="94"/>
+        <f t="shared" si="111"/>
         <v>0.13</v>
       </c>
       <c r="L90" s="9">
-        <f t="shared" si="95"/>
+        <f t="shared" si="112"/>
         <v>0.19</v>
       </c>
       <c r="M90" s="9">
-        <f t="shared" si="96"/>
+        <f t="shared" si="113"/>
         <v>0.22</v>
       </c>
       <c r="N90" s="9">
-        <f t="shared" si="97"/>
+        <f t="shared" si="114"/>
         <v>0.44</v>
       </c>
       <c r="O90" s="10">
         <v>40</v>
       </c>
       <c r="P90" s="10">
-        <f t="shared" si="98"/>
+        <f t="shared" si="115"/>
         <v>0.67</v>
       </c>
       <c r="Q90" s="9">
-        <f t="shared" si="99"/>
+        <f t="shared" si="117"/>
         <v>0.44</v>
       </c>
       <c r="R90" s="10">
-        <f>((P90+Q90)/$P$85)*100</f>
+        <f t="shared" si="116"/>
         <v>5.0248981439565421</v>
       </c>
     </row>
@@ -10082,42 +10253,42 @@
         <v>0.03</v>
       </c>
       <c r="I91" s="9">
-        <f t="shared" si="92"/>
+        <f t="shared" si="109"/>
         <v>0.04</v>
       </c>
       <c r="J91" s="9">
-        <f t="shared" si="93"/>
+        <f t="shared" si="110"/>
         <v>0.08</v>
       </c>
       <c r="K91" s="9">
-        <f t="shared" si="94"/>
+        <f t="shared" si="111"/>
         <v>0.16</v>
       </c>
       <c r="L91" s="9">
-        <f t="shared" si="95"/>
+        <f t="shared" si="112"/>
         <v>0.24</v>
       </c>
       <c r="M91" s="9">
-        <f t="shared" si="96"/>
+        <f t="shared" si="113"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="N91" s="9">
-        <f t="shared" si="97"/>
+        <f t="shared" si="114"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="O91" s="10">
         <v>50</v>
       </c>
       <c r="P91" s="10">
-        <f t="shared" si="98"/>
+        <f t="shared" si="115"/>
         <v>0.83000000000000007</v>
       </c>
       <c r="Q91" s="9">
-        <f t="shared" si="99"/>
+        <f t="shared" si="117"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="R91" s="10">
-        <f>((P91+Q91)/$P$85)*100</f>
+        <f t="shared" si="116"/>
         <v>6.2471706654594845</v>
       </c>
     </row>
@@ -10129,42 +10300,42 @@
         <v>0.03</v>
       </c>
       <c r="I92" s="9">
-        <f t="shared" si="92"/>
+        <f t="shared" si="109"/>
         <v>0.05</v>
       </c>
       <c r="J92" s="9">
-        <f t="shared" si="93"/>
+        <f t="shared" si="110"/>
         <v>0.1</v>
       </c>
       <c r="K92" s="9">
-        <f t="shared" si="94"/>
+        <f t="shared" si="111"/>
         <v>0.2</v>
       </c>
       <c r="L92" s="9">
-        <f t="shared" si="95"/>
+        <f t="shared" si="112"/>
         <v>0.28999999999999998</v>
       </c>
       <c r="M92" s="9">
-        <f t="shared" si="96"/>
+        <f t="shared" si="113"/>
         <v>0.34</v>
       </c>
       <c r="N92" s="9">
-        <f t="shared" si="97"/>
+        <f t="shared" si="114"/>
         <v>0.68</v>
       </c>
       <c r="O92" s="10">
         <v>60</v>
       </c>
       <c r="P92" s="10">
-        <f t="shared" si="98"/>
+        <f t="shared" si="115"/>
         <v>1.01</v>
       </c>
       <c r="Q92" s="9">
-        <f t="shared" si="99"/>
+        <f t="shared" si="117"/>
         <v>0.68</v>
       </c>
       <c r="R92" s="10">
-        <f>((P92+Q92)/$P$85)*100</f>
+        <f t="shared" si="116"/>
         <v>7.6505205975554542</v>
       </c>
     </row>
@@ -10176,42 +10347,42 @@
         <v>0.04</v>
       </c>
       <c r="I93" s="9">
-        <f t="shared" si="92"/>
+        <f t="shared" si="109"/>
         <v>0.06</v>
       </c>
       <c r="J93" s="9">
-        <f t="shared" si="93"/>
+        <f t="shared" si="110"/>
         <v>0.12</v>
       </c>
       <c r="K93" s="9">
-        <f t="shared" si="94"/>
+        <f t="shared" si="111"/>
         <v>0.24</v>
       </c>
       <c r="L93" s="9">
-        <f t="shared" si="95"/>
+        <f t="shared" si="112"/>
         <v>0.35</v>
       </c>
       <c r="M93" s="9">
-        <f t="shared" si="96"/>
+        <f t="shared" si="113"/>
         <v>0.41</v>
       </c>
       <c r="N93" s="9">
-        <f t="shared" si="97"/>
+        <f t="shared" si="114"/>
         <v>0.82</v>
       </c>
       <c r="O93" s="10">
         <v>70</v>
       </c>
       <c r="P93" s="10">
-        <f t="shared" si="98"/>
+        <f t="shared" si="115"/>
         <v>1.22</v>
       </c>
       <c r="Q93" s="9">
-        <f t="shared" si="99"/>
+        <f t="shared" si="117"/>
         <v>0.82</v>
       </c>
       <c r="R93" s="10">
-        <f>((P93+Q93)/$P$85)*100</f>
+        <f t="shared" si="116"/>
         <v>9.2349479402444548</v>
       </c>
       <c r="Y93" s="9" t="s">
@@ -10232,42 +10403,42 @@
         <v>0.04</v>
       </c>
       <c r="I94" s="9">
-        <f t="shared" si="92"/>
+        <f t="shared" si="109"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="J94" s="9">
-        <f t="shared" si="93"/>
+        <f t="shared" si="110"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="K94" s="9">
-        <f t="shared" si="94"/>
+        <f t="shared" si="111"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="L94" s="9">
-        <f t="shared" si="95"/>
+        <f t="shared" si="112"/>
         <v>0.42</v>
       </c>
       <c r="M94" s="9">
-        <f t="shared" si="96"/>
+        <f t="shared" si="113"/>
         <v>0.49</v>
       </c>
       <c r="N94" s="9">
-        <f t="shared" si="97"/>
+        <f t="shared" si="114"/>
         <v>0.98</v>
       </c>
       <c r="O94" s="10">
         <v>80</v>
       </c>
       <c r="P94" s="10">
-        <f t="shared" si="98"/>
+        <f t="shared" si="115"/>
         <v>1.44</v>
       </c>
       <c r="Q94" s="9">
-        <f t="shared" si="99"/>
+        <f t="shared" si="117"/>
         <v>0.98</v>
       </c>
       <c r="R94" s="10">
-        <f>((P94+Q94)/$P$85)*100</f>
+        <f t="shared" si="116"/>
         <v>10.955183340878225</v>
       </c>
       <c r="Y94" s="24" t="s">
@@ -10300,69 +10471,69 @@
         <v>0.05</v>
       </c>
       <c r="I95" s="9">
-        <f t="shared" si="92"/>
+        <f t="shared" si="109"/>
         <v>0.09</v>
       </c>
       <c r="J95" s="9">
-        <f t="shared" si="93"/>
+        <f t="shared" si="110"/>
         <v>0.17</v>
       </c>
       <c r="K95" s="9">
-        <f t="shared" si="94"/>
+        <f t="shared" si="111"/>
         <v>0.34</v>
       </c>
       <c r="L95" s="9">
-        <f t="shared" si="95"/>
+        <f t="shared" si="112"/>
         <v>0.5</v>
       </c>
       <c r="M95" s="9">
-        <f t="shared" si="96"/>
+        <f t="shared" si="113"/>
         <v>0.59</v>
       </c>
       <c r="N95" s="9">
-        <f t="shared" si="97"/>
+        <f t="shared" si="114"/>
         <v>1.17</v>
       </c>
       <c r="O95" s="10">
         <v>90</v>
       </c>
       <c r="P95" s="10">
-        <f t="shared" si="98"/>
+        <f t="shared" si="115"/>
         <v>1.7400000000000002</v>
       </c>
       <c r="Q95" s="9">
-        <f t="shared" si="99"/>
+        <f t="shared" si="117"/>
         <v>1.17</v>
       </c>
       <c r="R95" s="10">
-        <f>((P95+Q95)/$P$85)*100</f>
+        <f t="shared" si="116"/>
         <v>13.173381620642827</v>
       </c>
       <c r="Y95" s="9" t="s">
         <v>198</v>
       </c>
       <c r="Z95" s="9">
-        <f t="shared" ref="Z95:Z109" si="100">Z71</f>
+        <f t="shared" ref="Z95:Z109" si="118">Z71</f>
         <v>0.01</v>
       </c>
       <c r="AA95" s="9">
-        <f t="shared" ref="AA95:AE109" si="101">Z95+AA71</f>
+        <f t="shared" ref="AA95:AE109" si="119">Z95+AA71</f>
         <v>0.23</v>
       </c>
       <c r="AB95" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="119"/>
         <v>0.67</v>
       </c>
       <c r="AC95" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="119"/>
         <v>1.54</v>
       </c>
       <c r="AD95" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="119"/>
         <v>2.84</v>
       </c>
       <c r="AE95" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="119"/>
         <v>4.3599999999999994</v>
       </c>
     </row>
@@ -10374,69 +10545,69 @@
         <v>0.05</v>
       </c>
       <c r="I96" s="9">
-        <f t="shared" si="92"/>
+        <f t="shared" si="109"/>
         <v>0.1</v>
       </c>
       <c r="J96" s="9">
-        <f t="shared" si="93"/>
+        <f t="shared" si="110"/>
         <v>0.2</v>
       </c>
       <c r="K96" s="9">
-        <f t="shared" si="94"/>
+        <f t="shared" si="111"/>
         <v>0.4</v>
       </c>
       <c r="L96" s="9">
-        <f t="shared" si="95"/>
+        <f t="shared" si="112"/>
         <v>0.59</v>
       </c>
       <c r="M96" s="9">
-        <f t="shared" si="96"/>
+        <f t="shared" si="113"/>
         <v>0.69</v>
       </c>
       <c r="N96" s="9">
-        <f t="shared" si="97"/>
+        <f t="shared" si="114"/>
         <v>1.38</v>
       </c>
       <c r="O96" s="10">
         <v>100</v>
       </c>
       <c r="P96" s="10">
-        <f t="shared" si="98"/>
+        <f t="shared" si="115"/>
         <v>2.0299999999999998</v>
       </c>
       <c r="Q96" s="9">
-        <f t="shared" si="99"/>
+        <f t="shared" si="117"/>
         <v>1.38</v>
       </c>
       <c r="R96" s="10">
-        <f>((P96+Q96)/$P$85)*100</f>
+        <f t="shared" si="116"/>
         <v>15.436849253055678</v>
       </c>
       <c r="Y96" s="9" t="s">
         <v>199</v>
       </c>
       <c r="Z96" s="9">
-        <f t="shared" si="100"/>
+        <f t="shared" si="118"/>
         <v>0.02</v>
       </c>
       <c r="AA96" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="119"/>
         <v>0.26</v>
       </c>
       <c r="AB96" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="119"/>
         <v>0.73</v>
       </c>
       <c r="AC96" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="119"/>
         <v>1.6600000000000001</v>
       </c>
       <c r="AD96" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="119"/>
         <v>3.06</v>
       </c>
       <c r="AE96" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="119"/>
         <v>4.6899999999999995</v>
       </c>
     </row>
@@ -10448,69 +10619,69 @@
         <v>0.06</v>
       </c>
       <c r="I97" s="9">
-        <f t="shared" ref="I97:I111" si="102">ROUNDUP(((H63/$B$39)*$B$40)*((100+O97)/100),0)/100</f>
+        <f t="shared" ref="I97:I111" si="120">ROUNDUP(((H63/$B$39)*$B$40)*((100+O97)/100),0)/100</f>
         <v>0.15</v>
       </c>
       <c r="J97" s="9">
-        <f t="shared" ref="J97:J111" si="103">ROUNDUP(((I63/$B$39)*$B$40)*((100+O97)/100),0)/100</f>
+        <f t="shared" ref="J97:J111" si="121">ROUNDUP(((I63/$B$39)*$B$40)*((100+O97)/100),0)/100</f>
         <v>0.3</v>
       </c>
       <c r="K97" s="9">
-        <f t="shared" ref="K97:K111" si="104">ROUNDUP(((J63/$B$39)*$B$40)*((100+O97)/100),0)/100</f>
+        <f t="shared" ref="K97:K111" si="122">ROUNDUP(((J63/$B$39)*$B$40)*((100+O97)/100),0)/100</f>
         <v>0.59</v>
       </c>
       <c r="L97" s="9">
-        <f t="shared" ref="L97:L111" si="105">ROUNDUP(((K63/$B$39)*$B$40)*((100+O97)/100),0)/100</f>
+        <f t="shared" ref="L97:L111" si="123">ROUNDUP(((K63/$B$39)*$B$40)*((100+O97)/100),0)/100</f>
         <v>0.88</v>
       </c>
       <c r="M97" s="9">
-        <f t="shared" ref="M97:M111" si="106">ROUNDUP(((L63/$B$39)*$B$40)*((100+O97)/100),0)/100</f>
+        <f t="shared" ref="M97:M111" si="124">ROUNDUP(((L63/$B$39)*$B$40)*((100+O97)/100),0)/100</f>
         <v>1.03</v>
       </c>
       <c r="N97" s="9">
-        <f t="shared" ref="N97:N114" si="107">ROUNDUP(((M63/$B$39)*$B$40)*((100+O97)/100),0)/100</f>
+        <f t="shared" ref="N97:N114" si="125">ROUNDUP(((M63/$B$39)*$B$40)*((100+O97)/100),0)/100</f>
         <v>2.0499999999999998</v>
       </c>
       <c r="O97" s="10">
         <v>110</v>
       </c>
       <c r="P97" s="10">
-        <f t="shared" si="98"/>
+        <f t="shared" si="115"/>
         <v>3.01</v>
       </c>
       <c r="Q97" s="9">
-        <f t="shared" si="99"/>
+        <f t="shared" si="117"/>
         <v>2.0499999999999998</v>
       </c>
       <c r="R97" s="10">
-        <f>((P97+Q97)/$P$85)*100</f>
+        <f t="shared" si="116"/>
         <v>22.906292440018106</v>
       </c>
       <c r="Y97" s="9" t="s">
         <v>200</v>
       </c>
       <c r="Z97" s="9">
-        <f t="shared" si="100"/>
+        <f t="shared" si="118"/>
         <v>0.03</v>
       </c>
       <c r="AA97" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="119"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="AB97" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="119"/>
         <v>0.78</v>
       </c>
       <c r="AC97" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="119"/>
         <v>1.78</v>
       </c>
       <c r="AD97" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="119"/>
         <v>3.2800000000000002</v>
       </c>
       <c r="AE97" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="119"/>
         <v>5.03</v>
       </c>
     </row>
@@ -10522,69 +10693,69 @@
         <v>0.06</v>
       </c>
       <c r="I98" s="9">
-        <f t="shared" si="102"/>
+        <f t="shared" si="120"/>
         <v>0.17</v>
       </c>
       <c r="J98" s="9">
-        <f t="shared" si="103"/>
+        <f t="shared" si="121"/>
         <v>0.33</v>
       </c>
       <c r="K98" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="122"/>
         <v>0.65</v>
       </c>
       <c r="L98" s="9">
-        <f t="shared" si="105"/>
+        <f t="shared" si="123"/>
         <v>0.97</v>
       </c>
       <c r="M98" s="9">
-        <f t="shared" si="106"/>
+        <f t="shared" si="124"/>
         <v>1.1299999999999999</v>
       </c>
       <c r="N98" s="9">
-        <f t="shared" si="107"/>
+        <f t="shared" si="125"/>
         <v>2.25</v>
       </c>
       <c r="O98" s="10">
         <v>120</v>
       </c>
       <c r="P98" s="10">
-        <f t="shared" si="98"/>
+        <f t="shared" si="115"/>
         <v>3.3099999999999996</v>
       </c>
       <c r="Q98" s="9">
-        <f t="shared" si="99"/>
+        <f t="shared" si="117"/>
         <v>2.25</v>
       </c>
       <c r="R98" s="10">
-        <f>((P98+Q98)/$P$85)*100</f>
+        <f t="shared" si="116"/>
         <v>25.169760072430964</v>
       </c>
       <c r="Y98" s="9" t="s">
         <v>201</v>
       </c>
       <c r="Z98" s="9">
-        <f t="shared" si="100"/>
+        <f t="shared" si="118"/>
         <v>0.04</v>
       </c>
       <c r="AA98" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="119"/>
         <v>0.31</v>
       </c>
       <c r="AB98" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="119"/>
         <v>0.85000000000000009</v>
       </c>
       <c r="AC98" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="119"/>
         <v>1.9200000000000002</v>
       </c>
       <c r="AD98" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="119"/>
         <v>3.5200000000000005</v>
       </c>
       <c r="AE98" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="119"/>
         <v>5.3900000000000006</v>
       </c>
     </row>
@@ -10596,69 +10767,69 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I99" s="9">
-        <f t="shared" si="102"/>
+        <f t="shared" si="120"/>
         <v>0.18</v>
       </c>
       <c r="J99" s="9">
-        <f t="shared" si="103"/>
+        <f t="shared" si="121"/>
         <v>0.36</v>
       </c>
       <c r="K99" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="122"/>
         <v>0.71</v>
       </c>
       <c r="L99" s="9">
-        <f t="shared" si="105"/>
+        <f t="shared" si="123"/>
         <v>1.06</v>
       </c>
       <c r="M99" s="9">
-        <f t="shared" si="106"/>
+        <f t="shared" si="124"/>
         <v>1.23</v>
       </c>
       <c r="N99" s="9">
-        <f t="shared" si="107"/>
+        <f t="shared" si="125"/>
         <v>2.46</v>
       </c>
       <c r="O99" s="10">
         <v>130</v>
       </c>
       <c r="P99" s="10">
-        <f t="shared" si="98"/>
+        <f t="shared" si="115"/>
         <v>3.61</v>
       </c>
       <c r="Q99" s="9">
-        <f t="shared" si="99"/>
+        <f t="shared" si="117"/>
         <v>2.46</v>
       </c>
       <c r="R99" s="10">
-        <f>((P99+Q99)/$P$85)*100</f>
+        <f t="shared" si="116"/>
         <v>27.478497057492078</v>
       </c>
       <c r="Y99" s="9" t="s">
         <v>202</v>
       </c>
       <c r="Z99" s="9">
-        <f t="shared" si="100"/>
+        <f t="shared" si="118"/>
         <v>0.05</v>
       </c>
       <c r="AA99" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="119"/>
         <v>0.35</v>
       </c>
       <c r="AB99" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="119"/>
         <v>0.94</v>
       </c>
       <c r="AC99" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="119"/>
         <v>2.12</v>
       </c>
       <c r="AD99" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="119"/>
         <v>3.89</v>
       </c>
       <c r="AE99" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="119"/>
         <v>5.95</v>
       </c>
     </row>
@@ -10670,69 +10841,69 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I100" s="9">
-        <f t="shared" si="102"/>
+        <f t="shared" si="120"/>
         <v>0.2</v>
       </c>
       <c r="J100" s="9">
-        <f t="shared" si="103"/>
+        <f t="shared" si="121"/>
         <v>0.4</v>
       </c>
       <c r="K100" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="122"/>
         <v>0.8</v>
       </c>
       <c r="L100" s="9">
-        <f t="shared" si="105"/>
+        <f t="shared" si="123"/>
         <v>1.2</v>
       </c>
       <c r="M100" s="9">
-        <f t="shared" si="106"/>
+        <f t="shared" si="124"/>
         <v>1.4</v>
       </c>
       <c r="N100" s="9">
-        <f t="shared" si="107"/>
+        <f t="shared" si="125"/>
         <v>2.79</v>
       </c>
       <c r="O100" s="10">
         <v>140</v>
       </c>
       <c r="P100" s="10">
-        <f t="shared" ref="P100:P103" si="108">SUM(H100:M100)</f>
+        <f t="shared" ref="P100:P103" si="126">SUM(H100:M100)</f>
         <v>4.07</v>
       </c>
       <c r="Q100" s="9">
-        <f t="shared" si="99"/>
+        <f t="shared" si="117"/>
         <v>2.79</v>
       </c>
       <c r="R100" s="10">
-        <f>((P100+Q100)/$P$85)*100</f>
+        <f t="shared" si="116"/>
         <v>31.05477591670439</v>
       </c>
       <c r="Y100" s="9" t="s">
         <v>203</v>
       </c>
       <c r="Z100" s="9">
-        <f t="shared" si="100"/>
+        <f t="shared" si="118"/>
         <v>0.06</v>
       </c>
       <c r="AA100" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="119"/>
         <v>0.39</v>
       </c>
       <c r="AB100" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="119"/>
         <v>1.04</v>
       </c>
       <c r="AC100" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="119"/>
         <v>2.34</v>
       </c>
       <c r="AD100" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="119"/>
         <v>4.2799999999999994</v>
       </c>
       <c r="AE100" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="119"/>
         <v>6.5399999999999991</v>
       </c>
     </row>
@@ -10744,69 +10915,69 @@
         <v>0.08</v>
       </c>
       <c r="I101" s="9">
-        <f t="shared" si="102"/>
+        <f t="shared" si="120"/>
         <v>0.23</v>
       </c>
       <c r="J101" s="9">
-        <f t="shared" si="103"/>
+        <f t="shared" si="121"/>
         <v>0.45</v>
       </c>
       <c r="K101" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="122"/>
         <v>0.9</v>
       </c>
       <c r="L101" s="9">
-        <f t="shared" si="105"/>
+        <f t="shared" si="123"/>
         <v>1.35</v>
       </c>
       <c r="M101" s="9">
-        <f t="shared" si="106"/>
+        <f t="shared" si="124"/>
         <v>1.58</v>
       </c>
       <c r="N101" s="9">
-        <f t="shared" si="107"/>
+        <f t="shared" si="125"/>
         <v>3.15</v>
       </c>
       <c r="O101" s="10">
         <v>150</v>
       </c>
       <c r="P101" s="10">
-        <f t="shared" si="108"/>
+        <f t="shared" si="126"/>
         <v>4.59</v>
       </c>
       <c r="Q101" s="9">
-        <f t="shared" si="99"/>
+        <f t="shared" si="117"/>
         <v>3.15</v>
       </c>
       <c r="R101" s="10">
-        <f>((P101+Q101)/$P$85)*100</f>
+        <f t="shared" si="116"/>
         <v>35.038478949751017</v>
       </c>
       <c r="Y101" s="9" t="s">
         <v>204</v>
       </c>
       <c r="Z101" s="9">
-        <f t="shared" si="100"/>
+        <f t="shared" si="118"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AA101" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="119"/>
         <v>0.43</v>
       </c>
       <c r="AB101" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="119"/>
         <v>1.1399999999999999</v>
       </c>
       <c r="AC101" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="119"/>
         <v>2.5599999999999996</v>
       </c>
       <c r="AD101" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="119"/>
         <v>4.68</v>
       </c>
       <c r="AE101" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="119"/>
         <v>7.15</v>
       </c>
     </row>
@@ -10818,69 +10989,69 @@
         <v>0.08</v>
       </c>
       <c r="I102" s="9">
-        <f t="shared" si="102"/>
+        <f t="shared" si="120"/>
         <v>0.27</v>
       </c>
       <c r="J102" s="9">
-        <f t="shared" si="103"/>
+        <f t="shared" si="121"/>
         <v>0.53</v>
       </c>
       <c r="K102" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="122"/>
         <v>1.06</v>
       </c>
       <c r="L102" s="9">
-        <f t="shared" si="105"/>
+        <f t="shared" si="123"/>
         <v>1.58</v>
       </c>
       <c r="M102" s="9">
-        <f t="shared" si="106"/>
+        <f t="shared" si="124"/>
         <v>1.84</v>
       </c>
       <c r="N102" s="9">
-        <f t="shared" si="107"/>
+        <f t="shared" si="125"/>
         <v>3.68</v>
       </c>
       <c r="O102" s="10">
         <v>160</v>
       </c>
       <c r="P102" s="10">
-        <f t="shared" si="108"/>
+        <f t="shared" si="126"/>
         <v>5.36</v>
       </c>
       <c r="Q102" s="9">
-        <f t="shared" si="99"/>
+        <f t="shared" si="117"/>
         <v>3.68</v>
       </c>
       <c r="R102" s="10">
-        <f>((P102+Q102)/$P$85)*100</f>
+        <f t="shared" si="116"/>
         <v>40.92349479402445</v>
       </c>
       <c r="Y102" s="9" t="s">
         <v>205</v>
       </c>
       <c r="Z102" s="9">
-        <f t="shared" si="100"/>
+        <f t="shared" si="118"/>
         <v>0.08</v>
       </c>
       <c r="AA102" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="119"/>
         <v>0.48000000000000004</v>
       </c>
       <c r="AB102" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="119"/>
         <v>1.27</v>
       </c>
       <c r="AC102" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="119"/>
         <v>2.85</v>
       </c>
       <c r="AD102" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="119"/>
         <v>5.2200000000000006</v>
       </c>
       <c r="AE102" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="119"/>
         <v>7.98</v>
       </c>
     </row>
@@ -10892,42 +11063,42 @@
         <v>0.09</v>
       </c>
       <c r="I103" s="9">
-        <f t="shared" si="102"/>
+        <f t="shared" si="120"/>
         <v>0.32</v>
       </c>
       <c r="J103" s="9">
-        <f t="shared" si="103"/>
+        <f t="shared" si="121"/>
         <v>0.64</v>
       </c>
       <c r="K103" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="122"/>
         <v>1.27</v>
       </c>
       <c r="L103" s="9">
-        <f t="shared" si="105"/>
+        <f t="shared" si="123"/>
         <v>1.9</v>
       </c>
       <c r="M103" s="9">
-        <f t="shared" si="106"/>
+        <f t="shared" si="124"/>
         <v>2.2200000000000002</v>
       </c>
       <c r="N103" s="9">
-        <f t="shared" si="107"/>
+        <f t="shared" si="125"/>
         <v>4.43</v>
       </c>
       <c r="O103" s="10">
         <v>180</v>
       </c>
       <c r="P103" s="10">
-        <f t="shared" si="108"/>
+        <f t="shared" si="126"/>
         <v>6.4400000000000013</v>
       </c>
       <c r="Q103" s="9">
-        <f t="shared" si="99"/>
+        <f t="shared" si="117"/>
         <v>4.43</v>
       </c>
       <c r="R103" s="10">
-        <f>((P103+Q103)/$P$85)*100</f>
+        <f t="shared" si="116"/>
         <v>49.207786328655509</v>
       </c>
       <c r="S103" s="9" t="s">
@@ -10952,27 +11123,27 @@
         <v>206</v>
       </c>
       <c r="Z103" s="9">
-        <f t="shared" si="100"/>
+        <f t="shared" si="118"/>
         <v>0.09</v>
       </c>
       <c r="AA103" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="119"/>
         <v>0.66999999999999993</v>
       </c>
       <c r="AB103" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="119"/>
         <v>1.8299999999999998</v>
       </c>
       <c r="AC103" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="119"/>
         <v>4.1399999999999997</v>
       </c>
       <c r="AD103" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="119"/>
         <v>7.6</v>
       </c>
       <c r="AE103" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="119"/>
         <v>11.64</v>
       </c>
     </row>
@@ -10984,42 +11155,42 @@
         <v>0.09</v>
       </c>
       <c r="I104" s="9">
-        <f t="shared" si="102"/>
+        <f t="shared" si="120"/>
         <v>0.38</v>
       </c>
       <c r="J104" s="9">
-        <f t="shared" si="103"/>
+        <f t="shared" si="121"/>
         <v>0.76</v>
       </c>
       <c r="K104" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="122"/>
         <v>1.51</v>
       </c>
       <c r="L104" s="9">
-        <f t="shared" si="105"/>
+        <f t="shared" si="123"/>
         <v>2.25</v>
       </c>
       <c r="M104" s="9">
-        <f t="shared" si="106"/>
+        <f t="shared" si="124"/>
         <v>2.63</v>
       </c>
       <c r="N104" s="9">
-        <f t="shared" si="107"/>
+        <f t="shared" si="125"/>
         <v>5.26</v>
       </c>
       <c r="O104" s="10">
         <v>200</v>
       </c>
       <c r="P104" s="10">
-        <f t="shared" ref="P104:P106" si="109">SUM(H104:M104)</f>
+        <f t="shared" ref="P104:P106" si="127">SUM(H104:M104)</f>
         <v>7.62</v>
       </c>
       <c r="Q104" s="9">
-        <f t="shared" si="99"/>
+        <f t="shared" si="117"/>
         <v>5.26</v>
       </c>
       <c r="R104" s="10">
-        <f>((P104+Q104)/$P$85)*100</f>
+        <f t="shared" si="116"/>
         <v>58.306926210955176</v>
       </c>
       <c r="S104" s="9" t="s">
@@ -11044,27 +11215,27 @@
         <v>207</v>
       </c>
       <c r="Z104" s="9">
-        <f t="shared" si="100"/>
+        <f t="shared" si="118"/>
         <v>0.1</v>
       </c>
       <c r="AA104" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="119"/>
         <v>0.75</v>
       </c>
       <c r="AB104" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="119"/>
         <v>2.04</v>
       </c>
       <c r="AC104" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="119"/>
         <v>4.62</v>
       </c>
       <c r="AD104" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="119"/>
         <v>8.49</v>
       </c>
       <c r="AE104" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="119"/>
         <v>13</v>
       </c>
     </row>
@@ -11076,69 +11247,69 @@
         <v>0.1</v>
       </c>
       <c r="I105" s="9">
-        <f t="shared" si="102"/>
+        <f t="shared" si="120"/>
         <v>0.45</v>
       </c>
       <c r="J105" s="9">
-        <f t="shared" si="103"/>
+        <f t="shared" si="121"/>
         <v>0.89</v>
       </c>
       <c r="K105" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="122"/>
         <v>1.77</v>
       </c>
       <c r="L105" s="9">
-        <f t="shared" si="105"/>
+        <f t="shared" si="123"/>
         <v>2.65</v>
       </c>
       <c r="M105" s="9">
-        <f t="shared" si="106"/>
+        <f t="shared" si="124"/>
         <v>3.09</v>
       </c>
       <c r="N105" s="9">
-        <f t="shared" si="107"/>
+        <f t="shared" si="125"/>
         <v>6.18</v>
       </c>
       <c r="O105" s="10">
         <v>220</v>
       </c>
       <c r="P105" s="10">
-        <f t="shared" si="109"/>
+        <f t="shared" si="127"/>
         <v>8.9499999999999993</v>
       </c>
       <c r="Q105" s="9">
-        <f t="shared" si="99"/>
+        <f t="shared" si="117"/>
         <v>6.18</v>
       </c>
       <c r="R105" s="10">
-        <f>((P105+Q105)/$P$85)*100</f>
+        <f t="shared" si="116"/>
         <v>68.492530556813037</v>
       </c>
       <c r="Y105" s="9" t="s">
         <v>208</v>
       </c>
       <c r="Z105" s="9">
-        <f t="shared" si="100"/>
+        <f t="shared" si="118"/>
         <v>0.11</v>
       </c>
       <c r="AA105" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="119"/>
         <v>0.83</v>
       </c>
       <c r="AB105" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="119"/>
         <v>2.27</v>
       </c>
       <c r="AC105" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="119"/>
         <v>5.1400000000000006</v>
       </c>
       <c r="AD105" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="119"/>
         <v>9.4400000000000013</v>
       </c>
       <c r="AE105" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="119"/>
         <v>14.450000000000001</v>
       </c>
     </row>
@@ -11150,69 +11321,69 @@
         <v>0.1</v>
       </c>
       <c r="I106" s="9">
-        <f t="shared" si="102"/>
+        <f t="shared" si="120"/>
         <v>0.52</v>
       </c>
       <c r="J106" s="9">
-        <f t="shared" si="103"/>
+        <f t="shared" si="121"/>
         <v>1.03</v>
       </c>
       <c r="K106" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="122"/>
         <v>2.06</v>
       </c>
       <c r="L106" s="9">
-        <f t="shared" si="105"/>
+        <f t="shared" si="123"/>
         <v>3.09</v>
       </c>
       <c r="M106" s="9">
-        <f t="shared" si="106"/>
+        <f t="shared" si="124"/>
         <v>3.6</v>
       </c>
       <c r="N106" s="9">
-        <f t="shared" si="107"/>
+        <f t="shared" si="125"/>
         <v>7.2</v>
       </c>
       <c r="O106" s="10">
         <v>240</v>
       </c>
       <c r="P106" s="10">
-        <f t="shared" si="109"/>
+        <f t="shared" si="127"/>
         <v>10.4</v>
       </c>
       <c r="Q106" s="9">
-        <f t="shared" si="99"/>
+        <f t="shared" si="117"/>
         <v>7.2</v>
       </c>
       <c r="R106" s="10">
-        <f>((P106+Q106)/$P$85)*100</f>
+        <f t="shared" si="116"/>
         <v>79.674060660932554</v>
       </c>
       <c r="Y106" s="9" t="s">
         <v>209</v>
       </c>
       <c r="Z106" s="9">
-        <f t="shared" si="100"/>
+        <f t="shared" si="118"/>
         <v>0.12</v>
       </c>
       <c r="AA106" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="119"/>
         <v>0.97</v>
       </c>
       <c r="AB106" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="119"/>
         <v>2.67</v>
       </c>
       <c r="AC106" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="119"/>
         <v>6.0600000000000005</v>
       </c>
       <c r="AD106" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="119"/>
         <v>11.15</v>
       </c>
       <c r="AE106" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="119"/>
         <v>17.079999999999998</v>
       </c>
     </row>
@@ -11224,69 +11395,69 @@
         <v>0.11</v>
       </c>
       <c r="I107" s="9">
-        <f t="shared" si="102"/>
+        <f t="shared" si="120"/>
         <v>0.6</v>
       </c>
       <c r="J107" s="9">
-        <f t="shared" si="103"/>
+        <f t="shared" si="121"/>
         <v>1.19</v>
       </c>
       <c r="K107" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="122"/>
         <v>2.38</v>
       </c>
       <c r="L107" s="9">
-        <f t="shared" si="105"/>
+        <f t="shared" si="123"/>
         <v>3.57</v>
       </c>
       <c r="M107" s="9">
-        <f t="shared" si="106"/>
+        <f t="shared" si="124"/>
         <v>4.17</v>
       </c>
       <c r="N107" s="9">
-        <f t="shared" si="107"/>
+        <f t="shared" si="125"/>
         <v>8.33</v>
       </c>
       <c r="O107" s="10">
         <v>260</v>
       </c>
       <c r="P107" s="10">
-        <f t="shared" ref="P107:P108" si="110">SUM(H107:M107)</f>
+       